--- a/excel/finished/6高炉/高炉月报表.xlsx
+++ b/excel/finished/6高炉/高炉月报表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\template\6高炉\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="月报表" sheetId="1" r:id="rId1"/>
@@ -20,12 +15,12 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>高炉月报表</t>
   </si>
@@ -162,7 +157,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -172,7 +166,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>O</t>
@@ -184,7 +177,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>H</t>
@@ -194,7 +186,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -206,7 +197,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -216,7 +206,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -224,9 +213,6 @@
   </si>
   <si>
     <t>点名</t>
-  </si>
-  <si>
-    <t>平均</t>
   </si>
   <si>
     <t>BF6_L2M_BatchRate_1d</t>
@@ -250,6 +236,9 @@
     <t>BF6_L2C_BD_HotBlastPress_1d_cur</t>
   </si>
   <si>
+    <t>BF6_L1R_BD_TopPress_1d_avg</t>
+  </si>
+  <si>
     <t>BF6_L2C_BD_Pressdiff_1d_avg</t>
   </si>
   <si>
@@ -259,7 +248,13 @@
     <t>BF6_L2C_BD_PCI_1d_avg</t>
   </si>
   <si>
+    <t>BF6_L1R_BD_CCT_1d_avg</t>
+  </si>
+  <si>
     <t>BF6_L2C_BD_CCT2_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L1R_BD_PCT_1d_avg</t>
   </si>
   <si>
     <t>BF6_L2C_BD_Z_1d_avg</t>
@@ -272,6 +267,9 @@
   </si>
   <si>
     <t>BF6_L2C_BD_K_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L1R_BD_Ek_1d_avg</t>
   </si>
   <si>
     <t>BF6_L2C_BD_BlastVelocityAct_1d_avg</t>
@@ -319,40 +317,34 @@
     <t>BF6_L2C_BD_TE04001_1d_cur</t>
   </si>
   <si>
-    <t>BF6_L1R_BD_TopPress_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L1R_BD_CCT_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L1R_BD_PCT_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L1R_BD_Ek_1d_avg</t>
-  </si>
-  <si>
     <t>BF6_L1R_BD_Q_1d_avg</t>
   </si>
   <si>
+    <t>平均</t>
+  </si>
+  <si>
     <t>version</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="12">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0;_찀"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0;_찀"/>
     <numFmt numFmtId="180" formatCode="0;_�"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.0_ "/>
     <numFmt numFmtId="183" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,53 +355,45 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -417,51 +401,179 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="14"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,12 +594,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -774,12 +1072,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -804,6 +1344,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -823,7 +1380,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -839,11 +1396,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -851,7 +1408,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -871,11 +1428,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -887,23 +1444,44 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,75 +1501,78 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="1"/>
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="_metadata"/>
@@ -1004,7 +1585,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="月報表"/>
@@ -1307,16 +1888,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BO70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="S1" sqref="S1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1326,230 +1907,230 @@
     <col min="4" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="8" customFormat="1" ht="25.5">
-      <c r="A1" s="45" t="s">
+    <row r="1" s="8" customFormat="1" ht="26.25" spans="1:36">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="46" t="e">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="38" t="e">
         <f>[1]_metadata!B1</f>
         <v>#REF!</v>
       </c>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
     </row>
-    <row r="2" spans="1:67" s="8" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="53" t="s">
+    <row r="2" s="8" customFormat="1" ht="19.5" customHeight="1" spans="1:36">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="50" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="50" t="s">
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="55" t="s">
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="55" t="s">
+      <c r="AG2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="55" t="s">
+      <c r="AH2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="55" t="s">
+      <c r="AI2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="57" t="s">
+      <c r="AJ2" s="49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="8" customFormat="1" ht="36">
-      <c r="A3" s="54"/>
-      <c r="B3" s="10" t="s">
+    <row r="3" s="8" customFormat="1" ht="36.75" spans="1:36">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="X3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="34" t="s">
+      <c r="Y3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="34" t="s">
+      <c r="Z3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="34" t="s">
+      <c r="AA3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AB3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AC3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="58"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="50"/>
     </row>
-    <row r="4" spans="1:67" s="8" customFormat="1" ht="48">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="8" customFormat="1" ht="48" spans="1:36">
+      <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>49</v>
@@ -1561,95 +2142,95 @@
         <v>51</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="AI4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="T4" s="1" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>76</v>
-      </c>
     </row>
-    <row r="5" spans="1:67" s="8" customFormat="1" ht="14.25">
-      <c r="A5" s="13">
+    <row r="5" s="8" customFormat="1" ht="14.25" spans="1:36">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="str">
+      <c r="B5" s="19" t="str">
         <f>IF(_tag_month_all!A2="","",_tag_month_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="14" t="str">
+      <c r="C5" s="19" t="str">
         <f>IF(_tag_month_all!B2="","",_tag_month_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="14" t="str">
+      <c r="D5" s="19" t="str">
         <f>IF(_tag_month_all!C2="","",_tag_month_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="14" t="str">
+      <c r="E5" s="19" t="str">
         <f>IF(_tag_month_all!D2="","",_tag_month_all!D2)</f>
         <v/>
       </c>
@@ -1657,7 +2238,7 @@
         <f>IF(_tag_month_all!E2="","",_tag_month_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="15" t="str">
+      <c r="G5" s="20" t="str">
         <f>IF(_tag_month_all!F2="","",_tag_month_all!F2)</f>
         <v/>
       </c>
@@ -1665,11 +2246,11 @@
         <f>IF(_tag_month_all!G2="","",_tag_month_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="14" t="str">
+      <c r="I5" s="19" t="str">
         <f>IF(_tag_month_all!H2="","",_tag_month_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="14" t="str">
+      <c r="J5" s="19" t="str">
         <f>IF(_tag_month_all!I2="","",_tag_month_all!I2)</f>
         <v/>
       </c>
@@ -1677,7 +2258,7 @@
         <f>IF(_tag_month_all!J2="","",_tag_month_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="14" t="str">
+      <c r="L5" s="19" t="str">
         <f>IF(_tag_month_all!K2="","",_tag_month_all!K2)</f>
         <v/>
       </c>
@@ -1685,116 +2266,116 @@
         <f>IF(_tag_month_all!L2="","",_tag_month_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="14" t="str">
+      <c r="N5" s="19" t="str">
         <f>IF(_tag_month_all!M2="","",_tag_month_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="14" t="str">
+      <c r="O5" s="19" t="str">
         <f>IF(_tag_month_all!N2="","",_tag_month_all!N2)</f>
         <v/>
       </c>
-      <c r="P5" s="14" t="str">
+      <c r="P5" s="19" t="str">
         <f>IF(_tag_month_all!O2="","",_tag_month_all!O2)</f>
         <v/>
       </c>
-      <c r="Q5" s="14" t="str">
+      <c r="Q5" s="19" t="str">
         <f>IF(_tag_month_all!P2="","",_tag_month_all!P2)</f>
         <v/>
       </c>
-      <c r="R5" s="14" t="str">
+      <c r="R5" s="19" t="str">
         <f>IF(_tag_month_all!Q2="","",_tag_month_all!Q2)</f>
         <v/>
       </c>
-      <c r="S5" s="14" t="str">
+      <c r="S5" s="19" t="str">
         <f>IF(_tag_month_all!R2="","",_tag_month_all!R2)</f>
         <v/>
       </c>
-      <c r="T5" s="14" t="str">
+      <c r="T5" s="19" t="str">
         <f>IF(_tag_month_all!S2="","",_tag_month_all!S2)</f>
         <v/>
       </c>
-      <c r="U5" s="14" t="str">
+      <c r="U5" s="19" t="str">
         <f>IF(_tag_month_all!T2="","",_tag_month_all!T2)</f>
         <v/>
       </c>
-      <c r="V5" s="14" t="str">
+      <c r="V5" s="19" t="str">
         <f>IF(_tag_month_all!U2="","",_tag_month_all!U2)</f>
         <v/>
       </c>
-      <c r="W5" s="14" t="str">
+      <c r="W5" s="19" t="str">
         <f>IF(_tag_month_all!V2="","",_tag_month_all!V2)</f>
         <v/>
       </c>
-      <c r="X5" s="14" t="str">
+      <c r="X5" s="19" t="str">
         <f>IF(_tag_month_all!W2="","",_tag_month_all!W2)</f>
         <v/>
       </c>
-      <c r="Y5" s="14" t="str">
+      <c r="Y5" s="19" t="str">
         <f>IF(_tag_month_all!X2="","",_tag_month_all!X2)</f>
         <v/>
       </c>
-      <c r="Z5" s="14" t="str">
+      <c r="Z5" s="19" t="str">
         <f>IF(_tag_month_all!Y2="","",_tag_month_all!Y2)</f>
         <v/>
       </c>
-      <c r="AA5" s="14" t="str">
+      <c r="AA5" s="19" t="str">
         <f>IF(_tag_month_all!Z2="","",_tag_month_all!Z2)</f>
         <v/>
       </c>
-      <c r="AB5" s="36" t="str">
+      <c r="AB5" s="47" t="str">
         <f>IF(_tag_month_all!AA2="","",_tag_month_all!AA2)</f>
         <v/>
       </c>
-      <c r="AC5" s="37" t="str">
+      <c r="AC5" s="48" t="str">
         <f>IF(_tag_month_all!AB2="","",_tag_month_all!AB2)</f>
         <v/>
       </c>
-      <c r="AD5" s="37" t="str">
+      <c r="AD5" s="48" t="str">
         <f>IF(_tag_month_all!AC2="","",_tag_month_all!AC2)</f>
         <v/>
       </c>
-      <c r="AE5" s="37" t="str">
+      <c r="AE5" s="48" t="str">
         <f>IF(_tag_month_all!AD2="","",_tag_month_all!AD2)</f>
         <v/>
       </c>
-      <c r="AF5" s="14" t="str">
+      <c r="AF5" s="19" t="str">
         <f>IF(_tag_month_all!AE2="","",_tag_month_all!AE2)</f>
         <v/>
       </c>
-      <c r="AG5" s="14" t="str">
+      <c r="AG5" s="19" t="str">
         <f>IF(_tag_month_all!AF2="","",_tag_month_all!AF2)</f>
         <v/>
       </c>
-      <c r="AH5" s="14" t="str">
+      <c r="AH5" s="19" t="str">
         <f>IF(_tag_month_all!AG2="","",_tag_month_all!AG2)</f>
         <v/>
       </c>
-      <c r="AI5" s="14" t="str">
+      <c r="AI5" s="19" t="str">
         <f>IF(_tag_month_all!AH2="","",_tag_month_all!AH2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="38" t="str">
+      <c r="AJ5" s="51" t="str">
         <f>IF(_tag_month_all!AI2="","",_tag_month_all!AI2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:67" s="8" customFormat="1" ht="14.25">
-      <c r="A6" s="13">
+    <row r="6" s="8" customFormat="1" ht="14.25" spans="1:36">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="str">
+      <c r="B6" s="19" t="str">
         <f>IF(_tag_month_all!A3="","",_tag_month_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="19" t="str">
         <f>IF(_tag_month_all!B3="","",_tag_month_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="14" t="str">
+      <c r="D6" s="19" t="str">
         <f>IF(_tag_month_all!C3="","",_tag_month_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="14" t="str">
+      <c r="E6" s="19" t="str">
         <f>IF(_tag_month_all!D3="","",_tag_month_all!D3)</f>
         <v/>
       </c>
@@ -1802,7 +2383,7 @@
         <f>IF(_tag_month_all!E3="","",_tag_month_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="15" t="str">
+      <c r="G6" s="20" t="str">
         <f>IF(_tag_month_all!F3="","",_tag_month_all!F3)</f>
         <v/>
       </c>
@@ -1810,11 +2391,11 @@
         <f>IF(_tag_month_all!G3="","",_tag_month_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="14" t="str">
+      <c r="I6" s="19" t="str">
         <f>IF(_tag_month_all!H3="","",_tag_month_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="14" t="str">
+      <c r="J6" s="19" t="str">
         <f>IF(_tag_month_all!I3="","",_tag_month_all!I3)</f>
         <v/>
       </c>
@@ -1822,7 +2403,7 @@
         <f>IF(_tag_month_all!J3="","",_tag_month_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="14" t="str">
+      <c r="L6" s="19" t="str">
         <f>IF(_tag_month_all!K3="","",_tag_month_all!K3)</f>
         <v/>
       </c>
@@ -1830,240 +2411,240 @@
         <f>IF(_tag_month_all!L3="","",_tag_month_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="14" t="str">
+      <c r="N6" s="19" t="str">
         <f>IF(_tag_month_all!M3="","",_tag_month_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="14" t="str">
+      <c r="O6" s="19" t="str">
         <f>IF(_tag_month_all!N3="","",_tag_month_all!N3)</f>
         <v/>
       </c>
-      <c r="P6" s="14" t="str">
+      <c r="P6" s="19" t="str">
         <f>IF(_tag_month_all!O3="","",_tag_month_all!O3)</f>
         <v/>
       </c>
-      <c r="Q6" s="14" t="str">
+      <c r="Q6" s="19" t="str">
         <f>IF(_tag_month_all!P3="","",_tag_month_all!P3)</f>
         <v/>
       </c>
-      <c r="R6" s="14" t="str">
+      <c r="R6" s="19" t="str">
         <f>IF(_tag_month_all!Q3="","",_tag_month_all!Q3)</f>
         <v/>
       </c>
-      <c r="S6" s="14" t="str">
+      <c r="S6" s="19" t="str">
         <f>IF(_tag_month_all!R3="","",_tag_month_all!R3)</f>
         <v/>
       </c>
-      <c r="T6" s="14" t="str">
+      <c r="T6" s="19" t="str">
         <f>IF(_tag_month_all!S3="","",_tag_month_all!S3)</f>
         <v/>
       </c>
-      <c r="U6" s="14" t="str">
+      <c r="U6" s="19" t="str">
         <f>IF(_tag_month_all!T3="","",_tag_month_all!T3)</f>
         <v/>
       </c>
-      <c r="V6" s="14" t="str">
+      <c r="V6" s="19" t="str">
         <f>IF(_tag_month_all!U3="","",_tag_month_all!U3)</f>
         <v/>
       </c>
-      <c r="W6" s="14" t="str">
+      <c r="W6" s="19" t="str">
         <f>IF(_tag_month_all!V3="","",_tag_month_all!V3)</f>
         <v/>
       </c>
-      <c r="X6" s="14" t="str">
+      <c r="X6" s="19" t="str">
         <f>IF(_tag_month_all!W3="","",_tag_month_all!W3)</f>
         <v/>
       </c>
-      <c r="Y6" s="14" t="str">
+      <c r="Y6" s="19" t="str">
         <f>IF(_tag_month_all!X3="","",_tag_month_all!X3)</f>
         <v/>
       </c>
-      <c r="Z6" s="14" t="str">
+      <c r="Z6" s="19" t="str">
         <f>IF(_tag_month_all!Y3="","",_tag_month_all!Y3)</f>
         <v/>
       </c>
-      <c r="AA6" s="14" t="str">
+      <c r="AA6" s="19" t="str">
         <f>IF(_tag_month_all!Z3="","",_tag_month_all!Z3)</f>
         <v/>
       </c>
-      <c r="AB6" s="36" t="str">
+      <c r="AB6" s="47" t="str">
         <f>IF(_tag_month_all!AA3="","",_tag_month_all!AA3)</f>
         <v/>
       </c>
-      <c r="AC6" s="37" t="str">
+      <c r="AC6" s="48" t="str">
         <f>IF(_tag_month_all!AB3="","",_tag_month_all!AB3)</f>
         <v/>
       </c>
-      <c r="AD6" s="37" t="str">
+      <c r="AD6" s="48" t="str">
         <f>IF(_tag_month_all!AC3="","",_tag_month_all!AC3)</f>
         <v/>
       </c>
-      <c r="AE6" s="37" t="str">
+      <c r="AE6" s="48" t="str">
         <f>IF(_tag_month_all!AD3="","",_tag_month_all!AD3)</f>
         <v/>
       </c>
-      <c r="AF6" s="14" t="str">
+      <c r="AF6" s="19" t="str">
         <f>IF(_tag_month_all!AE3="","",_tag_month_all!AE3)</f>
         <v/>
       </c>
-      <c r="AG6" s="14" t="str">
+      <c r="AG6" s="19" t="str">
         <f>IF(_tag_month_all!AF3="","",_tag_month_all!AF3)</f>
         <v/>
       </c>
-      <c r="AH6" s="14" t="str">
+      <c r="AH6" s="19" t="str">
         <f>IF(_tag_month_all!AG3="","",_tag_month_all!AG3)</f>
         <v/>
       </c>
-      <c r="AI6" s="14" t="str">
+      <c r="AI6" s="19" t="str">
         <f>IF(_tag_month_all!AH3="","",_tag_month_all!AH3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="38" t="str">
+      <c r="AJ6" s="51" t="str">
         <f>IF(_tag_month_all!AI3="","",_tag_month_all!AI3)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:67" ht="14.25">
-      <c r="A7" s="13">
+    <row r="7" ht="14.25" spans="1:67">
+      <c r="A7" s="18">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="str">
+      <c r="B7" s="21" t="str">
         <f>IF(_tag_month_all!A4="","",_tag_month_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="16" t="str">
+      <c r="C7" s="21" t="str">
         <f>IF(_tag_month_all!B4="","",_tag_month_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="22" t="str">
         <f>IF(_tag_month_all!C4="","",_tag_month_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="18" t="str">
+      <c r="E7" s="23" t="str">
         <f>IF(_tag_month_all!D4="","",_tag_month_all!D4)</f>
         <v/>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="24" t="str">
         <f>IF(_tag_month_all!E4="","",_tag_month_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="20" t="str">
+      <c r="G7" s="25" t="str">
         <f>IF(_tag_month_all!F4="","",_tag_month_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="21" t="str">
+      <c r="H7" s="26" t="str">
         <f>IF(_tag_month_all!G4="","",_tag_month_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="18" t="str">
+      <c r="I7" s="23" t="str">
         <f>IF(_tag_month_all!H4="","",_tag_month_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="18" t="str">
+      <c r="J7" s="23" t="str">
         <f>IF(_tag_month_all!I4="","",_tag_month_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="27" t="str">
+      <c r="K7" s="32" t="str">
         <f>IF(_tag_month_all!J4="","",_tag_month_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="18" t="str">
+      <c r="L7" s="23" t="str">
         <f>IF(_tag_month_all!K4="","",_tag_month_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="28" t="str">
+      <c r="M7" s="33" t="str">
         <f>IF(_tag_month_all!L4="","",_tag_month_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="29" t="str">
+      <c r="N7" s="34" t="str">
         <f>IF(_tag_month_all!M4="","",_tag_month_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="30" t="str">
+      <c r="O7" s="35" t="str">
         <f>IF(_tag_month_all!N4="","",_tag_month_all!N4)</f>
         <v/>
       </c>
-      <c r="P7" s="30" t="str">
+      <c r="P7" s="35" t="str">
         <f>IF(_tag_month_all!O4="","",_tag_month_all!O4)</f>
         <v/>
       </c>
-      <c r="Q7" s="30" t="str">
+      <c r="Q7" s="35" t="str">
         <f>IF(_tag_month_all!P4="","",_tag_month_all!P4)</f>
         <v/>
       </c>
-      <c r="R7" s="35" t="str">
+      <c r="R7" s="43" t="str">
         <f>IF(_tag_month_all!Q4="","",_tag_month_all!Q4)</f>
         <v/>
       </c>
-      <c r="S7" s="35" t="str">
+      <c r="S7" s="43" t="str">
         <f>IF(_tag_month_all!R4="","",_tag_month_all!R4)</f>
         <v/>
       </c>
-      <c r="T7" s="35" t="str">
+      <c r="T7" s="43" t="str">
         <f>IF(_tag_month_all!S4="","",_tag_month_all!S4)</f>
         <v/>
       </c>
-      <c r="U7" s="35" t="str">
+      <c r="U7" s="43" t="str">
         <f>IF(_tag_month_all!T4="","",_tag_month_all!T4)</f>
         <v/>
       </c>
-      <c r="V7" s="29" t="str">
+      <c r="V7" s="34" t="str">
         <f>IF(_tag_month_all!U4="","",_tag_month_all!U4)</f>
         <v/>
       </c>
-      <c r="W7" s="30" t="str">
+      <c r="W7" s="35" t="str">
         <f>IF(_tag_month_all!V4="","",_tag_month_all!V4)</f>
         <v/>
       </c>
-      <c r="X7" s="30" t="str">
+      <c r="X7" s="35" t="str">
         <f>IF(_tag_month_all!W4="","",_tag_month_all!W4)</f>
         <v/>
       </c>
-      <c r="Y7" s="30" t="str">
+      <c r="Y7" s="35" t="str">
         <f>IF(_tag_month_all!X4="","",_tag_month_all!X4)</f>
         <v/>
       </c>
-      <c r="Z7" s="30" t="str">
+      <c r="Z7" s="35" t="str">
         <f>IF(_tag_month_all!Y4="","",_tag_month_all!Y4)</f>
         <v/>
       </c>
-      <c r="AA7" s="30" t="str">
+      <c r="AA7" s="35" t="str">
         <f>IF(_tag_month_all!Z4="","",_tag_month_all!Z4)</f>
         <v/>
       </c>
-      <c r="AB7" s="30" t="str">
+      <c r="AB7" s="35" t="str">
         <f>IF(_tag_month_all!AA4="","",_tag_month_all!AA4)</f>
         <v/>
       </c>
-      <c r="AC7" s="30" t="str">
+      <c r="AC7" s="35" t="str">
         <f>IF(_tag_month_all!AB4="","",_tag_month_all!AB4)</f>
         <v/>
       </c>
-      <c r="AD7" s="17" t="str">
+      <c r="AD7" s="22" t="str">
         <f>IF(_tag_month_all!AC4="","",_tag_month_all!AC4)</f>
         <v/>
       </c>
-      <c r="AE7" s="17" t="str">
+      <c r="AE7" s="22" t="str">
         <f>IF(_tag_month_all!AD4="","",_tag_month_all!AD4)</f>
         <v/>
       </c>
-      <c r="AF7" s="17" t="str">
+      <c r="AF7" s="22" t="str">
         <f>IF(_tag_month_all!AE4="","",_tag_month_all!AE4)</f>
         <v/>
       </c>
-      <c r="AG7" s="17" t="str">
+      <c r="AG7" s="22" t="str">
         <f>IF(_tag_month_all!AF4="","",_tag_month_all!AF4)</f>
         <v/>
       </c>
-      <c r="AH7" s="29" t="str">
+      <c r="AH7" s="34" t="str">
         <f>IF(_tag_month_all!AG4="","",_tag_month_all!AG4)</f>
         <v/>
       </c>
-      <c r="AI7" s="29" t="str">
+      <c r="AI7" s="34" t="str">
         <f>IF(_tag_month_all!AH4="","",_tag_month_all!AH4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="38" t="str">
+      <c r="AJ7" s="51" t="str">
         <f>IF(_tag_month_all!AI4="","",_tag_month_all!AI4)</f>
         <v/>
       </c>
@@ -2099,147 +2680,147 @@
       <c r="BN7" s="8"/>
       <c r="BO7" s="8"/>
     </row>
-    <row r="8" spans="1:67" ht="14.25">
-      <c r="A8" s="13">
+    <row r="8" ht="14.25" spans="1:67">
+      <c r="A8" s="18">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="str">
+      <c r="B8" s="21" t="str">
         <f>IF(_tag_month_all!A5="","",_tag_month_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="21" t="str">
         <f>IF(_tag_month_all!B5="","",_tag_month_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="17" t="str">
+      <c r="D8" s="22" t="str">
         <f>IF(_tag_month_all!C5="","",_tag_month_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="18" t="str">
+      <c r="E8" s="23" t="str">
         <f>IF(_tag_month_all!D5="","",_tag_month_all!D5)</f>
         <v/>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="24" t="str">
         <f>IF(_tag_month_all!E5="","",_tag_month_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="25" t="str">
         <f>IF(_tag_month_all!F5="","",_tag_month_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="26" t="str">
         <f>IF(_tag_month_all!G5="","",_tag_month_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="18" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_tag_month_all!H5="","",_tag_month_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="18" t="str">
+      <c r="J8" s="23" t="str">
         <f>IF(_tag_month_all!I5="","",_tag_month_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="27" t="str">
+      <c r="K8" s="32" t="str">
         <f>IF(_tag_month_all!J5="","",_tag_month_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="18" t="str">
+      <c r="L8" s="23" t="str">
         <f>IF(_tag_month_all!K5="","",_tag_month_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="28" t="str">
+      <c r="M8" s="33" t="str">
         <f>IF(_tag_month_all!L5="","",_tag_month_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="29" t="str">
+      <c r="N8" s="34" t="str">
         <f>IF(_tag_month_all!M5="","",_tag_month_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="30" t="str">
+      <c r="O8" s="35" t="str">
         <f>IF(_tag_month_all!N5="","",_tag_month_all!N5)</f>
         <v/>
       </c>
-      <c r="P8" s="30" t="str">
+      <c r="P8" s="35" t="str">
         <f>IF(_tag_month_all!O5="","",_tag_month_all!O5)</f>
         <v/>
       </c>
-      <c r="Q8" s="30" t="str">
+      <c r="Q8" s="35" t="str">
         <f>IF(_tag_month_all!P5="","",_tag_month_all!P5)</f>
         <v/>
       </c>
-      <c r="R8" s="35" t="str">
+      <c r="R8" s="43" t="str">
         <f>IF(_tag_month_all!Q5="","",_tag_month_all!Q5)</f>
         <v/>
       </c>
-      <c r="S8" s="35" t="str">
+      <c r="S8" s="43" t="str">
         <f>IF(_tag_month_all!R5="","",_tag_month_all!R5)</f>
         <v/>
       </c>
-      <c r="T8" s="35" t="str">
+      <c r="T8" s="43" t="str">
         <f>IF(_tag_month_all!S5="","",_tag_month_all!S5)</f>
         <v/>
       </c>
-      <c r="U8" s="35" t="str">
+      <c r="U8" s="43" t="str">
         <f>IF(_tag_month_all!T5="","",_tag_month_all!T5)</f>
         <v/>
       </c>
-      <c r="V8" s="29" t="str">
+      <c r="V8" s="34" t="str">
         <f>IF(_tag_month_all!U5="","",_tag_month_all!U5)</f>
         <v/>
       </c>
-      <c r="W8" s="30" t="str">
+      <c r="W8" s="35" t="str">
         <f>IF(_tag_month_all!V5="","",_tag_month_all!V5)</f>
         <v/>
       </c>
-      <c r="X8" s="30" t="str">
+      <c r="X8" s="35" t="str">
         <f>IF(_tag_month_all!W5="","",_tag_month_all!W5)</f>
         <v/>
       </c>
-      <c r="Y8" s="30" t="str">
+      <c r="Y8" s="35" t="str">
         <f>IF(_tag_month_all!X5="","",_tag_month_all!X5)</f>
         <v/>
       </c>
-      <c r="Z8" s="30" t="str">
+      <c r="Z8" s="35" t="str">
         <f>IF(_tag_month_all!Y5="","",_tag_month_all!Y5)</f>
         <v/>
       </c>
-      <c r="AA8" s="30" t="str">
+      <c r="AA8" s="35" t="str">
         <f>IF(_tag_month_all!Z5="","",_tag_month_all!Z5)</f>
         <v/>
       </c>
-      <c r="AB8" s="30" t="str">
+      <c r="AB8" s="35" t="str">
         <f>IF(_tag_month_all!AA5="","",_tag_month_all!AA5)</f>
         <v/>
       </c>
-      <c r="AC8" s="30" t="str">
+      <c r="AC8" s="35" t="str">
         <f>IF(_tag_month_all!AB5="","",_tag_month_all!AB5)</f>
         <v/>
       </c>
-      <c r="AD8" s="17" t="str">
+      <c r="AD8" s="22" t="str">
         <f>IF(_tag_month_all!AC5="","",_tag_month_all!AC5)</f>
         <v/>
       </c>
-      <c r="AE8" s="17" t="str">
+      <c r="AE8" s="22" t="str">
         <f>IF(_tag_month_all!AD5="","",_tag_month_all!AD5)</f>
         <v/>
       </c>
-      <c r="AF8" s="17" t="str">
+      <c r="AF8" s="22" t="str">
         <f>IF(_tag_month_all!AE5="","",_tag_month_all!AE5)</f>
         <v/>
       </c>
-      <c r="AG8" s="17" t="str">
+      <c r="AG8" s="22" t="str">
         <f>IF(_tag_month_all!AF5="","",_tag_month_all!AF5)</f>
         <v/>
       </c>
-      <c r="AH8" s="29" t="str">
+      <c r="AH8" s="34" t="str">
         <f>IF(_tag_month_all!AG5="","",_tag_month_all!AG5)</f>
         <v/>
       </c>
-      <c r="AI8" s="29" t="str">
+      <c r="AI8" s="34" t="str">
         <f>IF(_tag_month_all!AH5="","",_tag_month_all!AH5)</f>
         <v/>
       </c>
-      <c r="AJ8" s="38" t="str">
+      <c r="AJ8" s="51" t="str">
         <f>IF(_tag_month_all!AI5="","",_tag_month_all!AI5)</f>
         <v/>
       </c>
@@ -2275,147 +2856,147 @@
       <c r="BN8" s="8"/>
       <c r="BO8" s="8"/>
     </row>
-    <row r="9" spans="1:67" ht="14.25">
-      <c r="A9" s="13">
+    <row r="9" ht="14.25" spans="1:67">
+      <c r="A9" s="18">
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="str">
+      <c r="B9" s="21" t="str">
         <f>IF(_tag_month_all!A6="","",_tag_month_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="16" t="str">
+      <c r="C9" s="21" t="str">
         <f>IF(_tag_month_all!B6="","",_tag_month_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="22" t="str">
         <f>IF(_tag_month_all!C6="","",_tag_month_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="18" t="str">
+      <c r="E9" s="23" t="str">
         <f>IF(_tag_month_all!D6="","",_tag_month_all!D6)</f>
         <v/>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="24" t="str">
         <f>IF(_tag_month_all!E6="","",_tag_month_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="25" t="str">
         <f>IF(_tag_month_all!F6="","",_tag_month_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="26" t="str">
         <f>IF(_tag_month_all!G6="","",_tag_month_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="18" t="str">
+      <c r="I9" s="23" t="str">
         <f>IF(_tag_month_all!H6="","",_tag_month_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="18" t="str">
+      <c r="J9" s="23" t="str">
         <f>IF(_tag_month_all!I6="","",_tag_month_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="27" t="str">
+      <c r="K9" s="32" t="str">
         <f>IF(_tag_month_all!J6="","",_tag_month_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="18" t="str">
+      <c r="L9" s="23" t="str">
         <f>IF(_tag_month_all!K6="","",_tag_month_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="28" t="str">
+      <c r="M9" s="33" t="str">
         <f>IF(_tag_month_all!L6="","",_tag_month_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="29" t="str">
+      <c r="N9" s="34" t="str">
         <f>IF(_tag_month_all!M6="","",_tag_month_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="30" t="str">
+      <c r="O9" s="35" t="str">
         <f>IF(_tag_month_all!N6="","",_tag_month_all!N6)</f>
         <v/>
       </c>
-      <c r="P9" s="30" t="str">
+      <c r="P9" s="35" t="str">
         <f>IF(_tag_month_all!O6="","",_tag_month_all!O6)</f>
         <v/>
       </c>
-      <c r="Q9" s="30" t="str">
+      <c r="Q9" s="35" t="str">
         <f>IF(_tag_month_all!P6="","",_tag_month_all!P6)</f>
         <v/>
       </c>
-      <c r="R9" s="35" t="str">
+      <c r="R9" s="43" t="str">
         <f>IF(_tag_month_all!Q6="","",_tag_month_all!Q6)</f>
         <v/>
       </c>
-      <c r="S9" s="35" t="str">
+      <c r="S9" s="43" t="str">
         <f>IF(_tag_month_all!R6="","",_tag_month_all!R6)</f>
         <v/>
       </c>
-      <c r="T9" s="35" t="str">
+      <c r="T9" s="43" t="str">
         <f>IF(_tag_month_all!S6="","",_tag_month_all!S6)</f>
         <v/>
       </c>
-      <c r="U9" s="35" t="str">
+      <c r="U9" s="43" t="str">
         <f>IF(_tag_month_all!T6="","",_tag_month_all!T6)</f>
         <v/>
       </c>
-      <c r="V9" s="29" t="str">
+      <c r="V9" s="34" t="str">
         <f>IF(_tag_month_all!U6="","",_tag_month_all!U6)</f>
         <v/>
       </c>
-      <c r="W9" s="30" t="str">
+      <c r="W9" s="35" t="str">
         <f>IF(_tag_month_all!V6="","",_tag_month_all!V6)</f>
         <v/>
       </c>
-      <c r="X9" s="30" t="str">
+      <c r="X9" s="35" t="str">
         <f>IF(_tag_month_all!W6="","",_tag_month_all!W6)</f>
         <v/>
       </c>
-      <c r="Y9" s="30" t="str">
+      <c r="Y9" s="35" t="str">
         <f>IF(_tag_month_all!X6="","",_tag_month_all!X6)</f>
         <v/>
       </c>
-      <c r="Z9" s="30" t="str">
+      <c r="Z9" s="35" t="str">
         <f>IF(_tag_month_all!Y6="","",_tag_month_all!Y6)</f>
         <v/>
       </c>
-      <c r="AA9" s="30" t="str">
+      <c r="AA9" s="35" t="str">
         <f>IF(_tag_month_all!Z6="","",_tag_month_all!Z6)</f>
         <v/>
       </c>
-      <c r="AB9" s="30" t="str">
+      <c r="AB9" s="35" t="str">
         <f>IF(_tag_month_all!AA6="","",_tag_month_all!AA6)</f>
         <v/>
       </c>
-      <c r="AC9" s="30" t="str">
+      <c r="AC9" s="35" t="str">
         <f>IF(_tag_month_all!AB6="","",_tag_month_all!AB6)</f>
         <v/>
       </c>
-      <c r="AD9" s="17" t="str">
+      <c r="AD9" s="22" t="str">
         <f>IF(_tag_month_all!AC6="","",_tag_month_all!AC6)</f>
         <v/>
       </c>
-      <c r="AE9" s="17" t="str">
+      <c r="AE9" s="22" t="str">
         <f>IF(_tag_month_all!AD6="","",_tag_month_all!AD6)</f>
         <v/>
       </c>
-      <c r="AF9" s="17" t="str">
+      <c r="AF9" s="22" t="str">
         <f>IF(_tag_month_all!AE6="","",_tag_month_all!AE6)</f>
         <v/>
       </c>
-      <c r="AG9" s="17" t="str">
+      <c r="AG9" s="22" t="str">
         <f>IF(_tag_month_all!AF6="","",_tag_month_all!AF6)</f>
         <v/>
       </c>
-      <c r="AH9" s="29" t="str">
+      <c r="AH9" s="34" t="str">
         <f>IF(_tag_month_all!AG6="","",_tag_month_all!AG6)</f>
         <v/>
       </c>
-      <c r="AI9" s="29" t="str">
+      <c r="AI9" s="34" t="str">
         <f>IF(_tag_month_all!AH6="","",_tag_month_all!AH6)</f>
         <v/>
       </c>
-      <c r="AJ9" s="38" t="str">
+      <c r="AJ9" s="51" t="str">
         <f>IF(_tag_month_all!AI6="","",_tag_month_all!AI6)</f>
         <v/>
       </c>
@@ -2451,147 +3032,147 @@
       <c r="BN9" s="8"/>
       <c r="BO9" s="8"/>
     </row>
-    <row r="10" spans="1:67" ht="14.25">
-      <c r="A10" s="13">
+    <row r="10" ht="14.25" spans="1:67">
+      <c r="A10" s="18">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="str">
+      <c r="B10" s="21" t="str">
         <f>IF(_tag_month_all!A7="","",_tag_month_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" s="21" t="str">
         <f>IF(_tag_month_all!B7="","",_tag_month_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="22" t="str">
         <f>IF(_tag_month_all!C7="","",_tag_month_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="18" t="str">
+      <c r="E10" s="23" t="str">
         <f>IF(_tag_month_all!D7="","",_tag_month_all!D7)</f>
         <v/>
       </c>
-      <c r="F10" s="19" t="str">
+      <c r="F10" s="24" t="str">
         <f>IF(_tag_month_all!E7="","",_tag_month_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="20" t="str">
+      <c r="G10" s="25" t="str">
         <f>IF(_tag_month_all!F7="","",_tag_month_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="21" t="str">
+      <c r="H10" s="26" t="str">
         <f>IF(_tag_month_all!G7="","",_tag_month_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="18" t="str">
+      <c r="I10" s="23" t="str">
         <f>IF(_tag_month_all!H7="","",_tag_month_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="18" t="str">
+      <c r="J10" s="23" t="str">
         <f>IF(_tag_month_all!I7="","",_tag_month_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="27" t="str">
+      <c r="K10" s="32" t="str">
         <f>IF(_tag_month_all!J7="","",_tag_month_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="18" t="str">
+      <c r="L10" s="23" t="str">
         <f>IF(_tag_month_all!K7="","",_tag_month_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="28" t="str">
+      <c r="M10" s="33" t="str">
         <f>IF(_tag_month_all!L7="","",_tag_month_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="29" t="str">
+      <c r="N10" s="34" t="str">
         <f>IF(_tag_month_all!M7="","",_tag_month_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="30" t="str">
+      <c r="O10" s="35" t="str">
         <f>IF(_tag_month_all!N7="","",_tag_month_all!N7)</f>
         <v/>
       </c>
-      <c r="P10" s="30" t="str">
+      <c r="P10" s="35" t="str">
         <f>IF(_tag_month_all!O7="","",_tag_month_all!O7)</f>
         <v/>
       </c>
-      <c r="Q10" s="30" t="str">
+      <c r="Q10" s="35" t="str">
         <f>IF(_tag_month_all!P7="","",_tag_month_all!P7)</f>
         <v/>
       </c>
-      <c r="R10" s="35" t="str">
+      <c r="R10" s="43" t="str">
         <f>IF(_tag_month_all!Q7="","",_tag_month_all!Q7)</f>
         <v/>
       </c>
-      <c r="S10" s="35" t="str">
+      <c r="S10" s="43" t="str">
         <f>IF(_tag_month_all!R7="","",_tag_month_all!R7)</f>
         <v/>
       </c>
-      <c r="T10" s="35" t="str">
+      <c r="T10" s="43" t="str">
         <f>IF(_tag_month_all!S7="","",_tag_month_all!S7)</f>
         <v/>
       </c>
-      <c r="U10" s="35" t="str">
+      <c r="U10" s="43" t="str">
         <f>IF(_tag_month_all!T7="","",_tag_month_all!T7)</f>
         <v/>
       </c>
-      <c r="V10" s="29" t="str">
+      <c r="V10" s="34" t="str">
         <f>IF(_tag_month_all!U7="","",_tag_month_all!U7)</f>
         <v/>
       </c>
-      <c r="W10" s="30" t="str">
+      <c r="W10" s="35" t="str">
         <f>IF(_tag_month_all!V7="","",_tag_month_all!V7)</f>
         <v/>
       </c>
-      <c r="X10" s="30" t="str">
+      <c r="X10" s="35" t="str">
         <f>IF(_tag_month_all!W7="","",_tag_month_all!W7)</f>
         <v/>
       </c>
-      <c r="Y10" s="30" t="str">
+      <c r="Y10" s="35" t="str">
         <f>IF(_tag_month_all!X7="","",_tag_month_all!X7)</f>
         <v/>
       </c>
-      <c r="Z10" s="30" t="str">
+      <c r="Z10" s="35" t="str">
         <f>IF(_tag_month_all!Y7="","",_tag_month_all!Y7)</f>
         <v/>
       </c>
-      <c r="AA10" s="30" t="str">
+      <c r="AA10" s="35" t="str">
         <f>IF(_tag_month_all!Z7="","",_tag_month_all!Z7)</f>
         <v/>
       </c>
-      <c r="AB10" s="30" t="str">
+      <c r="AB10" s="35" t="str">
         <f>IF(_tag_month_all!AA7="","",_tag_month_all!AA7)</f>
         <v/>
       </c>
-      <c r="AC10" s="30" t="str">
+      <c r="AC10" s="35" t="str">
         <f>IF(_tag_month_all!AB7="","",_tag_month_all!AB7)</f>
         <v/>
       </c>
-      <c r="AD10" s="17" t="str">
+      <c r="AD10" s="22" t="str">
         <f>IF(_tag_month_all!AC7="","",_tag_month_all!AC7)</f>
         <v/>
       </c>
-      <c r="AE10" s="17" t="str">
+      <c r="AE10" s="22" t="str">
         <f>IF(_tag_month_all!AD7="","",_tag_month_all!AD7)</f>
         <v/>
       </c>
-      <c r="AF10" s="17" t="str">
+      <c r="AF10" s="22" t="str">
         <f>IF(_tag_month_all!AE7="","",_tag_month_all!AE7)</f>
         <v/>
       </c>
-      <c r="AG10" s="17" t="str">
+      <c r="AG10" s="22" t="str">
         <f>IF(_tag_month_all!AF7="","",_tag_month_all!AF7)</f>
         <v/>
       </c>
-      <c r="AH10" s="29" t="str">
+      <c r="AH10" s="34" t="str">
         <f>IF(_tag_month_all!AG7="","",_tag_month_all!AG7)</f>
         <v/>
       </c>
-      <c r="AI10" s="29" t="str">
+      <c r="AI10" s="34" t="str">
         <f>IF(_tag_month_all!AH7="","",_tag_month_all!AH7)</f>
         <v/>
       </c>
-      <c r="AJ10" s="38" t="str">
+      <c r="AJ10" s="51" t="str">
         <f>IF(_tag_month_all!AI7="","",_tag_month_all!AI7)</f>
         <v/>
       </c>
@@ -2627,147 +3208,147 @@
       <c r="BN10" s="8"/>
       <c r="BO10" s="8"/>
     </row>
-    <row r="11" spans="1:67" ht="14.25">
-      <c r="A11" s="13">
+    <row r="11" ht="14.25" spans="1:67">
+      <c r="A11" s="18">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="str">
+      <c r="B11" s="21" t="str">
         <f>IF(_tag_month_all!A8="","",_tag_month_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="21" t="str">
         <f>IF(_tag_month_all!B8="","",_tag_month_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="22" t="str">
         <f>IF(_tag_month_all!C8="","",_tag_month_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="18" t="str">
+      <c r="E11" s="23" t="str">
         <f>IF(_tag_month_all!D8="","",_tag_month_all!D8)</f>
         <v/>
       </c>
-      <c r="F11" s="19" t="str">
+      <c r="F11" s="24" t="str">
         <f>IF(_tag_month_all!E8="","",_tag_month_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="20" t="str">
+      <c r="G11" s="25" t="str">
         <f>IF(_tag_month_all!F8="","",_tag_month_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="21" t="str">
+      <c r="H11" s="26" t="str">
         <f>IF(_tag_month_all!G8="","",_tag_month_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="18" t="str">
+      <c r="I11" s="23" t="str">
         <f>IF(_tag_month_all!H8="","",_tag_month_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="18" t="str">
+      <c r="J11" s="23" t="str">
         <f>IF(_tag_month_all!I8="","",_tag_month_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="27" t="str">
+      <c r="K11" s="32" t="str">
         <f>IF(_tag_month_all!J8="","",_tag_month_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="18" t="str">
+      <c r="L11" s="23" t="str">
         <f>IF(_tag_month_all!K8="","",_tag_month_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="28" t="str">
+      <c r="M11" s="33" t="str">
         <f>IF(_tag_month_all!L8="","",_tag_month_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="29" t="str">
+      <c r="N11" s="34" t="str">
         <f>IF(_tag_month_all!M8="","",_tag_month_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="30" t="str">
+      <c r="O11" s="35" t="str">
         <f>IF(_tag_month_all!N8="","",_tag_month_all!N8)</f>
         <v/>
       </c>
-      <c r="P11" s="30" t="str">
+      <c r="P11" s="35" t="str">
         <f>IF(_tag_month_all!O8="","",_tag_month_all!O8)</f>
         <v/>
       </c>
-      <c r="Q11" s="30" t="str">
+      <c r="Q11" s="35" t="str">
         <f>IF(_tag_month_all!P8="","",_tag_month_all!P8)</f>
         <v/>
       </c>
-      <c r="R11" s="35" t="str">
+      <c r="R11" s="43" t="str">
         <f>IF(_tag_month_all!Q8="","",_tag_month_all!Q8)</f>
         <v/>
       </c>
-      <c r="S11" s="35" t="str">
+      <c r="S11" s="43" t="str">
         <f>IF(_tag_month_all!R8="","",_tag_month_all!R8)</f>
         <v/>
       </c>
-      <c r="T11" s="35" t="str">
+      <c r="T11" s="43" t="str">
         <f>IF(_tag_month_all!S8="","",_tag_month_all!S8)</f>
         <v/>
       </c>
-      <c r="U11" s="35" t="str">
+      <c r="U11" s="43" t="str">
         <f>IF(_tag_month_all!T8="","",_tag_month_all!T8)</f>
         <v/>
       </c>
-      <c r="V11" s="29" t="str">
+      <c r="V11" s="34" t="str">
         <f>IF(_tag_month_all!U8="","",_tag_month_all!U8)</f>
         <v/>
       </c>
-      <c r="W11" s="30" t="str">
+      <c r="W11" s="35" t="str">
         <f>IF(_tag_month_all!V8="","",_tag_month_all!V8)</f>
         <v/>
       </c>
-      <c r="X11" s="30" t="str">
+      <c r="X11" s="35" t="str">
         <f>IF(_tag_month_all!W8="","",_tag_month_all!W8)</f>
         <v/>
       </c>
-      <c r="Y11" s="30" t="str">
+      <c r="Y11" s="35" t="str">
         <f>IF(_tag_month_all!X8="","",_tag_month_all!X8)</f>
         <v/>
       </c>
-      <c r="Z11" s="30" t="str">
+      <c r="Z11" s="35" t="str">
         <f>IF(_tag_month_all!Y8="","",_tag_month_all!Y8)</f>
         <v/>
       </c>
-      <c r="AA11" s="30" t="str">
+      <c r="AA11" s="35" t="str">
         <f>IF(_tag_month_all!Z8="","",_tag_month_all!Z8)</f>
         <v/>
       </c>
-      <c r="AB11" s="30" t="str">
+      <c r="AB11" s="35" t="str">
         <f>IF(_tag_month_all!AA8="","",_tag_month_all!AA8)</f>
         <v/>
       </c>
-      <c r="AC11" s="30" t="str">
+      <c r="AC11" s="35" t="str">
         <f>IF(_tag_month_all!AB8="","",_tag_month_all!AB8)</f>
         <v/>
       </c>
-      <c r="AD11" s="17" t="str">
+      <c r="AD11" s="22" t="str">
         <f>IF(_tag_month_all!AC8="","",_tag_month_all!AC8)</f>
         <v/>
       </c>
-      <c r="AE11" s="17" t="str">
+      <c r="AE11" s="22" t="str">
         <f>IF(_tag_month_all!AD8="","",_tag_month_all!AD8)</f>
         <v/>
       </c>
-      <c r="AF11" s="17" t="str">
+      <c r="AF11" s="22" t="str">
         <f>IF(_tag_month_all!AE8="","",_tag_month_all!AE8)</f>
         <v/>
       </c>
-      <c r="AG11" s="17" t="str">
+      <c r="AG11" s="22" t="str">
         <f>IF(_tag_month_all!AF8="","",_tag_month_all!AF8)</f>
         <v/>
       </c>
-      <c r="AH11" s="29" t="str">
+      <c r="AH11" s="34" t="str">
         <f>IF(_tag_month_all!AG8="","",_tag_month_all!AG8)</f>
         <v/>
       </c>
-      <c r="AI11" s="29" t="str">
+      <c r="AI11" s="34" t="str">
         <f>IF(_tag_month_all!AH8="","",_tag_month_all!AH8)</f>
         <v/>
       </c>
-      <c r="AJ11" s="38" t="str">
+      <c r="AJ11" s="51" t="str">
         <f>IF(_tag_month_all!AI8="","",_tag_month_all!AI8)</f>
         <v/>
       </c>
@@ -2803,147 +3384,147 @@
       <c r="BN11" s="8"/>
       <c r="BO11" s="8"/>
     </row>
-    <row r="12" spans="1:67" ht="14.25">
-      <c r="A12" s="13">
+    <row r="12" ht="14.25" spans="1:67">
+      <c r="A12" s="18">
         <v>8</v>
       </c>
-      <c r="B12" s="16" t="str">
+      <c r="B12" s="21" t="str">
         <f>IF(_tag_month_all!A9="","",_tag_month_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" s="21" t="str">
         <f>IF(_tag_month_all!B9="","",_tag_month_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="22" t="str">
         <f>IF(_tag_month_all!C9="","",_tag_month_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="18" t="str">
+      <c r="E12" s="23" t="str">
         <f>IF(_tag_month_all!D9="","",_tag_month_all!D9)</f>
         <v/>
       </c>
-      <c r="F12" s="19" t="str">
+      <c r="F12" s="24" t="str">
         <f>IF(_tag_month_all!E9="","",_tag_month_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="20" t="str">
+      <c r="G12" s="25" t="str">
         <f>IF(_tag_month_all!F9="","",_tag_month_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="21" t="str">
+      <c r="H12" s="26" t="str">
         <f>IF(_tag_month_all!G9="","",_tag_month_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="18" t="str">
+      <c r="I12" s="23" t="str">
         <f>IF(_tag_month_all!H9="","",_tag_month_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="18" t="str">
+      <c r="J12" s="23" t="str">
         <f>IF(_tag_month_all!I9="","",_tag_month_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="27" t="str">
+      <c r="K12" s="32" t="str">
         <f>IF(_tag_month_all!J9="","",_tag_month_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="18" t="str">
+      <c r="L12" s="23" t="str">
         <f>IF(_tag_month_all!K9="","",_tag_month_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="28" t="str">
+      <c r="M12" s="33" t="str">
         <f>IF(_tag_month_all!L9="","",_tag_month_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="29" t="str">
+      <c r="N12" s="34" t="str">
         <f>IF(_tag_month_all!M9="","",_tag_month_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="30" t="str">
+      <c r="O12" s="35" t="str">
         <f>IF(_tag_month_all!N9="","",_tag_month_all!N9)</f>
         <v/>
       </c>
-      <c r="P12" s="30" t="str">
+      <c r="P12" s="35" t="str">
         <f>IF(_tag_month_all!O9="","",_tag_month_all!O9)</f>
         <v/>
       </c>
-      <c r="Q12" s="30" t="str">
+      <c r="Q12" s="35" t="str">
         <f>IF(_tag_month_all!P9="","",_tag_month_all!P9)</f>
         <v/>
       </c>
-      <c r="R12" s="35" t="str">
+      <c r="R12" s="43" t="str">
         <f>IF(_tag_month_all!Q9="","",_tag_month_all!Q9)</f>
         <v/>
       </c>
-      <c r="S12" s="35" t="str">
+      <c r="S12" s="43" t="str">
         <f>IF(_tag_month_all!R9="","",_tag_month_all!R9)</f>
         <v/>
       </c>
-      <c r="T12" s="35" t="str">
+      <c r="T12" s="43" t="str">
         <f>IF(_tag_month_all!S9="","",_tag_month_all!S9)</f>
         <v/>
       </c>
-      <c r="U12" s="35" t="str">
+      <c r="U12" s="43" t="str">
         <f>IF(_tag_month_all!T9="","",_tag_month_all!T9)</f>
         <v/>
       </c>
-      <c r="V12" s="29" t="str">
+      <c r="V12" s="34" t="str">
         <f>IF(_tag_month_all!U9="","",_tag_month_all!U9)</f>
         <v/>
       </c>
-      <c r="W12" s="30" t="str">
+      <c r="W12" s="35" t="str">
         <f>IF(_tag_month_all!V9="","",_tag_month_all!V9)</f>
         <v/>
       </c>
-      <c r="X12" s="30" t="str">
+      <c r="X12" s="35" t="str">
         <f>IF(_tag_month_all!W9="","",_tag_month_all!W9)</f>
         <v/>
       </c>
-      <c r="Y12" s="30" t="str">
+      <c r="Y12" s="35" t="str">
         <f>IF(_tag_month_all!X9="","",_tag_month_all!X9)</f>
         <v/>
       </c>
-      <c r="Z12" s="30" t="str">
+      <c r="Z12" s="35" t="str">
         <f>IF(_tag_month_all!Y9="","",_tag_month_all!Y9)</f>
         <v/>
       </c>
-      <c r="AA12" s="30" t="str">
+      <c r="AA12" s="35" t="str">
         <f>IF(_tag_month_all!Z9="","",_tag_month_all!Z9)</f>
         <v/>
       </c>
-      <c r="AB12" s="30" t="str">
+      <c r="AB12" s="35" t="str">
         <f>IF(_tag_month_all!AA9="","",_tag_month_all!AA9)</f>
         <v/>
       </c>
-      <c r="AC12" s="30" t="str">
+      <c r="AC12" s="35" t="str">
         <f>IF(_tag_month_all!AB9="","",_tag_month_all!AB9)</f>
         <v/>
       </c>
-      <c r="AD12" s="17" t="str">
+      <c r="AD12" s="22" t="str">
         <f>IF(_tag_month_all!AC9="","",_tag_month_all!AC9)</f>
         <v/>
       </c>
-      <c r="AE12" s="17" t="str">
+      <c r="AE12" s="22" t="str">
         <f>IF(_tag_month_all!AD9="","",_tag_month_all!AD9)</f>
         <v/>
       </c>
-      <c r="AF12" s="17" t="str">
+      <c r="AF12" s="22" t="str">
         <f>IF(_tag_month_all!AE9="","",_tag_month_all!AE9)</f>
         <v/>
       </c>
-      <c r="AG12" s="17" t="str">
+      <c r="AG12" s="22" t="str">
         <f>IF(_tag_month_all!AF9="","",_tag_month_all!AF9)</f>
         <v/>
       </c>
-      <c r="AH12" s="29" t="str">
+      <c r="AH12" s="34" t="str">
         <f>IF(_tag_month_all!AG9="","",_tag_month_all!AG9)</f>
         <v/>
       </c>
-      <c r="AI12" s="29" t="str">
+      <c r="AI12" s="34" t="str">
         <f>IF(_tag_month_all!AH9="","",_tag_month_all!AH9)</f>
         <v/>
       </c>
-      <c r="AJ12" s="38" t="str">
+      <c r="AJ12" s="51" t="str">
         <f>IF(_tag_month_all!AI9="","",_tag_month_all!AI9)</f>
         <v/>
       </c>
@@ -3069,147 +3650,147 @@
       </c>
       <c r="BO12" s="8"/>
     </row>
-    <row r="13" spans="1:67" ht="14.25">
-      <c r="A13" s="13">
+    <row r="13" ht="14.25" spans="1:67">
+      <c r="A13" s="18">
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="str">
+      <c r="B13" s="21" t="str">
         <f>IF(_tag_month_all!A10="","",_tag_month_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="21" t="str">
         <f>IF(_tag_month_all!B10="","",_tag_month_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="22" t="str">
         <f>IF(_tag_month_all!C10="","",_tag_month_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="18" t="str">
+      <c r="E13" s="23" t="str">
         <f>IF(_tag_month_all!D10="","",_tag_month_all!D10)</f>
         <v/>
       </c>
-      <c r="F13" s="19" t="str">
+      <c r="F13" s="24" t="str">
         <f>IF(_tag_month_all!E10="","",_tag_month_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="20" t="str">
+      <c r="G13" s="25" t="str">
         <f>IF(_tag_month_all!F10="","",_tag_month_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="21" t="str">
+      <c r="H13" s="26" t="str">
         <f>IF(_tag_month_all!G10="","",_tag_month_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="18" t="str">
+      <c r="I13" s="23" t="str">
         <f>IF(_tag_month_all!H10="","",_tag_month_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="18" t="str">
+      <c r="J13" s="23" t="str">
         <f>IF(_tag_month_all!I10="","",_tag_month_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="27" t="str">
+      <c r="K13" s="32" t="str">
         <f>IF(_tag_month_all!J10="","",_tag_month_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="18" t="str">
+      <c r="L13" s="23" t="str">
         <f>IF(_tag_month_all!K10="","",_tag_month_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="28" t="str">
+      <c r="M13" s="33" t="str">
         <f>IF(_tag_month_all!L10="","",_tag_month_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="29" t="str">
+      <c r="N13" s="34" t="str">
         <f>IF(_tag_month_all!M10="","",_tag_month_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="30" t="str">
+      <c r="O13" s="35" t="str">
         <f>IF(_tag_month_all!N10="","",_tag_month_all!N10)</f>
         <v/>
       </c>
-      <c r="P13" s="30" t="str">
+      <c r="P13" s="35" t="str">
         <f>IF(_tag_month_all!O10="","",_tag_month_all!O10)</f>
         <v/>
       </c>
-      <c r="Q13" s="30" t="str">
+      <c r="Q13" s="35" t="str">
         <f>IF(_tag_month_all!P10="","",_tag_month_all!P10)</f>
         <v/>
       </c>
-      <c r="R13" s="35" t="str">
+      <c r="R13" s="43" t="str">
         <f>IF(_tag_month_all!Q10="","",_tag_month_all!Q10)</f>
         <v/>
       </c>
-      <c r="S13" s="35" t="str">
+      <c r="S13" s="43" t="str">
         <f>IF(_tag_month_all!R10="","",_tag_month_all!R10)</f>
         <v/>
       </c>
-      <c r="T13" s="35" t="str">
+      <c r="T13" s="43" t="str">
         <f>IF(_tag_month_all!S10="","",_tag_month_all!S10)</f>
         <v/>
       </c>
-      <c r="U13" s="35" t="str">
+      <c r="U13" s="43" t="str">
         <f>IF(_tag_month_all!T10="","",_tag_month_all!T10)</f>
         <v/>
       </c>
-      <c r="V13" s="29" t="str">
+      <c r="V13" s="34" t="str">
         <f>IF(_tag_month_all!U10="","",_tag_month_all!U10)</f>
         <v/>
       </c>
-      <c r="W13" s="30" t="str">
+      <c r="W13" s="35" t="str">
         <f>IF(_tag_month_all!V10="","",_tag_month_all!V10)</f>
         <v/>
       </c>
-      <c r="X13" s="30" t="str">
+      <c r="X13" s="35" t="str">
         <f>IF(_tag_month_all!W10="","",_tag_month_all!W10)</f>
         <v/>
       </c>
-      <c r="Y13" s="30" t="str">
+      <c r="Y13" s="35" t="str">
         <f>IF(_tag_month_all!X10="","",_tag_month_all!X10)</f>
         <v/>
       </c>
-      <c r="Z13" s="30" t="str">
+      <c r="Z13" s="35" t="str">
         <f>IF(_tag_month_all!Y10="","",_tag_month_all!Y10)</f>
         <v/>
       </c>
-      <c r="AA13" s="30" t="str">
+      <c r="AA13" s="35" t="str">
         <f>IF(_tag_month_all!Z10="","",_tag_month_all!Z10)</f>
         <v/>
       </c>
-      <c r="AB13" s="30" t="str">
+      <c r="AB13" s="35" t="str">
         <f>IF(_tag_month_all!AA10="","",_tag_month_all!AA10)</f>
         <v/>
       </c>
-      <c r="AC13" s="30" t="str">
+      <c r="AC13" s="35" t="str">
         <f>IF(_tag_month_all!AB10="","",_tag_month_all!AB10)</f>
         <v/>
       </c>
-      <c r="AD13" s="17" t="str">
+      <c r="AD13" s="22" t="str">
         <f>IF(_tag_month_all!AC10="","",_tag_month_all!AC10)</f>
         <v/>
       </c>
-      <c r="AE13" s="17" t="str">
+      <c r="AE13" s="22" t="str">
         <f>IF(_tag_month_all!AD10="","",_tag_month_all!AD10)</f>
         <v/>
       </c>
-      <c r="AF13" s="17" t="str">
+      <c r="AF13" s="22" t="str">
         <f>IF(_tag_month_all!AE10="","",_tag_month_all!AE10)</f>
         <v/>
       </c>
-      <c r="AG13" s="17" t="str">
+      <c r="AG13" s="22" t="str">
         <f>IF(_tag_month_all!AF10="","",_tag_month_all!AF10)</f>
         <v/>
       </c>
-      <c r="AH13" s="29" t="str">
+      <c r="AH13" s="34" t="str">
         <f>IF(_tag_month_all!AG10="","",_tag_month_all!AG10)</f>
         <v/>
       </c>
-      <c r="AI13" s="29" t="str">
+      <c r="AI13" s="34" t="str">
         <f>IF(_tag_month_all!AH10="","",_tag_month_all!AH10)</f>
         <v/>
       </c>
-      <c r="AJ13" s="38" t="str">
+      <c r="AJ13" s="51" t="str">
         <f>IF(_tag_month_all!AI10="","",_tag_month_all!AI10)</f>
         <v/>
       </c>
@@ -3335,147 +3916,147 @@
       </c>
       <c r="BO13" s="8"/>
     </row>
-    <row r="14" spans="1:67" ht="14.25">
-      <c r="A14" s="13">
+    <row r="14" ht="14.25" spans="1:67">
+      <c r="A14" s="18">
         <v>10</v>
       </c>
-      <c r="B14" s="16" t="str">
+      <c r="B14" s="21" t="str">
         <f>IF(_tag_month_all!A11="","",_tag_month_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="16" t="str">
+      <c r="C14" s="21" t="str">
         <f>IF(_tag_month_all!B11="","",_tag_month_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="22" t="str">
         <f>IF(_tag_month_all!C11="","",_tag_month_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="18" t="str">
+      <c r="E14" s="23" t="str">
         <f>IF(_tag_month_all!D11="","",_tag_month_all!D11)</f>
         <v/>
       </c>
-      <c r="F14" s="19" t="str">
+      <c r="F14" s="24" t="str">
         <f>IF(_tag_month_all!E11="","",_tag_month_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="20" t="str">
+      <c r="G14" s="25" t="str">
         <f>IF(_tag_month_all!F11="","",_tag_month_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="21" t="str">
+      <c r="H14" s="26" t="str">
         <f>IF(_tag_month_all!G11="","",_tag_month_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="18" t="str">
+      <c r="I14" s="23" t="str">
         <f>IF(_tag_month_all!H11="","",_tag_month_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="18" t="str">
+      <c r="J14" s="23" t="str">
         <f>IF(_tag_month_all!I11="","",_tag_month_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="27" t="str">
+      <c r="K14" s="32" t="str">
         <f>IF(_tag_month_all!J11="","",_tag_month_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="18" t="str">
+      <c r="L14" s="23" t="str">
         <f>IF(_tag_month_all!K11="","",_tag_month_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="28" t="str">
+      <c r="M14" s="33" t="str">
         <f>IF(_tag_month_all!L11="","",_tag_month_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="29" t="str">
+      <c r="N14" s="34" t="str">
         <f>IF(_tag_month_all!M11="","",_tag_month_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="30" t="str">
+      <c r="O14" s="35" t="str">
         <f>IF(_tag_month_all!N11="","",_tag_month_all!N11)</f>
         <v/>
       </c>
-      <c r="P14" s="30" t="str">
+      <c r="P14" s="35" t="str">
         <f>IF(_tag_month_all!O11="","",_tag_month_all!O11)</f>
         <v/>
       </c>
-      <c r="Q14" s="30" t="str">
+      <c r="Q14" s="35" t="str">
         <f>IF(_tag_month_all!P11="","",_tag_month_all!P11)</f>
         <v/>
       </c>
-      <c r="R14" s="35" t="str">
+      <c r="R14" s="43" t="str">
         <f>IF(_tag_month_all!Q11="","",_tag_month_all!Q11)</f>
         <v/>
       </c>
-      <c r="S14" s="35" t="str">
+      <c r="S14" s="43" t="str">
         <f>IF(_tag_month_all!R11="","",_tag_month_all!R11)</f>
         <v/>
       </c>
-      <c r="T14" s="35" t="str">
+      <c r="T14" s="43" t="str">
         <f>IF(_tag_month_all!S11="","",_tag_month_all!S11)</f>
         <v/>
       </c>
-      <c r="U14" s="35" t="str">
+      <c r="U14" s="43" t="str">
         <f>IF(_tag_month_all!T11="","",_tag_month_all!T11)</f>
         <v/>
       </c>
-      <c r="V14" s="29" t="str">
+      <c r="V14" s="34" t="str">
         <f>IF(_tag_month_all!U11="","",_tag_month_all!U11)</f>
         <v/>
       </c>
-      <c r="W14" s="30" t="str">
+      <c r="W14" s="35" t="str">
         <f>IF(_tag_month_all!V11="","",_tag_month_all!V11)</f>
         <v/>
       </c>
-      <c r="X14" s="30" t="str">
+      <c r="X14" s="35" t="str">
         <f>IF(_tag_month_all!W11="","",_tag_month_all!W11)</f>
         <v/>
       </c>
-      <c r="Y14" s="30" t="str">
+      <c r="Y14" s="35" t="str">
         <f>IF(_tag_month_all!X11="","",_tag_month_all!X11)</f>
         <v/>
       </c>
-      <c r="Z14" s="30" t="str">
+      <c r="Z14" s="35" t="str">
         <f>IF(_tag_month_all!Y11="","",_tag_month_all!Y11)</f>
         <v/>
       </c>
-      <c r="AA14" s="30" t="str">
+      <c r="AA14" s="35" t="str">
         <f>IF(_tag_month_all!Z11="","",_tag_month_all!Z11)</f>
         <v/>
       </c>
-      <c r="AB14" s="30" t="str">
+      <c r="AB14" s="35" t="str">
         <f>IF(_tag_month_all!AA11="","",_tag_month_all!AA11)</f>
         <v/>
       </c>
-      <c r="AC14" s="30" t="str">
+      <c r="AC14" s="35" t="str">
         <f>IF(_tag_month_all!AB11="","",_tag_month_all!AB11)</f>
         <v/>
       </c>
-      <c r="AD14" s="17" t="str">
+      <c r="AD14" s="22" t="str">
         <f>IF(_tag_month_all!AC11="","",_tag_month_all!AC11)</f>
         <v/>
       </c>
-      <c r="AE14" s="17" t="str">
+      <c r="AE14" s="22" t="str">
         <f>IF(_tag_month_all!AD11="","",_tag_month_all!AD11)</f>
         <v/>
       </c>
-      <c r="AF14" s="17" t="str">
+      <c r="AF14" s="22" t="str">
         <f>IF(_tag_month_all!AE11="","",_tag_month_all!AE11)</f>
         <v/>
       </c>
-      <c r="AG14" s="17" t="str">
+      <c r="AG14" s="22" t="str">
         <f>IF(_tag_month_all!AF11="","",_tag_month_all!AF11)</f>
         <v/>
       </c>
-      <c r="AH14" s="29" t="str">
+      <c r="AH14" s="34" t="str">
         <f>IF(_tag_month_all!AG11="","",_tag_month_all!AG11)</f>
         <v/>
       </c>
-      <c r="AI14" s="29" t="str">
+      <c r="AI14" s="34" t="str">
         <f>IF(_tag_month_all!AH11="","",_tag_month_all!AH11)</f>
         <v/>
       </c>
-      <c r="AJ14" s="38" t="str">
+      <c r="AJ14" s="51" t="str">
         <f>IF(_tag_month_all!AI11="","",_tag_month_all!AI11)</f>
         <v/>
       </c>
@@ -3601,147 +4182,147 @@
       </c>
       <c r="BO14" s="8"/>
     </row>
-    <row r="15" spans="1:67" ht="14.25">
-      <c r="A15" s="13">
+    <row r="15" ht="14.25" spans="1:67">
+      <c r="A15" s="18">
         <v>11</v>
       </c>
-      <c r="B15" s="16" t="str">
+      <c r="B15" s="21" t="str">
         <f>IF(_tag_month_all!A12="","",_tag_month_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_tag_month_all!B12="","",_tag_month_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="17" t="str">
+      <c r="D15" s="22" t="str">
         <f>IF(_tag_month_all!C12="","",_tag_month_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="18" t="str">
+      <c r="E15" s="23" t="str">
         <f>IF(_tag_month_all!D12="","",_tag_month_all!D12)</f>
         <v/>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="F15" s="24" t="str">
         <f>IF(_tag_month_all!E12="","",_tag_month_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="25" t="str">
         <f>IF(_tag_month_all!F12="","",_tag_month_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="21" t="str">
+      <c r="H15" s="26" t="str">
         <f>IF(_tag_month_all!G12="","",_tag_month_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="18" t="str">
+      <c r="I15" s="23" t="str">
         <f>IF(_tag_month_all!H12="","",_tag_month_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="18" t="str">
+      <c r="J15" s="23" t="str">
         <f>IF(_tag_month_all!I12="","",_tag_month_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="27" t="str">
+      <c r="K15" s="32" t="str">
         <f>IF(_tag_month_all!J12="","",_tag_month_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="18" t="str">
+      <c r="L15" s="23" t="str">
         <f>IF(_tag_month_all!K12="","",_tag_month_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="28" t="str">
+      <c r="M15" s="33" t="str">
         <f>IF(_tag_month_all!L12="","",_tag_month_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="29" t="str">
+      <c r="N15" s="34" t="str">
         <f>IF(_tag_month_all!M12="","",_tag_month_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="30" t="str">
+      <c r="O15" s="35" t="str">
         <f>IF(_tag_month_all!N12="","",_tag_month_all!N12)</f>
         <v/>
       </c>
-      <c r="P15" s="30" t="str">
+      <c r="P15" s="35" t="str">
         <f>IF(_tag_month_all!O12="","",_tag_month_all!O12)</f>
         <v/>
       </c>
-      <c r="Q15" s="30" t="str">
+      <c r="Q15" s="35" t="str">
         <f>IF(_tag_month_all!P12="","",_tag_month_all!P12)</f>
         <v/>
       </c>
-      <c r="R15" s="35" t="str">
+      <c r="R15" s="43" t="str">
         <f>IF(_tag_month_all!Q12="","",_tag_month_all!Q12)</f>
         <v/>
       </c>
-      <c r="S15" s="35" t="str">
+      <c r="S15" s="43" t="str">
         <f>IF(_tag_month_all!R12="","",_tag_month_all!R12)</f>
         <v/>
       </c>
-      <c r="T15" s="35" t="str">
+      <c r="T15" s="43" t="str">
         <f>IF(_tag_month_all!S12="","",_tag_month_all!S12)</f>
         <v/>
       </c>
-      <c r="U15" s="35" t="str">
+      <c r="U15" s="43" t="str">
         <f>IF(_tag_month_all!T12="","",_tag_month_all!T12)</f>
         <v/>
       </c>
-      <c r="V15" s="29" t="str">
+      <c r="V15" s="34" t="str">
         <f>IF(_tag_month_all!U12="","",_tag_month_all!U12)</f>
         <v/>
       </c>
-      <c r="W15" s="30" t="str">
+      <c r="W15" s="35" t="str">
         <f>IF(_tag_month_all!V12="","",_tag_month_all!V12)</f>
         <v/>
       </c>
-      <c r="X15" s="30" t="str">
+      <c r="X15" s="35" t="str">
         <f>IF(_tag_month_all!W12="","",_tag_month_all!W12)</f>
         <v/>
       </c>
-      <c r="Y15" s="30" t="str">
+      <c r="Y15" s="35" t="str">
         <f>IF(_tag_month_all!X12="","",_tag_month_all!X12)</f>
         <v/>
       </c>
-      <c r="Z15" s="30" t="str">
+      <c r="Z15" s="35" t="str">
         <f>IF(_tag_month_all!Y12="","",_tag_month_all!Y12)</f>
         <v/>
       </c>
-      <c r="AA15" s="30" t="str">
+      <c r="AA15" s="35" t="str">
         <f>IF(_tag_month_all!Z12="","",_tag_month_all!Z12)</f>
         <v/>
       </c>
-      <c r="AB15" s="30" t="str">
+      <c r="AB15" s="35" t="str">
         <f>IF(_tag_month_all!AA12="","",_tag_month_all!AA12)</f>
         <v/>
       </c>
-      <c r="AC15" s="30" t="str">
+      <c r="AC15" s="35" t="str">
         <f>IF(_tag_month_all!AB12="","",_tag_month_all!AB12)</f>
         <v/>
       </c>
-      <c r="AD15" s="17" t="str">
+      <c r="AD15" s="22" t="str">
         <f>IF(_tag_month_all!AC12="","",_tag_month_all!AC12)</f>
         <v/>
       </c>
-      <c r="AE15" s="17" t="str">
+      <c r="AE15" s="22" t="str">
         <f>IF(_tag_month_all!AD12="","",_tag_month_all!AD12)</f>
         <v/>
       </c>
-      <c r="AF15" s="17" t="str">
+      <c r="AF15" s="22" t="str">
         <f>IF(_tag_month_all!AE12="","",_tag_month_all!AE12)</f>
         <v/>
       </c>
-      <c r="AG15" s="17" t="str">
+      <c r="AG15" s="22" t="str">
         <f>IF(_tag_month_all!AF12="","",_tag_month_all!AF12)</f>
         <v/>
       </c>
-      <c r="AH15" s="29" t="str">
+      <c r="AH15" s="34" t="str">
         <f>IF(_tag_month_all!AG12="","",_tag_month_all!AG12)</f>
         <v/>
       </c>
-      <c r="AI15" s="29" t="str">
+      <c r="AI15" s="34" t="str">
         <f>IF(_tag_month_all!AH12="","",_tag_month_all!AH12)</f>
         <v/>
       </c>
-      <c r="AJ15" s="38" t="str">
+      <c r="AJ15" s="51" t="str">
         <f>IF(_tag_month_all!AI12="","",_tag_month_all!AI12)</f>
         <v/>
       </c>
@@ -3867,147 +4448,147 @@
       </c>
       <c r="BO15" s="8"/>
     </row>
-    <row r="16" spans="1:67" ht="14.25">
-      <c r="A16" s="13">
+    <row r="16" ht="14.25" spans="1:67">
+      <c r="A16" s="18">
         <v>12</v>
       </c>
-      <c r="B16" s="16" t="str">
+      <c r="B16" s="21" t="str">
         <f>IF(_tag_month_all!A13="","",_tag_month_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="16" t="str">
+      <c r="C16" s="21" t="str">
         <f>IF(_tag_month_all!B13="","",_tag_month_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="17" t="str">
+      <c r="D16" s="22" t="str">
         <f>IF(_tag_month_all!C13="","",_tag_month_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="18" t="str">
+      <c r="E16" s="23" t="str">
         <f>IF(_tag_month_all!D13="","",_tag_month_all!D13)</f>
         <v/>
       </c>
-      <c r="F16" s="19" t="str">
+      <c r="F16" s="24" t="str">
         <f>IF(_tag_month_all!E13="","",_tag_month_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="20" t="str">
+      <c r="G16" s="25" t="str">
         <f>IF(_tag_month_all!F13="","",_tag_month_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="21" t="str">
+      <c r="H16" s="26" t="str">
         <f>IF(_tag_month_all!G13="","",_tag_month_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="18" t="str">
+      <c r="I16" s="23" t="str">
         <f>IF(_tag_month_all!H13="","",_tag_month_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="18" t="str">
+      <c r="J16" s="23" t="str">
         <f>IF(_tag_month_all!I13="","",_tag_month_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="27" t="str">
+      <c r="K16" s="32" t="str">
         <f>IF(_tag_month_all!J13="","",_tag_month_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="18" t="str">
+      <c r="L16" s="23" t="str">
         <f>IF(_tag_month_all!K13="","",_tag_month_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="28" t="str">
+      <c r="M16" s="33" t="str">
         <f>IF(_tag_month_all!L13="","",_tag_month_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="29" t="str">
+      <c r="N16" s="34" t="str">
         <f>IF(_tag_month_all!M13="","",_tag_month_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="30" t="str">
+      <c r="O16" s="35" t="str">
         <f>IF(_tag_month_all!N13="","",_tag_month_all!N13)</f>
         <v/>
       </c>
-      <c r="P16" s="30" t="str">
+      <c r="P16" s="35" t="str">
         <f>IF(_tag_month_all!O13="","",_tag_month_all!O13)</f>
         <v/>
       </c>
-      <c r="Q16" s="30" t="str">
+      <c r="Q16" s="35" t="str">
         <f>IF(_tag_month_all!P13="","",_tag_month_all!P13)</f>
         <v/>
       </c>
-      <c r="R16" s="35" t="str">
+      <c r="R16" s="43" t="str">
         <f>IF(_tag_month_all!Q13="","",_tag_month_all!Q13)</f>
         <v/>
       </c>
-      <c r="S16" s="35" t="str">
+      <c r="S16" s="43" t="str">
         <f>IF(_tag_month_all!R13="","",_tag_month_all!R13)</f>
         <v/>
       </c>
-      <c r="T16" s="35" t="str">
+      <c r="T16" s="43" t="str">
         <f>IF(_tag_month_all!S13="","",_tag_month_all!S13)</f>
         <v/>
       </c>
-      <c r="U16" s="35" t="str">
+      <c r="U16" s="43" t="str">
         <f>IF(_tag_month_all!T13="","",_tag_month_all!T13)</f>
         <v/>
       </c>
-      <c r="V16" s="29" t="str">
+      <c r="V16" s="34" t="str">
         <f>IF(_tag_month_all!U13="","",_tag_month_all!U13)</f>
         <v/>
       </c>
-      <c r="W16" s="30" t="str">
+      <c r="W16" s="35" t="str">
         <f>IF(_tag_month_all!V13="","",_tag_month_all!V13)</f>
         <v/>
       </c>
-      <c r="X16" s="30" t="str">
+      <c r="X16" s="35" t="str">
         <f>IF(_tag_month_all!W13="","",_tag_month_all!W13)</f>
         <v/>
       </c>
-      <c r="Y16" s="30" t="str">
+      <c r="Y16" s="35" t="str">
         <f>IF(_tag_month_all!X13="","",_tag_month_all!X13)</f>
         <v/>
       </c>
-      <c r="Z16" s="30" t="str">
+      <c r="Z16" s="35" t="str">
         <f>IF(_tag_month_all!Y13="","",_tag_month_all!Y13)</f>
         <v/>
       </c>
-      <c r="AA16" s="30" t="str">
+      <c r="AA16" s="35" t="str">
         <f>IF(_tag_month_all!Z13="","",_tag_month_all!Z13)</f>
         <v/>
       </c>
-      <c r="AB16" s="30" t="str">
+      <c r="AB16" s="35" t="str">
         <f>IF(_tag_month_all!AA13="","",_tag_month_all!AA13)</f>
         <v/>
       </c>
-      <c r="AC16" s="30" t="str">
+      <c r="AC16" s="35" t="str">
         <f>IF(_tag_month_all!AB13="","",_tag_month_all!AB13)</f>
         <v/>
       </c>
-      <c r="AD16" s="17" t="str">
+      <c r="AD16" s="22" t="str">
         <f>IF(_tag_month_all!AC13="","",_tag_month_all!AC13)</f>
         <v/>
       </c>
-      <c r="AE16" s="17" t="str">
+      <c r="AE16" s="22" t="str">
         <f>IF(_tag_month_all!AD13="","",_tag_month_all!AD13)</f>
         <v/>
       </c>
-      <c r="AF16" s="17" t="str">
+      <c r="AF16" s="22" t="str">
         <f>IF(_tag_month_all!AE13="","",_tag_month_all!AE13)</f>
         <v/>
       </c>
-      <c r="AG16" s="17" t="str">
+      <c r="AG16" s="22" t="str">
         <f>IF(_tag_month_all!AF13="","",_tag_month_all!AF13)</f>
         <v/>
       </c>
-      <c r="AH16" s="29" t="str">
+      <c r="AH16" s="34" t="str">
         <f>IF(_tag_month_all!AG13="","",_tag_month_all!AG13)</f>
         <v/>
       </c>
-      <c r="AI16" s="29" t="str">
+      <c r="AI16" s="34" t="str">
         <f>IF(_tag_month_all!AH13="","",_tag_month_all!AH13)</f>
         <v/>
       </c>
-      <c r="AJ16" s="38" t="str">
+      <c r="AJ16" s="51" t="str">
         <f>IF(_tag_month_all!AI13="","",_tag_month_all!AI13)</f>
         <v/>
       </c>
@@ -4133,147 +4714,147 @@
       </c>
       <c r="BO16" s="8"/>
     </row>
-    <row r="17" spans="1:67" ht="14.25">
-      <c r="A17" s="13">
+    <row r="17" ht="14.25" spans="1:67">
+      <c r="A17" s="18">
         <v>13</v>
       </c>
-      <c r="B17" s="16" t="str">
+      <c r="B17" s="21" t="str">
         <f>IF(_tag_month_all!A14="","",_tag_month_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="21" t="str">
         <f>IF(_tag_month_all!B14="","",_tag_month_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="17" t="str">
+      <c r="D17" s="22" t="str">
         <f>IF(_tag_month_all!C14="","",_tag_month_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="18" t="str">
+      <c r="E17" s="23" t="str">
         <f>IF(_tag_month_all!D14="","",_tag_month_all!D14)</f>
         <v/>
       </c>
-      <c r="F17" s="19" t="str">
+      <c r="F17" s="24" t="str">
         <f>IF(_tag_month_all!E14="","",_tag_month_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="20" t="str">
+      <c r="G17" s="25" t="str">
         <f>IF(_tag_month_all!F14="","",_tag_month_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="21" t="str">
+      <c r="H17" s="26" t="str">
         <f>IF(_tag_month_all!G14="","",_tag_month_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="18" t="str">
+      <c r="I17" s="23" t="str">
         <f>IF(_tag_month_all!H14="","",_tag_month_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="18" t="str">
+      <c r="J17" s="23" t="str">
         <f>IF(_tag_month_all!I14="","",_tag_month_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="27" t="str">
+      <c r="K17" s="32" t="str">
         <f>IF(_tag_month_all!J14="","",_tag_month_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="18" t="str">
+      <c r="L17" s="23" t="str">
         <f>IF(_tag_month_all!K14="","",_tag_month_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="28" t="str">
+      <c r="M17" s="33" t="str">
         <f>IF(_tag_month_all!L14="","",_tag_month_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="29" t="str">
+      <c r="N17" s="34" t="str">
         <f>IF(_tag_month_all!M14="","",_tag_month_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="30" t="str">
+      <c r="O17" s="35" t="str">
         <f>IF(_tag_month_all!N14="","",_tag_month_all!N14)</f>
         <v/>
       </c>
-      <c r="P17" s="30" t="str">
+      <c r="P17" s="35" t="str">
         <f>IF(_tag_month_all!O14="","",_tag_month_all!O14)</f>
         <v/>
       </c>
-      <c r="Q17" s="30" t="str">
+      <c r="Q17" s="35" t="str">
         <f>IF(_tag_month_all!P14="","",_tag_month_all!P14)</f>
         <v/>
       </c>
-      <c r="R17" s="35" t="str">
+      <c r="R17" s="43" t="str">
         <f>IF(_tag_month_all!Q14="","",_tag_month_all!Q14)</f>
         <v/>
       </c>
-      <c r="S17" s="35" t="str">
+      <c r="S17" s="43" t="str">
         <f>IF(_tag_month_all!R14="","",_tag_month_all!R14)</f>
         <v/>
       </c>
-      <c r="T17" s="35" t="str">
+      <c r="T17" s="43" t="str">
         <f>IF(_tag_month_all!S14="","",_tag_month_all!S14)</f>
         <v/>
       </c>
-      <c r="U17" s="35" t="str">
+      <c r="U17" s="43" t="str">
         <f>IF(_tag_month_all!T14="","",_tag_month_all!T14)</f>
         <v/>
       </c>
-      <c r="V17" s="29" t="str">
+      <c r="V17" s="34" t="str">
         <f>IF(_tag_month_all!U14="","",_tag_month_all!U14)</f>
         <v/>
       </c>
-      <c r="W17" s="30" t="str">
+      <c r="W17" s="35" t="str">
         <f>IF(_tag_month_all!V14="","",_tag_month_all!V14)</f>
         <v/>
       </c>
-      <c r="X17" s="30" t="str">
+      <c r="X17" s="35" t="str">
         <f>IF(_tag_month_all!W14="","",_tag_month_all!W14)</f>
         <v/>
       </c>
-      <c r="Y17" s="30" t="str">
+      <c r="Y17" s="35" t="str">
         <f>IF(_tag_month_all!X14="","",_tag_month_all!X14)</f>
         <v/>
       </c>
-      <c r="Z17" s="30" t="str">
+      <c r="Z17" s="35" t="str">
         <f>IF(_tag_month_all!Y14="","",_tag_month_all!Y14)</f>
         <v/>
       </c>
-      <c r="AA17" s="30" t="str">
+      <c r="AA17" s="35" t="str">
         <f>IF(_tag_month_all!Z14="","",_tag_month_all!Z14)</f>
         <v/>
       </c>
-      <c r="AB17" s="30" t="str">
+      <c r="AB17" s="35" t="str">
         <f>IF(_tag_month_all!AA14="","",_tag_month_all!AA14)</f>
         <v/>
       </c>
-      <c r="AC17" s="30" t="str">
+      <c r="AC17" s="35" t="str">
         <f>IF(_tag_month_all!AB14="","",_tag_month_all!AB14)</f>
         <v/>
       </c>
-      <c r="AD17" s="17" t="str">
+      <c r="AD17" s="22" t="str">
         <f>IF(_tag_month_all!AC14="","",_tag_month_all!AC14)</f>
         <v/>
       </c>
-      <c r="AE17" s="17" t="str">
+      <c r="AE17" s="22" t="str">
         <f>IF(_tag_month_all!AD14="","",_tag_month_all!AD14)</f>
         <v/>
       </c>
-      <c r="AF17" s="17" t="str">
+      <c r="AF17" s="22" t="str">
         <f>IF(_tag_month_all!AE14="","",_tag_month_all!AE14)</f>
         <v/>
       </c>
-      <c r="AG17" s="17" t="str">
+      <c r="AG17" s="22" t="str">
         <f>IF(_tag_month_all!AF14="","",_tag_month_all!AF14)</f>
         <v/>
       </c>
-      <c r="AH17" s="29" t="str">
+      <c r="AH17" s="34" t="str">
         <f>IF(_tag_month_all!AG14="","",_tag_month_all!AG14)</f>
         <v/>
       </c>
-      <c r="AI17" s="29" t="str">
+      <c r="AI17" s="34" t="str">
         <f>IF(_tag_month_all!AH14="","",_tag_month_all!AH14)</f>
         <v/>
       </c>
-      <c r="AJ17" s="38" t="str">
+      <c r="AJ17" s="51" t="str">
         <f>IF(_tag_month_all!AI14="","",_tag_month_all!AI14)</f>
         <v/>
       </c>
@@ -4399,147 +4980,147 @@
       </c>
       <c r="BO17" s="8"/>
     </row>
-    <row r="18" spans="1:67" ht="14.25">
-      <c r="A18" s="13">
+    <row r="18" ht="14.25" spans="1:67">
+      <c r="A18" s="18">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="str">
+      <c r="B18" s="21" t="str">
         <f>IF(_tag_month_all!A15="","",_tag_month_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="16" t="str">
+      <c r="C18" s="21" t="str">
         <f>IF(_tag_month_all!B15="","",_tag_month_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="17" t="str">
+      <c r="D18" s="22" t="str">
         <f>IF(_tag_month_all!C15="","",_tag_month_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="18" t="str">
+      <c r="E18" s="23" t="str">
         <f>IF(_tag_month_all!D15="","",_tag_month_all!D15)</f>
         <v/>
       </c>
-      <c r="F18" s="19" t="str">
+      <c r="F18" s="24" t="str">
         <f>IF(_tag_month_all!E15="","",_tag_month_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="20" t="str">
+      <c r="G18" s="25" t="str">
         <f>IF(_tag_month_all!F15="","",_tag_month_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="21" t="str">
+      <c r="H18" s="26" t="str">
         <f>IF(_tag_month_all!G15="","",_tag_month_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="18" t="str">
+      <c r="I18" s="23" t="str">
         <f>IF(_tag_month_all!H15="","",_tag_month_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="18" t="str">
+      <c r="J18" s="23" t="str">
         <f>IF(_tag_month_all!I15="","",_tag_month_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="27" t="str">
+      <c r="K18" s="32" t="str">
         <f>IF(_tag_month_all!J15="","",_tag_month_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="18" t="str">
+      <c r="L18" s="23" t="str">
         <f>IF(_tag_month_all!K15="","",_tag_month_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="28" t="str">
+      <c r="M18" s="33" t="str">
         <f>IF(_tag_month_all!L15="","",_tag_month_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="29" t="str">
+      <c r="N18" s="34" t="str">
         <f>IF(_tag_month_all!M15="","",_tag_month_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="30" t="str">
+      <c r="O18" s="35" t="str">
         <f>IF(_tag_month_all!N15="","",_tag_month_all!N15)</f>
         <v/>
       </c>
-      <c r="P18" s="30" t="str">
+      <c r="P18" s="35" t="str">
         <f>IF(_tag_month_all!O15="","",_tag_month_all!O15)</f>
         <v/>
       </c>
-      <c r="Q18" s="30" t="str">
+      <c r="Q18" s="35" t="str">
         <f>IF(_tag_month_all!P15="","",_tag_month_all!P15)</f>
         <v/>
       </c>
-      <c r="R18" s="35" t="str">
+      <c r="R18" s="43" t="str">
         <f>IF(_tag_month_all!Q15="","",_tag_month_all!Q15)</f>
         <v/>
       </c>
-      <c r="S18" s="35" t="str">
+      <c r="S18" s="43" t="str">
         <f>IF(_tag_month_all!R15="","",_tag_month_all!R15)</f>
         <v/>
       </c>
-      <c r="T18" s="35" t="str">
+      <c r="T18" s="43" t="str">
         <f>IF(_tag_month_all!S15="","",_tag_month_all!S15)</f>
         <v/>
       </c>
-      <c r="U18" s="35" t="str">
+      <c r="U18" s="43" t="str">
         <f>IF(_tag_month_all!T15="","",_tag_month_all!T15)</f>
         <v/>
       </c>
-      <c r="V18" s="29" t="str">
+      <c r="V18" s="34" t="str">
         <f>IF(_tag_month_all!U15="","",_tag_month_all!U15)</f>
         <v/>
       </c>
-      <c r="W18" s="30" t="str">
+      <c r="W18" s="35" t="str">
         <f>IF(_tag_month_all!V15="","",_tag_month_all!V15)</f>
         <v/>
       </c>
-      <c r="X18" s="30" t="str">
+      <c r="X18" s="35" t="str">
         <f>IF(_tag_month_all!W15="","",_tag_month_all!W15)</f>
         <v/>
       </c>
-      <c r="Y18" s="30" t="str">
+      <c r="Y18" s="35" t="str">
         <f>IF(_tag_month_all!X15="","",_tag_month_all!X15)</f>
         <v/>
       </c>
-      <c r="Z18" s="30" t="str">
+      <c r="Z18" s="35" t="str">
         <f>IF(_tag_month_all!Y15="","",_tag_month_all!Y15)</f>
         <v/>
       </c>
-      <c r="AA18" s="30" t="str">
+      <c r="AA18" s="35" t="str">
         <f>IF(_tag_month_all!Z15="","",_tag_month_all!Z15)</f>
         <v/>
       </c>
-      <c r="AB18" s="30" t="str">
+      <c r="AB18" s="35" t="str">
         <f>IF(_tag_month_all!AA15="","",_tag_month_all!AA15)</f>
         <v/>
       </c>
-      <c r="AC18" s="30" t="str">
+      <c r="AC18" s="35" t="str">
         <f>IF(_tag_month_all!AB15="","",_tag_month_all!AB15)</f>
         <v/>
       </c>
-      <c r="AD18" s="17" t="str">
+      <c r="AD18" s="22" t="str">
         <f>IF(_tag_month_all!AC15="","",_tag_month_all!AC15)</f>
         <v/>
       </c>
-      <c r="AE18" s="17" t="str">
+      <c r="AE18" s="22" t="str">
         <f>IF(_tag_month_all!AD15="","",_tag_month_all!AD15)</f>
         <v/>
       </c>
-      <c r="AF18" s="17" t="str">
+      <c r="AF18" s="22" t="str">
         <f>IF(_tag_month_all!AE15="","",_tag_month_all!AE15)</f>
         <v/>
       </c>
-      <c r="AG18" s="17" t="str">
+      <c r="AG18" s="22" t="str">
         <f>IF(_tag_month_all!AF15="","",_tag_month_all!AF15)</f>
         <v/>
       </c>
-      <c r="AH18" s="29" t="str">
+      <c r="AH18" s="34" t="str">
         <f>IF(_tag_month_all!AG15="","",_tag_month_all!AG15)</f>
         <v/>
       </c>
-      <c r="AI18" s="29" t="str">
+      <c r="AI18" s="34" t="str">
         <f>IF(_tag_month_all!AH15="","",_tag_month_all!AH15)</f>
         <v/>
       </c>
-      <c r="AJ18" s="38" t="str">
+      <c r="AJ18" s="51" t="str">
         <f>IF(_tag_month_all!AI15="","",_tag_month_all!AI15)</f>
         <v/>
       </c>
@@ -4665,147 +5246,147 @@
       </c>
       <c r="BO18" s="8"/>
     </row>
-    <row r="19" spans="1:67" ht="14.25">
-      <c r="A19" s="13">
+    <row r="19" ht="14.25" spans="1:67">
+      <c r="A19" s="18">
         <v>15</v>
       </c>
-      <c r="B19" s="16" t="str">
+      <c r="B19" s="21" t="str">
         <f>IF(_tag_month_all!A16="","",_tag_month_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="21" t="str">
         <f>IF(_tag_month_all!B16="","",_tag_month_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="17" t="str">
+      <c r="D19" s="22" t="str">
         <f>IF(_tag_month_all!C16="","",_tag_month_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="18" t="str">
+      <c r="E19" s="23" t="str">
         <f>IF(_tag_month_all!D16="","",_tag_month_all!D16)</f>
         <v/>
       </c>
-      <c r="F19" s="19" t="str">
+      <c r="F19" s="24" t="str">
         <f>IF(_tag_month_all!E16="","",_tag_month_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="20" t="str">
+      <c r="G19" s="25" t="str">
         <f>IF(_tag_month_all!F16="","",_tag_month_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="21" t="str">
+      <c r="H19" s="26" t="str">
         <f>IF(_tag_month_all!G16="","",_tag_month_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="18" t="str">
+      <c r="I19" s="23" t="str">
         <f>IF(_tag_month_all!H16="","",_tag_month_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="18" t="str">
+      <c r="J19" s="23" t="str">
         <f>IF(_tag_month_all!I16="","",_tag_month_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="27" t="str">
+      <c r="K19" s="32" t="str">
         <f>IF(_tag_month_all!J16="","",_tag_month_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="18" t="str">
+      <c r="L19" s="23" t="str">
         <f>IF(_tag_month_all!K16="","",_tag_month_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="28" t="str">
+      <c r="M19" s="33" t="str">
         <f>IF(_tag_month_all!L16="","",_tag_month_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="29" t="str">
+      <c r="N19" s="34" t="str">
         <f>IF(_tag_month_all!M16="","",_tag_month_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="30" t="str">
+      <c r="O19" s="35" t="str">
         <f>IF(_tag_month_all!N16="","",_tag_month_all!N16)</f>
         <v/>
       </c>
-      <c r="P19" s="30" t="str">
+      <c r="P19" s="35" t="str">
         <f>IF(_tag_month_all!O16="","",_tag_month_all!O16)</f>
         <v/>
       </c>
-      <c r="Q19" s="30" t="str">
+      <c r="Q19" s="35" t="str">
         <f>IF(_tag_month_all!P16="","",_tag_month_all!P16)</f>
         <v/>
       </c>
-      <c r="R19" s="35" t="str">
+      <c r="R19" s="43" t="str">
         <f>IF(_tag_month_all!Q16="","",_tag_month_all!Q16)</f>
         <v/>
       </c>
-      <c r="S19" s="35" t="str">
+      <c r="S19" s="43" t="str">
         <f>IF(_tag_month_all!R16="","",_tag_month_all!R16)</f>
         <v/>
       </c>
-      <c r="T19" s="35" t="str">
+      <c r="T19" s="43" t="str">
         <f>IF(_tag_month_all!S16="","",_tag_month_all!S16)</f>
         <v/>
       </c>
-      <c r="U19" s="35" t="str">
+      <c r="U19" s="43" t="str">
         <f>IF(_tag_month_all!T16="","",_tag_month_all!T16)</f>
         <v/>
       </c>
-      <c r="V19" s="29" t="str">
+      <c r="V19" s="34" t="str">
         <f>IF(_tag_month_all!U16="","",_tag_month_all!U16)</f>
         <v/>
       </c>
-      <c r="W19" s="30" t="str">
+      <c r="W19" s="35" t="str">
         <f>IF(_tag_month_all!V16="","",_tag_month_all!V16)</f>
         <v/>
       </c>
-      <c r="X19" s="30" t="str">
+      <c r="X19" s="35" t="str">
         <f>IF(_tag_month_all!W16="","",_tag_month_all!W16)</f>
         <v/>
       </c>
-      <c r="Y19" s="30" t="str">
+      <c r="Y19" s="35" t="str">
         <f>IF(_tag_month_all!X16="","",_tag_month_all!X16)</f>
         <v/>
       </c>
-      <c r="Z19" s="30" t="str">
+      <c r="Z19" s="35" t="str">
         <f>IF(_tag_month_all!Y16="","",_tag_month_all!Y16)</f>
         <v/>
       </c>
-      <c r="AA19" s="30" t="str">
+      <c r="AA19" s="35" t="str">
         <f>IF(_tag_month_all!Z16="","",_tag_month_all!Z16)</f>
         <v/>
       </c>
-      <c r="AB19" s="30" t="str">
+      <c r="AB19" s="35" t="str">
         <f>IF(_tag_month_all!AA16="","",_tag_month_all!AA16)</f>
         <v/>
       </c>
-      <c r="AC19" s="30" t="str">
+      <c r="AC19" s="35" t="str">
         <f>IF(_tag_month_all!AB16="","",_tag_month_all!AB16)</f>
         <v/>
       </c>
-      <c r="AD19" s="17" t="str">
+      <c r="AD19" s="22" t="str">
         <f>IF(_tag_month_all!AC16="","",_tag_month_all!AC16)</f>
         <v/>
       </c>
-      <c r="AE19" s="17" t="str">
+      <c r="AE19" s="22" t="str">
         <f>IF(_tag_month_all!AD16="","",_tag_month_all!AD16)</f>
         <v/>
       </c>
-      <c r="AF19" s="17" t="str">
+      <c r="AF19" s="22" t="str">
         <f>IF(_tag_month_all!AE16="","",_tag_month_all!AE16)</f>
         <v/>
       </c>
-      <c r="AG19" s="17" t="str">
+      <c r="AG19" s="22" t="str">
         <f>IF(_tag_month_all!AF16="","",_tag_month_all!AF16)</f>
         <v/>
       </c>
-      <c r="AH19" s="29" t="str">
+      <c r="AH19" s="34" t="str">
         <f>IF(_tag_month_all!AG16="","",_tag_month_all!AG16)</f>
         <v/>
       </c>
-      <c r="AI19" s="29" t="str">
+      <c r="AI19" s="34" t="str">
         <f>IF(_tag_month_all!AH16="","",_tag_month_all!AH16)</f>
         <v/>
       </c>
-      <c r="AJ19" s="38" t="str">
+      <c r="AJ19" s="51" t="str">
         <f>IF(_tag_month_all!AI16="","",_tag_month_all!AI16)</f>
         <v/>
       </c>
@@ -4931,147 +5512,147 @@
       </c>
       <c r="BO19" s="8"/>
     </row>
-    <row r="20" spans="1:67" ht="14.25">
-      <c r="A20" s="13">
+    <row r="20" ht="14.25" spans="1:67">
+      <c r="A20" s="18">
         <v>16</v>
       </c>
-      <c r="B20" s="16" t="str">
+      <c r="B20" s="21" t="str">
         <f>IF(_tag_month_all!A17="","",_tag_month_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="16" t="str">
+      <c r="C20" s="21" t="str">
         <f>IF(_tag_month_all!B17="","",_tag_month_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="17" t="str">
+      <c r="D20" s="22" t="str">
         <f>IF(_tag_month_all!C17="","",_tag_month_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="18" t="str">
+      <c r="E20" s="23" t="str">
         <f>IF(_tag_month_all!D17="","",_tag_month_all!D17)</f>
         <v/>
       </c>
-      <c r="F20" s="19" t="str">
+      <c r="F20" s="24" t="str">
         <f>IF(_tag_month_all!E17="","",_tag_month_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="20" t="str">
+      <c r="G20" s="25" t="str">
         <f>IF(_tag_month_all!F17="","",_tag_month_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="21" t="str">
+      <c r="H20" s="26" t="str">
         <f>IF(_tag_month_all!G17="","",_tag_month_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="18" t="str">
+      <c r="I20" s="23" t="str">
         <f>IF(_tag_month_all!H17="","",_tag_month_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="18" t="str">
+      <c r="J20" s="23" t="str">
         <f>IF(_tag_month_all!I17="","",_tag_month_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="27" t="str">
+      <c r="K20" s="32" t="str">
         <f>IF(_tag_month_all!J17="","",_tag_month_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="18" t="str">
+      <c r="L20" s="23" t="str">
         <f>IF(_tag_month_all!K17="","",_tag_month_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="28" t="str">
+      <c r="M20" s="33" t="str">
         <f>IF(_tag_month_all!L17="","",_tag_month_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="29" t="str">
+      <c r="N20" s="34" t="str">
         <f>IF(_tag_month_all!M17="","",_tag_month_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="30" t="str">
+      <c r="O20" s="35" t="str">
         <f>IF(_tag_month_all!N17="","",_tag_month_all!N17)</f>
         <v/>
       </c>
-      <c r="P20" s="30" t="str">
+      <c r="P20" s="35" t="str">
         <f>IF(_tag_month_all!O17="","",_tag_month_all!O17)</f>
         <v/>
       </c>
-      <c r="Q20" s="30" t="str">
+      <c r="Q20" s="35" t="str">
         <f>IF(_tag_month_all!P17="","",_tag_month_all!P17)</f>
         <v/>
       </c>
-      <c r="R20" s="35" t="str">
+      <c r="R20" s="43" t="str">
         <f>IF(_tag_month_all!Q17="","",_tag_month_all!Q17)</f>
         <v/>
       </c>
-      <c r="S20" s="35" t="str">
+      <c r="S20" s="43" t="str">
         <f>IF(_tag_month_all!R17="","",_tag_month_all!R17)</f>
         <v/>
       </c>
-      <c r="T20" s="35" t="str">
+      <c r="T20" s="43" t="str">
         <f>IF(_tag_month_all!S17="","",_tag_month_all!S17)</f>
         <v/>
       </c>
-      <c r="U20" s="35" t="str">
+      <c r="U20" s="43" t="str">
         <f>IF(_tag_month_all!T17="","",_tag_month_all!T17)</f>
         <v/>
       </c>
-      <c r="V20" s="29" t="str">
+      <c r="V20" s="34" t="str">
         <f>IF(_tag_month_all!U17="","",_tag_month_all!U17)</f>
         <v/>
       </c>
-      <c r="W20" s="30" t="str">
+      <c r="W20" s="35" t="str">
         <f>IF(_tag_month_all!V17="","",_tag_month_all!V17)</f>
         <v/>
       </c>
-      <c r="X20" s="30" t="str">
+      <c r="X20" s="35" t="str">
         <f>IF(_tag_month_all!W17="","",_tag_month_all!W17)</f>
         <v/>
       </c>
-      <c r="Y20" s="30" t="str">
+      <c r="Y20" s="35" t="str">
         <f>IF(_tag_month_all!X17="","",_tag_month_all!X17)</f>
         <v/>
       </c>
-      <c r="Z20" s="30" t="str">
+      <c r="Z20" s="35" t="str">
         <f>IF(_tag_month_all!Y17="","",_tag_month_all!Y17)</f>
         <v/>
       </c>
-      <c r="AA20" s="30" t="str">
+      <c r="AA20" s="35" t="str">
         <f>IF(_tag_month_all!Z17="","",_tag_month_all!Z17)</f>
         <v/>
       </c>
-      <c r="AB20" s="30" t="str">
+      <c r="AB20" s="35" t="str">
         <f>IF(_tag_month_all!AA17="","",_tag_month_all!AA17)</f>
         <v/>
       </c>
-      <c r="AC20" s="30" t="str">
+      <c r="AC20" s="35" t="str">
         <f>IF(_tag_month_all!AB17="","",_tag_month_all!AB17)</f>
         <v/>
       </c>
-      <c r="AD20" s="17" t="str">
+      <c r="AD20" s="22" t="str">
         <f>IF(_tag_month_all!AC17="","",_tag_month_all!AC17)</f>
         <v/>
       </c>
-      <c r="AE20" s="17" t="str">
+      <c r="AE20" s="22" t="str">
         <f>IF(_tag_month_all!AD17="","",_tag_month_all!AD17)</f>
         <v/>
       </c>
-      <c r="AF20" s="17" t="str">
+      <c r="AF20" s="22" t="str">
         <f>IF(_tag_month_all!AE17="","",_tag_month_all!AE17)</f>
         <v/>
       </c>
-      <c r="AG20" s="17" t="str">
+      <c r="AG20" s="22" t="str">
         <f>IF(_tag_month_all!AF17="","",_tag_month_all!AF17)</f>
         <v/>
       </c>
-      <c r="AH20" s="29" t="str">
+      <c r="AH20" s="34" t="str">
         <f>IF(_tag_month_all!AG17="","",_tag_month_all!AG17)</f>
         <v/>
       </c>
-      <c r="AI20" s="29" t="str">
+      <c r="AI20" s="34" t="str">
         <f>IF(_tag_month_all!AH17="","",_tag_month_all!AH17)</f>
         <v/>
       </c>
-      <c r="AJ20" s="38" t="str">
+      <c r="AJ20" s="51" t="str">
         <f>IF(_tag_month_all!AI17="","",_tag_month_all!AI17)</f>
         <v/>
       </c>
@@ -5197,147 +5778,147 @@
       </c>
       <c r="BO20" s="8"/>
     </row>
-    <row r="21" spans="1:67" ht="14.25">
-      <c r="A21" s="13">
+    <row r="21" ht="14.25" spans="1:67">
+      <c r="A21" s="18">
         <v>17</v>
       </c>
-      <c r="B21" s="16" t="str">
+      <c r="B21" s="21" t="str">
         <f>IF(_tag_month_all!A18="","",_tag_month_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="21" t="str">
         <f>IF(_tag_month_all!B18="","",_tag_month_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="17" t="str">
+      <c r="D21" s="22" t="str">
         <f>IF(_tag_month_all!C18="","",_tag_month_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="18" t="str">
+      <c r="E21" s="23" t="str">
         <f>IF(_tag_month_all!D18="","",_tag_month_all!D18)</f>
         <v/>
       </c>
-      <c r="F21" s="19" t="str">
+      <c r="F21" s="24" t="str">
         <f>IF(_tag_month_all!E18="","",_tag_month_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="20" t="str">
+      <c r="G21" s="25" t="str">
         <f>IF(_tag_month_all!F18="","",_tag_month_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="21" t="str">
+      <c r="H21" s="26" t="str">
         <f>IF(_tag_month_all!G18="","",_tag_month_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="18" t="str">
+      <c r="I21" s="23" t="str">
         <f>IF(_tag_month_all!H18="","",_tag_month_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="18" t="str">
+      <c r="J21" s="23" t="str">
         <f>IF(_tag_month_all!I18="","",_tag_month_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="27" t="str">
+      <c r="K21" s="32" t="str">
         <f>IF(_tag_month_all!J18="","",_tag_month_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="18" t="str">
+      <c r="L21" s="23" t="str">
         <f>IF(_tag_month_all!K18="","",_tag_month_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="28" t="str">
+      <c r="M21" s="33" t="str">
         <f>IF(_tag_month_all!L18="","",_tag_month_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="29" t="str">
+      <c r="N21" s="34" t="str">
         <f>IF(_tag_month_all!M18="","",_tag_month_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="30" t="str">
+      <c r="O21" s="35" t="str">
         <f>IF(_tag_month_all!N18="","",_tag_month_all!N18)</f>
         <v/>
       </c>
-      <c r="P21" s="30" t="str">
+      <c r="P21" s="35" t="str">
         <f>IF(_tag_month_all!O18="","",_tag_month_all!O18)</f>
         <v/>
       </c>
-      <c r="Q21" s="30" t="str">
+      <c r="Q21" s="35" t="str">
         <f>IF(_tag_month_all!P18="","",_tag_month_all!P18)</f>
         <v/>
       </c>
-      <c r="R21" s="35" t="str">
+      <c r="R21" s="43" t="str">
         <f>IF(_tag_month_all!Q18="","",_tag_month_all!Q18)</f>
         <v/>
       </c>
-      <c r="S21" s="35" t="str">
+      <c r="S21" s="43" t="str">
         <f>IF(_tag_month_all!R18="","",_tag_month_all!R18)</f>
         <v/>
       </c>
-      <c r="T21" s="35" t="str">
+      <c r="T21" s="43" t="str">
         <f>IF(_tag_month_all!S18="","",_tag_month_all!S18)</f>
         <v/>
       </c>
-      <c r="U21" s="35" t="str">
+      <c r="U21" s="43" t="str">
         <f>IF(_tag_month_all!T18="","",_tag_month_all!T18)</f>
         <v/>
       </c>
-      <c r="V21" s="29" t="str">
+      <c r="V21" s="34" t="str">
         <f>IF(_tag_month_all!U18="","",_tag_month_all!U18)</f>
         <v/>
       </c>
-      <c r="W21" s="30" t="str">
+      <c r="W21" s="35" t="str">
         <f>IF(_tag_month_all!V18="","",_tag_month_all!V18)</f>
         <v/>
       </c>
-      <c r="X21" s="30" t="str">
+      <c r="X21" s="35" t="str">
         <f>IF(_tag_month_all!W18="","",_tag_month_all!W18)</f>
         <v/>
       </c>
-      <c r="Y21" s="30" t="str">
+      <c r="Y21" s="35" t="str">
         <f>IF(_tag_month_all!X18="","",_tag_month_all!X18)</f>
         <v/>
       </c>
-      <c r="Z21" s="30" t="str">
+      <c r="Z21" s="35" t="str">
         <f>IF(_tag_month_all!Y18="","",_tag_month_all!Y18)</f>
         <v/>
       </c>
-      <c r="AA21" s="30" t="str">
+      <c r="AA21" s="35" t="str">
         <f>IF(_tag_month_all!Z18="","",_tag_month_all!Z18)</f>
         <v/>
       </c>
-      <c r="AB21" s="30" t="str">
+      <c r="AB21" s="35" t="str">
         <f>IF(_tag_month_all!AA18="","",_tag_month_all!AA18)</f>
         <v/>
       </c>
-      <c r="AC21" s="30" t="str">
+      <c r="AC21" s="35" t="str">
         <f>IF(_tag_month_all!AB18="","",_tag_month_all!AB18)</f>
         <v/>
       </c>
-      <c r="AD21" s="17" t="str">
+      <c r="AD21" s="22" t="str">
         <f>IF(_tag_month_all!AC18="","",_tag_month_all!AC18)</f>
         <v/>
       </c>
-      <c r="AE21" s="17" t="str">
+      <c r="AE21" s="22" t="str">
         <f>IF(_tag_month_all!AD18="","",_tag_month_all!AD18)</f>
         <v/>
       </c>
-      <c r="AF21" s="17" t="str">
+      <c r="AF21" s="22" t="str">
         <f>IF(_tag_month_all!AE18="","",_tag_month_all!AE18)</f>
         <v/>
       </c>
-      <c r="AG21" s="17" t="str">
+      <c r="AG21" s="22" t="str">
         <f>IF(_tag_month_all!AF18="","",_tag_month_all!AF18)</f>
         <v/>
       </c>
-      <c r="AH21" s="29" t="str">
+      <c r="AH21" s="34" t="str">
         <f>IF(_tag_month_all!AG18="","",_tag_month_all!AG18)</f>
         <v/>
       </c>
-      <c r="AI21" s="29" t="str">
+      <c r="AI21" s="34" t="str">
         <f>IF(_tag_month_all!AH18="","",_tag_month_all!AH18)</f>
         <v/>
       </c>
-      <c r="AJ21" s="38" t="str">
+      <c r="AJ21" s="51" t="str">
         <f>IF(_tag_month_all!AI18="","",_tag_month_all!AI18)</f>
         <v/>
       </c>
@@ -5463,147 +6044,147 @@
       </c>
       <c r="BO21" s="8"/>
     </row>
-    <row r="22" spans="1:67" ht="14.25">
-      <c r="A22" s="13">
+    <row r="22" ht="14.25" spans="1:67">
+      <c r="A22" s="18">
         <v>18</v>
       </c>
-      <c r="B22" s="16" t="str">
+      <c r="B22" s="21" t="str">
         <f>IF(_tag_month_all!A19="","",_tag_month_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" s="21" t="str">
         <f>IF(_tag_month_all!B19="","",_tag_month_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="17" t="str">
+      <c r="D22" s="22" t="str">
         <f>IF(_tag_month_all!C19="","",_tag_month_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="18" t="str">
+      <c r="E22" s="23" t="str">
         <f>IF(_tag_month_all!D19="","",_tag_month_all!D19)</f>
         <v/>
       </c>
-      <c r="F22" s="19" t="str">
+      <c r="F22" s="24" t="str">
         <f>IF(_tag_month_all!E19="","",_tag_month_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="20" t="str">
+      <c r="G22" s="25" t="str">
         <f>IF(_tag_month_all!F19="","",_tag_month_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="21" t="str">
+      <c r="H22" s="26" t="str">
         <f>IF(_tag_month_all!G19="","",_tag_month_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="18" t="str">
+      <c r="I22" s="23" t="str">
         <f>IF(_tag_month_all!H19="","",_tag_month_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="18" t="str">
+      <c r="J22" s="23" t="str">
         <f>IF(_tag_month_all!I19="","",_tag_month_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="27" t="str">
+      <c r="K22" s="32" t="str">
         <f>IF(_tag_month_all!J19="","",_tag_month_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="18" t="str">
+      <c r="L22" s="23" t="str">
         <f>IF(_tag_month_all!K19="","",_tag_month_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="28" t="str">
+      <c r="M22" s="33" t="str">
         <f>IF(_tag_month_all!L19="","",_tag_month_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="29" t="str">
+      <c r="N22" s="34" t="str">
         <f>IF(_tag_month_all!M19="","",_tag_month_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="30" t="str">
+      <c r="O22" s="35" t="str">
         <f>IF(_tag_month_all!N19="","",_tag_month_all!N19)</f>
         <v/>
       </c>
-      <c r="P22" s="30" t="str">
+      <c r="P22" s="35" t="str">
         <f>IF(_tag_month_all!O19="","",_tag_month_all!O19)</f>
         <v/>
       </c>
-      <c r="Q22" s="30" t="str">
+      <c r="Q22" s="35" t="str">
         <f>IF(_tag_month_all!P19="","",_tag_month_all!P19)</f>
         <v/>
       </c>
-      <c r="R22" s="35" t="str">
+      <c r="R22" s="43" t="str">
         <f>IF(_tag_month_all!Q19="","",_tag_month_all!Q19)</f>
         <v/>
       </c>
-      <c r="S22" s="35" t="str">
+      <c r="S22" s="43" t="str">
         <f>IF(_tag_month_all!R19="","",_tag_month_all!R19)</f>
         <v/>
       </c>
-      <c r="T22" s="35" t="str">
+      <c r="T22" s="43" t="str">
         <f>IF(_tag_month_all!S19="","",_tag_month_all!S19)</f>
         <v/>
       </c>
-      <c r="U22" s="35" t="str">
+      <c r="U22" s="43" t="str">
         <f>IF(_tag_month_all!T19="","",_tag_month_all!T19)</f>
         <v/>
       </c>
-      <c r="V22" s="29" t="str">
+      <c r="V22" s="34" t="str">
         <f>IF(_tag_month_all!U19="","",_tag_month_all!U19)</f>
         <v/>
       </c>
-      <c r="W22" s="30" t="str">
+      <c r="W22" s="35" t="str">
         <f>IF(_tag_month_all!V19="","",_tag_month_all!V19)</f>
         <v/>
       </c>
-      <c r="X22" s="30" t="str">
+      <c r="X22" s="35" t="str">
         <f>IF(_tag_month_all!W19="","",_tag_month_all!W19)</f>
         <v/>
       </c>
-      <c r="Y22" s="30" t="str">
+      <c r="Y22" s="35" t="str">
         <f>IF(_tag_month_all!X19="","",_tag_month_all!X19)</f>
         <v/>
       </c>
-      <c r="Z22" s="30" t="str">
+      <c r="Z22" s="35" t="str">
         <f>IF(_tag_month_all!Y19="","",_tag_month_all!Y19)</f>
         <v/>
       </c>
-      <c r="AA22" s="30" t="str">
+      <c r="AA22" s="35" t="str">
         <f>IF(_tag_month_all!Z19="","",_tag_month_all!Z19)</f>
         <v/>
       </c>
-      <c r="AB22" s="30" t="str">
+      <c r="AB22" s="35" t="str">
         <f>IF(_tag_month_all!AA19="","",_tag_month_all!AA19)</f>
         <v/>
       </c>
-      <c r="AC22" s="30" t="str">
+      <c r="AC22" s="35" t="str">
         <f>IF(_tag_month_all!AB19="","",_tag_month_all!AB19)</f>
         <v/>
       </c>
-      <c r="AD22" s="17" t="str">
+      <c r="AD22" s="22" t="str">
         <f>IF(_tag_month_all!AC19="","",_tag_month_all!AC19)</f>
         <v/>
       </c>
-      <c r="AE22" s="17" t="str">
+      <c r="AE22" s="22" t="str">
         <f>IF(_tag_month_all!AD19="","",_tag_month_all!AD19)</f>
         <v/>
       </c>
-      <c r="AF22" s="17" t="str">
+      <c r="AF22" s="22" t="str">
         <f>IF(_tag_month_all!AE19="","",_tag_month_all!AE19)</f>
         <v/>
       </c>
-      <c r="AG22" s="17" t="str">
+      <c r="AG22" s="22" t="str">
         <f>IF(_tag_month_all!AF19="","",_tag_month_all!AF19)</f>
         <v/>
       </c>
-      <c r="AH22" s="29" t="str">
+      <c r="AH22" s="34" t="str">
         <f>IF(_tag_month_all!AG19="","",_tag_month_all!AG19)</f>
         <v/>
       </c>
-      <c r="AI22" s="29" t="str">
+      <c r="AI22" s="34" t="str">
         <f>IF(_tag_month_all!AH19="","",_tag_month_all!AH19)</f>
         <v/>
       </c>
-      <c r="AJ22" s="38" t="str">
+      <c r="AJ22" s="51" t="str">
         <f>IF(_tag_month_all!AI19="","",_tag_month_all!AI19)</f>
         <v/>
       </c>
@@ -5729,147 +6310,147 @@
       </c>
       <c r="BO22" s="8"/>
     </row>
-    <row r="23" spans="1:67" ht="14.25">
-      <c r="A23" s="13">
+    <row r="23" ht="14.25" spans="1:67">
+      <c r="A23" s="18">
         <v>19</v>
       </c>
-      <c r="B23" s="16" t="str">
+      <c r="B23" s="21" t="str">
         <f>IF(_tag_month_all!A20="","",_tag_month_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="21" t="str">
         <f>IF(_tag_month_all!B20="","",_tag_month_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="17" t="str">
+      <c r="D23" s="22" t="str">
         <f>IF(_tag_month_all!C20="","",_tag_month_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="18" t="str">
+      <c r="E23" s="23" t="str">
         <f>IF(_tag_month_all!D20="","",_tag_month_all!D20)</f>
         <v/>
       </c>
-      <c r="F23" s="19" t="str">
+      <c r="F23" s="24" t="str">
         <f>IF(_tag_month_all!E20="","",_tag_month_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="20" t="str">
+      <c r="G23" s="25" t="str">
         <f>IF(_tag_month_all!F20="","",_tag_month_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="21" t="str">
+      <c r="H23" s="26" t="str">
         <f>IF(_tag_month_all!G20="","",_tag_month_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="18" t="str">
+      <c r="I23" s="23" t="str">
         <f>IF(_tag_month_all!H20="","",_tag_month_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="18" t="str">
+      <c r="J23" s="23" t="str">
         <f>IF(_tag_month_all!I20="","",_tag_month_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="27" t="str">
+      <c r="K23" s="32" t="str">
         <f>IF(_tag_month_all!J20="","",_tag_month_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="18" t="str">
+      <c r="L23" s="23" t="str">
         <f>IF(_tag_month_all!K20="","",_tag_month_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="28" t="str">
+      <c r="M23" s="33" t="str">
         <f>IF(_tag_month_all!L20="","",_tag_month_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="29" t="str">
+      <c r="N23" s="34" t="str">
         <f>IF(_tag_month_all!M20="","",_tag_month_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="30" t="str">
+      <c r="O23" s="35" t="str">
         <f>IF(_tag_month_all!N20="","",_tag_month_all!N20)</f>
         <v/>
       </c>
-      <c r="P23" s="30" t="str">
+      <c r="P23" s="35" t="str">
         <f>IF(_tag_month_all!O20="","",_tag_month_all!O20)</f>
         <v/>
       </c>
-      <c r="Q23" s="30" t="str">
+      <c r="Q23" s="35" t="str">
         <f>IF(_tag_month_all!P20="","",_tag_month_all!P20)</f>
         <v/>
       </c>
-      <c r="R23" s="35" t="str">
+      <c r="R23" s="43" t="str">
         <f>IF(_tag_month_all!Q20="","",_tag_month_all!Q20)</f>
         <v/>
       </c>
-      <c r="S23" s="35" t="str">
+      <c r="S23" s="43" t="str">
         <f>IF(_tag_month_all!R20="","",_tag_month_all!R20)</f>
         <v/>
       </c>
-      <c r="T23" s="35" t="str">
+      <c r="T23" s="43" t="str">
         <f>IF(_tag_month_all!S20="","",_tag_month_all!S20)</f>
         <v/>
       </c>
-      <c r="U23" s="35" t="str">
+      <c r="U23" s="43" t="str">
         <f>IF(_tag_month_all!T20="","",_tag_month_all!T20)</f>
         <v/>
       </c>
-      <c r="V23" s="29" t="str">
+      <c r="V23" s="34" t="str">
         <f>IF(_tag_month_all!U20="","",_tag_month_all!U20)</f>
         <v/>
       </c>
-      <c r="W23" s="30" t="str">
+      <c r="W23" s="35" t="str">
         <f>IF(_tag_month_all!V20="","",_tag_month_all!V20)</f>
         <v/>
       </c>
-      <c r="X23" s="30" t="str">
+      <c r="X23" s="35" t="str">
         <f>IF(_tag_month_all!W20="","",_tag_month_all!W20)</f>
         <v/>
       </c>
-      <c r="Y23" s="30" t="str">
+      <c r="Y23" s="35" t="str">
         <f>IF(_tag_month_all!X20="","",_tag_month_all!X20)</f>
         <v/>
       </c>
-      <c r="Z23" s="30" t="str">
+      <c r="Z23" s="35" t="str">
         <f>IF(_tag_month_all!Y20="","",_tag_month_all!Y20)</f>
         <v/>
       </c>
-      <c r="AA23" s="30" t="str">
+      <c r="AA23" s="35" t="str">
         <f>IF(_tag_month_all!Z20="","",_tag_month_all!Z20)</f>
         <v/>
       </c>
-      <c r="AB23" s="30" t="str">
+      <c r="AB23" s="35" t="str">
         <f>IF(_tag_month_all!AA20="","",_tag_month_all!AA20)</f>
         <v/>
       </c>
-      <c r="AC23" s="30" t="str">
+      <c r="AC23" s="35" t="str">
         <f>IF(_tag_month_all!AB20="","",_tag_month_all!AB20)</f>
         <v/>
       </c>
-      <c r="AD23" s="17" t="str">
+      <c r="AD23" s="22" t="str">
         <f>IF(_tag_month_all!AC20="","",_tag_month_all!AC20)</f>
         <v/>
       </c>
-      <c r="AE23" s="17" t="str">
+      <c r="AE23" s="22" t="str">
         <f>IF(_tag_month_all!AD20="","",_tag_month_all!AD20)</f>
         <v/>
       </c>
-      <c r="AF23" s="17" t="str">
+      <c r="AF23" s="22" t="str">
         <f>IF(_tag_month_all!AE20="","",_tag_month_all!AE20)</f>
         <v/>
       </c>
-      <c r="AG23" s="17" t="str">
+      <c r="AG23" s="22" t="str">
         <f>IF(_tag_month_all!AF20="","",_tag_month_all!AF20)</f>
         <v/>
       </c>
-      <c r="AH23" s="29" t="str">
+      <c r="AH23" s="34" t="str">
         <f>IF(_tag_month_all!AG20="","",_tag_month_all!AG20)</f>
         <v/>
       </c>
-      <c r="AI23" s="29" t="str">
+      <c r="AI23" s="34" t="str">
         <f>IF(_tag_month_all!AH20="","",_tag_month_all!AH20)</f>
         <v/>
       </c>
-      <c r="AJ23" s="38" t="str">
+      <c r="AJ23" s="51" t="str">
         <f>IF(_tag_month_all!AI20="","",_tag_month_all!AI20)</f>
         <v/>
       </c>
@@ -5995,147 +6576,147 @@
       </c>
       <c r="BO23" s="8"/>
     </row>
-    <row r="24" spans="1:67" ht="14.25">
-      <c r="A24" s="13">
+    <row r="24" ht="14.25" spans="1:67">
+      <c r="A24" s="18">
         <v>20</v>
       </c>
-      <c r="B24" s="16" t="str">
+      <c r="B24" s="21" t="str">
         <f>IF(_tag_month_all!A21="","",_tag_month_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C24" s="21" t="str">
         <f>IF(_tag_month_all!B21="","",_tag_month_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="17" t="str">
+      <c r="D24" s="22" t="str">
         <f>IF(_tag_month_all!C21="","",_tag_month_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="18" t="str">
+      <c r="E24" s="23" t="str">
         <f>IF(_tag_month_all!D21="","",_tag_month_all!D21)</f>
         <v/>
       </c>
-      <c r="F24" s="19" t="str">
+      <c r="F24" s="24" t="str">
         <f>IF(_tag_month_all!E21="","",_tag_month_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="20" t="str">
+      <c r="G24" s="25" t="str">
         <f>IF(_tag_month_all!F21="","",_tag_month_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="21" t="str">
+      <c r="H24" s="26" t="str">
         <f>IF(_tag_month_all!G21="","",_tag_month_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="18" t="str">
+      <c r="I24" s="23" t="str">
         <f>IF(_tag_month_all!H21="","",_tag_month_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="18" t="str">
+      <c r="J24" s="23" t="str">
         <f>IF(_tag_month_all!I21="","",_tag_month_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="27" t="str">
+      <c r="K24" s="32" t="str">
         <f>IF(_tag_month_all!J21="","",_tag_month_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="18" t="str">
+      <c r="L24" s="23" t="str">
         <f>IF(_tag_month_all!K21="","",_tag_month_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="28" t="str">
+      <c r="M24" s="33" t="str">
         <f>IF(_tag_month_all!L21="","",_tag_month_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="29" t="str">
+      <c r="N24" s="34" t="str">
         <f>IF(_tag_month_all!M21="","",_tag_month_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="30" t="str">
+      <c r="O24" s="35" t="str">
         <f>IF(_tag_month_all!N21="","",_tag_month_all!N21)</f>
         <v/>
       </c>
-      <c r="P24" s="30" t="str">
+      <c r="P24" s="35" t="str">
         <f>IF(_tag_month_all!O21="","",_tag_month_all!O21)</f>
         <v/>
       </c>
-      <c r="Q24" s="30" t="str">
+      <c r="Q24" s="35" t="str">
         <f>IF(_tag_month_all!P21="","",_tag_month_all!P21)</f>
         <v/>
       </c>
-      <c r="R24" s="35" t="str">
+      <c r="R24" s="43" t="str">
         <f>IF(_tag_month_all!Q21="","",_tag_month_all!Q21)</f>
         <v/>
       </c>
-      <c r="S24" s="35" t="str">
+      <c r="S24" s="43" t="str">
         <f>IF(_tag_month_all!R21="","",_tag_month_all!R21)</f>
         <v/>
       </c>
-      <c r="T24" s="35" t="str">
+      <c r="T24" s="43" t="str">
         <f>IF(_tag_month_all!S21="","",_tag_month_all!S21)</f>
         <v/>
       </c>
-      <c r="U24" s="35" t="str">
+      <c r="U24" s="43" t="str">
         <f>IF(_tag_month_all!T21="","",_tag_month_all!T21)</f>
         <v/>
       </c>
-      <c r="V24" s="29" t="str">
+      <c r="V24" s="34" t="str">
         <f>IF(_tag_month_all!U21="","",_tag_month_all!U21)</f>
         <v/>
       </c>
-      <c r="W24" s="30" t="str">
+      <c r="W24" s="35" t="str">
         <f>IF(_tag_month_all!V21="","",_tag_month_all!V21)</f>
         <v/>
       </c>
-      <c r="X24" s="30" t="str">
+      <c r="X24" s="35" t="str">
         <f>IF(_tag_month_all!W21="","",_tag_month_all!W21)</f>
         <v/>
       </c>
-      <c r="Y24" s="30" t="str">
+      <c r="Y24" s="35" t="str">
         <f>IF(_tag_month_all!X21="","",_tag_month_all!X21)</f>
         <v/>
       </c>
-      <c r="Z24" s="30" t="str">
+      <c r="Z24" s="35" t="str">
         <f>IF(_tag_month_all!Y21="","",_tag_month_all!Y21)</f>
         <v/>
       </c>
-      <c r="AA24" s="30" t="str">
+      <c r="AA24" s="35" t="str">
         <f>IF(_tag_month_all!Z21="","",_tag_month_all!Z21)</f>
         <v/>
       </c>
-      <c r="AB24" s="30" t="str">
+      <c r="AB24" s="35" t="str">
         <f>IF(_tag_month_all!AA21="","",_tag_month_all!AA21)</f>
         <v/>
       </c>
-      <c r="AC24" s="30" t="str">
+      <c r="AC24" s="35" t="str">
         <f>IF(_tag_month_all!AB21="","",_tag_month_all!AB21)</f>
         <v/>
       </c>
-      <c r="AD24" s="17" t="str">
+      <c r="AD24" s="22" t="str">
         <f>IF(_tag_month_all!AC21="","",_tag_month_all!AC21)</f>
         <v/>
       </c>
-      <c r="AE24" s="17" t="str">
+      <c r="AE24" s="22" t="str">
         <f>IF(_tag_month_all!AD21="","",_tag_month_all!AD21)</f>
         <v/>
       </c>
-      <c r="AF24" s="17" t="str">
+      <c r="AF24" s="22" t="str">
         <f>IF(_tag_month_all!AE21="","",_tag_month_all!AE21)</f>
         <v/>
       </c>
-      <c r="AG24" s="17" t="str">
+      <c r="AG24" s="22" t="str">
         <f>IF(_tag_month_all!AF21="","",_tag_month_all!AF21)</f>
         <v/>
       </c>
-      <c r="AH24" s="29" t="str">
+      <c r="AH24" s="34" t="str">
         <f>IF(_tag_month_all!AG21="","",_tag_month_all!AG21)</f>
         <v/>
       </c>
-      <c r="AI24" s="29" t="str">
+      <c r="AI24" s="34" t="str">
         <f>IF(_tag_month_all!AH21="","",_tag_month_all!AH21)</f>
         <v/>
       </c>
-      <c r="AJ24" s="38" t="str">
+      <c r="AJ24" s="51" t="str">
         <f>IF(_tag_month_all!AI21="","",_tag_month_all!AI21)</f>
         <v/>
       </c>
@@ -6261,147 +6842,147 @@
       </c>
       <c r="BO24" s="8"/>
     </row>
-    <row r="25" spans="1:67" ht="14.25">
-      <c r="A25" s="13">
+    <row r="25" ht="14.25" spans="1:67">
+      <c r="A25" s="18">
         <v>21</v>
       </c>
-      <c r="B25" s="16" t="str">
+      <c r="B25" s="21" t="str">
         <f>IF(_tag_month_all!A22="","",_tag_month_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="16" t="str">
+      <c r="C25" s="21" t="str">
         <f>IF(_tag_month_all!B22="","",_tag_month_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="17" t="str">
+      <c r="D25" s="22" t="str">
         <f>IF(_tag_month_all!C22="","",_tag_month_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="18" t="str">
+      <c r="E25" s="23" t="str">
         <f>IF(_tag_month_all!D22="","",_tag_month_all!D22)</f>
         <v/>
       </c>
-      <c r="F25" s="19" t="str">
+      <c r="F25" s="24" t="str">
         <f>IF(_tag_month_all!E22="","",_tag_month_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="20" t="str">
+      <c r="G25" s="25" t="str">
         <f>IF(_tag_month_all!F22="","",_tag_month_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="21" t="str">
+      <c r="H25" s="26" t="str">
         <f>IF(_tag_month_all!G22="","",_tag_month_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="18" t="str">
+      <c r="I25" s="23" t="str">
         <f>IF(_tag_month_all!H22="","",_tag_month_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="18" t="str">
+      <c r="J25" s="23" t="str">
         <f>IF(_tag_month_all!I22="","",_tag_month_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="27" t="str">
+      <c r="K25" s="32" t="str">
         <f>IF(_tag_month_all!J22="","",_tag_month_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="18" t="str">
+      <c r="L25" s="23" t="str">
         <f>IF(_tag_month_all!K22="","",_tag_month_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="28" t="str">
+      <c r="M25" s="33" t="str">
         <f>IF(_tag_month_all!L22="","",_tag_month_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="29" t="str">
+      <c r="N25" s="34" t="str">
         <f>IF(_tag_month_all!M22="","",_tag_month_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="30" t="str">
+      <c r="O25" s="35" t="str">
         <f>IF(_tag_month_all!N22="","",_tag_month_all!N22)</f>
         <v/>
       </c>
-      <c r="P25" s="30" t="str">
+      <c r="P25" s="35" t="str">
         <f>IF(_tag_month_all!O22="","",_tag_month_all!O22)</f>
         <v/>
       </c>
-      <c r="Q25" s="30" t="str">
+      <c r="Q25" s="35" t="str">
         <f>IF(_tag_month_all!P22="","",_tag_month_all!P22)</f>
         <v/>
       </c>
-      <c r="R25" s="35" t="str">
+      <c r="R25" s="43" t="str">
         <f>IF(_tag_month_all!Q22="","",_tag_month_all!Q22)</f>
         <v/>
       </c>
-      <c r="S25" s="35" t="str">
+      <c r="S25" s="43" t="str">
         <f>IF(_tag_month_all!R22="","",_tag_month_all!R22)</f>
         <v/>
       </c>
-      <c r="T25" s="35" t="str">
+      <c r="T25" s="43" t="str">
         <f>IF(_tag_month_all!S22="","",_tag_month_all!S22)</f>
         <v/>
       </c>
-      <c r="U25" s="35" t="str">
+      <c r="U25" s="43" t="str">
         <f>IF(_tag_month_all!T22="","",_tag_month_all!T22)</f>
         <v/>
       </c>
-      <c r="V25" s="29" t="str">
+      <c r="V25" s="34" t="str">
         <f>IF(_tag_month_all!U22="","",_tag_month_all!U22)</f>
         <v/>
       </c>
-      <c r="W25" s="30" t="str">
+      <c r="W25" s="35" t="str">
         <f>IF(_tag_month_all!V22="","",_tag_month_all!V22)</f>
         <v/>
       </c>
-      <c r="X25" s="30" t="str">
+      <c r="X25" s="35" t="str">
         <f>IF(_tag_month_all!W22="","",_tag_month_all!W22)</f>
         <v/>
       </c>
-      <c r="Y25" s="30" t="str">
+      <c r="Y25" s="35" t="str">
         <f>IF(_tag_month_all!X22="","",_tag_month_all!X22)</f>
         <v/>
       </c>
-      <c r="Z25" s="30" t="str">
+      <c r="Z25" s="35" t="str">
         <f>IF(_tag_month_all!Y22="","",_tag_month_all!Y22)</f>
         <v/>
       </c>
-      <c r="AA25" s="30" t="str">
+      <c r="AA25" s="35" t="str">
         <f>IF(_tag_month_all!Z22="","",_tag_month_all!Z22)</f>
         <v/>
       </c>
-      <c r="AB25" s="30" t="str">
+      <c r="AB25" s="35" t="str">
         <f>IF(_tag_month_all!AA22="","",_tag_month_all!AA22)</f>
         <v/>
       </c>
-      <c r="AC25" s="30" t="str">
+      <c r="AC25" s="35" t="str">
         <f>IF(_tag_month_all!AB22="","",_tag_month_all!AB22)</f>
         <v/>
       </c>
-      <c r="AD25" s="17" t="str">
+      <c r="AD25" s="22" t="str">
         <f>IF(_tag_month_all!AC22="","",_tag_month_all!AC22)</f>
         <v/>
       </c>
-      <c r="AE25" s="17" t="str">
+      <c r="AE25" s="22" t="str">
         <f>IF(_tag_month_all!AD22="","",_tag_month_all!AD22)</f>
         <v/>
       </c>
-      <c r="AF25" s="17" t="str">
+      <c r="AF25" s="22" t="str">
         <f>IF(_tag_month_all!AE22="","",_tag_month_all!AE22)</f>
         <v/>
       </c>
-      <c r="AG25" s="17" t="str">
+      <c r="AG25" s="22" t="str">
         <f>IF(_tag_month_all!AF22="","",_tag_month_all!AF22)</f>
         <v/>
       </c>
-      <c r="AH25" s="29" t="str">
+      <c r="AH25" s="34" t="str">
         <f>IF(_tag_month_all!AG22="","",_tag_month_all!AG22)</f>
         <v/>
       </c>
-      <c r="AI25" s="29" t="str">
+      <c r="AI25" s="34" t="str">
         <f>IF(_tag_month_all!AH22="","",_tag_month_all!AH22)</f>
         <v/>
       </c>
-      <c r="AJ25" s="38" t="str">
+      <c r="AJ25" s="51" t="str">
         <f>IF(_tag_month_all!AI22="","",_tag_month_all!AI22)</f>
         <v/>
       </c>
@@ -6527,147 +7108,147 @@
       </c>
       <c r="BO25" s="8"/>
     </row>
-    <row r="26" spans="1:67" ht="14.25">
-      <c r="A26" s="13">
+    <row r="26" ht="14.25" spans="1:67">
+      <c r="A26" s="18">
         <v>22</v>
       </c>
-      <c r="B26" s="16" t="str">
+      <c r="B26" s="21" t="str">
         <f>IF(_tag_month_all!A23="","",_tag_month_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="16" t="str">
+      <c r="C26" s="21" t="str">
         <f>IF(_tag_month_all!B23="","",_tag_month_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="17" t="str">
+      <c r="D26" s="22" t="str">
         <f>IF(_tag_month_all!C23="","",_tag_month_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="18" t="str">
+      <c r="E26" s="23" t="str">
         <f>IF(_tag_month_all!D23="","",_tag_month_all!D23)</f>
         <v/>
       </c>
-      <c r="F26" s="19" t="str">
+      <c r="F26" s="24" t="str">
         <f>IF(_tag_month_all!E23="","",_tag_month_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="20" t="str">
+      <c r="G26" s="25" t="str">
         <f>IF(_tag_month_all!F23="","",_tag_month_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="21" t="str">
+      <c r="H26" s="26" t="str">
         <f>IF(_tag_month_all!G23="","",_tag_month_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="18" t="str">
+      <c r="I26" s="23" t="str">
         <f>IF(_tag_month_all!H23="","",_tag_month_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="18" t="str">
+      <c r="J26" s="23" t="str">
         <f>IF(_tag_month_all!I23="","",_tag_month_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="27" t="str">
+      <c r="K26" s="32" t="str">
         <f>IF(_tag_month_all!J23="","",_tag_month_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="18" t="str">
+      <c r="L26" s="23" t="str">
         <f>IF(_tag_month_all!K23="","",_tag_month_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="28" t="str">
+      <c r="M26" s="33" t="str">
         <f>IF(_tag_month_all!L23="","",_tag_month_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="29" t="str">
+      <c r="N26" s="34" t="str">
         <f>IF(_tag_month_all!M23="","",_tag_month_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="30" t="str">
+      <c r="O26" s="35" t="str">
         <f>IF(_tag_month_all!N23="","",_tag_month_all!N23)</f>
         <v/>
       </c>
-      <c r="P26" s="30" t="str">
+      <c r="P26" s="35" t="str">
         <f>IF(_tag_month_all!O23="","",_tag_month_all!O23)</f>
         <v/>
       </c>
-      <c r="Q26" s="30" t="str">
+      <c r="Q26" s="35" t="str">
         <f>IF(_tag_month_all!P23="","",_tag_month_all!P23)</f>
         <v/>
       </c>
-      <c r="R26" s="35" t="str">
+      <c r="R26" s="43" t="str">
         <f>IF(_tag_month_all!Q23="","",_tag_month_all!Q23)</f>
         <v/>
       </c>
-      <c r="S26" s="35" t="str">
+      <c r="S26" s="43" t="str">
         <f>IF(_tag_month_all!R23="","",_tag_month_all!R23)</f>
         <v/>
       </c>
-      <c r="T26" s="35" t="str">
+      <c r="T26" s="43" t="str">
         <f>IF(_tag_month_all!S23="","",_tag_month_all!S23)</f>
         <v/>
       </c>
-      <c r="U26" s="35" t="str">
+      <c r="U26" s="43" t="str">
         <f>IF(_tag_month_all!T23="","",_tag_month_all!T23)</f>
         <v/>
       </c>
-      <c r="V26" s="29" t="str">
+      <c r="V26" s="34" t="str">
         <f>IF(_tag_month_all!U23="","",_tag_month_all!U23)</f>
         <v/>
       </c>
-      <c r="W26" s="30" t="str">
+      <c r="W26" s="35" t="str">
         <f>IF(_tag_month_all!V23="","",_tag_month_all!V23)</f>
         <v/>
       </c>
-      <c r="X26" s="30" t="str">
+      <c r="X26" s="35" t="str">
         <f>IF(_tag_month_all!W23="","",_tag_month_all!W23)</f>
         <v/>
       </c>
-      <c r="Y26" s="30" t="str">
+      <c r="Y26" s="35" t="str">
         <f>IF(_tag_month_all!X23="","",_tag_month_all!X23)</f>
         <v/>
       </c>
-      <c r="Z26" s="30" t="str">
+      <c r="Z26" s="35" t="str">
         <f>IF(_tag_month_all!Y23="","",_tag_month_all!Y23)</f>
         <v/>
       </c>
-      <c r="AA26" s="30" t="str">
+      <c r="AA26" s="35" t="str">
         <f>IF(_tag_month_all!Z23="","",_tag_month_all!Z23)</f>
         <v/>
       </c>
-      <c r="AB26" s="30" t="str">
+      <c r="AB26" s="35" t="str">
         <f>IF(_tag_month_all!AA23="","",_tag_month_all!AA23)</f>
         <v/>
       </c>
-      <c r="AC26" s="30" t="str">
+      <c r="AC26" s="35" t="str">
         <f>IF(_tag_month_all!AB23="","",_tag_month_all!AB23)</f>
         <v/>
       </c>
-      <c r="AD26" s="17" t="str">
+      <c r="AD26" s="22" t="str">
         <f>IF(_tag_month_all!AC23="","",_tag_month_all!AC23)</f>
         <v/>
       </c>
-      <c r="AE26" s="17" t="str">
+      <c r="AE26" s="22" t="str">
         <f>IF(_tag_month_all!AD23="","",_tag_month_all!AD23)</f>
         <v/>
       </c>
-      <c r="AF26" s="17" t="str">
+      <c r="AF26" s="22" t="str">
         <f>IF(_tag_month_all!AE23="","",_tag_month_all!AE23)</f>
         <v/>
       </c>
-      <c r="AG26" s="17" t="str">
+      <c r="AG26" s="22" t="str">
         <f>IF(_tag_month_all!AF23="","",_tag_month_all!AF23)</f>
         <v/>
       </c>
-      <c r="AH26" s="29" t="str">
+      <c r="AH26" s="34" t="str">
         <f>IF(_tag_month_all!AG23="","",_tag_month_all!AG23)</f>
         <v/>
       </c>
-      <c r="AI26" s="29" t="str">
+      <c r="AI26" s="34" t="str">
         <f>IF(_tag_month_all!AH23="","",_tag_month_all!AH23)</f>
         <v/>
       </c>
-      <c r="AJ26" s="38" t="str">
+      <c r="AJ26" s="51" t="str">
         <f>IF(_tag_month_all!AI23="","",_tag_month_all!AI23)</f>
         <v/>
       </c>
@@ -6793,147 +7374,147 @@
       </c>
       <c r="BO26" s="8"/>
     </row>
-    <row r="27" spans="1:67" ht="14.25">
-      <c r="A27" s="13">
+    <row r="27" ht="14.25" spans="1:67">
+      <c r="A27" s="18">
         <v>23</v>
       </c>
-      <c r="B27" s="16" t="str">
+      <c r="B27" s="21" t="str">
         <f>IF(_tag_month_all!A24="","",_tag_month_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="21" t="str">
         <f>IF(_tag_month_all!B24="","",_tag_month_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="17" t="str">
+      <c r="D27" s="22" t="str">
         <f>IF(_tag_month_all!C24="","",_tag_month_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="18" t="str">
+      <c r="E27" s="23" t="str">
         <f>IF(_tag_month_all!D24="","",_tag_month_all!D24)</f>
         <v/>
       </c>
-      <c r="F27" s="19" t="str">
+      <c r="F27" s="24" t="str">
         <f>IF(_tag_month_all!E24="","",_tag_month_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="20" t="str">
+      <c r="G27" s="25" t="str">
         <f>IF(_tag_month_all!F24="","",_tag_month_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="21" t="str">
+      <c r="H27" s="26" t="str">
         <f>IF(_tag_month_all!G24="","",_tag_month_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="18" t="str">
+      <c r="I27" s="23" t="str">
         <f>IF(_tag_month_all!H24="","",_tag_month_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="18" t="str">
+      <c r="J27" s="23" t="str">
         <f>IF(_tag_month_all!I24="","",_tag_month_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="27" t="str">
+      <c r="K27" s="32" t="str">
         <f>IF(_tag_month_all!J24="","",_tag_month_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="18" t="str">
+      <c r="L27" s="23" t="str">
         <f>IF(_tag_month_all!K24="","",_tag_month_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="28" t="str">
+      <c r="M27" s="33" t="str">
         <f>IF(_tag_month_all!L24="","",_tag_month_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="29" t="str">
+      <c r="N27" s="34" t="str">
         <f>IF(_tag_month_all!M24="","",_tag_month_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="30" t="str">
+      <c r="O27" s="35" t="str">
         <f>IF(_tag_month_all!N24="","",_tag_month_all!N24)</f>
         <v/>
       </c>
-      <c r="P27" s="30" t="str">
+      <c r="P27" s="35" t="str">
         <f>IF(_tag_month_all!O24="","",_tag_month_all!O24)</f>
         <v/>
       </c>
-      <c r="Q27" s="30" t="str">
+      <c r="Q27" s="35" t="str">
         <f>IF(_tag_month_all!P24="","",_tag_month_all!P24)</f>
         <v/>
       </c>
-      <c r="R27" s="35" t="str">
+      <c r="R27" s="43" t="str">
         <f>IF(_tag_month_all!Q24="","",_tag_month_all!Q24)</f>
         <v/>
       </c>
-      <c r="S27" s="35" t="str">
+      <c r="S27" s="43" t="str">
         <f>IF(_tag_month_all!R24="","",_tag_month_all!R24)</f>
         <v/>
       </c>
-      <c r="T27" s="35" t="str">
+      <c r="T27" s="43" t="str">
         <f>IF(_tag_month_all!S24="","",_tag_month_all!S24)</f>
         <v/>
       </c>
-      <c r="U27" s="35" t="str">
+      <c r="U27" s="43" t="str">
         <f>IF(_tag_month_all!T24="","",_tag_month_all!T24)</f>
         <v/>
       </c>
-      <c r="V27" s="29" t="str">
+      <c r="V27" s="34" t="str">
         <f>IF(_tag_month_all!U24="","",_tag_month_all!U24)</f>
         <v/>
       </c>
-      <c r="W27" s="30" t="str">
+      <c r="W27" s="35" t="str">
         <f>IF(_tag_month_all!V24="","",_tag_month_all!V24)</f>
         <v/>
       </c>
-      <c r="X27" s="30" t="str">
+      <c r="X27" s="35" t="str">
         <f>IF(_tag_month_all!W24="","",_tag_month_all!W24)</f>
         <v/>
       </c>
-      <c r="Y27" s="30" t="str">
+      <c r="Y27" s="35" t="str">
         <f>IF(_tag_month_all!X24="","",_tag_month_all!X24)</f>
         <v/>
       </c>
-      <c r="Z27" s="30" t="str">
+      <c r="Z27" s="35" t="str">
         <f>IF(_tag_month_all!Y24="","",_tag_month_all!Y24)</f>
         <v/>
       </c>
-      <c r="AA27" s="30" t="str">
+      <c r="AA27" s="35" t="str">
         <f>IF(_tag_month_all!Z24="","",_tag_month_all!Z24)</f>
         <v/>
       </c>
-      <c r="AB27" s="30" t="str">
+      <c r="AB27" s="35" t="str">
         <f>IF(_tag_month_all!AA24="","",_tag_month_all!AA24)</f>
         <v/>
       </c>
-      <c r="AC27" s="30" t="str">
+      <c r="AC27" s="35" t="str">
         <f>IF(_tag_month_all!AB24="","",_tag_month_all!AB24)</f>
         <v/>
       </c>
-      <c r="AD27" s="17" t="str">
+      <c r="AD27" s="22" t="str">
         <f>IF(_tag_month_all!AC24="","",_tag_month_all!AC24)</f>
         <v/>
       </c>
-      <c r="AE27" s="17" t="str">
+      <c r="AE27" s="22" t="str">
         <f>IF(_tag_month_all!AD24="","",_tag_month_all!AD24)</f>
         <v/>
       </c>
-      <c r="AF27" s="17" t="str">
+      <c r="AF27" s="22" t="str">
         <f>IF(_tag_month_all!AE24="","",_tag_month_all!AE24)</f>
         <v/>
       </c>
-      <c r="AG27" s="17" t="str">
+      <c r="AG27" s="22" t="str">
         <f>IF(_tag_month_all!AF24="","",_tag_month_all!AF24)</f>
         <v/>
       </c>
-      <c r="AH27" s="29" t="str">
+      <c r="AH27" s="34" t="str">
         <f>IF(_tag_month_all!AG24="","",_tag_month_all!AG24)</f>
         <v/>
       </c>
-      <c r="AI27" s="29" t="str">
+      <c r="AI27" s="34" t="str">
         <f>IF(_tag_month_all!AH24="","",_tag_month_all!AH24)</f>
         <v/>
       </c>
-      <c r="AJ27" s="38" t="str">
+      <c r="AJ27" s="51" t="str">
         <f>IF(_tag_month_all!AI24="","",_tag_month_all!AI24)</f>
         <v/>
       </c>
@@ -7059,147 +7640,147 @@
       </c>
       <c r="BO27" s="8"/>
     </row>
-    <row r="28" spans="1:67" ht="14.25">
-      <c r="A28" s="13">
+    <row r="28" ht="14.25" spans="1:67">
+      <c r="A28" s="18">
         <v>24</v>
       </c>
-      <c r="B28" s="16" t="str">
+      <c r="B28" s="21" t="str">
         <f>IF(_tag_month_all!A25="","",_tag_month_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="21" t="str">
         <f>IF(_tag_month_all!B25="","",_tag_month_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="17" t="str">
+      <c r="D28" s="22" t="str">
         <f>IF(_tag_month_all!C25="","",_tag_month_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="18" t="str">
+      <c r="E28" s="23" t="str">
         <f>IF(_tag_month_all!D25="","",_tag_month_all!D25)</f>
         <v/>
       </c>
-      <c r="F28" s="19" t="str">
+      <c r="F28" s="24" t="str">
         <f>IF(_tag_month_all!E25="","",_tag_month_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="20" t="str">
+      <c r="G28" s="25" t="str">
         <f>IF(_tag_month_all!F25="","",_tag_month_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="21" t="str">
+      <c r="H28" s="26" t="str">
         <f>IF(_tag_month_all!G25="","",_tag_month_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="18" t="str">
+      <c r="I28" s="23" t="str">
         <f>IF(_tag_month_all!H25="","",_tag_month_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="18" t="str">
+      <c r="J28" s="23" t="str">
         <f>IF(_tag_month_all!I25="","",_tag_month_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="27" t="str">
+      <c r="K28" s="32" t="str">
         <f>IF(_tag_month_all!J25="","",_tag_month_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="18" t="str">
+      <c r="L28" s="23" t="str">
         <f>IF(_tag_month_all!K25="","",_tag_month_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="28" t="str">
+      <c r="M28" s="33" t="str">
         <f>IF(_tag_month_all!L25="","",_tag_month_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="29" t="str">
+      <c r="N28" s="34" t="str">
         <f>IF(_tag_month_all!M25="","",_tag_month_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="30" t="str">
+      <c r="O28" s="35" t="str">
         <f>IF(_tag_month_all!N25="","",_tag_month_all!N25)</f>
         <v/>
       </c>
-      <c r="P28" s="30" t="str">
+      <c r="P28" s="35" t="str">
         <f>IF(_tag_month_all!O25="","",_tag_month_all!O25)</f>
         <v/>
       </c>
-      <c r="Q28" s="30" t="str">
+      <c r="Q28" s="35" t="str">
         <f>IF(_tag_month_all!P25="","",_tag_month_all!P25)</f>
         <v/>
       </c>
-      <c r="R28" s="35" t="str">
+      <c r="R28" s="43" t="str">
         <f>IF(_tag_month_all!Q25="","",_tag_month_all!Q25)</f>
         <v/>
       </c>
-      <c r="S28" s="35" t="str">
+      <c r="S28" s="43" t="str">
         <f>IF(_tag_month_all!R25="","",_tag_month_all!R25)</f>
         <v/>
       </c>
-      <c r="T28" s="35" t="str">
+      <c r="T28" s="43" t="str">
         <f>IF(_tag_month_all!S25="","",_tag_month_all!S25)</f>
         <v/>
       </c>
-      <c r="U28" s="35" t="str">
+      <c r="U28" s="43" t="str">
         <f>IF(_tag_month_all!T25="","",_tag_month_all!T25)</f>
         <v/>
       </c>
-      <c r="V28" s="29" t="str">
+      <c r="V28" s="34" t="str">
         <f>IF(_tag_month_all!U25="","",_tag_month_all!U25)</f>
         <v/>
       </c>
-      <c r="W28" s="30" t="str">
+      <c r="W28" s="35" t="str">
         <f>IF(_tag_month_all!V25="","",_tag_month_all!V25)</f>
         <v/>
       </c>
-      <c r="X28" s="30" t="str">
+      <c r="X28" s="35" t="str">
         <f>IF(_tag_month_all!W25="","",_tag_month_all!W25)</f>
         <v/>
       </c>
-      <c r="Y28" s="30" t="str">
+      <c r="Y28" s="35" t="str">
         <f>IF(_tag_month_all!X25="","",_tag_month_all!X25)</f>
         <v/>
       </c>
-      <c r="Z28" s="30" t="str">
+      <c r="Z28" s="35" t="str">
         <f>IF(_tag_month_all!Y25="","",_tag_month_all!Y25)</f>
         <v/>
       </c>
-      <c r="AA28" s="30" t="str">
+      <c r="AA28" s="35" t="str">
         <f>IF(_tag_month_all!Z25="","",_tag_month_all!Z25)</f>
         <v/>
       </c>
-      <c r="AB28" s="30" t="str">
+      <c r="AB28" s="35" t="str">
         <f>IF(_tag_month_all!AA25="","",_tag_month_all!AA25)</f>
         <v/>
       </c>
-      <c r="AC28" s="30" t="str">
+      <c r="AC28" s="35" t="str">
         <f>IF(_tag_month_all!AB25="","",_tag_month_all!AB25)</f>
         <v/>
       </c>
-      <c r="AD28" s="17" t="str">
+      <c r="AD28" s="22" t="str">
         <f>IF(_tag_month_all!AC25="","",_tag_month_all!AC25)</f>
         <v/>
       </c>
-      <c r="AE28" s="17" t="str">
+      <c r="AE28" s="22" t="str">
         <f>IF(_tag_month_all!AD25="","",_tag_month_all!AD25)</f>
         <v/>
       </c>
-      <c r="AF28" s="17" t="str">
+      <c r="AF28" s="22" t="str">
         <f>IF(_tag_month_all!AE25="","",_tag_month_all!AE25)</f>
         <v/>
       </c>
-      <c r="AG28" s="17" t="str">
+      <c r="AG28" s="22" t="str">
         <f>IF(_tag_month_all!AF25="","",_tag_month_all!AF25)</f>
         <v/>
       </c>
-      <c r="AH28" s="29" t="str">
+      <c r="AH28" s="34" t="str">
         <f>IF(_tag_month_all!AG25="","",_tag_month_all!AG25)</f>
         <v/>
       </c>
-      <c r="AI28" s="29" t="str">
+      <c r="AI28" s="34" t="str">
         <f>IF(_tag_month_all!AH25="","",_tag_month_all!AH25)</f>
         <v/>
       </c>
-      <c r="AJ28" s="38" t="str">
+      <c r="AJ28" s="51" t="str">
         <f>IF(_tag_month_all!AI25="","",_tag_month_all!AI25)</f>
         <v/>
       </c>
@@ -7325,147 +7906,147 @@
       </c>
       <c r="BO28" s="8"/>
     </row>
-    <row r="29" spans="1:67" ht="14.25">
-      <c r="A29" s="13">
+    <row r="29" ht="14.25" spans="1:67">
+      <c r="A29" s="18">
         <v>25</v>
       </c>
-      <c r="B29" s="16" t="str">
+      <c r="B29" s="21" t="str">
         <f>IF(_tag_month_all!A26="","",_tag_month_all!A26)</f>
         <v/>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="21" t="str">
         <f>IF(_tag_month_all!B26="","",_tag_month_all!B26)</f>
         <v/>
       </c>
-      <c r="D29" s="17" t="str">
+      <c r="D29" s="22" t="str">
         <f>IF(_tag_month_all!C26="","",_tag_month_all!C26)</f>
         <v/>
       </c>
-      <c r="E29" s="18" t="str">
+      <c r="E29" s="23" t="str">
         <f>IF(_tag_month_all!D26="","",_tag_month_all!D26)</f>
         <v/>
       </c>
-      <c r="F29" s="19" t="str">
+      <c r="F29" s="24" t="str">
         <f>IF(_tag_month_all!E26="","",_tag_month_all!E26)</f>
         <v/>
       </c>
-      <c r="G29" s="20" t="str">
+      <c r="G29" s="25" t="str">
         <f>IF(_tag_month_all!F26="","",_tag_month_all!F26)</f>
         <v/>
       </c>
-      <c r="H29" s="21" t="str">
+      <c r="H29" s="26" t="str">
         <f>IF(_tag_month_all!G26="","",_tag_month_all!G26)</f>
         <v/>
       </c>
-      <c r="I29" s="18" t="str">
+      <c r="I29" s="23" t="str">
         <f>IF(_tag_month_all!H26="","",_tag_month_all!H26)</f>
         <v/>
       </c>
-      <c r="J29" s="18" t="str">
+      <c r="J29" s="23" t="str">
         <f>IF(_tag_month_all!I26="","",_tag_month_all!I26)</f>
         <v/>
       </c>
-      <c r="K29" s="27" t="str">
+      <c r="K29" s="32" t="str">
         <f>IF(_tag_month_all!J26="","",_tag_month_all!J26)</f>
         <v/>
       </c>
-      <c r="L29" s="18" t="str">
+      <c r="L29" s="23" t="str">
         <f>IF(_tag_month_all!K26="","",_tag_month_all!K26)</f>
         <v/>
       </c>
-      <c r="M29" s="28" t="str">
+      <c r="M29" s="33" t="str">
         <f>IF(_tag_month_all!L26="","",_tag_month_all!L26)</f>
         <v/>
       </c>
-      <c r="N29" s="29" t="str">
+      <c r="N29" s="34" t="str">
         <f>IF(_tag_month_all!M26="","",_tag_month_all!M26)</f>
         <v/>
       </c>
-      <c r="O29" s="30" t="str">
+      <c r="O29" s="35" t="str">
         <f>IF(_tag_month_all!N26="","",_tag_month_all!N26)</f>
         <v/>
       </c>
-      <c r="P29" s="30" t="str">
+      <c r="P29" s="35" t="str">
         <f>IF(_tag_month_all!O26="","",_tag_month_all!O26)</f>
         <v/>
       </c>
-      <c r="Q29" s="30" t="str">
+      <c r="Q29" s="35" t="str">
         <f>IF(_tag_month_all!P26="","",_tag_month_all!P26)</f>
         <v/>
       </c>
-      <c r="R29" s="35" t="str">
+      <c r="R29" s="43" t="str">
         <f>IF(_tag_month_all!Q26="","",_tag_month_all!Q26)</f>
         <v/>
       </c>
-      <c r="S29" s="35" t="str">
+      <c r="S29" s="43" t="str">
         <f>IF(_tag_month_all!R26="","",_tag_month_all!R26)</f>
         <v/>
       </c>
-      <c r="T29" s="35" t="str">
+      <c r="T29" s="43" t="str">
         <f>IF(_tag_month_all!S26="","",_tag_month_all!S26)</f>
         <v/>
       </c>
-      <c r="U29" s="35" t="str">
+      <c r="U29" s="43" t="str">
         <f>IF(_tag_month_all!T26="","",_tag_month_all!T26)</f>
         <v/>
       </c>
-      <c r="V29" s="29" t="str">
+      <c r="V29" s="34" t="str">
         <f>IF(_tag_month_all!U26="","",_tag_month_all!U26)</f>
         <v/>
       </c>
-      <c r="W29" s="30" t="str">
+      <c r="W29" s="35" t="str">
         <f>IF(_tag_month_all!V26="","",_tag_month_all!V26)</f>
         <v/>
       </c>
-      <c r="X29" s="30" t="str">
+      <c r="X29" s="35" t="str">
         <f>IF(_tag_month_all!W26="","",_tag_month_all!W26)</f>
         <v/>
       </c>
-      <c r="Y29" s="30" t="str">
+      <c r="Y29" s="35" t="str">
         <f>IF(_tag_month_all!X26="","",_tag_month_all!X26)</f>
         <v/>
       </c>
-      <c r="Z29" s="30" t="str">
+      <c r="Z29" s="35" t="str">
         <f>IF(_tag_month_all!Y26="","",_tag_month_all!Y26)</f>
         <v/>
       </c>
-      <c r="AA29" s="30" t="str">
+      <c r="AA29" s="35" t="str">
         <f>IF(_tag_month_all!Z26="","",_tag_month_all!Z26)</f>
         <v/>
       </c>
-      <c r="AB29" s="30" t="str">
+      <c r="AB29" s="35" t="str">
         <f>IF(_tag_month_all!AA26="","",_tag_month_all!AA26)</f>
         <v/>
       </c>
-      <c r="AC29" s="30" t="str">
+      <c r="AC29" s="35" t="str">
         <f>IF(_tag_month_all!AB26="","",_tag_month_all!AB26)</f>
         <v/>
       </c>
-      <c r="AD29" s="17" t="str">
+      <c r="AD29" s="22" t="str">
         <f>IF(_tag_month_all!AC26="","",_tag_month_all!AC26)</f>
         <v/>
       </c>
-      <c r="AE29" s="17" t="str">
+      <c r="AE29" s="22" t="str">
         <f>IF(_tag_month_all!AD26="","",_tag_month_all!AD26)</f>
         <v/>
       </c>
-      <c r="AF29" s="17" t="str">
+      <c r="AF29" s="22" t="str">
         <f>IF(_tag_month_all!AE26="","",_tag_month_all!AE26)</f>
         <v/>
       </c>
-      <c r="AG29" s="17" t="str">
+      <c r="AG29" s="22" t="str">
         <f>IF(_tag_month_all!AF26="","",_tag_month_all!AF26)</f>
         <v/>
       </c>
-      <c r="AH29" s="29" t="str">
+      <c r="AH29" s="34" t="str">
         <f>IF(_tag_month_all!AG26="","",_tag_month_all!AG26)</f>
         <v/>
       </c>
-      <c r="AI29" s="29" t="str">
+      <c r="AI29" s="34" t="str">
         <f>IF(_tag_month_all!AH26="","",_tag_month_all!AH26)</f>
         <v/>
       </c>
-      <c r="AJ29" s="38" t="str">
+      <c r="AJ29" s="51" t="str">
         <f>IF(_tag_month_all!AI26="","",_tag_month_all!AI26)</f>
         <v/>
       </c>
@@ -7591,147 +8172,147 @@
       </c>
       <c r="BO29" s="8"/>
     </row>
-    <row r="30" spans="1:67" ht="14.25">
-      <c r="A30" s="13">
+    <row r="30" ht="14.25" spans="1:67">
+      <c r="A30" s="18">
         <v>26</v>
       </c>
-      <c r="B30" s="16" t="str">
+      <c r="B30" s="21" t="str">
         <f>IF(_tag_month_all!A27="","",_tag_month_all!A27)</f>
         <v/>
       </c>
-      <c r="C30" s="16" t="str">
+      <c r="C30" s="21" t="str">
         <f>IF(_tag_month_all!B27="","",_tag_month_all!B27)</f>
         <v/>
       </c>
-      <c r="D30" s="17" t="str">
+      <c r="D30" s="22" t="str">
         <f>IF(_tag_month_all!C27="","",_tag_month_all!C27)</f>
         <v/>
       </c>
-      <c r="E30" s="18" t="str">
+      <c r="E30" s="23" t="str">
         <f>IF(_tag_month_all!D27="","",_tag_month_all!D27)</f>
         <v/>
       </c>
-      <c r="F30" s="19" t="str">
+      <c r="F30" s="24" t="str">
         <f>IF(_tag_month_all!E27="","",_tag_month_all!E27)</f>
         <v/>
       </c>
-      <c r="G30" s="20" t="str">
+      <c r="G30" s="25" t="str">
         <f>IF(_tag_month_all!F27="","",_tag_month_all!F27)</f>
         <v/>
       </c>
-      <c r="H30" s="21" t="str">
+      <c r="H30" s="26" t="str">
         <f>IF(_tag_month_all!G27="","",_tag_month_all!G27)</f>
         <v/>
       </c>
-      <c r="I30" s="18" t="str">
+      <c r="I30" s="23" t="str">
         <f>IF(_tag_month_all!H27="","",_tag_month_all!H27)</f>
         <v/>
       </c>
-      <c r="J30" s="18" t="str">
+      <c r="J30" s="23" t="str">
         <f>IF(_tag_month_all!I27="","",_tag_month_all!I27)</f>
         <v/>
       </c>
-      <c r="K30" s="27" t="str">
+      <c r="K30" s="32" t="str">
         <f>IF(_tag_month_all!J27="","",_tag_month_all!J27)</f>
         <v/>
       </c>
-      <c r="L30" s="18" t="str">
+      <c r="L30" s="23" t="str">
         <f>IF(_tag_month_all!K27="","",_tag_month_all!K27)</f>
         <v/>
       </c>
-      <c r="M30" s="28" t="str">
+      <c r="M30" s="33" t="str">
         <f>IF(_tag_month_all!L27="","",_tag_month_all!L27)</f>
         <v/>
       </c>
-      <c r="N30" s="29" t="str">
+      <c r="N30" s="34" t="str">
         <f>IF(_tag_month_all!M27="","",_tag_month_all!M27)</f>
         <v/>
       </c>
-      <c r="O30" s="30" t="str">
+      <c r="O30" s="35" t="str">
         <f>IF(_tag_month_all!N27="","",_tag_month_all!N27)</f>
         <v/>
       </c>
-      <c r="P30" s="30" t="str">
+      <c r="P30" s="35" t="str">
         <f>IF(_tag_month_all!O27="","",_tag_month_all!O27)</f>
         <v/>
       </c>
-      <c r="Q30" s="30" t="str">
+      <c r="Q30" s="35" t="str">
         <f>IF(_tag_month_all!P27="","",_tag_month_all!P27)</f>
         <v/>
       </c>
-      <c r="R30" s="35" t="str">
+      <c r="R30" s="43" t="str">
         <f>IF(_tag_month_all!Q27="","",_tag_month_all!Q27)</f>
         <v/>
       </c>
-      <c r="S30" s="35" t="str">
+      <c r="S30" s="43" t="str">
         <f>IF(_tag_month_all!R27="","",_tag_month_all!R27)</f>
         <v/>
       </c>
-      <c r="T30" s="35" t="str">
+      <c r="T30" s="43" t="str">
         <f>IF(_tag_month_all!S27="","",_tag_month_all!S27)</f>
         <v/>
       </c>
-      <c r="U30" s="35" t="str">
+      <c r="U30" s="43" t="str">
         <f>IF(_tag_month_all!T27="","",_tag_month_all!T27)</f>
         <v/>
       </c>
-      <c r="V30" s="29" t="str">
+      <c r="V30" s="34" t="str">
         <f>IF(_tag_month_all!U27="","",_tag_month_all!U27)</f>
         <v/>
       </c>
-      <c r="W30" s="30" t="str">
+      <c r="W30" s="35" t="str">
         <f>IF(_tag_month_all!V27="","",_tag_month_all!V27)</f>
         <v/>
       </c>
-      <c r="X30" s="30" t="str">
+      <c r="X30" s="35" t="str">
         <f>IF(_tag_month_all!W27="","",_tag_month_all!W27)</f>
         <v/>
       </c>
-      <c r="Y30" s="30" t="str">
+      <c r="Y30" s="35" t="str">
         <f>IF(_tag_month_all!X27="","",_tag_month_all!X27)</f>
         <v/>
       </c>
-      <c r="Z30" s="30" t="str">
+      <c r="Z30" s="35" t="str">
         <f>IF(_tag_month_all!Y27="","",_tag_month_all!Y27)</f>
         <v/>
       </c>
-      <c r="AA30" s="30" t="str">
+      <c r="AA30" s="35" t="str">
         <f>IF(_tag_month_all!Z27="","",_tag_month_all!Z27)</f>
         <v/>
       </c>
-      <c r="AB30" s="30" t="str">
+      <c r="AB30" s="35" t="str">
         <f>IF(_tag_month_all!AA27="","",_tag_month_all!AA27)</f>
         <v/>
       </c>
-      <c r="AC30" s="30" t="str">
+      <c r="AC30" s="35" t="str">
         <f>IF(_tag_month_all!AB27="","",_tag_month_all!AB27)</f>
         <v/>
       </c>
-      <c r="AD30" s="17" t="str">
+      <c r="AD30" s="22" t="str">
         <f>IF(_tag_month_all!AC27="","",_tag_month_all!AC27)</f>
         <v/>
       </c>
-      <c r="AE30" s="17" t="str">
+      <c r="AE30" s="22" t="str">
         <f>IF(_tag_month_all!AD27="","",_tag_month_all!AD27)</f>
         <v/>
       </c>
-      <c r="AF30" s="17" t="str">
+      <c r="AF30" s="22" t="str">
         <f>IF(_tag_month_all!AE27="","",_tag_month_all!AE27)</f>
         <v/>
       </c>
-      <c r="AG30" s="17" t="str">
+      <c r="AG30" s="22" t="str">
         <f>IF(_tag_month_all!AF27="","",_tag_month_all!AF27)</f>
         <v/>
       </c>
-      <c r="AH30" s="29" t="str">
+      <c r="AH30" s="34" t="str">
         <f>IF(_tag_month_all!AG27="","",_tag_month_all!AG27)</f>
         <v/>
       </c>
-      <c r="AI30" s="29" t="str">
+      <c r="AI30" s="34" t="str">
         <f>IF(_tag_month_all!AH27="","",_tag_month_all!AH27)</f>
         <v/>
       </c>
-      <c r="AJ30" s="38" t="str">
+      <c r="AJ30" s="51" t="str">
         <f>IF(_tag_month_all!AI27="","",_tag_month_all!AI27)</f>
         <v/>
       </c>
@@ -7857,147 +8438,147 @@
       </c>
       <c r="BO30" s="8"/>
     </row>
-    <row r="31" spans="1:67" ht="14.25">
-      <c r="A31" s="13">
+    <row r="31" ht="14.25" spans="1:67">
+      <c r="A31" s="18">
         <v>27</v>
       </c>
-      <c r="B31" s="16" t="str">
+      <c r="B31" s="21" t="str">
         <f>IF(_tag_month_all!A28="","",_tag_month_all!A28)</f>
         <v/>
       </c>
-      <c r="C31" s="16" t="str">
+      <c r="C31" s="21" t="str">
         <f>IF(_tag_month_all!B28="","",_tag_month_all!B28)</f>
         <v/>
       </c>
-      <c r="D31" s="17" t="str">
+      <c r="D31" s="22" t="str">
         <f>IF(_tag_month_all!C28="","",_tag_month_all!C28)</f>
         <v/>
       </c>
-      <c r="E31" s="18" t="str">
+      <c r="E31" s="23" t="str">
         <f>IF(_tag_month_all!D28="","",_tag_month_all!D28)</f>
         <v/>
       </c>
-      <c r="F31" s="19" t="str">
+      <c r="F31" s="24" t="str">
         <f>IF(_tag_month_all!E28="","",_tag_month_all!E28)</f>
         <v/>
       </c>
-      <c r="G31" s="20" t="str">
+      <c r="G31" s="25" t="str">
         <f>IF(_tag_month_all!F28="","",_tag_month_all!F28)</f>
         <v/>
       </c>
-      <c r="H31" s="21" t="str">
+      <c r="H31" s="26" t="str">
         <f>IF(_tag_month_all!G28="","",_tag_month_all!G28)</f>
         <v/>
       </c>
-      <c r="I31" s="18" t="str">
+      <c r="I31" s="23" t="str">
         <f>IF(_tag_month_all!H28="","",_tag_month_all!H28)</f>
         <v/>
       </c>
-      <c r="J31" s="18" t="str">
+      <c r="J31" s="23" t="str">
         <f>IF(_tag_month_all!I28="","",_tag_month_all!I28)</f>
         <v/>
       </c>
-      <c r="K31" s="27" t="str">
+      <c r="K31" s="32" t="str">
         <f>IF(_tag_month_all!J28="","",_tag_month_all!J28)</f>
         <v/>
       </c>
-      <c r="L31" s="18" t="str">
+      <c r="L31" s="23" t="str">
         <f>IF(_tag_month_all!K28="","",_tag_month_all!K28)</f>
         <v/>
       </c>
-      <c r="M31" s="28" t="str">
+      <c r="M31" s="33" t="str">
         <f>IF(_tag_month_all!L28="","",_tag_month_all!L28)</f>
         <v/>
       </c>
-      <c r="N31" s="29" t="str">
+      <c r="N31" s="34" t="str">
         <f>IF(_tag_month_all!M28="","",_tag_month_all!M28)</f>
         <v/>
       </c>
-      <c r="O31" s="30" t="str">
+      <c r="O31" s="35" t="str">
         <f>IF(_tag_month_all!N28="","",_tag_month_all!N28)</f>
         <v/>
       </c>
-      <c r="P31" s="30" t="str">
+      <c r="P31" s="35" t="str">
         <f>IF(_tag_month_all!O28="","",_tag_month_all!O28)</f>
         <v/>
       </c>
-      <c r="Q31" s="30" t="str">
+      <c r="Q31" s="35" t="str">
         <f>IF(_tag_month_all!P28="","",_tag_month_all!P28)</f>
         <v/>
       </c>
-      <c r="R31" s="35" t="str">
+      <c r="R31" s="43" t="str">
         <f>IF(_tag_month_all!Q28="","",_tag_month_all!Q28)</f>
         <v/>
       </c>
-      <c r="S31" s="35" t="str">
+      <c r="S31" s="43" t="str">
         <f>IF(_tag_month_all!R28="","",_tag_month_all!R28)</f>
         <v/>
       </c>
-      <c r="T31" s="35" t="str">
+      <c r="T31" s="43" t="str">
         <f>IF(_tag_month_all!S28="","",_tag_month_all!S28)</f>
         <v/>
       </c>
-      <c r="U31" s="35" t="str">
+      <c r="U31" s="43" t="str">
         <f>IF(_tag_month_all!T28="","",_tag_month_all!T28)</f>
         <v/>
       </c>
-      <c r="V31" s="29" t="str">
+      <c r="V31" s="34" t="str">
         <f>IF(_tag_month_all!U28="","",_tag_month_all!U28)</f>
         <v/>
       </c>
-      <c r="W31" s="30" t="str">
+      <c r="W31" s="35" t="str">
         <f>IF(_tag_month_all!V28="","",_tag_month_all!V28)</f>
         <v/>
       </c>
-      <c r="X31" s="30" t="str">
+      <c r="X31" s="35" t="str">
         <f>IF(_tag_month_all!W28="","",_tag_month_all!W28)</f>
         <v/>
       </c>
-      <c r="Y31" s="30" t="str">
+      <c r="Y31" s="35" t="str">
         <f>IF(_tag_month_all!X28="","",_tag_month_all!X28)</f>
         <v/>
       </c>
-      <c r="Z31" s="30" t="str">
+      <c r="Z31" s="35" t="str">
         <f>IF(_tag_month_all!Y28="","",_tag_month_all!Y28)</f>
         <v/>
       </c>
-      <c r="AA31" s="30" t="str">
+      <c r="AA31" s="35" t="str">
         <f>IF(_tag_month_all!Z28="","",_tag_month_all!Z28)</f>
         <v/>
       </c>
-      <c r="AB31" s="30" t="str">
+      <c r="AB31" s="35" t="str">
         <f>IF(_tag_month_all!AA28="","",_tag_month_all!AA28)</f>
         <v/>
       </c>
-      <c r="AC31" s="30" t="str">
+      <c r="AC31" s="35" t="str">
         <f>IF(_tag_month_all!AB28="","",_tag_month_all!AB28)</f>
         <v/>
       </c>
-      <c r="AD31" s="17" t="str">
+      <c r="AD31" s="22" t="str">
         <f>IF(_tag_month_all!AC28="","",_tag_month_all!AC28)</f>
         <v/>
       </c>
-      <c r="AE31" s="17" t="str">
+      <c r="AE31" s="22" t="str">
         <f>IF(_tag_month_all!AD28="","",_tag_month_all!AD28)</f>
         <v/>
       </c>
-      <c r="AF31" s="17" t="str">
+      <c r="AF31" s="22" t="str">
         <f>IF(_tag_month_all!AE28="","",_tag_month_all!AE28)</f>
         <v/>
       </c>
-      <c r="AG31" s="17" t="str">
+      <c r="AG31" s="22" t="str">
         <f>IF(_tag_month_all!AF28="","",_tag_month_all!AF28)</f>
         <v/>
       </c>
-      <c r="AH31" s="29" t="str">
+      <c r="AH31" s="34" t="str">
         <f>IF(_tag_month_all!AG28="","",_tag_month_all!AG28)</f>
         <v/>
       </c>
-      <c r="AI31" s="29" t="str">
+      <c r="AI31" s="34" t="str">
         <f>IF(_tag_month_all!AH28="","",_tag_month_all!AH28)</f>
         <v/>
       </c>
-      <c r="AJ31" s="38" t="str">
+      <c r="AJ31" s="51" t="str">
         <f>IF(_tag_month_all!AI28="","",_tag_month_all!AI28)</f>
         <v/>
       </c>
@@ -8123,147 +8704,147 @@
       </c>
       <c r="BO31" s="8"/>
     </row>
-    <row r="32" spans="1:67" ht="14.25">
-      <c r="A32" s="13">
+    <row r="32" ht="14.25" spans="1:67">
+      <c r="A32" s="18">
         <v>28</v>
       </c>
-      <c r="B32" s="16" t="str">
+      <c r="B32" s="21" t="str">
         <f>IF(_tag_month_all!A29="","",_tag_month_all!A29)</f>
         <v/>
       </c>
-      <c r="C32" s="16" t="str">
+      <c r="C32" s="21" t="str">
         <f>IF(_tag_month_all!B29="","",_tag_month_all!B29)</f>
         <v/>
       </c>
-      <c r="D32" s="17" t="str">
+      <c r="D32" s="22" t="str">
         <f>IF(_tag_month_all!C29="","",_tag_month_all!C29)</f>
         <v/>
       </c>
-      <c r="E32" s="18" t="str">
+      <c r="E32" s="23" t="str">
         <f>IF(_tag_month_all!D29="","",_tag_month_all!D29)</f>
         <v/>
       </c>
-      <c r="F32" s="19" t="str">
+      <c r="F32" s="24" t="str">
         <f>IF(_tag_month_all!E29="","",_tag_month_all!E29)</f>
         <v/>
       </c>
-      <c r="G32" s="20" t="str">
+      <c r="G32" s="25" t="str">
         <f>IF(_tag_month_all!F29="","",_tag_month_all!F29)</f>
         <v/>
       </c>
-      <c r="H32" s="21" t="str">
+      <c r="H32" s="26" t="str">
         <f>IF(_tag_month_all!G29="","",_tag_month_all!G29)</f>
         <v/>
       </c>
-      <c r="I32" s="18" t="str">
+      <c r="I32" s="23" t="str">
         <f>IF(_tag_month_all!H29="","",_tag_month_all!H29)</f>
         <v/>
       </c>
-      <c r="J32" s="18" t="str">
+      <c r="J32" s="23" t="str">
         <f>IF(_tag_month_all!I29="","",_tag_month_all!I29)</f>
         <v/>
       </c>
-      <c r="K32" s="27" t="str">
+      <c r="K32" s="32" t="str">
         <f>IF(_tag_month_all!J29="","",_tag_month_all!J29)</f>
         <v/>
       </c>
-      <c r="L32" s="18" t="str">
+      <c r="L32" s="23" t="str">
         <f>IF(_tag_month_all!K29="","",_tag_month_all!K29)</f>
         <v/>
       </c>
-      <c r="M32" s="28" t="str">
+      <c r="M32" s="33" t="str">
         <f>IF(_tag_month_all!L29="","",_tag_month_all!L29)</f>
         <v/>
       </c>
-      <c r="N32" s="29" t="str">
+      <c r="N32" s="34" t="str">
         <f>IF(_tag_month_all!M29="","",_tag_month_all!M29)</f>
         <v/>
       </c>
-      <c r="O32" s="30" t="str">
+      <c r="O32" s="35" t="str">
         <f>IF(_tag_month_all!N29="","",_tag_month_all!N29)</f>
         <v/>
       </c>
-      <c r="P32" s="30" t="str">
+      <c r="P32" s="35" t="str">
         <f>IF(_tag_month_all!O29="","",_tag_month_all!O29)</f>
         <v/>
       </c>
-      <c r="Q32" s="30" t="str">
+      <c r="Q32" s="35" t="str">
         <f>IF(_tag_month_all!P29="","",_tag_month_all!P29)</f>
         <v/>
       </c>
-      <c r="R32" s="35" t="str">
+      <c r="R32" s="43" t="str">
         <f>IF(_tag_month_all!Q29="","",_tag_month_all!Q29)</f>
         <v/>
       </c>
-      <c r="S32" s="35" t="str">
+      <c r="S32" s="43" t="str">
         <f>IF(_tag_month_all!R29="","",_tag_month_all!R29)</f>
         <v/>
       </c>
-      <c r="T32" s="35" t="str">
+      <c r="T32" s="43" t="str">
         <f>IF(_tag_month_all!S29="","",_tag_month_all!S29)</f>
         <v/>
       </c>
-      <c r="U32" s="35" t="str">
+      <c r="U32" s="43" t="str">
         <f>IF(_tag_month_all!T29="","",_tag_month_all!T29)</f>
         <v/>
       </c>
-      <c r="V32" s="29" t="str">
+      <c r="V32" s="34" t="str">
         <f>IF(_tag_month_all!U29="","",_tag_month_all!U29)</f>
         <v/>
       </c>
-      <c r="W32" s="30" t="str">
+      <c r="W32" s="35" t="str">
         <f>IF(_tag_month_all!V29="","",_tag_month_all!V29)</f>
         <v/>
       </c>
-      <c r="X32" s="30" t="str">
+      <c r="X32" s="35" t="str">
         <f>IF(_tag_month_all!W29="","",_tag_month_all!W29)</f>
         <v/>
       </c>
-      <c r="Y32" s="30" t="str">
+      <c r="Y32" s="35" t="str">
         <f>IF(_tag_month_all!X29="","",_tag_month_all!X29)</f>
         <v/>
       </c>
-      <c r="Z32" s="30" t="str">
+      <c r="Z32" s="35" t="str">
         <f>IF(_tag_month_all!Y29="","",_tag_month_all!Y29)</f>
         <v/>
       </c>
-      <c r="AA32" s="30" t="str">
+      <c r="AA32" s="35" t="str">
         <f>IF(_tag_month_all!Z29="","",_tag_month_all!Z29)</f>
         <v/>
       </c>
-      <c r="AB32" s="30" t="str">
+      <c r="AB32" s="35" t="str">
         <f>IF(_tag_month_all!AA29="","",_tag_month_all!AA29)</f>
         <v/>
       </c>
-      <c r="AC32" s="30" t="str">
+      <c r="AC32" s="35" t="str">
         <f>IF(_tag_month_all!AB29="","",_tag_month_all!AB29)</f>
         <v/>
       </c>
-      <c r="AD32" s="17" t="str">
+      <c r="AD32" s="22" t="str">
         <f>IF(_tag_month_all!AC29="","",_tag_month_all!AC29)</f>
         <v/>
       </c>
-      <c r="AE32" s="17" t="str">
+      <c r="AE32" s="22" t="str">
         <f>IF(_tag_month_all!AD29="","",_tag_month_all!AD29)</f>
         <v/>
       </c>
-      <c r="AF32" s="17" t="str">
+      <c r="AF32" s="22" t="str">
         <f>IF(_tag_month_all!AE29="","",_tag_month_all!AE29)</f>
         <v/>
       </c>
-      <c r="AG32" s="17" t="str">
+      <c r="AG32" s="22" t="str">
         <f>IF(_tag_month_all!AF29="","",_tag_month_all!AF29)</f>
         <v/>
       </c>
-      <c r="AH32" s="29" t="str">
+      <c r="AH32" s="34" t="str">
         <f>IF(_tag_month_all!AG29="","",_tag_month_all!AG29)</f>
         <v/>
       </c>
-      <c r="AI32" s="29" t="str">
+      <c r="AI32" s="34" t="str">
         <f>IF(_tag_month_all!AH29="","",_tag_month_all!AH29)</f>
         <v/>
       </c>
-      <c r="AJ32" s="38" t="str">
+      <c r="AJ32" s="51" t="str">
         <f>IF(_tag_month_all!AI29="","",_tag_month_all!AI29)</f>
         <v/>
       </c>
@@ -8389,147 +8970,147 @@
       </c>
       <c r="BO32" s="8"/>
     </row>
-    <row r="33" spans="1:67" ht="14.25">
-      <c r="A33" s="13">
+    <row r="33" ht="14.25" spans="1:67">
+      <c r="A33" s="18">
         <v>29</v>
       </c>
-      <c r="B33" s="16" t="str">
+      <c r="B33" s="21" t="str">
         <f>IF(_tag_month_all!A30="","",_tag_month_all!A30)</f>
         <v/>
       </c>
-      <c r="C33" s="16" t="str">
+      <c r="C33" s="21" t="str">
         <f>IF(_tag_month_all!B30="","",_tag_month_all!B30)</f>
         <v/>
       </c>
-      <c r="D33" s="17" t="str">
+      <c r="D33" s="22" t="str">
         <f>IF(_tag_month_all!C30="","",_tag_month_all!C30)</f>
         <v/>
       </c>
-      <c r="E33" s="18" t="str">
+      <c r="E33" s="23" t="str">
         <f>IF(_tag_month_all!D30="","",_tag_month_all!D30)</f>
         <v/>
       </c>
-      <c r="F33" s="19" t="str">
+      <c r="F33" s="24" t="str">
         <f>IF(_tag_month_all!E30="","",_tag_month_all!E30)</f>
         <v/>
       </c>
-      <c r="G33" s="20" t="str">
+      <c r="G33" s="25" t="str">
         <f>IF(_tag_month_all!F30="","",_tag_month_all!F30)</f>
         <v/>
       </c>
-      <c r="H33" s="21" t="str">
+      <c r="H33" s="26" t="str">
         <f>IF(_tag_month_all!G30="","",_tag_month_all!G30)</f>
         <v/>
       </c>
-      <c r="I33" s="18" t="str">
+      <c r="I33" s="23" t="str">
         <f>IF(_tag_month_all!H30="","",_tag_month_all!H30)</f>
         <v/>
       </c>
-      <c r="J33" s="18" t="str">
+      <c r="J33" s="23" t="str">
         <f>IF(_tag_month_all!I30="","",_tag_month_all!I30)</f>
         <v/>
       </c>
-      <c r="K33" s="27" t="str">
+      <c r="K33" s="32" t="str">
         <f>IF(_tag_month_all!J30="","",_tag_month_all!J30)</f>
         <v/>
       </c>
-      <c r="L33" s="18" t="str">
+      <c r="L33" s="23" t="str">
         <f>IF(_tag_month_all!K30="","",_tag_month_all!K30)</f>
         <v/>
       </c>
-      <c r="M33" s="28" t="str">
+      <c r="M33" s="33" t="str">
         <f>IF(_tag_month_all!L30="","",_tag_month_all!L30)</f>
         <v/>
       </c>
-      <c r="N33" s="29" t="str">
+      <c r="N33" s="34" t="str">
         <f>IF(_tag_month_all!M30="","",_tag_month_all!M30)</f>
         <v/>
       </c>
-      <c r="O33" s="30" t="str">
+      <c r="O33" s="35" t="str">
         <f>IF(_tag_month_all!N30="","",_tag_month_all!N30)</f>
         <v/>
       </c>
-      <c r="P33" s="30" t="str">
+      <c r="P33" s="35" t="str">
         <f>IF(_tag_month_all!O30="","",_tag_month_all!O30)</f>
         <v/>
       </c>
-      <c r="Q33" s="30" t="str">
+      <c r="Q33" s="35" t="str">
         <f>IF(_tag_month_all!P30="","",_tag_month_all!P30)</f>
         <v/>
       </c>
-      <c r="R33" s="35" t="str">
+      <c r="R33" s="43" t="str">
         <f>IF(_tag_month_all!Q30="","",_tag_month_all!Q30)</f>
         <v/>
       </c>
-      <c r="S33" s="35" t="str">
+      <c r="S33" s="43" t="str">
         <f>IF(_tag_month_all!R30="","",_tag_month_all!R30)</f>
         <v/>
       </c>
-      <c r="T33" s="35" t="str">
+      <c r="T33" s="43" t="str">
         <f>IF(_tag_month_all!S30="","",_tag_month_all!S30)</f>
         <v/>
       </c>
-      <c r="U33" s="35" t="str">
+      <c r="U33" s="43" t="str">
         <f>IF(_tag_month_all!T30="","",_tag_month_all!T30)</f>
         <v/>
       </c>
-      <c r="V33" s="29" t="str">
+      <c r="V33" s="34" t="str">
         <f>IF(_tag_month_all!U30="","",_tag_month_all!U30)</f>
         <v/>
       </c>
-      <c r="W33" s="30" t="str">
+      <c r="W33" s="35" t="str">
         <f>IF(_tag_month_all!V30="","",_tag_month_all!V30)</f>
         <v/>
       </c>
-      <c r="X33" s="30" t="str">
+      <c r="X33" s="35" t="str">
         <f>IF(_tag_month_all!W30="","",_tag_month_all!W30)</f>
         <v/>
       </c>
-      <c r="Y33" s="30" t="str">
+      <c r="Y33" s="35" t="str">
         <f>IF(_tag_month_all!X30="","",_tag_month_all!X30)</f>
         <v/>
       </c>
-      <c r="Z33" s="30" t="str">
+      <c r="Z33" s="35" t="str">
         <f>IF(_tag_month_all!Y30="","",_tag_month_all!Y30)</f>
         <v/>
       </c>
-      <c r="AA33" s="30" t="str">
+      <c r="AA33" s="35" t="str">
         <f>IF(_tag_month_all!Z30="","",_tag_month_all!Z30)</f>
         <v/>
       </c>
-      <c r="AB33" s="30" t="str">
+      <c r="AB33" s="35" t="str">
         <f>IF(_tag_month_all!AA30="","",_tag_month_all!AA30)</f>
         <v/>
       </c>
-      <c r="AC33" s="30" t="str">
+      <c r="AC33" s="35" t="str">
         <f>IF(_tag_month_all!AB30="","",_tag_month_all!AB30)</f>
         <v/>
       </c>
-      <c r="AD33" s="17" t="str">
+      <c r="AD33" s="22" t="str">
         <f>IF(_tag_month_all!AC30="","",_tag_month_all!AC30)</f>
         <v/>
       </c>
-      <c r="AE33" s="17" t="str">
+      <c r="AE33" s="22" t="str">
         <f>IF(_tag_month_all!AD30="","",_tag_month_all!AD30)</f>
         <v/>
       </c>
-      <c r="AF33" s="17" t="str">
+      <c r="AF33" s="22" t="str">
         <f>IF(_tag_month_all!AE30="","",_tag_month_all!AE30)</f>
         <v/>
       </c>
-      <c r="AG33" s="17" t="str">
+      <c r="AG33" s="22" t="str">
         <f>IF(_tag_month_all!AF30="","",_tag_month_all!AF30)</f>
         <v/>
       </c>
-      <c r="AH33" s="29" t="str">
+      <c r="AH33" s="34" t="str">
         <f>IF(_tag_month_all!AG30="","",_tag_month_all!AG30)</f>
         <v/>
       </c>
-      <c r="AI33" s="29" t="str">
+      <c r="AI33" s="34" t="str">
         <f>IF(_tag_month_all!AH30="","",_tag_month_all!AH30)</f>
         <v/>
       </c>
-      <c r="AJ33" s="38" t="str">
+      <c r="AJ33" s="51" t="str">
         <f>IF(_tag_month_all!AI30="","",_tag_month_all!AI30)</f>
         <v/>
       </c>
@@ -8655,147 +9236,147 @@
       </c>
       <c r="BO33" s="8"/>
     </row>
-    <row r="34" spans="1:67" ht="14.25">
-      <c r="A34" s="13">
+    <row r="34" ht="14.25" spans="1:67">
+      <c r="A34" s="18">
         <v>30</v>
       </c>
-      <c r="B34" s="16" t="str">
+      <c r="B34" s="21" t="str">
         <f>IF(_tag_month_all!A31="","",_tag_month_all!A31)</f>
         <v/>
       </c>
-      <c r="C34" s="16" t="str">
+      <c r="C34" s="21" t="str">
         <f>IF(_tag_month_all!B31="","",_tag_month_all!B31)</f>
         <v/>
       </c>
-      <c r="D34" s="17" t="str">
+      <c r="D34" s="22" t="str">
         <f>IF(_tag_month_all!C31="","",_tag_month_all!C31)</f>
         <v/>
       </c>
-      <c r="E34" s="18" t="str">
+      <c r="E34" s="23" t="str">
         <f>IF(_tag_month_all!D31="","",_tag_month_all!D31)</f>
         <v/>
       </c>
-      <c r="F34" s="19" t="str">
+      <c r="F34" s="24" t="str">
         <f>IF(_tag_month_all!E31="","",_tag_month_all!E31)</f>
         <v/>
       </c>
-      <c r="G34" s="20" t="str">
+      <c r="G34" s="25" t="str">
         <f>IF(_tag_month_all!F31="","",_tag_month_all!F31)</f>
         <v/>
       </c>
-      <c r="H34" s="21" t="str">
+      <c r="H34" s="26" t="str">
         <f>IF(_tag_month_all!G31="","",_tag_month_all!G31)</f>
         <v/>
       </c>
-      <c r="I34" s="18" t="str">
+      <c r="I34" s="23" t="str">
         <f>IF(_tag_month_all!H31="","",_tag_month_all!H31)</f>
         <v/>
       </c>
-      <c r="J34" s="18" t="str">
+      <c r="J34" s="23" t="str">
         <f>IF(_tag_month_all!I31="","",_tag_month_all!I31)</f>
         <v/>
       </c>
-      <c r="K34" s="27" t="str">
+      <c r="K34" s="32" t="str">
         <f>IF(_tag_month_all!J31="","",_tag_month_all!J31)</f>
         <v/>
       </c>
-      <c r="L34" s="18" t="str">
+      <c r="L34" s="23" t="str">
         <f>IF(_tag_month_all!K31="","",_tag_month_all!K31)</f>
         <v/>
       </c>
-      <c r="M34" s="28" t="str">
+      <c r="M34" s="33" t="str">
         <f>IF(_tag_month_all!L31="","",_tag_month_all!L31)</f>
         <v/>
       </c>
-      <c r="N34" s="29" t="str">
+      <c r="N34" s="34" t="str">
         <f>IF(_tag_month_all!M31="","",_tag_month_all!M31)</f>
         <v/>
       </c>
-      <c r="O34" s="30" t="str">
+      <c r="O34" s="35" t="str">
         <f>IF(_tag_month_all!N31="","",_tag_month_all!N31)</f>
         <v/>
       </c>
-      <c r="P34" s="30" t="str">
+      <c r="P34" s="35" t="str">
         <f>IF(_tag_month_all!O31="","",_tag_month_all!O31)</f>
         <v/>
       </c>
-      <c r="Q34" s="30" t="str">
+      <c r="Q34" s="35" t="str">
         <f>IF(_tag_month_all!P31="","",_tag_month_all!P31)</f>
         <v/>
       </c>
-      <c r="R34" s="35" t="str">
+      <c r="R34" s="43" t="str">
         <f>IF(_tag_month_all!Q31="","",_tag_month_all!Q31)</f>
         <v/>
       </c>
-      <c r="S34" s="35" t="str">
+      <c r="S34" s="43" t="str">
         <f>IF(_tag_month_all!R31="","",_tag_month_all!R31)</f>
         <v/>
       </c>
-      <c r="T34" s="35" t="str">
+      <c r="T34" s="43" t="str">
         <f>IF(_tag_month_all!S31="","",_tag_month_all!S31)</f>
         <v/>
       </c>
-      <c r="U34" s="35" t="str">
+      <c r="U34" s="43" t="str">
         <f>IF(_tag_month_all!T31="","",_tag_month_all!T31)</f>
         <v/>
       </c>
-      <c r="V34" s="29" t="str">
+      <c r="V34" s="34" t="str">
         <f>IF(_tag_month_all!U31="","",_tag_month_all!U31)</f>
         <v/>
       </c>
-      <c r="W34" s="30" t="str">
+      <c r="W34" s="35" t="str">
         <f>IF(_tag_month_all!V31="","",_tag_month_all!V31)</f>
         <v/>
       </c>
-      <c r="X34" s="30" t="str">
+      <c r="X34" s="35" t="str">
         <f>IF(_tag_month_all!W31="","",_tag_month_all!W31)</f>
         <v/>
       </c>
-      <c r="Y34" s="30" t="str">
+      <c r="Y34" s="35" t="str">
         <f>IF(_tag_month_all!X31="","",_tag_month_all!X31)</f>
         <v/>
       </c>
-      <c r="Z34" s="30" t="str">
+      <c r="Z34" s="35" t="str">
         <f>IF(_tag_month_all!Y31="","",_tag_month_all!Y31)</f>
         <v/>
       </c>
-      <c r="AA34" s="30" t="str">
+      <c r="AA34" s="35" t="str">
         <f>IF(_tag_month_all!Z31="","",_tag_month_all!Z31)</f>
         <v/>
       </c>
-      <c r="AB34" s="30" t="str">
+      <c r="AB34" s="35" t="str">
         <f>IF(_tag_month_all!AA31="","",_tag_month_all!AA31)</f>
         <v/>
       </c>
-      <c r="AC34" s="30" t="str">
+      <c r="AC34" s="35" t="str">
         <f>IF(_tag_month_all!AB31="","",_tag_month_all!AB31)</f>
         <v/>
       </c>
-      <c r="AD34" s="17" t="str">
+      <c r="AD34" s="22" t="str">
         <f>IF(_tag_month_all!AC31="","",_tag_month_all!AC31)</f>
         <v/>
       </c>
-      <c r="AE34" s="17" t="str">
+      <c r="AE34" s="22" t="str">
         <f>IF(_tag_month_all!AD31="","",_tag_month_all!AD31)</f>
         <v/>
       </c>
-      <c r="AF34" s="17" t="str">
+      <c r="AF34" s="22" t="str">
         <f>IF(_tag_month_all!AE31="","",_tag_month_all!AE31)</f>
         <v/>
       </c>
-      <c r="AG34" s="17" t="str">
+      <c r="AG34" s="22" t="str">
         <f>IF(_tag_month_all!AF31="","",_tag_month_all!AF31)</f>
         <v/>
       </c>
-      <c r="AH34" s="29" t="str">
+      <c r="AH34" s="34" t="str">
         <f>IF(_tag_month_all!AG31="","",_tag_month_all!AG31)</f>
         <v/>
       </c>
-      <c r="AI34" s="29" t="str">
+      <c r="AI34" s="34" t="str">
         <f>IF(_tag_month_all!AH31="","",_tag_month_all!AH31)</f>
         <v/>
       </c>
-      <c r="AJ34" s="38" t="str">
+      <c r="AJ34" s="51" t="str">
         <f>IF(_tag_month_all!AI31="","",_tag_month_all!AI31)</f>
         <v/>
       </c>
@@ -8921,147 +9502,147 @@
       </c>
       <c r="BO34" s="8"/>
     </row>
-    <row r="35" spans="1:67" ht="14.25">
-      <c r="A35" s="13">
+    <row r="35" ht="15" spans="1:67">
+      <c r="A35" s="18">
         <v>31</v>
       </c>
-      <c r="B35" s="16" t="str">
+      <c r="B35" s="21" t="str">
         <f>IF(_tag_month_all!A32="","",_tag_month_all!A32)</f>
         <v/>
       </c>
-      <c r="C35" s="16" t="str">
+      <c r="C35" s="21" t="str">
         <f>IF(_tag_month_all!B32="","",_tag_month_all!B32)</f>
         <v/>
       </c>
-      <c r="D35" s="17" t="str">
+      <c r="D35" s="22" t="str">
         <f>IF(_tag_month_all!C32="","",_tag_month_all!C32)</f>
         <v/>
       </c>
-      <c r="E35" s="18" t="str">
+      <c r="E35" s="23" t="str">
         <f>IF(_tag_month_all!D32="","",_tag_month_all!D32)</f>
         <v/>
       </c>
-      <c r="F35" s="22" t="str">
+      <c r="F35" s="27" t="str">
         <f>IF(_tag_month_all!E32="","",_tag_month_all!E32)</f>
         <v/>
       </c>
-      <c r="G35" s="20" t="str">
+      <c r="G35" s="25" t="str">
         <f>IF(_tag_month_all!F32="","",_tag_month_all!F32)</f>
         <v/>
       </c>
-      <c r="H35" s="23" t="str">
+      <c r="H35" s="28" t="str">
         <f>IF(_tag_month_all!G32="","",_tag_month_all!G32)</f>
         <v/>
       </c>
-      <c r="I35" s="18" t="str">
+      <c r="I35" s="23" t="str">
         <f>IF(_tag_month_all!H32="","",_tag_month_all!H32)</f>
         <v/>
       </c>
-      <c r="J35" s="18" t="str">
+      <c r="J35" s="23" t="str">
         <f>IF(_tag_month_all!I32="","",_tag_month_all!I32)</f>
         <v/>
       </c>
-      <c r="K35" s="31" t="str">
+      <c r="K35" s="36" t="str">
         <f>IF(_tag_month_all!J32="","",_tag_month_all!J32)</f>
         <v/>
       </c>
-      <c r="L35" s="18" t="str">
+      <c r="L35" s="23" t="str">
         <f>IF(_tag_month_all!K32="","",_tag_month_all!K32)</f>
         <v/>
       </c>
-      <c r="M35" s="32" t="str">
+      <c r="M35" s="37" t="str">
         <f>IF(_tag_month_all!L32="","",_tag_month_all!L32)</f>
         <v/>
       </c>
-      <c r="N35" s="29" t="str">
+      <c r="N35" s="34" t="str">
         <f>IF(_tag_month_all!M32="","",_tag_month_all!M32)</f>
         <v/>
       </c>
-      <c r="O35" s="30" t="str">
+      <c r="O35" s="35" t="str">
         <f>IF(_tag_month_all!N32="","",_tag_month_all!N32)</f>
         <v/>
       </c>
-      <c r="P35" s="30" t="str">
+      <c r="P35" s="35" t="str">
         <f>IF(_tag_month_all!O32="","",_tag_month_all!O32)</f>
         <v/>
       </c>
-      <c r="Q35" s="30" t="str">
+      <c r="Q35" s="35" t="str">
         <f>IF(_tag_month_all!P32="","",_tag_month_all!P32)</f>
         <v/>
       </c>
-      <c r="R35" s="35" t="str">
+      <c r="R35" s="43" t="str">
         <f>IF(_tag_month_all!Q32="","",_tag_month_all!Q32)</f>
         <v/>
       </c>
-      <c r="S35" s="35" t="str">
+      <c r="S35" s="43" t="str">
         <f>IF(_tag_month_all!R32="","",_tag_month_all!R32)</f>
         <v/>
       </c>
-      <c r="T35" s="35" t="str">
+      <c r="T35" s="43" t="str">
         <f>IF(_tag_month_all!S32="","",_tag_month_all!S32)</f>
         <v/>
       </c>
-      <c r="U35" s="35" t="str">
+      <c r="U35" s="43" t="str">
         <f>IF(_tag_month_all!T32="","",_tag_month_all!T32)</f>
         <v/>
       </c>
-      <c r="V35" s="29" t="str">
+      <c r="V35" s="34" t="str">
         <f>IF(_tag_month_all!U32="","",_tag_month_all!U32)</f>
         <v/>
       </c>
-      <c r="W35" s="30" t="str">
+      <c r="W35" s="35" t="str">
         <f>IF(_tag_month_all!V32="","",_tag_month_all!V32)</f>
         <v/>
       </c>
-      <c r="X35" s="30" t="str">
+      <c r="X35" s="35" t="str">
         <f>IF(_tag_month_all!W32="","",_tag_month_all!W32)</f>
         <v/>
       </c>
-      <c r="Y35" s="30" t="str">
+      <c r="Y35" s="35" t="str">
         <f>IF(_tag_month_all!X32="","",_tag_month_all!X32)</f>
         <v/>
       </c>
-      <c r="Z35" s="30" t="str">
+      <c r="Z35" s="35" t="str">
         <f>IF(_tag_month_all!Y32="","",_tag_month_all!Y32)</f>
         <v/>
       </c>
-      <c r="AA35" s="30" t="str">
+      <c r="AA35" s="35" t="str">
         <f>IF(_tag_month_all!Z32="","",_tag_month_all!Z32)</f>
         <v/>
       </c>
-      <c r="AB35" s="30" t="str">
+      <c r="AB35" s="35" t="str">
         <f>IF(_tag_month_all!AA32="","",_tag_month_all!AA32)</f>
         <v/>
       </c>
-      <c r="AC35" s="30" t="str">
+      <c r="AC35" s="35" t="str">
         <f>IF(_tag_month_all!AB32="","",_tag_month_all!AB32)</f>
         <v/>
       </c>
-      <c r="AD35" s="17" t="str">
+      <c r="AD35" s="22" t="str">
         <f>IF(_tag_month_all!AC32="","",_tag_month_all!AC32)</f>
         <v/>
       </c>
-      <c r="AE35" s="17" t="str">
+      <c r="AE35" s="22" t="str">
         <f>IF(_tag_month_all!AD32="","",_tag_month_all!AD32)</f>
         <v/>
       </c>
-      <c r="AF35" s="17" t="str">
+      <c r="AF35" s="22" t="str">
         <f>IF(_tag_month_all!AE32="","",_tag_month_all!AE32)</f>
         <v/>
       </c>
-      <c r="AG35" s="17" t="str">
+      <c r="AG35" s="22" t="str">
         <f>IF(_tag_month_all!AF32="","",_tag_month_all!AF32)</f>
         <v/>
       </c>
-      <c r="AH35" s="29" t="str">
+      <c r="AH35" s="34" t="str">
         <f>IF(_tag_month_all!AG32="","",_tag_month_all!AG32)</f>
         <v/>
       </c>
-      <c r="AI35" s="29" t="str">
+      <c r="AI35" s="34" t="str">
         <f>IF(_tag_month_all!AH32="","",_tag_month_all!AH32)</f>
         <v/>
       </c>
-      <c r="AJ35" s="38" t="str">
+      <c r="AJ35" s="51" t="str">
         <f>IF(_tag_month_all!AI32="","",_tag_month_all!AI32)</f>
         <v/>
       </c>
@@ -9187,147 +9768,147 @@
       </c>
       <c r="BO35" s="8"/>
     </row>
-    <row r="36" spans="1:67" ht="14.25">
-      <c r="A36" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="25" t="str">
+    <row r="36" ht="15" spans="1:67">
+      <c r="A36" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="30" t="str">
         <f>IFERROR(AVERAGE(B4:B35),"")</f>
         <v/>
       </c>
-      <c r="C36" s="25" t="str">
+      <c r="C36" s="30" t="str">
         <f t="shared" ref="C36:BN36" si="1">IFERROR(AVERAGE(C4:C35),"")</f>
         <v/>
       </c>
-      <c r="D36" s="26" t="str">
+      <c r="D36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E36" s="26" t="str">
+      <c r="E36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F36" s="26" t="str">
+      <c r="F36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G36" s="26" t="str">
+      <c r="G36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H36" s="26" t="str">
+      <c r="H36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I36" s="26" t="str">
+      <c r="I36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J36" s="26" t="str">
+      <c r="J36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K36" s="26" t="str">
+      <c r="K36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L36" s="26" t="str">
+      <c r="L36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M36" s="26" t="str">
+      <c r="M36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N36" s="26" t="str">
+      <c r="N36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O36" s="25" t="str">
+      <c r="O36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P36" s="25" t="str">
+      <c r="P36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q36" s="25" t="str">
+      <c r="Q36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R36" s="26" t="str">
+      <c r="R36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S36" s="26" t="str">
+      <c r="S36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T36" s="26" t="str">
+      <c r="T36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="U36" s="26" t="str">
+      <c r="U36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V36" s="26" t="str">
+      <c r="V36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W36" s="25" t="str">
+      <c r="W36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X36" s="25" t="str">
+      <c r="X36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y36" s="25" t="str">
+      <c r="Y36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z36" s="25" t="str">
+      <c r="Z36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA36" s="25" t="str">
+      <c r="AA36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB36" s="25" t="str">
+      <c r="AB36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC36" s="25" t="str">
+      <c r="AC36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD36" s="26" t="str">
+      <c r="AD36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE36" s="26" t="str">
+      <c r="AE36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF36" s="26" t="str">
+      <c r="AF36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG36" s="26" t="str">
+      <c r="AG36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH36" s="26" t="str">
+      <c r="AH36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AI36" s="26" t="str">
+      <c r="AI36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AJ36" s="39" t="str">
+      <c r="AJ36" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -9453,8 +10034,8 @@
       </c>
       <c r="BO36" s="8"/>
     </row>
-    <row r="37" spans="1:67" ht="14.25">
-      <c r="AJ37" s="40"/>
+    <row r="37" ht="14.25" spans="36:67">
+      <c r="AJ37" s="53"/>
       <c r="AK37" s="8"/>
       <c r="AL37" s="8"/>
       <c r="AM37" s="8"/>
@@ -9487,1083 +10068,1084 @@
       <c r="BN37" s="8"/>
       <c r="BO37" s="8"/>
     </row>
-    <row r="38" spans="1:67" ht="15.75">
-      <c r="AJ38" s="41"/>
-      <c r="AK38" s="42"/>
-      <c r="AL38" s="42"/>
-      <c r="AM38" s="42"/>
-      <c r="AN38" s="42"/>
-      <c r="AO38" s="42"/>
-      <c r="AP38" s="42"/>
-      <c r="AQ38" s="42"/>
-      <c r="AR38" s="42"/>
-      <c r="AS38" s="42"/>
-      <c r="AT38" s="42"/>
-      <c r="AU38" s="42"/>
-      <c r="AV38" s="42"/>
-      <c r="AW38" s="42"/>
-      <c r="AX38" s="42"/>
-      <c r="AY38" s="42"/>
-      <c r="AZ38" s="42"/>
-      <c r="BA38" s="42"/>
-      <c r="BB38" s="42"/>
-      <c r="BC38" s="42"/>
-      <c r="BD38" s="42"/>
-      <c r="BE38" s="42"/>
-      <c r="BF38" s="42"/>
-      <c r="BG38" s="42"/>
-      <c r="BH38" s="42"/>
-      <c r="BI38" s="42"/>
-      <c r="BJ38" s="42"/>
-      <c r="BK38" s="42"/>
-      <c r="BL38" s="42"/>
+    <row r="38" ht="15.75" spans="36:64">
+      <c r="AJ38" s="54"/>
+      <c r="AK38" s="55"/>
+      <c r="AL38" s="55"/>
+      <c r="AM38" s="55"/>
+      <c r="AN38" s="55"/>
+      <c r="AO38" s="55"/>
+      <c r="AP38" s="55"/>
+      <c r="AQ38" s="55"/>
+      <c r="AR38" s="55"/>
+      <c r="AS38" s="55"/>
+      <c r="AT38" s="55"/>
+      <c r="AU38" s="55"/>
+      <c r="AV38" s="55"/>
+      <c r="AW38" s="55"/>
+      <c r="AX38" s="55"/>
+      <c r="AY38" s="55"/>
+      <c r="AZ38" s="55"/>
+      <c r="BA38" s="55"/>
+      <c r="BB38" s="55"/>
+      <c r="BC38" s="55"/>
+      <c r="BD38" s="55"/>
+      <c r="BE38" s="55"/>
+      <c r="BF38" s="55"/>
+      <c r="BG38" s="55"/>
+      <c r="BH38" s="55"/>
+      <c r="BI38" s="55"/>
+      <c r="BJ38" s="55"/>
+      <c r="BK38" s="55"/>
+      <c r="BL38" s="55"/>
     </row>
-    <row r="39" spans="1:67" ht="15.75">
-      <c r="AJ39" s="43"/>
-      <c r="AK39" s="42"/>
-      <c r="AL39" s="42"/>
-      <c r="AM39" s="42"/>
-      <c r="AN39" s="42"/>
-      <c r="AO39" s="42"/>
-      <c r="AP39" s="42"/>
-      <c r="AQ39" s="42"/>
-      <c r="AR39" s="42"/>
-      <c r="AS39" s="42"/>
-      <c r="AT39" s="42"/>
-      <c r="AU39" s="42"/>
-      <c r="AV39" s="42"/>
-      <c r="AW39" s="42"/>
-      <c r="AX39" s="42"/>
-      <c r="AY39" s="42"/>
-      <c r="AZ39" s="42"/>
-      <c r="BA39" s="42"/>
-      <c r="BB39" s="42"/>
-      <c r="BC39" s="42"/>
-      <c r="BD39" s="42"/>
-      <c r="BE39" s="42"/>
-      <c r="BF39" s="42"/>
-      <c r="BG39" s="42"/>
-      <c r="BH39" s="42"/>
-      <c r="BI39" s="42"/>
-      <c r="BJ39" s="42"/>
-      <c r="BK39" s="42"/>
-      <c r="BL39" s="42"/>
+    <row r="39" ht="15.75" spans="36:64">
+      <c r="AJ39" s="56"/>
+      <c r="AK39" s="55"/>
+      <c r="AL39" s="55"/>
+      <c r="AM39" s="55"/>
+      <c r="AN39" s="55"/>
+      <c r="AO39" s="55"/>
+      <c r="AP39" s="55"/>
+      <c r="AQ39" s="55"/>
+      <c r="AR39" s="55"/>
+      <c r="AS39" s="55"/>
+      <c r="AT39" s="55"/>
+      <c r="AU39" s="55"/>
+      <c r="AV39" s="55"/>
+      <c r="AW39" s="55"/>
+      <c r="AX39" s="55"/>
+      <c r="AY39" s="55"/>
+      <c r="AZ39" s="55"/>
+      <c r="BA39" s="55"/>
+      <c r="BB39" s="55"/>
+      <c r="BC39" s="55"/>
+      <c r="BD39" s="55"/>
+      <c r="BE39" s="55"/>
+      <c r="BF39" s="55"/>
+      <c r="BG39" s="55"/>
+      <c r="BH39" s="55"/>
+      <c r="BI39" s="55"/>
+      <c r="BJ39" s="55"/>
+      <c r="BK39" s="55"/>
+      <c r="BL39" s="55"/>
     </row>
-    <row r="40" spans="1:67" ht="15.75">
-      <c r="AJ40" s="43"/>
-      <c r="AK40" s="42"/>
-      <c r="AL40" s="42"/>
-      <c r="AM40" s="42"/>
-      <c r="AN40" s="42"/>
-      <c r="AO40" s="42"/>
-      <c r="AP40" s="42"/>
-      <c r="AQ40" s="42"/>
-      <c r="AR40" s="42"/>
-      <c r="AS40" s="42"/>
-      <c r="AT40" s="42"/>
-      <c r="AU40" s="42"/>
-      <c r="AV40" s="42"/>
-      <c r="AW40" s="42"/>
-      <c r="AX40" s="42"/>
-      <c r="AY40" s="42"/>
-      <c r="AZ40" s="42"/>
-      <c r="BA40" s="42"/>
-      <c r="BB40" s="42"/>
-      <c r="BC40" s="42"/>
-      <c r="BD40" s="42"/>
-      <c r="BE40" s="42"/>
-      <c r="BF40" s="42"/>
-      <c r="BG40" s="42"/>
-      <c r="BH40" s="42"/>
-      <c r="BI40" s="42"/>
-      <c r="BJ40" s="42"/>
-      <c r="BK40" s="42"/>
-      <c r="BL40" s="42"/>
+    <row r="40" ht="15.75" spans="36:64">
+      <c r="AJ40" s="56"/>
+      <c r="AK40" s="55"/>
+      <c r="AL40" s="55"/>
+      <c r="AM40" s="55"/>
+      <c r="AN40" s="55"/>
+      <c r="AO40" s="55"/>
+      <c r="AP40" s="55"/>
+      <c r="AQ40" s="55"/>
+      <c r="AR40" s="55"/>
+      <c r="AS40" s="55"/>
+      <c r="AT40" s="55"/>
+      <c r="AU40" s="55"/>
+      <c r="AV40" s="55"/>
+      <c r="AW40" s="55"/>
+      <c r="AX40" s="55"/>
+      <c r="AY40" s="55"/>
+      <c r="AZ40" s="55"/>
+      <c r="BA40" s="55"/>
+      <c r="BB40" s="55"/>
+      <c r="BC40" s="55"/>
+      <c r="BD40" s="55"/>
+      <c r="BE40" s="55"/>
+      <c r="BF40" s="55"/>
+      <c r="BG40" s="55"/>
+      <c r="BH40" s="55"/>
+      <c r="BI40" s="55"/>
+      <c r="BJ40" s="55"/>
+      <c r="BK40" s="55"/>
+      <c r="BL40" s="55"/>
     </row>
-    <row r="41" spans="1:67" ht="15.75">
-      <c r="AJ41" s="43"/>
-      <c r="AK41" s="42"/>
-      <c r="AL41" s="42"/>
-      <c r="AM41" s="42"/>
-      <c r="AN41" s="42"/>
-      <c r="AO41" s="42"/>
-      <c r="AP41" s="42"/>
-      <c r="AQ41" s="42"/>
-      <c r="AR41" s="42"/>
-      <c r="AS41" s="42"/>
-      <c r="AT41" s="42"/>
-      <c r="AU41" s="42"/>
-      <c r="AV41" s="42"/>
-      <c r="AW41" s="42"/>
-      <c r="AX41" s="42"/>
-      <c r="AY41" s="42"/>
-      <c r="AZ41" s="42"/>
-      <c r="BA41" s="42"/>
-      <c r="BB41" s="42"/>
-      <c r="BC41" s="42"/>
-      <c r="BD41" s="42"/>
-      <c r="BE41" s="42"/>
-      <c r="BF41" s="42"/>
-      <c r="BG41" s="42"/>
-      <c r="BH41" s="42"/>
-      <c r="BI41" s="42"/>
-      <c r="BJ41" s="42"/>
-      <c r="BK41" s="42"/>
-      <c r="BL41" s="42"/>
+    <row r="41" ht="15.75" spans="36:64">
+      <c r="AJ41" s="56"/>
+      <c r="AK41" s="55"/>
+      <c r="AL41" s="55"/>
+      <c r="AM41" s="55"/>
+      <c r="AN41" s="55"/>
+      <c r="AO41" s="55"/>
+      <c r="AP41" s="55"/>
+      <c r="AQ41" s="55"/>
+      <c r="AR41" s="55"/>
+      <c r="AS41" s="55"/>
+      <c r="AT41" s="55"/>
+      <c r="AU41" s="55"/>
+      <c r="AV41" s="55"/>
+      <c r="AW41" s="55"/>
+      <c r="AX41" s="55"/>
+      <c r="AY41" s="55"/>
+      <c r="AZ41" s="55"/>
+      <c r="BA41" s="55"/>
+      <c r="BB41" s="55"/>
+      <c r="BC41" s="55"/>
+      <c r="BD41" s="55"/>
+      <c r="BE41" s="55"/>
+      <c r="BF41" s="55"/>
+      <c r="BG41" s="55"/>
+      <c r="BH41" s="55"/>
+      <c r="BI41" s="55"/>
+      <c r="BJ41" s="55"/>
+      <c r="BK41" s="55"/>
+      <c r="BL41" s="55"/>
     </row>
-    <row r="42" spans="1:67" ht="15.75">
-      <c r="AJ42" s="43"/>
-      <c r="AK42" s="42"/>
-      <c r="AL42" s="42"/>
-      <c r="AM42" s="42"/>
-      <c r="AN42" s="42"/>
-      <c r="AO42" s="42"/>
-      <c r="AP42" s="42"/>
-      <c r="AQ42" s="42"/>
-      <c r="AR42" s="42"/>
-      <c r="AS42" s="42"/>
-      <c r="AT42" s="42"/>
-      <c r="AU42" s="42"/>
-      <c r="AV42" s="42"/>
-      <c r="AW42" s="42"/>
-      <c r="AX42" s="42"/>
-      <c r="AY42" s="42"/>
-      <c r="AZ42" s="42"/>
-      <c r="BA42" s="42"/>
-      <c r="BB42" s="42"/>
-      <c r="BC42" s="42"/>
-      <c r="BD42" s="42"/>
-      <c r="BE42" s="42"/>
-      <c r="BF42" s="42"/>
-      <c r="BG42" s="42"/>
-      <c r="BH42" s="42"/>
-      <c r="BI42" s="42"/>
-      <c r="BJ42" s="42"/>
-      <c r="BK42" s="42"/>
-      <c r="BL42" s="42"/>
+    <row r="42" ht="15.75" spans="36:64">
+      <c r="AJ42" s="56"/>
+      <c r="AK42" s="55"/>
+      <c r="AL42" s="55"/>
+      <c r="AM42" s="55"/>
+      <c r="AN42" s="55"/>
+      <c r="AO42" s="55"/>
+      <c r="AP42" s="55"/>
+      <c r="AQ42" s="55"/>
+      <c r="AR42" s="55"/>
+      <c r="AS42" s="55"/>
+      <c r="AT42" s="55"/>
+      <c r="AU42" s="55"/>
+      <c r="AV42" s="55"/>
+      <c r="AW42" s="55"/>
+      <c r="AX42" s="55"/>
+      <c r="AY42" s="55"/>
+      <c r="AZ42" s="55"/>
+      <c r="BA42" s="55"/>
+      <c r="BB42" s="55"/>
+      <c r="BC42" s="55"/>
+      <c r="BD42" s="55"/>
+      <c r="BE42" s="55"/>
+      <c r="BF42" s="55"/>
+      <c r="BG42" s="55"/>
+      <c r="BH42" s="55"/>
+      <c r="BI42" s="55"/>
+      <c r="BJ42" s="55"/>
+      <c r="BK42" s="55"/>
+      <c r="BL42" s="55"/>
     </row>
-    <row r="43" spans="1:67" ht="15.75">
-      <c r="AJ43" s="43"/>
-      <c r="AK43" s="42"/>
-      <c r="AL43" s="42"/>
-      <c r="AM43" s="42"/>
-      <c r="AN43" s="42"/>
-      <c r="AO43" s="42"/>
-      <c r="AP43" s="42"/>
-      <c r="AQ43" s="42"/>
-      <c r="AR43" s="42"/>
-      <c r="AS43" s="42"/>
-      <c r="AT43" s="42"/>
-      <c r="AU43" s="42"/>
-      <c r="AV43" s="42"/>
-      <c r="AW43" s="42"/>
-      <c r="AX43" s="42"/>
-      <c r="AY43" s="42"/>
-      <c r="AZ43" s="42"/>
-      <c r="BA43" s="42"/>
-      <c r="BB43" s="42"/>
-      <c r="BC43" s="42"/>
-      <c r="BD43" s="42"/>
-      <c r="BE43" s="42"/>
-      <c r="BF43" s="42"/>
-      <c r="BG43" s="42"/>
-      <c r="BH43" s="42"/>
-      <c r="BI43" s="42"/>
-      <c r="BJ43" s="42"/>
-      <c r="BK43" s="42"/>
-      <c r="BL43" s="42"/>
+    <row r="43" ht="15.75" spans="36:64">
+      <c r="AJ43" s="56"/>
+      <c r="AK43" s="55"/>
+      <c r="AL43" s="55"/>
+      <c r="AM43" s="55"/>
+      <c r="AN43" s="55"/>
+      <c r="AO43" s="55"/>
+      <c r="AP43" s="55"/>
+      <c r="AQ43" s="55"/>
+      <c r="AR43" s="55"/>
+      <c r="AS43" s="55"/>
+      <c r="AT43" s="55"/>
+      <c r="AU43" s="55"/>
+      <c r="AV43" s="55"/>
+      <c r="AW43" s="55"/>
+      <c r="AX43" s="55"/>
+      <c r="AY43" s="55"/>
+      <c r="AZ43" s="55"/>
+      <c r="BA43" s="55"/>
+      <c r="BB43" s="55"/>
+      <c r="BC43" s="55"/>
+      <c r="BD43" s="55"/>
+      <c r="BE43" s="55"/>
+      <c r="BF43" s="55"/>
+      <c r="BG43" s="55"/>
+      <c r="BH43" s="55"/>
+      <c r="BI43" s="55"/>
+      <c r="BJ43" s="55"/>
+      <c r="BK43" s="55"/>
+      <c r="BL43" s="55"/>
     </row>
-    <row r="44" spans="1:67" ht="15.75">
-      <c r="AJ44" s="43"/>
-      <c r="AK44" s="42"/>
-      <c r="AL44" s="42"/>
-      <c r="AM44" s="42"/>
-      <c r="AN44" s="42"/>
-      <c r="AO44" s="42"/>
-      <c r="AP44" s="42"/>
-      <c r="AQ44" s="42"/>
-      <c r="AR44" s="42"/>
-      <c r="AS44" s="42"/>
-      <c r="AT44" s="42"/>
-      <c r="AU44" s="42"/>
-      <c r="AV44" s="42"/>
-      <c r="AW44" s="42"/>
-      <c r="AX44" s="42"/>
-      <c r="AY44" s="42"/>
-      <c r="AZ44" s="42"/>
-      <c r="BA44" s="42"/>
-      <c r="BB44" s="42"/>
-      <c r="BC44" s="42"/>
-      <c r="BD44" s="42"/>
-      <c r="BE44" s="42"/>
-      <c r="BF44" s="42"/>
-      <c r="BG44" s="42"/>
-      <c r="BH44" s="42"/>
-      <c r="BI44" s="42"/>
-      <c r="BJ44" s="42"/>
-      <c r="BK44" s="42"/>
-      <c r="BL44" s="42"/>
+    <row r="44" ht="15.75" spans="36:64">
+      <c r="AJ44" s="56"/>
+      <c r="AK44" s="55"/>
+      <c r="AL44" s="55"/>
+      <c r="AM44" s="55"/>
+      <c r="AN44" s="55"/>
+      <c r="AO44" s="55"/>
+      <c r="AP44" s="55"/>
+      <c r="AQ44" s="55"/>
+      <c r="AR44" s="55"/>
+      <c r="AS44" s="55"/>
+      <c r="AT44" s="55"/>
+      <c r="AU44" s="55"/>
+      <c r="AV44" s="55"/>
+      <c r="AW44" s="55"/>
+      <c r="AX44" s="55"/>
+      <c r="AY44" s="55"/>
+      <c r="AZ44" s="55"/>
+      <c r="BA44" s="55"/>
+      <c r="BB44" s="55"/>
+      <c r="BC44" s="55"/>
+      <c r="BD44" s="55"/>
+      <c r="BE44" s="55"/>
+      <c r="BF44" s="55"/>
+      <c r="BG44" s="55"/>
+      <c r="BH44" s="55"/>
+      <c r="BI44" s="55"/>
+      <c r="BJ44" s="55"/>
+      <c r="BK44" s="55"/>
+      <c r="BL44" s="55"/>
     </row>
-    <row r="45" spans="1:67" ht="15.75">
-      <c r="AJ45" s="43"/>
-      <c r="AK45" s="42"/>
-      <c r="AL45" s="42"/>
-      <c r="AM45" s="42"/>
-      <c r="AN45" s="42"/>
-      <c r="AO45" s="42"/>
-      <c r="AP45" s="42"/>
-      <c r="AQ45" s="42"/>
-      <c r="AR45" s="42"/>
-      <c r="AS45" s="42"/>
-      <c r="AT45" s="42"/>
-      <c r="AU45" s="42"/>
-      <c r="AV45" s="42"/>
-      <c r="AW45" s="42"/>
-      <c r="AX45" s="42"/>
-      <c r="AY45" s="42"/>
-      <c r="AZ45" s="42"/>
-      <c r="BA45" s="42"/>
-      <c r="BB45" s="42"/>
-      <c r="BC45" s="42"/>
-      <c r="BD45" s="42"/>
-      <c r="BE45" s="42"/>
-      <c r="BF45" s="42"/>
-      <c r="BG45" s="42"/>
-      <c r="BH45" s="42"/>
-      <c r="BI45" s="42"/>
-      <c r="BJ45" s="42"/>
-      <c r="BK45" s="42"/>
-      <c r="BL45" s="42"/>
+    <row r="45" ht="15.75" spans="36:64">
+      <c r="AJ45" s="56"/>
+      <c r="AK45" s="55"/>
+      <c r="AL45" s="55"/>
+      <c r="AM45" s="55"/>
+      <c r="AN45" s="55"/>
+      <c r="AO45" s="55"/>
+      <c r="AP45" s="55"/>
+      <c r="AQ45" s="55"/>
+      <c r="AR45" s="55"/>
+      <c r="AS45" s="55"/>
+      <c r="AT45" s="55"/>
+      <c r="AU45" s="55"/>
+      <c r="AV45" s="55"/>
+      <c r="AW45" s="55"/>
+      <c r="AX45" s="55"/>
+      <c r="AY45" s="55"/>
+      <c r="AZ45" s="55"/>
+      <c r="BA45" s="55"/>
+      <c r="BB45" s="55"/>
+      <c r="BC45" s="55"/>
+      <c r="BD45" s="55"/>
+      <c r="BE45" s="55"/>
+      <c r="BF45" s="55"/>
+      <c r="BG45" s="55"/>
+      <c r="BH45" s="55"/>
+      <c r="BI45" s="55"/>
+      <c r="BJ45" s="55"/>
+      <c r="BK45" s="55"/>
+      <c r="BL45" s="55"/>
     </row>
-    <row r="46" spans="1:67" ht="15.75">
-      <c r="AJ46" s="43"/>
-      <c r="AK46" s="42"/>
-      <c r="AL46" s="42"/>
-      <c r="AM46" s="42"/>
-      <c r="AN46" s="42"/>
-      <c r="AO46" s="42"/>
-      <c r="AP46" s="42"/>
-      <c r="AQ46" s="42"/>
-      <c r="AR46" s="42"/>
-      <c r="AS46" s="42"/>
-      <c r="AT46" s="42"/>
-      <c r="AU46" s="42"/>
-      <c r="AV46" s="42"/>
-      <c r="AW46" s="42"/>
-      <c r="AX46" s="42"/>
-      <c r="AY46" s="42"/>
-      <c r="AZ46" s="42"/>
-      <c r="BA46" s="42"/>
-      <c r="BB46" s="42"/>
-      <c r="BC46" s="42"/>
-      <c r="BD46" s="42"/>
-      <c r="BE46" s="42"/>
-      <c r="BF46" s="42"/>
-      <c r="BG46" s="42"/>
-      <c r="BH46" s="42"/>
-      <c r="BI46" s="42"/>
-      <c r="BJ46" s="42"/>
-      <c r="BK46" s="42"/>
-      <c r="BL46" s="42"/>
+    <row r="46" ht="15.75" spans="36:64">
+      <c r="AJ46" s="56"/>
+      <c r="AK46" s="55"/>
+      <c r="AL46" s="55"/>
+      <c r="AM46" s="55"/>
+      <c r="AN46" s="55"/>
+      <c r="AO46" s="55"/>
+      <c r="AP46" s="55"/>
+      <c r="AQ46" s="55"/>
+      <c r="AR46" s="55"/>
+      <c r="AS46" s="55"/>
+      <c r="AT46" s="55"/>
+      <c r="AU46" s="55"/>
+      <c r="AV46" s="55"/>
+      <c r="AW46" s="55"/>
+      <c r="AX46" s="55"/>
+      <c r="AY46" s="55"/>
+      <c r="AZ46" s="55"/>
+      <c r="BA46" s="55"/>
+      <c r="BB46" s="55"/>
+      <c r="BC46" s="55"/>
+      <c r="BD46" s="55"/>
+      <c r="BE46" s="55"/>
+      <c r="BF46" s="55"/>
+      <c r="BG46" s="55"/>
+      <c r="BH46" s="55"/>
+      <c r="BI46" s="55"/>
+      <c r="BJ46" s="55"/>
+      <c r="BK46" s="55"/>
+      <c r="BL46" s="55"/>
     </row>
-    <row r="47" spans="1:67" ht="15.75">
-      <c r="AJ47" s="43"/>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="42"/>
-      <c r="AM47" s="42"/>
-      <c r="AN47" s="42"/>
-      <c r="AO47" s="42"/>
-      <c r="AP47" s="42"/>
-      <c r="AQ47" s="42"/>
-      <c r="AR47" s="42"/>
-      <c r="AS47" s="42"/>
-      <c r="AT47" s="42"/>
-      <c r="AU47" s="42"/>
-      <c r="AV47" s="42"/>
-      <c r="AW47" s="42"/>
-      <c r="AX47" s="42"/>
-      <c r="AY47" s="42"/>
-      <c r="AZ47" s="42"/>
-      <c r="BA47" s="42"/>
-      <c r="BB47" s="42"/>
-      <c r="BC47" s="42"/>
-      <c r="BD47" s="42"/>
-      <c r="BE47" s="42"/>
-      <c r="BF47" s="42"/>
-      <c r="BG47" s="42"/>
-      <c r="BH47" s="42"/>
-      <c r="BI47" s="42"/>
-      <c r="BJ47" s="42"/>
-      <c r="BK47" s="42"/>
-      <c r="BL47" s="42"/>
+    <row r="47" ht="15.75" spans="36:64">
+      <c r="AJ47" s="56"/>
+      <c r="AK47" s="55"/>
+      <c r="AL47" s="55"/>
+      <c r="AM47" s="55"/>
+      <c r="AN47" s="55"/>
+      <c r="AO47" s="55"/>
+      <c r="AP47" s="55"/>
+      <c r="AQ47" s="55"/>
+      <c r="AR47" s="55"/>
+      <c r="AS47" s="55"/>
+      <c r="AT47" s="55"/>
+      <c r="AU47" s="55"/>
+      <c r="AV47" s="55"/>
+      <c r="AW47" s="55"/>
+      <c r="AX47" s="55"/>
+      <c r="AY47" s="55"/>
+      <c r="AZ47" s="55"/>
+      <c r="BA47" s="55"/>
+      <c r="BB47" s="55"/>
+      <c r="BC47" s="55"/>
+      <c r="BD47" s="55"/>
+      <c r="BE47" s="55"/>
+      <c r="BF47" s="55"/>
+      <c r="BG47" s="55"/>
+      <c r="BH47" s="55"/>
+      <c r="BI47" s="55"/>
+      <c r="BJ47" s="55"/>
+      <c r="BK47" s="55"/>
+      <c r="BL47" s="55"/>
     </row>
-    <row r="48" spans="1:67" ht="15.75">
-      <c r="AJ48" s="43"/>
-      <c r="AK48" s="42"/>
-      <c r="AL48" s="42"/>
-      <c r="AM48" s="42"/>
-      <c r="AN48" s="42"/>
-      <c r="AO48" s="42"/>
-      <c r="AP48" s="42"/>
-      <c r="AQ48" s="42"/>
-      <c r="AR48" s="42"/>
-      <c r="AS48" s="42"/>
-      <c r="AT48" s="42"/>
-      <c r="AU48" s="42"/>
-      <c r="AV48" s="42"/>
-      <c r="AW48" s="42"/>
-      <c r="AX48" s="42"/>
-      <c r="AY48" s="42"/>
-      <c r="AZ48" s="42"/>
-      <c r="BA48" s="42"/>
-      <c r="BB48" s="42"/>
-      <c r="BC48" s="42"/>
-      <c r="BD48" s="42"/>
-      <c r="BE48" s="42"/>
-      <c r="BF48" s="42"/>
-      <c r="BG48" s="42"/>
-      <c r="BH48" s="42"/>
-      <c r="BI48" s="42"/>
-      <c r="BJ48" s="42"/>
-      <c r="BK48" s="42"/>
-      <c r="BL48" s="42"/>
+    <row r="48" ht="15.75" spans="36:64">
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="55"/>
+      <c r="AL48" s="55"/>
+      <c r="AM48" s="55"/>
+      <c r="AN48" s="55"/>
+      <c r="AO48" s="55"/>
+      <c r="AP48" s="55"/>
+      <c r="AQ48" s="55"/>
+      <c r="AR48" s="55"/>
+      <c r="AS48" s="55"/>
+      <c r="AT48" s="55"/>
+      <c r="AU48" s="55"/>
+      <c r="AV48" s="55"/>
+      <c r="AW48" s="55"/>
+      <c r="AX48" s="55"/>
+      <c r="AY48" s="55"/>
+      <c r="AZ48" s="55"/>
+      <c r="BA48" s="55"/>
+      <c r="BB48" s="55"/>
+      <c r="BC48" s="55"/>
+      <c r="BD48" s="55"/>
+      <c r="BE48" s="55"/>
+      <c r="BF48" s="55"/>
+      <c r="BG48" s="55"/>
+      <c r="BH48" s="55"/>
+      <c r="BI48" s="55"/>
+      <c r="BJ48" s="55"/>
+      <c r="BK48" s="55"/>
+      <c r="BL48" s="55"/>
     </row>
-    <row r="49" spans="36:64" ht="15.75">
-      <c r="AJ49" s="43"/>
-      <c r="AK49" s="42"/>
-      <c r="AL49" s="42"/>
-      <c r="AM49" s="42"/>
-      <c r="AN49" s="42"/>
-      <c r="AO49" s="42"/>
-      <c r="AP49" s="42"/>
-      <c r="AQ49" s="42"/>
-      <c r="AR49" s="42"/>
-      <c r="AS49" s="42"/>
-      <c r="AT49" s="42"/>
-      <c r="AU49" s="42"/>
-      <c r="AV49" s="42"/>
-      <c r="AW49" s="42"/>
-      <c r="AX49" s="42"/>
-      <c r="AY49" s="42"/>
-      <c r="AZ49" s="42"/>
-      <c r="BA49" s="42"/>
-      <c r="BB49" s="42"/>
-      <c r="BC49" s="42"/>
-      <c r="BD49" s="42"/>
-      <c r="BE49" s="42"/>
-      <c r="BF49" s="42"/>
-      <c r="BG49" s="42"/>
-      <c r="BH49" s="42"/>
-      <c r="BI49" s="42"/>
-      <c r="BJ49" s="42"/>
-      <c r="BK49" s="42"/>
-      <c r="BL49" s="42"/>
+    <row r="49" ht="15.75" spans="36:64">
+      <c r="AJ49" s="56"/>
+      <c r="AK49" s="55"/>
+      <c r="AL49" s="55"/>
+      <c r="AM49" s="55"/>
+      <c r="AN49" s="55"/>
+      <c r="AO49" s="55"/>
+      <c r="AP49" s="55"/>
+      <c r="AQ49" s="55"/>
+      <c r="AR49" s="55"/>
+      <c r="AS49" s="55"/>
+      <c r="AT49" s="55"/>
+      <c r="AU49" s="55"/>
+      <c r="AV49" s="55"/>
+      <c r="AW49" s="55"/>
+      <c r="AX49" s="55"/>
+      <c r="AY49" s="55"/>
+      <c r="AZ49" s="55"/>
+      <c r="BA49" s="55"/>
+      <c r="BB49" s="55"/>
+      <c r="BC49" s="55"/>
+      <c r="BD49" s="55"/>
+      <c r="BE49" s="55"/>
+      <c r="BF49" s="55"/>
+      <c r="BG49" s="55"/>
+      <c r="BH49" s="55"/>
+      <c r="BI49" s="55"/>
+      <c r="BJ49" s="55"/>
+      <c r="BK49" s="55"/>
+      <c r="BL49" s="55"/>
     </row>
-    <row r="50" spans="36:64" ht="15.75">
-      <c r="AJ50" s="43"/>
-      <c r="AK50" s="42"/>
-      <c r="AL50" s="42"/>
-      <c r="AM50" s="42"/>
-      <c r="AN50" s="42"/>
-      <c r="AO50" s="42"/>
-      <c r="AP50" s="42"/>
-      <c r="AQ50" s="42"/>
-      <c r="AR50" s="42"/>
-      <c r="AS50" s="42"/>
-      <c r="AT50" s="42"/>
-      <c r="AU50" s="42"/>
-      <c r="AV50" s="42"/>
-      <c r="AW50" s="42"/>
-      <c r="AX50" s="42"/>
-      <c r="AY50" s="42"/>
-      <c r="AZ50" s="42"/>
-      <c r="BA50" s="42"/>
-      <c r="BB50" s="42"/>
-      <c r="BC50" s="42"/>
-      <c r="BD50" s="42"/>
-      <c r="BE50" s="42"/>
-      <c r="BF50" s="42"/>
-      <c r="BG50" s="42"/>
-      <c r="BH50" s="42"/>
-      <c r="BI50" s="42"/>
-      <c r="BJ50" s="42"/>
-      <c r="BK50" s="42"/>
-      <c r="BL50" s="42"/>
+    <row r="50" ht="15.75" spans="36:64">
+      <c r="AJ50" s="56"/>
+      <c r="AK50" s="55"/>
+      <c r="AL50" s="55"/>
+      <c r="AM50" s="55"/>
+      <c r="AN50" s="55"/>
+      <c r="AO50" s="55"/>
+      <c r="AP50" s="55"/>
+      <c r="AQ50" s="55"/>
+      <c r="AR50" s="55"/>
+      <c r="AS50" s="55"/>
+      <c r="AT50" s="55"/>
+      <c r="AU50" s="55"/>
+      <c r="AV50" s="55"/>
+      <c r="AW50" s="55"/>
+      <c r="AX50" s="55"/>
+      <c r="AY50" s="55"/>
+      <c r="AZ50" s="55"/>
+      <c r="BA50" s="55"/>
+      <c r="BB50" s="55"/>
+      <c r="BC50" s="55"/>
+      <c r="BD50" s="55"/>
+      <c r="BE50" s="55"/>
+      <c r="BF50" s="55"/>
+      <c r="BG50" s="55"/>
+      <c r="BH50" s="55"/>
+      <c r="BI50" s="55"/>
+      <c r="BJ50" s="55"/>
+      <c r="BK50" s="55"/>
+      <c r="BL50" s="55"/>
     </row>
-    <row r="51" spans="36:64" ht="15.75">
-      <c r="AJ51" s="43"/>
-      <c r="AK51" s="42"/>
-      <c r="AL51" s="42"/>
-      <c r="AM51" s="42"/>
-      <c r="AN51" s="42"/>
-      <c r="AO51" s="42"/>
-      <c r="AP51" s="42"/>
-      <c r="AQ51" s="42"/>
-      <c r="AR51" s="42"/>
-      <c r="AS51" s="42"/>
-      <c r="AT51" s="42"/>
-      <c r="AU51" s="42"/>
-      <c r="AV51" s="42"/>
-      <c r="AW51" s="42"/>
-      <c r="AX51" s="42"/>
-      <c r="AY51" s="42"/>
-      <c r="AZ51" s="42"/>
-      <c r="BA51" s="42"/>
-      <c r="BB51" s="42"/>
-      <c r="BC51" s="42"/>
-      <c r="BD51" s="42"/>
-      <c r="BE51" s="42"/>
-      <c r="BF51" s="42"/>
-      <c r="BG51" s="42"/>
-      <c r="BH51" s="42"/>
-      <c r="BI51" s="42"/>
-      <c r="BJ51" s="42"/>
-      <c r="BK51" s="42"/>
-      <c r="BL51" s="42"/>
+    <row r="51" ht="15.75" spans="36:64">
+      <c r="AJ51" s="56"/>
+      <c r="AK51" s="55"/>
+      <c r="AL51" s="55"/>
+      <c r="AM51" s="55"/>
+      <c r="AN51" s="55"/>
+      <c r="AO51" s="55"/>
+      <c r="AP51" s="55"/>
+      <c r="AQ51" s="55"/>
+      <c r="AR51" s="55"/>
+      <c r="AS51" s="55"/>
+      <c r="AT51" s="55"/>
+      <c r="AU51" s="55"/>
+      <c r="AV51" s="55"/>
+      <c r="AW51" s="55"/>
+      <c r="AX51" s="55"/>
+      <c r="AY51" s="55"/>
+      <c r="AZ51" s="55"/>
+      <c r="BA51" s="55"/>
+      <c r="BB51" s="55"/>
+      <c r="BC51" s="55"/>
+      <c r="BD51" s="55"/>
+      <c r="BE51" s="55"/>
+      <c r="BF51" s="55"/>
+      <c r="BG51" s="55"/>
+      <c r="BH51" s="55"/>
+      <c r="BI51" s="55"/>
+      <c r="BJ51" s="55"/>
+      <c r="BK51" s="55"/>
+      <c r="BL51" s="55"/>
     </row>
-    <row r="52" spans="36:64" ht="15.75">
-      <c r="AJ52" s="43"/>
-      <c r="AK52" s="42"/>
-      <c r="AL52" s="42"/>
-      <c r="AM52" s="42"/>
-      <c r="AN52" s="42"/>
-      <c r="AO52" s="42"/>
-      <c r="AP52" s="42"/>
-      <c r="AQ52" s="42"/>
-      <c r="AR52" s="42"/>
-      <c r="AS52" s="42"/>
-      <c r="AT52" s="42"/>
-      <c r="AU52" s="42"/>
-      <c r="AV52" s="42"/>
-      <c r="AW52" s="42"/>
-      <c r="AX52" s="42"/>
-      <c r="AY52" s="42"/>
-      <c r="AZ52" s="42"/>
-      <c r="BA52" s="42"/>
-      <c r="BB52" s="42"/>
-      <c r="BC52" s="42"/>
-      <c r="BD52" s="42"/>
-      <c r="BE52" s="42"/>
-      <c r="BF52" s="42"/>
-      <c r="BG52" s="42"/>
-      <c r="BH52" s="42"/>
-      <c r="BI52" s="42"/>
-      <c r="BJ52" s="42"/>
-      <c r="BK52" s="42"/>
-      <c r="BL52" s="42"/>
+    <row r="52" ht="15.75" spans="36:64">
+      <c r="AJ52" s="56"/>
+      <c r="AK52" s="55"/>
+      <c r="AL52" s="55"/>
+      <c r="AM52" s="55"/>
+      <c r="AN52" s="55"/>
+      <c r="AO52" s="55"/>
+      <c r="AP52" s="55"/>
+      <c r="AQ52" s="55"/>
+      <c r="AR52" s="55"/>
+      <c r="AS52" s="55"/>
+      <c r="AT52" s="55"/>
+      <c r="AU52" s="55"/>
+      <c r="AV52" s="55"/>
+      <c r="AW52" s="55"/>
+      <c r="AX52" s="55"/>
+      <c r="AY52" s="55"/>
+      <c r="AZ52" s="55"/>
+      <c r="BA52" s="55"/>
+      <c r="BB52" s="55"/>
+      <c r="BC52" s="55"/>
+      <c r="BD52" s="55"/>
+      <c r="BE52" s="55"/>
+      <c r="BF52" s="55"/>
+      <c r="BG52" s="55"/>
+      <c r="BH52" s="55"/>
+      <c r="BI52" s="55"/>
+      <c r="BJ52" s="55"/>
+      <c r="BK52" s="55"/>
+      <c r="BL52" s="55"/>
     </row>
-    <row r="53" spans="36:64" ht="15.75">
-      <c r="AJ53" s="43"/>
-      <c r="AK53" s="42"/>
-      <c r="AL53" s="42"/>
-      <c r="AM53" s="42"/>
-      <c r="AN53" s="42"/>
-      <c r="AO53" s="42"/>
-      <c r="AP53" s="42"/>
-      <c r="AQ53" s="42"/>
-      <c r="AR53" s="42"/>
-      <c r="AS53" s="42"/>
-      <c r="AT53" s="42"/>
-      <c r="AU53" s="42"/>
-      <c r="AV53" s="42"/>
-      <c r="AW53" s="42"/>
-      <c r="AX53" s="42"/>
-      <c r="AY53" s="42"/>
-      <c r="AZ53" s="42"/>
-      <c r="BA53" s="42"/>
-      <c r="BB53" s="42"/>
-      <c r="BC53" s="42"/>
-      <c r="BD53" s="42"/>
-      <c r="BE53" s="42"/>
-      <c r="BF53" s="42"/>
-      <c r="BG53" s="42"/>
-      <c r="BH53" s="42"/>
-      <c r="BI53" s="42"/>
-      <c r="BJ53" s="42"/>
-      <c r="BK53" s="42"/>
-      <c r="BL53" s="42"/>
+    <row r="53" ht="15.75" spans="36:64">
+      <c r="AJ53" s="56"/>
+      <c r="AK53" s="55"/>
+      <c r="AL53" s="55"/>
+      <c r="AM53" s="55"/>
+      <c r="AN53" s="55"/>
+      <c r="AO53" s="55"/>
+      <c r="AP53" s="55"/>
+      <c r="AQ53" s="55"/>
+      <c r="AR53" s="55"/>
+      <c r="AS53" s="55"/>
+      <c r="AT53" s="55"/>
+      <c r="AU53" s="55"/>
+      <c r="AV53" s="55"/>
+      <c r="AW53" s="55"/>
+      <c r="AX53" s="55"/>
+      <c r="AY53" s="55"/>
+      <c r="AZ53" s="55"/>
+      <c r="BA53" s="55"/>
+      <c r="BB53" s="55"/>
+      <c r="BC53" s="55"/>
+      <c r="BD53" s="55"/>
+      <c r="BE53" s="55"/>
+      <c r="BF53" s="55"/>
+      <c r="BG53" s="55"/>
+      <c r="BH53" s="55"/>
+      <c r="BI53" s="55"/>
+      <c r="BJ53" s="55"/>
+      <c r="BK53" s="55"/>
+      <c r="BL53" s="55"/>
     </row>
-    <row r="54" spans="36:64" ht="15.75">
-      <c r="AJ54" s="43"/>
-      <c r="AK54" s="42"/>
-      <c r="AL54" s="42"/>
-      <c r="AM54" s="42"/>
-      <c r="AN54" s="42"/>
-      <c r="AO54" s="42"/>
-      <c r="AP54" s="42"/>
-      <c r="AQ54" s="42"/>
-      <c r="AR54" s="42"/>
-      <c r="AS54" s="42"/>
-      <c r="AT54" s="42"/>
-      <c r="AU54" s="42"/>
-      <c r="AV54" s="42"/>
-      <c r="AW54" s="42"/>
-      <c r="AX54" s="42"/>
-      <c r="AY54" s="42"/>
-      <c r="AZ54" s="42"/>
-      <c r="BA54" s="42"/>
-      <c r="BB54" s="42"/>
-      <c r="BC54" s="42"/>
-      <c r="BD54" s="42"/>
-      <c r="BE54" s="42"/>
-      <c r="BF54" s="42"/>
-      <c r="BG54" s="42"/>
-      <c r="BH54" s="42"/>
-      <c r="BI54" s="42"/>
-      <c r="BJ54" s="42"/>
-      <c r="BK54" s="42"/>
-      <c r="BL54" s="42"/>
+    <row r="54" ht="15.75" spans="36:64">
+      <c r="AJ54" s="56"/>
+      <c r="AK54" s="55"/>
+      <c r="AL54" s="55"/>
+      <c r="AM54" s="55"/>
+      <c r="AN54" s="55"/>
+      <c r="AO54" s="55"/>
+      <c r="AP54" s="55"/>
+      <c r="AQ54" s="55"/>
+      <c r="AR54" s="55"/>
+      <c r="AS54" s="55"/>
+      <c r="AT54" s="55"/>
+      <c r="AU54" s="55"/>
+      <c r="AV54" s="55"/>
+      <c r="AW54" s="55"/>
+      <c r="AX54" s="55"/>
+      <c r="AY54" s="55"/>
+      <c r="AZ54" s="55"/>
+      <c r="BA54" s="55"/>
+      <c r="BB54" s="55"/>
+      <c r="BC54" s="55"/>
+      <c r="BD54" s="55"/>
+      <c r="BE54" s="55"/>
+      <c r="BF54" s="55"/>
+      <c r="BG54" s="55"/>
+      <c r="BH54" s="55"/>
+      <c r="BI54" s="55"/>
+      <c r="BJ54" s="55"/>
+      <c r="BK54" s="55"/>
+      <c r="BL54" s="55"/>
     </row>
-    <row r="55" spans="36:64" ht="15.75">
-      <c r="AJ55" s="43"/>
-      <c r="AK55" s="42"/>
-      <c r="AL55" s="42"/>
-      <c r="AM55" s="42"/>
-      <c r="AN55" s="42"/>
-      <c r="AO55" s="42"/>
-      <c r="AP55" s="42"/>
-      <c r="AQ55" s="42"/>
-      <c r="AR55" s="42"/>
-      <c r="AS55" s="42"/>
-      <c r="AT55" s="42"/>
-      <c r="AU55" s="42"/>
-      <c r="AV55" s="42"/>
-      <c r="AW55" s="42"/>
-      <c r="AX55" s="42"/>
-      <c r="AY55" s="42"/>
-      <c r="AZ55" s="42"/>
-      <c r="BA55" s="42"/>
-      <c r="BB55" s="42"/>
-      <c r="BC55" s="42"/>
-      <c r="BD55" s="42"/>
-      <c r="BE55" s="42"/>
-      <c r="BF55" s="42"/>
-      <c r="BG55" s="42"/>
-      <c r="BH55" s="42"/>
-      <c r="BI55" s="42"/>
-      <c r="BJ55" s="42"/>
-      <c r="BK55" s="42"/>
-      <c r="BL55" s="42"/>
+    <row r="55" ht="15.75" spans="36:64">
+      <c r="AJ55" s="56"/>
+      <c r="AK55" s="55"/>
+      <c r="AL55" s="55"/>
+      <c r="AM55" s="55"/>
+      <c r="AN55" s="55"/>
+      <c r="AO55" s="55"/>
+      <c r="AP55" s="55"/>
+      <c r="AQ55" s="55"/>
+      <c r="AR55" s="55"/>
+      <c r="AS55" s="55"/>
+      <c r="AT55" s="55"/>
+      <c r="AU55" s="55"/>
+      <c r="AV55" s="55"/>
+      <c r="AW55" s="55"/>
+      <c r="AX55" s="55"/>
+      <c r="AY55" s="55"/>
+      <c r="AZ55" s="55"/>
+      <c r="BA55" s="55"/>
+      <c r="BB55" s="55"/>
+      <c r="BC55" s="55"/>
+      <c r="BD55" s="55"/>
+      <c r="BE55" s="55"/>
+      <c r="BF55" s="55"/>
+      <c r="BG55" s="55"/>
+      <c r="BH55" s="55"/>
+      <c r="BI55" s="55"/>
+      <c r="BJ55" s="55"/>
+      <c r="BK55" s="55"/>
+      <c r="BL55" s="55"/>
     </row>
-    <row r="56" spans="36:64" ht="15.75">
-      <c r="AJ56" s="43"/>
-      <c r="AK56" s="42"/>
-      <c r="AL56" s="42"/>
-      <c r="AM56" s="42"/>
-      <c r="AN56" s="42"/>
-      <c r="AO56" s="42"/>
-      <c r="AP56" s="42"/>
-      <c r="AQ56" s="42"/>
-      <c r="AR56" s="42"/>
-      <c r="AS56" s="42"/>
-      <c r="AT56" s="42"/>
-      <c r="AU56" s="42"/>
-      <c r="AV56" s="42"/>
-      <c r="AW56" s="42"/>
-      <c r="AX56" s="42"/>
-      <c r="AY56" s="42"/>
-      <c r="AZ56" s="42"/>
-      <c r="BA56" s="42"/>
-      <c r="BB56" s="42"/>
-      <c r="BC56" s="42"/>
-      <c r="BD56" s="42"/>
-      <c r="BE56" s="42"/>
-      <c r="BF56" s="42"/>
-      <c r="BG56" s="42"/>
-      <c r="BH56" s="42"/>
-      <c r="BI56" s="42"/>
-      <c r="BJ56" s="42"/>
-      <c r="BK56" s="42"/>
-      <c r="BL56" s="42"/>
+    <row r="56" ht="15.75" spans="36:64">
+      <c r="AJ56" s="56"/>
+      <c r="AK56" s="55"/>
+      <c r="AL56" s="55"/>
+      <c r="AM56" s="55"/>
+      <c r="AN56" s="55"/>
+      <c r="AO56" s="55"/>
+      <c r="AP56" s="55"/>
+      <c r="AQ56" s="55"/>
+      <c r="AR56" s="55"/>
+      <c r="AS56" s="55"/>
+      <c r="AT56" s="55"/>
+      <c r="AU56" s="55"/>
+      <c r="AV56" s="55"/>
+      <c r="AW56" s="55"/>
+      <c r="AX56" s="55"/>
+      <c r="AY56" s="55"/>
+      <c r="AZ56" s="55"/>
+      <c r="BA56" s="55"/>
+      <c r="BB56" s="55"/>
+      <c r="BC56" s="55"/>
+      <c r="BD56" s="55"/>
+      <c r="BE56" s="55"/>
+      <c r="BF56" s="55"/>
+      <c r="BG56" s="55"/>
+      <c r="BH56" s="55"/>
+      <c r="BI56" s="55"/>
+      <c r="BJ56" s="55"/>
+      <c r="BK56" s="55"/>
+      <c r="BL56" s="55"/>
     </row>
-    <row r="57" spans="36:64" ht="15.75">
-      <c r="AJ57" s="43"/>
-      <c r="AK57" s="42"/>
-      <c r="AL57" s="42"/>
-      <c r="AM57" s="42"/>
-      <c r="AN57" s="42"/>
-      <c r="AO57" s="42"/>
-      <c r="AP57" s="42"/>
-      <c r="AQ57" s="42"/>
-      <c r="AR57" s="42"/>
-      <c r="AS57" s="42"/>
-      <c r="AT57" s="42"/>
-      <c r="AU57" s="42"/>
-      <c r="AV57" s="42"/>
-      <c r="AW57" s="42"/>
-      <c r="AX57" s="42"/>
-      <c r="AY57" s="42"/>
-      <c r="AZ57" s="42"/>
-      <c r="BA57" s="42"/>
-      <c r="BB57" s="42"/>
-      <c r="BC57" s="42"/>
-      <c r="BD57" s="42"/>
-      <c r="BE57" s="42"/>
-      <c r="BF57" s="42"/>
-      <c r="BG57" s="42"/>
-      <c r="BH57" s="42"/>
-      <c r="BI57" s="42"/>
-      <c r="BJ57" s="42"/>
-      <c r="BK57" s="42"/>
-      <c r="BL57" s="42"/>
+    <row r="57" ht="15.75" spans="36:64">
+      <c r="AJ57" s="56"/>
+      <c r="AK57" s="55"/>
+      <c r="AL57" s="55"/>
+      <c r="AM57" s="55"/>
+      <c r="AN57" s="55"/>
+      <c r="AO57" s="55"/>
+      <c r="AP57" s="55"/>
+      <c r="AQ57" s="55"/>
+      <c r="AR57" s="55"/>
+      <c r="AS57" s="55"/>
+      <c r="AT57" s="55"/>
+      <c r="AU57" s="55"/>
+      <c r="AV57" s="55"/>
+      <c r="AW57" s="55"/>
+      <c r="AX57" s="55"/>
+      <c r="AY57" s="55"/>
+      <c r="AZ57" s="55"/>
+      <c r="BA57" s="55"/>
+      <c r="BB57" s="55"/>
+      <c r="BC57" s="55"/>
+      <c r="BD57" s="55"/>
+      <c r="BE57" s="55"/>
+      <c r="BF57" s="55"/>
+      <c r="BG57" s="55"/>
+      <c r="BH57" s="55"/>
+      <c r="BI57" s="55"/>
+      <c r="BJ57" s="55"/>
+      <c r="BK57" s="55"/>
+      <c r="BL57" s="55"/>
     </row>
-    <row r="58" spans="36:64" ht="15.75">
-      <c r="AJ58" s="43"/>
-      <c r="AK58" s="42"/>
-      <c r="AL58" s="42"/>
-      <c r="AM58" s="42"/>
-      <c r="AN58" s="42"/>
-      <c r="AO58" s="42"/>
-      <c r="AP58" s="42"/>
-      <c r="AQ58" s="42"/>
-      <c r="AR58" s="42"/>
-      <c r="AS58" s="42"/>
-      <c r="AT58" s="42"/>
-      <c r="AU58" s="42"/>
-      <c r="AV58" s="42"/>
-      <c r="AW58" s="42"/>
-      <c r="AX58" s="42"/>
-      <c r="AY58" s="42"/>
-      <c r="AZ58" s="42"/>
-      <c r="BA58" s="42"/>
-      <c r="BB58" s="42"/>
-      <c r="BC58" s="42"/>
-      <c r="BD58" s="42"/>
-      <c r="BE58" s="42"/>
-      <c r="BF58" s="42"/>
-      <c r="BG58" s="42"/>
-      <c r="BH58" s="42"/>
-      <c r="BI58" s="42"/>
-      <c r="BJ58" s="42"/>
-      <c r="BK58" s="42"/>
-      <c r="BL58" s="42"/>
+    <row r="58" ht="15.75" spans="36:64">
+      <c r="AJ58" s="56"/>
+      <c r="AK58" s="55"/>
+      <c r="AL58" s="55"/>
+      <c r="AM58" s="55"/>
+      <c r="AN58" s="55"/>
+      <c r="AO58" s="55"/>
+      <c r="AP58" s="55"/>
+      <c r="AQ58" s="55"/>
+      <c r="AR58" s="55"/>
+      <c r="AS58" s="55"/>
+      <c r="AT58" s="55"/>
+      <c r="AU58" s="55"/>
+      <c r="AV58" s="55"/>
+      <c r="AW58" s="55"/>
+      <c r="AX58" s="55"/>
+      <c r="AY58" s="55"/>
+      <c r="AZ58" s="55"/>
+      <c r="BA58" s="55"/>
+      <c r="BB58" s="55"/>
+      <c r="BC58" s="55"/>
+      <c r="BD58" s="55"/>
+      <c r="BE58" s="55"/>
+      <c r="BF58" s="55"/>
+      <c r="BG58" s="55"/>
+      <c r="BH58" s="55"/>
+      <c r="BI58" s="55"/>
+      <c r="BJ58" s="55"/>
+      <c r="BK58" s="55"/>
+      <c r="BL58" s="55"/>
     </row>
-    <row r="59" spans="36:64" ht="15.75">
-      <c r="AJ59" s="43"/>
-      <c r="AK59" s="42"/>
-      <c r="AL59" s="42"/>
-      <c r="AM59" s="42"/>
-      <c r="AN59" s="42"/>
-      <c r="AO59" s="42"/>
-      <c r="AP59" s="42"/>
-      <c r="AQ59" s="42"/>
-      <c r="AR59" s="42"/>
-      <c r="AS59" s="42"/>
-      <c r="AT59" s="42"/>
-      <c r="AU59" s="42"/>
-      <c r="AV59" s="42"/>
-      <c r="AW59" s="42"/>
-      <c r="AX59" s="42"/>
-      <c r="AY59" s="42"/>
-      <c r="AZ59" s="42"/>
-      <c r="BA59" s="42"/>
-      <c r="BB59" s="42"/>
-      <c r="BC59" s="42"/>
-      <c r="BD59" s="42"/>
-      <c r="BE59" s="42"/>
-      <c r="BF59" s="42"/>
-      <c r="BG59" s="42"/>
-      <c r="BH59" s="42"/>
-      <c r="BI59" s="42"/>
-      <c r="BJ59" s="42"/>
-      <c r="BK59" s="42"/>
-      <c r="BL59" s="42"/>
+    <row r="59" ht="15.75" spans="36:64">
+      <c r="AJ59" s="56"/>
+      <c r="AK59" s="55"/>
+      <c r="AL59" s="55"/>
+      <c r="AM59" s="55"/>
+      <c r="AN59" s="55"/>
+      <c r="AO59" s="55"/>
+      <c r="AP59" s="55"/>
+      <c r="AQ59" s="55"/>
+      <c r="AR59" s="55"/>
+      <c r="AS59" s="55"/>
+      <c r="AT59" s="55"/>
+      <c r="AU59" s="55"/>
+      <c r="AV59" s="55"/>
+      <c r="AW59" s="55"/>
+      <c r="AX59" s="55"/>
+      <c r="AY59" s="55"/>
+      <c r="AZ59" s="55"/>
+      <c r="BA59" s="55"/>
+      <c r="BB59" s="55"/>
+      <c r="BC59" s="55"/>
+      <c r="BD59" s="55"/>
+      <c r="BE59" s="55"/>
+      <c r="BF59" s="55"/>
+      <c r="BG59" s="55"/>
+      <c r="BH59" s="55"/>
+      <c r="BI59" s="55"/>
+      <c r="BJ59" s="55"/>
+      <c r="BK59" s="55"/>
+      <c r="BL59" s="55"/>
     </row>
-    <row r="60" spans="36:64" ht="15.75">
-      <c r="AJ60" s="43"/>
-      <c r="AK60" s="42"/>
-      <c r="AL60" s="42"/>
-      <c r="AM60" s="42"/>
-      <c r="AN60" s="42"/>
-      <c r="AO60" s="42"/>
-      <c r="AP60" s="42"/>
-      <c r="AQ60" s="42"/>
-      <c r="AR60" s="42"/>
-      <c r="AS60" s="42"/>
-      <c r="AT60" s="42"/>
-      <c r="AU60" s="42"/>
-      <c r="AV60" s="42"/>
-      <c r="AW60" s="42"/>
-      <c r="AX60" s="42"/>
-      <c r="AY60" s="42"/>
-      <c r="AZ60" s="42"/>
-      <c r="BA60" s="42"/>
-      <c r="BB60" s="42"/>
-      <c r="BC60" s="42"/>
-      <c r="BD60" s="42"/>
-      <c r="BE60" s="42"/>
-      <c r="BF60" s="42"/>
-      <c r="BG60" s="42"/>
-      <c r="BH60" s="42"/>
-      <c r="BI60" s="42"/>
-      <c r="BJ60" s="42"/>
-      <c r="BK60" s="42"/>
-      <c r="BL60" s="42"/>
+    <row r="60" ht="15.75" spans="36:64">
+      <c r="AJ60" s="56"/>
+      <c r="AK60" s="55"/>
+      <c r="AL60" s="55"/>
+      <c r="AM60" s="55"/>
+      <c r="AN60" s="55"/>
+      <c r="AO60" s="55"/>
+      <c r="AP60" s="55"/>
+      <c r="AQ60" s="55"/>
+      <c r="AR60" s="55"/>
+      <c r="AS60" s="55"/>
+      <c r="AT60" s="55"/>
+      <c r="AU60" s="55"/>
+      <c r="AV60" s="55"/>
+      <c r="AW60" s="55"/>
+      <c r="AX60" s="55"/>
+      <c r="AY60" s="55"/>
+      <c r="AZ60" s="55"/>
+      <c r="BA60" s="55"/>
+      <c r="BB60" s="55"/>
+      <c r="BC60" s="55"/>
+      <c r="BD60" s="55"/>
+      <c r="BE60" s="55"/>
+      <c r="BF60" s="55"/>
+      <c r="BG60" s="55"/>
+      <c r="BH60" s="55"/>
+      <c r="BI60" s="55"/>
+      <c r="BJ60" s="55"/>
+      <c r="BK60" s="55"/>
+      <c r="BL60" s="55"/>
     </row>
-    <row r="61" spans="36:64" ht="15.75">
-      <c r="AJ61" s="43"/>
-      <c r="AK61" s="42"/>
-      <c r="AL61" s="42"/>
-      <c r="AM61" s="42"/>
-      <c r="AN61" s="42"/>
-      <c r="AO61" s="42"/>
-      <c r="AP61" s="42"/>
-      <c r="AQ61" s="42"/>
-      <c r="AR61" s="42"/>
-      <c r="AS61" s="42"/>
-      <c r="AT61" s="42"/>
-      <c r="AU61" s="42"/>
-      <c r="AV61" s="42"/>
-      <c r="AW61" s="42"/>
-      <c r="AX61" s="42"/>
-      <c r="AY61" s="42"/>
-      <c r="AZ61" s="42"/>
-      <c r="BA61" s="42"/>
-      <c r="BB61" s="42"/>
-      <c r="BC61" s="42"/>
-      <c r="BD61" s="42"/>
-      <c r="BE61" s="42"/>
-      <c r="BF61" s="42"/>
-      <c r="BG61" s="42"/>
-      <c r="BH61" s="42"/>
-      <c r="BI61" s="42"/>
-      <c r="BJ61" s="42"/>
-      <c r="BK61" s="42"/>
-      <c r="BL61" s="42"/>
+    <row r="61" ht="15.75" spans="36:64">
+      <c r="AJ61" s="56"/>
+      <c r="AK61" s="55"/>
+      <c r="AL61" s="55"/>
+      <c r="AM61" s="55"/>
+      <c r="AN61" s="55"/>
+      <c r="AO61" s="55"/>
+      <c r="AP61" s="55"/>
+      <c r="AQ61" s="55"/>
+      <c r="AR61" s="55"/>
+      <c r="AS61" s="55"/>
+      <c r="AT61" s="55"/>
+      <c r="AU61" s="55"/>
+      <c r="AV61" s="55"/>
+      <c r="AW61" s="55"/>
+      <c r="AX61" s="55"/>
+      <c r="AY61" s="55"/>
+      <c r="AZ61" s="55"/>
+      <c r="BA61" s="55"/>
+      <c r="BB61" s="55"/>
+      <c r="BC61" s="55"/>
+      <c r="BD61" s="55"/>
+      <c r="BE61" s="55"/>
+      <c r="BF61" s="55"/>
+      <c r="BG61" s="55"/>
+      <c r="BH61" s="55"/>
+      <c r="BI61" s="55"/>
+      <c r="BJ61" s="55"/>
+      <c r="BK61" s="55"/>
+      <c r="BL61" s="55"/>
     </row>
-    <row r="62" spans="36:64" ht="15.75">
-      <c r="AJ62" s="43"/>
-      <c r="AK62" s="42"/>
-      <c r="AL62" s="42"/>
-      <c r="AM62" s="42"/>
-      <c r="AN62" s="42"/>
-      <c r="AO62" s="42"/>
-      <c r="AP62" s="42"/>
-      <c r="AQ62" s="42"/>
-      <c r="AR62" s="42"/>
-      <c r="AS62" s="42"/>
-      <c r="AT62" s="42"/>
-      <c r="AU62" s="42"/>
-      <c r="AV62" s="42"/>
-      <c r="AW62" s="42"/>
-      <c r="AX62" s="42"/>
-      <c r="AY62" s="42"/>
-      <c r="AZ62" s="42"/>
-      <c r="BA62" s="42"/>
-      <c r="BB62" s="42"/>
-      <c r="BC62" s="42"/>
-      <c r="BD62" s="42"/>
-      <c r="BE62" s="42"/>
-      <c r="BF62" s="42"/>
-      <c r="BG62" s="42"/>
-      <c r="BH62" s="42"/>
-      <c r="BI62" s="42"/>
-      <c r="BJ62" s="42"/>
-      <c r="BK62" s="42"/>
-      <c r="BL62" s="42"/>
+    <row r="62" ht="15.75" spans="36:64">
+      <c r="AJ62" s="56"/>
+      <c r="AK62" s="55"/>
+      <c r="AL62" s="55"/>
+      <c r="AM62" s="55"/>
+      <c r="AN62" s="55"/>
+      <c r="AO62" s="55"/>
+      <c r="AP62" s="55"/>
+      <c r="AQ62" s="55"/>
+      <c r="AR62" s="55"/>
+      <c r="AS62" s="55"/>
+      <c r="AT62" s="55"/>
+      <c r="AU62" s="55"/>
+      <c r="AV62" s="55"/>
+      <c r="AW62" s="55"/>
+      <c r="AX62" s="55"/>
+      <c r="AY62" s="55"/>
+      <c r="AZ62" s="55"/>
+      <c r="BA62" s="55"/>
+      <c r="BB62" s="55"/>
+      <c r="BC62" s="55"/>
+      <c r="BD62" s="55"/>
+      <c r="BE62" s="55"/>
+      <c r="BF62" s="55"/>
+      <c r="BG62" s="55"/>
+      <c r="BH62" s="55"/>
+      <c r="BI62" s="55"/>
+      <c r="BJ62" s="55"/>
+      <c r="BK62" s="55"/>
+      <c r="BL62" s="55"/>
     </row>
-    <row r="63" spans="36:64" ht="15.75">
-      <c r="AJ63" s="43"/>
-      <c r="AK63" s="42"/>
-      <c r="AL63" s="42"/>
-      <c r="AM63" s="42"/>
-      <c r="AN63" s="42"/>
-      <c r="AO63" s="42"/>
-      <c r="AP63" s="42"/>
-      <c r="AQ63" s="42"/>
-      <c r="AR63" s="42"/>
-      <c r="AS63" s="42"/>
-      <c r="AT63" s="42"/>
-      <c r="AU63" s="42"/>
-      <c r="AV63" s="42"/>
-      <c r="AW63" s="42"/>
-      <c r="AX63" s="42"/>
-      <c r="AY63" s="42"/>
-      <c r="AZ63" s="42"/>
-      <c r="BA63" s="42"/>
-      <c r="BB63" s="42"/>
-      <c r="BC63" s="42"/>
-      <c r="BD63" s="42"/>
-      <c r="BE63" s="42"/>
-      <c r="BF63" s="42"/>
-      <c r="BG63" s="42"/>
-      <c r="BH63" s="42"/>
-      <c r="BI63" s="42"/>
-      <c r="BJ63" s="42"/>
-      <c r="BK63" s="42"/>
-      <c r="BL63" s="42"/>
+    <row r="63" ht="15.75" spans="36:64">
+      <c r="AJ63" s="56"/>
+      <c r="AK63" s="55"/>
+      <c r="AL63" s="55"/>
+      <c r="AM63" s="55"/>
+      <c r="AN63" s="55"/>
+      <c r="AO63" s="55"/>
+      <c r="AP63" s="55"/>
+      <c r="AQ63" s="55"/>
+      <c r="AR63" s="55"/>
+      <c r="AS63" s="55"/>
+      <c r="AT63" s="55"/>
+      <c r="AU63" s="55"/>
+      <c r="AV63" s="55"/>
+      <c r="AW63" s="55"/>
+      <c r="AX63" s="55"/>
+      <c r="AY63" s="55"/>
+      <c r="AZ63" s="55"/>
+      <c r="BA63" s="55"/>
+      <c r="BB63" s="55"/>
+      <c r="BC63" s="55"/>
+      <c r="BD63" s="55"/>
+      <c r="BE63" s="55"/>
+      <c r="BF63" s="55"/>
+      <c r="BG63" s="55"/>
+      <c r="BH63" s="55"/>
+      <c r="BI63" s="55"/>
+      <c r="BJ63" s="55"/>
+      <c r="BK63" s="55"/>
+      <c r="BL63" s="55"/>
     </row>
-    <row r="64" spans="36:64" ht="15.75">
-      <c r="AJ64" s="43"/>
-      <c r="AK64" s="42"/>
-      <c r="AL64" s="42"/>
-      <c r="AM64" s="42"/>
-      <c r="AN64" s="42"/>
-      <c r="AO64" s="42"/>
-      <c r="AP64" s="42"/>
-      <c r="AQ64" s="42"/>
-      <c r="AR64" s="42"/>
-      <c r="AS64" s="42"/>
-      <c r="AT64" s="42"/>
-      <c r="AU64" s="42"/>
-      <c r="AV64" s="42"/>
-      <c r="AW64" s="42"/>
-      <c r="AX64" s="42"/>
-      <c r="AY64" s="42"/>
-      <c r="AZ64" s="42"/>
-      <c r="BA64" s="42"/>
-      <c r="BB64" s="42"/>
-      <c r="BC64" s="42"/>
-      <c r="BD64" s="42"/>
-      <c r="BE64" s="42"/>
-      <c r="BF64" s="42"/>
-      <c r="BG64" s="42"/>
-      <c r="BH64" s="42"/>
-      <c r="BI64" s="42"/>
-      <c r="BJ64" s="42"/>
-      <c r="BK64" s="42"/>
-      <c r="BL64" s="42"/>
+    <row r="64" ht="15.75" spans="36:64">
+      <c r="AJ64" s="56"/>
+      <c r="AK64" s="55"/>
+      <c r="AL64" s="55"/>
+      <c r="AM64" s="55"/>
+      <c r="AN64" s="55"/>
+      <c r="AO64" s="55"/>
+      <c r="AP64" s="55"/>
+      <c r="AQ64" s="55"/>
+      <c r="AR64" s="55"/>
+      <c r="AS64" s="55"/>
+      <c r="AT64" s="55"/>
+      <c r="AU64" s="55"/>
+      <c r="AV64" s="55"/>
+      <c r="AW64" s="55"/>
+      <c r="AX64" s="55"/>
+      <c r="AY64" s="55"/>
+      <c r="AZ64" s="55"/>
+      <c r="BA64" s="55"/>
+      <c r="BB64" s="55"/>
+      <c r="BC64" s="55"/>
+      <c r="BD64" s="55"/>
+      <c r="BE64" s="55"/>
+      <c r="BF64" s="55"/>
+      <c r="BG64" s="55"/>
+      <c r="BH64" s="55"/>
+      <c r="BI64" s="55"/>
+      <c r="BJ64" s="55"/>
+      <c r="BK64" s="55"/>
+      <c r="BL64" s="55"/>
     </row>
-    <row r="65" spans="36:64" ht="15.75">
-      <c r="AJ65" s="43"/>
-      <c r="AK65" s="42"/>
-      <c r="AL65" s="42"/>
-      <c r="AM65" s="42"/>
-      <c r="AN65" s="42"/>
-      <c r="AO65" s="42"/>
-      <c r="AP65" s="42"/>
-      <c r="AQ65" s="42"/>
-      <c r="AR65" s="42"/>
-      <c r="AS65" s="42"/>
-      <c r="AT65" s="42"/>
-      <c r="AU65" s="42"/>
-      <c r="AV65" s="42"/>
-      <c r="AW65" s="42"/>
-      <c r="AX65" s="42"/>
-      <c r="AY65" s="42"/>
-      <c r="AZ65" s="42"/>
-      <c r="BA65" s="42"/>
-      <c r="BB65" s="42"/>
-      <c r="BC65" s="42"/>
-      <c r="BD65" s="42"/>
-      <c r="BE65" s="42"/>
-      <c r="BF65" s="42"/>
-      <c r="BG65" s="42"/>
-      <c r="BH65" s="42"/>
-      <c r="BI65" s="42"/>
-      <c r="BJ65" s="42"/>
-      <c r="BK65" s="42"/>
-      <c r="BL65" s="42"/>
+    <row r="65" ht="15.75" spans="36:64">
+      <c r="AJ65" s="56"/>
+      <c r="AK65" s="55"/>
+      <c r="AL65" s="55"/>
+      <c r="AM65" s="55"/>
+      <c r="AN65" s="55"/>
+      <c r="AO65" s="55"/>
+      <c r="AP65" s="55"/>
+      <c r="AQ65" s="55"/>
+      <c r="AR65" s="55"/>
+      <c r="AS65" s="55"/>
+      <c r="AT65" s="55"/>
+      <c r="AU65" s="55"/>
+      <c r="AV65" s="55"/>
+      <c r="AW65" s="55"/>
+      <c r="AX65" s="55"/>
+      <c r="AY65" s="55"/>
+      <c r="AZ65" s="55"/>
+      <c r="BA65" s="55"/>
+      <c r="BB65" s="55"/>
+      <c r="BC65" s="55"/>
+      <c r="BD65" s="55"/>
+      <c r="BE65" s="55"/>
+      <c r="BF65" s="55"/>
+      <c r="BG65" s="55"/>
+      <c r="BH65" s="55"/>
+      <c r="BI65" s="55"/>
+      <c r="BJ65" s="55"/>
+      <c r="BK65" s="55"/>
+      <c r="BL65" s="55"/>
     </row>
-    <row r="66" spans="36:64" ht="15.75">
-      <c r="AJ66" s="43"/>
-      <c r="AK66" s="42"/>
-      <c r="AL66" s="42"/>
-      <c r="AM66" s="42"/>
-      <c r="AN66" s="42"/>
-      <c r="AO66" s="42"/>
-      <c r="AP66" s="42"/>
-      <c r="AQ66" s="42"/>
-      <c r="AR66" s="42"/>
-      <c r="AS66" s="42"/>
-      <c r="AT66" s="42"/>
-      <c r="AU66" s="42"/>
-      <c r="AV66" s="42"/>
-      <c r="AW66" s="42"/>
-      <c r="AX66" s="42"/>
-      <c r="AY66" s="42"/>
-      <c r="AZ66" s="42"/>
-      <c r="BA66" s="42"/>
-      <c r="BB66" s="42"/>
-      <c r="BC66" s="42"/>
-      <c r="BD66" s="42"/>
-      <c r="BE66" s="42"/>
-      <c r="BF66" s="42"/>
-      <c r="BG66" s="42"/>
-      <c r="BH66" s="42"/>
-      <c r="BI66" s="42"/>
-      <c r="BJ66" s="42"/>
-      <c r="BK66" s="42"/>
-      <c r="BL66" s="42"/>
+    <row r="66" ht="15.75" spans="36:64">
+      <c r="AJ66" s="56"/>
+      <c r="AK66" s="55"/>
+      <c r="AL66" s="55"/>
+      <c r="AM66" s="55"/>
+      <c r="AN66" s="55"/>
+      <c r="AO66" s="55"/>
+      <c r="AP66" s="55"/>
+      <c r="AQ66" s="55"/>
+      <c r="AR66" s="55"/>
+      <c r="AS66" s="55"/>
+      <c r="AT66" s="55"/>
+      <c r="AU66" s="55"/>
+      <c r="AV66" s="55"/>
+      <c r="AW66" s="55"/>
+      <c r="AX66" s="55"/>
+      <c r="AY66" s="55"/>
+      <c r="AZ66" s="55"/>
+      <c r="BA66" s="55"/>
+      <c r="BB66" s="55"/>
+      <c r="BC66" s="55"/>
+      <c r="BD66" s="55"/>
+      <c r="BE66" s="55"/>
+      <c r="BF66" s="55"/>
+      <c r="BG66" s="55"/>
+      <c r="BH66" s="55"/>
+      <c r="BI66" s="55"/>
+      <c r="BJ66" s="55"/>
+      <c r="BK66" s="55"/>
+      <c r="BL66" s="55"/>
     </row>
-    <row r="67" spans="36:64" ht="15.75">
-      <c r="AJ67" s="43"/>
-      <c r="AK67" s="42"/>
-      <c r="AL67" s="42"/>
-      <c r="AM67" s="42"/>
-      <c r="AN67" s="42"/>
-      <c r="AO67" s="42"/>
-      <c r="AP67" s="42"/>
-      <c r="AQ67" s="42"/>
-      <c r="AR67" s="42"/>
-      <c r="AS67" s="42"/>
-      <c r="AT67" s="42"/>
-      <c r="AU67" s="42"/>
-      <c r="AV67" s="42"/>
-      <c r="AW67" s="42"/>
-      <c r="AX67" s="42"/>
-      <c r="AY67" s="42"/>
-      <c r="AZ67" s="42"/>
-      <c r="BA67" s="42"/>
-      <c r="BB67" s="42"/>
-      <c r="BC67" s="42"/>
-      <c r="BD67" s="42"/>
-      <c r="BE67" s="42"/>
-      <c r="BF67" s="42"/>
-      <c r="BG67" s="42"/>
-      <c r="BH67" s="42"/>
-      <c r="BI67" s="42"/>
-      <c r="BJ67" s="42"/>
-      <c r="BK67" s="42"/>
-      <c r="BL67" s="42"/>
+    <row r="67" ht="15.75" spans="36:64">
+      <c r="AJ67" s="56"/>
+      <c r="AK67" s="55"/>
+      <c r="AL67" s="55"/>
+      <c r="AM67" s="55"/>
+      <c r="AN67" s="55"/>
+      <c r="AO67" s="55"/>
+      <c r="AP67" s="55"/>
+      <c r="AQ67" s="55"/>
+      <c r="AR67" s="55"/>
+      <c r="AS67" s="55"/>
+      <c r="AT67" s="55"/>
+      <c r="AU67" s="55"/>
+      <c r="AV67" s="55"/>
+      <c r="AW67" s="55"/>
+      <c r="AX67" s="55"/>
+      <c r="AY67" s="55"/>
+      <c r="AZ67" s="55"/>
+      <c r="BA67" s="55"/>
+      <c r="BB67" s="55"/>
+      <c r="BC67" s="55"/>
+      <c r="BD67" s="55"/>
+      <c r="BE67" s="55"/>
+      <c r="BF67" s="55"/>
+      <c r="BG67" s="55"/>
+      <c r="BH67" s="55"/>
+      <c r="BI67" s="55"/>
+      <c r="BJ67" s="55"/>
+      <c r="BK67" s="55"/>
+      <c r="BL67" s="55"/>
     </row>
-    <row r="68" spans="36:64" ht="15.75">
-      <c r="AJ68" s="43"/>
-      <c r="AK68" s="42"/>
-      <c r="AL68" s="42"/>
-      <c r="AM68" s="42"/>
-      <c r="AN68" s="42"/>
-      <c r="AO68" s="42"/>
-      <c r="AP68" s="42"/>
-      <c r="AQ68" s="42"/>
-      <c r="AR68" s="42"/>
-      <c r="AS68" s="42"/>
-      <c r="AT68" s="42"/>
-      <c r="AU68" s="42"/>
-      <c r="AV68" s="42"/>
-      <c r="AW68" s="42"/>
-      <c r="AX68" s="42"/>
-      <c r="AY68" s="42"/>
-      <c r="AZ68" s="42"/>
-      <c r="BA68" s="42"/>
-      <c r="BB68" s="42"/>
-      <c r="BC68" s="42"/>
-      <c r="BD68" s="42"/>
-      <c r="BE68" s="42"/>
-      <c r="BF68" s="42"/>
-      <c r="BG68" s="42"/>
-      <c r="BH68" s="42"/>
-      <c r="BI68" s="42"/>
-      <c r="BJ68" s="42"/>
-      <c r="BK68" s="42"/>
-      <c r="BL68" s="42"/>
+    <row r="68" ht="15.75" spans="36:64">
+      <c r="AJ68" s="56"/>
+      <c r="AK68" s="55"/>
+      <c r="AL68" s="55"/>
+      <c r="AM68" s="55"/>
+      <c r="AN68" s="55"/>
+      <c r="AO68" s="55"/>
+      <c r="AP68" s="55"/>
+      <c r="AQ68" s="55"/>
+      <c r="AR68" s="55"/>
+      <c r="AS68" s="55"/>
+      <c r="AT68" s="55"/>
+      <c r="AU68" s="55"/>
+      <c r="AV68" s="55"/>
+      <c r="AW68" s="55"/>
+      <c r="AX68" s="55"/>
+      <c r="AY68" s="55"/>
+      <c r="AZ68" s="55"/>
+      <c r="BA68" s="55"/>
+      <c r="BB68" s="55"/>
+      <c r="BC68" s="55"/>
+      <c r="BD68" s="55"/>
+      <c r="BE68" s="55"/>
+      <c r="BF68" s="55"/>
+      <c r="BG68" s="55"/>
+      <c r="BH68" s="55"/>
+      <c r="BI68" s="55"/>
+      <c r="BJ68" s="55"/>
+      <c r="BK68" s="55"/>
+      <c r="BL68" s="55"/>
     </row>
-    <row r="69" spans="36:64" ht="15.75">
-      <c r="AJ69" s="43"/>
-      <c r="AK69" s="42"/>
-      <c r="AL69" s="42"/>
-      <c r="AM69" s="42"/>
-      <c r="AN69" s="42"/>
-      <c r="AO69" s="42"/>
-      <c r="AP69" s="42"/>
-      <c r="AQ69" s="42"/>
-      <c r="AR69" s="42"/>
-      <c r="AS69" s="42"/>
-      <c r="AT69" s="42"/>
-      <c r="AU69" s="42"/>
-      <c r="AV69" s="42"/>
-      <c r="AW69" s="42"/>
-      <c r="AX69" s="42"/>
-      <c r="AY69" s="42"/>
-      <c r="AZ69" s="42"/>
-      <c r="BA69" s="42"/>
-      <c r="BB69" s="42"/>
-      <c r="BC69" s="42"/>
-      <c r="BD69" s="42"/>
-      <c r="BE69" s="42"/>
-      <c r="BF69" s="42"/>
-      <c r="BG69" s="42"/>
-      <c r="BH69" s="42"/>
-      <c r="BI69" s="42"/>
-      <c r="BJ69" s="42"/>
-      <c r="BK69" s="42"/>
-      <c r="BL69" s="42"/>
+    <row r="69" ht="15.75" spans="36:64">
+      <c r="AJ69" s="56"/>
+      <c r="AK69" s="55"/>
+      <c r="AL69" s="55"/>
+      <c r="AM69" s="55"/>
+      <c r="AN69" s="55"/>
+      <c r="AO69" s="55"/>
+      <c r="AP69" s="55"/>
+      <c r="AQ69" s="55"/>
+      <c r="AR69" s="55"/>
+      <c r="AS69" s="55"/>
+      <c r="AT69" s="55"/>
+      <c r="AU69" s="55"/>
+      <c r="AV69" s="55"/>
+      <c r="AW69" s="55"/>
+      <c r="AX69" s="55"/>
+      <c r="AY69" s="55"/>
+      <c r="AZ69" s="55"/>
+      <c r="BA69" s="55"/>
+      <c r="BB69" s="55"/>
+      <c r="BC69" s="55"/>
+      <c r="BD69" s="55"/>
+      <c r="BE69" s="55"/>
+      <c r="BF69" s="55"/>
+      <c r="BG69" s="55"/>
+      <c r="BH69" s="55"/>
+      <c r="BI69" s="55"/>
+      <c r="BJ69" s="55"/>
+      <c r="BK69" s="55"/>
+      <c r="BL69" s="55"/>
     </row>
-    <row r="70" spans="36:64" ht="15.75">
-      <c r="AJ70" s="44"/>
-      <c r="AK70" s="42"/>
-      <c r="AL70" s="42"/>
-      <c r="AM70" s="42"/>
-      <c r="AN70" s="42"/>
-      <c r="AO70" s="42"/>
-      <c r="AP70" s="42"/>
-      <c r="AQ70" s="42"/>
-      <c r="AR70" s="42"/>
-      <c r="AS70" s="42"/>
-      <c r="AT70" s="42"/>
-      <c r="AU70" s="42"/>
-      <c r="AV70" s="42"/>
-      <c r="AW70" s="42"/>
-      <c r="AX70" s="42"/>
-      <c r="AY70" s="42"/>
-      <c r="AZ70" s="42"/>
-      <c r="BA70" s="42"/>
-      <c r="BB70" s="42"/>
-      <c r="BC70" s="42"/>
-      <c r="BD70" s="42"/>
-      <c r="BE70" s="42"/>
-      <c r="BF70" s="42"/>
-      <c r="BG70" s="42"/>
-      <c r="BH70" s="42"/>
-      <c r="BI70" s="42"/>
-      <c r="BJ70" s="42"/>
-      <c r="BK70" s="42"/>
-      <c r="BL70" s="42"/>
+    <row r="70" ht="15.75" spans="36:64">
+      <c r="AJ70" s="57"/>
+      <c r="AK70" s="55"/>
+      <c r="AL70" s="55"/>
+      <c r="AM70" s="55"/>
+      <c r="AN70" s="55"/>
+      <c r="AO70" s="55"/>
+      <c r="AP70" s="55"/>
+      <c r="AQ70" s="55"/>
+      <c r="AR70" s="55"/>
+      <c r="AS70" s="55"/>
+      <c r="AT70" s="55"/>
+      <c r="AU70" s="55"/>
+      <c r="AV70" s="55"/>
+      <c r="AW70" s="55"/>
+      <c r="AX70" s="55"/>
+      <c r="AY70" s="55"/>
+      <c r="AZ70" s="55"/>
+      <c r="BA70" s="55"/>
+      <c r="BB70" s="55"/>
+      <c r="BC70" s="55"/>
+      <c r="BD70" s="55"/>
+      <c r="BE70" s="55"/>
+      <c r="BF70" s="55"/>
+      <c r="BG70" s="55"/>
+      <c r="BH70" s="55"/>
+      <c r="BI70" s="55"/>
+      <c r="BJ70" s="55"/>
+      <c r="BK70" s="55"/>
+      <c r="BL70" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+      <selection activeCell="A1" sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="48">
+    <row r="1" ht="48" spans="1:35">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>49</v>
@@ -10575,93 +11157,94 @@
         <v>51</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="AH1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="AI1" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -10672,7 +11255,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/6高炉/高炉月报表.xlsx
+++ b/excel/finished/6高炉/高炉月报表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="月报表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>高炉月报表</t>
   </si>
@@ -157,7 +157,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -167,7 +166,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>O</t>
@@ -179,7 +177,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>H</t>
@@ -189,7 +186,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -201,7 +197,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -211,7 +206,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -335,17 +329,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="11">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0;_�"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="181" formatCode="0;_찀"/>
-    <numFmt numFmtId="182" formatCode="0;_�"/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
-    <numFmt numFmtId="184" formatCode="0.0_ "/>
+    <numFmt numFmtId="182" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,53 +354,51 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -410,44 +406,179 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="14"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,12 +599,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <fgColor theme="0" tint="-0.149906918546098"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -760,10 +1077,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -790,6 +1349,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -809,7 +1385,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -821,11 +1397,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -833,7 +1409,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -857,11 +1433,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -873,23 +1449,44 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -899,68 +1496,77 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="1"/>
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -971,7 +1577,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="月報表"/>
@@ -1274,12 +1880,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BO70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1293,205 +1899,205 @@
     <col min="4" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="8" customFormat="1" ht="25.5">
-      <c r="A1" s="45" t="s">
+    <row r="1" s="8" customFormat="1" ht="26.25" spans="1:36">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="38">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
     </row>
-    <row r="2" spans="1:67" s="8" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="52" t="s">
+    <row r="2" s="8" customFormat="1" ht="19.5" customHeight="1" spans="1:36">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="49" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="49" t="s">
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="54" t="s">
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="54" t="s">
+      <c r="AG2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="54" t="s">
+      <c r="AH2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="54" t="s">
+      <c r="AI2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="56" t="s">
+      <c r="AJ2" s="49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="8" customFormat="1" ht="36">
-      <c r="A3" s="53"/>
-      <c r="B3" s="10" t="s">
+    <row r="3" s="8" customFormat="1" ht="36.75" spans="1:36">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="X3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="34" t="s">
+      <c r="Y3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="34" t="s">
+      <c r="Z3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="34" t="s">
+      <c r="AA3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AB3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AC3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="57"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="50"/>
     </row>
-    <row r="4" spans="1:67" s="8" customFormat="1" ht="48">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="8" customFormat="1" ht="48" spans="1:36">
+      <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1600,23 +2206,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="8" customFormat="1" ht="14.25">
-      <c r="A5" s="13">
+    <row r="5" s="8" customFormat="1" ht="14.25" spans="1:36">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="str">
+      <c r="B5" s="19" t="str">
         <f>IF(_tag_month_all!A2="","",_tag_month_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="14" t="str">
+      <c r="C5" s="19" t="str">
         <f>IF(_tag_month_all!B2="","",_tag_month_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="14" t="str">
+      <c r="D5" s="19" t="str">
         <f>IF(_tag_month_all!C2="","",_tag_month_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="14" t="str">
+      <c r="E5" s="19" t="str">
         <f>IF(_tag_month_all!D2="","",_tag_month_all!D2)</f>
         <v/>
       </c>
@@ -1624,7 +2230,7 @@
         <f>IF(_tag_month_all!E2="","",_tag_month_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="15" t="str">
+      <c r="G5" s="20" t="str">
         <f>IF(_tag_month_all!F2="","",_tag_month_all!F2)</f>
         <v/>
       </c>
@@ -1632,11 +2238,11 @@
         <f>IF(_tag_month_all!G2="","",_tag_month_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="14" t="str">
+      <c r="I5" s="19" t="str">
         <f>IF(_tag_month_all!H2="","",_tag_month_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="14" t="str">
+      <c r="J5" s="19" t="str">
         <f>IF(_tag_month_all!I2="","",_tag_month_all!I2)</f>
         <v/>
       </c>
@@ -1644,7 +2250,7 @@
         <f>IF(_tag_month_all!J2="","",_tag_month_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="14" t="str">
+      <c r="L5" s="19" t="str">
         <f>IF(_tag_month_all!K2="","",_tag_month_all!K2)</f>
         <v/>
       </c>
@@ -1652,116 +2258,116 @@
         <f>IF(_tag_month_all!L2="","",_tag_month_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="14" t="str">
+      <c r="N5" s="19" t="str">
         <f>IF(_tag_month_all!M2="","",_tag_month_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="14" t="str">
+      <c r="O5" s="19" t="str">
         <f>IF(_tag_month_all!N2="","",_tag_month_all!N2)</f>
         <v/>
       </c>
-      <c r="P5" s="14" t="str">
+      <c r="P5" s="19" t="str">
         <f>IF(_tag_month_all!O2="","",_tag_month_all!O2)</f>
         <v/>
       </c>
-      <c r="Q5" s="14" t="str">
+      <c r="Q5" s="19" t="str">
         <f>IF(_tag_month_all!P2="","",_tag_month_all!P2)</f>
         <v/>
       </c>
-      <c r="R5" s="14" t="str">
+      <c r="R5" s="19" t="str">
         <f>IF(_tag_month_all!Q2="","",_tag_month_all!Q2)</f>
         <v/>
       </c>
-      <c r="S5" s="14" t="str">
+      <c r="S5" s="19" t="str">
         <f>IF(_tag_month_all!R2="","",_tag_month_all!R2)</f>
         <v/>
       </c>
-      <c r="T5" s="14" t="str">
+      <c r="T5" s="19" t="str">
         <f>IF(_tag_month_all!S2="","",_tag_month_all!S2)</f>
         <v/>
       </c>
-      <c r="U5" s="14" t="str">
+      <c r="U5" s="19" t="str">
         <f>IF(_tag_month_all!T2="","",_tag_month_all!T2)</f>
         <v/>
       </c>
-      <c r="V5" s="14" t="str">
+      <c r="V5" s="19" t="str">
         <f>IF(_tag_month_all!U2="","",_tag_month_all!U2)</f>
         <v/>
       </c>
-      <c r="W5" s="14" t="str">
+      <c r="W5" s="19" t="str">
         <f>IF(_tag_month_all!V2="","",_tag_month_all!V2)</f>
         <v/>
       </c>
-      <c r="X5" s="14" t="str">
+      <c r="X5" s="19" t="str">
         <f>IF(_tag_month_all!W2="","",_tag_month_all!W2)</f>
         <v/>
       </c>
-      <c r="Y5" s="14" t="str">
+      <c r="Y5" s="19" t="str">
         <f>IF(_tag_month_all!X2="","",_tag_month_all!X2)</f>
         <v/>
       </c>
-      <c r="Z5" s="14" t="str">
+      <c r="Z5" s="19" t="str">
         <f>IF(_tag_month_all!Y2="","",_tag_month_all!Y2)</f>
         <v/>
       </c>
-      <c r="AA5" s="14" t="str">
+      <c r="AA5" s="19" t="str">
         <f>IF(_tag_month_all!Z2="","",_tag_month_all!Z2)</f>
         <v/>
       </c>
-      <c r="AB5" s="36" t="str">
+      <c r="AB5" s="47" t="str">
         <f>IF(_tag_month_all!AA2="","",_tag_month_all!AA2)</f>
         <v/>
       </c>
-      <c r="AC5" s="37" t="str">
+      <c r="AC5" s="48" t="str">
         <f>IF(_tag_month_all!AB2="","",_tag_month_all!AB2)</f>
         <v/>
       </c>
-      <c r="AD5" s="37" t="str">
+      <c r="AD5" s="48" t="str">
         <f>IF(_tag_month_all!AC2="","",_tag_month_all!AC2)</f>
         <v/>
       </c>
-      <c r="AE5" s="37" t="str">
+      <c r="AE5" s="48" t="str">
         <f>IF(_tag_month_all!AD2="","",_tag_month_all!AD2)</f>
         <v/>
       </c>
-      <c r="AF5" s="14" t="str">
+      <c r="AF5" s="19" t="str">
         <f>IF(_tag_month_all!AE2="","",_tag_month_all!AE2)</f>
         <v/>
       </c>
-      <c r="AG5" s="14" t="str">
+      <c r="AG5" s="19" t="str">
         <f>IF(_tag_month_all!AF2="","",_tag_month_all!AF2)</f>
         <v/>
       </c>
-      <c r="AH5" s="14" t="str">
+      <c r="AH5" s="19" t="str">
         <f>IF(_tag_month_all!AG2="","",_tag_month_all!AG2)</f>
         <v/>
       </c>
-      <c r="AI5" s="14" t="str">
+      <c r="AI5" s="19" t="str">
         <f>IF(_tag_month_all!AH2="","",_tag_month_all!AH2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="38" t="str">
+      <c r="AJ5" s="51" t="str">
         <f>IF(_tag_month_all!AI2="","",_tag_month_all!AI2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:67" s="8" customFormat="1" ht="14.25">
-      <c r="A6" s="13">
+    <row r="6" s="8" customFormat="1" ht="14.25" spans="1:36">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="str">
+      <c r="B6" s="19" t="str">
         <f>IF(_tag_month_all!A3="","",_tag_month_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="19" t="str">
         <f>IF(_tag_month_all!B3="","",_tag_month_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="14" t="str">
+      <c r="D6" s="19" t="str">
         <f>IF(_tag_month_all!C3="","",_tag_month_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="14" t="str">
+      <c r="E6" s="19" t="str">
         <f>IF(_tag_month_all!D3="","",_tag_month_all!D3)</f>
         <v/>
       </c>
@@ -1769,7 +2375,7 @@
         <f>IF(_tag_month_all!E3="","",_tag_month_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="15" t="str">
+      <c r="G6" s="20" t="str">
         <f>IF(_tag_month_all!F3="","",_tag_month_all!F3)</f>
         <v/>
       </c>
@@ -1777,11 +2383,11 @@
         <f>IF(_tag_month_all!G3="","",_tag_month_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="14" t="str">
+      <c r="I6" s="19" t="str">
         <f>IF(_tag_month_all!H3="","",_tag_month_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="14" t="str">
+      <c r="J6" s="19" t="str">
         <f>IF(_tag_month_all!I3="","",_tag_month_all!I3)</f>
         <v/>
       </c>
@@ -1789,7 +2395,7 @@
         <f>IF(_tag_month_all!J3="","",_tag_month_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="14" t="str">
+      <c r="L6" s="19" t="str">
         <f>IF(_tag_month_all!K3="","",_tag_month_all!K3)</f>
         <v/>
       </c>
@@ -1797,240 +2403,240 @@
         <f>IF(_tag_month_all!L3="","",_tag_month_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="14" t="str">
+      <c r="N6" s="19" t="str">
         <f>IF(_tag_month_all!M3="","",_tag_month_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="14" t="str">
+      <c r="O6" s="19" t="str">
         <f>IF(_tag_month_all!N3="","",_tag_month_all!N3)</f>
         <v/>
       </c>
-      <c r="P6" s="14" t="str">
+      <c r="P6" s="19" t="str">
         <f>IF(_tag_month_all!O3="","",_tag_month_all!O3)</f>
         <v/>
       </c>
-      <c r="Q6" s="14" t="str">
+      <c r="Q6" s="19" t="str">
         <f>IF(_tag_month_all!P3="","",_tag_month_all!P3)</f>
         <v/>
       </c>
-      <c r="R6" s="14" t="str">
+      <c r="R6" s="19" t="str">
         <f>IF(_tag_month_all!Q3="","",_tag_month_all!Q3)</f>
         <v/>
       </c>
-      <c r="S6" s="14" t="str">
+      <c r="S6" s="19" t="str">
         <f>IF(_tag_month_all!R3="","",_tag_month_all!R3)</f>
         <v/>
       </c>
-      <c r="T6" s="14" t="str">
+      <c r="T6" s="19" t="str">
         <f>IF(_tag_month_all!S3="","",_tag_month_all!S3)</f>
         <v/>
       </c>
-      <c r="U6" s="14" t="str">
+      <c r="U6" s="19" t="str">
         <f>IF(_tag_month_all!T3="","",_tag_month_all!T3)</f>
         <v/>
       </c>
-      <c r="V6" s="14" t="str">
+      <c r="V6" s="19" t="str">
         <f>IF(_tag_month_all!U3="","",_tag_month_all!U3)</f>
         <v/>
       </c>
-      <c r="W6" s="14" t="str">
+      <c r="W6" s="19" t="str">
         <f>IF(_tag_month_all!V3="","",_tag_month_all!V3)</f>
         <v/>
       </c>
-      <c r="X6" s="14" t="str">
+      <c r="X6" s="19" t="str">
         <f>IF(_tag_month_all!W3="","",_tag_month_all!W3)</f>
         <v/>
       </c>
-      <c r="Y6" s="14" t="str">
+      <c r="Y6" s="19" t="str">
         <f>IF(_tag_month_all!X3="","",_tag_month_all!X3)</f>
         <v/>
       </c>
-      <c r="Z6" s="14" t="str">
+      <c r="Z6" s="19" t="str">
         <f>IF(_tag_month_all!Y3="","",_tag_month_all!Y3)</f>
         <v/>
       </c>
-      <c r="AA6" s="14" t="str">
+      <c r="AA6" s="19" t="str">
         <f>IF(_tag_month_all!Z3="","",_tag_month_all!Z3)</f>
         <v/>
       </c>
-      <c r="AB6" s="36" t="str">
+      <c r="AB6" s="47" t="str">
         <f>IF(_tag_month_all!AA3="","",_tag_month_all!AA3)</f>
         <v/>
       </c>
-      <c r="AC6" s="37" t="str">
+      <c r="AC6" s="48" t="str">
         <f>IF(_tag_month_all!AB3="","",_tag_month_all!AB3)</f>
         <v/>
       </c>
-      <c r="AD6" s="37" t="str">
+      <c r="AD6" s="48" t="str">
         <f>IF(_tag_month_all!AC3="","",_tag_month_all!AC3)</f>
         <v/>
       </c>
-      <c r="AE6" s="37" t="str">
+      <c r="AE6" s="48" t="str">
         <f>IF(_tag_month_all!AD3="","",_tag_month_all!AD3)</f>
         <v/>
       </c>
-      <c r="AF6" s="14" t="str">
+      <c r="AF6" s="19" t="str">
         <f>IF(_tag_month_all!AE3="","",_tag_month_all!AE3)</f>
         <v/>
       </c>
-      <c r="AG6" s="14" t="str">
+      <c r="AG6" s="19" t="str">
         <f>IF(_tag_month_all!AF3="","",_tag_month_all!AF3)</f>
         <v/>
       </c>
-      <c r="AH6" s="14" t="str">
+      <c r="AH6" s="19" t="str">
         <f>IF(_tag_month_all!AG3="","",_tag_month_all!AG3)</f>
         <v/>
       </c>
-      <c r="AI6" s="14" t="str">
+      <c r="AI6" s="19" t="str">
         <f>IF(_tag_month_all!AH3="","",_tag_month_all!AH3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="38" t="str">
+      <c r="AJ6" s="51" t="str">
         <f>IF(_tag_month_all!AI3="","",_tag_month_all!AI3)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:67" ht="14.25">
-      <c r="A7" s="13">
+    <row r="7" ht="14.25" spans="1:67">
+      <c r="A7" s="18">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="str">
+      <c r="B7" s="21" t="str">
         <f>IF(_tag_month_all!A4="","",_tag_month_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="16" t="str">
+      <c r="C7" s="21" t="str">
         <f>IF(_tag_month_all!B4="","",_tag_month_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="22" t="str">
         <f>IF(_tag_month_all!C4="","",_tag_month_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="18" t="str">
+      <c r="E7" s="23" t="str">
         <f>IF(_tag_month_all!D4="","",_tag_month_all!D4)</f>
         <v/>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="24" t="str">
         <f>IF(_tag_month_all!E4="","",_tag_month_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="20" t="str">
+      <c r="G7" s="25" t="str">
         <f>IF(_tag_month_all!F4="","",_tag_month_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="21" t="str">
+      <c r="H7" s="26" t="str">
         <f>IF(_tag_month_all!G4="","",_tag_month_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="18" t="str">
+      <c r="I7" s="23" t="str">
         <f>IF(_tag_month_all!H4="","",_tag_month_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="18" t="str">
+      <c r="J7" s="23" t="str">
         <f>IF(_tag_month_all!I4="","",_tag_month_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="27" t="str">
+      <c r="K7" s="32" t="str">
         <f>IF(_tag_month_all!J4="","",_tag_month_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="18" t="str">
+      <c r="L7" s="23" t="str">
         <f>IF(_tag_month_all!K4="","",_tag_month_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="28" t="str">
+      <c r="M7" s="33" t="str">
         <f>IF(_tag_month_all!L4="","",_tag_month_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="29" t="str">
+      <c r="N7" s="34" t="str">
         <f>IF(_tag_month_all!M4="","",_tag_month_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="30" t="str">
+      <c r="O7" s="35" t="str">
         <f>IF(_tag_month_all!N4="","",_tag_month_all!N4)</f>
         <v/>
       </c>
-      <c r="P7" s="30" t="str">
+      <c r="P7" s="35" t="str">
         <f>IF(_tag_month_all!O4="","",_tag_month_all!O4)</f>
         <v/>
       </c>
-      <c r="Q7" s="30" t="str">
+      <c r="Q7" s="35" t="str">
         <f>IF(_tag_month_all!P4="","",_tag_month_all!P4)</f>
         <v/>
       </c>
-      <c r="R7" s="35" t="str">
+      <c r="R7" s="43" t="str">
         <f>IF(_tag_month_all!Q4="","",_tag_month_all!Q4)</f>
         <v/>
       </c>
-      <c r="S7" s="35" t="str">
+      <c r="S7" s="43" t="str">
         <f>IF(_tag_month_all!R4="","",_tag_month_all!R4)</f>
         <v/>
       </c>
-      <c r="T7" s="35" t="str">
+      <c r="T7" s="43" t="str">
         <f>IF(_tag_month_all!S4="","",_tag_month_all!S4)</f>
         <v/>
       </c>
-      <c r="U7" s="35" t="str">
+      <c r="U7" s="43" t="str">
         <f>IF(_tag_month_all!T4="","",_tag_month_all!T4)</f>
         <v/>
       </c>
-      <c r="V7" s="29" t="str">
+      <c r="V7" s="34" t="str">
         <f>IF(_tag_month_all!U4="","",_tag_month_all!U4)</f>
         <v/>
       </c>
-      <c r="W7" s="30" t="str">
+      <c r="W7" s="35" t="str">
         <f>IF(_tag_month_all!V4="","",_tag_month_all!V4)</f>
         <v/>
       </c>
-      <c r="X7" s="30" t="str">
+      <c r="X7" s="35" t="str">
         <f>IF(_tag_month_all!W4="","",_tag_month_all!W4)</f>
         <v/>
       </c>
-      <c r="Y7" s="30" t="str">
+      <c r="Y7" s="35" t="str">
         <f>IF(_tag_month_all!X4="","",_tag_month_all!X4)</f>
         <v/>
       </c>
-      <c r="Z7" s="30" t="str">
+      <c r="Z7" s="35" t="str">
         <f>IF(_tag_month_all!Y4="","",_tag_month_all!Y4)</f>
         <v/>
       </c>
-      <c r="AA7" s="30" t="str">
+      <c r="AA7" s="35" t="str">
         <f>IF(_tag_month_all!Z4="","",_tag_month_all!Z4)</f>
         <v/>
       </c>
-      <c r="AB7" s="30" t="str">
+      <c r="AB7" s="35" t="str">
         <f>IF(_tag_month_all!AA4="","",_tag_month_all!AA4)</f>
         <v/>
       </c>
-      <c r="AC7" s="30" t="str">
+      <c r="AC7" s="35" t="str">
         <f>IF(_tag_month_all!AB4="","",_tag_month_all!AB4)</f>
         <v/>
       </c>
-      <c r="AD7" s="17" t="str">
+      <c r="AD7" s="22" t="str">
         <f>IF(_tag_month_all!AC4="","",_tag_month_all!AC4)</f>
         <v/>
       </c>
-      <c r="AE7" s="17" t="str">
+      <c r="AE7" s="22" t="str">
         <f>IF(_tag_month_all!AD4="","",_tag_month_all!AD4)</f>
         <v/>
       </c>
-      <c r="AF7" s="17" t="str">
+      <c r="AF7" s="22" t="str">
         <f>IF(_tag_month_all!AE4="","",_tag_month_all!AE4)</f>
         <v/>
       </c>
-      <c r="AG7" s="17" t="str">
+      <c r="AG7" s="22" t="str">
         <f>IF(_tag_month_all!AF4="","",_tag_month_all!AF4)</f>
         <v/>
       </c>
-      <c r="AH7" s="29" t="str">
+      <c r="AH7" s="34" t="str">
         <f>IF(_tag_month_all!AG4="","",_tag_month_all!AG4)</f>
         <v/>
       </c>
-      <c r="AI7" s="29" t="str">
+      <c r="AI7" s="34" t="str">
         <f>IF(_tag_month_all!AH4="","",_tag_month_all!AH4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="38" t="str">
+      <c r="AJ7" s="51" t="str">
         <f>IF(_tag_month_all!AI4="","",_tag_month_all!AI4)</f>
         <v/>
       </c>
@@ -2066,147 +2672,147 @@
       <c r="BN7" s="8"/>
       <c r="BO7" s="8"/>
     </row>
-    <row r="8" spans="1:67" ht="14.25">
-      <c r="A8" s="13">
+    <row r="8" ht="14.25" spans="1:67">
+      <c r="A8" s="18">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="str">
+      <c r="B8" s="21" t="str">
         <f>IF(_tag_month_all!A5="","",_tag_month_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="21" t="str">
         <f>IF(_tag_month_all!B5="","",_tag_month_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="17" t="str">
+      <c r="D8" s="22" t="str">
         <f>IF(_tag_month_all!C5="","",_tag_month_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="18" t="str">
+      <c r="E8" s="23" t="str">
         <f>IF(_tag_month_all!D5="","",_tag_month_all!D5)</f>
         <v/>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="24" t="str">
         <f>IF(_tag_month_all!E5="","",_tag_month_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="25" t="str">
         <f>IF(_tag_month_all!F5="","",_tag_month_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="26" t="str">
         <f>IF(_tag_month_all!G5="","",_tag_month_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="18" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_tag_month_all!H5="","",_tag_month_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="18" t="str">
+      <c r="J8" s="23" t="str">
         <f>IF(_tag_month_all!I5="","",_tag_month_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="27" t="str">
+      <c r="K8" s="32" t="str">
         <f>IF(_tag_month_all!J5="","",_tag_month_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="18" t="str">
+      <c r="L8" s="23" t="str">
         <f>IF(_tag_month_all!K5="","",_tag_month_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="28" t="str">
+      <c r="M8" s="33" t="str">
         <f>IF(_tag_month_all!L5="","",_tag_month_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="29" t="str">
+      <c r="N8" s="34" t="str">
         <f>IF(_tag_month_all!M5="","",_tag_month_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="30" t="str">
+      <c r="O8" s="35" t="str">
         <f>IF(_tag_month_all!N5="","",_tag_month_all!N5)</f>
         <v/>
       </c>
-      <c r="P8" s="30" t="str">
+      <c r="P8" s="35" t="str">
         <f>IF(_tag_month_all!O5="","",_tag_month_all!O5)</f>
         <v/>
       </c>
-      <c r="Q8" s="30" t="str">
+      <c r="Q8" s="35" t="str">
         <f>IF(_tag_month_all!P5="","",_tag_month_all!P5)</f>
         <v/>
       </c>
-      <c r="R8" s="35" t="str">
+      <c r="R8" s="43" t="str">
         <f>IF(_tag_month_all!Q5="","",_tag_month_all!Q5)</f>
         <v/>
       </c>
-      <c r="S8" s="35" t="str">
+      <c r="S8" s="43" t="str">
         <f>IF(_tag_month_all!R5="","",_tag_month_all!R5)</f>
         <v/>
       </c>
-      <c r="T8" s="35" t="str">
+      <c r="T8" s="43" t="str">
         <f>IF(_tag_month_all!S5="","",_tag_month_all!S5)</f>
         <v/>
       </c>
-      <c r="U8" s="35" t="str">
+      <c r="U8" s="43" t="str">
         <f>IF(_tag_month_all!T5="","",_tag_month_all!T5)</f>
         <v/>
       </c>
-      <c r="V8" s="29" t="str">
+      <c r="V8" s="34" t="str">
         <f>IF(_tag_month_all!U5="","",_tag_month_all!U5)</f>
         <v/>
       </c>
-      <c r="W8" s="30" t="str">
+      <c r="W8" s="35" t="str">
         <f>IF(_tag_month_all!V5="","",_tag_month_all!V5)</f>
         <v/>
       </c>
-      <c r="X8" s="30" t="str">
+      <c r="X8" s="35" t="str">
         <f>IF(_tag_month_all!W5="","",_tag_month_all!W5)</f>
         <v/>
       </c>
-      <c r="Y8" s="30" t="str">
+      <c r="Y8" s="35" t="str">
         <f>IF(_tag_month_all!X5="","",_tag_month_all!X5)</f>
         <v/>
       </c>
-      <c r="Z8" s="30" t="str">
+      <c r="Z8" s="35" t="str">
         <f>IF(_tag_month_all!Y5="","",_tag_month_all!Y5)</f>
         <v/>
       </c>
-      <c r="AA8" s="30" t="str">
+      <c r="AA8" s="35" t="str">
         <f>IF(_tag_month_all!Z5="","",_tag_month_all!Z5)</f>
         <v/>
       </c>
-      <c r="AB8" s="30" t="str">
+      <c r="AB8" s="35" t="str">
         <f>IF(_tag_month_all!AA5="","",_tag_month_all!AA5)</f>
         <v/>
       </c>
-      <c r="AC8" s="30" t="str">
+      <c r="AC8" s="35" t="str">
         <f>IF(_tag_month_all!AB5="","",_tag_month_all!AB5)</f>
         <v/>
       </c>
-      <c r="AD8" s="17" t="str">
+      <c r="AD8" s="22" t="str">
         <f>IF(_tag_month_all!AC5="","",_tag_month_all!AC5)</f>
         <v/>
       </c>
-      <c r="AE8" s="17" t="str">
+      <c r="AE8" s="22" t="str">
         <f>IF(_tag_month_all!AD5="","",_tag_month_all!AD5)</f>
         <v/>
       </c>
-      <c r="AF8" s="17" t="str">
+      <c r="AF8" s="22" t="str">
         <f>IF(_tag_month_all!AE5="","",_tag_month_all!AE5)</f>
         <v/>
       </c>
-      <c r="AG8" s="17" t="str">
+      <c r="AG8" s="22" t="str">
         <f>IF(_tag_month_all!AF5="","",_tag_month_all!AF5)</f>
         <v/>
       </c>
-      <c r="AH8" s="29" t="str">
+      <c r="AH8" s="34" t="str">
         <f>IF(_tag_month_all!AG5="","",_tag_month_all!AG5)</f>
         <v/>
       </c>
-      <c r="AI8" s="29" t="str">
+      <c r="AI8" s="34" t="str">
         <f>IF(_tag_month_all!AH5="","",_tag_month_all!AH5)</f>
         <v/>
       </c>
-      <c r="AJ8" s="38" t="str">
+      <c r="AJ8" s="51" t="str">
         <f>IF(_tag_month_all!AI5="","",_tag_month_all!AI5)</f>
         <v/>
       </c>
@@ -2242,147 +2848,147 @@
       <c r="BN8" s="8"/>
       <c r="BO8" s="8"/>
     </row>
-    <row r="9" spans="1:67" ht="14.25">
-      <c r="A9" s="13">
+    <row r="9" ht="14.25" spans="1:67">
+      <c r="A9" s="18">
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="str">
+      <c r="B9" s="21" t="str">
         <f>IF(_tag_month_all!A6="","",_tag_month_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="16" t="str">
+      <c r="C9" s="21" t="str">
         <f>IF(_tag_month_all!B6="","",_tag_month_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="22" t="str">
         <f>IF(_tag_month_all!C6="","",_tag_month_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="18" t="str">
+      <c r="E9" s="23" t="str">
         <f>IF(_tag_month_all!D6="","",_tag_month_all!D6)</f>
         <v/>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="24" t="str">
         <f>IF(_tag_month_all!E6="","",_tag_month_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="25" t="str">
         <f>IF(_tag_month_all!F6="","",_tag_month_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="26" t="str">
         <f>IF(_tag_month_all!G6="","",_tag_month_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="18" t="str">
+      <c r="I9" s="23" t="str">
         <f>IF(_tag_month_all!H6="","",_tag_month_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="18" t="str">
+      <c r="J9" s="23" t="str">
         <f>IF(_tag_month_all!I6="","",_tag_month_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="27" t="str">
+      <c r="K9" s="32" t="str">
         <f>IF(_tag_month_all!J6="","",_tag_month_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="18" t="str">
+      <c r="L9" s="23" t="str">
         <f>IF(_tag_month_all!K6="","",_tag_month_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="28" t="str">
+      <c r="M9" s="33" t="str">
         <f>IF(_tag_month_all!L6="","",_tag_month_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="29" t="str">
+      <c r="N9" s="34" t="str">
         <f>IF(_tag_month_all!M6="","",_tag_month_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="30" t="str">
+      <c r="O9" s="35" t="str">
         <f>IF(_tag_month_all!N6="","",_tag_month_all!N6)</f>
         <v/>
       </c>
-      <c r="P9" s="30" t="str">
+      <c r="P9" s="35" t="str">
         <f>IF(_tag_month_all!O6="","",_tag_month_all!O6)</f>
         <v/>
       </c>
-      <c r="Q9" s="30" t="str">
+      <c r="Q9" s="35" t="str">
         <f>IF(_tag_month_all!P6="","",_tag_month_all!P6)</f>
         <v/>
       </c>
-      <c r="R9" s="35" t="str">
+      <c r="R9" s="43" t="str">
         <f>IF(_tag_month_all!Q6="","",_tag_month_all!Q6)</f>
         <v/>
       </c>
-      <c r="S9" s="35" t="str">
+      <c r="S9" s="43" t="str">
         <f>IF(_tag_month_all!R6="","",_tag_month_all!R6)</f>
         <v/>
       </c>
-      <c r="T9" s="35" t="str">
+      <c r="T9" s="43" t="str">
         <f>IF(_tag_month_all!S6="","",_tag_month_all!S6)</f>
         <v/>
       </c>
-      <c r="U9" s="35" t="str">
+      <c r="U9" s="43" t="str">
         <f>IF(_tag_month_all!T6="","",_tag_month_all!T6)</f>
         <v/>
       </c>
-      <c r="V9" s="29" t="str">
+      <c r="V9" s="34" t="str">
         <f>IF(_tag_month_all!U6="","",_tag_month_all!U6)</f>
         <v/>
       </c>
-      <c r="W9" s="30" t="str">
+      <c r="W9" s="35" t="str">
         <f>IF(_tag_month_all!V6="","",_tag_month_all!V6)</f>
         <v/>
       </c>
-      <c r="X9" s="30" t="str">
+      <c r="X9" s="35" t="str">
         <f>IF(_tag_month_all!W6="","",_tag_month_all!W6)</f>
         <v/>
       </c>
-      <c r="Y9" s="30" t="str">
+      <c r="Y9" s="35" t="str">
         <f>IF(_tag_month_all!X6="","",_tag_month_all!X6)</f>
         <v/>
       </c>
-      <c r="Z9" s="30" t="str">
+      <c r="Z9" s="35" t="str">
         <f>IF(_tag_month_all!Y6="","",_tag_month_all!Y6)</f>
         <v/>
       </c>
-      <c r="AA9" s="30" t="str">
+      <c r="AA9" s="35" t="str">
         <f>IF(_tag_month_all!Z6="","",_tag_month_all!Z6)</f>
         <v/>
       </c>
-      <c r="AB9" s="30" t="str">
+      <c r="AB9" s="35" t="str">
         <f>IF(_tag_month_all!AA6="","",_tag_month_all!AA6)</f>
         <v/>
       </c>
-      <c r="AC9" s="30" t="str">
+      <c r="AC9" s="35" t="str">
         <f>IF(_tag_month_all!AB6="","",_tag_month_all!AB6)</f>
         <v/>
       </c>
-      <c r="AD9" s="17" t="str">
+      <c r="AD9" s="22" t="str">
         <f>IF(_tag_month_all!AC6="","",_tag_month_all!AC6)</f>
         <v/>
       </c>
-      <c r="AE9" s="17" t="str">
+      <c r="AE9" s="22" t="str">
         <f>IF(_tag_month_all!AD6="","",_tag_month_all!AD6)</f>
         <v/>
       </c>
-      <c r="AF9" s="17" t="str">
+      <c r="AF9" s="22" t="str">
         <f>IF(_tag_month_all!AE6="","",_tag_month_all!AE6)</f>
         <v/>
       </c>
-      <c r="AG9" s="17" t="str">
+      <c r="AG9" s="22" t="str">
         <f>IF(_tag_month_all!AF6="","",_tag_month_all!AF6)</f>
         <v/>
       </c>
-      <c r="AH9" s="29" t="str">
+      <c r="AH9" s="34" t="str">
         <f>IF(_tag_month_all!AG6="","",_tag_month_all!AG6)</f>
         <v/>
       </c>
-      <c r="AI9" s="29" t="str">
+      <c r="AI9" s="34" t="str">
         <f>IF(_tag_month_all!AH6="","",_tag_month_all!AH6)</f>
         <v/>
       </c>
-      <c r="AJ9" s="38" t="str">
+      <c r="AJ9" s="51" t="str">
         <f>IF(_tag_month_all!AI6="","",_tag_month_all!AI6)</f>
         <v/>
       </c>
@@ -2418,147 +3024,147 @@
       <c r="BN9" s="8"/>
       <c r="BO9" s="8"/>
     </row>
-    <row r="10" spans="1:67" ht="14.25">
-      <c r="A10" s="13">
+    <row r="10" ht="14.25" spans="1:67">
+      <c r="A10" s="18">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="str">
+      <c r="B10" s="21" t="str">
         <f>IF(_tag_month_all!A7="","",_tag_month_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" s="21" t="str">
         <f>IF(_tag_month_all!B7="","",_tag_month_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="22" t="str">
         <f>IF(_tag_month_all!C7="","",_tag_month_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="18" t="str">
+      <c r="E10" s="23" t="str">
         <f>IF(_tag_month_all!D7="","",_tag_month_all!D7)</f>
         <v/>
       </c>
-      <c r="F10" s="19" t="str">
+      <c r="F10" s="24" t="str">
         <f>IF(_tag_month_all!E7="","",_tag_month_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="20" t="str">
+      <c r="G10" s="25" t="str">
         <f>IF(_tag_month_all!F7="","",_tag_month_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="21" t="str">
+      <c r="H10" s="26" t="str">
         <f>IF(_tag_month_all!G7="","",_tag_month_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="18" t="str">
+      <c r="I10" s="23" t="str">
         <f>IF(_tag_month_all!H7="","",_tag_month_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="18" t="str">
+      <c r="J10" s="23" t="str">
         <f>IF(_tag_month_all!I7="","",_tag_month_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="27" t="str">
+      <c r="K10" s="32" t="str">
         <f>IF(_tag_month_all!J7="","",_tag_month_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="18" t="str">
+      <c r="L10" s="23" t="str">
         <f>IF(_tag_month_all!K7="","",_tag_month_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="28" t="str">
+      <c r="M10" s="33" t="str">
         <f>IF(_tag_month_all!L7="","",_tag_month_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="29" t="str">
+      <c r="N10" s="34" t="str">
         <f>IF(_tag_month_all!M7="","",_tag_month_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="30" t="str">
+      <c r="O10" s="35" t="str">
         <f>IF(_tag_month_all!N7="","",_tag_month_all!N7)</f>
         <v/>
       </c>
-      <c r="P10" s="30" t="str">
+      <c r="P10" s="35" t="str">
         <f>IF(_tag_month_all!O7="","",_tag_month_all!O7)</f>
         <v/>
       </c>
-      <c r="Q10" s="30" t="str">
+      <c r="Q10" s="35" t="str">
         <f>IF(_tag_month_all!P7="","",_tag_month_all!P7)</f>
         <v/>
       </c>
-      <c r="R10" s="35" t="str">
+      <c r="R10" s="43" t="str">
         <f>IF(_tag_month_all!Q7="","",_tag_month_all!Q7)</f>
         <v/>
       </c>
-      <c r="S10" s="35" t="str">
+      <c r="S10" s="43" t="str">
         <f>IF(_tag_month_all!R7="","",_tag_month_all!R7)</f>
         <v/>
       </c>
-      <c r="T10" s="35" t="str">
+      <c r="T10" s="43" t="str">
         <f>IF(_tag_month_all!S7="","",_tag_month_all!S7)</f>
         <v/>
       </c>
-      <c r="U10" s="35" t="str">
+      <c r="U10" s="43" t="str">
         <f>IF(_tag_month_all!T7="","",_tag_month_all!T7)</f>
         <v/>
       </c>
-      <c r="V10" s="29" t="str">
+      <c r="V10" s="34" t="str">
         <f>IF(_tag_month_all!U7="","",_tag_month_all!U7)</f>
         <v/>
       </c>
-      <c r="W10" s="30" t="str">
+      <c r="W10" s="35" t="str">
         <f>IF(_tag_month_all!V7="","",_tag_month_all!V7)</f>
         <v/>
       </c>
-      <c r="X10" s="30" t="str">
+      <c r="X10" s="35" t="str">
         <f>IF(_tag_month_all!W7="","",_tag_month_all!W7)</f>
         <v/>
       </c>
-      <c r="Y10" s="30" t="str">
+      <c r="Y10" s="35" t="str">
         <f>IF(_tag_month_all!X7="","",_tag_month_all!X7)</f>
         <v/>
       </c>
-      <c r="Z10" s="30" t="str">
+      <c r="Z10" s="35" t="str">
         <f>IF(_tag_month_all!Y7="","",_tag_month_all!Y7)</f>
         <v/>
       </c>
-      <c r="AA10" s="30" t="str">
+      <c r="AA10" s="35" t="str">
         <f>IF(_tag_month_all!Z7="","",_tag_month_all!Z7)</f>
         <v/>
       </c>
-      <c r="AB10" s="30" t="str">
+      <c r="AB10" s="35" t="str">
         <f>IF(_tag_month_all!AA7="","",_tag_month_all!AA7)</f>
         <v/>
       </c>
-      <c r="AC10" s="30" t="str">
+      <c r="AC10" s="35" t="str">
         <f>IF(_tag_month_all!AB7="","",_tag_month_all!AB7)</f>
         <v/>
       </c>
-      <c r="AD10" s="17" t="str">
+      <c r="AD10" s="22" t="str">
         <f>IF(_tag_month_all!AC7="","",_tag_month_all!AC7)</f>
         <v/>
       </c>
-      <c r="AE10" s="17" t="str">
+      <c r="AE10" s="22" t="str">
         <f>IF(_tag_month_all!AD7="","",_tag_month_all!AD7)</f>
         <v/>
       </c>
-      <c r="AF10" s="17" t="str">
+      <c r="AF10" s="22" t="str">
         <f>IF(_tag_month_all!AE7="","",_tag_month_all!AE7)</f>
         <v/>
       </c>
-      <c r="AG10" s="17" t="str">
+      <c r="AG10" s="22" t="str">
         <f>IF(_tag_month_all!AF7="","",_tag_month_all!AF7)</f>
         <v/>
       </c>
-      <c r="AH10" s="29" t="str">
+      <c r="AH10" s="34" t="str">
         <f>IF(_tag_month_all!AG7="","",_tag_month_all!AG7)</f>
         <v/>
       </c>
-      <c r="AI10" s="29" t="str">
+      <c r="AI10" s="34" t="str">
         <f>IF(_tag_month_all!AH7="","",_tag_month_all!AH7)</f>
         <v/>
       </c>
-      <c r="AJ10" s="38" t="str">
+      <c r="AJ10" s="51" t="str">
         <f>IF(_tag_month_all!AI7="","",_tag_month_all!AI7)</f>
         <v/>
       </c>
@@ -2594,147 +3200,147 @@
       <c r="BN10" s="8"/>
       <c r="BO10" s="8"/>
     </row>
-    <row r="11" spans="1:67" ht="14.25">
-      <c r="A11" s="13">
+    <row r="11" ht="14.25" spans="1:67">
+      <c r="A11" s="18">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="str">
+      <c r="B11" s="21" t="str">
         <f>IF(_tag_month_all!A8="","",_tag_month_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="21" t="str">
         <f>IF(_tag_month_all!B8="","",_tag_month_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="22" t="str">
         <f>IF(_tag_month_all!C8="","",_tag_month_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="18" t="str">
+      <c r="E11" s="23" t="str">
         <f>IF(_tag_month_all!D8="","",_tag_month_all!D8)</f>
         <v/>
       </c>
-      <c r="F11" s="19" t="str">
+      <c r="F11" s="24" t="str">
         <f>IF(_tag_month_all!E8="","",_tag_month_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="20" t="str">
+      <c r="G11" s="25" t="str">
         <f>IF(_tag_month_all!F8="","",_tag_month_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="21" t="str">
+      <c r="H11" s="26" t="str">
         <f>IF(_tag_month_all!G8="","",_tag_month_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="18" t="str">
+      <c r="I11" s="23" t="str">
         <f>IF(_tag_month_all!H8="","",_tag_month_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="18" t="str">
+      <c r="J11" s="23" t="str">
         <f>IF(_tag_month_all!I8="","",_tag_month_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="27" t="str">
+      <c r="K11" s="32" t="str">
         <f>IF(_tag_month_all!J8="","",_tag_month_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="18" t="str">
+      <c r="L11" s="23" t="str">
         <f>IF(_tag_month_all!K8="","",_tag_month_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="28" t="str">
+      <c r="M11" s="33" t="str">
         <f>IF(_tag_month_all!L8="","",_tag_month_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="29" t="str">
+      <c r="N11" s="34" t="str">
         <f>IF(_tag_month_all!M8="","",_tag_month_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="30" t="str">
+      <c r="O11" s="35" t="str">
         <f>IF(_tag_month_all!N8="","",_tag_month_all!N8)</f>
         <v/>
       </c>
-      <c r="P11" s="30" t="str">
+      <c r="P11" s="35" t="str">
         <f>IF(_tag_month_all!O8="","",_tag_month_all!O8)</f>
         <v/>
       </c>
-      <c r="Q11" s="30" t="str">
+      <c r="Q11" s="35" t="str">
         <f>IF(_tag_month_all!P8="","",_tag_month_all!P8)</f>
         <v/>
       </c>
-      <c r="R11" s="35" t="str">
+      <c r="R11" s="43" t="str">
         <f>IF(_tag_month_all!Q8="","",_tag_month_all!Q8)</f>
         <v/>
       </c>
-      <c r="S11" s="35" t="str">
+      <c r="S11" s="43" t="str">
         <f>IF(_tag_month_all!R8="","",_tag_month_all!R8)</f>
         <v/>
       </c>
-      <c r="T11" s="35" t="str">
+      <c r="T11" s="43" t="str">
         <f>IF(_tag_month_all!S8="","",_tag_month_all!S8)</f>
         <v/>
       </c>
-      <c r="U11" s="35" t="str">
+      <c r="U11" s="43" t="str">
         <f>IF(_tag_month_all!T8="","",_tag_month_all!T8)</f>
         <v/>
       </c>
-      <c r="V11" s="29" t="str">
+      <c r="V11" s="34" t="str">
         <f>IF(_tag_month_all!U8="","",_tag_month_all!U8)</f>
         <v/>
       </c>
-      <c r="W11" s="30" t="str">
+      <c r="W11" s="35" t="str">
         <f>IF(_tag_month_all!V8="","",_tag_month_all!V8)</f>
         <v/>
       </c>
-      <c r="X11" s="30" t="str">
+      <c r="X11" s="35" t="str">
         <f>IF(_tag_month_all!W8="","",_tag_month_all!W8)</f>
         <v/>
       </c>
-      <c r="Y11" s="30" t="str">
+      <c r="Y11" s="35" t="str">
         <f>IF(_tag_month_all!X8="","",_tag_month_all!X8)</f>
         <v/>
       </c>
-      <c r="Z11" s="30" t="str">
+      <c r="Z11" s="35" t="str">
         <f>IF(_tag_month_all!Y8="","",_tag_month_all!Y8)</f>
         <v/>
       </c>
-      <c r="AA11" s="30" t="str">
+      <c r="AA11" s="35" t="str">
         <f>IF(_tag_month_all!Z8="","",_tag_month_all!Z8)</f>
         <v/>
       </c>
-      <c r="AB11" s="30" t="str">
+      <c r="AB11" s="35" t="str">
         <f>IF(_tag_month_all!AA8="","",_tag_month_all!AA8)</f>
         <v/>
       </c>
-      <c r="AC11" s="30" t="str">
+      <c r="AC11" s="35" t="str">
         <f>IF(_tag_month_all!AB8="","",_tag_month_all!AB8)</f>
         <v/>
       </c>
-      <c r="AD11" s="17" t="str">
+      <c r="AD11" s="22" t="str">
         <f>IF(_tag_month_all!AC8="","",_tag_month_all!AC8)</f>
         <v/>
       </c>
-      <c r="AE11" s="17" t="str">
+      <c r="AE11" s="22" t="str">
         <f>IF(_tag_month_all!AD8="","",_tag_month_all!AD8)</f>
         <v/>
       </c>
-      <c r="AF11" s="17" t="str">
+      <c r="AF11" s="22" t="str">
         <f>IF(_tag_month_all!AE8="","",_tag_month_all!AE8)</f>
         <v/>
       </c>
-      <c r="AG11" s="17" t="str">
+      <c r="AG11" s="22" t="str">
         <f>IF(_tag_month_all!AF8="","",_tag_month_all!AF8)</f>
         <v/>
       </c>
-      <c r="AH11" s="29" t="str">
+      <c r="AH11" s="34" t="str">
         <f>IF(_tag_month_all!AG8="","",_tag_month_all!AG8)</f>
         <v/>
       </c>
-      <c r="AI11" s="29" t="str">
+      <c r="AI11" s="34" t="str">
         <f>IF(_tag_month_all!AH8="","",_tag_month_all!AH8)</f>
         <v/>
       </c>
-      <c r="AJ11" s="38" t="str">
+      <c r="AJ11" s="51" t="str">
         <f>IF(_tag_month_all!AI8="","",_tag_month_all!AI8)</f>
         <v/>
       </c>
@@ -2770,147 +3376,147 @@
       <c r="BN11" s="8"/>
       <c r="BO11" s="8"/>
     </row>
-    <row r="12" spans="1:67" ht="14.25">
-      <c r="A12" s="13">
+    <row r="12" ht="14.25" spans="1:67">
+      <c r="A12" s="18">
         <v>8</v>
       </c>
-      <c r="B12" s="16" t="str">
+      <c r="B12" s="21" t="str">
         <f>IF(_tag_month_all!A9="","",_tag_month_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" s="21" t="str">
         <f>IF(_tag_month_all!B9="","",_tag_month_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="22" t="str">
         <f>IF(_tag_month_all!C9="","",_tag_month_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="18" t="str">
+      <c r="E12" s="23" t="str">
         <f>IF(_tag_month_all!D9="","",_tag_month_all!D9)</f>
         <v/>
       </c>
-      <c r="F12" s="19" t="str">
+      <c r="F12" s="24" t="str">
         <f>IF(_tag_month_all!E9="","",_tag_month_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="20" t="str">
+      <c r="G12" s="25" t="str">
         <f>IF(_tag_month_all!F9="","",_tag_month_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="21" t="str">
+      <c r="H12" s="26" t="str">
         <f>IF(_tag_month_all!G9="","",_tag_month_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="18" t="str">
+      <c r="I12" s="23" t="str">
         <f>IF(_tag_month_all!H9="","",_tag_month_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="18" t="str">
+      <c r="J12" s="23" t="str">
         <f>IF(_tag_month_all!I9="","",_tag_month_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="27" t="str">
+      <c r="K12" s="32" t="str">
         <f>IF(_tag_month_all!J9="","",_tag_month_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="18" t="str">
+      <c r="L12" s="23" t="str">
         <f>IF(_tag_month_all!K9="","",_tag_month_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="28" t="str">
+      <c r="M12" s="33" t="str">
         <f>IF(_tag_month_all!L9="","",_tag_month_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="29" t="str">
+      <c r="N12" s="34" t="str">
         <f>IF(_tag_month_all!M9="","",_tag_month_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="30" t="str">
+      <c r="O12" s="35" t="str">
         <f>IF(_tag_month_all!N9="","",_tag_month_all!N9)</f>
         <v/>
       </c>
-      <c r="P12" s="30" t="str">
+      <c r="P12" s="35" t="str">
         <f>IF(_tag_month_all!O9="","",_tag_month_all!O9)</f>
         <v/>
       </c>
-      <c r="Q12" s="30" t="str">
+      <c r="Q12" s="35" t="str">
         <f>IF(_tag_month_all!P9="","",_tag_month_all!P9)</f>
         <v/>
       </c>
-      <c r="R12" s="35" t="str">
+      <c r="R12" s="43" t="str">
         <f>IF(_tag_month_all!Q9="","",_tag_month_all!Q9)</f>
         <v/>
       </c>
-      <c r="S12" s="35" t="str">
+      <c r="S12" s="43" t="str">
         <f>IF(_tag_month_all!R9="","",_tag_month_all!R9)</f>
         <v/>
       </c>
-      <c r="T12" s="35" t="str">
+      <c r="T12" s="43" t="str">
         <f>IF(_tag_month_all!S9="","",_tag_month_all!S9)</f>
         <v/>
       </c>
-      <c r="U12" s="35" t="str">
+      <c r="U12" s="43" t="str">
         <f>IF(_tag_month_all!T9="","",_tag_month_all!T9)</f>
         <v/>
       </c>
-      <c r="V12" s="29" t="str">
+      <c r="V12" s="34" t="str">
         <f>IF(_tag_month_all!U9="","",_tag_month_all!U9)</f>
         <v/>
       </c>
-      <c r="W12" s="30" t="str">
+      <c r="W12" s="35" t="str">
         <f>IF(_tag_month_all!V9="","",_tag_month_all!V9)</f>
         <v/>
       </c>
-      <c r="X12" s="30" t="str">
+      <c r="X12" s="35" t="str">
         <f>IF(_tag_month_all!W9="","",_tag_month_all!W9)</f>
         <v/>
       </c>
-      <c r="Y12" s="30" t="str">
+      <c r="Y12" s="35" t="str">
         <f>IF(_tag_month_all!X9="","",_tag_month_all!X9)</f>
         <v/>
       </c>
-      <c r="Z12" s="30" t="str">
+      <c r="Z12" s="35" t="str">
         <f>IF(_tag_month_all!Y9="","",_tag_month_all!Y9)</f>
         <v/>
       </c>
-      <c r="AA12" s="30" t="str">
+      <c r="AA12" s="35" t="str">
         <f>IF(_tag_month_all!Z9="","",_tag_month_all!Z9)</f>
         <v/>
       </c>
-      <c r="AB12" s="30" t="str">
+      <c r="AB12" s="35" t="str">
         <f>IF(_tag_month_all!AA9="","",_tag_month_all!AA9)</f>
         <v/>
       </c>
-      <c r="AC12" s="30" t="str">
+      <c r="AC12" s="35" t="str">
         <f>IF(_tag_month_all!AB9="","",_tag_month_all!AB9)</f>
         <v/>
       </c>
-      <c r="AD12" s="17" t="str">
+      <c r="AD12" s="22" t="str">
         <f>IF(_tag_month_all!AC9="","",_tag_month_all!AC9)</f>
         <v/>
       </c>
-      <c r="AE12" s="17" t="str">
+      <c r="AE12" s="22" t="str">
         <f>IF(_tag_month_all!AD9="","",_tag_month_all!AD9)</f>
         <v/>
       </c>
-      <c r="AF12" s="17" t="str">
+      <c r="AF12" s="22" t="str">
         <f>IF(_tag_month_all!AE9="","",_tag_month_all!AE9)</f>
         <v/>
       </c>
-      <c r="AG12" s="17" t="str">
+      <c r="AG12" s="22" t="str">
         <f>IF(_tag_month_all!AF9="","",_tag_month_all!AF9)</f>
         <v/>
       </c>
-      <c r="AH12" s="29" t="str">
+      <c r="AH12" s="34" t="str">
         <f>IF(_tag_month_all!AG9="","",_tag_month_all!AG9)</f>
         <v/>
       </c>
-      <c r="AI12" s="29" t="str">
+      <c r="AI12" s="34" t="str">
         <f>IF(_tag_month_all!AH9="","",_tag_month_all!AH9)</f>
         <v/>
       </c>
-      <c r="AJ12" s="38" t="str">
+      <c r="AJ12" s="51" t="str">
         <f>IF(_tag_month_all!AI9="","",_tag_month_all!AI9)</f>
         <v/>
       </c>
@@ -3036,147 +3642,147 @@
       </c>
       <c r="BO12" s="8"/>
     </row>
-    <row r="13" spans="1:67" ht="14.25">
-      <c r="A13" s="13">
+    <row r="13" ht="14.25" spans="1:67">
+      <c r="A13" s="18">
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="str">
+      <c r="B13" s="21" t="str">
         <f>IF(_tag_month_all!A10="","",_tag_month_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="21" t="str">
         <f>IF(_tag_month_all!B10="","",_tag_month_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="22" t="str">
         <f>IF(_tag_month_all!C10="","",_tag_month_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="18" t="str">
+      <c r="E13" s="23" t="str">
         <f>IF(_tag_month_all!D10="","",_tag_month_all!D10)</f>
         <v/>
       </c>
-      <c r="F13" s="19" t="str">
+      <c r="F13" s="24" t="str">
         <f>IF(_tag_month_all!E10="","",_tag_month_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="20" t="str">
+      <c r="G13" s="25" t="str">
         <f>IF(_tag_month_all!F10="","",_tag_month_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="21" t="str">
+      <c r="H13" s="26" t="str">
         <f>IF(_tag_month_all!G10="","",_tag_month_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="18" t="str">
+      <c r="I13" s="23" t="str">
         <f>IF(_tag_month_all!H10="","",_tag_month_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="18" t="str">
+      <c r="J13" s="23" t="str">
         <f>IF(_tag_month_all!I10="","",_tag_month_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="27" t="str">
+      <c r="K13" s="32" t="str">
         <f>IF(_tag_month_all!J10="","",_tag_month_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="18" t="str">
+      <c r="L13" s="23" t="str">
         <f>IF(_tag_month_all!K10="","",_tag_month_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="28" t="str">
+      <c r="M13" s="33" t="str">
         <f>IF(_tag_month_all!L10="","",_tag_month_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="29" t="str">
+      <c r="N13" s="34" t="str">
         <f>IF(_tag_month_all!M10="","",_tag_month_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="30" t="str">
+      <c r="O13" s="35" t="str">
         <f>IF(_tag_month_all!N10="","",_tag_month_all!N10)</f>
         <v/>
       </c>
-      <c r="P13" s="30" t="str">
+      <c r="P13" s="35" t="str">
         <f>IF(_tag_month_all!O10="","",_tag_month_all!O10)</f>
         <v/>
       </c>
-      <c r="Q13" s="30" t="str">
+      <c r="Q13" s="35" t="str">
         <f>IF(_tag_month_all!P10="","",_tag_month_all!P10)</f>
         <v/>
       </c>
-      <c r="R13" s="35" t="str">
+      <c r="R13" s="43" t="str">
         <f>IF(_tag_month_all!Q10="","",_tag_month_all!Q10)</f>
         <v/>
       </c>
-      <c r="S13" s="35" t="str">
+      <c r="S13" s="43" t="str">
         <f>IF(_tag_month_all!R10="","",_tag_month_all!R10)</f>
         <v/>
       </c>
-      <c r="T13" s="35" t="str">
+      <c r="T13" s="43" t="str">
         <f>IF(_tag_month_all!S10="","",_tag_month_all!S10)</f>
         <v/>
       </c>
-      <c r="U13" s="35" t="str">
+      <c r="U13" s="43" t="str">
         <f>IF(_tag_month_all!T10="","",_tag_month_all!T10)</f>
         <v/>
       </c>
-      <c r="V13" s="29" t="str">
+      <c r="V13" s="34" t="str">
         <f>IF(_tag_month_all!U10="","",_tag_month_all!U10)</f>
         <v/>
       </c>
-      <c r="W13" s="30" t="str">
+      <c r="W13" s="35" t="str">
         <f>IF(_tag_month_all!V10="","",_tag_month_all!V10)</f>
         <v/>
       </c>
-      <c r="X13" s="30" t="str">
+      <c r="X13" s="35" t="str">
         <f>IF(_tag_month_all!W10="","",_tag_month_all!W10)</f>
         <v/>
       </c>
-      <c r="Y13" s="30" t="str">
+      <c r="Y13" s="35" t="str">
         <f>IF(_tag_month_all!X10="","",_tag_month_all!X10)</f>
         <v/>
       </c>
-      <c r="Z13" s="30" t="str">
+      <c r="Z13" s="35" t="str">
         <f>IF(_tag_month_all!Y10="","",_tag_month_all!Y10)</f>
         <v/>
       </c>
-      <c r="AA13" s="30" t="str">
+      <c r="AA13" s="35" t="str">
         <f>IF(_tag_month_all!Z10="","",_tag_month_all!Z10)</f>
         <v/>
       </c>
-      <c r="AB13" s="30" t="str">
+      <c r="AB13" s="35" t="str">
         <f>IF(_tag_month_all!AA10="","",_tag_month_all!AA10)</f>
         <v/>
       </c>
-      <c r="AC13" s="30" t="str">
+      <c r="AC13" s="35" t="str">
         <f>IF(_tag_month_all!AB10="","",_tag_month_all!AB10)</f>
         <v/>
       </c>
-      <c r="AD13" s="17" t="str">
+      <c r="AD13" s="22" t="str">
         <f>IF(_tag_month_all!AC10="","",_tag_month_all!AC10)</f>
         <v/>
       </c>
-      <c r="AE13" s="17" t="str">
+      <c r="AE13" s="22" t="str">
         <f>IF(_tag_month_all!AD10="","",_tag_month_all!AD10)</f>
         <v/>
       </c>
-      <c r="AF13" s="17" t="str">
+      <c r="AF13" s="22" t="str">
         <f>IF(_tag_month_all!AE10="","",_tag_month_all!AE10)</f>
         <v/>
       </c>
-      <c r="AG13" s="17" t="str">
+      <c r="AG13" s="22" t="str">
         <f>IF(_tag_month_all!AF10="","",_tag_month_all!AF10)</f>
         <v/>
       </c>
-      <c r="AH13" s="29" t="str">
+      <c r="AH13" s="34" t="str">
         <f>IF(_tag_month_all!AG10="","",_tag_month_all!AG10)</f>
         <v/>
       </c>
-      <c r="AI13" s="29" t="str">
+      <c r="AI13" s="34" t="str">
         <f>IF(_tag_month_all!AH10="","",_tag_month_all!AH10)</f>
         <v/>
       </c>
-      <c r="AJ13" s="38" t="str">
+      <c r="AJ13" s="51" t="str">
         <f>IF(_tag_month_all!AI10="","",_tag_month_all!AI10)</f>
         <v/>
       </c>
@@ -3302,147 +3908,147 @@
       </c>
       <c r="BO13" s="8"/>
     </row>
-    <row r="14" spans="1:67" ht="14.25">
-      <c r="A14" s="13">
+    <row r="14" ht="14.25" spans="1:67">
+      <c r="A14" s="18">
         <v>10</v>
       </c>
-      <c r="B14" s="16" t="str">
+      <c r="B14" s="21" t="str">
         <f>IF(_tag_month_all!A11="","",_tag_month_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="16" t="str">
+      <c r="C14" s="21" t="str">
         <f>IF(_tag_month_all!B11="","",_tag_month_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="22" t="str">
         <f>IF(_tag_month_all!C11="","",_tag_month_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="18" t="str">
+      <c r="E14" s="23" t="str">
         <f>IF(_tag_month_all!D11="","",_tag_month_all!D11)</f>
         <v/>
       </c>
-      <c r="F14" s="19" t="str">
+      <c r="F14" s="24" t="str">
         <f>IF(_tag_month_all!E11="","",_tag_month_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="20" t="str">
+      <c r="G14" s="25" t="str">
         <f>IF(_tag_month_all!F11="","",_tag_month_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="21" t="str">
+      <c r="H14" s="26" t="str">
         <f>IF(_tag_month_all!G11="","",_tag_month_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="18" t="str">
+      <c r="I14" s="23" t="str">
         <f>IF(_tag_month_all!H11="","",_tag_month_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="18" t="str">
+      <c r="J14" s="23" t="str">
         <f>IF(_tag_month_all!I11="","",_tag_month_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="27" t="str">
+      <c r="K14" s="32" t="str">
         <f>IF(_tag_month_all!J11="","",_tag_month_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="18" t="str">
+      <c r="L14" s="23" t="str">
         <f>IF(_tag_month_all!K11="","",_tag_month_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="28" t="str">
+      <c r="M14" s="33" t="str">
         <f>IF(_tag_month_all!L11="","",_tag_month_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="29" t="str">
+      <c r="N14" s="34" t="str">
         <f>IF(_tag_month_all!M11="","",_tag_month_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="30" t="str">
+      <c r="O14" s="35" t="str">
         <f>IF(_tag_month_all!N11="","",_tag_month_all!N11)</f>
         <v/>
       </c>
-      <c r="P14" s="30" t="str">
+      <c r="P14" s="35" t="str">
         <f>IF(_tag_month_all!O11="","",_tag_month_all!O11)</f>
         <v/>
       </c>
-      <c r="Q14" s="30" t="str">
+      <c r="Q14" s="35" t="str">
         <f>IF(_tag_month_all!P11="","",_tag_month_all!P11)</f>
         <v/>
       </c>
-      <c r="R14" s="35" t="str">
+      <c r="R14" s="43" t="str">
         <f>IF(_tag_month_all!Q11="","",_tag_month_all!Q11)</f>
         <v/>
       </c>
-      <c r="S14" s="35" t="str">
+      <c r="S14" s="43" t="str">
         <f>IF(_tag_month_all!R11="","",_tag_month_all!R11)</f>
         <v/>
       </c>
-      <c r="T14" s="35" t="str">
+      <c r="T14" s="43" t="str">
         <f>IF(_tag_month_all!S11="","",_tag_month_all!S11)</f>
         <v/>
       </c>
-      <c r="U14" s="35" t="str">
+      <c r="U14" s="43" t="str">
         <f>IF(_tag_month_all!T11="","",_tag_month_all!T11)</f>
         <v/>
       </c>
-      <c r="V14" s="29" t="str">
+      <c r="V14" s="34" t="str">
         <f>IF(_tag_month_all!U11="","",_tag_month_all!U11)</f>
         <v/>
       </c>
-      <c r="W14" s="30" t="str">
+      <c r="W14" s="35" t="str">
         <f>IF(_tag_month_all!V11="","",_tag_month_all!V11)</f>
         <v/>
       </c>
-      <c r="X14" s="30" t="str">
+      <c r="X14" s="35" t="str">
         <f>IF(_tag_month_all!W11="","",_tag_month_all!W11)</f>
         <v/>
       </c>
-      <c r="Y14" s="30" t="str">
+      <c r="Y14" s="35" t="str">
         <f>IF(_tag_month_all!X11="","",_tag_month_all!X11)</f>
         <v/>
       </c>
-      <c r="Z14" s="30" t="str">
+      <c r="Z14" s="35" t="str">
         <f>IF(_tag_month_all!Y11="","",_tag_month_all!Y11)</f>
         <v/>
       </c>
-      <c r="AA14" s="30" t="str">
+      <c r="AA14" s="35" t="str">
         <f>IF(_tag_month_all!Z11="","",_tag_month_all!Z11)</f>
         <v/>
       </c>
-      <c r="AB14" s="30" t="str">
+      <c r="AB14" s="35" t="str">
         <f>IF(_tag_month_all!AA11="","",_tag_month_all!AA11)</f>
         <v/>
       </c>
-      <c r="AC14" s="30" t="str">
+      <c r="AC14" s="35" t="str">
         <f>IF(_tag_month_all!AB11="","",_tag_month_all!AB11)</f>
         <v/>
       </c>
-      <c r="AD14" s="17" t="str">
+      <c r="AD14" s="22" t="str">
         <f>IF(_tag_month_all!AC11="","",_tag_month_all!AC11)</f>
         <v/>
       </c>
-      <c r="AE14" s="17" t="str">
+      <c r="AE14" s="22" t="str">
         <f>IF(_tag_month_all!AD11="","",_tag_month_all!AD11)</f>
         <v/>
       </c>
-      <c r="AF14" s="17" t="str">
+      <c r="AF14" s="22" t="str">
         <f>IF(_tag_month_all!AE11="","",_tag_month_all!AE11)</f>
         <v/>
       </c>
-      <c r="AG14" s="17" t="str">
+      <c r="AG14" s="22" t="str">
         <f>IF(_tag_month_all!AF11="","",_tag_month_all!AF11)</f>
         <v/>
       </c>
-      <c r="AH14" s="29" t="str">
+      <c r="AH14" s="34" t="str">
         <f>IF(_tag_month_all!AG11="","",_tag_month_all!AG11)</f>
         <v/>
       </c>
-      <c r="AI14" s="29" t="str">
+      <c r="AI14" s="34" t="str">
         <f>IF(_tag_month_all!AH11="","",_tag_month_all!AH11)</f>
         <v/>
       </c>
-      <c r="AJ14" s="38" t="str">
+      <c r="AJ14" s="51" t="str">
         <f>IF(_tag_month_all!AI11="","",_tag_month_all!AI11)</f>
         <v/>
       </c>
@@ -3568,147 +4174,147 @@
       </c>
       <c r="BO14" s="8"/>
     </row>
-    <row r="15" spans="1:67" ht="14.25">
-      <c r="A15" s="13">
+    <row r="15" ht="14.25" spans="1:67">
+      <c r="A15" s="18">
         <v>11</v>
       </c>
-      <c r="B15" s="16" t="str">
+      <c r="B15" s="21" t="str">
         <f>IF(_tag_month_all!A12="","",_tag_month_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_tag_month_all!B12="","",_tag_month_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="17" t="str">
+      <c r="D15" s="22" t="str">
         <f>IF(_tag_month_all!C12="","",_tag_month_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="18" t="str">
+      <c r="E15" s="23" t="str">
         <f>IF(_tag_month_all!D12="","",_tag_month_all!D12)</f>
         <v/>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="F15" s="24" t="str">
         <f>IF(_tag_month_all!E12="","",_tag_month_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="25" t="str">
         <f>IF(_tag_month_all!F12="","",_tag_month_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="21" t="str">
+      <c r="H15" s="26" t="str">
         <f>IF(_tag_month_all!G12="","",_tag_month_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="18" t="str">
+      <c r="I15" s="23" t="str">
         <f>IF(_tag_month_all!H12="","",_tag_month_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="18" t="str">
+      <c r="J15" s="23" t="str">
         <f>IF(_tag_month_all!I12="","",_tag_month_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="27" t="str">
+      <c r="K15" s="32" t="str">
         <f>IF(_tag_month_all!J12="","",_tag_month_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="18" t="str">
+      <c r="L15" s="23" t="str">
         <f>IF(_tag_month_all!K12="","",_tag_month_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="28" t="str">
+      <c r="M15" s="33" t="str">
         <f>IF(_tag_month_all!L12="","",_tag_month_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="29" t="str">
+      <c r="N15" s="34" t="str">
         <f>IF(_tag_month_all!M12="","",_tag_month_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="30" t="str">
+      <c r="O15" s="35" t="str">
         <f>IF(_tag_month_all!N12="","",_tag_month_all!N12)</f>
         <v/>
       </c>
-      <c r="P15" s="30" t="str">
+      <c r="P15" s="35" t="str">
         <f>IF(_tag_month_all!O12="","",_tag_month_all!O12)</f>
         <v/>
       </c>
-      <c r="Q15" s="30" t="str">
+      <c r="Q15" s="35" t="str">
         <f>IF(_tag_month_all!P12="","",_tag_month_all!P12)</f>
         <v/>
       </c>
-      <c r="R15" s="35" t="str">
+      <c r="R15" s="43" t="str">
         <f>IF(_tag_month_all!Q12="","",_tag_month_all!Q12)</f>
         <v/>
       </c>
-      <c r="S15" s="35" t="str">
+      <c r="S15" s="43" t="str">
         <f>IF(_tag_month_all!R12="","",_tag_month_all!R12)</f>
         <v/>
       </c>
-      <c r="T15" s="35" t="str">
+      <c r="T15" s="43" t="str">
         <f>IF(_tag_month_all!S12="","",_tag_month_all!S12)</f>
         <v/>
       </c>
-      <c r="U15" s="35" t="str">
+      <c r="U15" s="43" t="str">
         <f>IF(_tag_month_all!T12="","",_tag_month_all!T12)</f>
         <v/>
       </c>
-      <c r="V15" s="29" t="str">
+      <c r="V15" s="34" t="str">
         <f>IF(_tag_month_all!U12="","",_tag_month_all!U12)</f>
         <v/>
       </c>
-      <c r="W15" s="30" t="str">
+      <c r="W15" s="35" t="str">
         <f>IF(_tag_month_all!V12="","",_tag_month_all!V12)</f>
         <v/>
       </c>
-      <c r="X15" s="30" t="str">
+      <c r="X15" s="35" t="str">
         <f>IF(_tag_month_all!W12="","",_tag_month_all!W12)</f>
         <v/>
       </c>
-      <c r="Y15" s="30" t="str">
+      <c r="Y15" s="35" t="str">
         <f>IF(_tag_month_all!X12="","",_tag_month_all!X12)</f>
         <v/>
       </c>
-      <c r="Z15" s="30" t="str">
+      <c r="Z15" s="35" t="str">
         <f>IF(_tag_month_all!Y12="","",_tag_month_all!Y12)</f>
         <v/>
       </c>
-      <c r="AA15" s="30" t="str">
+      <c r="AA15" s="35" t="str">
         <f>IF(_tag_month_all!Z12="","",_tag_month_all!Z12)</f>
         <v/>
       </c>
-      <c r="AB15" s="30" t="str">
+      <c r="AB15" s="35" t="str">
         <f>IF(_tag_month_all!AA12="","",_tag_month_all!AA12)</f>
         <v/>
       </c>
-      <c r="AC15" s="30" t="str">
+      <c r="AC15" s="35" t="str">
         <f>IF(_tag_month_all!AB12="","",_tag_month_all!AB12)</f>
         <v/>
       </c>
-      <c r="AD15" s="17" t="str">
+      <c r="AD15" s="22" t="str">
         <f>IF(_tag_month_all!AC12="","",_tag_month_all!AC12)</f>
         <v/>
       </c>
-      <c r="AE15" s="17" t="str">
+      <c r="AE15" s="22" t="str">
         <f>IF(_tag_month_all!AD12="","",_tag_month_all!AD12)</f>
         <v/>
       </c>
-      <c r="AF15" s="17" t="str">
+      <c r="AF15" s="22" t="str">
         <f>IF(_tag_month_all!AE12="","",_tag_month_all!AE12)</f>
         <v/>
       </c>
-      <c r="AG15" s="17" t="str">
+      <c r="AG15" s="22" t="str">
         <f>IF(_tag_month_all!AF12="","",_tag_month_all!AF12)</f>
         <v/>
       </c>
-      <c r="AH15" s="29" t="str">
+      <c r="AH15" s="34" t="str">
         <f>IF(_tag_month_all!AG12="","",_tag_month_all!AG12)</f>
         <v/>
       </c>
-      <c r="AI15" s="29" t="str">
+      <c r="AI15" s="34" t="str">
         <f>IF(_tag_month_all!AH12="","",_tag_month_all!AH12)</f>
         <v/>
       </c>
-      <c r="AJ15" s="38" t="str">
+      <c r="AJ15" s="51" t="str">
         <f>IF(_tag_month_all!AI12="","",_tag_month_all!AI12)</f>
         <v/>
       </c>
@@ -3834,147 +4440,147 @@
       </c>
       <c r="BO15" s="8"/>
     </row>
-    <row r="16" spans="1:67" ht="14.25">
-      <c r="A16" s="13">
+    <row r="16" ht="14.25" spans="1:67">
+      <c r="A16" s="18">
         <v>12</v>
       </c>
-      <c r="B16" s="16" t="str">
+      <c r="B16" s="21" t="str">
         <f>IF(_tag_month_all!A13="","",_tag_month_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="16" t="str">
+      <c r="C16" s="21" t="str">
         <f>IF(_tag_month_all!B13="","",_tag_month_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="17" t="str">
+      <c r="D16" s="22" t="str">
         <f>IF(_tag_month_all!C13="","",_tag_month_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="18" t="str">
+      <c r="E16" s="23" t="str">
         <f>IF(_tag_month_all!D13="","",_tag_month_all!D13)</f>
         <v/>
       </c>
-      <c r="F16" s="19" t="str">
+      <c r="F16" s="24" t="str">
         <f>IF(_tag_month_all!E13="","",_tag_month_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="20" t="str">
+      <c r="G16" s="25" t="str">
         <f>IF(_tag_month_all!F13="","",_tag_month_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="21" t="str">
+      <c r="H16" s="26" t="str">
         <f>IF(_tag_month_all!G13="","",_tag_month_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="18" t="str">
+      <c r="I16" s="23" t="str">
         <f>IF(_tag_month_all!H13="","",_tag_month_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="18" t="str">
+      <c r="J16" s="23" t="str">
         <f>IF(_tag_month_all!I13="","",_tag_month_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="27" t="str">
+      <c r="K16" s="32" t="str">
         <f>IF(_tag_month_all!J13="","",_tag_month_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="18" t="str">
+      <c r="L16" s="23" t="str">
         <f>IF(_tag_month_all!K13="","",_tag_month_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="28" t="str">
+      <c r="M16" s="33" t="str">
         <f>IF(_tag_month_all!L13="","",_tag_month_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="29" t="str">
+      <c r="N16" s="34" t="str">
         <f>IF(_tag_month_all!M13="","",_tag_month_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="30" t="str">
+      <c r="O16" s="35" t="str">
         <f>IF(_tag_month_all!N13="","",_tag_month_all!N13)</f>
         <v/>
       </c>
-      <c r="P16" s="30" t="str">
+      <c r="P16" s="35" t="str">
         <f>IF(_tag_month_all!O13="","",_tag_month_all!O13)</f>
         <v/>
       </c>
-      <c r="Q16" s="30" t="str">
+      <c r="Q16" s="35" t="str">
         <f>IF(_tag_month_all!P13="","",_tag_month_all!P13)</f>
         <v/>
       </c>
-      <c r="R16" s="35" t="str">
+      <c r="R16" s="43" t="str">
         <f>IF(_tag_month_all!Q13="","",_tag_month_all!Q13)</f>
         <v/>
       </c>
-      <c r="S16" s="35" t="str">
+      <c r="S16" s="43" t="str">
         <f>IF(_tag_month_all!R13="","",_tag_month_all!R13)</f>
         <v/>
       </c>
-      <c r="T16" s="35" t="str">
+      <c r="T16" s="43" t="str">
         <f>IF(_tag_month_all!S13="","",_tag_month_all!S13)</f>
         <v/>
       </c>
-      <c r="U16" s="35" t="str">
+      <c r="U16" s="43" t="str">
         <f>IF(_tag_month_all!T13="","",_tag_month_all!T13)</f>
         <v/>
       </c>
-      <c r="V16" s="29" t="str">
+      <c r="V16" s="34" t="str">
         <f>IF(_tag_month_all!U13="","",_tag_month_all!U13)</f>
         <v/>
       </c>
-      <c r="W16" s="30" t="str">
+      <c r="W16" s="35" t="str">
         <f>IF(_tag_month_all!V13="","",_tag_month_all!V13)</f>
         <v/>
       </c>
-      <c r="X16" s="30" t="str">
+      <c r="X16" s="35" t="str">
         <f>IF(_tag_month_all!W13="","",_tag_month_all!W13)</f>
         <v/>
       </c>
-      <c r="Y16" s="30" t="str">
+      <c r="Y16" s="35" t="str">
         <f>IF(_tag_month_all!X13="","",_tag_month_all!X13)</f>
         <v/>
       </c>
-      <c r="Z16" s="30" t="str">
+      <c r="Z16" s="35" t="str">
         <f>IF(_tag_month_all!Y13="","",_tag_month_all!Y13)</f>
         <v/>
       </c>
-      <c r="AA16" s="30" t="str">
+      <c r="AA16" s="35" t="str">
         <f>IF(_tag_month_all!Z13="","",_tag_month_all!Z13)</f>
         <v/>
       </c>
-      <c r="AB16" s="30" t="str">
+      <c r="AB16" s="35" t="str">
         <f>IF(_tag_month_all!AA13="","",_tag_month_all!AA13)</f>
         <v/>
       </c>
-      <c r="AC16" s="30" t="str">
+      <c r="AC16" s="35" t="str">
         <f>IF(_tag_month_all!AB13="","",_tag_month_all!AB13)</f>
         <v/>
       </c>
-      <c r="AD16" s="17" t="str">
+      <c r="AD16" s="22" t="str">
         <f>IF(_tag_month_all!AC13="","",_tag_month_all!AC13)</f>
         <v/>
       </c>
-      <c r="AE16" s="17" t="str">
+      <c r="AE16" s="22" t="str">
         <f>IF(_tag_month_all!AD13="","",_tag_month_all!AD13)</f>
         <v/>
       </c>
-      <c r="AF16" s="17" t="str">
+      <c r="AF16" s="22" t="str">
         <f>IF(_tag_month_all!AE13="","",_tag_month_all!AE13)</f>
         <v/>
       </c>
-      <c r="AG16" s="17" t="str">
+      <c r="AG16" s="22" t="str">
         <f>IF(_tag_month_all!AF13="","",_tag_month_all!AF13)</f>
         <v/>
       </c>
-      <c r="AH16" s="29" t="str">
+      <c r="AH16" s="34" t="str">
         <f>IF(_tag_month_all!AG13="","",_tag_month_all!AG13)</f>
         <v/>
       </c>
-      <c r="AI16" s="29" t="str">
+      <c r="AI16" s="34" t="str">
         <f>IF(_tag_month_all!AH13="","",_tag_month_all!AH13)</f>
         <v/>
       </c>
-      <c r="AJ16" s="38" t="str">
+      <c r="AJ16" s="51" t="str">
         <f>IF(_tag_month_all!AI13="","",_tag_month_all!AI13)</f>
         <v/>
       </c>
@@ -4100,147 +4706,147 @@
       </c>
       <c r="BO16" s="8"/>
     </row>
-    <row r="17" spans="1:67" ht="14.25">
-      <c r="A17" s="13">
+    <row r="17" ht="14.25" spans="1:67">
+      <c r="A17" s="18">
         <v>13</v>
       </c>
-      <c r="B17" s="16" t="str">
+      <c r="B17" s="21" t="str">
         <f>IF(_tag_month_all!A14="","",_tag_month_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="21" t="str">
         <f>IF(_tag_month_all!B14="","",_tag_month_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="17" t="str">
+      <c r="D17" s="22" t="str">
         <f>IF(_tag_month_all!C14="","",_tag_month_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="18" t="str">
+      <c r="E17" s="23" t="str">
         <f>IF(_tag_month_all!D14="","",_tag_month_all!D14)</f>
         <v/>
       </c>
-      <c r="F17" s="19" t="str">
+      <c r="F17" s="24" t="str">
         <f>IF(_tag_month_all!E14="","",_tag_month_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="20" t="str">
+      <c r="G17" s="25" t="str">
         <f>IF(_tag_month_all!F14="","",_tag_month_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="21" t="str">
+      <c r="H17" s="26" t="str">
         <f>IF(_tag_month_all!G14="","",_tag_month_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="18" t="str">
+      <c r="I17" s="23" t="str">
         <f>IF(_tag_month_all!H14="","",_tag_month_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="18" t="str">
+      <c r="J17" s="23" t="str">
         <f>IF(_tag_month_all!I14="","",_tag_month_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="27" t="str">
+      <c r="K17" s="32" t="str">
         <f>IF(_tag_month_all!J14="","",_tag_month_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="18" t="str">
+      <c r="L17" s="23" t="str">
         <f>IF(_tag_month_all!K14="","",_tag_month_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="28" t="str">
+      <c r="M17" s="33" t="str">
         <f>IF(_tag_month_all!L14="","",_tag_month_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="29" t="str">
+      <c r="N17" s="34" t="str">
         <f>IF(_tag_month_all!M14="","",_tag_month_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="30" t="str">
+      <c r="O17" s="35" t="str">
         <f>IF(_tag_month_all!N14="","",_tag_month_all!N14)</f>
         <v/>
       </c>
-      <c r="P17" s="30" t="str">
+      <c r="P17" s="35" t="str">
         <f>IF(_tag_month_all!O14="","",_tag_month_all!O14)</f>
         <v/>
       </c>
-      <c r="Q17" s="30" t="str">
+      <c r="Q17" s="35" t="str">
         <f>IF(_tag_month_all!P14="","",_tag_month_all!P14)</f>
         <v/>
       </c>
-      <c r="R17" s="35" t="str">
+      <c r="R17" s="43" t="str">
         <f>IF(_tag_month_all!Q14="","",_tag_month_all!Q14)</f>
         <v/>
       </c>
-      <c r="S17" s="35" t="str">
+      <c r="S17" s="43" t="str">
         <f>IF(_tag_month_all!R14="","",_tag_month_all!R14)</f>
         <v/>
       </c>
-      <c r="T17" s="35" t="str">
+      <c r="T17" s="43" t="str">
         <f>IF(_tag_month_all!S14="","",_tag_month_all!S14)</f>
         <v/>
       </c>
-      <c r="U17" s="35" t="str">
+      <c r="U17" s="43" t="str">
         <f>IF(_tag_month_all!T14="","",_tag_month_all!T14)</f>
         <v/>
       </c>
-      <c r="V17" s="29" t="str">
+      <c r="V17" s="34" t="str">
         <f>IF(_tag_month_all!U14="","",_tag_month_all!U14)</f>
         <v/>
       </c>
-      <c r="W17" s="30" t="str">
+      <c r="W17" s="35" t="str">
         <f>IF(_tag_month_all!V14="","",_tag_month_all!V14)</f>
         <v/>
       </c>
-      <c r="X17" s="30" t="str">
+      <c r="X17" s="35" t="str">
         <f>IF(_tag_month_all!W14="","",_tag_month_all!W14)</f>
         <v/>
       </c>
-      <c r="Y17" s="30" t="str">
+      <c r="Y17" s="35" t="str">
         <f>IF(_tag_month_all!X14="","",_tag_month_all!X14)</f>
         <v/>
       </c>
-      <c r="Z17" s="30" t="str">
+      <c r="Z17" s="35" t="str">
         <f>IF(_tag_month_all!Y14="","",_tag_month_all!Y14)</f>
         <v/>
       </c>
-      <c r="AA17" s="30" t="str">
+      <c r="AA17" s="35" t="str">
         <f>IF(_tag_month_all!Z14="","",_tag_month_all!Z14)</f>
         <v/>
       </c>
-      <c r="AB17" s="30" t="str">
+      <c r="AB17" s="35" t="str">
         <f>IF(_tag_month_all!AA14="","",_tag_month_all!AA14)</f>
         <v/>
       </c>
-      <c r="AC17" s="30" t="str">
+      <c r="AC17" s="35" t="str">
         <f>IF(_tag_month_all!AB14="","",_tag_month_all!AB14)</f>
         <v/>
       </c>
-      <c r="AD17" s="17" t="str">
+      <c r="AD17" s="22" t="str">
         <f>IF(_tag_month_all!AC14="","",_tag_month_all!AC14)</f>
         <v/>
       </c>
-      <c r="AE17" s="17" t="str">
+      <c r="AE17" s="22" t="str">
         <f>IF(_tag_month_all!AD14="","",_tag_month_all!AD14)</f>
         <v/>
       </c>
-      <c r="AF17" s="17" t="str">
+      <c r="AF17" s="22" t="str">
         <f>IF(_tag_month_all!AE14="","",_tag_month_all!AE14)</f>
         <v/>
       </c>
-      <c r="AG17" s="17" t="str">
+      <c r="AG17" s="22" t="str">
         <f>IF(_tag_month_all!AF14="","",_tag_month_all!AF14)</f>
         <v/>
       </c>
-      <c r="AH17" s="29" t="str">
+      <c r="AH17" s="34" t="str">
         <f>IF(_tag_month_all!AG14="","",_tag_month_all!AG14)</f>
         <v/>
       </c>
-      <c r="AI17" s="29" t="str">
+      <c r="AI17" s="34" t="str">
         <f>IF(_tag_month_all!AH14="","",_tag_month_all!AH14)</f>
         <v/>
       </c>
-      <c r="AJ17" s="38" t="str">
+      <c r="AJ17" s="51" t="str">
         <f>IF(_tag_month_all!AI14="","",_tag_month_all!AI14)</f>
         <v/>
       </c>
@@ -4366,147 +4972,147 @@
       </c>
       <c r="BO17" s="8"/>
     </row>
-    <row r="18" spans="1:67" ht="14.25">
-      <c r="A18" s="13">
+    <row r="18" ht="14.25" spans="1:67">
+      <c r="A18" s="18">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="str">
+      <c r="B18" s="21" t="str">
         <f>IF(_tag_month_all!A15="","",_tag_month_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="16" t="str">
+      <c r="C18" s="21" t="str">
         <f>IF(_tag_month_all!B15="","",_tag_month_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="17" t="str">
+      <c r="D18" s="22" t="str">
         <f>IF(_tag_month_all!C15="","",_tag_month_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="18" t="str">
+      <c r="E18" s="23" t="str">
         <f>IF(_tag_month_all!D15="","",_tag_month_all!D15)</f>
         <v/>
       </c>
-      <c r="F18" s="19" t="str">
+      <c r="F18" s="24" t="str">
         <f>IF(_tag_month_all!E15="","",_tag_month_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="20" t="str">
+      <c r="G18" s="25" t="str">
         <f>IF(_tag_month_all!F15="","",_tag_month_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="21" t="str">
+      <c r="H18" s="26" t="str">
         <f>IF(_tag_month_all!G15="","",_tag_month_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="18" t="str">
+      <c r="I18" s="23" t="str">
         <f>IF(_tag_month_all!H15="","",_tag_month_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="18" t="str">
+      <c r="J18" s="23" t="str">
         <f>IF(_tag_month_all!I15="","",_tag_month_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="27" t="str">
+      <c r="K18" s="32" t="str">
         <f>IF(_tag_month_all!J15="","",_tag_month_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="18" t="str">
+      <c r="L18" s="23" t="str">
         <f>IF(_tag_month_all!K15="","",_tag_month_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="28" t="str">
+      <c r="M18" s="33" t="str">
         <f>IF(_tag_month_all!L15="","",_tag_month_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="29" t="str">
+      <c r="N18" s="34" t="str">
         <f>IF(_tag_month_all!M15="","",_tag_month_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="30" t="str">
+      <c r="O18" s="35" t="str">
         <f>IF(_tag_month_all!N15="","",_tag_month_all!N15)</f>
         <v/>
       </c>
-      <c r="P18" s="30" t="str">
+      <c r="P18" s="35" t="str">
         <f>IF(_tag_month_all!O15="","",_tag_month_all!O15)</f>
         <v/>
       </c>
-      <c r="Q18" s="30" t="str">
+      <c r="Q18" s="35" t="str">
         <f>IF(_tag_month_all!P15="","",_tag_month_all!P15)</f>
         <v/>
       </c>
-      <c r="R18" s="35" t="str">
+      <c r="R18" s="43" t="str">
         <f>IF(_tag_month_all!Q15="","",_tag_month_all!Q15)</f>
         <v/>
       </c>
-      <c r="S18" s="35" t="str">
+      <c r="S18" s="43" t="str">
         <f>IF(_tag_month_all!R15="","",_tag_month_all!R15)</f>
         <v/>
       </c>
-      <c r="T18" s="35" t="str">
+      <c r="T18" s="43" t="str">
         <f>IF(_tag_month_all!S15="","",_tag_month_all!S15)</f>
         <v/>
       </c>
-      <c r="U18" s="35" t="str">
+      <c r="U18" s="43" t="str">
         <f>IF(_tag_month_all!T15="","",_tag_month_all!T15)</f>
         <v/>
       </c>
-      <c r="V18" s="29" t="str">
+      <c r="V18" s="34" t="str">
         <f>IF(_tag_month_all!U15="","",_tag_month_all!U15)</f>
         <v/>
       </c>
-      <c r="W18" s="30" t="str">
+      <c r="W18" s="35" t="str">
         <f>IF(_tag_month_all!V15="","",_tag_month_all!V15)</f>
         <v/>
       </c>
-      <c r="X18" s="30" t="str">
+      <c r="X18" s="35" t="str">
         <f>IF(_tag_month_all!W15="","",_tag_month_all!W15)</f>
         <v/>
       </c>
-      <c r="Y18" s="30" t="str">
+      <c r="Y18" s="35" t="str">
         <f>IF(_tag_month_all!X15="","",_tag_month_all!X15)</f>
         <v/>
       </c>
-      <c r="Z18" s="30" t="str">
+      <c r="Z18" s="35" t="str">
         <f>IF(_tag_month_all!Y15="","",_tag_month_all!Y15)</f>
         <v/>
       </c>
-      <c r="AA18" s="30" t="str">
+      <c r="AA18" s="35" t="str">
         <f>IF(_tag_month_all!Z15="","",_tag_month_all!Z15)</f>
         <v/>
       </c>
-      <c r="AB18" s="30" t="str">
+      <c r="AB18" s="35" t="str">
         <f>IF(_tag_month_all!AA15="","",_tag_month_all!AA15)</f>
         <v/>
       </c>
-      <c r="AC18" s="30" t="str">
+      <c r="AC18" s="35" t="str">
         <f>IF(_tag_month_all!AB15="","",_tag_month_all!AB15)</f>
         <v/>
       </c>
-      <c r="AD18" s="17" t="str">
+      <c r="AD18" s="22" t="str">
         <f>IF(_tag_month_all!AC15="","",_tag_month_all!AC15)</f>
         <v/>
       </c>
-      <c r="AE18" s="17" t="str">
+      <c r="AE18" s="22" t="str">
         <f>IF(_tag_month_all!AD15="","",_tag_month_all!AD15)</f>
         <v/>
       </c>
-      <c r="AF18" s="17" t="str">
+      <c r="AF18" s="22" t="str">
         <f>IF(_tag_month_all!AE15="","",_tag_month_all!AE15)</f>
         <v/>
       </c>
-      <c r="AG18" s="17" t="str">
+      <c r="AG18" s="22" t="str">
         <f>IF(_tag_month_all!AF15="","",_tag_month_all!AF15)</f>
         <v/>
       </c>
-      <c r="AH18" s="29" t="str">
+      <c r="AH18" s="34" t="str">
         <f>IF(_tag_month_all!AG15="","",_tag_month_all!AG15)</f>
         <v/>
       </c>
-      <c r="AI18" s="29" t="str">
+      <c r="AI18" s="34" t="str">
         <f>IF(_tag_month_all!AH15="","",_tag_month_all!AH15)</f>
         <v/>
       </c>
-      <c r="AJ18" s="38" t="str">
+      <c r="AJ18" s="51" t="str">
         <f>IF(_tag_month_all!AI15="","",_tag_month_all!AI15)</f>
         <v/>
       </c>
@@ -4632,147 +5238,147 @@
       </c>
       <c r="BO18" s="8"/>
     </row>
-    <row r="19" spans="1:67" ht="14.25">
-      <c r="A19" s="13">
+    <row r="19" ht="14.25" spans="1:67">
+      <c r="A19" s="18">
         <v>15</v>
       </c>
-      <c r="B19" s="16" t="str">
+      <c r="B19" s="21" t="str">
         <f>IF(_tag_month_all!A16="","",_tag_month_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="21" t="str">
         <f>IF(_tag_month_all!B16="","",_tag_month_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="17" t="str">
+      <c r="D19" s="22" t="str">
         <f>IF(_tag_month_all!C16="","",_tag_month_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="18" t="str">
+      <c r="E19" s="23" t="str">
         <f>IF(_tag_month_all!D16="","",_tag_month_all!D16)</f>
         <v/>
       </c>
-      <c r="F19" s="19" t="str">
+      <c r="F19" s="24" t="str">
         <f>IF(_tag_month_all!E16="","",_tag_month_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="20" t="str">
+      <c r="G19" s="25" t="str">
         <f>IF(_tag_month_all!F16="","",_tag_month_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="21" t="str">
+      <c r="H19" s="26" t="str">
         <f>IF(_tag_month_all!G16="","",_tag_month_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="18" t="str">
+      <c r="I19" s="23" t="str">
         <f>IF(_tag_month_all!H16="","",_tag_month_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="18" t="str">
+      <c r="J19" s="23" t="str">
         <f>IF(_tag_month_all!I16="","",_tag_month_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="27" t="str">
+      <c r="K19" s="32" t="str">
         <f>IF(_tag_month_all!J16="","",_tag_month_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="18" t="str">
+      <c r="L19" s="23" t="str">
         <f>IF(_tag_month_all!K16="","",_tag_month_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="28" t="str">
+      <c r="M19" s="33" t="str">
         <f>IF(_tag_month_all!L16="","",_tag_month_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="29" t="str">
+      <c r="N19" s="34" t="str">
         <f>IF(_tag_month_all!M16="","",_tag_month_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="30" t="str">
+      <c r="O19" s="35" t="str">
         <f>IF(_tag_month_all!N16="","",_tag_month_all!N16)</f>
         <v/>
       </c>
-      <c r="P19" s="30" t="str">
+      <c r="P19" s="35" t="str">
         <f>IF(_tag_month_all!O16="","",_tag_month_all!O16)</f>
         <v/>
       </c>
-      <c r="Q19" s="30" t="str">
+      <c r="Q19" s="35" t="str">
         <f>IF(_tag_month_all!P16="","",_tag_month_all!P16)</f>
         <v/>
       </c>
-      <c r="R19" s="35" t="str">
+      <c r="R19" s="43" t="str">
         <f>IF(_tag_month_all!Q16="","",_tag_month_all!Q16)</f>
         <v/>
       </c>
-      <c r="S19" s="35" t="str">
+      <c r="S19" s="43" t="str">
         <f>IF(_tag_month_all!R16="","",_tag_month_all!R16)</f>
         <v/>
       </c>
-      <c r="T19" s="35" t="str">
+      <c r="T19" s="43" t="str">
         <f>IF(_tag_month_all!S16="","",_tag_month_all!S16)</f>
         <v/>
       </c>
-      <c r="U19" s="35" t="str">
+      <c r="U19" s="43" t="str">
         <f>IF(_tag_month_all!T16="","",_tag_month_all!T16)</f>
         <v/>
       </c>
-      <c r="V19" s="29" t="str">
+      <c r="V19" s="34" t="str">
         <f>IF(_tag_month_all!U16="","",_tag_month_all!U16)</f>
         <v/>
       </c>
-      <c r="W19" s="30" t="str">
+      <c r="W19" s="35" t="str">
         <f>IF(_tag_month_all!V16="","",_tag_month_all!V16)</f>
         <v/>
       </c>
-      <c r="X19" s="30" t="str">
+      <c r="X19" s="35" t="str">
         <f>IF(_tag_month_all!W16="","",_tag_month_all!W16)</f>
         <v/>
       </c>
-      <c r="Y19" s="30" t="str">
+      <c r="Y19" s="35" t="str">
         <f>IF(_tag_month_all!X16="","",_tag_month_all!X16)</f>
         <v/>
       </c>
-      <c r="Z19" s="30" t="str">
+      <c r="Z19" s="35" t="str">
         <f>IF(_tag_month_all!Y16="","",_tag_month_all!Y16)</f>
         <v/>
       </c>
-      <c r="AA19" s="30" t="str">
+      <c r="AA19" s="35" t="str">
         <f>IF(_tag_month_all!Z16="","",_tag_month_all!Z16)</f>
         <v/>
       </c>
-      <c r="AB19" s="30" t="str">
+      <c r="AB19" s="35" t="str">
         <f>IF(_tag_month_all!AA16="","",_tag_month_all!AA16)</f>
         <v/>
       </c>
-      <c r="AC19" s="30" t="str">
+      <c r="AC19" s="35" t="str">
         <f>IF(_tag_month_all!AB16="","",_tag_month_all!AB16)</f>
         <v/>
       </c>
-      <c r="AD19" s="17" t="str">
+      <c r="AD19" s="22" t="str">
         <f>IF(_tag_month_all!AC16="","",_tag_month_all!AC16)</f>
         <v/>
       </c>
-      <c r="AE19" s="17" t="str">
+      <c r="AE19" s="22" t="str">
         <f>IF(_tag_month_all!AD16="","",_tag_month_all!AD16)</f>
         <v/>
       </c>
-      <c r="AF19" s="17" t="str">
+      <c r="AF19" s="22" t="str">
         <f>IF(_tag_month_all!AE16="","",_tag_month_all!AE16)</f>
         <v/>
       </c>
-      <c r="AG19" s="17" t="str">
+      <c r="AG19" s="22" t="str">
         <f>IF(_tag_month_all!AF16="","",_tag_month_all!AF16)</f>
         <v/>
       </c>
-      <c r="AH19" s="29" t="str">
+      <c r="AH19" s="34" t="str">
         <f>IF(_tag_month_all!AG16="","",_tag_month_all!AG16)</f>
         <v/>
       </c>
-      <c r="AI19" s="29" t="str">
+      <c r="AI19" s="34" t="str">
         <f>IF(_tag_month_all!AH16="","",_tag_month_all!AH16)</f>
         <v/>
       </c>
-      <c r="AJ19" s="38" t="str">
+      <c r="AJ19" s="51" t="str">
         <f>IF(_tag_month_all!AI16="","",_tag_month_all!AI16)</f>
         <v/>
       </c>
@@ -4898,147 +5504,147 @@
       </c>
       <c r="BO19" s="8"/>
     </row>
-    <row r="20" spans="1:67" ht="14.25">
-      <c r="A20" s="13">
+    <row r="20" ht="14.25" spans="1:67">
+      <c r="A20" s="18">
         <v>16</v>
       </c>
-      <c r="B20" s="16" t="str">
+      <c r="B20" s="21" t="str">
         <f>IF(_tag_month_all!A17="","",_tag_month_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="16" t="str">
+      <c r="C20" s="21" t="str">
         <f>IF(_tag_month_all!B17="","",_tag_month_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="17" t="str">
+      <c r="D20" s="22" t="str">
         <f>IF(_tag_month_all!C17="","",_tag_month_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="18" t="str">
+      <c r="E20" s="23" t="str">
         <f>IF(_tag_month_all!D17="","",_tag_month_all!D17)</f>
         <v/>
       </c>
-      <c r="F20" s="19" t="str">
+      <c r="F20" s="24" t="str">
         <f>IF(_tag_month_all!E17="","",_tag_month_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="20" t="str">
+      <c r="G20" s="25" t="str">
         <f>IF(_tag_month_all!F17="","",_tag_month_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="21" t="str">
+      <c r="H20" s="26" t="str">
         <f>IF(_tag_month_all!G17="","",_tag_month_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="18" t="str">
+      <c r="I20" s="23" t="str">
         <f>IF(_tag_month_all!H17="","",_tag_month_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="18" t="str">
+      <c r="J20" s="23" t="str">
         <f>IF(_tag_month_all!I17="","",_tag_month_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="27" t="str">
+      <c r="K20" s="32" t="str">
         <f>IF(_tag_month_all!J17="","",_tag_month_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="18" t="str">
+      <c r="L20" s="23" t="str">
         <f>IF(_tag_month_all!K17="","",_tag_month_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="28" t="str">
+      <c r="M20" s="33" t="str">
         <f>IF(_tag_month_all!L17="","",_tag_month_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="29" t="str">
+      <c r="N20" s="34" t="str">
         <f>IF(_tag_month_all!M17="","",_tag_month_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="30" t="str">
+      <c r="O20" s="35" t="str">
         <f>IF(_tag_month_all!N17="","",_tag_month_all!N17)</f>
         <v/>
       </c>
-      <c r="P20" s="30" t="str">
+      <c r="P20" s="35" t="str">
         <f>IF(_tag_month_all!O17="","",_tag_month_all!O17)</f>
         <v/>
       </c>
-      <c r="Q20" s="30" t="str">
+      <c r="Q20" s="35" t="str">
         <f>IF(_tag_month_all!P17="","",_tag_month_all!P17)</f>
         <v/>
       </c>
-      <c r="R20" s="35" t="str">
+      <c r="R20" s="43" t="str">
         <f>IF(_tag_month_all!Q17="","",_tag_month_all!Q17)</f>
         <v/>
       </c>
-      <c r="S20" s="35" t="str">
+      <c r="S20" s="43" t="str">
         <f>IF(_tag_month_all!R17="","",_tag_month_all!R17)</f>
         <v/>
       </c>
-      <c r="T20" s="35" t="str">
+      <c r="T20" s="43" t="str">
         <f>IF(_tag_month_all!S17="","",_tag_month_all!S17)</f>
         <v/>
       </c>
-      <c r="U20" s="35" t="str">
+      <c r="U20" s="43" t="str">
         <f>IF(_tag_month_all!T17="","",_tag_month_all!T17)</f>
         <v/>
       </c>
-      <c r="V20" s="29" t="str">
+      <c r="V20" s="34" t="str">
         <f>IF(_tag_month_all!U17="","",_tag_month_all!U17)</f>
         <v/>
       </c>
-      <c r="W20" s="30" t="str">
+      <c r="W20" s="35" t="str">
         <f>IF(_tag_month_all!V17="","",_tag_month_all!V17)</f>
         <v/>
       </c>
-      <c r="X20" s="30" t="str">
+      <c r="X20" s="35" t="str">
         <f>IF(_tag_month_all!W17="","",_tag_month_all!W17)</f>
         <v/>
       </c>
-      <c r="Y20" s="30" t="str">
+      <c r="Y20" s="35" t="str">
         <f>IF(_tag_month_all!X17="","",_tag_month_all!X17)</f>
         <v/>
       </c>
-      <c r="Z20" s="30" t="str">
+      <c r="Z20" s="35" t="str">
         <f>IF(_tag_month_all!Y17="","",_tag_month_all!Y17)</f>
         <v/>
       </c>
-      <c r="AA20" s="30" t="str">
+      <c r="AA20" s="35" t="str">
         <f>IF(_tag_month_all!Z17="","",_tag_month_all!Z17)</f>
         <v/>
       </c>
-      <c r="AB20" s="30" t="str">
+      <c r="AB20" s="35" t="str">
         <f>IF(_tag_month_all!AA17="","",_tag_month_all!AA17)</f>
         <v/>
       </c>
-      <c r="AC20" s="30" t="str">
+      <c r="AC20" s="35" t="str">
         <f>IF(_tag_month_all!AB17="","",_tag_month_all!AB17)</f>
         <v/>
       </c>
-      <c r="AD20" s="17" t="str">
+      <c r="AD20" s="22" t="str">
         <f>IF(_tag_month_all!AC17="","",_tag_month_all!AC17)</f>
         <v/>
       </c>
-      <c r="AE20" s="17" t="str">
+      <c r="AE20" s="22" t="str">
         <f>IF(_tag_month_all!AD17="","",_tag_month_all!AD17)</f>
         <v/>
       </c>
-      <c r="AF20" s="17" t="str">
+      <c r="AF20" s="22" t="str">
         <f>IF(_tag_month_all!AE17="","",_tag_month_all!AE17)</f>
         <v/>
       </c>
-      <c r="AG20" s="17" t="str">
+      <c r="AG20" s="22" t="str">
         <f>IF(_tag_month_all!AF17="","",_tag_month_all!AF17)</f>
         <v/>
       </c>
-      <c r="AH20" s="29" t="str">
+      <c r="AH20" s="34" t="str">
         <f>IF(_tag_month_all!AG17="","",_tag_month_all!AG17)</f>
         <v/>
       </c>
-      <c r="AI20" s="29" t="str">
+      <c r="AI20" s="34" t="str">
         <f>IF(_tag_month_all!AH17="","",_tag_month_all!AH17)</f>
         <v/>
       </c>
-      <c r="AJ20" s="38" t="str">
+      <c r="AJ20" s="51" t="str">
         <f>IF(_tag_month_all!AI17="","",_tag_month_all!AI17)</f>
         <v/>
       </c>
@@ -5164,147 +5770,147 @@
       </c>
       <c r="BO20" s="8"/>
     </row>
-    <row r="21" spans="1:67" ht="14.25">
-      <c r="A21" s="13">
+    <row r="21" ht="14.25" spans="1:67">
+      <c r="A21" s="18">
         <v>17</v>
       </c>
-      <c r="B21" s="16" t="str">
+      <c r="B21" s="21" t="str">
         <f>IF(_tag_month_all!A18="","",_tag_month_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="21" t="str">
         <f>IF(_tag_month_all!B18="","",_tag_month_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="17" t="str">
+      <c r="D21" s="22" t="str">
         <f>IF(_tag_month_all!C18="","",_tag_month_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="18" t="str">
+      <c r="E21" s="23" t="str">
         <f>IF(_tag_month_all!D18="","",_tag_month_all!D18)</f>
         <v/>
       </c>
-      <c r="F21" s="19" t="str">
+      <c r="F21" s="24" t="str">
         <f>IF(_tag_month_all!E18="","",_tag_month_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="20" t="str">
+      <c r="G21" s="25" t="str">
         <f>IF(_tag_month_all!F18="","",_tag_month_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="21" t="str">
+      <c r="H21" s="26" t="str">
         <f>IF(_tag_month_all!G18="","",_tag_month_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="18" t="str">
+      <c r="I21" s="23" t="str">
         <f>IF(_tag_month_all!H18="","",_tag_month_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="18" t="str">
+      <c r="J21" s="23" t="str">
         <f>IF(_tag_month_all!I18="","",_tag_month_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="27" t="str">
+      <c r="K21" s="32" t="str">
         <f>IF(_tag_month_all!J18="","",_tag_month_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="18" t="str">
+      <c r="L21" s="23" t="str">
         <f>IF(_tag_month_all!K18="","",_tag_month_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="28" t="str">
+      <c r="M21" s="33" t="str">
         <f>IF(_tag_month_all!L18="","",_tag_month_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="29" t="str">
+      <c r="N21" s="34" t="str">
         <f>IF(_tag_month_all!M18="","",_tag_month_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="30" t="str">
+      <c r="O21" s="35" t="str">
         <f>IF(_tag_month_all!N18="","",_tag_month_all!N18)</f>
         <v/>
       </c>
-      <c r="P21" s="30" t="str">
+      <c r="P21" s="35" t="str">
         <f>IF(_tag_month_all!O18="","",_tag_month_all!O18)</f>
         <v/>
       </c>
-      <c r="Q21" s="30" t="str">
+      <c r="Q21" s="35" t="str">
         <f>IF(_tag_month_all!P18="","",_tag_month_all!P18)</f>
         <v/>
       </c>
-      <c r="R21" s="35" t="str">
+      <c r="R21" s="43" t="str">
         <f>IF(_tag_month_all!Q18="","",_tag_month_all!Q18)</f>
         <v/>
       </c>
-      <c r="S21" s="35" t="str">
+      <c r="S21" s="43" t="str">
         <f>IF(_tag_month_all!R18="","",_tag_month_all!R18)</f>
         <v/>
       </c>
-      <c r="T21" s="35" t="str">
+      <c r="T21" s="43" t="str">
         <f>IF(_tag_month_all!S18="","",_tag_month_all!S18)</f>
         <v/>
       </c>
-      <c r="U21" s="35" t="str">
+      <c r="U21" s="43" t="str">
         <f>IF(_tag_month_all!T18="","",_tag_month_all!T18)</f>
         <v/>
       </c>
-      <c r="V21" s="29" t="str">
+      <c r="V21" s="34" t="str">
         <f>IF(_tag_month_all!U18="","",_tag_month_all!U18)</f>
         <v/>
       </c>
-      <c r="W21" s="30" t="str">
+      <c r="W21" s="35" t="str">
         <f>IF(_tag_month_all!V18="","",_tag_month_all!V18)</f>
         <v/>
       </c>
-      <c r="X21" s="30" t="str">
+      <c r="X21" s="35" t="str">
         <f>IF(_tag_month_all!W18="","",_tag_month_all!W18)</f>
         <v/>
       </c>
-      <c r="Y21" s="30" t="str">
+      <c r="Y21" s="35" t="str">
         <f>IF(_tag_month_all!X18="","",_tag_month_all!X18)</f>
         <v/>
       </c>
-      <c r="Z21" s="30" t="str">
+      <c r="Z21" s="35" t="str">
         <f>IF(_tag_month_all!Y18="","",_tag_month_all!Y18)</f>
         <v/>
       </c>
-      <c r="AA21" s="30" t="str">
+      <c r="AA21" s="35" t="str">
         <f>IF(_tag_month_all!Z18="","",_tag_month_all!Z18)</f>
         <v/>
       </c>
-      <c r="AB21" s="30" t="str">
+      <c r="AB21" s="35" t="str">
         <f>IF(_tag_month_all!AA18="","",_tag_month_all!AA18)</f>
         <v/>
       </c>
-      <c r="AC21" s="30" t="str">
+      <c r="AC21" s="35" t="str">
         <f>IF(_tag_month_all!AB18="","",_tag_month_all!AB18)</f>
         <v/>
       </c>
-      <c r="AD21" s="17" t="str">
+      <c r="AD21" s="22" t="str">
         <f>IF(_tag_month_all!AC18="","",_tag_month_all!AC18)</f>
         <v/>
       </c>
-      <c r="AE21" s="17" t="str">
+      <c r="AE21" s="22" t="str">
         <f>IF(_tag_month_all!AD18="","",_tag_month_all!AD18)</f>
         <v/>
       </c>
-      <c r="AF21" s="17" t="str">
+      <c r="AF21" s="22" t="str">
         <f>IF(_tag_month_all!AE18="","",_tag_month_all!AE18)</f>
         <v/>
       </c>
-      <c r="AG21" s="17" t="str">
+      <c r="AG21" s="22" t="str">
         <f>IF(_tag_month_all!AF18="","",_tag_month_all!AF18)</f>
         <v/>
       </c>
-      <c r="AH21" s="29" t="str">
+      <c r="AH21" s="34" t="str">
         <f>IF(_tag_month_all!AG18="","",_tag_month_all!AG18)</f>
         <v/>
       </c>
-      <c r="AI21" s="29" t="str">
+      <c r="AI21" s="34" t="str">
         <f>IF(_tag_month_all!AH18="","",_tag_month_all!AH18)</f>
         <v/>
       </c>
-      <c r="AJ21" s="38" t="str">
+      <c r="AJ21" s="51" t="str">
         <f>IF(_tag_month_all!AI18="","",_tag_month_all!AI18)</f>
         <v/>
       </c>
@@ -5430,147 +6036,147 @@
       </c>
       <c r="BO21" s="8"/>
     </row>
-    <row r="22" spans="1:67" ht="14.25">
-      <c r="A22" s="13">
+    <row r="22" ht="14.25" spans="1:67">
+      <c r="A22" s="18">
         <v>18</v>
       </c>
-      <c r="B22" s="16" t="str">
+      <c r="B22" s="21" t="str">
         <f>IF(_tag_month_all!A19="","",_tag_month_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" s="21" t="str">
         <f>IF(_tag_month_all!B19="","",_tag_month_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="17" t="str">
+      <c r="D22" s="22" t="str">
         <f>IF(_tag_month_all!C19="","",_tag_month_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="18" t="str">
+      <c r="E22" s="23" t="str">
         <f>IF(_tag_month_all!D19="","",_tag_month_all!D19)</f>
         <v/>
       </c>
-      <c r="F22" s="19" t="str">
+      <c r="F22" s="24" t="str">
         <f>IF(_tag_month_all!E19="","",_tag_month_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="20" t="str">
+      <c r="G22" s="25" t="str">
         <f>IF(_tag_month_all!F19="","",_tag_month_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="21" t="str">
+      <c r="H22" s="26" t="str">
         <f>IF(_tag_month_all!G19="","",_tag_month_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="18" t="str">
+      <c r="I22" s="23" t="str">
         <f>IF(_tag_month_all!H19="","",_tag_month_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="18" t="str">
+      <c r="J22" s="23" t="str">
         <f>IF(_tag_month_all!I19="","",_tag_month_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="27" t="str">
+      <c r="K22" s="32" t="str">
         <f>IF(_tag_month_all!J19="","",_tag_month_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="18" t="str">
+      <c r="L22" s="23" t="str">
         <f>IF(_tag_month_all!K19="","",_tag_month_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="28" t="str">
+      <c r="M22" s="33" t="str">
         <f>IF(_tag_month_all!L19="","",_tag_month_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="29" t="str">
+      <c r="N22" s="34" t="str">
         <f>IF(_tag_month_all!M19="","",_tag_month_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="30" t="str">
+      <c r="O22" s="35" t="str">
         <f>IF(_tag_month_all!N19="","",_tag_month_all!N19)</f>
         <v/>
       </c>
-      <c r="P22" s="30" t="str">
+      <c r="P22" s="35" t="str">
         <f>IF(_tag_month_all!O19="","",_tag_month_all!O19)</f>
         <v/>
       </c>
-      <c r="Q22" s="30" t="str">
+      <c r="Q22" s="35" t="str">
         <f>IF(_tag_month_all!P19="","",_tag_month_all!P19)</f>
         <v/>
       </c>
-      <c r="R22" s="35" t="str">
+      <c r="R22" s="43" t="str">
         <f>IF(_tag_month_all!Q19="","",_tag_month_all!Q19)</f>
         <v/>
       </c>
-      <c r="S22" s="35" t="str">
+      <c r="S22" s="43" t="str">
         <f>IF(_tag_month_all!R19="","",_tag_month_all!R19)</f>
         <v/>
       </c>
-      <c r="T22" s="35" t="str">
+      <c r="T22" s="43" t="str">
         <f>IF(_tag_month_all!S19="","",_tag_month_all!S19)</f>
         <v/>
       </c>
-      <c r="U22" s="35" t="str">
+      <c r="U22" s="43" t="str">
         <f>IF(_tag_month_all!T19="","",_tag_month_all!T19)</f>
         <v/>
       </c>
-      <c r="V22" s="29" t="str">
+      <c r="V22" s="34" t="str">
         <f>IF(_tag_month_all!U19="","",_tag_month_all!U19)</f>
         <v/>
       </c>
-      <c r="W22" s="30" t="str">
+      <c r="W22" s="35" t="str">
         <f>IF(_tag_month_all!V19="","",_tag_month_all!V19)</f>
         <v/>
       </c>
-      <c r="X22" s="30" t="str">
+      <c r="X22" s="35" t="str">
         <f>IF(_tag_month_all!W19="","",_tag_month_all!W19)</f>
         <v/>
       </c>
-      <c r="Y22" s="30" t="str">
+      <c r="Y22" s="35" t="str">
         <f>IF(_tag_month_all!X19="","",_tag_month_all!X19)</f>
         <v/>
       </c>
-      <c r="Z22" s="30" t="str">
+      <c r="Z22" s="35" t="str">
         <f>IF(_tag_month_all!Y19="","",_tag_month_all!Y19)</f>
         <v/>
       </c>
-      <c r="AA22" s="30" t="str">
+      <c r="AA22" s="35" t="str">
         <f>IF(_tag_month_all!Z19="","",_tag_month_all!Z19)</f>
         <v/>
       </c>
-      <c r="AB22" s="30" t="str">
+      <c r="AB22" s="35" t="str">
         <f>IF(_tag_month_all!AA19="","",_tag_month_all!AA19)</f>
         <v/>
       </c>
-      <c r="AC22" s="30" t="str">
+      <c r="AC22" s="35" t="str">
         <f>IF(_tag_month_all!AB19="","",_tag_month_all!AB19)</f>
         <v/>
       </c>
-      <c r="AD22" s="17" t="str">
+      <c r="AD22" s="22" t="str">
         <f>IF(_tag_month_all!AC19="","",_tag_month_all!AC19)</f>
         <v/>
       </c>
-      <c r="AE22" s="17" t="str">
+      <c r="AE22" s="22" t="str">
         <f>IF(_tag_month_all!AD19="","",_tag_month_all!AD19)</f>
         <v/>
       </c>
-      <c r="AF22" s="17" t="str">
+      <c r="AF22" s="22" t="str">
         <f>IF(_tag_month_all!AE19="","",_tag_month_all!AE19)</f>
         <v/>
       </c>
-      <c r="AG22" s="17" t="str">
+      <c r="AG22" s="22" t="str">
         <f>IF(_tag_month_all!AF19="","",_tag_month_all!AF19)</f>
         <v/>
       </c>
-      <c r="AH22" s="29" t="str">
+      <c r="AH22" s="34" t="str">
         <f>IF(_tag_month_all!AG19="","",_tag_month_all!AG19)</f>
         <v/>
       </c>
-      <c r="AI22" s="29" t="str">
+      <c r="AI22" s="34" t="str">
         <f>IF(_tag_month_all!AH19="","",_tag_month_all!AH19)</f>
         <v/>
       </c>
-      <c r="AJ22" s="38" t="str">
+      <c r="AJ22" s="51" t="str">
         <f>IF(_tag_month_all!AI19="","",_tag_month_all!AI19)</f>
         <v/>
       </c>
@@ -5696,147 +6302,147 @@
       </c>
       <c r="BO22" s="8"/>
     </row>
-    <row r="23" spans="1:67" ht="14.25">
-      <c r="A23" s="13">
+    <row r="23" ht="14.25" spans="1:67">
+      <c r="A23" s="18">
         <v>19</v>
       </c>
-      <c r="B23" s="16" t="str">
+      <c r="B23" s="21" t="str">
         <f>IF(_tag_month_all!A20="","",_tag_month_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="21" t="str">
         <f>IF(_tag_month_all!B20="","",_tag_month_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="17" t="str">
+      <c r="D23" s="22" t="str">
         <f>IF(_tag_month_all!C20="","",_tag_month_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="18" t="str">
+      <c r="E23" s="23" t="str">
         <f>IF(_tag_month_all!D20="","",_tag_month_all!D20)</f>
         <v/>
       </c>
-      <c r="F23" s="19" t="str">
+      <c r="F23" s="24" t="str">
         <f>IF(_tag_month_all!E20="","",_tag_month_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="20" t="str">
+      <c r="G23" s="25" t="str">
         <f>IF(_tag_month_all!F20="","",_tag_month_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="21" t="str">
+      <c r="H23" s="26" t="str">
         <f>IF(_tag_month_all!G20="","",_tag_month_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="18" t="str">
+      <c r="I23" s="23" t="str">
         <f>IF(_tag_month_all!H20="","",_tag_month_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="18" t="str">
+      <c r="J23" s="23" t="str">
         <f>IF(_tag_month_all!I20="","",_tag_month_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="27" t="str">
+      <c r="K23" s="32" t="str">
         <f>IF(_tag_month_all!J20="","",_tag_month_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="18" t="str">
+      <c r="L23" s="23" t="str">
         <f>IF(_tag_month_all!K20="","",_tag_month_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="28" t="str">
+      <c r="M23" s="33" t="str">
         <f>IF(_tag_month_all!L20="","",_tag_month_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="29" t="str">
+      <c r="N23" s="34" t="str">
         <f>IF(_tag_month_all!M20="","",_tag_month_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="30" t="str">
+      <c r="O23" s="35" t="str">
         <f>IF(_tag_month_all!N20="","",_tag_month_all!N20)</f>
         <v/>
       </c>
-      <c r="P23" s="30" t="str">
+      <c r="P23" s="35" t="str">
         <f>IF(_tag_month_all!O20="","",_tag_month_all!O20)</f>
         <v/>
       </c>
-      <c r="Q23" s="30" t="str">
+      <c r="Q23" s="35" t="str">
         <f>IF(_tag_month_all!P20="","",_tag_month_all!P20)</f>
         <v/>
       </c>
-      <c r="R23" s="35" t="str">
+      <c r="R23" s="43" t="str">
         <f>IF(_tag_month_all!Q20="","",_tag_month_all!Q20)</f>
         <v/>
       </c>
-      <c r="S23" s="35" t="str">
+      <c r="S23" s="43" t="str">
         <f>IF(_tag_month_all!R20="","",_tag_month_all!R20)</f>
         <v/>
       </c>
-      <c r="T23" s="35" t="str">
+      <c r="T23" s="43" t="str">
         <f>IF(_tag_month_all!S20="","",_tag_month_all!S20)</f>
         <v/>
       </c>
-      <c r="U23" s="35" t="str">
+      <c r="U23" s="43" t="str">
         <f>IF(_tag_month_all!T20="","",_tag_month_all!T20)</f>
         <v/>
       </c>
-      <c r="V23" s="29" t="str">
+      <c r="V23" s="34" t="str">
         <f>IF(_tag_month_all!U20="","",_tag_month_all!U20)</f>
         <v/>
       </c>
-      <c r="W23" s="30" t="str">
+      <c r="W23" s="35" t="str">
         <f>IF(_tag_month_all!V20="","",_tag_month_all!V20)</f>
         <v/>
       </c>
-      <c r="X23" s="30" t="str">
+      <c r="X23" s="35" t="str">
         <f>IF(_tag_month_all!W20="","",_tag_month_all!W20)</f>
         <v/>
       </c>
-      <c r="Y23" s="30" t="str">
+      <c r="Y23" s="35" t="str">
         <f>IF(_tag_month_all!X20="","",_tag_month_all!X20)</f>
         <v/>
       </c>
-      <c r="Z23" s="30" t="str">
+      <c r="Z23" s="35" t="str">
         <f>IF(_tag_month_all!Y20="","",_tag_month_all!Y20)</f>
         <v/>
       </c>
-      <c r="AA23" s="30" t="str">
+      <c r="AA23" s="35" t="str">
         <f>IF(_tag_month_all!Z20="","",_tag_month_all!Z20)</f>
         <v/>
       </c>
-      <c r="AB23" s="30" t="str">
+      <c r="AB23" s="35" t="str">
         <f>IF(_tag_month_all!AA20="","",_tag_month_all!AA20)</f>
         <v/>
       </c>
-      <c r="AC23" s="30" t="str">
+      <c r="AC23" s="35" t="str">
         <f>IF(_tag_month_all!AB20="","",_tag_month_all!AB20)</f>
         <v/>
       </c>
-      <c r="AD23" s="17" t="str">
+      <c r="AD23" s="22" t="str">
         <f>IF(_tag_month_all!AC20="","",_tag_month_all!AC20)</f>
         <v/>
       </c>
-      <c r="AE23" s="17" t="str">
+      <c r="AE23" s="22" t="str">
         <f>IF(_tag_month_all!AD20="","",_tag_month_all!AD20)</f>
         <v/>
       </c>
-      <c r="AF23" s="17" t="str">
+      <c r="AF23" s="22" t="str">
         <f>IF(_tag_month_all!AE20="","",_tag_month_all!AE20)</f>
         <v/>
       </c>
-      <c r="AG23" s="17" t="str">
+      <c r="AG23" s="22" t="str">
         <f>IF(_tag_month_all!AF20="","",_tag_month_all!AF20)</f>
         <v/>
       </c>
-      <c r="AH23" s="29" t="str">
+      <c r="AH23" s="34" t="str">
         <f>IF(_tag_month_all!AG20="","",_tag_month_all!AG20)</f>
         <v/>
       </c>
-      <c r="AI23" s="29" t="str">
+      <c r="AI23" s="34" t="str">
         <f>IF(_tag_month_all!AH20="","",_tag_month_all!AH20)</f>
         <v/>
       </c>
-      <c r="AJ23" s="38" t="str">
+      <c r="AJ23" s="51" t="str">
         <f>IF(_tag_month_all!AI20="","",_tag_month_all!AI20)</f>
         <v/>
       </c>
@@ -5962,147 +6568,147 @@
       </c>
       <c r="BO23" s="8"/>
     </row>
-    <row r="24" spans="1:67" ht="14.25">
-      <c r="A24" s="13">
+    <row r="24" ht="14.25" spans="1:67">
+      <c r="A24" s="18">
         <v>20</v>
       </c>
-      <c r="B24" s="16" t="str">
+      <c r="B24" s="21" t="str">
         <f>IF(_tag_month_all!A21="","",_tag_month_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C24" s="21" t="str">
         <f>IF(_tag_month_all!B21="","",_tag_month_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="17" t="str">
+      <c r="D24" s="22" t="str">
         <f>IF(_tag_month_all!C21="","",_tag_month_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="18" t="str">
+      <c r="E24" s="23" t="str">
         <f>IF(_tag_month_all!D21="","",_tag_month_all!D21)</f>
         <v/>
       </c>
-      <c r="F24" s="19" t="str">
+      <c r="F24" s="24" t="str">
         <f>IF(_tag_month_all!E21="","",_tag_month_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="20" t="str">
+      <c r="G24" s="25" t="str">
         <f>IF(_tag_month_all!F21="","",_tag_month_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="21" t="str">
+      <c r="H24" s="26" t="str">
         <f>IF(_tag_month_all!G21="","",_tag_month_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="18" t="str">
+      <c r="I24" s="23" t="str">
         <f>IF(_tag_month_all!H21="","",_tag_month_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="18" t="str">
+      <c r="J24" s="23" t="str">
         <f>IF(_tag_month_all!I21="","",_tag_month_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="27" t="str">
+      <c r="K24" s="32" t="str">
         <f>IF(_tag_month_all!J21="","",_tag_month_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="18" t="str">
+      <c r="L24" s="23" t="str">
         <f>IF(_tag_month_all!K21="","",_tag_month_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="28" t="str">
+      <c r="M24" s="33" t="str">
         <f>IF(_tag_month_all!L21="","",_tag_month_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="29" t="str">
+      <c r="N24" s="34" t="str">
         <f>IF(_tag_month_all!M21="","",_tag_month_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="30" t="str">
+      <c r="O24" s="35" t="str">
         <f>IF(_tag_month_all!N21="","",_tag_month_all!N21)</f>
         <v/>
       </c>
-      <c r="P24" s="30" t="str">
+      <c r="P24" s="35" t="str">
         <f>IF(_tag_month_all!O21="","",_tag_month_all!O21)</f>
         <v/>
       </c>
-      <c r="Q24" s="30" t="str">
+      <c r="Q24" s="35" t="str">
         <f>IF(_tag_month_all!P21="","",_tag_month_all!P21)</f>
         <v/>
       </c>
-      <c r="R24" s="35" t="str">
+      <c r="R24" s="43" t="str">
         <f>IF(_tag_month_all!Q21="","",_tag_month_all!Q21)</f>
         <v/>
       </c>
-      <c r="S24" s="35" t="str">
+      <c r="S24" s="43" t="str">
         <f>IF(_tag_month_all!R21="","",_tag_month_all!R21)</f>
         <v/>
       </c>
-      <c r="T24" s="35" t="str">
+      <c r="T24" s="43" t="str">
         <f>IF(_tag_month_all!S21="","",_tag_month_all!S21)</f>
         <v/>
       </c>
-      <c r="U24" s="35" t="str">
+      <c r="U24" s="43" t="str">
         <f>IF(_tag_month_all!T21="","",_tag_month_all!T21)</f>
         <v/>
       </c>
-      <c r="V24" s="29" t="str">
+      <c r="V24" s="34" t="str">
         <f>IF(_tag_month_all!U21="","",_tag_month_all!U21)</f>
         <v/>
       </c>
-      <c r="W24" s="30" t="str">
+      <c r="W24" s="35" t="str">
         <f>IF(_tag_month_all!V21="","",_tag_month_all!V21)</f>
         <v/>
       </c>
-      <c r="X24" s="30" t="str">
+      <c r="X24" s="35" t="str">
         <f>IF(_tag_month_all!W21="","",_tag_month_all!W21)</f>
         <v/>
       </c>
-      <c r="Y24" s="30" t="str">
+      <c r="Y24" s="35" t="str">
         <f>IF(_tag_month_all!X21="","",_tag_month_all!X21)</f>
         <v/>
       </c>
-      <c r="Z24" s="30" t="str">
+      <c r="Z24" s="35" t="str">
         <f>IF(_tag_month_all!Y21="","",_tag_month_all!Y21)</f>
         <v/>
       </c>
-      <c r="AA24" s="30" t="str">
+      <c r="AA24" s="35" t="str">
         <f>IF(_tag_month_all!Z21="","",_tag_month_all!Z21)</f>
         <v/>
       </c>
-      <c r="AB24" s="30" t="str">
+      <c r="AB24" s="35" t="str">
         <f>IF(_tag_month_all!AA21="","",_tag_month_all!AA21)</f>
         <v/>
       </c>
-      <c r="AC24" s="30" t="str">
+      <c r="AC24" s="35" t="str">
         <f>IF(_tag_month_all!AB21="","",_tag_month_all!AB21)</f>
         <v/>
       </c>
-      <c r="AD24" s="17" t="str">
+      <c r="AD24" s="22" t="str">
         <f>IF(_tag_month_all!AC21="","",_tag_month_all!AC21)</f>
         <v/>
       </c>
-      <c r="AE24" s="17" t="str">
+      <c r="AE24" s="22" t="str">
         <f>IF(_tag_month_all!AD21="","",_tag_month_all!AD21)</f>
         <v/>
       </c>
-      <c r="AF24" s="17" t="str">
+      <c r="AF24" s="22" t="str">
         <f>IF(_tag_month_all!AE21="","",_tag_month_all!AE21)</f>
         <v/>
       </c>
-      <c r="AG24" s="17" t="str">
+      <c r="AG24" s="22" t="str">
         <f>IF(_tag_month_all!AF21="","",_tag_month_all!AF21)</f>
         <v/>
       </c>
-      <c r="AH24" s="29" t="str">
+      <c r="AH24" s="34" t="str">
         <f>IF(_tag_month_all!AG21="","",_tag_month_all!AG21)</f>
         <v/>
       </c>
-      <c r="AI24" s="29" t="str">
+      <c r="AI24" s="34" t="str">
         <f>IF(_tag_month_all!AH21="","",_tag_month_all!AH21)</f>
         <v/>
       </c>
-      <c r="AJ24" s="38" t="str">
+      <c r="AJ24" s="51" t="str">
         <f>IF(_tag_month_all!AI21="","",_tag_month_all!AI21)</f>
         <v/>
       </c>
@@ -6228,147 +6834,147 @@
       </c>
       <c r="BO24" s="8"/>
     </row>
-    <row r="25" spans="1:67" ht="14.25">
-      <c r="A25" s="13">
+    <row r="25" ht="14.25" spans="1:67">
+      <c r="A25" s="18">
         <v>21</v>
       </c>
-      <c r="B25" s="16" t="str">
+      <c r="B25" s="21" t="str">
         <f>IF(_tag_month_all!A22="","",_tag_month_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="16" t="str">
+      <c r="C25" s="21" t="str">
         <f>IF(_tag_month_all!B22="","",_tag_month_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="17" t="str">
+      <c r="D25" s="22" t="str">
         <f>IF(_tag_month_all!C22="","",_tag_month_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="18" t="str">
+      <c r="E25" s="23" t="str">
         <f>IF(_tag_month_all!D22="","",_tag_month_all!D22)</f>
         <v/>
       </c>
-      <c r="F25" s="19" t="str">
+      <c r="F25" s="24" t="str">
         <f>IF(_tag_month_all!E22="","",_tag_month_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="20" t="str">
+      <c r="G25" s="25" t="str">
         <f>IF(_tag_month_all!F22="","",_tag_month_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="21" t="str">
+      <c r="H25" s="26" t="str">
         <f>IF(_tag_month_all!G22="","",_tag_month_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="18" t="str">
+      <c r="I25" s="23" t="str">
         <f>IF(_tag_month_all!H22="","",_tag_month_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="18" t="str">
+      <c r="J25" s="23" t="str">
         <f>IF(_tag_month_all!I22="","",_tag_month_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="27" t="str">
+      <c r="K25" s="32" t="str">
         <f>IF(_tag_month_all!J22="","",_tag_month_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="18" t="str">
+      <c r="L25" s="23" t="str">
         <f>IF(_tag_month_all!K22="","",_tag_month_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="28" t="str">
+      <c r="M25" s="33" t="str">
         <f>IF(_tag_month_all!L22="","",_tag_month_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="29" t="str">
+      <c r="N25" s="34" t="str">
         <f>IF(_tag_month_all!M22="","",_tag_month_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="30" t="str">
+      <c r="O25" s="35" t="str">
         <f>IF(_tag_month_all!N22="","",_tag_month_all!N22)</f>
         <v/>
       </c>
-      <c r="P25" s="30" t="str">
+      <c r="P25" s="35" t="str">
         <f>IF(_tag_month_all!O22="","",_tag_month_all!O22)</f>
         <v/>
       </c>
-      <c r="Q25" s="30" t="str">
+      <c r="Q25" s="35" t="str">
         <f>IF(_tag_month_all!P22="","",_tag_month_all!P22)</f>
         <v/>
       </c>
-      <c r="R25" s="35" t="str">
+      <c r="R25" s="43" t="str">
         <f>IF(_tag_month_all!Q22="","",_tag_month_all!Q22)</f>
         <v/>
       </c>
-      <c r="S25" s="35" t="str">
+      <c r="S25" s="43" t="str">
         <f>IF(_tag_month_all!R22="","",_tag_month_all!R22)</f>
         <v/>
       </c>
-      <c r="T25" s="35" t="str">
+      <c r="T25" s="43" t="str">
         <f>IF(_tag_month_all!S22="","",_tag_month_all!S22)</f>
         <v/>
       </c>
-      <c r="U25" s="35" t="str">
+      <c r="U25" s="43" t="str">
         <f>IF(_tag_month_all!T22="","",_tag_month_all!T22)</f>
         <v/>
       </c>
-      <c r="V25" s="29" t="str">
+      <c r="V25" s="34" t="str">
         <f>IF(_tag_month_all!U22="","",_tag_month_all!U22)</f>
         <v/>
       </c>
-      <c r="W25" s="30" t="str">
+      <c r="W25" s="35" t="str">
         <f>IF(_tag_month_all!V22="","",_tag_month_all!V22)</f>
         <v/>
       </c>
-      <c r="X25" s="30" t="str">
+      <c r="X25" s="35" t="str">
         <f>IF(_tag_month_all!W22="","",_tag_month_all!W22)</f>
         <v/>
       </c>
-      <c r="Y25" s="30" t="str">
+      <c r="Y25" s="35" t="str">
         <f>IF(_tag_month_all!X22="","",_tag_month_all!X22)</f>
         <v/>
       </c>
-      <c r="Z25" s="30" t="str">
+      <c r="Z25" s="35" t="str">
         <f>IF(_tag_month_all!Y22="","",_tag_month_all!Y22)</f>
         <v/>
       </c>
-      <c r="AA25" s="30" t="str">
+      <c r="AA25" s="35" t="str">
         <f>IF(_tag_month_all!Z22="","",_tag_month_all!Z22)</f>
         <v/>
       </c>
-      <c r="AB25" s="30" t="str">
+      <c r="AB25" s="35" t="str">
         <f>IF(_tag_month_all!AA22="","",_tag_month_all!AA22)</f>
         <v/>
       </c>
-      <c r="AC25" s="30" t="str">
+      <c r="AC25" s="35" t="str">
         <f>IF(_tag_month_all!AB22="","",_tag_month_all!AB22)</f>
         <v/>
       </c>
-      <c r="AD25" s="17" t="str">
+      <c r="AD25" s="22" t="str">
         <f>IF(_tag_month_all!AC22="","",_tag_month_all!AC22)</f>
         <v/>
       </c>
-      <c r="AE25" s="17" t="str">
+      <c r="AE25" s="22" t="str">
         <f>IF(_tag_month_all!AD22="","",_tag_month_all!AD22)</f>
         <v/>
       </c>
-      <c r="AF25" s="17" t="str">
+      <c r="AF25" s="22" t="str">
         <f>IF(_tag_month_all!AE22="","",_tag_month_all!AE22)</f>
         <v/>
       </c>
-      <c r="AG25" s="17" t="str">
+      <c r="AG25" s="22" t="str">
         <f>IF(_tag_month_all!AF22="","",_tag_month_all!AF22)</f>
         <v/>
       </c>
-      <c r="AH25" s="29" t="str">
+      <c r="AH25" s="34" t="str">
         <f>IF(_tag_month_all!AG22="","",_tag_month_all!AG22)</f>
         <v/>
       </c>
-      <c r="AI25" s="29" t="str">
+      <c r="AI25" s="34" t="str">
         <f>IF(_tag_month_all!AH22="","",_tag_month_all!AH22)</f>
         <v/>
       </c>
-      <c r="AJ25" s="38" t="str">
+      <c r="AJ25" s="51" t="str">
         <f>IF(_tag_month_all!AI22="","",_tag_month_all!AI22)</f>
         <v/>
       </c>
@@ -6494,147 +7100,147 @@
       </c>
       <c r="BO25" s="8"/>
     </row>
-    <row r="26" spans="1:67" ht="14.25">
-      <c r="A26" s="13">
+    <row r="26" ht="14.25" spans="1:67">
+      <c r="A26" s="18">
         <v>22</v>
       </c>
-      <c r="B26" s="16" t="str">
+      <c r="B26" s="21" t="str">
         <f>IF(_tag_month_all!A23="","",_tag_month_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="16" t="str">
+      <c r="C26" s="21" t="str">
         <f>IF(_tag_month_all!B23="","",_tag_month_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="17" t="str">
+      <c r="D26" s="22" t="str">
         <f>IF(_tag_month_all!C23="","",_tag_month_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="18" t="str">
+      <c r="E26" s="23" t="str">
         <f>IF(_tag_month_all!D23="","",_tag_month_all!D23)</f>
         <v/>
       </c>
-      <c r="F26" s="19" t="str">
+      <c r="F26" s="24" t="str">
         <f>IF(_tag_month_all!E23="","",_tag_month_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="20" t="str">
+      <c r="G26" s="25" t="str">
         <f>IF(_tag_month_all!F23="","",_tag_month_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="21" t="str">
+      <c r="H26" s="26" t="str">
         <f>IF(_tag_month_all!G23="","",_tag_month_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="18" t="str">
+      <c r="I26" s="23" t="str">
         <f>IF(_tag_month_all!H23="","",_tag_month_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="18" t="str">
+      <c r="J26" s="23" t="str">
         <f>IF(_tag_month_all!I23="","",_tag_month_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="27" t="str">
+      <c r="K26" s="32" t="str">
         <f>IF(_tag_month_all!J23="","",_tag_month_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="18" t="str">
+      <c r="L26" s="23" t="str">
         <f>IF(_tag_month_all!K23="","",_tag_month_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="28" t="str">
+      <c r="M26" s="33" t="str">
         <f>IF(_tag_month_all!L23="","",_tag_month_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="29" t="str">
+      <c r="N26" s="34" t="str">
         <f>IF(_tag_month_all!M23="","",_tag_month_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="30" t="str">
+      <c r="O26" s="35" t="str">
         <f>IF(_tag_month_all!N23="","",_tag_month_all!N23)</f>
         <v/>
       </c>
-      <c r="P26" s="30" t="str">
+      <c r="P26" s="35" t="str">
         <f>IF(_tag_month_all!O23="","",_tag_month_all!O23)</f>
         <v/>
       </c>
-      <c r="Q26" s="30" t="str">
+      <c r="Q26" s="35" t="str">
         <f>IF(_tag_month_all!P23="","",_tag_month_all!P23)</f>
         <v/>
       </c>
-      <c r="R26" s="35" t="str">
+      <c r="R26" s="43" t="str">
         <f>IF(_tag_month_all!Q23="","",_tag_month_all!Q23)</f>
         <v/>
       </c>
-      <c r="S26" s="35" t="str">
+      <c r="S26" s="43" t="str">
         <f>IF(_tag_month_all!R23="","",_tag_month_all!R23)</f>
         <v/>
       </c>
-      <c r="T26" s="35" t="str">
+      <c r="T26" s="43" t="str">
         <f>IF(_tag_month_all!S23="","",_tag_month_all!S23)</f>
         <v/>
       </c>
-      <c r="U26" s="35" t="str">
+      <c r="U26" s="43" t="str">
         <f>IF(_tag_month_all!T23="","",_tag_month_all!T23)</f>
         <v/>
       </c>
-      <c r="V26" s="29" t="str">
+      <c r="V26" s="34" t="str">
         <f>IF(_tag_month_all!U23="","",_tag_month_all!U23)</f>
         <v/>
       </c>
-      <c r="W26" s="30" t="str">
+      <c r="W26" s="35" t="str">
         <f>IF(_tag_month_all!V23="","",_tag_month_all!V23)</f>
         <v/>
       </c>
-      <c r="X26" s="30" t="str">
+      <c r="X26" s="35" t="str">
         <f>IF(_tag_month_all!W23="","",_tag_month_all!W23)</f>
         <v/>
       </c>
-      <c r="Y26" s="30" t="str">
+      <c r="Y26" s="35" t="str">
         <f>IF(_tag_month_all!X23="","",_tag_month_all!X23)</f>
         <v/>
       </c>
-      <c r="Z26" s="30" t="str">
+      <c r="Z26" s="35" t="str">
         <f>IF(_tag_month_all!Y23="","",_tag_month_all!Y23)</f>
         <v/>
       </c>
-      <c r="AA26" s="30" t="str">
+      <c r="AA26" s="35" t="str">
         <f>IF(_tag_month_all!Z23="","",_tag_month_all!Z23)</f>
         <v/>
       </c>
-      <c r="AB26" s="30" t="str">
+      <c r="AB26" s="35" t="str">
         <f>IF(_tag_month_all!AA23="","",_tag_month_all!AA23)</f>
         <v/>
       </c>
-      <c r="AC26" s="30" t="str">
+      <c r="AC26" s="35" t="str">
         <f>IF(_tag_month_all!AB23="","",_tag_month_all!AB23)</f>
         <v/>
       </c>
-      <c r="AD26" s="17" t="str">
+      <c r="AD26" s="22" t="str">
         <f>IF(_tag_month_all!AC23="","",_tag_month_all!AC23)</f>
         <v/>
       </c>
-      <c r="AE26" s="17" t="str">
+      <c r="AE26" s="22" t="str">
         <f>IF(_tag_month_all!AD23="","",_tag_month_all!AD23)</f>
         <v/>
       </c>
-      <c r="AF26" s="17" t="str">
+      <c r="AF26" s="22" t="str">
         <f>IF(_tag_month_all!AE23="","",_tag_month_all!AE23)</f>
         <v/>
       </c>
-      <c r="AG26" s="17" t="str">
+      <c r="AG26" s="22" t="str">
         <f>IF(_tag_month_all!AF23="","",_tag_month_all!AF23)</f>
         <v/>
       </c>
-      <c r="AH26" s="29" t="str">
+      <c r="AH26" s="34" t="str">
         <f>IF(_tag_month_all!AG23="","",_tag_month_all!AG23)</f>
         <v/>
       </c>
-      <c r="AI26" s="29" t="str">
+      <c r="AI26" s="34" t="str">
         <f>IF(_tag_month_all!AH23="","",_tag_month_all!AH23)</f>
         <v/>
       </c>
-      <c r="AJ26" s="38" t="str">
+      <c r="AJ26" s="51" t="str">
         <f>IF(_tag_month_all!AI23="","",_tag_month_all!AI23)</f>
         <v/>
       </c>
@@ -6760,147 +7366,147 @@
       </c>
       <c r="BO26" s="8"/>
     </row>
-    <row r="27" spans="1:67" ht="14.25">
-      <c r="A27" s="13">
+    <row r="27" ht="14.25" spans="1:67">
+      <c r="A27" s="18">
         <v>23</v>
       </c>
-      <c r="B27" s="16" t="str">
+      <c r="B27" s="21" t="str">
         <f>IF(_tag_month_all!A24="","",_tag_month_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="21" t="str">
         <f>IF(_tag_month_all!B24="","",_tag_month_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="17" t="str">
+      <c r="D27" s="22" t="str">
         <f>IF(_tag_month_all!C24="","",_tag_month_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="18" t="str">
+      <c r="E27" s="23" t="str">
         <f>IF(_tag_month_all!D24="","",_tag_month_all!D24)</f>
         <v/>
       </c>
-      <c r="F27" s="19" t="str">
+      <c r="F27" s="24" t="str">
         <f>IF(_tag_month_all!E24="","",_tag_month_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="20" t="str">
+      <c r="G27" s="25" t="str">
         <f>IF(_tag_month_all!F24="","",_tag_month_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="21" t="str">
+      <c r="H27" s="26" t="str">
         <f>IF(_tag_month_all!G24="","",_tag_month_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="18" t="str">
+      <c r="I27" s="23" t="str">
         <f>IF(_tag_month_all!H24="","",_tag_month_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="18" t="str">
+      <c r="J27" s="23" t="str">
         <f>IF(_tag_month_all!I24="","",_tag_month_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="27" t="str">
+      <c r="K27" s="32" t="str">
         <f>IF(_tag_month_all!J24="","",_tag_month_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="18" t="str">
+      <c r="L27" s="23" t="str">
         <f>IF(_tag_month_all!K24="","",_tag_month_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="28" t="str">
+      <c r="M27" s="33" t="str">
         <f>IF(_tag_month_all!L24="","",_tag_month_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="29" t="str">
+      <c r="N27" s="34" t="str">
         <f>IF(_tag_month_all!M24="","",_tag_month_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="30" t="str">
+      <c r="O27" s="35" t="str">
         <f>IF(_tag_month_all!N24="","",_tag_month_all!N24)</f>
         <v/>
       </c>
-      <c r="P27" s="30" t="str">
+      <c r="P27" s="35" t="str">
         <f>IF(_tag_month_all!O24="","",_tag_month_all!O24)</f>
         <v/>
       </c>
-      <c r="Q27" s="30" t="str">
+      <c r="Q27" s="35" t="str">
         <f>IF(_tag_month_all!P24="","",_tag_month_all!P24)</f>
         <v/>
       </c>
-      <c r="R27" s="35" t="str">
+      <c r="R27" s="43" t="str">
         <f>IF(_tag_month_all!Q24="","",_tag_month_all!Q24)</f>
         <v/>
       </c>
-      <c r="S27" s="35" t="str">
+      <c r="S27" s="43" t="str">
         <f>IF(_tag_month_all!R24="","",_tag_month_all!R24)</f>
         <v/>
       </c>
-      <c r="T27" s="35" t="str">
+      <c r="T27" s="43" t="str">
         <f>IF(_tag_month_all!S24="","",_tag_month_all!S24)</f>
         <v/>
       </c>
-      <c r="U27" s="35" t="str">
+      <c r="U27" s="43" t="str">
         <f>IF(_tag_month_all!T24="","",_tag_month_all!T24)</f>
         <v/>
       </c>
-      <c r="V27" s="29" t="str">
+      <c r="V27" s="34" t="str">
         <f>IF(_tag_month_all!U24="","",_tag_month_all!U24)</f>
         <v/>
       </c>
-      <c r="W27" s="30" t="str">
+      <c r="W27" s="35" t="str">
         <f>IF(_tag_month_all!V24="","",_tag_month_all!V24)</f>
         <v/>
       </c>
-      <c r="X27" s="30" t="str">
+      <c r="X27" s="35" t="str">
         <f>IF(_tag_month_all!W24="","",_tag_month_all!W24)</f>
         <v/>
       </c>
-      <c r="Y27" s="30" t="str">
+      <c r="Y27" s="35" t="str">
         <f>IF(_tag_month_all!X24="","",_tag_month_all!X24)</f>
         <v/>
       </c>
-      <c r="Z27" s="30" t="str">
+      <c r="Z27" s="35" t="str">
         <f>IF(_tag_month_all!Y24="","",_tag_month_all!Y24)</f>
         <v/>
       </c>
-      <c r="AA27" s="30" t="str">
+      <c r="AA27" s="35" t="str">
         <f>IF(_tag_month_all!Z24="","",_tag_month_all!Z24)</f>
         <v/>
       </c>
-      <c r="AB27" s="30" t="str">
+      <c r="AB27" s="35" t="str">
         <f>IF(_tag_month_all!AA24="","",_tag_month_all!AA24)</f>
         <v/>
       </c>
-      <c r="AC27" s="30" t="str">
+      <c r="AC27" s="35" t="str">
         <f>IF(_tag_month_all!AB24="","",_tag_month_all!AB24)</f>
         <v/>
       </c>
-      <c r="AD27" s="17" t="str">
+      <c r="AD27" s="22" t="str">
         <f>IF(_tag_month_all!AC24="","",_tag_month_all!AC24)</f>
         <v/>
       </c>
-      <c r="AE27" s="17" t="str">
+      <c r="AE27" s="22" t="str">
         <f>IF(_tag_month_all!AD24="","",_tag_month_all!AD24)</f>
         <v/>
       </c>
-      <c r="AF27" s="17" t="str">
+      <c r="AF27" s="22" t="str">
         <f>IF(_tag_month_all!AE24="","",_tag_month_all!AE24)</f>
         <v/>
       </c>
-      <c r="AG27" s="17" t="str">
+      <c r="AG27" s="22" t="str">
         <f>IF(_tag_month_all!AF24="","",_tag_month_all!AF24)</f>
         <v/>
       </c>
-      <c r="AH27" s="29" t="str">
+      <c r="AH27" s="34" t="str">
         <f>IF(_tag_month_all!AG24="","",_tag_month_all!AG24)</f>
         <v/>
       </c>
-      <c r="AI27" s="29" t="str">
+      <c r="AI27" s="34" t="str">
         <f>IF(_tag_month_all!AH24="","",_tag_month_all!AH24)</f>
         <v/>
       </c>
-      <c r="AJ27" s="38" t="str">
+      <c r="AJ27" s="51" t="str">
         <f>IF(_tag_month_all!AI24="","",_tag_month_all!AI24)</f>
         <v/>
       </c>
@@ -7026,147 +7632,147 @@
       </c>
       <c r="BO27" s="8"/>
     </row>
-    <row r="28" spans="1:67" ht="14.25">
-      <c r="A28" s="13">
+    <row r="28" ht="14.25" spans="1:67">
+      <c r="A28" s="18">
         <v>24</v>
       </c>
-      <c r="B28" s="16" t="str">
+      <c r="B28" s="21" t="str">
         <f>IF(_tag_month_all!A25="","",_tag_month_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="21" t="str">
         <f>IF(_tag_month_all!B25="","",_tag_month_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="17" t="str">
+      <c r="D28" s="22" t="str">
         <f>IF(_tag_month_all!C25="","",_tag_month_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="18" t="str">
+      <c r="E28" s="23" t="str">
         <f>IF(_tag_month_all!D25="","",_tag_month_all!D25)</f>
         <v/>
       </c>
-      <c r="F28" s="19" t="str">
+      <c r="F28" s="24" t="str">
         <f>IF(_tag_month_all!E25="","",_tag_month_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="20" t="str">
+      <c r="G28" s="25" t="str">
         <f>IF(_tag_month_all!F25="","",_tag_month_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="21" t="str">
+      <c r="H28" s="26" t="str">
         <f>IF(_tag_month_all!G25="","",_tag_month_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="18" t="str">
+      <c r="I28" s="23" t="str">
         <f>IF(_tag_month_all!H25="","",_tag_month_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="18" t="str">
+      <c r="J28" s="23" t="str">
         <f>IF(_tag_month_all!I25="","",_tag_month_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="27" t="str">
+      <c r="K28" s="32" t="str">
         <f>IF(_tag_month_all!J25="","",_tag_month_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="18" t="str">
+      <c r="L28" s="23" t="str">
         <f>IF(_tag_month_all!K25="","",_tag_month_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="28" t="str">
+      <c r="M28" s="33" t="str">
         <f>IF(_tag_month_all!L25="","",_tag_month_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="29" t="str">
+      <c r="N28" s="34" t="str">
         <f>IF(_tag_month_all!M25="","",_tag_month_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="30" t="str">
+      <c r="O28" s="35" t="str">
         <f>IF(_tag_month_all!N25="","",_tag_month_all!N25)</f>
         <v/>
       </c>
-      <c r="P28" s="30" t="str">
+      <c r="P28" s="35" t="str">
         <f>IF(_tag_month_all!O25="","",_tag_month_all!O25)</f>
         <v/>
       </c>
-      <c r="Q28" s="30" t="str">
+      <c r="Q28" s="35" t="str">
         <f>IF(_tag_month_all!P25="","",_tag_month_all!P25)</f>
         <v/>
       </c>
-      <c r="R28" s="35" t="str">
+      <c r="R28" s="43" t="str">
         <f>IF(_tag_month_all!Q25="","",_tag_month_all!Q25)</f>
         <v/>
       </c>
-      <c r="S28" s="35" t="str">
+      <c r="S28" s="43" t="str">
         <f>IF(_tag_month_all!R25="","",_tag_month_all!R25)</f>
         <v/>
       </c>
-      <c r="T28" s="35" t="str">
+      <c r="T28" s="43" t="str">
         <f>IF(_tag_month_all!S25="","",_tag_month_all!S25)</f>
         <v/>
       </c>
-      <c r="U28" s="35" t="str">
+      <c r="U28" s="43" t="str">
         <f>IF(_tag_month_all!T25="","",_tag_month_all!T25)</f>
         <v/>
       </c>
-      <c r="V28" s="29" t="str">
+      <c r="V28" s="34" t="str">
         <f>IF(_tag_month_all!U25="","",_tag_month_all!U25)</f>
         <v/>
       </c>
-      <c r="W28" s="30" t="str">
+      <c r="W28" s="35" t="str">
         <f>IF(_tag_month_all!V25="","",_tag_month_all!V25)</f>
         <v/>
       </c>
-      <c r="X28" s="30" t="str">
+      <c r="X28" s="35" t="str">
         <f>IF(_tag_month_all!W25="","",_tag_month_all!W25)</f>
         <v/>
       </c>
-      <c r="Y28" s="30" t="str">
+      <c r="Y28" s="35" t="str">
         <f>IF(_tag_month_all!X25="","",_tag_month_all!X25)</f>
         <v/>
       </c>
-      <c r="Z28" s="30" t="str">
+      <c r="Z28" s="35" t="str">
         <f>IF(_tag_month_all!Y25="","",_tag_month_all!Y25)</f>
         <v/>
       </c>
-      <c r="AA28" s="30" t="str">
+      <c r="AA28" s="35" t="str">
         <f>IF(_tag_month_all!Z25="","",_tag_month_all!Z25)</f>
         <v/>
       </c>
-      <c r="AB28" s="30" t="str">
+      <c r="AB28" s="35" t="str">
         <f>IF(_tag_month_all!AA25="","",_tag_month_all!AA25)</f>
         <v/>
       </c>
-      <c r="AC28" s="30" t="str">
+      <c r="AC28" s="35" t="str">
         <f>IF(_tag_month_all!AB25="","",_tag_month_all!AB25)</f>
         <v/>
       </c>
-      <c r="AD28" s="17" t="str">
+      <c r="AD28" s="22" t="str">
         <f>IF(_tag_month_all!AC25="","",_tag_month_all!AC25)</f>
         <v/>
       </c>
-      <c r="AE28" s="17" t="str">
+      <c r="AE28" s="22" t="str">
         <f>IF(_tag_month_all!AD25="","",_tag_month_all!AD25)</f>
         <v/>
       </c>
-      <c r="AF28" s="17" t="str">
+      <c r="AF28" s="22" t="str">
         <f>IF(_tag_month_all!AE25="","",_tag_month_all!AE25)</f>
         <v/>
       </c>
-      <c r="AG28" s="17" t="str">
+      <c r="AG28" s="22" t="str">
         <f>IF(_tag_month_all!AF25="","",_tag_month_all!AF25)</f>
         <v/>
       </c>
-      <c r="AH28" s="29" t="str">
+      <c r="AH28" s="34" t="str">
         <f>IF(_tag_month_all!AG25="","",_tag_month_all!AG25)</f>
         <v/>
       </c>
-      <c r="AI28" s="29" t="str">
+      <c r="AI28" s="34" t="str">
         <f>IF(_tag_month_all!AH25="","",_tag_month_all!AH25)</f>
         <v/>
       </c>
-      <c r="AJ28" s="38" t="str">
+      <c r="AJ28" s="51" t="str">
         <f>IF(_tag_month_all!AI25="","",_tag_month_all!AI25)</f>
         <v/>
       </c>
@@ -7292,147 +7898,147 @@
       </c>
       <c r="BO28" s="8"/>
     </row>
-    <row r="29" spans="1:67" ht="14.25">
-      <c r="A29" s="13">
+    <row r="29" ht="14.25" spans="1:67">
+      <c r="A29" s="18">
         <v>25</v>
       </c>
-      <c r="B29" s="16" t="str">
+      <c r="B29" s="21" t="str">
         <f>IF(_tag_month_all!A26="","",_tag_month_all!A26)</f>
         <v/>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="21" t="str">
         <f>IF(_tag_month_all!B26="","",_tag_month_all!B26)</f>
         <v/>
       </c>
-      <c r="D29" s="17" t="str">
+      <c r="D29" s="22" t="str">
         <f>IF(_tag_month_all!C26="","",_tag_month_all!C26)</f>
         <v/>
       </c>
-      <c r="E29" s="18" t="str">
+      <c r="E29" s="23" t="str">
         <f>IF(_tag_month_all!D26="","",_tag_month_all!D26)</f>
         <v/>
       </c>
-      <c r="F29" s="19" t="str">
+      <c r="F29" s="24" t="str">
         <f>IF(_tag_month_all!E26="","",_tag_month_all!E26)</f>
         <v/>
       </c>
-      <c r="G29" s="20" t="str">
+      <c r="G29" s="25" t="str">
         <f>IF(_tag_month_all!F26="","",_tag_month_all!F26)</f>
         <v/>
       </c>
-      <c r="H29" s="21" t="str">
+      <c r="H29" s="26" t="str">
         <f>IF(_tag_month_all!G26="","",_tag_month_all!G26)</f>
         <v/>
       </c>
-      <c r="I29" s="18" t="str">
+      <c r="I29" s="23" t="str">
         <f>IF(_tag_month_all!H26="","",_tag_month_all!H26)</f>
         <v/>
       </c>
-      <c r="J29" s="18" t="str">
+      <c r="J29" s="23" t="str">
         <f>IF(_tag_month_all!I26="","",_tag_month_all!I26)</f>
         <v/>
       </c>
-      <c r="K29" s="27" t="str">
+      <c r="K29" s="32" t="str">
         <f>IF(_tag_month_all!J26="","",_tag_month_all!J26)</f>
         <v/>
       </c>
-      <c r="L29" s="18" t="str">
+      <c r="L29" s="23" t="str">
         <f>IF(_tag_month_all!K26="","",_tag_month_all!K26)</f>
         <v/>
       </c>
-      <c r="M29" s="28" t="str">
+      <c r="M29" s="33" t="str">
         <f>IF(_tag_month_all!L26="","",_tag_month_all!L26)</f>
         <v/>
       </c>
-      <c r="N29" s="29" t="str">
+      <c r="N29" s="34" t="str">
         <f>IF(_tag_month_all!M26="","",_tag_month_all!M26)</f>
         <v/>
       </c>
-      <c r="O29" s="30" t="str">
+      <c r="O29" s="35" t="str">
         <f>IF(_tag_month_all!N26="","",_tag_month_all!N26)</f>
         <v/>
       </c>
-      <c r="P29" s="30" t="str">
+      <c r="P29" s="35" t="str">
         <f>IF(_tag_month_all!O26="","",_tag_month_all!O26)</f>
         <v/>
       </c>
-      <c r="Q29" s="30" t="str">
+      <c r="Q29" s="35" t="str">
         <f>IF(_tag_month_all!P26="","",_tag_month_all!P26)</f>
         <v/>
       </c>
-      <c r="R29" s="35" t="str">
+      <c r="R29" s="43" t="str">
         <f>IF(_tag_month_all!Q26="","",_tag_month_all!Q26)</f>
         <v/>
       </c>
-      <c r="S29" s="35" t="str">
+      <c r="S29" s="43" t="str">
         <f>IF(_tag_month_all!R26="","",_tag_month_all!R26)</f>
         <v/>
       </c>
-      <c r="T29" s="35" t="str">
+      <c r="T29" s="43" t="str">
         <f>IF(_tag_month_all!S26="","",_tag_month_all!S26)</f>
         <v/>
       </c>
-      <c r="U29" s="35" t="str">
+      <c r="U29" s="43" t="str">
         <f>IF(_tag_month_all!T26="","",_tag_month_all!T26)</f>
         <v/>
       </c>
-      <c r="V29" s="29" t="str">
+      <c r="V29" s="34" t="str">
         <f>IF(_tag_month_all!U26="","",_tag_month_all!U26)</f>
         <v/>
       </c>
-      <c r="W29" s="30" t="str">
+      <c r="W29" s="35" t="str">
         <f>IF(_tag_month_all!V26="","",_tag_month_all!V26)</f>
         <v/>
       </c>
-      <c r="X29" s="30" t="str">
+      <c r="X29" s="35" t="str">
         <f>IF(_tag_month_all!W26="","",_tag_month_all!W26)</f>
         <v/>
       </c>
-      <c r="Y29" s="30" t="str">
+      <c r="Y29" s="35" t="str">
         <f>IF(_tag_month_all!X26="","",_tag_month_all!X26)</f>
         <v/>
       </c>
-      <c r="Z29" s="30" t="str">
+      <c r="Z29" s="35" t="str">
         <f>IF(_tag_month_all!Y26="","",_tag_month_all!Y26)</f>
         <v/>
       </c>
-      <c r="AA29" s="30" t="str">
+      <c r="AA29" s="35" t="str">
         <f>IF(_tag_month_all!Z26="","",_tag_month_all!Z26)</f>
         <v/>
       </c>
-      <c r="AB29" s="30" t="str">
+      <c r="AB29" s="35" t="str">
         <f>IF(_tag_month_all!AA26="","",_tag_month_all!AA26)</f>
         <v/>
       </c>
-      <c r="AC29" s="30" t="str">
+      <c r="AC29" s="35" t="str">
         <f>IF(_tag_month_all!AB26="","",_tag_month_all!AB26)</f>
         <v/>
       </c>
-      <c r="AD29" s="17" t="str">
+      <c r="AD29" s="22" t="str">
         <f>IF(_tag_month_all!AC26="","",_tag_month_all!AC26)</f>
         <v/>
       </c>
-      <c r="AE29" s="17" t="str">
+      <c r="AE29" s="22" t="str">
         <f>IF(_tag_month_all!AD26="","",_tag_month_all!AD26)</f>
         <v/>
       </c>
-      <c r="AF29" s="17" t="str">
+      <c r="AF29" s="22" t="str">
         <f>IF(_tag_month_all!AE26="","",_tag_month_all!AE26)</f>
         <v/>
       </c>
-      <c r="AG29" s="17" t="str">
+      <c r="AG29" s="22" t="str">
         <f>IF(_tag_month_all!AF26="","",_tag_month_all!AF26)</f>
         <v/>
       </c>
-      <c r="AH29" s="29" t="str">
+      <c r="AH29" s="34" t="str">
         <f>IF(_tag_month_all!AG26="","",_tag_month_all!AG26)</f>
         <v/>
       </c>
-      <c r="AI29" s="29" t="str">
+      <c r="AI29" s="34" t="str">
         <f>IF(_tag_month_all!AH26="","",_tag_month_all!AH26)</f>
         <v/>
       </c>
-      <c r="AJ29" s="38" t="str">
+      <c r="AJ29" s="51" t="str">
         <f>IF(_tag_month_all!AI26="","",_tag_month_all!AI26)</f>
         <v/>
       </c>
@@ -7558,147 +8164,147 @@
       </c>
       <c r="BO29" s="8"/>
     </row>
-    <row r="30" spans="1:67" ht="14.25">
-      <c r="A30" s="13">
+    <row r="30" ht="14.25" spans="1:67">
+      <c r="A30" s="18">
         <v>26</v>
       </c>
-      <c r="B30" s="16" t="str">
+      <c r="B30" s="21" t="str">
         <f>IF(_tag_month_all!A27="","",_tag_month_all!A27)</f>
         <v/>
       </c>
-      <c r="C30" s="16" t="str">
+      <c r="C30" s="21" t="str">
         <f>IF(_tag_month_all!B27="","",_tag_month_all!B27)</f>
         <v/>
       </c>
-      <c r="D30" s="17" t="str">
+      <c r="D30" s="22" t="str">
         <f>IF(_tag_month_all!C27="","",_tag_month_all!C27)</f>
         <v/>
       </c>
-      <c r="E30" s="18" t="str">
+      <c r="E30" s="23" t="str">
         <f>IF(_tag_month_all!D27="","",_tag_month_all!D27)</f>
         <v/>
       </c>
-      <c r="F30" s="19" t="str">
+      <c r="F30" s="24" t="str">
         <f>IF(_tag_month_all!E27="","",_tag_month_all!E27)</f>
         <v/>
       </c>
-      <c r="G30" s="20" t="str">
+      <c r="G30" s="25" t="str">
         <f>IF(_tag_month_all!F27="","",_tag_month_all!F27)</f>
         <v/>
       </c>
-      <c r="H30" s="21" t="str">
+      <c r="H30" s="26" t="str">
         <f>IF(_tag_month_all!G27="","",_tag_month_all!G27)</f>
         <v/>
       </c>
-      <c r="I30" s="18" t="str">
+      <c r="I30" s="23" t="str">
         <f>IF(_tag_month_all!H27="","",_tag_month_all!H27)</f>
         <v/>
       </c>
-      <c r="J30" s="18" t="str">
+      <c r="J30" s="23" t="str">
         <f>IF(_tag_month_all!I27="","",_tag_month_all!I27)</f>
         <v/>
       </c>
-      <c r="K30" s="27" t="str">
+      <c r="K30" s="32" t="str">
         <f>IF(_tag_month_all!J27="","",_tag_month_all!J27)</f>
         <v/>
       </c>
-      <c r="L30" s="18" t="str">
+      <c r="L30" s="23" t="str">
         <f>IF(_tag_month_all!K27="","",_tag_month_all!K27)</f>
         <v/>
       </c>
-      <c r="M30" s="28" t="str">
+      <c r="M30" s="33" t="str">
         <f>IF(_tag_month_all!L27="","",_tag_month_all!L27)</f>
         <v/>
       </c>
-      <c r="N30" s="29" t="str">
+      <c r="N30" s="34" t="str">
         <f>IF(_tag_month_all!M27="","",_tag_month_all!M27)</f>
         <v/>
       </c>
-      <c r="O30" s="30" t="str">
+      <c r="O30" s="35" t="str">
         <f>IF(_tag_month_all!N27="","",_tag_month_all!N27)</f>
         <v/>
       </c>
-      <c r="P30" s="30" t="str">
+      <c r="P30" s="35" t="str">
         <f>IF(_tag_month_all!O27="","",_tag_month_all!O27)</f>
         <v/>
       </c>
-      <c r="Q30" s="30" t="str">
+      <c r="Q30" s="35" t="str">
         <f>IF(_tag_month_all!P27="","",_tag_month_all!P27)</f>
         <v/>
       </c>
-      <c r="R30" s="35" t="str">
+      <c r="R30" s="43" t="str">
         <f>IF(_tag_month_all!Q27="","",_tag_month_all!Q27)</f>
         <v/>
       </c>
-      <c r="S30" s="35" t="str">
+      <c r="S30" s="43" t="str">
         <f>IF(_tag_month_all!R27="","",_tag_month_all!R27)</f>
         <v/>
       </c>
-      <c r="T30" s="35" t="str">
+      <c r="T30" s="43" t="str">
         <f>IF(_tag_month_all!S27="","",_tag_month_all!S27)</f>
         <v/>
       </c>
-      <c r="U30" s="35" t="str">
+      <c r="U30" s="43" t="str">
         <f>IF(_tag_month_all!T27="","",_tag_month_all!T27)</f>
         <v/>
       </c>
-      <c r="V30" s="29" t="str">
+      <c r="V30" s="34" t="str">
         <f>IF(_tag_month_all!U27="","",_tag_month_all!U27)</f>
         <v/>
       </c>
-      <c r="W30" s="30" t="str">
+      <c r="W30" s="35" t="str">
         <f>IF(_tag_month_all!V27="","",_tag_month_all!V27)</f>
         <v/>
       </c>
-      <c r="X30" s="30" t="str">
+      <c r="X30" s="35" t="str">
         <f>IF(_tag_month_all!W27="","",_tag_month_all!W27)</f>
         <v/>
       </c>
-      <c r="Y30" s="30" t="str">
+      <c r="Y30" s="35" t="str">
         <f>IF(_tag_month_all!X27="","",_tag_month_all!X27)</f>
         <v/>
       </c>
-      <c r="Z30" s="30" t="str">
+      <c r="Z30" s="35" t="str">
         <f>IF(_tag_month_all!Y27="","",_tag_month_all!Y27)</f>
         <v/>
       </c>
-      <c r="AA30" s="30" t="str">
+      <c r="AA30" s="35" t="str">
         <f>IF(_tag_month_all!Z27="","",_tag_month_all!Z27)</f>
         <v/>
       </c>
-      <c r="AB30" s="30" t="str">
+      <c r="AB30" s="35" t="str">
         <f>IF(_tag_month_all!AA27="","",_tag_month_all!AA27)</f>
         <v/>
       </c>
-      <c r="AC30" s="30" t="str">
+      <c r="AC30" s="35" t="str">
         <f>IF(_tag_month_all!AB27="","",_tag_month_all!AB27)</f>
         <v/>
       </c>
-      <c r="AD30" s="17" t="str">
+      <c r="AD30" s="22" t="str">
         <f>IF(_tag_month_all!AC27="","",_tag_month_all!AC27)</f>
         <v/>
       </c>
-      <c r="AE30" s="17" t="str">
+      <c r="AE30" s="22" t="str">
         <f>IF(_tag_month_all!AD27="","",_tag_month_all!AD27)</f>
         <v/>
       </c>
-      <c r="AF30" s="17" t="str">
+      <c r="AF30" s="22" t="str">
         <f>IF(_tag_month_all!AE27="","",_tag_month_all!AE27)</f>
         <v/>
       </c>
-      <c r="AG30" s="17" t="str">
+      <c r="AG30" s="22" t="str">
         <f>IF(_tag_month_all!AF27="","",_tag_month_all!AF27)</f>
         <v/>
       </c>
-      <c r="AH30" s="29" t="str">
+      <c r="AH30" s="34" t="str">
         <f>IF(_tag_month_all!AG27="","",_tag_month_all!AG27)</f>
         <v/>
       </c>
-      <c r="AI30" s="29" t="str">
+      <c r="AI30" s="34" t="str">
         <f>IF(_tag_month_all!AH27="","",_tag_month_all!AH27)</f>
         <v/>
       </c>
-      <c r="AJ30" s="38" t="str">
+      <c r="AJ30" s="51" t="str">
         <f>IF(_tag_month_all!AI27="","",_tag_month_all!AI27)</f>
         <v/>
       </c>
@@ -7824,147 +8430,147 @@
       </c>
       <c r="BO30" s="8"/>
     </row>
-    <row r="31" spans="1:67" ht="14.25">
-      <c r="A31" s="13">
+    <row r="31" ht="14.25" spans="1:67">
+      <c r="A31" s="18">
         <v>27</v>
       </c>
-      <c r="B31" s="16" t="str">
+      <c r="B31" s="21" t="str">
         <f>IF(_tag_month_all!A28="","",_tag_month_all!A28)</f>
         <v/>
       </c>
-      <c r="C31" s="16" t="str">
+      <c r="C31" s="21" t="str">
         <f>IF(_tag_month_all!B28="","",_tag_month_all!B28)</f>
         <v/>
       </c>
-      <c r="D31" s="17" t="str">
+      <c r="D31" s="22" t="str">
         <f>IF(_tag_month_all!C28="","",_tag_month_all!C28)</f>
         <v/>
       </c>
-      <c r="E31" s="18" t="str">
+      <c r="E31" s="23" t="str">
         <f>IF(_tag_month_all!D28="","",_tag_month_all!D28)</f>
         <v/>
       </c>
-      <c r="F31" s="19" t="str">
+      <c r="F31" s="24" t="str">
         <f>IF(_tag_month_all!E28="","",_tag_month_all!E28)</f>
         <v/>
       </c>
-      <c r="G31" s="20" t="str">
+      <c r="G31" s="25" t="str">
         <f>IF(_tag_month_all!F28="","",_tag_month_all!F28)</f>
         <v/>
       </c>
-      <c r="H31" s="21" t="str">
+      <c r="H31" s="26" t="str">
         <f>IF(_tag_month_all!G28="","",_tag_month_all!G28)</f>
         <v/>
       </c>
-      <c r="I31" s="18" t="str">
+      <c r="I31" s="23" t="str">
         <f>IF(_tag_month_all!H28="","",_tag_month_all!H28)</f>
         <v/>
       </c>
-      <c r="J31" s="18" t="str">
+      <c r="J31" s="23" t="str">
         <f>IF(_tag_month_all!I28="","",_tag_month_all!I28)</f>
         <v/>
       </c>
-      <c r="K31" s="27" t="str">
+      <c r="K31" s="32" t="str">
         <f>IF(_tag_month_all!J28="","",_tag_month_all!J28)</f>
         <v/>
       </c>
-      <c r="L31" s="18" t="str">
+      <c r="L31" s="23" t="str">
         <f>IF(_tag_month_all!K28="","",_tag_month_all!K28)</f>
         <v/>
       </c>
-      <c r="M31" s="28" t="str">
+      <c r="M31" s="33" t="str">
         <f>IF(_tag_month_all!L28="","",_tag_month_all!L28)</f>
         <v/>
       </c>
-      <c r="N31" s="29" t="str">
+      <c r="N31" s="34" t="str">
         <f>IF(_tag_month_all!M28="","",_tag_month_all!M28)</f>
         <v/>
       </c>
-      <c r="O31" s="30" t="str">
+      <c r="O31" s="35" t="str">
         <f>IF(_tag_month_all!N28="","",_tag_month_all!N28)</f>
         <v/>
       </c>
-      <c r="P31" s="30" t="str">
+      <c r="P31" s="35" t="str">
         <f>IF(_tag_month_all!O28="","",_tag_month_all!O28)</f>
         <v/>
       </c>
-      <c r="Q31" s="30" t="str">
+      <c r="Q31" s="35" t="str">
         <f>IF(_tag_month_all!P28="","",_tag_month_all!P28)</f>
         <v/>
       </c>
-      <c r="R31" s="35" t="str">
+      <c r="R31" s="43" t="str">
         <f>IF(_tag_month_all!Q28="","",_tag_month_all!Q28)</f>
         <v/>
       </c>
-      <c r="S31" s="35" t="str">
+      <c r="S31" s="43" t="str">
         <f>IF(_tag_month_all!R28="","",_tag_month_all!R28)</f>
         <v/>
       </c>
-      <c r="T31" s="35" t="str">
+      <c r="T31" s="43" t="str">
         <f>IF(_tag_month_all!S28="","",_tag_month_all!S28)</f>
         <v/>
       </c>
-      <c r="U31" s="35" t="str">
+      <c r="U31" s="43" t="str">
         <f>IF(_tag_month_all!T28="","",_tag_month_all!T28)</f>
         <v/>
       </c>
-      <c r="V31" s="29" t="str">
+      <c r="V31" s="34" t="str">
         <f>IF(_tag_month_all!U28="","",_tag_month_all!U28)</f>
         <v/>
       </c>
-      <c r="W31" s="30" t="str">
+      <c r="W31" s="35" t="str">
         <f>IF(_tag_month_all!V28="","",_tag_month_all!V28)</f>
         <v/>
       </c>
-      <c r="X31" s="30" t="str">
+      <c r="X31" s="35" t="str">
         <f>IF(_tag_month_all!W28="","",_tag_month_all!W28)</f>
         <v/>
       </c>
-      <c r="Y31" s="30" t="str">
+      <c r="Y31" s="35" t="str">
         <f>IF(_tag_month_all!X28="","",_tag_month_all!X28)</f>
         <v/>
       </c>
-      <c r="Z31" s="30" t="str">
+      <c r="Z31" s="35" t="str">
         <f>IF(_tag_month_all!Y28="","",_tag_month_all!Y28)</f>
         <v/>
       </c>
-      <c r="AA31" s="30" t="str">
+      <c r="AA31" s="35" t="str">
         <f>IF(_tag_month_all!Z28="","",_tag_month_all!Z28)</f>
         <v/>
       </c>
-      <c r="AB31" s="30" t="str">
+      <c r="AB31" s="35" t="str">
         <f>IF(_tag_month_all!AA28="","",_tag_month_all!AA28)</f>
         <v/>
       </c>
-      <c r="AC31" s="30" t="str">
+      <c r="AC31" s="35" t="str">
         <f>IF(_tag_month_all!AB28="","",_tag_month_all!AB28)</f>
         <v/>
       </c>
-      <c r="AD31" s="17" t="str">
+      <c r="AD31" s="22" t="str">
         <f>IF(_tag_month_all!AC28="","",_tag_month_all!AC28)</f>
         <v/>
       </c>
-      <c r="AE31" s="17" t="str">
+      <c r="AE31" s="22" t="str">
         <f>IF(_tag_month_all!AD28="","",_tag_month_all!AD28)</f>
         <v/>
       </c>
-      <c r="AF31" s="17" t="str">
+      <c r="AF31" s="22" t="str">
         <f>IF(_tag_month_all!AE28="","",_tag_month_all!AE28)</f>
         <v/>
       </c>
-      <c r="AG31" s="17" t="str">
+      <c r="AG31" s="22" t="str">
         <f>IF(_tag_month_all!AF28="","",_tag_month_all!AF28)</f>
         <v/>
       </c>
-      <c r="AH31" s="29" t="str">
+      <c r="AH31" s="34" t="str">
         <f>IF(_tag_month_all!AG28="","",_tag_month_all!AG28)</f>
         <v/>
       </c>
-      <c r="AI31" s="29" t="str">
+      <c r="AI31" s="34" t="str">
         <f>IF(_tag_month_all!AH28="","",_tag_month_all!AH28)</f>
         <v/>
       </c>
-      <c r="AJ31" s="38" t="str">
+      <c r="AJ31" s="51" t="str">
         <f>IF(_tag_month_all!AI28="","",_tag_month_all!AI28)</f>
         <v/>
       </c>
@@ -8090,147 +8696,147 @@
       </c>
       <c r="BO31" s="8"/>
     </row>
-    <row r="32" spans="1:67" ht="14.25">
-      <c r="A32" s="13">
+    <row r="32" ht="14.25" spans="1:67">
+      <c r="A32" s="18">
         <v>28</v>
       </c>
-      <c r="B32" s="16" t="str">
+      <c r="B32" s="21" t="str">
         <f>IF(_tag_month_all!A29="","",_tag_month_all!A29)</f>
         <v/>
       </c>
-      <c r="C32" s="16" t="str">
+      <c r="C32" s="21" t="str">
         <f>IF(_tag_month_all!B29="","",_tag_month_all!B29)</f>
         <v/>
       </c>
-      <c r="D32" s="17" t="str">
+      <c r="D32" s="22" t="str">
         <f>IF(_tag_month_all!C29="","",_tag_month_all!C29)</f>
         <v/>
       </c>
-      <c r="E32" s="18" t="str">
+      <c r="E32" s="23" t="str">
         <f>IF(_tag_month_all!D29="","",_tag_month_all!D29)</f>
         <v/>
       </c>
-      <c r="F32" s="19" t="str">
+      <c r="F32" s="24" t="str">
         <f>IF(_tag_month_all!E29="","",_tag_month_all!E29)</f>
         <v/>
       </c>
-      <c r="G32" s="20" t="str">
+      <c r="G32" s="25" t="str">
         <f>IF(_tag_month_all!F29="","",_tag_month_all!F29)</f>
         <v/>
       </c>
-      <c r="H32" s="21" t="str">
+      <c r="H32" s="26" t="str">
         <f>IF(_tag_month_all!G29="","",_tag_month_all!G29)</f>
         <v/>
       </c>
-      <c r="I32" s="18" t="str">
+      <c r="I32" s="23" t="str">
         <f>IF(_tag_month_all!H29="","",_tag_month_all!H29)</f>
         <v/>
       </c>
-      <c r="J32" s="18" t="str">
+      <c r="J32" s="23" t="str">
         <f>IF(_tag_month_all!I29="","",_tag_month_all!I29)</f>
         <v/>
       </c>
-      <c r="K32" s="27" t="str">
+      <c r="K32" s="32" t="str">
         <f>IF(_tag_month_all!J29="","",_tag_month_all!J29)</f>
         <v/>
       </c>
-      <c r="L32" s="18" t="str">
+      <c r="L32" s="23" t="str">
         <f>IF(_tag_month_all!K29="","",_tag_month_all!K29)</f>
         <v/>
       </c>
-      <c r="M32" s="28" t="str">
+      <c r="M32" s="33" t="str">
         <f>IF(_tag_month_all!L29="","",_tag_month_all!L29)</f>
         <v/>
       </c>
-      <c r="N32" s="29" t="str">
+      <c r="N32" s="34" t="str">
         <f>IF(_tag_month_all!M29="","",_tag_month_all!M29)</f>
         <v/>
       </c>
-      <c r="O32" s="30" t="str">
+      <c r="O32" s="35" t="str">
         <f>IF(_tag_month_all!N29="","",_tag_month_all!N29)</f>
         <v/>
       </c>
-      <c r="P32" s="30" t="str">
+      <c r="P32" s="35" t="str">
         <f>IF(_tag_month_all!O29="","",_tag_month_all!O29)</f>
         <v/>
       </c>
-      <c r="Q32" s="30" t="str">
+      <c r="Q32" s="35" t="str">
         <f>IF(_tag_month_all!P29="","",_tag_month_all!P29)</f>
         <v/>
       </c>
-      <c r="R32" s="35" t="str">
+      <c r="R32" s="43" t="str">
         <f>IF(_tag_month_all!Q29="","",_tag_month_all!Q29)</f>
         <v/>
       </c>
-      <c r="S32" s="35" t="str">
+      <c r="S32" s="43" t="str">
         <f>IF(_tag_month_all!R29="","",_tag_month_all!R29)</f>
         <v/>
       </c>
-      <c r="T32" s="35" t="str">
+      <c r="T32" s="43" t="str">
         <f>IF(_tag_month_all!S29="","",_tag_month_all!S29)</f>
         <v/>
       </c>
-      <c r="U32" s="35" t="str">
+      <c r="U32" s="43" t="str">
         <f>IF(_tag_month_all!T29="","",_tag_month_all!T29)</f>
         <v/>
       </c>
-      <c r="V32" s="29" t="str">
+      <c r="V32" s="34" t="str">
         <f>IF(_tag_month_all!U29="","",_tag_month_all!U29)</f>
         <v/>
       </c>
-      <c r="W32" s="30" t="str">
+      <c r="W32" s="35" t="str">
         <f>IF(_tag_month_all!V29="","",_tag_month_all!V29)</f>
         <v/>
       </c>
-      <c r="X32" s="30" t="str">
+      <c r="X32" s="35" t="str">
         <f>IF(_tag_month_all!W29="","",_tag_month_all!W29)</f>
         <v/>
       </c>
-      <c r="Y32" s="30" t="str">
+      <c r="Y32" s="35" t="str">
         <f>IF(_tag_month_all!X29="","",_tag_month_all!X29)</f>
         <v/>
       </c>
-      <c r="Z32" s="30" t="str">
+      <c r="Z32" s="35" t="str">
         <f>IF(_tag_month_all!Y29="","",_tag_month_all!Y29)</f>
         <v/>
       </c>
-      <c r="AA32" s="30" t="str">
+      <c r="AA32" s="35" t="str">
         <f>IF(_tag_month_all!Z29="","",_tag_month_all!Z29)</f>
         <v/>
       </c>
-      <c r="AB32" s="30" t="str">
+      <c r="AB32" s="35" t="str">
         <f>IF(_tag_month_all!AA29="","",_tag_month_all!AA29)</f>
         <v/>
       </c>
-      <c r="AC32" s="30" t="str">
+      <c r="AC32" s="35" t="str">
         <f>IF(_tag_month_all!AB29="","",_tag_month_all!AB29)</f>
         <v/>
       </c>
-      <c r="AD32" s="17" t="str">
+      <c r="AD32" s="22" t="str">
         <f>IF(_tag_month_all!AC29="","",_tag_month_all!AC29)</f>
         <v/>
       </c>
-      <c r="AE32" s="17" t="str">
+      <c r="AE32" s="22" t="str">
         <f>IF(_tag_month_all!AD29="","",_tag_month_all!AD29)</f>
         <v/>
       </c>
-      <c r="AF32" s="17" t="str">
+      <c r="AF32" s="22" t="str">
         <f>IF(_tag_month_all!AE29="","",_tag_month_all!AE29)</f>
         <v/>
       </c>
-      <c r="AG32" s="17" t="str">
+      <c r="AG32" s="22" t="str">
         <f>IF(_tag_month_all!AF29="","",_tag_month_all!AF29)</f>
         <v/>
       </c>
-      <c r="AH32" s="29" t="str">
+      <c r="AH32" s="34" t="str">
         <f>IF(_tag_month_all!AG29="","",_tag_month_all!AG29)</f>
         <v/>
       </c>
-      <c r="AI32" s="29" t="str">
+      <c r="AI32" s="34" t="str">
         <f>IF(_tag_month_all!AH29="","",_tag_month_all!AH29)</f>
         <v/>
       </c>
-      <c r="AJ32" s="38" t="str">
+      <c r="AJ32" s="51" t="str">
         <f>IF(_tag_month_all!AI29="","",_tag_month_all!AI29)</f>
         <v/>
       </c>
@@ -8356,147 +8962,147 @@
       </c>
       <c r="BO32" s="8"/>
     </row>
-    <row r="33" spans="1:67" ht="14.25">
-      <c r="A33" s="13">
+    <row r="33" ht="14.25" spans="1:67">
+      <c r="A33" s="18">
         <v>29</v>
       </c>
-      <c r="B33" s="16" t="str">
+      <c r="B33" s="21" t="str">
         <f>IF(_tag_month_all!A30="","",_tag_month_all!A30)</f>
         <v/>
       </c>
-      <c r="C33" s="16" t="str">
+      <c r="C33" s="21" t="str">
         <f>IF(_tag_month_all!B30="","",_tag_month_all!B30)</f>
         <v/>
       </c>
-      <c r="D33" s="17" t="str">
+      <c r="D33" s="22" t="str">
         <f>IF(_tag_month_all!C30="","",_tag_month_all!C30)</f>
         <v/>
       </c>
-      <c r="E33" s="18" t="str">
+      <c r="E33" s="23" t="str">
         <f>IF(_tag_month_all!D30="","",_tag_month_all!D30)</f>
         <v/>
       </c>
-      <c r="F33" s="19" t="str">
+      <c r="F33" s="24" t="str">
         <f>IF(_tag_month_all!E30="","",_tag_month_all!E30)</f>
         <v/>
       </c>
-      <c r="G33" s="20" t="str">
+      <c r="G33" s="25" t="str">
         <f>IF(_tag_month_all!F30="","",_tag_month_all!F30)</f>
         <v/>
       </c>
-      <c r="H33" s="21" t="str">
+      <c r="H33" s="26" t="str">
         <f>IF(_tag_month_all!G30="","",_tag_month_all!G30)</f>
         <v/>
       </c>
-      <c r="I33" s="18" t="str">
+      <c r="I33" s="23" t="str">
         <f>IF(_tag_month_all!H30="","",_tag_month_all!H30)</f>
         <v/>
       </c>
-      <c r="J33" s="18" t="str">
+      <c r="J33" s="23" t="str">
         <f>IF(_tag_month_all!I30="","",_tag_month_all!I30)</f>
         <v/>
       </c>
-      <c r="K33" s="27" t="str">
+      <c r="K33" s="32" t="str">
         <f>IF(_tag_month_all!J30="","",_tag_month_all!J30)</f>
         <v/>
       </c>
-      <c r="L33" s="18" t="str">
+      <c r="L33" s="23" t="str">
         <f>IF(_tag_month_all!K30="","",_tag_month_all!K30)</f>
         <v/>
       </c>
-      <c r="M33" s="28" t="str">
+      <c r="M33" s="33" t="str">
         <f>IF(_tag_month_all!L30="","",_tag_month_all!L30)</f>
         <v/>
       </c>
-      <c r="N33" s="29" t="str">
+      <c r="N33" s="34" t="str">
         <f>IF(_tag_month_all!M30="","",_tag_month_all!M30)</f>
         <v/>
       </c>
-      <c r="O33" s="30" t="str">
+      <c r="O33" s="35" t="str">
         <f>IF(_tag_month_all!N30="","",_tag_month_all!N30)</f>
         <v/>
       </c>
-      <c r="P33" s="30" t="str">
+      <c r="P33" s="35" t="str">
         <f>IF(_tag_month_all!O30="","",_tag_month_all!O30)</f>
         <v/>
       </c>
-      <c r="Q33" s="30" t="str">
+      <c r="Q33" s="35" t="str">
         <f>IF(_tag_month_all!P30="","",_tag_month_all!P30)</f>
         <v/>
       </c>
-      <c r="R33" s="35" t="str">
+      <c r="R33" s="43" t="str">
         <f>IF(_tag_month_all!Q30="","",_tag_month_all!Q30)</f>
         <v/>
       </c>
-      <c r="S33" s="35" t="str">
+      <c r="S33" s="43" t="str">
         <f>IF(_tag_month_all!R30="","",_tag_month_all!R30)</f>
         <v/>
       </c>
-      <c r="T33" s="35" t="str">
+      <c r="T33" s="43" t="str">
         <f>IF(_tag_month_all!S30="","",_tag_month_all!S30)</f>
         <v/>
       </c>
-      <c r="U33" s="35" t="str">
+      <c r="U33" s="43" t="str">
         <f>IF(_tag_month_all!T30="","",_tag_month_all!T30)</f>
         <v/>
       </c>
-      <c r="V33" s="29" t="str">
+      <c r="V33" s="34" t="str">
         <f>IF(_tag_month_all!U30="","",_tag_month_all!U30)</f>
         <v/>
       </c>
-      <c r="W33" s="30" t="str">
+      <c r="W33" s="35" t="str">
         <f>IF(_tag_month_all!V30="","",_tag_month_all!V30)</f>
         <v/>
       </c>
-      <c r="X33" s="30" t="str">
+      <c r="X33" s="35" t="str">
         <f>IF(_tag_month_all!W30="","",_tag_month_all!W30)</f>
         <v/>
       </c>
-      <c r="Y33" s="30" t="str">
+      <c r="Y33" s="35" t="str">
         <f>IF(_tag_month_all!X30="","",_tag_month_all!X30)</f>
         <v/>
       </c>
-      <c r="Z33" s="30" t="str">
+      <c r="Z33" s="35" t="str">
         <f>IF(_tag_month_all!Y30="","",_tag_month_all!Y30)</f>
         <v/>
       </c>
-      <c r="AA33" s="30" t="str">
+      <c r="AA33" s="35" t="str">
         <f>IF(_tag_month_all!Z30="","",_tag_month_all!Z30)</f>
         <v/>
       </c>
-      <c r="AB33" s="30" t="str">
+      <c r="AB33" s="35" t="str">
         <f>IF(_tag_month_all!AA30="","",_tag_month_all!AA30)</f>
         <v/>
       </c>
-      <c r="AC33" s="30" t="str">
+      <c r="AC33" s="35" t="str">
         <f>IF(_tag_month_all!AB30="","",_tag_month_all!AB30)</f>
         <v/>
       </c>
-      <c r="AD33" s="17" t="str">
+      <c r="AD33" s="22" t="str">
         <f>IF(_tag_month_all!AC30="","",_tag_month_all!AC30)</f>
         <v/>
       </c>
-      <c r="AE33" s="17" t="str">
+      <c r="AE33" s="22" t="str">
         <f>IF(_tag_month_all!AD30="","",_tag_month_all!AD30)</f>
         <v/>
       </c>
-      <c r="AF33" s="17" t="str">
+      <c r="AF33" s="22" t="str">
         <f>IF(_tag_month_all!AE30="","",_tag_month_all!AE30)</f>
         <v/>
       </c>
-      <c r="AG33" s="17" t="str">
+      <c r="AG33" s="22" t="str">
         <f>IF(_tag_month_all!AF30="","",_tag_month_all!AF30)</f>
         <v/>
       </c>
-      <c r="AH33" s="29" t="str">
+      <c r="AH33" s="34" t="str">
         <f>IF(_tag_month_all!AG30="","",_tag_month_all!AG30)</f>
         <v/>
       </c>
-      <c r="AI33" s="29" t="str">
+      <c r="AI33" s="34" t="str">
         <f>IF(_tag_month_all!AH30="","",_tag_month_all!AH30)</f>
         <v/>
       </c>
-      <c r="AJ33" s="38" t="str">
+      <c r="AJ33" s="51" t="str">
         <f>IF(_tag_month_all!AI30="","",_tag_month_all!AI30)</f>
         <v/>
       </c>
@@ -8622,147 +9228,147 @@
       </c>
       <c r="BO33" s="8"/>
     </row>
-    <row r="34" spans="1:67" ht="14.25">
-      <c r="A34" s="13">
+    <row r="34" ht="14.25" spans="1:67">
+      <c r="A34" s="18">
         <v>30</v>
       </c>
-      <c r="B34" s="16" t="str">
+      <c r="B34" s="21" t="str">
         <f>IF(_tag_month_all!A31="","",_tag_month_all!A31)</f>
         <v/>
       </c>
-      <c r="C34" s="16" t="str">
+      <c r="C34" s="21" t="str">
         <f>IF(_tag_month_all!B31="","",_tag_month_all!B31)</f>
         <v/>
       </c>
-      <c r="D34" s="17" t="str">
+      <c r="D34" s="22" t="str">
         <f>IF(_tag_month_all!C31="","",_tag_month_all!C31)</f>
         <v/>
       </c>
-      <c r="E34" s="18" t="str">
+      <c r="E34" s="23" t="str">
         <f>IF(_tag_month_all!D31="","",_tag_month_all!D31)</f>
         <v/>
       </c>
-      <c r="F34" s="19" t="str">
+      <c r="F34" s="24" t="str">
         <f>IF(_tag_month_all!E31="","",_tag_month_all!E31)</f>
         <v/>
       </c>
-      <c r="G34" s="20" t="str">
+      <c r="G34" s="25" t="str">
         <f>IF(_tag_month_all!F31="","",_tag_month_all!F31)</f>
         <v/>
       </c>
-      <c r="H34" s="21" t="str">
+      <c r="H34" s="26" t="str">
         <f>IF(_tag_month_all!G31="","",_tag_month_all!G31)</f>
         <v/>
       </c>
-      <c r="I34" s="18" t="str">
+      <c r="I34" s="23" t="str">
         <f>IF(_tag_month_all!H31="","",_tag_month_all!H31)</f>
         <v/>
       </c>
-      <c r="J34" s="18" t="str">
+      <c r="J34" s="23" t="str">
         <f>IF(_tag_month_all!I31="","",_tag_month_all!I31)</f>
         <v/>
       </c>
-      <c r="K34" s="27" t="str">
+      <c r="K34" s="32" t="str">
         <f>IF(_tag_month_all!J31="","",_tag_month_all!J31)</f>
         <v/>
       </c>
-      <c r="L34" s="18" t="str">
+      <c r="L34" s="23" t="str">
         <f>IF(_tag_month_all!K31="","",_tag_month_all!K31)</f>
         <v/>
       </c>
-      <c r="M34" s="28" t="str">
+      <c r="M34" s="33" t="str">
         <f>IF(_tag_month_all!L31="","",_tag_month_all!L31)</f>
         <v/>
       </c>
-      <c r="N34" s="29" t="str">
+      <c r="N34" s="34" t="str">
         <f>IF(_tag_month_all!M31="","",_tag_month_all!M31)</f>
         <v/>
       </c>
-      <c r="O34" s="30" t="str">
+      <c r="O34" s="35" t="str">
         <f>IF(_tag_month_all!N31="","",_tag_month_all!N31)</f>
         <v/>
       </c>
-      <c r="P34" s="30" t="str">
+      <c r="P34" s="35" t="str">
         <f>IF(_tag_month_all!O31="","",_tag_month_all!O31)</f>
         <v/>
       </c>
-      <c r="Q34" s="30" t="str">
+      <c r="Q34" s="35" t="str">
         <f>IF(_tag_month_all!P31="","",_tag_month_all!P31)</f>
         <v/>
       </c>
-      <c r="R34" s="35" t="str">
+      <c r="R34" s="43" t="str">
         <f>IF(_tag_month_all!Q31="","",_tag_month_all!Q31)</f>
         <v/>
       </c>
-      <c r="S34" s="35" t="str">
+      <c r="S34" s="43" t="str">
         <f>IF(_tag_month_all!R31="","",_tag_month_all!R31)</f>
         <v/>
       </c>
-      <c r="T34" s="35" t="str">
+      <c r="T34" s="43" t="str">
         <f>IF(_tag_month_all!S31="","",_tag_month_all!S31)</f>
         <v/>
       </c>
-      <c r="U34" s="35" t="str">
+      <c r="U34" s="43" t="str">
         <f>IF(_tag_month_all!T31="","",_tag_month_all!T31)</f>
         <v/>
       </c>
-      <c r="V34" s="29" t="str">
+      <c r="V34" s="34" t="str">
         <f>IF(_tag_month_all!U31="","",_tag_month_all!U31)</f>
         <v/>
       </c>
-      <c r="W34" s="30" t="str">
+      <c r="W34" s="35" t="str">
         <f>IF(_tag_month_all!V31="","",_tag_month_all!V31)</f>
         <v/>
       </c>
-      <c r="X34" s="30" t="str">
+      <c r="X34" s="35" t="str">
         <f>IF(_tag_month_all!W31="","",_tag_month_all!W31)</f>
         <v/>
       </c>
-      <c r="Y34" s="30" t="str">
+      <c r="Y34" s="35" t="str">
         <f>IF(_tag_month_all!X31="","",_tag_month_all!X31)</f>
         <v/>
       </c>
-      <c r="Z34" s="30" t="str">
+      <c r="Z34" s="35" t="str">
         <f>IF(_tag_month_all!Y31="","",_tag_month_all!Y31)</f>
         <v/>
       </c>
-      <c r="AA34" s="30" t="str">
+      <c r="AA34" s="35" t="str">
         <f>IF(_tag_month_all!Z31="","",_tag_month_all!Z31)</f>
         <v/>
       </c>
-      <c r="AB34" s="30" t="str">
+      <c r="AB34" s="35" t="str">
         <f>IF(_tag_month_all!AA31="","",_tag_month_all!AA31)</f>
         <v/>
       </c>
-      <c r="AC34" s="30" t="str">
+      <c r="AC34" s="35" t="str">
         <f>IF(_tag_month_all!AB31="","",_tag_month_all!AB31)</f>
         <v/>
       </c>
-      <c r="AD34" s="17" t="str">
+      <c r="AD34" s="22" t="str">
         <f>IF(_tag_month_all!AC31="","",_tag_month_all!AC31)</f>
         <v/>
       </c>
-      <c r="AE34" s="17" t="str">
+      <c r="AE34" s="22" t="str">
         <f>IF(_tag_month_all!AD31="","",_tag_month_all!AD31)</f>
         <v/>
       </c>
-      <c r="AF34" s="17" t="str">
+      <c r="AF34" s="22" t="str">
         <f>IF(_tag_month_all!AE31="","",_tag_month_all!AE31)</f>
         <v/>
       </c>
-      <c r="AG34" s="17" t="str">
+      <c r="AG34" s="22" t="str">
         <f>IF(_tag_month_all!AF31="","",_tag_month_all!AF31)</f>
         <v/>
       </c>
-      <c r="AH34" s="29" t="str">
+      <c r="AH34" s="34" t="str">
         <f>IF(_tag_month_all!AG31="","",_tag_month_all!AG31)</f>
         <v/>
       </c>
-      <c r="AI34" s="29" t="str">
+      <c r="AI34" s="34" t="str">
         <f>IF(_tag_month_all!AH31="","",_tag_month_all!AH31)</f>
         <v/>
       </c>
-      <c r="AJ34" s="38" t="str">
+      <c r="AJ34" s="51" t="str">
         <f>IF(_tag_month_all!AI31="","",_tag_month_all!AI31)</f>
         <v/>
       </c>
@@ -8888,147 +9494,147 @@
       </c>
       <c r="BO34" s="8"/>
     </row>
-    <row r="35" spans="1:67" ht="14.25">
-      <c r="A35" s="13">
+    <row r="35" ht="15" spans="1:67">
+      <c r="A35" s="18">
         <v>31</v>
       </c>
-      <c r="B35" s="16" t="str">
+      <c r="B35" s="21" t="str">
         <f>IF(_tag_month_all!A32="","",_tag_month_all!A32)</f>
         <v/>
       </c>
-      <c r="C35" s="16" t="str">
+      <c r="C35" s="21" t="str">
         <f>IF(_tag_month_all!B32="","",_tag_month_all!B32)</f>
         <v/>
       </c>
-      <c r="D35" s="17" t="str">
+      <c r="D35" s="22" t="str">
         <f>IF(_tag_month_all!C32="","",_tag_month_all!C32)</f>
         <v/>
       </c>
-      <c r="E35" s="18" t="str">
+      <c r="E35" s="23" t="str">
         <f>IF(_tag_month_all!D32="","",_tag_month_all!D32)</f>
         <v/>
       </c>
-      <c r="F35" s="22" t="str">
+      <c r="F35" s="27" t="str">
         <f>IF(_tag_month_all!E32="","",_tag_month_all!E32)</f>
         <v/>
       </c>
-      <c r="G35" s="20" t="str">
+      <c r="G35" s="25" t="str">
         <f>IF(_tag_month_all!F32="","",_tag_month_all!F32)</f>
         <v/>
       </c>
-      <c r="H35" s="23" t="str">
+      <c r="H35" s="28" t="str">
         <f>IF(_tag_month_all!G32="","",_tag_month_all!G32)</f>
         <v/>
       </c>
-      <c r="I35" s="18" t="str">
+      <c r="I35" s="23" t="str">
         <f>IF(_tag_month_all!H32="","",_tag_month_all!H32)</f>
         <v/>
       </c>
-      <c r="J35" s="18" t="str">
+      <c r="J35" s="23" t="str">
         <f>IF(_tag_month_all!I32="","",_tag_month_all!I32)</f>
         <v/>
       </c>
-      <c r="K35" s="31" t="str">
+      <c r="K35" s="36" t="str">
         <f>IF(_tag_month_all!J32="","",_tag_month_all!J32)</f>
         <v/>
       </c>
-      <c r="L35" s="18" t="str">
+      <c r="L35" s="23" t="str">
         <f>IF(_tag_month_all!K32="","",_tag_month_all!K32)</f>
         <v/>
       </c>
-      <c r="M35" s="32" t="str">
+      <c r="M35" s="37" t="str">
         <f>IF(_tag_month_all!L32="","",_tag_month_all!L32)</f>
         <v/>
       </c>
-      <c r="N35" s="29" t="str">
+      <c r="N35" s="34" t="str">
         <f>IF(_tag_month_all!M32="","",_tag_month_all!M32)</f>
         <v/>
       </c>
-      <c r="O35" s="30" t="str">
+      <c r="O35" s="35" t="str">
         <f>IF(_tag_month_all!N32="","",_tag_month_all!N32)</f>
         <v/>
       </c>
-      <c r="P35" s="30" t="str">
+      <c r="P35" s="35" t="str">
         <f>IF(_tag_month_all!O32="","",_tag_month_all!O32)</f>
         <v/>
       </c>
-      <c r="Q35" s="30" t="str">
+      <c r="Q35" s="35" t="str">
         <f>IF(_tag_month_all!P32="","",_tag_month_all!P32)</f>
         <v/>
       </c>
-      <c r="R35" s="35" t="str">
+      <c r="R35" s="43" t="str">
         <f>IF(_tag_month_all!Q32="","",_tag_month_all!Q32)</f>
         <v/>
       </c>
-      <c r="S35" s="35" t="str">
+      <c r="S35" s="43" t="str">
         <f>IF(_tag_month_all!R32="","",_tag_month_all!R32)</f>
         <v/>
       </c>
-      <c r="T35" s="35" t="str">
+      <c r="T35" s="43" t="str">
         <f>IF(_tag_month_all!S32="","",_tag_month_all!S32)</f>
         <v/>
       </c>
-      <c r="U35" s="35" t="str">
+      <c r="U35" s="43" t="str">
         <f>IF(_tag_month_all!T32="","",_tag_month_all!T32)</f>
         <v/>
       </c>
-      <c r="V35" s="29" t="str">
+      <c r="V35" s="34" t="str">
         <f>IF(_tag_month_all!U32="","",_tag_month_all!U32)</f>
         <v/>
       </c>
-      <c r="W35" s="30" t="str">
+      <c r="W35" s="35" t="str">
         <f>IF(_tag_month_all!V32="","",_tag_month_all!V32)</f>
         <v/>
       </c>
-      <c r="X35" s="30" t="str">
+      <c r="X35" s="35" t="str">
         <f>IF(_tag_month_all!W32="","",_tag_month_all!W32)</f>
         <v/>
       </c>
-      <c r="Y35" s="30" t="str">
+      <c r="Y35" s="35" t="str">
         <f>IF(_tag_month_all!X32="","",_tag_month_all!X32)</f>
         <v/>
       </c>
-      <c r="Z35" s="30" t="str">
+      <c r="Z35" s="35" t="str">
         <f>IF(_tag_month_all!Y32="","",_tag_month_all!Y32)</f>
         <v/>
       </c>
-      <c r="AA35" s="30" t="str">
+      <c r="AA35" s="35" t="str">
         <f>IF(_tag_month_all!Z32="","",_tag_month_all!Z32)</f>
         <v/>
       </c>
-      <c r="AB35" s="30" t="str">
+      <c r="AB35" s="35" t="str">
         <f>IF(_tag_month_all!AA32="","",_tag_month_all!AA32)</f>
         <v/>
       </c>
-      <c r="AC35" s="30" t="str">
+      <c r="AC35" s="35" t="str">
         <f>IF(_tag_month_all!AB32="","",_tag_month_all!AB32)</f>
         <v/>
       </c>
-      <c r="AD35" s="17" t="str">
+      <c r="AD35" s="22" t="str">
         <f>IF(_tag_month_all!AC32="","",_tag_month_all!AC32)</f>
         <v/>
       </c>
-      <c r="AE35" s="17" t="str">
+      <c r="AE35" s="22" t="str">
         <f>IF(_tag_month_all!AD32="","",_tag_month_all!AD32)</f>
         <v/>
       </c>
-      <c r="AF35" s="17" t="str">
+      <c r="AF35" s="22" t="str">
         <f>IF(_tag_month_all!AE32="","",_tag_month_all!AE32)</f>
         <v/>
       </c>
-      <c r="AG35" s="17" t="str">
+      <c r="AG35" s="22" t="str">
         <f>IF(_tag_month_all!AF32="","",_tag_month_all!AF32)</f>
         <v/>
       </c>
-      <c r="AH35" s="29" t="str">
+      <c r="AH35" s="34" t="str">
         <f>IF(_tag_month_all!AG32="","",_tag_month_all!AG32)</f>
         <v/>
       </c>
-      <c r="AI35" s="29" t="str">
+      <c r="AI35" s="34" t="str">
         <f>IF(_tag_month_all!AH32="","",_tag_month_all!AH32)</f>
         <v/>
       </c>
-      <c r="AJ35" s="38" t="str">
+      <c r="AJ35" s="51" t="str">
         <f>IF(_tag_month_all!AI32="","",_tag_month_all!AI32)</f>
         <v/>
       </c>
@@ -9154,147 +9760,147 @@
       </c>
       <c r="BO35" s="8"/>
     </row>
-    <row r="36" spans="1:67" ht="14.25">
-      <c r="A36" s="24" t="s">
+    <row r="36" ht="15" spans="1:67">
+      <c r="A36" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="25" t="str">
+      <c r="B36" s="30" t="str">
         <f>IFERROR(AVERAGE(B4:B35),"")</f>
         <v/>
       </c>
-      <c r="C36" s="25" t="str">
+      <c r="C36" s="30" t="str">
         <f t="shared" ref="C36:BN36" si="1">IFERROR(AVERAGE(C4:C35),"")</f>
         <v/>
       </c>
-      <c r="D36" s="26" t="str">
+      <c r="D36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E36" s="26" t="str">
+      <c r="E36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F36" s="26" t="str">
+      <c r="F36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G36" s="26" t="str">
+      <c r="G36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H36" s="26" t="str">
+      <c r="H36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I36" s="26" t="str">
+      <c r="I36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J36" s="26" t="str">
+      <c r="J36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K36" s="26" t="str">
+      <c r="K36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L36" s="26" t="str">
+      <c r="L36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M36" s="26" t="str">
+      <c r="M36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N36" s="26" t="str">
+      <c r="N36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O36" s="25" t="str">
+      <c r="O36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P36" s="25" t="str">
+      <c r="P36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q36" s="25" t="str">
+      <c r="Q36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R36" s="26" t="str">
+      <c r="R36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S36" s="26" t="str">
+      <c r="S36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T36" s="26" t="str">
+      <c r="T36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="U36" s="26" t="str">
+      <c r="U36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V36" s="26" t="str">
+      <c r="V36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W36" s="25" t="str">
+      <c r="W36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X36" s="25" t="str">
+      <c r="X36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y36" s="25" t="str">
+      <c r="Y36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z36" s="25" t="str">
+      <c r="Z36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA36" s="25" t="str">
+      <c r="AA36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB36" s="25" t="str">
+      <c r="AB36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC36" s="25" t="str">
+      <c r="AC36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD36" s="26" t="str">
+      <c r="AD36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE36" s="26" t="str">
+      <c r="AE36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF36" s="26" t="str">
+      <c r="AF36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG36" s="26" t="str">
+      <c r="AG36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH36" s="26" t="str">
+      <c r="AH36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AI36" s="26" t="str">
+      <c r="AI36" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AJ36" s="39" t="str">
+      <c r="AJ36" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -9420,8 +10026,8 @@
       </c>
       <c r="BO36" s="8"/>
     </row>
-    <row r="37" spans="1:67" ht="14.25">
-      <c r="AJ37" s="40"/>
+    <row r="37" ht="14.25" spans="36:67">
+      <c r="AJ37" s="53"/>
       <c r="AK37" s="8"/>
       <c r="AL37" s="8"/>
       <c r="AM37" s="8"/>
@@ -9454,1060 +10060,1061 @@
       <c r="BN37" s="8"/>
       <c r="BO37" s="8"/>
     </row>
-    <row r="38" spans="1:67" ht="15.75">
-      <c r="AJ38" s="41"/>
-      <c r="AK38" s="42"/>
-      <c r="AL38" s="42"/>
-      <c r="AM38" s="42"/>
-      <c r="AN38" s="42"/>
-      <c r="AO38" s="42"/>
-      <c r="AP38" s="42"/>
-      <c r="AQ38" s="42"/>
-      <c r="AR38" s="42"/>
-      <c r="AS38" s="42"/>
-      <c r="AT38" s="42"/>
-      <c r="AU38" s="42"/>
-      <c r="AV38" s="42"/>
-      <c r="AW38" s="42"/>
-      <c r="AX38" s="42"/>
-      <c r="AY38" s="42"/>
-      <c r="AZ38" s="42"/>
-      <c r="BA38" s="42"/>
-      <c r="BB38" s="42"/>
-      <c r="BC38" s="42"/>
-      <c r="BD38" s="42"/>
-      <c r="BE38" s="42"/>
-      <c r="BF38" s="42"/>
-      <c r="BG38" s="42"/>
-      <c r="BH38" s="42"/>
-      <c r="BI38" s="42"/>
-      <c r="BJ38" s="42"/>
-      <c r="BK38" s="42"/>
-      <c r="BL38" s="42"/>
+    <row r="38" ht="15.75" spans="36:64">
+      <c r="AJ38" s="54"/>
+      <c r="AK38" s="55"/>
+      <c r="AL38" s="55"/>
+      <c r="AM38" s="55"/>
+      <c r="AN38" s="55"/>
+      <c r="AO38" s="55"/>
+      <c r="AP38" s="55"/>
+      <c r="AQ38" s="55"/>
+      <c r="AR38" s="55"/>
+      <c r="AS38" s="55"/>
+      <c r="AT38" s="55"/>
+      <c r="AU38" s="55"/>
+      <c r="AV38" s="55"/>
+      <c r="AW38" s="55"/>
+      <c r="AX38" s="55"/>
+      <c r="AY38" s="55"/>
+      <c r="AZ38" s="55"/>
+      <c r="BA38" s="55"/>
+      <c r="BB38" s="55"/>
+      <c r="BC38" s="55"/>
+      <c r="BD38" s="55"/>
+      <c r="BE38" s="55"/>
+      <c r="BF38" s="55"/>
+      <c r="BG38" s="55"/>
+      <c r="BH38" s="55"/>
+      <c r="BI38" s="55"/>
+      <c r="BJ38" s="55"/>
+      <c r="BK38" s="55"/>
+      <c r="BL38" s="55"/>
     </row>
-    <row r="39" spans="1:67" ht="15.75">
-      <c r="AJ39" s="43"/>
-      <c r="AK39" s="42"/>
-      <c r="AL39" s="42"/>
-      <c r="AM39" s="42"/>
-      <c r="AN39" s="42"/>
-      <c r="AO39" s="42"/>
-      <c r="AP39" s="42"/>
-      <c r="AQ39" s="42"/>
-      <c r="AR39" s="42"/>
-      <c r="AS39" s="42"/>
-      <c r="AT39" s="42"/>
-      <c r="AU39" s="42"/>
-      <c r="AV39" s="42"/>
-      <c r="AW39" s="42"/>
-      <c r="AX39" s="42"/>
-      <c r="AY39" s="42"/>
-      <c r="AZ39" s="42"/>
-      <c r="BA39" s="42"/>
-      <c r="BB39" s="42"/>
-      <c r="BC39" s="42"/>
-      <c r="BD39" s="42"/>
-      <c r="BE39" s="42"/>
-      <c r="BF39" s="42"/>
-      <c r="BG39" s="42"/>
-      <c r="BH39" s="42"/>
-      <c r="BI39" s="42"/>
-      <c r="BJ39" s="42"/>
-      <c r="BK39" s="42"/>
-      <c r="BL39" s="42"/>
+    <row r="39" ht="15.75" spans="36:64">
+      <c r="AJ39" s="56"/>
+      <c r="AK39" s="55"/>
+      <c r="AL39" s="55"/>
+      <c r="AM39" s="55"/>
+      <c r="AN39" s="55"/>
+      <c r="AO39" s="55"/>
+      <c r="AP39" s="55"/>
+      <c r="AQ39" s="55"/>
+      <c r="AR39" s="55"/>
+      <c r="AS39" s="55"/>
+      <c r="AT39" s="55"/>
+      <c r="AU39" s="55"/>
+      <c r="AV39" s="55"/>
+      <c r="AW39" s="55"/>
+      <c r="AX39" s="55"/>
+      <c r="AY39" s="55"/>
+      <c r="AZ39" s="55"/>
+      <c r="BA39" s="55"/>
+      <c r="BB39" s="55"/>
+      <c r="BC39" s="55"/>
+      <c r="BD39" s="55"/>
+      <c r="BE39" s="55"/>
+      <c r="BF39" s="55"/>
+      <c r="BG39" s="55"/>
+      <c r="BH39" s="55"/>
+      <c r="BI39" s="55"/>
+      <c r="BJ39" s="55"/>
+      <c r="BK39" s="55"/>
+      <c r="BL39" s="55"/>
     </row>
-    <row r="40" spans="1:67" ht="15.75">
-      <c r="AJ40" s="43"/>
-      <c r="AK40" s="42"/>
-      <c r="AL40" s="42"/>
-      <c r="AM40" s="42"/>
-      <c r="AN40" s="42"/>
-      <c r="AO40" s="42"/>
-      <c r="AP40" s="42"/>
-      <c r="AQ40" s="42"/>
-      <c r="AR40" s="42"/>
-      <c r="AS40" s="42"/>
-      <c r="AT40" s="42"/>
-      <c r="AU40" s="42"/>
-      <c r="AV40" s="42"/>
-      <c r="AW40" s="42"/>
-      <c r="AX40" s="42"/>
-      <c r="AY40" s="42"/>
-      <c r="AZ40" s="42"/>
-      <c r="BA40" s="42"/>
-      <c r="BB40" s="42"/>
-      <c r="BC40" s="42"/>
-      <c r="BD40" s="42"/>
-      <c r="BE40" s="42"/>
-      <c r="BF40" s="42"/>
-      <c r="BG40" s="42"/>
-      <c r="BH40" s="42"/>
-      <c r="BI40" s="42"/>
-      <c r="BJ40" s="42"/>
-      <c r="BK40" s="42"/>
-      <c r="BL40" s="42"/>
+    <row r="40" ht="15.75" spans="36:64">
+      <c r="AJ40" s="56"/>
+      <c r="AK40" s="55"/>
+      <c r="AL40" s="55"/>
+      <c r="AM40" s="55"/>
+      <c r="AN40" s="55"/>
+      <c r="AO40" s="55"/>
+      <c r="AP40" s="55"/>
+      <c r="AQ40" s="55"/>
+      <c r="AR40" s="55"/>
+      <c r="AS40" s="55"/>
+      <c r="AT40" s="55"/>
+      <c r="AU40" s="55"/>
+      <c r="AV40" s="55"/>
+      <c r="AW40" s="55"/>
+      <c r="AX40" s="55"/>
+      <c r="AY40" s="55"/>
+      <c r="AZ40" s="55"/>
+      <c r="BA40" s="55"/>
+      <c r="BB40" s="55"/>
+      <c r="BC40" s="55"/>
+      <c r="BD40" s="55"/>
+      <c r="BE40" s="55"/>
+      <c r="BF40" s="55"/>
+      <c r="BG40" s="55"/>
+      <c r="BH40" s="55"/>
+      <c r="BI40" s="55"/>
+      <c r="BJ40" s="55"/>
+      <c r="BK40" s="55"/>
+      <c r="BL40" s="55"/>
     </row>
-    <row r="41" spans="1:67" ht="15.75">
-      <c r="AJ41" s="43"/>
-      <c r="AK41" s="42"/>
-      <c r="AL41" s="42"/>
-      <c r="AM41" s="42"/>
-      <c r="AN41" s="42"/>
-      <c r="AO41" s="42"/>
-      <c r="AP41" s="42"/>
-      <c r="AQ41" s="42"/>
-      <c r="AR41" s="42"/>
-      <c r="AS41" s="42"/>
-      <c r="AT41" s="42"/>
-      <c r="AU41" s="42"/>
-      <c r="AV41" s="42"/>
-      <c r="AW41" s="42"/>
-      <c r="AX41" s="42"/>
-      <c r="AY41" s="42"/>
-      <c r="AZ41" s="42"/>
-      <c r="BA41" s="42"/>
-      <c r="BB41" s="42"/>
-      <c r="BC41" s="42"/>
-      <c r="BD41" s="42"/>
-      <c r="BE41" s="42"/>
-      <c r="BF41" s="42"/>
-      <c r="BG41" s="42"/>
-      <c r="BH41" s="42"/>
-      <c r="BI41" s="42"/>
-      <c r="BJ41" s="42"/>
-      <c r="BK41" s="42"/>
-      <c r="BL41" s="42"/>
+    <row r="41" ht="15.75" spans="36:64">
+      <c r="AJ41" s="56"/>
+      <c r="AK41" s="55"/>
+      <c r="AL41" s="55"/>
+      <c r="AM41" s="55"/>
+      <c r="AN41" s="55"/>
+      <c r="AO41" s="55"/>
+      <c r="AP41" s="55"/>
+      <c r="AQ41" s="55"/>
+      <c r="AR41" s="55"/>
+      <c r="AS41" s="55"/>
+      <c r="AT41" s="55"/>
+      <c r="AU41" s="55"/>
+      <c r="AV41" s="55"/>
+      <c r="AW41" s="55"/>
+      <c r="AX41" s="55"/>
+      <c r="AY41" s="55"/>
+      <c r="AZ41" s="55"/>
+      <c r="BA41" s="55"/>
+      <c r="BB41" s="55"/>
+      <c r="BC41" s="55"/>
+      <c r="BD41" s="55"/>
+      <c r="BE41" s="55"/>
+      <c r="BF41" s="55"/>
+      <c r="BG41" s="55"/>
+      <c r="BH41" s="55"/>
+      <c r="BI41" s="55"/>
+      <c r="BJ41" s="55"/>
+      <c r="BK41" s="55"/>
+      <c r="BL41" s="55"/>
     </row>
-    <row r="42" spans="1:67" ht="15.75">
-      <c r="AJ42" s="43"/>
-      <c r="AK42" s="42"/>
-      <c r="AL42" s="42"/>
-      <c r="AM42" s="42"/>
-      <c r="AN42" s="42"/>
-      <c r="AO42" s="42"/>
-      <c r="AP42" s="42"/>
-      <c r="AQ42" s="42"/>
-      <c r="AR42" s="42"/>
-      <c r="AS42" s="42"/>
-      <c r="AT42" s="42"/>
-      <c r="AU42" s="42"/>
-      <c r="AV42" s="42"/>
-      <c r="AW42" s="42"/>
-      <c r="AX42" s="42"/>
-      <c r="AY42" s="42"/>
-      <c r="AZ42" s="42"/>
-      <c r="BA42" s="42"/>
-      <c r="BB42" s="42"/>
-      <c r="BC42" s="42"/>
-      <c r="BD42" s="42"/>
-      <c r="BE42" s="42"/>
-      <c r="BF42" s="42"/>
-      <c r="BG42" s="42"/>
-      <c r="BH42" s="42"/>
-      <c r="BI42" s="42"/>
-      <c r="BJ42" s="42"/>
-      <c r="BK42" s="42"/>
-      <c r="BL42" s="42"/>
+    <row r="42" ht="15.75" spans="36:64">
+      <c r="AJ42" s="56"/>
+      <c r="AK42" s="55"/>
+      <c r="AL42" s="55"/>
+      <c r="AM42" s="55"/>
+      <c r="AN42" s="55"/>
+      <c r="AO42" s="55"/>
+      <c r="AP42" s="55"/>
+      <c r="AQ42" s="55"/>
+      <c r="AR42" s="55"/>
+      <c r="AS42" s="55"/>
+      <c r="AT42" s="55"/>
+      <c r="AU42" s="55"/>
+      <c r="AV42" s="55"/>
+      <c r="AW42" s="55"/>
+      <c r="AX42" s="55"/>
+      <c r="AY42" s="55"/>
+      <c r="AZ42" s="55"/>
+      <c r="BA42" s="55"/>
+      <c r="BB42" s="55"/>
+      <c r="BC42" s="55"/>
+      <c r="BD42" s="55"/>
+      <c r="BE42" s="55"/>
+      <c r="BF42" s="55"/>
+      <c r="BG42" s="55"/>
+      <c r="BH42" s="55"/>
+      <c r="BI42" s="55"/>
+      <c r="BJ42" s="55"/>
+      <c r="BK42" s="55"/>
+      <c r="BL42" s="55"/>
     </row>
-    <row r="43" spans="1:67" ht="15.75">
-      <c r="AJ43" s="43"/>
-      <c r="AK43" s="42"/>
-      <c r="AL43" s="42"/>
-      <c r="AM43" s="42"/>
-      <c r="AN43" s="42"/>
-      <c r="AO43" s="42"/>
-      <c r="AP43" s="42"/>
-      <c r="AQ43" s="42"/>
-      <c r="AR43" s="42"/>
-      <c r="AS43" s="42"/>
-      <c r="AT43" s="42"/>
-      <c r="AU43" s="42"/>
-      <c r="AV43" s="42"/>
-      <c r="AW43" s="42"/>
-      <c r="AX43" s="42"/>
-      <c r="AY43" s="42"/>
-      <c r="AZ43" s="42"/>
-      <c r="BA43" s="42"/>
-      <c r="BB43" s="42"/>
-      <c r="BC43" s="42"/>
-      <c r="BD43" s="42"/>
-      <c r="BE43" s="42"/>
-      <c r="BF43" s="42"/>
-      <c r="BG43" s="42"/>
-      <c r="BH43" s="42"/>
-      <c r="BI43" s="42"/>
-      <c r="BJ43" s="42"/>
-      <c r="BK43" s="42"/>
-      <c r="BL43" s="42"/>
+    <row r="43" ht="15.75" spans="36:64">
+      <c r="AJ43" s="56"/>
+      <c r="AK43" s="55"/>
+      <c r="AL43" s="55"/>
+      <c r="AM43" s="55"/>
+      <c r="AN43" s="55"/>
+      <c r="AO43" s="55"/>
+      <c r="AP43" s="55"/>
+      <c r="AQ43" s="55"/>
+      <c r="AR43" s="55"/>
+      <c r="AS43" s="55"/>
+      <c r="AT43" s="55"/>
+      <c r="AU43" s="55"/>
+      <c r="AV43" s="55"/>
+      <c r="AW43" s="55"/>
+      <c r="AX43" s="55"/>
+      <c r="AY43" s="55"/>
+      <c r="AZ43" s="55"/>
+      <c r="BA43" s="55"/>
+      <c r="BB43" s="55"/>
+      <c r="BC43" s="55"/>
+      <c r="BD43" s="55"/>
+      <c r="BE43" s="55"/>
+      <c r="BF43" s="55"/>
+      <c r="BG43" s="55"/>
+      <c r="BH43" s="55"/>
+      <c r="BI43" s="55"/>
+      <c r="BJ43" s="55"/>
+      <c r="BK43" s="55"/>
+      <c r="BL43" s="55"/>
     </row>
-    <row r="44" spans="1:67" ht="15.75">
-      <c r="AJ44" s="43"/>
-      <c r="AK44" s="42"/>
-      <c r="AL44" s="42"/>
-      <c r="AM44" s="42"/>
-      <c r="AN44" s="42"/>
-      <c r="AO44" s="42"/>
-      <c r="AP44" s="42"/>
-      <c r="AQ44" s="42"/>
-      <c r="AR44" s="42"/>
-      <c r="AS44" s="42"/>
-      <c r="AT44" s="42"/>
-      <c r="AU44" s="42"/>
-      <c r="AV44" s="42"/>
-      <c r="AW44" s="42"/>
-      <c r="AX44" s="42"/>
-      <c r="AY44" s="42"/>
-      <c r="AZ44" s="42"/>
-      <c r="BA44" s="42"/>
-      <c r="BB44" s="42"/>
-      <c r="BC44" s="42"/>
-      <c r="BD44" s="42"/>
-      <c r="BE44" s="42"/>
-      <c r="BF44" s="42"/>
-      <c r="BG44" s="42"/>
-      <c r="BH44" s="42"/>
-      <c r="BI44" s="42"/>
-      <c r="BJ44" s="42"/>
-      <c r="BK44" s="42"/>
-      <c r="BL44" s="42"/>
+    <row r="44" ht="15.75" spans="36:64">
+      <c r="AJ44" s="56"/>
+      <c r="AK44" s="55"/>
+      <c r="AL44" s="55"/>
+      <c r="AM44" s="55"/>
+      <c r="AN44" s="55"/>
+      <c r="AO44" s="55"/>
+      <c r="AP44" s="55"/>
+      <c r="AQ44" s="55"/>
+      <c r="AR44" s="55"/>
+      <c r="AS44" s="55"/>
+      <c r="AT44" s="55"/>
+      <c r="AU44" s="55"/>
+      <c r="AV44" s="55"/>
+      <c r="AW44" s="55"/>
+      <c r="AX44" s="55"/>
+      <c r="AY44" s="55"/>
+      <c r="AZ44" s="55"/>
+      <c r="BA44" s="55"/>
+      <c r="BB44" s="55"/>
+      <c r="BC44" s="55"/>
+      <c r="BD44" s="55"/>
+      <c r="BE44" s="55"/>
+      <c r="BF44" s="55"/>
+      <c r="BG44" s="55"/>
+      <c r="BH44" s="55"/>
+      <c r="BI44" s="55"/>
+      <c r="BJ44" s="55"/>
+      <c r="BK44" s="55"/>
+      <c r="BL44" s="55"/>
     </row>
-    <row r="45" spans="1:67" ht="15.75">
-      <c r="AJ45" s="43"/>
-      <c r="AK45" s="42"/>
-      <c r="AL45" s="42"/>
-      <c r="AM45" s="42"/>
-      <c r="AN45" s="42"/>
-      <c r="AO45" s="42"/>
-      <c r="AP45" s="42"/>
-      <c r="AQ45" s="42"/>
-      <c r="AR45" s="42"/>
-      <c r="AS45" s="42"/>
-      <c r="AT45" s="42"/>
-      <c r="AU45" s="42"/>
-      <c r="AV45" s="42"/>
-      <c r="AW45" s="42"/>
-      <c r="AX45" s="42"/>
-      <c r="AY45" s="42"/>
-      <c r="AZ45" s="42"/>
-      <c r="BA45" s="42"/>
-      <c r="BB45" s="42"/>
-      <c r="BC45" s="42"/>
-      <c r="BD45" s="42"/>
-      <c r="BE45" s="42"/>
-      <c r="BF45" s="42"/>
-      <c r="BG45" s="42"/>
-      <c r="BH45" s="42"/>
-      <c r="BI45" s="42"/>
-      <c r="BJ45" s="42"/>
-      <c r="BK45" s="42"/>
-      <c r="BL45" s="42"/>
+    <row r="45" ht="15.75" spans="36:64">
+      <c r="AJ45" s="56"/>
+      <c r="AK45" s="55"/>
+      <c r="AL45" s="55"/>
+      <c r="AM45" s="55"/>
+      <c r="AN45" s="55"/>
+      <c r="AO45" s="55"/>
+      <c r="AP45" s="55"/>
+      <c r="AQ45" s="55"/>
+      <c r="AR45" s="55"/>
+      <c r="AS45" s="55"/>
+      <c r="AT45" s="55"/>
+      <c r="AU45" s="55"/>
+      <c r="AV45" s="55"/>
+      <c r="AW45" s="55"/>
+      <c r="AX45" s="55"/>
+      <c r="AY45" s="55"/>
+      <c r="AZ45" s="55"/>
+      <c r="BA45" s="55"/>
+      <c r="BB45" s="55"/>
+      <c r="BC45" s="55"/>
+      <c r="BD45" s="55"/>
+      <c r="BE45" s="55"/>
+      <c r="BF45" s="55"/>
+      <c r="BG45" s="55"/>
+      <c r="BH45" s="55"/>
+      <c r="BI45" s="55"/>
+      <c r="BJ45" s="55"/>
+      <c r="BK45" s="55"/>
+      <c r="BL45" s="55"/>
     </row>
-    <row r="46" spans="1:67" ht="15.75">
-      <c r="AJ46" s="43"/>
-      <c r="AK46" s="42"/>
-      <c r="AL46" s="42"/>
-      <c r="AM46" s="42"/>
-      <c r="AN46" s="42"/>
-      <c r="AO46" s="42"/>
-      <c r="AP46" s="42"/>
-      <c r="AQ46" s="42"/>
-      <c r="AR46" s="42"/>
-      <c r="AS46" s="42"/>
-      <c r="AT46" s="42"/>
-      <c r="AU46" s="42"/>
-      <c r="AV46" s="42"/>
-      <c r="AW46" s="42"/>
-      <c r="AX46" s="42"/>
-      <c r="AY46" s="42"/>
-      <c r="AZ46" s="42"/>
-      <c r="BA46" s="42"/>
-      <c r="BB46" s="42"/>
-      <c r="BC46" s="42"/>
-      <c r="BD46" s="42"/>
-      <c r="BE46" s="42"/>
-      <c r="BF46" s="42"/>
-      <c r="BG46" s="42"/>
-      <c r="BH46" s="42"/>
-      <c r="BI46" s="42"/>
-      <c r="BJ46" s="42"/>
-      <c r="BK46" s="42"/>
-      <c r="BL46" s="42"/>
+    <row r="46" ht="15.75" spans="36:64">
+      <c r="AJ46" s="56"/>
+      <c r="AK46" s="55"/>
+      <c r="AL46" s="55"/>
+      <c r="AM46" s="55"/>
+      <c r="AN46" s="55"/>
+      <c r="AO46" s="55"/>
+      <c r="AP46" s="55"/>
+      <c r="AQ46" s="55"/>
+      <c r="AR46" s="55"/>
+      <c r="AS46" s="55"/>
+      <c r="AT46" s="55"/>
+      <c r="AU46" s="55"/>
+      <c r="AV46" s="55"/>
+      <c r="AW46" s="55"/>
+      <c r="AX46" s="55"/>
+      <c r="AY46" s="55"/>
+      <c r="AZ46" s="55"/>
+      <c r="BA46" s="55"/>
+      <c r="BB46" s="55"/>
+      <c r="BC46" s="55"/>
+      <c r="BD46" s="55"/>
+      <c r="BE46" s="55"/>
+      <c r="BF46" s="55"/>
+      <c r="BG46" s="55"/>
+      <c r="BH46" s="55"/>
+      <c r="BI46" s="55"/>
+      <c r="BJ46" s="55"/>
+      <c r="BK46" s="55"/>
+      <c r="BL46" s="55"/>
     </row>
-    <row r="47" spans="1:67" ht="15.75">
-      <c r="AJ47" s="43"/>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="42"/>
-      <c r="AM47" s="42"/>
-      <c r="AN47" s="42"/>
-      <c r="AO47" s="42"/>
-      <c r="AP47" s="42"/>
-      <c r="AQ47" s="42"/>
-      <c r="AR47" s="42"/>
-      <c r="AS47" s="42"/>
-      <c r="AT47" s="42"/>
-      <c r="AU47" s="42"/>
-      <c r="AV47" s="42"/>
-      <c r="AW47" s="42"/>
-      <c r="AX47" s="42"/>
-      <c r="AY47" s="42"/>
-      <c r="AZ47" s="42"/>
-      <c r="BA47" s="42"/>
-      <c r="BB47" s="42"/>
-      <c r="BC47" s="42"/>
-      <c r="BD47" s="42"/>
-      <c r="BE47" s="42"/>
-      <c r="BF47" s="42"/>
-      <c r="BG47" s="42"/>
-      <c r="BH47" s="42"/>
-      <c r="BI47" s="42"/>
-      <c r="BJ47" s="42"/>
-      <c r="BK47" s="42"/>
-      <c r="BL47" s="42"/>
+    <row r="47" ht="15.75" spans="36:64">
+      <c r="AJ47" s="56"/>
+      <c r="AK47" s="55"/>
+      <c r="AL47" s="55"/>
+      <c r="AM47" s="55"/>
+      <c r="AN47" s="55"/>
+      <c r="AO47" s="55"/>
+      <c r="AP47" s="55"/>
+      <c r="AQ47" s="55"/>
+      <c r="AR47" s="55"/>
+      <c r="AS47" s="55"/>
+      <c r="AT47" s="55"/>
+      <c r="AU47" s="55"/>
+      <c r="AV47" s="55"/>
+      <c r="AW47" s="55"/>
+      <c r="AX47" s="55"/>
+      <c r="AY47" s="55"/>
+      <c r="AZ47" s="55"/>
+      <c r="BA47" s="55"/>
+      <c r="BB47" s="55"/>
+      <c r="BC47" s="55"/>
+      <c r="BD47" s="55"/>
+      <c r="BE47" s="55"/>
+      <c r="BF47" s="55"/>
+      <c r="BG47" s="55"/>
+      <c r="BH47" s="55"/>
+      <c r="BI47" s="55"/>
+      <c r="BJ47" s="55"/>
+      <c r="BK47" s="55"/>
+      <c r="BL47" s="55"/>
     </row>
-    <row r="48" spans="1:67" ht="15.75">
-      <c r="AJ48" s="43"/>
-      <c r="AK48" s="42"/>
-      <c r="AL48" s="42"/>
-      <c r="AM48" s="42"/>
-      <c r="AN48" s="42"/>
-      <c r="AO48" s="42"/>
-      <c r="AP48" s="42"/>
-      <c r="AQ48" s="42"/>
-      <c r="AR48" s="42"/>
-      <c r="AS48" s="42"/>
-      <c r="AT48" s="42"/>
-      <c r="AU48" s="42"/>
-      <c r="AV48" s="42"/>
-      <c r="AW48" s="42"/>
-      <c r="AX48" s="42"/>
-      <c r="AY48" s="42"/>
-      <c r="AZ48" s="42"/>
-      <c r="BA48" s="42"/>
-      <c r="BB48" s="42"/>
-      <c r="BC48" s="42"/>
-      <c r="BD48" s="42"/>
-      <c r="BE48" s="42"/>
-      <c r="BF48" s="42"/>
-      <c r="BG48" s="42"/>
-      <c r="BH48" s="42"/>
-      <c r="BI48" s="42"/>
-      <c r="BJ48" s="42"/>
-      <c r="BK48" s="42"/>
-      <c r="BL48" s="42"/>
+    <row r="48" ht="15.75" spans="36:64">
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="55"/>
+      <c r="AL48" s="55"/>
+      <c r="AM48" s="55"/>
+      <c r="AN48" s="55"/>
+      <c r="AO48" s="55"/>
+      <c r="AP48" s="55"/>
+      <c r="AQ48" s="55"/>
+      <c r="AR48" s="55"/>
+      <c r="AS48" s="55"/>
+      <c r="AT48" s="55"/>
+      <c r="AU48" s="55"/>
+      <c r="AV48" s="55"/>
+      <c r="AW48" s="55"/>
+      <c r="AX48" s="55"/>
+      <c r="AY48" s="55"/>
+      <c r="AZ48" s="55"/>
+      <c r="BA48" s="55"/>
+      <c r="BB48" s="55"/>
+      <c r="BC48" s="55"/>
+      <c r="BD48" s="55"/>
+      <c r="BE48" s="55"/>
+      <c r="BF48" s="55"/>
+      <c r="BG48" s="55"/>
+      <c r="BH48" s="55"/>
+      <c r="BI48" s="55"/>
+      <c r="BJ48" s="55"/>
+      <c r="BK48" s="55"/>
+      <c r="BL48" s="55"/>
     </row>
-    <row r="49" spans="36:64" ht="15.75">
-      <c r="AJ49" s="43"/>
-      <c r="AK49" s="42"/>
-      <c r="AL49" s="42"/>
-      <c r="AM49" s="42"/>
-      <c r="AN49" s="42"/>
-      <c r="AO49" s="42"/>
-      <c r="AP49" s="42"/>
-      <c r="AQ49" s="42"/>
-      <c r="AR49" s="42"/>
-      <c r="AS49" s="42"/>
-      <c r="AT49" s="42"/>
-      <c r="AU49" s="42"/>
-      <c r="AV49" s="42"/>
-      <c r="AW49" s="42"/>
-      <c r="AX49" s="42"/>
-      <c r="AY49" s="42"/>
-      <c r="AZ49" s="42"/>
-      <c r="BA49" s="42"/>
-      <c r="BB49" s="42"/>
-      <c r="BC49" s="42"/>
-      <c r="BD49" s="42"/>
-      <c r="BE49" s="42"/>
-      <c r="BF49" s="42"/>
-      <c r="BG49" s="42"/>
-      <c r="BH49" s="42"/>
-      <c r="BI49" s="42"/>
-      <c r="BJ49" s="42"/>
-      <c r="BK49" s="42"/>
-      <c r="BL49" s="42"/>
+    <row r="49" ht="15.75" spans="36:64">
+      <c r="AJ49" s="56"/>
+      <c r="AK49" s="55"/>
+      <c r="AL49" s="55"/>
+      <c r="AM49" s="55"/>
+      <c r="AN49" s="55"/>
+      <c r="AO49" s="55"/>
+      <c r="AP49" s="55"/>
+      <c r="AQ49" s="55"/>
+      <c r="AR49" s="55"/>
+      <c r="AS49" s="55"/>
+      <c r="AT49" s="55"/>
+      <c r="AU49" s="55"/>
+      <c r="AV49" s="55"/>
+      <c r="AW49" s="55"/>
+      <c r="AX49" s="55"/>
+      <c r="AY49" s="55"/>
+      <c r="AZ49" s="55"/>
+      <c r="BA49" s="55"/>
+      <c r="BB49" s="55"/>
+      <c r="BC49" s="55"/>
+      <c r="BD49" s="55"/>
+      <c r="BE49" s="55"/>
+      <c r="BF49" s="55"/>
+      <c r="BG49" s="55"/>
+      <c r="BH49" s="55"/>
+      <c r="BI49" s="55"/>
+      <c r="BJ49" s="55"/>
+      <c r="BK49" s="55"/>
+      <c r="BL49" s="55"/>
     </row>
-    <row r="50" spans="36:64" ht="15.75">
-      <c r="AJ50" s="43"/>
-      <c r="AK50" s="42"/>
-      <c r="AL50" s="42"/>
-      <c r="AM50" s="42"/>
-      <c r="AN50" s="42"/>
-      <c r="AO50" s="42"/>
-      <c r="AP50" s="42"/>
-      <c r="AQ50" s="42"/>
-      <c r="AR50" s="42"/>
-      <c r="AS50" s="42"/>
-      <c r="AT50" s="42"/>
-      <c r="AU50" s="42"/>
-      <c r="AV50" s="42"/>
-      <c r="AW50" s="42"/>
-      <c r="AX50" s="42"/>
-      <c r="AY50" s="42"/>
-      <c r="AZ50" s="42"/>
-      <c r="BA50" s="42"/>
-      <c r="BB50" s="42"/>
-      <c r="BC50" s="42"/>
-      <c r="BD50" s="42"/>
-      <c r="BE50" s="42"/>
-      <c r="BF50" s="42"/>
-      <c r="BG50" s="42"/>
-      <c r="BH50" s="42"/>
-      <c r="BI50" s="42"/>
-      <c r="BJ50" s="42"/>
-      <c r="BK50" s="42"/>
-      <c r="BL50" s="42"/>
+    <row r="50" ht="15.75" spans="36:64">
+      <c r="AJ50" s="56"/>
+      <c r="AK50" s="55"/>
+      <c r="AL50" s="55"/>
+      <c r="AM50" s="55"/>
+      <c r="AN50" s="55"/>
+      <c r="AO50" s="55"/>
+      <c r="AP50" s="55"/>
+      <c r="AQ50" s="55"/>
+      <c r="AR50" s="55"/>
+      <c r="AS50" s="55"/>
+      <c r="AT50" s="55"/>
+      <c r="AU50" s="55"/>
+      <c r="AV50" s="55"/>
+      <c r="AW50" s="55"/>
+      <c r="AX50" s="55"/>
+      <c r="AY50" s="55"/>
+      <c r="AZ50" s="55"/>
+      <c r="BA50" s="55"/>
+      <c r="BB50" s="55"/>
+      <c r="BC50" s="55"/>
+      <c r="BD50" s="55"/>
+      <c r="BE50" s="55"/>
+      <c r="BF50" s="55"/>
+      <c r="BG50" s="55"/>
+      <c r="BH50" s="55"/>
+      <c r="BI50" s="55"/>
+      <c r="BJ50" s="55"/>
+      <c r="BK50" s="55"/>
+      <c r="BL50" s="55"/>
     </row>
-    <row r="51" spans="36:64" ht="15.75">
-      <c r="AJ51" s="43"/>
-      <c r="AK51" s="42"/>
-      <c r="AL51" s="42"/>
-      <c r="AM51" s="42"/>
-      <c r="AN51" s="42"/>
-      <c r="AO51" s="42"/>
-      <c r="AP51" s="42"/>
-      <c r="AQ51" s="42"/>
-      <c r="AR51" s="42"/>
-      <c r="AS51" s="42"/>
-      <c r="AT51" s="42"/>
-      <c r="AU51" s="42"/>
-      <c r="AV51" s="42"/>
-      <c r="AW51" s="42"/>
-      <c r="AX51" s="42"/>
-      <c r="AY51" s="42"/>
-      <c r="AZ51" s="42"/>
-      <c r="BA51" s="42"/>
-      <c r="BB51" s="42"/>
-      <c r="BC51" s="42"/>
-      <c r="BD51" s="42"/>
-      <c r="BE51" s="42"/>
-      <c r="BF51" s="42"/>
-      <c r="BG51" s="42"/>
-      <c r="BH51" s="42"/>
-      <c r="BI51" s="42"/>
-      <c r="BJ51" s="42"/>
-      <c r="BK51" s="42"/>
-      <c r="BL51" s="42"/>
+    <row r="51" ht="15.75" spans="36:64">
+      <c r="AJ51" s="56"/>
+      <c r="AK51" s="55"/>
+      <c r="AL51" s="55"/>
+      <c r="AM51" s="55"/>
+      <c r="AN51" s="55"/>
+      <c r="AO51" s="55"/>
+      <c r="AP51" s="55"/>
+      <c r="AQ51" s="55"/>
+      <c r="AR51" s="55"/>
+      <c r="AS51" s="55"/>
+      <c r="AT51" s="55"/>
+      <c r="AU51" s="55"/>
+      <c r="AV51" s="55"/>
+      <c r="AW51" s="55"/>
+      <c r="AX51" s="55"/>
+      <c r="AY51" s="55"/>
+      <c r="AZ51" s="55"/>
+      <c r="BA51" s="55"/>
+      <c r="BB51" s="55"/>
+      <c r="BC51" s="55"/>
+      <c r="BD51" s="55"/>
+      <c r="BE51" s="55"/>
+      <c r="BF51" s="55"/>
+      <c r="BG51" s="55"/>
+      <c r="BH51" s="55"/>
+      <c r="BI51" s="55"/>
+      <c r="BJ51" s="55"/>
+      <c r="BK51" s="55"/>
+      <c r="BL51" s="55"/>
     </row>
-    <row r="52" spans="36:64" ht="15.75">
-      <c r="AJ52" s="43"/>
-      <c r="AK52" s="42"/>
-      <c r="AL52" s="42"/>
-      <c r="AM52" s="42"/>
-      <c r="AN52" s="42"/>
-      <c r="AO52" s="42"/>
-      <c r="AP52" s="42"/>
-      <c r="AQ52" s="42"/>
-      <c r="AR52" s="42"/>
-      <c r="AS52" s="42"/>
-      <c r="AT52" s="42"/>
-      <c r="AU52" s="42"/>
-      <c r="AV52" s="42"/>
-      <c r="AW52" s="42"/>
-      <c r="AX52" s="42"/>
-      <c r="AY52" s="42"/>
-      <c r="AZ52" s="42"/>
-      <c r="BA52" s="42"/>
-      <c r="BB52" s="42"/>
-      <c r="BC52" s="42"/>
-      <c r="BD52" s="42"/>
-      <c r="BE52" s="42"/>
-      <c r="BF52" s="42"/>
-      <c r="BG52" s="42"/>
-      <c r="BH52" s="42"/>
-      <c r="BI52" s="42"/>
-      <c r="BJ52" s="42"/>
-      <c r="BK52" s="42"/>
-      <c r="BL52" s="42"/>
+    <row r="52" ht="15.75" spans="36:64">
+      <c r="AJ52" s="56"/>
+      <c r="AK52" s="55"/>
+      <c r="AL52" s="55"/>
+      <c r="AM52" s="55"/>
+      <c r="AN52" s="55"/>
+      <c r="AO52" s="55"/>
+      <c r="AP52" s="55"/>
+      <c r="AQ52" s="55"/>
+      <c r="AR52" s="55"/>
+      <c r="AS52" s="55"/>
+      <c r="AT52" s="55"/>
+      <c r="AU52" s="55"/>
+      <c r="AV52" s="55"/>
+      <c r="AW52" s="55"/>
+      <c r="AX52" s="55"/>
+      <c r="AY52" s="55"/>
+      <c r="AZ52" s="55"/>
+      <c r="BA52" s="55"/>
+      <c r="BB52" s="55"/>
+      <c r="BC52" s="55"/>
+      <c r="BD52" s="55"/>
+      <c r="BE52" s="55"/>
+      <c r="BF52" s="55"/>
+      <c r="BG52" s="55"/>
+      <c r="BH52" s="55"/>
+      <c r="BI52" s="55"/>
+      <c r="BJ52" s="55"/>
+      <c r="BK52" s="55"/>
+      <c r="BL52" s="55"/>
     </row>
-    <row r="53" spans="36:64" ht="15.75">
-      <c r="AJ53" s="43"/>
-      <c r="AK53" s="42"/>
-      <c r="AL53" s="42"/>
-      <c r="AM53" s="42"/>
-      <c r="AN53" s="42"/>
-      <c r="AO53" s="42"/>
-      <c r="AP53" s="42"/>
-      <c r="AQ53" s="42"/>
-      <c r="AR53" s="42"/>
-      <c r="AS53" s="42"/>
-      <c r="AT53" s="42"/>
-      <c r="AU53" s="42"/>
-      <c r="AV53" s="42"/>
-      <c r="AW53" s="42"/>
-      <c r="AX53" s="42"/>
-      <c r="AY53" s="42"/>
-      <c r="AZ53" s="42"/>
-      <c r="BA53" s="42"/>
-      <c r="BB53" s="42"/>
-      <c r="BC53" s="42"/>
-      <c r="BD53" s="42"/>
-      <c r="BE53" s="42"/>
-      <c r="BF53" s="42"/>
-      <c r="BG53" s="42"/>
-      <c r="BH53" s="42"/>
-      <c r="BI53" s="42"/>
-      <c r="BJ53" s="42"/>
-      <c r="BK53" s="42"/>
-      <c r="BL53" s="42"/>
+    <row r="53" ht="15.75" spans="36:64">
+      <c r="AJ53" s="56"/>
+      <c r="AK53" s="55"/>
+      <c r="AL53" s="55"/>
+      <c r="AM53" s="55"/>
+      <c r="AN53" s="55"/>
+      <c r="AO53" s="55"/>
+      <c r="AP53" s="55"/>
+      <c r="AQ53" s="55"/>
+      <c r="AR53" s="55"/>
+      <c r="AS53" s="55"/>
+      <c r="AT53" s="55"/>
+      <c r="AU53" s="55"/>
+      <c r="AV53" s="55"/>
+      <c r="AW53" s="55"/>
+      <c r="AX53" s="55"/>
+      <c r="AY53" s="55"/>
+      <c r="AZ53" s="55"/>
+      <c r="BA53" s="55"/>
+      <c r="BB53" s="55"/>
+      <c r="BC53" s="55"/>
+      <c r="BD53" s="55"/>
+      <c r="BE53" s="55"/>
+      <c r="BF53" s="55"/>
+      <c r="BG53" s="55"/>
+      <c r="BH53" s="55"/>
+      <c r="BI53" s="55"/>
+      <c r="BJ53" s="55"/>
+      <c r="BK53" s="55"/>
+      <c r="BL53" s="55"/>
     </row>
-    <row r="54" spans="36:64" ht="15.75">
-      <c r="AJ54" s="43"/>
-      <c r="AK54" s="42"/>
-      <c r="AL54" s="42"/>
-      <c r="AM54" s="42"/>
-      <c r="AN54" s="42"/>
-      <c r="AO54" s="42"/>
-      <c r="AP54" s="42"/>
-      <c r="AQ54" s="42"/>
-      <c r="AR54" s="42"/>
-      <c r="AS54" s="42"/>
-      <c r="AT54" s="42"/>
-      <c r="AU54" s="42"/>
-      <c r="AV54" s="42"/>
-      <c r="AW54" s="42"/>
-      <c r="AX54" s="42"/>
-      <c r="AY54" s="42"/>
-      <c r="AZ54" s="42"/>
-      <c r="BA54" s="42"/>
-      <c r="BB54" s="42"/>
-      <c r="BC54" s="42"/>
-      <c r="BD54" s="42"/>
-      <c r="BE54" s="42"/>
-      <c r="BF54" s="42"/>
-      <c r="BG54" s="42"/>
-      <c r="BH54" s="42"/>
-      <c r="BI54" s="42"/>
-      <c r="BJ54" s="42"/>
-      <c r="BK54" s="42"/>
-      <c r="BL54" s="42"/>
+    <row r="54" ht="15.75" spans="36:64">
+      <c r="AJ54" s="56"/>
+      <c r="AK54" s="55"/>
+      <c r="AL54" s="55"/>
+      <c r="AM54" s="55"/>
+      <c r="AN54" s="55"/>
+      <c r="AO54" s="55"/>
+      <c r="AP54" s="55"/>
+      <c r="AQ54" s="55"/>
+      <c r="AR54" s="55"/>
+      <c r="AS54" s="55"/>
+      <c r="AT54" s="55"/>
+      <c r="AU54" s="55"/>
+      <c r="AV54" s="55"/>
+      <c r="AW54" s="55"/>
+      <c r="AX54" s="55"/>
+      <c r="AY54" s="55"/>
+      <c r="AZ54" s="55"/>
+      <c r="BA54" s="55"/>
+      <c r="BB54" s="55"/>
+      <c r="BC54" s="55"/>
+      <c r="BD54" s="55"/>
+      <c r="BE54" s="55"/>
+      <c r="BF54" s="55"/>
+      <c r="BG54" s="55"/>
+      <c r="BH54" s="55"/>
+      <c r="BI54" s="55"/>
+      <c r="BJ54" s="55"/>
+      <c r="BK54" s="55"/>
+      <c r="BL54" s="55"/>
     </row>
-    <row r="55" spans="36:64" ht="15.75">
-      <c r="AJ55" s="43"/>
-      <c r="AK55" s="42"/>
-      <c r="AL55" s="42"/>
-      <c r="AM55" s="42"/>
-      <c r="AN55" s="42"/>
-      <c r="AO55" s="42"/>
-      <c r="AP55" s="42"/>
-      <c r="AQ55" s="42"/>
-      <c r="AR55" s="42"/>
-      <c r="AS55" s="42"/>
-      <c r="AT55" s="42"/>
-      <c r="AU55" s="42"/>
-      <c r="AV55" s="42"/>
-      <c r="AW55" s="42"/>
-      <c r="AX55" s="42"/>
-      <c r="AY55" s="42"/>
-      <c r="AZ55" s="42"/>
-      <c r="BA55" s="42"/>
-      <c r="BB55" s="42"/>
-      <c r="BC55" s="42"/>
-      <c r="BD55" s="42"/>
-      <c r="BE55" s="42"/>
-      <c r="BF55" s="42"/>
-      <c r="BG55" s="42"/>
-      <c r="BH55" s="42"/>
-      <c r="BI55" s="42"/>
-      <c r="BJ55" s="42"/>
-      <c r="BK55" s="42"/>
-      <c r="BL55" s="42"/>
+    <row r="55" ht="15.75" spans="36:64">
+      <c r="AJ55" s="56"/>
+      <c r="AK55" s="55"/>
+      <c r="AL55" s="55"/>
+      <c r="AM55" s="55"/>
+      <c r="AN55" s="55"/>
+      <c r="AO55" s="55"/>
+      <c r="AP55" s="55"/>
+      <c r="AQ55" s="55"/>
+      <c r="AR55" s="55"/>
+      <c r="AS55" s="55"/>
+      <c r="AT55" s="55"/>
+      <c r="AU55" s="55"/>
+      <c r="AV55" s="55"/>
+      <c r="AW55" s="55"/>
+      <c r="AX55" s="55"/>
+      <c r="AY55" s="55"/>
+      <c r="AZ55" s="55"/>
+      <c r="BA55" s="55"/>
+      <c r="BB55" s="55"/>
+      <c r="BC55" s="55"/>
+      <c r="BD55" s="55"/>
+      <c r="BE55" s="55"/>
+      <c r="BF55" s="55"/>
+      <c r="BG55" s="55"/>
+      <c r="BH55" s="55"/>
+      <c r="BI55" s="55"/>
+      <c r="BJ55" s="55"/>
+      <c r="BK55" s="55"/>
+      <c r="BL55" s="55"/>
     </row>
-    <row r="56" spans="36:64" ht="15.75">
-      <c r="AJ56" s="43"/>
-      <c r="AK56" s="42"/>
-      <c r="AL56" s="42"/>
-      <c r="AM56" s="42"/>
-      <c r="AN56" s="42"/>
-      <c r="AO56" s="42"/>
-      <c r="AP56" s="42"/>
-      <c r="AQ56" s="42"/>
-      <c r="AR56" s="42"/>
-      <c r="AS56" s="42"/>
-      <c r="AT56" s="42"/>
-      <c r="AU56" s="42"/>
-      <c r="AV56" s="42"/>
-      <c r="AW56" s="42"/>
-      <c r="AX56" s="42"/>
-      <c r="AY56" s="42"/>
-      <c r="AZ56" s="42"/>
-      <c r="BA56" s="42"/>
-      <c r="BB56" s="42"/>
-      <c r="BC56" s="42"/>
-      <c r="BD56" s="42"/>
-      <c r="BE56" s="42"/>
-      <c r="BF56" s="42"/>
-      <c r="BG56" s="42"/>
-      <c r="BH56" s="42"/>
-      <c r="BI56" s="42"/>
-      <c r="BJ56" s="42"/>
-      <c r="BK56" s="42"/>
-      <c r="BL56" s="42"/>
+    <row r="56" ht="15.75" spans="36:64">
+      <c r="AJ56" s="56"/>
+      <c r="AK56" s="55"/>
+      <c r="AL56" s="55"/>
+      <c r="AM56" s="55"/>
+      <c r="AN56" s="55"/>
+      <c r="AO56" s="55"/>
+      <c r="AP56" s="55"/>
+      <c r="AQ56" s="55"/>
+      <c r="AR56" s="55"/>
+      <c r="AS56" s="55"/>
+      <c r="AT56" s="55"/>
+      <c r="AU56" s="55"/>
+      <c r="AV56" s="55"/>
+      <c r="AW56" s="55"/>
+      <c r="AX56" s="55"/>
+      <c r="AY56" s="55"/>
+      <c r="AZ56" s="55"/>
+      <c r="BA56" s="55"/>
+      <c r="BB56" s="55"/>
+      <c r="BC56" s="55"/>
+      <c r="BD56" s="55"/>
+      <c r="BE56" s="55"/>
+      <c r="BF56" s="55"/>
+      <c r="BG56" s="55"/>
+      <c r="BH56" s="55"/>
+      <c r="BI56" s="55"/>
+      <c r="BJ56" s="55"/>
+      <c r="BK56" s="55"/>
+      <c r="BL56" s="55"/>
     </row>
-    <row r="57" spans="36:64" ht="15.75">
-      <c r="AJ57" s="43"/>
-      <c r="AK57" s="42"/>
-      <c r="AL57" s="42"/>
-      <c r="AM57" s="42"/>
-      <c r="AN57" s="42"/>
-      <c r="AO57" s="42"/>
-      <c r="AP57" s="42"/>
-      <c r="AQ57" s="42"/>
-      <c r="AR57" s="42"/>
-      <c r="AS57" s="42"/>
-      <c r="AT57" s="42"/>
-      <c r="AU57" s="42"/>
-      <c r="AV57" s="42"/>
-      <c r="AW57" s="42"/>
-      <c r="AX57" s="42"/>
-      <c r="AY57" s="42"/>
-      <c r="AZ57" s="42"/>
-      <c r="BA57" s="42"/>
-      <c r="BB57" s="42"/>
-      <c r="BC57" s="42"/>
-      <c r="BD57" s="42"/>
-      <c r="BE57" s="42"/>
-      <c r="BF57" s="42"/>
-      <c r="BG57" s="42"/>
-      <c r="BH57" s="42"/>
-      <c r="BI57" s="42"/>
-      <c r="BJ57" s="42"/>
-      <c r="BK57" s="42"/>
-      <c r="BL57" s="42"/>
+    <row r="57" ht="15.75" spans="36:64">
+      <c r="AJ57" s="56"/>
+      <c r="AK57" s="55"/>
+      <c r="AL57" s="55"/>
+      <c r="AM57" s="55"/>
+      <c r="AN57" s="55"/>
+      <c r="AO57" s="55"/>
+      <c r="AP57" s="55"/>
+      <c r="AQ57" s="55"/>
+      <c r="AR57" s="55"/>
+      <c r="AS57" s="55"/>
+      <c r="AT57" s="55"/>
+      <c r="AU57" s="55"/>
+      <c r="AV57" s="55"/>
+      <c r="AW57" s="55"/>
+      <c r="AX57" s="55"/>
+      <c r="AY57" s="55"/>
+      <c r="AZ57" s="55"/>
+      <c r="BA57" s="55"/>
+      <c r="BB57" s="55"/>
+      <c r="BC57" s="55"/>
+      <c r="BD57" s="55"/>
+      <c r="BE57" s="55"/>
+      <c r="BF57" s="55"/>
+      <c r="BG57" s="55"/>
+      <c r="BH57" s="55"/>
+      <c r="BI57" s="55"/>
+      <c r="BJ57" s="55"/>
+      <c r="BK57" s="55"/>
+      <c r="BL57" s="55"/>
     </row>
-    <row r="58" spans="36:64" ht="15.75">
-      <c r="AJ58" s="43"/>
-      <c r="AK58" s="42"/>
-      <c r="AL58" s="42"/>
-      <c r="AM58" s="42"/>
-      <c r="AN58" s="42"/>
-      <c r="AO58" s="42"/>
-      <c r="AP58" s="42"/>
-      <c r="AQ58" s="42"/>
-      <c r="AR58" s="42"/>
-      <c r="AS58" s="42"/>
-      <c r="AT58" s="42"/>
-      <c r="AU58" s="42"/>
-      <c r="AV58" s="42"/>
-      <c r="AW58" s="42"/>
-      <c r="AX58" s="42"/>
-      <c r="AY58" s="42"/>
-      <c r="AZ58" s="42"/>
-      <c r="BA58" s="42"/>
-      <c r="BB58" s="42"/>
-      <c r="BC58" s="42"/>
-      <c r="BD58" s="42"/>
-      <c r="BE58" s="42"/>
-      <c r="BF58" s="42"/>
-      <c r="BG58" s="42"/>
-      <c r="BH58" s="42"/>
-      <c r="BI58" s="42"/>
-      <c r="BJ58" s="42"/>
-      <c r="BK58" s="42"/>
-      <c r="BL58" s="42"/>
+    <row r="58" ht="15.75" spans="36:64">
+      <c r="AJ58" s="56"/>
+      <c r="AK58" s="55"/>
+      <c r="AL58" s="55"/>
+      <c r="AM58" s="55"/>
+      <c r="AN58" s="55"/>
+      <c r="AO58" s="55"/>
+      <c r="AP58" s="55"/>
+      <c r="AQ58" s="55"/>
+      <c r="AR58" s="55"/>
+      <c r="AS58" s="55"/>
+      <c r="AT58" s="55"/>
+      <c r="AU58" s="55"/>
+      <c r="AV58" s="55"/>
+      <c r="AW58" s="55"/>
+      <c r="AX58" s="55"/>
+      <c r="AY58" s="55"/>
+      <c r="AZ58" s="55"/>
+      <c r="BA58" s="55"/>
+      <c r="BB58" s="55"/>
+      <c r="BC58" s="55"/>
+      <c r="BD58" s="55"/>
+      <c r="BE58" s="55"/>
+      <c r="BF58" s="55"/>
+      <c r="BG58" s="55"/>
+      <c r="BH58" s="55"/>
+      <c r="BI58" s="55"/>
+      <c r="BJ58" s="55"/>
+      <c r="BK58" s="55"/>
+      <c r="BL58" s="55"/>
     </row>
-    <row r="59" spans="36:64" ht="15.75">
-      <c r="AJ59" s="43"/>
-      <c r="AK59" s="42"/>
-      <c r="AL59" s="42"/>
-      <c r="AM59" s="42"/>
-      <c r="AN59" s="42"/>
-      <c r="AO59" s="42"/>
-      <c r="AP59" s="42"/>
-      <c r="AQ59" s="42"/>
-      <c r="AR59" s="42"/>
-      <c r="AS59" s="42"/>
-      <c r="AT59" s="42"/>
-      <c r="AU59" s="42"/>
-      <c r="AV59" s="42"/>
-      <c r="AW59" s="42"/>
-      <c r="AX59" s="42"/>
-      <c r="AY59" s="42"/>
-      <c r="AZ59" s="42"/>
-      <c r="BA59" s="42"/>
-      <c r="BB59" s="42"/>
-      <c r="BC59" s="42"/>
-      <c r="BD59" s="42"/>
-      <c r="BE59" s="42"/>
-      <c r="BF59" s="42"/>
-      <c r="BG59" s="42"/>
-      <c r="BH59" s="42"/>
-      <c r="BI59" s="42"/>
-      <c r="BJ59" s="42"/>
-      <c r="BK59" s="42"/>
-      <c r="BL59" s="42"/>
+    <row r="59" ht="15.75" spans="36:64">
+      <c r="AJ59" s="56"/>
+      <c r="AK59" s="55"/>
+      <c r="AL59" s="55"/>
+      <c r="AM59" s="55"/>
+      <c r="AN59" s="55"/>
+      <c r="AO59" s="55"/>
+      <c r="AP59" s="55"/>
+      <c r="AQ59" s="55"/>
+      <c r="AR59" s="55"/>
+      <c r="AS59" s="55"/>
+      <c r="AT59" s="55"/>
+      <c r="AU59" s="55"/>
+      <c r="AV59" s="55"/>
+      <c r="AW59" s="55"/>
+      <c r="AX59" s="55"/>
+      <c r="AY59" s="55"/>
+      <c r="AZ59" s="55"/>
+      <c r="BA59" s="55"/>
+      <c r="BB59" s="55"/>
+      <c r="BC59" s="55"/>
+      <c r="BD59" s="55"/>
+      <c r="BE59" s="55"/>
+      <c r="BF59" s="55"/>
+      <c r="BG59" s="55"/>
+      <c r="BH59" s="55"/>
+      <c r="BI59" s="55"/>
+      <c r="BJ59" s="55"/>
+      <c r="BK59" s="55"/>
+      <c r="BL59" s="55"/>
     </row>
-    <row r="60" spans="36:64" ht="15.75">
-      <c r="AJ60" s="43"/>
-      <c r="AK60" s="42"/>
-      <c r="AL60" s="42"/>
-      <c r="AM60" s="42"/>
-      <c r="AN60" s="42"/>
-      <c r="AO60" s="42"/>
-      <c r="AP60" s="42"/>
-      <c r="AQ60" s="42"/>
-      <c r="AR60" s="42"/>
-      <c r="AS60" s="42"/>
-      <c r="AT60" s="42"/>
-      <c r="AU60" s="42"/>
-      <c r="AV60" s="42"/>
-      <c r="AW60" s="42"/>
-      <c r="AX60" s="42"/>
-      <c r="AY60" s="42"/>
-      <c r="AZ60" s="42"/>
-      <c r="BA60" s="42"/>
-      <c r="BB60" s="42"/>
-      <c r="BC60" s="42"/>
-      <c r="BD60" s="42"/>
-      <c r="BE60" s="42"/>
-      <c r="BF60" s="42"/>
-      <c r="BG60" s="42"/>
-      <c r="BH60" s="42"/>
-      <c r="BI60" s="42"/>
-      <c r="BJ60" s="42"/>
-      <c r="BK60" s="42"/>
-      <c r="BL60" s="42"/>
+    <row r="60" ht="15.75" spans="36:64">
+      <c r="AJ60" s="56"/>
+      <c r="AK60" s="55"/>
+      <c r="AL60" s="55"/>
+      <c r="AM60" s="55"/>
+      <c r="AN60" s="55"/>
+      <c r="AO60" s="55"/>
+      <c r="AP60" s="55"/>
+      <c r="AQ60" s="55"/>
+      <c r="AR60" s="55"/>
+      <c r="AS60" s="55"/>
+      <c r="AT60" s="55"/>
+      <c r="AU60" s="55"/>
+      <c r="AV60" s="55"/>
+      <c r="AW60" s="55"/>
+      <c r="AX60" s="55"/>
+      <c r="AY60" s="55"/>
+      <c r="AZ60" s="55"/>
+      <c r="BA60" s="55"/>
+      <c r="BB60" s="55"/>
+      <c r="BC60" s="55"/>
+      <c r="BD60" s="55"/>
+      <c r="BE60" s="55"/>
+      <c r="BF60" s="55"/>
+      <c r="BG60" s="55"/>
+      <c r="BH60" s="55"/>
+      <c r="BI60" s="55"/>
+      <c r="BJ60" s="55"/>
+      <c r="BK60" s="55"/>
+      <c r="BL60" s="55"/>
     </row>
-    <row r="61" spans="36:64" ht="15.75">
-      <c r="AJ61" s="43"/>
-      <c r="AK61" s="42"/>
-      <c r="AL61" s="42"/>
-      <c r="AM61" s="42"/>
-      <c r="AN61" s="42"/>
-      <c r="AO61" s="42"/>
-      <c r="AP61" s="42"/>
-      <c r="AQ61" s="42"/>
-      <c r="AR61" s="42"/>
-      <c r="AS61" s="42"/>
-      <c r="AT61" s="42"/>
-      <c r="AU61" s="42"/>
-      <c r="AV61" s="42"/>
-      <c r="AW61" s="42"/>
-      <c r="AX61" s="42"/>
-      <c r="AY61" s="42"/>
-      <c r="AZ61" s="42"/>
-      <c r="BA61" s="42"/>
-      <c r="BB61" s="42"/>
-      <c r="BC61" s="42"/>
-      <c r="BD61" s="42"/>
-      <c r="BE61" s="42"/>
-      <c r="BF61" s="42"/>
-      <c r="BG61" s="42"/>
-      <c r="BH61" s="42"/>
-      <c r="BI61" s="42"/>
-      <c r="BJ61" s="42"/>
-      <c r="BK61" s="42"/>
-      <c r="BL61" s="42"/>
+    <row r="61" ht="15.75" spans="36:64">
+      <c r="AJ61" s="56"/>
+      <c r="AK61" s="55"/>
+      <c r="AL61" s="55"/>
+      <c r="AM61" s="55"/>
+      <c r="AN61" s="55"/>
+      <c r="AO61" s="55"/>
+      <c r="AP61" s="55"/>
+      <c r="AQ61" s="55"/>
+      <c r="AR61" s="55"/>
+      <c r="AS61" s="55"/>
+      <c r="AT61" s="55"/>
+      <c r="AU61" s="55"/>
+      <c r="AV61" s="55"/>
+      <c r="AW61" s="55"/>
+      <c r="AX61" s="55"/>
+      <c r="AY61" s="55"/>
+      <c r="AZ61" s="55"/>
+      <c r="BA61" s="55"/>
+      <c r="BB61" s="55"/>
+      <c r="BC61" s="55"/>
+      <c r="BD61" s="55"/>
+      <c r="BE61" s="55"/>
+      <c r="BF61" s="55"/>
+      <c r="BG61" s="55"/>
+      <c r="BH61" s="55"/>
+      <c r="BI61" s="55"/>
+      <c r="BJ61" s="55"/>
+      <c r="BK61" s="55"/>
+      <c r="BL61" s="55"/>
     </row>
-    <row r="62" spans="36:64" ht="15.75">
-      <c r="AJ62" s="43"/>
-      <c r="AK62" s="42"/>
-      <c r="AL62" s="42"/>
-      <c r="AM62" s="42"/>
-      <c r="AN62" s="42"/>
-      <c r="AO62" s="42"/>
-      <c r="AP62" s="42"/>
-      <c r="AQ62" s="42"/>
-      <c r="AR62" s="42"/>
-      <c r="AS62" s="42"/>
-      <c r="AT62" s="42"/>
-      <c r="AU62" s="42"/>
-      <c r="AV62" s="42"/>
-      <c r="AW62" s="42"/>
-      <c r="AX62" s="42"/>
-      <c r="AY62" s="42"/>
-      <c r="AZ62" s="42"/>
-      <c r="BA62" s="42"/>
-      <c r="BB62" s="42"/>
-      <c r="BC62" s="42"/>
-      <c r="BD62" s="42"/>
-      <c r="BE62" s="42"/>
-      <c r="BF62" s="42"/>
-      <c r="BG62" s="42"/>
-      <c r="BH62" s="42"/>
-      <c r="BI62" s="42"/>
-      <c r="BJ62" s="42"/>
-      <c r="BK62" s="42"/>
-      <c r="BL62" s="42"/>
+    <row r="62" ht="15.75" spans="36:64">
+      <c r="AJ62" s="56"/>
+      <c r="AK62" s="55"/>
+      <c r="AL62" s="55"/>
+      <c r="AM62" s="55"/>
+      <c r="AN62" s="55"/>
+      <c r="AO62" s="55"/>
+      <c r="AP62" s="55"/>
+      <c r="AQ62" s="55"/>
+      <c r="AR62" s="55"/>
+      <c r="AS62" s="55"/>
+      <c r="AT62" s="55"/>
+      <c r="AU62" s="55"/>
+      <c r="AV62" s="55"/>
+      <c r="AW62" s="55"/>
+      <c r="AX62" s="55"/>
+      <c r="AY62" s="55"/>
+      <c r="AZ62" s="55"/>
+      <c r="BA62" s="55"/>
+      <c r="BB62" s="55"/>
+      <c r="BC62" s="55"/>
+      <c r="BD62" s="55"/>
+      <c r="BE62" s="55"/>
+      <c r="BF62" s="55"/>
+      <c r="BG62" s="55"/>
+      <c r="BH62" s="55"/>
+      <c r="BI62" s="55"/>
+      <c r="BJ62" s="55"/>
+      <c r="BK62" s="55"/>
+      <c r="BL62" s="55"/>
     </row>
-    <row r="63" spans="36:64" ht="15.75">
-      <c r="AJ63" s="43"/>
-      <c r="AK63" s="42"/>
-      <c r="AL63" s="42"/>
-      <c r="AM63" s="42"/>
-      <c r="AN63" s="42"/>
-      <c r="AO63" s="42"/>
-      <c r="AP63" s="42"/>
-      <c r="AQ63" s="42"/>
-      <c r="AR63" s="42"/>
-      <c r="AS63" s="42"/>
-      <c r="AT63" s="42"/>
-      <c r="AU63" s="42"/>
-      <c r="AV63" s="42"/>
-      <c r="AW63" s="42"/>
-      <c r="AX63" s="42"/>
-      <c r="AY63" s="42"/>
-      <c r="AZ63" s="42"/>
-      <c r="BA63" s="42"/>
-      <c r="BB63" s="42"/>
-      <c r="BC63" s="42"/>
-      <c r="BD63" s="42"/>
-      <c r="BE63" s="42"/>
-      <c r="BF63" s="42"/>
-      <c r="BG63" s="42"/>
-      <c r="BH63" s="42"/>
-      <c r="BI63" s="42"/>
-      <c r="BJ63" s="42"/>
-      <c r="BK63" s="42"/>
-      <c r="BL63" s="42"/>
+    <row r="63" ht="15.75" spans="36:64">
+      <c r="AJ63" s="56"/>
+      <c r="AK63" s="55"/>
+      <c r="AL63" s="55"/>
+      <c r="AM63" s="55"/>
+      <c r="AN63" s="55"/>
+      <c r="AO63" s="55"/>
+      <c r="AP63" s="55"/>
+      <c r="AQ63" s="55"/>
+      <c r="AR63" s="55"/>
+      <c r="AS63" s="55"/>
+      <c r="AT63" s="55"/>
+      <c r="AU63" s="55"/>
+      <c r="AV63" s="55"/>
+      <c r="AW63" s="55"/>
+      <c r="AX63" s="55"/>
+      <c r="AY63" s="55"/>
+      <c r="AZ63" s="55"/>
+      <c r="BA63" s="55"/>
+      <c r="BB63" s="55"/>
+      <c r="BC63" s="55"/>
+      <c r="BD63" s="55"/>
+      <c r="BE63" s="55"/>
+      <c r="BF63" s="55"/>
+      <c r="BG63" s="55"/>
+      <c r="BH63" s="55"/>
+      <c r="BI63" s="55"/>
+      <c r="BJ63" s="55"/>
+      <c r="BK63" s="55"/>
+      <c r="BL63" s="55"/>
     </row>
-    <row r="64" spans="36:64" ht="15.75">
-      <c r="AJ64" s="43"/>
-      <c r="AK64" s="42"/>
-      <c r="AL64" s="42"/>
-      <c r="AM64" s="42"/>
-      <c r="AN64" s="42"/>
-      <c r="AO64" s="42"/>
-      <c r="AP64" s="42"/>
-      <c r="AQ64" s="42"/>
-      <c r="AR64" s="42"/>
-      <c r="AS64" s="42"/>
-      <c r="AT64" s="42"/>
-      <c r="AU64" s="42"/>
-      <c r="AV64" s="42"/>
-      <c r="AW64" s="42"/>
-      <c r="AX64" s="42"/>
-      <c r="AY64" s="42"/>
-      <c r="AZ64" s="42"/>
-      <c r="BA64" s="42"/>
-      <c r="BB64" s="42"/>
-      <c r="BC64" s="42"/>
-      <c r="BD64" s="42"/>
-      <c r="BE64" s="42"/>
-      <c r="BF64" s="42"/>
-      <c r="BG64" s="42"/>
-      <c r="BH64" s="42"/>
-      <c r="BI64" s="42"/>
-      <c r="BJ64" s="42"/>
-      <c r="BK64" s="42"/>
-      <c r="BL64" s="42"/>
+    <row r="64" ht="15.75" spans="36:64">
+      <c r="AJ64" s="56"/>
+      <c r="AK64" s="55"/>
+      <c r="AL64" s="55"/>
+      <c r="AM64" s="55"/>
+      <c r="AN64" s="55"/>
+      <c r="AO64" s="55"/>
+      <c r="AP64" s="55"/>
+      <c r="AQ64" s="55"/>
+      <c r="AR64" s="55"/>
+      <c r="AS64" s="55"/>
+      <c r="AT64" s="55"/>
+      <c r="AU64" s="55"/>
+      <c r="AV64" s="55"/>
+      <c r="AW64" s="55"/>
+      <c r="AX64" s="55"/>
+      <c r="AY64" s="55"/>
+      <c r="AZ64" s="55"/>
+      <c r="BA64" s="55"/>
+      <c r="BB64" s="55"/>
+      <c r="BC64" s="55"/>
+      <c r="BD64" s="55"/>
+      <c r="BE64" s="55"/>
+      <c r="BF64" s="55"/>
+      <c r="BG64" s="55"/>
+      <c r="BH64" s="55"/>
+      <c r="BI64" s="55"/>
+      <c r="BJ64" s="55"/>
+      <c r="BK64" s="55"/>
+      <c r="BL64" s="55"/>
     </row>
-    <row r="65" spans="36:64" ht="15.75">
-      <c r="AJ65" s="43"/>
-      <c r="AK65" s="42"/>
-      <c r="AL65" s="42"/>
-      <c r="AM65" s="42"/>
-      <c r="AN65" s="42"/>
-      <c r="AO65" s="42"/>
-      <c r="AP65" s="42"/>
-      <c r="AQ65" s="42"/>
-      <c r="AR65" s="42"/>
-      <c r="AS65" s="42"/>
-      <c r="AT65" s="42"/>
-      <c r="AU65" s="42"/>
-      <c r="AV65" s="42"/>
-      <c r="AW65" s="42"/>
-      <c r="AX65" s="42"/>
-      <c r="AY65" s="42"/>
-      <c r="AZ65" s="42"/>
-      <c r="BA65" s="42"/>
-      <c r="BB65" s="42"/>
-      <c r="BC65" s="42"/>
-      <c r="BD65" s="42"/>
-      <c r="BE65" s="42"/>
-      <c r="BF65" s="42"/>
-      <c r="BG65" s="42"/>
-      <c r="BH65" s="42"/>
-      <c r="BI65" s="42"/>
-      <c r="BJ65" s="42"/>
-      <c r="BK65" s="42"/>
-      <c r="BL65" s="42"/>
+    <row r="65" ht="15.75" spans="36:64">
+      <c r="AJ65" s="56"/>
+      <c r="AK65" s="55"/>
+      <c r="AL65" s="55"/>
+      <c r="AM65" s="55"/>
+      <c r="AN65" s="55"/>
+      <c r="AO65" s="55"/>
+      <c r="AP65" s="55"/>
+      <c r="AQ65" s="55"/>
+      <c r="AR65" s="55"/>
+      <c r="AS65" s="55"/>
+      <c r="AT65" s="55"/>
+      <c r="AU65" s="55"/>
+      <c r="AV65" s="55"/>
+      <c r="AW65" s="55"/>
+      <c r="AX65" s="55"/>
+      <c r="AY65" s="55"/>
+      <c r="AZ65" s="55"/>
+      <c r="BA65" s="55"/>
+      <c r="BB65" s="55"/>
+      <c r="BC65" s="55"/>
+      <c r="BD65" s="55"/>
+      <c r="BE65" s="55"/>
+      <c r="BF65" s="55"/>
+      <c r="BG65" s="55"/>
+      <c r="BH65" s="55"/>
+      <c r="BI65" s="55"/>
+      <c r="BJ65" s="55"/>
+      <c r="BK65" s="55"/>
+      <c r="BL65" s="55"/>
     </row>
-    <row r="66" spans="36:64" ht="15.75">
-      <c r="AJ66" s="43"/>
-      <c r="AK66" s="42"/>
-      <c r="AL66" s="42"/>
-      <c r="AM66" s="42"/>
-      <c r="AN66" s="42"/>
-      <c r="AO66" s="42"/>
-      <c r="AP66" s="42"/>
-      <c r="AQ66" s="42"/>
-      <c r="AR66" s="42"/>
-      <c r="AS66" s="42"/>
-      <c r="AT66" s="42"/>
-      <c r="AU66" s="42"/>
-      <c r="AV66" s="42"/>
-      <c r="AW66" s="42"/>
-      <c r="AX66" s="42"/>
-      <c r="AY66" s="42"/>
-      <c r="AZ66" s="42"/>
-      <c r="BA66" s="42"/>
-      <c r="BB66" s="42"/>
-      <c r="BC66" s="42"/>
-      <c r="BD66" s="42"/>
-      <c r="BE66" s="42"/>
-      <c r="BF66" s="42"/>
-      <c r="BG66" s="42"/>
-      <c r="BH66" s="42"/>
-      <c r="BI66" s="42"/>
-      <c r="BJ66" s="42"/>
-      <c r="BK66" s="42"/>
-      <c r="BL66" s="42"/>
+    <row r="66" ht="15.75" spans="36:64">
+      <c r="AJ66" s="56"/>
+      <c r="AK66" s="55"/>
+      <c r="AL66" s="55"/>
+      <c r="AM66" s="55"/>
+      <c r="AN66" s="55"/>
+      <c r="AO66" s="55"/>
+      <c r="AP66" s="55"/>
+      <c r="AQ66" s="55"/>
+      <c r="AR66" s="55"/>
+      <c r="AS66" s="55"/>
+      <c r="AT66" s="55"/>
+      <c r="AU66" s="55"/>
+      <c r="AV66" s="55"/>
+      <c r="AW66" s="55"/>
+      <c r="AX66" s="55"/>
+      <c r="AY66" s="55"/>
+      <c r="AZ66" s="55"/>
+      <c r="BA66" s="55"/>
+      <c r="BB66" s="55"/>
+      <c r="BC66" s="55"/>
+      <c r="BD66" s="55"/>
+      <c r="BE66" s="55"/>
+      <c r="BF66" s="55"/>
+      <c r="BG66" s="55"/>
+      <c r="BH66" s="55"/>
+      <c r="BI66" s="55"/>
+      <c r="BJ66" s="55"/>
+      <c r="BK66" s="55"/>
+      <c r="BL66" s="55"/>
     </row>
-    <row r="67" spans="36:64" ht="15.75">
-      <c r="AJ67" s="43"/>
-      <c r="AK67" s="42"/>
-      <c r="AL67" s="42"/>
-      <c r="AM67" s="42"/>
-      <c r="AN67" s="42"/>
-      <c r="AO67" s="42"/>
-      <c r="AP67" s="42"/>
-      <c r="AQ67" s="42"/>
-      <c r="AR67" s="42"/>
-      <c r="AS67" s="42"/>
-      <c r="AT67" s="42"/>
-      <c r="AU67" s="42"/>
-      <c r="AV67" s="42"/>
-      <c r="AW67" s="42"/>
-      <c r="AX67" s="42"/>
-      <c r="AY67" s="42"/>
-      <c r="AZ67" s="42"/>
-      <c r="BA67" s="42"/>
-      <c r="BB67" s="42"/>
-      <c r="BC67" s="42"/>
-      <c r="BD67" s="42"/>
-      <c r="BE67" s="42"/>
-      <c r="BF67" s="42"/>
-      <c r="BG67" s="42"/>
-      <c r="BH67" s="42"/>
-      <c r="BI67" s="42"/>
-      <c r="BJ67" s="42"/>
-      <c r="BK67" s="42"/>
-      <c r="BL67" s="42"/>
+    <row r="67" ht="15.75" spans="36:64">
+      <c r="AJ67" s="56"/>
+      <c r="AK67" s="55"/>
+      <c r="AL67" s="55"/>
+      <c r="AM67" s="55"/>
+      <c r="AN67" s="55"/>
+      <c r="AO67" s="55"/>
+      <c r="AP67" s="55"/>
+      <c r="AQ67" s="55"/>
+      <c r="AR67" s="55"/>
+      <c r="AS67" s="55"/>
+      <c r="AT67" s="55"/>
+      <c r="AU67" s="55"/>
+      <c r="AV67" s="55"/>
+      <c r="AW67" s="55"/>
+      <c r="AX67" s="55"/>
+      <c r="AY67" s="55"/>
+      <c r="AZ67" s="55"/>
+      <c r="BA67" s="55"/>
+      <c r="BB67" s="55"/>
+      <c r="BC67" s="55"/>
+      <c r="BD67" s="55"/>
+      <c r="BE67" s="55"/>
+      <c r="BF67" s="55"/>
+      <c r="BG67" s="55"/>
+      <c r="BH67" s="55"/>
+      <c r="BI67" s="55"/>
+      <c r="BJ67" s="55"/>
+      <c r="BK67" s="55"/>
+      <c r="BL67" s="55"/>
     </row>
-    <row r="68" spans="36:64" ht="15.75">
-      <c r="AJ68" s="43"/>
-      <c r="AK68" s="42"/>
-      <c r="AL68" s="42"/>
-      <c r="AM68" s="42"/>
-      <c r="AN68" s="42"/>
-      <c r="AO68" s="42"/>
-      <c r="AP68" s="42"/>
-      <c r="AQ68" s="42"/>
-      <c r="AR68" s="42"/>
-      <c r="AS68" s="42"/>
-      <c r="AT68" s="42"/>
-      <c r="AU68" s="42"/>
-      <c r="AV68" s="42"/>
-      <c r="AW68" s="42"/>
-      <c r="AX68" s="42"/>
-      <c r="AY68" s="42"/>
-      <c r="AZ68" s="42"/>
-      <c r="BA68" s="42"/>
-      <c r="BB68" s="42"/>
-      <c r="BC68" s="42"/>
-      <c r="BD68" s="42"/>
-      <c r="BE68" s="42"/>
-      <c r="BF68" s="42"/>
-      <c r="BG68" s="42"/>
-      <c r="BH68" s="42"/>
-      <c r="BI68" s="42"/>
-      <c r="BJ68" s="42"/>
-      <c r="BK68" s="42"/>
-      <c r="BL68" s="42"/>
+    <row r="68" ht="15.75" spans="36:64">
+      <c r="AJ68" s="56"/>
+      <c r="AK68" s="55"/>
+      <c r="AL68" s="55"/>
+      <c r="AM68" s="55"/>
+      <c r="AN68" s="55"/>
+      <c r="AO68" s="55"/>
+      <c r="AP68" s="55"/>
+      <c r="AQ68" s="55"/>
+      <c r="AR68" s="55"/>
+      <c r="AS68" s="55"/>
+      <c r="AT68" s="55"/>
+      <c r="AU68" s="55"/>
+      <c r="AV68" s="55"/>
+      <c r="AW68" s="55"/>
+      <c r="AX68" s="55"/>
+      <c r="AY68" s="55"/>
+      <c r="AZ68" s="55"/>
+      <c r="BA68" s="55"/>
+      <c r="BB68" s="55"/>
+      <c r="BC68" s="55"/>
+      <c r="BD68" s="55"/>
+      <c r="BE68" s="55"/>
+      <c r="BF68" s="55"/>
+      <c r="BG68" s="55"/>
+      <c r="BH68" s="55"/>
+      <c r="BI68" s="55"/>
+      <c r="BJ68" s="55"/>
+      <c r="BK68" s="55"/>
+      <c r="BL68" s="55"/>
     </row>
-    <row r="69" spans="36:64" ht="15.75">
-      <c r="AJ69" s="43"/>
-      <c r="AK69" s="42"/>
-      <c r="AL69" s="42"/>
-      <c r="AM69" s="42"/>
-      <c r="AN69" s="42"/>
-      <c r="AO69" s="42"/>
-      <c r="AP69" s="42"/>
-      <c r="AQ69" s="42"/>
-      <c r="AR69" s="42"/>
-      <c r="AS69" s="42"/>
-      <c r="AT69" s="42"/>
-      <c r="AU69" s="42"/>
-      <c r="AV69" s="42"/>
-      <c r="AW69" s="42"/>
-      <c r="AX69" s="42"/>
-      <c r="AY69" s="42"/>
-      <c r="AZ69" s="42"/>
-      <c r="BA69" s="42"/>
-      <c r="BB69" s="42"/>
-      <c r="BC69" s="42"/>
-      <c r="BD69" s="42"/>
-      <c r="BE69" s="42"/>
-      <c r="BF69" s="42"/>
-      <c r="BG69" s="42"/>
-      <c r="BH69" s="42"/>
-      <c r="BI69" s="42"/>
-      <c r="BJ69" s="42"/>
-      <c r="BK69" s="42"/>
-      <c r="BL69" s="42"/>
+    <row r="69" ht="15.75" spans="36:64">
+      <c r="AJ69" s="56"/>
+      <c r="AK69" s="55"/>
+      <c r="AL69" s="55"/>
+      <c r="AM69" s="55"/>
+      <c r="AN69" s="55"/>
+      <c r="AO69" s="55"/>
+      <c r="AP69" s="55"/>
+      <c r="AQ69" s="55"/>
+      <c r="AR69" s="55"/>
+      <c r="AS69" s="55"/>
+      <c r="AT69" s="55"/>
+      <c r="AU69" s="55"/>
+      <c r="AV69" s="55"/>
+      <c r="AW69" s="55"/>
+      <c r="AX69" s="55"/>
+      <c r="AY69" s="55"/>
+      <c r="AZ69" s="55"/>
+      <c r="BA69" s="55"/>
+      <c r="BB69" s="55"/>
+      <c r="BC69" s="55"/>
+      <c r="BD69" s="55"/>
+      <c r="BE69" s="55"/>
+      <c r="BF69" s="55"/>
+      <c r="BG69" s="55"/>
+      <c r="BH69" s="55"/>
+      <c r="BI69" s="55"/>
+      <c r="BJ69" s="55"/>
+      <c r="BK69" s="55"/>
+      <c r="BL69" s="55"/>
     </row>
-    <row r="70" spans="36:64" ht="15.75">
-      <c r="AJ70" s="44"/>
-      <c r="AK70" s="42"/>
-      <c r="AL70" s="42"/>
-      <c r="AM70" s="42"/>
-      <c r="AN70" s="42"/>
-      <c r="AO70" s="42"/>
-      <c r="AP70" s="42"/>
-      <c r="AQ70" s="42"/>
-      <c r="AR70" s="42"/>
-      <c r="AS70" s="42"/>
-      <c r="AT70" s="42"/>
-      <c r="AU70" s="42"/>
-      <c r="AV70" s="42"/>
-      <c r="AW70" s="42"/>
-      <c r="AX70" s="42"/>
-      <c r="AY70" s="42"/>
-      <c r="AZ70" s="42"/>
-      <c r="BA70" s="42"/>
-      <c r="BB70" s="42"/>
-      <c r="BC70" s="42"/>
-      <c r="BD70" s="42"/>
-      <c r="BE70" s="42"/>
-      <c r="BF70" s="42"/>
-      <c r="BG70" s="42"/>
-      <c r="BH70" s="42"/>
-      <c r="BI70" s="42"/>
-      <c r="BJ70" s="42"/>
-      <c r="BK70" s="42"/>
-      <c r="BL70" s="42"/>
+    <row r="70" ht="15.75" spans="36:64">
+      <c r="AJ70" s="57"/>
+      <c r="AK70" s="55"/>
+      <c r="AL70" s="55"/>
+      <c r="AM70" s="55"/>
+      <c r="AN70" s="55"/>
+      <c r="AO70" s="55"/>
+      <c r="AP70" s="55"/>
+      <c r="AQ70" s="55"/>
+      <c r="AR70" s="55"/>
+      <c r="AS70" s="55"/>
+      <c r="AT70" s="55"/>
+      <c r="AU70" s="55"/>
+      <c r="AV70" s="55"/>
+      <c r="AW70" s="55"/>
+      <c r="AX70" s="55"/>
+      <c r="AY70" s="55"/>
+      <c r="AZ70" s="55"/>
+      <c r="BA70" s="55"/>
+      <c r="BB70" s="55"/>
+      <c r="BC70" s="55"/>
+      <c r="BD70" s="55"/>
+      <c r="BE70" s="55"/>
+      <c r="BF70" s="55"/>
+      <c r="BG70" s="55"/>
+      <c r="BH70" s="55"/>
+      <c r="BI70" s="55"/>
+      <c r="BJ70" s="55"/>
+      <c r="BK70" s="55"/>
+      <c r="BL70" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+      <selection activeCell="A1" sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="48">
+    <row r="1" ht="48" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -10615,20 +11222,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -10639,20 +11247,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/6高炉/高炉月报表.xlsx
+++ b/excel/finished/6高炉/高炉月报表.xlsx
@@ -331,19 +331,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0;_�"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="0;_찀"/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0;_�"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0;_찀"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,12 +391,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -427,16 +421,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,52 +451,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,10 +481,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,7 +512,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,7 +520,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,22 +535,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -605,7 +592,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,13 +616,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,19 +688,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,31 +730,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,79 +760,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,17 +1080,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,18 +1115,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,11 +1141,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,10 +1168,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1193,136 +1180,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1385,7 +1372,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1393,27 +1380,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1429,15 +1416,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1445,15 +1432,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1468,12 +1455,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1496,21 +1483,21 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1920,9 +1907,9 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
-      <c r="S1" s="38">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="S1" s="38" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="T1" s="38"/>
       <c r="U1" s="38"/>

--- a/excel/finished/6高炉/高炉月报表.xlsx
+++ b/excel/finished/6高炉/高炉月报表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\pro\steel\excel\finished\6高炉\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="月报表" sheetId="1" r:id="rId1"/>
@@ -15,12 +20,12 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>高炉月报表</t>
   </si>
@@ -329,21 +334,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0;_�"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0;_찀"/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="7">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0;_�"/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="0;_찀"/>
+    <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="184" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,19 +401,19 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -422,150 +423,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,198 +457,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1064,254 +749,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1336,23 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1372,7 +798,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1380,27 +806,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1416,15 +842,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1432,48 +858,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1493,78 +898,75 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
+    <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="49"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="月報表"/>
@@ -1867,16 +1269,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:V1"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1886,205 +1288,205 @@
     <col min="4" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="26.25" spans="1:36">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:67" s="8" customFormat="1" ht="25.5">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="38" t="str">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="46" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
     </row>
-    <row r="2" s="8" customFormat="1" ht="19.5" customHeight="1" spans="1:36">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:67" s="8" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="41" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="41" t="s">
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="46" t="s">
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="46" t="s">
+      <c r="AG2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="46" t="s">
+      <c r="AH2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="46" t="s">
+      <c r="AI2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="49" t="s">
+      <c r="AJ2" s="57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" ht="36.75" spans="1:36">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:67" s="8" customFormat="1" ht="36">
+      <c r="A3" s="54"/>
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="42" t="s">
+      <c r="X3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="42" t="s">
+      <c r="Y3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="42" t="s">
+      <c r="Z3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="42" t="s">
+      <c r="AA3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AB3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="16" t="s">
+      <c r="AC3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="16" t="s">
+      <c r="AD3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AE3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="50"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="58"/>
     </row>
-    <row r="4" s="8" customFormat="1" ht="48" spans="1:36">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:67" s="8" customFormat="1" ht="0.75" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2102,13 +1504,13 @@
       <c r="F4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -2120,13 +1522,13 @@
       <c r="L4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -2193,23 +1595,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" ht="14.25" spans="1:36">
-      <c r="A5" s="18">
+    <row r="5" spans="1:67" s="8" customFormat="1" ht="14.25">
+      <c r="A5" s="13">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="str">
+      <c r="B5" s="14" t="str">
         <f>IF(_tag_month_all!A2="","",_tag_month_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="19" t="str">
+      <c r="C5" s="14" t="str">
         <f>IF(_tag_month_all!B2="","",_tag_month_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="19" t="str">
+      <c r="D5" s="14" t="str">
         <f>IF(_tag_month_all!C2="","",_tag_month_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="19" t="str">
+      <c r="E5" s="14" t="str">
         <f>IF(_tag_month_all!D2="","",_tag_month_all!D2)</f>
         <v/>
       </c>
@@ -2217,7 +1619,7 @@
         <f>IF(_tag_month_all!E2="","",_tag_month_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="20" t="str">
+      <c r="G5" s="15" t="str">
         <f>IF(_tag_month_all!F2="","",_tag_month_all!F2)</f>
         <v/>
       </c>
@@ -2225,11 +1627,11 @@
         <f>IF(_tag_month_all!G2="","",_tag_month_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="19" t="str">
+      <c r="I5" s="14" t="str">
         <f>IF(_tag_month_all!H2="","",_tag_month_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="19" t="str">
+      <c r="J5" s="14" t="str">
         <f>IF(_tag_month_all!I2="","",_tag_month_all!I2)</f>
         <v/>
       </c>
@@ -2237,7 +1639,7 @@
         <f>IF(_tag_month_all!J2="","",_tag_month_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="19" t="str">
+      <c r="L5" s="14" t="str">
         <f>IF(_tag_month_all!K2="","",_tag_month_all!K2)</f>
         <v/>
       </c>
@@ -2245,116 +1647,116 @@
         <f>IF(_tag_month_all!L2="","",_tag_month_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="19" t="str">
+      <c r="N5" s="14" t="str">
         <f>IF(_tag_month_all!M2="","",_tag_month_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="19" t="str">
+      <c r="O5" s="14" t="str">
         <f>IF(_tag_month_all!N2="","",_tag_month_all!N2)</f>
         <v/>
       </c>
-      <c r="P5" s="19" t="str">
+      <c r="P5" s="14" t="str">
         <f>IF(_tag_month_all!O2="","",_tag_month_all!O2)</f>
         <v/>
       </c>
-      <c r="Q5" s="19" t="str">
+      <c r="Q5" s="14" t="str">
         <f>IF(_tag_month_all!P2="","",_tag_month_all!P2)</f>
         <v/>
       </c>
-      <c r="R5" s="19" t="str">
+      <c r="R5" s="14" t="str">
         <f>IF(_tag_month_all!Q2="","",_tag_month_all!Q2)</f>
         <v/>
       </c>
-      <c r="S5" s="19" t="str">
+      <c r="S5" s="14" t="str">
         <f>IF(_tag_month_all!R2="","",_tag_month_all!R2)</f>
         <v/>
       </c>
-      <c r="T5" s="19" t="str">
+      <c r="T5" s="14" t="str">
         <f>IF(_tag_month_all!S2="","",_tag_month_all!S2)</f>
         <v/>
       </c>
-      <c r="U5" s="19" t="str">
+      <c r="U5" s="14" t="str">
         <f>IF(_tag_month_all!T2="","",_tag_month_all!T2)</f>
         <v/>
       </c>
-      <c r="V5" s="19" t="str">
+      <c r="V5" s="14" t="str">
         <f>IF(_tag_month_all!U2="","",_tag_month_all!U2)</f>
         <v/>
       </c>
-      <c r="W5" s="19" t="str">
+      <c r="W5" s="14" t="str">
         <f>IF(_tag_month_all!V2="","",_tag_month_all!V2)</f>
         <v/>
       </c>
-      <c r="X5" s="19" t="str">
+      <c r="X5" s="14" t="str">
         <f>IF(_tag_month_all!W2="","",_tag_month_all!W2)</f>
         <v/>
       </c>
-      <c r="Y5" s="19" t="str">
+      <c r="Y5" s="14" t="str">
         <f>IF(_tag_month_all!X2="","",_tag_month_all!X2)</f>
         <v/>
       </c>
-      <c r="Z5" s="19" t="str">
+      <c r="Z5" s="14" t="str">
         <f>IF(_tag_month_all!Y2="","",_tag_month_all!Y2)</f>
         <v/>
       </c>
-      <c r="AA5" s="19" t="str">
+      <c r="AA5" s="14" t="str">
         <f>IF(_tag_month_all!Z2="","",_tag_month_all!Z2)</f>
         <v/>
       </c>
-      <c r="AB5" s="47" t="str">
+      <c r="AB5" s="36" t="str">
         <f>IF(_tag_month_all!AA2="","",_tag_month_all!AA2)</f>
         <v/>
       </c>
-      <c r="AC5" s="48" t="str">
+      <c r="AC5" s="37" t="str">
         <f>IF(_tag_month_all!AB2="","",_tag_month_all!AB2)</f>
         <v/>
       </c>
-      <c r="AD5" s="48" t="str">
+      <c r="AD5" s="37" t="str">
         <f>IF(_tag_month_all!AC2="","",_tag_month_all!AC2)</f>
         <v/>
       </c>
-      <c r="AE5" s="48" t="str">
+      <c r="AE5" s="37" t="str">
         <f>IF(_tag_month_all!AD2="","",_tag_month_all!AD2)</f>
         <v/>
       </c>
-      <c r="AF5" s="19" t="str">
+      <c r="AF5" s="14" t="str">
         <f>IF(_tag_month_all!AE2="","",_tag_month_all!AE2)</f>
         <v/>
       </c>
-      <c r="AG5" s="19" t="str">
+      <c r="AG5" s="14" t="str">
         <f>IF(_tag_month_all!AF2="","",_tag_month_all!AF2)</f>
         <v/>
       </c>
-      <c r="AH5" s="19" t="str">
+      <c r="AH5" s="14" t="str">
         <f>IF(_tag_month_all!AG2="","",_tag_month_all!AG2)</f>
         <v/>
       </c>
-      <c r="AI5" s="19" t="str">
+      <c r="AI5" s="14" t="str">
         <f>IF(_tag_month_all!AH2="","",_tag_month_all!AH2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="51" t="str">
+      <c r="AJ5" s="38" t="str">
         <f>IF(_tag_month_all!AI2="","",_tag_month_all!AI2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" ht="14.25" spans="1:36">
-      <c r="A6" s="18">
+    <row r="6" spans="1:67" s="8" customFormat="1" ht="14.25">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="14" t="str">
         <f>IF(_tag_month_all!A3="","",_tag_month_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="19" t="str">
+      <c r="C6" s="14" t="str">
         <f>IF(_tag_month_all!B3="","",_tag_month_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="19" t="str">
+      <c r="D6" s="14" t="str">
         <f>IF(_tag_month_all!C3="","",_tag_month_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="19" t="str">
+      <c r="E6" s="14" t="str">
         <f>IF(_tag_month_all!D3="","",_tag_month_all!D3)</f>
         <v/>
       </c>
@@ -2362,7 +1764,7 @@
         <f>IF(_tag_month_all!E3="","",_tag_month_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="20" t="str">
+      <c r="G6" s="15" t="str">
         <f>IF(_tag_month_all!F3="","",_tag_month_all!F3)</f>
         <v/>
       </c>
@@ -2370,11 +1772,11 @@
         <f>IF(_tag_month_all!G3="","",_tag_month_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="19" t="str">
+      <c r="I6" s="14" t="str">
         <f>IF(_tag_month_all!H3="","",_tag_month_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="19" t="str">
+      <c r="J6" s="14" t="str">
         <f>IF(_tag_month_all!I3="","",_tag_month_all!I3)</f>
         <v/>
       </c>
@@ -2382,7 +1784,7 @@
         <f>IF(_tag_month_all!J3="","",_tag_month_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="19" t="str">
+      <c r="L6" s="14" t="str">
         <f>IF(_tag_month_all!K3="","",_tag_month_all!K3)</f>
         <v/>
       </c>
@@ -2390,240 +1792,240 @@
         <f>IF(_tag_month_all!L3="","",_tag_month_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="19" t="str">
+      <c r="N6" s="14" t="str">
         <f>IF(_tag_month_all!M3="","",_tag_month_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="19" t="str">
+      <c r="O6" s="14" t="str">
         <f>IF(_tag_month_all!N3="","",_tag_month_all!N3)</f>
         <v/>
       </c>
-      <c r="P6" s="19" t="str">
+      <c r="P6" s="14" t="str">
         <f>IF(_tag_month_all!O3="","",_tag_month_all!O3)</f>
         <v/>
       </c>
-      <c r="Q6" s="19" t="str">
+      <c r="Q6" s="14" t="str">
         <f>IF(_tag_month_all!P3="","",_tag_month_all!P3)</f>
         <v/>
       </c>
-      <c r="R6" s="19" t="str">
+      <c r="R6" s="14" t="str">
         <f>IF(_tag_month_all!Q3="","",_tag_month_all!Q3)</f>
         <v/>
       </c>
-      <c r="S6" s="19" t="str">
+      <c r="S6" s="14" t="str">
         <f>IF(_tag_month_all!R3="","",_tag_month_all!R3)</f>
         <v/>
       </c>
-      <c r="T6" s="19" t="str">
+      <c r="T6" s="14" t="str">
         <f>IF(_tag_month_all!S3="","",_tag_month_all!S3)</f>
         <v/>
       </c>
-      <c r="U6" s="19" t="str">
+      <c r="U6" s="14" t="str">
         <f>IF(_tag_month_all!T3="","",_tag_month_all!T3)</f>
         <v/>
       </c>
-      <c r="V6" s="19" t="str">
+      <c r="V6" s="14" t="str">
         <f>IF(_tag_month_all!U3="","",_tag_month_all!U3)</f>
         <v/>
       </c>
-      <c r="W6" s="19" t="str">
+      <c r="W6" s="14" t="str">
         <f>IF(_tag_month_all!V3="","",_tag_month_all!V3)</f>
         <v/>
       </c>
-      <c r="X6" s="19" t="str">
+      <c r="X6" s="14" t="str">
         <f>IF(_tag_month_all!W3="","",_tag_month_all!W3)</f>
         <v/>
       </c>
-      <c r="Y6" s="19" t="str">
+      <c r="Y6" s="14" t="str">
         <f>IF(_tag_month_all!X3="","",_tag_month_all!X3)</f>
         <v/>
       </c>
-      <c r="Z6" s="19" t="str">
+      <c r="Z6" s="14" t="str">
         <f>IF(_tag_month_all!Y3="","",_tag_month_all!Y3)</f>
         <v/>
       </c>
-      <c r="AA6" s="19" t="str">
+      <c r="AA6" s="14" t="str">
         <f>IF(_tag_month_all!Z3="","",_tag_month_all!Z3)</f>
         <v/>
       </c>
-      <c r="AB6" s="47" t="str">
+      <c r="AB6" s="36" t="str">
         <f>IF(_tag_month_all!AA3="","",_tag_month_all!AA3)</f>
         <v/>
       </c>
-      <c r="AC6" s="48" t="str">
+      <c r="AC6" s="37" t="str">
         <f>IF(_tag_month_all!AB3="","",_tag_month_all!AB3)</f>
         <v/>
       </c>
-      <c r="AD6" s="48" t="str">
+      <c r="AD6" s="37" t="str">
         <f>IF(_tag_month_all!AC3="","",_tag_month_all!AC3)</f>
         <v/>
       </c>
-      <c r="AE6" s="48" t="str">
+      <c r="AE6" s="37" t="str">
         <f>IF(_tag_month_all!AD3="","",_tag_month_all!AD3)</f>
         <v/>
       </c>
-      <c r="AF6" s="19" t="str">
+      <c r="AF6" s="14" t="str">
         <f>IF(_tag_month_all!AE3="","",_tag_month_all!AE3)</f>
         <v/>
       </c>
-      <c r="AG6" s="19" t="str">
+      <c r="AG6" s="14" t="str">
         <f>IF(_tag_month_all!AF3="","",_tag_month_all!AF3)</f>
         <v/>
       </c>
-      <c r="AH6" s="19" t="str">
+      <c r="AH6" s="14" t="str">
         <f>IF(_tag_month_all!AG3="","",_tag_month_all!AG3)</f>
         <v/>
       </c>
-      <c r="AI6" s="19" t="str">
+      <c r="AI6" s="14" t="str">
         <f>IF(_tag_month_all!AH3="","",_tag_month_all!AH3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="51" t="str">
+      <c r="AJ6" s="38" t="str">
         <f>IF(_tag_month_all!AI3="","",_tag_month_all!AI3)</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:67">
-      <c r="A7" s="18">
+    <row r="7" spans="1:67" ht="14.25">
+      <c r="A7" s="13">
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="str">
+      <c r="B7" s="16" t="str">
         <f>IF(_tag_month_all!A4="","",_tag_month_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="21" t="str">
+      <c r="C7" s="16" t="str">
         <f>IF(_tag_month_all!B4="","",_tag_month_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="22" t="str">
+      <c r="D7" s="17" t="str">
         <f>IF(_tag_month_all!C4="","",_tag_month_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="23" t="str">
+      <c r="E7" s="18" t="str">
         <f>IF(_tag_month_all!D4="","",_tag_month_all!D4)</f>
         <v/>
       </c>
-      <c r="F7" s="24" t="str">
+      <c r="F7" s="19" t="str">
         <f>IF(_tag_month_all!E4="","",_tag_month_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="25" t="str">
+      <c r="G7" s="20" t="str">
         <f>IF(_tag_month_all!F4="","",_tag_month_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="26" t="str">
+      <c r="H7" s="21" t="str">
         <f>IF(_tag_month_all!G4="","",_tag_month_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="23" t="str">
+      <c r="I7" s="18" t="str">
         <f>IF(_tag_month_all!H4="","",_tag_month_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="23" t="str">
+      <c r="J7" s="18" t="str">
         <f>IF(_tag_month_all!I4="","",_tag_month_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="32" t="str">
+      <c r="K7" s="27" t="str">
         <f>IF(_tag_month_all!J4="","",_tag_month_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="23" t="str">
+      <c r="L7" s="18" t="str">
         <f>IF(_tag_month_all!K4="","",_tag_month_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="33" t="str">
+      <c r="M7" s="28" t="str">
         <f>IF(_tag_month_all!L4="","",_tag_month_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="34" t="str">
+      <c r="N7" s="29" t="str">
         <f>IF(_tag_month_all!M4="","",_tag_month_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="35" t="str">
+      <c r="O7" s="30" t="str">
         <f>IF(_tag_month_all!N4="","",_tag_month_all!N4)</f>
         <v/>
       </c>
-      <c r="P7" s="35" t="str">
+      <c r="P7" s="30" t="str">
         <f>IF(_tag_month_all!O4="","",_tag_month_all!O4)</f>
         <v/>
       </c>
-      <c r="Q7" s="35" t="str">
+      <c r="Q7" s="30" t="str">
         <f>IF(_tag_month_all!P4="","",_tag_month_all!P4)</f>
         <v/>
       </c>
-      <c r="R7" s="43" t="str">
+      <c r="R7" s="35" t="str">
         <f>IF(_tag_month_all!Q4="","",_tag_month_all!Q4)</f>
         <v/>
       </c>
-      <c r="S7" s="43" t="str">
+      <c r="S7" s="35" t="str">
         <f>IF(_tag_month_all!R4="","",_tag_month_all!R4)</f>
         <v/>
       </c>
-      <c r="T7" s="43" t="str">
+      <c r="T7" s="35" t="str">
         <f>IF(_tag_month_all!S4="","",_tag_month_all!S4)</f>
         <v/>
       </c>
-      <c r="U7" s="43" t="str">
+      <c r="U7" s="35" t="str">
         <f>IF(_tag_month_all!T4="","",_tag_month_all!T4)</f>
         <v/>
       </c>
-      <c r="V7" s="34" t="str">
+      <c r="V7" s="29" t="str">
         <f>IF(_tag_month_all!U4="","",_tag_month_all!U4)</f>
         <v/>
       </c>
-      <c r="W7" s="35" t="str">
+      <c r="W7" s="30" t="str">
         <f>IF(_tag_month_all!V4="","",_tag_month_all!V4)</f>
         <v/>
       </c>
-      <c r="X7" s="35" t="str">
+      <c r="X7" s="30" t="str">
         <f>IF(_tag_month_all!W4="","",_tag_month_all!W4)</f>
         <v/>
       </c>
-      <c r="Y7" s="35" t="str">
+      <c r="Y7" s="30" t="str">
         <f>IF(_tag_month_all!X4="","",_tag_month_all!X4)</f>
         <v/>
       </c>
-      <c r="Z7" s="35" t="str">
+      <c r="Z7" s="30" t="str">
         <f>IF(_tag_month_all!Y4="","",_tag_month_all!Y4)</f>
         <v/>
       </c>
-      <c r="AA7" s="35" t="str">
+      <c r="AA7" s="30" t="str">
         <f>IF(_tag_month_all!Z4="","",_tag_month_all!Z4)</f>
         <v/>
       </c>
-      <c r="AB7" s="35" t="str">
+      <c r="AB7" s="30" t="str">
         <f>IF(_tag_month_all!AA4="","",_tag_month_all!AA4)</f>
         <v/>
       </c>
-      <c r="AC7" s="35" t="str">
+      <c r="AC7" s="30" t="str">
         <f>IF(_tag_month_all!AB4="","",_tag_month_all!AB4)</f>
         <v/>
       </c>
-      <c r="AD7" s="22" t="str">
+      <c r="AD7" s="17" t="str">
         <f>IF(_tag_month_all!AC4="","",_tag_month_all!AC4)</f>
         <v/>
       </c>
-      <c r="AE7" s="22" t="str">
+      <c r="AE7" s="17" t="str">
         <f>IF(_tag_month_all!AD4="","",_tag_month_all!AD4)</f>
         <v/>
       </c>
-      <c r="AF7" s="22" t="str">
+      <c r="AF7" s="17" t="str">
         <f>IF(_tag_month_all!AE4="","",_tag_month_all!AE4)</f>
         <v/>
       </c>
-      <c r="AG7" s="22" t="str">
+      <c r="AG7" s="17" t="str">
         <f>IF(_tag_month_all!AF4="","",_tag_month_all!AF4)</f>
         <v/>
       </c>
-      <c r="AH7" s="34" t="str">
+      <c r="AH7" s="29" t="str">
         <f>IF(_tag_month_all!AG4="","",_tag_month_all!AG4)</f>
         <v/>
       </c>
-      <c r="AI7" s="34" t="str">
+      <c r="AI7" s="29" t="str">
         <f>IF(_tag_month_all!AH4="","",_tag_month_all!AH4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="51" t="str">
+      <c r="AJ7" s="38" t="str">
         <f>IF(_tag_month_all!AI4="","",_tag_month_all!AI4)</f>
         <v/>
       </c>
@@ -2659,147 +2061,147 @@
       <c r="BN7" s="8"/>
       <c r="BO7" s="8"/>
     </row>
-    <row r="8" ht="14.25" spans="1:67">
-      <c r="A8" s="18">
+    <row r="8" spans="1:67" ht="14.25">
+      <c r="A8" s="13">
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="str">
+      <c r="B8" s="16" t="str">
         <f>IF(_tag_month_all!A5="","",_tag_month_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="21" t="str">
+      <c r="C8" s="16" t="str">
         <f>IF(_tag_month_all!B5="","",_tag_month_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="22" t="str">
+      <c r="D8" s="17" t="str">
         <f>IF(_tag_month_all!C5="","",_tag_month_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="23" t="str">
+      <c r="E8" s="18" t="str">
         <f>IF(_tag_month_all!D5="","",_tag_month_all!D5)</f>
         <v/>
       </c>
-      <c r="F8" s="24" t="str">
+      <c r="F8" s="19" t="str">
         <f>IF(_tag_month_all!E5="","",_tag_month_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="25" t="str">
+      <c r="G8" s="20" t="str">
         <f>IF(_tag_month_all!F5="","",_tag_month_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="26" t="str">
+      <c r="H8" s="21" t="str">
         <f>IF(_tag_month_all!G5="","",_tag_month_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="23" t="str">
+      <c r="I8" s="18" t="str">
         <f>IF(_tag_month_all!H5="","",_tag_month_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="23" t="str">
+      <c r="J8" s="18" t="str">
         <f>IF(_tag_month_all!I5="","",_tag_month_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="32" t="str">
+      <c r="K8" s="27" t="str">
         <f>IF(_tag_month_all!J5="","",_tag_month_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="23" t="str">
+      <c r="L8" s="18" t="str">
         <f>IF(_tag_month_all!K5="","",_tag_month_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="33" t="str">
+      <c r="M8" s="28" t="str">
         <f>IF(_tag_month_all!L5="","",_tag_month_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="34" t="str">
+      <c r="N8" s="29" t="str">
         <f>IF(_tag_month_all!M5="","",_tag_month_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="35" t="str">
+      <c r="O8" s="30" t="str">
         <f>IF(_tag_month_all!N5="","",_tag_month_all!N5)</f>
         <v/>
       </c>
-      <c r="P8" s="35" t="str">
+      <c r="P8" s="30" t="str">
         <f>IF(_tag_month_all!O5="","",_tag_month_all!O5)</f>
         <v/>
       </c>
-      <c r="Q8" s="35" t="str">
+      <c r="Q8" s="30" t="str">
         <f>IF(_tag_month_all!P5="","",_tag_month_all!P5)</f>
         <v/>
       </c>
-      <c r="R8" s="43" t="str">
+      <c r="R8" s="35" t="str">
         <f>IF(_tag_month_all!Q5="","",_tag_month_all!Q5)</f>
         <v/>
       </c>
-      <c r="S8" s="43" t="str">
+      <c r="S8" s="35" t="str">
         <f>IF(_tag_month_all!R5="","",_tag_month_all!R5)</f>
         <v/>
       </c>
-      <c r="T8" s="43" t="str">
+      <c r="T8" s="35" t="str">
         <f>IF(_tag_month_all!S5="","",_tag_month_all!S5)</f>
         <v/>
       </c>
-      <c r="U8" s="43" t="str">
+      <c r="U8" s="35" t="str">
         <f>IF(_tag_month_all!T5="","",_tag_month_all!T5)</f>
         <v/>
       </c>
-      <c r="V8" s="34" t="str">
+      <c r="V8" s="29" t="str">
         <f>IF(_tag_month_all!U5="","",_tag_month_all!U5)</f>
         <v/>
       </c>
-      <c r="W8" s="35" t="str">
+      <c r="W8" s="30" t="str">
         <f>IF(_tag_month_all!V5="","",_tag_month_all!V5)</f>
         <v/>
       </c>
-      <c r="X8" s="35" t="str">
+      <c r="X8" s="30" t="str">
         <f>IF(_tag_month_all!W5="","",_tag_month_all!W5)</f>
         <v/>
       </c>
-      <c r="Y8" s="35" t="str">
+      <c r="Y8" s="30" t="str">
         <f>IF(_tag_month_all!X5="","",_tag_month_all!X5)</f>
         <v/>
       </c>
-      <c r="Z8" s="35" t="str">
+      <c r="Z8" s="30" t="str">
         <f>IF(_tag_month_all!Y5="","",_tag_month_all!Y5)</f>
         <v/>
       </c>
-      <c r="AA8" s="35" t="str">
+      <c r="AA8" s="30" t="str">
         <f>IF(_tag_month_all!Z5="","",_tag_month_all!Z5)</f>
         <v/>
       </c>
-      <c r="AB8" s="35" t="str">
+      <c r="AB8" s="30" t="str">
         <f>IF(_tag_month_all!AA5="","",_tag_month_all!AA5)</f>
         <v/>
       </c>
-      <c r="AC8" s="35" t="str">
+      <c r="AC8" s="30" t="str">
         <f>IF(_tag_month_all!AB5="","",_tag_month_all!AB5)</f>
         <v/>
       </c>
-      <c r="AD8" s="22" t="str">
+      <c r="AD8" s="17" t="str">
         <f>IF(_tag_month_all!AC5="","",_tag_month_all!AC5)</f>
         <v/>
       </c>
-      <c r="AE8" s="22" t="str">
+      <c r="AE8" s="17" t="str">
         <f>IF(_tag_month_all!AD5="","",_tag_month_all!AD5)</f>
         <v/>
       </c>
-      <c r="AF8" s="22" t="str">
+      <c r="AF8" s="17" t="str">
         <f>IF(_tag_month_all!AE5="","",_tag_month_all!AE5)</f>
         <v/>
       </c>
-      <c r="AG8" s="22" t="str">
+      <c r="AG8" s="17" t="str">
         <f>IF(_tag_month_all!AF5="","",_tag_month_all!AF5)</f>
         <v/>
       </c>
-      <c r="AH8" s="34" t="str">
+      <c r="AH8" s="29" t="str">
         <f>IF(_tag_month_all!AG5="","",_tag_month_all!AG5)</f>
         <v/>
       </c>
-      <c r="AI8" s="34" t="str">
+      <c r="AI8" s="29" t="str">
         <f>IF(_tag_month_all!AH5="","",_tag_month_all!AH5)</f>
         <v/>
       </c>
-      <c r="AJ8" s="51" t="str">
+      <c r="AJ8" s="38" t="str">
         <f>IF(_tag_month_all!AI5="","",_tag_month_all!AI5)</f>
         <v/>
       </c>
@@ -2835,147 +2237,147 @@
       <c r="BN8" s="8"/>
       <c r="BO8" s="8"/>
     </row>
-    <row r="9" ht="14.25" spans="1:67">
-      <c r="A9" s="18">
+    <row r="9" spans="1:67" ht="14.25">
+      <c r="A9" s="13">
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="str">
+      <c r="B9" s="16" t="str">
         <f>IF(_tag_month_all!A6="","",_tag_month_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="21" t="str">
+      <c r="C9" s="16" t="str">
         <f>IF(_tag_month_all!B6="","",_tag_month_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="22" t="str">
+      <c r="D9" s="17" t="str">
         <f>IF(_tag_month_all!C6="","",_tag_month_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="23" t="str">
+      <c r="E9" s="18" t="str">
         <f>IF(_tag_month_all!D6="","",_tag_month_all!D6)</f>
         <v/>
       </c>
-      <c r="F9" s="24" t="str">
+      <c r="F9" s="19" t="str">
         <f>IF(_tag_month_all!E6="","",_tag_month_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="25" t="str">
+      <c r="G9" s="20" t="str">
         <f>IF(_tag_month_all!F6="","",_tag_month_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="26" t="str">
+      <c r="H9" s="21" t="str">
         <f>IF(_tag_month_all!G6="","",_tag_month_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="23" t="str">
+      <c r="I9" s="18" t="str">
         <f>IF(_tag_month_all!H6="","",_tag_month_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="23" t="str">
+      <c r="J9" s="18" t="str">
         <f>IF(_tag_month_all!I6="","",_tag_month_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="32" t="str">
+      <c r="K9" s="27" t="str">
         <f>IF(_tag_month_all!J6="","",_tag_month_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="23" t="str">
+      <c r="L9" s="18" t="str">
         <f>IF(_tag_month_all!K6="","",_tag_month_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="33" t="str">
+      <c r="M9" s="28" t="str">
         <f>IF(_tag_month_all!L6="","",_tag_month_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="34" t="str">
+      <c r="N9" s="29" t="str">
         <f>IF(_tag_month_all!M6="","",_tag_month_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="35" t="str">
+      <c r="O9" s="30" t="str">
         <f>IF(_tag_month_all!N6="","",_tag_month_all!N6)</f>
         <v/>
       </c>
-      <c r="P9" s="35" t="str">
+      <c r="P9" s="30" t="str">
         <f>IF(_tag_month_all!O6="","",_tag_month_all!O6)</f>
         <v/>
       </c>
-      <c r="Q9" s="35" t="str">
+      <c r="Q9" s="30" t="str">
         <f>IF(_tag_month_all!P6="","",_tag_month_all!P6)</f>
         <v/>
       </c>
-      <c r="R9" s="43" t="str">
+      <c r="R9" s="35" t="str">
         <f>IF(_tag_month_all!Q6="","",_tag_month_all!Q6)</f>
         <v/>
       </c>
-      <c r="S9" s="43" t="str">
+      <c r="S9" s="35" t="str">
         <f>IF(_tag_month_all!R6="","",_tag_month_all!R6)</f>
         <v/>
       </c>
-      <c r="T9" s="43" t="str">
+      <c r="T9" s="35" t="str">
         <f>IF(_tag_month_all!S6="","",_tag_month_all!S6)</f>
         <v/>
       </c>
-      <c r="U9" s="43" t="str">
+      <c r="U9" s="35" t="str">
         <f>IF(_tag_month_all!T6="","",_tag_month_all!T6)</f>
         <v/>
       </c>
-      <c r="V9" s="34" t="str">
+      <c r="V9" s="29" t="str">
         <f>IF(_tag_month_all!U6="","",_tag_month_all!U6)</f>
         <v/>
       </c>
-      <c r="W9" s="35" t="str">
+      <c r="W9" s="30" t="str">
         <f>IF(_tag_month_all!V6="","",_tag_month_all!V6)</f>
         <v/>
       </c>
-      <c r="X9" s="35" t="str">
+      <c r="X9" s="30" t="str">
         <f>IF(_tag_month_all!W6="","",_tag_month_all!W6)</f>
         <v/>
       </c>
-      <c r="Y9" s="35" t="str">
+      <c r="Y9" s="30" t="str">
         <f>IF(_tag_month_all!X6="","",_tag_month_all!X6)</f>
         <v/>
       </c>
-      <c r="Z9" s="35" t="str">
+      <c r="Z9" s="30" t="str">
         <f>IF(_tag_month_all!Y6="","",_tag_month_all!Y6)</f>
         <v/>
       </c>
-      <c r="AA9" s="35" t="str">
+      <c r="AA9" s="30" t="str">
         <f>IF(_tag_month_all!Z6="","",_tag_month_all!Z6)</f>
         <v/>
       </c>
-      <c r="AB9" s="35" t="str">
+      <c r="AB9" s="30" t="str">
         <f>IF(_tag_month_all!AA6="","",_tag_month_all!AA6)</f>
         <v/>
       </c>
-      <c r="AC9" s="35" t="str">
+      <c r="AC9" s="30" t="str">
         <f>IF(_tag_month_all!AB6="","",_tag_month_all!AB6)</f>
         <v/>
       </c>
-      <c r="AD9" s="22" t="str">
+      <c r="AD9" s="17" t="str">
         <f>IF(_tag_month_all!AC6="","",_tag_month_all!AC6)</f>
         <v/>
       </c>
-      <c r="AE9" s="22" t="str">
+      <c r="AE9" s="17" t="str">
         <f>IF(_tag_month_all!AD6="","",_tag_month_all!AD6)</f>
         <v/>
       </c>
-      <c r="AF9" s="22" t="str">
+      <c r="AF9" s="17" t="str">
         <f>IF(_tag_month_all!AE6="","",_tag_month_all!AE6)</f>
         <v/>
       </c>
-      <c r="AG9" s="22" t="str">
+      <c r="AG9" s="17" t="str">
         <f>IF(_tag_month_all!AF6="","",_tag_month_all!AF6)</f>
         <v/>
       </c>
-      <c r="AH9" s="34" t="str">
+      <c r="AH9" s="29" t="str">
         <f>IF(_tag_month_all!AG6="","",_tag_month_all!AG6)</f>
         <v/>
       </c>
-      <c r="AI9" s="34" t="str">
+      <c r="AI9" s="29" t="str">
         <f>IF(_tag_month_all!AH6="","",_tag_month_all!AH6)</f>
         <v/>
       </c>
-      <c r="AJ9" s="51" t="str">
+      <c r="AJ9" s="38" t="str">
         <f>IF(_tag_month_all!AI6="","",_tag_month_all!AI6)</f>
         <v/>
       </c>
@@ -3011,147 +2413,147 @@
       <c r="BN9" s="8"/>
       <c r="BO9" s="8"/>
     </row>
-    <row r="10" ht="14.25" spans="1:67">
-      <c r="A10" s="18">
+    <row r="10" spans="1:67" ht="14.25">
+      <c r="A10" s="13">
         <v>6</v>
       </c>
-      <c r="B10" s="21" t="str">
+      <c r="B10" s="16" t="str">
         <f>IF(_tag_month_all!A7="","",_tag_month_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="21" t="str">
+      <c r="C10" s="16" t="str">
         <f>IF(_tag_month_all!B7="","",_tag_month_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="22" t="str">
+      <c r="D10" s="17" t="str">
         <f>IF(_tag_month_all!C7="","",_tag_month_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="23" t="str">
+      <c r="E10" s="18" t="str">
         <f>IF(_tag_month_all!D7="","",_tag_month_all!D7)</f>
         <v/>
       </c>
-      <c r="F10" s="24" t="str">
+      <c r="F10" s="19" t="str">
         <f>IF(_tag_month_all!E7="","",_tag_month_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="25" t="str">
+      <c r="G10" s="20" t="str">
         <f>IF(_tag_month_all!F7="","",_tag_month_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="26" t="str">
+      <c r="H10" s="21" t="str">
         <f>IF(_tag_month_all!G7="","",_tag_month_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="23" t="str">
+      <c r="I10" s="18" t="str">
         <f>IF(_tag_month_all!H7="","",_tag_month_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="23" t="str">
+      <c r="J10" s="18" t="str">
         <f>IF(_tag_month_all!I7="","",_tag_month_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="32" t="str">
+      <c r="K10" s="27" t="str">
         <f>IF(_tag_month_all!J7="","",_tag_month_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="23" t="str">
+      <c r="L10" s="18" t="str">
         <f>IF(_tag_month_all!K7="","",_tag_month_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="33" t="str">
+      <c r="M10" s="28" t="str">
         <f>IF(_tag_month_all!L7="","",_tag_month_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="34" t="str">
+      <c r="N10" s="29" t="str">
         <f>IF(_tag_month_all!M7="","",_tag_month_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="35" t="str">
+      <c r="O10" s="30" t="str">
         <f>IF(_tag_month_all!N7="","",_tag_month_all!N7)</f>
         <v/>
       </c>
-      <c r="P10" s="35" t="str">
+      <c r="P10" s="30" t="str">
         <f>IF(_tag_month_all!O7="","",_tag_month_all!O7)</f>
         <v/>
       </c>
-      <c r="Q10" s="35" t="str">
+      <c r="Q10" s="30" t="str">
         <f>IF(_tag_month_all!P7="","",_tag_month_all!P7)</f>
         <v/>
       </c>
-      <c r="R10" s="43" t="str">
+      <c r="R10" s="35" t="str">
         <f>IF(_tag_month_all!Q7="","",_tag_month_all!Q7)</f>
         <v/>
       </c>
-      <c r="S10" s="43" t="str">
+      <c r="S10" s="35" t="str">
         <f>IF(_tag_month_all!R7="","",_tag_month_all!R7)</f>
         <v/>
       </c>
-      <c r="T10" s="43" t="str">
+      <c r="T10" s="35" t="str">
         <f>IF(_tag_month_all!S7="","",_tag_month_all!S7)</f>
         <v/>
       </c>
-      <c r="U10" s="43" t="str">
+      <c r="U10" s="35" t="str">
         <f>IF(_tag_month_all!T7="","",_tag_month_all!T7)</f>
         <v/>
       </c>
-      <c r="V10" s="34" t="str">
+      <c r="V10" s="29" t="str">
         <f>IF(_tag_month_all!U7="","",_tag_month_all!U7)</f>
         <v/>
       </c>
-      <c r="W10" s="35" t="str">
+      <c r="W10" s="30" t="str">
         <f>IF(_tag_month_all!V7="","",_tag_month_all!V7)</f>
         <v/>
       </c>
-      <c r="X10" s="35" t="str">
+      <c r="X10" s="30" t="str">
         <f>IF(_tag_month_all!W7="","",_tag_month_all!W7)</f>
         <v/>
       </c>
-      <c r="Y10" s="35" t="str">
+      <c r="Y10" s="30" t="str">
         <f>IF(_tag_month_all!X7="","",_tag_month_all!X7)</f>
         <v/>
       </c>
-      <c r="Z10" s="35" t="str">
+      <c r="Z10" s="30" t="str">
         <f>IF(_tag_month_all!Y7="","",_tag_month_all!Y7)</f>
         <v/>
       </c>
-      <c r="AA10" s="35" t="str">
+      <c r="AA10" s="30" t="str">
         <f>IF(_tag_month_all!Z7="","",_tag_month_all!Z7)</f>
         <v/>
       </c>
-      <c r="AB10" s="35" t="str">
+      <c r="AB10" s="30" t="str">
         <f>IF(_tag_month_all!AA7="","",_tag_month_all!AA7)</f>
         <v/>
       </c>
-      <c r="AC10" s="35" t="str">
+      <c r="AC10" s="30" t="str">
         <f>IF(_tag_month_all!AB7="","",_tag_month_all!AB7)</f>
         <v/>
       </c>
-      <c r="AD10" s="22" t="str">
+      <c r="AD10" s="17" t="str">
         <f>IF(_tag_month_all!AC7="","",_tag_month_all!AC7)</f>
         <v/>
       </c>
-      <c r="AE10" s="22" t="str">
+      <c r="AE10" s="17" t="str">
         <f>IF(_tag_month_all!AD7="","",_tag_month_all!AD7)</f>
         <v/>
       </c>
-      <c r="AF10" s="22" t="str">
+      <c r="AF10" s="17" t="str">
         <f>IF(_tag_month_all!AE7="","",_tag_month_all!AE7)</f>
         <v/>
       </c>
-      <c r="AG10" s="22" t="str">
+      <c r="AG10" s="17" t="str">
         <f>IF(_tag_month_all!AF7="","",_tag_month_all!AF7)</f>
         <v/>
       </c>
-      <c r="AH10" s="34" t="str">
+      <c r="AH10" s="29" t="str">
         <f>IF(_tag_month_all!AG7="","",_tag_month_all!AG7)</f>
         <v/>
       </c>
-      <c r="AI10" s="34" t="str">
+      <c r="AI10" s="29" t="str">
         <f>IF(_tag_month_all!AH7="","",_tag_month_all!AH7)</f>
         <v/>
       </c>
-      <c r="AJ10" s="51" t="str">
+      <c r="AJ10" s="38" t="str">
         <f>IF(_tag_month_all!AI7="","",_tag_month_all!AI7)</f>
         <v/>
       </c>
@@ -3187,147 +2589,147 @@
       <c r="BN10" s="8"/>
       <c r="BO10" s="8"/>
     </row>
-    <row r="11" ht="14.25" spans="1:67">
-      <c r="A11" s="18">
+    <row r="11" spans="1:67" ht="14.25">
+      <c r="A11" s="13">
         <v>7</v>
       </c>
-      <c r="B11" s="21" t="str">
+      <c r="B11" s="16" t="str">
         <f>IF(_tag_month_all!A8="","",_tag_month_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="21" t="str">
+      <c r="C11" s="16" t="str">
         <f>IF(_tag_month_all!B8="","",_tag_month_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="22" t="str">
+      <c r="D11" s="17" t="str">
         <f>IF(_tag_month_all!C8="","",_tag_month_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="23" t="str">
+      <c r="E11" s="18" t="str">
         <f>IF(_tag_month_all!D8="","",_tag_month_all!D8)</f>
         <v/>
       </c>
-      <c r="F11" s="24" t="str">
+      <c r="F11" s="19" t="str">
         <f>IF(_tag_month_all!E8="","",_tag_month_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="25" t="str">
+      <c r="G11" s="20" t="str">
         <f>IF(_tag_month_all!F8="","",_tag_month_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="26" t="str">
+      <c r="H11" s="21" t="str">
         <f>IF(_tag_month_all!G8="","",_tag_month_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="23" t="str">
+      <c r="I11" s="18" t="str">
         <f>IF(_tag_month_all!H8="","",_tag_month_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="23" t="str">
+      <c r="J11" s="18" t="str">
         <f>IF(_tag_month_all!I8="","",_tag_month_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="32" t="str">
+      <c r="K11" s="27" t="str">
         <f>IF(_tag_month_all!J8="","",_tag_month_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="23" t="str">
+      <c r="L11" s="18" t="str">
         <f>IF(_tag_month_all!K8="","",_tag_month_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="33" t="str">
+      <c r="M11" s="28" t="str">
         <f>IF(_tag_month_all!L8="","",_tag_month_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="34" t="str">
+      <c r="N11" s="29" t="str">
         <f>IF(_tag_month_all!M8="","",_tag_month_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="35" t="str">
+      <c r="O11" s="30" t="str">
         <f>IF(_tag_month_all!N8="","",_tag_month_all!N8)</f>
         <v/>
       </c>
-      <c r="P11" s="35" t="str">
+      <c r="P11" s="30" t="str">
         <f>IF(_tag_month_all!O8="","",_tag_month_all!O8)</f>
         <v/>
       </c>
-      <c r="Q11" s="35" t="str">
+      <c r="Q11" s="30" t="str">
         <f>IF(_tag_month_all!P8="","",_tag_month_all!P8)</f>
         <v/>
       </c>
-      <c r="R11" s="43" t="str">
+      <c r="R11" s="35" t="str">
         <f>IF(_tag_month_all!Q8="","",_tag_month_all!Q8)</f>
         <v/>
       </c>
-      <c r="S11" s="43" t="str">
+      <c r="S11" s="35" t="str">
         <f>IF(_tag_month_all!R8="","",_tag_month_all!R8)</f>
         <v/>
       </c>
-      <c r="T11" s="43" t="str">
+      <c r="T11" s="35" t="str">
         <f>IF(_tag_month_all!S8="","",_tag_month_all!S8)</f>
         <v/>
       </c>
-      <c r="U11" s="43" t="str">
+      <c r="U11" s="35" t="str">
         <f>IF(_tag_month_all!T8="","",_tag_month_all!T8)</f>
         <v/>
       </c>
-      <c r="V11" s="34" t="str">
+      <c r="V11" s="29" t="str">
         <f>IF(_tag_month_all!U8="","",_tag_month_all!U8)</f>
         <v/>
       </c>
-      <c r="W11" s="35" t="str">
+      <c r="W11" s="30" t="str">
         <f>IF(_tag_month_all!V8="","",_tag_month_all!V8)</f>
         <v/>
       </c>
-      <c r="X11" s="35" t="str">
+      <c r="X11" s="30" t="str">
         <f>IF(_tag_month_all!W8="","",_tag_month_all!W8)</f>
         <v/>
       </c>
-      <c r="Y11" s="35" t="str">
+      <c r="Y11" s="30" t="str">
         <f>IF(_tag_month_all!X8="","",_tag_month_all!X8)</f>
         <v/>
       </c>
-      <c r="Z11" s="35" t="str">
+      <c r="Z11" s="30" t="str">
         <f>IF(_tag_month_all!Y8="","",_tag_month_all!Y8)</f>
         <v/>
       </c>
-      <c r="AA11" s="35" t="str">
+      <c r="AA11" s="30" t="str">
         <f>IF(_tag_month_all!Z8="","",_tag_month_all!Z8)</f>
         <v/>
       </c>
-      <c r="AB11" s="35" t="str">
+      <c r="AB11" s="30" t="str">
         <f>IF(_tag_month_all!AA8="","",_tag_month_all!AA8)</f>
         <v/>
       </c>
-      <c r="AC11" s="35" t="str">
+      <c r="AC11" s="30" t="str">
         <f>IF(_tag_month_all!AB8="","",_tag_month_all!AB8)</f>
         <v/>
       </c>
-      <c r="AD11" s="22" t="str">
+      <c r="AD11" s="17" t="str">
         <f>IF(_tag_month_all!AC8="","",_tag_month_all!AC8)</f>
         <v/>
       </c>
-      <c r="AE11" s="22" t="str">
+      <c r="AE11" s="17" t="str">
         <f>IF(_tag_month_all!AD8="","",_tag_month_all!AD8)</f>
         <v/>
       </c>
-      <c r="AF11" s="22" t="str">
+      <c r="AF11" s="17" t="str">
         <f>IF(_tag_month_all!AE8="","",_tag_month_all!AE8)</f>
         <v/>
       </c>
-      <c r="AG11" s="22" t="str">
+      <c r="AG11" s="17" t="str">
         <f>IF(_tag_month_all!AF8="","",_tag_month_all!AF8)</f>
         <v/>
       </c>
-      <c r="AH11" s="34" t="str">
+      <c r="AH11" s="29" t="str">
         <f>IF(_tag_month_all!AG8="","",_tag_month_all!AG8)</f>
         <v/>
       </c>
-      <c r="AI11" s="34" t="str">
+      <c r="AI11" s="29" t="str">
         <f>IF(_tag_month_all!AH8="","",_tag_month_all!AH8)</f>
         <v/>
       </c>
-      <c r="AJ11" s="51" t="str">
+      <c r="AJ11" s="38" t="str">
         <f>IF(_tag_month_all!AI8="","",_tag_month_all!AI8)</f>
         <v/>
       </c>
@@ -3363,147 +2765,147 @@
       <c r="BN11" s="8"/>
       <c r="BO11" s="8"/>
     </row>
-    <row r="12" ht="14.25" spans="1:67">
-      <c r="A12" s="18">
+    <row r="12" spans="1:67" ht="14.25">
+      <c r="A12" s="13">
         <v>8</v>
       </c>
-      <c r="B12" s="21" t="str">
+      <c r="B12" s="16" t="str">
         <f>IF(_tag_month_all!A9="","",_tag_month_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="21" t="str">
+      <c r="C12" s="16" t="str">
         <f>IF(_tag_month_all!B9="","",_tag_month_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="22" t="str">
+      <c r="D12" s="17" t="str">
         <f>IF(_tag_month_all!C9="","",_tag_month_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="23" t="str">
+      <c r="E12" s="18" t="str">
         <f>IF(_tag_month_all!D9="","",_tag_month_all!D9)</f>
         <v/>
       </c>
-      <c r="F12" s="24" t="str">
+      <c r="F12" s="19" t="str">
         <f>IF(_tag_month_all!E9="","",_tag_month_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="25" t="str">
+      <c r="G12" s="20" t="str">
         <f>IF(_tag_month_all!F9="","",_tag_month_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="26" t="str">
+      <c r="H12" s="21" t="str">
         <f>IF(_tag_month_all!G9="","",_tag_month_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="23" t="str">
+      <c r="I12" s="18" t="str">
         <f>IF(_tag_month_all!H9="","",_tag_month_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="23" t="str">
+      <c r="J12" s="18" t="str">
         <f>IF(_tag_month_all!I9="","",_tag_month_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="32" t="str">
+      <c r="K12" s="27" t="str">
         <f>IF(_tag_month_all!J9="","",_tag_month_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="23" t="str">
+      <c r="L12" s="18" t="str">
         <f>IF(_tag_month_all!K9="","",_tag_month_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="33" t="str">
+      <c r="M12" s="28" t="str">
         <f>IF(_tag_month_all!L9="","",_tag_month_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="34" t="str">
+      <c r="N12" s="29" t="str">
         <f>IF(_tag_month_all!M9="","",_tag_month_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="35" t="str">
+      <c r="O12" s="30" t="str">
         <f>IF(_tag_month_all!N9="","",_tag_month_all!N9)</f>
         <v/>
       </c>
-      <c r="P12" s="35" t="str">
+      <c r="P12" s="30" t="str">
         <f>IF(_tag_month_all!O9="","",_tag_month_all!O9)</f>
         <v/>
       </c>
-      <c r="Q12" s="35" t="str">
+      <c r="Q12" s="30" t="str">
         <f>IF(_tag_month_all!P9="","",_tag_month_all!P9)</f>
         <v/>
       </c>
-      <c r="R12" s="43" t="str">
+      <c r="R12" s="35" t="str">
         <f>IF(_tag_month_all!Q9="","",_tag_month_all!Q9)</f>
         <v/>
       </c>
-      <c r="S12" s="43" t="str">
+      <c r="S12" s="35" t="str">
         <f>IF(_tag_month_all!R9="","",_tag_month_all!R9)</f>
         <v/>
       </c>
-      <c r="T12" s="43" t="str">
+      <c r="T12" s="35" t="str">
         <f>IF(_tag_month_all!S9="","",_tag_month_all!S9)</f>
         <v/>
       </c>
-      <c r="U12" s="43" t="str">
+      <c r="U12" s="35" t="str">
         <f>IF(_tag_month_all!T9="","",_tag_month_all!T9)</f>
         <v/>
       </c>
-      <c r="V12" s="34" t="str">
+      <c r="V12" s="29" t="str">
         <f>IF(_tag_month_all!U9="","",_tag_month_all!U9)</f>
         <v/>
       </c>
-      <c r="W12" s="35" t="str">
+      <c r="W12" s="30" t="str">
         <f>IF(_tag_month_all!V9="","",_tag_month_all!V9)</f>
         <v/>
       </c>
-      <c r="X12" s="35" t="str">
+      <c r="X12" s="30" t="str">
         <f>IF(_tag_month_all!W9="","",_tag_month_all!W9)</f>
         <v/>
       </c>
-      <c r="Y12" s="35" t="str">
+      <c r="Y12" s="30" t="str">
         <f>IF(_tag_month_all!X9="","",_tag_month_all!X9)</f>
         <v/>
       </c>
-      <c r="Z12" s="35" t="str">
+      <c r="Z12" s="30" t="str">
         <f>IF(_tag_month_all!Y9="","",_tag_month_all!Y9)</f>
         <v/>
       </c>
-      <c r="AA12" s="35" t="str">
+      <c r="AA12" s="30" t="str">
         <f>IF(_tag_month_all!Z9="","",_tag_month_all!Z9)</f>
         <v/>
       </c>
-      <c r="AB12" s="35" t="str">
+      <c r="AB12" s="30" t="str">
         <f>IF(_tag_month_all!AA9="","",_tag_month_all!AA9)</f>
         <v/>
       </c>
-      <c r="AC12" s="35" t="str">
+      <c r="AC12" s="30" t="str">
         <f>IF(_tag_month_all!AB9="","",_tag_month_all!AB9)</f>
         <v/>
       </c>
-      <c r="AD12" s="22" t="str">
+      <c r="AD12" s="17" t="str">
         <f>IF(_tag_month_all!AC9="","",_tag_month_all!AC9)</f>
         <v/>
       </c>
-      <c r="AE12" s="22" t="str">
+      <c r="AE12" s="17" t="str">
         <f>IF(_tag_month_all!AD9="","",_tag_month_all!AD9)</f>
         <v/>
       </c>
-      <c r="AF12" s="22" t="str">
+      <c r="AF12" s="17" t="str">
         <f>IF(_tag_month_all!AE9="","",_tag_month_all!AE9)</f>
         <v/>
       </c>
-      <c r="AG12" s="22" t="str">
+      <c r="AG12" s="17" t="str">
         <f>IF(_tag_month_all!AF9="","",_tag_month_all!AF9)</f>
         <v/>
       </c>
-      <c r="AH12" s="34" t="str">
+      <c r="AH12" s="29" t="str">
         <f>IF(_tag_month_all!AG9="","",_tag_month_all!AG9)</f>
         <v/>
       </c>
-      <c r="AI12" s="34" t="str">
+      <c r="AI12" s="29" t="str">
         <f>IF(_tag_month_all!AH9="","",_tag_month_all!AH9)</f>
         <v/>
       </c>
-      <c r="AJ12" s="51" t="str">
+      <c r="AJ12" s="38" t="str">
         <f>IF(_tag_month_all!AI9="","",_tag_month_all!AI9)</f>
         <v/>
       </c>
@@ -3629,147 +3031,147 @@
       </c>
       <c r="BO12" s="8"/>
     </row>
-    <row r="13" ht="14.25" spans="1:67">
-      <c r="A13" s="18">
+    <row r="13" spans="1:67" ht="14.25">
+      <c r="A13" s="13">
         <v>9</v>
       </c>
-      <c r="B13" s="21" t="str">
+      <c r="B13" s="16" t="str">
         <f>IF(_tag_month_all!A10="","",_tag_month_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="21" t="str">
+      <c r="C13" s="16" t="str">
         <f>IF(_tag_month_all!B10="","",_tag_month_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="22" t="str">
+      <c r="D13" s="17" t="str">
         <f>IF(_tag_month_all!C10="","",_tag_month_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="23" t="str">
+      <c r="E13" s="18" t="str">
         <f>IF(_tag_month_all!D10="","",_tag_month_all!D10)</f>
         <v/>
       </c>
-      <c r="F13" s="24" t="str">
+      <c r="F13" s="19" t="str">
         <f>IF(_tag_month_all!E10="","",_tag_month_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="25" t="str">
+      <c r="G13" s="20" t="str">
         <f>IF(_tag_month_all!F10="","",_tag_month_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="26" t="str">
+      <c r="H13" s="21" t="str">
         <f>IF(_tag_month_all!G10="","",_tag_month_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="23" t="str">
+      <c r="I13" s="18" t="str">
         <f>IF(_tag_month_all!H10="","",_tag_month_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="23" t="str">
+      <c r="J13" s="18" t="str">
         <f>IF(_tag_month_all!I10="","",_tag_month_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="32" t="str">
+      <c r="K13" s="27" t="str">
         <f>IF(_tag_month_all!J10="","",_tag_month_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="23" t="str">
+      <c r="L13" s="18" t="str">
         <f>IF(_tag_month_all!K10="","",_tag_month_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="33" t="str">
+      <c r="M13" s="28" t="str">
         <f>IF(_tag_month_all!L10="","",_tag_month_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="34" t="str">
+      <c r="N13" s="29" t="str">
         <f>IF(_tag_month_all!M10="","",_tag_month_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="35" t="str">
+      <c r="O13" s="30" t="str">
         <f>IF(_tag_month_all!N10="","",_tag_month_all!N10)</f>
         <v/>
       </c>
-      <c r="P13" s="35" t="str">
+      <c r="P13" s="30" t="str">
         <f>IF(_tag_month_all!O10="","",_tag_month_all!O10)</f>
         <v/>
       </c>
-      <c r="Q13" s="35" t="str">
+      <c r="Q13" s="30" t="str">
         <f>IF(_tag_month_all!P10="","",_tag_month_all!P10)</f>
         <v/>
       </c>
-      <c r="R13" s="43" t="str">
+      <c r="R13" s="35" t="str">
         <f>IF(_tag_month_all!Q10="","",_tag_month_all!Q10)</f>
         <v/>
       </c>
-      <c r="S13" s="43" t="str">
+      <c r="S13" s="35" t="str">
         <f>IF(_tag_month_all!R10="","",_tag_month_all!R10)</f>
         <v/>
       </c>
-      <c r="T13" s="43" t="str">
+      <c r="T13" s="35" t="str">
         <f>IF(_tag_month_all!S10="","",_tag_month_all!S10)</f>
         <v/>
       </c>
-      <c r="U13" s="43" t="str">
+      <c r="U13" s="35" t="str">
         <f>IF(_tag_month_all!T10="","",_tag_month_all!T10)</f>
         <v/>
       </c>
-      <c r="V13" s="34" t="str">
+      <c r="V13" s="29" t="str">
         <f>IF(_tag_month_all!U10="","",_tag_month_all!U10)</f>
         <v/>
       </c>
-      <c r="W13" s="35" t="str">
+      <c r="W13" s="30" t="str">
         <f>IF(_tag_month_all!V10="","",_tag_month_all!V10)</f>
         <v/>
       </c>
-      <c r="X13" s="35" t="str">
+      <c r="X13" s="30" t="str">
         <f>IF(_tag_month_all!W10="","",_tag_month_all!W10)</f>
         <v/>
       </c>
-      <c r="Y13" s="35" t="str">
+      <c r="Y13" s="30" t="str">
         <f>IF(_tag_month_all!X10="","",_tag_month_all!X10)</f>
         <v/>
       </c>
-      <c r="Z13" s="35" t="str">
+      <c r="Z13" s="30" t="str">
         <f>IF(_tag_month_all!Y10="","",_tag_month_all!Y10)</f>
         <v/>
       </c>
-      <c r="AA13" s="35" t="str">
+      <c r="AA13" s="30" t="str">
         <f>IF(_tag_month_all!Z10="","",_tag_month_all!Z10)</f>
         <v/>
       </c>
-      <c r="AB13" s="35" t="str">
+      <c r="AB13" s="30" t="str">
         <f>IF(_tag_month_all!AA10="","",_tag_month_all!AA10)</f>
         <v/>
       </c>
-      <c r="AC13" s="35" t="str">
+      <c r="AC13" s="30" t="str">
         <f>IF(_tag_month_all!AB10="","",_tag_month_all!AB10)</f>
         <v/>
       </c>
-      <c r="AD13" s="22" t="str">
+      <c r="AD13" s="17" t="str">
         <f>IF(_tag_month_all!AC10="","",_tag_month_all!AC10)</f>
         <v/>
       </c>
-      <c r="AE13" s="22" t="str">
+      <c r="AE13" s="17" t="str">
         <f>IF(_tag_month_all!AD10="","",_tag_month_all!AD10)</f>
         <v/>
       </c>
-      <c r="AF13" s="22" t="str">
+      <c r="AF13" s="17" t="str">
         <f>IF(_tag_month_all!AE10="","",_tag_month_all!AE10)</f>
         <v/>
       </c>
-      <c r="AG13" s="22" t="str">
+      <c r="AG13" s="17" t="str">
         <f>IF(_tag_month_all!AF10="","",_tag_month_all!AF10)</f>
         <v/>
       </c>
-      <c r="AH13" s="34" t="str">
+      <c r="AH13" s="29" t="str">
         <f>IF(_tag_month_all!AG10="","",_tag_month_all!AG10)</f>
         <v/>
       </c>
-      <c r="AI13" s="34" t="str">
+      <c r="AI13" s="29" t="str">
         <f>IF(_tag_month_all!AH10="","",_tag_month_all!AH10)</f>
         <v/>
       </c>
-      <c r="AJ13" s="51" t="str">
+      <c r="AJ13" s="38" t="str">
         <f>IF(_tag_month_all!AI10="","",_tag_month_all!AI10)</f>
         <v/>
       </c>
@@ -3895,147 +3297,147 @@
       </c>
       <c r="BO13" s="8"/>
     </row>
-    <row r="14" ht="14.25" spans="1:67">
-      <c r="A14" s="18">
+    <row r="14" spans="1:67" ht="14.25">
+      <c r="A14" s="13">
         <v>10</v>
       </c>
-      <c r="B14" s="21" t="str">
+      <c r="B14" s="16" t="str">
         <f>IF(_tag_month_all!A11="","",_tag_month_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="21" t="str">
+      <c r="C14" s="16" t="str">
         <f>IF(_tag_month_all!B11="","",_tag_month_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="22" t="str">
+      <c r="D14" s="17" t="str">
         <f>IF(_tag_month_all!C11="","",_tag_month_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="23" t="str">
+      <c r="E14" s="18" t="str">
         <f>IF(_tag_month_all!D11="","",_tag_month_all!D11)</f>
         <v/>
       </c>
-      <c r="F14" s="24" t="str">
+      <c r="F14" s="19" t="str">
         <f>IF(_tag_month_all!E11="","",_tag_month_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="25" t="str">
+      <c r="G14" s="20" t="str">
         <f>IF(_tag_month_all!F11="","",_tag_month_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="26" t="str">
+      <c r="H14" s="21" t="str">
         <f>IF(_tag_month_all!G11="","",_tag_month_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="23" t="str">
+      <c r="I14" s="18" t="str">
         <f>IF(_tag_month_all!H11="","",_tag_month_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="23" t="str">
+      <c r="J14" s="18" t="str">
         <f>IF(_tag_month_all!I11="","",_tag_month_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="32" t="str">
+      <c r="K14" s="27" t="str">
         <f>IF(_tag_month_all!J11="","",_tag_month_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="23" t="str">
+      <c r="L14" s="18" t="str">
         <f>IF(_tag_month_all!K11="","",_tag_month_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="33" t="str">
+      <c r="M14" s="28" t="str">
         <f>IF(_tag_month_all!L11="","",_tag_month_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="34" t="str">
+      <c r="N14" s="29" t="str">
         <f>IF(_tag_month_all!M11="","",_tag_month_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="35" t="str">
+      <c r="O14" s="30" t="str">
         <f>IF(_tag_month_all!N11="","",_tag_month_all!N11)</f>
         <v/>
       </c>
-      <c r="P14" s="35" t="str">
+      <c r="P14" s="30" t="str">
         <f>IF(_tag_month_all!O11="","",_tag_month_all!O11)</f>
         <v/>
       </c>
-      <c r="Q14" s="35" t="str">
+      <c r="Q14" s="30" t="str">
         <f>IF(_tag_month_all!P11="","",_tag_month_all!P11)</f>
         <v/>
       </c>
-      <c r="R14" s="43" t="str">
+      <c r="R14" s="35" t="str">
         <f>IF(_tag_month_all!Q11="","",_tag_month_all!Q11)</f>
         <v/>
       </c>
-      <c r="S14" s="43" t="str">
+      <c r="S14" s="35" t="str">
         <f>IF(_tag_month_all!R11="","",_tag_month_all!R11)</f>
         <v/>
       </c>
-      <c r="T14" s="43" t="str">
+      <c r="T14" s="35" t="str">
         <f>IF(_tag_month_all!S11="","",_tag_month_all!S11)</f>
         <v/>
       </c>
-      <c r="U14" s="43" t="str">
+      <c r="U14" s="35" t="str">
         <f>IF(_tag_month_all!T11="","",_tag_month_all!T11)</f>
         <v/>
       </c>
-      <c r="V14" s="34" t="str">
+      <c r="V14" s="29" t="str">
         <f>IF(_tag_month_all!U11="","",_tag_month_all!U11)</f>
         <v/>
       </c>
-      <c r="W14" s="35" t="str">
+      <c r="W14" s="30" t="str">
         <f>IF(_tag_month_all!V11="","",_tag_month_all!V11)</f>
         <v/>
       </c>
-      <c r="X14" s="35" t="str">
+      <c r="X14" s="30" t="str">
         <f>IF(_tag_month_all!W11="","",_tag_month_all!W11)</f>
         <v/>
       </c>
-      <c r="Y14" s="35" t="str">
+      <c r="Y14" s="30" t="str">
         <f>IF(_tag_month_all!X11="","",_tag_month_all!X11)</f>
         <v/>
       </c>
-      <c r="Z14" s="35" t="str">
+      <c r="Z14" s="30" t="str">
         <f>IF(_tag_month_all!Y11="","",_tag_month_all!Y11)</f>
         <v/>
       </c>
-      <c r="AA14" s="35" t="str">
+      <c r="AA14" s="30" t="str">
         <f>IF(_tag_month_all!Z11="","",_tag_month_all!Z11)</f>
         <v/>
       </c>
-      <c r="AB14" s="35" t="str">
+      <c r="AB14" s="30" t="str">
         <f>IF(_tag_month_all!AA11="","",_tag_month_all!AA11)</f>
         <v/>
       </c>
-      <c r="AC14" s="35" t="str">
+      <c r="AC14" s="30" t="str">
         <f>IF(_tag_month_all!AB11="","",_tag_month_all!AB11)</f>
         <v/>
       </c>
-      <c r="AD14" s="22" t="str">
+      <c r="AD14" s="17" t="str">
         <f>IF(_tag_month_all!AC11="","",_tag_month_all!AC11)</f>
         <v/>
       </c>
-      <c r="AE14" s="22" t="str">
+      <c r="AE14" s="17" t="str">
         <f>IF(_tag_month_all!AD11="","",_tag_month_all!AD11)</f>
         <v/>
       </c>
-      <c r="AF14" s="22" t="str">
+      <c r="AF14" s="17" t="str">
         <f>IF(_tag_month_all!AE11="","",_tag_month_all!AE11)</f>
         <v/>
       </c>
-      <c r="AG14" s="22" t="str">
+      <c r="AG14" s="17" t="str">
         <f>IF(_tag_month_all!AF11="","",_tag_month_all!AF11)</f>
         <v/>
       </c>
-      <c r="AH14" s="34" t="str">
+      <c r="AH14" s="29" t="str">
         <f>IF(_tag_month_all!AG11="","",_tag_month_all!AG11)</f>
         <v/>
       </c>
-      <c r="AI14" s="34" t="str">
+      <c r="AI14" s="29" t="str">
         <f>IF(_tag_month_all!AH11="","",_tag_month_all!AH11)</f>
         <v/>
       </c>
-      <c r="AJ14" s="51" t="str">
+      <c r="AJ14" s="38" t="str">
         <f>IF(_tag_month_all!AI11="","",_tag_month_all!AI11)</f>
         <v/>
       </c>
@@ -4161,147 +3563,147 @@
       </c>
       <c r="BO14" s="8"/>
     </row>
-    <row r="15" ht="14.25" spans="1:67">
-      <c r="A15" s="18">
+    <row r="15" spans="1:67" ht="14.25">
+      <c r="A15" s="13">
         <v>11</v>
       </c>
-      <c r="B15" s="21" t="str">
+      <c r="B15" s="16" t="str">
         <f>IF(_tag_month_all!A12="","",_tag_month_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="16" t="str">
         <f>IF(_tag_month_all!B12="","",_tag_month_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="22" t="str">
+      <c r="D15" s="17" t="str">
         <f>IF(_tag_month_all!C12="","",_tag_month_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="23" t="str">
+      <c r="E15" s="18" t="str">
         <f>IF(_tag_month_all!D12="","",_tag_month_all!D12)</f>
         <v/>
       </c>
-      <c r="F15" s="24" t="str">
+      <c r="F15" s="19" t="str">
         <f>IF(_tag_month_all!E12="","",_tag_month_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="25" t="str">
+      <c r="G15" s="20" t="str">
         <f>IF(_tag_month_all!F12="","",_tag_month_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="26" t="str">
+      <c r="H15" s="21" t="str">
         <f>IF(_tag_month_all!G12="","",_tag_month_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="23" t="str">
+      <c r="I15" s="18" t="str">
         <f>IF(_tag_month_all!H12="","",_tag_month_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="23" t="str">
+      <c r="J15" s="18" t="str">
         <f>IF(_tag_month_all!I12="","",_tag_month_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="32" t="str">
+      <c r="K15" s="27" t="str">
         <f>IF(_tag_month_all!J12="","",_tag_month_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="23" t="str">
+      <c r="L15" s="18" t="str">
         <f>IF(_tag_month_all!K12="","",_tag_month_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="33" t="str">
+      <c r="M15" s="28" t="str">
         <f>IF(_tag_month_all!L12="","",_tag_month_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="34" t="str">
+      <c r="N15" s="29" t="str">
         <f>IF(_tag_month_all!M12="","",_tag_month_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="35" t="str">
+      <c r="O15" s="30" t="str">
         <f>IF(_tag_month_all!N12="","",_tag_month_all!N12)</f>
         <v/>
       </c>
-      <c r="P15" s="35" t="str">
+      <c r="P15" s="30" t="str">
         <f>IF(_tag_month_all!O12="","",_tag_month_all!O12)</f>
         <v/>
       </c>
-      <c r="Q15" s="35" t="str">
+      <c r="Q15" s="30" t="str">
         <f>IF(_tag_month_all!P12="","",_tag_month_all!P12)</f>
         <v/>
       </c>
-      <c r="R15" s="43" t="str">
+      <c r="R15" s="35" t="str">
         <f>IF(_tag_month_all!Q12="","",_tag_month_all!Q12)</f>
         <v/>
       </c>
-      <c r="S15" s="43" t="str">
+      <c r="S15" s="35" t="str">
         <f>IF(_tag_month_all!R12="","",_tag_month_all!R12)</f>
         <v/>
       </c>
-      <c r="T15" s="43" t="str">
+      <c r="T15" s="35" t="str">
         <f>IF(_tag_month_all!S12="","",_tag_month_all!S12)</f>
         <v/>
       </c>
-      <c r="U15" s="43" t="str">
+      <c r="U15" s="35" t="str">
         <f>IF(_tag_month_all!T12="","",_tag_month_all!T12)</f>
         <v/>
       </c>
-      <c r="V15" s="34" t="str">
+      <c r="V15" s="29" t="str">
         <f>IF(_tag_month_all!U12="","",_tag_month_all!U12)</f>
         <v/>
       </c>
-      <c r="W15" s="35" t="str">
+      <c r="W15" s="30" t="str">
         <f>IF(_tag_month_all!V12="","",_tag_month_all!V12)</f>
         <v/>
       </c>
-      <c r="X15" s="35" t="str">
+      <c r="X15" s="30" t="str">
         <f>IF(_tag_month_all!W12="","",_tag_month_all!W12)</f>
         <v/>
       </c>
-      <c r="Y15" s="35" t="str">
+      <c r="Y15" s="30" t="str">
         <f>IF(_tag_month_all!X12="","",_tag_month_all!X12)</f>
         <v/>
       </c>
-      <c r="Z15" s="35" t="str">
+      <c r="Z15" s="30" t="str">
         <f>IF(_tag_month_all!Y12="","",_tag_month_all!Y12)</f>
         <v/>
       </c>
-      <c r="AA15" s="35" t="str">
+      <c r="AA15" s="30" t="str">
         <f>IF(_tag_month_all!Z12="","",_tag_month_all!Z12)</f>
         <v/>
       </c>
-      <c r="AB15" s="35" t="str">
+      <c r="AB15" s="30" t="str">
         <f>IF(_tag_month_all!AA12="","",_tag_month_all!AA12)</f>
         <v/>
       </c>
-      <c r="AC15" s="35" t="str">
+      <c r="AC15" s="30" t="str">
         <f>IF(_tag_month_all!AB12="","",_tag_month_all!AB12)</f>
         <v/>
       </c>
-      <c r="AD15" s="22" t="str">
+      <c r="AD15" s="17" t="str">
         <f>IF(_tag_month_all!AC12="","",_tag_month_all!AC12)</f>
         <v/>
       </c>
-      <c r="AE15" s="22" t="str">
+      <c r="AE15" s="17" t="str">
         <f>IF(_tag_month_all!AD12="","",_tag_month_all!AD12)</f>
         <v/>
       </c>
-      <c r="AF15" s="22" t="str">
+      <c r="AF15" s="17" t="str">
         <f>IF(_tag_month_all!AE12="","",_tag_month_all!AE12)</f>
         <v/>
       </c>
-      <c r="AG15" s="22" t="str">
+      <c r="AG15" s="17" t="str">
         <f>IF(_tag_month_all!AF12="","",_tag_month_all!AF12)</f>
         <v/>
       </c>
-      <c r="AH15" s="34" t="str">
+      <c r="AH15" s="29" t="str">
         <f>IF(_tag_month_all!AG12="","",_tag_month_all!AG12)</f>
         <v/>
       </c>
-      <c r="AI15" s="34" t="str">
+      <c r="AI15" s="29" t="str">
         <f>IF(_tag_month_all!AH12="","",_tag_month_all!AH12)</f>
         <v/>
       </c>
-      <c r="AJ15" s="51" t="str">
+      <c r="AJ15" s="38" t="str">
         <f>IF(_tag_month_all!AI12="","",_tag_month_all!AI12)</f>
         <v/>
       </c>
@@ -4427,147 +3829,147 @@
       </c>
       <c r="BO15" s="8"/>
     </row>
-    <row r="16" ht="14.25" spans="1:67">
-      <c r="A16" s="18">
+    <row r="16" spans="1:67" ht="14.25">
+      <c r="A16" s="13">
         <v>12</v>
       </c>
-      <c r="B16" s="21" t="str">
+      <c r="B16" s="16" t="str">
         <f>IF(_tag_month_all!A13="","",_tag_month_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="21" t="str">
+      <c r="C16" s="16" t="str">
         <f>IF(_tag_month_all!B13="","",_tag_month_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="22" t="str">
+      <c r="D16" s="17" t="str">
         <f>IF(_tag_month_all!C13="","",_tag_month_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="23" t="str">
+      <c r="E16" s="18" t="str">
         <f>IF(_tag_month_all!D13="","",_tag_month_all!D13)</f>
         <v/>
       </c>
-      <c r="F16" s="24" t="str">
+      <c r="F16" s="19" t="str">
         <f>IF(_tag_month_all!E13="","",_tag_month_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="25" t="str">
+      <c r="G16" s="20" t="str">
         <f>IF(_tag_month_all!F13="","",_tag_month_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="26" t="str">
+      <c r="H16" s="21" t="str">
         <f>IF(_tag_month_all!G13="","",_tag_month_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="23" t="str">
+      <c r="I16" s="18" t="str">
         <f>IF(_tag_month_all!H13="","",_tag_month_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="23" t="str">
+      <c r="J16" s="18" t="str">
         <f>IF(_tag_month_all!I13="","",_tag_month_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="32" t="str">
+      <c r="K16" s="27" t="str">
         <f>IF(_tag_month_all!J13="","",_tag_month_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="23" t="str">
+      <c r="L16" s="18" t="str">
         <f>IF(_tag_month_all!K13="","",_tag_month_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="33" t="str">
+      <c r="M16" s="28" t="str">
         <f>IF(_tag_month_all!L13="","",_tag_month_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="34" t="str">
+      <c r="N16" s="29" t="str">
         <f>IF(_tag_month_all!M13="","",_tag_month_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="35" t="str">
+      <c r="O16" s="30" t="str">
         <f>IF(_tag_month_all!N13="","",_tag_month_all!N13)</f>
         <v/>
       </c>
-      <c r="P16" s="35" t="str">
+      <c r="P16" s="30" t="str">
         <f>IF(_tag_month_all!O13="","",_tag_month_all!O13)</f>
         <v/>
       </c>
-      <c r="Q16" s="35" t="str">
+      <c r="Q16" s="30" t="str">
         <f>IF(_tag_month_all!P13="","",_tag_month_all!P13)</f>
         <v/>
       </c>
-      <c r="R16" s="43" t="str">
+      <c r="R16" s="35" t="str">
         <f>IF(_tag_month_all!Q13="","",_tag_month_all!Q13)</f>
         <v/>
       </c>
-      <c r="S16" s="43" t="str">
+      <c r="S16" s="35" t="str">
         <f>IF(_tag_month_all!R13="","",_tag_month_all!R13)</f>
         <v/>
       </c>
-      <c r="T16" s="43" t="str">
+      <c r="T16" s="35" t="str">
         <f>IF(_tag_month_all!S13="","",_tag_month_all!S13)</f>
         <v/>
       </c>
-      <c r="U16" s="43" t="str">
+      <c r="U16" s="35" t="str">
         <f>IF(_tag_month_all!T13="","",_tag_month_all!T13)</f>
         <v/>
       </c>
-      <c r="V16" s="34" t="str">
+      <c r="V16" s="29" t="str">
         <f>IF(_tag_month_all!U13="","",_tag_month_all!U13)</f>
         <v/>
       </c>
-      <c r="W16" s="35" t="str">
+      <c r="W16" s="30" t="str">
         <f>IF(_tag_month_all!V13="","",_tag_month_all!V13)</f>
         <v/>
       </c>
-      <c r="X16" s="35" t="str">
+      <c r="X16" s="30" t="str">
         <f>IF(_tag_month_all!W13="","",_tag_month_all!W13)</f>
         <v/>
       </c>
-      <c r="Y16" s="35" t="str">
+      <c r="Y16" s="30" t="str">
         <f>IF(_tag_month_all!X13="","",_tag_month_all!X13)</f>
         <v/>
       </c>
-      <c r="Z16" s="35" t="str">
+      <c r="Z16" s="30" t="str">
         <f>IF(_tag_month_all!Y13="","",_tag_month_all!Y13)</f>
         <v/>
       </c>
-      <c r="AA16" s="35" t="str">
+      <c r="AA16" s="30" t="str">
         <f>IF(_tag_month_all!Z13="","",_tag_month_all!Z13)</f>
         <v/>
       </c>
-      <c r="AB16" s="35" t="str">
+      <c r="AB16" s="30" t="str">
         <f>IF(_tag_month_all!AA13="","",_tag_month_all!AA13)</f>
         <v/>
       </c>
-      <c r="AC16" s="35" t="str">
+      <c r="AC16" s="30" t="str">
         <f>IF(_tag_month_all!AB13="","",_tag_month_all!AB13)</f>
         <v/>
       </c>
-      <c r="AD16" s="22" t="str">
+      <c r="AD16" s="17" t="str">
         <f>IF(_tag_month_all!AC13="","",_tag_month_all!AC13)</f>
         <v/>
       </c>
-      <c r="AE16" s="22" t="str">
+      <c r="AE16" s="17" t="str">
         <f>IF(_tag_month_all!AD13="","",_tag_month_all!AD13)</f>
         <v/>
       </c>
-      <c r="AF16" s="22" t="str">
+      <c r="AF16" s="17" t="str">
         <f>IF(_tag_month_all!AE13="","",_tag_month_all!AE13)</f>
         <v/>
       </c>
-      <c r="AG16" s="22" t="str">
+      <c r="AG16" s="17" t="str">
         <f>IF(_tag_month_all!AF13="","",_tag_month_all!AF13)</f>
         <v/>
       </c>
-      <c r="AH16" s="34" t="str">
+      <c r="AH16" s="29" t="str">
         <f>IF(_tag_month_all!AG13="","",_tag_month_all!AG13)</f>
         <v/>
       </c>
-      <c r="AI16" s="34" t="str">
+      <c r="AI16" s="29" t="str">
         <f>IF(_tag_month_all!AH13="","",_tag_month_all!AH13)</f>
         <v/>
       </c>
-      <c r="AJ16" s="51" t="str">
+      <c r="AJ16" s="38" t="str">
         <f>IF(_tag_month_all!AI13="","",_tag_month_all!AI13)</f>
         <v/>
       </c>
@@ -4693,147 +4095,147 @@
       </c>
       <c r="BO16" s="8"/>
     </row>
-    <row r="17" ht="14.25" spans="1:67">
-      <c r="A17" s="18">
+    <row r="17" spans="1:67" ht="14.25">
+      <c r="A17" s="13">
         <v>13</v>
       </c>
-      <c r="B17" s="21" t="str">
+      <c r="B17" s="16" t="str">
         <f>IF(_tag_month_all!A14="","",_tag_month_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="21" t="str">
+      <c r="C17" s="16" t="str">
         <f>IF(_tag_month_all!B14="","",_tag_month_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="22" t="str">
+      <c r="D17" s="17" t="str">
         <f>IF(_tag_month_all!C14="","",_tag_month_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="23" t="str">
+      <c r="E17" s="18" t="str">
         <f>IF(_tag_month_all!D14="","",_tag_month_all!D14)</f>
         <v/>
       </c>
-      <c r="F17" s="24" t="str">
+      <c r="F17" s="19" t="str">
         <f>IF(_tag_month_all!E14="","",_tag_month_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="25" t="str">
+      <c r="G17" s="20" t="str">
         <f>IF(_tag_month_all!F14="","",_tag_month_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="26" t="str">
+      <c r="H17" s="21" t="str">
         <f>IF(_tag_month_all!G14="","",_tag_month_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="23" t="str">
+      <c r="I17" s="18" t="str">
         <f>IF(_tag_month_all!H14="","",_tag_month_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="23" t="str">
+      <c r="J17" s="18" t="str">
         <f>IF(_tag_month_all!I14="","",_tag_month_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="32" t="str">
+      <c r="K17" s="27" t="str">
         <f>IF(_tag_month_all!J14="","",_tag_month_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="23" t="str">
+      <c r="L17" s="18" t="str">
         <f>IF(_tag_month_all!K14="","",_tag_month_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="33" t="str">
+      <c r="M17" s="28" t="str">
         <f>IF(_tag_month_all!L14="","",_tag_month_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="34" t="str">
+      <c r="N17" s="29" t="str">
         <f>IF(_tag_month_all!M14="","",_tag_month_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="35" t="str">
+      <c r="O17" s="30" t="str">
         <f>IF(_tag_month_all!N14="","",_tag_month_all!N14)</f>
         <v/>
       </c>
-      <c r="P17" s="35" t="str">
+      <c r="P17" s="30" t="str">
         <f>IF(_tag_month_all!O14="","",_tag_month_all!O14)</f>
         <v/>
       </c>
-      <c r="Q17" s="35" t="str">
+      <c r="Q17" s="30" t="str">
         <f>IF(_tag_month_all!P14="","",_tag_month_all!P14)</f>
         <v/>
       </c>
-      <c r="R17" s="43" t="str">
+      <c r="R17" s="35" t="str">
         <f>IF(_tag_month_all!Q14="","",_tag_month_all!Q14)</f>
         <v/>
       </c>
-      <c r="S17" s="43" t="str">
+      <c r="S17" s="35" t="str">
         <f>IF(_tag_month_all!R14="","",_tag_month_all!R14)</f>
         <v/>
       </c>
-      <c r="T17" s="43" t="str">
+      <c r="T17" s="35" t="str">
         <f>IF(_tag_month_all!S14="","",_tag_month_all!S14)</f>
         <v/>
       </c>
-      <c r="U17" s="43" t="str">
+      <c r="U17" s="35" t="str">
         <f>IF(_tag_month_all!T14="","",_tag_month_all!T14)</f>
         <v/>
       </c>
-      <c r="V17" s="34" t="str">
+      <c r="V17" s="29" t="str">
         <f>IF(_tag_month_all!U14="","",_tag_month_all!U14)</f>
         <v/>
       </c>
-      <c r="W17" s="35" t="str">
+      <c r="W17" s="30" t="str">
         <f>IF(_tag_month_all!V14="","",_tag_month_all!V14)</f>
         <v/>
       </c>
-      <c r="X17" s="35" t="str">
+      <c r="X17" s="30" t="str">
         <f>IF(_tag_month_all!W14="","",_tag_month_all!W14)</f>
         <v/>
       </c>
-      <c r="Y17" s="35" t="str">
+      <c r="Y17" s="30" t="str">
         <f>IF(_tag_month_all!X14="","",_tag_month_all!X14)</f>
         <v/>
       </c>
-      <c r="Z17" s="35" t="str">
+      <c r="Z17" s="30" t="str">
         <f>IF(_tag_month_all!Y14="","",_tag_month_all!Y14)</f>
         <v/>
       </c>
-      <c r="AA17" s="35" t="str">
+      <c r="AA17" s="30" t="str">
         <f>IF(_tag_month_all!Z14="","",_tag_month_all!Z14)</f>
         <v/>
       </c>
-      <c r="AB17" s="35" t="str">
+      <c r="AB17" s="30" t="str">
         <f>IF(_tag_month_all!AA14="","",_tag_month_all!AA14)</f>
         <v/>
       </c>
-      <c r="AC17" s="35" t="str">
+      <c r="AC17" s="30" t="str">
         <f>IF(_tag_month_all!AB14="","",_tag_month_all!AB14)</f>
         <v/>
       </c>
-      <c r="AD17" s="22" t="str">
+      <c r="AD17" s="17" t="str">
         <f>IF(_tag_month_all!AC14="","",_tag_month_all!AC14)</f>
         <v/>
       </c>
-      <c r="AE17" s="22" t="str">
+      <c r="AE17" s="17" t="str">
         <f>IF(_tag_month_all!AD14="","",_tag_month_all!AD14)</f>
         <v/>
       </c>
-      <c r="AF17" s="22" t="str">
+      <c r="AF17" s="17" t="str">
         <f>IF(_tag_month_all!AE14="","",_tag_month_all!AE14)</f>
         <v/>
       </c>
-      <c r="AG17" s="22" t="str">
+      <c r="AG17" s="17" t="str">
         <f>IF(_tag_month_all!AF14="","",_tag_month_all!AF14)</f>
         <v/>
       </c>
-      <c r="AH17" s="34" t="str">
+      <c r="AH17" s="29" t="str">
         <f>IF(_tag_month_all!AG14="","",_tag_month_all!AG14)</f>
         <v/>
       </c>
-      <c r="AI17" s="34" t="str">
+      <c r="AI17" s="29" t="str">
         <f>IF(_tag_month_all!AH14="","",_tag_month_all!AH14)</f>
         <v/>
       </c>
-      <c r="AJ17" s="51" t="str">
+      <c r="AJ17" s="38" t="str">
         <f>IF(_tag_month_all!AI14="","",_tag_month_all!AI14)</f>
         <v/>
       </c>
@@ -4959,147 +4361,147 @@
       </c>
       <c r="BO17" s="8"/>
     </row>
-    <row r="18" ht="14.25" spans="1:67">
-      <c r="A18" s="18">
+    <row r="18" spans="1:67" ht="14.25">
+      <c r="A18" s="13">
         <v>14</v>
       </c>
-      <c r="B18" s="21" t="str">
+      <c r="B18" s="16" t="str">
         <f>IF(_tag_month_all!A15="","",_tag_month_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="21" t="str">
+      <c r="C18" s="16" t="str">
         <f>IF(_tag_month_all!B15="","",_tag_month_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="22" t="str">
+      <c r="D18" s="17" t="str">
         <f>IF(_tag_month_all!C15="","",_tag_month_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="23" t="str">
+      <c r="E18" s="18" t="str">
         <f>IF(_tag_month_all!D15="","",_tag_month_all!D15)</f>
         <v/>
       </c>
-      <c r="F18" s="24" t="str">
+      <c r="F18" s="19" t="str">
         <f>IF(_tag_month_all!E15="","",_tag_month_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="25" t="str">
+      <c r="G18" s="20" t="str">
         <f>IF(_tag_month_all!F15="","",_tag_month_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="26" t="str">
+      <c r="H18" s="21" t="str">
         <f>IF(_tag_month_all!G15="","",_tag_month_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="23" t="str">
+      <c r="I18" s="18" t="str">
         <f>IF(_tag_month_all!H15="","",_tag_month_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="23" t="str">
+      <c r="J18" s="18" t="str">
         <f>IF(_tag_month_all!I15="","",_tag_month_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="32" t="str">
+      <c r="K18" s="27" t="str">
         <f>IF(_tag_month_all!J15="","",_tag_month_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="23" t="str">
+      <c r="L18" s="18" t="str">
         <f>IF(_tag_month_all!K15="","",_tag_month_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="33" t="str">
+      <c r="M18" s="28" t="str">
         <f>IF(_tag_month_all!L15="","",_tag_month_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="34" t="str">
+      <c r="N18" s="29" t="str">
         <f>IF(_tag_month_all!M15="","",_tag_month_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="35" t="str">
+      <c r="O18" s="30" t="str">
         <f>IF(_tag_month_all!N15="","",_tag_month_all!N15)</f>
         <v/>
       </c>
-      <c r="P18" s="35" t="str">
+      <c r="P18" s="30" t="str">
         <f>IF(_tag_month_all!O15="","",_tag_month_all!O15)</f>
         <v/>
       </c>
-      <c r="Q18" s="35" t="str">
+      <c r="Q18" s="30" t="str">
         <f>IF(_tag_month_all!P15="","",_tag_month_all!P15)</f>
         <v/>
       </c>
-      <c r="R18" s="43" t="str">
+      <c r="R18" s="35" t="str">
         <f>IF(_tag_month_all!Q15="","",_tag_month_all!Q15)</f>
         <v/>
       </c>
-      <c r="S18" s="43" t="str">
+      <c r="S18" s="35" t="str">
         <f>IF(_tag_month_all!R15="","",_tag_month_all!R15)</f>
         <v/>
       </c>
-      <c r="T18" s="43" t="str">
+      <c r="T18" s="35" t="str">
         <f>IF(_tag_month_all!S15="","",_tag_month_all!S15)</f>
         <v/>
       </c>
-      <c r="U18" s="43" t="str">
+      <c r="U18" s="35" t="str">
         <f>IF(_tag_month_all!T15="","",_tag_month_all!T15)</f>
         <v/>
       </c>
-      <c r="V18" s="34" t="str">
+      <c r="V18" s="29" t="str">
         <f>IF(_tag_month_all!U15="","",_tag_month_all!U15)</f>
         <v/>
       </c>
-      <c r="W18" s="35" t="str">
+      <c r="W18" s="30" t="str">
         <f>IF(_tag_month_all!V15="","",_tag_month_all!V15)</f>
         <v/>
       </c>
-      <c r="X18" s="35" t="str">
+      <c r="X18" s="30" t="str">
         <f>IF(_tag_month_all!W15="","",_tag_month_all!W15)</f>
         <v/>
       </c>
-      <c r="Y18" s="35" t="str">
+      <c r="Y18" s="30" t="str">
         <f>IF(_tag_month_all!X15="","",_tag_month_all!X15)</f>
         <v/>
       </c>
-      <c r="Z18" s="35" t="str">
+      <c r="Z18" s="30" t="str">
         <f>IF(_tag_month_all!Y15="","",_tag_month_all!Y15)</f>
         <v/>
       </c>
-      <c r="AA18" s="35" t="str">
+      <c r="AA18" s="30" t="str">
         <f>IF(_tag_month_all!Z15="","",_tag_month_all!Z15)</f>
         <v/>
       </c>
-      <c r="AB18" s="35" t="str">
+      <c r="AB18" s="30" t="str">
         <f>IF(_tag_month_all!AA15="","",_tag_month_all!AA15)</f>
         <v/>
       </c>
-      <c r="AC18" s="35" t="str">
+      <c r="AC18" s="30" t="str">
         <f>IF(_tag_month_all!AB15="","",_tag_month_all!AB15)</f>
         <v/>
       </c>
-      <c r="AD18" s="22" t="str">
+      <c r="AD18" s="17" t="str">
         <f>IF(_tag_month_all!AC15="","",_tag_month_all!AC15)</f>
         <v/>
       </c>
-      <c r="AE18" s="22" t="str">
+      <c r="AE18" s="17" t="str">
         <f>IF(_tag_month_all!AD15="","",_tag_month_all!AD15)</f>
         <v/>
       </c>
-      <c r="AF18" s="22" t="str">
+      <c r="AF18" s="17" t="str">
         <f>IF(_tag_month_all!AE15="","",_tag_month_all!AE15)</f>
         <v/>
       </c>
-      <c r="AG18" s="22" t="str">
+      <c r="AG18" s="17" t="str">
         <f>IF(_tag_month_all!AF15="","",_tag_month_all!AF15)</f>
         <v/>
       </c>
-      <c r="AH18" s="34" t="str">
+      <c r="AH18" s="29" t="str">
         <f>IF(_tag_month_all!AG15="","",_tag_month_all!AG15)</f>
         <v/>
       </c>
-      <c r="AI18" s="34" t="str">
+      <c r="AI18" s="29" t="str">
         <f>IF(_tag_month_all!AH15="","",_tag_month_all!AH15)</f>
         <v/>
       </c>
-      <c r="AJ18" s="51" t="str">
+      <c r="AJ18" s="38" t="str">
         <f>IF(_tag_month_all!AI15="","",_tag_month_all!AI15)</f>
         <v/>
       </c>
@@ -5225,147 +4627,147 @@
       </c>
       <c r="BO18" s="8"/>
     </row>
-    <row r="19" ht="14.25" spans="1:67">
-      <c r="A19" s="18">
+    <row r="19" spans="1:67" ht="14.25">
+      <c r="A19" s="13">
         <v>15</v>
       </c>
-      <c r="B19" s="21" t="str">
+      <c r="B19" s="16" t="str">
         <f>IF(_tag_month_all!A16="","",_tag_month_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="21" t="str">
+      <c r="C19" s="16" t="str">
         <f>IF(_tag_month_all!B16="","",_tag_month_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="22" t="str">
+      <c r="D19" s="17" t="str">
         <f>IF(_tag_month_all!C16="","",_tag_month_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="23" t="str">
+      <c r="E19" s="18" t="str">
         <f>IF(_tag_month_all!D16="","",_tag_month_all!D16)</f>
         <v/>
       </c>
-      <c r="F19" s="24" t="str">
+      <c r="F19" s="19" t="str">
         <f>IF(_tag_month_all!E16="","",_tag_month_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="25" t="str">
+      <c r="G19" s="20" t="str">
         <f>IF(_tag_month_all!F16="","",_tag_month_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="26" t="str">
+      <c r="H19" s="21" t="str">
         <f>IF(_tag_month_all!G16="","",_tag_month_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="23" t="str">
+      <c r="I19" s="18" t="str">
         <f>IF(_tag_month_all!H16="","",_tag_month_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="23" t="str">
+      <c r="J19" s="18" t="str">
         <f>IF(_tag_month_all!I16="","",_tag_month_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="32" t="str">
+      <c r="K19" s="27" t="str">
         <f>IF(_tag_month_all!J16="","",_tag_month_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="23" t="str">
+      <c r="L19" s="18" t="str">
         <f>IF(_tag_month_all!K16="","",_tag_month_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="33" t="str">
+      <c r="M19" s="28" t="str">
         <f>IF(_tag_month_all!L16="","",_tag_month_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="34" t="str">
+      <c r="N19" s="29" t="str">
         <f>IF(_tag_month_all!M16="","",_tag_month_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="35" t="str">
+      <c r="O19" s="30" t="str">
         <f>IF(_tag_month_all!N16="","",_tag_month_all!N16)</f>
         <v/>
       </c>
-      <c r="P19" s="35" t="str">
+      <c r="P19" s="30" t="str">
         <f>IF(_tag_month_all!O16="","",_tag_month_all!O16)</f>
         <v/>
       </c>
-      <c r="Q19" s="35" t="str">
+      <c r="Q19" s="30" t="str">
         <f>IF(_tag_month_all!P16="","",_tag_month_all!P16)</f>
         <v/>
       </c>
-      <c r="R19" s="43" t="str">
+      <c r="R19" s="35" t="str">
         <f>IF(_tag_month_all!Q16="","",_tag_month_all!Q16)</f>
         <v/>
       </c>
-      <c r="S19" s="43" t="str">
+      <c r="S19" s="35" t="str">
         <f>IF(_tag_month_all!R16="","",_tag_month_all!R16)</f>
         <v/>
       </c>
-      <c r="T19" s="43" t="str">
+      <c r="T19" s="35" t="str">
         <f>IF(_tag_month_all!S16="","",_tag_month_all!S16)</f>
         <v/>
       </c>
-      <c r="U19" s="43" t="str">
+      <c r="U19" s="35" t="str">
         <f>IF(_tag_month_all!T16="","",_tag_month_all!T16)</f>
         <v/>
       </c>
-      <c r="V19" s="34" t="str">
+      <c r="V19" s="29" t="str">
         <f>IF(_tag_month_all!U16="","",_tag_month_all!U16)</f>
         <v/>
       </c>
-      <c r="W19" s="35" t="str">
+      <c r="W19" s="30" t="str">
         <f>IF(_tag_month_all!V16="","",_tag_month_all!V16)</f>
         <v/>
       </c>
-      <c r="X19" s="35" t="str">
+      <c r="X19" s="30" t="str">
         <f>IF(_tag_month_all!W16="","",_tag_month_all!W16)</f>
         <v/>
       </c>
-      <c r="Y19" s="35" t="str">
+      <c r="Y19" s="30" t="str">
         <f>IF(_tag_month_all!X16="","",_tag_month_all!X16)</f>
         <v/>
       </c>
-      <c r="Z19" s="35" t="str">
+      <c r="Z19" s="30" t="str">
         <f>IF(_tag_month_all!Y16="","",_tag_month_all!Y16)</f>
         <v/>
       </c>
-      <c r="AA19" s="35" t="str">
+      <c r="AA19" s="30" t="str">
         <f>IF(_tag_month_all!Z16="","",_tag_month_all!Z16)</f>
         <v/>
       </c>
-      <c r="AB19" s="35" t="str">
+      <c r="AB19" s="30" t="str">
         <f>IF(_tag_month_all!AA16="","",_tag_month_all!AA16)</f>
         <v/>
       </c>
-      <c r="AC19" s="35" t="str">
+      <c r="AC19" s="30" t="str">
         <f>IF(_tag_month_all!AB16="","",_tag_month_all!AB16)</f>
         <v/>
       </c>
-      <c r="AD19" s="22" t="str">
+      <c r="AD19" s="17" t="str">
         <f>IF(_tag_month_all!AC16="","",_tag_month_all!AC16)</f>
         <v/>
       </c>
-      <c r="AE19" s="22" t="str">
+      <c r="AE19" s="17" t="str">
         <f>IF(_tag_month_all!AD16="","",_tag_month_all!AD16)</f>
         <v/>
       </c>
-      <c r="AF19" s="22" t="str">
+      <c r="AF19" s="17" t="str">
         <f>IF(_tag_month_all!AE16="","",_tag_month_all!AE16)</f>
         <v/>
       </c>
-      <c r="AG19" s="22" t="str">
+      <c r="AG19" s="17" t="str">
         <f>IF(_tag_month_all!AF16="","",_tag_month_all!AF16)</f>
         <v/>
       </c>
-      <c r="AH19" s="34" t="str">
+      <c r="AH19" s="29" t="str">
         <f>IF(_tag_month_all!AG16="","",_tag_month_all!AG16)</f>
         <v/>
       </c>
-      <c r="AI19" s="34" t="str">
+      <c r="AI19" s="29" t="str">
         <f>IF(_tag_month_all!AH16="","",_tag_month_all!AH16)</f>
         <v/>
       </c>
-      <c r="AJ19" s="51" t="str">
+      <c r="AJ19" s="38" t="str">
         <f>IF(_tag_month_all!AI16="","",_tag_month_all!AI16)</f>
         <v/>
       </c>
@@ -5491,147 +4893,147 @@
       </c>
       <c r="BO19" s="8"/>
     </row>
-    <row r="20" ht="14.25" spans="1:67">
-      <c r="A20" s="18">
+    <row r="20" spans="1:67" ht="14.25">
+      <c r="A20" s="13">
         <v>16</v>
       </c>
-      <c r="B20" s="21" t="str">
+      <c r="B20" s="16" t="str">
         <f>IF(_tag_month_all!A17="","",_tag_month_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="21" t="str">
+      <c r="C20" s="16" t="str">
         <f>IF(_tag_month_all!B17="","",_tag_month_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="22" t="str">
+      <c r="D20" s="17" t="str">
         <f>IF(_tag_month_all!C17="","",_tag_month_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="23" t="str">
+      <c r="E20" s="18" t="str">
         <f>IF(_tag_month_all!D17="","",_tag_month_all!D17)</f>
         <v/>
       </c>
-      <c r="F20" s="24" t="str">
+      <c r="F20" s="19" t="str">
         <f>IF(_tag_month_all!E17="","",_tag_month_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="25" t="str">
+      <c r="G20" s="20" t="str">
         <f>IF(_tag_month_all!F17="","",_tag_month_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="26" t="str">
+      <c r="H20" s="21" t="str">
         <f>IF(_tag_month_all!G17="","",_tag_month_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="23" t="str">
+      <c r="I20" s="18" t="str">
         <f>IF(_tag_month_all!H17="","",_tag_month_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="23" t="str">
+      <c r="J20" s="18" t="str">
         <f>IF(_tag_month_all!I17="","",_tag_month_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="32" t="str">
+      <c r="K20" s="27" t="str">
         <f>IF(_tag_month_all!J17="","",_tag_month_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="23" t="str">
+      <c r="L20" s="18" t="str">
         <f>IF(_tag_month_all!K17="","",_tag_month_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="33" t="str">
+      <c r="M20" s="28" t="str">
         <f>IF(_tag_month_all!L17="","",_tag_month_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="34" t="str">
+      <c r="N20" s="29" t="str">
         <f>IF(_tag_month_all!M17="","",_tag_month_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="35" t="str">
+      <c r="O20" s="30" t="str">
         <f>IF(_tag_month_all!N17="","",_tag_month_all!N17)</f>
         <v/>
       </c>
-      <c r="P20" s="35" t="str">
+      <c r="P20" s="30" t="str">
         <f>IF(_tag_month_all!O17="","",_tag_month_all!O17)</f>
         <v/>
       </c>
-      <c r="Q20" s="35" t="str">
+      <c r="Q20" s="30" t="str">
         <f>IF(_tag_month_all!P17="","",_tag_month_all!P17)</f>
         <v/>
       </c>
-      <c r="R20" s="43" t="str">
+      <c r="R20" s="35" t="str">
         <f>IF(_tag_month_all!Q17="","",_tag_month_all!Q17)</f>
         <v/>
       </c>
-      <c r="S20" s="43" t="str">
+      <c r="S20" s="35" t="str">
         <f>IF(_tag_month_all!R17="","",_tag_month_all!R17)</f>
         <v/>
       </c>
-      <c r="T20" s="43" t="str">
+      <c r="T20" s="35" t="str">
         <f>IF(_tag_month_all!S17="","",_tag_month_all!S17)</f>
         <v/>
       </c>
-      <c r="U20" s="43" t="str">
+      <c r="U20" s="35" t="str">
         <f>IF(_tag_month_all!T17="","",_tag_month_all!T17)</f>
         <v/>
       </c>
-      <c r="V20" s="34" t="str">
+      <c r="V20" s="29" t="str">
         <f>IF(_tag_month_all!U17="","",_tag_month_all!U17)</f>
         <v/>
       </c>
-      <c r="W20" s="35" t="str">
+      <c r="W20" s="30" t="str">
         <f>IF(_tag_month_all!V17="","",_tag_month_all!V17)</f>
         <v/>
       </c>
-      <c r="X20" s="35" t="str">
+      <c r="X20" s="30" t="str">
         <f>IF(_tag_month_all!W17="","",_tag_month_all!W17)</f>
         <v/>
       </c>
-      <c r="Y20" s="35" t="str">
+      <c r="Y20" s="30" t="str">
         <f>IF(_tag_month_all!X17="","",_tag_month_all!X17)</f>
         <v/>
       </c>
-      <c r="Z20" s="35" t="str">
+      <c r="Z20" s="30" t="str">
         <f>IF(_tag_month_all!Y17="","",_tag_month_all!Y17)</f>
         <v/>
       </c>
-      <c r="AA20" s="35" t="str">
+      <c r="AA20" s="30" t="str">
         <f>IF(_tag_month_all!Z17="","",_tag_month_all!Z17)</f>
         <v/>
       </c>
-      <c r="AB20" s="35" t="str">
+      <c r="AB20" s="30" t="str">
         <f>IF(_tag_month_all!AA17="","",_tag_month_all!AA17)</f>
         <v/>
       </c>
-      <c r="AC20" s="35" t="str">
+      <c r="AC20" s="30" t="str">
         <f>IF(_tag_month_all!AB17="","",_tag_month_all!AB17)</f>
         <v/>
       </c>
-      <c r="AD20" s="22" t="str">
+      <c r="AD20" s="17" t="str">
         <f>IF(_tag_month_all!AC17="","",_tag_month_all!AC17)</f>
         <v/>
       </c>
-      <c r="AE20" s="22" t="str">
+      <c r="AE20" s="17" t="str">
         <f>IF(_tag_month_all!AD17="","",_tag_month_all!AD17)</f>
         <v/>
       </c>
-      <c r="AF20" s="22" t="str">
+      <c r="AF20" s="17" t="str">
         <f>IF(_tag_month_all!AE17="","",_tag_month_all!AE17)</f>
         <v/>
       </c>
-      <c r="AG20" s="22" t="str">
+      <c r="AG20" s="17" t="str">
         <f>IF(_tag_month_all!AF17="","",_tag_month_all!AF17)</f>
         <v/>
       </c>
-      <c r="AH20" s="34" t="str">
+      <c r="AH20" s="29" t="str">
         <f>IF(_tag_month_all!AG17="","",_tag_month_all!AG17)</f>
         <v/>
       </c>
-      <c r="AI20" s="34" t="str">
+      <c r="AI20" s="29" t="str">
         <f>IF(_tag_month_all!AH17="","",_tag_month_all!AH17)</f>
         <v/>
       </c>
-      <c r="AJ20" s="51" t="str">
+      <c r="AJ20" s="38" t="str">
         <f>IF(_tag_month_all!AI17="","",_tag_month_all!AI17)</f>
         <v/>
       </c>
@@ -5757,147 +5159,147 @@
       </c>
       <c r="BO20" s="8"/>
     </row>
-    <row r="21" ht="14.25" spans="1:67">
-      <c r="A21" s="18">
+    <row r="21" spans="1:67" ht="14.25">
+      <c r="A21" s="13">
         <v>17</v>
       </c>
-      <c r="B21" s="21" t="str">
+      <c r="B21" s="16" t="str">
         <f>IF(_tag_month_all!A18="","",_tag_month_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="21" t="str">
+      <c r="C21" s="16" t="str">
         <f>IF(_tag_month_all!B18="","",_tag_month_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="22" t="str">
+      <c r="D21" s="17" t="str">
         <f>IF(_tag_month_all!C18="","",_tag_month_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="23" t="str">
+      <c r="E21" s="18" t="str">
         <f>IF(_tag_month_all!D18="","",_tag_month_all!D18)</f>
         <v/>
       </c>
-      <c r="F21" s="24" t="str">
+      <c r="F21" s="19" t="str">
         <f>IF(_tag_month_all!E18="","",_tag_month_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="25" t="str">
+      <c r="G21" s="20" t="str">
         <f>IF(_tag_month_all!F18="","",_tag_month_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="26" t="str">
+      <c r="H21" s="21" t="str">
         <f>IF(_tag_month_all!G18="","",_tag_month_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="23" t="str">
+      <c r="I21" s="18" t="str">
         <f>IF(_tag_month_all!H18="","",_tag_month_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="23" t="str">
+      <c r="J21" s="18" t="str">
         <f>IF(_tag_month_all!I18="","",_tag_month_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="32" t="str">
+      <c r="K21" s="27" t="str">
         <f>IF(_tag_month_all!J18="","",_tag_month_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="23" t="str">
+      <c r="L21" s="18" t="str">
         <f>IF(_tag_month_all!K18="","",_tag_month_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="33" t="str">
+      <c r="M21" s="28" t="str">
         <f>IF(_tag_month_all!L18="","",_tag_month_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="34" t="str">
+      <c r="N21" s="29" t="str">
         <f>IF(_tag_month_all!M18="","",_tag_month_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="35" t="str">
+      <c r="O21" s="30" t="str">
         <f>IF(_tag_month_all!N18="","",_tag_month_all!N18)</f>
         <v/>
       </c>
-      <c r="P21" s="35" t="str">
+      <c r="P21" s="30" t="str">
         <f>IF(_tag_month_all!O18="","",_tag_month_all!O18)</f>
         <v/>
       </c>
-      <c r="Q21" s="35" t="str">
+      <c r="Q21" s="30" t="str">
         <f>IF(_tag_month_all!P18="","",_tag_month_all!P18)</f>
         <v/>
       </c>
-      <c r="R21" s="43" t="str">
+      <c r="R21" s="35" t="str">
         <f>IF(_tag_month_all!Q18="","",_tag_month_all!Q18)</f>
         <v/>
       </c>
-      <c r="S21" s="43" t="str">
+      <c r="S21" s="35" t="str">
         <f>IF(_tag_month_all!R18="","",_tag_month_all!R18)</f>
         <v/>
       </c>
-      <c r="T21" s="43" t="str">
+      <c r="T21" s="35" t="str">
         <f>IF(_tag_month_all!S18="","",_tag_month_all!S18)</f>
         <v/>
       </c>
-      <c r="U21" s="43" t="str">
+      <c r="U21" s="35" t="str">
         <f>IF(_tag_month_all!T18="","",_tag_month_all!T18)</f>
         <v/>
       </c>
-      <c r="V21" s="34" t="str">
+      <c r="V21" s="29" t="str">
         <f>IF(_tag_month_all!U18="","",_tag_month_all!U18)</f>
         <v/>
       </c>
-      <c r="W21" s="35" t="str">
+      <c r="W21" s="30" t="str">
         <f>IF(_tag_month_all!V18="","",_tag_month_all!V18)</f>
         <v/>
       </c>
-      <c r="X21" s="35" t="str">
+      <c r="X21" s="30" t="str">
         <f>IF(_tag_month_all!W18="","",_tag_month_all!W18)</f>
         <v/>
       </c>
-      <c r="Y21" s="35" t="str">
+      <c r="Y21" s="30" t="str">
         <f>IF(_tag_month_all!X18="","",_tag_month_all!X18)</f>
         <v/>
       </c>
-      <c r="Z21" s="35" t="str">
+      <c r="Z21" s="30" t="str">
         <f>IF(_tag_month_all!Y18="","",_tag_month_all!Y18)</f>
         <v/>
       </c>
-      <c r="AA21" s="35" t="str">
+      <c r="AA21" s="30" t="str">
         <f>IF(_tag_month_all!Z18="","",_tag_month_all!Z18)</f>
         <v/>
       </c>
-      <c r="AB21" s="35" t="str">
+      <c r="AB21" s="30" t="str">
         <f>IF(_tag_month_all!AA18="","",_tag_month_all!AA18)</f>
         <v/>
       </c>
-      <c r="AC21" s="35" t="str">
+      <c r="AC21" s="30" t="str">
         <f>IF(_tag_month_all!AB18="","",_tag_month_all!AB18)</f>
         <v/>
       </c>
-      <c r="AD21" s="22" t="str">
+      <c r="AD21" s="17" t="str">
         <f>IF(_tag_month_all!AC18="","",_tag_month_all!AC18)</f>
         <v/>
       </c>
-      <c r="AE21" s="22" t="str">
+      <c r="AE21" s="17" t="str">
         <f>IF(_tag_month_all!AD18="","",_tag_month_all!AD18)</f>
         <v/>
       </c>
-      <c r="AF21" s="22" t="str">
+      <c r="AF21" s="17" t="str">
         <f>IF(_tag_month_all!AE18="","",_tag_month_all!AE18)</f>
         <v/>
       </c>
-      <c r="AG21" s="22" t="str">
+      <c r="AG21" s="17" t="str">
         <f>IF(_tag_month_all!AF18="","",_tag_month_all!AF18)</f>
         <v/>
       </c>
-      <c r="AH21" s="34" t="str">
+      <c r="AH21" s="29" t="str">
         <f>IF(_tag_month_all!AG18="","",_tag_month_all!AG18)</f>
         <v/>
       </c>
-      <c r="AI21" s="34" t="str">
+      <c r="AI21" s="29" t="str">
         <f>IF(_tag_month_all!AH18="","",_tag_month_all!AH18)</f>
         <v/>
       </c>
-      <c r="AJ21" s="51" t="str">
+      <c r="AJ21" s="38" t="str">
         <f>IF(_tag_month_all!AI18="","",_tag_month_all!AI18)</f>
         <v/>
       </c>
@@ -6023,147 +5425,147 @@
       </c>
       <c r="BO21" s="8"/>
     </row>
-    <row r="22" ht="14.25" spans="1:67">
-      <c r="A22" s="18">
+    <row r="22" spans="1:67" ht="14.25">
+      <c r="A22" s="13">
         <v>18</v>
       </c>
-      <c r="B22" s="21" t="str">
+      <c r="B22" s="16" t="str">
         <f>IF(_tag_month_all!A19="","",_tag_month_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="21" t="str">
+      <c r="C22" s="16" t="str">
         <f>IF(_tag_month_all!B19="","",_tag_month_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="22" t="str">
+      <c r="D22" s="17" t="str">
         <f>IF(_tag_month_all!C19="","",_tag_month_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="23" t="str">
+      <c r="E22" s="18" t="str">
         <f>IF(_tag_month_all!D19="","",_tag_month_all!D19)</f>
         <v/>
       </c>
-      <c r="F22" s="24" t="str">
+      <c r="F22" s="19" t="str">
         <f>IF(_tag_month_all!E19="","",_tag_month_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="25" t="str">
+      <c r="G22" s="20" t="str">
         <f>IF(_tag_month_all!F19="","",_tag_month_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="26" t="str">
+      <c r="H22" s="21" t="str">
         <f>IF(_tag_month_all!G19="","",_tag_month_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="23" t="str">
+      <c r="I22" s="18" t="str">
         <f>IF(_tag_month_all!H19="","",_tag_month_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="23" t="str">
+      <c r="J22" s="18" t="str">
         <f>IF(_tag_month_all!I19="","",_tag_month_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="32" t="str">
+      <c r="K22" s="27" t="str">
         <f>IF(_tag_month_all!J19="","",_tag_month_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="23" t="str">
+      <c r="L22" s="18" t="str">
         <f>IF(_tag_month_all!K19="","",_tag_month_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="33" t="str">
+      <c r="M22" s="28" t="str">
         <f>IF(_tag_month_all!L19="","",_tag_month_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="34" t="str">
+      <c r="N22" s="29" t="str">
         <f>IF(_tag_month_all!M19="","",_tag_month_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="35" t="str">
+      <c r="O22" s="30" t="str">
         <f>IF(_tag_month_all!N19="","",_tag_month_all!N19)</f>
         <v/>
       </c>
-      <c r="P22" s="35" t="str">
+      <c r="P22" s="30" t="str">
         <f>IF(_tag_month_all!O19="","",_tag_month_all!O19)</f>
         <v/>
       </c>
-      <c r="Q22" s="35" t="str">
+      <c r="Q22" s="30" t="str">
         <f>IF(_tag_month_all!P19="","",_tag_month_all!P19)</f>
         <v/>
       </c>
-      <c r="R22" s="43" t="str">
+      <c r="R22" s="35" t="str">
         <f>IF(_tag_month_all!Q19="","",_tag_month_all!Q19)</f>
         <v/>
       </c>
-      <c r="S22" s="43" t="str">
+      <c r="S22" s="35" t="str">
         <f>IF(_tag_month_all!R19="","",_tag_month_all!R19)</f>
         <v/>
       </c>
-      <c r="T22" s="43" t="str">
+      <c r="T22" s="35" t="str">
         <f>IF(_tag_month_all!S19="","",_tag_month_all!S19)</f>
         <v/>
       </c>
-      <c r="U22" s="43" t="str">
+      <c r="U22" s="35" t="str">
         <f>IF(_tag_month_all!T19="","",_tag_month_all!T19)</f>
         <v/>
       </c>
-      <c r="V22" s="34" t="str">
+      <c r="V22" s="29" t="str">
         <f>IF(_tag_month_all!U19="","",_tag_month_all!U19)</f>
         <v/>
       </c>
-      <c r="W22" s="35" t="str">
+      <c r="W22" s="30" t="str">
         <f>IF(_tag_month_all!V19="","",_tag_month_all!V19)</f>
         <v/>
       </c>
-      <c r="X22" s="35" t="str">
+      <c r="X22" s="30" t="str">
         <f>IF(_tag_month_all!W19="","",_tag_month_all!W19)</f>
         <v/>
       </c>
-      <c r="Y22" s="35" t="str">
+      <c r="Y22" s="30" t="str">
         <f>IF(_tag_month_all!X19="","",_tag_month_all!X19)</f>
         <v/>
       </c>
-      <c r="Z22" s="35" t="str">
+      <c r="Z22" s="30" t="str">
         <f>IF(_tag_month_all!Y19="","",_tag_month_all!Y19)</f>
         <v/>
       </c>
-      <c r="AA22" s="35" t="str">
+      <c r="AA22" s="30" t="str">
         <f>IF(_tag_month_all!Z19="","",_tag_month_all!Z19)</f>
         <v/>
       </c>
-      <c r="AB22" s="35" t="str">
+      <c r="AB22" s="30" t="str">
         <f>IF(_tag_month_all!AA19="","",_tag_month_all!AA19)</f>
         <v/>
       </c>
-      <c r="AC22" s="35" t="str">
+      <c r="AC22" s="30" t="str">
         <f>IF(_tag_month_all!AB19="","",_tag_month_all!AB19)</f>
         <v/>
       </c>
-      <c r="AD22" s="22" t="str">
+      <c r="AD22" s="17" t="str">
         <f>IF(_tag_month_all!AC19="","",_tag_month_all!AC19)</f>
         <v/>
       </c>
-      <c r="AE22" s="22" t="str">
+      <c r="AE22" s="17" t="str">
         <f>IF(_tag_month_all!AD19="","",_tag_month_all!AD19)</f>
         <v/>
       </c>
-      <c r="AF22" s="22" t="str">
+      <c r="AF22" s="17" t="str">
         <f>IF(_tag_month_all!AE19="","",_tag_month_all!AE19)</f>
         <v/>
       </c>
-      <c r="AG22" s="22" t="str">
+      <c r="AG22" s="17" t="str">
         <f>IF(_tag_month_all!AF19="","",_tag_month_all!AF19)</f>
         <v/>
       </c>
-      <c r="AH22" s="34" t="str">
+      <c r="AH22" s="29" t="str">
         <f>IF(_tag_month_all!AG19="","",_tag_month_all!AG19)</f>
         <v/>
       </c>
-      <c r="AI22" s="34" t="str">
+      <c r="AI22" s="29" t="str">
         <f>IF(_tag_month_all!AH19="","",_tag_month_all!AH19)</f>
         <v/>
       </c>
-      <c r="AJ22" s="51" t="str">
+      <c r="AJ22" s="38" t="str">
         <f>IF(_tag_month_all!AI19="","",_tag_month_all!AI19)</f>
         <v/>
       </c>
@@ -6289,147 +5691,147 @@
       </c>
       <c r="BO22" s="8"/>
     </row>
-    <row r="23" ht="14.25" spans="1:67">
-      <c r="A23" s="18">
+    <row r="23" spans="1:67" ht="14.25">
+      <c r="A23" s="13">
         <v>19</v>
       </c>
-      <c r="B23" s="21" t="str">
+      <c r="B23" s="16" t="str">
         <f>IF(_tag_month_all!A20="","",_tag_month_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="21" t="str">
+      <c r="C23" s="16" t="str">
         <f>IF(_tag_month_all!B20="","",_tag_month_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="22" t="str">
+      <c r="D23" s="17" t="str">
         <f>IF(_tag_month_all!C20="","",_tag_month_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="23" t="str">
+      <c r="E23" s="18" t="str">
         <f>IF(_tag_month_all!D20="","",_tag_month_all!D20)</f>
         <v/>
       </c>
-      <c r="F23" s="24" t="str">
+      <c r="F23" s="19" t="str">
         <f>IF(_tag_month_all!E20="","",_tag_month_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="25" t="str">
+      <c r="G23" s="20" t="str">
         <f>IF(_tag_month_all!F20="","",_tag_month_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="26" t="str">
+      <c r="H23" s="21" t="str">
         <f>IF(_tag_month_all!G20="","",_tag_month_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="23" t="str">
+      <c r="I23" s="18" t="str">
         <f>IF(_tag_month_all!H20="","",_tag_month_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="23" t="str">
+      <c r="J23" s="18" t="str">
         <f>IF(_tag_month_all!I20="","",_tag_month_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="32" t="str">
+      <c r="K23" s="27" t="str">
         <f>IF(_tag_month_all!J20="","",_tag_month_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="23" t="str">
+      <c r="L23" s="18" t="str">
         <f>IF(_tag_month_all!K20="","",_tag_month_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="33" t="str">
+      <c r="M23" s="28" t="str">
         <f>IF(_tag_month_all!L20="","",_tag_month_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="34" t="str">
+      <c r="N23" s="29" t="str">
         <f>IF(_tag_month_all!M20="","",_tag_month_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="35" t="str">
+      <c r="O23" s="30" t="str">
         <f>IF(_tag_month_all!N20="","",_tag_month_all!N20)</f>
         <v/>
       </c>
-      <c r="P23" s="35" t="str">
+      <c r="P23" s="30" t="str">
         <f>IF(_tag_month_all!O20="","",_tag_month_all!O20)</f>
         <v/>
       </c>
-      <c r="Q23" s="35" t="str">
+      <c r="Q23" s="30" t="str">
         <f>IF(_tag_month_all!P20="","",_tag_month_all!P20)</f>
         <v/>
       </c>
-      <c r="R23" s="43" t="str">
+      <c r="R23" s="35" t="str">
         <f>IF(_tag_month_all!Q20="","",_tag_month_all!Q20)</f>
         <v/>
       </c>
-      <c r="S23" s="43" t="str">
+      <c r="S23" s="35" t="str">
         <f>IF(_tag_month_all!R20="","",_tag_month_all!R20)</f>
         <v/>
       </c>
-      <c r="T23" s="43" t="str">
+      <c r="T23" s="35" t="str">
         <f>IF(_tag_month_all!S20="","",_tag_month_all!S20)</f>
         <v/>
       </c>
-      <c r="U23" s="43" t="str">
+      <c r="U23" s="35" t="str">
         <f>IF(_tag_month_all!T20="","",_tag_month_all!T20)</f>
         <v/>
       </c>
-      <c r="V23" s="34" t="str">
+      <c r="V23" s="29" t="str">
         <f>IF(_tag_month_all!U20="","",_tag_month_all!U20)</f>
         <v/>
       </c>
-      <c r="W23" s="35" t="str">
+      <c r="W23" s="30" t="str">
         <f>IF(_tag_month_all!V20="","",_tag_month_all!V20)</f>
         <v/>
       </c>
-      <c r="X23" s="35" t="str">
+      <c r="X23" s="30" t="str">
         <f>IF(_tag_month_all!W20="","",_tag_month_all!W20)</f>
         <v/>
       </c>
-      <c r="Y23" s="35" t="str">
+      <c r="Y23" s="30" t="str">
         <f>IF(_tag_month_all!X20="","",_tag_month_all!X20)</f>
         <v/>
       </c>
-      <c r="Z23" s="35" t="str">
+      <c r="Z23" s="30" t="str">
         <f>IF(_tag_month_all!Y20="","",_tag_month_all!Y20)</f>
         <v/>
       </c>
-      <c r="AA23" s="35" t="str">
+      <c r="AA23" s="30" t="str">
         <f>IF(_tag_month_all!Z20="","",_tag_month_all!Z20)</f>
         <v/>
       </c>
-      <c r="AB23" s="35" t="str">
+      <c r="AB23" s="30" t="str">
         <f>IF(_tag_month_all!AA20="","",_tag_month_all!AA20)</f>
         <v/>
       </c>
-      <c r="AC23" s="35" t="str">
+      <c r="AC23" s="30" t="str">
         <f>IF(_tag_month_all!AB20="","",_tag_month_all!AB20)</f>
         <v/>
       </c>
-      <c r="AD23" s="22" t="str">
+      <c r="AD23" s="17" t="str">
         <f>IF(_tag_month_all!AC20="","",_tag_month_all!AC20)</f>
         <v/>
       </c>
-      <c r="AE23" s="22" t="str">
+      <c r="AE23" s="17" t="str">
         <f>IF(_tag_month_all!AD20="","",_tag_month_all!AD20)</f>
         <v/>
       </c>
-      <c r="AF23" s="22" t="str">
+      <c r="AF23" s="17" t="str">
         <f>IF(_tag_month_all!AE20="","",_tag_month_all!AE20)</f>
         <v/>
       </c>
-      <c r="AG23" s="22" t="str">
+      <c r="AG23" s="17" t="str">
         <f>IF(_tag_month_all!AF20="","",_tag_month_all!AF20)</f>
         <v/>
       </c>
-      <c r="AH23" s="34" t="str">
+      <c r="AH23" s="29" t="str">
         <f>IF(_tag_month_all!AG20="","",_tag_month_all!AG20)</f>
         <v/>
       </c>
-      <c r="AI23" s="34" t="str">
+      <c r="AI23" s="29" t="str">
         <f>IF(_tag_month_all!AH20="","",_tag_month_all!AH20)</f>
         <v/>
       </c>
-      <c r="AJ23" s="51" t="str">
+      <c r="AJ23" s="38" t="str">
         <f>IF(_tag_month_all!AI20="","",_tag_month_all!AI20)</f>
         <v/>
       </c>
@@ -6555,147 +5957,147 @@
       </c>
       <c r="BO23" s="8"/>
     </row>
-    <row r="24" ht="14.25" spans="1:67">
-      <c r="A24" s="18">
+    <row r="24" spans="1:67" ht="14.25">
+      <c r="A24" s="13">
         <v>20</v>
       </c>
-      <c r="B24" s="21" t="str">
+      <c r="B24" s="16" t="str">
         <f>IF(_tag_month_all!A21="","",_tag_month_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="21" t="str">
+      <c r="C24" s="16" t="str">
         <f>IF(_tag_month_all!B21="","",_tag_month_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="22" t="str">
+      <c r="D24" s="17" t="str">
         <f>IF(_tag_month_all!C21="","",_tag_month_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="23" t="str">
+      <c r="E24" s="18" t="str">
         <f>IF(_tag_month_all!D21="","",_tag_month_all!D21)</f>
         <v/>
       </c>
-      <c r="F24" s="24" t="str">
+      <c r="F24" s="19" t="str">
         <f>IF(_tag_month_all!E21="","",_tag_month_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="25" t="str">
+      <c r="G24" s="20" t="str">
         <f>IF(_tag_month_all!F21="","",_tag_month_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="26" t="str">
+      <c r="H24" s="21" t="str">
         <f>IF(_tag_month_all!G21="","",_tag_month_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="23" t="str">
+      <c r="I24" s="18" t="str">
         <f>IF(_tag_month_all!H21="","",_tag_month_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="23" t="str">
+      <c r="J24" s="18" t="str">
         <f>IF(_tag_month_all!I21="","",_tag_month_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="32" t="str">
+      <c r="K24" s="27" t="str">
         <f>IF(_tag_month_all!J21="","",_tag_month_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="23" t="str">
+      <c r="L24" s="18" t="str">
         <f>IF(_tag_month_all!K21="","",_tag_month_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="33" t="str">
+      <c r="M24" s="28" t="str">
         <f>IF(_tag_month_all!L21="","",_tag_month_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="34" t="str">
+      <c r="N24" s="29" t="str">
         <f>IF(_tag_month_all!M21="","",_tag_month_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="35" t="str">
+      <c r="O24" s="30" t="str">
         <f>IF(_tag_month_all!N21="","",_tag_month_all!N21)</f>
         <v/>
       </c>
-      <c r="P24" s="35" t="str">
+      <c r="P24" s="30" t="str">
         <f>IF(_tag_month_all!O21="","",_tag_month_all!O21)</f>
         <v/>
       </c>
-      <c r="Q24" s="35" t="str">
+      <c r="Q24" s="30" t="str">
         <f>IF(_tag_month_all!P21="","",_tag_month_all!P21)</f>
         <v/>
       </c>
-      <c r="R24" s="43" t="str">
+      <c r="R24" s="35" t="str">
         <f>IF(_tag_month_all!Q21="","",_tag_month_all!Q21)</f>
         <v/>
       </c>
-      <c r="S24" s="43" t="str">
+      <c r="S24" s="35" t="str">
         <f>IF(_tag_month_all!R21="","",_tag_month_all!R21)</f>
         <v/>
       </c>
-      <c r="T24" s="43" t="str">
+      <c r="T24" s="35" t="str">
         <f>IF(_tag_month_all!S21="","",_tag_month_all!S21)</f>
         <v/>
       </c>
-      <c r="U24" s="43" t="str">
+      <c r="U24" s="35" t="str">
         <f>IF(_tag_month_all!T21="","",_tag_month_all!T21)</f>
         <v/>
       </c>
-      <c r="V24" s="34" t="str">
+      <c r="V24" s="29" t="str">
         <f>IF(_tag_month_all!U21="","",_tag_month_all!U21)</f>
         <v/>
       </c>
-      <c r="W24" s="35" t="str">
+      <c r="W24" s="30" t="str">
         <f>IF(_tag_month_all!V21="","",_tag_month_all!V21)</f>
         <v/>
       </c>
-      <c r="X24" s="35" t="str">
+      <c r="X24" s="30" t="str">
         <f>IF(_tag_month_all!W21="","",_tag_month_all!W21)</f>
         <v/>
       </c>
-      <c r="Y24" s="35" t="str">
+      <c r="Y24" s="30" t="str">
         <f>IF(_tag_month_all!X21="","",_tag_month_all!X21)</f>
         <v/>
       </c>
-      <c r="Z24" s="35" t="str">
+      <c r="Z24" s="30" t="str">
         <f>IF(_tag_month_all!Y21="","",_tag_month_all!Y21)</f>
         <v/>
       </c>
-      <c r="AA24" s="35" t="str">
+      <c r="AA24" s="30" t="str">
         <f>IF(_tag_month_all!Z21="","",_tag_month_all!Z21)</f>
         <v/>
       </c>
-      <c r="AB24" s="35" t="str">
+      <c r="AB24" s="30" t="str">
         <f>IF(_tag_month_all!AA21="","",_tag_month_all!AA21)</f>
         <v/>
       </c>
-      <c r="AC24" s="35" t="str">
+      <c r="AC24" s="30" t="str">
         <f>IF(_tag_month_all!AB21="","",_tag_month_all!AB21)</f>
         <v/>
       </c>
-      <c r="AD24" s="22" t="str">
+      <c r="AD24" s="17" t="str">
         <f>IF(_tag_month_all!AC21="","",_tag_month_all!AC21)</f>
         <v/>
       </c>
-      <c r="AE24" s="22" t="str">
+      <c r="AE24" s="17" t="str">
         <f>IF(_tag_month_all!AD21="","",_tag_month_all!AD21)</f>
         <v/>
       </c>
-      <c r="AF24" s="22" t="str">
+      <c r="AF24" s="17" t="str">
         <f>IF(_tag_month_all!AE21="","",_tag_month_all!AE21)</f>
         <v/>
       </c>
-      <c r="AG24" s="22" t="str">
+      <c r="AG24" s="17" t="str">
         <f>IF(_tag_month_all!AF21="","",_tag_month_all!AF21)</f>
         <v/>
       </c>
-      <c r="AH24" s="34" t="str">
+      <c r="AH24" s="29" t="str">
         <f>IF(_tag_month_all!AG21="","",_tag_month_all!AG21)</f>
         <v/>
       </c>
-      <c r="AI24" s="34" t="str">
+      <c r="AI24" s="29" t="str">
         <f>IF(_tag_month_all!AH21="","",_tag_month_all!AH21)</f>
         <v/>
       </c>
-      <c r="AJ24" s="51" t="str">
+      <c r="AJ24" s="38" t="str">
         <f>IF(_tag_month_all!AI21="","",_tag_month_all!AI21)</f>
         <v/>
       </c>
@@ -6821,147 +6223,147 @@
       </c>
       <c r="BO24" s="8"/>
     </row>
-    <row r="25" ht="14.25" spans="1:67">
-      <c r="A25" s="18">
+    <row r="25" spans="1:67" ht="14.25">
+      <c r="A25" s="13">
         <v>21</v>
       </c>
-      <c r="B25" s="21" t="str">
+      <c r="B25" s="16" t="str">
         <f>IF(_tag_month_all!A22="","",_tag_month_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="21" t="str">
+      <c r="C25" s="16" t="str">
         <f>IF(_tag_month_all!B22="","",_tag_month_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="22" t="str">
+      <c r="D25" s="17" t="str">
         <f>IF(_tag_month_all!C22="","",_tag_month_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="23" t="str">
+      <c r="E25" s="18" t="str">
         <f>IF(_tag_month_all!D22="","",_tag_month_all!D22)</f>
         <v/>
       </c>
-      <c r="F25" s="24" t="str">
+      <c r="F25" s="19" t="str">
         <f>IF(_tag_month_all!E22="","",_tag_month_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="25" t="str">
+      <c r="G25" s="20" t="str">
         <f>IF(_tag_month_all!F22="","",_tag_month_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="26" t="str">
+      <c r="H25" s="21" t="str">
         <f>IF(_tag_month_all!G22="","",_tag_month_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="23" t="str">
+      <c r="I25" s="18" t="str">
         <f>IF(_tag_month_all!H22="","",_tag_month_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="23" t="str">
+      <c r="J25" s="18" t="str">
         <f>IF(_tag_month_all!I22="","",_tag_month_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="32" t="str">
+      <c r="K25" s="27" t="str">
         <f>IF(_tag_month_all!J22="","",_tag_month_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="23" t="str">
+      <c r="L25" s="18" t="str">
         <f>IF(_tag_month_all!K22="","",_tag_month_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="33" t="str">
+      <c r="M25" s="28" t="str">
         <f>IF(_tag_month_all!L22="","",_tag_month_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="34" t="str">
+      <c r="N25" s="29" t="str">
         <f>IF(_tag_month_all!M22="","",_tag_month_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="35" t="str">
+      <c r="O25" s="30" t="str">
         <f>IF(_tag_month_all!N22="","",_tag_month_all!N22)</f>
         <v/>
       </c>
-      <c r="P25" s="35" t="str">
+      <c r="P25" s="30" t="str">
         <f>IF(_tag_month_all!O22="","",_tag_month_all!O22)</f>
         <v/>
       </c>
-      <c r="Q25" s="35" t="str">
+      <c r="Q25" s="30" t="str">
         <f>IF(_tag_month_all!P22="","",_tag_month_all!P22)</f>
         <v/>
       </c>
-      <c r="R25" s="43" t="str">
+      <c r="R25" s="35" t="str">
         <f>IF(_tag_month_all!Q22="","",_tag_month_all!Q22)</f>
         <v/>
       </c>
-      <c r="S25" s="43" t="str">
+      <c r="S25" s="35" t="str">
         <f>IF(_tag_month_all!R22="","",_tag_month_all!R22)</f>
         <v/>
       </c>
-      <c r="T25" s="43" t="str">
+      <c r="T25" s="35" t="str">
         <f>IF(_tag_month_all!S22="","",_tag_month_all!S22)</f>
         <v/>
       </c>
-      <c r="U25" s="43" t="str">
+      <c r="U25" s="35" t="str">
         <f>IF(_tag_month_all!T22="","",_tag_month_all!T22)</f>
         <v/>
       </c>
-      <c r="V25" s="34" t="str">
+      <c r="V25" s="29" t="str">
         <f>IF(_tag_month_all!U22="","",_tag_month_all!U22)</f>
         <v/>
       </c>
-      <c r="W25" s="35" t="str">
+      <c r="W25" s="30" t="str">
         <f>IF(_tag_month_all!V22="","",_tag_month_all!V22)</f>
         <v/>
       </c>
-      <c r="X25" s="35" t="str">
+      <c r="X25" s="30" t="str">
         <f>IF(_tag_month_all!W22="","",_tag_month_all!W22)</f>
         <v/>
       </c>
-      <c r="Y25" s="35" t="str">
+      <c r="Y25" s="30" t="str">
         <f>IF(_tag_month_all!X22="","",_tag_month_all!X22)</f>
         <v/>
       </c>
-      <c r="Z25" s="35" t="str">
+      <c r="Z25" s="30" t="str">
         <f>IF(_tag_month_all!Y22="","",_tag_month_all!Y22)</f>
         <v/>
       </c>
-      <c r="AA25" s="35" t="str">
+      <c r="AA25" s="30" t="str">
         <f>IF(_tag_month_all!Z22="","",_tag_month_all!Z22)</f>
         <v/>
       </c>
-      <c r="AB25" s="35" t="str">
+      <c r="AB25" s="30" t="str">
         <f>IF(_tag_month_all!AA22="","",_tag_month_all!AA22)</f>
         <v/>
       </c>
-      <c r="AC25" s="35" t="str">
+      <c r="AC25" s="30" t="str">
         <f>IF(_tag_month_all!AB22="","",_tag_month_all!AB22)</f>
         <v/>
       </c>
-      <c r="AD25" s="22" t="str">
+      <c r="AD25" s="17" t="str">
         <f>IF(_tag_month_all!AC22="","",_tag_month_all!AC22)</f>
         <v/>
       </c>
-      <c r="AE25" s="22" t="str">
+      <c r="AE25" s="17" t="str">
         <f>IF(_tag_month_all!AD22="","",_tag_month_all!AD22)</f>
         <v/>
       </c>
-      <c r="AF25" s="22" t="str">
+      <c r="AF25" s="17" t="str">
         <f>IF(_tag_month_all!AE22="","",_tag_month_all!AE22)</f>
         <v/>
       </c>
-      <c r="AG25" s="22" t="str">
+      <c r="AG25" s="17" t="str">
         <f>IF(_tag_month_all!AF22="","",_tag_month_all!AF22)</f>
         <v/>
       </c>
-      <c r="AH25" s="34" t="str">
+      <c r="AH25" s="29" t="str">
         <f>IF(_tag_month_all!AG22="","",_tag_month_all!AG22)</f>
         <v/>
       </c>
-      <c r="AI25" s="34" t="str">
+      <c r="AI25" s="29" t="str">
         <f>IF(_tag_month_all!AH22="","",_tag_month_all!AH22)</f>
         <v/>
       </c>
-      <c r="AJ25" s="51" t="str">
+      <c r="AJ25" s="38" t="str">
         <f>IF(_tag_month_all!AI22="","",_tag_month_all!AI22)</f>
         <v/>
       </c>
@@ -7087,147 +6489,147 @@
       </c>
       <c r="BO25" s="8"/>
     </row>
-    <row r="26" ht="14.25" spans="1:67">
-      <c r="A26" s="18">
+    <row r="26" spans="1:67" ht="14.25">
+      <c r="A26" s="13">
         <v>22</v>
       </c>
-      <c r="B26" s="21" t="str">
+      <c r="B26" s="16" t="str">
         <f>IF(_tag_month_all!A23="","",_tag_month_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="21" t="str">
+      <c r="C26" s="16" t="str">
         <f>IF(_tag_month_all!B23="","",_tag_month_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="22" t="str">
+      <c r="D26" s="17" t="str">
         <f>IF(_tag_month_all!C23="","",_tag_month_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="23" t="str">
+      <c r="E26" s="18" t="str">
         <f>IF(_tag_month_all!D23="","",_tag_month_all!D23)</f>
         <v/>
       </c>
-      <c r="F26" s="24" t="str">
+      <c r="F26" s="19" t="str">
         <f>IF(_tag_month_all!E23="","",_tag_month_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="25" t="str">
+      <c r="G26" s="20" t="str">
         <f>IF(_tag_month_all!F23="","",_tag_month_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="26" t="str">
+      <c r="H26" s="21" t="str">
         <f>IF(_tag_month_all!G23="","",_tag_month_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="23" t="str">
+      <c r="I26" s="18" t="str">
         <f>IF(_tag_month_all!H23="","",_tag_month_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="23" t="str">
+      <c r="J26" s="18" t="str">
         <f>IF(_tag_month_all!I23="","",_tag_month_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="32" t="str">
+      <c r="K26" s="27" t="str">
         <f>IF(_tag_month_all!J23="","",_tag_month_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="23" t="str">
+      <c r="L26" s="18" t="str">
         <f>IF(_tag_month_all!K23="","",_tag_month_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="33" t="str">
+      <c r="M26" s="28" t="str">
         <f>IF(_tag_month_all!L23="","",_tag_month_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="34" t="str">
+      <c r="N26" s="29" t="str">
         <f>IF(_tag_month_all!M23="","",_tag_month_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="35" t="str">
+      <c r="O26" s="30" t="str">
         <f>IF(_tag_month_all!N23="","",_tag_month_all!N23)</f>
         <v/>
       </c>
-      <c r="P26" s="35" t="str">
+      <c r="P26" s="30" t="str">
         <f>IF(_tag_month_all!O23="","",_tag_month_all!O23)</f>
         <v/>
       </c>
-      <c r="Q26" s="35" t="str">
+      <c r="Q26" s="30" t="str">
         <f>IF(_tag_month_all!P23="","",_tag_month_all!P23)</f>
         <v/>
       </c>
-      <c r="R26" s="43" t="str">
+      <c r="R26" s="35" t="str">
         <f>IF(_tag_month_all!Q23="","",_tag_month_all!Q23)</f>
         <v/>
       </c>
-      <c r="S26" s="43" t="str">
+      <c r="S26" s="35" t="str">
         <f>IF(_tag_month_all!R23="","",_tag_month_all!R23)</f>
         <v/>
       </c>
-      <c r="T26" s="43" t="str">
+      <c r="T26" s="35" t="str">
         <f>IF(_tag_month_all!S23="","",_tag_month_all!S23)</f>
         <v/>
       </c>
-      <c r="U26" s="43" t="str">
+      <c r="U26" s="35" t="str">
         <f>IF(_tag_month_all!T23="","",_tag_month_all!T23)</f>
         <v/>
       </c>
-      <c r="V26" s="34" t="str">
+      <c r="V26" s="29" t="str">
         <f>IF(_tag_month_all!U23="","",_tag_month_all!U23)</f>
         <v/>
       </c>
-      <c r="W26" s="35" t="str">
+      <c r="W26" s="30" t="str">
         <f>IF(_tag_month_all!V23="","",_tag_month_all!V23)</f>
         <v/>
       </c>
-      <c r="X26" s="35" t="str">
+      <c r="X26" s="30" t="str">
         <f>IF(_tag_month_all!W23="","",_tag_month_all!W23)</f>
         <v/>
       </c>
-      <c r="Y26" s="35" t="str">
+      <c r="Y26" s="30" t="str">
         <f>IF(_tag_month_all!X23="","",_tag_month_all!X23)</f>
         <v/>
       </c>
-      <c r="Z26" s="35" t="str">
+      <c r="Z26" s="30" t="str">
         <f>IF(_tag_month_all!Y23="","",_tag_month_all!Y23)</f>
         <v/>
       </c>
-      <c r="AA26" s="35" t="str">
+      <c r="AA26" s="30" t="str">
         <f>IF(_tag_month_all!Z23="","",_tag_month_all!Z23)</f>
         <v/>
       </c>
-      <c r="AB26" s="35" t="str">
+      <c r="AB26" s="30" t="str">
         <f>IF(_tag_month_all!AA23="","",_tag_month_all!AA23)</f>
         <v/>
       </c>
-      <c r="AC26" s="35" t="str">
+      <c r="AC26" s="30" t="str">
         <f>IF(_tag_month_all!AB23="","",_tag_month_all!AB23)</f>
         <v/>
       </c>
-      <c r="AD26" s="22" t="str">
+      <c r="AD26" s="17" t="str">
         <f>IF(_tag_month_all!AC23="","",_tag_month_all!AC23)</f>
         <v/>
       </c>
-      <c r="AE26" s="22" t="str">
+      <c r="AE26" s="17" t="str">
         <f>IF(_tag_month_all!AD23="","",_tag_month_all!AD23)</f>
         <v/>
       </c>
-      <c r="AF26" s="22" t="str">
+      <c r="AF26" s="17" t="str">
         <f>IF(_tag_month_all!AE23="","",_tag_month_all!AE23)</f>
         <v/>
       </c>
-      <c r="AG26" s="22" t="str">
+      <c r="AG26" s="17" t="str">
         <f>IF(_tag_month_all!AF23="","",_tag_month_all!AF23)</f>
         <v/>
       </c>
-      <c r="AH26" s="34" t="str">
+      <c r="AH26" s="29" t="str">
         <f>IF(_tag_month_all!AG23="","",_tag_month_all!AG23)</f>
         <v/>
       </c>
-      <c r="AI26" s="34" t="str">
+      <c r="AI26" s="29" t="str">
         <f>IF(_tag_month_all!AH23="","",_tag_month_all!AH23)</f>
         <v/>
       </c>
-      <c r="AJ26" s="51" t="str">
+      <c r="AJ26" s="38" t="str">
         <f>IF(_tag_month_all!AI23="","",_tag_month_all!AI23)</f>
         <v/>
       </c>
@@ -7353,147 +6755,147 @@
       </c>
       <c r="BO26" s="8"/>
     </row>
-    <row r="27" ht="14.25" spans="1:67">
-      <c r="A27" s="18">
+    <row r="27" spans="1:67" ht="14.25">
+      <c r="A27" s="13">
         <v>23</v>
       </c>
-      <c r="B27" s="21" t="str">
+      <c r="B27" s="16" t="str">
         <f>IF(_tag_month_all!A24="","",_tag_month_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="21" t="str">
+      <c r="C27" s="16" t="str">
         <f>IF(_tag_month_all!B24="","",_tag_month_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="22" t="str">
+      <c r="D27" s="17" t="str">
         <f>IF(_tag_month_all!C24="","",_tag_month_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="23" t="str">
+      <c r="E27" s="18" t="str">
         <f>IF(_tag_month_all!D24="","",_tag_month_all!D24)</f>
         <v/>
       </c>
-      <c r="F27" s="24" t="str">
+      <c r="F27" s="19" t="str">
         <f>IF(_tag_month_all!E24="","",_tag_month_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="25" t="str">
+      <c r="G27" s="20" t="str">
         <f>IF(_tag_month_all!F24="","",_tag_month_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="26" t="str">
+      <c r="H27" s="21" t="str">
         <f>IF(_tag_month_all!G24="","",_tag_month_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="23" t="str">
+      <c r="I27" s="18" t="str">
         <f>IF(_tag_month_all!H24="","",_tag_month_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="23" t="str">
+      <c r="J27" s="18" t="str">
         <f>IF(_tag_month_all!I24="","",_tag_month_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="32" t="str">
+      <c r="K27" s="27" t="str">
         <f>IF(_tag_month_all!J24="","",_tag_month_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="23" t="str">
+      <c r="L27" s="18" t="str">
         <f>IF(_tag_month_all!K24="","",_tag_month_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="33" t="str">
+      <c r="M27" s="28" t="str">
         <f>IF(_tag_month_all!L24="","",_tag_month_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="34" t="str">
+      <c r="N27" s="29" t="str">
         <f>IF(_tag_month_all!M24="","",_tag_month_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="35" t="str">
+      <c r="O27" s="30" t="str">
         <f>IF(_tag_month_all!N24="","",_tag_month_all!N24)</f>
         <v/>
       </c>
-      <c r="P27" s="35" t="str">
+      <c r="P27" s="30" t="str">
         <f>IF(_tag_month_all!O24="","",_tag_month_all!O24)</f>
         <v/>
       </c>
-      <c r="Q27" s="35" t="str">
+      <c r="Q27" s="30" t="str">
         <f>IF(_tag_month_all!P24="","",_tag_month_all!P24)</f>
         <v/>
       </c>
-      <c r="R27" s="43" t="str">
+      <c r="R27" s="35" t="str">
         <f>IF(_tag_month_all!Q24="","",_tag_month_all!Q24)</f>
         <v/>
       </c>
-      <c r="S27" s="43" t="str">
+      <c r="S27" s="35" t="str">
         <f>IF(_tag_month_all!R24="","",_tag_month_all!R24)</f>
         <v/>
       </c>
-      <c r="T27" s="43" t="str">
+      <c r="T27" s="35" t="str">
         <f>IF(_tag_month_all!S24="","",_tag_month_all!S24)</f>
         <v/>
       </c>
-      <c r="U27" s="43" t="str">
+      <c r="U27" s="35" t="str">
         <f>IF(_tag_month_all!T24="","",_tag_month_all!T24)</f>
         <v/>
       </c>
-      <c r="V27" s="34" t="str">
+      <c r="V27" s="29" t="str">
         <f>IF(_tag_month_all!U24="","",_tag_month_all!U24)</f>
         <v/>
       </c>
-      <c r="W27" s="35" t="str">
+      <c r="W27" s="30" t="str">
         <f>IF(_tag_month_all!V24="","",_tag_month_all!V24)</f>
         <v/>
       </c>
-      <c r="X27" s="35" t="str">
+      <c r="X27" s="30" t="str">
         <f>IF(_tag_month_all!W24="","",_tag_month_all!W24)</f>
         <v/>
       </c>
-      <c r="Y27" s="35" t="str">
+      <c r="Y27" s="30" t="str">
         <f>IF(_tag_month_all!X24="","",_tag_month_all!X24)</f>
         <v/>
       </c>
-      <c r="Z27" s="35" t="str">
+      <c r="Z27" s="30" t="str">
         <f>IF(_tag_month_all!Y24="","",_tag_month_all!Y24)</f>
         <v/>
       </c>
-      <c r="AA27" s="35" t="str">
+      <c r="AA27" s="30" t="str">
         <f>IF(_tag_month_all!Z24="","",_tag_month_all!Z24)</f>
         <v/>
       </c>
-      <c r="AB27" s="35" t="str">
+      <c r="AB27" s="30" t="str">
         <f>IF(_tag_month_all!AA24="","",_tag_month_all!AA24)</f>
         <v/>
       </c>
-      <c r="AC27" s="35" t="str">
+      <c r="AC27" s="30" t="str">
         <f>IF(_tag_month_all!AB24="","",_tag_month_all!AB24)</f>
         <v/>
       </c>
-      <c r="AD27" s="22" t="str">
+      <c r="AD27" s="17" t="str">
         <f>IF(_tag_month_all!AC24="","",_tag_month_all!AC24)</f>
         <v/>
       </c>
-      <c r="AE27" s="22" t="str">
+      <c r="AE27" s="17" t="str">
         <f>IF(_tag_month_all!AD24="","",_tag_month_all!AD24)</f>
         <v/>
       </c>
-      <c r="AF27" s="22" t="str">
+      <c r="AF27" s="17" t="str">
         <f>IF(_tag_month_all!AE24="","",_tag_month_all!AE24)</f>
         <v/>
       </c>
-      <c r="AG27" s="22" t="str">
+      <c r="AG27" s="17" t="str">
         <f>IF(_tag_month_all!AF24="","",_tag_month_all!AF24)</f>
         <v/>
       </c>
-      <c r="AH27" s="34" t="str">
+      <c r="AH27" s="29" t="str">
         <f>IF(_tag_month_all!AG24="","",_tag_month_all!AG24)</f>
         <v/>
       </c>
-      <c r="AI27" s="34" t="str">
+      <c r="AI27" s="29" t="str">
         <f>IF(_tag_month_all!AH24="","",_tag_month_all!AH24)</f>
         <v/>
       </c>
-      <c r="AJ27" s="51" t="str">
+      <c r="AJ27" s="38" t="str">
         <f>IF(_tag_month_all!AI24="","",_tag_month_all!AI24)</f>
         <v/>
       </c>
@@ -7619,147 +7021,147 @@
       </c>
       <c r="BO27" s="8"/>
     </row>
-    <row r="28" ht="14.25" spans="1:67">
-      <c r="A28" s="18">
+    <row r="28" spans="1:67" ht="14.25">
+      <c r="A28" s="13">
         <v>24</v>
       </c>
-      <c r="B28" s="21" t="str">
+      <c r="B28" s="16" t="str">
         <f>IF(_tag_month_all!A25="","",_tag_month_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="21" t="str">
+      <c r="C28" s="16" t="str">
         <f>IF(_tag_month_all!B25="","",_tag_month_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="22" t="str">
+      <c r="D28" s="17" t="str">
         <f>IF(_tag_month_all!C25="","",_tag_month_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="23" t="str">
+      <c r="E28" s="18" t="str">
         <f>IF(_tag_month_all!D25="","",_tag_month_all!D25)</f>
         <v/>
       </c>
-      <c r="F28" s="24" t="str">
+      <c r="F28" s="19" t="str">
         <f>IF(_tag_month_all!E25="","",_tag_month_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="25" t="str">
+      <c r="G28" s="20" t="str">
         <f>IF(_tag_month_all!F25="","",_tag_month_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="26" t="str">
+      <c r="H28" s="21" t="str">
         <f>IF(_tag_month_all!G25="","",_tag_month_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="23" t="str">
+      <c r="I28" s="18" t="str">
         <f>IF(_tag_month_all!H25="","",_tag_month_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="23" t="str">
+      <c r="J28" s="18" t="str">
         <f>IF(_tag_month_all!I25="","",_tag_month_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="32" t="str">
+      <c r="K28" s="27" t="str">
         <f>IF(_tag_month_all!J25="","",_tag_month_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="23" t="str">
+      <c r="L28" s="18" t="str">
         <f>IF(_tag_month_all!K25="","",_tag_month_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="33" t="str">
+      <c r="M28" s="28" t="str">
         <f>IF(_tag_month_all!L25="","",_tag_month_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="34" t="str">
+      <c r="N28" s="29" t="str">
         <f>IF(_tag_month_all!M25="","",_tag_month_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="35" t="str">
+      <c r="O28" s="30" t="str">
         <f>IF(_tag_month_all!N25="","",_tag_month_all!N25)</f>
         <v/>
       </c>
-      <c r="P28" s="35" t="str">
+      <c r="P28" s="30" t="str">
         <f>IF(_tag_month_all!O25="","",_tag_month_all!O25)</f>
         <v/>
       </c>
-      <c r="Q28" s="35" t="str">
+      <c r="Q28" s="30" t="str">
         <f>IF(_tag_month_all!P25="","",_tag_month_all!P25)</f>
         <v/>
       </c>
-      <c r="R28" s="43" t="str">
+      <c r="R28" s="35" t="str">
         <f>IF(_tag_month_all!Q25="","",_tag_month_all!Q25)</f>
         <v/>
       </c>
-      <c r="S28" s="43" t="str">
+      <c r="S28" s="35" t="str">
         <f>IF(_tag_month_all!R25="","",_tag_month_all!R25)</f>
         <v/>
       </c>
-      <c r="T28" s="43" t="str">
+      <c r="T28" s="35" t="str">
         <f>IF(_tag_month_all!S25="","",_tag_month_all!S25)</f>
         <v/>
       </c>
-      <c r="U28" s="43" t="str">
+      <c r="U28" s="35" t="str">
         <f>IF(_tag_month_all!T25="","",_tag_month_all!T25)</f>
         <v/>
       </c>
-      <c r="V28" s="34" t="str">
+      <c r="V28" s="29" t="str">
         <f>IF(_tag_month_all!U25="","",_tag_month_all!U25)</f>
         <v/>
       </c>
-      <c r="W28" s="35" t="str">
+      <c r="W28" s="30" t="str">
         <f>IF(_tag_month_all!V25="","",_tag_month_all!V25)</f>
         <v/>
       </c>
-      <c r="X28" s="35" t="str">
+      <c r="X28" s="30" t="str">
         <f>IF(_tag_month_all!W25="","",_tag_month_all!W25)</f>
         <v/>
       </c>
-      <c r="Y28" s="35" t="str">
+      <c r="Y28" s="30" t="str">
         <f>IF(_tag_month_all!X25="","",_tag_month_all!X25)</f>
         <v/>
       </c>
-      <c r="Z28" s="35" t="str">
+      <c r="Z28" s="30" t="str">
         <f>IF(_tag_month_all!Y25="","",_tag_month_all!Y25)</f>
         <v/>
       </c>
-      <c r="AA28" s="35" t="str">
+      <c r="AA28" s="30" t="str">
         <f>IF(_tag_month_all!Z25="","",_tag_month_all!Z25)</f>
         <v/>
       </c>
-      <c r="AB28" s="35" t="str">
+      <c r="AB28" s="30" t="str">
         <f>IF(_tag_month_all!AA25="","",_tag_month_all!AA25)</f>
         <v/>
       </c>
-      <c r="AC28" s="35" t="str">
+      <c r="AC28" s="30" t="str">
         <f>IF(_tag_month_all!AB25="","",_tag_month_all!AB25)</f>
         <v/>
       </c>
-      <c r="AD28" s="22" t="str">
+      <c r="AD28" s="17" t="str">
         <f>IF(_tag_month_all!AC25="","",_tag_month_all!AC25)</f>
         <v/>
       </c>
-      <c r="AE28" s="22" t="str">
+      <c r="AE28" s="17" t="str">
         <f>IF(_tag_month_all!AD25="","",_tag_month_all!AD25)</f>
         <v/>
       </c>
-      <c r="AF28" s="22" t="str">
+      <c r="AF28" s="17" t="str">
         <f>IF(_tag_month_all!AE25="","",_tag_month_all!AE25)</f>
         <v/>
       </c>
-      <c r="AG28" s="22" t="str">
+      <c r="AG28" s="17" t="str">
         <f>IF(_tag_month_all!AF25="","",_tag_month_all!AF25)</f>
         <v/>
       </c>
-      <c r="AH28" s="34" t="str">
+      <c r="AH28" s="29" t="str">
         <f>IF(_tag_month_all!AG25="","",_tag_month_all!AG25)</f>
         <v/>
       </c>
-      <c r="AI28" s="34" t="str">
+      <c r="AI28" s="29" t="str">
         <f>IF(_tag_month_all!AH25="","",_tag_month_all!AH25)</f>
         <v/>
       </c>
-      <c r="AJ28" s="51" t="str">
+      <c r="AJ28" s="38" t="str">
         <f>IF(_tag_month_all!AI25="","",_tag_month_all!AI25)</f>
         <v/>
       </c>
@@ -7885,147 +7287,147 @@
       </c>
       <c r="BO28" s="8"/>
     </row>
-    <row r="29" ht="14.25" spans="1:67">
-      <c r="A29" s="18">
+    <row r="29" spans="1:67" ht="14.25">
+      <c r="A29" s="13">
         <v>25</v>
       </c>
-      <c r="B29" s="21" t="str">
+      <c r="B29" s="16" t="str">
         <f>IF(_tag_month_all!A26="","",_tag_month_all!A26)</f>
         <v/>
       </c>
-      <c r="C29" s="21" t="str">
+      <c r="C29" s="16" t="str">
         <f>IF(_tag_month_all!B26="","",_tag_month_all!B26)</f>
         <v/>
       </c>
-      <c r="D29" s="22" t="str">
+      <c r="D29" s="17" t="str">
         <f>IF(_tag_month_all!C26="","",_tag_month_all!C26)</f>
         <v/>
       </c>
-      <c r="E29" s="23" t="str">
+      <c r="E29" s="18" t="str">
         <f>IF(_tag_month_all!D26="","",_tag_month_all!D26)</f>
         <v/>
       </c>
-      <c r="F29" s="24" t="str">
+      <c r="F29" s="19" t="str">
         <f>IF(_tag_month_all!E26="","",_tag_month_all!E26)</f>
         <v/>
       </c>
-      <c r="G29" s="25" t="str">
+      <c r="G29" s="20" t="str">
         <f>IF(_tag_month_all!F26="","",_tag_month_all!F26)</f>
         <v/>
       </c>
-      <c r="H29" s="26" t="str">
+      <c r="H29" s="21" t="str">
         <f>IF(_tag_month_all!G26="","",_tag_month_all!G26)</f>
         <v/>
       </c>
-      <c r="I29" s="23" t="str">
+      <c r="I29" s="18" t="str">
         <f>IF(_tag_month_all!H26="","",_tag_month_all!H26)</f>
         <v/>
       </c>
-      <c r="J29" s="23" t="str">
+      <c r="J29" s="18" t="str">
         <f>IF(_tag_month_all!I26="","",_tag_month_all!I26)</f>
         <v/>
       </c>
-      <c r="K29" s="32" t="str">
+      <c r="K29" s="27" t="str">
         <f>IF(_tag_month_all!J26="","",_tag_month_all!J26)</f>
         <v/>
       </c>
-      <c r="L29" s="23" t="str">
+      <c r="L29" s="18" t="str">
         <f>IF(_tag_month_all!K26="","",_tag_month_all!K26)</f>
         <v/>
       </c>
-      <c r="M29" s="33" t="str">
+      <c r="M29" s="28" t="str">
         <f>IF(_tag_month_all!L26="","",_tag_month_all!L26)</f>
         <v/>
       </c>
-      <c r="N29" s="34" t="str">
+      <c r="N29" s="29" t="str">
         <f>IF(_tag_month_all!M26="","",_tag_month_all!M26)</f>
         <v/>
       </c>
-      <c r="O29" s="35" t="str">
+      <c r="O29" s="30" t="str">
         <f>IF(_tag_month_all!N26="","",_tag_month_all!N26)</f>
         <v/>
       </c>
-      <c r="P29" s="35" t="str">
+      <c r="P29" s="30" t="str">
         <f>IF(_tag_month_all!O26="","",_tag_month_all!O26)</f>
         <v/>
       </c>
-      <c r="Q29" s="35" t="str">
+      <c r="Q29" s="30" t="str">
         <f>IF(_tag_month_all!P26="","",_tag_month_all!P26)</f>
         <v/>
       </c>
-      <c r="R29" s="43" t="str">
+      <c r="R29" s="35" t="str">
         <f>IF(_tag_month_all!Q26="","",_tag_month_all!Q26)</f>
         <v/>
       </c>
-      <c r="S29" s="43" t="str">
+      <c r="S29" s="35" t="str">
         <f>IF(_tag_month_all!R26="","",_tag_month_all!R26)</f>
         <v/>
       </c>
-      <c r="T29" s="43" t="str">
+      <c r="T29" s="35" t="str">
         <f>IF(_tag_month_all!S26="","",_tag_month_all!S26)</f>
         <v/>
       </c>
-      <c r="U29" s="43" t="str">
+      <c r="U29" s="35" t="str">
         <f>IF(_tag_month_all!T26="","",_tag_month_all!T26)</f>
         <v/>
       </c>
-      <c r="V29" s="34" t="str">
+      <c r="V29" s="29" t="str">
         <f>IF(_tag_month_all!U26="","",_tag_month_all!U26)</f>
         <v/>
       </c>
-      <c r="W29" s="35" t="str">
+      <c r="W29" s="30" t="str">
         <f>IF(_tag_month_all!V26="","",_tag_month_all!V26)</f>
         <v/>
       </c>
-      <c r="X29" s="35" t="str">
+      <c r="X29" s="30" t="str">
         <f>IF(_tag_month_all!W26="","",_tag_month_all!W26)</f>
         <v/>
       </c>
-      <c r="Y29" s="35" t="str">
+      <c r="Y29" s="30" t="str">
         <f>IF(_tag_month_all!X26="","",_tag_month_all!X26)</f>
         <v/>
       </c>
-      <c r="Z29" s="35" t="str">
+      <c r="Z29" s="30" t="str">
         <f>IF(_tag_month_all!Y26="","",_tag_month_all!Y26)</f>
         <v/>
       </c>
-      <c r="AA29" s="35" t="str">
+      <c r="AA29" s="30" t="str">
         <f>IF(_tag_month_all!Z26="","",_tag_month_all!Z26)</f>
         <v/>
       </c>
-      <c r="AB29" s="35" t="str">
+      <c r="AB29" s="30" t="str">
         <f>IF(_tag_month_all!AA26="","",_tag_month_all!AA26)</f>
         <v/>
       </c>
-      <c r="AC29" s="35" t="str">
+      <c r="AC29" s="30" t="str">
         <f>IF(_tag_month_all!AB26="","",_tag_month_all!AB26)</f>
         <v/>
       </c>
-      <c r="AD29" s="22" t="str">
+      <c r="AD29" s="17" t="str">
         <f>IF(_tag_month_all!AC26="","",_tag_month_all!AC26)</f>
         <v/>
       </c>
-      <c r="AE29" s="22" t="str">
+      <c r="AE29" s="17" t="str">
         <f>IF(_tag_month_all!AD26="","",_tag_month_all!AD26)</f>
         <v/>
       </c>
-      <c r="AF29" s="22" t="str">
+      <c r="AF29" s="17" t="str">
         <f>IF(_tag_month_all!AE26="","",_tag_month_all!AE26)</f>
         <v/>
       </c>
-      <c r="AG29" s="22" t="str">
+      <c r="AG29" s="17" t="str">
         <f>IF(_tag_month_all!AF26="","",_tag_month_all!AF26)</f>
         <v/>
       </c>
-      <c r="AH29" s="34" t="str">
+      <c r="AH29" s="29" t="str">
         <f>IF(_tag_month_all!AG26="","",_tag_month_all!AG26)</f>
         <v/>
       </c>
-      <c r="AI29" s="34" t="str">
+      <c r="AI29" s="29" t="str">
         <f>IF(_tag_month_all!AH26="","",_tag_month_all!AH26)</f>
         <v/>
       </c>
-      <c r="AJ29" s="51" t="str">
+      <c r="AJ29" s="38" t="str">
         <f>IF(_tag_month_all!AI26="","",_tag_month_all!AI26)</f>
         <v/>
       </c>
@@ -8151,147 +7553,147 @@
       </c>
       <c r="BO29" s="8"/>
     </row>
-    <row r="30" ht="14.25" spans="1:67">
-      <c r="A30" s="18">
+    <row r="30" spans="1:67" ht="14.25">
+      <c r="A30" s="13">
         <v>26</v>
       </c>
-      <c r="B30" s="21" t="str">
+      <c r="B30" s="16" t="str">
         <f>IF(_tag_month_all!A27="","",_tag_month_all!A27)</f>
         <v/>
       </c>
-      <c r="C30" s="21" t="str">
+      <c r="C30" s="16" t="str">
         <f>IF(_tag_month_all!B27="","",_tag_month_all!B27)</f>
         <v/>
       </c>
-      <c r="D30" s="22" t="str">
+      <c r="D30" s="17" t="str">
         <f>IF(_tag_month_all!C27="","",_tag_month_all!C27)</f>
         <v/>
       </c>
-      <c r="E30" s="23" t="str">
+      <c r="E30" s="18" t="str">
         <f>IF(_tag_month_all!D27="","",_tag_month_all!D27)</f>
         <v/>
       </c>
-      <c r="F30" s="24" t="str">
+      <c r="F30" s="19" t="str">
         <f>IF(_tag_month_all!E27="","",_tag_month_all!E27)</f>
         <v/>
       </c>
-      <c r="G30" s="25" t="str">
+      <c r="G30" s="20" t="str">
         <f>IF(_tag_month_all!F27="","",_tag_month_all!F27)</f>
         <v/>
       </c>
-      <c r="H30" s="26" t="str">
+      <c r="H30" s="21" t="str">
         <f>IF(_tag_month_all!G27="","",_tag_month_all!G27)</f>
         <v/>
       </c>
-      <c r="I30" s="23" t="str">
+      <c r="I30" s="18" t="str">
         <f>IF(_tag_month_all!H27="","",_tag_month_all!H27)</f>
         <v/>
       </c>
-      <c r="J30" s="23" t="str">
+      <c r="J30" s="18" t="str">
         <f>IF(_tag_month_all!I27="","",_tag_month_all!I27)</f>
         <v/>
       </c>
-      <c r="K30" s="32" t="str">
+      <c r="K30" s="27" t="str">
         <f>IF(_tag_month_all!J27="","",_tag_month_all!J27)</f>
         <v/>
       </c>
-      <c r="L30" s="23" t="str">
+      <c r="L30" s="18" t="str">
         <f>IF(_tag_month_all!K27="","",_tag_month_all!K27)</f>
         <v/>
       </c>
-      <c r="M30" s="33" t="str">
+      <c r="M30" s="28" t="str">
         <f>IF(_tag_month_all!L27="","",_tag_month_all!L27)</f>
         <v/>
       </c>
-      <c r="N30" s="34" t="str">
+      <c r="N30" s="29" t="str">
         <f>IF(_tag_month_all!M27="","",_tag_month_all!M27)</f>
         <v/>
       </c>
-      <c r="O30" s="35" t="str">
+      <c r="O30" s="30" t="str">
         <f>IF(_tag_month_all!N27="","",_tag_month_all!N27)</f>
         <v/>
       </c>
-      <c r="P30" s="35" t="str">
+      <c r="P30" s="30" t="str">
         <f>IF(_tag_month_all!O27="","",_tag_month_all!O27)</f>
         <v/>
       </c>
-      <c r="Q30" s="35" t="str">
+      <c r="Q30" s="30" t="str">
         <f>IF(_tag_month_all!P27="","",_tag_month_all!P27)</f>
         <v/>
       </c>
-      <c r="R30" s="43" t="str">
+      <c r="R30" s="35" t="str">
         <f>IF(_tag_month_all!Q27="","",_tag_month_all!Q27)</f>
         <v/>
       </c>
-      <c r="S30" s="43" t="str">
+      <c r="S30" s="35" t="str">
         <f>IF(_tag_month_all!R27="","",_tag_month_all!R27)</f>
         <v/>
       </c>
-      <c r="T30" s="43" t="str">
+      <c r="T30" s="35" t="str">
         <f>IF(_tag_month_all!S27="","",_tag_month_all!S27)</f>
         <v/>
       </c>
-      <c r="U30" s="43" t="str">
+      <c r="U30" s="35" t="str">
         <f>IF(_tag_month_all!T27="","",_tag_month_all!T27)</f>
         <v/>
       </c>
-      <c r="V30" s="34" t="str">
+      <c r="V30" s="29" t="str">
         <f>IF(_tag_month_all!U27="","",_tag_month_all!U27)</f>
         <v/>
       </c>
-      <c r="W30" s="35" t="str">
+      <c r="W30" s="30" t="str">
         <f>IF(_tag_month_all!V27="","",_tag_month_all!V27)</f>
         <v/>
       </c>
-      <c r="X30" s="35" t="str">
+      <c r="X30" s="30" t="str">
         <f>IF(_tag_month_all!W27="","",_tag_month_all!W27)</f>
         <v/>
       </c>
-      <c r="Y30" s="35" t="str">
+      <c r="Y30" s="30" t="str">
         <f>IF(_tag_month_all!X27="","",_tag_month_all!X27)</f>
         <v/>
       </c>
-      <c r="Z30" s="35" t="str">
+      <c r="Z30" s="30" t="str">
         <f>IF(_tag_month_all!Y27="","",_tag_month_all!Y27)</f>
         <v/>
       </c>
-      <c r="AA30" s="35" t="str">
+      <c r="AA30" s="30" t="str">
         <f>IF(_tag_month_all!Z27="","",_tag_month_all!Z27)</f>
         <v/>
       </c>
-      <c r="AB30" s="35" t="str">
+      <c r="AB30" s="30" t="str">
         <f>IF(_tag_month_all!AA27="","",_tag_month_all!AA27)</f>
         <v/>
       </c>
-      <c r="AC30" s="35" t="str">
+      <c r="AC30" s="30" t="str">
         <f>IF(_tag_month_all!AB27="","",_tag_month_all!AB27)</f>
         <v/>
       </c>
-      <c r="AD30" s="22" t="str">
+      <c r="AD30" s="17" t="str">
         <f>IF(_tag_month_all!AC27="","",_tag_month_all!AC27)</f>
         <v/>
       </c>
-      <c r="AE30" s="22" t="str">
+      <c r="AE30" s="17" t="str">
         <f>IF(_tag_month_all!AD27="","",_tag_month_all!AD27)</f>
         <v/>
       </c>
-      <c r="AF30" s="22" t="str">
+      <c r="AF30" s="17" t="str">
         <f>IF(_tag_month_all!AE27="","",_tag_month_all!AE27)</f>
         <v/>
       </c>
-      <c r="AG30" s="22" t="str">
+      <c r="AG30" s="17" t="str">
         <f>IF(_tag_month_all!AF27="","",_tag_month_all!AF27)</f>
         <v/>
       </c>
-      <c r="AH30" s="34" t="str">
+      <c r="AH30" s="29" t="str">
         <f>IF(_tag_month_all!AG27="","",_tag_month_all!AG27)</f>
         <v/>
       </c>
-      <c r="AI30" s="34" t="str">
+      <c r="AI30" s="29" t="str">
         <f>IF(_tag_month_all!AH27="","",_tag_month_all!AH27)</f>
         <v/>
       </c>
-      <c r="AJ30" s="51" t="str">
+      <c r="AJ30" s="38" t="str">
         <f>IF(_tag_month_all!AI27="","",_tag_month_all!AI27)</f>
         <v/>
       </c>
@@ -8417,147 +7819,147 @@
       </c>
       <c r="BO30" s="8"/>
     </row>
-    <row r="31" ht="14.25" spans="1:67">
-      <c r="A31" s="18">
+    <row r="31" spans="1:67" ht="14.25">
+      <c r="A31" s="13">
         <v>27</v>
       </c>
-      <c r="B31" s="21" t="str">
+      <c r="B31" s="16" t="str">
         <f>IF(_tag_month_all!A28="","",_tag_month_all!A28)</f>
         <v/>
       </c>
-      <c r="C31" s="21" t="str">
+      <c r="C31" s="16" t="str">
         <f>IF(_tag_month_all!B28="","",_tag_month_all!B28)</f>
         <v/>
       </c>
-      <c r="D31" s="22" t="str">
+      <c r="D31" s="17" t="str">
         <f>IF(_tag_month_all!C28="","",_tag_month_all!C28)</f>
         <v/>
       </c>
-      <c r="E31" s="23" t="str">
+      <c r="E31" s="18" t="str">
         <f>IF(_tag_month_all!D28="","",_tag_month_all!D28)</f>
         <v/>
       </c>
-      <c r="F31" s="24" t="str">
+      <c r="F31" s="19" t="str">
         <f>IF(_tag_month_all!E28="","",_tag_month_all!E28)</f>
         <v/>
       </c>
-      <c r="G31" s="25" t="str">
+      <c r="G31" s="20" t="str">
         <f>IF(_tag_month_all!F28="","",_tag_month_all!F28)</f>
         <v/>
       </c>
-      <c r="H31" s="26" t="str">
+      <c r="H31" s="21" t="str">
         <f>IF(_tag_month_all!G28="","",_tag_month_all!G28)</f>
         <v/>
       </c>
-      <c r="I31" s="23" t="str">
+      <c r="I31" s="18" t="str">
         <f>IF(_tag_month_all!H28="","",_tag_month_all!H28)</f>
         <v/>
       </c>
-      <c r="J31" s="23" t="str">
+      <c r="J31" s="18" t="str">
         <f>IF(_tag_month_all!I28="","",_tag_month_all!I28)</f>
         <v/>
       </c>
-      <c r="K31" s="32" t="str">
+      <c r="K31" s="27" t="str">
         <f>IF(_tag_month_all!J28="","",_tag_month_all!J28)</f>
         <v/>
       </c>
-      <c r="L31" s="23" t="str">
+      <c r="L31" s="18" t="str">
         <f>IF(_tag_month_all!K28="","",_tag_month_all!K28)</f>
         <v/>
       </c>
-      <c r="M31" s="33" t="str">
+      <c r="M31" s="28" t="str">
         <f>IF(_tag_month_all!L28="","",_tag_month_all!L28)</f>
         <v/>
       </c>
-      <c r="N31" s="34" t="str">
+      <c r="N31" s="29" t="str">
         <f>IF(_tag_month_all!M28="","",_tag_month_all!M28)</f>
         <v/>
       </c>
-      <c r="O31" s="35" t="str">
+      <c r="O31" s="30" t="str">
         <f>IF(_tag_month_all!N28="","",_tag_month_all!N28)</f>
         <v/>
       </c>
-      <c r="P31" s="35" t="str">
+      <c r="P31" s="30" t="str">
         <f>IF(_tag_month_all!O28="","",_tag_month_all!O28)</f>
         <v/>
       </c>
-      <c r="Q31" s="35" t="str">
+      <c r="Q31" s="30" t="str">
         <f>IF(_tag_month_all!P28="","",_tag_month_all!P28)</f>
         <v/>
       </c>
-      <c r="R31" s="43" t="str">
+      <c r="R31" s="35" t="str">
         <f>IF(_tag_month_all!Q28="","",_tag_month_all!Q28)</f>
         <v/>
       </c>
-      <c r="S31" s="43" t="str">
+      <c r="S31" s="35" t="str">
         <f>IF(_tag_month_all!R28="","",_tag_month_all!R28)</f>
         <v/>
       </c>
-      <c r="T31" s="43" t="str">
+      <c r="T31" s="35" t="str">
         <f>IF(_tag_month_all!S28="","",_tag_month_all!S28)</f>
         <v/>
       </c>
-      <c r="U31" s="43" t="str">
+      <c r="U31" s="35" t="str">
         <f>IF(_tag_month_all!T28="","",_tag_month_all!T28)</f>
         <v/>
       </c>
-      <c r="V31" s="34" t="str">
+      <c r="V31" s="29" t="str">
         <f>IF(_tag_month_all!U28="","",_tag_month_all!U28)</f>
         <v/>
       </c>
-      <c r="W31" s="35" t="str">
+      <c r="W31" s="30" t="str">
         <f>IF(_tag_month_all!V28="","",_tag_month_all!V28)</f>
         <v/>
       </c>
-      <c r="X31" s="35" t="str">
+      <c r="X31" s="30" t="str">
         <f>IF(_tag_month_all!W28="","",_tag_month_all!W28)</f>
         <v/>
       </c>
-      <c r="Y31" s="35" t="str">
+      <c r="Y31" s="30" t="str">
         <f>IF(_tag_month_all!X28="","",_tag_month_all!X28)</f>
         <v/>
       </c>
-      <c r="Z31" s="35" t="str">
+      <c r="Z31" s="30" t="str">
         <f>IF(_tag_month_all!Y28="","",_tag_month_all!Y28)</f>
         <v/>
       </c>
-      <c r="AA31" s="35" t="str">
+      <c r="AA31" s="30" t="str">
         <f>IF(_tag_month_all!Z28="","",_tag_month_all!Z28)</f>
         <v/>
       </c>
-      <c r="AB31" s="35" t="str">
+      <c r="AB31" s="30" t="str">
         <f>IF(_tag_month_all!AA28="","",_tag_month_all!AA28)</f>
         <v/>
       </c>
-      <c r="AC31" s="35" t="str">
+      <c r="AC31" s="30" t="str">
         <f>IF(_tag_month_all!AB28="","",_tag_month_all!AB28)</f>
         <v/>
       </c>
-      <c r="AD31" s="22" t="str">
+      <c r="AD31" s="17" t="str">
         <f>IF(_tag_month_all!AC28="","",_tag_month_all!AC28)</f>
         <v/>
       </c>
-      <c r="AE31" s="22" t="str">
+      <c r="AE31" s="17" t="str">
         <f>IF(_tag_month_all!AD28="","",_tag_month_all!AD28)</f>
         <v/>
       </c>
-      <c r="AF31" s="22" t="str">
+      <c r="AF31" s="17" t="str">
         <f>IF(_tag_month_all!AE28="","",_tag_month_all!AE28)</f>
         <v/>
       </c>
-      <c r="AG31" s="22" t="str">
+      <c r="AG31" s="17" t="str">
         <f>IF(_tag_month_all!AF28="","",_tag_month_all!AF28)</f>
         <v/>
       </c>
-      <c r="AH31" s="34" t="str">
+      <c r="AH31" s="29" t="str">
         <f>IF(_tag_month_all!AG28="","",_tag_month_all!AG28)</f>
         <v/>
       </c>
-      <c r="AI31" s="34" t="str">
+      <c r="AI31" s="29" t="str">
         <f>IF(_tag_month_all!AH28="","",_tag_month_all!AH28)</f>
         <v/>
       </c>
-      <c r="AJ31" s="51" t="str">
+      <c r="AJ31" s="38" t="str">
         <f>IF(_tag_month_all!AI28="","",_tag_month_all!AI28)</f>
         <v/>
       </c>
@@ -8683,147 +8085,147 @@
       </c>
       <c r="BO31" s="8"/>
     </row>
-    <row r="32" ht="14.25" spans="1:67">
-      <c r="A32" s="18">
+    <row r="32" spans="1:67" ht="14.25">
+      <c r="A32" s="13">
         <v>28</v>
       </c>
-      <c r="B32" s="21" t="str">
+      <c r="B32" s="16" t="str">
         <f>IF(_tag_month_all!A29="","",_tag_month_all!A29)</f>
         <v/>
       </c>
-      <c r="C32" s="21" t="str">
+      <c r="C32" s="16" t="str">
         <f>IF(_tag_month_all!B29="","",_tag_month_all!B29)</f>
         <v/>
       </c>
-      <c r="D32" s="22" t="str">
+      <c r="D32" s="17" t="str">
         <f>IF(_tag_month_all!C29="","",_tag_month_all!C29)</f>
         <v/>
       </c>
-      <c r="E32" s="23" t="str">
+      <c r="E32" s="18" t="str">
         <f>IF(_tag_month_all!D29="","",_tag_month_all!D29)</f>
         <v/>
       </c>
-      <c r="F32" s="24" t="str">
+      <c r="F32" s="19" t="str">
         <f>IF(_tag_month_all!E29="","",_tag_month_all!E29)</f>
         <v/>
       </c>
-      <c r="G32" s="25" t="str">
+      <c r="G32" s="20" t="str">
         <f>IF(_tag_month_all!F29="","",_tag_month_all!F29)</f>
         <v/>
       </c>
-      <c r="H32" s="26" t="str">
+      <c r="H32" s="21" t="str">
         <f>IF(_tag_month_all!G29="","",_tag_month_all!G29)</f>
         <v/>
       </c>
-      <c r="I32" s="23" t="str">
+      <c r="I32" s="18" t="str">
         <f>IF(_tag_month_all!H29="","",_tag_month_all!H29)</f>
         <v/>
       </c>
-      <c r="J32" s="23" t="str">
+      <c r="J32" s="18" t="str">
         <f>IF(_tag_month_all!I29="","",_tag_month_all!I29)</f>
         <v/>
       </c>
-      <c r="K32" s="32" t="str">
+      <c r="K32" s="27" t="str">
         <f>IF(_tag_month_all!J29="","",_tag_month_all!J29)</f>
         <v/>
       </c>
-      <c r="L32" s="23" t="str">
+      <c r="L32" s="18" t="str">
         <f>IF(_tag_month_all!K29="","",_tag_month_all!K29)</f>
         <v/>
       </c>
-      <c r="M32" s="33" t="str">
+      <c r="M32" s="28" t="str">
         <f>IF(_tag_month_all!L29="","",_tag_month_all!L29)</f>
         <v/>
       </c>
-      <c r="N32" s="34" t="str">
+      <c r="N32" s="29" t="str">
         <f>IF(_tag_month_all!M29="","",_tag_month_all!M29)</f>
         <v/>
       </c>
-      <c r="O32" s="35" t="str">
+      <c r="O32" s="30" t="str">
         <f>IF(_tag_month_all!N29="","",_tag_month_all!N29)</f>
         <v/>
       </c>
-      <c r="P32" s="35" t="str">
+      <c r="P32" s="30" t="str">
         <f>IF(_tag_month_all!O29="","",_tag_month_all!O29)</f>
         <v/>
       </c>
-      <c r="Q32" s="35" t="str">
+      <c r="Q32" s="30" t="str">
         <f>IF(_tag_month_all!P29="","",_tag_month_all!P29)</f>
         <v/>
       </c>
-      <c r="R32" s="43" t="str">
+      <c r="R32" s="35" t="str">
         <f>IF(_tag_month_all!Q29="","",_tag_month_all!Q29)</f>
         <v/>
       </c>
-      <c r="S32" s="43" t="str">
+      <c r="S32" s="35" t="str">
         <f>IF(_tag_month_all!R29="","",_tag_month_all!R29)</f>
         <v/>
       </c>
-      <c r="T32" s="43" t="str">
+      <c r="T32" s="35" t="str">
         <f>IF(_tag_month_all!S29="","",_tag_month_all!S29)</f>
         <v/>
       </c>
-      <c r="U32" s="43" t="str">
+      <c r="U32" s="35" t="str">
         <f>IF(_tag_month_all!T29="","",_tag_month_all!T29)</f>
         <v/>
       </c>
-      <c r="V32" s="34" t="str">
+      <c r="V32" s="29" t="str">
         <f>IF(_tag_month_all!U29="","",_tag_month_all!U29)</f>
         <v/>
       </c>
-      <c r="W32" s="35" t="str">
+      <c r="W32" s="30" t="str">
         <f>IF(_tag_month_all!V29="","",_tag_month_all!V29)</f>
         <v/>
       </c>
-      <c r="X32" s="35" t="str">
+      <c r="X32" s="30" t="str">
         <f>IF(_tag_month_all!W29="","",_tag_month_all!W29)</f>
         <v/>
       </c>
-      <c r="Y32" s="35" t="str">
+      <c r="Y32" s="30" t="str">
         <f>IF(_tag_month_all!X29="","",_tag_month_all!X29)</f>
         <v/>
       </c>
-      <c r="Z32" s="35" t="str">
+      <c r="Z32" s="30" t="str">
         <f>IF(_tag_month_all!Y29="","",_tag_month_all!Y29)</f>
         <v/>
       </c>
-      <c r="AA32" s="35" t="str">
+      <c r="AA32" s="30" t="str">
         <f>IF(_tag_month_all!Z29="","",_tag_month_all!Z29)</f>
         <v/>
       </c>
-      <c r="AB32" s="35" t="str">
+      <c r="AB32" s="30" t="str">
         <f>IF(_tag_month_all!AA29="","",_tag_month_all!AA29)</f>
         <v/>
       </c>
-      <c r="AC32" s="35" t="str">
+      <c r="AC32" s="30" t="str">
         <f>IF(_tag_month_all!AB29="","",_tag_month_all!AB29)</f>
         <v/>
       </c>
-      <c r="AD32" s="22" t="str">
+      <c r="AD32" s="17" t="str">
         <f>IF(_tag_month_all!AC29="","",_tag_month_all!AC29)</f>
         <v/>
       </c>
-      <c r="AE32" s="22" t="str">
+      <c r="AE32" s="17" t="str">
         <f>IF(_tag_month_all!AD29="","",_tag_month_all!AD29)</f>
         <v/>
       </c>
-      <c r="AF32" s="22" t="str">
+      <c r="AF32" s="17" t="str">
         <f>IF(_tag_month_all!AE29="","",_tag_month_all!AE29)</f>
         <v/>
       </c>
-      <c r="AG32" s="22" t="str">
+      <c r="AG32" s="17" t="str">
         <f>IF(_tag_month_all!AF29="","",_tag_month_all!AF29)</f>
         <v/>
       </c>
-      <c r="AH32" s="34" t="str">
+      <c r="AH32" s="29" t="str">
         <f>IF(_tag_month_all!AG29="","",_tag_month_all!AG29)</f>
         <v/>
       </c>
-      <c r="AI32" s="34" t="str">
+      <c r="AI32" s="29" t="str">
         <f>IF(_tag_month_all!AH29="","",_tag_month_all!AH29)</f>
         <v/>
       </c>
-      <c r="AJ32" s="51" t="str">
+      <c r="AJ32" s="38" t="str">
         <f>IF(_tag_month_all!AI29="","",_tag_month_all!AI29)</f>
         <v/>
       </c>
@@ -8949,147 +8351,147 @@
       </c>
       <c r="BO32" s="8"/>
     </row>
-    <row r="33" ht="14.25" spans="1:67">
-      <c r="A33" s="18">
+    <row r="33" spans="1:67" ht="14.25">
+      <c r="A33" s="13">
         <v>29</v>
       </c>
-      <c r="B33" s="21" t="str">
+      <c r="B33" s="16" t="str">
         <f>IF(_tag_month_all!A30="","",_tag_month_all!A30)</f>
         <v/>
       </c>
-      <c r="C33" s="21" t="str">
+      <c r="C33" s="16" t="str">
         <f>IF(_tag_month_all!B30="","",_tag_month_all!B30)</f>
         <v/>
       </c>
-      <c r="D33" s="22" t="str">
+      <c r="D33" s="17" t="str">
         <f>IF(_tag_month_all!C30="","",_tag_month_all!C30)</f>
         <v/>
       </c>
-      <c r="E33" s="23" t="str">
+      <c r="E33" s="18" t="str">
         <f>IF(_tag_month_all!D30="","",_tag_month_all!D30)</f>
         <v/>
       </c>
-      <c r="F33" s="24" t="str">
+      <c r="F33" s="19" t="str">
         <f>IF(_tag_month_all!E30="","",_tag_month_all!E30)</f>
         <v/>
       </c>
-      <c r="G33" s="25" t="str">
+      <c r="G33" s="20" t="str">
         <f>IF(_tag_month_all!F30="","",_tag_month_all!F30)</f>
         <v/>
       </c>
-      <c r="H33" s="26" t="str">
+      <c r="H33" s="21" t="str">
         <f>IF(_tag_month_all!G30="","",_tag_month_all!G30)</f>
         <v/>
       </c>
-      <c r="I33" s="23" t="str">
+      <c r="I33" s="18" t="str">
         <f>IF(_tag_month_all!H30="","",_tag_month_all!H30)</f>
         <v/>
       </c>
-      <c r="J33" s="23" t="str">
+      <c r="J33" s="18" t="str">
         <f>IF(_tag_month_all!I30="","",_tag_month_all!I30)</f>
         <v/>
       </c>
-      <c r="K33" s="32" t="str">
+      <c r="K33" s="27" t="str">
         <f>IF(_tag_month_all!J30="","",_tag_month_all!J30)</f>
         <v/>
       </c>
-      <c r="L33" s="23" t="str">
+      <c r="L33" s="18" t="str">
         <f>IF(_tag_month_all!K30="","",_tag_month_all!K30)</f>
         <v/>
       </c>
-      <c r="M33" s="33" t="str">
+      <c r="M33" s="28" t="str">
         <f>IF(_tag_month_all!L30="","",_tag_month_all!L30)</f>
         <v/>
       </c>
-      <c r="N33" s="34" t="str">
+      <c r="N33" s="29" t="str">
         <f>IF(_tag_month_all!M30="","",_tag_month_all!M30)</f>
         <v/>
       </c>
-      <c r="O33" s="35" t="str">
+      <c r="O33" s="30" t="str">
         <f>IF(_tag_month_all!N30="","",_tag_month_all!N30)</f>
         <v/>
       </c>
-      <c r="P33" s="35" t="str">
+      <c r="P33" s="30" t="str">
         <f>IF(_tag_month_all!O30="","",_tag_month_all!O30)</f>
         <v/>
       </c>
-      <c r="Q33" s="35" t="str">
+      <c r="Q33" s="30" t="str">
         <f>IF(_tag_month_all!P30="","",_tag_month_all!P30)</f>
         <v/>
       </c>
-      <c r="R33" s="43" t="str">
+      <c r="R33" s="35" t="str">
         <f>IF(_tag_month_all!Q30="","",_tag_month_all!Q30)</f>
         <v/>
       </c>
-      <c r="S33" s="43" t="str">
+      <c r="S33" s="35" t="str">
         <f>IF(_tag_month_all!R30="","",_tag_month_all!R30)</f>
         <v/>
       </c>
-      <c r="T33" s="43" t="str">
+      <c r="T33" s="35" t="str">
         <f>IF(_tag_month_all!S30="","",_tag_month_all!S30)</f>
         <v/>
       </c>
-      <c r="U33" s="43" t="str">
+      <c r="U33" s="35" t="str">
         <f>IF(_tag_month_all!T30="","",_tag_month_all!T30)</f>
         <v/>
       </c>
-      <c r="V33" s="34" t="str">
+      <c r="V33" s="29" t="str">
         <f>IF(_tag_month_all!U30="","",_tag_month_all!U30)</f>
         <v/>
       </c>
-      <c r="W33" s="35" t="str">
+      <c r="W33" s="30" t="str">
         <f>IF(_tag_month_all!V30="","",_tag_month_all!V30)</f>
         <v/>
       </c>
-      <c r="X33" s="35" t="str">
+      <c r="X33" s="30" t="str">
         <f>IF(_tag_month_all!W30="","",_tag_month_all!W30)</f>
         <v/>
       </c>
-      <c r="Y33" s="35" t="str">
+      <c r="Y33" s="30" t="str">
         <f>IF(_tag_month_all!X30="","",_tag_month_all!X30)</f>
         <v/>
       </c>
-      <c r="Z33" s="35" t="str">
+      <c r="Z33" s="30" t="str">
         <f>IF(_tag_month_all!Y30="","",_tag_month_all!Y30)</f>
         <v/>
       </c>
-      <c r="AA33" s="35" t="str">
+      <c r="AA33" s="30" t="str">
         <f>IF(_tag_month_all!Z30="","",_tag_month_all!Z30)</f>
         <v/>
       </c>
-      <c r="AB33" s="35" t="str">
+      <c r="AB33" s="30" t="str">
         <f>IF(_tag_month_all!AA30="","",_tag_month_all!AA30)</f>
         <v/>
       </c>
-      <c r="AC33" s="35" t="str">
+      <c r="AC33" s="30" t="str">
         <f>IF(_tag_month_all!AB30="","",_tag_month_all!AB30)</f>
         <v/>
       </c>
-      <c r="AD33" s="22" t="str">
+      <c r="AD33" s="17" t="str">
         <f>IF(_tag_month_all!AC30="","",_tag_month_all!AC30)</f>
         <v/>
       </c>
-      <c r="AE33" s="22" t="str">
+      <c r="AE33" s="17" t="str">
         <f>IF(_tag_month_all!AD30="","",_tag_month_all!AD30)</f>
         <v/>
       </c>
-      <c r="AF33" s="22" t="str">
+      <c r="AF33" s="17" t="str">
         <f>IF(_tag_month_all!AE30="","",_tag_month_all!AE30)</f>
         <v/>
       </c>
-      <c r="AG33" s="22" t="str">
+      <c r="AG33" s="17" t="str">
         <f>IF(_tag_month_all!AF30="","",_tag_month_all!AF30)</f>
         <v/>
       </c>
-      <c r="AH33" s="34" t="str">
+      <c r="AH33" s="29" t="str">
         <f>IF(_tag_month_all!AG30="","",_tag_month_all!AG30)</f>
         <v/>
       </c>
-      <c r="AI33" s="34" t="str">
+      <c r="AI33" s="29" t="str">
         <f>IF(_tag_month_all!AH30="","",_tag_month_all!AH30)</f>
         <v/>
       </c>
-      <c r="AJ33" s="51" t="str">
+      <c r="AJ33" s="38" t="str">
         <f>IF(_tag_month_all!AI30="","",_tag_month_all!AI30)</f>
         <v/>
       </c>
@@ -9215,147 +8617,147 @@
       </c>
       <c r="BO33" s="8"/>
     </row>
-    <row r="34" ht="14.25" spans="1:67">
-      <c r="A34" s="18">
+    <row r="34" spans="1:67" ht="14.25">
+      <c r="A34" s="13">
         <v>30</v>
       </c>
-      <c r="B34" s="21" t="str">
+      <c r="B34" s="16" t="str">
         <f>IF(_tag_month_all!A31="","",_tag_month_all!A31)</f>
         <v/>
       </c>
-      <c r="C34" s="21" t="str">
+      <c r="C34" s="16" t="str">
         <f>IF(_tag_month_all!B31="","",_tag_month_all!B31)</f>
         <v/>
       </c>
-      <c r="D34" s="22" t="str">
+      <c r="D34" s="17" t="str">
         <f>IF(_tag_month_all!C31="","",_tag_month_all!C31)</f>
         <v/>
       </c>
-      <c r="E34" s="23" t="str">
+      <c r="E34" s="18" t="str">
         <f>IF(_tag_month_all!D31="","",_tag_month_all!D31)</f>
         <v/>
       </c>
-      <c r="F34" s="24" t="str">
+      <c r="F34" s="19" t="str">
         <f>IF(_tag_month_all!E31="","",_tag_month_all!E31)</f>
         <v/>
       </c>
-      <c r="G34" s="25" t="str">
+      <c r="G34" s="20" t="str">
         <f>IF(_tag_month_all!F31="","",_tag_month_all!F31)</f>
         <v/>
       </c>
-      <c r="H34" s="26" t="str">
+      <c r="H34" s="21" t="str">
         <f>IF(_tag_month_all!G31="","",_tag_month_all!G31)</f>
         <v/>
       </c>
-      <c r="I34" s="23" t="str">
+      <c r="I34" s="18" t="str">
         <f>IF(_tag_month_all!H31="","",_tag_month_all!H31)</f>
         <v/>
       </c>
-      <c r="J34" s="23" t="str">
+      <c r="J34" s="18" t="str">
         <f>IF(_tag_month_all!I31="","",_tag_month_all!I31)</f>
         <v/>
       </c>
-      <c r="K34" s="32" t="str">
+      <c r="K34" s="27" t="str">
         <f>IF(_tag_month_all!J31="","",_tag_month_all!J31)</f>
         <v/>
       </c>
-      <c r="L34" s="23" t="str">
+      <c r="L34" s="18" t="str">
         <f>IF(_tag_month_all!K31="","",_tag_month_all!K31)</f>
         <v/>
       </c>
-      <c r="M34" s="33" t="str">
+      <c r="M34" s="28" t="str">
         <f>IF(_tag_month_all!L31="","",_tag_month_all!L31)</f>
         <v/>
       </c>
-      <c r="N34" s="34" t="str">
+      <c r="N34" s="29" t="str">
         <f>IF(_tag_month_all!M31="","",_tag_month_all!M31)</f>
         <v/>
       </c>
-      <c r="O34" s="35" t="str">
+      <c r="O34" s="30" t="str">
         <f>IF(_tag_month_all!N31="","",_tag_month_all!N31)</f>
         <v/>
       </c>
-      <c r="P34" s="35" t="str">
+      <c r="P34" s="30" t="str">
         <f>IF(_tag_month_all!O31="","",_tag_month_all!O31)</f>
         <v/>
       </c>
-      <c r="Q34" s="35" t="str">
+      <c r="Q34" s="30" t="str">
         <f>IF(_tag_month_all!P31="","",_tag_month_all!P31)</f>
         <v/>
       </c>
-      <c r="R34" s="43" t="str">
+      <c r="R34" s="35" t="str">
         <f>IF(_tag_month_all!Q31="","",_tag_month_all!Q31)</f>
         <v/>
       </c>
-      <c r="S34" s="43" t="str">
+      <c r="S34" s="35" t="str">
         <f>IF(_tag_month_all!R31="","",_tag_month_all!R31)</f>
         <v/>
       </c>
-      <c r="T34" s="43" t="str">
+      <c r="T34" s="35" t="str">
         <f>IF(_tag_month_all!S31="","",_tag_month_all!S31)</f>
         <v/>
       </c>
-      <c r="U34" s="43" t="str">
+      <c r="U34" s="35" t="str">
         <f>IF(_tag_month_all!T31="","",_tag_month_all!T31)</f>
         <v/>
       </c>
-      <c r="V34" s="34" t="str">
+      <c r="V34" s="29" t="str">
         <f>IF(_tag_month_all!U31="","",_tag_month_all!U31)</f>
         <v/>
       </c>
-      <c r="W34" s="35" t="str">
+      <c r="W34" s="30" t="str">
         <f>IF(_tag_month_all!V31="","",_tag_month_all!V31)</f>
         <v/>
       </c>
-      <c r="X34" s="35" t="str">
+      <c r="X34" s="30" t="str">
         <f>IF(_tag_month_all!W31="","",_tag_month_all!W31)</f>
         <v/>
       </c>
-      <c r="Y34" s="35" t="str">
+      <c r="Y34" s="30" t="str">
         <f>IF(_tag_month_all!X31="","",_tag_month_all!X31)</f>
         <v/>
       </c>
-      <c r="Z34" s="35" t="str">
+      <c r="Z34" s="30" t="str">
         <f>IF(_tag_month_all!Y31="","",_tag_month_all!Y31)</f>
         <v/>
       </c>
-      <c r="AA34" s="35" t="str">
+      <c r="AA34" s="30" t="str">
         <f>IF(_tag_month_all!Z31="","",_tag_month_all!Z31)</f>
         <v/>
       </c>
-      <c r="AB34" s="35" t="str">
+      <c r="AB34" s="30" t="str">
         <f>IF(_tag_month_all!AA31="","",_tag_month_all!AA31)</f>
         <v/>
       </c>
-      <c r="AC34" s="35" t="str">
+      <c r="AC34" s="30" t="str">
         <f>IF(_tag_month_all!AB31="","",_tag_month_all!AB31)</f>
         <v/>
       </c>
-      <c r="AD34" s="22" t="str">
+      <c r="AD34" s="17" t="str">
         <f>IF(_tag_month_all!AC31="","",_tag_month_all!AC31)</f>
         <v/>
       </c>
-      <c r="AE34" s="22" t="str">
+      <c r="AE34" s="17" t="str">
         <f>IF(_tag_month_all!AD31="","",_tag_month_all!AD31)</f>
         <v/>
       </c>
-      <c r="AF34" s="22" t="str">
+      <c r="AF34" s="17" t="str">
         <f>IF(_tag_month_all!AE31="","",_tag_month_all!AE31)</f>
         <v/>
       </c>
-      <c r="AG34" s="22" t="str">
+      <c r="AG34" s="17" t="str">
         <f>IF(_tag_month_all!AF31="","",_tag_month_all!AF31)</f>
         <v/>
       </c>
-      <c r="AH34" s="34" t="str">
+      <c r="AH34" s="29" t="str">
         <f>IF(_tag_month_all!AG31="","",_tag_month_all!AG31)</f>
         <v/>
       </c>
-      <c r="AI34" s="34" t="str">
+      <c r="AI34" s="29" t="str">
         <f>IF(_tag_month_all!AH31="","",_tag_month_all!AH31)</f>
         <v/>
       </c>
-      <c r="AJ34" s="51" t="str">
+      <c r="AJ34" s="38" t="str">
         <f>IF(_tag_month_all!AI31="","",_tag_month_all!AI31)</f>
         <v/>
       </c>
@@ -9481,147 +8883,147 @@
       </c>
       <c r="BO34" s="8"/>
     </row>
-    <row r="35" ht="15" spans="1:67">
-      <c r="A35" s="18">
+    <row r="35" spans="1:67" ht="14.25">
+      <c r="A35" s="13">
         <v>31</v>
       </c>
-      <c r="B35" s="21" t="str">
+      <c r="B35" s="16" t="str">
         <f>IF(_tag_month_all!A32="","",_tag_month_all!A32)</f>
         <v/>
       </c>
-      <c r="C35" s="21" t="str">
+      <c r="C35" s="16" t="str">
         <f>IF(_tag_month_all!B32="","",_tag_month_all!B32)</f>
         <v/>
       </c>
-      <c r="D35" s="22" t="str">
+      <c r="D35" s="17" t="str">
         <f>IF(_tag_month_all!C32="","",_tag_month_all!C32)</f>
         <v/>
       </c>
-      <c r="E35" s="23" t="str">
+      <c r="E35" s="18" t="str">
         <f>IF(_tag_month_all!D32="","",_tag_month_all!D32)</f>
         <v/>
       </c>
-      <c r="F35" s="27" t="str">
+      <c r="F35" s="22" t="str">
         <f>IF(_tag_month_all!E32="","",_tag_month_all!E32)</f>
         <v/>
       </c>
-      <c r="G35" s="25" t="str">
+      <c r="G35" s="20" t="str">
         <f>IF(_tag_month_all!F32="","",_tag_month_all!F32)</f>
         <v/>
       </c>
-      <c r="H35" s="28" t="str">
+      <c r="H35" s="23" t="str">
         <f>IF(_tag_month_all!G32="","",_tag_month_all!G32)</f>
         <v/>
       </c>
-      <c r="I35" s="23" t="str">
+      <c r="I35" s="18" t="str">
         <f>IF(_tag_month_all!H32="","",_tag_month_all!H32)</f>
         <v/>
       </c>
-      <c r="J35" s="23" t="str">
+      <c r="J35" s="18" t="str">
         <f>IF(_tag_month_all!I32="","",_tag_month_all!I32)</f>
         <v/>
       </c>
-      <c r="K35" s="36" t="str">
+      <c r="K35" s="31" t="str">
         <f>IF(_tag_month_all!J32="","",_tag_month_all!J32)</f>
         <v/>
       </c>
-      <c r="L35" s="23" t="str">
+      <c r="L35" s="18" t="str">
         <f>IF(_tag_month_all!K32="","",_tag_month_all!K32)</f>
         <v/>
       </c>
-      <c r="M35" s="37" t="str">
+      <c r="M35" s="32" t="str">
         <f>IF(_tag_month_all!L32="","",_tag_month_all!L32)</f>
         <v/>
       </c>
-      <c r="N35" s="34" t="str">
+      <c r="N35" s="29" t="str">
         <f>IF(_tag_month_all!M32="","",_tag_month_all!M32)</f>
         <v/>
       </c>
-      <c r="O35" s="35" t="str">
+      <c r="O35" s="30" t="str">
         <f>IF(_tag_month_all!N32="","",_tag_month_all!N32)</f>
         <v/>
       </c>
-      <c r="P35" s="35" t="str">
+      <c r="P35" s="30" t="str">
         <f>IF(_tag_month_all!O32="","",_tag_month_all!O32)</f>
         <v/>
       </c>
-      <c r="Q35" s="35" t="str">
+      <c r="Q35" s="30" t="str">
         <f>IF(_tag_month_all!P32="","",_tag_month_all!P32)</f>
         <v/>
       </c>
-      <c r="R35" s="43" t="str">
+      <c r="R35" s="35" t="str">
         <f>IF(_tag_month_all!Q32="","",_tag_month_all!Q32)</f>
         <v/>
       </c>
-      <c r="S35" s="43" t="str">
+      <c r="S35" s="35" t="str">
         <f>IF(_tag_month_all!R32="","",_tag_month_all!R32)</f>
         <v/>
       </c>
-      <c r="T35" s="43" t="str">
+      <c r="T35" s="35" t="str">
         <f>IF(_tag_month_all!S32="","",_tag_month_all!S32)</f>
         <v/>
       </c>
-      <c r="U35" s="43" t="str">
+      <c r="U35" s="35" t="str">
         <f>IF(_tag_month_all!T32="","",_tag_month_all!T32)</f>
         <v/>
       </c>
-      <c r="V35" s="34" t="str">
+      <c r="V35" s="29" t="str">
         <f>IF(_tag_month_all!U32="","",_tag_month_all!U32)</f>
         <v/>
       </c>
-      <c r="W35" s="35" t="str">
+      <c r="W35" s="30" t="str">
         <f>IF(_tag_month_all!V32="","",_tag_month_all!V32)</f>
         <v/>
       </c>
-      <c r="X35" s="35" t="str">
+      <c r="X35" s="30" t="str">
         <f>IF(_tag_month_all!W32="","",_tag_month_all!W32)</f>
         <v/>
       </c>
-      <c r="Y35" s="35" t="str">
+      <c r="Y35" s="30" t="str">
         <f>IF(_tag_month_all!X32="","",_tag_month_all!X32)</f>
         <v/>
       </c>
-      <c r="Z35" s="35" t="str">
+      <c r="Z35" s="30" t="str">
         <f>IF(_tag_month_all!Y32="","",_tag_month_all!Y32)</f>
         <v/>
       </c>
-      <c r="AA35" s="35" t="str">
+      <c r="AA35" s="30" t="str">
         <f>IF(_tag_month_all!Z32="","",_tag_month_all!Z32)</f>
         <v/>
       </c>
-      <c r="AB35" s="35" t="str">
+      <c r="AB35" s="30" t="str">
         <f>IF(_tag_month_all!AA32="","",_tag_month_all!AA32)</f>
         <v/>
       </c>
-      <c r="AC35" s="35" t="str">
+      <c r="AC35" s="30" t="str">
         <f>IF(_tag_month_all!AB32="","",_tag_month_all!AB32)</f>
         <v/>
       </c>
-      <c r="AD35" s="22" t="str">
+      <c r="AD35" s="17" t="str">
         <f>IF(_tag_month_all!AC32="","",_tag_month_all!AC32)</f>
         <v/>
       </c>
-      <c r="AE35" s="22" t="str">
+      <c r="AE35" s="17" t="str">
         <f>IF(_tag_month_all!AD32="","",_tag_month_all!AD32)</f>
         <v/>
       </c>
-      <c r="AF35" s="22" t="str">
+      <c r="AF35" s="17" t="str">
         <f>IF(_tag_month_all!AE32="","",_tag_month_all!AE32)</f>
         <v/>
       </c>
-      <c r="AG35" s="22" t="str">
+      <c r="AG35" s="17" t="str">
         <f>IF(_tag_month_all!AF32="","",_tag_month_all!AF32)</f>
         <v/>
       </c>
-      <c r="AH35" s="34" t="str">
+      <c r="AH35" s="29" t="str">
         <f>IF(_tag_month_all!AG32="","",_tag_month_all!AG32)</f>
         <v/>
       </c>
-      <c r="AI35" s="34" t="str">
+      <c r="AI35" s="29" t="str">
         <f>IF(_tag_month_all!AH32="","",_tag_month_all!AH32)</f>
         <v/>
       </c>
-      <c r="AJ35" s="51" t="str">
+      <c r="AJ35" s="38" t="str">
         <f>IF(_tag_month_all!AI32="","",_tag_month_all!AI32)</f>
         <v/>
       </c>
@@ -9747,147 +9149,147 @@
       </c>
       <c r="BO35" s="8"/>
     </row>
-    <row r="36" ht="15" spans="1:67">
-      <c r="A36" s="29" t="s">
+    <row r="36" spans="1:67" ht="14.25">
+      <c r="A36" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="30" t="str">
+      <c r="B36" s="25" t="str">
         <f>IFERROR(AVERAGE(B4:B35),"")</f>
         <v/>
       </c>
-      <c r="C36" s="30" t="str">
+      <c r="C36" s="25" t="str">
         <f t="shared" ref="C36:BN36" si="1">IFERROR(AVERAGE(C4:C35),"")</f>
         <v/>
       </c>
-      <c r="D36" s="31" t="str">
+      <c r="D36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E36" s="31" t="str">
+      <c r="E36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F36" s="31" t="str">
+      <c r="F36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G36" s="31" t="str">
+      <c r="G36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H36" s="31" t="str">
+      <c r="H36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I36" s="31" t="str">
+      <c r="I36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J36" s="31" t="str">
+      <c r="J36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K36" s="31" t="str">
+      <c r="K36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L36" s="31" t="str">
+      <c r="L36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M36" s="31" t="str">
+      <c r="M36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N36" s="31" t="str">
+      <c r="N36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O36" s="30" t="str">
+      <c r="O36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P36" s="30" t="str">
+      <c r="P36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q36" s="30" t="str">
+      <c r="Q36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R36" s="31" t="str">
+      <c r="R36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S36" s="31" t="str">
+      <c r="S36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T36" s="31" t="str">
+      <c r="T36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="U36" s="31" t="str">
+      <c r="U36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V36" s="31" t="str">
+      <c r="V36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W36" s="30" t="str">
+      <c r="W36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X36" s="30" t="str">
+      <c r="X36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y36" s="30" t="str">
+      <c r="Y36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z36" s="30" t="str">
+      <c r="Z36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA36" s="30" t="str">
+      <c r="AA36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB36" s="30" t="str">
+      <c r="AB36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC36" s="30" t="str">
+      <c r="AC36" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD36" s="31" t="str">
+      <c r="AD36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE36" s="31" t="str">
+      <c r="AE36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF36" s="31" t="str">
+      <c r="AF36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG36" s="31" t="str">
+      <c r="AG36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH36" s="31" t="str">
+      <c r="AH36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AI36" s="31" t="str">
+      <c r="AI36" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AJ36" s="52" t="str">
+      <c r="AJ36" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -10013,8 +9415,8 @@
       </c>
       <c r="BO36" s="8"/>
     </row>
-    <row r="37" ht="14.25" spans="36:67">
-      <c r="AJ37" s="53"/>
+    <row r="37" spans="1:67" ht="14.25">
+      <c r="AJ37" s="40"/>
       <c r="AK37" s="8"/>
       <c r="AL37" s="8"/>
       <c r="AM37" s="8"/>
@@ -10047,1061 +9449,1060 @@
       <c r="BN37" s="8"/>
       <c r="BO37" s="8"/>
     </row>
-    <row r="38" ht="15.75" spans="36:64">
-      <c r="AJ38" s="54"/>
-      <c r="AK38" s="55"/>
-      <c r="AL38" s="55"/>
-      <c r="AM38" s="55"/>
-      <c r="AN38" s="55"/>
-      <c r="AO38" s="55"/>
-      <c r="AP38" s="55"/>
-      <c r="AQ38" s="55"/>
-      <c r="AR38" s="55"/>
-      <c r="AS38" s="55"/>
-      <c r="AT38" s="55"/>
-      <c r="AU38" s="55"/>
-      <c r="AV38" s="55"/>
-      <c r="AW38" s="55"/>
-      <c r="AX38" s="55"/>
-      <c r="AY38" s="55"/>
-      <c r="AZ38" s="55"/>
-      <c r="BA38" s="55"/>
-      <c r="BB38" s="55"/>
-      <c r="BC38" s="55"/>
-      <c r="BD38" s="55"/>
-      <c r="BE38" s="55"/>
-      <c r="BF38" s="55"/>
-      <c r="BG38" s="55"/>
-      <c r="BH38" s="55"/>
-      <c r="BI38" s="55"/>
-      <c r="BJ38" s="55"/>
-      <c r="BK38" s="55"/>
-      <c r="BL38" s="55"/>
+    <row r="38" spans="1:67" ht="15.75">
+      <c r="AJ38" s="41"/>
+      <c r="AK38" s="42"/>
+      <c r="AL38" s="42"/>
+      <c r="AM38" s="42"/>
+      <c r="AN38" s="42"/>
+      <c r="AO38" s="42"/>
+      <c r="AP38" s="42"/>
+      <c r="AQ38" s="42"/>
+      <c r="AR38" s="42"/>
+      <c r="AS38" s="42"/>
+      <c r="AT38" s="42"/>
+      <c r="AU38" s="42"/>
+      <c r="AV38" s="42"/>
+      <c r="AW38" s="42"/>
+      <c r="AX38" s="42"/>
+      <c r="AY38" s="42"/>
+      <c r="AZ38" s="42"/>
+      <c r="BA38" s="42"/>
+      <c r="BB38" s="42"/>
+      <c r="BC38" s="42"/>
+      <c r="BD38" s="42"/>
+      <c r="BE38" s="42"/>
+      <c r="BF38" s="42"/>
+      <c r="BG38" s="42"/>
+      <c r="BH38" s="42"/>
+      <c r="BI38" s="42"/>
+      <c r="BJ38" s="42"/>
+      <c r="BK38" s="42"/>
+      <c r="BL38" s="42"/>
     </row>
-    <row r="39" ht="15.75" spans="36:64">
-      <c r="AJ39" s="56"/>
-      <c r="AK39" s="55"/>
-      <c r="AL39" s="55"/>
-      <c r="AM39" s="55"/>
-      <c r="AN39" s="55"/>
-      <c r="AO39" s="55"/>
-      <c r="AP39" s="55"/>
-      <c r="AQ39" s="55"/>
-      <c r="AR39" s="55"/>
-      <c r="AS39" s="55"/>
-      <c r="AT39" s="55"/>
-      <c r="AU39" s="55"/>
-      <c r="AV39" s="55"/>
-      <c r="AW39" s="55"/>
-      <c r="AX39" s="55"/>
-      <c r="AY39" s="55"/>
-      <c r="AZ39" s="55"/>
-      <c r="BA39" s="55"/>
-      <c r="BB39" s="55"/>
-      <c r="BC39" s="55"/>
-      <c r="BD39" s="55"/>
-      <c r="BE39" s="55"/>
-      <c r="BF39" s="55"/>
-      <c r="BG39" s="55"/>
-      <c r="BH39" s="55"/>
-      <c r="BI39" s="55"/>
-      <c r="BJ39" s="55"/>
-      <c r="BK39" s="55"/>
-      <c r="BL39" s="55"/>
+    <row r="39" spans="1:67" ht="15.75">
+      <c r="AJ39" s="43"/>
+      <c r="AK39" s="42"/>
+      <c r="AL39" s="42"/>
+      <c r="AM39" s="42"/>
+      <c r="AN39" s="42"/>
+      <c r="AO39" s="42"/>
+      <c r="AP39" s="42"/>
+      <c r="AQ39" s="42"/>
+      <c r="AR39" s="42"/>
+      <c r="AS39" s="42"/>
+      <c r="AT39" s="42"/>
+      <c r="AU39" s="42"/>
+      <c r="AV39" s="42"/>
+      <c r="AW39" s="42"/>
+      <c r="AX39" s="42"/>
+      <c r="AY39" s="42"/>
+      <c r="AZ39" s="42"/>
+      <c r="BA39" s="42"/>
+      <c r="BB39" s="42"/>
+      <c r="BC39" s="42"/>
+      <c r="BD39" s="42"/>
+      <c r="BE39" s="42"/>
+      <c r="BF39" s="42"/>
+      <c r="BG39" s="42"/>
+      <c r="BH39" s="42"/>
+      <c r="BI39" s="42"/>
+      <c r="BJ39" s="42"/>
+      <c r="BK39" s="42"/>
+      <c r="BL39" s="42"/>
     </row>
-    <row r="40" ht="15.75" spans="36:64">
-      <c r="AJ40" s="56"/>
-      <c r="AK40" s="55"/>
-      <c r="AL40" s="55"/>
-      <c r="AM40" s="55"/>
-      <c r="AN40" s="55"/>
-      <c r="AO40" s="55"/>
-      <c r="AP40" s="55"/>
-      <c r="AQ40" s="55"/>
-      <c r="AR40" s="55"/>
-      <c r="AS40" s="55"/>
-      <c r="AT40" s="55"/>
-      <c r="AU40" s="55"/>
-      <c r="AV40" s="55"/>
-      <c r="AW40" s="55"/>
-      <c r="AX40" s="55"/>
-      <c r="AY40" s="55"/>
-      <c r="AZ40" s="55"/>
-      <c r="BA40" s="55"/>
-      <c r="BB40" s="55"/>
-      <c r="BC40" s="55"/>
-      <c r="BD40" s="55"/>
-      <c r="BE40" s="55"/>
-      <c r="BF40" s="55"/>
-      <c r="BG40" s="55"/>
-      <c r="BH40" s="55"/>
-      <c r="BI40" s="55"/>
-      <c r="BJ40" s="55"/>
-      <c r="BK40" s="55"/>
-      <c r="BL40" s="55"/>
+    <row r="40" spans="1:67" ht="15.75">
+      <c r="AJ40" s="43"/>
+      <c r="AK40" s="42"/>
+      <c r="AL40" s="42"/>
+      <c r="AM40" s="42"/>
+      <c r="AN40" s="42"/>
+      <c r="AO40" s="42"/>
+      <c r="AP40" s="42"/>
+      <c r="AQ40" s="42"/>
+      <c r="AR40" s="42"/>
+      <c r="AS40" s="42"/>
+      <c r="AT40" s="42"/>
+      <c r="AU40" s="42"/>
+      <c r="AV40" s="42"/>
+      <c r="AW40" s="42"/>
+      <c r="AX40" s="42"/>
+      <c r="AY40" s="42"/>
+      <c r="AZ40" s="42"/>
+      <c r="BA40" s="42"/>
+      <c r="BB40" s="42"/>
+      <c r="BC40" s="42"/>
+      <c r="BD40" s="42"/>
+      <c r="BE40" s="42"/>
+      <c r="BF40" s="42"/>
+      <c r="BG40" s="42"/>
+      <c r="BH40" s="42"/>
+      <c r="BI40" s="42"/>
+      <c r="BJ40" s="42"/>
+      <c r="BK40" s="42"/>
+      <c r="BL40" s="42"/>
     </row>
-    <row r="41" ht="15.75" spans="36:64">
-      <c r="AJ41" s="56"/>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="55"/>
-      <c r="AM41" s="55"/>
-      <c r="AN41" s="55"/>
-      <c r="AO41" s="55"/>
-      <c r="AP41" s="55"/>
-      <c r="AQ41" s="55"/>
-      <c r="AR41" s="55"/>
-      <c r="AS41" s="55"/>
-      <c r="AT41" s="55"/>
-      <c r="AU41" s="55"/>
-      <c r="AV41" s="55"/>
-      <c r="AW41" s="55"/>
-      <c r="AX41" s="55"/>
-      <c r="AY41" s="55"/>
-      <c r="AZ41" s="55"/>
-      <c r="BA41" s="55"/>
-      <c r="BB41" s="55"/>
-      <c r="BC41" s="55"/>
-      <c r="BD41" s="55"/>
-      <c r="BE41" s="55"/>
-      <c r="BF41" s="55"/>
-      <c r="BG41" s="55"/>
-      <c r="BH41" s="55"/>
-      <c r="BI41" s="55"/>
-      <c r="BJ41" s="55"/>
-      <c r="BK41" s="55"/>
-      <c r="BL41" s="55"/>
+    <row r="41" spans="1:67" ht="15.75">
+      <c r="AJ41" s="43"/>
+      <c r="AK41" s="42"/>
+      <c r="AL41" s="42"/>
+      <c r="AM41" s="42"/>
+      <c r="AN41" s="42"/>
+      <c r="AO41" s="42"/>
+      <c r="AP41" s="42"/>
+      <c r="AQ41" s="42"/>
+      <c r="AR41" s="42"/>
+      <c r="AS41" s="42"/>
+      <c r="AT41" s="42"/>
+      <c r="AU41" s="42"/>
+      <c r="AV41" s="42"/>
+      <c r="AW41" s="42"/>
+      <c r="AX41" s="42"/>
+      <c r="AY41" s="42"/>
+      <c r="AZ41" s="42"/>
+      <c r="BA41" s="42"/>
+      <c r="BB41" s="42"/>
+      <c r="BC41" s="42"/>
+      <c r="BD41" s="42"/>
+      <c r="BE41" s="42"/>
+      <c r="BF41" s="42"/>
+      <c r="BG41" s="42"/>
+      <c r="BH41" s="42"/>
+      <c r="BI41" s="42"/>
+      <c r="BJ41" s="42"/>
+      <c r="BK41" s="42"/>
+      <c r="BL41" s="42"/>
     </row>
-    <row r="42" ht="15.75" spans="36:64">
-      <c r="AJ42" s="56"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="55"/>
-      <c r="AN42" s="55"/>
-      <c r="AO42" s="55"/>
-      <c r="AP42" s="55"/>
-      <c r="AQ42" s="55"/>
-      <c r="AR42" s="55"/>
-      <c r="AS42" s="55"/>
-      <c r="AT42" s="55"/>
-      <c r="AU42" s="55"/>
-      <c r="AV42" s="55"/>
-      <c r="AW42" s="55"/>
-      <c r="AX42" s="55"/>
-      <c r="AY42" s="55"/>
-      <c r="AZ42" s="55"/>
-      <c r="BA42" s="55"/>
-      <c r="BB42" s="55"/>
-      <c r="BC42" s="55"/>
-      <c r="BD42" s="55"/>
-      <c r="BE42" s="55"/>
-      <c r="BF42" s="55"/>
-      <c r="BG42" s="55"/>
-      <c r="BH42" s="55"/>
-      <c r="BI42" s="55"/>
-      <c r="BJ42" s="55"/>
-      <c r="BK42" s="55"/>
-      <c r="BL42" s="55"/>
+    <row r="42" spans="1:67" ht="15.75">
+      <c r="AJ42" s="43"/>
+      <c r="AK42" s="42"/>
+      <c r="AL42" s="42"/>
+      <c r="AM42" s="42"/>
+      <c r="AN42" s="42"/>
+      <c r="AO42" s="42"/>
+      <c r="AP42" s="42"/>
+      <c r="AQ42" s="42"/>
+      <c r="AR42" s="42"/>
+      <c r="AS42" s="42"/>
+      <c r="AT42" s="42"/>
+      <c r="AU42" s="42"/>
+      <c r="AV42" s="42"/>
+      <c r="AW42" s="42"/>
+      <c r="AX42" s="42"/>
+      <c r="AY42" s="42"/>
+      <c r="AZ42" s="42"/>
+      <c r="BA42" s="42"/>
+      <c r="BB42" s="42"/>
+      <c r="BC42" s="42"/>
+      <c r="BD42" s="42"/>
+      <c r="BE42" s="42"/>
+      <c r="BF42" s="42"/>
+      <c r="BG42" s="42"/>
+      <c r="BH42" s="42"/>
+      <c r="BI42" s="42"/>
+      <c r="BJ42" s="42"/>
+      <c r="BK42" s="42"/>
+      <c r="BL42" s="42"/>
     </row>
-    <row r="43" ht="15.75" spans="36:64">
-      <c r="AJ43" s="56"/>
-      <c r="AK43" s="55"/>
-      <c r="AL43" s="55"/>
-      <c r="AM43" s="55"/>
-      <c r="AN43" s="55"/>
-      <c r="AO43" s="55"/>
-      <c r="AP43" s="55"/>
-      <c r="AQ43" s="55"/>
-      <c r="AR43" s="55"/>
-      <c r="AS43" s="55"/>
-      <c r="AT43" s="55"/>
-      <c r="AU43" s="55"/>
-      <c r="AV43" s="55"/>
-      <c r="AW43" s="55"/>
-      <c r="AX43" s="55"/>
-      <c r="AY43" s="55"/>
-      <c r="AZ43" s="55"/>
-      <c r="BA43" s="55"/>
-      <c r="BB43" s="55"/>
-      <c r="BC43" s="55"/>
-      <c r="BD43" s="55"/>
-      <c r="BE43" s="55"/>
-      <c r="BF43" s="55"/>
-      <c r="BG43" s="55"/>
-      <c r="BH43" s="55"/>
-      <c r="BI43" s="55"/>
-      <c r="BJ43" s="55"/>
-      <c r="BK43" s="55"/>
-      <c r="BL43" s="55"/>
+    <row r="43" spans="1:67" ht="15.75">
+      <c r="AJ43" s="43"/>
+      <c r="AK43" s="42"/>
+      <c r="AL43" s="42"/>
+      <c r="AM43" s="42"/>
+      <c r="AN43" s="42"/>
+      <c r="AO43" s="42"/>
+      <c r="AP43" s="42"/>
+      <c r="AQ43" s="42"/>
+      <c r="AR43" s="42"/>
+      <c r="AS43" s="42"/>
+      <c r="AT43" s="42"/>
+      <c r="AU43" s="42"/>
+      <c r="AV43" s="42"/>
+      <c r="AW43" s="42"/>
+      <c r="AX43" s="42"/>
+      <c r="AY43" s="42"/>
+      <c r="AZ43" s="42"/>
+      <c r="BA43" s="42"/>
+      <c r="BB43" s="42"/>
+      <c r="BC43" s="42"/>
+      <c r="BD43" s="42"/>
+      <c r="BE43" s="42"/>
+      <c r="BF43" s="42"/>
+      <c r="BG43" s="42"/>
+      <c r="BH43" s="42"/>
+      <c r="BI43" s="42"/>
+      <c r="BJ43" s="42"/>
+      <c r="BK43" s="42"/>
+      <c r="BL43" s="42"/>
     </row>
-    <row r="44" ht="15.75" spans="36:64">
-      <c r="AJ44" s="56"/>
-      <c r="AK44" s="55"/>
-      <c r="AL44" s="55"/>
-      <c r="AM44" s="55"/>
-      <c r="AN44" s="55"/>
-      <c r="AO44" s="55"/>
-      <c r="AP44" s="55"/>
-      <c r="AQ44" s="55"/>
-      <c r="AR44" s="55"/>
-      <c r="AS44" s="55"/>
-      <c r="AT44" s="55"/>
-      <c r="AU44" s="55"/>
-      <c r="AV44" s="55"/>
-      <c r="AW44" s="55"/>
-      <c r="AX44" s="55"/>
-      <c r="AY44" s="55"/>
-      <c r="AZ44" s="55"/>
-      <c r="BA44" s="55"/>
-      <c r="BB44" s="55"/>
-      <c r="BC44" s="55"/>
-      <c r="BD44" s="55"/>
-      <c r="BE44" s="55"/>
-      <c r="BF44" s="55"/>
-      <c r="BG44" s="55"/>
-      <c r="BH44" s="55"/>
-      <c r="BI44" s="55"/>
-      <c r="BJ44" s="55"/>
-      <c r="BK44" s="55"/>
-      <c r="BL44" s="55"/>
+    <row r="44" spans="1:67" ht="15.75">
+      <c r="AJ44" s="43"/>
+      <c r="AK44" s="42"/>
+      <c r="AL44" s="42"/>
+      <c r="AM44" s="42"/>
+      <c r="AN44" s="42"/>
+      <c r="AO44" s="42"/>
+      <c r="AP44" s="42"/>
+      <c r="AQ44" s="42"/>
+      <c r="AR44" s="42"/>
+      <c r="AS44" s="42"/>
+      <c r="AT44" s="42"/>
+      <c r="AU44" s="42"/>
+      <c r="AV44" s="42"/>
+      <c r="AW44" s="42"/>
+      <c r="AX44" s="42"/>
+      <c r="AY44" s="42"/>
+      <c r="AZ44" s="42"/>
+      <c r="BA44" s="42"/>
+      <c r="BB44" s="42"/>
+      <c r="BC44" s="42"/>
+      <c r="BD44" s="42"/>
+      <c r="BE44" s="42"/>
+      <c r="BF44" s="42"/>
+      <c r="BG44" s="42"/>
+      <c r="BH44" s="42"/>
+      <c r="BI44" s="42"/>
+      <c r="BJ44" s="42"/>
+      <c r="BK44" s="42"/>
+      <c r="BL44" s="42"/>
     </row>
-    <row r="45" ht="15.75" spans="36:64">
-      <c r="AJ45" s="56"/>
-      <c r="AK45" s="55"/>
-      <c r="AL45" s="55"/>
-      <c r="AM45" s="55"/>
-      <c r="AN45" s="55"/>
-      <c r="AO45" s="55"/>
-      <c r="AP45" s="55"/>
-      <c r="AQ45" s="55"/>
-      <c r="AR45" s="55"/>
-      <c r="AS45" s="55"/>
-      <c r="AT45" s="55"/>
-      <c r="AU45" s="55"/>
-      <c r="AV45" s="55"/>
-      <c r="AW45" s="55"/>
-      <c r="AX45" s="55"/>
-      <c r="AY45" s="55"/>
-      <c r="AZ45" s="55"/>
-      <c r="BA45" s="55"/>
-      <c r="BB45" s="55"/>
-      <c r="BC45" s="55"/>
-      <c r="BD45" s="55"/>
-      <c r="BE45" s="55"/>
-      <c r="BF45" s="55"/>
-      <c r="BG45" s="55"/>
-      <c r="BH45" s="55"/>
-      <c r="BI45" s="55"/>
-      <c r="BJ45" s="55"/>
-      <c r="BK45" s="55"/>
-      <c r="BL45" s="55"/>
+    <row r="45" spans="1:67" ht="15.75">
+      <c r="AJ45" s="43"/>
+      <c r="AK45" s="42"/>
+      <c r="AL45" s="42"/>
+      <c r="AM45" s="42"/>
+      <c r="AN45" s="42"/>
+      <c r="AO45" s="42"/>
+      <c r="AP45" s="42"/>
+      <c r="AQ45" s="42"/>
+      <c r="AR45" s="42"/>
+      <c r="AS45" s="42"/>
+      <c r="AT45" s="42"/>
+      <c r="AU45" s="42"/>
+      <c r="AV45" s="42"/>
+      <c r="AW45" s="42"/>
+      <c r="AX45" s="42"/>
+      <c r="AY45" s="42"/>
+      <c r="AZ45" s="42"/>
+      <c r="BA45" s="42"/>
+      <c r="BB45" s="42"/>
+      <c r="BC45" s="42"/>
+      <c r="BD45" s="42"/>
+      <c r="BE45" s="42"/>
+      <c r="BF45" s="42"/>
+      <c r="BG45" s="42"/>
+      <c r="BH45" s="42"/>
+      <c r="BI45" s="42"/>
+      <c r="BJ45" s="42"/>
+      <c r="BK45" s="42"/>
+      <c r="BL45" s="42"/>
     </row>
-    <row r="46" ht="15.75" spans="36:64">
-      <c r="AJ46" s="56"/>
-      <c r="AK46" s="55"/>
-      <c r="AL46" s="55"/>
-      <c r="AM46" s="55"/>
-      <c r="AN46" s="55"/>
-      <c r="AO46" s="55"/>
-      <c r="AP46" s="55"/>
-      <c r="AQ46" s="55"/>
-      <c r="AR46" s="55"/>
-      <c r="AS46" s="55"/>
-      <c r="AT46" s="55"/>
-      <c r="AU46" s="55"/>
-      <c r="AV46" s="55"/>
-      <c r="AW46" s="55"/>
-      <c r="AX46" s="55"/>
-      <c r="AY46" s="55"/>
-      <c r="AZ46" s="55"/>
-      <c r="BA46" s="55"/>
-      <c r="BB46" s="55"/>
-      <c r="BC46" s="55"/>
-      <c r="BD46" s="55"/>
-      <c r="BE46" s="55"/>
-      <c r="BF46" s="55"/>
-      <c r="BG46" s="55"/>
-      <c r="BH46" s="55"/>
-      <c r="BI46" s="55"/>
-      <c r="BJ46" s="55"/>
-      <c r="BK46" s="55"/>
-      <c r="BL46" s="55"/>
+    <row r="46" spans="1:67" ht="15.75">
+      <c r="AJ46" s="43"/>
+      <c r="AK46" s="42"/>
+      <c r="AL46" s="42"/>
+      <c r="AM46" s="42"/>
+      <c r="AN46" s="42"/>
+      <c r="AO46" s="42"/>
+      <c r="AP46" s="42"/>
+      <c r="AQ46" s="42"/>
+      <c r="AR46" s="42"/>
+      <c r="AS46" s="42"/>
+      <c r="AT46" s="42"/>
+      <c r="AU46" s="42"/>
+      <c r="AV46" s="42"/>
+      <c r="AW46" s="42"/>
+      <c r="AX46" s="42"/>
+      <c r="AY46" s="42"/>
+      <c r="AZ46" s="42"/>
+      <c r="BA46" s="42"/>
+      <c r="BB46" s="42"/>
+      <c r="BC46" s="42"/>
+      <c r="BD46" s="42"/>
+      <c r="BE46" s="42"/>
+      <c r="BF46" s="42"/>
+      <c r="BG46" s="42"/>
+      <c r="BH46" s="42"/>
+      <c r="BI46" s="42"/>
+      <c r="BJ46" s="42"/>
+      <c r="BK46" s="42"/>
+      <c r="BL46" s="42"/>
     </row>
-    <row r="47" ht="15.75" spans="36:64">
-      <c r="AJ47" s="56"/>
-      <c r="AK47" s="55"/>
-      <c r="AL47" s="55"/>
-      <c r="AM47" s="55"/>
-      <c r="AN47" s="55"/>
-      <c r="AO47" s="55"/>
-      <c r="AP47" s="55"/>
-      <c r="AQ47" s="55"/>
-      <c r="AR47" s="55"/>
-      <c r="AS47" s="55"/>
-      <c r="AT47" s="55"/>
-      <c r="AU47" s="55"/>
-      <c r="AV47" s="55"/>
-      <c r="AW47" s="55"/>
-      <c r="AX47" s="55"/>
-      <c r="AY47" s="55"/>
-      <c r="AZ47" s="55"/>
-      <c r="BA47" s="55"/>
-      <c r="BB47" s="55"/>
-      <c r="BC47" s="55"/>
-      <c r="BD47" s="55"/>
-      <c r="BE47" s="55"/>
-      <c r="BF47" s="55"/>
-      <c r="BG47" s="55"/>
-      <c r="BH47" s="55"/>
-      <c r="BI47" s="55"/>
-      <c r="BJ47" s="55"/>
-      <c r="BK47" s="55"/>
-      <c r="BL47" s="55"/>
+    <row r="47" spans="1:67" ht="15.75">
+      <c r="AJ47" s="43"/>
+      <c r="AK47" s="42"/>
+      <c r="AL47" s="42"/>
+      <c r="AM47" s="42"/>
+      <c r="AN47" s="42"/>
+      <c r="AO47" s="42"/>
+      <c r="AP47" s="42"/>
+      <c r="AQ47" s="42"/>
+      <c r="AR47" s="42"/>
+      <c r="AS47" s="42"/>
+      <c r="AT47" s="42"/>
+      <c r="AU47" s="42"/>
+      <c r="AV47" s="42"/>
+      <c r="AW47" s="42"/>
+      <c r="AX47" s="42"/>
+      <c r="AY47" s="42"/>
+      <c r="AZ47" s="42"/>
+      <c r="BA47" s="42"/>
+      <c r="BB47" s="42"/>
+      <c r="BC47" s="42"/>
+      <c r="BD47" s="42"/>
+      <c r="BE47" s="42"/>
+      <c r="BF47" s="42"/>
+      <c r="BG47" s="42"/>
+      <c r="BH47" s="42"/>
+      <c r="BI47" s="42"/>
+      <c r="BJ47" s="42"/>
+      <c r="BK47" s="42"/>
+      <c r="BL47" s="42"/>
     </row>
-    <row r="48" ht="15.75" spans="36:64">
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="55"/>
-      <c r="AL48" s="55"/>
-      <c r="AM48" s="55"/>
-      <c r="AN48" s="55"/>
-      <c r="AO48" s="55"/>
-      <c r="AP48" s="55"/>
-      <c r="AQ48" s="55"/>
-      <c r="AR48" s="55"/>
-      <c r="AS48" s="55"/>
-      <c r="AT48" s="55"/>
-      <c r="AU48" s="55"/>
-      <c r="AV48" s="55"/>
-      <c r="AW48" s="55"/>
-      <c r="AX48" s="55"/>
-      <c r="AY48" s="55"/>
-      <c r="AZ48" s="55"/>
-      <c r="BA48" s="55"/>
-      <c r="BB48" s="55"/>
-      <c r="BC48" s="55"/>
-      <c r="BD48" s="55"/>
-      <c r="BE48" s="55"/>
-      <c r="BF48" s="55"/>
-      <c r="BG48" s="55"/>
-      <c r="BH48" s="55"/>
-      <c r="BI48" s="55"/>
-      <c r="BJ48" s="55"/>
-      <c r="BK48" s="55"/>
-      <c r="BL48" s="55"/>
+    <row r="48" spans="1:67" ht="15.75">
+      <c r="AJ48" s="43"/>
+      <c r="AK48" s="42"/>
+      <c r="AL48" s="42"/>
+      <c r="AM48" s="42"/>
+      <c r="AN48" s="42"/>
+      <c r="AO48" s="42"/>
+      <c r="AP48" s="42"/>
+      <c r="AQ48" s="42"/>
+      <c r="AR48" s="42"/>
+      <c r="AS48" s="42"/>
+      <c r="AT48" s="42"/>
+      <c r="AU48" s="42"/>
+      <c r="AV48" s="42"/>
+      <c r="AW48" s="42"/>
+      <c r="AX48" s="42"/>
+      <c r="AY48" s="42"/>
+      <c r="AZ48" s="42"/>
+      <c r="BA48" s="42"/>
+      <c r="BB48" s="42"/>
+      <c r="BC48" s="42"/>
+      <c r="BD48" s="42"/>
+      <c r="BE48" s="42"/>
+      <c r="BF48" s="42"/>
+      <c r="BG48" s="42"/>
+      <c r="BH48" s="42"/>
+      <c r="BI48" s="42"/>
+      <c r="BJ48" s="42"/>
+      <c r="BK48" s="42"/>
+      <c r="BL48" s="42"/>
     </row>
-    <row r="49" ht="15.75" spans="36:64">
-      <c r="AJ49" s="56"/>
-      <c r="AK49" s="55"/>
-      <c r="AL49" s="55"/>
-      <c r="AM49" s="55"/>
-      <c r="AN49" s="55"/>
-      <c r="AO49" s="55"/>
-      <c r="AP49" s="55"/>
-      <c r="AQ49" s="55"/>
-      <c r="AR49" s="55"/>
-      <c r="AS49" s="55"/>
-      <c r="AT49" s="55"/>
-      <c r="AU49" s="55"/>
-      <c r="AV49" s="55"/>
-      <c r="AW49" s="55"/>
-      <c r="AX49" s="55"/>
-      <c r="AY49" s="55"/>
-      <c r="AZ49" s="55"/>
-      <c r="BA49" s="55"/>
-      <c r="BB49" s="55"/>
-      <c r="BC49" s="55"/>
-      <c r="BD49" s="55"/>
-      <c r="BE49" s="55"/>
-      <c r="BF49" s="55"/>
-      <c r="BG49" s="55"/>
-      <c r="BH49" s="55"/>
-      <c r="BI49" s="55"/>
-      <c r="BJ49" s="55"/>
-      <c r="BK49" s="55"/>
-      <c r="BL49" s="55"/>
+    <row r="49" spans="36:64" ht="15.75">
+      <c r="AJ49" s="43"/>
+      <c r="AK49" s="42"/>
+      <c r="AL49" s="42"/>
+      <c r="AM49" s="42"/>
+      <c r="AN49" s="42"/>
+      <c r="AO49" s="42"/>
+      <c r="AP49" s="42"/>
+      <c r="AQ49" s="42"/>
+      <c r="AR49" s="42"/>
+      <c r="AS49" s="42"/>
+      <c r="AT49" s="42"/>
+      <c r="AU49" s="42"/>
+      <c r="AV49" s="42"/>
+      <c r="AW49" s="42"/>
+      <c r="AX49" s="42"/>
+      <c r="AY49" s="42"/>
+      <c r="AZ49" s="42"/>
+      <c r="BA49" s="42"/>
+      <c r="BB49" s="42"/>
+      <c r="BC49" s="42"/>
+      <c r="BD49" s="42"/>
+      <c r="BE49" s="42"/>
+      <c r="BF49" s="42"/>
+      <c r="BG49" s="42"/>
+      <c r="BH49" s="42"/>
+      <c r="BI49" s="42"/>
+      <c r="BJ49" s="42"/>
+      <c r="BK49" s="42"/>
+      <c r="BL49" s="42"/>
     </row>
-    <row r="50" ht="15.75" spans="36:64">
-      <c r="AJ50" s="56"/>
-      <c r="AK50" s="55"/>
-      <c r="AL50" s="55"/>
-      <c r="AM50" s="55"/>
-      <c r="AN50" s="55"/>
-      <c r="AO50" s="55"/>
-      <c r="AP50" s="55"/>
-      <c r="AQ50" s="55"/>
-      <c r="AR50" s="55"/>
-      <c r="AS50" s="55"/>
-      <c r="AT50" s="55"/>
-      <c r="AU50" s="55"/>
-      <c r="AV50" s="55"/>
-      <c r="AW50" s="55"/>
-      <c r="AX50" s="55"/>
-      <c r="AY50" s="55"/>
-      <c r="AZ50" s="55"/>
-      <c r="BA50" s="55"/>
-      <c r="BB50" s="55"/>
-      <c r="BC50" s="55"/>
-      <c r="BD50" s="55"/>
-      <c r="BE50" s="55"/>
-      <c r="BF50" s="55"/>
-      <c r="BG50" s="55"/>
-      <c r="BH50" s="55"/>
-      <c r="BI50" s="55"/>
-      <c r="BJ50" s="55"/>
-      <c r="BK50" s="55"/>
-      <c r="BL50" s="55"/>
+    <row r="50" spans="36:64" ht="15.75">
+      <c r="AJ50" s="43"/>
+      <c r="AK50" s="42"/>
+      <c r="AL50" s="42"/>
+      <c r="AM50" s="42"/>
+      <c r="AN50" s="42"/>
+      <c r="AO50" s="42"/>
+      <c r="AP50" s="42"/>
+      <c r="AQ50" s="42"/>
+      <c r="AR50" s="42"/>
+      <c r="AS50" s="42"/>
+      <c r="AT50" s="42"/>
+      <c r="AU50" s="42"/>
+      <c r="AV50" s="42"/>
+      <c r="AW50" s="42"/>
+      <c r="AX50" s="42"/>
+      <c r="AY50" s="42"/>
+      <c r="AZ50" s="42"/>
+      <c r="BA50" s="42"/>
+      <c r="BB50" s="42"/>
+      <c r="BC50" s="42"/>
+      <c r="BD50" s="42"/>
+      <c r="BE50" s="42"/>
+      <c r="BF50" s="42"/>
+      <c r="BG50" s="42"/>
+      <c r="BH50" s="42"/>
+      <c r="BI50" s="42"/>
+      <c r="BJ50" s="42"/>
+      <c r="BK50" s="42"/>
+      <c r="BL50" s="42"/>
     </row>
-    <row r="51" ht="15.75" spans="36:64">
-      <c r="AJ51" s="56"/>
-      <c r="AK51" s="55"/>
-      <c r="AL51" s="55"/>
-      <c r="AM51" s="55"/>
-      <c r="AN51" s="55"/>
-      <c r="AO51" s="55"/>
-      <c r="AP51" s="55"/>
-      <c r="AQ51" s="55"/>
-      <c r="AR51" s="55"/>
-      <c r="AS51" s="55"/>
-      <c r="AT51" s="55"/>
-      <c r="AU51" s="55"/>
-      <c r="AV51" s="55"/>
-      <c r="AW51" s="55"/>
-      <c r="AX51" s="55"/>
-      <c r="AY51" s="55"/>
-      <c r="AZ51" s="55"/>
-      <c r="BA51" s="55"/>
-      <c r="BB51" s="55"/>
-      <c r="BC51" s="55"/>
-      <c r="BD51" s="55"/>
-      <c r="BE51" s="55"/>
-      <c r="BF51" s="55"/>
-      <c r="BG51" s="55"/>
-      <c r="BH51" s="55"/>
-      <c r="BI51" s="55"/>
-      <c r="BJ51" s="55"/>
-      <c r="BK51" s="55"/>
-      <c r="BL51" s="55"/>
+    <row r="51" spans="36:64" ht="15.75">
+      <c r="AJ51" s="43"/>
+      <c r="AK51" s="42"/>
+      <c r="AL51" s="42"/>
+      <c r="AM51" s="42"/>
+      <c r="AN51" s="42"/>
+      <c r="AO51" s="42"/>
+      <c r="AP51" s="42"/>
+      <c r="AQ51" s="42"/>
+      <c r="AR51" s="42"/>
+      <c r="AS51" s="42"/>
+      <c r="AT51" s="42"/>
+      <c r="AU51" s="42"/>
+      <c r="AV51" s="42"/>
+      <c r="AW51" s="42"/>
+      <c r="AX51" s="42"/>
+      <c r="AY51" s="42"/>
+      <c r="AZ51" s="42"/>
+      <c r="BA51" s="42"/>
+      <c r="BB51" s="42"/>
+      <c r="BC51" s="42"/>
+      <c r="BD51" s="42"/>
+      <c r="BE51" s="42"/>
+      <c r="BF51" s="42"/>
+      <c r="BG51" s="42"/>
+      <c r="BH51" s="42"/>
+      <c r="BI51" s="42"/>
+      <c r="BJ51" s="42"/>
+      <c r="BK51" s="42"/>
+      <c r="BL51" s="42"/>
     </row>
-    <row r="52" ht="15.75" spans="36:64">
-      <c r="AJ52" s="56"/>
-      <c r="AK52" s="55"/>
-      <c r="AL52" s="55"/>
-      <c r="AM52" s="55"/>
-      <c r="AN52" s="55"/>
-      <c r="AO52" s="55"/>
-      <c r="AP52" s="55"/>
-      <c r="AQ52" s="55"/>
-      <c r="AR52" s="55"/>
-      <c r="AS52" s="55"/>
-      <c r="AT52" s="55"/>
-      <c r="AU52" s="55"/>
-      <c r="AV52" s="55"/>
-      <c r="AW52" s="55"/>
-      <c r="AX52" s="55"/>
-      <c r="AY52" s="55"/>
-      <c r="AZ52" s="55"/>
-      <c r="BA52" s="55"/>
-      <c r="BB52" s="55"/>
-      <c r="BC52" s="55"/>
-      <c r="BD52" s="55"/>
-      <c r="BE52" s="55"/>
-      <c r="BF52" s="55"/>
-      <c r="BG52" s="55"/>
-      <c r="BH52" s="55"/>
-      <c r="BI52" s="55"/>
-      <c r="BJ52" s="55"/>
-      <c r="BK52" s="55"/>
-      <c r="BL52" s="55"/>
+    <row r="52" spans="36:64" ht="15.75">
+      <c r="AJ52" s="43"/>
+      <c r="AK52" s="42"/>
+      <c r="AL52" s="42"/>
+      <c r="AM52" s="42"/>
+      <c r="AN52" s="42"/>
+      <c r="AO52" s="42"/>
+      <c r="AP52" s="42"/>
+      <c r="AQ52" s="42"/>
+      <c r="AR52" s="42"/>
+      <c r="AS52" s="42"/>
+      <c r="AT52" s="42"/>
+      <c r="AU52" s="42"/>
+      <c r="AV52" s="42"/>
+      <c r="AW52" s="42"/>
+      <c r="AX52" s="42"/>
+      <c r="AY52" s="42"/>
+      <c r="AZ52" s="42"/>
+      <c r="BA52" s="42"/>
+      <c r="BB52" s="42"/>
+      <c r="BC52" s="42"/>
+      <c r="BD52" s="42"/>
+      <c r="BE52" s="42"/>
+      <c r="BF52" s="42"/>
+      <c r="BG52" s="42"/>
+      <c r="BH52" s="42"/>
+      <c r="BI52" s="42"/>
+      <c r="BJ52" s="42"/>
+      <c r="BK52" s="42"/>
+      <c r="BL52" s="42"/>
     </row>
-    <row r="53" ht="15.75" spans="36:64">
-      <c r="AJ53" s="56"/>
-      <c r="AK53" s="55"/>
-      <c r="AL53" s="55"/>
-      <c r="AM53" s="55"/>
-      <c r="AN53" s="55"/>
-      <c r="AO53" s="55"/>
-      <c r="AP53" s="55"/>
-      <c r="AQ53" s="55"/>
-      <c r="AR53" s="55"/>
-      <c r="AS53" s="55"/>
-      <c r="AT53" s="55"/>
-      <c r="AU53" s="55"/>
-      <c r="AV53" s="55"/>
-      <c r="AW53" s="55"/>
-      <c r="AX53" s="55"/>
-      <c r="AY53" s="55"/>
-      <c r="AZ53" s="55"/>
-      <c r="BA53" s="55"/>
-      <c r="BB53" s="55"/>
-      <c r="BC53" s="55"/>
-      <c r="BD53" s="55"/>
-      <c r="BE53" s="55"/>
-      <c r="BF53" s="55"/>
-      <c r="BG53" s="55"/>
-      <c r="BH53" s="55"/>
-      <c r="BI53" s="55"/>
-      <c r="BJ53" s="55"/>
-      <c r="BK53" s="55"/>
-      <c r="BL53" s="55"/>
+    <row r="53" spans="36:64" ht="15.75">
+      <c r="AJ53" s="43"/>
+      <c r="AK53" s="42"/>
+      <c r="AL53" s="42"/>
+      <c r="AM53" s="42"/>
+      <c r="AN53" s="42"/>
+      <c r="AO53" s="42"/>
+      <c r="AP53" s="42"/>
+      <c r="AQ53" s="42"/>
+      <c r="AR53" s="42"/>
+      <c r="AS53" s="42"/>
+      <c r="AT53" s="42"/>
+      <c r="AU53" s="42"/>
+      <c r="AV53" s="42"/>
+      <c r="AW53" s="42"/>
+      <c r="AX53" s="42"/>
+      <c r="AY53" s="42"/>
+      <c r="AZ53" s="42"/>
+      <c r="BA53" s="42"/>
+      <c r="BB53" s="42"/>
+      <c r="BC53" s="42"/>
+      <c r="BD53" s="42"/>
+      <c r="BE53" s="42"/>
+      <c r="BF53" s="42"/>
+      <c r="BG53" s="42"/>
+      <c r="BH53" s="42"/>
+      <c r="BI53" s="42"/>
+      <c r="BJ53" s="42"/>
+      <c r="BK53" s="42"/>
+      <c r="BL53" s="42"/>
     </row>
-    <row r="54" ht="15.75" spans="36:64">
-      <c r="AJ54" s="56"/>
-      <c r="AK54" s="55"/>
-      <c r="AL54" s="55"/>
-      <c r="AM54" s="55"/>
-      <c r="AN54" s="55"/>
-      <c r="AO54" s="55"/>
-      <c r="AP54" s="55"/>
-      <c r="AQ54" s="55"/>
-      <c r="AR54" s="55"/>
-      <c r="AS54" s="55"/>
-      <c r="AT54" s="55"/>
-      <c r="AU54" s="55"/>
-      <c r="AV54" s="55"/>
-      <c r="AW54" s="55"/>
-      <c r="AX54" s="55"/>
-      <c r="AY54" s="55"/>
-      <c r="AZ54" s="55"/>
-      <c r="BA54" s="55"/>
-      <c r="BB54" s="55"/>
-      <c r="BC54" s="55"/>
-      <c r="BD54" s="55"/>
-      <c r="BE54" s="55"/>
-      <c r="BF54" s="55"/>
-      <c r="BG54" s="55"/>
-      <c r="BH54" s="55"/>
-      <c r="BI54" s="55"/>
-      <c r="BJ54" s="55"/>
-      <c r="BK54" s="55"/>
-      <c r="BL54" s="55"/>
+    <row r="54" spans="36:64" ht="15.75">
+      <c r="AJ54" s="43"/>
+      <c r="AK54" s="42"/>
+      <c r="AL54" s="42"/>
+      <c r="AM54" s="42"/>
+      <c r="AN54" s="42"/>
+      <c r="AO54" s="42"/>
+      <c r="AP54" s="42"/>
+      <c r="AQ54" s="42"/>
+      <c r="AR54" s="42"/>
+      <c r="AS54" s="42"/>
+      <c r="AT54" s="42"/>
+      <c r="AU54" s="42"/>
+      <c r="AV54" s="42"/>
+      <c r="AW54" s="42"/>
+      <c r="AX54" s="42"/>
+      <c r="AY54" s="42"/>
+      <c r="AZ54" s="42"/>
+      <c r="BA54" s="42"/>
+      <c r="BB54" s="42"/>
+      <c r="BC54" s="42"/>
+      <c r="BD54" s="42"/>
+      <c r="BE54" s="42"/>
+      <c r="BF54" s="42"/>
+      <c r="BG54" s="42"/>
+      <c r="BH54" s="42"/>
+      <c r="BI54" s="42"/>
+      <c r="BJ54" s="42"/>
+      <c r="BK54" s="42"/>
+      <c r="BL54" s="42"/>
     </row>
-    <row r="55" ht="15.75" spans="36:64">
-      <c r="AJ55" s="56"/>
-      <c r="AK55" s="55"/>
-      <c r="AL55" s="55"/>
-      <c r="AM55" s="55"/>
-      <c r="AN55" s="55"/>
-      <c r="AO55" s="55"/>
-      <c r="AP55" s="55"/>
-      <c r="AQ55" s="55"/>
-      <c r="AR55" s="55"/>
-      <c r="AS55" s="55"/>
-      <c r="AT55" s="55"/>
-      <c r="AU55" s="55"/>
-      <c r="AV55" s="55"/>
-      <c r="AW55" s="55"/>
-      <c r="AX55" s="55"/>
-      <c r="AY55" s="55"/>
-      <c r="AZ55" s="55"/>
-      <c r="BA55" s="55"/>
-      <c r="BB55" s="55"/>
-      <c r="BC55" s="55"/>
-      <c r="BD55" s="55"/>
-      <c r="BE55" s="55"/>
-      <c r="BF55" s="55"/>
-      <c r="BG55" s="55"/>
-      <c r="BH55" s="55"/>
-      <c r="BI55" s="55"/>
-      <c r="BJ55" s="55"/>
-      <c r="BK55" s="55"/>
-      <c r="BL55" s="55"/>
+    <row r="55" spans="36:64" ht="15.75">
+      <c r="AJ55" s="43"/>
+      <c r="AK55" s="42"/>
+      <c r="AL55" s="42"/>
+      <c r="AM55" s="42"/>
+      <c r="AN55" s="42"/>
+      <c r="AO55" s="42"/>
+      <c r="AP55" s="42"/>
+      <c r="AQ55" s="42"/>
+      <c r="AR55" s="42"/>
+      <c r="AS55" s="42"/>
+      <c r="AT55" s="42"/>
+      <c r="AU55" s="42"/>
+      <c r="AV55" s="42"/>
+      <c r="AW55" s="42"/>
+      <c r="AX55" s="42"/>
+      <c r="AY55" s="42"/>
+      <c r="AZ55" s="42"/>
+      <c r="BA55" s="42"/>
+      <c r="BB55" s="42"/>
+      <c r="BC55" s="42"/>
+      <c r="BD55" s="42"/>
+      <c r="BE55" s="42"/>
+      <c r="BF55" s="42"/>
+      <c r="BG55" s="42"/>
+      <c r="BH55" s="42"/>
+      <c r="BI55" s="42"/>
+      <c r="BJ55" s="42"/>
+      <c r="BK55" s="42"/>
+      <c r="BL55" s="42"/>
     </row>
-    <row r="56" ht="15.75" spans="36:64">
-      <c r="AJ56" s="56"/>
-      <c r="AK56" s="55"/>
-      <c r="AL56" s="55"/>
-      <c r="AM56" s="55"/>
-      <c r="AN56" s="55"/>
-      <c r="AO56" s="55"/>
-      <c r="AP56" s="55"/>
-      <c r="AQ56" s="55"/>
-      <c r="AR56" s="55"/>
-      <c r="AS56" s="55"/>
-      <c r="AT56" s="55"/>
-      <c r="AU56" s="55"/>
-      <c r="AV56" s="55"/>
-      <c r="AW56" s="55"/>
-      <c r="AX56" s="55"/>
-      <c r="AY56" s="55"/>
-      <c r="AZ56" s="55"/>
-      <c r="BA56" s="55"/>
-      <c r="BB56" s="55"/>
-      <c r="BC56" s="55"/>
-      <c r="BD56" s="55"/>
-      <c r="BE56" s="55"/>
-      <c r="BF56" s="55"/>
-      <c r="BG56" s="55"/>
-      <c r="BH56" s="55"/>
-      <c r="BI56" s="55"/>
-      <c r="BJ56" s="55"/>
-      <c r="BK56" s="55"/>
-      <c r="BL56" s="55"/>
+    <row r="56" spans="36:64" ht="15.75">
+      <c r="AJ56" s="43"/>
+      <c r="AK56" s="42"/>
+      <c r="AL56" s="42"/>
+      <c r="AM56" s="42"/>
+      <c r="AN56" s="42"/>
+      <c r="AO56" s="42"/>
+      <c r="AP56" s="42"/>
+      <c r="AQ56" s="42"/>
+      <c r="AR56" s="42"/>
+      <c r="AS56" s="42"/>
+      <c r="AT56" s="42"/>
+      <c r="AU56" s="42"/>
+      <c r="AV56" s="42"/>
+      <c r="AW56" s="42"/>
+      <c r="AX56" s="42"/>
+      <c r="AY56" s="42"/>
+      <c r="AZ56" s="42"/>
+      <c r="BA56" s="42"/>
+      <c r="BB56" s="42"/>
+      <c r="BC56" s="42"/>
+      <c r="BD56" s="42"/>
+      <c r="BE56" s="42"/>
+      <c r="BF56" s="42"/>
+      <c r="BG56" s="42"/>
+      <c r="BH56" s="42"/>
+      <c r="BI56" s="42"/>
+      <c r="BJ56" s="42"/>
+      <c r="BK56" s="42"/>
+      <c r="BL56" s="42"/>
     </row>
-    <row r="57" ht="15.75" spans="36:64">
-      <c r="AJ57" s="56"/>
-      <c r="AK57" s="55"/>
-      <c r="AL57" s="55"/>
-      <c r="AM57" s="55"/>
-      <c r="AN57" s="55"/>
-      <c r="AO57" s="55"/>
-      <c r="AP57" s="55"/>
-      <c r="AQ57" s="55"/>
-      <c r="AR57" s="55"/>
-      <c r="AS57" s="55"/>
-      <c r="AT57" s="55"/>
-      <c r="AU57" s="55"/>
-      <c r="AV57" s="55"/>
-      <c r="AW57" s="55"/>
-      <c r="AX57" s="55"/>
-      <c r="AY57" s="55"/>
-      <c r="AZ57" s="55"/>
-      <c r="BA57" s="55"/>
-      <c r="BB57" s="55"/>
-      <c r="BC57" s="55"/>
-      <c r="BD57" s="55"/>
-      <c r="BE57" s="55"/>
-      <c r="BF57" s="55"/>
-      <c r="BG57" s="55"/>
-      <c r="BH57" s="55"/>
-      <c r="BI57" s="55"/>
-      <c r="BJ57" s="55"/>
-      <c r="BK57" s="55"/>
-      <c r="BL57" s="55"/>
+    <row r="57" spans="36:64" ht="15.75">
+      <c r="AJ57" s="43"/>
+      <c r="AK57" s="42"/>
+      <c r="AL57" s="42"/>
+      <c r="AM57" s="42"/>
+      <c r="AN57" s="42"/>
+      <c r="AO57" s="42"/>
+      <c r="AP57" s="42"/>
+      <c r="AQ57" s="42"/>
+      <c r="AR57" s="42"/>
+      <c r="AS57" s="42"/>
+      <c r="AT57" s="42"/>
+      <c r="AU57" s="42"/>
+      <c r="AV57" s="42"/>
+      <c r="AW57" s="42"/>
+      <c r="AX57" s="42"/>
+      <c r="AY57" s="42"/>
+      <c r="AZ57" s="42"/>
+      <c r="BA57" s="42"/>
+      <c r="BB57" s="42"/>
+      <c r="BC57" s="42"/>
+      <c r="BD57" s="42"/>
+      <c r="BE57" s="42"/>
+      <c r="BF57" s="42"/>
+      <c r="BG57" s="42"/>
+      <c r="BH57" s="42"/>
+      <c r="BI57" s="42"/>
+      <c r="BJ57" s="42"/>
+      <c r="BK57" s="42"/>
+      <c r="BL57" s="42"/>
     </row>
-    <row r="58" ht="15.75" spans="36:64">
-      <c r="AJ58" s="56"/>
-      <c r="AK58" s="55"/>
-      <c r="AL58" s="55"/>
-      <c r="AM58" s="55"/>
-      <c r="AN58" s="55"/>
-      <c r="AO58" s="55"/>
-      <c r="AP58" s="55"/>
-      <c r="AQ58" s="55"/>
-      <c r="AR58" s="55"/>
-      <c r="AS58" s="55"/>
-      <c r="AT58" s="55"/>
-      <c r="AU58" s="55"/>
-      <c r="AV58" s="55"/>
-      <c r="AW58" s="55"/>
-      <c r="AX58" s="55"/>
-      <c r="AY58" s="55"/>
-      <c r="AZ58" s="55"/>
-      <c r="BA58" s="55"/>
-      <c r="BB58" s="55"/>
-      <c r="BC58" s="55"/>
-      <c r="BD58" s="55"/>
-      <c r="BE58" s="55"/>
-      <c r="BF58" s="55"/>
-      <c r="BG58" s="55"/>
-      <c r="BH58" s="55"/>
-      <c r="BI58" s="55"/>
-      <c r="BJ58" s="55"/>
-      <c r="BK58" s="55"/>
-      <c r="BL58" s="55"/>
+    <row r="58" spans="36:64" ht="15.75">
+      <c r="AJ58" s="43"/>
+      <c r="AK58" s="42"/>
+      <c r="AL58" s="42"/>
+      <c r="AM58" s="42"/>
+      <c r="AN58" s="42"/>
+      <c r="AO58" s="42"/>
+      <c r="AP58" s="42"/>
+      <c r="AQ58" s="42"/>
+      <c r="AR58" s="42"/>
+      <c r="AS58" s="42"/>
+      <c r="AT58" s="42"/>
+      <c r="AU58" s="42"/>
+      <c r="AV58" s="42"/>
+      <c r="AW58" s="42"/>
+      <c r="AX58" s="42"/>
+      <c r="AY58" s="42"/>
+      <c r="AZ58" s="42"/>
+      <c r="BA58" s="42"/>
+      <c r="BB58" s="42"/>
+      <c r="BC58" s="42"/>
+      <c r="BD58" s="42"/>
+      <c r="BE58" s="42"/>
+      <c r="BF58" s="42"/>
+      <c r="BG58" s="42"/>
+      <c r="BH58" s="42"/>
+      <c r="BI58" s="42"/>
+      <c r="BJ58" s="42"/>
+      <c r="BK58" s="42"/>
+      <c r="BL58" s="42"/>
     </row>
-    <row r="59" ht="15.75" spans="36:64">
-      <c r="AJ59" s="56"/>
-      <c r="AK59" s="55"/>
-      <c r="AL59" s="55"/>
-      <c r="AM59" s="55"/>
-      <c r="AN59" s="55"/>
-      <c r="AO59" s="55"/>
-      <c r="AP59" s="55"/>
-      <c r="AQ59" s="55"/>
-      <c r="AR59" s="55"/>
-      <c r="AS59" s="55"/>
-      <c r="AT59" s="55"/>
-      <c r="AU59" s="55"/>
-      <c r="AV59" s="55"/>
-      <c r="AW59" s="55"/>
-      <c r="AX59" s="55"/>
-      <c r="AY59" s="55"/>
-      <c r="AZ59" s="55"/>
-      <c r="BA59" s="55"/>
-      <c r="BB59" s="55"/>
-      <c r="BC59" s="55"/>
-      <c r="BD59" s="55"/>
-      <c r="BE59" s="55"/>
-      <c r="BF59" s="55"/>
-      <c r="BG59" s="55"/>
-      <c r="BH59" s="55"/>
-      <c r="BI59" s="55"/>
-      <c r="BJ59" s="55"/>
-      <c r="BK59" s="55"/>
-      <c r="BL59" s="55"/>
+    <row r="59" spans="36:64" ht="15.75">
+      <c r="AJ59" s="43"/>
+      <c r="AK59" s="42"/>
+      <c r="AL59" s="42"/>
+      <c r="AM59" s="42"/>
+      <c r="AN59" s="42"/>
+      <c r="AO59" s="42"/>
+      <c r="AP59" s="42"/>
+      <c r="AQ59" s="42"/>
+      <c r="AR59" s="42"/>
+      <c r="AS59" s="42"/>
+      <c r="AT59" s="42"/>
+      <c r="AU59" s="42"/>
+      <c r="AV59" s="42"/>
+      <c r="AW59" s="42"/>
+      <c r="AX59" s="42"/>
+      <c r="AY59" s="42"/>
+      <c r="AZ59" s="42"/>
+      <c r="BA59" s="42"/>
+      <c r="BB59" s="42"/>
+      <c r="BC59" s="42"/>
+      <c r="BD59" s="42"/>
+      <c r="BE59" s="42"/>
+      <c r="BF59" s="42"/>
+      <c r="BG59" s="42"/>
+      <c r="BH59" s="42"/>
+      <c r="BI59" s="42"/>
+      <c r="BJ59" s="42"/>
+      <c r="BK59" s="42"/>
+      <c r="BL59" s="42"/>
     </row>
-    <row r="60" ht="15.75" spans="36:64">
-      <c r="AJ60" s="56"/>
-      <c r="AK60" s="55"/>
-      <c r="AL60" s="55"/>
-      <c r="AM60" s="55"/>
-      <c r="AN60" s="55"/>
-      <c r="AO60" s="55"/>
-      <c r="AP60" s="55"/>
-      <c r="AQ60" s="55"/>
-      <c r="AR60" s="55"/>
-      <c r="AS60" s="55"/>
-      <c r="AT60" s="55"/>
-      <c r="AU60" s="55"/>
-      <c r="AV60" s="55"/>
-      <c r="AW60" s="55"/>
-      <c r="AX60" s="55"/>
-      <c r="AY60" s="55"/>
-      <c r="AZ60" s="55"/>
-      <c r="BA60" s="55"/>
-      <c r="BB60" s="55"/>
-      <c r="BC60" s="55"/>
-      <c r="BD60" s="55"/>
-      <c r="BE60" s="55"/>
-      <c r="BF60" s="55"/>
-      <c r="BG60" s="55"/>
-      <c r="BH60" s="55"/>
-      <c r="BI60" s="55"/>
-      <c r="BJ60" s="55"/>
-      <c r="BK60" s="55"/>
-      <c r="BL60" s="55"/>
+    <row r="60" spans="36:64" ht="15.75">
+      <c r="AJ60" s="43"/>
+      <c r="AK60" s="42"/>
+      <c r="AL60" s="42"/>
+      <c r="AM60" s="42"/>
+      <c r="AN60" s="42"/>
+      <c r="AO60" s="42"/>
+      <c r="AP60" s="42"/>
+      <c r="AQ60" s="42"/>
+      <c r="AR60" s="42"/>
+      <c r="AS60" s="42"/>
+      <c r="AT60" s="42"/>
+      <c r="AU60" s="42"/>
+      <c r="AV60" s="42"/>
+      <c r="AW60" s="42"/>
+      <c r="AX60" s="42"/>
+      <c r="AY60" s="42"/>
+      <c r="AZ60" s="42"/>
+      <c r="BA60" s="42"/>
+      <c r="BB60" s="42"/>
+      <c r="BC60" s="42"/>
+      <c r="BD60" s="42"/>
+      <c r="BE60" s="42"/>
+      <c r="BF60" s="42"/>
+      <c r="BG60" s="42"/>
+      <c r="BH60" s="42"/>
+      <c r="BI60" s="42"/>
+      <c r="BJ60" s="42"/>
+      <c r="BK60" s="42"/>
+      <c r="BL60" s="42"/>
     </row>
-    <row r="61" ht="15.75" spans="36:64">
-      <c r="AJ61" s="56"/>
-      <c r="AK61" s="55"/>
-      <c r="AL61" s="55"/>
-      <c r="AM61" s="55"/>
-      <c r="AN61" s="55"/>
-      <c r="AO61" s="55"/>
-      <c r="AP61" s="55"/>
-      <c r="AQ61" s="55"/>
-      <c r="AR61" s="55"/>
-      <c r="AS61" s="55"/>
-      <c r="AT61" s="55"/>
-      <c r="AU61" s="55"/>
-      <c r="AV61" s="55"/>
-      <c r="AW61" s="55"/>
-      <c r="AX61" s="55"/>
-      <c r="AY61" s="55"/>
-      <c r="AZ61" s="55"/>
-      <c r="BA61" s="55"/>
-      <c r="BB61" s="55"/>
-      <c r="BC61" s="55"/>
-      <c r="BD61" s="55"/>
-      <c r="BE61" s="55"/>
-      <c r="BF61" s="55"/>
-      <c r="BG61" s="55"/>
-      <c r="BH61" s="55"/>
-      <c r="BI61" s="55"/>
-      <c r="BJ61" s="55"/>
-      <c r="BK61" s="55"/>
-      <c r="BL61" s="55"/>
+    <row r="61" spans="36:64" ht="15.75">
+      <c r="AJ61" s="43"/>
+      <c r="AK61" s="42"/>
+      <c r="AL61" s="42"/>
+      <c r="AM61" s="42"/>
+      <c r="AN61" s="42"/>
+      <c r="AO61" s="42"/>
+      <c r="AP61" s="42"/>
+      <c r="AQ61" s="42"/>
+      <c r="AR61" s="42"/>
+      <c r="AS61" s="42"/>
+      <c r="AT61" s="42"/>
+      <c r="AU61" s="42"/>
+      <c r="AV61" s="42"/>
+      <c r="AW61" s="42"/>
+      <c r="AX61" s="42"/>
+      <c r="AY61" s="42"/>
+      <c r="AZ61" s="42"/>
+      <c r="BA61" s="42"/>
+      <c r="BB61" s="42"/>
+      <c r="BC61" s="42"/>
+      <c r="BD61" s="42"/>
+      <c r="BE61" s="42"/>
+      <c r="BF61" s="42"/>
+      <c r="BG61" s="42"/>
+      <c r="BH61" s="42"/>
+      <c r="BI61" s="42"/>
+      <c r="BJ61" s="42"/>
+      <c r="BK61" s="42"/>
+      <c r="BL61" s="42"/>
     </row>
-    <row r="62" ht="15.75" spans="36:64">
-      <c r="AJ62" s="56"/>
-      <c r="AK62" s="55"/>
-      <c r="AL62" s="55"/>
-      <c r="AM62" s="55"/>
-      <c r="AN62" s="55"/>
-      <c r="AO62" s="55"/>
-      <c r="AP62" s="55"/>
-      <c r="AQ62" s="55"/>
-      <c r="AR62" s="55"/>
-      <c r="AS62" s="55"/>
-      <c r="AT62" s="55"/>
-      <c r="AU62" s="55"/>
-      <c r="AV62" s="55"/>
-      <c r="AW62" s="55"/>
-      <c r="AX62" s="55"/>
-      <c r="AY62" s="55"/>
-      <c r="AZ62" s="55"/>
-      <c r="BA62" s="55"/>
-      <c r="BB62" s="55"/>
-      <c r="BC62" s="55"/>
-      <c r="BD62" s="55"/>
-      <c r="BE62" s="55"/>
-      <c r="BF62" s="55"/>
-      <c r="BG62" s="55"/>
-      <c r="BH62" s="55"/>
-      <c r="BI62" s="55"/>
-      <c r="BJ62" s="55"/>
-      <c r="BK62" s="55"/>
-      <c r="BL62" s="55"/>
+    <row r="62" spans="36:64" ht="15.75">
+      <c r="AJ62" s="43"/>
+      <c r="AK62" s="42"/>
+      <c r="AL62" s="42"/>
+      <c r="AM62" s="42"/>
+      <c r="AN62" s="42"/>
+      <c r="AO62" s="42"/>
+      <c r="AP62" s="42"/>
+      <c r="AQ62" s="42"/>
+      <c r="AR62" s="42"/>
+      <c r="AS62" s="42"/>
+      <c r="AT62" s="42"/>
+      <c r="AU62" s="42"/>
+      <c r="AV62" s="42"/>
+      <c r="AW62" s="42"/>
+      <c r="AX62" s="42"/>
+      <c r="AY62" s="42"/>
+      <c r="AZ62" s="42"/>
+      <c r="BA62" s="42"/>
+      <c r="BB62" s="42"/>
+      <c r="BC62" s="42"/>
+      <c r="BD62" s="42"/>
+      <c r="BE62" s="42"/>
+      <c r="BF62" s="42"/>
+      <c r="BG62" s="42"/>
+      <c r="BH62" s="42"/>
+      <c r="BI62" s="42"/>
+      <c r="BJ62" s="42"/>
+      <c r="BK62" s="42"/>
+      <c r="BL62" s="42"/>
     </row>
-    <row r="63" ht="15.75" spans="36:64">
-      <c r="AJ63" s="56"/>
-      <c r="AK63" s="55"/>
-      <c r="AL63" s="55"/>
-      <c r="AM63" s="55"/>
-      <c r="AN63" s="55"/>
-      <c r="AO63" s="55"/>
-      <c r="AP63" s="55"/>
-      <c r="AQ63" s="55"/>
-      <c r="AR63" s="55"/>
-      <c r="AS63" s="55"/>
-      <c r="AT63" s="55"/>
-      <c r="AU63" s="55"/>
-      <c r="AV63" s="55"/>
-      <c r="AW63" s="55"/>
-      <c r="AX63" s="55"/>
-      <c r="AY63" s="55"/>
-      <c r="AZ63" s="55"/>
-      <c r="BA63" s="55"/>
-      <c r="BB63" s="55"/>
-      <c r="BC63" s="55"/>
-      <c r="BD63" s="55"/>
-      <c r="BE63" s="55"/>
-      <c r="BF63" s="55"/>
-      <c r="BG63" s="55"/>
-      <c r="BH63" s="55"/>
-      <c r="BI63" s="55"/>
-      <c r="BJ63" s="55"/>
-      <c r="BK63" s="55"/>
-      <c r="BL63" s="55"/>
+    <row r="63" spans="36:64" ht="15.75">
+      <c r="AJ63" s="43"/>
+      <c r="AK63" s="42"/>
+      <c r="AL63" s="42"/>
+      <c r="AM63" s="42"/>
+      <c r="AN63" s="42"/>
+      <c r="AO63" s="42"/>
+      <c r="AP63" s="42"/>
+      <c r="AQ63" s="42"/>
+      <c r="AR63" s="42"/>
+      <c r="AS63" s="42"/>
+      <c r="AT63" s="42"/>
+      <c r="AU63" s="42"/>
+      <c r="AV63" s="42"/>
+      <c r="AW63" s="42"/>
+      <c r="AX63" s="42"/>
+      <c r="AY63" s="42"/>
+      <c r="AZ63" s="42"/>
+      <c r="BA63" s="42"/>
+      <c r="BB63" s="42"/>
+      <c r="BC63" s="42"/>
+      <c r="BD63" s="42"/>
+      <c r="BE63" s="42"/>
+      <c r="BF63" s="42"/>
+      <c r="BG63" s="42"/>
+      <c r="BH63" s="42"/>
+      <c r="BI63" s="42"/>
+      <c r="BJ63" s="42"/>
+      <c r="BK63" s="42"/>
+      <c r="BL63" s="42"/>
     </row>
-    <row r="64" ht="15.75" spans="36:64">
-      <c r="AJ64" s="56"/>
-      <c r="AK64" s="55"/>
-      <c r="AL64" s="55"/>
-      <c r="AM64" s="55"/>
-      <c r="AN64" s="55"/>
-      <c r="AO64" s="55"/>
-      <c r="AP64" s="55"/>
-      <c r="AQ64" s="55"/>
-      <c r="AR64" s="55"/>
-      <c r="AS64" s="55"/>
-      <c r="AT64" s="55"/>
-      <c r="AU64" s="55"/>
-      <c r="AV64" s="55"/>
-      <c r="AW64" s="55"/>
-      <c r="AX64" s="55"/>
-      <c r="AY64" s="55"/>
-      <c r="AZ64" s="55"/>
-      <c r="BA64" s="55"/>
-      <c r="BB64" s="55"/>
-      <c r="BC64" s="55"/>
-      <c r="BD64" s="55"/>
-      <c r="BE64" s="55"/>
-      <c r="BF64" s="55"/>
-      <c r="BG64" s="55"/>
-      <c r="BH64" s="55"/>
-      <c r="BI64" s="55"/>
-      <c r="BJ64" s="55"/>
-      <c r="BK64" s="55"/>
-      <c r="BL64" s="55"/>
+    <row r="64" spans="36:64" ht="15.75">
+      <c r="AJ64" s="43"/>
+      <c r="AK64" s="42"/>
+      <c r="AL64" s="42"/>
+      <c r="AM64" s="42"/>
+      <c r="AN64" s="42"/>
+      <c r="AO64" s="42"/>
+      <c r="AP64" s="42"/>
+      <c r="AQ64" s="42"/>
+      <c r="AR64" s="42"/>
+      <c r="AS64" s="42"/>
+      <c r="AT64" s="42"/>
+      <c r="AU64" s="42"/>
+      <c r="AV64" s="42"/>
+      <c r="AW64" s="42"/>
+      <c r="AX64" s="42"/>
+      <c r="AY64" s="42"/>
+      <c r="AZ64" s="42"/>
+      <c r="BA64" s="42"/>
+      <c r="BB64" s="42"/>
+      <c r="BC64" s="42"/>
+      <c r="BD64" s="42"/>
+      <c r="BE64" s="42"/>
+      <c r="BF64" s="42"/>
+      <c r="BG64" s="42"/>
+      <c r="BH64" s="42"/>
+      <c r="BI64" s="42"/>
+      <c r="BJ64" s="42"/>
+      <c r="BK64" s="42"/>
+      <c r="BL64" s="42"/>
     </row>
-    <row r="65" ht="15.75" spans="36:64">
-      <c r="AJ65" s="56"/>
-      <c r="AK65" s="55"/>
-      <c r="AL65" s="55"/>
-      <c r="AM65" s="55"/>
-      <c r="AN65" s="55"/>
-      <c r="AO65" s="55"/>
-      <c r="AP65" s="55"/>
-      <c r="AQ65" s="55"/>
-      <c r="AR65" s="55"/>
-      <c r="AS65" s="55"/>
-      <c r="AT65" s="55"/>
-      <c r="AU65" s="55"/>
-      <c r="AV65" s="55"/>
-      <c r="AW65" s="55"/>
-      <c r="AX65" s="55"/>
-      <c r="AY65" s="55"/>
-      <c r="AZ65" s="55"/>
-      <c r="BA65" s="55"/>
-      <c r="BB65" s="55"/>
-      <c r="BC65" s="55"/>
-      <c r="BD65" s="55"/>
-      <c r="BE65" s="55"/>
-      <c r="BF65" s="55"/>
-      <c r="BG65" s="55"/>
-      <c r="BH65" s="55"/>
-      <c r="BI65" s="55"/>
-      <c r="BJ65" s="55"/>
-      <c r="BK65" s="55"/>
-      <c r="BL65" s="55"/>
+    <row r="65" spans="36:64" ht="15.75">
+      <c r="AJ65" s="43"/>
+      <c r="AK65" s="42"/>
+      <c r="AL65" s="42"/>
+      <c r="AM65" s="42"/>
+      <c r="AN65" s="42"/>
+      <c r="AO65" s="42"/>
+      <c r="AP65" s="42"/>
+      <c r="AQ65" s="42"/>
+      <c r="AR65" s="42"/>
+      <c r="AS65" s="42"/>
+      <c r="AT65" s="42"/>
+      <c r="AU65" s="42"/>
+      <c r="AV65" s="42"/>
+      <c r="AW65" s="42"/>
+      <c r="AX65" s="42"/>
+      <c r="AY65" s="42"/>
+      <c r="AZ65" s="42"/>
+      <c r="BA65" s="42"/>
+      <c r="BB65" s="42"/>
+      <c r="BC65" s="42"/>
+      <c r="BD65" s="42"/>
+      <c r="BE65" s="42"/>
+      <c r="BF65" s="42"/>
+      <c r="BG65" s="42"/>
+      <c r="BH65" s="42"/>
+      <c r="BI65" s="42"/>
+      <c r="BJ65" s="42"/>
+      <c r="BK65" s="42"/>
+      <c r="BL65" s="42"/>
     </row>
-    <row r="66" ht="15.75" spans="36:64">
-      <c r="AJ66" s="56"/>
-      <c r="AK66" s="55"/>
-      <c r="AL66" s="55"/>
-      <c r="AM66" s="55"/>
-      <c r="AN66" s="55"/>
-      <c r="AO66" s="55"/>
-      <c r="AP66" s="55"/>
-      <c r="AQ66" s="55"/>
-      <c r="AR66" s="55"/>
-      <c r="AS66" s="55"/>
-      <c r="AT66" s="55"/>
-      <c r="AU66" s="55"/>
-      <c r="AV66" s="55"/>
-      <c r="AW66" s="55"/>
-      <c r="AX66" s="55"/>
-      <c r="AY66" s="55"/>
-      <c r="AZ66" s="55"/>
-      <c r="BA66" s="55"/>
-      <c r="BB66" s="55"/>
-      <c r="BC66" s="55"/>
-      <c r="BD66" s="55"/>
-      <c r="BE66" s="55"/>
-      <c r="BF66" s="55"/>
-      <c r="BG66" s="55"/>
-      <c r="BH66" s="55"/>
-      <c r="BI66" s="55"/>
-      <c r="BJ66" s="55"/>
-      <c r="BK66" s="55"/>
-      <c r="BL66" s="55"/>
+    <row r="66" spans="36:64" ht="15.75">
+      <c r="AJ66" s="43"/>
+      <c r="AK66" s="42"/>
+      <c r="AL66" s="42"/>
+      <c r="AM66" s="42"/>
+      <c r="AN66" s="42"/>
+      <c r="AO66" s="42"/>
+      <c r="AP66" s="42"/>
+      <c r="AQ66" s="42"/>
+      <c r="AR66" s="42"/>
+      <c r="AS66" s="42"/>
+      <c r="AT66" s="42"/>
+      <c r="AU66" s="42"/>
+      <c r="AV66" s="42"/>
+      <c r="AW66" s="42"/>
+      <c r="AX66" s="42"/>
+      <c r="AY66" s="42"/>
+      <c r="AZ66" s="42"/>
+      <c r="BA66" s="42"/>
+      <c r="BB66" s="42"/>
+      <c r="BC66" s="42"/>
+      <c r="BD66" s="42"/>
+      <c r="BE66" s="42"/>
+      <c r="BF66" s="42"/>
+      <c r="BG66" s="42"/>
+      <c r="BH66" s="42"/>
+      <c r="BI66" s="42"/>
+      <c r="BJ66" s="42"/>
+      <c r="BK66" s="42"/>
+      <c r="BL66" s="42"/>
     </row>
-    <row r="67" ht="15.75" spans="36:64">
-      <c r="AJ67" s="56"/>
-      <c r="AK67" s="55"/>
-      <c r="AL67" s="55"/>
-      <c r="AM67" s="55"/>
-      <c r="AN67" s="55"/>
-      <c r="AO67" s="55"/>
-      <c r="AP67" s="55"/>
-      <c r="AQ67" s="55"/>
-      <c r="AR67" s="55"/>
-      <c r="AS67" s="55"/>
-      <c r="AT67" s="55"/>
-      <c r="AU67" s="55"/>
-      <c r="AV67" s="55"/>
-      <c r="AW67" s="55"/>
-      <c r="AX67" s="55"/>
-      <c r="AY67" s="55"/>
-      <c r="AZ67" s="55"/>
-      <c r="BA67" s="55"/>
-      <c r="BB67" s="55"/>
-      <c r="BC67" s="55"/>
-      <c r="BD67" s="55"/>
-      <c r="BE67" s="55"/>
-      <c r="BF67" s="55"/>
-      <c r="BG67" s="55"/>
-      <c r="BH67" s="55"/>
-      <c r="BI67" s="55"/>
-      <c r="BJ67" s="55"/>
-      <c r="BK67" s="55"/>
-      <c r="BL67" s="55"/>
+    <row r="67" spans="36:64" ht="15.75">
+      <c r="AJ67" s="43"/>
+      <c r="AK67" s="42"/>
+      <c r="AL67" s="42"/>
+      <c r="AM67" s="42"/>
+      <c r="AN67" s="42"/>
+      <c r="AO67" s="42"/>
+      <c r="AP67" s="42"/>
+      <c r="AQ67" s="42"/>
+      <c r="AR67" s="42"/>
+      <c r="AS67" s="42"/>
+      <c r="AT67" s="42"/>
+      <c r="AU67" s="42"/>
+      <c r="AV67" s="42"/>
+      <c r="AW67" s="42"/>
+      <c r="AX67" s="42"/>
+      <c r="AY67" s="42"/>
+      <c r="AZ67" s="42"/>
+      <c r="BA67" s="42"/>
+      <c r="BB67" s="42"/>
+      <c r="BC67" s="42"/>
+      <c r="BD67" s="42"/>
+      <c r="BE67" s="42"/>
+      <c r="BF67" s="42"/>
+      <c r="BG67" s="42"/>
+      <c r="BH67" s="42"/>
+      <c r="BI67" s="42"/>
+      <c r="BJ67" s="42"/>
+      <c r="BK67" s="42"/>
+      <c r="BL67" s="42"/>
     </row>
-    <row r="68" ht="15.75" spans="36:64">
-      <c r="AJ68" s="56"/>
-      <c r="AK68" s="55"/>
-      <c r="AL68" s="55"/>
-      <c r="AM68" s="55"/>
-      <c r="AN68" s="55"/>
-      <c r="AO68" s="55"/>
-      <c r="AP68" s="55"/>
-      <c r="AQ68" s="55"/>
-      <c r="AR68" s="55"/>
-      <c r="AS68" s="55"/>
-      <c r="AT68" s="55"/>
-      <c r="AU68" s="55"/>
-      <c r="AV68" s="55"/>
-      <c r="AW68" s="55"/>
-      <c r="AX68" s="55"/>
-      <c r="AY68" s="55"/>
-      <c r="AZ68" s="55"/>
-      <c r="BA68" s="55"/>
-      <c r="BB68" s="55"/>
-      <c r="BC68" s="55"/>
-      <c r="BD68" s="55"/>
-      <c r="BE68" s="55"/>
-      <c r="BF68" s="55"/>
-      <c r="BG68" s="55"/>
-      <c r="BH68" s="55"/>
-      <c r="BI68" s="55"/>
-      <c r="BJ68" s="55"/>
-      <c r="BK68" s="55"/>
-      <c r="BL68" s="55"/>
+    <row r="68" spans="36:64" ht="15.75">
+      <c r="AJ68" s="43"/>
+      <c r="AK68" s="42"/>
+      <c r="AL68" s="42"/>
+      <c r="AM68" s="42"/>
+      <c r="AN68" s="42"/>
+      <c r="AO68" s="42"/>
+      <c r="AP68" s="42"/>
+      <c r="AQ68" s="42"/>
+      <c r="AR68" s="42"/>
+      <c r="AS68" s="42"/>
+      <c r="AT68" s="42"/>
+      <c r="AU68" s="42"/>
+      <c r="AV68" s="42"/>
+      <c r="AW68" s="42"/>
+      <c r="AX68" s="42"/>
+      <c r="AY68" s="42"/>
+      <c r="AZ68" s="42"/>
+      <c r="BA68" s="42"/>
+      <c r="BB68" s="42"/>
+      <c r="BC68" s="42"/>
+      <c r="BD68" s="42"/>
+      <c r="BE68" s="42"/>
+      <c r="BF68" s="42"/>
+      <c r="BG68" s="42"/>
+      <c r="BH68" s="42"/>
+      <c r="BI68" s="42"/>
+      <c r="BJ68" s="42"/>
+      <c r="BK68" s="42"/>
+      <c r="BL68" s="42"/>
     </row>
-    <row r="69" ht="15.75" spans="36:64">
-      <c r="AJ69" s="56"/>
-      <c r="AK69" s="55"/>
-      <c r="AL69" s="55"/>
-      <c r="AM69" s="55"/>
-      <c r="AN69" s="55"/>
-      <c r="AO69" s="55"/>
-      <c r="AP69" s="55"/>
-      <c r="AQ69" s="55"/>
-      <c r="AR69" s="55"/>
-      <c r="AS69" s="55"/>
-      <c r="AT69" s="55"/>
-      <c r="AU69" s="55"/>
-      <c r="AV69" s="55"/>
-      <c r="AW69" s="55"/>
-      <c r="AX69" s="55"/>
-      <c r="AY69" s="55"/>
-      <c r="AZ69" s="55"/>
-      <c r="BA69" s="55"/>
-      <c r="BB69" s="55"/>
-      <c r="BC69" s="55"/>
-      <c r="BD69" s="55"/>
-      <c r="BE69" s="55"/>
-      <c r="BF69" s="55"/>
-      <c r="BG69" s="55"/>
-      <c r="BH69" s="55"/>
-      <c r="BI69" s="55"/>
-      <c r="BJ69" s="55"/>
-      <c r="BK69" s="55"/>
-      <c r="BL69" s="55"/>
+    <row r="69" spans="36:64" ht="15.75">
+      <c r="AJ69" s="43"/>
+      <c r="AK69" s="42"/>
+      <c r="AL69" s="42"/>
+      <c r="AM69" s="42"/>
+      <c r="AN69" s="42"/>
+      <c r="AO69" s="42"/>
+      <c r="AP69" s="42"/>
+      <c r="AQ69" s="42"/>
+      <c r="AR69" s="42"/>
+      <c r="AS69" s="42"/>
+      <c r="AT69" s="42"/>
+      <c r="AU69" s="42"/>
+      <c r="AV69" s="42"/>
+      <c r="AW69" s="42"/>
+      <c r="AX69" s="42"/>
+      <c r="AY69" s="42"/>
+      <c r="AZ69" s="42"/>
+      <c r="BA69" s="42"/>
+      <c r="BB69" s="42"/>
+      <c r="BC69" s="42"/>
+      <c r="BD69" s="42"/>
+      <c r="BE69" s="42"/>
+      <c r="BF69" s="42"/>
+      <c r="BG69" s="42"/>
+      <c r="BH69" s="42"/>
+      <c r="BI69" s="42"/>
+      <c r="BJ69" s="42"/>
+      <c r="BK69" s="42"/>
+      <c r="BL69" s="42"/>
     </row>
-    <row r="70" ht="15.75" spans="36:64">
-      <c r="AJ70" s="57"/>
-      <c r="AK70" s="55"/>
-      <c r="AL70" s="55"/>
-      <c r="AM70" s="55"/>
-      <c r="AN70" s="55"/>
-      <c r="AO70" s="55"/>
-      <c r="AP70" s="55"/>
-      <c r="AQ70" s="55"/>
-      <c r="AR70" s="55"/>
-      <c r="AS70" s="55"/>
-      <c r="AT70" s="55"/>
-      <c r="AU70" s="55"/>
-      <c r="AV70" s="55"/>
-      <c r="AW70" s="55"/>
-      <c r="AX70" s="55"/>
-      <c r="AY70" s="55"/>
-      <c r="AZ70" s="55"/>
-      <c r="BA70" s="55"/>
-      <c r="BB70" s="55"/>
-      <c r="BC70" s="55"/>
-      <c r="BD70" s="55"/>
-      <c r="BE70" s="55"/>
-      <c r="BF70" s="55"/>
-      <c r="BG70" s="55"/>
-      <c r="BH70" s="55"/>
-      <c r="BI70" s="55"/>
-      <c r="BJ70" s="55"/>
-      <c r="BK70" s="55"/>
-      <c r="BL70" s="55"/>
+    <row r="70" spans="36:64" ht="15.75">
+      <c r="AJ70" s="44"/>
+      <c r="AK70" s="42"/>
+      <c r="AL70" s="42"/>
+      <c r="AM70" s="42"/>
+      <c r="AN70" s="42"/>
+      <c r="AO70" s="42"/>
+      <c r="AP70" s="42"/>
+      <c r="AQ70" s="42"/>
+      <c r="AR70" s="42"/>
+      <c r="AS70" s="42"/>
+      <c r="AT70" s="42"/>
+      <c r="AU70" s="42"/>
+      <c r="AV70" s="42"/>
+      <c r="AW70" s="42"/>
+      <c r="AX70" s="42"/>
+      <c r="AY70" s="42"/>
+      <c r="AZ70" s="42"/>
+      <c r="BA70" s="42"/>
+      <c r="BB70" s="42"/>
+      <c r="BC70" s="42"/>
+      <c r="BD70" s="42"/>
+      <c r="BE70" s="42"/>
+      <c r="BF70" s="42"/>
+      <c r="BG70" s="42"/>
+      <c r="BH70" s="42"/>
+      <c r="BI70" s="42"/>
+      <c r="BJ70" s="42"/>
+      <c r="BK70" s="42"/>
+      <c r="BL70" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AI1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="48" spans="1:35">
+    <row r="1" spans="1:35" ht="48">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -11209,21 +10610,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -11234,23 +10634,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/finished/6高炉/高炉月报表.xlsx
+++ b/excel/finished/6高炉/高炉月报表.xlsx
@@ -15,11 +15,8 @@
     <sheet name="月报表" sheetId="1" r:id="rId1"/>
     <sheet name="_tag_month_all" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="_metadata" sheetId="4" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -162,6 +159,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -171,6 +169,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>O</t>
@@ -182,6 +181,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>H</t>
@@ -191,6 +191,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -202,6 +203,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -211,6 +213,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -336,15 +339,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0;_�"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0;_찀"/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
-    <numFmt numFmtId="184" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0;_�"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0;_찀"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,45 +358,53 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -411,20 +422,17 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -752,9 +760,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -798,7 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -806,27 +814,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -842,15 +850,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -858,11 +866,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -871,7 +879,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -895,16 +903,25 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -935,18 +952,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="1"/>
@@ -963,29 +968,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="月報表"/>
-      <sheetName val="_MaterialAnalysis_month_day"/>
-      <sheetName val="_Tag_month_day"/>
-      <sheetName val="_LadleTap_month_day"/>
-      <sheetName val="_metadata"/>
-      <sheetName val="_dictionary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1275,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO70"/>
+  <dimension ref="A1:AK70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1288,34 +1270,34 @@
     <col min="4" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="8" customFormat="1" ht="25.5">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:37" s="8" customFormat="1" ht="25.5">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="46" t="str">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="49" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
       <c r="W1" s="33"/>
       <c r="X1" s="33"/>
       <c r="Y1" s="33"/>
@@ -1331,64 +1313,64 @@
       <c r="AI1" s="33"/>
       <c r="AJ1" s="33"/>
     </row>
-    <row r="2" spans="1:67" s="8" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:37" s="8" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="50" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="50" t="s">
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="55" t="s">
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="55" t="s">
+      <c r="AG2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="55" t="s">
+      <c r="AH2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="55" t="s">
+      <c r="AI2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="57" t="s">
+      <c r="AJ2" s="46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="8" customFormat="1" ht="36">
-      <c r="A3" s="54"/>
+    <row r="3" spans="1:37" s="8" customFormat="1" ht="36">
+      <c r="A3" s="57"/>
       <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1479,13 +1461,13 @@
       <c r="AE3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="58"/>
-    </row>
-    <row r="4" spans="1:67" s="8" customFormat="1" ht="0.75" customHeight="1">
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="47"/>
+    </row>
+    <row r="4" spans="1:37" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>40</v>
       </c>
@@ -1595,7 +1577,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="8" customFormat="1" ht="14.25">
+    <row r="5" spans="1:37" s="8" customFormat="1" ht="14.25">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -1740,7 +1722,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:67" s="8" customFormat="1" ht="14.25">
+    <row r="6" spans="1:37" s="8" customFormat="1" ht="14.25">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -1885,7 +1867,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:67" ht="14.25">
+    <row r="7" spans="1:37" ht="14.25">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -2030,38 +2012,8 @@
         <v/>
       </c>
       <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="8"/>
-      <c r="AO7" s="8"/>
-      <c r="AP7" s="8"/>
-      <c r="AQ7" s="8"/>
-      <c r="AR7" s="8"/>
-      <c r="AS7" s="8"/>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="8"/>
-      <c r="AV7" s="8"/>
-      <c r="AW7" s="8"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
-      <c r="AZ7" s="8"/>
-      <c r="BA7" s="8"/>
-      <c r="BB7" s="8"/>
-      <c r="BC7" s="8"/>
-      <c r="BD7" s="8"/>
-      <c r="BE7" s="8"/>
-      <c r="BF7" s="8"/>
-      <c r="BG7" s="8"/>
-      <c r="BH7" s="8"/>
-      <c r="BI7" s="8"/>
-      <c r="BJ7" s="8"/>
-      <c r="BK7" s="8"/>
-      <c r="BL7" s="8"/>
-      <c r="BM7" s="8"/>
-      <c r="BN7" s="8"/>
-      <c r="BO7" s="8"/>
-    </row>
-    <row r="8" spans="1:67" ht="14.25">
+    </row>
+    <row r="8" spans="1:37" ht="14.25">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -2206,38 +2158,8 @@
         <v/>
       </c>
       <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="8"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="8"/>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="8"/>
-      <c r="AY8" s="8"/>
-      <c r="AZ8" s="8"/>
-      <c r="BA8" s="8"/>
-      <c r="BB8" s="8"/>
-      <c r="BC8" s="8"/>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="8"/>
-      <c r="BF8" s="8"/>
-      <c r="BG8" s="8"/>
-      <c r="BH8" s="8"/>
-      <c r="BI8" s="8"/>
-      <c r="BJ8" s="8"/>
-      <c r="BK8" s="8"/>
-      <c r="BL8" s="8"/>
-      <c r="BM8" s="8"/>
-      <c r="BN8" s="8"/>
-      <c r="BO8" s="8"/>
-    </row>
-    <row r="9" spans="1:67" ht="14.25">
+    </row>
+    <row r="9" spans="1:37" ht="14.25">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -2382,38 +2304,8 @@
         <v/>
       </c>
       <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
-      <c r="AS9" s="8"/>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
-      <c r="AX9" s="8"/>
-      <c r="AY9" s="8"/>
-      <c r="AZ9" s="8"/>
-      <c r="BA9" s="8"/>
-      <c r="BB9" s="8"/>
-      <c r="BC9" s="8"/>
-      <c r="BD9" s="8"/>
-      <c r="BE9" s="8"/>
-      <c r="BF9" s="8"/>
-      <c r="BG9" s="8"/>
-      <c r="BH9" s="8"/>
-      <c r="BI9" s="8"/>
-      <c r="BJ9" s="8"/>
-      <c r="BK9" s="8"/>
-      <c r="BL9" s="8"/>
-      <c r="BM9" s="8"/>
-      <c r="BN9" s="8"/>
-      <c r="BO9" s="8"/>
-    </row>
-    <row r="10" spans="1:67" ht="14.25">
+    </row>
+    <row r="10" spans="1:37" ht="14.25">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -2558,38 +2450,8 @@
         <v/>
       </c>
       <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="8"/>
-      <c r="AQ10" s="8"/>
-      <c r="AR10" s="8"/>
-      <c r="AS10" s="8"/>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="8"/>
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="8"/>
-      <c r="BA10" s="8"/>
-      <c r="BB10" s="8"/>
-      <c r="BC10" s="8"/>
-      <c r="BD10" s="8"/>
-      <c r="BE10" s="8"/>
-      <c r="BF10" s="8"/>
-      <c r="BG10" s="8"/>
-      <c r="BH10" s="8"/>
-      <c r="BI10" s="8"/>
-      <c r="BJ10" s="8"/>
-      <c r="BK10" s="8"/>
-      <c r="BL10" s="8"/>
-      <c r="BM10" s="8"/>
-      <c r="BN10" s="8"/>
-      <c r="BO10" s="8"/>
-    </row>
-    <row r="11" spans="1:67" ht="14.25">
+    </row>
+    <row r="11" spans="1:37" ht="14.25">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -2734,38 +2596,8 @@
         <v/>
       </c>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="8"/>
-      <c r="AQ11" s="8"/>
-      <c r="AR11" s="8"/>
-      <c r="AS11" s="8"/>
-      <c r="AT11" s="8"/>
-      <c r="AU11" s="8"/>
-      <c r="AV11" s="8"/>
-      <c r="AW11" s="8"/>
-      <c r="AX11" s="8"/>
-      <c r="AY11" s="8"/>
-      <c r="AZ11" s="8"/>
-      <c r="BA11" s="8"/>
-      <c r="BB11" s="8"/>
-      <c r="BC11" s="8"/>
-      <c r="BD11" s="8"/>
-      <c r="BE11" s="8"/>
-      <c r="BF11" s="8"/>
-      <c r="BG11" s="8"/>
-      <c r="BH11" s="8"/>
-      <c r="BI11" s="8"/>
-      <c r="BJ11" s="8"/>
-      <c r="BK11" s="8"/>
-      <c r="BL11" s="8"/>
-      <c r="BM11" s="8"/>
-      <c r="BN11" s="8"/>
-      <c r="BO11" s="8"/>
-    </row>
-    <row r="12" spans="1:67" ht="14.25">
+    </row>
+    <row r="12" spans="1:37" ht="14.25">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -2909,129 +2741,9 @@
         <f>IF(_tag_month_all!AI9="","",_tag_month_all!AI9)</f>
         <v/>
       </c>
-      <c r="AK12" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE9="","",[1]_Tag_month_day!AE9)</f>
-        <v/>
-      </c>
-      <c r="AL12" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF9="","",[1]_Tag_month_day!AF9)</f>
-        <v/>
-      </c>
-      <c r="AM12" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA9*[1]_MaterialAnalysis_month_day!H9+[1]_MaterialAnalysis_month_day!AB9*[1]_MaterialAnalysis_month_day!O9+[1]_MaterialAnalysis_month_day!AC9*[1]_MaterialAnalysis_month_day!O9)*100/SUM([1]_MaterialAnalysis_month_day!AA9:AC9),"")</f>
-        <v/>
-      </c>
-      <c r="AN12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A9="","",[1]_MaterialAnalysis_month_day!A9*100)</f>
-        <v/>
-      </c>
-      <c r="AO12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B9="","",[1]_MaterialAnalysis_month_day!B9*100)</f>
-        <v/>
-      </c>
-      <c r="AP12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C9="","",[1]_MaterialAnalysis_month_day!C9*100)</f>
-        <v/>
-      </c>
-      <c r="AQ12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D9="","",[1]_MaterialAnalysis_month_day!D9*100)</f>
-        <v/>
-      </c>
-      <c r="AR12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E9="","",[1]_MaterialAnalysis_month_day!E9*100)</f>
-        <v/>
-      </c>
-      <c r="AS12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F9="","",[1]_MaterialAnalysis_month_day!F9*100)</f>
-        <v/>
-      </c>
-      <c r="AT12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G9="","",[1]_MaterialAnalysis_month_day!G9*100)</f>
-        <v/>
-      </c>
-      <c r="AU12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H9="","",[1]_MaterialAnalysis_month_day!H9*100)</f>
-        <v/>
-      </c>
-      <c r="AV12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I9="","",[1]_MaterialAnalysis_month_day!I9*100)</f>
-        <v/>
-      </c>
-      <c r="AW12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J9="","",[1]_MaterialAnalysis_month_day!J9*100)</f>
-        <v/>
-      </c>
-      <c r="AX12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K9="","",[1]_MaterialAnalysis_month_day!K9*100)</f>
-        <v/>
-      </c>
-      <c r="AY12" s="8" t="str">
-        <f t="shared" ref="AY12:AY35" si="0">IFERROR(AW12/AX12,"")</f>
-        <v/>
-      </c>
-      <c r="AZ12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L9="","",[1]_MaterialAnalysis_month_day!L9*100)</f>
-        <v/>
-      </c>
-      <c r="BA12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M9="","",[1]_MaterialAnalysis_month_day!M9*100)</f>
-        <v/>
-      </c>
-      <c r="BB12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N9="","",[1]_MaterialAnalysis_month_day!N9*100)</f>
-        <v/>
-      </c>
-      <c r="BC12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O9="","",[1]_MaterialAnalysis_month_day!O9*100)</f>
-        <v/>
-      </c>
-      <c r="BD12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P9="","",[1]_MaterialAnalysis_month_day!P9*100)</f>
-        <v/>
-      </c>
-      <c r="BE12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q9="","",[1]_MaterialAnalysis_month_day!Q9*100)</f>
-        <v/>
-      </c>
-      <c r="BF12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R9="","",[1]_MaterialAnalysis_month_day!R9*100)</f>
-        <v/>
-      </c>
-      <c r="BG12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S9="","",[1]_MaterialAnalysis_month_day!S9*100)</f>
-        <v/>
-      </c>
-      <c r="BH12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T9="","",[1]_MaterialAnalysis_month_day!T9*1000)</f>
-        <v/>
-      </c>
-      <c r="BI12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U9="","",[1]_MaterialAnalysis_month_day!U9*100)</f>
-        <v/>
-      </c>
-      <c r="BJ12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V9="","",[1]_MaterialAnalysis_month_day!V9*100)</f>
-        <v/>
-      </c>
-      <c r="BK12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W9="","",[1]_MaterialAnalysis_month_day!W9*100)</f>
-        <v/>
-      </c>
-      <c r="BL12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X9="","",[1]_MaterialAnalysis_month_day!X9*100)</f>
-        <v/>
-      </c>
-      <c r="BM12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y9="","",[1]_MaterialAnalysis_month_day!Y9*100)</f>
-        <v/>
-      </c>
-      <c r="BN12" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z9="","",[1]_MaterialAnalysis_month_day!Z9*100)</f>
-        <v/>
-      </c>
-      <c r="BO12" s="8"/>
-    </row>
-    <row r="13" spans="1:67" ht="14.25">
+      <c r="AK12" s="8"/>
+    </row>
+    <row r="13" spans="1:37" ht="14.25">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -3175,129 +2887,9 @@
         <f>IF(_tag_month_all!AI10="","",_tag_month_all!AI10)</f>
         <v/>
       </c>
-      <c r="AK13" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE10="","",[1]_Tag_month_day!AE10)</f>
-        <v/>
-      </c>
-      <c r="AL13" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF10="","",[1]_Tag_month_day!AF10)</f>
-        <v/>
-      </c>
-      <c r="AM13" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA10*[1]_MaterialAnalysis_month_day!H10+[1]_MaterialAnalysis_month_day!AB10*[1]_MaterialAnalysis_month_day!O10+[1]_MaterialAnalysis_month_day!AC10*[1]_MaterialAnalysis_month_day!O10)*100/SUM([1]_MaterialAnalysis_month_day!AA10:AC10),"")</f>
-        <v/>
-      </c>
-      <c r="AN13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A10="","",[1]_MaterialAnalysis_month_day!A10*100)</f>
-        <v/>
-      </c>
-      <c r="AO13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B10="","",[1]_MaterialAnalysis_month_day!B10*100)</f>
-        <v/>
-      </c>
-      <c r="AP13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C10="","",[1]_MaterialAnalysis_month_day!C10*100)</f>
-        <v/>
-      </c>
-      <c r="AQ13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D10="","",[1]_MaterialAnalysis_month_day!D10*100)</f>
-        <v/>
-      </c>
-      <c r="AR13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E10="","",[1]_MaterialAnalysis_month_day!E10*100)</f>
-        <v/>
-      </c>
-      <c r="AS13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F10="","",[1]_MaterialAnalysis_month_day!F10*100)</f>
-        <v/>
-      </c>
-      <c r="AT13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G10="","",[1]_MaterialAnalysis_month_day!G10*100)</f>
-        <v/>
-      </c>
-      <c r="AU13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H10="","",[1]_MaterialAnalysis_month_day!H10*100)</f>
-        <v/>
-      </c>
-      <c r="AV13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I10="","",[1]_MaterialAnalysis_month_day!I10*100)</f>
-        <v/>
-      </c>
-      <c r="AW13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J10="","",[1]_MaterialAnalysis_month_day!J10*100)</f>
-        <v/>
-      </c>
-      <c r="AX13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K10="","",[1]_MaterialAnalysis_month_day!K10*100)</f>
-        <v/>
-      </c>
-      <c r="AY13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L10="","",[1]_MaterialAnalysis_month_day!L10*100)</f>
-        <v/>
-      </c>
-      <c r="BA13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M10="","",[1]_MaterialAnalysis_month_day!M10*100)</f>
-        <v/>
-      </c>
-      <c r="BB13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N10="","",[1]_MaterialAnalysis_month_day!N10*100)</f>
-        <v/>
-      </c>
-      <c r="BC13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O10="","",[1]_MaterialAnalysis_month_day!O10*100)</f>
-        <v/>
-      </c>
-      <c r="BD13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P10="","",[1]_MaterialAnalysis_month_day!P10*100)</f>
-        <v/>
-      </c>
-      <c r="BE13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q10="","",[1]_MaterialAnalysis_month_day!Q10*100)</f>
-        <v/>
-      </c>
-      <c r="BF13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R10="","",[1]_MaterialAnalysis_month_day!R10*100)</f>
-        <v/>
-      </c>
-      <c r="BG13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S10="","",[1]_MaterialAnalysis_month_day!S10*100)</f>
-        <v/>
-      </c>
-      <c r="BH13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T10="","",[1]_MaterialAnalysis_month_day!T10*1000)</f>
-        <v/>
-      </c>
-      <c r="BI13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U10="","",[1]_MaterialAnalysis_month_day!U10*100)</f>
-        <v/>
-      </c>
-      <c r="BJ13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V10="","",[1]_MaterialAnalysis_month_day!V10*100)</f>
-        <v/>
-      </c>
-      <c r="BK13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W10="","",[1]_MaterialAnalysis_month_day!W10*100)</f>
-        <v/>
-      </c>
-      <c r="BL13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X10="","",[1]_MaterialAnalysis_month_day!X10*100)</f>
-        <v/>
-      </c>
-      <c r="BM13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y10="","",[1]_MaterialAnalysis_month_day!Y10*100)</f>
-        <v/>
-      </c>
-      <c r="BN13" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z10="","",[1]_MaterialAnalysis_month_day!Z10*100)</f>
-        <v/>
-      </c>
-      <c r="BO13" s="8"/>
-    </row>
-    <row r="14" spans="1:67" ht="14.25">
+      <c r="AK13" s="8"/>
+    </row>
+    <row r="14" spans="1:37" ht="14.25">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -3441,129 +3033,9 @@
         <f>IF(_tag_month_all!AI11="","",_tag_month_all!AI11)</f>
         <v/>
       </c>
-      <c r="AK14" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE11="","",[1]_Tag_month_day!AE11)</f>
-        <v/>
-      </c>
-      <c r="AL14" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF11="","",[1]_Tag_month_day!AF11)</f>
-        <v/>
-      </c>
-      <c r="AM14" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA11*[1]_MaterialAnalysis_month_day!H11+[1]_MaterialAnalysis_month_day!AB11*[1]_MaterialAnalysis_month_day!O11+[1]_MaterialAnalysis_month_day!AC11*[1]_MaterialAnalysis_month_day!O11)*100/SUM([1]_MaterialAnalysis_month_day!AA11:AC11),"")</f>
-        <v/>
-      </c>
-      <c r="AN14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A11="","",[1]_MaterialAnalysis_month_day!A11*100)</f>
-        <v/>
-      </c>
-      <c r="AO14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B11="","",[1]_MaterialAnalysis_month_day!B11*100)</f>
-        <v/>
-      </c>
-      <c r="AP14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C11="","",[1]_MaterialAnalysis_month_day!C11*100)</f>
-        <v/>
-      </c>
-      <c r="AQ14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D11="","",[1]_MaterialAnalysis_month_day!D11*100)</f>
-        <v/>
-      </c>
-      <c r="AR14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E11="","",[1]_MaterialAnalysis_month_day!E11*100)</f>
-        <v/>
-      </c>
-      <c r="AS14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F11="","",[1]_MaterialAnalysis_month_day!F11*100)</f>
-        <v/>
-      </c>
-      <c r="AT14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G11="","",[1]_MaterialAnalysis_month_day!G11*100)</f>
-        <v/>
-      </c>
-      <c r="AU14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H11="","",[1]_MaterialAnalysis_month_day!H11*100)</f>
-        <v/>
-      </c>
-      <c r="AV14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I11="","",[1]_MaterialAnalysis_month_day!I11*100)</f>
-        <v/>
-      </c>
-      <c r="AW14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J11="","",[1]_MaterialAnalysis_month_day!J11*100)</f>
-        <v/>
-      </c>
-      <c r="AX14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K11="","",[1]_MaterialAnalysis_month_day!K11*100)</f>
-        <v/>
-      </c>
-      <c r="AY14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L11="","",[1]_MaterialAnalysis_month_day!L11*100)</f>
-        <v/>
-      </c>
-      <c r="BA14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M11="","",[1]_MaterialAnalysis_month_day!M11*100)</f>
-        <v/>
-      </c>
-      <c r="BB14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N11="","",[1]_MaterialAnalysis_month_day!N11*100)</f>
-        <v/>
-      </c>
-      <c r="BC14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O11="","",[1]_MaterialAnalysis_month_day!O11*100)</f>
-        <v/>
-      </c>
-      <c r="BD14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P11="","",[1]_MaterialAnalysis_month_day!P11*100)</f>
-        <v/>
-      </c>
-      <c r="BE14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q11="","",[1]_MaterialAnalysis_month_day!Q11*100)</f>
-        <v/>
-      </c>
-      <c r="BF14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R11="","",[1]_MaterialAnalysis_month_day!R11*100)</f>
-        <v/>
-      </c>
-      <c r="BG14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S11="","",[1]_MaterialAnalysis_month_day!S11*100)</f>
-        <v/>
-      </c>
-      <c r="BH14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T11="","",[1]_MaterialAnalysis_month_day!T11*1000)</f>
-        <v/>
-      </c>
-      <c r="BI14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U11="","",[1]_MaterialAnalysis_month_day!U11*100)</f>
-        <v/>
-      </c>
-      <c r="BJ14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V11="","",[1]_MaterialAnalysis_month_day!V11*100)</f>
-        <v/>
-      </c>
-      <c r="BK14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W11="","",[1]_MaterialAnalysis_month_day!W11*100)</f>
-        <v/>
-      </c>
-      <c r="BL14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X11="","",[1]_MaterialAnalysis_month_day!X11*100)</f>
-        <v/>
-      </c>
-      <c r="BM14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y11="","",[1]_MaterialAnalysis_month_day!Y11*100)</f>
-        <v/>
-      </c>
-      <c r="BN14" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z11="","",[1]_MaterialAnalysis_month_day!Z11*100)</f>
-        <v/>
-      </c>
-      <c r="BO14" s="8"/>
-    </row>
-    <row r="15" spans="1:67" ht="14.25">
+      <c r="AK14" s="8"/>
+    </row>
+    <row r="15" spans="1:37" ht="14.25">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -3707,129 +3179,9 @@
         <f>IF(_tag_month_all!AI12="","",_tag_month_all!AI12)</f>
         <v/>
       </c>
-      <c r="AK15" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE12="","",[1]_Tag_month_day!AE12)</f>
-        <v/>
-      </c>
-      <c r="AL15" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF12="","",[1]_Tag_month_day!AF12)</f>
-        <v/>
-      </c>
-      <c r="AM15" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA12*[1]_MaterialAnalysis_month_day!H12+[1]_MaterialAnalysis_month_day!AB12*[1]_MaterialAnalysis_month_day!O12+[1]_MaterialAnalysis_month_day!AC12*[1]_MaterialAnalysis_month_day!O12)*100/SUM([1]_MaterialAnalysis_month_day!AA12:AC12),"")</f>
-        <v/>
-      </c>
-      <c r="AN15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A12="","",[1]_MaterialAnalysis_month_day!A12*100)</f>
-        <v/>
-      </c>
-      <c r="AO15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B12="","",[1]_MaterialAnalysis_month_day!B12*100)</f>
-        <v/>
-      </c>
-      <c r="AP15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C12="","",[1]_MaterialAnalysis_month_day!C12*100)</f>
-        <v/>
-      </c>
-      <c r="AQ15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D12="","",[1]_MaterialAnalysis_month_day!D12*100)</f>
-        <v/>
-      </c>
-      <c r="AR15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E12="","",[1]_MaterialAnalysis_month_day!E12*100)</f>
-        <v/>
-      </c>
-      <c r="AS15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F12="","",[1]_MaterialAnalysis_month_day!F12*100)</f>
-        <v/>
-      </c>
-      <c r="AT15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G12="","",[1]_MaterialAnalysis_month_day!G12*100)</f>
-        <v/>
-      </c>
-      <c r="AU15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H12="","",[1]_MaterialAnalysis_month_day!H12*100)</f>
-        <v/>
-      </c>
-      <c r="AV15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I12="","",[1]_MaterialAnalysis_month_day!I12*100)</f>
-        <v/>
-      </c>
-      <c r="AW15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J12="","",[1]_MaterialAnalysis_month_day!J12*100)</f>
-        <v/>
-      </c>
-      <c r="AX15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K12="","",[1]_MaterialAnalysis_month_day!K12*100)</f>
-        <v/>
-      </c>
-      <c r="AY15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L12="","",[1]_MaterialAnalysis_month_day!L12*100)</f>
-        <v/>
-      </c>
-      <c r="BA15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M12="","",[1]_MaterialAnalysis_month_day!M12*100)</f>
-        <v/>
-      </c>
-      <c r="BB15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N12="","",[1]_MaterialAnalysis_month_day!N12*100)</f>
-        <v/>
-      </c>
-      <c r="BC15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O12="","",[1]_MaterialAnalysis_month_day!O12*100)</f>
-        <v/>
-      </c>
-      <c r="BD15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P12="","",[1]_MaterialAnalysis_month_day!P12*100)</f>
-        <v/>
-      </c>
-      <c r="BE15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q12="","",[1]_MaterialAnalysis_month_day!Q12*100)</f>
-        <v/>
-      </c>
-      <c r="BF15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R12="","",[1]_MaterialAnalysis_month_day!R12*100)</f>
-        <v/>
-      </c>
-      <c r="BG15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S12="","",[1]_MaterialAnalysis_month_day!S12*100)</f>
-        <v/>
-      </c>
-      <c r="BH15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T12="","",[1]_MaterialAnalysis_month_day!T12*1000)</f>
-        <v/>
-      </c>
-      <c r="BI15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U12="","",[1]_MaterialAnalysis_month_day!U12*100)</f>
-        <v/>
-      </c>
-      <c r="BJ15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V12="","",[1]_MaterialAnalysis_month_day!V12*100)</f>
-        <v/>
-      </c>
-      <c r="BK15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W12="","",[1]_MaterialAnalysis_month_day!W12*100)</f>
-        <v/>
-      </c>
-      <c r="BL15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X12="","",[1]_MaterialAnalysis_month_day!X12*100)</f>
-        <v/>
-      </c>
-      <c r="BM15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y12="","",[1]_MaterialAnalysis_month_day!Y12*100)</f>
-        <v/>
-      </c>
-      <c r="BN15" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z12="","",[1]_MaterialAnalysis_month_day!Z12*100)</f>
-        <v/>
-      </c>
-      <c r="BO15" s="8"/>
-    </row>
-    <row r="16" spans="1:67" ht="14.25">
+      <c r="AK15" s="8"/>
+    </row>
+    <row r="16" spans="1:37" ht="14.25">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -3973,129 +3325,9 @@
         <f>IF(_tag_month_all!AI13="","",_tag_month_all!AI13)</f>
         <v/>
       </c>
-      <c r="AK16" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE13="","",[1]_Tag_month_day!AE13)</f>
-        <v/>
-      </c>
-      <c r="AL16" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF13="","",[1]_Tag_month_day!AF13)</f>
-        <v/>
-      </c>
-      <c r="AM16" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA13*[1]_MaterialAnalysis_month_day!H13+[1]_MaterialAnalysis_month_day!AB13*[1]_MaterialAnalysis_month_day!O13+[1]_MaterialAnalysis_month_day!AC13*[1]_MaterialAnalysis_month_day!O13)*100/SUM([1]_MaterialAnalysis_month_day!AA13:AC13),"")</f>
-        <v/>
-      </c>
-      <c r="AN16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A13="","",[1]_MaterialAnalysis_month_day!A13*100)</f>
-        <v/>
-      </c>
-      <c r="AO16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B13="","",[1]_MaterialAnalysis_month_day!B13*100)</f>
-        <v/>
-      </c>
-      <c r="AP16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C13="","",[1]_MaterialAnalysis_month_day!C13*100)</f>
-        <v/>
-      </c>
-      <c r="AQ16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D13="","",[1]_MaterialAnalysis_month_day!D13*100)</f>
-        <v/>
-      </c>
-      <c r="AR16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E13="","",[1]_MaterialAnalysis_month_day!E13*100)</f>
-        <v/>
-      </c>
-      <c r="AS16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F13="","",[1]_MaterialAnalysis_month_day!F13*100)</f>
-        <v/>
-      </c>
-      <c r="AT16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G13="","",[1]_MaterialAnalysis_month_day!G13*100)</f>
-        <v/>
-      </c>
-      <c r="AU16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H13="","",[1]_MaterialAnalysis_month_day!H13*100)</f>
-        <v/>
-      </c>
-      <c r="AV16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I13="","",[1]_MaterialAnalysis_month_day!I13*100)</f>
-        <v/>
-      </c>
-      <c r="AW16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J13="","",[1]_MaterialAnalysis_month_day!J13*100)</f>
-        <v/>
-      </c>
-      <c r="AX16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K13="","",[1]_MaterialAnalysis_month_day!K13*100)</f>
-        <v/>
-      </c>
-      <c r="AY16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L13="","",[1]_MaterialAnalysis_month_day!L13*100)</f>
-        <v/>
-      </c>
-      <c r="BA16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M13="","",[1]_MaterialAnalysis_month_day!M13*100)</f>
-        <v/>
-      </c>
-      <c r="BB16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N13="","",[1]_MaterialAnalysis_month_day!N13*100)</f>
-        <v/>
-      </c>
-      <c r="BC16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O13="","",[1]_MaterialAnalysis_month_day!O13*100)</f>
-        <v/>
-      </c>
-      <c r="BD16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P13="","",[1]_MaterialAnalysis_month_day!P13*100)</f>
-        <v/>
-      </c>
-      <c r="BE16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q13="","",[1]_MaterialAnalysis_month_day!Q13*100)</f>
-        <v/>
-      </c>
-      <c r="BF16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R13="","",[1]_MaterialAnalysis_month_day!R13*100)</f>
-        <v/>
-      </c>
-      <c r="BG16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S13="","",[1]_MaterialAnalysis_month_day!S13*100)</f>
-        <v/>
-      </c>
-      <c r="BH16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T13="","",[1]_MaterialAnalysis_month_day!T13*1000)</f>
-        <v/>
-      </c>
-      <c r="BI16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U13="","",[1]_MaterialAnalysis_month_day!U13*100)</f>
-        <v/>
-      </c>
-      <c r="BJ16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V13="","",[1]_MaterialAnalysis_month_day!V13*100)</f>
-        <v/>
-      </c>
-      <c r="BK16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W13="","",[1]_MaterialAnalysis_month_day!W13*100)</f>
-        <v/>
-      </c>
-      <c r="BL16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X13="","",[1]_MaterialAnalysis_month_day!X13*100)</f>
-        <v/>
-      </c>
-      <c r="BM16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y13="","",[1]_MaterialAnalysis_month_day!Y13*100)</f>
-        <v/>
-      </c>
-      <c r="BN16" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z13="","",[1]_MaterialAnalysis_month_day!Z13*100)</f>
-        <v/>
-      </c>
-      <c r="BO16" s="8"/>
-    </row>
-    <row r="17" spans="1:67" ht="14.25">
+      <c r="AK16" s="8"/>
+    </row>
+    <row r="17" spans="1:37" ht="14.25">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -4239,129 +3471,9 @@
         <f>IF(_tag_month_all!AI14="","",_tag_month_all!AI14)</f>
         <v/>
       </c>
-      <c r="AK17" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE14="","",[1]_Tag_month_day!AE14)</f>
-        <v/>
-      </c>
-      <c r="AL17" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF14="","",[1]_Tag_month_day!AF14)</f>
-        <v/>
-      </c>
-      <c r="AM17" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA14*[1]_MaterialAnalysis_month_day!H14+[1]_MaterialAnalysis_month_day!AB14*[1]_MaterialAnalysis_month_day!O14+[1]_MaterialAnalysis_month_day!AC14*[1]_MaterialAnalysis_month_day!O14)*100/SUM([1]_MaterialAnalysis_month_day!AA14:AC14),"")</f>
-        <v/>
-      </c>
-      <c r="AN17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A14="","",[1]_MaterialAnalysis_month_day!A14*100)</f>
-        <v/>
-      </c>
-      <c r="AO17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B14="","",[1]_MaterialAnalysis_month_day!B14*100)</f>
-        <v/>
-      </c>
-      <c r="AP17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C14="","",[1]_MaterialAnalysis_month_day!C14*100)</f>
-        <v/>
-      </c>
-      <c r="AQ17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D14="","",[1]_MaterialAnalysis_month_day!D14*100)</f>
-        <v/>
-      </c>
-      <c r="AR17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E14="","",[1]_MaterialAnalysis_month_day!E14*100)</f>
-        <v/>
-      </c>
-      <c r="AS17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F14="","",[1]_MaterialAnalysis_month_day!F14*100)</f>
-        <v/>
-      </c>
-      <c r="AT17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G14="","",[1]_MaterialAnalysis_month_day!G14*100)</f>
-        <v/>
-      </c>
-      <c r="AU17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H14="","",[1]_MaterialAnalysis_month_day!H14*100)</f>
-        <v/>
-      </c>
-      <c r="AV17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I14="","",[1]_MaterialAnalysis_month_day!I14*100)</f>
-        <v/>
-      </c>
-      <c r="AW17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J14="","",[1]_MaterialAnalysis_month_day!J14*100)</f>
-        <v/>
-      </c>
-      <c r="AX17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K14="","",[1]_MaterialAnalysis_month_day!K14*100)</f>
-        <v/>
-      </c>
-      <c r="AY17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L14="","",[1]_MaterialAnalysis_month_day!L14*100)</f>
-        <v/>
-      </c>
-      <c r="BA17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M14="","",[1]_MaterialAnalysis_month_day!M14*100)</f>
-        <v/>
-      </c>
-      <c r="BB17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N14="","",[1]_MaterialAnalysis_month_day!N14*100)</f>
-        <v/>
-      </c>
-      <c r="BC17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O14="","",[1]_MaterialAnalysis_month_day!O14*100)</f>
-        <v/>
-      </c>
-      <c r="BD17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P14="","",[1]_MaterialAnalysis_month_day!P14*100)</f>
-        <v/>
-      </c>
-      <c r="BE17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q14="","",[1]_MaterialAnalysis_month_day!Q14*100)</f>
-        <v/>
-      </c>
-      <c r="BF17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R14="","",[1]_MaterialAnalysis_month_day!R14*100)</f>
-        <v/>
-      </c>
-      <c r="BG17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S14="","",[1]_MaterialAnalysis_month_day!S14*100)</f>
-        <v/>
-      </c>
-      <c r="BH17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T14="","",[1]_MaterialAnalysis_month_day!T14*1000)</f>
-        <v/>
-      </c>
-      <c r="BI17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U14="","",[1]_MaterialAnalysis_month_day!U14*100)</f>
-        <v/>
-      </c>
-      <c r="BJ17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V14="","",[1]_MaterialAnalysis_month_day!V14*100)</f>
-        <v/>
-      </c>
-      <c r="BK17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W14="","",[1]_MaterialAnalysis_month_day!W14*100)</f>
-        <v/>
-      </c>
-      <c r="BL17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X14="","",[1]_MaterialAnalysis_month_day!X14*100)</f>
-        <v/>
-      </c>
-      <c r="BM17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y14="","",[1]_MaterialAnalysis_month_day!Y14*100)</f>
-        <v/>
-      </c>
-      <c r="BN17" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z14="","",[1]_MaterialAnalysis_month_day!Z14*100)</f>
-        <v/>
-      </c>
-      <c r="BO17" s="8"/>
-    </row>
-    <row r="18" spans="1:67" ht="14.25">
+      <c r="AK17" s="8"/>
+    </row>
+    <row r="18" spans="1:37" ht="14.25">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -4505,129 +3617,9 @@
         <f>IF(_tag_month_all!AI15="","",_tag_month_all!AI15)</f>
         <v/>
       </c>
-      <c r="AK18" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE15="","",[1]_Tag_month_day!AE15)</f>
-        <v/>
-      </c>
-      <c r="AL18" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF15="","",[1]_Tag_month_day!AF15)</f>
-        <v/>
-      </c>
-      <c r="AM18" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA15*[1]_MaterialAnalysis_month_day!H15+[1]_MaterialAnalysis_month_day!AB15*[1]_MaterialAnalysis_month_day!O15+[1]_MaterialAnalysis_month_day!AC15*[1]_MaterialAnalysis_month_day!O15)*100/SUM([1]_MaterialAnalysis_month_day!AA15:AC15),"")</f>
-        <v/>
-      </c>
-      <c r="AN18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A15="","",[1]_MaterialAnalysis_month_day!A15*100)</f>
-        <v/>
-      </c>
-      <c r="AO18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B15="","",[1]_MaterialAnalysis_month_day!B15*100)</f>
-        <v/>
-      </c>
-      <c r="AP18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C15="","",[1]_MaterialAnalysis_month_day!C15*100)</f>
-        <v/>
-      </c>
-      <c r="AQ18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D15="","",[1]_MaterialAnalysis_month_day!D15*100)</f>
-        <v/>
-      </c>
-      <c r="AR18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E15="","",[1]_MaterialAnalysis_month_day!E15*100)</f>
-        <v/>
-      </c>
-      <c r="AS18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F15="","",[1]_MaterialAnalysis_month_day!F15*100)</f>
-        <v/>
-      </c>
-      <c r="AT18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G15="","",[1]_MaterialAnalysis_month_day!G15*100)</f>
-        <v/>
-      </c>
-      <c r="AU18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H15="","",[1]_MaterialAnalysis_month_day!H15*100)</f>
-        <v/>
-      </c>
-      <c r="AV18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I15="","",[1]_MaterialAnalysis_month_day!I15*100)</f>
-        <v/>
-      </c>
-      <c r="AW18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J15="","",[1]_MaterialAnalysis_month_day!J15*100)</f>
-        <v/>
-      </c>
-      <c r="AX18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K15="","",[1]_MaterialAnalysis_month_day!K15*100)</f>
-        <v/>
-      </c>
-      <c r="AY18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L15="","",[1]_MaterialAnalysis_month_day!L15*100)</f>
-        <v/>
-      </c>
-      <c r="BA18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M15="","",[1]_MaterialAnalysis_month_day!M15*100)</f>
-        <v/>
-      </c>
-      <c r="BB18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N15="","",[1]_MaterialAnalysis_month_day!N15*100)</f>
-        <v/>
-      </c>
-      <c r="BC18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O15="","",[1]_MaterialAnalysis_month_day!O15*100)</f>
-        <v/>
-      </c>
-      <c r="BD18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P15="","",[1]_MaterialAnalysis_month_day!P15*100)</f>
-        <v/>
-      </c>
-      <c r="BE18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q15="","",[1]_MaterialAnalysis_month_day!Q15*100)</f>
-        <v/>
-      </c>
-      <c r="BF18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R15="","",[1]_MaterialAnalysis_month_day!R15*100)</f>
-        <v/>
-      </c>
-      <c r="BG18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S15="","",[1]_MaterialAnalysis_month_day!S15*100)</f>
-        <v/>
-      </c>
-      <c r="BH18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T15="","",[1]_MaterialAnalysis_month_day!T15*1000)</f>
-        <v/>
-      </c>
-      <c r="BI18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U15="","",[1]_MaterialAnalysis_month_day!U15*100)</f>
-        <v/>
-      </c>
-      <c r="BJ18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V15="","",[1]_MaterialAnalysis_month_day!V15*100)</f>
-        <v/>
-      </c>
-      <c r="BK18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W15="","",[1]_MaterialAnalysis_month_day!W15*100)</f>
-        <v/>
-      </c>
-      <c r="BL18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X15="","",[1]_MaterialAnalysis_month_day!X15*100)</f>
-        <v/>
-      </c>
-      <c r="BM18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y15="","",[1]_MaterialAnalysis_month_day!Y15*100)</f>
-        <v/>
-      </c>
-      <c r="BN18" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z15="","",[1]_MaterialAnalysis_month_day!Z15*100)</f>
-        <v/>
-      </c>
-      <c r="BO18" s="8"/>
-    </row>
-    <row r="19" spans="1:67" ht="14.25">
+      <c r="AK18" s="8"/>
+    </row>
+    <row r="19" spans="1:37" ht="14.25">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -4771,129 +3763,9 @@
         <f>IF(_tag_month_all!AI16="","",_tag_month_all!AI16)</f>
         <v/>
       </c>
-      <c r="AK19" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE16="","",[1]_Tag_month_day!AE16)</f>
-        <v/>
-      </c>
-      <c r="AL19" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF16="","",[1]_Tag_month_day!AF16)</f>
-        <v/>
-      </c>
-      <c r="AM19" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA16*[1]_MaterialAnalysis_month_day!H16+[1]_MaterialAnalysis_month_day!AB16*[1]_MaterialAnalysis_month_day!O16+[1]_MaterialAnalysis_month_day!AC16*[1]_MaterialAnalysis_month_day!O16)*100/SUM([1]_MaterialAnalysis_month_day!AA16:AC16),"")</f>
-        <v/>
-      </c>
-      <c r="AN19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A16="","",[1]_MaterialAnalysis_month_day!A16*100)</f>
-        <v/>
-      </c>
-      <c r="AO19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B16="","",[1]_MaterialAnalysis_month_day!B16*100)</f>
-        <v/>
-      </c>
-      <c r="AP19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C16="","",[1]_MaterialAnalysis_month_day!C16*100)</f>
-        <v/>
-      </c>
-      <c r="AQ19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D16="","",[1]_MaterialAnalysis_month_day!D16*100)</f>
-        <v/>
-      </c>
-      <c r="AR19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E16="","",[1]_MaterialAnalysis_month_day!E16*100)</f>
-        <v/>
-      </c>
-      <c r="AS19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F16="","",[1]_MaterialAnalysis_month_day!F16*100)</f>
-        <v/>
-      </c>
-      <c r="AT19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G16="","",[1]_MaterialAnalysis_month_day!G16*100)</f>
-        <v/>
-      </c>
-      <c r="AU19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H16="","",[1]_MaterialAnalysis_month_day!H16*100)</f>
-        <v/>
-      </c>
-      <c r="AV19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I16="","",[1]_MaterialAnalysis_month_day!I16*100)</f>
-        <v/>
-      </c>
-      <c r="AW19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J16="","",[1]_MaterialAnalysis_month_day!J16*100)</f>
-        <v/>
-      </c>
-      <c r="AX19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K16="","",[1]_MaterialAnalysis_month_day!K16*100)</f>
-        <v/>
-      </c>
-      <c r="AY19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L16="","",[1]_MaterialAnalysis_month_day!L16*100)</f>
-        <v/>
-      </c>
-      <c r="BA19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M16="","",[1]_MaterialAnalysis_month_day!M16*100)</f>
-        <v/>
-      </c>
-      <c r="BB19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N16="","",[1]_MaterialAnalysis_month_day!N16*100)</f>
-        <v/>
-      </c>
-      <c r="BC19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O16="","",[1]_MaterialAnalysis_month_day!O16*100)</f>
-        <v/>
-      </c>
-      <c r="BD19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P16="","",[1]_MaterialAnalysis_month_day!P16*100)</f>
-        <v/>
-      </c>
-      <c r="BE19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q16="","",[1]_MaterialAnalysis_month_day!Q16*100)</f>
-        <v/>
-      </c>
-      <c r="BF19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R16="","",[1]_MaterialAnalysis_month_day!R16*100)</f>
-        <v/>
-      </c>
-      <c r="BG19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S16="","",[1]_MaterialAnalysis_month_day!S16*100)</f>
-        <v/>
-      </c>
-      <c r="BH19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T16="","",[1]_MaterialAnalysis_month_day!T16*1000)</f>
-        <v/>
-      </c>
-      <c r="BI19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U16="","",[1]_MaterialAnalysis_month_day!U16*100)</f>
-        <v/>
-      </c>
-      <c r="BJ19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V16="","",[1]_MaterialAnalysis_month_day!V16*100)</f>
-        <v/>
-      </c>
-      <c r="BK19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W16="","",[1]_MaterialAnalysis_month_day!W16*100)</f>
-        <v/>
-      </c>
-      <c r="BL19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X16="","",[1]_MaterialAnalysis_month_day!X16*100)</f>
-        <v/>
-      </c>
-      <c r="BM19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y16="","",[1]_MaterialAnalysis_month_day!Y16*100)</f>
-        <v/>
-      </c>
-      <c r="BN19" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z16="","",[1]_MaterialAnalysis_month_day!Z16*100)</f>
-        <v/>
-      </c>
-      <c r="BO19" s="8"/>
-    </row>
-    <row r="20" spans="1:67" ht="14.25">
+      <c r="AK19" s="8"/>
+    </row>
+    <row r="20" spans="1:37" ht="14.25">
       <c r="A20" s="13">
         <v>16</v>
       </c>
@@ -5037,129 +3909,9 @@
         <f>IF(_tag_month_all!AI17="","",_tag_month_all!AI17)</f>
         <v/>
       </c>
-      <c r="AK20" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE17="","",[1]_Tag_month_day!AE17)</f>
-        <v/>
-      </c>
-      <c r="AL20" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF17="","",[1]_Tag_month_day!AF17)</f>
-        <v/>
-      </c>
-      <c r="AM20" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA17*[1]_MaterialAnalysis_month_day!H17+[1]_MaterialAnalysis_month_day!AB17*[1]_MaterialAnalysis_month_day!O17+[1]_MaterialAnalysis_month_day!AC17*[1]_MaterialAnalysis_month_day!O17)*100/SUM([1]_MaterialAnalysis_month_day!AA17:AC17),"")</f>
-        <v/>
-      </c>
-      <c r="AN20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A17="","",[1]_MaterialAnalysis_month_day!A17*100)</f>
-        <v/>
-      </c>
-      <c r="AO20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B17="","",[1]_MaterialAnalysis_month_day!B17*100)</f>
-        <v/>
-      </c>
-      <c r="AP20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C17="","",[1]_MaterialAnalysis_month_day!C17*100)</f>
-        <v/>
-      </c>
-      <c r="AQ20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D17="","",[1]_MaterialAnalysis_month_day!D17*100)</f>
-        <v/>
-      </c>
-      <c r="AR20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E17="","",[1]_MaterialAnalysis_month_day!E17*100)</f>
-        <v/>
-      </c>
-      <c r="AS20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F17="","",[1]_MaterialAnalysis_month_day!F17*100)</f>
-        <v/>
-      </c>
-      <c r="AT20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G17="","",[1]_MaterialAnalysis_month_day!G17*100)</f>
-        <v/>
-      </c>
-      <c r="AU20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H17="","",[1]_MaterialAnalysis_month_day!H17*100)</f>
-        <v/>
-      </c>
-      <c r="AV20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I17="","",[1]_MaterialAnalysis_month_day!I17*100)</f>
-        <v/>
-      </c>
-      <c r="AW20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J17="","",[1]_MaterialAnalysis_month_day!J17*100)</f>
-        <v/>
-      </c>
-      <c r="AX20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K17="","",[1]_MaterialAnalysis_month_day!K17*100)</f>
-        <v/>
-      </c>
-      <c r="AY20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L17="","",[1]_MaterialAnalysis_month_day!L17*100)</f>
-        <v/>
-      </c>
-      <c r="BA20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M17="","",[1]_MaterialAnalysis_month_day!M17*100)</f>
-        <v/>
-      </c>
-      <c r="BB20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N17="","",[1]_MaterialAnalysis_month_day!N17*100)</f>
-        <v/>
-      </c>
-      <c r="BC20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O17="","",[1]_MaterialAnalysis_month_day!O17*100)</f>
-        <v/>
-      </c>
-      <c r="BD20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P17="","",[1]_MaterialAnalysis_month_day!P17*100)</f>
-        <v/>
-      </c>
-      <c r="BE20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q17="","",[1]_MaterialAnalysis_month_day!Q17*100)</f>
-        <v/>
-      </c>
-      <c r="BF20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R17="","",[1]_MaterialAnalysis_month_day!R17*100)</f>
-        <v/>
-      </c>
-      <c r="BG20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S17="","",[1]_MaterialAnalysis_month_day!S17*100)</f>
-        <v/>
-      </c>
-      <c r="BH20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T17="","",[1]_MaterialAnalysis_month_day!T17*1000)</f>
-        <v/>
-      </c>
-      <c r="BI20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U17="","",[1]_MaterialAnalysis_month_day!U17*100)</f>
-        <v/>
-      </c>
-      <c r="BJ20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V17="","",[1]_MaterialAnalysis_month_day!V17*100)</f>
-        <v/>
-      </c>
-      <c r="BK20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W17="","",[1]_MaterialAnalysis_month_day!W17*100)</f>
-        <v/>
-      </c>
-      <c r="BL20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X17="","",[1]_MaterialAnalysis_month_day!X17*100)</f>
-        <v/>
-      </c>
-      <c r="BM20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y17="","",[1]_MaterialAnalysis_month_day!Y17*100)</f>
-        <v/>
-      </c>
-      <c r="BN20" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z17="","",[1]_MaterialAnalysis_month_day!Z17*100)</f>
-        <v/>
-      </c>
-      <c r="BO20" s="8"/>
-    </row>
-    <row r="21" spans="1:67" ht="14.25">
+      <c r="AK20" s="8"/>
+    </row>
+    <row r="21" spans="1:37" ht="14.25">
       <c r="A21" s="13">
         <v>17</v>
       </c>
@@ -5303,129 +4055,9 @@
         <f>IF(_tag_month_all!AI18="","",_tag_month_all!AI18)</f>
         <v/>
       </c>
-      <c r="AK21" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE18="","",[1]_Tag_month_day!AE18)</f>
-        <v/>
-      </c>
-      <c r="AL21" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF18="","",[1]_Tag_month_day!AF18)</f>
-        <v/>
-      </c>
-      <c r="AM21" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA18*[1]_MaterialAnalysis_month_day!H18+[1]_MaterialAnalysis_month_day!AB18*[1]_MaterialAnalysis_month_day!O18+[1]_MaterialAnalysis_month_day!AC18*[1]_MaterialAnalysis_month_day!O18)*100/SUM([1]_MaterialAnalysis_month_day!AA18:AC18),"")</f>
-        <v/>
-      </c>
-      <c r="AN21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A18="","",[1]_MaterialAnalysis_month_day!A18*100)</f>
-        <v/>
-      </c>
-      <c r="AO21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B18="","",[1]_MaterialAnalysis_month_day!B18*100)</f>
-        <v/>
-      </c>
-      <c r="AP21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C18="","",[1]_MaterialAnalysis_month_day!C18*100)</f>
-        <v/>
-      </c>
-      <c r="AQ21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D18="","",[1]_MaterialAnalysis_month_day!D18*100)</f>
-        <v/>
-      </c>
-      <c r="AR21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E18="","",[1]_MaterialAnalysis_month_day!E18*100)</f>
-        <v/>
-      </c>
-      <c r="AS21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F18="","",[1]_MaterialAnalysis_month_day!F18*100)</f>
-        <v/>
-      </c>
-      <c r="AT21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G18="","",[1]_MaterialAnalysis_month_day!G18*100)</f>
-        <v/>
-      </c>
-      <c r="AU21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H18="","",[1]_MaterialAnalysis_month_day!H18*100)</f>
-        <v/>
-      </c>
-      <c r="AV21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I18="","",[1]_MaterialAnalysis_month_day!I18*100)</f>
-        <v/>
-      </c>
-      <c r="AW21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J18="","",[1]_MaterialAnalysis_month_day!J18*100)</f>
-        <v/>
-      </c>
-      <c r="AX21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K18="","",[1]_MaterialAnalysis_month_day!K18*100)</f>
-        <v/>
-      </c>
-      <c r="AY21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L18="","",[1]_MaterialAnalysis_month_day!L18*100)</f>
-        <v/>
-      </c>
-      <c r="BA21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M18="","",[1]_MaterialAnalysis_month_day!M18*100)</f>
-        <v/>
-      </c>
-      <c r="BB21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N18="","",[1]_MaterialAnalysis_month_day!N18*100)</f>
-        <v/>
-      </c>
-      <c r="BC21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O18="","",[1]_MaterialAnalysis_month_day!O18*100)</f>
-        <v/>
-      </c>
-      <c r="BD21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P18="","",[1]_MaterialAnalysis_month_day!P18*100)</f>
-        <v/>
-      </c>
-      <c r="BE21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q18="","",[1]_MaterialAnalysis_month_day!Q18*100)</f>
-        <v/>
-      </c>
-      <c r="BF21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R18="","",[1]_MaterialAnalysis_month_day!R18*100)</f>
-        <v/>
-      </c>
-      <c r="BG21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S18="","",[1]_MaterialAnalysis_month_day!S18*100)</f>
-        <v/>
-      </c>
-      <c r="BH21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T18="","",[1]_MaterialAnalysis_month_day!T18*1000)</f>
-        <v/>
-      </c>
-      <c r="BI21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U18="","",[1]_MaterialAnalysis_month_day!U18*100)</f>
-        <v/>
-      </c>
-      <c r="BJ21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V18="","",[1]_MaterialAnalysis_month_day!V18*100)</f>
-        <v/>
-      </c>
-      <c r="BK21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W18="","",[1]_MaterialAnalysis_month_day!W18*100)</f>
-        <v/>
-      </c>
-      <c r="BL21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X18="","",[1]_MaterialAnalysis_month_day!X18*100)</f>
-        <v/>
-      </c>
-      <c r="BM21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y18="","",[1]_MaterialAnalysis_month_day!Y18*100)</f>
-        <v/>
-      </c>
-      <c r="BN21" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z18="","",[1]_MaterialAnalysis_month_day!Z18*100)</f>
-        <v/>
-      </c>
-      <c r="BO21" s="8"/>
-    </row>
-    <row r="22" spans="1:67" ht="14.25">
+      <c r="AK21" s="8"/>
+    </row>
+    <row r="22" spans="1:37" ht="14.25">
       <c r="A22" s="13">
         <v>18</v>
       </c>
@@ -5569,129 +4201,9 @@
         <f>IF(_tag_month_all!AI19="","",_tag_month_all!AI19)</f>
         <v/>
       </c>
-      <c r="AK22" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE19="","",[1]_Tag_month_day!AE19)</f>
-        <v/>
-      </c>
-      <c r="AL22" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF19="","",[1]_Tag_month_day!AF19)</f>
-        <v/>
-      </c>
-      <c r="AM22" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA19*[1]_MaterialAnalysis_month_day!H19+[1]_MaterialAnalysis_month_day!AB19*[1]_MaterialAnalysis_month_day!O19+[1]_MaterialAnalysis_month_day!AC19*[1]_MaterialAnalysis_month_day!O19)*100/SUM([1]_MaterialAnalysis_month_day!AA19:AC19),"")</f>
-        <v/>
-      </c>
-      <c r="AN22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A19="","",[1]_MaterialAnalysis_month_day!A19*100)</f>
-        <v/>
-      </c>
-      <c r="AO22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B19="","",[1]_MaterialAnalysis_month_day!B19*100)</f>
-        <v/>
-      </c>
-      <c r="AP22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C19="","",[1]_MaterialAnalysis_month_day!C19*100)</f>
-        <v/>
-      </c>
-      <c r="AQ22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D19="","",[1]_MaterialAnalysis_month_day!D19*100)</f>
-        <v/>
-      </c>
-      <c r="AR22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E19="","",[1]_MaterialAnalysis_month_day!E19*100)</f>
-        <v/>
-      </c>
-      <c r="AS22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F19="","",[1]_MaterialAnalysis_month_day!F19*100)</f>
-        <v/>
-      </c>
-      <c r="AT22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G19="","",[1]_MaterialAnalysis_month_day!G19*100)</f>
-        <v/>
-      </c>
-      <c r="AU22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H19="","",[1]_MaterialAnalysis_month_day!H19*100)</f>
-        <v/>
-      </c>
-      <c r="AV22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I19="","",[1]_MaterialAnalysis_month_day!I19*100)</f>
-        <v/>
-      </c>
-      <c r="AW22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J19="","",[1]_MaterialAnalysis_month_day!J19*100)</f>
-        <v/>
-      </c>
-      <c r="AX22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K19="","",[1]_MaterialAnalysis_month_day!K19*100)</f>
-        <v/>
-      </c>
-      <c r="AY22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L19="","",[1]_MaterialAnalysis_month_day!L19*100)</f>
-        <v/>
-      </c>
-      <c r="BA22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M19="","",[1]_MaterialAnalysis_month_day!M19*100)</f>
-        <v/>
-      </c>
-      <c r="BB22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N19="","",[1]_MaterialAnalysis_month_day!N19*100)</f>
-        <v/>
-      </c>
-      <c r="BC22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O19="","",[1]_MaterialAnalysis_month_day!O19*100)</f>
-        <v/>
-      </c>
-      <c r="BD22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P19="","",[1]_MaterialAnalysis_month_day!P19*100)</f>
-        <v/>
-      </c>
-      <c r="BE22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q19="","",[1]_MaterialAnalysis_month_day!Q19*100)</f>
-        <v/>
-      </c>
-      <c r="BF22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R19="","",[1]_MaterialAnalysis_month_day!R19*100)</f>
-        <v/>
-      </c>
-      <c r="BG22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S19="","",[1]_MaterialAnalysis_month_day!S19*100)</f>
-        <v/>
-      </c>
-      <c r="BH22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T19="","",[1]_MaterialAnalysis_month_day!T19*1000)</f>
-        <v/>
-      </c>
-      <c r="BI22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U19="","",[1]_MaterialAnalysis_month_day!U19*100)</f>
-        <v/>
-      </c>
-      <c r="BJ22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V19="","",[1]_MaterialAnalysis_month_day!V19*100)</f>
-        <v/>
-      </c>
-      <c r="BK22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W19="","",[1]_MaterialAnalysis_month_day!W19*100)</f>
-        <v/>
-      </c>
-      <c r="BL22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X19="","",[1]_MaterialAnalysis_month_day!X19*100)</f>
-        <v/>
-      </c>
-      <c r="BM22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y19="","",[1]_MaterialAnalysis_month_day!Y19*100)</f>
-        <v/>
-      </c>
-      <c r="BN22" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z19="","",[1]_MaterialAnalysis_month_day!Z19*100)</f>
-        <v/>
-      </c>
-      <c r="BO22" s="8"/>
-    </row>
-    <row r="23" spans="1:67" ht="14.25">
+      <c r="AK22" s="8"/>
+    </row>
+    <row r="23" spans="1:37" ht="14.25">
       <c r="A23" s="13">
         <v>19</v>
       </c>
@@ -5835,129 +4347,9 @@
         <f>IF(_tag_month_all!AI20="","",_tag_month_all!AI20)</f>
         <v/>
       </c>
-      <c r="AK23" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE20="","",[1]_Tag_month_day!AE20)</f>
-        <v/>
-      </c>
-      <c r="AL23" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF20="","",[1]_Tag_month_day!AF20)</f>
-        <v/>
-      </c>
-      <c r="AM23" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA20*[1]_MaterialAnalysis_month_day!H20+[1]_MaterialAnalysis_month_day!AB20*[1]_MaterialAnalysis_month_day!O20+[1]_MaterialAnalysis_month_day!AC20*[1]_MaterialAnalysis_month_day!O20)*100/SUM([1]_MaterialAnalysis_month_day!AA20:AC20),"")</f>
-        <v/>
-      </c>
-      <c r="AN23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A20="","",[1]_MaterialAnalysis_month_day!A20*100)</f>
-        <v/>
-      </c>
-      <c r="AO23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B20="","",[1]_MaterialAnalysis_month_day!B20*100)</f>
-        <v/>
-      </c>
-      <c r="AP23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C20="","",[1]_MaterialAnalysis_month_day!C20*100)</f>
-        <v/>
-      </c>
-      <c r="AQ23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D20="","",[1]_MaterialAnalysis_month_day!D20*100)</f>
-        <v/>
-      </c>
-      <c r="AR23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E20="","",[1]_MaterialAnalysis_month_day!E20*100)</f>
-        <v/>
-      </c>
-      <c r="AS23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F20="","",[1]_MaterialAnalysis_month_day!F20*100)</f>
-        <v/>
-      </c>
-      <c r="AT23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G20="","",[1]_MaterialAnalysis_month_day!G20*100)</f>
-        <v/>
-      </c>
-      <c r="AU23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H20="","",[1]_MaterialAnalysis_month_day!H20*100)</f>
-        <v/>
-      </c>
-      <c r="AV23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I20="","",[1]_MaterialAnalysis_month_day!I20*100)</f>
-        <v/>
-      </c>
-      <c r="AW23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J20="","",[1]_MaterialAnalysis_month_day!J20*100)</f>
-        <v/>
-      </c>
-      <c r="AX23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K20="","",[1]_MaterialAnalysis_month_day!K20*100)</f>
-        <v/>
-      </c>
-      <c r="AY23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L20="","",[1]_MaterialAnalysis_month_day!L20*100)</f>
-        <v/>
-      </c>
-      <c r="BA23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M20="","",[1]_MaterialAnalysis_month_day!M20*100)</f>
-        <v/>
-      </c>
-      <c r="BB23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N20="","",[1]_MaterialAnalysis_month_day!N20*100)</f>
-        <v/>
-      </c>
-      <c r="BC23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O20="","",[1]_MaterialAnalysis_month_day!O20*100)</f>
-        <v/>
-      </c>
-      <c r="BD23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P20="","",[1]_MaterialAnalysis_month_day!P20*100)</f>
-        <v/>
-      </c>
-      <c r="BE23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q20="","",[1]_MaterialAnalysis_month_day!Q20*100)</f>
-        <v/>
-      </c>
-      <c r="BF23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R20="","",[1]_MaterialAnalysis_month_day!R20*100)</f>
-        <v/>
-      </c>
-      <c r="BG23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S20="","",[1]_MaterialAnalysis_month_day!S20*100)</f>
-        <v/>
-      </c>
-      <c r="BH23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T20="","",[1]_MaterialAnalysis_month_day!T20*1000)</f>
-        <v/>
-      </c>
-      <c r="BI23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U20="","",[1]_MaterialAnalysis_month_day!U20*100)</f>
-        <v/>
-      </c>
-      <c r="BJ23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V20="","",[1]_MaterialAnalysis_month_day!V20*100)</f>
-        <v/>
-      </c>
-      <c r="BK23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W20="","",[1]_MaterialAnalysis_month_day!W20*100)</f>
-        <v/>
-      </c>
-      <c r="BL23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X20="","",[1]_MaterialAnalysis_month_day!X20*100)</f>
-        <v/>
-      </c>
-      <c r="BM23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y20="","",[1]_MaterialAnalysis_month_day!Y20*100)</f>
-        <v/>
-      </c>
-      <c r="BN23" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z20="","",[1]_MaterialAnalysis_month_day!Z20*100)</f>
-        <v/>
-      </c>
-      <c r="BO23" s="8"/>
-    </row>
-    <row r="24" spans="1:67" ht="14.25">
+      <c r="AK23" s="8"/>
+    </row>
+    <row r="24" spans="1:37" ht="14.25">
       <c r="A24" s="13">
         <v>20</v>
       </c>
@@ -6101,129 +4493,9 @@
         <f>IF(_tag_month_all!AI21="","",_tag_month_all!AI21)</f>
         <v/>
       </c>
-      <c r="AK24" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE21="","",[1]_Tag_month_day!AE21)</f>
-        <v/>
-      </c>
-      <c r="AL24" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF21="","",[1]_Tag_month_day!AF21)</f>
-        <v/>
-      </c>
-      <c r="AM24" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA21*[1]_MaterialAnalysis_month_day!H21+[1]_MaterialAnalysis_month_day!AB21*[1]_MaterialAnalysis_month_day!O21+[1]_MaterialAnalysis_month_day!AC21*[1]_MaterialAnalysis_month_day!O21)*100/SUM([1]_MaterialAnalysis_month_day!AA21:AC21),"")</f>
-        <v/>
-      </c>
-      <c r="AN24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A21="","",[1]_MaterialAnalysis_month_day!A21*100)</f>
-        <v/>
-      </c>
-      <c r="AO24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B21="","",[1]_MaterialAnalysis_month_day!B21*100)</f>
-        <v/>
-      </c>
-      <c r="AP24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C21="","",[1]_MaterialAnalysis_month_day!C21*100)</f>
-        <v/>
-      </c>
-      <c r="AQ24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D21="","",[1]_MaterialAnalysis_month_day!D21*100)</f>
-        <v/>
-      </c>
-      <c r="AR24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E21="","",[1]_MaterialAnalysis_month_day!E21*100)</f>
-        <v/>
-      </c>
-      <c r="AS24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F21="","",[1]_MaterialAnalysis_month_day!F21*100)</f>
-        <v/>
-      </c>
-      <c r="AT24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G21="","",[1]_MaterialAnalysis_month_day!G21*100)</f>
-        <v/>
-      </c>
-      <c r="AU24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H21="","",[1]_MaterialAnalysis_month_day!H21*100)</f>
-        <v/>
-      </c>
-      <c r="AV24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I21="","",[1]_MaterialAnalysis_month_day!I21*100)</f>
-        <v/>
-      </c>
-      <c r="AW24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J21="","",[1]_MaterialAnalysis_month_day!J21*100)</f>
-        <v/>
-      </c>
-      <c r="AX24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K21="","",[1]_MaterialAnalysis_month_day!K21*100)</f>
-        <v/>
-      </c>
-      <c r="AY24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L21="","",[1]_MaterialAnalysis_month_day!L21*100)</f>
-        <v/>
-      </c>
-      <c r="BA24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M21="","",[1]_MaterialAnalysis_month_day!M21*100)</f>
-        <v/>
-      </c>
-      <c r="BB24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N21="","",[1]_MaterialAnalysis_month_day!N21*100)</f>
-        <v/>
-      </c>
-      <c r="BC24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O21="","",[1]_MaterialAnalysis_month_day!O21*100)</f>
-        <v/>
-      </c>
-      <c r="BD24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P21="","",[1]_MaterialAnalysis_month_day!P21*100)</f>
-        <v/>
-      </c>
-      <c r="BE24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q21="","",[1]_MaterialAnalysis_month_day!Q21*100)</f>
-        <v/>
-      </c>
-      <c r="BF24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R21="","",[1]_MaterialAnalysis_month_day!R21*100)</f>
-        <v/>
-      </c>
-      <c r="BG24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S21="","",[1]_MaterialAnalysis_month_day!S21*100)</f>
-        <v/>
-      </c>
-      <c r="BH24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T21="","",[1]_MaterialAnalysis_month_day!T21*1000)</f>
-        <v/>
-      </c>
-      <c r="BI24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U21="","",[1]_MaterialAnalysis_month_day!U21*100)</f>
-        <v/>
-      </c>
-      <c r="BJ24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V21="","",[1]_MaterialAnalysis_month_day!V21*100)</f>
-        <v/>
-      </c>
-      <c r="BK24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W21="","",[1]_MaterialAnalysis_month_day!W21*100)</f>
-        <v/>
-      </c>
-      <c r="BL24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X21="","",[1]_MaterialAnalysis_month_day!X21*100)</f>
-        <v/>
-      </c>
-      <c r="BM24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y21="","",[1]_MaterialAnalysis_month_day!Y21*100)</f>
-        <v/>
-      </c>
-      <c r="BN24" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z21="","",[1]_MaterialAnalysis_month_day!Z21*100)</f>
-        <v/>
-      </c>
-      <c r="BO24" s="8"/>
-    </row>
-    <row r="25" spans="1:67" ht="14.25">
+      <c r="AK24" s="8"/>
+    </row>
+    <row r="25" spans="1:37" ht="14.25">
       <c r="A25" s="13">
         <v>21</v>
       </c>
@@ -6367,129 +4639,9 @@
         <f>IF(_tag_month_all!AI22="","",_tag_month_all!AI22)</f>
         <v/>
       </c>
-      <c r="AK25" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE22="","",[1]_Tag_month_day!AE22)</f>
-        <v/>
-      </c>
-      <c r="AL25" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF22="","",[1]_Tag_month_day!AF22)</f>
-        <v/>
-      </c>
-      <c r="AM25" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA22*[1]_MaterialAnalysis_month_day!H22+[1]_MaterialAnalysis_month_day!AB22*[1]_MaterialAnalysis_month_day!O22+[1]_MaterialAnalysis_month_day!AC22*[1]_MaterialAnalysis_month_day!O22)*100/SUM([1]_MaterialAnalysis_month_day!AA22:AC22),"")</f>
-        <v/>
-      </c>
-      <c r="AN25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A22="","",[1]_MaterialAnalysis_month_day!A22*100)</f>
-        <v/>
-      </c>
-      <c r="AO25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B22="","",[1]_MaterialAnalysis_month_day!B22*100)</f>
-        <v/>
-      </c>
-      <c r="AP25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C22="","",[1]_MaterialAnalysis_month_day!C22*100)</f>
-        <v/>
-      </c>
-      <c r="AQ25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D22="","",[1]_MaterialAnalysis_month_day!D22*100)</f>
-        <v/>
-      </c>
-      <c r="AR25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E22="","",[1]_MaterialAnalysis_month_day!E22*100)</f>
-        <v/>
-      </c>
-      <c r="AS25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F22="","",[1]_MaterialAnalysis_month_day!F22*100)</f>
-        <v/>
-      </c>
-      <c r="AT25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G22="","",[1]_MaterialAnalysis_month_day!G22*100)</f>
-        <v/>
-      </c>
-      <c r="AU25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H22="","",[1]_MaterialAnalysis_month_day!H22*100)</f>
-        <v/>
-      </c>
-      <c r="AV25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I22="","",[1]_MaterialAnalysis_month_day!I22*100)</f>
-        <v/>
-      </c>
-      <c r="AW25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J22="","",[1]_MaterialAnalysis_month_day!J22*100)</f>
-        <v/>
-      </c>
-      <c r="AX25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K22="","",[1]_MaterialAnalysis_month_day!K22*100)</f>
-        <v/>
-      </c>
-      <c r="AY25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L22="","",[1]_MaterialAnalysis_month_day!L22*100)</f>
-        <v/>
-      </c>
-      <c r="BA25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M22="","",[1]_MaterialAnalysis_month_day!M22*100)</f>
-        <v/>
-      </c>
-      <c r="BB25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N22="","",[1]_MaterialAnalysis_month_day!N22*100)</f>
-        <v/>
-      </c>
-      <c r="BC25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O22="","",[1]_MaterialAnalysis_month_day!O22*100)</f>
-        <v/>
-      </c>
-      <c r="BD25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P22="","",[1]_MaterialAnalysis_month_day!P22*100)</f>
-        <v/>
-      </c>
-      <c r="BE25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q22="","",[1]_MaterialAnalysis_month_day!Q22*100)</f>
-        <v/>
-      </c>
-      <c r="BF25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R22="","",[1]_MaterialAnalysis_month_day!R22*100)</f>
-        <v/>
-      </c>
-      <c r="BG25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S22="","",[1]_MaterialAnalysis_month_day!S22*100)</f>
-        <v/>
-      </c>
-      <c r="BH25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T22="","",[1]_MaterialAnalysis_month_day!T22*1000)</f>
-        <v/>
-      </c>
-      <c r="BI25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U22="","",[1]_MaterialAnalysis_month_day!U22*100)</f>
-        <v/>
-      </c>
-      <c r="BJ25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V22="","",[1]_MaterialAnalysis_month_day!V22*100)</f>
-        <v/>
-      </c>
-      <c r="BK25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W22="","",[1]_MaterialAnalysis_month_day!W22*100)</f>
-        <v/>
-      </c>
-      <c r="BL25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X22="","",[1]_MaterialAnalysis_month_day!X22*100)</f>
-        <v/>
-      </c>
-      <c r="BM25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y22="","",[1]_MaterialAnalysis_month_day!Y22*100)</f>
-        <v/>
-      </c>
-      <c r="BN25" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z22="","",[1]_MaterialAnalysis_month_day!Z22*100)</f>
-        <v/>
-      </c>
-      <c r="BO25" s="8"/>
-    </row>
-    <row r="26" spans="1:67" ht="14.25">
+      <c r="AK25" s="8"/>
+    </row>
+    <row r="26" spans="1:37" ht="14.25">
       <c r="A26" s="13">
         <v>22</v>
       </c>
@@ -6633,129 +4785,9 @@
         <f>IF(_tag_month_all!AI23="","",_tag_month_all!AI23)</f>
         <v/>
       </c>
-      <c r="AK26" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE23="","",[1]_Tag_month_day!AE23)</f>
-        <v/>
-      </c>
-      <c r="AL26" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF23="","",[1]_Tag_month_day!AF23)</f>
-        <v/>
-      </c>
-      <c r="AM26" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA23*[1]_MaterialAnalysis_month_day!H23+[1]_MaterialAnalysis_month_day!AB23*[1]_MaterialAnalysis_month_day!O23+[1]_MaterialAnalysis_month_day!AC23*[1]_MaterialAnalysis_month_day!O23)*100/SUM([1]_MaterialAnalysis_month_day!AA23:AC23),"")</f>
-        <v/>
-      </c>
-      <c r="AN26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A23="","",[1]_MaterialAnalysis_month_day!A23*100)</f>
-        <v/>
-      </c>
-      <c r="AO26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B23="","",[1]_MaterialAnalysis_month_day!B23*100)</f>
-        <v/>
-      </c>
-      <c r="AP26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C23="","",[1]_MaterialAnalysis_month_day!C23*100)</f>
-        <v/>
-      </c>
-      <c r="AQ26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D23="","",[1]_MaterialAnalysis_month_day!D23*100)</f>
-        <v/>
-      </c>
-      <c r="AR26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E23="","",[1]_MaterialAnalysis_month_day!E23*100)</f>
-        <v/>
-      </c>
-      <c r="AS26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F23="","",[1]_MaterialAnalysis_month_day!F23*100)</f>
-        <v/>
-      </c>
-      <c r="AT26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G23="","",[1]_MaterialAnalysis_month_day!G23*100)</f>
-        <v/>
-      </c>
-      <c r="AU26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H23="","",[1]_MaterialAnalysis_month_day!H23*100)</f>
-        <v/>
-      </c>
-      <c r="AV26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I23="","",[1]_MaterialAnalysis_month_day!I23*100)</f>
-        <v/>
-      </c>
-      <c r="AW26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J23="","",[1]_MaterialAnalysis_month_day!J23*100)</f>
-        <v/>
-      </c>
-      <c r="AX26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K23="","",[1]_MaterialAnalysis_month_day!K23*100)</f>
-        <v/>
-      </c>
-      <c r="AY26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L23="","",[1]_MaterialAnalysis_month_day!L23*100)</f>
-        <v/>
-      </c>
-      <c r="BA26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M23="","",[1]_MaterialAnalysis_month_day!M23*100)</f>
-        <v/>
-      </c>
-      <c r="BB26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N23="","",[1]_MaterialAnalysis_month_day!N23*100)</f>
-        <v/>
-      </c>
-      <c r="BC26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O23="","",[1]_MaterialAnalysis_month_day!O23*100)</f>
-        <v/>
-      </c>
-      <c r="BD26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P23="","",[1]_MaterialAnalysis_month_day!P23*100)</f>
-        <v/>
-      </c>
-      <c r="BE26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q23="","",[1]_MaterialAnalysis_month_day!Q23*100)</f>
-        <v/>
-      </c>
-      <c r="BF26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R23="","",[1]_MaterialAnalysis_month_day!R23*100)</f>
-        <v/>
-      </c>
-      <c r="BG26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S23="","",[1]_MaterialAnalysis_month_day!S23*100)</f>
-        <v/>
-      </c>
-      <c r="BH26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T23="","",[1]_MaterialAnalysis_month_day!T23*1000)</f>
-        <v/>
-      </c>
-      <c r="BI26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U23="","",[1]_MaterialAnalysis_month_day!U23*100)</f>
-        <v/>
-      </c>
-      <c r="BJ26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V23="","",[1]_MaterialAnalysis_month_day!V23*100)</f>
-        <v/>
-      </c>
-      <c r="BK26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W23="","",[1]_MaterialAnalysis_month_day!W23*100)</f>
-        <v/>
-      </c>
-      <c r="BL26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X23="","",[1]_MaterialAnalysis_month_day!X23*100)</f>
-        <v/>
-      </c>
-      <c r="BM26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y23="","",[1]_MaterialAnalysis_month_day!Y23*100)</f>
-        <v/>
-      </c>
-      <c r="BN26" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z23="","",[1]_MaterialAnalysis_month_day!Z23*100)</f>
-        <v/>
-      </c>
-      <c r="BO26" s="8"/>
-    </row>
-    <row r="27" spans="1:67" ht="14.25">
+      <c r="AK26" s="8"/>
+    </row>
+    <row r="27" spans="1:37" ht="14.25">
       <c r="A27" s="13">
         <v>23</v>
       </c>
@@ -6899,129 +4931,9 @@
         <f>IF(_tag_month_all!AI24="","",_tag_month_all!AI24)</f>
         <v/>
       </c>
-      <c r="AK27" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE24="","",[1]_Tag_month_day!AE24)</f>
-        <v/>
-      </c>
-      <c r="AL27" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF24="","",[1]_Tag_month_day!AF24)</f>
-        <v/>
-      </c>
-      <c r="AM27" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA24*[1]_MaterialAnalysis_month_day!H24+[1]_MaterialAnalysis_month_day!AB24*[1]_MaterialAnalysis_month_day!O24+[1]_MaterialAnalysis_month_day!AC24*[1]_MaterialAnalysis_month_day!O24)*100/SUM([1]_MaterialAnalysis_month_day!AA24:AC24),"")</f>
-        <v/>
-      </c>
-      <c r="AN27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A24="","",[1]_MaterialAnalysis_month_day!A24*100)</f>
-        <v/>
-      </c>
-      <c r="AO27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B24="","",[1]_MaterialAnalysis_month_day!B24*100)</f>
-        <v/>
-      </c>
-      <c r="AP27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C24="","",[1]_MaterialAnalysis_month_day!C24*100)</f>
-        <v/>
-      </c>
-      <c r="AQ27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D24="","",[1]_MaterialAnalysis_month_day!D24*100)</f>
-        <v/>
-      </c>
-      <c r="AR27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E24="","",[1]_MaterialAnalysis_month_day!E24*100)</f>
-        <v/>
-      </c>
-      <c r="AS27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F24="","",[1]_MaterialAnalysis_month_day!F24*100)</f>
-        <v/>
-      </c>
-      <c r="AT27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G24="","",[1]_MaterialAnalysis_month_day!G24*100)</f>
-        <v/>
-      </c>
-      <c r="AU27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H24="","",[1]_MaterialAnalysis_month_day!H24*100)</f>
-        <v/>
-      </c>
-      <c r="AV27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I24="","",[1]_MaterialAnalysis_month_day!I24*100)</f>
-        <v/>
-      </c>
-      <c r="AW27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J24="","",[1]_MaterialAnalysis_month_day!J24*100)</f>
-        <v/>
-      </c>
-      <c r="AX27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K24="","",[1]_MaterialAnalysis_month_day!K24*100)</f>
-        <v/>
-      </c>
-      <c r="AY27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L24="","",[1]_MaterialAnalysis_month_day!L24*100)</f>
-        <v/>
-      </c>
-      <c r="BA27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M24="","",[1]_MaterialAnalysis_month_day!M24*100)</f>
-        <v/>
-      </c>
-      <c r="BB27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N24="","",[1]_MaterialAnalysis_month_day!N24*100)</f>
-        <v/>
-      </c>
-      <c r="BC27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O24="","",[1]_MaterialAnalysis_month_day!O24*100)</f>
-        <v/>
-      </c>
-      <c r="BD27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P24="","",[1]_MaterialAnalysis_month_day!P24*100)</f>
-        <v/>
-      </c>
-      <c r="BE27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q24="","",[1]_MaterialAnalysis_month_day!Q24*100)</f>
-        <v/>
-      </c>
-      <c r="BF27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R24="","",[1]_MaterialAnalysis_month_day!R24*100)</f>
-        <v/>
-      </c>
-      <c r="BG27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S24="","",[1]_MaterialAnalysis_month_day!S24*100)</f>
-        <v/>
-      </c>
-      <c r="BH27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T24="","",[1]_MaterialAnalysis_month_day!T24*1000)</f>
-        <v/>
-      </c>
-      <c r="BI27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U24="","",[1]_MaterialAnalysis_month_day!U24*100)</f>
-        <v/>
-      </c>
-      <c r="BJ27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V24="","",[1]_MaterialAnalysis_month_day!V24*100)</f>
-        <v/>
-      </c>
-      <c r="BK27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W24="","",[1]_MaterialAnalysis_month_day!W24*100)</f>
-        <v/>
-      </c>
-      <c r="BL27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X24="","",[1]_MaterialAnalysis_month_day!X24*100)</f>
-        <v/>
-      </c>
-      <c r="BM27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y24="","",[1]_MaterialAnalysis_month_day!Y24*100)</f>
-        <v/>
-      </c>
-      <c r="BN27" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z24="","",[1]_MaterialAnalysis_month_day!Z24*100)</f>
-        <v/>
-      </c>
-      <c r="BO27" s="8"/>
-    </row>
-    <row r="28" spans="1:67" ht="14.25">
+      <c r="AK27" s="8"/>
+    </row>
+    <row r="28" spans="1:37" ht="14.25">
       <c r="A28" s="13">
         <v>24</v>
       </c>
@@ -7165,129 +5077,9 @@
         <f>IF(_tag_month_all!AI25="","",_tag_month_all!AI25)</f>
         <v/>
       </c>
-      <c r="AK28" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE25="","",[1]_Tag_month_day!AE25)</f>
-        <v/>
-      </c>
-      <c r="AL28" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF25="","",[1]_Tag_month_day!AF25)</f>
-        <v/>
-      </c>
-      <c r="AM28" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA25*[1]_MaterialAnalysis_month_day!H25+[1]_MaterialAnalysis_month_day!AB25*[1]_MaterialAnalysis_month_day!O25+[1]_MaterialAnalysis_month_day!AC25*[1]_MaterialAnalysis_month_day!O25)*100/SUM([1]_MaterialAnalysis_month_day!AA25:AC25),"")</f>
-        <v/>
-      </c>
-      <c r="AN28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A25="","",[1]_MaterialAnalysis_month_day!A25*100)</f>
-        <v/>
-      </c>
-      <c r="AO28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B25="","",[1]_MaterialAnalysis_month_day!B25*100)</f>
-        <v/>
-      </c>
-      <c r="AP28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C25="","",[1]_MaterialAnalysis_month_day!C25*100)</f>
-        <v/>
-      </c>
-      <c r="AQ28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D25="","",[1]_MaterialAnalysis_month_day!D25*100)</f>
-        <v/>
-      </c>
-      <c r="AR28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E25="","",[1]_MaterialAnalysis_month_day!E25*100)</f>
-        <v/>
-      </c>
-      <c r="AS28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F25="","",[1]_MaterialAnalysis_month_day!F25*100)</f>
-        <v/>
-      </c>
-      <c r="AT28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G25="","",[1]_MaterialAnalysis_month_day!G25*100)</f>
-        <v/>
-      </c>
-      <c r="AU28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H25="","",[1]_MaterialAnalysis_month_day!H25*100)</f>
-        <v/>
-      </c>
-      <c r="AV28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I25="","",[1]_MaterialAnalysis_month_day!I25*100)</f>
-        <v/>
-      </c>
-      <c r="AW28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J25="","",[1]_MaterialAnalysis_month_day!J25*100)</f>
-        <v/>
-      </c>
-      <c r="AX28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K25="","",[1]_MaterialAnalysis_month_day!K25*100)</f>
-        <v/>
-      </c>
-      <c r="AY28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L25="","",[1]_MaterialAnalysis_month_day!L25*100)</f>
-        <v/>
-      </c>
-      <c r="BA28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M25="","",[1]_MaterialAnalysis_month_day!M25*100)</f>
-        <v/>
-      </c>
-      <c r="BB28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N25="","",[1]_MaterialAnalysis_month_day!N25*100)</f>
-        <v/>
-      </c>
-      <c r="BC28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O25="","",[1]_MaterialAnalysis_month_day!O25*100)</f>
-        <v/>
-      </c>
-      <c r="BD28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P25="","",[1]_MaterialAnalysis_month_day!P25*100)</f>
-        <v/>
-      </c>
-      <c r="BE28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q25="","",[1]_MaterialAnalysis_month_day!Q25*100)</f>
-        <v/>
-      </c>
-      <c r="BF28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R25="","",[1]_MaterialAnalysis_month_day!R25*100)</f>
-        <v/>
-      </c>
-      <c r="BG28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S25="","",[1]_MaterialAnalysis_month_day!S25*100)</f>
-        <v/>
-      </c>
-      <c r="BH28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T25="","",[1]_MaterialAnalysis_month_day!T25*1000)</f>
-        <v/>
-      </c>
-      <c r="BI28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U25="","",[1]_MaterialAnalysis_month_day!U25*100)</f>
-        <v/>
-      </c>
-      <c r="BJ28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V25="","",[1]_MaterialAnalysis_month_day!V25*100)</f>
-        <v/>
-      </c>
-      <c r="BK28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W25="","",[1]_MaterialAnalysis_month_day!W25*100)</f>
-        <v/>
-      </c>
-      <c r="BL28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X25="","",[1]_MaterialAnalysis_month_day!X25*100)</f>
-        <v/>
-      </c>
-      <c r="BM28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y25="","",[1]_MaterialAnalysis_month_day!Y25*100)</f>
-        <v/>
-      </c>
-      <c r="BN28" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z25="","",[1]_MaterialAnalysis_month_day!Z25*100)</f>
-        <v/>
-      </c>
-      <c r="BO28" s="8"/>
-    </row>
-    <row r="29" spans="1:67" ht="14.25">
+      <c r="AK28" s="8"/>
+    </row>
+    <row r="29" spans="1:37" ht="14.25">
       <c r="A29" s="13">
         <v>25</v>
       </c>
@@ -7431,129 +5223,9 @@
         <f>IF(_tag_month_all!AI26="","",_tag_month_all!AI26)</f>
         <v/>
       </c>
-      <c r="AK29" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE26="","",[1]_Tag_month_day!AE26)</f>
-        <v/>
-      </c>
-      <c r="AL29" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF26="","",[1]_Tag_month_day!AF26)</f>
-        <v/>
-      </c>
-      <c r="AM29" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA26*[1]_MaterialAnalysis_month_day!H26+[1]_MaterialAnalysis_month_day!AB26*[1]_MaterialAnalysis_month_day!O26+[1]_MaterialAnalysis_month_day!AC26*[1]_MaterialAnalysis_month_day!O26)*100/SUM([1]_MaterialAnalysis_month_day!AA26:AC26),"")</f>
-        <v/>
-      </c>
-      <c r="AN29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A26="","",[1]_MaterialAnalysis_month_day!A26*100)</f>
-        <v/>
-      </c>
-      <c r="AO29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B26="","",[1]_MaterialAnalysis_month_day!B26*100)</f>
-        <v/>
-      </c>
-      <c r="AP29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C26="","",[1]_MaterialAnalysis_month_day!C26*100)</f>
-        <v/>
-      </c>
-      <c r="AQ29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D26="","",[1]_MaterialAnalysis_month_day!D26*100)</f>
-        <v/>
-      </c>
-      <c r="AR29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E26="","",[1]_MaterialAnalysis_month_day!E26*100)</f>
-        <v/>
-      </c>
-      <c r="AS29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F26="","",[1]_MaterialAnalysis_month_day!F26*100)</f>
-        <v/>
-      </c>
-      <c r="AT29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G26="","",[1]_MaterialAnalysis_month_day!G26*100)</f>
-        <v/>
-      </c>
-      <c r="AU29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H26="","",[1]_MaterialAnalysis_month_day!H26*100)</f>
-        <v/>
-      </c>
-      <c r="AV29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I26="","",[1]_MaterialAnalysis_month_day!I26*100)</f>
-        <v/>
-      </c>
-      <c r="AW29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J26="","",[1]_MaterialAnalysis_month_day!J26*100)</f>
-        <v/>
-      </c>
-      <c r="AX29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K26="","",[1]_MaterialAnalysis_month_day!K26*100)</f>
-        <v/>
-      </c>
-      <c r="AY29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L26="","",[1]_MaterialAnalysis_month_day!L26*100)</f>
-        <v/>
-      </c>
-      <c r="BA29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M26="","",[1]_MaterialAnalysis_month_day!M26*100)</f>
-        <v/>
-      </c>
-      <c r="BB29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N26="","",[1]_MaterialAnalysis_month_day!N26*100)</f>
-        <v/>
-      </c>
-      <c r="BC29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O26="","",[1]_MaterialAnalysis_month_day!O26*100)</f>
-        <v/>
-      </c>
-      <c r="BD29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P26="","",[1]_MaterialAnalysis_month_day!P26*100)</f>
-        <v/>
-      </c>
-      <c r="BE29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q26="","",[1]_MaterialAnalysis_month_day!Q26*100)</f>
-        <v/>
-      </c>
-      <c r="BF29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R26="","",[1]_MaterialAnalysis_month_day!R26*100)</f>
-        <v/>
-      </c>
-      <c r="BG29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S26="","",[1]_MaterialAnalysis_month_day!S26*100)</f>
-        <v/>
-      </c>
-      <c r="BH29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T26="","",[1]_MaterialAnalysis_month_day!T26*1000)</f>
-        <v/>
-      </c>
-      <c r="BI29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U26="","",[1]_MaterialAnalysis_month_day!U26*100)</f>
-        <v/>
-      </c>
-      <c r="BJ29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V26="","",[1]_MaterialAnalysis_month_day!V26*100)</f>
-        <v/>
-      </c>
-      <c r="BK29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W26="","",[1]_MaterialAnalysis_month_day!W26*100)</f>
-        <v/>
-      </c>
-      <c r="BL29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X26="","",[1]_MaterialAnalysis_month_day!X26*100)</f>
-        <v/>
-      </c>
-      <c r="BM29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y26="","",[1]_MaterialAnalysis_month_day!Y26*100)</f>
-        <v/>
-      </c>
-      <c r="BN29" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z26="","",[1]_MaterialAnalysis_month_day!Z26*100)</f>
-        <v/>
-      </c>
-      <c r="BO29" s="8"/>
-    </row>
-    <row r="30" spans="1:67" ht="14.25">
+      <c r="AK29" s="8"/>
+    </row>
+    <row r="30" spans="1:37" ht="14.25">
       <c r="A30" s="13">
         <v>26</v>
       </c>
@@ -7697,129 +5369,9 @@
         <f>IF(_tag_month_all!AI27="","",_tag_month_all!AI27)</f>
         <v/>
       </c>
-      <c r="AK30" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE27="","",[1]_Tag_month_day!AE27)</f>
-        <v/>
-      </c>
-      <c r="AL30" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF27="","",[1]_Tag_month_day!AF27)</f>
-        <v/>
-      </c>
-      <c r="AM30" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA27*[1]_MaterialAnalysis_month_day!H27+[1]_MaterialAnalysis_month_day!AB27*[1]_MaterialAnalysis_month_day!O27+[1]_MaterialAnalysis_month_day!AC27*[1]_MaterialAnalysis_month_day!O27)*100/SUM([1]_MaterialAnalysis_month_day!AA27:AC27),"")</f>
-        <v/>
-      </c>
-      <c r="AN30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A27="","",[1]_MaterialAnalysis_month_day!A27*100)</f>
-        <v/>
-      </c>
-      <c r="AO30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B27="","",[1]_MaterialAnalysis_month_day!B27*100)</f>
-        <v/>
-      </c>
-      <c r="AP30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C27="","",[1]_MaterialAnalysis_month_day!C27*100)</f>
-        <v/>
-      </c>
-      <c r="AQ30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D27="","",[1]_MaterialAnalysis_month_day!D27*100)</f>
-        <v/>
-      </c>
-      <c r="AR30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E27="","",[1]_MaterialAnalysis_month_day!E27*100)</f>
-        <v/>
-      </c>
-      <c r="AS30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F27="","",[1]_MaterialAnalysis_month_day!F27*100)</f>
-        <v/>
-      </c>
-      <c r="AT30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G27="","",[1]_MaterialAnalysis_month_day!G27*100)</f>
-        <v/>
-      </c>
-      <c r="AU30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H27="","",[1]_MaterialAnalysis_month_day!H27*100)</f>
-        <v/>
-      </c>
-      <c r="AV30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I27="","",[1]_MaterialAnalysis_month_day!I27*100)</f>
-        <v/>
-      </c>
-      <c r="AW30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J27="","",[1]_MaterialAnalysis_month_day!J27*100)</f>
-        <v/>
-      </c>
-      <c r="AX30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K27="","",[1]_MaterialAnalysis_month_day!K27*100)</f>
-        <v/>
-      </c>
-      <c r="AY30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L27="","",[1]_MaterialAnalysis_month_day!L27*100)</f>
-        <v/>
-      </c>
-      <c r="BA30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M27="","",[1]_MaterialAnalysis_month_day!M27*100)</f>
-        <v/>
-      </c>
-      <c r="BB30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N27="","",[1]_MaterialAnalysis_month_day!N27*100)</f>
-        <v/>
-      </c>
-      <c r="BC30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O27="","",[1]_MaterialAnalysis_month_day!O27*100)</f>
-        <v/>
-      </c>
-      <c r="BD30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P27="","",[1]_MaterialAnalysis_month_day!P27*100)</f>
-        <v/>
-      </c>
-      <c r="BE30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q27="","",[1]_MaterialAnalysis_month_day!Q27*100)</f>
-        <v/>
-      </c>
-      <c r="BF30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R27="","",[1]_MaterialAnalysis_month_day!R27*100)</f>
-        <v/>
-      </c>
-      <c r="BG30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S27="","",[1]_MaterialAnalysis_month_day!S27*100)</f>
-        <v/>
-      </c>
-      <c r="BH30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T27="","",[1]_MaterialAnalysis_month_day!T27*1000)</f>
-        <v/>
-      </c>
-      <c r="BI30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U27="","",[1]_MaterialAnalysis_month_day!U27*100)</f>
-        <v/>
-      </c>
-      <c r="BJ30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V27="","",[1]_MaterialAnalysis_month_day!V27*100)</f>
-        <v/>
-      </c>
-      <c r="BK30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W27="","",[1]_MaterialAnalysis_month_day!W27*100)</f>
-        <v/>
-      </c>
-      <c r="BL30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X27="","",[1]_MaterialAnalysis_month_day!X27*100)</f>
-        <v/>
-      </c>
-      <c r="BM30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y27="","",[1]_MaterialAnalysis_month_day!Y27*100)</f>
-        <v/>
-      </c>
-      <c r="BN30" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z27="","",[1]_MaterialAnalysis_month_day!Z27*100)</f>
-        <v/>
-      </c>
-      <c r="BO30" s="8"/>
-    </row>
-    <row r="31" spans="1:67" ht="14.25">
+      <c r="AK30" s="8"/>
+    </row>
+    <row r="31" spans="1:37" ht="14.25">
       <c r="A31" s="13">
         <v>27</v>
       </c>
@@ -7963,129 +5515,9 @@
         <f>IF(_tag_month_all!AI28="","",_tag_month_all!AI28)</f>
         <v/>
       </c>
-      <c r="AK31" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE28="","",[1]_Tag_month_day!AE28)</f>
-        <v/>
-      </c>
-      <c r="AL31" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF28="","",[1]_Tag_month_day!AF28)</f>
-        <v/>
-      </c>
-      <c r="AM31" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA28*[1]_MaterialAnalysis_month_day!H28+[1]_MaterialAnalysis_month_day!AB28*[1]_MaterialAnalysis_month_day!O28+[1]_MaterialAnalysis_month_day!AC28*[1]_MaterialAnalysis_month_day!O28)*100/SUM([1]_MaterialAnalysis_month_day!AA28:AC28),"")</f>
-        <v/>
-      </c>
-      <c r="AN31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A28="","",[1]_MaterialAnalysis_month_day!A28*100)</f>
-        <v/>
-      </c>
-      <c r="AO31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B28="","",[1]_MaterialAnalysis_month_day!B28*100)</f>
-        <v/>
-      </c>
-      <c r="AP31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C28="","",[1]_MaterialAnalysis_month_day!C28*100)</f>
-        <v/>
-      </c>
-      <c r="AQ31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D28="","",[1]_MaterialAnalysis_month_day!D28*100)</f>
-        <v/>
-      </c>
-      <c r="AR31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E28="","",[1]_MaterialAnalysis_month_day!E28*100)</f>
-        <v/>
-      </c>
-      <c r="AS31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F28="","",[1]_MaterialAnalysis_month_day!F28*100)</f>
-        <v/>
-      </c>
-      <c r="AT31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G28="","",[1]_MaterialAnalysis_month_day!G28*100)</f>
-        <v/>
-      </c>
-      <c r="AU31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H28="","",[1]_MaterialAnalysis_month_day!H28*100)</f>
-        <v/>
-      </c>
-      <c r="AV31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I28="","",[1]_MaterialAnalysis_month_day!I28*100)</f>
-        <v/>
-      </c>
-      <c r="AW31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J28="","",[1]_MaterialAnalysis_month_day!J28*100)</f>
-        <v/>
-      </c>
-      <c r="AX31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K28="","",[1]_MaterialAnalysis_month_day!K28*100)</f>
-        <v/>
-      </c>
-      <c r="AY31" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L28="","",[1]_MaterialAnalysis_month_day!L28*100)</f>
-        <v/>
-      </c>
-      <c r="BA31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M28="","",[1]_MaterialAnalysis_month_day!M28*100)</f>
-        <v/>
-      </c>
-      <c r="BB31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N28="","",[1]_MaterialAnalysis_month_day!N28*100)</f>
-        <v/>
-      </c>
-      <c r="BC31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O28="","",[1]_MaterialAnalysis_month_day!O28*100)</f>
-        <v/>
-      </c>
-      <c r="BD31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P28="","",[1]_MaterialAnalysis_month_day!P28*100)</f>
-        <v/>
-      </c>
-      <c r="BE31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q28="","",[1]_MaterialAnalysis_month_day!Q28*100)</f>
-        <v/>
-      </c>
-      <c r="BF31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R28="","",[1]_MaterialAnalysis_month_day!R28*100)</f>
-        <v/>
-      </c>
-      <c r="BG31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S28="","",[1]_MaterialAnalysis_month_day!S28*100)</f>
-        <v/>
-      </c>
-      <c r="BH31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T28="","",[1]_MaterialAnalysis_month_day!T28*1000)</f>
-        <v/>
-      </c>
-      <c r="BI31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U28="","",[1]_MaterialAnalysis_month_day!U28*100)</f>
-        <v/>
-      </c>
-      <c r="BJ31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V28="","",[1]_MaterialAnalysis_month_day!V28*100)</f>
-        <v/>
-      </c>
-      <c r="BK31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W28="","",[1]_MaterialAnalysis_month_day!W28*100)</f>
-        <v/>
-      </c>
-      <c r="BL31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X28="","",[1]_MaterialAnalysis_month_day!X28*100)</f>
-        <v/>
-      </c>
-      <c r="BM31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y28="","",[1]_MaterialAnalysis_month_day!Y28*100)</f>
-        <v/>
-      </c>
-      <c r="BN31" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z28="","",[1]_MaterialAnalysis_month_day!Z28*100)</f>
-        <v/>
-      </c>
-      <c r="BO31" s="8"/>
-    </row>
-    <row r="32" spans="1:67" ht="14.25">
+      <c r="AK31" s="8"/>
+    </row>
+    <row r="32" spans="1:37" ht="14.25">
       <c r="A32" s="13">
         <v>28</v>
       </c>
@@ -8229,129 +5661,9 @@
         <f>IF(_tag_month_all!AI29="","",_tag_month_all!AI29)</f>
         <v/>
       </c>
-      <c r="AK32" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE29="","",[1]_Tag_month_day!AE29)</f>
-        <v/>
-      </c>
-      <c r="AL32" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF29="","",[1]_Tag_month_day!AF29)</f>
-        <v/>
-      </c>
-      <c r="AM32" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA29*[1]_MaterialAnalysis_month_day!H29+[1]_MaterialAnalysis_month_day!AB29*[1]_MaterialAnalysis_month_day!O29+[1]_MaterialAnalysis_month_day!AC29*[1]_MaterialAnalysis_month_day!O29)*100/SUM([1]_MaterialAnalysis_month_day!AA29:AC29),"")</f>
-        <v/>
-      </c>
-      <c r="AN32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A29="","",[1]_MaterialAnalysis_month_day!A29*100)</f>
-        <v/>
-      </c>
-      <c r="AO32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B29="","",[1]_MaterialAnalysis_month_day!B29*100)</f>
-        <v/>
-      </c>
-      <c r="AP32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C29="","",[1]_MaterialAnalysis_month_day!C29*100)</f>
-        <v/>
-      </c>
-      <c r="AQ32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D29="","",[1]_MaterialAnalysis_month_day!D29*100)</f>
-        <v/>
-      </c>
-      <c r="AR32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E29="","",[1]_MaterialAnalysis_month_day!E29*100)</f>
-        <v/>
-      </c>
-      <c r="AS32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F29="","",[1]_MaterialAnalysis_month_day!F29*100)</f>
-        <v/>
-      </c>
-      <c r="AT32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G29="","",[1]_MaterialAnalysis_month_day!G29*100)</f>
-        <v/>
-      </c>
-      <c r="AU32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H29="","",[1]_MaterialAnalysis_month_day!H29*100)</f>
-        <v/>
-      </c>
-      <c r="AV32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I29="","",[1]_MaterialAnalysis_month_day!I29*100)</f>
-        <v/>
-      </c>
-      <c r="AW32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J29="","",[1]_MaterialAnalysis_month_day!J29*100)</f>
-        <v/>
-      </c>
-      <c r="AX32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K29="","",[1]_MaterialAnalysis_month_day!K29*100)</f>
-        <v/>
-      </c>
-      <c r="AY32" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L29="","",[1]_MaterialAnalysis_month_day!L29*100)</f>
-        <v/>
-      </c>
-      <c r="BA32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M29="","",[1]_MaterialAnalysis_month_day!M29*100)</f>
-        <v/>
-      </c>
-      <c r="BB32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N29="","",[1]_MaterialAnalysis_month_day!N29*100)</f>
-        <v/>
-      </c>
-      <c r="BC32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O29="","",[1]_MaterialAnalysis_month_day!O29*100)</f>
-        <v/>
-      </c>
-      <c r="BD32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P29="","",[1]_MaterialAnalysis_month_day!P29*100)</f>
-        <v/>
-      </c>
-      <c r="BE32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q29="","",[1]_MaterialAnalysis_month_day!Q29*100)</f>
-        <v/>
-      </c>
-      <c r="BF32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R29="","",[1]_MaterialAnalysis_month_day!R29*100)</f>
-        <v/>
-      </c>
-      <c r="BG32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S29="","",[1]_MaterialAnalysis_month_day!S29*100)</f>
-        <v/>
-      </c>
-      <c r="BH32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T29="","",[1]_MaterialAnalysis_month_day!T29*1000)</f>
-        <v/>
-      </c>
-      <c r="BI32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U29="","",[1]_MaterialAnalysis_month_day!U29*100)</f>
-        <v/>
-      </c>
-      <c r="BJ32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V29="","",[1]_MaterialAnalysis_month_day!V29*100)</f>
-        <v/>
-      </c>
-      <c r="BK32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W29="","",[1]_MaterialAnalysis_month_day!W29*100)</f>
-        <v/>
-      </c>
-      <c r="BL32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X29="","",[1]_MaterialAnalysis_month_day!X29*100)</f>
-        <v/>
-      </c>
-      <c r="BM32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y29="","",[1]_MaterialAnalysis_month_day!Y29*100)</f>
-        <v/>
-      </c>
-      <c r="BN32" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z29="","",[1]_MaterialAnalysis_month_day!Z29*100)</f>
-        <v/>
-      </c>
-      <c r="BO32" s="8"/>
-    </row>
-    <row r="33" spans="1:67" ht="14.25">
+      <c r="AK32" s="8"/>
+    </row>
+    <row r="33" spans="1:37" ht="14.25">
       <c r="A33" s="13">
         <v>29</v>
       </c>
@@ -8495,129 +5807,9 @@
         <f>IF(_tag_month_all!AI30="","",_tag_month_all!AI30)</f>
         <v/>
       </c>
-      <c r="AK33" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE30="","",[1]_Tag_month_day!AE30)</f>
-        <v/>
-      </c>
-      <c r="AL33" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF30="","",[1]_Tag_month_day!AF30)</f>
-        <v/>
-      </c>
-      <c r="AM33" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA30*[1]_MaterialAnalysis_month_day!H30+[1]_MaterialAnalysis_month_day!AB30*[1]_MaterialAnalysis_month_day!O30+[1]_MaterialAnalysis_month_day!AC30*[1]_MaterialAnalysis_month_day!O30)*100/SUM([1]_MaterialAnalysis_month_day!AA30:AC30),"")</f>
-        <v/>
-      </c>
-      <c r="AN33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A30="","",[1]_MaterialAnalysis_month_day!A30*100)</f>
-        <v/>
-      </c>
-      <c r="AO33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B30="","",[1]_MaterialAnalysis_month_day!B30*100)</f>
-        <v/>
-      </c>
-      <c r="AP33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C30="","",[1]_MaterialAnalysis_month_day!C30*100)</f>
-        <v/>
-      </c>
-      <c r="AQ33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D30="","",[1]_MaterialAnalysis_month_day!D30*100)</f>
-        <v/>
-      </c>
-      <c r="AR33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E30="","",[1]_MaterialAnalysis_month_day!E30*100)</f>
-        <v/>
-      </c>
-      <c r="AS33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F30="","",[1]_MaterialAnalysis_month_day!F30*100)</f>
-        <v/>
-      </c>
-      <c r="AT33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G30="","",[1]_MaterialAnalysis_month_day!G30*100)</f>
-        <v/>
-      </c>
-      <c r="AU33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H30="","",[1]_MaterialAnalysis_month_day!H30*100)</f>
-        <v/>
-      </c>
-      <c r="AV33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I30="","",[1]_MaterialAnalysis_month_day!I30*100)</f>
-        <v/>
-      </c>
-      <c r="AW33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J30="","",[1]_MaterialAnalysis_month_day!J30*100)</f>
-        <v/>
-      </c>
-      <c r="AX33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K30="","",[1]_MaterialAnalysis_month_day!K30*100)</f>
-        <v/>
-      </c>
-      <c r="AY33" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L30="","",[1]_MaterialAnalysis_month_day!L30*100)</f>
-        <v/>
-      </c>
-      <c r="BA33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M30="","",[1]_MaterialAnalysis_month_day!M30*100)</f>
-        <v/>
-      </c>
-      <c r="BB33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N30="","",[1]_MaterialAnalysis_month_day!N30*100)</f>
-        <v/>
-      </c>
-      <c r="BC33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O30="","",[1]_MaterialAnalysis_month_day!O30*100)</f>
-        <v/>
-      </c>
-      <c r="BD33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P30="","",[1]_MaterialAnalysis_month_day!P30*100)</f>
-        <v/>
-      </c>
-      <c r="BE33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q30="","",[1]_MaterialAnalysis_month_day!Q30*100)</f>
-        <v/>
-      </c>
-      <c r="BF33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R30="","",[1]_MaterialAnalysis_month_day!R30*100)</f>
-        <v/>
-      </c>
-      <c r="BG33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S30="","",[1]_MaterialAnalysis_month_day!S30*100)</f>
-        <v/>
-      </c>
-      <c r="BH33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T30="","",[1]_MaterialAnalysis_month_day!T30*1000)</f>
-        <v/>
-      </c>
-      <c r="BI33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U30="","",[1]_MaterialAnalysis_month_day!U30*100)</f>
-        <v/>
-      </c>
-      <c r="BJ33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V30="","",[1]_MaterialAnalysis_month_day!V30*100)</f>
-        <v/>
-      </c>
-      <c r="BK33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W30="","",[1]_MaterialAnalysis_month_day!W30*100)</f>
-        <v/>
-      </c>
-      <c r="BL33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X30="","",[1]_MaterialAnalysis_month_day!X30*100)</f>
-        <v/>
-      </c>
-      <c r="BM33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y30="","",[1]_MaterialAnalysis_month_day!Y30*100)</f>
-        <v/>
-      </c>
-      <c r="BN33" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z30="","",[1]_MaterialAnalysis_month_day!Z30*100)</f>
-        <v/>
-      </c>
-      <c r="BO33" s="8"/>
-    </row>
-    <row r="34" spans="1:67" ht="14.25">
+      <c r="AK33" s="8"/>
+    </row>
+    <row r="34" spans="1:37" ht="14.25">
       <c r="A34" s="13">
         <v>30</v>
       </c>
@@ -8761,129 +5953,9 @@
         <f>IF(_tag_month_all!AI31="","",_tag_month_all!AI31)</f>
         <v/>
       </c>
-      <c r="AK34" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE31="","",[1]_Tag_month_day!AE31)</f>
-        <v/>
-      </c>
-      <c r="AL34" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF31="","",[1]_Tag_month_day!AF31)</f>
-        <v/>
-      </c>
-      <c r="AM34" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA31*[1]_MaterialAnalysis_month_day!H31+[1]_MaterialAnalysis_month_day!AB31*[1]_MaterialAnalysis_month_day!O31+[1]_MaterialAnalysis_month_day!AC31*[1]_MaterialAnalysis_month_day!O31)*100/SUM([1]_MaterialAnalysis_month_day!AA31:AC31),"")</f>
-        <v/>
-      </c>
-      <c r="AN34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A31="","",[1]_MaterialAnalysis_month_day!A31*100)</f>
-        <v/>
-      </c>
-      <c r="AO34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B31="","",[1]_MaterialAnalysis_month_day!B31*100)</f>
-        <v/>
-      </c>
-      <c r="AP34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C31="","",[1]_MaterialAnalysis_month_day!C31*100)</f>
-        <v/>
-      </c>
-      <c r="AQ34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D31="","",[1]_MaterialAnalysis_month_day!D31*100)</f>
-        <v/>
-      </c>
-      <c r="AR34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E31="","",[1]_MaterialAnalysis_month_day!E31*100)</f>
-        <v/>
-      </c>
-      <c r="AS34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F31="","",[1]_MaterialAnalysis_month_day!F31*100)</f>
-        <v/>
-      </c>
-      <c r="AT34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G31="","",[1]_MaterialAnalysis_month_day!G31*100)</f>
-        <v/>
-      </c>
-      <c r="AU34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H31="","",[1]_MaterialAnalysis_month_day!H31*100)</f>
-        <v/>
-      </c>
-      <c r="AV34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I31="","",[1]_MaterialAnalysis_month_day!I31*100)</f>
-        <v/>
-      </c>
-      <c r="AW34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J31="","",[1]_MaterialAnalysis_month_day!J31*100)</f>
-        <v/>
-      </c>
-      <c r="AX34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K31="","",[1]_MaterialAnalysis_month_day!K31*100)</f>
-        <v/>
-      </c>
-      <c r="AY34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L31="","",[1]_MaterialAnalysis_month_day!L31*100)</f>
-        <v/>
-      </c>
-      <c r="BA34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M31="","",[1]_MaterialAnalysis_month_day!M31*100)</f>
-        <v/>
-      </c>
-      <c r="BB34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N31="","",[1]_MaterialAnalysis_month_day!N31*100)</f>
-        <v/>
-      </c>
-      <c r="BC34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O31="","",[1]_MaterialAnalysis_month_day!O31*100)</f>
-        <v/>
-      </c>
-      <c r="BD34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P31="","",[1]_MaterialAnalysis_month_day!P31*100)</f>
-        <v/>
-      </c>
-      <c r="BE34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q31="","",[1]_MaterialAnalysis_month_day!Q31*100)</f>
-        <v/>
-      </c>
-      <c r="BF34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R31="","",[1]_MaterialAnalysis_month_day!R31*100)</f>
-        <v/>
-      </c>
-      <c r="BG34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S31="","",[1]_MaterialAnalysis_month_day!S31*100)</f>
-        <v/>
-      </c>
-      <c r="BH34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T31="","",[1]_MaterialAnalysis_month_day!T31*1000)</f>
-        <v/>
-      </c>
-      <c r="BI34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U31="","",[1]_MaterialAnalysis_month_day!U31*100)</f>
-        <v/>
-      </c>
-      <c r="BJ34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V31="","",[1]_MaterialAnalysis_month_day!V31*100)</f>
-        <v/>
-      </c>
-      <c r="BK34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W31="","",[1]_MaterialAnalysis_month_day!W31*100)</f>
-        <v/>
-      </c>
-      <c r="BL34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X31="","",[1]_MaterialAnalysis_month_day!X31*100)</f>
-        <v/>
-      </c>
-      <c r="BM34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y31="","",[1]_MaterialAnalysis_month_day!Y31*100)</f>
-        <v/>
-      </c>
-      <c r="BN34" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z31="","",[1]_MaterialAnalysis_month_day!Z31*100)</f>
-        <v/>
-      </c>
-      <c r="BO34" s="8"/>
-    </row>
-    <row r="35" spans="1:67" ht="14.25">
+      <c r="AK34" s="8"/>
+    </row>
+    <row r="35" spans="1:37" ht="14.25">
       <c r="A35" s="13">
         <v>31</v>
       </c>
@@ -9027,129 +6099,9 @@
         <f>IF(_tag_month_all!AI32="","",_tag_month_all!AI32)</f>
         <v/>
       </c>
-      <c r="AK35" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AE32="","",[1]_Tag_month_day!AE32)</f>
-        <v/>
-      </c>
-      <c r="AL35" s="8" t="str">
-        <f>IF([1]_Tag_month_day!AF32="","",[1]_Tag_month_day!AF32)</f>
-        <v/>
-      </c>
-      <c r="AM35" s="8" t="str">
-        <f>IFERROR(([1]_MaterialAnalysis_month_day!AA32*[1]_MaterialAnalysis_month_day!H32+[1]_MaterialAnalysis_month_day!AB32*[1]_MaterialAnalysis_month_day!O32+[1]_MaterialAnalysis_month_day!AC32*[1]_MaterialAnalysis_month_day!O32)*100/SUM([1]_MaterialAnalysis_month_day!AA32:AC32),"")</f>
-        <v/>
-      </c>
-      <c r="AN35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!A32="","",[1]_MaterialAnalysis_month_day!A32*100)</f>
-        <v/>
-      </c>
-      <c r="AO35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!B32="","",[1]_MaterialAnalysis_month_day!B32*100)</f>
-        <v/>
-      </c>
-      <c r="AP35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!C32="","",[1]_MaterialAnalysis_month_day!C32*100)</f>
-        <v/>
-      </c>
-      <c r="AQ35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!D32="","",[1]_MaterialAnalysis_month_day!D32*100)</f>
-        <v/>
-      </c>
-      <c r="AR35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!E32="","",[1]_MaterialAnalysis_month_day!E32*100)</f>
-        <v/>
-      </c>
-      <c r="AS35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!F32="","",[1]_MaterialAnalysis_month_day!F32*100)</f>
-        <v/>
-      </c>
-      <c r="AT35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!G32="","",[1]_MaterialAnalysis_month_day!G32*100)</f>
-        <v/>
-      </c>
-      <c r="AU35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!H32="","",[1]_MaterialAnalysis_month_day!H32*100)</f>
-        <v/>
-      </c>
-      <c r="AV35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!I32="","",[1]_MaterialAnalysis_month_day!I32*100)</f>
-        <v/>
-      </c>
-      <c r="AW35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!J32="","",[1]_MaterialAnalysis_month_day!J32*100)</f>
-        <v/>
-      </c>
-      <c r="AX35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!K32="","",[1]_MaterialAnalysis_month_day!K32*100)</f>
-        <v/>
-      </c>
-      <c r="AY35" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AZ35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!L32="","",[1]_MaterialAnalysis_month_day!L32*100)</f>
-        <v/>
-      </c>
-      <c r="BA35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!M32="","",[1]_MaterialAnalysis_month_day!M32*100)</f>
-        <v/>
-      </c>
-      <c r="BB35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!N32="","",[1]_MaterialAnalysis_month_day!N32*100)</f>
-        <v/>
-      </c>
-      <c r="BC35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!O32="","",[1]_MaterialAnalysis_month_day!O32*100)</f>
-        <v/>
-      </c>
-      <c r="BD35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!P32="","",[1]_MaterialAnalysis_month_day!P32*100)</f>
-        <v/>
-      </c>
-      <c r="BE35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Q32="","",[1]_MaterialAnalysis_month_day!Q32*100)</f>
-        <v/>
-      </c>
-      <c r="BF35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!R32="","",[1]_MaterialAnalysis_month_day!R32*100)</f>
-        <v/>
-      </c>
-      <c r="BG35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!S32="","",[1]_MaterialAnalysis_month_day!S32*100)</f>
-        <v/>
-      </c>
-      <c r="BH35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!T32="","",[1]_MaterialAnalysis_month_day!T32*1000)</f>
-        <v/>
-      </c>
-      <c r="BI35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!U32="","",[1]_MaterialAnalysis_month_day!U32*100)</f>
-        <v/>
-      </c>
-      <c r="BJ35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!V32="","",[1]_MaterialAnalysis_month_day!V32*100)</f>
-        <v/>
-      </c>
-      <c r="BK35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!W32="","",[1]_MaterialAnalysis_month_day!W32*100)</f>
-        <v/>
-      </c>
-      <c r="BL35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!X32="","",[1]_MaterialAnalysis_month_day!X32*100)</f>
-        <v/>
-      </c>
-      <c r="BM35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Y32="","",[1]_MaterialAnalysis_month_day!Y32*100)</f>
-        <v/>
-      </c>
-      <c r="BN35" s="8" t="str">
-        <f>IF([1]_MaterialAnalysis_month_day!Z32="","",[1]_MaterialAnalysis_month_day!Z32*100)</f>
-        <v/>
-      </c>
-      <c r="BO35" s="8"/>
-    </row>
-    <row r="36" spans="1:67" ht="14.25">
+      <c r="AK35" s="8"/>
+    </row>
+    <row r="36" spans="1:37" ht="14.25">
       <c r="A36" s="24" t="s">
         <v>76</v>
       </c>
@@ -9158,1335 +6110,261 @@
         <v/>
       </c>
       <c r="C36" s="25" t="str">
-        <f t="shared" ref="C36:BN36" si="1">IFERROR(AVERAGE(C4:C35),"")</f>
+        <f t="shared" ref="C36:AJ36" si="0">IFERROR(AVERAGE(C4:C35),"")</f>
         <v/>
       </c>
       <c r="D36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O36" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P36" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q36" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="V36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W36" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="X36" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Y36" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Z36" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AA36" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB36" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AC36" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AE36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AG36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AH36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AI36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AJ36" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AK36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AL36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AN36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AO36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AP36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AQ36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AR36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AS36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AT36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AU36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AW36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AX36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AY36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AZ36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BA36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BB36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BC36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BD36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BE36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BF36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BG36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BH36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BI36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BJ36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BK36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BL36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BM36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BN36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BO36" s="8"/>
-    </row>
-    <row r="37" spans="1:67" ht="14.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK36" s="8"/>
+    </row>
+    <row r="37" spans="1:37" ht="14.25">
       <c r="AJ37" s="40"/>
       <c r="AK37" s="8"/>
-      <c r="AL37" s="8"/>
-      <c r="AM37" s="8"/>
-      <c r="AN37" s="8"/>
-      <c r="AO37" s="8"/>
-      <c r="AP37" s="8"/>
-      <c r="AQ37" s="8"/>
-      <c r="AR37" s="8"/>
-      <c r="AS37" s="8"/>
-      <c r="AT37" s="8"/>
-      <c r="AU37" s="8"/>
-      <c r="AV37" s="8"/>
-      <c r="AW37" s="8"/>
-      <c r="AX37" s="8"/>
-      <c r="AY37" s="8"/>
-      <c r="AZ37" s="8"/>
-      <c r="BA37" s="8"/>
-      <c r="BB37" s="8"/>
-      <c r="BC37" s="8"/>
-      <c r="BD37" s="8"/>
-      <c r="BE37" s="8"/>
-      <c r="BF37" s="8"/>
-      <c r="BG37" s="8"/>
-      <c r="BH37" s="8"/>
-      <c r="BI37" s="8"/>
-      <c r="BJ37" s="8"/>
-      <c r="BK37" s="8"/>
-      <c r="BL37" s="8"/>
-      <c r="BM37" s="8"/>
-      <c r="BN37" s="8"/>
-      <c r="BO37" s="8"/>
-    </row>
-    <row r="38" spans="1:67" ht="15.75">
+    </row>
+    <row r="38" spans="1:37" ht="14.25">
       <c r="AJ38" s="41"/>
-      <c r="AK38" s="42"/>
-      <c r="AL38" s="42"/>
-      <c r="AM38" s="42"/>
-      <c r="AN38" s="42"/>
-      <c r="AO38" s="42"/>
-      <c r="AP38" s="42"/>
-      <c r="AQ38" s="42"/>
-      <c r="AR38" s="42"/>
-      <c r="AS38" s="42"/>
-      <c r="AT38" s="42"/>
-      <c r="AU38" s="42"/>
-      <c r="AV38" s="42"/>
-      <c r="AW38" s="42"/>
-      <c r="AX38" s="42"/>
-      <c r="AY38" s="42"/>
-      <c r="AZ38" s="42"/>
-      <c r="BA38" s="42"/>
-      <c r="BB38" s="42"/>
-      <c r="BC38" s="42"/>
-      <c r="BD38" s="42"/>
-      <c r="BE38" s="42"/>
-      <c r="BF38" s="42"/>
-      <c r="BG38" s="42"/>
-      <c r="BH38" s="42"/>
-      <c r="BI38" s="42"/>
-      <c r="BJ38" s="42"/>
-      <c r="BK38" s="42"/>
-      <c r="BL38" s="42"/>
-    </row>
-    <row r="39" spans="1:67" ht="15.75">
-      <c r="AJ39" s="43"/>
-      <c r="AK39" s="42"/>
-      <c r="AL39" s="42"/>
-      <c r="AM39" s="42"/>
-      <c r="AN39" s="42"/>
-      <c r="AO39" s="42"/>
-      <c r="AP39" s="42"/>
-      <c r="AQ39" s="42"/>
-      <c r="AR39" s="42"/>
-      <c r="AS39" s="42"/>
-      <c r="AT39" s="42"/>
-      <c r="AU39" s="42"/>
-      <c r="AV39" s="42"/>
-      <c r="AW39" s="42"/>
-      <c r="AX39" s="42"/>
-      <c r="AY39" s="42"/>
-      <c r="AZ39" s="42"/>
-      <c r="BA39" s="42"/>
-      <c r="BB39" s="42"/>
-      <c r="BC39" s="42"/>
-      <c r="BD39" s="42"/>
-      <c r="BE39" s="42"/>
-      <c r="BF39" s="42"/>
-      <c r="BG39" s="42"/>
-      <c r="BH39" s="42"/>
-      <c r="BI39" s="42"/>
-      <c r="BJ39" s="42"/>
-      <c r="BK39" s="42"/>
-      <c r="BL39" s="42"/>
-    </row>
-    <row r="40" spans="1:67" ht="15.75">
-      <c r="AJ40" s="43"/>
-      <c r="AK40" s="42"/>
-      <c r="AL40" s="42"/>
-      <c r="AM40" s="42"/>
-      <c r="AN40" s="42"/>
-      <c r="AO40" s="42"/>
-      <c r="AP40" s="42"/>
-      <c r="AQ40" s="42"/>
-      <c r="AR40" s="42"/>
-      <c r="AS40" s="42"/>
-      <c r="AT40" s="42"/>
-      <c r="AU40" s="42"/>
-      <c r="AV40" s="42"/>
-      <c r="AW40" s="42"/>
-      <c r="AX40" s="42"/>
-      <c r="AY40" s="42"/>
-      <c r="AZ40" s="42"/>
-      <c r="BA40" s="42"/>
-      <c r="BB40" s="42"/>
-      <c r="BC40" s="42"/>
-      <c r="BD40" s="42"/>
-      <c r="BE40" s="42"/>
-      <c r="BF40" s="42"/>
-      <c r="BG40" s="42"/>
-      <c r="BH40" s="42"/>
-      <c r="BI40" s="42"/>
-      <c r="BJ40" s="42"/>
-      <c r="BK40" s="42"/>
-      <c r="BL40" s="42"/>
-    </row>
-    <row r="41" spans="1:67" ht="15.75">
-      <c r="AJ41" s="43"/>
-      <c r="AK41" s="42"/>
-      <c r="AL41" s="42"/>
-      <c r="AM41" s="42"/>
-      <c r="AN41" s="42"/>
-      <c r="AO41" s="42"/>
-      <c r="AP41" s="42"/>
-      <c r="AQ41" s="42"/>
-      <c r="AR41" s="42"/>
-      <c r="AS41" s="42"/>
-      <c r="AT41" s="42"/>
-      <c r="AU41" s="42"/>
-      <c r="AV41" s="42"/>
-      <c r="AW41" s="42"/>
-      <c r="AX41" s="42"/>
-      <c r="AY41" s="42"/>
-      <c r="AZ41" s="42"/>
-      <c r="BA41" s="42"/>
-      <c r="BB41" s="42"/>
-      <c r="BC41" s="42"/>
-      <c r="BD41" s="42"/>
-      <c r="BE41" s="42"/>
-      <c r="BF41" s="42"/>
-      <c r="BG41" s="42"/>
-      <c r="BH41" s="42"/>
-      <c r="BI41" s="42"/>
-      <c r="BJ41" s="42"/>
-      <c r="BK41" s="42"/>
-      <c r="BL41" s="42"/>
-    </row>
-    <row r="42" spans="1:67" ht="15.75">
-      <c r="AJ42" s="43"/>
-      <c r="AK42" s="42"/>
-      <c r="AL42" s="42"/>
-      <c r="AM42" s="42"/>
-      <c r="AN42" s="42"/>
-      <c r="AO42" s="42"/>
-      <c r="AP42" s="42"/>
-      <c r="AQ42" s="42"/>
-      <c r="AR42" s="42"/>
-      <c r="AS42" s="42"/>
-      <c r="AT42" s="42"/>
-      <c r="AU42" s="42"/>
-      <c r="AV42" s="42"/>
-      <c r="AW42" s="42"/>
-      <c r="AX42" s="42"/>
-      <c r="AY42" s="42"/>
-      <c r="AZ42" s="42"/>
-      <c r="BA42" s="42"/>
-      <c r="BB42" s="42"/>
-      <c r="BC42" s="42"/>
-      <c r="BD42" s="42"/>
-      <c r="BE42" s="42"/>
-      <c r="BF42" s="42"/>
-      <c r="BG42" s="42"/>
-      <c r="BH42" s="42"/>
-      <c r="BI42" s="42"/>
-      <c r="BJ42" s="42"/>
-      <c r="BK42" s="42"/>
-      <c r="BL42" s="42"/>
-    </row>
-    <row r="43" spans="1:67" ht="15.75">
-      <c r="AJ43" s="43"/>
-      <c r="AK43" s="42"/>
-      <c r="AL43" s="42"/>
-      <c r="AM43" s="42"/>
-      <c r="AN43" s="42"/>
-      <c r="AO43" s="42"/>
-      <c r="AP43" s="42"/>
-      <c r="AQ43" s="42"/>
-      <c r="AR43" s="42"/>
-      <c r="AS43" s="42"/>
-      <c r="AT43" s="42"/>
-      <c r="AU43" s="42"/>
-      <c r="AV43" s="42"/>
-      <c r="AW43" s="42"/>
-      <c r="AX43" s="42"/>
-      <c r="AY43" s="42"/>
-      <c r="AZ43" s="42"/>
-      <c r="BA43" s="42"/>
-      <c r="BB43" s="42"/>
-      <c r="BC43" s="42"/>
-      <c r="BD43" s="42"/>
-      <c r="BE43" s="42"/>
-      <c r="BF43" s="42"/>
-      <c r="BG43" s="42"/>
-      <c r="BH43" s="42"/>
-      <c r="BI43" s="42"/>
-      <c r="BJ43" s="42"/>
-      <c r="BK43" s="42"/>
-      <c r="BL43" s="42"/>
-    </row>
-    <row r="44" spans="1:67" ht="15.75">
-      <c r="AJ44" s="43"/>
-      <c r="AK44" s="42"/>
-      <c r="AL44" s="42"/>
-      <c r="AM44" s="42"/>
-      <c r="AN44" s="42"/>
-      <c r="AO44" s="42"/>
-      <c r="AP44" s="42"/>
-      <c r="AQ44" s="42"/>
-      <c r="AR44" s="42"/>
-      <c r="AS44" s="42"/>
-      <c r="AT44" s="42"/>
-      <c r="AU44" s="42"/>
-      <c r="AV44" s="42"/>
-      <c r="AW44" s="42"/>
-      <c r="AX44" s="42"/>
-      <c r="AY44" s="42"/>
-      <c r="AZ44" s="42"/>
-      <c r="BA44" s="42"/>
-      <c r="BB44" s="42"/>
-      <c r="BC44" s="42"/>
-      <c r="BD44" s="42"/>
-      <c r="BE44" s="42"/>
-      <c r="BF44" s="42"/>
-      <c r="BG44" s="42"/>
-      <c r="BH44" s="42"/>
-      <c r="BI44" s="42"/>
-      <c r="BJ44" s="42"/>
-      <c r="BK44" s="42"/>
-      <c r="BL44" s="42"/>
-    </row>
-    <row r="45" spans="1:67" ht="15.75">
-      <c r="AJ45" s="43"/>
-      <c r="AK45" s="42"/>
-      <c r="AL45" s="42"/>
-      <c r="AM45" s="42"/>
-      <c r="AN45" s="42"/>
-      <c r="AO45" s="42"/>
-      <c r="AP45" s="42"/>
-      <c r="AQ45" s="42"/>
-      <c r="AR45" s="42"/>
-      <c r="AS45" s="42"/>
-      <c r="AT45" s="42"/>
-      <c r="AU45" s="42"/>
-      <c r="AV45" s="42"/>
-      <c r="AW45" s="42"/>
-      <c r="AX45" s="42"/>
-      <c r="AY45" s="42"/>
-      <c r="AZ45" s="42"/>
-      <c r="BA45" s="42"/>
-      <c r="BB45" s="42"/>
-      <c r="BC45" s="42"/>
-      <c r="BD45" s="42"/>
-      <c r="BE45" s="42"/>
-      <c r="BF45" s="42"/>
-      <c r="BG45" s="42"/>
-      <c r="BH45" s="42"/>
-      <c r="BI45" s="42"/>
-      <c r="BJ45" s="42"/>
-      <c r="BK45" s="42"/>
-      <c r="BL45" s="42"/>
-    </row>
-    <row r="46" spans="1:67" ht="15.75">
-      <c r="AJ46" s="43"/>
-      <c r="AK46" s="42"/>
-      <c r="AL46" s="42"/>
-      <c r="AM46" s="42"/>
-      <c r="AN46" s="42"/>
-      <c r="AO46" s="42"/>
-      <c r="AP46" s="42"/>
-      <c r="AQ46" s="42"/>
-      <c r="AR46" s="42"/>
-      <c r="AS46" s="42"/>
-      <c r="AT46" s="42"/>
-      <c r="AU46" s="42"/>
-      <c r="AV46" s="42"/>
-      <c r="AW46" s="42"/>
-      <c r="AX46" s="42"/>
-      <c r="AY46" s="42"/>
-      <c r="AZ46" s="42"/>
-      <c r="BA46" s="42"/>
-      <c r="BB46" s="42"/>
-      <c r="BC46" s="42"/>
-      <c r="BD46" s="42"/>
-      <c r="BE46" s="42"/>
-      <c r="BF46" s="42"/>
-      <c r="BG46" s="42"/>
-      <c r="BH46" s="42"/>
-      <c r="BI46" s="42"/>
-      <c r="BJ46" s="42"/>
-      <c r="BK46" s="42"/>
-      <c r="BL46" s="42"/>
-    </row>
-    <row r="47" spans="1:67" ht="15.75">
-      <c r="AJ47" s="43"/>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="42"/>
-      <c r="AM47" s="42"/>
-      <c r="AN47" s="42"/>
-      <c r="AO47" s="42"/>
-      <c r="AP47" s="42"/>
-      <c r="AQ47" s="42"/>
-      <c r="AR47" s="42"/>
-      <c r="AS47" s="42"/>
-      <c r="AT47" s="42"/>
-      <c r="AU47" s="42"/>
-      <c r="AV47" s="42"/>
-      <c r="AW47" s="42"/>
-      <c r="AX47" s="42"/>
-      <c r="AY47" s="42"/>
-      <c r="AZ47" s="42"/>
-      <c r="BA47" s="42"/>
-      <c r="BB47" s="42"/>
-      <c r="BC47" s="42"/>
-      <c r="BD47" s="42"/>
-      <c r="BE47" s="42"/>
-      <c r="BF47" s="42"/>
-      <c r="BG47" s="42"/>
-      <c r="BH47" s="42"/>
-      <c r="BI47" s="42"/>
-      <c r="BJ47" s="42"/>
-      <c r="BK47" s="42"/>
-      <c r="BL47" s="42"/>
-    </row>
-    <row r="48" spans="1:67" ht="15.75">
-      <c r="AJ48" s="43"/>
-      <c r="AK48" s="42"/>
-      <c r="AL48" s="42"/>
-      <c r="AM48" s="42"/>
-      <c r="AN48" s="42"/>
-      <c r="AO48" s="42"/>
-      <c r="AP48" s="42"/>
-      <c r="AQ48" s="42"/>
-      <c r="AR48" s="42"/>
-      <c r="AS48" s="42"/>
-      <c r="AT48" s="42"/>
-      <c r="AU48" s="42"/>
-      <c r="AV48" s="42"/>
-      <c r="AW48" s="42"/>
-      <c r="AX48" s="42"/>
-      <c r="AY48" s="42"/>
-      <c r="AZ48" s="42"/>
-      <c r="BA48" s="42"/>
-      <c r="BB48" s="42"/>
-      <c r="BC48" s="42"/>
-      <c r="BD48" s="42"/>
-      <c r="BE48" s="42"/>
-      <c r="BF48" s="42"/>
-      <c r="BG48" s="42"/>
-      <c r="BH48" s="42"/>
-      <c r="BI48" s="42"/>
-      <c r="BJ48" s="42"/>
-      <c r="BK48" s="42"/>
-      <c r="BL48" s="42"/>
-    </row>
-    <row r="49" spans="36:64" ht="15.75">
-      <c r="AJ49" s="43"/>
-      <c r="AK49" s="42"/>
-      <c r="AL49" s="42"/>
-      <c r="AM49" s="42"/>
-      <c r="AN49" s="42"/>
-      <c r="AO49" s="42"/>
-      <c r="AP49" s="42"/>
-      <c r="AQ49" s="42"/>
-      <c r="AR49" s="42"/>
-      <c r="AS49" s="42"/>
-      <c r="AT49" s="42"/>
-      <c r="AU49" s="42"/>
-      <c r="AV49" s="42"/>
-      <c r="AW49" s="42"/>
-      <c r="AX49" s="42"/>
-      <c r="AY49" s="42"/>
-      <c r="AZ49" s="42"/>
-      <c r="BA49" s="42"/>
-      <c r="BB49" s="42"/>
-      <c r="BC49" s="42"/>
-      <c r="BD49" s="42"/>
-      <c r="BE49" s="42"/>
-      <c r="BF49" s="42"/>
-      <c r="BG49" s="42"/>
-      <c r="BH49" s="42"/>
-      <c r="BI49" s="42"/>
-      <c r="BJ49" s="42"/>
-      <c r="BK49" s="42"/>
-      <c r="BL49" s="42"/>
-    </row>
-    <row r="50" spans="36:64" ht="15.75">
-      <c r="AJ50" s="43"/>
-      <c r="AK50" s="42"/>
-      <c r="AL50" s="42"/>
-      <c r="AM50" s="42"/>
-      <c r="AN50" s="42"/>
-      <c r="AO50" s="42"/>
-      <c r="AP50" s="42"/>
-      <c r="AQ50" s="42"/>
-      <c r="AR50" s="42"/>
-      <c r="AS50" s="42"/>
-      <c r="AT50" s="42"/>
-      <c r="AU50" s="42"/>
-      <c r="AV50" s="42"/>
-      <c r="AW50" s="42"/>
-      <c r="AX50" s="42"/>
-      <c r="AY50" s="42"/>
-      <c r="AZ50" s="42"/>
-      <c r="BA50" s="42"/>
-      <c r="BB50" s="42"/>
-      <c r="BC50" s="42"/>
-      <c r="BD50" s="42"/>
-      <c r="BE50" s="42"/>
-      <c r="BF50" s="42"/>
-      <c r="BG50" s="42"/>
-      <c r="BH50" s="42"/>
-      <c r="BI50" s="42"/>
-      <c r="BJ50" s="42"/>
-      <c r="BK50" s="42"/>
-      <c r="BL50" s="42"/>
-    </row>
-    <row r="51" spans="36:64" ht="15.75">
-      <c r="AJ51" s="43"/>
-      <c r="AK51" s="42"/>
-      <c r="AL51" s="42"/>
-      <c r="AM51" s="42"/>
-      <c r="AN51" s="42"/>
-      <c r="AO51" s="42"/>
-      <c r="AP51" s="42"/>
-      <c r="AQ51" s="42"/>
-      <c r="AR51" s="42"/>
-      <c r="AS51" s="42"/>
-      <c r="AT51" s="42"/>
-      <c r="AU51" s="42"/>
-      <c r="AV51" s="42"/>
-      <c r="AW51" s="42"/>
-      <c r="AX51" s="42"/>
-      <c r="AY51" s="42"/>
-      <c r="AZ51" s="42"/>
-      <c r="BA51" s="42"/>
-      <c r="BB51" s="42"/>
-      <c r="BC51" s="42"/>
-      <c r="BD51" s="42"/>
-      <c r="BE51" s="42"/>
-      <c r="BF51" s="42"/>
-      <c r="BG51" s="42"/>
-      <c r="BH51" s="42"/>
-      <c r="BI51" s="42"/>
-      <c r="BJ51" s="42"/>
-      <c r="BK51" s="42"/>
-      <c r="BL51" s="42"/>
-    </row>
-    <row r="52" spans="36:64" ht="15.75">
-      <c r="AJ52" s="43"/>
-      <c r="AK52" s="42"/>
-      <c r="AL52" s="42"/>
-      <c r="AM52" s="42"/>
-      <c r="AN52" s="42"/>
-      <c r="AO52" s="42"/>
-      <c r="AP52" s="42"/>
-      <c r="AQ52" s="42"/>
-      <c r="AR52" s="42"/>
-      <c r="AS52" s="42"/>
-      <c r="AT52" s="42"/>
-      <c r="AU52" s="42"/>
-      <c r="AV52" s="42"/>
-      <c r="AW52" s="42"/>
-      <c r="AX52" s="42"/>
-      <c r="AY52" s="42"/>
-      <c r="AZ52" s="42"/>
-      <c r="BA52" s="42"/>
-      <c r="BB52" s="42"/>
-      <c r="BC52" s="42"/>
-      <c r="BD52" s="42"/>
-      <c r="BE52" s="42"/>
-      <c r="BF52" s="42"/>
-      <c r="BG52" s="42"/>
-      <c r="BH52" s="42"/>
-      <c r="BI52" s="42"/>
-      <c r="BJ52" s="42"/>
-      <c r="BK52" s="42"/>
-      <c r="BL52" s="42"/>
-    </row>
-    <row r="53" spans="36:64" ht="15.75">
-      <c r="AJ53" s="43"/>
-      <c r="AK53" s="42"/>
-      <c r="AL53" s="42"/>
-      <c r="AM53" s="42"/>
-      <c r="AN53" s="42"/>
-      <c r="AO53" s="42"/>
-      <c r="AP53" s="42"/>
-      <c r="AQ53" s="42"/>
-      <c r="AR53" s="42"/>
-      <c r="AS53" s="42"/>
-      <c r="AT53" s="42"/>
-      <c r="AU53" s="42"/>
-      <c r="AV53" s="42"/>
-      <c r="AW53" s="42"/>
-      <c r="AX53" s="42"/>
-      <c r="AY53" s="42"/>
-      <c r="AZ53" s="42"/>
-      <c r="BA53" s="42"/>
-      <c r="BB53" s="42"/>
-      <c r="BC53" s="42"/>
-      <c r="BD53" s="42"/>
-      <c r="BE53" s="42"/>
-      <c r="BF53" s="42"/>
-      <c r="BG53" s="42"/>
-      <c r="BH53" s="42"/>
-      <c r="BI53" s="42"/>
-      <c r="BJ53" s="42"/>
-      <c r="BK53" s="42"/>
-      <c r="BL53" s="42"/>
-    </row>
-    <row r="54" spans="36:64" ht="15.75">
-      <c r="AJ54" s="43"/>
-      <c r="AK54" s="42"/>
-      <c r="AL54" s="42"/>
-      <c r="AM54" s="42"/>
-      <c r="AN54" s="42"/>
-      <c r="AO54" s="42"/>
-      <c r="AP54" s="42"/>
-      <c r="AQ54" s="42"/>
-      <c r="AR54" s="42"/>
-      <c r="AS54" s="42"/>
-      <c r="AT54" s="42"/>
-      <c r="AU54" s="42"/>
-      <c r="AV54" s="42"/>
-      <c r="AW54" s="42"/>
-      <c r="AX54" s="42"/>
-      <c r="AY54" s="42"/>
-      <c r="AZ54" s="42"/>
-      <c r="BA54" s="42"/>
-      <c r="BB54" s="42"/>
-      <c r="BC54" s="42"/>
-      <c r="BD54" s="42"/>
-      <c r="BE54" s="42"/>
-      <c r="BF54" s="42"/>
-      <c r="BG54" s="42"/>
-      <c r="BH54" s="42"/>
-      <c r="BI54" s="42"/>
-      <c r="BJ54" s="42"/>
-      <c r="BK54" s="42"/>
-      <c r="BL54" s="42"/>
-    </row>
-    <row r="55" spans="36:64" ht="15.75">
-      <c r="AJ55" s="43"/>
-      <c r="AK55" s="42"/>
-      <c r="AL55" s="42"/>
-      <c r="AM55" s="42"/>
-      <c r="AN55" s="42"/>
-      <c r="AO55" s="42"/>
-      <c r="AP55" s="42"/>
-      <c r="AQ55" s="42"/>
-      <c r="AR55" s="42"/>
-      <c r="AS55" s="42"/>
-      <c r="AT55" s="42"/>
-      <c r="AU55" s="42"/>
-      <c r="AV55" s="42"/>
-      <c r="AW55" s="42"/>
-      <c r="AX55" s="42"/>
-      <c r="AY55" s="42"/>
-      <c r="AZ55" s="42"/>
-      <c r="BA55" s="42"/>
-      <c r="BB55" s="42"/>
-      <c r="BC55" s="42"/>
-      <c r="BD55" s="42"/>
-      <c r="BE55" s="42"/>
-      <c r="BF55" s="42"/>
-      <c r="BG55" s="42"/>
-      <c r="BH55" s="42"/>
-      <c r="BI55" s="42"/>
-      <c r="BJ55" s="42"/>
-      <c r="BK55" s="42"/>
-      <c r="BL55" s="42"/>
-    </row>
-    <row r="56" spans="36:64" ht="15.75">
-      <c r="AJ56" s="43"/>
-      <c r="AK56" s="42"/>
-      <c r="AL56" s="42"/>
-      <c r="AM56" s="42"/>
-      <c r="AN56" s="42"/>
-      <c r="AO56" s="42"/>
-      <c r="AP56" s="42"/>
-      <c r="AQ56" s="42"/>
-      <c r="AR56" s="42"/>
-      <c r="AS56" s="42"/>
-      <c r="AT56" s="42"/>
-      <c r="AU56" s="42"/>
-      <c r="AV56" s="42"/>
-      <c r="AW56" s="42"/>
-      <c r="AX56" s="42"/>
-      <c r="AY56" s="42"/>
-      <c r="AZ56" s="42"/>
-      <c r="BA56" s="42"/>
-      <c r="BB56" s="42"/>
-      <c r="BC56" s="42"/>
-      <c r="BD56" s="42"/>
-      <c r="BE56" s="42"/>
-      <c r="BF56" s="42"/>
-      <c r="BG56" s="42"/>
-      <c r="BH56" s="42"/>
-      <c r="BI56" s="42"/>
-      <c r="BJ56" s="42"/>
-      <c r="BK56" s="42"/>
-      <c r="BL56" s="42"/>
-    </row>
-    <row r="57" spans="36:64" ht="15.75">
-      <c r="AJ57" s="43"/>
-      <c r="AK57" s="42"/>
-      <c r="AL57" s="42"/>
-      <c r="AM57" s="42"/>
-      <c r="AN57" s="42"/>
-      <c r="AO57" s="42"/>
-      <c r="AP57" s="42"/>
-      <c r="AQ57" s="42"/>
-      <c r="AR57" s="42"/>
-      <c r="AS57" s="42"/>
-      <c r="AT57" s="42"/>
-      <c r="AU57" s="42"/>
-      <c r="AV57" s="42"/>
-      <c r="AW57" s="42"/>
-      <c r="AX57" s="42"/>
-      <c r="AY57" s="42"/>
-      <c r="AZ57" s="42"/>
-      <c r="BA57" s="42"/>
-      <c r="BB57" s="42"/>
-      <c r="BC57" s="42"/>
-      <c r="BD57" s="42"/>
-      <c r="BE57" s="42"/>
-      <c r="BF57" s="42"/>
-      <c r="BG57" s="42"/>
-      <c r="BH57" s="42"/>
-      <c r="BI57" s="42"/>
-      <c r="BJ57" s="42"/>
-      <c r="BK57" s="42"/>
-      <c r="BL57" s="42"/>
-    </row>
-    <row r="58" spans="36:64" ht="15.75">
-      <c r="AJ58" s="43"/>
-      <c r="AK58" s="42"/>
-      <c r="AL58" s="42"/>
-      <c r="AM58" s="42"/>
-      <c r="AN58" s="42"/>
-      <c r="AO58" s="42"/>
-      <c r="AP58" s="42"/>
-      <c r="AQ58" s="42"/>
-      <c r="AR58" s="42"/>
-      <c r="AS58" s="42"/>
-      <c r="AT58" s="42"/>
-      <c r="AU58" s="42"/>
-      <c r="AV58" s="42"/>
-      <c r="AW58" s="42"/>
-      <c r="AX58" s="42"/>
-      <c r="AY58" s="42"/>
-      <c r="AZ58" s="42"/>
-      <c r="BA58" s="42"/>
-      <c r="BB58" s="42"/>
-      <c r="BC58" s="42"/>
-      <c r="BD58" s="42"/>
-      <c r="BE58" s="42"/>
-      <c r="BF58" s="42"/>
-      <c r="BG58" s="42"/>
-      <c r="BH58" s="42"/>
-      <c r="BI58" s="42"/>
-      <c r="BJ58" s="42"/>
-      <c r="BK58" s="42"/>
-      <c r="BL58" s="42"/>
-    </row>
-    <row r="59" spans="36:64" ht="15.75">
-      <c r="AJ59" s="43"/>
-      <c r="AK59" s="42"/>
-      <c r="AL59" s="42"/>
-      <c r="AM59" s="42"/>
-      <c r="AN59" s="42"/>
-      <c r="AO59" s="42"/>
-      <c r="AP59" s="42"/>
-      <c r="AQ59" s="42"/>
-      <c r="AR59" s="42"/>
-      <c r="AS59" s="42"/>
-      <c r="AT59" s="42"/>
-      <c r="AU59" s="42"/>
-      <c r="AV59" s="42"/>
-      <c r="AW59" s="42"/>
-      <c r="AX59" s="42"/>
-      <c r="AY59" s="42"/>
-      <c r="AZ59" s="42"/>
-      <c r="BA59" s="42"/>
-      <c r="BB59" s="42"/>
-      <c r="BC59" s="42"/>
-      <c r="BD59" s="42"/>
-      <c r="BE59" s="42"/>
-      <c r="BF59" s="42"/>
-      <c r="BG59" s="42"/>
-      <c r="BH59" s="42"/>
-      <c r="BI59" s="42"/>
-      <c r="BJ59" s="42"/>
-      <c r="BK59" s="42"/>
-      <c r="BL59" s="42"/>
-    </row>
-    <row r="60" spans="36:64" ht="15.75">
-      <c r="AJ60" s="43"/>
-      <c r="AK60" s="42"/>
-      <c r="AL60" s="42"/>
-      <c r="AM60" s="42"/>
-      <c r="AN60" s="42"/>
-      <c r="AO60" s="42"/>
-      <c r="AP60" s="42"/>
-      <c r="AQ60" s="42"/>
-      <c r="AR60" s="42"/>
-      <c r="AS60" s="42"/>
-      <c r="AT60" s="42"/>
-      <c r="AU60" s="42"/>
-      <c r="AV60" s="42"/>
-      <c r="AW60" s="42"/>
-      <c r="AX60" s="42"/>
-      <c r="AY60" s="42"/>
-      <c r="AZ60" s="42"/>
-      <c r="BA60" s="42"/>
-      <c r="BB60" s="42"/>
-      <c r="BC60" s="42"/>
-      <c r="BD60" s="42"/>
-      <c r="BE60" s="42"/>
-      <c r="BF60" s="42"/>
-      <c r="BG60" s="42"/>
-      <c r="BH60" s="42"/>
-      <c r="BI60" s="42"/>
-      <c r="BJ60" s="42"/>
-      <c r="BK60" s="42"/>
-      <c r="BL60" s="42"/>
-    </row>
-    <row r="61" spans="36:64" ht="15.75">
-      <c r="AJ61" s="43"/>
-      <c r="AK61" s="42"/>
-      <c r="AL61" s="42"/>
-      <c r="AM61" s="42"/>
-      <c r="AN61" s="42"/>
-      <c r="AO61" s="42"/>
-      <c r="AP61" s="42"/>
-      <c r="AQ61" s="42"/>
-      <c r="AR61" s="42"/>
-      <c r="AS61" s="42"/>
-      <c r="AT61" s="42"/>
-      <c r="AU61" s="42"/>
-      <c r="AV61" s="42"/>
-      <c r="AW61" s="42"/>
-      <c r="AX61" s="42"/>
-      <c r="AY61" s="42"/>
-      <c r="AZ61" s="42"/>
-      <c r="BA61" s="42"/>
-      <c r="BB61" s="42"/>
-      <c r="BC61" s="42"/>
-      <c r="BD61" s="42"/>
-      <c r="BE61" s="42"/>
-      <c r="BF61" s="42"/>
-      <c r="BG61" s="42"/>
-      <c r="BH61" s="42"/>
-      <c r="BI61" s="42"/>
-      <c r="BJ61" s="42"/>
-      <c r="BK61" s="42"/>
-      <c r="BL61" s="42"/>
-    </row>
-    <row r="62" spans="36:64" ht="15.75">
-      <c r="AJ62" s="43"/>
-      <c r="AK62" s="42"/>
-      <c r="AL62" s="42"/>
-      <c r="AM62" s="42"/>
-      <c r="AN62" s="42"/>
-      <c r="AO62" s="42"/>
-      <c r="AP62" s="42"/>
-      <c r="AQ62" s="42"/>
-      <c r="AR62" s="42"/>
-      <c r="AS62" s="42"/>
-      <c r="AT62" s="42"/>
-      <c r="AU62" s="42"/>
-      <c r="AV62" s="42"/>
-      <c r="AW62" s="42"/>
-      <c r="AX62" s="42"/>
-      <c r="AY62" s="42"/>
-      <c r="AZ62" s="42"/>
-      <c r="BA62" s="42"/>
-      <c r="BB62" s="42"/>
-      <c r="BC62" s="42"/>
-      <c r="BD62" s="42"/>
-      <c r="BE62" s="42"/>
-      <c r="BF62" s="42"/>
-      <c r="BG62" s="42"/>
-      <c r="BH62" s="42"/>
-      <c r="BI62" s="42"/>
-      <c r="BJ62" s="42"/>
-      <c r="BK62" s="42"/>
-      <c r="BL62" s="42"/>
-    </row>
-    <row r="63" spans="36:64" ht="15.75">
-      <c r="AJ63" s="43"/>
-      <c r="AK63" s="42"/>
-      <c r="AL63" s="42"/>
-      <c r="AM63" s="42"/>
-      <c r="AN63" s="42"/>
-      <c r="AO63" s="42"/>
-      <c r="AP63" s="42"/>
-      <c r="AQ63" s="42"/>
-      <c r="AR63" s="42"/>
-      <c r="AS63" s="42"/>
-      <c r="AT63" s="42"/>
-      <c r="AU63" s="42"/>
-      <c r="AV63" s="42"/>
-      <c r="AW63" s="42"/>
-      <c r="AX63" s="42"/>
-      <c r="AY63" s="42"/>
-      <c r="AZ63" s="42"/>
-      <c r="BA63" s="42"/>
-      <c r="BB63" s="42"/>
-      <c r="BC63" s="42"/>
-      <c r="BD63" s="42"/>
-      <c r="BE63" s="42"/>
-      <c r="BF63" s="42"/>
-      <c r="BG63" s="42"/>
-      <c r="BH63" s="42"/>
-      <c r="BI63" s="42"/>
-      <c r="BJ63" s="42"/>
-      <c r="BK63" s="42"/>
-      <c r="BL63" s="42"/>
-    </row>
-    <row r="64" spans="36:64" ht="15.75">
-      <c r="AJ64" s="43"/>
-      <c r="AK64" s="42"/>
-      <c r="AL64" s="42"/>
-      <c r="AM64" s="42"/>
-      <c r="AN64" s="42"/>
-      <c r="AO64" s="42"/>
-      <c r="AP64" s="42"/>
-      <c r="AQ64" s="42"/>
-      <c r="AR64" s="42"/>
-      <c r="AS64" s="42"/>
-      <c r="AT64" s="42"/>
-      <c r="AU64" s="42"/>
-      <c r="AV64" s="42"/>
-      <c r="AW64" s="42"/>
-      <c r="AX64" s="42"/>
-      <c r="AY64" s="42"/>
-      <c r="AZ64" s="42"/>
-      <c r="BA64" s="42"/>
-      <c r="BB64" s="42"/>
-      <c r="BC64" s="42"/>
-      <c r="BD64" s="42"/>
-      <c r="BE64" s="42"/>
-      <c r="BF64" s="42"/>
-      <c r="BG64" s="42"/>
-      <c r="BH64" s="42"/>
-      <c r="BI64" s="42"/>
-      <c r="BJ64" s="42"/>
-      <c r="BK64" s="42"/>
-      <c r="BL64" s="42"/>
-    </row>
-    <row r="65" spans="36:64" ht="15.75">
-      <c r="AJ65" s="43"/>
-      <c r="AK65" s="42"/>
-      <c r="AL65" s="42"/>
-      <c r="AM65" s="42"/>
-      <c r="AN65" s="42"/>
-      <c r="AO65" s="42"/>
-      <c r="AP65" s="42"/>
-      <c r="AQ65" s="42"/>
-      <c r="AR65" s="42"/>
-      <c r="AS65" s="42"/>
-      <c r="AT65" s="42"/>
-      <c r="AU65" s="42"/>
-      <c r="AV65" s="42"/>
-      <c r="AW65" s="42"/>
-      <c r="AX65" s="42"/>
-      <c r="AY65" s="42"/>
-      <c r="AZ65" s="42"/>
-      <c r="BA65" s="42"/>
-      <c r="BB65" s="42"/>
-      <c r="BC65" s="42"/>
-      <c r="BD65" s="42"/>
-      <c r="BE65" s="42"/>
-      <c r="BF65" s="42"/>
-      <c r="BG65" s="42"/>
-      <c r="BH65" s="42"/>
-      <c r="BI65" s="42"/>
-      <c r="BJ65" s="42"/>
-      <c r="BK65" s="42"/>
-      <c r="BL65" s="42"/>
-    </row>
-    <row r="66" spans="36:64" ht="15.75">
-      <c r="AJ66" s="43"/>
-      <c r="AK66" s="42"/>
-      <c r="AL66" s="42"/>
-      <c r="AM66" s="42"/>
-      <c r="AN66" s="42"/>
-      <c r="AO66" s="42"/>
-      <c r="AP66" s="42"/>
-      <c r="AQ66" s="42"/>
-      <c r="AR66" s="42"/>
-      <c r="AS66" s="42"/>
-      <c r="AT66" s="42"/>
-      <c r="AU66" s="42"/>
-      <c r="AV66" s="42"/>
-      <c r="AW66" s="42"/>
-      <c r="AX66" s="42"/>
-      <c r="AY66" s="42"/>
-      <c r="AZ66" s="42"/>
-      <c r="BA66" s="42"/>
-      <c r="BB66" s="42"/>
-      <c r="BC66" s="42"/>
-      <c r="BD66" s="42"/>
-      <c r="BE66" s="42"/>
-      <c r="BF66" s="42"/>
-      <c r="BG66" s="42"/>
-      <c r="BH66" s="42"/>
-      <c r="BI66" s="42"/>
-      <c r="BJ66" s="42"/>
-      <c r="BK66" s="42"/>
-      <c r="BL66" s="42"/>
-    </row>
-    <row r="67" spans="36:64" ht="15.75">
-      <c r="AJ67" s="43"/>
-      <c r="AK67" s="42"/>
-      <c r="AL67" s="42"/>
-      <c r="AM67" s="42"/>
-      <c r="AN67" s="42"/>
-      <c r="AO67" s="42"/>
-      <c r="AP67" s="42"/>
-      <c r="AQ67" s="42"/>
-      <c r="AR67" s="42"/>
-      <c r="AS67" s="42"/>
-      <c r="AT67" s="42"/>
-      <c r="AU67" s="42"/>
-      <c r="AV67" s="42"/>
-      <c r="AW67" s="42"/>
-      <c r="AX67" s="42"/>
-      <c r="AY67" s="42"/>
-      <c r="AZ67" s="42"/>
-      <c r="BA67" s="42"/>
-      <c r="BB67" s="42"/>
-      <c r="BC67" s="42"/>
-      <c r="BD67" s="42"/>
-      <c r="BE67" s="42"/>
-      <c r="BF67" s="42"/>
-      <c r="BG67" s="42"/>
-      <c r="BH67" s="42"/>
-      <c r="BI67" s="42"/>
-      <c r="BJ67" s="42"/>
-      <c r="BK67" s="42"/>
-      <c r="BL67" s="42"/>
-    </row>
-    <row r="68" spans="36:64" ht="15.75">
-      <c r="AJ68" s="43"/>
-      <c r="AK68" s="42"/>
-      <c r="AL68" s="42"/>
-      <c r="AM68" s="42"/>
-      <c r="AN68" s="42"/>
-      <c r="AO68" s="42"/>
-      <c r="AP68" s="42"/>
-      <c r="AQ68" s="42"/>
-      <c r="AR68" s="42"/>
-      <c r="AS68" s="42"/>
-      <c r="AT68" s="42"/>
-      <c r="AU68" s="42"/>
-      <c r="AV68" s="42"/>
-      <c r="AW68" s="42"/>
-      <c r="AX68" s="42"/>
-      <c r="AY68" s="42"/>
-      <c r="AZ68" s="42"/>
-      <c r="BA68" s="42"/>
-      <c r="BB68" s="42"/>
-      <c r="BC68" s="42"/>
-      <c r="BD68" s="42"/>
-      <c r="BE68" s="42"/>
-      <c r="BF68" s="42"/>
-      <c r="BG68" s="42"/>
-      <c r="BH68" s="42"/>
-      <c r="BI68" s="42"/>
-      <c r="BJ68" s="42"/>
-      <c r="BK68" s="42"/>
-      <c r="BL68" s="42"/>
-    </row>
-    <row r="69" spans="36:64" ht="15.75">
-      <c r="AJ69" s="43"/>
-      <c r="AK69" s="42"/>
-      <c r="AL69" s="42"/>
-      <c r="AM69" s="42"/>
-      <c r="AN69" s="42"/>
-      <c r="AO69" s="42"/>
-      <c r="AP69" s="42"/>
-      <c r="AQ69" s="42"/>
-      <c r="AR69" s="42"/>
-      <c r="AS69" s="42"/>
-      <c r="AT69" s="42"/>
-      <c r="AU69" s="42"/>
-      <c r="AV69" s="42"/>
-      <c r="AW69" s="42"/>
-      <c r="AX69" s="42"/>
-      <c r="AY69" s="42"/>
-      <c r="AZ69" s="42"/>
-      <c r="BA69" s="42"/>
-      <c r="BB69" s="42"/>
-      <c r="BC69" s="42"/>
-      <c r="BD69" s="42"/>
-      <c r="BE69" s="42"/>
-      <c r="BF69" s="42"/>
-      <c r="BG69" s="42"/>
-      <c r="BH69" s="42"/>
-      <c r="BI69" s="42"/>
-      <c r="BJ69" s="42"/>
-      <c r="BK69" s="42"/>
-      <c r="BL69" s="42"/>
-    </row>
-    <row r="70" spans="36:64" ht="15.75">
-      <c r="AJ70" s="44"/>
-      <c r="AK70" s="42"/>
-      <c r="AL70" s="42"/>
-      <c r="AM70" s="42"/>
-      <c r="AN70" s="42"/>
-      <c r="AO70" s="42"/>
-      <c r="AP70" s="42"/>
-      <c r="AQ70" s="42"/>
-      <c r="AR70" s="42"/>
-      <c r="AS70" s="42"/>
-      <c r="AT70" s="42"/>
-      <c r="AU70" s="42"/>
-      <c r="AV70" s="42"/>
-      <c r="AW70" s="42"/>
-      <c r="AX70" s="42"/>
-      <c r="AY70" s="42"/>
-      <c r="AZ70" s="42"/>
-      <c r="BA70" s="42"/>
-      <c r="BB70" s="42"/>
-      <c r="BC70" s="42"/>
-      <c r="BD70" s="42"/>
-      <c r="BE70" s="42"/>
-      <c r="BF70" s="42"/>
-      <c r="BG70" s="42"/>
-      <c r="BH70" s="42"/>
-      <c r="BI70" s="42"/>
-      <c r="BJ70" s="42"/>
-      <c r="BK70" s="42"/>
-      <c r="BL70" s="42"/>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="AJ39" s="42"/>
+    </row>
+    <row r="40" spans="1:37">
+      <c r="AJ40" s="42"/>
+    </row>
+    <row r="41" spans="1:37">
+      <c r="AJ41" s="42"/>
+    </row>
+    <row r="42" spans="1:37">
+      <c r="AJ42" s="42"/>
+    </row>
+    <row r="43" spans="1:37">
+      <c r="AJ43" s="42"/>
+    </row>
+    <row r="44" spans="1:37">
+      <c r="AJ44" s="42"/>
+    </row>
+    <row r="45" spans="1:37">
+      <c r="AJ45" s="42"/>
+    </row>
+    <row r="46" spans="1:37">
+      <c r="AJ46" s="42"/>
+    </row>
+    <row r="47" spans="1:37">
+      <c r="AJ47" s="42"/>
+    </row>
+    <row r="48" spans="1:37">
+      <c r="AJ48" s="42"/>
+    </row>
+    <row r="49" spans="36:36">
+      <c r="AJ49" s="42"/>
+    </row>
+    <row r="50" spans="36:36">
+      <c r="AJ50" s="42"/>
+    </row>
+    <row r="51" spans="36:36">
+      <c r="AJ51" s="42"/>
+    </row>
+    <row r="52" spans="36:36">
+      <c r="AJ52" s="42"/>
+    </row>
+    <row r="53" spans="36:36">
+      <c r="AJ53" s="42"/>
+    </row>
+    <row r="54" spans="36:36">
+      <c r="AJ54" s="42"/>
+    </row>
+    <row r="55" spans="36:36">
+      <c r="AJ55" s="42"/>
+    </row>
+    <row r="56" spans="36:36">
+      <c r="AJ56" s="42"/>
+    </row>
+    <row r="57" spans="36:36">
+      <c r="AJ57" s="42"/>
+    </row>
+    <row r="58" spans="36:36">
+      <c r="AJ58" s="42"/>
+    </row>
+    <row r="59" spans="36:36">
+      <c r="AJ59" s="42"/>
+    </row>
+    <row r="60" spans="36:36">
+      <c r="AJ60" s="42"/>
+    </row>
+    <row r="61" spans="36:36">
+      <c r="AJ61" s="42"/>
+    </row>
+    <row r="62" spans="36:36">
+      <c r="AJ62" s="42"/>
+    </row>
+    <row r="63" spans="36:36">
+      <c r="AJ63" s="42"/>
+    </row>
+    <row r="64" spans="36:36">
+      <c r="AJ64" s="42"/>
+    </row>
+    <row r="65" spans="36:36">
+      <c r="AJ65" s="42"/>
+    </row>
+    <row r="66" spans="36:36">
+      <c r="AJ66" s="42"/>
+    </row>
+    <row r="67" spans="36:36">
+      <c r="AJ67" s="42"/>
+    </row>
+    <row r="68" spans="36:36">
+      <c r="AJ68" s="42"/>
+    </row>
+    <row r="69" spans="36:36">
+      <c r="AJ69" s="42"/>
+    </row>
+    <row r="70" spans="36:36">
+      <c r="AJ70" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10610,7 +6488,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -10634,7 +6512,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10647,7 +6525,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/finished/6高炉/高炉月报表.xlsx
+++ b/excel/finished/6高炉/高炉月报表.xlsx
@@ -2,27 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\pro\steel\excel\finished\6高炉\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\template\6高炉\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="月报表" sheetId="1" r:id="rId1"/>
-    <sheet name="_tag_month_all" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="_tag_month_all" sheetId="2" r:id="rId2"/>
     <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="_metadata" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>高炉月报表</t>
   </si>
@@ -159,7 +159,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -169,7 +168,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>O</t>
@@ -181,7 +179,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>H</t>
@@ -191,7 +188,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -203,7 +199,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -213,7 +208,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -223,115 +217,153 @@
     <t>点名</t>
   </si>
   <si>
-    <t>BF6_L2M_BatchRate_1d</t>
+    <t>BF6_L2C_BD_TE08001_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE08002_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE08003_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE08004_1d_avg</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>顶温均值</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_AvgTopTemp_1d_avg</t>
   </si>
   <si>
     <t>BF6_L2C_BD_ActBlastFlow_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_OxygenFlow_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2M_OxygenEnrichmentRate_1d</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_HotBlastTemp_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_ColdBlastPress_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_HotBlastPress_1d_cur</t>
-  </si>
-  <si>
-    <t>BF6_L1R_BD_TopPress_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_HotBlastPress_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_AvgTopPress_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_Pressdiff_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_BH_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_PCI_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L1R_BD_CCT_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2M_CCT_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_CCT2_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L1R_BD_PCT_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2M_PCT_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_Z_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_W_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_Z_W_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_K_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L1R_BD_Ek_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_BlastVelocityAct_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_FlamTemp_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_BoshgasIndex_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE08001_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE08002_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE08003_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE08004_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_topgasCO2_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_topgasCO_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_topgasH2_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_topgasN2_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_CoalRate_1d</t>
-  </si>
-  <si>
-    <t>BF6_L2M_FuelRate_1d</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2M_CoalRate_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2M_FuelRate_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_GasUtilization_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_TE04001_1d_cur</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L1R_BD_Q_1d_avg</t>
-  </si>
-  <si>
-    <t>平均</t>
-  </si>
-  <si>
-    <t>version</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2M_ChargeRate_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -347,7 +379,7 @@
     <numFmt numFmtId="181" formatCode="0.00_ "/>
     <numFmt numFmtId="182" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,53 +390,45 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -425,14 +449,12 @@
       <sz val="11"/>
       <color indexed="14"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -443,8 +465,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,12 +483,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,15 +785,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,10 +807,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,7 +895,7 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -911,16 +931,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,29 +953,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="1"/>
@@ -971,7 +1017,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1013,7 +1059,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1048,7 +1094,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1260,17 +1306,19 @@
   <dimension ref="A1:AK70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="9" customWidth="1"/>
-    <col min="2" max="3" width="9.125" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="11" style="8" customWidth="1"/>
+    <col min="2" max="3" width="9.125" style="8" customWidth="1"/>
+    <col min="4" max="32" width="9" style="8"/>
+    <col min="33" max="34" width="9" style="65"/>
+    <col min="35" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="8" customFormat="1" ht="25.5">
+    <row r="1" spans="1:37" s="7" customFormat="1" ht="26.25" thickBot="1">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -1298,22 +1346,23 @@
       <c r="T1" s="49"/>
       <c r="U1" s="49"/>
       <c r="V1" s="49"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-    </row>
-    <row r="2" spans="1:37" s="8" customFormat="1" ht="19.5" customHeight="1">
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+    </row>
+    <row r="2" spans="1:37" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
@@ -1344,256 +1393,263 @@
       <c r="X2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="53" t="s">
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="54"/>
       <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="44" t="s">
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="44" t="s">
+      <c r="AH2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="44" t="s">
+      <c r="AI2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="44" t="s">
+      <c r="AJ2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="46" t="s">
+      <c r="AK2" s="46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="8" customFormat="1" ht="36">
+    <row r="3" spans="1:37" s="7" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="57"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="X3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="34" t="s">
+      <c r="Y3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="34" t="s">
+      <c r="Z3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="34" t="s">
+      <c r="AA3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AB3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AD3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AE3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AF3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
       <c r="AI3" s="45"/>
-      <c r="AJ3" s="47"/>
-    </row>
-    <row r="4" spans="1:37" s="8" customFormat="1" ht="0.75" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="47"/>
+    </row>
+    <row r="4" spans="1:37" s="7" customFormat="1" ht="45" hidden="1" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AC4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AD4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AE4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AF4" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="AG4" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH4" s="63" t="s">
+        <v>75</v>
+      </c>
       <c r="AI4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" s="8" customFormat="1" ht="14.25">
-      <c r="A5" s="13">
+        <v>76</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" s="7" customFormat="1" ht="45" customHeight="1">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="str">
+      <c r="B5" s="13" t="str">
         <f>IF(_tag_month_all!A2="","",_tag_month_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="14" t="str">
+      <c r="C5" s="13" t="str">
         <f>IF(_tag_month_all!B2="","",_tag_month_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="14" t="str">
+      <c r="D5" s="13" t="str">
         <f>IF(_tag_month_all!C2="","",_tag_month_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="14" t="str">
+      <c r="E5" s="13" t="str">
         <f>IF(_tag_month_all!D2="","",_tag_month_all!D2)</f>
         <v/>
       </c>
@@ -1601,7 +1657,7 @@
         <f>IF(_tag_month_all!E2="","",_tag_month_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="15" t="str">
+      <c r="G5" s="14" t="str">
         <f>IF(_tag_month_all!F2="","",_tag_month_all!F2)</f>
         <v/>
       </c>
@@ -1609,11 +1665,11 @@
         <f>IF(_tag_month_all!G2="","",_tag_month_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="14" t="str">
+      <c r="I5" s="13" t="str">
         <f>IF(_tag_month_all!H2="","",_tag_month_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="14" t="str">
+      <c r="J5" s="13" t="str">
         <f>IF(_tag_month_all!I2="","",_tag_month_all!I2)</f>
         <v/>
       </c>
@@ -1621,7 +1677,7 @@
         <f>IF(_tag_month_all!J2="","",_tag_month_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="14" t="str">
+      <c r="L5" s="13" t="str">
         <f>IF(_tag_month_all!K2="","",_tag_month_all!K2)</f>
         <v/>
       </c>
@@ -1629,116 +1685,120 @@
         <f>IF(_tag_month_all!L2="","",_tag_month_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="14" t="str">
+      <c r="N5" s="13" t="str">
         <f>IF(_tag_month_all!M2="","",_tag_month_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="14" t="str">
+      <c r="O5" s="13" t="str">
         <f>IF(_tag_month_all!N2="","",_tag_month_all!N2)</f>
         <v/>
       </c>
-      <c r="P5" s="14" t="str">
+      <c r="P5" s="13" t="str">
         <f>IF(_tag_month_all!O2="","",_tag_month_all!O2)</f>
         <v/>
       </c>
-      <c r="Q5" s="14" t="str">
+      <c r="Q5" s="13" t="str">
         <f>IF(_tag_month_all!P2="","",_tag_month_all!P2)</f>
         <v/>
       </c>
-      <c r="R5" s="14" t="str">
+      <c r="R5" s="13" t="str">
         <f>IF(_tag_month_all!Q2="","",_tag_month_all!Q2)</f>
         <v/>
       </c>
-      <c r="S5" s="14" t="str">
+      <c r="S5" s="13" t="str">
         <f>IF(_tag_month_all!R2="","",_tag_month_all!R2)</f>
         <v/>
       </c>
-      <c r="T5" s="14" t="str">
+      <c r="T5" s="13" t="str">
         <f>IF(_tag_month_all!S2="","",_tag_month_all!S2)</f>
         <v/>
       </c>
-      <c r="U5" s="14" t="str">
+      <c r="U5" s="13" t="str">
         <f>IF(_tag_month_all!T2="","",_tag_month_all!T2)</f>
         <v/>
       </c>
-      <c r="V5" s="14" t="str">
+      <c r="V5" s="13" t="str">
         <f>IF(_tag_month_all!U2="","",_tag_month_all!U2)</f>
         <v/>
       </c>
-      <c r="W5" s="14" t="str">
+      <c r="W5" s="13" t="str">
         <f>IF(_tag_month_all!V2="","",_tag_month_all!V2)</f>
         <v/>
       </c>
-      <c r="X5" s="14" t="str">
+      <c r="X5" s="13" t="str">
         <f>IF(_tag_month_all!W2="","",_tag_month_all!W2)</f>
         <v/>
       </c>
-      <c r="Y5" s="14" t="str">
+      <c r="Y5" s="13" t="str">
         <f>IF(_tag_month_all!X2="","",_tag_month_all!X2)</f>
         <v/>
       </c>
-      <c r="Z5" s="14" t="str">
+      <c r="Z5" s="13" t="str">
         <f>IF(_tag_month_all!Y2="","",_tag_month_all!Y2)</f>
         <v/>
       </c>
-      <c r="AA5" s="14" t="str">
+      <c r="AA5" s="13" t="str">
         <f>IF(_tag_month_all!Z2="","",_tag_month_all!Z2)</f>
         <v/>
       </c>
-      <c r="AB5" s="36" t="str">
+      <c r="AB5" s="13" t="str">
         <f>IF(_tag_month_all!AA2="","",_tag_month_all!AA2)</f>
         <v/>
       </c>
-      <c r="AC5" s="37" t="str">
+      <c r="AC5" s="35" t="str">
         <f>IF(_tag_month_all!AB2="","",_tag_month_all!AB2)</f>
         <v/>
       </c>
-      <c r="AD5" s="37" t="str">
+      <c r="AD5" s="36" t="str">
         <f>IF(_tag_month_all!AC2="","",_tag_month_all!AC2)</f>
         <v/>
       </c>
-      <c r="AE5" s="37" t="str">
+      <c r="AE5" s="36" t="str">
         <f>IF(_tag_month_all!AD2="","",_tag_month_all!AD2)</f>
         <v/>
       </c>
-      <c r="AF5" s="14" t="str">
+      <c r="AF5" s="36" t="str">
         <f>IF(_tag_month_all!AE2="","",_tag_month_all!AE2)</f>
         <v/>
       </c>
-      <c r="AG5" s="14" t="str">
+      <c r="AG5" s="64" t="str">
         <f>IF(_tag_month_all!AF2="","",_tag_month_all!AF2)</f>
         <v/>
       </c>
-      <c r="AH5" s="14" t="str">
+      <c r="AH5" s="64" t="str">
         <f>IF(_tag_month_all!AG2="","",_tag_month_all!AG2)</f>
         <v/>
       </c>
-      <c r="AI5" s="14" t="str">
+      <c r="AI5" s="13" t="str">
         <f>IF(_tag_month_all!AH2="","",_tag_month_all!AH2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="38" t="str">
+      <c r="AJ5" s="13" t="str">
         <f>IF(_tag_month_all!AI2="","",_tag_month_all!AI2)</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:37" s="8" customFormat="1" ht="14.25">
-      <c r="A6" s="13">
+      <c r="AK5" s="37" t="str">
+        <f>IF(_tag_month_all!AJ2="","",_tag_month_all!AJ2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:37" s="7" customFormat="1" ht="14.25">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="str">
+      <c r="B6" s="13" t="str">
         <f>IF(_tag_month_all!A3="","",_tag_month_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="13" t="str">
         <f>IF(_tag_month_all!B3="","",_tag_month_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="14" t="str">
+      <c r="D6" s="13" t="str">
         <f>IF(_tag_month_all!C3="","",_tag_month_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="14" t="str">
+      <c r="E6" s="13" t="str">
         <f>IF(_tag_month_all!D3="","",_tag_month_all!D3)</f>
         <v/>
       </c>
@@ -1746,7 +1806,7 @@
         <f>IF(_tag_month_all!E3="","",_tag_month_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="15" t="str">
+      <c r="G6" s="14" t="str">
         <f>IF(_tag_month_all!F3="","",_tag_month_all!F3)</f>
         <v/>
       </c>
@@ -1754,11 +1814,11 @@
         <f>IF(_tag_month_all!G3="","",_tag_month_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="14" t="str">
+      <c r="I6" s="13" t="str">
         <f>IF(_tag_month_all!H3="","",_tag_month_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="14" t="str">
+      <c r="J6" s="13" t="str">
         <f>IF(_tag_month_all!I3="","",_tag_month_all!I3)</f>
         <v/>
       </c>
@@ -1766,7 +1826,7 @@
         <f>IF(_tag_month_all!J3="","",_tag_month_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="14" t="str">
+      <c r="L6" s="13" t="str">
         <f>IF(_tag_month_all!K3="","",_tag_month_all!K3)</f>
         <v/>
       </c>
@@ -1774,228 +1834,232 @@
         <f>IF(_tag_month_all!L3="","",_tag_month_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="14" t="str">
+      <c r="N6" s="13" t="str">
         <f>IF(_tag_month_all!M3="","",_tag_month_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="14" t="str">
+      <c r="O6" s="13" t="str">
         <f>IF(_tag_month_all!N3="","",_tag_month_all!N3)</f>
         <v/>
       </c>
-      <c r="P6" s="14" t="str">
+      <c r="P6" s="13" t="str">
         <f>IF(_tag_month_all!O3="","",_tag_month_all!O3)</f>
         <v/>
       </c>
-      <c r="Q6" s="14" t="str">
+      <c r="Q6" s="13" t="str">
         <f>IF(_tag_month_all!P3="","",_tag_month_all!P3)</f>
         <v/>
       </c>
-      <c r="R6" s="14" t="str">
+      <c r="R6" s="13" t="str">
         <f>IF(_tag_month_all!Q3="","",_tag_month_all!Q3)</f>
         <v/>
       </c>
-      <c r="S6" s="14" t="str">
+      <c r="S6" s="13" t="str">
         <f>IF(_tag_month_all!R3="","",_tag_month_all!R3)</f>
         <v/>
       </c>
-      <c r="T6" s="14" t="str">
+      <c r="T6" s="13" t="str">
         <f>IF(_tag_month_all!S3="","",_tag_month_all!S3)</f>
         <v/>
       </c>
-      <c r="U6" s="14" t="str">
+      <c r="U6" s="13" t="str">
         <f>IF(_tag_month_all!T3="","",_tag_month_all!T3)</f>
         <v/>
       </c>
-      <c r="V6" s="14" t="str">
+      <c r="V6" s="13" t="str">
         <f>IF(_tag_month_all!U3="","",_tag_month_all!U3)</f>
         <v/>
       </c>
-      <c r="W6" s="14" t="str">
+      <c r="W6" s="13" t="str">
         <f>IF(_tag_month_all!V3="","",_tag_month_all!V3)</f>
         <v/>
       </c>
-      <c r="X6" s="14" t="str">
+      <c r="X6" s="13" t="str">
         <f>IF(_tag_month_all!W3="","",_tag_month_all!W3)</f>
         <v/>
       </c>
-      <c r="Y6" s="14" t="str">
+      <c r="Y6" s="13" t="str">
         <f>IF(_tag_month_all!X3="","",_tag_month_all!X3)</f>
         <v/>
       </c>
-      <c r="Z6" s="14" t="str">
+      <c r="Z6" s="13" t="str">
         <f>IF(_tag_month_all!Y3="","",_tag_month_all!Y3)</f>
         <v/>
       </c>
-      <c r="AA6" s="14" t="str">
+      <c r="AA6" s="13" t="str">
         <f>IF(_tag_month_all!Z3="","",_tag_month_all!Z3)</f>
         <v/>
       </c>
-      <c r="AB6" s="36" t="str">
+      <c r="AB6" s="13" t="str">
         <f>IF(_tag_month_all!AA3="","",_tag_month_all!AA3)</f>
         <v/>
       </c>
-      <c r="AC6" s="37" t="str">
+      <c r="AC6" s="35" t="str">
         <f>IF(_tag_month_all!AB3="","",_tag_month_all!AB3)</f>
         <v/>
       </c>
-      <c r="AD6" s="37" t="str">
+      <c r="AD6" s="36" t="str">
         <f>IF(_tag_month_all!AC3="","",_tag_month_all!AC3)</f>
         <v/>
       </c>
-      <c r="AE6" s="37" t="str">
+      <c r="AE6" s="36" t="str">
         <f>IF(_tag_month_all!AD3="","",_tag_month_all!AD3)</f>
         <v/>
       </c>
-      <c r="AF6" s="14" t="str">
+      <c r="AF6" s="36" t="str">
         <f>IF(_tag_month_all!AE3="","",_tag_month_all!AE3)</f>
         <v/>
       </c>
-      <c r="AG6" s="14" t="str">
+      <c r="AG6" s="64" t="str">
         <f>IF(_tag_month_all!AF3="","",_tag_month_all!AF3)</f>
         <v/>
       </c>
-      <c r="AH6" s="14" t="str">
+      <c r="AH6" s="64" t="str">
         <f>IF(_tag_month_all!AG3="","",_tag_month_all!AG3)</f>
         <v/>
       </c>
-      <c r="AI6" s="14" t="str">
+      <c r="AI6" s="13" t="str">
         <f>IF(_tag_month_all!AH3="","",_tag_month_all!AH3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="38" t="str">
+      <c r="AJ6" s="13" t="str">
         <f>IF(_tag_month_all!AI3="","",_tag_month_all!AI3)</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:37" ht="14.25">
-      <c r="A7" s="13">
+      <c r="AK6" s="37" t="str">
+        <f>IF(_tag_month_all!AJ3="","",_tag_month_all!AJ3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="str">
+      <c r="B7" s="15" t="str">
         <f>IF(_tag_month_all!A4="","",_tag_month_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="16" t="str">
+      <c r="C7" s="15" t="str">
         <f>IF(_tag_month_all!B4="","",_tag_month_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="16" t="str">
         <f>IF(_tag_month_all!C4="","",_tag_month_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="18" t="str">
+      <c r="E7" s="17" t="str">
         <f>IF(_tag_month_all!D4="","",_tag_month_all!D4)</f>
         <v/>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="18" t="str">
         <f>IF(_tag_month_all!E4="","",_tag_month_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="20" t="str">
+      <c r="G7" s="19" t="str">
         <f>IF(_tag_month_all!F4="","",_tag_month_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="21" t="str">
+      <c r="H7" s="20" t="str">
         <f>IF(_tag_month_all!G4="","",_tag_month_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="18" t="str">
+      <c r="I7" s="17" t="str">
         <f>IF(_tag_month_all!H4="","",_tag_month_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="18" t="str">
+      <c r="J7" s="17" t="str">
         <f>IF(_tag_month_all!I4="","",_tag_month_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="27" t="str">
+      <c r="K7" s="26" t="str">
         <f>IF(_tag_month_all!J4="","",_tag_month_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="18" t="str">
+      <c r="L7" s="17" t="str">
         <f>IF(_tag_month_all!K4="","",_tag_month_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="28" t="str">
+      <c r="M7" s="27" t="str">
         <f>IF(_tag_month_all!L4="","",_tag_month_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="29" t="str">
+      <c r="N7" s="28" t="str">
         <f>IF(_tag_month_all!M4="","",_tag_month_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="30" t="str">
+      <c r="O7" s="29" t="str">
         <f>IF(_tag_month_all!N4="","",_tag_month_all!N4)</f>
         <v/>
       </c>
-      <c r="P7" s="30" t="str">
+      <c r="P7" s="29" t="str">
         <f>IF(_tag_month_all!O4="","",_tag_month_all!O4)</f>
         <v/>
       </c>
-      <c r="Q7" s="30" t="str">
+      <c r="Q7" s="29" t="str">
         <f>IF(_tag_month_all!P4="","",_tag_month_all!P4)</f>
         <v/>
       </c>
-      <c r="R7" s="35" t="str">
+      <c r="R7" s="34" t="str">
         <f>IF(_tag_month_all!Q4="","",_tag_month_all!Q4)</f>
         <v/>
       </c>
-      <c r="S7" s="35" t="str">
+      <c r="S7" s="34" t="str">
         <f>IF(_tag_month_all!R4="","",_tag_month_all!R4)</f>
         <v/>
       </c>
-      <c r="T7" s="35" t="str">
+      <c r="T7" s="34" t="str">
         <f>IF(_tag_month_all!S4="","",_tag_month_all!S4)</f>
         <v/>
       </c>
-      <c r="U7" s="35" t="str">
+      <c r="U7" s="34" t="str">
         <f>IF(_tag_month_all!T4="","",_tag_month_all!T4)</f>
         <v/>
       </c>
-      <c r="V7" s="29" t="str">
+      <c r="V7" s="28" t="str">
         <f>IF(_tag_month_all!U4="","",_tag_month_all!U4)</f>
         <v/>
       </c>
-      <c r="W7" s="30" t="str">
+      <c r="W7" s="29" t="str">
         <f>IF(_tag_month_all!V4="","",_tag_month_all!V4)</f>
         <v/>
       </c>
-      <c r="X7" s="30" t="str">
+      <c r="X7" s="29" t="str">
         <f>IF(_tag_month_all!W4="","",_tag_month_all!W4)</f>
         <v/>
       </c>
-      <c r="Y7" s="30" t="str">
+      <c r="Y7" s="29" t="str">
         <f>IF(_tag_month_all!X4="","",_tag_month_all!X4)</f>
         <v/>
       </c>
-      <c r="Z7" s="30" t="str">
+      <c r="Z7" s="29" t="str">
         <f>IF(_tag_month_all!Y4="","",_tag_month_all!Y4)</f>
         <v/>
       </c>
-      <c r="AA7" s="30" t="str">
+      <c r="AA7" s="29" t="str">
         <f>IF(_tag_month_all!Z4="","",_tag_month_all!Z4)</f>
         <v/>
       </c>
-      <c r="AB7" s="30" t="str">
+      <c r="AB7" s="29" t="str">
         <f>IF(_tag_month_all!AA4="","",_tag_month_all!AA4)</f>
         <v/>
       </c>
-      <c r="AC7" s="30" t="str">
+      <c r="AC7" s="29" t="str">
         <f>IF(_tag_month_all!AB4="","",_tag_month_all!AB4)</f>
         <v/>
       </c>
-      <c r="AD7" s="17" t="str">
+      <c r="AD7" s="29" t="str">
         <f>IF(_tag_month_all!AC4="","",_tag_month_all!AC4)</f>
         <v/>
       </c>
-      <c r="AE7" s="17" t="str">
+      <c r="AE7" s="16" t="str">
         <f>IF(_tag_month_all!AD4="","",_tag_month_all!AD4)</f>
         <v/>
       </c>
-      <c r="AF7" s="17" t="str">
+      <c r="AF7" s="16" t="str">
         <f>IF(_tag_month_all!AE4="","",_tag_month_all!AE4)</f>
         <v/>
       </c>
-      <c r="AG7" s="17" t="str">
+      <c r="AG7" s="29" t="str">
         <f>IF(_tag_month_all!AF4="","",_tag_month_all!AF4)</f>
         <v/>
       </c>
@@ -2003,145 +2067,148 @@
         <f>IF(_tag_month_all!AG4="","",_tag_month_all!AG4)</f>
         <v/>
       </c>
-      <c r="AI7" s="29" t="str">
+      <c r="AI7" s="28" t="str">
         <f>IF(_tag_month_all!AH4="","",_tag_month_all!AH4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="38" t="str">
+      <c r="AJ7" s="28" t="str">
         <f>IF(_tag_month_all!AI4="","",_tag_month_all!AI4)</f>
         <v/>
       </c>
-      <c r="AK7" s="8"/>
-    </row>
-    <row r="8" spans="1:37" ht="14.25">
-      <c r="A8" s="13">
+      <c r="AK7" s="37" t="str">
+        <f>IF(_tag_month_all!AJ4="","",_tag_month_all!AJ4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="str">
+      <c r="B8" s="15" t="str">
         <f>IF(_tag_month_all!A5="","",_tag_month_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="15" t="str">
         <f>IF(_tag_month_all!B5="","",_tag_month_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="17" t="str">
+      <c r="D8" s="16" t="str">
         <f>IF(_tag_month_all!C5="","",_tag_month_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="18" t="str">
+      <c r="E8" s="17" t="str">
         <f>IF(_tag_month_all!D5="","",_tag_month_all!D5)</f>
         <v/>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="18" t="str">
         <f>IF(_tag_month_all!E5="","",_tag_month_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="19" t="str">
         <f>IF(_tag_month_all!F5="","",_tag_month_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="20" t="str">
         <f>IF(_tag_month_all!G5="","",_tag_month_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="18" t="str">
+      <c r="I8" s="17" t="str">
         <f>IF(_tag_month_all!H5="","",_tag_month_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="18" t="str">
+      <c r="J8" s="17" t="str">
         <f>IF(_tag_month_all!I5="","",_tag_month_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="27" t="str">
+      <c r="K8" s="26" t="str">
         <f>IF(_tag_month_all!J5="","",_tag_month_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="18" t="str">
+      <c r="L8" s="17" t="str">
         <f>IF(_tag_month_all!K5="","",_tag_month_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="28" t="str">
+      <c r="M8" s="27" t="str">
         <f>IF(_tag_month_all!L5="","",_tag_month_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="29" t="str">
+      <c r="N8" s="28" t="str">
         <f>IF(_tag_month_all!M5="","",_tag_month_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="30" t="str">
+      <c r="O8" s="29" t="str">
         <f>IF(_tag_month_all!N5="","",_tag_month_all!N5)</f>
         <v/>
       </c>
-      <c r="P8" s="30" t="str">
+      <c r="P8" s="29" t="str">
         <f>IF(_tag_month_all!O5="","",_tag_month_all!O5)</f>
         <v/>
       </c>
-      <c r="Q8" s="30" t="str">
+      <c r="Q8" s="29" t="str">
         <f>IF(_tag_month_all!P5="","",_tag_month_all!P5)</f>
         <v/>
       </c>
-      <c r="R8" s="35" t="str">
+      <c r="R8" s="34" t="str">
         <f>IF(_tag_month_all!Q5="","",_tag_month_all!Q5)</f>
         <v/>
       </c>
-      <c r="S8" s="35" t="str">
+      <c r="S8" s="34" t="str">
         <f>IF(_tag_month_all!R5="","",_tag_month_all!R5)</f>
         <v/>
       </c>
-      <c r="T8" s="35" t="str">
+      <c r="T8" s="34" t="str">
         <f>IF(_tag_month_all!S5="","",_tag_month_all!S5)</f>
         <v/>
       </c>
-      <c r="U8" s="35" t="str">
+      <c r="U8" s="34" t="str">
         <f>IF(_tag_month_all!T5="","",_tag_month_all!T5)</f>
         <v/>
       </c>
-      <c r="V8" s="29" t="str">
+      <c r="V8" s="28" t="str">
         <f>IF(_tag_month_all!U5="","",_tag_month_all!U5)</f>
         <v/>
       </c>
-      <c r="W8" s="30" t="str">
+      <c r="W8" s="29" t="str">
         <f>IF(_tag_month_all!V5="","",_tag_month_all!V5)</f>
         <v/>
       </c>
-      <c r="X8" s="30" t="str">
+      <c r="X8" s="29" t="str">
         <f>IF(_tag_month_all!W5="","",_tag_month_all!W5)</f>
         <v/>
       </c>
-      <c r="Y8" s="30" t="str">
+      <c r="Y8" s="29" t="str">
         <f>IF(_tag_month_all!X5="","",_tag_month_all!X5)</f>
         <v/>
       </c>
-      <c r="Z8" s="30" t="str">
+      <c r="Z8" s="29" t="str">
         <f>IF(_tag_month_all!Y5="","",_tag_month_all!Y5)</f>
         <v/>
       </c>
-      <c r="AA8" s="30" t="str">
+      <c r="AA8" s="29" t="str">
         <f>IF(_tag_month_all!Z5="","",_tag_month_all!Z5)</f>
         <v/>
       </c>
-      <c r="AB8" s="30" t="str">
+      <c r="AB8" s="29" t="str">
         <f>IF(_tag_month_all!AA5="","",_tag_month_all!AA5)</f>
         <v/>
       </c>
-      <c r="AC8" s="30" t="str">
+      <c r="AC8" s="29" t="str">
         <f>IF(_tag_month_all!AB5="","",_tag_month_all!AB5)</f>
         <v/>
       </c>
-      <c r="AD8" s="17" t="str">
+      <c r="AD8" s="29" t="str">
         <f>IF(_tag_month_all!AC5="","",_tag_month_all!AC5)</f>
         <v/>
       </c>
-      <c r="AE8" s="17" t="str">
+      <c r="AE8" s="16" t="str">
         <f>IF(_tag_month_all!AD5="","",_tag_month_all!AD5)</f>
         <v/>
       </c>
-      <c r="AF8" s="17" t="str">
+      <c r="AF8" s="16" t="str">
         <f>IF(_tag_month_all!AE5="","",_tag_month_all!AE5)</f>
         <v/>
       </c>
-      <c r="AG8" s="17" t="str">
+      <c r="AG8" s="29" t="str">
         <f>IF(_tag_month_all!AF5="","",_tag_month_all!AF5)</f>
         <v/>
       </c>
@@ -2149,145 +2216,148 @@
         <f>IF(_tag_month_all!AG5="","",_tag_month_all!AG5)</f>
         <v/>
       </c>
-      <c r="AI8" s="29" t="str">
+      <c r="AI8" s="28" t="str">
         <f>IF(_tag_month_all!AH5="","",_tag_month_all!AH5)</f>
         <v/>
       </c>
-      <c r="AJ8" s="38" t="str">
+      <c r="AJ8" s="28" t="str">
         <f>IF(_tag_month_all!AI5="","",_tag_month_all!AI5)</f>
         <v/>
       </c>
-      <c r="AK8" s="8"/>
-    </row>
-    <row r="9" spans="1:37" ht="14.25">
-      <c r="A9" s="13">
+      <c r="AK8" s="37" t="str">
+        <f>IF(_tag_month_all!AJ5="","",_tag_month_all!AJ5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="str">
+      <c r="B9" s="15" t="str">
         <f>IF(_tag_month_all!A6="","",_tag_month_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="16" t="str">
+      <c r="C9" s="15" t="str">
         <f>IF(_tag_month_all!B6="","",_tag_month_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="16" t="str">
         <f>IF(_tag_month_all!C6="","",_tag_month_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="18" t="str">
+      <c r="E9" s="17" t="str">
         <f>IF(_tag_month_all!D6="","",_tag_month_all!D6)</f>
         <v/>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="18" t="str">
         <f>IF(_tag_month_all!E6="","",_tag_month_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="19" t="str">
         <f>IF(_tag_month_all!F6="","",_tag_month_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_tag_month_all!G6="","",_tag_month_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="18" t="str">
+      <c r="I9" s="17" t="str">
         <f>IF(_tag_month_all!H6="","",_tag_month_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="18" t="str">
+      <c r="J9" s="17" t="str">
         <f>IF(_tag_month_all!I6="","",_tag_month_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="27" t="str">
+      <c r="K9" s="26" t="str">
         <f>IF(_tag_month_all!J6="","",_tag_month_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="18" t="str">
+      <c r="L9" s="17" t="str">
         <f>IF(_tag_month_all!K6="","",_tag_month_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="28" t="str">
+      <c r="M9" s="27" t="str">
         <f>IF(_tag_month_all!L6="","",_tag_month_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="29" t="str">
+      <c r="N9" s="28" t="str">
         <f>IF(_tag_month_all!M6="","",_tag_month_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="30" t="str">
+      <c r="O9" s="29" t="str">
         <f>IF(_tag_month_all!N6="","",_tag_month_all!N6)</f>
         <v/>
       </c>
-      <c r="P9" s="30" t="str">
+      <c r="P9" s="29" t="str">
         <f>IF(_tag_month_all!O6="","",_tag_month_all!O6)</f>
         <v/>
       </c>
-      <c r="Q9" s="30" t="str">
+      <c r="Q9" s="29" t="str">
         <f>IF(_tag_month_all!P6="","",_tag_month_all!P6)</f>
         <v/>
       </c>
-      <c r="R9" s="35" t="str">
+      <c r="R9" s="34" t="str">
         <f>IF(_tag_month_all!Q6="","",_tag_month_all!Q6)</f>
         <v/>
       </c>
-      <c r="S9" s="35" t="str">
+      <c r="S9" s="34" t="str">
         <f>IF(_tag_month_all!R6="","",_tag_month_all!R6)</f>
         <v/>
       </c>
-      <c r="T9" s="35" t="str">
+      <c r="T9" s="34" t="str">
         <f>IF(_tag_month_all!S6="","",_tag_month_all!S6)</f>
         <v/>
       </c>
-      <c r="U9" s="35" t="str">
+      <c r="U9" s="34" t="str">
         <f>IF(_tag_month_all!T6="","",_tag_month_all!T6)</f>
         <v/>
       </c>
-      <c r="V9" s="29" t="str">
+      <c r="V9" s="28" t="str">
         <f>IF(_tag_month_all!U6="","",_tag_month_all!U6)</f>
         <v/>
       </c>
-      <c r="W9" s="30" t="str">
+      <c r="W9" s="29" t="str">
         <f>IF(_tag_month_all!V6="","",_tag_month_all!V6)</f>
         <v/>
       </c>
-      <c r="X9" s="30" t="str">
+      <c r="X9" s="29" t="str">
         <f>IF(_tag_month_all!W6="","",_tag_month_all!W6)</f>
         <v/>
       </c>
-      <c r="Y9" s="30" t="str">
+      <c r="Y9" s="29" t="str">
         <f>IF(_tag_month_all!X6="","",_tag_month_all!X6)</f>
         <v/>
       </c>
-      <c r="Z9" s="30" t="str">
+      <c r="Z9" s="29" t="str">
         <f>IF(_tag_month_all!Y6="","",_tag_month_all!Y6)</f>
         <v/>
       </c>
-      <c r="AA9" s="30" t="str">
+      <c r="AA9" s="29" t="str">
         <f>IF(_tag_month_all!Z6="","",_tag_month_all!Z6)</f>
         <v/>
       </c>
-      <c r="AB9" s="30" t="str">
+      <c r="AB9" s="29" t="str">
         <f>IF(_tag_month_all!AA6="","",_tag_month_all!AA6)</f>
         <v/>
       </c>
-      <c r="AC9" s="30" t="str">
+      <c r="AC9" s="29" t="str">
         <f>IF(_tag_month_all!AB6="","",_tag_month_all!AB6)</f>
         <v/>
       </c>
-      <c r="AD9" s="17" t="str">
+      <c r="AD9" s="29" t="str">
         <f>IF(_tag_month_all!AC6="","",_tag_month_all!AC6)</f>
         <v/>
       </c>
-      <c r="AE9" s="17" t="str">
+      <c r="AE9" s="16" t="str">
         <f>IF(_tag_month_all!AD6="","",_tag_month_all!AD6)</f>
         <v/>
       </c>
-      <c r="AF9" s="17" t="str">
+      <c r="AF9" s="16" t="str">
         <f>IF(_tag_month_all!AE6="","",_tag_month_all!AE6)</f>
         <v/>
       </c>
-      <c r="AG9" s="17" t="str">
+      <c r="AG9" s="29" t="str">
         <f>IF(_tag_month_all!AF6="","",_tag_month_all!AF6)</f>
         <v/>
       </c>
@@ -2295,145 +2365,148 @@
         <f>IF(_tag_month_all!AG6="","",_tag_month_all!AG6)</f>
         <v/>
       </c>
-      <c r="AI9" s="29" t="str">
+      <c r="AI9" s="28" t="str">
         <f>IF(_tag_month_all!AH6="","",_tag_month_all!AH6)</f>
         <v/>
       </c>
-      <c r="AJ9" s="38" t="str">
+      <c r="AJ9" s="28" t="str">
         <f>IF(_tag_month_all!AI6="","",_tag_month_all!AI6)</f>
         <v/>
       </c>
-      <c r="AK9" s="8"/>
-    </row>
-    <row r="10" spans="1:37" ht="14.25">
-      <c r="A10" s="13">
+      <c r="AK9" s="37" t="str">
+        <f>IF(_tag_month_all!AJ6="","",_tag_month_all!AJ6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="str">
+      <c r="B10" s="15" t="str">
         <f>IF(_tag_month_all!A7="","",_tag_month_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" s="15" t="str">
         <f>IF(_tag_month_all!B7="","",_tag_month_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="16" t="str">
         <f>IF(_tag_month_all!C7="","",_tag_month_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="18" t="str">
+      <c r="E10" s="17" t="str">
         <f>IF(_tag_month_all!D7="","",_tag_month_all!D7)</f>
         <v/>
       </c>
-      <c r="F10" s="19" t="str">
+      <c r="F10" s="18" t="str">
         <f>IF(_tag_month_all!E7="","",_tag_month_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="20" t="str">
+      <c r="G10" s="19" t="str">
         <f>IF(_tag_month_all!F7="","",_tag_month_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="21" t="str">
+      <c r="H10" s="20" t="str">
         <f>IF(_tag_month_all!G7="","",_tag_month_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="18" t="str">
+      <c r="I10" s="17" t="str">
         <f>IF(_tag_month_all!H7="","",_tag_month_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="18" t="str">
+      <c r="J10" s="17" t="str">
         <f>IF(_tag_month_all!I7="","",_tag_month_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="27" t="str">
+      <c r="K10" s="26" t="str">
         <f>IF(_tag_month_all!J7="","",_tag_month_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="18" t="str">
+      <c r="L10" s="17" t="str">
         <f>IF(_tag_month_all!K7="","",_tag_month_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="28" t="str">
+      <c r="M10" s="27" t="str">
         <f>IF(_tag_month_all!L7="","",_tag_month_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="29" t="str">
+      <c r="N10" s="28" t="str">
         <f>IF(_tag_month_all!M7="","",_tag_month_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="30" t="str">
+      <c r="O10" s="29" t="str">
         <f>IF(_tag_month_all!N7="","",_tag_month_all!N7)</f>
         <v/>
       </c>
-      <c r="P10" s="30" t="str">
+      <c r="P10" s="29" t="str">
         <f>IF(_tag_month_all!O7="","",_tag_month_all!O7)</f>
         <v/>
       </c>
-      <c r="Q10" s="30" t="str">
+      <c r="Q10" s="29" t="str">
         <f>IF(_tag_month_all!P7="","",_tag_month_all!P7)</f>
         <v/>
       </c>
-      <c r="R10" s="35" t="str">
+      <c r="R10" s="34" t="str">
         <f>IF(_tag_month_all!Q7="","",_tag_month_all!Q7)</f>
         <v/>
       </c>
-      <c r="S10" s="35" t="str">
+      <c r="S10" s="34" t="str">
         <f>IF(_tag_month_all!R7="","",_tag_month_all!R7)</f>
         <v/>
       </c>
-      <c r="T10" s="35" t="str">
+      <c r="T10" s="34" t="str">
         <f>IF(_tag_month_all!S7="","",_tag_month_all!S7)</f>
         <v/>
       </c>
-      <c r="U10" s="35" t="str">
+      <c r="U10" s="34" t="str">
         <f>IF(_tag_month_all!T7="","",_tag_month_all!T7)</f>
         <v/>
       </c>
-      <c r="V10" s="29" t="str">
+      <c r="V10" s="28" t="str">
         <f>IF(_tag_month_all!U7="","",_tag_month_all!U7)</f>
         <v/>
       </c>
-      <c r="W10" s="30" t="str">
+      <c r="W10" s="29" t="str">
         <f>IF(_tag_month_all!V7="","",_tag_month_all!V7)</f>
         <v/>
       </c>
-      <c r="X10" s="30" t="str">
+      <c r="X10" s="29" t="str">
         <f>IF(_tag_month_all!W7="","",_tag_month_all!W7)</f>
         <v/>
       </c>
-      <c r="Y10" s="30" t="str">
+      <c r="Y10" s="29" t="str">
         <f>IF(_tag_month_all!X7="","",_tag_month_all!X7)</f>
         <v/>
       </c>
-      <c r="Z10" s="30" t="str">
+      <c r="Z10" s="29" t="str">
         <f>IF(_tag_month_all!Y7="","",_tag_month_all!Y7)</f>
         <v/>
       </c>
-      <c r="AA10" s="30" t="str">
+      <c r="AA10" s="29" t="str">
         <f>IF(_tag_month_all!Z7="","",_tag_month_all!Z7)</f>
         <v/>
       </c>
-      <c r="AB10" s="30" t="str">
+      <c r="AB10" s="29" t="str">
         <f>IF(_tag_month_all!AA7="","",_tag_month_all!AA7)</f>
         <v/>
       </c>
-      <c r="AC10" s="30" t="str">
+      <c r="AC10" s="29" t="str">
         <f>IF(_tag_month_all!AB7="","",_tag_month_all!AB7)</f>
         <v/>
       </c>
-      <c r="AD10" s="17" t="str">
+      <c r="AD10" s="29" t="str">
         <f>IF(_tag_month_all!AC7="","",_tag_month_all!AC7)</f>
         <v/>
       </c>
-      <c r="AE10" s="17" t="str">
+      <c r="AE10" s="16" t="str">
         <f>IF(_tag_month_all!AD7="","",_tag_month_all!AD7)</f>
         <v/>
       </c>
-      <c r="AF10" s="17" t="str">
+      <c r="AF10" s="16" t="str">
         <f>IF(_tag_month_all!AE7="","",_tag_month_all!AE7)</f>
         <v/>
       </c>
-      <c r="AG10" s="17" t="str">
+      <c r="AG10" s="29" t="str">
         <f>IF(_tag_month_all!AF7="","",_tag_month_all!AF7)</f>
         <v/>
       </c>
@@ -2441,145 +2514,148 @@
         <f>IF(_tag_month_all!AG7="","",_tag_month_all!AG7)</f>
         <v/>
       </c>
-      <c r="AI10" s="29" t="str">
+      <c r="AI10" s="28" t="str">
         <f>IF(_tag_month_all!AH7="","",_tag_month_all!AH7)</f>
         <v/>
       </c>
-      <c r="AJ10" s="38" t="str">
+      <c r="AJ10" s="28" t="str">
         <f>IF(_tag_month_all!AI7="","",_tag_month_all!AI7)</f>
         <v/>
       </c>
-      <c r="AK10" s="8"/>
-    </row>
-    <row r="11" spans="1:37" ht="14.25">
-      <c r="A11" s="13">
+      <c r="AK10" s="37" t="str">
+        <f>IF(_tag_month_all!AJ7="","",_tag_month_all!AJ7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="str">
+      <c r="B11" s="15" t="str">
         <f>IF(_tag_month_all!A8="","",_tag_month_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="15" t="str">
         <f>IF(_tag_month_all!B8="","",_tag_month_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="16" t="str">
         <f>IF(_tag_month_all!C8="","",_tag_month_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="18" t="str">
+      <c r="E11" s="17" t="str">
         <f>IF(_tag_month_all!D8="","",_tag_month_all!D8)</f>
         <v/>
       </c>
-      <c r="F11" s="19" t="str">
+      <c r="F11" s="18" t="str">
         <f>IF(_tag_month_all!E8="","",_tag_month_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="20" t="str">
+      <c r="G11" s="19" t="str">
         <f>IF(_tag_month_all!F8="","",_tag_month_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="21" t="str">
+      <c r="H11" s="20" t="str">
         <f>IF(_tag_month_all!G8="","",_tag_month_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="18" t="str">
+      <c r="I11" s="17" t="str">
         <f>IF(_tag_month_all!H8="","",_tag_month_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="18" t="str">
+      <c r="J11" s="17" t="str">
         <f>IF(_tag_month_all!I8="","",_tag_month_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="27" t="str">
+      <c r="K11" s="26" t="str">
         <f>IF(_tag_month_all!J8="","",_tag_month_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="18" t="str">
+      <c r="L11" s="17" t="str">
         <f>IF(_tag_month_all!K8="","",_tag_month_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="28" t="str">
+      <c r="M11" s="27" t="str">
         <f>IF(_tag_month_all!L8="","",_tag_month_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="29" t="str">
+      <c r="N11" s="28" t="str">
         <f>IF(_tag_month_all!M8="","",_tag_month_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="30" t="str">
+      <c r="O11" s="29" t="str">
         <f>IF(_tag_month_all!N8="","",_tag_month_all!N8)</f>
         <v/>
       </c>
-      <c r="P11" s="30" t="str">
+      <c r="P11" s="29" t="str">
         <f>IF(_tag_month_all!O8="","",_tag_month_all!O8)</f>
         <v/>
       </c>
-      <c r="Q11" s="30" t="str">
+      <c r="Q11" s="29" t="str">
         <f>IF(_tag_month_all!P8="","",_tag_month_all!P8)</f>
         <v/>
       </c>
-      <c r="R11" s="35" t="str">
+      <c r="R11" s="34" t="str">
         <f>IF(_tag_month_all!Q8="","",_tag_month_all!Q8)</f>
         <v/>
       </c>
-      <c r="S11" s="35" t="str">
+      <c r="S11" s="34" t="str">
         <f>IF(_tag_month_all!R8="","",_tag_month_all!R8)</f>
         <v/>
       </c>
-      <c r="T11" s="35" t="str">
+      <c r="T11" s="34" t="str">
         <f>IF(_tag_month_all!S8="","",_tag_month_all!S8)</f>
         <v/>
       </c>
-      <c r="U11" s="35" t="str">
+      <c r="U11" s="34" t="str">
         <f>IF(_tag_month_all!T8="","",_tag_month_all!T8)</f>
         <v/>
       </c>
-      <c r="V11" s="29" t="str">
+      <c r="V11" s="28" t="str">
         <f>IF(_tag_month_all!U8="","",_tag_month_all!U8)</f>
         <v/>
       </c>
-      <c r="W11" s="30" t="str">
+      <c r="W11" s="29" t="str">
         <f>IF(_tag_month_all!V8="","",_tag_month_all!V8)</f>
         <v/>
       </c>
-      <c r="X11" s="30" t="str">
+      <c r="X11" s="29" t="str">
         <f>IF(_tag_month_all!W8="","",_tag_month_all!W8)</f>
         <v/>
       </c>
-      <c r="Y11" s="30" t="str">
+      <c r="Y11" s="29" t="str">
         <f>IF(_tag_month_all!X8="","",_tag_month_all!X8)</f>
         <v/>
       </c>
-      <c r="Z11" s="30" t="str">
+      <c r="Z11" s="29" t="str">
         <f>IF(_tag_month_all!Y8="","",_tag_month_all!Y8)</f>
         <v/>
       </c>
-      <c r="AA11" s="30" t="str">
+      <c r="AA11" s="29" t="str">
         <f>IF(_tag_month_all!Z8="","",_tag_month_all!Z8)</f>
         <v/>
       </c>
-      <c r="AB11" s="30" t="str">
+      <c r="AB11" s="29" t="str">
         <f>IF(_tag_month_all!AA8="","",_tag_month_all!AA8)</f>
         <v/>
       </c>
-      <c r="AC11" s="30" t="str">
+      <c r="AC11" s="29" t="str">
         <f>IF(_tag_month_all!AB8="","",_tag_month_all!AB8)</f>
         <v/>
       </c>
-      <c r="AD11" s="17" t="str">
+      <c r="AD11" s="29" t="str">
         <f>IF(_tag_month_all!AC8="","",_tag_month_all!AC8)</f>
         <v/>
       </c>
-      <c r="AE11" s="17" t="str">
+      <c r="AE11" s="16" t="str">
         <f>IF(_tag_month_all!AD8="","",_tag_month_all!AD8)</f>
         <v/>
       </c>
-      <c r="AF11" s="17" t="str">
+      <c r="AF11" s="16" t="str">
         <f>IF(_tag_month_all!AE8="","",_tag_month_all!AE8)</f>
         <v/>
       </c>
-      <c r="AG11" s="17" t="str">
+      <c r="AG11" s="29" t="str">
         <f>IF(_tag_month_all!AF8="","",_tag_month_all!AF8)</f>
         <v/>
       </c>
@@ -2587,145 +2663,148 @@
         <f>IF(_tag_month_all!AG8="","",_tag_month_all!AG8)</f>
         <v/>
       </c>
-      <c r="AI11" s="29" t="str">
+      <c r="AI11" s="28" t="str">
         <f>IF(_tag_month_all!AH8="","",_tag_month_all!AH8)</f>
         <v/>
       </c>
-      <c r="AJ11" s="38" t="str">
+      <c r="AJ11" s="28" t="str">
         <f>IF(_tag_month_all!AI8="","",_tag_month_all!AI8)</f>
         <v/>
       </c>
-      <c r="AK11" s="8"/>
-    </row>
-    <row r="12" spans="1:37" ht="14.25">
-      <c r="A12" s="13">
+      <c r="AK11" s="37" t="str">
+        <f>IF(_tag_month_all!AJ8="","",_tag_month_all!AJ8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" s="12">
         <v>8</v>
       </c>
-      <c r="B12" s="16" t="str">
+      <c r="B12" s="15" t="str">
         <f>IF(_tag_month_all!A9="","",_tag_month_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" s="15" t="str">
         <f>IF(_tag_month_all!B9="","",_tag_month_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="16" t="str">
         <f>IF(_tag_month_all!C9="","",_tag_month_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="18" t="str">
+      <c r="E12" s="17" t="str">
         <f>IF(_tag_month_all!D9="","",_tag_month_all!D9)</f>
         <v/>
       </c>
-      <c r="F12" s="19" t="str">
+      <c r="F12" s="18" t="str">
         <f>IF(_tag_month_all!E9="","",_tag_month_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="20" t="str">
+      <c r="G12" s="19" t="str">
         <f>IF(_tag_month_all!F9="","",_tag_month_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="21" t="str">
+      <c r="H12" s="20" t="str">
         <f>IF(_tag_month_all!G9="","",_tag_month_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="18" t="str">
+      <c r="I12" s="17" t="str">
         <f>IF(_tag_month_all!H9="","",_tag_month_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="18" t="str">
+      <c r="J12" s="17" t="str">
         <f>IF(_tag_month_all!I9="","",_tag_month_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="27" t="str">
+      <c r="K12" s="26" t="str">
         <f>IF(_tag_month_all!J9="","",_tag_month_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="18" t="str">
+      <c r="L12" s="17" t="str">
         <f>IF(_tag_month_all!K9="","",_tag_month_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="28" t="str">
+      <c r="M12" s="27" t="str">
         <f>IF(_tag_month_all!L9="","",_tag_month_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="29" t="str">
+      <c r="N12" s="28" t="str">
         <f>IF(_tag_month_all!M9="","",_tag_month_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="30" t="str">
+      <c r="O12" s="29" t="str">
         <f>IF(_tag_month_all!N9="","",_tag_month_all!N9)</f>
         <v/>
       </c>
-      <c r="P12" s="30" t="str">
+      <c r="P12" s="29" t="str">
         <f>IF(_tag_month_all!O9="","",_tag_month_all!O9)</f>
         <v/>
       </c>
-      <c r="Q12" s="30" t="str">
+      <c r="Q12" s="29" t="str">
         <f>IF(_tag_month_all!P9="","",_tag_month_all!P9)</f>
         <v/>
       </c>
-      <c r="R12" s="35" t="str">
+      <c r="R12" s="34" t="str">
         <f>IF(_tag_month_all!Q9="","",_tag_month_all!Q9)</f>
         <v/>
       </c>
-      <c r="S12" s="35" t="str">
+      <c r="S12" s="34" t="str">
         <f>IF(_tag_month_all!R9="","",_tag_month_all!R9)</f>
         <v/>
       </c>
-      <c r="T12" s="35" t="str">
+      <c r="T12" s="34" t="str">
         <f>IF(_tag_month_all!S9="","",_tag_month_all!S9)</f>
         <v/>
       </c>
-      <c r="U12" s="35" t="str">
+      <c r="U12" s="34" t="str">
         <f>IF(_tag_month_all!T9="","",_tag_month_all!T9)</f>
         <v/>
       </c>
-      <c r="V12" s="29" t="str">
+      <c r="V12" s="28" t="str">
         <f>IF(_tag_month_all!U9="","",_tag_month_all!U9)</f>
         <v/>
       </c>
-      <c r="W12" s="30" t="str">
+      <c r="W12" s="29" t="str">
         <f>IF(_tag_month_all!V9="","",_tag_month_all!V9)</f>
         <v/>
       </c>
-      <c r="X12" s="30" t="str">
+      <c r="X12" s="29" t="str">
         <f>IF(_tag_month_all!W9="","",_tag_month_all!W9)</f>
         <v/>
       </c>
-      <c r="Y12" s="30" t="str">
+      <c r="Y12" s="29" t="str">
         <f>IF(_tag_month_all!X9="","",_tag_month_all!X9)</f>
         <v/>
       </c>
-      <c r="Z12" s="30" t="str">
+      <c r="Z12" s="29" t="str">
         <f>IF(_tag_month_all!Y9="","",_tag_month_all!Y9)</f>
         <v/>
       </c>
-      <c r="AA12" s="30" t="str">
+      <c r="AA12" s="29" t="str">
         <f>IF(_tag_month_all!Z9="","",_tag_month_all!Z9)</f>
         <v/>
       </c>
-      <c r="AB12" s="30" t="str">
+      <c r="AB12" s="29" t="str">
         <f>IF(_tag_month_all!AA9="","",_tag_month_all!AA9)</f>
         <v/>
       </c>
-      <c r="AC12" s="30" t="str">
+      <c r="AC12" s="29" t="str">
         <f>IF(_tag_month_all!AB9="","",_tag_month_all!AB9)</f>
         <v/>
       </c>
-      <c r="AD12" s="17" t="str">
+      <c r="AD12" s="29" t="str">
         <f>IF(_tag_month_all!AC9="","",_tag_month_all!AC9)</f>
         <v/>
       </c>
-      <c r="AE12" s="17" t="str">
+      <c r="AE12" s="16" t="str">
         <f>IF(_tag_month_all!AD9="","",_tag_month_all!AD9)</f>
         <v/>
       </c>
-      <c r="AF12" s="17" t="str">
+      <c r="AF12" s="16" t="str">
         <f>IF(_tag_month_all!AE9="","",_tag_month_all!AE9)</f>
         <v/>
       </c>
-      <c r="AG12" s="17" t="str">
+      <c r="AG12" s="29" t="str">
         <f>IF(_tag_month_all!AF9="","",_tag_month_all!AF9)</f>
         <v/>
       </c>
@@ -2733,145 +2812,148 @@
         <f>IF(_tag_month_all!AG9="","",_tag_month_all!AG9)</f>
         <v/>
       </c>
-      <c r="AI12" s="29" t="str">
+      <c r="AI12" s="28" t="str">
         <f>IF(_tag_month_all!AH9="","",_tag_month_all!AH9)</f>
         <v/>
       </c>
-      <c r="AJ12" s="38" t="str">
+      <c r="AJ12" s="28" t="str">
         <f>IF(_tag_month_all!AI9="","",_tag_month_all!AI9)</f>
         <v/>
       </c>
-      <c r="AK12" s="8"/>
-    </row>
-    <row r="13" spans="1:37" ht="14.25">
-      <c r="A13" s="13">
+      <c r="AK12" s="37" t="str">
+        <f>IF(_tag_month_all!AJ9="","",_tag_month_all!AJ9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="12">
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="str">
+      <c r="B13" s="15" t="str">
         <f>IF(_tag_month_all!A10="","",_tag_month_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="15" t="str">
         <f>IF(_tag_month_all!B10="","",_tag_month_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="16" t="str">
         <f>IF(_tag_month_all!C10="","",_tag_month_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="18" t="str">
+      <c r="E13" s="17" t="str">
         <f>IF(_tag_month_all!D10="","",_tag_month_all!D10)</f>
         <v/>
       </c>
-      <c r="F13" s="19" t="str">
+      <c r="F13" s="18" t="str">
         <f>IF(_tag_month_all!E10="","",_tag_month_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="20" t="str">
+      <c r="G13" s="19" t="str">
         <f>IF(_tag_month_all!F10="","",_tag_month_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="21" t="str">
+      <c r="H13" s="20" t="str">
         <f>IF(_tag_month_all!G10="","",_tag_month_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="18" t="str">
+      <c r="I13" s="17" t="str">
         <f>IF(_tag_month_all!H10="","",_tag_month_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="18" t="str">
+      <c r="J13" s="17" t="str">
         <f>IF(_tag_month_all!I10="","",_tag_month_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="27" t="str">
+      <c r="K13" s="26" t="str">
         <f>IF(_tag_month_all!J10="","",_tag_month_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="18" t="str">
+      <c r="L13" s="17" t="str">
         <f>IF(_tag_month_all!K10="","",_tag_month_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="28" t="str">
+      <c r="M13" s="27" t="str">
         <f>IF(_tag_month_all!L10="","",_tag_month_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="29" t="str">
+      <c r="N13" s="28" t="str">
         <f>IF(_tag_month_all!M10="","",_tag_month_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="30" t="str">
+      <c r="O13" s="29" t="str">
         <f>IF(_tag_month_all!N10="","",_tag_month_all!N10)</f>
         <v/>
       </c>
-      <c r="P13" s="30" t="str">
+      <c r="P13" s="29" t="str">
         <f>IF(_tag_month_all!O10="","",_tag_month_all!O10)</f>
         <v/>
       </c>
-      <c r="Q13" s="30" t="str">
+      <c r="Q13" s="29" t="str">
         <f>IF(_tag_month_all!P10="","",_tag_month_all!P10)</f>
         <v/>
       </c>
-      <c r="R13" s="35" t="str">
+      <c r="R13" s="34" t="str">
         <f>IF(_tag_month_all!Q10="","",_tag_month_all!Q10)</f>
         <v/>
       </c>
-      <c r="S13" s="35" t="str">
+      <c r="S13" s="34" t="str">
         <f>IF(_tag_month_all!R10="","",_tag_month_all!R10)</f>
         <v/>
       </c>
-      <c r="T13" s="35" t="str">
+      <c r="T13" s="34" t="str">
         <f>IF(_tag_month_all!S10="","",_tag_month_all!S10)</f>
         <v/>
       </c>
-      <c r="U13" s="35" t="str">
+      <c r="U13" s="34" t="str">
         <f>IF(_tag_month_all!T10="","",_tag_month_all!T10)</f>
         <v/>
       </c>
-      <c r="V13" s="29" t="str">
+      <c r="V13" s="28" t="str">
         <f>IF(_tag_month_all!U10="","",_tag_month_all!U10)</f>
         <v/>
       </c>
-      <c r="W13" s="30" t="str">
+      <c r="W13" s="29" t="str">
         <f>IF(_tag_month_all!V10="","",_tag_month_all!V10)</f>
         <v/>
       </c>
-      <c r="X13" s="30" t="str">
+      <c r="X13" s="29" t="str">
         <f>IF(_tag_month_all!W10="","",_tag_month_all!W10)</f>
         <v/>
       </c>
-      <c r="Y13" s="30" t="str">
+      <c r="Y13" s="29" t="str">
         <f>IF(_tag_month_all!X10="","",_tag_month_all!X10)</f>
         <v/>
       </c>
-      <c r="Z13" s="30" t="str">
+      <c r="Z13" s="29" t="str">
         <f>IF(_tag_month_all!Y10="","",_tag_month_all!Y10)</f>
         <v/>
       </c>
-      <c r="AA13" s="30" t="str">
+      <c r="AA13" s="29" t="str">
         <f>IF(_tag_month_all!Z10="","",_tag_month_all!Z10)</f>
         <v/>
       </c>
-      <c r="AB13" s="30" t="str">
+      <c r="AB13" s="29" t="str">
         <f>IF(_tag_month_all!AA10="","",_tag_month_all!AA10)</f>
         <v/>
       </c>
-      <c r="AC13" s="30" t="str">
+      <c r="AC13" s="29" t="str">
         <f>IF(_tag_month_all!AB10="","",_tag_month_all!AB10)</f>
         <v/>
       </c>
-      <c r="AD13" s="17" t="str">
+      <c r="AD13" s="29" t="str">
         <f>IF(_tag_month_all!AC10="","",_tag_month_all!AC10)</f>
         <v/>
       </c>
-      <c r="AE13" s="17" t="str">
+      <c r="AE13" s="16" t="str">
         <f>IF(_tag_month_all!AD10="","",_tag_month_all!AD10)</f>
         <v/>
       </c>
-      <c r="AF13" s="17" t="str">
+      <c r="AF13" s="16" t="str">
         <f>IF(_tag_month_all!AE10="","",_tag_month_all!AE10)</f>
         <v/>
       </c>
-      <c r="AG13" s="17" t="str">
+      <c r="AG13" s="29" t="str">
         <f>IF(_tag_month_all!AF10="","",_tag_month_all!AF10)</f>
         <v/>
       </c>
@@ -2879,145 +2961,148 @@
         <f>IF(_tag_month_all!AG10="","",_tag_month_all!AG10)</f>
         <v/>
       </c>
-      <c r="AI13" s="29" t="str">
+      <c r="AI13" s="28" t="str">
         <f>IF(_tag_month_all!AH10="","",_tag_month_all!AH10)</f>
         <v/>
       </c>
-      <c r="AJ13" s="38" t="str">
+      <c r="AJ13" s="28" t="str">
         <f>IF(_tag_month_all!AI10="","",_tag_month_all!AI10)</f>
         <v/>
       </c>
-      <c r="AK13" s="8"/>
-    </row>
-    <row r="14" spans="1:37" ht="14.25">
-      <c r="A14" s="13">
+      <c r="AK13" s="37" t="str">
+        <f>IF(_tag_month_all!AJ10="","",_tag_month_all!AJ10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="12">
         <v>10</v>
       </c>
-      <c r="B14" s="16" t="str">
+      <c r="B14" s="15" t="str">
         <f>IF(_tag_month_all!A11="","",_tag_month_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="16" t="str">
+      <c r="C14" s="15" t="str">
         <f>IF(_tag_month_all!B11="","",_tag_month_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="16" t="str">
         <f>IF(_tag_month_all!C11="","",_tag_month_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="18" t="str">
+      <c r="E14" s="17" t="str">
         <f>IF(_tag_month_all!D11="","",_tag_month_all!D11)</f>
         <v/>
       </c>
-      <c r="F14" s="19" t="str">
+      <c r="F14" s="18" t="str">
         <f>IF(_tag_month_all!E11="","",_tag_month_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="20" t="str">
+      <c r="G14" s="19" t="str">
         <f>IF(_tag_month_all!F11="","",_tag_month_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="21" t="str">
+      <c r="H14" s="20" t="str">
         <f>IF(_tag_month_all!G11="","",_tag_month_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="18" t="str">
+      <c r="I14" s="17" t="str">
         <f>IF(_tag_month_all!H11="","",_tag_month_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="18" t="str">
+      <c r="J14" s="17" t="str">
         <f>IF(_tag_month_all!I11="","",_tag_month_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="27" t="str">
+      <c r="K14" s="26" t="str">
         <f>IF(_tag_month_all!J11="","",_tag_month_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="18" t="str">
+      <c r="L14" s="17" t="str">
         <f>IF(_tag_month_all!K11="","",_tag_month_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="28" t="str">
+      <c r="M14" s="27" t="str">
         <f>IF(_tag_month_all!L11="","",_tag_month_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="29" t="str">
+      <c r="N14" s="28" t="str">
         <f>IF(_tag_month_all!M11="","",_tag_month_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="30" t="str">
+      <c r="O14" s="29" t="str">
         <f>IF(_tag_month_all!N11="","",_tag_month_all!N11)</f>
         <v/>
       </c>
-      <c r="P14" s="30" t="str">
+      <c r="P14" s="29" t="str">
         <f>IF(_tag_month_all!O11="","",_tag_month_all!O11)</f>
         <v/>
       </c>
-      <c r="Q14" s="30" t="str">
+      <c r="Q14" s="29" t="str">
         <f>IF(_tag_month_all!P11="","",_tag_month_all!P11)</f>
         <v/>
       </c>
-      <c r="R14" s="35" t="str">
+      <c r="R14" s="34" t="str">
         <f>IF(_tag_month_all!Q11="","",_tag_month_all!Q11)</f>
         <v/>
       </c>
-      <c r="S14" s="35" t="str">
+      <c r="S14" s="34" t="str">
         <f>IF(_tag_month_all!R11="","",_tag_month_all!R11)</f>
         <v/>
       </c>
-      <c r="T14" s="35" t="str">
+      <c r="T14" s="34" t="str">
         <f>IF(_tag_month_all!S11="","",_tag_month_all!S11)</f>
         <v/>
       </c>
-      <c r="U14" s="35" t="str">
+      <c r="U14" s="34" t="str">
         <f>IF(_tag_month_all!T11="","",_tag_month_all!T11)</f>
         <v/>
       </c>
-      <c r="V14" s="29" t="str">
+      <c r="V14" s="28" t="str">
         <f>IF(_tag_month_all!U11="","",_tag_month_all!U11)</f>
         <v/>
       </c>
-      <c r="W14" s="30" t="str">
+      <c r="W14" s="29" t="str">
         <f>IF(_tag_month_all!V11="","",_tag_month_all!V11)</f>
         <v/>
       </c>
-      <c r="X14" s="30" t="str">
+      <c r="X14" s="29" t="str">
         <f>IF(_tag_month_all!W11="","",_tag_month_all!W11)</f>
         <v/>
       </c>
-      <c r="Y14" s="30" t="str">
+      <c r="Y14" s="29" t="str">
         <f>IF(_tag_month_all!X11="","",_tag_month_all!X11)</f>
         <v/>
       </c>
-      <c r="Z14" s="30" t="str">
+      <c r="Z14" s="29" t="str">
         <f>IF(_tag_month_all!Y11="","",_tag_month_all!Y11)</f>
         <v/>
       </c>
-      <c r="AA14" s="30" t="str">
+      <c r="AA14" s="29" t="str">
         <f>IF(_tag_month_all!Z11="","",_tag_month_all!Z11)</f>
         <v/>
       </c>
-      <c r="AB14" s="30" t="str">
+      <c r="AB14" s="29" t="str">
         <f>IF(_tag_month_all!AA11="","",_tag_month_all!AA11)</f>
         <v/>
       </c>
-      <c r="AC14" s="30" t="str">
+      <c r="AC14" s="29" t="str">
         <f>IF(_tag_month_all!AB11="","",_tag_month_all!AB11)</f>
         <v/>
       </c>
-      <c r="AD14" s="17" t="str">
+      <c r="AD14" s="29" t="str">
         <f>IF(_tag_month_all!AC11="","",_tag_month_all!AC11)</f>
         <v/>
       </c>
-      <c r="AE14" s="17" t="str">
+      <c r="AE14" s="16" t="str">
         <f>IF(_tag_month_all!AD11="","",_tag_month_all!AD11)</f>
         <v/>
       </c>
-      <c r="AF14" s="17" t="str">
+      <c r="AF14" s="16" t="str">
         <f>IF(_tag_month_all!AE11="","",_tag_month_all!AE11)</f>
         <v/>
       </c>
-      <c r="AG14" s="17" t="str">
+      <c r="AG14" s="29" t="str">
         <f>IF(_tag_month_all!AF11="","",_tag_month_all!AF11)</f>
         <v/>
       </c>
@@ -3025,145 +3110,148 @@
         <f>IF(_tag_month_all!AG11="","",_tag_month_all!AG11)</f>
         <v/>
       </c>
-      <c r="AI14" s="29" t="str">
+      <c r="AI14" s="28" t="str">
         <f>IF(_tag_month_all!AH11="","",_tag_month_all!AH11)</f>
         <v/>
       </c>
-      <c r="AJ14" s="38" t="str">
+      <c r="AJ14" s="28" t="str">
         <f>IF(_tag_month_all!AI11="","",_tag_month_all!AI11)</f>
         <v/>
       </c>
-      <c r="AK14" s="8"/>
-    </row>
-    <row r="15" spans="1:37" ht="14.25">
-      <c r="A15" s="13">
+      <c r="AK14" s="37" t="str">
+        <f>IF(_tag_month_all!AJ11="","",_tag_month_all!AJ11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="12">
         <v>11</v>
       </c>
-      <c r="B15" s="16" t="str">
+      <c r="B15" s="15" t="str">
         <f>IF(_tag_month_all!A12="","",_tag_month_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="15" t="str">
         <f>IF(_tag_month_all!B12="","",_tag_month_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="17" t="str">
+      <c r="D15" s="16" t="str">
         <f>IF(_tag_month_all!C12="","",_tag_month_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="18" t="str">
+      <c r="E15" s="17" t="str">
         <f>IF(_tag_month_all!D12="","",_tag_month_all!D12)</f>
         <v/>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="F15" s="18" t="str">
         <f>IF(_tag_month_all!E12="","",_tag_month_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="19" t="str">
         <f>IF(_tag_month_all!F12="","",_tag_month_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="21" t="str">
+      <c r="H15" s="20" t="str">
         <f>IF(_tag_month_all!G12="","",_tag_month_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="18" t="str">
+      <c r="I15" s="17" t="str">
         <f>IF(_tag_month_all!H12="","",_tag_month_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="18" t="str">
+      <c r="J15" s="17" t="str">
         <f>IF(_tag_month_all!I12="","",_tag_month_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="27" t="str">
+      <c r="K15" s="26" t="str">
         <f>IF(_tag_month_all!J12="","",_tag_month_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="18" t="str">
+      <c r="L15" s="17" t="str">
         <f>IF(_tag_month_all!K12="","",_tag_month_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="28" t="str">
+      <c r="M15" s="27" t="str">
         <f>IF(_tag_month_all!L12="","",_tag_month_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="29" t="str">
+      <c r="N15" s="28" t="str">
         <f>IF(_tag_month_all!M12="","",_tag_month_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="30" t="str">
+      <c r="O15" s="29" t="str">
         <f>IF(_tag_month_all!N12="","",_tag_month_all!N12)</f>
         <v/>
       </c>
-      <c r="P15" s="30" t="str">
+      <c r="P15" s="29" t="str">
         <f>IF(_tag_month_all!O12="","",_tag_month_all!O12)</f>
         <v/>
       </c>
-      <c r="Q15" s="30" t="str">
+      <c r="Q15" s="29" t="str">
         <f>IF(_tag_month_all!P12="","",_tag_month_all!P12)</f>
         <v/>
       </c>
-      <c r="R15" s="35" t="str">
+      <c r="R15" s="34" t="str">
         <f>IF(_tag_month_all!Q12="","",_tag_month_all!Q12)</f>
         <v/>
       </c>
-      <c r="S15" s="35" t="str">
+      <c r="S15" s="34" t="str">
         <f>IF(_tag_month_all!R12="","",_tag_month_all!R12)</f>
         <v/>
       </c>
-      <c r="T15" s="35" t="str">
+      <c r="T15" s="34" t="str">
         <f>IF(_tag_month_all!S12="","",_tag_month_all!S12)</f>
         <v/>
       </c>
-      <c r="U15" s="35" t="str">
+      <c r="U15" s="34" t="str">
         <f>IF(_tag_month_all!T12="","",_tag_month_all!T12)</f>
         <v/>
       </c>
-      <c r="V15" s="29" t="str">
+      <c r="V15" s="28" t="str">
         <f>IF(_tag_month_all!U12="","",_tag_month_all!U12)</f>
         <v/>
       </c>
-      <c r="W15" s="30" t="str">
+      <c r="W15" s="29" t="str">
         <f>IF(_tag_month_all!V12="","",_tag_month_all!V12)</f>
         <v/>
       </c>
-      <c r="X15" s="30" t="str">
+      <c r="X15" s="29" t="str">
         <f>IF(_tag_month_all!W12="","",_tag_month_all!W12)</f>
         <v/>
       </c>
-      <c r="Y15" s="30" t="str">
+      <c r="Y15" s="29" t="str">
         <f>IF(_tag_month_all!X12="","",_tag_month_all!X12)</f>
         <v/>
       </c>
-      <c r="Z15" s="30" t="str">
+      <c r="Z15" s="29" t="str">
         <f>IF(_tag_month_all!Y12="","",_tag_month_all!Y12)</f>
         <v/>
       </c>
-      <c r="AA15" s="30" t="str">
+      <c r="AA15" s="29" t="str">
         <f>IF(_tag_month_all!Z12="","",_tag_month_all!Z12)</f>
         <v/>
       </c>
-      <c r="AB15" s="30" t="str">
+      <c r="AB15" s="29" t="str">
         <f>IF(_tag_month_all!AA12="","",_tag_month_all!AA12)</f>
         <v/>
       </c>
-      <c r="AC15" s="30" t="str">
+      <c r="AC15" s="29" t="str">
         <f>IF(_tag_month_all!AB12="","",_tag_month_all!AB12)</f>
         <v/>
       </c>
-      <c r="AD15" s="17" t="str">
+      <c r="AD15" s="29" t="str">
         <f>IF(_tag_month_all!AC12="","",_tag_month_all!AC12)</f>
         <v/>
       </c>
-      <c r="AE15" s="17" t="str">
+      <c r="AE15" s="16" t="str">
         <f>IF(_tag_month_all!AD12="","",_tag_month_all!AD12)</f>
         <v/>
       </c>
-      <c r="AF15" s="17" t="str">
+      <c r="AF15" s="16" t="str">
         <f>IF(_tag_month_all!AE12="","",_tag_month_all!AE12)</f>
         <v/>
       </c>
-      <c r="AG15" s="17" t="str">
+      <c r="AG15" s="29" t="str">
         <f>IF(_tag_month_all!AF12="","",_tag_month_all!AF12)</f>
         <v/>
       </c>
@@ -3171,145 +3259,145 @@
         <f>IF(_tag_month_all!AG12="","",_tag_month_all!AG12)</f>
         <v/>
       </c>
-      <c r="AI15" s="29" t="str">
+      <c r="AI15" s="28" t="str">
         <f>IF(_tag_month_all!AH12="","",_tag_month_all!AH12)</f>
         <v/>
       </c>
-      <c r="AJ15" s="38" t="str">
+      <c r="AJ15" s="28" t="str">
         <f>IF(_tag_month_all!AI12="","",_tag_month_all!AI12)</f>
         <v/>
       </c>
-      <c r="AK15" s="8"/>
-    </row>
-    <row r="16" spans="1:37" ht="14.25">
-      <c r="A16" s="13">
+      <c r="AK15" s="37" t="str">
+        <f>IF(_tag_month_all!AJ12="","",_tag_month_all!AJ12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="12">
         <v>12</v>
       </c>
-      <c r="B16" s="16" t="str">
+      <c r="B16" s="15" t="str">
         <f>IF(_tag_month_all!A13="","",_tag_month_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="16" t="str">
+      <c r="C16" s="15" t="str">
         <f>IF(_tag_month_all!B13="","",_tag_month_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="17" t="str">
+      <c r="D16" s="16" t="str">
         <f>IF(_tag_month_all!C13="","",_tag_month_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="18" t="str">
+      <c r="E16" s="17" t="str">
         <f>IF(_tag_month_all!D13="","",_tag_month_all!D13)</f>
         <v/>
       </c>
-      <c r="F16" s="19" t="str">
+      <c r="F16" s="18" t="str">
         <f>IF(_tag_month_all!E13="","",_tag_month_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="20" t="str">
-        <f>IF(_tag_month_all!F13="","",_tag_month_all!F13)</f>
-        <v/>
-      </c>
-      <c r="H16" s="21" t="str">
+      <c r="G16" s="19"/>
+      <c r="H16" s="20" t="str">
         <f>IF(_tag_month_all!G13="","",_tag_month_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="18" t="str">
+      <c r="I16" s="17" t="str">
         <f>IF(_tag_month_all!H13="","",_tag_month_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="18" t="str">
+      <c r="J16" s="17" t="str">
         <f>IF(_tag_month_all!I13="","",_tag_month_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="27" t="str">
+      <c r="K16" s="26" t="str">
         <f>IF(_tag_month_all!J13="","",_tag_month_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="18" t="str">
+      <c r="L16" s="17" t="str">
         <f>IF(_tag_month_all!K13="","",_tag_month_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="28" t="str">
+      <c r="M16" s="27" t="str">
         <f>IF(_tag_month_all!L13="","",_tag_month_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="29" t="str">
+      <c r="N16" s="28" t="str">
         <f>IF(_tag_month_all!M13="","",_tag_month_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="30" t="str">
+      <c r="O16" s="29" t="str">
         <f>IF(_tag_month_all!N13="","",_tag_month_all!N13)</f>
         <v/>
       </c>
-      <c r="P16" s="30" t="str">
+      <c r="P16" s="29" t="str">
         <f>IF(_tag_month_all!O13="","",_tag_month_all!O13)</f>
         <v/>
       </c>
-      <c r="Q16" s="30" t="str">
+      <c r="Q16" s="29" t="str">
         <f>IF(_tag_month_all!P13="","",_tag_month_all!P13)</f>
         <v/>
       </c>
-      <c r="R16" s="35" t="str">
+      <c r="R16" s="34" t="str">
         <f>IF(_tag_month_all!Q13="","",_tag_month_all!Q13)</f>
         <v/>
       </c>
-      <c r="S16" s="35" t="str">
+      <c r="S16" s="34" t="str">
         <f>IF(_tag_month_all!R13="","",_tag_month_all!R13)</f>
         <v/>
       </c>
-      <c r="T16" s="35" t="str">
+      <c r="T16" s="34" t="str">
         <f>IF(_tag_month_all!S13="","",_tag_month_all!S13)</f>
         <v/>
       </c>
-      <c r="U16" s="35" t="str">
+      <c r="U16" s="34" t="str">
         <f>IF(_tag_month_all!T13="","",_tag_month_all!T13)</f>
         <v/>
       </c>
-      <c r="V16" s="29" t="str">
+      <c r="V16" s="28" t="str">
         <f>IF(_tag_month_all!U13="","",_tag_month_all!U13)</f>
         <v/>
       </c>
-      <c r="W16" s="30" t="str">
+      <c r="W16" s="29" t="str">
         <f>IF(_tag_month_all!V13="","",_tag_month_all!V13)</f>
         <v/>
       </c>
-      <c r="X16" s="30" t="str">
+      <c r="X16" s="29" t="str">
         <f>IF(_tag_month_all!W13="","",_tag_month_all!W13)</f>
         <v/>
       </c>
-      <c r="Y16" s="30" t="str">
+      <c r="Y16" s="29" t="str">
         <f>IF(_tag_month_all!X13="","",_tag_month_all!X13)</f>
         <v/>
       </c>
-      <c r="Z16" s="30" t="str">
+      <c r="Z16" s="29" t="str">
         <f>IF(_tag_month_all!Y13="","",_tag_month_all!Y13)</f>
         <v/>
       </c>
-      <c r="AA16" s="30" t="str">
+      <c r="AA16" s="29" t="str">
         <f>IF(_tag_month_all!Z13="","",_tag_month_all!Z13)</f>
         <v/>
       </c>
-      <c r="AB16" s="30" t="str">
+      <c r="AB16" s="29" t="str">
         <f>IF(_tag_month_all!AA13="","",_tag_month_all!AA13)</f>
         <v/>
       </c>
-      <c r="AC16" s="30" t="str">
+      <c r="AC16" s="29" t="str">
         <f>IF(_tag_month_all!AB13="","",_tag_month_all!AB13)</f>
         <v/>
       </c>
-      <c r="AD16" s="17" t="str">
+      <c r="AD16" s="29" t="str">
         <f>IF(_tag_month_all!AC13="","",_tag_month_all!AC13)</f>
         <v/>
       </c>
-      <c r="AE16" s="17" t="str">
+      <c r="AE16" s="16" t="str">
         <f>IF(_tag_month_all!AD13="","",_tag_month_all!AD13)</f>
         <v/>
       </c>
-      <c r="AF16" s="17" t="str">
+      <c r="AF16" s="16" t="str">
         <f>IF(_tag_month_all!AE13="","",_tag_month_all!AE13)</f>
         <v/>
       </c>
-      <c r="AG16" s="17" t="str">
+      <c r="AG16" s="29" t="str">
         <f>IF(_tag_month_all!AF13="","",_tag_month_all!AF13)</f>
         <v/>
       </c>
@@ -3317,145 +3405,148 @@
         <f>IF(_tag_month_all!AG13="","",_tag_month_all!AG13)</f>
         <v/>
       </c>
-      <c r="AI16" s="29" t="str">
+      <c r="AI16" s="28" t="str">
         <f>IF(_tag_month_all!AH13="","",_tag_month_all!AH13)</f>
         <v/>
       </c>
-      <c r="AJ16" s="38" t="str">
+      <c r="AJ16" s="28" t="str">
         <f>IF(_tag_month_all!AI13="","",_tag_month_all!AI13)</f>
         <v/>
       </c>
-      <c r="AK16" s="8"/>
-    </row>
-    <row r="17" spans="1:37" ht="14.25">
-      <c r="A17" s="13">
+      <c r="AK16" s="37" t="str">
+        <f>IF(_tag_month_all!AJ13="","",_tag_month_all!AJ13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" s="12">
         <v>13</v>
       </c>
-      <c r="B17" s="16" t="str">
+      <c r="B17" s="15" t="str">
         <f>IF(_tag_month_all!A14="","",_tag_month_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="15" t="str">
         <f>IF(_tag_month_all!B14="","",_tag_month_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="17" t="str">
+      <c r="D17" s="16" t="str">
         <f>IF(_tag_month_all!C14="","",_tag_month_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="18" t="str">
+      <c r="E17" s="17" t="str">
         <f>IF(_tag_month_all!D14="","",_tag_month_all!D14)</f>
         <v/>
       </c>
-      <c r="F17" s="19" t="str">
+      <c r="F17" s="18" t="str">
         <f>IF(_tag_month_all!E14="","",_tag_month_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="20" t="str">
+      <c r="G17" s="19" t="str">
         <f>IF(_tag_month_all!F14="","",_tag_month_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="21" t="str">
+      <c r="H17" s="20" t="str">
         <f>IF(_tag_month_all!G14="","",_tag_month_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="18" t="str">
+      <c r="I17" s="17" t="str">
         <f>IF(_tag_month_all!H14="","",_tag_month_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="18" t="str">
+      <c r="J17" s="17" t="str">
         <f>IF(_tag_month_all!I14="","",_tag_month_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="27" t="str">
+      <c r="K17" s="26" t="str">
         <f>IF(_tag_month_all!J14="","",_tag_month_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="18" t="str">
+      <c r="L17" s="17" t="str">
         <f>IF(_tag_month_all!K14="","",_tag_month_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="28" t="str">
+      <c r="M17" s="27" t="str">
         <f>IF(_tag_month_all!L14="","",_tag_month_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="29" t="str">
+      <c r="N17" s="28" t="str">
         <f>IF(_tag_month_all!M14="","",_tag_month_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="30" t="str">
+      <c r="O17" s="29" t="str">
         <f>IF(_tag_month_all!N14="","",_tag_month_all!N14)</f>
         <v/>
       </c>
-      <c r="P17" s="30" t="str">
+      <c r="P17" s="29" t="str">
         <f>IF(_tag_month_all!O14="","",_tag_month_all!O14)</f>
         <v/>
       </c>
-      <c r="Q17" s="30" t="str">
+      <c r="Q17" s="29" t="str">
         <f>IF(_tag_month_all!P14="","",_tag_month_all!P14)</f>
         <v/>
       </c>
-      <c r="R17" s="35" t="str">
+      <c r="R17" s="34" t="str">
         <f>IF(_tag_month_all!Q14="","",_tag_month_all!Q14)</f>
         <v/>
       </c>
-      <c r="S17" s="35" t="str">
+      <c r="S17" s="34" t="str">
         <f>IF(_tag_month_all!R14="","",_tag_month_all!R14)</f>
         <v/>
       </c>
-      <c r="T17" s="35" t="str">
+      <c r="T17" s="34" t="str">
         <f>IF(_tag_month_all!S14="","",_tag_month_all!S14)</f>
         <v/>
       </c>
-      <c r="U17" s="35" t="str">
+      <c r="U17" s="34" t="str">
         <f>IF(_tag_month_all!T14="","",_tag_month_all!T14)</f>
         <v/>
       </c>
-      <c r="V17" s="29" t="str">
+      <c r="V17" s="28" t="str">
         <f>IF(_tag_month_all!U14="","",_tag_month_all!U14)</f>
         <v/>
       </c>
-      <c r="W17" s="30" t="str">
+      <c r="W17" s="29" t="str">
         <f>IF(_tag_month_all!V14="","",_tag_month_all!V14)</f>
         <v/>
       </c>
-      <c r="X17" s="30" t="str">
+      <c r="X17" s="29" t="str">
         <f>IF(_tag_month_all!W14="","",_tag_month_all!W14)</f>
         <v/>
       </c>
-      <c r="Y17" s="30" t="str">
+      <c r="Y17" s="29" t="str">
         <f>IF(_tag_month_all!X14="","",_tag_month_all!X14)</f>
         <v/>
       </c>
-      <c r="Z17" s="30" t="str">
+      <c r="Z17" s="29" t="str">
         <f>IF(_tag_month_all!Y14="","",_tag_month_all!Y14)</f>
         <v/>
       </c>
-      <c r="AA17" s="30" t="str">
+      <c r="AA17" s="29" t="str">
         <f>IF(_tag_month_all!Z14="","",_tag_month_all!Z14)</f>
         <v/>
       </c>
-      <c r="AB17" s="30" t="str">
+      <c r="AB17" s="29" t="str">
         <f>IF(_tag_month_all!AA14="","",_tag_month_all!AA14)</f>
         <v/>
       </c>
-      <c r="AC17" s="30" t="str">
+      <c r="AC17" s="29" t="str">
         <f>IF(_tag_month_all!AB14="","",_tag_month_all!AB14)</f>
         <v/>
       </c>
-      <c r="AD17" s="17" t="str">
+      <c r="AD17" s="29" t="str">
         <f>IF(_tag_month_all!AC14="","",_tag_month_all!AC14)</f>
         <v/>
       </c>
-      <c r="AE17" s="17" t="str">
+      <c r="AE17" s="16" t="str">
         <f>IF(_tag_month_all!AD14="","",_tag_month_all!AD14)</f>
         <v/>
       </c>
-      <c r="AF17" s="17" t="str">
+      <c r="AF17" s="16" t="str">
         <f>IF(_tag_month_all!AE14="","",_tag_month_all!AE14)</f>
         <v/>
       </c>
-      <c r="AG17" s="17" t="str">
+      <c r="AG17" s="29" t="str">
         <f>IF(_tag_month_all!AF14="","",_tag_month_all!AF14)</f>
         <v/>
       </c>
@@ -3463,145 +3554,148 @@
         <f>IF(_tag_month_all!AG14="","",_tag_month_all!AG14)</f>
         <v/>
       </c>
-      <c r="AI17" s="29" t="str">
+      <c r="AI17" s="28" t="str">
         <f>IF(_tag_month_all!AH14="","",_tag_month_all!AH14)</f>
         <v/>
       </c>
-      <c r="AJ17" s="38" t="str">
+      <c r="AJ17" s="28" t="str">
         <f>IF(_tag_month_all!AI14="","",_tag_month_all!AI14)</f>
         <v/>
       </c>
-      <c r="AK17" s="8"/>
-    </row>
-    <row r="18" spans="1:37" ht="14.25">
-      <c r="A18" s="13">
+      <c r="AK17" s="37" t="str">
+        <f>IF(_tag_month_all!AJ14="","",_tag_month_all!AJ14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" s="12">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="str">
+      <c r="B18" s="15" t="str">
         <f>IF(_tag_month_all!A15="","",_tag_month_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="16" t="str">
+      <c r="C18" s="15" t="str">
         <f>IF(_tag_month_all!B15="","",_tag_month_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="17" t="str">
+      <c r="D18" s="16" t="str">
         <f>IF(_tag_month_all!C15="","",_tag_month_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="18" t="str">
+      <c r="E18" s="17" t="str">
         <f>IF(_tag_month_all!D15="","",_tag_month_all!D15)</f>
         <v/>
       </c>
-      <c r="F18" s="19" t="str">
+      <c r="F18" s="18" t="str">
         <f>IF(_tag_month_all!E15="","",_tag_month_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="20" t="str">
+      <c r="G18" s="19" t="str">
         <f>IF(_tag_month_all!F15="","",_tag_month_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="21" t="str">
+      <c r="H18" s="20" t="str">
         <f>IF(_tag_month_all!G15="","",_tag_month_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="18" t="str">
+      <c r="I18" s="17" t="str">
         <f>IF(_tag_month_all!H15="","",_tag_month_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="18" t="str">
+      <c r="J18" s="17" t="str">
         <f>IF(_tag_month_all!I15="","",_tag_month_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="27" t="str">
+      <c r="K18" s="26" t="str">
         <f>IF(_tag_month_all!J15="","",_tag_month_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="18" t="str">
+      <c r="L18" s="17" t="str">
         <f>IF(_tag_month_all!K15="","",_tag_month_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="28" t="str">
+      <c r="M18" s="27" t="str">
         <f>IF(_tag_month_all!L15="","",_tag_month_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="29" t="str">
+      <c r="N18" s="28" t="str">
         <f>IF(_tag_month_all!M15="","",_tag_month_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="30" t="str">
+      <c r="O18" s="29" t="str">
         <f>IF(_tag_month_all!N15="","",_tag_month_all!N15)</f>
         <v/>
       </c>
-      <c r="P18" s="30" t="str">
+      <c r="P18" s="29" t="str">
         <f>IF(_tag_month_all!O15="","",_tag_month_all!O15)</f>
         <v/>
       </c>
-      <c r="Q18" s="30" t="str">
+      <c r="Q18" s="29" t="str">
         <f>IF(_tag_month_all!P15="","",_tag_month_all!P15)</f>
         <v/>
       </c>
-      <c r="R18" s="35" t="str">
+      <c r="R18" s="34" t="str">
         <f>IF(_tag_month_all!Q15="","",_tag_month_all!Q15)</f>
         <v/>
       </c>
-      <c r="S18" s="35" t="str">
+      <c r="S18" s="34" t="str">
         <f>IF(_tag_month_all!R15="","",_tag_month_all!R15)</f>
         <v/>
       </c>
-      <c r="T18" s="35" t="str">
+      <c r="T18" s="34" t="str">
         <f>IF(_tag_month_all!S15="","",_tag_month_all!S15)</f>
         <v/>
       </c>
-      <c r="U18" s="35" t="str">
+      <c r="U18" s="34" t="str">
         <f>IF(_tag_month_all!T15="","",_tag_month_all!T15)</f>
         <v/>
       </c>
-      <c r="V18" s="29" t="str">
+      <c r="V18" s="28" t="str">
         <f>IF(_tag_month_all!U15="","",_tag_month_all!U15)</f>
         <v/>
       </c>
-      <c r="W18" s="30" t="str">
+      <c r="W18" s="29" t="str">
         <f>IF(_tag_month_all!V15="","",_tag_month_all!V15)</f>
         <v/>
       </c>
-      <c r="X18" s="30" t="str">
+      <c r="X18" s="29" t="str">
         <f>IF(_tag_month_all!W15="","",_tag_month_all!W15)</f>
         <v/>
       </c>
-      <c r="Y18" s="30" t="str">
+      <c r="Y18" s="29" t="str">
         <f>IF(_tag_month_all!X15="","",_tag_month_all!X15)</f>
         <v/>
       </c>
-      <c r="Z18" s="30" t="str">
+      <c r="Z18" s="29" t="str">
         <f>IF(_tag_month_all!Y15="","",_tag_month_all!Y15)</f>
         <v/>
       </c>
-      <c r="AA18" s="30" t="str">
+      <c r="AA18" s="29" t="str">
         <f>IF(_tag_month_all!Z15="","",_tag_month_all!Z15)</f>
         <v/>
       </c>
-      <c r="AB18" s="30" t="str">
+      <c r="AB18" s="29" t="str">
         <f>IF(_tag_month_all!AA15="","",_tag_month_all!AA15)</f>
         <v/>
       </c>
-      <c r="AC18" s="30" t="str">
+      <c r="AC18" s="29" t="str">
         <f>IF(_tag_month_all!AB15="","",_tag_month_all!AB15)</f>
         <v/>
       </c>
-      <c r="AD18" s="17" t="str">
+      <c r="AD18" s="29" t="str">
         <f>IF(_tag_month_all!AC15="","",_tag_month_all!AC15)</f>
         <v/>
       </c>
-      <c r="AE18" s="17" t="str">
+      <c r="AE18" s="16" t="str">
         <f>IF(_tag_month_all!AD15="","",_tag_month_all!AD15)</f>
         <v/>
       </c>
-      <c r="AF18" s="17" t="str">
+      <c r="AF18" s="16" t="str">
         <f>IF(_tag_month_all!AE15="","",_tag_month_all!AE15)</f>
         <v/>
       </c>
-      <c r="AG18" s="17" t="str">
+      <c r="AG18" s="29" t="str">
         <f>IF(_tag_month_all!AF15="","",_tag_month_all!AF15)</f>
         <v/>
       </c>
@@ -3609,145 +3703,148 @@
         <f>IF(_tag_month_all!AG15="","",_tag_month_all!AG15)</f>
         <v/>
       </c>
-      <c r="AI18" s="29" t="str">
+      <c r="AI18" s="28" t="str">
         <f>IF(_tag_month_all!AH15="","",_tag_month_all!AH15)</f>
         <v/>
       </c>
-      <c r="AJ18" s="38" t="str">
+      <c r="AJ18" s="28" t="str">
         <f>IF(_tag_month_all!AI15="","",_tag_month_all!AI15)</f>
         <v/>
       </c>
-      <c r="AK18" s="8"/>
-    </row>
-    <row r="19" spans="1:37" ht="14.25">
-      <c r="A19" s="13">
+      <c r="AK18" s="37" t="str">
+        <f>IF(_tag_month_all!AJ15="","",_tag_month_all!AJ15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" s="12">
         <v>15</v>
       </c>
-      <c r="B19" s="16" t="str">
+      <c r="B19" s="15" t="str">
         <f>IF(_tag_month_all!A16="","",_tag_month_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="15" t="str">
         <f>IF(_tag_month_all!B16="","",_tag_month_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="17" t="str">
+      <c r="D19" s="16" t="str">
         <f>IF(_tag_month_all!C16="","",_tag_month_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="18" t="str">
+      <c r="E19" s="17" t="str">
         <f>IF(_tag_month_all!D16="","",_tag_month_all!D16)</f>
         <v/>
       </c>
-      <c r="F19" s="19" t="str">
+      <c r="F19" s="18" t="str">
         <f>IF(_tag_month_all!E16="","",_tag_month_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="20" t="str">
+      <c r="G19" s="19" t="str">
         <f>IF(_tag_month_all!F16="","",_tag_month_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="21" t="str">
+      <c r="H19" s="20" t="str">
         <f>IF(_tag_month_all!G16="","",_tag_month_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="18" t="str">
+      <c r="I19" s="17" t="str">
         <f>IF(_tag_month_all!H16="","",_tag_month_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="18" t="str">
+      <c r="J19" s="17" t="str">
         <f>IF(_tag_month_all!I16="","",_tag_month_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="27" t="str">
+      <c r="K19" s="26" t="str">
         <f>IF(_tag_month_all!J16="","",_tag_month_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="18" t="str">
+      <c r="L19" s="17" t="str">
         <f>IF(_tag_month_all!K16="","",_tag_month_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="28" t="str">
+      <c r="M19" s="27" t="str">
         <f>IF(_tag_month_all!L16="","",_tag_month_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="29" t="str">
+      <c r="N19" s="28" t="str">
         <f>IF(_tag_month_all!M16="","",_tag_month_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="30" t="str">
+      <c r="O19" s="29" t="str">
         <f>IF(_tag_month_all!N16="","",_tag_month_all!N16)</f>
         <v/>
       </c>
-      <c r="P19" s="30" t="str">
+      <c r="P19" s="29" t="str">
         <f>IF(_tag_month_all!O16="","",_tag_month_all!O16)</f>
         <v/>
       </c>
-      <c r="Q19" s="30" t="str">
+      <c r="Q19" s="29" t="str">
         <f>IF(_tag_month_all!P16="","",_tag_month_all!P16)</f>
         <v/>
       </c>
-      <c r="R19" s="35" t="str">
+      <c r="R19" s="34" t="str">
         <f>IF(_tag_month_all!Q16="","",_tag_month_all!Q16)</f>
         <v/>
       </c>
-      <c r="S19" s="35" t="str">
+      <c r="S19" s="34" t="str">
         <f>IF(_tag_month_all!R16="","",_tag_month_all!R16)</f>
         <v/>
       </c>
-      <c r="T19" s="35" t="str">
+      <c r="T19" s="34" t="str">
         <f>IF(_tag_month_all!S16="","",_tag_month_all!S16)</f>
         <v/>
       </c>
-      <c r="U19" s="35" t="str">
+      <c r="U19" s="34" t="str">
         <f>IF(_tag_month_all!T16="","",_tag_month_all!T16)</f>
         <v/>
       </c>
-      <c r="V19" s="29" t="str">
+      <c r="V19" s="28" t="str">
         <f>IF(_tag_month_all!U16="","",_tag_month_all!U16)</f>
         <v/>
       </c>
-      <c r="W19" s="30" t="str">
+      <c r="W19" s="29" t="str">
         <f>IF(_tag_month_all!V16="","",_tag_month_all!V16)</f>
         <v/>
       </c>
-      <c r="X19" s="30" t="str">
+      <c r="X19" s="29" t="str">
         <f>IF(_tag_month_all!W16="","",_tag_month_all!W16)</f>
         <v/>
       </c>
-      <c r="Y19" s="30" t="str">
+      <c r="Y19" s="29" t="str">
         <f>IF(_tag_month_all!X16="","",_tag_month_all!X16)</f>
         <v/>
       </c>
-      <c r="Z19" s="30" t="str">
+      <c r="Z19" s="29" t="str">
         <f>IF(_tag_month_all!Y16="","",_tag_month_all!Y16)</f>
         <v/>
       </c>
-      <c r="AA19" s="30" t="str">
+      <c r="AA19" s="29" t="str">
         <f>IF(_tag_month_all!Z16="","",_tag_month_all!Z16)</f>
         <v/>
       </c>
-      <c r="AB19" s="30" t="str">
+      <c r="AB19" s="29" t="str">
         <f>IF(_tag_month_all!AA16="","",_tag_month_all!AA16)</f>
         <v/>
       </c>
-      <c r="AC19" s="30" t="str">
+      <c r="AC19" s="29" t="str">
         <f>IF(_tag_month_all!AB16="","",_tag_month_all!AB16)</f>
         <v/>
       </c>
-      <c r="AD19" s="17" t="str">
+      <c r="AD19" s="29" t="str">
         <f>IF(_tag_month_all!AC16="","",_tag_month_all!AC16)</f>
         <v/>
       </c>
-      <c r="AE19" s="17" t="str">
+      <c r="AE19" s="16" t="str">
         <f>IF(_tag_month_all!AD16="","",_tag_month_all!AD16)</f>
         <v/>
       </c>
-      <c r="AF19" s="17" t="str">
+      <c r="AF19" s="16" t="str">
         <f>IF(_tag_month_all!AE16="","",_tag_month_all!AE16)</f>
         <v/>
       </c>
-      <c r="AG19" s="17" t="str">
+      <c r="AG19" s="29" t="str">
         <f>IF(_tag_month_all!AF16="","",_tag_month_all!AF16)</f>
         <v/>
       </c>
@@ -3755,145 +3852,148 @@
         <f>IF(_tag_month_all!AG16="","",_tag_month_all!AG16)</f>
         <v/>
       </c>
-      <c r="AI19" s="29" t="str">
+      <c r="AI19" s="28" t="str">
         <f>IF(_tag_month_all!AH16="","",_tag_month_all!AH16)</f>
         <v/>
       </c>
-      <c r="AJ19" s="38" t="str">
+      <c r="AJ19" s="28" t="str">
         <f>IF(_tag_month_all!AI16="","",_tag_month_all!AI16)</f>
         <v/>
       </c>
-      <c r="AK19" s="8"/>
-    </row>
-    <row r="20" spans="1:37" ht="14.25">
-      <c r="A20" s="13">
+      <c r="AK19" s="37" t="str">
+        <f>IF(_tag_month_all!AJ16="","",_tag_month_all!AJ16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" s="12">
         <v>16</v>
       </c>
-      <c r="B20" s="16" t="str">
+      <c r="B20" s="15" t="str">
         <f>IF(_tag_month_all!A17="","",_tag_month_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="16" t="str">
+      <c r="C20" s="15" t="str">
         <f>IF(_tag_month_all!B17="","",_tag_month_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="17" t="str">
+      <c r="D20" s="16" t="str">
         <f>IF(_tag_month_all!C17="","",_tag_month_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="18" t="str">
+      <c r="E20" s="17" t="str">
         <f>IF(_tag_month_all!D17="","",_tag_month_all!D17)</f>
         <v/>
       </c>
-      <c r="F20" s="19" t="str">
+      <c r="F20" s="18" t="str">
         <f>IF(_tag_month_all!E17="","",_tag_month_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="20" t="str">
+      <c r="G20" s="19" t="str">
         <f>IF(_tag_month_all!F17="","",_tag_month_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="21" t="str">
+      <c r="H20" s="20" t="str">
         <f>IF(_tag_month_all!G17="","",_tag_month_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="18" t="str">
+      <c r="I20" s="17" t="str">
         <f>IF(_tag_month_all!H17="","",_tag_month_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="18" t="str">
+      <c r="J20" s="17" t="str">
         <f>IF(_tag_month_all!I17="","",_tag_month_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="27" t="str">
+      <c r="K20" s="26" t="str">
         <f>IF(_tag_month_all!J17="","",_tag_month_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="18" t="str">
+      <c r="L20" s="17" t="str">
         <f>IF(_tag_month_all!K17="","",_tag_month_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="28" t="str">
+      <c r="M20" s="27" t="str">
         <f>IF(_tag_month_all!L17="","",_tag_month_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="29" t="str">
+      <c r="N20" s="28" t="str">
         <f>IF(_tag_month_all!M17="","",_tag_month_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="30" t="str">
+      <c r="O20" s="29" t="str">
         <f>IF(_tag_month_all!N17="","",_tag_month_all!N17)</f>
         <v/>
       </c>
-      <c r="P20" s="30" t="str">
+      <c r="P20" s="29" t="str">
         <f>IF(_tag_month_all!O17="","",_tag_month_all!O17)</f>
         <v/>
       </c>
-      <c r="Q20" s="30" t="str">
+      <c r="Q20" s="29" t="str">
         <f>IF(_tag_month_all!P17="","",_tag_month_all!P17)</f>
         <v/>
       </c>
-      <c r="R20" s="35" t="str">
+      <c r="R20" s="34" t="str">
         <f>IF(_tag_month_all!Q17="","",_tag_month_all!Q17)</f>
         <v/>
       </c>
-      <c r="S20" s="35" t="str">
+      <c r="S20" s="34" t="str">
         <f>IF(_tag_month_all!R17="","",_tag_month_all!R17)</f>
         <v/>
       </c>
-      <c r="T20" s="35" t="str">
+      <c r="T20" s="34" t="str">
         <f>IF(_tag_month_all!S17="","",_tag_month_all!S17)</f>
         <v/>
       </c>
-      <c r="U20" s="35" t="str">
+      <c r="U20" s="34" t="str">
         <f>IF(_tag_month_all!T17="","",_tag_month_all!T17)</f>
         <v/>
       </c>
-      <c r="V20" s="29" t="str">
+      <c r="V20" s="28" t="str">
         <f>IF(_tag_month_all!U17="","",_tag_month_all!U17)</f>
         <v/>
       </c>
-      <c r="W20" s="30" t="str">
+      <c r="W20" s="29" t="str">
         <f>IF(_tag_month_all!V17="","",_tag_month_all!V17)</f>
         <v/>
       </c>
-      <c r="X20" s="30" t="str">
+      <c r="X20" s="29" t="str">
         <f>IF(_tag_month_all!W17="","",_tag_month_all!W17)</f>
         <v/>
       </c>
-      <c r="Y20" s="30" t="str">
+      <c r="Y20" s="29" t="str">
         <f>IF(_tag_month_all!X17="","",_tag_month_all!X17)</f>
         <v/>
       </c>
-      <c r="Z20" s="30" t="str">
+      <c r="Z20" s="29" t="str">
         <f>IF(_tag_month_all!Y17="","",_tag_month_all!Y17)</f>
         <v/>
       </c>
-      <c r="AA20" s="30" t="str">
+      <c r="AA20" s="29" t="str">
         <f>IF(_tag_month_all!Z17="","",_tag_month_all!Z17)</f>
         <v/>
       </c>
-      <c r="AB20" s="30" t="str">
+      <c r="AB20" s="29" t="str">
         <f>IF(_tag_month_all!AA17="","",_tag_month_all!AA17)</f>
         <v/>
       </c>
-      <c r="AC20" s="30" t="str">
+      <c r="AC20" s="29" t="str">
         <f>IF(_tag_month_all!AB17="","",_tag_month_all!AB17)</f>
         <v/>
       </c>
-      <c r="AD20" s="17" t="str">
+      <c r="AD20" s="29" t="str">
         <f>IF(_tag_month_all!AC17="","",_tag_month_all!AC17)</f>
         <v/>
       </c>
-      <c r="AE20" s="17" t="str">
+      <c r="AE20" s="16" t="str">
         <f>IF(_tag_month_all!AD17="","",_tag_month_all!AD17)</f>
         <v/>
       </c>
-      <c r="AF20" s="17" t="str">
+      <c r="AF20" s="16" t="str">
         <f>IF(_tag_month_all!AE17="","",_tag_month_all!AE17)</f>
         <v/>
       </c>
-      <c r="AG20" s="17" t="str">
+      <c r="AG20" s="29" t="str">
         <f>IF(_tag_month_all!AF17="","",_tag_month_all!AF17)</f>
         <v/>
       </c>
@@ -3901,145 +4001,148 @@
         <f>IF(_tag_month_all!AG17="","",_tag_month_all!AG17)</f>
         <v/>
       </c>
-      <c r="AI20" s="29" t="str">
+      <c r="AI20" s="28" t="str">
         <f>IF(_tag_month_all!AH17="","",_tag_month_all!AH17)</f>
         <v/>
       </c>
-      <c r="AJ20" s="38" t="str">
+      <c r="AJ20" s="28" t="str">
         <f>IF(_tag_month_all!AI17="","",_tag_month_all!AI17)</f>
         <v/>
       </c>
-      <c r="AK20" s="8"/>
-    </row>
-    <row r="21" spans="1:37" ht="14.25">
-      <c r="A21" s="13">
+      <c r="AK20" s="37" t="str">
+        <f>IF(_tag_month_all!AJ17="","",_tag_month_all!AJ17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" s="12">
         <v>17</v>
       </c>
-      <c r="B21" s="16" t="str">
+      <c r="B21" s="15" t="str">
         <f>IF(_tag_month_all!A18="","",_tag_month_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="15" t="str">
         <f>IF(_tag_month_all!B18="","",_tag_month_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="17" t="str">
+      <c r="D21" s="16" t="str">
         <f>IF(_tag_month_all!C18="","",_tag_month_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="18" t="str">
+      <c r="E21" s="17" t="str">
         <f>IF(_tag_month_all!D18="","",_tag_month_all!D18)</f>
         <v/>
       </c>
-      <c r="F21" s="19" t="str">
+      <c r="F21" s="18" t="str">
         <f>IF(_tag_month_all!E18="","",_tag_month_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="20" t="str">
+      <c r="G21" s="19" t="str">
         <f>IF(_tag_month_all!F18="","",_tag_month_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="21" t="str">
+      <c r="H21" s="20" t="str">
         <f>IF(_tag_month_all!G18="","",_tag_month_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="18" t="str">
+      <c r="I21" s="17" t="str">
         <f>IF(_tag_month_all!H18="","",_tag_month_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="18" t="str">
+      <c r="J21" s="17" t="str">
         <f>IF(_tag_month_all!I18="","",_tag_month_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="27" t="str">
+      <c r="K21" s="26" t="str">
         <f>IF(_tag_month_all!J18="","",_tag_month_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="18" t="str">
+      <c r="L21" s="17" t="str">
         <f>IF(_tag_month_all!K18="","",_tag_month_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="28" t="str">
+      <c r="M21" s="27" t="str">
         <f>IF(_tag_month_all!L18="","",_tag_month_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="29" t="str">
+      <c r="N21" s="28" t="str">
         <f>IF(_tag_month_all!M18="","",_tag_month_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="30" t="str">
+      <c r="O21" s="29" t="str">
         <f>IF(_tag_month_all!N18="","",_tag_month_all!N18)</f>
         <v/>
       </c>
-      <c r="P21" s="30" t="str">
+      <c r="P21" s="29" t="str">
         <f>IF(_tag_month_all!O18="","",_tag_month_all!O18)</f>
         <v/>
       </c>
-      <c r="Q21" s="30" t="str">
+      <c r="Q21" s="29" t="str">
         <f>IF(_tag_month_all!P18="","",_tag_month_all!P18)</f>
         <v/>
       </c>
-      <c r="R21" s="35" t="str">
+      <c r="R21" s="34" t="str">
         <f>IF(_tag_month_all!Q18="","",_tag_month_all!Q18)</f>
         <v/>
       </c>
-      <c r="S21" s="35" t="str">
+      <c r="S21" s="34" t="str">
         <f>IF(_tag_month_all!R18="","",_tag_month_all!R18)</f>
         <v/>
       </c>
-      <c r="T21" s="35" t="str">
+      <c r="T21" s="34" t="str">
         <f>IF(_tag_month_all!S18="","",_tag_month_all!S18)</f>
         <v/>
       </c>
-      <c r="U21" s="35" t="str">
+      <c r="U21" s="34" t="str">
         <f>IF(_tag_month_all!T18="","",_tag_month_all!T18)</f>
         <v/>
       </c>
-      <c r="V21" s="29" t="str">
+      <c r="V21" s="28" t="str">
         <f>IF(_tag_month_all!U18="","",_tag_month_all!U18)</f>
         <v/>
       </c>
-      <c r="W21" s="30" t="str">
+      <c r="W21" s="29" t="str">
         <f>IF(_tag_month_all!V18="","",_tag_month_all!V18)</f>
         <v/>
       </c>
-      <c r="X21" s="30" t="str">
+      <c r="X21" s="29" t="str">
         <f>IF(_tag_month_all!W18="","",_tag_month_all!W18)</f>
         <v/>
       </c>
-      <c r="Y21" s="30" t="str">
+      <c r="Y21" s="29" t="str">
         <f>IF(_tag_month_all!X18="","",_tag_month_all!X18)</f>
         <v/>
       </c>
-      <c r="Z21" s="30" t="str">
+      <c r="Z21" s="29" t="str">
         <f>IF(_tag_month_all!Y18="","",_tag_month_all!Y18)</f>
         <v/>
       </c>
-      <c r="AA21" s="30" t="str">
+      <c r="AA21" s="29" t="str">
         <f>IF(_tag_month_all!Z18="","",_tag_month_all!Z18)</f>
         <v/>
       </c>
-      <c r="AB21" s="30" t="str">
+      <c r="AB21" s="29" t="str">
         <f>IF(_tag_month_all!AA18="","",_tag_month_all!AA18)</f>
         <v/>
       </c>
-      <c r="AC21" s="30" t="str">
+      <c r="AC21" s="29" t="str">
         <f>IF(_tag_month_all!AB18="","",_tag_month_all!AB18)</f>
         <v/>
       </c>
-      <c r="AD21" s="17" t="str">
+      <c r="AD21" s="29" t="str">
         <f>IF(_tag_month_all!AC18="","",_tag_month_all!AC18)</f>
         <v/>
       </c>
-      <c r="AE21" s="17" t="str">
+      <c r="AE21" s="16" t="str">
         <f>IF(_tag_month_all!AD18="","",_tag_month_all!AD18)</f>
         <v/>
       </c>
-      <c r="AF21" s="17" t="str">
+      <c r="AF21" s="16" t="str">
         <f>IF(_tag_month_all!AE18="","",_tag_month_all!AE18)</f>
         <v/>
       </c>
-      <c r="AG21" s="17" t="str">
+      <c r="AG21" s="29" t="str">
         <f>IF(_tag_month_all!AF18="","",_tag_month_all!AF18)</f>
         <v/>
       </c>
@@ -4047,145 +4150,148 @@
         <f>IF(_tag_month_all!AG18="","",_tag_month_all!AG18)</f>
         <v/>
       </c>
-      <c r="AI21" s="29" t="str">
+      <c r="AI21" s="28" t="str">
         <f>IF(_tag_month_all!AH18="","",_tag_month_all!AH18)</f>
         <v/>
       </c>
-      <c r="AJ21" s="38" t="str">
+      <c r="AJ21" s="28" t="str">
         <f>IF(_tag_month_all!AI18="","",_tag_month_all!AI18)</f>
         <v/>
       </c>
-      <c r="AK21" s="8"/>
-    </row>
-    <row r="22" spans="1:37" ht="14.25">
-      <c r="A22" s="13">
+      <c r="AK21" s="37" t="str">
+        <f>IF(_tag_month_all!AJ18="","",_tag_month_all!AJ18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" s="12">
         <v>18</v>
       </c>
-      <c r="B22" s="16" t="str">
+      <c r="B22" s="15" t="str">
         <f>IF(_tag_month_all!A19="","",_tag_month_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" s="15" t="str">
         <f>IF(_tag_month_all!B19="","",_tag_month_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="17" t="str">
+      <c r="D22" s="16" t="str">
         <f>IF(_tag_month_all!C19="","",_tag_month_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="18" t="str">
+      <c r="E22" s="17" t="str">
         <f>IF(_tag_month_all!D19="","",_tag_month_all!D19)</f>
         <v/>
       </c>
-      <c r="F22" s="19" t="str">
+      <c r="F22" s="18" t="str">
         <f>IF(_tag_month_all!E19="","",_tag_month_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="20" t="str">
+      <c r="G22" s="19" t="str">
         <f>IF(_tag_month_all!F19="","",_tag_month_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="21" t="str">
+      <c r="H22" s="20" t="str">
         <f>IF(_tag_month_all!G19="","",_tag_month_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="18" t="str">
+      <c r="I22" s="17" t="str">
         <f>IF(_tag_month_all!H19="","",_tag_month_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="18" t="str">
+      <c r="J22" s="17" t="str">
         <f>IF(_tag_month_all!I19="","",_tag_month_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="27" t="str">
+      <c r="K22" s="26" t="str">
         <f>IF(_tag_month_all!J19="","",_tag_month_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="18" t="str">
+      <c r="L22" s="17" t="str">
         <f>IF(_tag_month_all!K19="","",_tag_month_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="28" t="str">
+      <c r="M22" s="27" t="str">
         <f>IF(_tag_month_all!L19="","",_tag_month_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="29" t="str">
+      <c r="N22" s="28" t="str">
         <f>IF(_tag_month_all!M19="","",_tag_month_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="30" t="str">
+      <c r="O22" s="29" t="str">
         <f>IF(_tag_month_all!N19="","",_tag_month_all!N19)</f>
         <v/>
       </c>
-      <c r="P22" s="30" t="str">
+      <c r="P22" s="29" t="str">
         <f>IF(_tag_month_all!O19="","",_tag_month_all!O19)</f>
         <v/>
       </c>
-      <c r="Q22" s="30" t="str">
+      <c r="Q22" s="29" t="str">
         <f>IF(_tag_month_all!P19="","",_tag_month_all!P19)</f>
         <v/>
       </c>
-      <c r="R22" s="35" t="str">
+      <c r="R22" s="34" t="str">
         <f>IF(_tag_month_all!Q19="","",_tag_month_all!Q19)</f>
         <v/>
       </c>
-      <c r="S22" s="35" t="str">
+      <c r="S22" s="34" t="str">
         <f>IF(_tag_month_all!R19="","",_tag_month_all!R19)</f>
         <v/>
       </c>
-      <c r="T22" s="35" t="str">
+      <c r="T22" s="34" t="str">
         <f>IF(_tag_month_all!S19="","",_tag_month_all!S19)</f>
         <v/>
       </c>
-      <c r="U22" s="35" t="str">
+      <c r="U22" s="34" t="str">
         <f>IF(_tag_month_all!T19="","",_tag_month_all!T19)</f>
         <v/>
       </c>
-      <c r="V22" s="29" t="str">
+      <c r="V22" s="28" t="str">
         <f>IF(_tag_month_all!U19="","",_tag_month_all!U19)</f>
         <v/>
       </c>
-      <c r="W22" s="30" t="str">
+      <c r="W22" s="29" t="str">
         <f>IF(_tag_month_all!V19="","",_tag_month_all!V19)</f>
         <v/>
       </c>
-      <c r="X22" s="30" t="str">
+      <c r="X22" s="29" t="str">
         <f>IF(_tag_month_all!W19="","",_tag_month_all!W19)</f>
         <v/>
       </c>
-      <c r="Y22" s="30" t="str">
+      <c r="Y22" s="29" t="str">
         <f>IF(_tag_month_all!X19="","",_tag_month_all!X19)</f>
         <v/>
       </c>
-      <c r="Z22" s="30" t="str">
+      <c r="Z22" s="29" t="str">
         <f>IF(_tag_month_all!Y19="","",_tag_month_all!Y19)</f>
         <v/>
       </c>
-      <c r="AA22" s="30" t="str">
+      <c r="AA22" s="29" t="str">
         <f>IF(_tag_month_all!Z19="","",_tag_month_all!Z19)</f>
         <v/>
       </c>
-      <c r="AB22" s="30" t="str">
+      <c r="AB22" s="29" t="str">
         <f>IF(_tag_month_all!AA19="","",_tag_month_all!AA19)</f>
         <v/>
       </c>
-      <c r="AC22" s="30" t="str">
+      <c r="AC22" s="29" t="str">
         <f>IF(_tag_month_all!AB19="","",_tag_month_all!AB19)</f>
         <v/>
       </c>
-      <c r="AD22" s="17" t="str">
+      <c r="AD22" s="29" t="str">
         <f>IF(_tag_month_all!AC19="","",_tag_month_all!AC19)</f>
         <v/>
       </c>
-      <c r="AE22" s="17" t="str">
+      <c r="AE22" s="16" t="str">
         <f>IF(_tag_month_all!AD19="","",_tag_month_all!AD19)</f>
         <v/>
       </c>
-      <c r="AF22" s="17" t="str">
+      <c r="AF22" s="16" t="str">
         <f>IF(_tag_month_all!AE19="","",_tag_month_all!AE19)</f>
         <v/>
       </c>
-      <c r="AG22" s="17" t="str">
+      <c r="AG22" s="29" t="str">
         <f>IF(_tag_month_all!AF19="","",_tag_month_all!AF19)</f>
         <v/>
       </c>
@@ -4193,145 +4299,148 @@
         <f>IF(_tag_month_all!AG19="","",_tag_month_all!AG19)</f>
         <v/>
       </c>
-      <c r="AI22" s="29" t="str">
+      <c r="AI22" s="28" t="str">
         <f>IF(_tag_month_all!AH19="","",_tag_month_all!AH19)</f>
         <v/>
       </c>
-      <c r="AJ22" s="38" t="str">
+      <c r="AJ22" s="28" t="str">
         <f>IF(_tag_month_all!AI19="","",_tag_month_all!AI19)</f>
         <v/>
       </c>
-      <c r="AK22" s="8"/>
-    </row>
-    <row r="23" spans="1:37" ht="14.25">
-      <c r="A23" s="13">
+      <c r="AK22" s="37" t="str">
+        <f>IF(_tag_month_all!AJ19="","",_tag_month_all!AJ19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" s="12">
         <v>19</v>
       </c>
-      <c r="B23" s="16" t="str">
+      <c r="B23" s="15" t="str">
         <f>IF(_tag_month_all!A20="","",_tag_month_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="15" t="str">
         <f>IF(_tag_month_all!B20="","",_tag_month_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="17" t="str">
+      <c r="D23" s="16" t="str">
         <f>IF(_tag_month_all!C20="","",_tag_month_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="18" t="str">
+      <c r="E23" s="17" t="str">
         <f>IF(_tag_month_all!D20="","",_tag_month_all!D20)</f>
         <v/>
       </c>
-      <c r="F23" s="19" t="str">
+      <c r="F23" s="18" t="str">
         <f>IF(_tag_month_all!E20="","",_tag_month_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="20" t="str">
+      <c r="G23" s="19" t="str">
         <f>IF(_tag_month_all!F20="","",_tag_month_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="21" t="str">
+      <c r="H23" s="20" t="str">
         <f>IF(_tag_month_all!G20="","",_tag_month_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="18" t="str">
+      <c r="I23" s="17" t="str">
         <f>IF(_tag_month_all!H20="","",_tag_month_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="18" t="str">
+      <c r="J23" s="17" t="str">
         <f>IF(_tag_month_all!I20="","",_tag_month_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="27" t="str">
+      <c r="K23" s="26" t="str">
         <f>IF(_tag_month_all!J20="","",_tag_month_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="18" t="str">
+      <c r="L23" s="17" t="str">
         <f>IF(_tag_month_all!K20="","",_tag_month_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="28" t="str">
+      <c r="M23" s="27" t="str">
         <f>IF(_tag_month_all!L20="","",_tag_month_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="29" t="str">
+      <c r="N23" s="28" t="str">
         <f>IF(_tag_month_all!M20="","",_tag_month_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="30" t="str">
+      <c r="O23" s="29" t="str">
         <f>IF(_tag_month_all!N20="","",_tag_month_all!N20)</f>
         <v/>
       </c>
-      <c r="P23" s="30" t="str">
+      <c r="P23" s="29" t="str">
         <f>IF(_tag_month_all!O20="","",_tag_month_all!O20)</f>
         <v/>
       </c>
-      <c r="Q23" s="30" t="str">
+      <c r="Q23" s="29" t="str">
         <f>IF(_tag_month_all!P20="","",_tag_month_all!P20)</f>
         <v/>
       </c>
-      <c r="R23" s="35" t="str">
+      <c r="R23" s="34" t="str">
         <f>IF(_tag_month_all!Q20="","",_tag_month_all!Q20)</f>
         <v/>
       </c>
-      <c r="S23" s="35" t="str">
+      <c r="S23" s="34" t="str">
         <f>IF(_tag_month_all!R20="","",_tag_month_all!R20)</f>
         <v/>
       </c>
-      <c r="T23" s="35" t="str">
+      <c r="T23" s="34" t="str">
         <f>IF(_tag_month_all!S20="","",_tag_month_all!S20)</f>
         <v/>
       </c>
-      <c r="U23" s="35" t="str">
+      <c r="U23" s="34" t="str">
         <f>IF(_tag_month_all!T20="","",_tag_month_all!T20)</f>
         <v/>
       </c>
-      <c r="V23" s="29" t="str">
+      <c r="V23" s="28" t="str">
         <f>IF(_tag_month_all!U20="","",_tag_month_all!U20)</f>
         <v/>
       </c>
-      <c r="W23" s="30" t="str">
+      <c r="W23" s="29" t="str">
         <f>IF(_tag_month_all!V20="","",_tag_month_all!V20)</f>
         <v/>
       </c>
-      <c r="X23" s="30" t="str">
+      <c r="X23" s="29" t="str">
         <f>IF(_tag_month_all!W20="","",_tag_month_all!W20)</f>
         <v/>
       </c>
-      <c r="Y23" s="30" t="str">
+      <c r="Y23" s="29" t="str">
         <f>IF(_tag_month_all!X20="","",_tag_month_all!X20)</f>
         <v/>
       </c>
-      <c r="Z23" s="30" t="str">
+      <c r="Z23" s="29" t="str">
         <f>IF(_tag_month_all!Y20="","",_tag_month_all!Y20)</f>
         <v/>
       </c>
-      <c r="AA23" s="30" t="str">
+      <c r="AA23" s="29" t="str">
         <f>IF(_tag_month_all!Z20="","",_tag_month_all!Z20)</f>
         <v/>
       </c>
-      <c r="AB23" s="30" t="str">
+      <c r="AB23" s="29" t="str">
         <f>IF(_tag_month_all!AA20="","",_tag_month_all!AA20)</f>
         <v/>
       </c>
-      <c r="AC23" s="30" t="str">
+      <c r="AC23" s="29" t="str">
         <f>IF(_tag_month_all!AB20="","",_tag_month_all!AB20)</f>
         <v/>
       </c>
-      <c r="AD23" s="17" t="str">
+      <c r="AD23" s="29" t="str">
         <f>IF(_tag_month_all!AC20="","",_tag_month_all!AC20)</f>
         <v/>
       </c>
-      <c r="AE23" s="17" t="str">
+      <c r="AE23" s="16" t="str">
         <f>IF(_tag_month_all!AD20="","",_tag_month_all!AD20)</f>
         <v/>
       </c>
-      <c r="AF23" s="17" t="str">
+      <c r="AF23" s="16" t="str">
         <f>IF(_tag_month_all!AE20="","",_tag_month_all!AE20)</f>
         <v/>
       </c>
-      <c r="AG23" s="17" t="str">
+      <c r="AG23" s="29" t="str">
         <f>IF(_tag_month_all!AF20="","",_tag_month_all!AF20)</f>
         <v/>
       </c>
@@ -4339,145 +4448,148 @@
         <f>IF(_tag_month_all!AG20="","",_tag_month_all!AG20)</f>
         <v/>
       </c>
-      <c r="AI23" s="29" t="str">
+      <c r="AI23" s="28" t="str">
         <f>IF(_tag_month_all!AH20="","",_tag_month_all!AH20)</f>
         <v/>
       </c>
-      <c r="AJ23" s="38" t="str">
+      <c r="AJ23" s="28" t="str">
         <f>IF(_tag_month_all!AI20="","",_tag_month_all!AI20)</f>
         <v/>
       </c>
-      <c r="AK23" s="8"/>
-    </row>
-    <row r="24" spans="1:37" ht="14.25">
-      <c r="A24" s="13">
+      <c r="AK23" s="37" t="str">
+        <f>IF(_tag_month_all!AJ20="","",_tag_month_all!AJ20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" s="12">
         <v>20</v>
       </c>
-      <c r="B24" s="16" t="str">
+      <c r="B24" s="15" t="str">
         <f>IF(_tag_month_all!A21="","",_tag_month_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C24" s="15" t="str">
         <f>IF(_tag_month_all!B21="","",_tag_month_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="17" t="str">
+      <c r="D24" s="16" t="str">
         <f>IF(_tag_month_all!C21="","",_tag_month_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="18" t="str">
+      <c r="E24" s="17" t="str">
         <f>IF(_tag_month_all!D21="","",_tag_month_all!D21)</f>
         <v/>
       </c>
-      <c r="F24" s="19" t="str">
+      <c r="F24" s="18" t="str">
         <f>IF(_tag_month_all!E21="","",_tag_month_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="20" t="str">
+      <c r="G24" s="19" t="str">
         <f>IF(_tag_month_all!F21="","",_tag_month_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="21" t="str">
+      <c r="H24" s="20" t="str">
         <f>IF(_tag_month_all!G21="","",_tag_month_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="18" t="str">
+      <c r="I24" s="17" t="str">
         <f>IF(_tag_month_all!H21="","",_tag_month_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="18" t="str">
+      <c r="J24" s="17" t="str">
         <f>IF(_tag_month_all!I21="","",_tag_month_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="27" t="str">
+      <c r="K24" s="26" t="str">
         <f>IF(_tag_month_all!J21="","",_tag_month_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="18" t="str">
+      <c r="L24" s="17" t="str">
         <f>IF(_tag_month_all!K21="","",_tag_month_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="28" t="str">
+      <c r="M24" s="27" t="str">
         <f>IF(_tag_month_all!L21="","",_tag_month_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="29" t="str">
+      <c r="N24" s="28" t="str">
         <f>IF(_tag_month_all!M21="","",_tag_month_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="30" t="str">
+      <c r="O24" s="29" t="str">
         <f>IF(_tag_month_all!N21="","",_tag_month_all!N21)</f>
         <v/>
       </c>
-      <c r="P24" s="30" t="str">
+      <c r="P24" s="29" t="str">
         <f>IF(_tag_month_all!O21="","",_tag_month_all!O21)</f>
         <v/>
       </c>
-      <c r="Q24" s="30" t="str">
+      <c r="Q24" s="29" t="str">
         <f>IF(_tag_month_all!P21="","",_tag_month_all!P21)</f>
         <v/>
       </c>
-      <c r="R24" s="35" t="str">
+      <c r="R24" s="34" t="str">
         <f>IF(_tag_month_all!Q21="","",_tag_month_all!Q21)</f>
         <v/>
       </c>
-      <c r="S24" s="35" t="str">
+      <c r="S24" s="34" t="str">
         <f>IF(_tag_month_all!R21="","",_tag_month_all!R21)</f>
         <v/>
       </c>
-      <c r="T24" s="35" t="str">
+      <c r="T24" s="34" t="str">
         <f>IF(_tag_month_all!S21="","",_tag_month_all!S21)</f>
         <v/>
       </c>
-      <c r="U24" s="35" t="str">
+      <c r="U24" s="34" t="str">
         <f>IF(_tag_month_all!T21="","",_tag_month_all!T21)</f>
         <v/>
       </c>
-      <c r="V24" s="29" t="str">
+      <c r="V24" s="28" t="str">
         <f>IF(_tag_month_all!U21="","",_tag_month_all!U21)</f>
         <v/>
       </c>
-      <c r="W24" s="30" t="str">
+      <c r="W24" s="29" t="str">
         <f>IF(_tag_month_all!V21="","",_tag_month_all!V21)</f>
         <v/>
       </c>
-      <c r="X24" s="30" t="str">
+      <c r="X24" s="29" t="str">
         <f>IF(_tag_month_all!W21="","",_tag_month_all!W21)</f>
         <v/>
       </c>
-      <c r="Y24" s="30" t="str">
+      <c r="Y24" s="29" t="str">
         <f>IF(_tag_month_all!X21="","",_tag_month_all!X21)</f>
         <v/>
       </c>
-      <c r="Z24" s="30" t="str">
+      <c r="Z24" s="29" t="str">
         <f>IF(_tag_month_all!Y21="","",_tag_month_all!Y21)</f>
         <v/>
       </c>
-      <c r="AA24" s="30" t="str">
+      <c r="AA24" s="29" t="str">
         <f>IF(_tag_month_all!Z21="","",_tag_month_all!Z21)</f>
         <v/>
       </c>
-      <c r="AB24" s="30" t="str">
+      <c r="AB24" s="29" t="str">
         <f>IF(_tag_month_all!AA21="","",_tag_month_all!AA21)</f>
         <v/>
       </c>
-      <c r="AC24" s="30" t="str">
+      <c r="AC24" s="29" t="str">
         <f>IF(_tag_month_all!AB21="","",_tag_month_all!AB21)</f>
         <v/>
       </c>
-      <c r="AD24" s="17" t="str">
+      <c r="AD24" s="29" t="str">
         <f>IF(_tag_month_all!AC21="","",_tag_month_all!AC21)</f>
         <v/>
       </c>
-      <c r="AE24" s="17" t="str">
+      <c r="AE24" s="16" t="str">
         <f>IF(_tag_month_all!AD21="","",_tag_month_all!AD21)</f>
         <v/>
       </c>
-      <c r="AF24" s="17" t="str">
+      <c r="AF24" s="16" t="str">
         <f>IF(_tag_month_all!AE21="","",_tag_month_all!AE21)</f>
         <v/>
       </c>
-      <c r="AG24" s="17" t="str">
+      <c r="AG24" s="29" t="str">
         <f>IF(_tag_month_all!AF21="","",_tag_month_all!AF21)</f>
         <v/>
       </c>
@@ -4485,145 +4597,148 @@
         <f>IF(_tag_month_all!AG21="","",_tag_month_all!AG21)</f>
         <v/>
       </c>
-      <c r="AI24" s="29" t="str">
+      <c r="AI24" s="28" t="str">
         <f>IF(_tag_month_all!AH21="","",_tag_month_all!AH21)</f>
         <v/>
       </c>
-      <c r="AJ24" s="38" t="str">
+      <c r="AJ24" s="28" t="str">
         <f>IF(_tag_month_all!AI21="","",_tag_month_all!AI21)</f>
         <v/>
       </c>
-      <c r="AK24" s="8"/>
-    </row>
-    <row r="25" spans="1:37" ht="14.25">
-      <c r="A25" s="13">
+      <c r="AK24" s="37" t="str">
+        <f>IF(_tag_month_all!AJ21="","",_tag_month_all!AJ21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" s="12">
         <v>21</v>
       </c>
-      <c r="B25" s="16" t="str">
+      <c r="B25" s="15" t="str">
         <f>IF(_tag_month_all!A22="","",_tag_month_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="16" t="str">
+      <c r="C25" s="15" t="str">
         <f>IF(_tag_month_all!B22="","",_tag_month_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="17" t="str">
+      <c r="D25" s="16" t="str">
         <f>IF(_tag_month_all!C22="","",_tag_month_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="18" t="str">
+      <c r="E25" s="17" t="str">
         <f>IF(_tag_month_all!D22="","",_tag_month_all!D22)</f>
         <v/>
       </c>
-      <c r="F25" s="19" t="str">
+      <c r="F25" s="18" t="str">
         <f>IF(_tag_month_all!E22="","",_tag_month_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="20" t="str">
+      <c r="G25" s="19" t="str">
         <f>IF(_tag_month_all!F22="","",_tag_month_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="21" t="str">
+      <c r="H25" s="20" t="str">
         <f>IF(_tag_month_all!G22="","",_tag_month_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="18" t="str">
+      <c r="I25" s="17" t="str">
         <f>IF(_tag_month_all!H22="","",_tag_month_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="18" t="str">
+      <c r="J25" s="17" t="str">
         <f>IF(_tag_month_all!I22="","",_tag_month_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="27" t="str">
+      <c r="K25" s="26" t="str">
         <f>IF(_tag_month_all!J22="","",_tag_month_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="18" t="str">
+      <c r="L25" s="17" t="str">
         <f>IF(_tag_month_all!K22="","",_tag_month_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="28" t="str">
+      <c r="M25" s="27" t="str">
         <f>IF(_tag_month_all!L22="","",_tag_month_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="29" t="str">
+      <c r="N25" s="28" t="str">
         <f>IF(_tag_month_all!M22="","",_tag_month_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="30" t="str">
+      <c r="O25" s="29" t="str">
         <f>IF(_tag_month_all!N22="","",_tag_month_all!N22)</f>
         <v/>
       </c>
-      <c r="P25" s="30" t="str">
+      <c r="P25" s="29" t="str">
         <f>IF(_tag_month_all!O22="","",_tag_month_all!O22)</f>
         <v/>
       </c>
-      <c r="Q25" s="30" t="str">
+      <c r="Q25" s="29" t="str">
         <f>IF(_tag_month_all!P22="","",_tag_month_all!P22)</f>
         <v/>
       </c>
-      <c r="R25" s="35" t="str">
+      <c r="R25" s="34" t="str">
         <f>IF(_tag_month_all!Q22="","",_tag_month_all!Q22)</f>
         <v/>
       </c>
-      <c r="S25" s="35" t="str">
+      <c r="S25" s="34" t="str">
         <f>IF(_tag_month_all!R22="","",_tag_month_all!R22)</f>
         <v/>
       </c>
-      <c r="T25" s="35" t="str">
+      <c r="T25" s="34" t="str">
         <f>IF(_tag_month_all!S22="","",_tag_month_all!S22)</f>
         <v/>
       </c>
-      <c r="U25" s="35" t="str">
+      <c r="U25" s="34" t="str">
         <f>IF(_tag_month_all!T22="","",_tag_month_all!T22)</f>
         <v/>
       </c>
-      <c r="V25" s="29" t="str">
+      <c r="V25" s="28" t="str">
         <f>IF(_tag_month_all!U22="","",_tag_month_all!U22)</f>
         <v/>
       </c>
-      <c r="W25" s="30" t="str">
+      <c r="W25" s="29" t="str">
         <f>IF(_tag_month_all!V22="","",_tag_month_all!V22)</f>
         <v/>
       </c>
-      <c r="X25" s="30" t="str">
+      <c r="X25" s="29" t="str">
         <f>IF(_tag_month_all!W22="","",_tag_month_all!W22)</f>
         <v/>
       </c>
-      <c r="Y25" s="30" t="str">
+      <c r="Y25" s="29" t="str">
         <f>IF(_tag_month_all!X22="","",_tag_month_all!X22)</f>
         <v/>
       </c>
-      <c r="Z25" s="30" t="str">
+      <c r="Z25" s="29" t="str">
         <f>IF(_tag_month_all!Y22="","",_tag_month_all!Y22)</f>
         <v/>
       </c>
-      <c r="AA25" s="30" t="str">
+      <c r="AA25" s="29" t="str">
         <f>IF(_tag_month_all!Z22="","",_tag_month_all!Z22)</f>
         <v/>
       </c>
-      <c r="AB25" s="30" t="str">
+      <c r="AB25" s="29" t="str">
         <f>IF(_tag_month_all!AA22="","",_tag_month_all!AA22)</f>
         <v/>
       </c>
-      <c r="AC25" s="30" t="str">
+      <c r="AC25" s="29" t="str">
         <f>IF(_tag_month_all!AB22="","",_tag_month_all!AB22)</f>
         <v/>
       </c>
-      <c r="AD25" s="17" t="str">
+      <c r="AD25" s="29" t="str">
         <f>IF(_tag_month_all!AC22="","",_tag_month_all!AC22)</f>
         <v/>
       </c>
-      <c r="AE25" s="17" t="str">
+      <c r="AE25" s="16" t="str">
         <f>IF(_tag_month_all!AD22="","",_tag_month_all!AD22)</f>
         <v/>
       </c>
-      <c r="AF25" s="17" t="str">
+      <c r="AF25" s="16" t="str">
         <f>IF(_tag_month_all!AE22="","",_tag_month_all!AE22)</f>
         <v/>
       </c>
-      <c r="AG25" s="17" t="str">
+      <c r="AG25" s="29" t="str">
         <f>IF(_tag_month_all!AF22="","",_tag_month_all!AF22)</f>
         <v/>
       </c>
@@ -4631,145 +4746,148 @@
         <f>IF(_tag_month_all!AG22="","",_tag_month_all!AG22)</f>
         <v/>
       </c>
-      <c r="AI25" s="29" t="str">
+      <c r="AI25" s="28" t="str">
         <f>IF(_tag_month_all!AH22="","",_tag_month_all!AH22)</f>
         <v/>
       </c>
-      <c r="AJ25" s="38" t="str">
+      <c r="AJ25" s="28" t="str">
         <f>IF(_tag_month_all!AI22="","",_tag_month_all!AI22)</f>
         <v/>
       </c>
-      <c r="AK25" s="8"/>
-    </row>
-    <row r="26" spans="1:37" ht="14.25">
-      <c r="A26" s="13">
+      <c r="AK25" s="37" t="str">
+        <f>IF(_tag_month_all!AJ22="","",_tag_month_all!AJ22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" s="12">
         <v>22</v>
       </c>
-      <c r="B26" s="16" t="str">
+      <c r="B26" s="15" t="str">
         <f>IF(_tag_month_all!A23="","",_tag_month_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="16" t="str">
+      <c r="C26" s="15" t="str">
         <f>IF(_tag_month_all!B23="","",_tag_month_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="17" t="str">
+      <c r="D26" s="16" t="str">
         <f>IF(_tag_month_all!C23="","",_tag_month_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="18" t="str">
+      <c r="E26" s="17" t="str">
         <f>IF(_tag_month_all!D23="","",_tag_month_all!D23)</f>
         <v/>
       </c>
-      <c r="F26" s="19" t="str">
+      <c r="F26" s="18" t="str">
         <f>IF(_tag_month_all!E23="","",_tag_month_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="20" t="str">
+      <c r="G26" s="19" t="str">
         <f>IF(_tag_month_all!F23="","",_tag_month_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="21" t="str">
+      <c r="H26" s="20" t="str">
         <f>IF(_tag_month_all!G23="","",_tag_month_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="18" t="str">
+      <c r="I26" s="17" t="str">
         <f>IF(_tag_month_all!H23="","",_tag_month_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="18" t="str">
+      <c r="J26" s="17" t="str">
         <f>IF(_tag_month_all!I23="","",_tag_month_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="27" t="str">
+      <c r="K26" s="26" t="str">
         <f>IF(_tag_month_all!J23="","",_tag_month_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="18" t="str">
+      <c r="L26" s="17" t="str">
         <f>IF(_tag_month_all!K23="","",_tag_month_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="28" t="str">
+      <c r="M26" s="27" t="str">
         <f>IF(_tag_month_all!L23="","",_tag_month_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="29" t="str">
+      <c r="N26" s="28" t="str">
         <f>IF(_tag_month_all!M23="","",_tag_month_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="30" t="str">
+      <c r="O26" s="29" t="str">
         <f>IF(_tag_month_all!N23="","",_tag_month_all!N23)</f>
         <v/>
       </c>
-      <c r="P26" s="30" t="str">
+      <c r="P26" s="29" t="str">
         <f>IF(_tag_month_all!O23="","",_tag_month_all!O23)</f>
         <v/>
       </c>
-      <c r="Q26" s="30" t="str">
+      <c r="Q26" s="29" t="str">
         <f>IF(_tag_month_all!P23="","",_tag_month_all!P23)</f>
         <v/>
       </c>
-      <c r="R26" s="35" t="str">
+      <c r="R26" s="34" t="str">
         <f>IF(_tag_month_all!Q23="","",_tag_month_all!Q23)</f>
         <v/>
       </c>
-      <c r="S26" s="35" t="str">
+      <c r="S26" s="34" t="str">
         <f>IF(_tag_month_all!R23="","",_tag_month_all!R23)</f>
         <v/>
       </c>
-      <c r="T26" s="35" t="str">
+      <c r="T26" s="34" t="str">
         <f>IF(_tag_month_all!S23="","",_tag_month_all!S23)</f>
         <v/>
       </c>
-      <c r="U26" s="35" t="str">
+      <c r="U26" s="34" t="str">
         <f>IF(_tag_month_all!T23="","",_tag_month_all!T23)</f>
         <v/>
       </c>
-      <c r="V26" s="29" t="str">
+      <c r="V26" s="28" t="str">
         <f>IF(_tag_month_all!U23="","",_tag_month_all!U23)</f>
         <v/>
       </c>
-      <c r="W26" s="30" t="str">
+      <c r="W26" s="29" t="str">
         <f>IF(_tag_month_all!V23="","",_tag_month_all!V23)</f>
         <v/>
       </c>
-      <c r="X26" s="30" t="str">
+      <c r="X26" s="29" t="str">
         <f>IF(_tag_month_all!W23="","",_tag_month_all!W23)</f>
         <v/>
       </c>
-      <c r="Y26" s="30" t="str">
+      <c r="Y26" s="29" t="str">
         <f>IF(_tag_month_all!X23="","",_tag_month_all!X23)</f>
         <v/>
       </c>
-      <c r="Z26" s="30" t="str">
+      <c r="Z26" s="29" t="str">
         <f>IF(_tag_month_all!Y23="","",_tag_month_all!Y23)</f>
         <v/>
       </c>
-      <c r="AA26" s="30" t="str">
+      <c r="AA26" s="29" t="str">
         <f>IF(_tag_month_all!Z23="","",_tag_month_all!Z23)</f>
         <v/>
       </c>
-      <c r="AB26" s="30" t="str">
+      <c r="AB26" s="29" t="str">
         <f>IF(_tag_month_all!AA23="","",_tag_month_all!AA23)</f>
         <v/>
       </c>
-      <c r="AC26" s="30" t="str">
+      <c r="AC26" s="29" t="str">
         <f>IF(_tag_month_all!AB23="","",_tag_month_all!AB23)</f>
         <v/>
       </c>
-      <c r="AD26" s="17" t="str">
+      <c r="AD26" s="29" t="str">
         <f>IF(_tag_month_all!AC23="","",_tag_month_all!AC23)</f>
         <v/>
       </c>
-      <c r="AE26" s="17" t="str">
+      <c r="AE26" s="16" t="str">
         <f>IF(_tag_month_all!AD23="","",_tag_month_all!AD23)</f>
         <v/>
       </c>
-      <c r="AF26" s="17" t="str">
+      <c r="AF26" s="16" t="str">
         <f>IF(_tag_month_all!AE23="","",_tag_month_all!AE23)</f>
         <v/>
       </c>
-      <c r="AG26" s="17" t="str">
+      <c r="AG26" s="29" t="str">
         <f>IF(_tag_month_all!AF23="","",_tag_month_all!AF23)</f>
         <v/>
       </c>
@@ -4777,145 +4895,148 @@
         <f>IF(_tag_month_all!AG23="","",_tag_month_all!AG23)</f>
         <v/>
       </c>
-      <c r="AI26" s="29" t="str">
+      <c r="AI26" s="28" t="str">
         <f>IF(_tag_month_all!AH23="","",_tag_month_all!AH23)</f>
         <v/>
       </c>
-      <c r="AJ26" s="38" t="str">
+      <c r="AJ26" s="28" t="str">
         <f>IF(_tag_month_all!AI23="","",_tag_month_all!AI23)</f>
         <v/>
       </c>
-      <c r="AK26" s="8"/>
-    </row>
-    <row r="27" spans="1:37" ht="14.25">
-      <c r="A27" s="13">
+      <c r="AK26" s="37" t="str">
+        <f>IF(_tag_month_all!AJ23="","",_tag_month_all!AJ23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" s="12">
         <v>23</v>
       </c>
-      <c r="B27" s="16" t="str">
+      <c r="B27" s="15" t="str">
         <f>IF(_tag_month_all!A24="","",_tag_month_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="15" t="str">
         <f>IF(_tag_month_all!B24="","",_tag_month_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="17" t="str">
+      <c r="D27" s="16" t="str">
         <f>IF(_tag_month_all!C24="","",_tag_month_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="18" t="str">
+      <c r="E27" s="17" t="str">
         <f>IF(_tag_month_all!D24="","",_tag_month_all!D24)</f>
         <v/>
       </c>
-      <c r="F27" s="19" t="str">
+      <c r="F27" s="18" t="str">
         <f>IF(_tag_month_all!E24="","",_tag_month_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="20" t="str">
+      <c r="G27" s="19" t="str">
         <f>IF(_tag_month_all!F24="","",_tag_month_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="21" t="str">
+      <c r="H27" s="20" t="str">
         <f>IF(_tag_month_all!G24="","",_tag_month_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="18" t="str">
+      <c r="I27" s="17" t="str">
         <f>IF(_tag_month_all!H24="","",_tag_month_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="18" t="str">
+      <c r="J27" s="17" t="str">
         <f>IF(_tag_month_all!I24="","",_tag_month_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="27" t="str">
+      <c r="K27" s="26" t="str">
         <f>IF(_tag_month_all!J24="","",_tag_month_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="18" t="str">
+      <c r="L27" s="17" t="str">
         <f>IF(_tag_month_all!K24="","",_tag_month_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="28" t="str">
+      <c r="M27" s="27" t="str">
         <f>IF(_tag_month_all!L24="","",_tag_month_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="29" t="str">
+      <c r="N27" s="28" t="str">
         <f>IF(_tag_month_all!M24="","",_tag_month_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="30" t="str">
+      <c r="O27" s="29" t="str">
         <f>IF(_tag_month_all!N24="","",_tag_month_all!N24)</f>
         <v/>
       </c>
-      <c r="P27" s="30" t="str">
+      <c r="P27" s="29" t="str">
         <f>IF(_tag_month_all!O24="","",_tag_month_all!O24)</f>
         <v/>
       </c>
-      <c r="Q27" s="30" t="str">
+      <c r="Q27" s="29" t="str">
         <f>IF(_tag_month_all!P24="","",_tag_month_all!P24)</f>
         <v/>
       </c>
-      <c r="R27" s="35" t="str">
+      <c r="R27" s="34" t="str">
         <f>IF(_tag_month_all!Q24="","",_tag_month_all!Q24)</f>
         <v/>
       </c>
-      <c r="S27" s="35" t="str">
+      <c r="S27" s="34" t="str">
         <f>IF(_tag_month_all!R24="","",_tag_month_all!R24)</f>
         <v/>
       </c>
-      <c r="T27" s="35" t="str">
+      <c r="T27" s="34" t="str">
         <f>IF(_tag_month_all!S24="","",_tag_month_all!S24)</f>
         <v/>
       </c>
-      <c r="U27" s="35" t="str">
+      <c r="U27" s="34" t="str">
         <f>IF(_tag_month_all!T24="","",_tag_month_all!T24)</f>
         <v/>
       </c>
-      <c r="V27" s="29" t="str">
+      <c r="V27" s="28" t="str">
         <f>IF(_tag_month_all!U24="","",_tag_month_all!U24)</f>
         <v/>
       </c>
-      <c r="W27" s="30" t="str">
+      <c r="W27" s="29" t="str">
         <f>IF(_tag_month_all!V24="","",_tag_month_all!V24)</f>
         <v/>
       </c>
-      <c r="X27" s="30" t="str">
+      <c r="X27" s="29" t="str">
         <f>IF(_tag_month_all!W24="","",_tag_month_all!W24)</f>
         <v/>
       </c>
-      <c r="Y27" s="30" t="str">
+      <c r="Y27" s="29" t="str">
         <f>IF(_tag_month_all!X24="","",_tag_month_all!X24)</f>
         <v/>
       </c>
-      <c r="Z27" s="30" t="str">
+      <c r="Z27" s="29" t="str">
         <f>IF(_tag_month_all!Y24="","",_tag_month_all!Y24)</f>
         <v/>
       </c>
-      <c r="AA27" s="30" t="str">
+      <c r="AA27" s="29" t="str">
         <f>IF(_tag_month_all!Z24="","",_tag_month_all!Z24)</f>
         <v/>
       </c>
-      <c r="AB27" s="30" t="str">
+      <c r="AB27" s="29" t="str">
         <f>IF(_tag_month_all!AA24="","",_tag_month_all!AA24)</f>
         <v/>
       </c>
-      <c r="AC27" s="30" t="str">
+      <c r="AC27" s="29" t="str">
         <f>IF(_tag_month_all!AB24="","",_tag_month_all!AB24)</f>
         <v/>
       </c>
-      <c r="AD27" s="17" t="str">
+      <c r="AD27" s="29" t="str">
         <f>IF(_tag_month_all!AC24="","",_tag_month_all!AC24)</f>
         <v/>
       </c>
-      <c r="AE27" s="17" t="str">
+      <c r="AE27" s="16" t="str">
         <f>IF(_tag_month_all!AD24="","",_tag_month_all!AD24)</f>
         <v/>
       </c>
-      <c r="AF27" s="17" t="str">
+      <c r="AF27" s="16" t="str">
         <f>IF(_tag_month_all!AE24="","",_tag_month_all!AE24)</f>
         <v/>
       </c>
-      <c r="AG27" s="17" t="str">
+      <c r="AG27" s="29" t="str">
         <f>IF(_tag_month_all!AF24="","",_tag_month_all!AF24)</f>
         <v/>
       </c>
@@ -4923,145 +5044,148 @@
         <f>IF(_tag_month_all!AG24="","",_tag_month_all!AG24)</f>
         <v/>
       </c>
-      <c r="AI27" s="29" t="str">
+      <c r="AI27" s="28" t="str">
         <f>IF(_tag_month_all!AH24="","",_tag_month_all!AH24)</f>
         <v/>
       </c>
-      <c r="AJ27" s="38" t="str">
+      <c r="AJ27" s="28" t="str">
         <f>IF(_tag_month_all!AI24="","",_tag_month_all!AI24)</f>
         <v/>
       </c>
-      <c r="AK27" s="8"/>
-    </row>
-    <row r="28" spans="1:37" ht="14.25">
-      <c r="A28" s="13">
+      <c r="AK27" s="37" t="str">
+        <f>IF(_tag_month_all!AJ24="","",_tag_month_all!AJ24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" s="12">
         <v>24</v>
       </c>
-      <c r="B28" s="16" t="str">
+      <c r="B28" s="15" t="str">
         <f>IF(_tag_month_all!A25="","",_tag_month_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="15" t="str">
         <f>IF(_tag_month_all!B25="","",_tag_month_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="17" t="str">
+      <c r="D28" s="16" t="str">
         <f>IF(_tag_month_all!C25="","",_tag_month_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="18" t="str">
+      <c r="E28" s="17" t="str">
         <f>IF(_tag_month_all!D25="","",_tag_month_all!D25)</f>
         <v/>
       </c>
-      <c r="F28" s="19" t="str">
+      <c r="F28" s="18" t="str">
         <f>IF(_tag_month_all!E25="","",_tag_month_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="20" t="str">
+      <c r="G28" s="19" t="str">
         <f>IF(_tag_month_all!F25="","",_tag_month_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="21" t="str">
+      <c r="H28" s="20" t="str">
         <f>IF(_tag_month_all!G25="","",_tag_month_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="18" t="str">
+      <c r="I28" s="17" t="str">
         <f>IF(_tag_month_all!H25="","",_tag_month_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="18" t="str">
+      <c r="J28" s="17" t="str">
         <f>IF(_tag_month_all!I25="","",_tag_month_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="27" t="str">
+      <c r="K28" s="26" t="str">
         <f>IF(_tag_month_all!J25="","",_tag_month_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="18" t="str">
+      <c r="L28" s="17" t="str">
         <f>IF(_tag_month_all!K25="","",_tag_month_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="28" t="str">
+      <c r="M28" s="27" t="str">
         <f>IF(_tag_month_all!L25="","",_tag_month_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="29" t="str">
+      <c r="N28" s="28" t="str">
         <f>IF(_tag_month_all!M25="","",_tag_month_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="30" t="str">
+      <c r="O28" s="29" t="str">
         <f>IF(_tag_month_all!N25="","",_tag_month_all!N25)</f>
         <v/>
       </c>
-      <c r="P28" s="30" t="str">
+      <c r="P28" s="29" t="str">
         <f>IF(_tag_month_all!O25="","",_tag_month_all!O25)</f>
         <v/>
       </c>
-      <c r="Q28" s="30" t="str">
+      <c r="Q28" s="29" t="str">
         <f>IF(_tag_month_all!P25="","",_tag_month_all!P25)</f>
         <v/>
       </c>
-      <c r="R28" s="35" t="str">
+      <c r="R28" s="34" t="str">
         <f>IF(_tag_month_all!Q25="","",_tag_month_all!Q25)</f>
         <v/>
       </c>
-      <c r="S28" s="35" t="str">
+      <c r="S28" s="34" t="str">
         <f>IF(_tag_month_all!R25="","",_tag_month_all!R25)</f>
         <v/>
       </c>
-      <c r="T28" s="35" t="str">
+      <c r="T28" s="34" t="str">
         <f>IF(_tag_month_all!S25="","",_tag_month_all!S25)</f>
         <v/>
       </c>
-      <c r="U28" s="35" t="str">
+      <c r="U28" s="34" t="str">
         <f>IF(_tag_month_all!T25="","",_tag_month_all!T25)</f>
         <v/>
       </c>
-      <c r="V28" s="29" t="str">
+      <c r="V28" s="28" t="str">
         <f>IF(_tag_month_all!U25="","",_tag_month_all!U25)</f>
         <v/>
       </c>
-      <c r="W28" s="30" t="str">
+      <c r="W28" s="29" t="str">
         <f>IF(_tag_month_all!V25="","",_tag_month_all!V25)</f>
         <v/>
       </c>
-      <c r="X28" s="30" t="str">
+      <c r="X28" s="29" t="str">
         <f>IF(_tag_month_all!W25="","",_tag_month_all!W25)</f>
         <v/>
       </c>
-      <c r="Y28" s="30" t="str">
+      <c r="Y28" s="29" t="str">
         <f>IF(_tag_month_all!X25="","",_tag_month_all!X25)</f>
         <v/>
       </c>
-      <c r="Z28" s="30" t="str">
+      <c r="Z28" s="29" t="str">
         <f>IF(_tag_month_all!Y25="","",_tag_month_all!Y25)</f>
         <v/>
       </c>
-      <c r="AA28" s="30" t="str">
+      <c r="AA28" s="29" t="str">
         <f>IF(_tag_month_all!Z25="","",_tag_month_all!Z25)</f>
         <v/>
       </c>
-      <c r="AB28" s="30" t="str">
+      <c r="AB28" s="29" t="str">
         <f>IF(_tag_month_all!AA25="","",_tag_month_all!AA25)</f>
         <v/>
       </c>
-      <c r="AC28" s="30" t="str">
+      <c r="AC28" s="29" t="str">
         <f>IF(_tag_month_all!AB25="","",_tag_month_all!AB25)</f>
         <v/>
       </c>
-      <c r="AD28" s="17" t="str">
+      <c r="AD28" s="29" t="str">
         <f>IF(_tag_month_all!AC25="","",_tag_month_all!AC25)</f>
         <v/>
       </c>
-      <c r="AE28" s="17" t="str">
+      <c r="AE28" s="16" t="str">
         <f>IF(_tag_month_all!AD25="","",_tag_month_all!AD25)</f>
         <v/>
       </c>
-      <c r="AF28" s="17" t="str">
+      <c r="AF28" s="16" t="str">
         <f>IF(_tag_month_all!AE25="","",_tag_month_all!AE25)</f>
         <v/>
       </c>
-      <c r="AG28" s="17" t="str">
+      <c r="AG28" s="29" t="str">
         <f>IF(_tag_month_all!AF25="","",_tag_month_all!AF25)</f>
         <v/>
       </c>
@@ -5069,145 +5193,148 @@
         <f>IF(_tag_month_all!AG25="","",_tag_month_all!AG25)</f>
         <v/>
       </c>
-      <c r="AI28" s="29" t="str">
+      <c r="AI28" s="28" t="str">
         <f>IF(_tag_month_all!AH25="","",_tag_month_all!AH25)</f>
         <v/>
       </c>
-      <c r="AJ28" s="38" t="str">
+      <c r="AJ28" s="28" t="str">
         <f>IF(_tag_month_all!AI25="","",_tag_month_all!AI25)</f>
         <v/>
       </c>
-      <c r="AK28" s="8"/>
-    </row>
-    <row r="29" spans="1:37" ht="14.25">
-      <c r="A29" s="13">
+      <c r="AK28" s="37" t="str">
+        <f>IF(_tag_month_all!AJ25="","",_tag_month_all!AJ25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" s="12">
         <v>25</v>
       </c>
-      <c r="B29" s="16" t="str">
+      <c r="B29" s="15" t="str">
         <f>IF(_tag_month_all!A26="","",_tag_month_all!A26)</f>
         <v/>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="15" t="str">
         <f>IF(_tag_month_all!B26="","",_tag_month_all!B26)</f>
         <v/>
       </c>
-      <c r="D29" s="17" t="str">
+      <c r="D29" s="16" t="str">
         <f>IF(_tag_month_all!C26="","",_tag_month_all!C26)</f>
         <v/>
       </c>
-      <c r="E29" s="18" t="str">
+      <c r="E29" s="17" t="str">
         <f>IF(_tag_month_all!D26="","",_tag_month_all!D26)</f>
         <v/>
       </c>
-      <c r="F29" s="19" t="str">
+      <c r="F29" s="18" t="str">
         <f>IF(_tag_month_all!E26="","",_tag_month_all!E26)</f>
         <v/>
       </c>
-      <c r="G29" s="20" t="str">
+      <c r="G29" s="19" t="str">
         <f>IF(_tag_month_all!F26="","",_tag_month_all!F26)</f>
         <v/>
       </c>
-      <c r="H29" s="21" t="str">
+      <c r="H29" s="20" t="str">
         <f>IF(_tag_month_all!G26="","",_tag_month_all!G26)</f>
         <v/>
       </c>
-      <c r="I29" s="18" t="str">
+      <c r="I29" s="17" t="str">
         <f>IF(_tag_month_all!H26="","",_tag_month_all!H26)</f>
         <v/>
       </c>
-      <c r="J29" s="18" t="str">
+      <c r="J29" s="17" t="str">
         <f>IF(_tag_month_all!I26="","",_tag_month_all!I26)</f>
         <v/>
       </c>
-      <c r="K29" s="27" t="str">
+      <c r="K29" s="26" t="str">
         <f>IF(_tag_month_all!J26="","",_tag_month_all!J26)</f>
         <v/>
       </c>
-      <c r="L29" s="18" t="str">
+      <c r="L29" s="17" t="str">
         <f>IF(_tag_month_all!K26="","",_tag_month_all!K26)</f>
         <v/>
       </c>
-      <c r="M29" s="28" t="str">
+      <c r="M29" s="27" t="str">
         <f>IF(_tag_month_all!L26="","",_tag_month_all!L26)</f>
         <v/>
       </c>
-      <c r="N29" s="29" t="str">
+      <c r="N29" s="28" t="str">
         <f>IF(_tag_month_all!M26="","",_tag_month_all!M26)</f>
         <v/>
       </c>
-      <c r="O29" s="30" t="str">
+      <c r="O29" s="29" t="str">
         <f>IF(_tag_month_all!N26="","",_tag_month_all!N26)</f>
         <v/>
       </c>
-      <c r="P29" s="30" t="str">
+      <c r="P29" s="29" t="str">
         <f>IF(_tag_month_all!O26="","",_tag_month_all!O26)</f>
         <v/>
       </c>
-      <c r="Q29" s="30" t="str">
+      <c r="Q29" s="29" t="str">
         <f>IF(_tag_month_all!P26="","",_tag_month_all!P26)</f>
         <v/>
       </c>
-      <c r="R29" s="35" t="str">
+      <c r="R29" s="34" t="str">
         <f>IF(_tag_month_all!Q26="","",_tag_month_all!Q26)</f>
         <v/>
       </c>
-      <c r="S29" s="35" t="str">
+      <c r="S29" s="34" t="str">
         <f>IF(_tag_month_all!R26="","",_tag_month_all!R26)</f>
         <v/>
       </c>
-      <c r="T29" s="35" t="str">
+      <c r="T29" s="34" t="str">
         <f>IF(_tag_month_all!S26="","",_tag_month_all!S26)</f>
         <v/>
       </c>
-      <c r="U29" s="35" t="str">
+      <c r="U29" s="34" t="str">
         <f>IF(_tag_month_all!T26="","",_tag_month_all!T26)</f>
         <v/>
       </c>
-      <c r="V29" s="29" t="str">
+      <c r="V29" s="28" t="str">
         <f>IF(_tag_month_all!U26="","",_tag_month_all!U26)</f>
         <v/>
       </c>
-      <c r="W29" s="30" t="str">
+      <c r="W29" s="29" t="str">
         <f>IF(_tag_month_all!V26="","",_tag_month_all!V26)</f>
         <v/>
       </c>
-      <c r="X29" s="30" t="str">
+      <c r="X29" s="29" t="str">
         <f>IF(_tag_month_all!W26="","",_tag_month_all!W26)</f>
         <v/>
       </c>
-      <c r="Y29" s="30" t="str">
+      <c r="Y29" s="29" t="str">
         <f>IF(_tag_month_all!X26="","",_tag_month_all!X26)</f>
         <v/>
       </c>
-      <c r="Z29" s="30" t="str">
+      <c r="Z29" s="29" t="str">
         <f>IF(_tag_month_all!Y26="","",_tag_month_all!Y26)</f>
         <v/>
       </c>
-      <c r="AA29" s="30" t="str">
+      <c r="AA29" s="29" t="str">
         <f>IF(_tag_month_all!Z26="","",_tag_month_all!Z26)</f>
         <v/>
       </c>
-      <c r="AB29" s="30" t="str">
+      <c r="AB29" s="29" t="str">
         <f>IF(_tag_month_all!AA26="","",_tag_month_all!AA26)</f>
         <v/>
       </c>
-      <c r="AC29" s="30" t="str">
+      <c r="AC29" s="29" t="str">
         <f>IF(_tag_month_all!AB26="","",_tag_month_all!AB26)</f>
         <v/>
       </c>
-      <c r="AD29" s="17" t="str">
+      <c r="AD29" s="29" t="str">
         <f>IF(_tag_month_all!AC26="","",_tag_month_all!AC26)</f>
         <v/>
       </c>
-      <c r="AE29" s="17" t="str">
+      <c r="AE29" s="16" t="str">
         <f>IF(_tag_month_all!AD26="","",_tag_month_all!AD26)</f>
         <v/>
       </c>
-      <c r="AF29" s="17" t="str">
+      <c r="AF29" s="16" t="str">
         <f>IF(_tag_month_all!AE26="","",_tag_month_all!AE26)</f>
         <v/>
       </c>
-      <c r="AG29" s="17" t="str">
+      <c r="AG29" s="29" t="str">
         <f>IF(_tag_month_all!AF26="","",_tag_month_all!AF26)</f>
         <v/>
       </c>
@@ -5215,145 +5342,148 @@
         <f>IF(_tag_month_all!AG26="","",_tag_month_all!AG26)</f>
         <v/>
       </c>
-      <c r="AI29" s="29" t="str">
+      <c r="AI29" s="28" t="str">
         <f>IF(_tag_month_all!AH26="","",_tag_month_all!AH26)</f>
         <v/>
       </c>
-      <c r="AJ29" s="38" t="str">
+      <c r="AJ29" s="28" t="str">
         <f>IF(_tag_month_all!AI26="","",_tag_month_all!AI26)</f>
         <v/>
       </c>
-      <c r="AK29" s="8"/>
-    </row>
-    <row r="30" spans="1:37" ht="14.25">
-      <c r="A30" s="13">
+      <c r="AK29" s="37" t="str">
+        <f>IF(_tag_month_all!AJ26="","",_tag_month_all!AJ26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" s="12">
         <v>26</v>
       </c>
-      <c r="B30" s="16" t="str">
+      <c r="B30" s="15" t="str">
         <f>IF(_tag_month_all!A27="","",_tag_month_all!A27)</f>
         <v/>
       </c>
-      <c r="C30" s="16" t="str">
+      <c r="C30" s="15" t="str">
         <f>IF(_tag_month_all!B27="","",_tag_month_all!B27)</f>
         <v/>
       </c>
-      <c r="D30" s="17" t="str">
+      <c r="D30" s="16" t="str">
         <f>IF(_tag_month_all!C27="","",_tag_month_all!C27)</f>
         <v/>
       </c>
-      <c r="E30" s="18" t="str">
+      <c r="E30" s="17" t="str">
         <f>IF(_tag_month_all!D27="","",_tag_month_all!D27)</f>
         <v/>
       </c>
-      <c r="F30" s="19" t="str">
+      <c r="F30" s="18" t="str">
         <f>IF(_tag_month_all!E27="","",_tag_month_all!E27)</f>
         <v/>
       </c>
-      <c r="G30" s="20" t="str">
+      <c r="G30" s="19" t="str">
         <f>IF(_tag_month_all!F27="","",_tag_month_all!F27)</f>
         <v/>
       </c>
-      <c r="H30" s="21" t="str">
+      <c r="H30" s="20" t="str">
         <f>IF(_tag_month_all!G27="","",_tag_month_all!G27)</f>
         <v/>
       </c>
-      <c r="I30" s="18" t="str">
+      <c r="I30" s="17" t="str">
         <f>IF(_tag_month_all!H27="","",_tag_month_all!H27)</f>
         <v/>
       </c>
-      <c r="J30" s="18" t="str">
+      <c r="J30" s="17" t="str">
         <f>IF(_tag_month_all!I27="","",_tag_month_all!I27)</f>
         <v/>
       </c>
-      <c r="K30" s="27" t="str">
+      <c r="K30" s="26" t="str">
         <f>IF(_tag_month_all!J27="","",_tag_month_all!J27)</f>
         <v/>
       </c>
-      <c r="L30" s="18" t="str">
+      <c r="L30" s="17" t="str">
         <f>IF(_tag_month_all!K27="","",_tag_month_all!K27)</f>
         <v/>
       </c>
-      <c r="M30" s="28" t="str">
+      <c r="M30" s="27" t="str">
         <f>IF(_tag_month_all!L27="","",_tag_month_all!L27)</f>
         <v/>
       </c>
-      <c r="N30" s="29" t="str">
+      <c r="N30" s="28" t="str">
         <f>IF(_tag_month_all!M27="","",_tag_month_all!M27)</f>
         <v/>
       </c>
-      <c r="O30" s="30" t="str">
+      <c r="O30" s="29" t="str">
         <f>IF(_tag_month_all!N27="","",_tag_month_all!N27)</f>
         <v/>
       </c>
-      <c r="P30" s="30" t="str">
+      <c r="P30" s="29" t="str">
         <f>IF(_tag_month_all!O27="","",_tag_month_all!O27)</f>
         <v/>
       </c>
-      <c r="Q30" s="30" t="str">
+      <c r="Q30" s="29" t="str">
         <f>IF(_tag_month_all!P27="","",_tag_month_all!P27)</f>
         <v/>
       </c>
-      <c r="R30" s="35" t="str">
+      <c r="R30" s="34" t="str">
         <f>IF(_tag_month_all!Q27="","",_tag_month_all!Q27)</f>
         <v/>
       </c>
-      <c r="S30" s="35" t="str">
+      <c r="S30" s="34" t="str">
         <f>IF(_tag_month_all!R27="","",_tag_month_all!R27)</f>
         <v/>
       </c>
-      <c r="T30" s="35" t="str">
+      <c r="T30" s="34" t="str">
         <f>IF(_tag_month_all!S27="","",_tag_month_all!S27)</f>
         <v/>
       </c>
-      <c r="U30" s="35" t="str">
+      <c r="U30" s="34" t="str">
         <f>IF(_tag_month_all!T27="","",_tag_month_all!T27)</f>
         <v/>
       </c>
-      <c r="V30" s="29" t="str">
+      <c r="V30" s="28" t="str">
         <f>IF(_tag_month_all!U27="","",_tag_month_all!U27)</f>
         <v/>
       </c>
-      <c r="W30" s="30" t="str">
+      <c r="W30" s="29" t="str">
         <f>IF(_tag_month_all!V27="","",_tag_month_all!V27)</f>
         <v/>
       </c>
-      <c r="X30" s="30" t="str">
+      <c r="X30" s="29" t="str">
         <f>IF(_tag_month_all!W27="","",_tag_month_all!W27)</f>
         <v/>
       </c>
-      <c r="Y30" s="30" t="str">
+      <c r="Y30" s="29" t="str">
         <f>IF(_tag_month_all!X27="","",_tag_month_all!X27)</f>
         <v/>
       </c>
-      <c r="Z30" s="30" t="str">
+      <c r="Z30" s="29" t="str">
         <f>IF(_tag_month_all!Y27="","",_tag_month_all!Y27)</f>
         <v/>
       </c>
-      <c r="AA30" s="30" t="str">
+      <c r="AA30" s="29" t="str">
         <f>IF(_tag_month_all!Z27="","",_tag_month_all!Z27)</f>
         <v/>
       </c>
-      <c r="AB30" s="30" t="str">
+      <c r="AB30" s="29" t="str">
         <f>IF(_tag_month_all!AA27="","",_tag_month_all!AA27)</f>
         <v/>
       </c>
-      <c r="AC30" s="30" t="str">
+      <c r="AC30" s="29" t="str">
         <f>IF(_tag_month_all!AB27="","",_tag_month_all!AB27)</f>
         <v/>
       </c>
-      <c r="AD30" s="17" t="str">
+      <c r="AD30" s="29" t="str">
         <f>IF(_tag_month_all!AC27="","",_tag_month_all!AC27)</f>
         <v/>
       </c>
-      <c r="AE30" s="17" t="str">
+      <c r="AE30" s="16" t="str">
         <f>IF(_tag_month_all!AD27="","",_tag_month_all!AD27)</f>
         <v/>
       </c>
-      <c r="AF30" s="17" t="str">
+      <c r="AF30" s="16" t="str">
         <f>IF(_tag_month_all!AE27="","",_tag_month_all!AE27)</f>
         <v/>
       </c>
-      <c r="AG30" s="17" t="str">
+      <c r="AG30" s="29" t="str">
         <f>IF(_tag_month_all!AF27="","",_tag_month_all!AF27)</f>
         <v/>
       </c>
@@ -5361,145 +5491,148 @@
         <f>IF(_tag_month_all!AG27="","",_tag_month_all!AG27)</f>
         <v/>
       </c>
-      <c r="AI30" s="29" t="str">
+      <c r="AI30" s="28" t="str">
         <f>IF(_tag_month_all!AH27="","",_tag_month_all!AH27)</f>
         <v/>
       </c>
-      <c r="AJ30" s="38" t="str">
+      <c r="AJ30" s="28" t="str">
         <f>IF(_tag_month_all!AI27="","",_tag_month_all!AI27)</f>
         <v/>
       </c>
-      <c r="AK30" s="8"/>
-    </row>
-    <row r="31" spans="1:37" ht="14.25">
-      <c r="A31" s="13">
+      <c r="AK30" s="37" t="str">
+        <f>IF(_tag_month_all!AJ27="","",_tag_month_all!AJ27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" s="12">
         <v>27</v>
       </c>
-      <c r="B31" s="16" t="str">
+      <c r="B31" s="15" t="str">
         <f>IF(_tag_month_all!A28="","",_tag_month_all!A28)</f>
         <v/>
       </c>
-      <c r="C31" s="16" t="str">
+      <c r="C31" s="15" t="str">
         <f>IF(_tag_month_all!B28="","",_tag_month_all!B28)</f>
         <v/>
       </c>
-      <c r="D31" s="17" t="str">
+      <c r="D31" s="16" t="str">
         <f>IF(_tag_month_all!C28="","",_tag_month_all!C28)</f>
         <v/>
       </c>
-      <c r="E31" s="18" t="str">
+      <c r="E31" s="17" t="str">
         <f>IF(_tag_month_all!D28="","",_tag_month_all!D28)</f>
         <v/>
       </c>
-      <c r="F31" s="19" t="str">
+      <c r="F31" s="18" t="str">
         <f>IF(_tag_month_all!E28="","",_tag_month_all!E28)</f>
         <v/>
       </c>
-      <c r="G31" s="20" t="str">
+      <c r="G31" s="19" t="str">
         <f>IF(_tag_month_all!F28="","",_tag_month_all!F28)</f>
         <v/>
       </c>
-      <c r="H31" s="21" t="str">
+      <c r="H31" s="20" t="str">
         <f>IF(_tag_month_all!G28="","",_tag_month_all!G28)</f>
         <v/>
       </c>
-      <c r="I31" s="18" t="str">
+      <c r="I31" s="17" t="str">
         <f>IF(_tag_month_all!H28="","",_tag_month_all!H28)</f>
         <v/>
       </c>
-      <c r="J31" s="18" t="str">
+      <c r="J31" s="17" t="str">
         <f>IF(_tag_month_all!I28="","",_tag_month_all!I28)</f>
         <v/>
       </c>
-      <c r="K31" s="27" t="str">
+      <c r="K31" s="26" t="str">
         <f>IF(_tag_month_all!J28="","",_tag_month_all!J28)</f>
         <v/>
       </c>
-      <c r="L31" s="18" t="str">
+      <c r="L31" s="17" t="str">
         <f>IF(_tag_month_all!K28="","",_tag_month_all!K28)</f>
         <v/>
       </c>
-      <c r="M31" s="28" t="str">
+      <c r="M31" s="27" t="str">
         <f>IF(_tag_month_all!L28="","",_tag_month_all!L28)</f>
         <v/>
       </c>
-      <c r="N31" s="29" t="str">
+      <c r="N31" s="28" t="str">
         <f>IF(_tag_month_all!M28="","",_tag_month_all!M28)</f>
         <v/>
       </c>
-      <c r="O31" s="30" t="str">
+      <c r="O31" s="29" t="str">
         <f>IF(_tag_month_all!N28="","",_tag_month_all!N28)</f>
         <v/>
       </c>
-      <c r="P31" s="30" t="str">
+      <c r="P31" s="29" t="str">
         <f>IF(_tag_month_all!O28="","",_tag_month_all!O28)</f>
         <v/>
       </c>
-      <c r="Q31" s="30" t="str">
+      <c r="Q31" s="29" t="str">
         <f>IF(_tag_month_all!P28="","",_tag_month_all!P28)</f>
         <v/>
       </c>
-      <c r="R31" s="35" t="str">
+      <c r="R31" s="34" t="str">
         <f>IF(_tag_month_all!Q28="","",_tag_month_all!Q28)</f>
         <v/>
       </c>
-      <c r="S31" s="35" t="str">
+      <c r="S31" s="34" t="str">
         <f>IF(_tag_month_all!R28="","",_tag_month_all!R28)</f>
         <v/>
       </c>
-      <c r="T31" s="35" t="str">
+      <c r="T31" s="34" t="str">
         <f>IF(_tag_month_all!S28="","",_tag_month_all!S28)</f>
         <v/>
       </c>
-      <c r="U31" s="35" t="str">
+      <c r="U31" s="34" t="str">
         <f>IF(_tag_month_all!T28="","",_tag_month_all!T28)</f>
         <v/>
       </c>
-      <c r="V31" s="29" t="str">
+      <c r="V31" s="28" t="str">
         <f>IF(_tag_month_all!U28="","",_tag_month_all!U28)</f>
         <v/>
       </c>
-      <c r="W31" s="30" t="str">
+      <c r="W31" s="29" t="str">
         <f>IF(_tag_month_all!V28="","",_tag_month_all!V28)</f>
         <v/>
       </c>
-      <c r="X31" s="30" t="str">
+      <c r="X31" s="29" t="str">
         <f>IF(_tag_month_all!W28="","",_tag_month_all!W28)</f>
         <v/>
       </c>
-      <c r="Y31" s="30" t="str">
+      <c r="Y31" s="29" t="str">
         <f>IF(_tag_month_all!X28="","",_tag_month_all!X28)</f>
         <v/>
       </c>
-      <c r="Z31" s="30" t="str">
+      <c r="Z31" s="29" t="str">
         <f>IF(_tag_month_all!Y28="","",_tag_month_all!Y28)</f>
         <v/>
       </c>
-      <c r="AA31" s="30" t="str">
+      <c r="AA31" s="29" t="str">
         <f>IF(_tag_month_all!Z28="","",_tag_month_all!Z28)</f>
         <v/>
       </c>
-      <c r="AB31" s="30" t="str">
+      <c r="AB31" s="29" t="str">
         <f>IF(_tag_month_all!AA28="","",_tag_month_all!AA28)</f>
         <v/>
       </c>
-      <c r="AC31" s="30" t="str">
+      <c r="AC31" s="29" t="str">
         <f>IF(_tag_month_all!AB28="","",_tag_month_all!AB28)</f>
         <v/>
       </c>
-      <c r="AD31" s="17" t="str">
+      <c r="AD31" s="29" t="str">
         <f>IF(_tag_month_all!AC28="","",_tag_month_all!AC28)</f>
         <v/>
       </c>
-      <c r="AE31" s="17" t="str">
+      <c r="AE31" s="16" t="str">
         <f>IF(_tag_month_all!AD28="","",_tag_month_all!AD28)</f>
         <v/>
       </c>
-      <c r="AF31" s="17" t="str">
+      <c r="AF31" s="16" t="str">
         <f>IF(_tag_month_all!AE28="","",_tag_month_all!AE28)</f>
         <v/>
       </c>
-      <c r="AG31" s="17" t="str">
+      <c r="AG31" s="29" t="str">
         <f>IF(_tag_month_all!AF28="","",_tag_month_all!AF28)</f>
         <v/>
       </c>
@@ -5507,145 +5640,148 @@
         <f>IF(_tag_month_all!AG28="","",_tag_month_all!AG28)</f>
         <v/>
       </c>
-      <c r="AI31" s="29" t="str">
+      <c r="AI31" s="28" t="str">
         <f>IF(_tag_month_all!AH28="","",_tag_month_all!AH28)</f>
         <v/>
       </c>
-      <c r="AJ31" s="38" t="str">
+      <c r="AJ31" s="28" t="str">
         <f>IF(_tag_month_all!AI28="","",_tag_month_all!AI28)</f>
         <v/>
       </c>
-      <c r="AK31" s="8"/>
-    </row>
-    <row r="32" spans="1:37" ht="14.25">
-      <c r="A32" s="13">
+      <c r="AK31" s="37" t="str">
+        <f>IF(_tag_month_all!AJ28="","",_tag_month_all!AJ28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" s="12">
         <v>28</v>
       </c>
-      <c r="B32" s="16" t="str">
+      <c r="B32" s="15" t="str">
         <f>IF(_tag_month_all!A29="","",_tag_month_all!A29)</f>
         <v/>
       </c>
-      <c r="C32" s="16" t="str">
+      <c r="C32" s="15" t="str">
         <f>IF(_tag_month_all!B29="","",_tag_month_all!B29)</f>
         <v/>
       </c>
-      <c r="D32" s="17" t="str">
+      <c r="D32" s="16" t="str">
         <f>IF(_tag_month_all!C29="","",_tag_month_all!C29)</f>
         <v/>
       </c>
-      <c r="E32" s="18" t="str">
+      <c r="E32" s="17" t="str">
         <f>IF(_tag_month_all!D29="","",_tag_month_all!D29)</f>
         <v/>
       </c>
-      <c r="F32" s="19" t="str">
+      <c r="F32" s="18" t="str">
         <f>IF(_tag_month_all!E29="","",_tag_month_all!E29)</f>
         <v/>
       </c>
-      <c r="G32" s="20" t="str">
+      <c r="G32" s="19" t="str">
         <f>IF(_tag_month_all!F29="","",_tag_month_all!F29)</f>
         <v/>
       </c>
-      <c r="H32" s="21" t="str">
+      <c r="H32" s="20" t="str">
         <f>IF(_tag_month_all!G29="","",_tag_month_all!G29)</f>
         <v/>
       </c>
-      <c r="I32" s="18" t="str">
+      <c r="I32" s="17" t="str">
         <f>IF(_tag_month_all!H29="","",_tag_month_all!H29)</f>
         <v/>
       </c>
-      <c r="J32" s="18" t="str">
+      <c r="J32" s="17" t="str">
         <f>IF(_tag_month_all!I29="","",_tag_month_all!I29)</f>
         <v/>
       </c>
-      <c r="K32" s="27" t="str">
+      <c r="K32" s="26" t="str">
         <f>IF(_tag_month_all!J29="","",_tag_month_all!J29)</f>
         <v/>
       </c>
-      <c r="L32" s="18" t="str">
+      <c r="L32" s="17" t="str">
         <f>IF(_tag_month_all!K29="","",_tag_month_all!K29)</f>
         <v/>
       </c>
-      <c r="M32" s="28" t="str">
+      <c r="M32" s="27" t="str">
         <f>IF(_tag_month_all!L29="","",_tag_month_all!L29)</f>
         <v/>
       </c>
-      <c r="N32" s="29" t="str">
+      <c r="N32" s="28" t="str">
         <f>IF(_tag_month_all!M29="","",_tag_month_all!M29)</f>
         <v/>
       </c>
-      <c r="O32" s="30" t="str">
+      <c r="O32" s="29" t="str">
         <f>IF(_tag_month_all!N29="","",_tag_month_all!N29)</f>
         <v/>
       </c>
-      <c r="P32" s="30" t="str">
+      <c r="P32" s="29" t="str">
         <f>IF(_tag_month_all!O29="","",_tag_month_all!O29)</f>
         <v/>
       </c>
-      <c r="Q32" s="30" t="str">
+      <c r="Q32" s="29" t="str">
         <f>IF(_tag_month_all!P29="","",_tag_month_all!P29)</f>
         <v/>
       </c>
-      <c r="R32" s="35" t="str">
+      <c r="R32" s="34" t="str">
         <f>IF(_tag_month_all!Q29="","",_tag_month_all!Q29)</f>
         <v/>
       </c>
-      <c r="S32" s="35" t="str">
+      <c r="S32" s="34" t="str">
         <f>IF(_tag_month_all!R29="","",_tag_month_all!R29)</f>
         <v/>
       </c>
-      <c r="T32" s="35" t="str">
+      <c r="T32" s="34" t="str">
         <f>IF(_tag_month_all!S29="","",_tag_month_all!S29)</f>
         <v/>
       </c>
-      <c r="U32" s="35" t="str">
+      <c r="U32" s="34" t="str">
         <f>IF(_tag_month_all!T29="","",_tag_month_all!T29)</f>
         <v/>
       </c>
-      <c r="V32" s="29" t="str">
+      <c r="V32" s="28" t="str">
         <f>IF(_tag_month_all!U29="","",_tag_month_all!U29)</f>
         <v/>
       </c>
-      <c r="W32" s="30" t="str">
+      <c r="W32" s="29" t="str">
         <f>IF(_tag_month_all!V29="","",_tag_month_all!V29)</f>
         <v/>
       </c>
-      <c r="X32" s="30" t="str">
+      <c r="X32" s="29" t="str">
         <f>IF(_tag_month_all!W29="","",_tag_month_all!W29)</f>
         <v/>
       </c>
-      <c r="Y32" s="30" t="str">
+      <c r="Y32" s="29" t="str">
         <f>IF(_tag_month_all!X29="","",_tag_month_all!X29)</f>
         <v/>
       </c>
-      <c r="Z32" s="30" t="str">
+      <c r="Z32" s="29" t="str">
         <f>IF(_tag_month_all!Y29="","",_tag_month_all!Y29)</f>
         <v/>
       </c>
-      <c r="AA32" s="30" t="str">
+      <c r="AA32" s="29" t="str">
         <f>IF(_tag_month_all!Z29="","",_tag_month_all!Z29)</f>
         <v/>
       </c>
-      <c r="AB32" s="30" t="str">
+      <c r="AB32" s="29" t="str">
         <f>IF(_tag_month_all!AA29="","",_tag_month_all!AA29)</f>
         <v/>
       </c>
-      <c r="AC32" s="30" t="str">
+      <c r="AC32" s="29" t="str">
         <f>IF(_tag_month_all!AB29="","",_tag_month_all!AB29)</f>
         <v/>
       </c>
-      <c r="AD32" s="17" t="str">
+      <c r="AD32" s="29" t="str">
         <f>IF(_tag_month_all!AC29="","",_tag_month_all!AC29)</f>
         <v/>
       </c>
-      <c r="AE32" s="17" t="str">
+      <c r="AE32" s="16" t="str">
         <f>IF(_tag_month_all!AD29="","",_tag_month_all!AD29)</f>
         <v/>
       </c>
-      <c r="AF32" s="17" t="str">
+      <c r="AF32" s="16" t="str">
         <f>IF(_tag_month_all!AE29="","",_tag_month_all!AE29)</f>
         <v/>
       </c>
-      <c r="AG32" s="17" t="str">
+      <c r="AG32" s="29" t="str">
         <f>IF(_tag_month_all!AF29="","",_tag_month_all!AF29)</f>
         <v/>
       </c>
@@ -5653,145 +5789,148 @@
         <f>IF(_tag_month_all!AG29="","",_tag_month_all!AG29)</f>
         <v/>
       </c>
-      <c r="AI32" s="29" t="str">
+      <c r="AI32" s="28" t="str">
         <f>IF(_tag_month_all!AH29="","",_tag_month_all!AH29)</f>
         <v/>
       </c>
-      <c r="AJ32" s="38" t="str">
+      <c r="AJ32" s="28" t="str">
         <f>IF(_tag_month_all!AI29="","",_tag_month_all!AI29)</f>
         <v/>
       </c>
-      <c r="AK32" s="8"/>
-    </row>
-    <row r="33" spans="1:37" ht="14.25">
-      <c r="A33" s="13">
+      <c r="AK32" s="37" t="str">
+        <f>IF(_tag_month_all!AJ29="","",_tag_month_all!AJ29)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="12">
         <v>29</v>
       </c>
-      <c r="B33" s="16" t="str">
+      <c r="B33" s="15" t="str">
         <f>IF(_tag_month_all!A30="","",_tag_month_all!A30)</f>
         <v/>
       </c>
-      <c r="C33" s="16" t="str">
+      <c r="C33" s="15" t="str">
         <f>IF(_tag_month_all!B30="","",_tag_month_all!B30)</f>
         <v/>
       </c>
-      <c r="D33" s="17" t="str">
+      <c r="D33" s="16" t="str">
         <f>IF(_tag_month_all!C30="","",_tag_month_all!C30)</f>
         <v/>
       </c>
-      <c r="E33" s="18" t="str">
+      <c r="E33" s="17" t="str">
         <f>IF(_tag_month_all!D30="","",_tag_month_all!D30)</f>
         <v/>
       </c>
-      <c r="F33" s="19" t="str">
+      <c r="F33" s="18" t="str">
         <f>IF(_tag_month_all!E30="","",_tag_month_all!E30)</f>
         <v/>
       </c>
-      <c r="G33" s="20" t="str">
+      <c r="G33" s="19" t="str">
         <f>IF(_tag_month_all!F30="","",_tag_month_all!F30)</f>
         <v/>
       </c>
-      <c r="H33" s="21" t="str">
+      <c r="H33" s="20" t="str">
         <f>IF(_tag_month_all!G30="","",_tag_month_all!G30)</f>
         <v/>
       </c>
-      <c r="I33" s="18" t="str">
+      <c r="I33" s="17" t="str">
         <f>IF(_tag_month_all!H30="","",_tag_month_all!H30)</f>
         <v/>
       </c>
-      <c r="J33" s="18" t="str">
+      <c r="J33" s="17" t="str">
         <f>IF(_tag_month_all!I30="","",_tag_month_all!I30)</f>
         <v/>
       </c>
-      <c r="K33" s="27" t="str">
+      <c r="K33" s="26" t="str">
         <f>IF(_tag_month_all!J30="","",_tag_month_all!J30)</f>
         <v/>
       </c>
-      <c r="L33" s="18" t="str">
+      <c r="L33" s="17" t="str">
         <f>IF(_tag_month_all!K30="","",_tag_month_all!K30)</f>
         <v/>
       </c>
-      <c r="M33" s="28" t="str">
+      <c r="M33" s="27" t="str">
         <f>IF(_tag_month_all!L30="","",_tag_month_all!L30)</f>
         <v/>
       </c>
-      <c r="N33" s="29" t="str">
+      <c r="N33" s="28" t="str">
         <f>IF(_tag_month_all!M30="","",_tag_month_all!M30)</f>
         <v/>
       </c>
-      <c r="O33" s="30" t="str">
+      <c r="O33" s="29" t="str">
         <f>IF(_tag_month_all!N30="","",_tag_month_all!N30)</f>
         <v/>
       </c>
-      <c r="P33" s="30" t="str">
+      <c r="P33" s="29" t="str">
         <f>IF(_tag_month_all!O30="","",_tag_month_all!O30)</f>
         <v/>
       </c>
-      <c r="Q33" s="30" t="str">
+      <c r="Q33" s="29" t="str">
         <f>IF(_tag_month_all!P30="","",_tag_month_all!P30)</f>
         <v/>
       </c>
-      <c r="R33" s="35" t="str">
+      <c r="R33" s="34" t="str">
         <f>IF(_tag_month_all!Q30="","",_tag_month_all!Q30)</f>
         <v/>
       </c>
-      <c r="S33" s="35" t="str">
+      <c r="S33" s="34" t="str">
         <f>IF(_tag_month_all!R30="","",_tag_month_all!R30)</f>
         <v/>
       </c>
-      <c r="T33" s="35" t="str">
+      <c r="T33" s="34" t="str">
         <f>IF(_tag_month_all!S30="","",_tag_month_all!S30)</f>
         <v/>
       </c>
-      <c r="U33" s="35" t="str">
+      <c r="U33" s="34" t="str">
         <f>IF(_tag_month_all!T30="","",_tag_month_all!T30)</f>
         <v/>
       </c>
-      <c r="V33" s="29" t="str">
+      <c r="V33" s="28" t="str">
         <f>IF(_tag_month_all!U30="","",_tag_month_all!U30)</f>
         <v/>
       </c>
-      <c r="W33" s="30" t="str">
+      <c r="W33" s="29" t="str">
         <f>IF(_tag_month_all!V30="","",_tag_month_all!V30)</f>
         <v/>
       </c>
-      <c r="X33" s="30" t="str">
+      <c r="X33" s="29" t="str">
         <f>IF(_tag_month_all!W30="","",_tag_month_all!W30)</f>
         <v/>
       </c>
-      <c r="Y33" s="30" t="str">
+      <c r="Y33" s="29" t="str">
         <f>IF(_tag_month_all!X30="","",_tag_month_all!X30)</f>
         <v/>
       </c>
-      <c r="Z33" s="30" t="str">
+      <c r="Z33" s="29" t="str">
         <f>IF(_tag_month_all!Y30="","",_tag_month_all!Y30)</f>
         <v/>
       </c>
-      <c r="AA33" s="30" t="str">
+      <c r="AA33" s="29" t="str">
         <f>IF(_tag_month_all!Z30="","",_tag_month_all!Z30)</f>
         <v/>
       </c>
-      <c r="AB33" s="30" t="str">
+      <c r="AB33" s="29" t="str">
         <f>IF(_tag_month_all!AA30="","",_tag_month_all!AA30)</f>
         <v/>
       </c>
-      <c r="AC33" s="30" t="str">
+      <c r="AC33" s="29" t="str">
         <f>IF(_tag_month_all!AB30="","",_tag_month_all!AB30)</f>
         <v/>
       </c>
-      <c r="AD33" s="17" t="str">
+      <c r="AD33" s="29" t="str">
         <f>IF(_tag_month_all!AC30="","",_tag_month_all!AC30)</f>
         <v/>
       </c>
-      <c r="AE33" s="17" t="str">
+      <c r="AE33" s="16" t="str">
         <f>IF(_tag_month_all!AD30="","",_tag_month_all!AD30)</f>
         <v/>
       </c>
-      <c r="AF33" s="17" t="str">
+      <c r="AF33" s="16" t="str">
         <f>IF(_tag_month_all!AE30="","",_tag_month_all!AE30)</f>
         <v/>
       </c>
-      <c r="AG33" s="17" t="str">
+      <c r="AG33" s="29" t="str">
         <f>IF(_tag_month_all!AF30="","",_tag_month_all!AF30)</f>
         <v/>
       </c>
@@ -5799,145 +5938,148 @@
         <f>IF(_tag_month_all!AG30="","",_tag_month_all!AG30)</f>
         <v/>
       </c>
-      <c r="AI33" s="29" t="str">
+      <c r="AI33" s="28" t="str">
         <f>IF(_tag_month_all!AH30="","",_tag_month_all!AH30)</f>
         <v/>
       </c>
-      <c r="AJ33" s="38" t="str">
+      <c r="AJ33" s="28" t="str">
         <f>IF(_tag_month_all!AI30="","",_tag_month_all!AI30)</f>
         <v/>
       </c>
-      <c r="AK33" s="8"/>
-    </row>
-    <row r="34" spans="1:37" ht="14.25">
-      <c r="A34" s="13">
+      <c r="AK33" s="37" t="str">
+        <f>IF(_tag_month_all!AJ30="","",_tag_month_all!AJ30)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="12">
         <v>30</v>
       </c>
-      <c r="B34" s="16" t="str">
+      <c r="B34" s="15" t="str">
         <f>IF(_tag_month_all!A31="","",_tag_month_all!A31)</f>
         <v/>
       </c>
-      <c r="C34" s="16" t="str">
+      <c r="C34" s="15" t="str">
         <f>IF(_tag_month_all!B31="","",_tag_month_all!B31)</f>
         <v/>
       </c>
-      <c r="D34" s="17" t="str">
+      <c r="D34" s="16" t="str">
         <f>IF(_tag_month_all!C31="","",_tag_month_all!C31)</f>
         <v/>
       </c>
-      <c r="E34" s="18" t="str">
+      <c r="E34" s="17" t="str">
         <f>IF(_tag_month_all!D31="","",_tag_month_all!D31)</f>
         <v/>
       </c>
-      <c r="F34" s="19" t="str">
+      <c r="F34" s="18" t="str">
         <f>IF(_tag_month_all!E31="","",_tag_month_all!E31)</f>
         <v/>
       </c>
-      <c r="G34" s="20" t="str">
+      <c r="G34" s="19" t="str">
         <f>IF(_tag_month_all!F31="","",_tag_month_all!F31)</f>
         <v/>
       </c>
-      <c r="H34" s="21" t="str">
+      <c r="H34" s="20" t="str">
         <f>IF(_tag_month_all!G31="","",_tag_month_all!G31)</f>
         <v/>
       </c>
-      <c r="I34" s="18" t="str">
+      <c r="I34" s="17" t="str">
         <f>IF(_tag_month_all!H31="","",_tag_month_all!H31)</f>
         <v/>
       </c>
-      <c r="J34" s="18" t="str">
+      <c r="J34" s="17" t="str">
         <f>IF(_tag_month_all!I31="","",_tag_month_all!I31)</f>
         <v/>
       </c>
-      <c r="K34" s="27" t="str">
+      <c r="K34" s="26" t="str">
         <f>IF(_tag_month_all!J31="","",_tag_month_all!J31)</f>
         <v/>
       </c>
-      <c r="L34" s="18" t="str">
+      <c r="L34" s="17" t="str">
         <f>IF(_tag_month_all!K31="","",_tag_month_all!K31)</f>
         <v/>
       </c>
-      <c r="M34" s="28" t="str">
+      <c r="M34" s="27" t="str">
         <f>IF(_tag_month_all!L31="","",_tag_month_all!L31)</f>
         <v/>
       </c>
-      <c r="N34" s="29" t="str">
+      <c r="N34" s="28" t="str">
         <f>IF(_tag_month_all!M31="","",_tag_month_all!M31)</f>
         <v/>
       </c>
-      <c r="O34" s="30" t="str">
+      <c r="O34" s="29" t="str">
         <f>IF(_tag_month_all!N31="","",_tag_month_all!N31)</f>
         <v/>
       </c>
-      <c r="P34" s="30" t="str">
+      <c r="P34" s="29" t="str">
         <f>IF(_tag_month_all!O31="","",_tag_month_all!O31)</f>
         <v/>
       </c>
-      <c r="Q34" s="30" t="str">
+      <c r="Q34" s="29" t="str">
         <f>IF(_tag_month_all!P31="","",_tag_month_all!P31)</f>
         <v/>
       </c>
-      <c r="R34" s="35" t="str">
+      <c r="R34" s="34" t="str">
         <f>IF(_tag_month_all!Q31="","",_tag_month_all!Q31)</f>
         <v/>
       </c>
-      <c r="S34" s="35" t="str">
+      <c r="S34" s="34" t="str">
         <f>IF(_tag_month_all!R31="","",_tag_month_all!R31)</f>
         <v/>
       </c>
-      <c r="T34" s="35" t="str">
+      <c r="T34" s="34" t="str">
         <f>IF(_tag_month_all!S31="","",_tag_month_all!S31)</f>
         <v/>
       </c>
-      <c r="U34" s="35" t="str">
+      <c r="U34" s="34" t="str">
         <f>IF(_tag_month_all!T31="","",_tag_month_all!T31)</f>
         <v/>
       </c>
-      <c r="V34" s="29" t="str">
+      <c r="V34" s="28" t="str">
         <f>IF(_tag_month_all!U31="","",_tag_month_all!U31)</f>
         <v/>
       </c>
-      <c r="W34" s="30" t="str">
+      <c r="W34" s="29" t="str">
         <f>IF(_tag_month_all!V31="","",_tag_month_all!V31)</f>
         <v/>
       </c>
-      <c r="X34" s="30" t="str">
+      <c r="X34" s="29" t="str">
         <f>IF(_tag_month_all!W31="","",_tag_month_all!W31)</f>
         <v/>
       </c>
-      <c r="Y34" s="30" t="str">
+      <c r="Y34" s="29" t="str">
         <f>IF(_tag_month_all!X31="","",_tag_month_all!X31)</f>
         <v/>
       </c>
-      <c r="Z34" s="30" t="str">
+      <c r="Z34" s="29" t="str">
         <f>IF(_tag_month_all!Y31="","",_tag_month_all!Y31)</f>
         <v/>
       </c>
-      <c r="AA34" s="30" t="str">
+      <c r="AA34" s="29" t="str">
         <f>IF(_tag_month_all!Z31="","",_tag_month_all!Z31)</f>
         <v/>
       </c>
-      <c r="AB34" s="30" t="str">
+      <c r="AB34" s="29" t="str">
         <f>IF(_tag_month_all!AA31="","",_tag_month_all!AA31)</f>
         <v/>
       </c>
-      <c r="AC34" s="30" t="str">
+      <c r="AC34" s="29" t="str">
         <f>IF(_tag_month_all!AB31="","",_tag_month_all!AB31)</f>
         <v/>
       </c>
-      <c r="AD34" s="17" t="str">
+      <c r="AD34" s="29" t="str">
         <f>IF(_tag_month_all!AC31="","",_tag_month_all!AC31)</f>
         <v/>
       </c>
-      <c r="AE34" s="17" t="str">
+      <c r="AE34" s="16" t="str">
         <f>IF(_tag_month_all!AD31="","",_tag_month_all!AD31)</f>
         <v/>
       </c>
-      <c r="AF34" s="17" t="str">
+      <c r="AF34" s="16" t="str">
         <f>IF(_tag_month_all!AE31="","",_tag_month_all!AE31)</f>
         <v/>
       </c>
-      <c r="AG34" s="17" t="str">
+      <c r="AG34" s="29" t="str">
         <f>IF(_tag_month_all!AF31="","",_tag_month_all!AF31)</f>
         <v/>
       </c>
@@ -5945,145 +6087,148 @@
         <f>IF(_tag_month_all!AG31="","",_tag_month_all!AG31)</f>
         <v/>
       </c>
-      <c r="AI34" s="29" t="str">
+      <c r="AI34" s="28" t="str">
         <f>IF(_tag_month_all!AH31="","",_tag_month_all!AH31)</f>
         <v/>
       </c>
-      <c r="AJ34" s="38" t="str">
+      <c r="AJ34" s="28" t="str">
         <f>IF(_tag_month_all!AI31="","",_tag_month_all!AI31)</f>
         <v/>
       </c>
-      <c r="AK34" s="8"/>
-    </row>
-    <row r="35" spans="1:37" ht="14.25">
-      <c r="A35" s="13">
+      <c r="AK34" s="37" t="str">
+        <f>IF(_tag_month_all!AJ31="","",_tag_month_all!AJ31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="12">
         <v>31</v>
       </c>
-      <c r="B35" s="16" t="str">
+      <c r="B35" s="15" t="str">
         <f>IF(_tag_month_all!A32="","",_tag_month_all!A32)</f>
         <v/>
       </c>
-      <c r="C35" s="16" t="str">
+      <c r="C35" s="15" t="str">
         <f>IF(_tag_month_all!B32="","",_tag_month_all!B32)</f>
         <v/>
       </c>
-      <c r="D35" s="17" t="str">
+      <c r="D35" s="16" t="str">
         <f>IF(_tag_month_all!C32="","",_tag_month_all!C32)</f>
         <v/>
       </c>
-      <c r="E35" s="18" t="str">
+      <c r="E35" s="17" t="str">
         <f>IF(_tag_month_all!D32="","",_tag_month_all!D32)</f>
         <v/>
       </c>
-      <c r="F35" s="22" t="str">
+      <c r="F35" s="21" t="str">
         <f>IF(_tag_month_all!E32="","",_tag_month_all!E32)</f>
         <v/>
       </c>
-      <c r="G35" s="20" t="str">
+      <c r="G35" s="19" t="str">
         <f>IF(_tag_month_all!F32="","",_tag_month_all!F32)</f>
         <v/>
       </c>
-      <c r="H35" s="23" t="str">
+      <c r="H35" s="22" t="str">
         <f>IF(_tag_month_all!G32="","",_tag_month_all!G32)</f>
         <v/>
       </c>
-      <c r="I35" s="18" t="str">
+      <c r="I35" s="17" t="str">
         <f>IF(_tag_month_all!H32="","",_tag_month_all!H32)</f>
         <v/>
       </c>
-      <c r="J35" s="18" t="str">
+      <c r="J35" s="17" t="str">
         <f>IF(_tag_month_all!I32="","",_tag_month_all!I32)</f>
         <v/>
       </c>
-      <c r="K35" s="31" t="str">
+      <c r="K35" s="30" t="str">
         <f>IF(_tag_month_all!J32="","",_tag_month_all!J32)</f>
         <v/>
       </c>
-      <c r="L35" s="18" t="str">
+      <c r="L35" s="17" t="str">
         <f>IF(_tag_month_all!K32="","",_tag_month_all!K32)</f>
         <v/>
       </c>
-      <c r="M35" s="32" t="str">
+      <c r="M35" s="31" t="str">
         <f>IF(_tag_month_all!L32="","",_tag_month_all!L32)</f>
         <v/>
       </c>
-      <c r="N35" s="29" t="str">
+      <c r="N35" s="28" t="str">
         <f>IF(_tag_month_all!M32="","",_tag_month_all!M32)</f>
         <v/>
       </c>
-      <c r="O35" s="30" t="str">
+      <c r="O35" s="29" t="str">
         <f>IF(_tag_month_all!N32="","",_tag_month_all!N32)</f>
         <v/>
       </c>
-      <c r="P35" s="30" t="str">
+      <c r="P35" s="29" t="str">
         <f>IF(_tag_month_all!O32="","",_tag_month_all!O32)</f>
         <v/>
       </c>
-      <c r="Q35" s="30" t="str">
+      <c r="Q35" s="29" t="str">
         <f>IF(_tag_month_all!P32="","",_tag_month_all!P32)</f>
         <v/>
       </c>
-      <c r="R35" s="35" t="str">
+      <c r="R35" s="34" t="str">
         <f>IF(_tag_month_all!Q32="","",_tag_month_all!Q32)</f>
         <v/>
       </c>
-      <c r="S35" s="35" t="str">
+      <c r="S35" s="34" t="str">
         <f>IF(_tag_month_all!R32="","",_tag_month_all!R32)</f>
         <v/>
       </c>
-      <c r="T35" s="35" t="str">
+      <c r="T35" s="34" t="str">
         <f>IF(_tag_month_all!S32="","",_tag_month_all!S32)</f>
         <v/>
       </c>
-      <c r="U35" s="35" t="str">
+      <c r="U35" s="34" t="str">
         <f>IF(_tag_month_all!T32="","",_tag_month_all!T32)</f>
         <v/>
       </c>
-      <c r="V35" s="29" t="str">
+      <c r="V35" s="28" t="str">
         <f>IF(_tag_month_all!U32="","",_tag_month_all!U32)</f>
         <v/>
       </c>
-      <c r="W35" s="30" t="str">
+      <c r="W35" s="29" t="str">
         <f>IF(_tag_month_all!V32="","",_tag_month_all!V32)</f>
         <v/>
       </c>
-      <c r="X35" s="30" t="str">
+      <c r="X35" s="29" t="str">
         <f>IF(_tag_month_all!W32="","",_tag_month_all!W32)</f>
         <v/>
       </c>
-      <c r="Y35" s="30" t="str">
+      <c r="Y35" s="29" t="str">
         <f>IF(_tag_month_all!X32="","",_tag_month_all!X32)</f>
         <v/>
       </c>
-      <c r="Z35" s="30" t="str">
+      <c r="Z35" s="29" t="str">
         <f>IF(_tag_month_all!Y32="","",_tag_month_all!Y32)</f>
         <v/>
       </c>
-      <c r="AA35" s="30" t="str">
+      <c r="AA35" s="29" t="str">
         <f>IF(_tag_month_all!Z32="","",_tag_month_all!Z32)</f>
         <v/>
       </c>
-      <c r="AB35" s="30" t="str">
+      <c r="AB35" s="29" t="str">
         <f>IF(_tag_month_all!AA32="","",_tag_month_all!AA32)</f>
         <v/>
       </c>
-      <c r="AC35" s="30" t="str">
+      <c r="AC35" s="29" t="str">
         <f>IF(_tag_month_all!AB32="","",_tag_month_all!AB32)</f>
         <v/>
       </c>
-      <c r="AD35" s="17" t="str">
+      <c r="AD35" s="29" t="str">
         <f>IF(_tag_month_all!AC32="","",_tag_month_all!AC32)</f>
         <v/>
       </c>
-      <c r="AE35" s="17" t="str">
+      <c r="AE35" s="16" t="str">
         <f>IF(_tag_month_all!AD32="","",_tag_month_all!AD32)</f>
         <v/>
       </c>
-      <c r="AF35" s="17" t="str">
+      <c r="AF35" s="16" t="str">
         <f>IF(_tag_month_all!AE32="","",_tag_month_all!AE32)</f>
         <v/>
       </c>
-      <c r="AG35" s="17" t="str">
+      <c r="AG35" s="29" t="str">
         <f>IF(_tag_month_all!AF32="","",_tag_month_all!AF32)</f>
         <v/>
       </c>
@@ -6091,278 +6236,283 @@
         <f>IF(_tag_month_all!AG32="","",_tag_month_all!AG32)</f>
         <v/>
       </c>
-      <c r="AI35" s="29" t="str">
+      <c r="AI35" s="28" t="str">
         <f>IF(_tag_month_all!AH32="","",_tag_month_all!AH32)</f>
         <v/>
       </c>
-      <c r="AJ35" s="38" t="str">
+      <c r="AJ35" s="28" t="str">
         <f>IF(_tag_month_all!AI32="","",_tag_month_all!AI32)</f>
         <v/>
       </c>
-      <c r="AK35" s="8"/>
-    </row>
-    <row r="36" spans="1:37" ht="14.25">
-      <c r="A36" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="25" t="str">
+      <c r="AK35" s="37" t="str">
+        <f>IF(_tag_month_all!AJ32="","",_tag_month_all!AJ32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="24" t="str">
         <f>IFERROR(AVERAGE(B4:B35),"")</f>
         <v/>
       </c>
-      <c r="C36" s="25" t="str">
-        <f t="shared" ref="C36:AJ36" si="0">IFERROR(AVERAGE(C4:C35),"")</f>
-        <v/>
-      </c>
-      <c r="D36" s="26" t="str">
+      <c r="C36" s="24" t="str">
+        <f t="shared" ref="C36:AK36" si="0">IFERROR(AVERAGE(C4:C35),"")</f>
+        <v/>
+      </c>
+      <c r="D36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E36" s="26" t="str">
+      <c r="E36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="26" t="str">
+      <c r="F36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G36" s="26" t="str">
+      <c r="G36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="26" t="str">
+      <c r="H36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I36" s="26" t="str">
+      <c r="I36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J36" s="26" t="str">
+      <c r="J36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K36" s="26" t="str">
+      <c r="K36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L36" s="26" t="str">
+      <c r="L36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M36" s="26" t="str">
+      <c r="M36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N36" s="26" t="str">
+      <c r="N36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O36" s="25" t="str">
+      <c r="O36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P36" s="25" t="str">
+      <c r="P36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q36" s="25" t="str">
+      <c r="Q36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R36" s="26" t="str">
+      <c r="R36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S36" s="26" t="str">
+      <c r="S36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T36" s="26" t="str">
+      <c r="T36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U36" s="26" t="str">
+      <c r="U36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V36" s="26" t="str">
+      <c r="V36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W36" s="25" t="str">
+      <c r="W36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="X36" s="25" t="str">
+      <c r="X36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y36" s="25" t="str">
+      <c r="Y36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Z36" s="25" t="str">
+      <c r="Z36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA36" s="25" t="str">
+      <c r="AA36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB36" s="25" t="str">
+      <c r="AB36" s="24" t="str">
+        <f t="shared" ref="AB36" si="1">IFERROR(AVERAGE(AB4:AB35),"")</f>
+        <v/>
+      </c>
+      <c r="AC36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AC36" s="25" t="str">
+      <c r="AD36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD36" s="26" t="str">
+      <c r="AE36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE36" s="26" t="str">
+      <c r="AF36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AF36" s="26" t="str">
+      <c r="AG36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AG36" s="26" t="str">
+      <c r="AH36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH36" s="26" t="str">
+      <c r="AI36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI36" s="26" t="str">
+      <c r="AJ36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AJ36" s="39" t="str">
+      <c r="AK36" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AK36" s="8"/>
-    </row>
-    <row r="37" spans="1:37" ht="14.25">
-      <c r="AJ37" s="40"/>
-      <c r="AK37" s="8"/>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="AK37" s="39"/>
     </row>
     <row r="38" spans="1:37" ht="14.25">
-      <c r="AJ38" s="41"/>
+      <c r="AK38" s="40"/>
     </row>
     <row r="39" spans="1:37">
-      <c r="AJ39" s="42"/>
+      <c r="AK39" s="41"/>
     </row>
     <row r="40" spans="1:37">
-      <c r="AJ40" s="42"/>
+      <c r="AK40" s="41"/>
     </row>
     <row r="41" spans="1:37">
-      <c r="AJ41" s="42"/>
+      <c r="AK41" s="41"/>
     </row>
     <row r="42" spans="1:37">
-      <c r="AJ42" s="42"/>
+      <c r="AK42" s="41"/>
     </row>
     <row r="43" spans="1:37">
-      <c r="AJ43" s="42"/>
+      <c r="AK43" s="41"/>
     </row>
     <row r="44" spans="1:37">
-      <c r="AJ44" s="42"/>
+      <c r="AK44" s="41"/>
     </row>
     <row r="45" spans="1:37">
-      <c r="AJ45" s="42"/>
+      <c r="AK45" s="41"/>
     </row>
     <row r="46" spans="1:37">
-      <c r="AJ46" s="42"/>
+      <c r="AK46" s="41"/>
     </row>
     <row r="47" spans="1:37">
-      <c r="AJ47" s="42"/>
+      <c r="AK47" s="41"/>
     </row>
     <row r="48" spans="1:37">
-      <c r="AJ48" s="42"/>
-    </row>
-    <row r="49" spans="36:36">
-      <c r="AJ49" s="42"/>
-    </row>
-    <row r="50" spans="36:36">
-      <c r="AJ50" s="42"/>
-    </row>
-    <row r="51" spans="36:36">
-      <c r="AJ51" s="42"/>
-    </row>
-    <row r="52" spans="36:36">
-      <c r="AJ52" s="42"/>
-    </row>
-    <row r="53" spans="36:36">
-      <c r="AJ53" s="42"/>
-    </row>
-    <row r="54" spans="36:36">
-      <c r="AJ54" s="42"/>
-    </row>
-    <row r="55" spans="36:36">
-      <c r="AJ55" s="42"/>
-    </row>
-    <row r="56" spans="36:36">
-      <c r="AJ56" s="42"/>
-    </row>
-    <row r="57" spans="36:36">
-      <c r="AJ57" s="42"/>
-    </row>
-    <row r="58" spans="36:36">
-      <c r="AJ58" s="42"/>
-    </row>
-    <row r="59" spans="36:36">
-      <c r="AJ59" s="42"/>
-    </row>
-    <row r="60" spans="36:36">
-      <c r="AJ60" s="42"/>
-    </row>
-    <row r="61" spans="36:36">
-      <c r="AJ61" s="42"/>
-    </row>
-    <row r="62" spans="36:36">
-      <c r="AJ62" s="42"/>
-    </row>
-    <row r="63" spans="36:36">
-      <c r="AJ63" s="42"/>
-    </row>
-    <row r="64" spans="36:36">
-      <c r="AJ64" s="42"/>
-    </row>
-    <row r="65" spans="36:36">
-      <c r="AJ65" s="42"/>
-    </row>
-    <row r="66" spans="36:36">
-      <c r="AJ66" s="42"/>
-    </row>
-    <row r="67" spans="36:36">
-      <c r="AJ67" s="42"/>
-    </row>
-    <row r="68" spans="36:36">
-      <c r="AJ68" s="42"/>
-    </row>
-    <row r="69" spans="36:36">
-      <c r="AJ69" s="42"/>
-    </row>
-    <row r="70" spans="36:36">
-      <c r="AJ70" s="43"/>
+      <c r="AK48" s="41"/>
+    </row>
+    <row r="49" spans="37:37">
+      <c r="AK49" s="41"/>
+    </row>
+    <row r="50" spans="37:37">
+      <c r="AK50" s="41"/>
+    </row>
+    <row r="51" spans="37:37">
+      <c r="AK51" s="41"/>
+    </row>
+    <row r="52" spans="37:37">
+      <c r="AK52" s="41"/>
+    </row>
+    <row r="53" spans="37:37">
+      <c r="AK53" s="41"/>
+    </row>
+    <row r="54" spans="37:37">
+      <c r="AK54" s="41"/>
+    </row>
+    <row r="55" spans="37:37">
+      <c r="AK55" s="41"/>
+    </row>
+    <row r="56" spans="37:37">
+      <c r="AK56" s="41"/>
+    </row>
+    <row r="57" spans="37:37">
+      <c r="AK57" s="41"/>
+    </row>
+    <row r="58" spans="37:37">
+      <c r="AK58" s="41"/>
+    </row>
+    <row r="59" spans="37:37">
+      <c r="AK59" s="41"/>
+    </row>
+    <row r="60" spans="37:37">
+      <c r="AK60" s="41"/>
+    </row>
+    <row r="61" spans="37:37">
+      <c r="AK61" s="41"/>
+    </row>
+    <row r="62" spans="37:37">
+      <c r="AK62" s="41"/>
+    </row>
+    <row r="63" spans="37:37">
+      <c r="AK63" s="41"/>
+    </row>
+    <row r="64" spans="37:37">
+      <c r="AK64" s="41"/>
+    </row>
+    <row r="65" spans="37:37">
+      <c r="AK65" s="41"/>
+    </row>
+    <row r="66" spans="37:37">
+      <c r="AK66" s="41"/>
+    </row>
+    <row r="67" spans="37:37">
+      <c r="AK67" s="41"/>
+    </row>
+    <row r="68" spans="37:37">
+      <c r="AK68" s="41"/>
+    </row>
+    <row r="69" spans="37:37">
+      <c r="AK69" s="41"/>
+    </row>
+    <row r="70" spans="37:37">
+      <c r="AK70" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="B2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="X2:AB2"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AH2:AH3"/>
     <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6372,119 +6522,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="48">
+    <row r="1" spans="1:36" ht="48">
       <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="AA1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AB1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AC1" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="AD1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="AF1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -6505,7 +6658,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>6</v>

--- a/excel/finished/6高炉/高炉月报表.xlsx
+++ b/excel/finished/6高炉/高炉月报表.xlsx
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
-  <si>
-    <t>高炉月报表</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
   <si>
     <t xml:space="preserve">   项目
 日期</t>
@@ -78,22 +75,6 @@
 ℃</t>
   </si>
   <si>
-    <t>冷风压力
-kPa</t>
-  </si>
-  <si>
-    <t>热风压力
-kpa</t>
-  </si>
-  <si>
-    <t>炉顶压力
-kpa</t>
-  </si>
-  <si>
-    <t>全压差
-kpa</t>
-  </si>
-  <si>
     <t>风湿
 g/m3</t>
   </si>
@@ -106,9 +87,6 @@
   </si>
   <si>
     <t>CCT2</t>
-  </si>
-  <si>
-    <t>PCT</t>
   </si>
   <si>
     <t>Z值</t>
@@ -159,6 +137,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -168,6 +147,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>O</t>
@@ -179,6 +159,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>H</t>
@@ -188,6 +169,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -199,6 +181,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -208,6 +191,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -250,10 +234,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>BF6_L2M_OxygenEnrichmentRate_1d</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>BF6_L2C_BD_HotBlastTemp_1d_avg</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -266,10 +246,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>BF6_L2C_BD_AvgTopPress_1d_avg</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>BF6_L2C_BD_Pressdiff_1d_avg</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -354,15 +330,59 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>BF6_L2C_BD_TE04001_1d_cur</t>
+    <t>BF6_L2M_ChargeRate_1d_avg</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>BF6_L1R_BD_Q_1d_avg</t>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>BF6_L2M_ChargeRate_1d_avg</t>
+    <t>BF6_L2M_OxygenEnrichmentRate_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_MaxTopPress_1d_avg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>6高炉参数月报</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷风压力
+KPa</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>热风压力
+Kpa</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉顶压力
+Kpa</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>全压差
+Kpa</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE04076_1d_avg</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -370,16 +390,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0;_�"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0;_찀"/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.0_ "/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,45 +407,53 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -449,12 +474,14 @@
       <sz val="11"/>
       <color indexed="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -468,6 +495,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -785,14 +818,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -802,14 +832,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -823,117 +847,193 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -941,10 +1041,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,28 +1076,18 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="1"/>
@@ -1306,378 +1396,394 @@
   <dimension ref="A1:AK70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="8" customWidth="1"/>
-    <col min="2" max="3" width="9.125" style="8" customWidth="1"/>
-    <col min="4" max="32" width="9" style="8"/>
-    <col min="33" max="34" width="9" style="65"/>
-    <col min="35" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="11" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="9" style="25"/>
+    <col min="5" max="5" width="9" style="29"/>
+    <col min="6" max="6" width="9" style="25"/>
+    <col min="7" max="8" width="9" style="42"/>
+    <col min="9" max="10" width="9" style="25"/>
+    <col min="11" max="12" width="9" style="29"/>
+    <col min="13" max="15" width="9" style="6"/>
+    <col min="16" max="19" width="9" style="29"/>
+    <col min="20" max="20" width="9" style="51"/>
+    <col min="21" max="22" width="9" style="25"/>
+    <col min="23" max="23" width="9" style="29"/>
+    <col min="24" max="30" width="9" style="25"/>
+    <col min="31" max="32" width="9" style="29"/>
+    <col min="33" max="34" width="9" style="25"/>
+    <col min="35" max="35" width="9" style="29"/>
+    <col min="36" max="36" width="9" style="6"/>
+    <col min="37" max="37" width="9" style="29"/>
+    <col min="38" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="7" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:37" s="5" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A1" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75" t="str">
+        <f>IF(_metadata!B7="","",_metadata!B7)</f>
+        <v/>
+      </c>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="52"/>
+    </row>
+    <row r="2" spans="1:37" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="49" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v/>
-      </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-    </row>
-    <row r="2" spans="1:37" s="7" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="B2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="53" t="s">
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="53" t="s">
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="61" t="s">
+      <c r="AH2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="61" t="s">
+      <c r="AI2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="44" t="s">
+      <c r="AJ2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AK2" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="46" t="s">
+    </row>
+    <row r="3" spans="1:37" s="5" customFormat="1" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="83"/>
+      <c r="B3" s="26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" s="7" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="L3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="M3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="N3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="O3" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="Q3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="R3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="S3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="T3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="U3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="V3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="W3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="X3" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="Y3" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="Z3" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="AA3" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="AB3" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="AD3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="33" t="s">
+      <c r="AE3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="33" t="s">
+      <c r="AF3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="33" t="s">
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="73"/>
+    </row>
+    <row r="4" spans="1:37" s="5" customFormat="1" ht="36" hidden="1" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="33" t="s">
+      <c r="B4" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC3" s="10" t="s">
+      <c r="Y4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="Z4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AA4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AF3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="47"/>
-    </row>
-    <row r="4" spans="1:37" s="7" customFormat="1" ht="45" hidden="1" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="AB4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC4" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD4" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE4" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF4" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI4" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ4" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG4" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH4" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" s="7" customFormat="1" ht="45" customHeight="1">
-      <c r="A5" s="12">
+    </row>
+    <row r="5" spans="1:37" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="str">
+      <c r="B5" s="28" t="str">
         <f>IF(_tag_month_all!A2="","",_tag_month_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="13" t="str">
+      <c r="C5" s="24" t="str">
         <f>IF(_tag_month_all!B2="","",_tag_month_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="13" t="str">
+      <c r="D5" s="24" t="str">
         <f>IF(_tag_month_all!C2="","",_tag_month_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="13" t="str">
+      <c r="E5" s="28" t="str">
         <f>IF(_tag_month_all!D2="","",_tag_month_all!D2)</f>
         <v/>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="23" t="str">
         <f>IF(_tag_month_all!E2="","",_tag_month_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="14" t="str">
+      <c r="G5" s="37" t="str">
         <f>IF(_tag_month_all!F2="","",_tag_month_all!F2)</f>
         <v/>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="36" t="str">
         <f>IF(_tag_month_all!G2="","",_tag_month_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="13" t="str">
+      <c r="I5" s="24" t="str">
         <f>IF(_tag_month_all!H2="","",_tag_month_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="13" t="str">
+      <c r="J5" s="24" t="str">
         <f>IF(_tag_month_all!I2="","",_tag_month_all!I2)</f>
         <v/>
       </c>
-      <c r="K5" s="1" t="str">
+      <c r="K5" s="27" t="str">
         <f>IF(_tag_month_all!J2="","",_tag_month_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="13" t="str">
+      <c r="L5" s="28" t="str">
         <f>IF(_tag_month_all!K2="","",_tag_month_all!K2)</f>
         <v/>
       </c>
@@ -1685,148 +1791,148 @@
         <f>IF(_tag_month_all!L2="","",_tag_month_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="13" t="str">
+      <c r="N5" s="10" t="str">
         <f>IF(_tag_month_all!M2="","",_tag_month_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="13" t="str">
+      <c r="O5" s="10" t="str">
         <f>IF(_tag_month_all!N2="","",_tag_month_all!N2)</f>
         <v/>
       </c>
-      <c r="P5" s="13" t="str">
+      <c r="P5" s="28" t="str">
         <f>IF(_tag_month_all!O2="","",_tag_month_all!O2)</f>
         <v/>
       </c>
-      <c r="Q5" s="13" t="str">
+      <c r="Q5" s="28" t="str">
         <f>IF(_tag_month_all!P2="","",_tag_month_all!P2)</f>
         <v/>
       </c>
-      <c r="R5" s="13" t="str">
+      <c r="R5" s="28" t="str">
         <f>IF(_tag_month_all!Q2="","",_tag_month_all!Q2)</f>
         <v/>
       </c>
-      <c r="S5" s="13" t="str">
+      <c r="S5" s="28" t="str">
         <f>IF(_tag_month_all!R2="","",_tag_month_all!R2)</f>
         <v/>
       </c>
-      <c r="T5" s="13" t="str">
+      <c r="T5" s="48" t="str">
         <f>IF(_tag_month_all!S2="","",_tag_month_all!S2)</f>
         <v/>
       </c>
-      <c r="U5" s="13" t="str">
+      <c r="U5" s="24" t="str">
         <f>IF(_tag_month_all!T2="","",_tag_month_all!T2)</f>
         <v/>
       </c>
-      <c r="V5" s="13" t="str">
+      <c r="V5" s="24" t="str">
         <f>IF(_tag_month_all!U2="","",_tag_month_all!U2)</f>
         <v/>
       </c>
-      <c r="W5" s="13" t="str">
+      <c r="W5" s="28" t="str">
         <f>IF(_tag_month_all!V2="","",_tag_month_all!V2)</f>
         <v/>
       </c>
-      <c r="X5" s="13" t="str">
+      <c r="X5" s="24" t="str">
         <f>IF(_tag_month_all!W2="","",_tag_month_all!W2)</f>
         <v/>
       </c>
-      <c r="Y5" s="13" t="str">
+      <c r="Y5" s="24" t="str">
         <f>IF(_tag_month_all!X2="","",_tag_month_all!X2)</f>
         <v/>
       </c>
-      <c r="Z5" s="13" t="str">
+      <c r="Z5" s="24" t="str">
         <f>IF(_tag_month_all!Y2="","",_tag_month_all!Y2)</f>
         <v/>
       </c>
-      <c r="AA5" s="13" t="str">
+      <c r="AA5" s="24" t="str">
         <f>IF(_tag_month_all!Z2="","",_tag_month_all!Z2)</f>
         <v/>
       </c>
-      <c r="AB5" s="13" t="str">
+      <c r="AB5" s="24" t="str">
         <f>IF(_tag_month_all!AA2="","",_tag_month_all!AA2)</f>
         <v/>
       </c>
-      <c r="AC5" s="35" t="str">
+      <c r="AC5" s="57" t="str">
         <f>IF(_tag_month_all!AB2="","",_tag_month_all!AB2)</f>
         <v/>
       </c>
-      <c r="AD5" s="36" t="str">
+      <c r="AD5" s="58" t="str">
         <f>IF(_tag_month_all!AC2="","",_tag_month_all!AC2)</f>
         <v/>
       </c>
-      <c r="AE5" s="36" t="str">
+      <c r="AE5" s="60" t="str">
         <f>IF(_tag_month_all!AD2="","",_tag_month_all!AD2)</f>
         <v/>
       </c>
-      <c r="AF5" s="36" t="str">
+      <c r="AF5" s="60" t="str">
         <f>IF(_tag_month_all!AE2="","",_tag_month_all!AE2)</f>
         <v/>
       </c>
-      <c r="AG5" s="64" t="str">
+      <c r="AG5" s="24" t="str">
         <f>IF(_tag_month_all!AF2="","",_tag_month_all!AF2)</f>
         <v/>
       </c>
-      <c r="AH5" s="64" t="str">
+      <c r="AH5" s="24" t="str">
         <f>IF(_tag_month_all!AG2="","",_tag_month_all!AG2)</f>
         <v/>
       </c>
-      <c r="AI5" s="13" t="str">
+      <c r="AI5" s="28" t="str">
         <f>IF(_tag_month_all!AH2="","",_tag_month_all!AH2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="13" t="str">
+      <c r="AJ5" s="10" t="str">
         <f>IF(_tag_month_all!AI2="","",_tag_month_all!AI2)</f>
         <v/>
       </c>
-      <c r="AK5" s="37" t="str">
+      <c r="AK5" s="61" t="str">
         <f>IF(_tag_month_all!AJ2="","",_tag_month_all!AJ2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:37" s="7" customFormat="1" ht="14.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:37" s="5" customFormat="1" ht="14.25">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="str">
+      <c r="B6" s="28" t="str">
         <f>IF(_tag_month_all!A3="","",_tag_month_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="24" t="str">
         <f>IF(_tag_month_all!B3="","",_tag_month_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="13" t="str">
+      <c r="D6" s="24" t="str">
         <f>IF(_tag_month_all!C3="","",_tag_month_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="13" t="str">
+      <c r="E6" s="28" t="str">
         <f>IF(_tag_month_all!D3="","",_tag_month_all!D3)</f>
         <v/>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="23" t="str">
         <f>IF(_tag_month_all!E3="","",_tag_month_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="14" t="str">
+      <c r="G6" s="37" t="str">
         <f>IF(_tag_month_all!F3="","",_tag_month_all!F3)</f>
         <v/>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="36" t="str">
         <f>IF(_tag_month_all!G3="","",_tag_month_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="13" t="str">
+      <c r="I6" s="24" t="str">
         <f>IF(_tag_month_all!H3="","",_tag_month_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="13" t="str">
+      <c r="J6" s="24" t="str">
         <f>IF(_tag_month_all!I3="","",_tag_month_all!I3)</f>
         <v/>
       </c>
-      <c r="K6" s="1" t="str">
+      <c r="K6" s="27" t="str">
         <f>IF(_tag_month_all!J3="","",_tag_month_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="13" t="str">
+      <c r="L6" s="28" t="str">
         <f>IF(_tag_month_all!K3="","",_tag_month_all!K3)</f>
         <v/>
       </c>
@@ -1834,132 +1940,132 @@
         <f>IF(_tag_month_all!L3="","",_tag_month_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="13" t="str">
+      <c r="N6" s="10" t="str">
         <f>IF(_tag_month_all!M3="","",_tag_month_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="13" t="str">
+      <c r="O6" s="10" t="str">
         <f>IF(_tag_month_all!N3="","",_tag_month_all!N3)</f>
         <v/>
       </c>
-      <c r="P6" s="13" t="str">
+      <c r="P6" s="28" t="str">
         <f>IF(_tag_month_all!O3="","",_tag_month_all!O3)</f>
         <v/>
       </c>
-      <c r="Q6" s="13" t="str">
+      <c r="Q6" s="28" t="str">
         <f>IF(_tag_month_all!P3="","",_tag_month_all!P3)</f>
         <v/>
       </c>
-      <c r="R6" s="13" t="str">
+      <c r="R6" s="28" t="str">
         <f>IF(_tag_month_all!Q3="","",_tag_month_all!Q3)</f>
         <v/>
       </c>
-      <c r="S6" s="13" t="str">
+      <c r="S6" s="28" t="str">
         <f>IF(_tag_month_all!R3="","",_tag_month_all!R3)</f>
         <v/>
       </c>
-      <c r="T6" s="13" t="str">
+      <c r="T6" s="48" t="str">
         <f>IF(_tag_month_all!S3="","",_tag_month_all!S3)</f>
         <v/>
       </c>
-      <c r="U6" s="13" t="str">
+      <c r="U6" s="24" t="str">
         <f>IF(_tag_month_all!T3="","",_tag_month_all!T3)</f>
         <v/>
       </c>
-      <c r="V6" s="13" t="str">
+      <c r="V6" s="24" t="str">
         <f>IF(_tag_month_all!U3="","",_tag_month_all!U3)</f>
         <v/>
       </c>
-      <c r="W6" s="13" t="str">
+      <c r="W6" s="28" t="str">
         <f>IF(_tag_month_all!V3="","",_tag_month_all!V3)</f>
         <v/>
       </c>
-      <c r="X6" s="13" t="str">
+      <c r="X6" s="24" t="str">
         <f>IF(_tag_month_all!W3="","",_tag_month_all!W3)</f>
         <v/>
       </c>
-      <c r="Y6" s="13" t="str">
+      <c r="Y6" s="24" t="str">
         <f>IF(_tag_month_all!X3="","",_tag_month_all!X3)</f>
         <v/>
       </c>
-      <c r="Z6" s="13" t="str">
+      <c r="Z6" s="24" t="str">
         <f>IF(_tag_month_all!Y3="","",_tag_month_all!Y3)</f>
         <v/>
       </c>
-      <c r="AA6" s="13" t="str">
+      <c r="AA6" s="24" t="str">
         <f>IF(_tag_month_all!Z3="","",_tag_month_all!Z3)</f>
         <v/>
       </c>
-      <c r="AB6" s="13" t="str">
+      <c r="AB6" s="24" t="str">
         <f>IF(_tag_month_all!AA3="","",_tag_month_all!AA3)</f>
         <v/>
       </c>
-      <c r="AC6" s="35" t="str">
+      <c r="AC6" s="57" t="str">
         <f>IF(_tag_month_all!AB3="","",_tag_month_all!AB3)</f>
         <v/>
       </c>
-      <c r="AD6" s="36" t="str">
+      <c r="AD6" s="58" t="str">
         <f>IF(_tag_month_all!AC3="","",_tag_month_all!AC3)</f>
         <v/>
       </c>
-      <c r="AE6" s="36" t="str">
+      <c r="AE6" s="60" t="str">
         <f>IF(_tag_month_all!AD3="","",_tag_month_all!AD3)</f>
         <v/>
       </c>
-      <c r="AF6" s="36" t="str">
+      <c r="AF6" s="60" t="str">
         <f>IF(_tag_month_all!AE3="","",_tag_month_all!AE3)</f>
         <v/>
       </c>
-      <c r="AG6" s="64" t="str">
+      <c r="AG6" s="24" t="str">
         <f>IF(_tag_month_all!AF3="","",_tag_month_all!AF3)</f>
         <v/>
       </c>
-      <c r="AH6" s="64" t="str">
+      <c r="AH6" s="24" t="str">
         <f>IF(_tag_month_all!AG3="","",_tag_month_all!AG3)</f>
         <v/>
       </c>
-      <c r="AI6" s="13" t="str">
+      <c r="AI6" s="28" t="str">
         <f>IF(_tag_month_all!AH3="","",_tag_month_all!AH3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="13" t="str">
+      <c r="AJ6" s="10" t="str">
         <f>IF(_tag_month_all!AI3="","",_tag_month_all!AI3)</f>
         <v/>
       </c>
-      <c r="AK6" s="37" t="str">
+      <c r="AK6" s="61" t="str">
         <f>IF(_tag_month_all!AJ3="","",_tag_month_all!AJ3)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="str">
+      <c r="B7" s="11" t="str">
         <f>IF(_tag_month_all!A4="","",_tag_month_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="17" t="str">
         <f>IF(_tag_month_all!B4="","",_tag_month_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="16" t="str">
+      <c r="D7" s="17" t="str">
         <f>IF(_tag_month_all!C4="","",_tag_month_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="17" t="str">
+      <c r="E7" s="11" t="str">
         <f>IF(_tag_month_all!D4="","",_tag_month_all!D4)</f>
         <v/>
       </c>
-      <c r="F7" s="18" t="str">
+      <c r="F7" s="33" t="str">
         <f>IF(_tag_month_all!E4="","",_tag_month_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="19" t="str">
+      <c r="G7" s="38" t="str">
         <f>IF(_tag_month_all!F4="","",_tag_month_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="20" t="str">
+      <c r="H7" s="39" t="str">
         <f>IF(_tag_month_all!G4="","",_tag_month_all!G4)</f>
         <v/>
       </c>
@@ -1971,144 +2077,144 @@
         <f>IF(_tag_month_all!I4="","",_tag_month_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="26" t="str">
+      <c r="K7" s="43" t="str">
         <f>IF(_tag_month_all!J4="","",_tag_month_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="17" t="str">
+      <c r="L7" s="11" t="str">
         <f>IF(_tag_month_all!K4="","",_tag_month_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="27" t="str">
+      <c r="M7" s="15" t="str">
         <f>IF(_tag_month_all!L4="","",_tag_month_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="28" t="str">
+      <c r="N7" s="16" t="str">
         <f>IF(_tag_month_all!M4="","",_tag_month_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="29" t="str">
+      <c r="O7" s="17" t="str">
         <f>IF(_tag_month_all!N4="","",_tag_month_all!N4)</f>
         <v/>
       </c>
-      <c r="P7" s="29" t="str">
+      <c r="P7" s="11" t="str">
         <f>IF(_tag_month_all!O4="","",_tag_month_all!O4)</f>
         <v/>
       </c>
-      <c r="Q7" s="29" t="str">
+      <c r="Q7" s="11" t="str">
         <f>IF(_tag_month_all!P4="","",_tag_month_all!P4)</f>
         <v/>
       </c>
-      <c r="R7" s="34" t="str">
+      <c r="R7" s="11" t="str">
         <f>IF(_tag_month_all!Q4="","",_tag_month_all!Q4)</f>
         <v/>
       </c>
-      <c r="S7" s="34" t="str">
+      <c r="S7" s="11" t="str">
         <f>IF(_tag_month_all!R4="","",_tag_month_all!R4)</f>
         <v/>
       </c>
-      <c r="T7" s="34" t="str">
+      <c r="T7" s="49" t="str">
         <f>IF(_tag_month_all!S4="","",_tag_month_all!S4)</f>
         <v/>
       </c>
-      <c r="U7" s="34" t="str">
+      <c r="U7" s="17" t="str">
         <f>IF(_tag_month_all!T4="","",_tag_month_all!T4)</f>
         <v/>
       </c>
-      <c r="V7" s="28" t="str">
+      <c r="V7" s="17" t="str">
         <f>IF(_tag_month_all!U4="","",_tag_month_all!U4)</f>
         <v/>
       </c>
-      <c r="W7" s="29" t="str">
+      <c r="W7" s="11" t="str">
         <f>IF(_tag_month_all!V4="","",_tag_month_all!V4)</f>
         <v/>
       </c>
-      <c r="X7" s="29" t="str">
+      <c r="X7" s="17" t="str">
         <f>IF(_tag_month_all!W4="","",_tag_month_all!W4)</f>
         <v/>
       </c>
-      <c r="Y7" s="29" t="str">
+      <c r="Y7" s="17" t="str">
         <f>IF(_tag_month_all!X4="","",_tag_month_all!X4)</f>
         <v/>
       </c>
-      <c r="Z7" s="29" t="str">
+      <c r="Z7" s="17" t="str">
         <f>IF(_tag_month_all!Y4="","",_tag_month_all!Y4)</f>
         <v/>
       </c>
-      <c r="AA7" s="29" t="str">
+      <c r="AA7" s="17" t="str">
         <f>IF(_tag_month_all!Z4="","",_tag_month_all!Z4)</f>
         <v/>
       </c>
-      <c r="AB7" s="29" t="str">
+      <c r="AB7" s="17" t="str">
         <f>IF(_tag_month_all!AA4="","",_tag_month_all!AA4)</f>
         <v/>
       </c>
-      <c r="AC7" s="29" t="str">
+      <c r="AC7" s="17" t="str">
         <f>IF(_tag_month_all!AB4="","",_tag_month_all!AB4)</f>
         <v/>
       </c>
-      <c r="AD7" s="29" t="str">
+      <c r="AD7" s="17" t="str">
         <f>IF(_tag_month_all!AC4="","",_tag_month_all!AC4)</f>
         <v/>
       </c>
-      <c r="AE7" s="16" t="str">
+      <c r="AE7" s="11" t="str">
         <f>IF(_tag_month_all!AD4="","",_tag_month_all!AD4)</f>
         <v/>
       </c>
-      <c r="AF7" s="16" t="str">
+      <c r="AF7" s="11" t="str">
         <f>IF(_tag_month_all!AE4="","",_tag_month_all!AE4)</f>
         <v/>
       </c>
-      <c r="AG7" s="29" t="str">
+      <c r="AG7" s="17" t="str">
         <f>IF(_tag_month_all!AF4="","",_tag_month_all!AF4)</f>
         <v/>
       </c>
-      <c r="AH7" s="29" t="str">
+      <c r="AH7" s="17" t="str">
         <f>IF(_tag_month_all!AG4="","",_tag_month_all!AG4)</f>
         <v/>
       </c>
-      <c r="AI7" s="28" t="str">
+      <c r="AI7" s="11" t="str">
         <f>IF(_tag_month_all!AH4="","",_tag_month_all!AH4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="28" t="str">
+      <c r="AJ7" s="16" t="str">
         <f>IF(_tag_month_all!AI4="","",_tag_month_all!AI4)</f>
         <v/>
       </c>
-      <c r="AK7" s="37" t="str">
+      <c r="AK7" s="61" t="str">
         <f>IF(_tag_month_all!AJ4="","",_tag_month_all!AJ4)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="11" t="str">
         <f>IF(_tag_month_all!A5="","",_tag_month_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C8" s="17" t="str">
         <f>IF(_tag_month_all!B5="","",_tag_month_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="16" t="str">
+      <c r="D8" s="17" t="str">
         <f>IF(_tag_month_all!C5="","",_tag_month_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="17" t="str">
+      <c r="E8" s="11" t="str">
         <f>IF(_tag_month_all!D5="","",_tag_month_all!D5)</f>
         <v/>
       </c>
-      <c r="F8" s="18" t="str">
+      <c r="F8" s="33" t="str">
         <f>IF(_tag_month_all!E5="","",_tag_month_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="19" t="str">
+      <c r="G8" s="38" t="str">
         <f>IF(_tag_month_all!F5="","",_tag_month_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="20" t="str">
+      <c r="H8" s="39" t="str">
         <f>IF(_tag_month_all!G5="","",_tag_month_all!G5)</f>
         <v/>
       </c>
@@ -2120,144 +2226,144 @@
         <f>IF(_tag_month_all!I5="","",_tag_month_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="26" t="str">
+      <c r="K8" s="43" t="str">
         <f>IF(_tag_month_all!J5="","",_tag_month_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="17" t="str">
+      <c r="L8" s="11" t="str">
         <f>IF(_tag_month_all!K5="","",_tag_month_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="27" t="str">
+      <c r="M8" s="15" t="str">
         <f>IF(_tag_month_all!L5="","",_tag_month_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="28" t="str">
+      <c r="N8" s="16" t="str">
         <f>IF(_tag_month_all!M5="","",_tag_month_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="29" t="str">
+      <c r="O8" s="17" t="str">
         <f>IF(_tag_month_all!N5="","",_tag_month_all!N5)</f>
         <v/>
       </c>
-      <c r="P8" s="29" t="str">
+      <c r="P8" s="11" t="str">
         <f>IF(_tag_month_all!O5="","",_tag_month_all!O5)</f>
         <v/>
       </c>
-      <c r="Q8" s="29" t="str">
+      <c r="Q8" s="11" t="str">
         <f>IF(_tag_month_all!P5="","",_tag_month_all!P5)</f>
         <v/>
       </c>
-      <c r="R8" s="34" t="str">
+      <c r="R8" s="11" t="str">
         <f>IF(_tag_month_all!Q5="","",_tag_month_all!Q5)</f>
         <v/>
       </c>
-      <c r="S8" s="34" t="str">
+      <c r="S8" s="11" t="str">
         <f>IF(_tag_month_all!R5="","",_tag_month_all!R5)</f>
         <v/>
       </c>
-      <c r="T8" s="34" t="str">
+      <c r="T8" s="49" t="str">
         <f>IF(_tag_month_all!S5="","",_tag_month_all!S5)</f>
         <v/>
       </c>
-      <c r="U8" s="34" t="str">
+      <c r="U8" s="17" t="str">
         <f>IF(_tag_month_all!T5="","",_tag_month_all!T5)</f>
         <v/>
       </c>
-      <c r="V8" s="28" t="str">
+      <c r="V8" s="17" t="str">
         <f>IF(_tag_month_all!U5="","",_tag_month_all!U5)</f>
         <v/>
       </c>
-      <c r="W8" s="29" t="str">
+      <c r="W8" s="11" t="str">
         <f>IF(_tag_month_all!V5="","",_tag_month_all!V5)</f>
         <v/>
       </c>
-      <c r="X8" s="29" t="str">
+      <c r="X8" s="17" t="str">
         <f>IF(_tag_month_all!W5="","",_tag_month_all!W5)</f>
         <v/>
       </c>
-      <c r="Y8" s="29" t="str">
+      <c r="Y8" s="17" t="str">
         <f>IF(_tag_month_all!X5="","",_tag_month_all!X5)</f>
         <v/>
       </c>
-      <c r="Z8" s="29" t="str">
+      <c r="Z8" s="17" t="str">
         <f>IF(_tag_month_all!Y5="","",_tag_month_all!Y5)</f>
         <v/>
       </c>
-      <c r="AA8" s="29" t="str">
+      <c r="AA8" s="17" t="str">
         <f>IF(_tag_month_all!Z5="","",_tag_month_all!Z5)</f>
         <v/>
       </c>
-      <c r="AB8" s="29" t="str">
+      <c r="AB8" s="17" t="str">
         <f>IF(_tag_month_all!AA5="","",_tag_month_all!AA5)</f>
         <v/>
       </c>
-      <c r="AC8" s="29" t="str">
+      <c r="AC8" s="17" t="str">
         <f>IF(_tag_month_all!AB5="","",_tag_month_all!AB5)</f>
         <v/>
       </c>
-      <c r="AD8" s="29" t="str">
+      <c r="AD8" s="17" t="str">
         <f>IF(_tag_month_all!AC5="","",_tag_month_all!AC5)</f>
         <v/>
       </c>
-      <c r="AE8" s="16" t="str">
+      <c r="AE8" s="11" t="str">
         <f>IF(_tag_month_all!AD5="","",_tag_month_all!AD5)</f>
         <v/>
       </c>
-      <c r="AF8" s="16" t="str">
+      <c r="AF8" s="11" t="str">
         <f>IF(_tag_month_all!AE5="","",_tag_month_all!AE5)</f>
         <v/>
       </c>
-      <c r="AG8" s="29" t="str">
+      <c r="AG8" s="17" t="str">
         <f>IF(_tag_month_all!AF5="","",_tag_month_all!AF5)</f>
         <v/>
       </c>
-      <c r="AH8" s="29" t="str">
+      <c r="AH8" s="17" t="str">
         <f>IF(_tag_month_all!AG5="","",_tag_month_all!AG5)</f>
         <v/>
       </c>
-      <c r="AI8" s="28" t="str">
+      <c r="AI8" s="11" t="str">
         <f>IF(_tag_month_all!AH5="","",_tag_month_all!AH5)</f>
         <v/>
       </c>
-      <c r="AJ8" s="28" t="str">
+      <c r="AJ8" s="16" t="str">
         <f>IF(_tag_month_all!AI5="","",_tag_month_all!AI5)</f>
         <v/>
       </c>
-      <c r="AK8" s="37" t="str">
+      <c r="AK8" s="61" t="str">
         <f>IF(_tag_month_all!AJ5="","",_tag_month_all!AJ5)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="str">
+      <c r="B9" s="11" t="str">
         <f>IF(_tag_month_all!A6="","",_tag_month_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="15" t="str">
+      <c r="C9" s="17" t="str">
         <f>IF(_tag_month_all!B6="","",_tag_month_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="16" t="str">
+      <c r="D9" s="17" t="str">
         <f>IF(_tag_month_all!C6="","",_tag_month_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="17" t="str">
+      <c r="E9" s="11" t="str">
         <f>IF(_tag_month_all!D6="","",_tag_month_all!D6)</f>
         <v/>
       </c>
-      <c r="F9" s="18" t="str">
+      <c r="F9" s="33" t="str">
         <f>IF(_tag_month_all!E6="","",_tag_month_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="19" t="str">
+      <c r="G9" s="38" t="str">
         <f>IF(_tag_month_all!F6="","",_tag_month_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="39" t="str">
         <f>IF(_tag_month_all!G6="","",_tag_month_all!G6)</f>
         <v/>
       </c>
@@ -2269,144 +2375,144 @@
         <f>IF(_tag_month_all!I6="","",_tag_month_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="26" t="str">
+      <c r="K9" s="43" t="str">
         <f>IF(_tag_month_all!J6="","",_tag_month_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="17" t="str">
+      <c r="L9" s="11" t="str">
         <f>IF(_tag_month_all!K6="","",_tag_month_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="27" t="str">
+      <c r="M9" s="15" t="str">
         <f>IF(_tag_month_all!L6="","",_tag_month_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="28" t="str">
+      <c r="N9" s="16" t="str">
         <f>IF(_tag_month_all!M6="","",_tag_month_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="29" t="str">
+      <c r="O9" s="17" t="str">
         <f>IF(_tag_month_all!N6="","",_tag_month_all!N6)</f>
         <v/>
       </c>
-      <c r="P9" s="29" t="str">
+      <c r="P9" s="11" t="str">
         <f>IF(_tag_month_all!O6="","",_tag_month_all!O6)</f>
         <v/>
       </c>
-      <c r="Q9" s="29" t="str">
+      <c r="Q9" s="11" t="str">
         <f>IF(_tag_month_all!P6="","",_tag_month_all!P6)</f>
         <v/>
       </c>
-      <c r="R9" s="34" t="str">
+      <c r="R9" s="11" t="str">
         <f>IF(_tag_month_all!Q6="","",_tag_month_all!Q6)</f>
         <v/>
       </c>
-      <c r="S9" s="34" t="str">
+      <c r="S9" s="11" t="str">
         <f>IF(_tag_month_all!R6="","",_tag_month_all!R6)</f>
         <v/>
       </c>
-      <c r="T9" s="34" t="str">
+      <c r="T9" s="49" t="str">
         <f>IF(_tag_month_all!S6="","",_tag_month_all!S6)</f>
         <v/>
       </c>
-      <c r="U9" s="34" t="str">
+      <c r="U9" s="17" t="str">
         <f>IF(_tag_month_all!T6="","",_tag_month_all!T6)</f>
         <v/>
       </c>
-      <c r="V9" s="28" t="str">
+      <c r="V9" s="17" t="str">
         <f>IF(_tag_month_all!U6="","",_tag_month_all!U6)</f>
         <v/>
       </c>
-      <c r="W9" s="29" t="str">
+      <c r="W9" s="11" t="str">
         <f>IF(_tag_month_all!V6="","",_tag_month_all!V6)</f>
         <v/>
       </c>
-      <c r="X9" s="29" t="str">
+      <c r="X9" s="17" t="str">
         <f>IF(_tag_month_all!W6="","",_tag_month_all!W6)</f>
         <v/>
       </c>
-      <c r="Y9" s="29" t="str">
+      <c r="Y9" s="17" t="str">
         <f>IF(_tag_month_all!X6="","",_tag_month_all!X6)</f>
         <v/>
       </c>
-      <c r="Z9" s="29" t="str">
+      <c r="Z9" s="17" t="str">
         <f>IF(_tag_month_all!Y6="","",_tag_month_all!Y6)</f>
         <v/>
       </c>
-      <c r="AA9" s="29" t="str">
+      <c r="AA9" s="17" t="str">
         <f>IF(_tag_month_all!Z6="","",_tag_month_all!Z6)</f>
         <v/>
       </c>
-      <c r="AB9" s="29" t="str">
+      <c r="AB9" s="17" t="str">
         <f>IF(_tag_month_all!AA6="","",_tag_month_all!AA6)</f>
         <v/>
       </c>
-      <c r="AC9" s="29" t="str">
+      <c r="AC9" s="17" t="str">
         <f>IF(_tag_month_all!AB6="","",_tag_month_all!AB6)</f>
         <v/>
       </c>
-      <c r="AD9" s="29" t="str">
+      <c r="AD9" s="17" t="str">
         <f>IF(_tag_month_all!AC6="","",_tag_month_all!AC6)</f>
         <v/>
       </c>
-      <c r="AE9" s="16" t="str">
+      <c r="AE9" s="11" t="str">
         <f>IF(_tag_month_all!AD6="","",_tag_month_all!AD6)</f>
         <v/>
       </c>
-      <c r="AF9" s="16" t="str">
+      <c r="AF9" s="11" t="str">
         <f>IF(_tag_month_all!AE6="","",_tag_month_all!AE6)</f>
         <v/>
       </c>
-      <c r="AG9" s="29" t="str">
+      <c r="AG9" s="17" t="str">
         <f>IF(_tag_month_all!AF6="","",_tag_month_all!AF6)</f>
         <v/>
       </c>
-      <c r="AH9" s="29" t="str">
+      <c r="AH9" s="17" t="str">
         <f>IF(_tag_month_all!AG6="","",_tag_month_all!AG6)</f>
         <v/>
       </c>
-      <c r="AI9" s="28" t="str">
+      <c r="AI9" s="11" t="str">
         <f>IF(_tag_month_all!AH6="","",_tag_month_all!AH6)</f>
         <v/>
       </c>
-      <c r="AJ9" s="28" t="str">
+      <c r="AJ9" s="16" t="str">
         <f>IF(_tag_month_all!AI6="","",_tag_month_all!AI6)</f>
         <v/>
       </c>
-      <c r="AK9" s="37" t="str">
+      <c r="AK9" s="61" t="str">
         <f>IF(_tag_month_all!AJ6="","",_tag_month_all!AJ6)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="15" t="str">
+      <c r="B10" s="11" t="str">
         <f>IF(_tag_month_all!A7="","",_tag_month_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="15" t="str">
+      <c r="C10" s="17" t="str">
         <f>IF(_tag_month_all!B7="","",_tag_month_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="17" t="str">
         <f>IF(_tag_month_all!C7="","",_tag_month_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="17" t="str">
+      <c r="E10" s="11" t="str">
         <f>IF(_tag_month_all!D7="","",_tag_month_all!D7)</f>
         <v/>
       </c>
-      <c r="F10" s="18" t="str">
+      <c r="F10" s="33" t="str">
         <f>IF(_tag_month_all!E7="","",_tag_month_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="19" t="str">
+      <c r="G10" s="38" t="str">
         <f>IF(_tag_month_all!F7="","",_tag_month_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="20" t="str">
+      <c r="H10" s="39" t="str">
         <f>IF(_tag_month_all!G7="","",_tag_month_all!G7)</f>
         <v/>
       </c>
@@ -2418,144 +2524,144 @@
         <f>IF(_tag_month_all!I7="","",_tag_month_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="26" t="str">
+      <c r="K10" s="43" t="str">
         <f>IF(_tag_month_all!J7="","",_tag_month_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="17" t="str">
+      <c r="L10" s="11" t="str">
         <f>IF(_tag_month_all!K7="","",_tag_month_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="27" t="str">
+      <c r="M10" s="15" t="str">
         <f>IF(_tag_month_all!L7="","",_tag_month_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="28" t="str">
+      <c r="N10" s="16" t="str">
         <f>IF(_tag_month_all!M7="","",_tag_month_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="29" t="str">
+      <c r="O10" s="17" t="str">
         <f>IF(_tag_month_all!N7="","",_tag_month_all!N7)</f>
         <v/>
       </c>
-      <c r="P10" s="29" t="str">
+      <c r="P10" s="11" t="str">
         <f>IF(_tag_month_all!O7="","",_tag_month_all!O7)</f>
         <v/>
       </c>
-      <c r="Q10" s="29" t="str">
+      <c r="Q10" s="11" t="str">
         <f>IF(_tag_month_all!P7="","",_tag_month_all!P7)</f>
         <v/>
       </c>
-      <c r="R10" s="34" t="str">
+      <c r="R10" s="11" t="str">
         <f>IF(_tag_month_all!Q7="","",_tag_month_all!Q7)</f>
         <v/>
       </c>
-      <c r="S10" s="34" t="str">
+      <c r="S10" s="11" t="str">
         <f>IF(_tag_month_all!R7="","",_tag_month_all!R7)</f>
         <v/>
       </c>
-      <c r="T10" s="34" t="str">
+      <c r="T10" s="49" t="str">
         <f>IF(_tag_month_all!S7="","",_tag_month_all!S7)</f>
         <v/>
       </c>
-      <c r="U10" s="34" t="str">
+      <c r="U10" s="17" t="str">
         <f>IF(_tag_month_all!T7="","",_tag_month_all!T7)</f>
         <v/>
       </c>
-      <c r="V10" s="28" t="str">
+      <c r="V10" s="17" t="str">
         <f>IF(_tag_month_all!U7="","",_tag_month_all!U7)</f>
         <v/>
       </c>
-      <c r="W10" s="29" t="str">
+      <c r="W10" s="11" t="str">
         <f>IF(_tag_month_all!V7="","",_tag_month_all!V7)</f>
         <v/>
       </c>
-      <c r="X10" s="29" t="str">
+      <c r="X10" s="17" t="str">
         <f>IF(_tag_month_all!W7="","",_tag_month_all!W7)</f>
         <v/>
       </c>
-      <c r="Y10" s="29" t="str">
+      <c r="Y10" s="17" t="str">
         <f>IF(_tag_month_all!X7="","",_tag_month_all!X7)</f>
         <v/>
       </c>
-      <c r="Z10" s="29" t="str">
+      <c r="Z10" s="17" t="str">
         <f>IF(_tag_month_all!Y7="","",_tag_month_all!Y7)</f>
         <v/>
       </c>
-      <c r="AA10" s="29" t="str">
+      <c r="AA10" s="17" t="str">
         <f>IF(_tag_month_all!Z7="","",_tag_month_all!Z7)</f>
         <v/>
       </c>
-      <c r="AB10" s="29" t="str">
+      <c r="AB10" s="17" t="str">
         <f>IF(_tag_month_all!AA7="","",_tag_month_all!AA7)</f>
         <v/>
       </c>
-      <c r="AC10" s="29" t="str">
+      <c r="AC10" s="17" t="str">
         <f>IF(_tag_month_all!AB7="","",_tag_month_all!AB7)</f>
         <v/>
       </c>
-      <c r="AD10" s="29" t="str">
+      <c r="AD10" s="17" t="str">
         <f>IF(_tag_month_all!AC7="","",_tag_month_all!AC7)</f>
         <v/>
       </c>
-      <c r="AE10" s="16" t="str">
+      <c r="AE10" s="11" t="str">
         <f>IF(_tag_month_all!AD7="","",_tag_month_all!AD7)</f>
         <v/>
       </c>
-      <c r="AF10" s="16" t="str">
+      <c r="AF10" s="11" t="str">
         <f>IF(_tag_month_all!AE7="","",_tag_month_all!AE7)</f>
         <v/>
       </c>
-      <c r="AG10" s="29" t="str">
+      <c r="AG10" s="17" t="str">
         <f>IF(_tag_month_all!AF7="","",_tag_month_all!AF7)</f>
         <v/>
       </c>
-      <c r="AH10" s="29" t="str">
+      <c r="AH10" s="17" t="str">
         <f>IF(_tag_month_all!AG7="","",_tag_month_all!AG7)</f>
         <v/>
       </c>
-      <c r="AI10" s="28" t="str">
+      <c r="AI10" s="11" t="str">
         <f>IF(_tag_month_all!AH7="","",_tag_month_all!AH7)</f>
         <v/>
       </c>
-      <c r="AJ10" s="28" t="str">
+      <c r="AJ10" s="16" t="str">
         <f>IF(_tag_month_all!AI7="","",_tag_month_all!AI7)</f>
         <v/>
       </c>
-      <c r="AK10" s="37" t="str">
+      <c r="AK10" s="61" t="str">
         <f>IF(_tag_month_all!AJ7="","",_tag_month_all!AJ7)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" s="15" t="str">
+      <c r="B11" s="11" t="str">
         <f>IF(_tag_month_all!A8="","",_tag_month_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="C11" s="17" t="str">
         <f>IF(_tag_month_all!B8="","",_tag_month_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="16" t="str">
+      <c r="D11" s="17" t="str">
         <f>IF(_tag_month_all!C8="","",_tag_month_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="17" t="str">
+      <c r="E11" s="11" t="str">
         <f>IF(_tag_month_all!D8="","",_tag_month_all!D8)</f>
         <v/>
       </c>
-      <c r="F11" s="18" t="str">
+      <c r="F11" s="33" t="str">
         <f>IF(_tag_month_all!E8="","",_tag_month_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="19" t="str">
+      <c r="G11" s="38" t="str">
         <f>IF(_tag_month_all!F8="","",_tag_month_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="20" t="str">
+      <c r="H11" s="39" t="str">
         <f>IF(_tag_month_all!G8="","",_tag_month_all!G8)</f>
         <v/>
       </c>
@@ -2567,144 +2673,144 @@
         <f>IF(_tag_month_all!I8="","",_tag_month_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="26" t="str">
+      <c r="K11" s="43" t="str">
         <f>IF(_tag_month_all!J8="","",_tag_month_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="17" t="str">
+      <c r="L11" s="11" t="str">
         <f>IF(_tag_month_all!K8="","",_tag_month_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="27" t="str">
+      <c r="M11" s="15" t="str">
         <f>IF(_tag_month_all!L8="","",_tag_month_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="28" t="str">
+      <c r="N11" s="16" t="str">
         <f>IF(_tag_month_all!M8="","",_tag_month_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="29" t="str">
+      <c r="O11" s="17" t="str">
         <f>IF(_tag_month_all!N8="","",_tag_month_all!N8)</f>
         <v/>
       </c>
-      <c r="P11" s="29" t="str">
+      <c r="P11" s="11" t="str">
         <f>IF(_tag_month_all!O8="","",_tag_month_all!O8)</f>
         <v/>
       </c>
-      <c r="Q11" s="29" t="str">
+      <c r="Q11" s="11" t="str">
         <f>IF(_tag_month_all!P8="","",_tag_month_all!P8)</f>
         <v/>
       </c>
-      <c r="R11" s="34" t="str">
+      <c r="R11" s="11" t="str">
         <f>IF(_tag_month_all!Q8="","",_tag_month_all!Q8)</f>
         <v/>
       </c>
-      <c r="S11" s="34" t="str">
+      <c r="S11" s="11" t="str">
         <f>IF(_tag_month_all!R8="","",_tag_month_all!R8)</f>
         <v/>
       </c>
-      <c r="T11" s="34" t="str">
+      <c r="T11" s="49" t="str">
         <f>IF(_tag_month_all!S8="","",_tag_month_all!S8)</f>
         <v/>
       </c>
-      <c r="U11" s="34" t="str">
+      <c r="U11" s="17" t="str">
         <f>IF(_tag_month_all!T8="","",_tag_month_all!T8)</f>
         <v/>
       </c>
-      <c r="V11" s="28" t="str">
+      <c r="V11" s="17" t="str">
         <f>IF(_tag_month_all!U8="","",_tag_month_all!U8)</f>
         <v/>
       </c>
-      <c r="W11" s="29" t="str">
+      <c r="W11" s="11" t="str">
         <f>IF(_tag_month_all!V8="","",_tag_month_all!V8)</f>
         <v/>
       </c>
-      <c r="X11" s="29" t="str">
+      <c r="X11" s="17" t="str">
         <f>IF(_tag_month_all!W8="","",_tag_month_all!W8)</f>
         <v/>
       </c>
-      <c r="Y11" s="29" t="str">
+      <c r="Y11" s="17" t="str">
         <f>IF(_tag_month_all!X8="","",_tag_month_all!X8)</f>
         <v/>
       </c>
-      <c r="Z11" s="29" t="str">
+      <c r="Z11" s="17" t="str">
         <f>IF(_tag_month_all!Y8="","",_tag_month_all!Y8)</f>
         <v/>
       </c>
-      <c r="AA11" s="29" t="str">
+      <c r="AA11" s="17" t="str">
         <f>IF(_tag_month_all!Z8="","",_tag_month_all!Z8)</f>
         <v/>
       </c>
-      <c r="AB11" s="29" t="str">
+      <c r="AB11" s="17" t="str">
         <f>IF(_tag_month_all!AA8="","",_tag_month_all!AA8)</f>
         <v/>
       </c>
-      <c r="AC11" s="29" t="str">
+      <c r="AC11" s="17" t="str">
         <f>IF(_tag_month_all!AB8="","",_tag_month_all!AB8)</f>
         <v/>
       </c>
-      <c r="AD11" s="29" t="str">
+      <c r="AD11" s="17" t="str">
         <f>IF(_tag_month_all!AC8="","",_tag_month_all!AC8)</f>
         <v/>
       </c>
-      <c r="AE11" s="16" t="str">
+      <c r="AE11" s="11" t="str">
         <f>IF(_tag_month_all!AD8="","",_tag_month_all!AD8)</f>
         <v/>
       </c>
-      <c r="AF11" s="16" t="str">
+      <c r="AF11" s="11" t="str">
         <f>IF(_tag_month_all!AE8="","",_tag_month_all!AE8)</f>
         <v/>
       </c>
-      <c r="AG11" s="29" t="str">
+      <c r="AG11" s="17" t="str">
         <f>IF(_tag_month_all!AF8="","",_tag_month_all!AF8)</f>
         <v/>
       </c>
-      <c r="AH11" s="29" t="str">
+      <c r="AH11" s="17" t="str">
         <f>IF(_tag_month_all!AG8="","",_tag_month_all!AG8)</f>
         <v/>
       </c>
-      <c r="AI11" s="28" t="str">
+      <c r="AI11" s="11" t="str">
         <f>IF(_tag_month_all!AH8="","",_tag_month_all!AH8)</f>
         <v/>
       </c>
-      <c r="AJ11" s="28" t="str">
+      <c r="AJ11" s="16" t="str">
         <f>IF(_tag_month_all!AI8="","",_tag_month_all!AI8)</f>
         <v/>
       </c>
-      <c r="AK11" s="37" t="str">
+      <c r="AK11" s="61" t="str">
         <f>IF(_tag_month_all!AJ8="","",_tag_month_all!AJ8)</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="15" t="str">
+      <c r="B12" s="11" t="str">
         <f>IF(_tag_month_all!A9="","",_tag_month_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="15" t="str">
+      <c r="C12" s="17" t="str">
         <f>IF(_tag_month_all!B9="","",_tag_month_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D12" s="17" t="str">
         <f>IF(_tag_month_all!C9="","",_tag_month_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="17" t="str">
+      <c r="E12" s="11" t="str">
         <f>IF(_tag_month_all!D9="","",_tag_month_all!D9)</f>
         <v/>
       </c>
-      <c r="F12" s="18" t="str">
+      <c r="F12" s="33" t="str">
         <f>IF(_tag_month_all!E9="","",_tag_month_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="19" t="str">
+      <c r="G12" s="38" t="str">
         <f>IF(_tag_month_all!F9="","",_tag_month_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="20" t="str">
+      <c r="H12" s="39" t="str">
         <f>IF(_tag_month_all!G9="","",_tag_month_all!G9)</f>
         <v/>
       </c>
@@ -2716,144 +2822,144 @@
         <f>IF(_tag_month_all!I9="","",_tag_month_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="26" t="str">
+      <c r="K12" s="43" t="str">
         <f>IF(_tag_month_all!J9="","",_tag_month_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="17" t="str">
+      <c r="L12" s="11" t="str">
         <f>IF(_tag_month_all!K9="","",_tag_month_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="27" t="str">
+      <c r="M12" s="15" t="str">
         <f>IF(_tag_month_all!L9="","",_tag_month_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="28" t="str">
+      <c r="N12" s="16" t="str">
         <f>IF(_tag_month_all!M9="","",_tag_month_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="29" t="str">
+      <c r="O12" s="17" t="str">
         <f>IF(_tag_month_all!N9="","",_tag_month_all!N9)</f>
         <v/>
       </c>
-      <c r="P12" s="29" t="str">
+      <c r="P12" s="11" t="str">
         <f>IF(_tag_month_all!O9="","",_tag_month_all!O9)</f>
         <v/>
       </c>
-      <c r="Q12" s="29" t="str">
+      <c r="Q12" s="11" t="str">
         <f>IF(_tag_month_all!P9="","",_tag_month_all!P9)</f>
         <v/>
       </c>
-      <c r="R12" s="34" t="str">
+      <c r="R12" s="11" t="str">
         <f>IF(_tag_month_all!Q9="","",_tag_month_all!Q9)</f>
         <v/>
       </c>
-      <c r="S12" s="34" t="str">
+      <c r="S12" s="11" t="str">
         <f>IF(_tag_month_all!R9="","",_tag_month_all!R9)</f>
         <v/>
       </c>
-      <c r="T12" s="34" t="str">
+      <c r="T12" s="49" t="str">
         <f>IF(_tag_month_all!S9="","",_tag_month_all!S9)</f>
         <v/>
       </c>
-      <c r="U12" s="34" t="str">
+      <c r="U12" s="17" t="str">
         <f>IF(_tag_month_all!T9="","",_tag_month_all!T9)</f>
         <v/>
       </c>
-      <c r="V12" s="28" t="str">
+      <c r="V12" s="17" t="str">
         <f>IF(_tag_month_all!U9="","",_tag_month_all!U9)</f>
         <v/>
       </c>
-      <c r="W12" s="29" t="str">
+      <c r="W12" s="11" t="str">
         <f>IF(_tag_month_all!V9="","",_tag_month_all!V9)</f>
         <v/>
       </c>
-      <c r="X12" s="29" t="str">
+      <c r="X12" s="17" t="str">
         <f>IF(_tag_month_all!W9="","",_tag_month_all!W9)</f>
         <v/>
       </c>
-      <c r="Y12" s="29" t="str">
+      <c r="Y12" s="17" t="str">
         <f>IF(_tag_month_all!X9="","",_tag_month_all!X9)</f>
         <v/>
       </c>
-      <c r="Z12" s="29" t="str">
+      <c r="Z12" s="17" t="str">
         <f>IF(_tag_month_all!Y9="","",_tag_month_all!Y9)</f>
         <v/>
       </c>
-      <c r="AA12" s="29" t="str">
+      <c r="AA12" s="17" t="str">
         <f>IF(_tag_month_all!Z9="","",_tag_month_all!Z9)</f>
         <v/>
       </c>
-      <c r="AB12" s="29" t="str">
+      <c r="AB12" s="17" t="str">
         <f>IF(_tag_month_all!AA9="","",_tag_month_all!AA9)</f>
         <v/>
       </c>
-      <c r="AC12" s="29" t="str">
+      <c r="AC12" s="17" t="str">
         <f>IF(_tag_month_all!AB9="","",_tag_month_all!AB9)</f>
         <v/>
       </c>
-      <c r="AD12" s="29" t="str">
+      <c r="AD12" s="17" t="str">
         <f>IF(_tag_month_all!AC9="","",_tag_month_all!AC9)</f>
         <v/>
       </c>
-      <c r="AE12" s="16" t="str">
+      <c r="AE12" s="11" t="str">
         <f>IF(_tag_month_all!AD9="","",_tag_month_all!AD9)</f>
         <v/>
       </c>
-      <c r="AF12" s="16" t="str">
+      <c r="AF12" s="11" t="str">
         <f>IF(_tag_month_all!AE9="","",_tag_month_all!AE9)</f>
         <v/>
       </c>
-      <c r="AG12" s="29" t="str">
+      <c r="AG12" s="17" t="str">
         <f>IF(_tag_month_all!AF9="","",_tag_month_all!AF9)</f>
         <v/>
       </c>
-      <c r="AH12" s="29" t="str">
+      <c r="AH12" s="17" t="str">
         <f>IF(_tag_month_all!AG9="","",_tag_month_all!AG9)</f>
         <v/>
       </c>
-      <c r="AI12" s="28" t="str">
+      <c r="AI12" s="11" t="str">
         <f>IF(_tag_month_all!AH9="","",_tag_month_all!AH9)</f>
         <v/>
       </c>
-      <c r="AJ12" s="28" t="str">
+      <c r="AJ12" s="16" t="str">
         <f>IF(_tag_month_all!AI9="","",_tag_month_all!AI9)</f>
         <v/>
       </c>
-      <c r="AK12" s="37" t="str">
+      <c r="AK12" s="61" t="str">
         <f>IF(_tag_month_all!AJ9="","",_tag_month_all!AJ9)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="15" t="str">
+      <c r="B13" s="11" t="str">
         <f>IF(_tag_month_all!A10="","",_tag_month_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="15" t="str">
+      <c r="C13" s="17" t="str">
         <f>IF(_tag_month_all!B10="","",_tag_month_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="16" t="str">
+      <c r="D13" s="17" t="str">
         <f>IF(_tag_month_all!C10="","",_tag_month_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="17" t="str">
+      <c r="E13" s="11" t="str">
         <f>IF(_tag_month_all!D10="","",_tag_month_all!D10)</f>
         <v/>
       </c>
-      <c r="F13" s="18" t="str">
+      <c r="F13" s="33" t="str">
         <f>IF(_tag_month_all!E10="","",_tag_month_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="19" t="str">
+      <c r="G13" s="38" t="str">
         <f>IF(_tag_month_all!F10="","",_tag_month_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="20" t="str">
+      <c r="H13" s="39" t="str">
         <f>IF(_tag_month_all!G10="","",_tag_month_all!G10)</f>
         <v/>
       </c>
@@ -2865,144 +2971,144 @@
         <f>IF(_tag_month_all!I10="","",_tag_month_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="26" t="str">
+      <c r="K13" s="43" t="str">
         <f>IF(_tag_month_all!J10="","",_tag_month_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="17" t="str">
+      <c r="L13" s="11" t="str">
         <f>IF(_tag_month_all!K10="","",_tag_month_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="27" t="str">
+      <c r="M13" s="15" t="str">
         <f>IF(_tag_month_all!L10="","",_tag_month_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="28" t="str">
+      <c r="N13" s="16" t="str">
         <f>IF(_tag_month_all!M10="","",_tag_month_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="29" t="str">
+      <c r="O13" s="17" t="str">
         <f>IF(_tag_month_all!N10="","",_tag_month_all!N10)</f>
         <v/>
       </c>
-      <c r="P13" s="29" t="str">
+      <c r="P13" s="11" t="str">
         <f>IF(_tag_month_all!O10="","",_tag_month_all!O10)</f>
         <v/>
       </c>
-      <c r="Q13" s="29" t="str">
+      <c r="Q13" s="11" t="str">
         <f>IF(_tag_month_all!P10="","",_tag_month_all!P10)</f>
         <v/>
       </c>
-      <c r="R13" s="34" t="str">
+      <c r="R13" s="11" t="str">
         <f>IF(_tag_month_all!Q10="","",_tag_month_all!Q10)</f>
         <v/>
       </c>
-      <c r="S13" s="34" t="str">
+      <c r="S13" s="11" t="str">
         <f>IF(_tag_month_all!R10="","",_tag_month_all!R10)</f>
         <v/>
       </c>
-      <c r="T13" s="34" t="str">
+      <c r="T13" s="49" t="str">
         <f>IF(_tag_month_all!S10="","",_tag_month_all!S10)</f>
         <v/>
       </c>
-      <c r="U13" s="34" t="str">
+      <c r="U13" s="17" t="str">
         <f>IF(_tag_month_all!T10="","",_tag_month_all!T10)</f>
         <v/>
       </c>
-      <c r="V13" s="28" t="str">
+      <c r="V13" s="17" t="str">
         <f>IF(_tag_month_all!U10="","",_tag_month_all!U10)</f>
         <v/>
       </c>
-      <c r="W13" s="29" t="str">
+      <c r="W13" s="11" t="str">
         <f>IF(_tag_month_all!V10="","",_tag_month_all!V10)</f>
         <v/>
       </c>
-      <c r="X13" s="29" t="str">
+      <c r="X13" s="17" t="str">
         <f>IF(_tag_month_all!W10="","",_tag_month_all!W10)</f>
         <v/>
       </c>
-      <c r="Y13" s="29" t="str">
+      <c r="Y13" s="17" t="str">
         <f>IF(_tag_month_all!X10="","",_tag_month_all!X10)</f>
         <v/>
       </c>
-      <c r="Z13" s="29" t="str">
+      <c r="Z13" s="17" t="str">
         <f>IF(_tag_month_all!Y10="","",_tag_month_all!Y10)</f>
         <v/>
       </c>
-      <c r="AA13" s="29" t="str">
+      <c r="AA13" s="17" t="str">
         <f>IF(_tag_month_all!Z10="","",_tag_month_all!Z10)</f>
         <v/>
       </c>
-      <c r="AB13" s="29" t="str">
+      <c r="AB13" s="17" t="str">
         <f>IF(_tag_month_all!AA10="","",_tag_month_all!AA10)</f>
         <v/>
       </c>
-      <c r="AC13" s="29" t="str">
+      <c r="AC13" s="17" t="str">
         <f>IF(_tag_month_all!AB10="","",_tag_month_all!AB10)</f>
         <v/>
       </c>
-      <c r="AD13" s="29" t="str">
+      <c r="AD13" s="17" t="str">
         <f>IF(_tag_month_all!AC10="","",_tag_month_all!AC10)</f>
         <v/>
       </c>
-      <c r="AE13" s="16" t="str">
+      <c r="AE13" s="11" t="str">
         <f>IF(_tag_month_all!AD10="","",_tag_month_all!AD10)</f>
         <v/>
       </c>
-      <c r="AF13" s="16" t="str">
+      <c r="AF13" s="11" t="str">
         <f>IF(_tag_month_all!AE10="","",_tag_month_all!AE10)</f>
         <v/>
       </c>
-      <c r="AG13" s="29" t="str">
+      <c r="AG13" s="17" t="str">
         <f>IF(_tag_month_all!AF10="","",_tag_month_all!AF10)</f>
         <v/>
       </c>
-      <c r="AH13" s="29" t="str">
+      <c r="AH13" s="17" t="str">
         <f>IF(_tag_month_all!AG10="","",_tag_month_all!AG10)</f>
         <v/>
       </c>
-      <c r="AI13" s="28" t="str">
+      <c r="AI13" s="11" t="str">
         <f>IF(_tag_month_all!AH10="","",_tag_month_all!AH10)</f>
         <v/>
       </c>
-      <c r="AJ13" s="28" t="str">
+      <c r="AJ13" s="16" t="str">
         <f>IF(_tag_month_all!AI10="","",_tag_month_all!AI10)</f>
         <v/>
       </c>
-      <c r="AK13" s="37" t="str">
+      <c r="AK13" s="61" t="str">
         <f>IF(_tag_month_all!AJ10="","",_tag_month_all!AJ10)</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="12">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="15" t="str">
+      <c r="B14" s="11" t="str">
         <f>IF(_tag_month_all!A11="","",_tag_month_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="15" t="str">
+      <c r="C14" s="17" t="str">
         <f>IF(_tag_month_all!B11="","",_tag_month_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="16" t="str">
+      <c r="D14" s="17" t="str">
         <f>IF(_tag_month_all!C11="","",_tag_month_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="17" t="str">
+      <c r="E14" s="11" t="str">
         <f>IF(_tag_month_all!D11="","",_tag_month_all!D11)</f>
         <v/>
       </c>
-      <c r="F14" s="18" t="str">
+      <c r="F14" s="33" t="str">
         <f>IF(_tag_month_all!E11="","",_tag_month_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="19" t="str">
+      <c r="G14" s="38" t="str">
         <f>IF(_tag_month_all!F11="","",_tag_month_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="20" t="str">
+      <c r="H14" s="39" t="str">
         <f>IF(_tag_month_all!G11="","",_tag_month_all!G11)</f>
         <v/>
       </c>
@@ -3014,144 +3120,144 @@
         <f>IF(_tag_month_all!I11="","",_tag_month_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="26" t="str">
+      <c r="K14" s="43" t="str">
         <f>IF(_tag_month_all!J11="","",_tag_month_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="17" t="str">
+      <c r="L14" s="11" t="str">
         <f>IF(_tag_month_all!K11="","",_tag_month_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="27" t="str">
+      <c r="M14" s="15" t="str">
         <f>IF(_tag_month_all!L11="","",_tag_month_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="28" t="str">
+      <c r="N14" s="16" t="str">
         <f>IF(_tag_month_all!M11="","",_tag_month_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="29" t="str">
+      <c r="O14" s="17" t="str">
         <f>IF(_tag_month_all!N11="","",_tag_month_all!N11)</f>
         <v/>
       </c>
-      <c r="P14" s="29" t="str">
+      <c r="P14" s="11" t="str">
         <f>IF(_tag_month_all!O11="","",_tag_month_all!O11)</f>
         <v/>
       </c>
-      <c r="Q14" s="29" t="str">
+      <c r="Q14" s="11" t="str">
         <f>IF(_tag_month_all!P11="","",_tag_month_all!P11)</f>
         <v/>
       </c>
-      <c r="R14" s="34" t="str">
+      <c r="R14" s="11" t="str">
         <f>IF(_tag_month_all!Q11="","",_tag_month_all!Q11)</f>
         <v/>
       </c>
-      <c r="S14" s="34" t="str">
+      <c r="S14" s="11" t="str">
         <f>IF(_tag_month_all!R11="","",_tag_month_all!R11)</f>
         <v/>
       </c>
-      <c r="T14" s="34" t="str">
+      <c r="T14" s="49" t="str">
         <f>IF(_tag_month_all!S11="","",_tag_month_all!S11)</f>
         <v/>
       </c>
-      <c r="U14" s="34" t="str">
+      <c r="U14" s="17" t="str">
         <f>IF(_tag_month_all!T11="","",_tag_month_all!T11)</f>
         <v/>
       </c>
-      <c r="V14" s="28" t="str">
+      <c r="V14" s="17" t="str">
         <f>IF(_tag_month_all!U11="","",_tag_month_all!U11)</f>
         <v/>
       </c>
-      <c r="W14" s="29" t="str">
+      <c r="W14" s="11" t="str">
         <f>IF(_tag_month_all!V11="","",_tag_month_all!V11)</f>
         <v/>
       </c>
-      <c r="X14" s="29" t="str">
+      <c r="X14" s="17" t="str">
         <f>IF(_tag_month_all!W11="","",_tag_month_all!W11)</f>
         <v/>
       </c>
-      <c r="Y14" s="29" t="str">
+      <c r="Y14" s="17" t="str">
         <f>IF(_tag_month_all!X11="","",_tag_month_all!X11)</f>
         <v/>
       </c>
-      <c r="Z14" s="29" t="str">
+      <c r="Z14" s="17" t="str">
         <f>IF(_tag_month_all!Y11="","",_tag_month_all!Y11)</f>
         <v/>
       </c>
-      <c r="AA14" s="29" t="str">
+      <c r="AA14" s="17" t="str">
         <f>IF(_tag_month_all!Z11="","",_tag_month_all!Z11)</f>
         <v/>
       </c>
-      <c r="AB14" s="29" t="str">
+      <c r="AB14" s="17" t="str">
         <f>IF(_tag_month_all!AA11="","",_tag_month_all!AA11)</f>
         <v/>
       </c>
-      <c r="AC14" s="29" t="str">
+      <c r="AC14" s="17" t="str">
         <f>IF(_tag_month_all!AB11="","",_tag_month_all!AB11)</f>
         <v/>
       </c>
-      <c r="AD14" s="29" t="str">
+      <c r="AD14" s="17" t="str">
         <f>IF(_tag_month_all!AC11="","",_tag_month_all!AC11)</f>
         <v/>
       </c>
-      <c r="AE14" s="16" t="str">
+      <c r="AE14" s="11" t="str">
         <f>IF(_tag_month_all!AD11="","",_tag_month_all!AD11)</f>
         <v/>
       </c>
-      <c r="AF14" s="16" t="str">
+      <c r="AF14" s="11" t="str">
         <f>IF(_tag_month_all!AE11="","",_tag_month_all!AE11)</f>
         <v/>
       </c>
-      <c r="AG14" s="29" t="str">
+      <c r="AG14" s="17" t="str">
         <f>IF(_tag_month_all!AF11="","",_tag_month_all!AF11)</f>
         <v/>
       </c>
-      <c r="AH14" s="29" t="str">
+      <c r="AH14" s="17" t="str">
         <f>IF(_tag_month_all!AG11="","",_tag_month_all!AG11)</f>
         <v/>
       </c>
-      <c r="AI14" s="28" t="str">
+      <c r="AI14" s="11" t="str">
         <f>IF(_tag_month_all!AH11="","",_tag_month_all!AH11)</f>
         <v/>
       </c>
-      <c r="AJ14" s="28" t="str">
+      <c r="AJ14" s="16" t="str">
         <f>IF(_tag_month_all!AI11="","",_tag_month_all!AI11)</f>
         <v/>
       </c>
-      <c r="AK14" s="37" t="str">
+      <c r="AK14" s="61" t="str">
         <f>IF(_tag_month_all!AJ11="","",_tag_month_all!AJ11)</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="12">
+      <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="15" t="str">
+      <c r="B15" s="11" t="str">
         <f>IF(_tag_month_all!A12="","",_tag_month_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="15" t="str">
+      <c r="C15" s="17" t="str">
         <f>IF(_tag_month_all!B12="","",_tag_month_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="16" t="str">
+      <c r="D15" s="17" t="str">
         <f>IF(_tag_month_all!C12="","",_tag_month_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="17" t="str">
+      <c r="E15" s="11" t="str">
         <f>IF(_tag_month_all!D12="","",_tag_month_all!D12)</f>
         <v/>
       </c>
-      <c r="F15" s="18" t="str">
+      <c r="F15" s="33" t="str">
         <f>IF(_tag_month_all!E12="","",_tag_month_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="19" t="str">
+      <c r="G15" s="38" t="str">
         <f>IF(_tag_month_all!F12="","",_tag_month_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="20" t="str">
+      <c r="H15" s="39" t="str">
         <f>IF(_tag_month_all!G12="","",_tag_month_all!G12)</f>
         <v/>
       </c>
@@ -3163,141 +3269,141 @@
         <f>IF(_tag_month_all!I12="","",_tag_month_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="26" t="str">
+      <c r="K15" s="43" t="str">
         <f>IF(_tag_month_all!J12="","",_tag_month_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="17" t="str">
+      <c r="L15" s="11" t="str">
         <f>IF(_tag_month_all!K12="","",_tag_month_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="27" t="str">
+      <c r="M15" s="15" t="str">
         <f>IF(_tag_month_all!L12="","",_tag_month_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="28" t="str">
+      <c r="N15" s="16" t="str">
         <f>IF(_tag_month_all!M12="","",_tag_month_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="29" t="str">
+      <c r="O15" s="17" t="str">
         <f>IF(_tag_month_all!N12="","",_tag_month_all!N12)</f>
         <v/>
       </c>
-      <c r="P15" s="29" t="str">
+      <c r="P15" s="11" t="str">
         <f>IF(_tag_month_all!O12="","",_tag_month_all!O12)</f>
         <v/>
       </c>
-      <c r="Q15" s="29" t="str">
+      <c r="Q15" s="11" t="str">
         <f>IF(_tag_month_all!P12="","",_tag_month_all!P12)</f>
         <v/>
       </c>
-      <c r="R15" s="34" t="str">
+      <c r="R15" s="11" t="str">
         <f>IF(_tag_month_all!Q12="","",_tag_month_all!Q12)</f>
         <v/>
       </c>
-      <c r="S15" s="34" t="str">
+      <c r="S15" s="11" t="str">
         <f>IF(_tag_month_all!R12="","",_tag_month_all!R12)</f>
         <v/>
       </c>
-      <c r="T15" s="34" t="str">
+      <c r="T15" s="49" t="str">
         <f>IF(_tag_month_all!S12="","",_tag_month_all!S12)</f>
         <v/>
       </c>
-      <c r="U15" s="34" t="str">
+      <c r="U15" s="17" t="str">
         <f>IF(_tag_month_all!T12="","",_tag_month_all!T12)</f>
         <v/>
       </c>
-      <c r="V15" s="28" t="str">
+      <c r="V15" s="17" t="str">
         <f>IF(_tag_month_all!U12="","",_tag_month_all!U12)</f>
         <v/>
       </c>
-      <c r="W15" s="29" t="str">
+      <c r="W15" s="11" t="str">
         <f>IF(_tag_month_all!V12="","",_tag_month_all!V12)</f>
         <v/>
       </c>
-      <c r="X15" s="29" t="str">
+      <c r="X15" s="17" t="str">
         <f>IF(_tag_month_all!W12="","",_tag_month_all!W12)</f>
         <v/>
       </c>
-      <c r="Y15" s="29" t="str">
+      <c r="Y15" s="17" t="str">
         <f>IF(_tag_month_all!X12="","",_tag_month_all!X12)</f>
         <v/>
       </c>
-      <c r="Z15" s="29" t="str">
+      <c r="Z15" s="17" t="str">
         <f>IF(_tag_month_all!Y12="","",_tag_month_all!Y12)</f>
         <v/>
       </c>
-      <c r="AA15" s="29" t="str">
+      <c r="AA15" s="17" t="str">
         <f>IF(_tag_month_all!Z12="","",_tag_month_all!Z12)</f>
         <v/>
       </c>
-      <c r="AB15" s="29" t="str">
+      <c r="AB15" s="17" t="str">
         <f>IF(_tag_month_all!AA12="","",_tag_month_all!AA12)</f>
         <v/>
       </c>
-      <c r="AC15" s="29" t="str">
+      <c r="AC15" s="17" t="str">
         <f>IF(_tag_month_all!AB12="","",_tag_month_all!AB12)</f>
         <v/>
       </c>
-      <c r="AD15" s="29" t="str">
+      <c r="AD15" s="17" t="str">
         <f>IF(_tag_month_all!AC12="","",_tag_month_all!AC12)</f>
         <v/>
       </c>
-      <c r="AE15" s="16" t="str">
+      <c r="AE15" s="11" t="str">
         <f>IF(_tag_month_all!AD12="","",_tag_month_all!AD12)</f>
         <v/>
       </c>
-      <c r="AF15" s="16" t="str">
+      <c r="AF15" s="11" t="str">
         <f>IF(_tag_month_all!AE12="","",_tag_month_all!AE12)</f>
         <v/>
       </c>
-      <c r="AG15" s="29" t="str">
+      <c r="AG15" s="17" t="str">
         <f>IF(_tag_month_all!AF12="","",_tag_month_all!AF12)</f>
         <v/>
       </c>
-      <c r="AH15" s="29" t="str">
+      <c r="AH15" s="17" t="str">
         <f>IF(_tag_month_all!AG12="","",_tag_month_all!AG12)</f>
         <v/>
       </c>
-      <c r="AI15" s="28" t="str">
+      <c r="AI15" s="11" t="str">
         <f>IF(_tag_month_all!AH12="","",_tag_month_all!AH12)</f>
         <v/>
       </c>
-      <c r="AJ15" s="28" t="str">
+      <c r="AJ15" s="16" t="str">
         <f>IF(_tag_month_all!AI12="","",_tag_month_all!AI12)</f>
         <v/>
       </c>
-      <c r="AK15" s="37" t="str">
+      <c r="AK15" s="61" t="str">
         <f>IF(_tag_month_all!AJ12="","",_tag_month_all!AJ12)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="B16" s="15" t="str">
+      <c r="B16" s="11" t="str">
         <f>IF(_tag_month_all!A13="","",_tag_month_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="15" t="str">
+      <c r="C16" s="17" t="str">
         <f>IF(_tag_month_all!B13="","",_tag_month_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="16" t="str">
+      <c r="D16" s="17" t="str">
         <f>IF(_tag_month_all!C13="","",_tag_month_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="17" t="str">
+      <c r="E16" s="11" t="str">
         <f>IF(_tag_month_all!D13="","",_tag_month_all!D13)</f>
         <v/>
       </c>
-      <c r="F16" s="18" t="str">
+      <c r="F16" s="33" t="str">
         <f>IF(_tag_month_all!E13="","",_tag_month_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20" t="str">
+      <c r="G16" s="38"/>
+      <c r="H16" s="39" t="str">
         <f>IF(_tag_month_all!G13="","",_tag_month_all!G13)</f>
         <v/>
       </c>
@@ -3309,144 +3415,144 @@
         <f>IF(_tag_month_all!I13="","",_tag_month_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="26" t="str">
+      <c r="K16" s="43" t="str">
         <f>IF(_tag_month_all!J13="","",_tag_month_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="17" t="str">
+      <c r="L16" s="11" t="str">
         <f>IF(_tag_month_all!K13="","",_tag_month_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="27" t="str">
+      <c r="M16" s="15" t="str">
         <f>IF(_tag_month_all!L13="","",_tag_month_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="28" t="str">
+      <c r="N16" s="16" t="str">
         <f>IF(_tag_month_all!M13="","",_tag_month_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="29" t="str">
+      <c r="O16" s="17" t="str">
         <f>IF(_tag_month_all!N13="","",_tag_month_all!N13)</f>
         <v/>
       </c>
-      <c r="P16" s="29" t="str">
+      <c r="P16" s="11" t="str">
         <f>IF(_tag_month_all!O13="","",_tag_month_all!O13)</f>
         <v/>
       </c>
-      <c r="Q16" s="29" t="str">
+      <c r="Q16" s="11" t="str">
         <f>IF(_tag_month_all!P13="","",_tag_month_all!P13)</f>
         <v/>
       </c>
-      <c r="R16" s="34" t="str">
+      <c r="R16" s="11" t="str">
         <f>IF(_tag_month_all!Q13="","",_tag_month_all!Q13)</f>
         <v/>
       </c>
-      <c r="S16" s="34" t="str">
+      <c r="S16" s="11" t="str">
         <f>IF(_tag_month_all!R13="","",_tag_month_all!R13)</f>
         <v/>
       </c>
-      <c r="T16" s="34" t="str">
+      <c r="T16" s="49" t="str">
         <f>IF(_tag_month_all!S13="","",_tag_month_all!S13)</f>
         <v/>
       </c>
-      <c r="U16" s="34" t="str">
+      <c r="U16" s="17" t="str">
         <f>IF(_tag_month_all!T13="","",_tag_month_all!T13)</f>
         <v/>
       </c>
-      <c r="V16" s="28" t="str">
+      <c r="V16" s="17" t="str">
         <f>IF(_tag_month_all!U13="","",_tag_month_all!U13)</f>
         <v/>
       </c>
-      <c r="W16" s="29" t="str">
+      <c r="W16" s="11" t="str">
         <f>IF(_tag_month_all!V13="","",_tag_month_all!V13)</f>
         <v/>
       </c>
-      <c r="X16" s="29" t="str">
+      <c r="X16" s="17" t="str">
         <f>IF(_tag_month_all!W13="","",_tag_month_all!W13)</f>
         <v/>
       </c>
-      <c r="Y16" s="29" t="str">
+      <c r="Y16" s="17" t="str">
         <f>IF(_tag_month_all!X13="","",_tag_month_all!X13)</f>
         <v/>
       </c>
-      <c r="Z16" s="29" t="str">
+      <c r="Z16" s="17" t="str">
         <f>IF(_tag_month_all!Y13="","",_tag_month_all!Y13)</f>
         <v/>
       </c>
-      <c r="AA16" s="29" t="str">
+      <c r="AA16" s="17" t="str">
         <f>IF(_tag_month_all!Z13="","",_tag_month_all!Z13)</f>
         <v/>
       </c>
-      <c r="AB16" s="29" t="str">
+      <c r="AB16" s="17" t="str">
         <f>IF(_tag_month_all!AA13="","",_tag_month_all!AA13)</f>
         <v/>
       </c>
-      <c r="AC16" s="29" t="str">
+      <c r="AC16" s="17" t="str">
         <f>IF(_tag_month_all!AB13="","",_tag_month_all!AB13)</f>
         <v/>
       </c>
-      <c r="AD16" s="29" t="str">
+      <c r="AD16" s="17" t="str">
         <f>IF(_tag_month_all!AC13="","",_tag_month_all!AC13)</f>
         <v/>
       </c>
-      <c r="AE16" s="16" t="str">
+      <c r="AE16" s="11" t="str">
         <f>IF(_tag_month_all!AD13="","",_tag_month_all!AD13)</f>
         <v/>
       </c>
-      <c r="AF16" s="16" t="str">
+      <c r="AF16" s="11" t="str">
         <f>IF(_tag_month_all!AE13="","",_tag_month_all!AE13)</f>
         <v/>
       </c>
-      <c r="AG16" s="29" t="str">
+      <c r="AG16" s="17" t="str">
         <f>IF(_tag_month_all!AF13="","",_tag_month_all!AF13)</f>
         <v/>
       </c>
-      <c r="AH16" s="29" t="str">
+      <c r="AH16" s="17" t="str">
         <f>IF(_tag_month_all!AG13="","",_tag_month_all!AG13)</f>
         <v/>
       </c>
-      <c r="AI16" s="28" t="str">
+      <c r="AI16" s="11" t="str">
         <f>IF(_tag_month_all!AH13="","",_tag_month_all!AH13)</f>
         <v/>
       </c>
-      <c r="AJ16" s="28" t="str">
+      <c r="AJ16" s="16" t="str">
         <f>IF(_tag_month_all!AI13="","",_tag_month_all!AI13)</f>
         <v/>
       </c>
-      <c r="AK16" s="37" t="str">
+      <c r="AK16" s="61" t="str">
         <f>IF(_tag_month_all!AJ13="","",_tag_month_all!AJ13)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="12">
+      <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="15" t="str">
+      <c r="B17" s="11" t="str">
         <f>IF(_tag_month_all!A14="","",_tag_month_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C17" s="17" t="str">
         <f>IF(_tag_month_all!B14="","",_tag_month_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="16" t="str">
+      <c r="D17" s="17" t="str">
         <f>IF(_tag_month_all!C14="","",_tag_month_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="17" t="str">
+      <c r="E17" s="11" t="str">
         <f>IF(_tag_month_all!D14="","",_tag_month_all!D14)</f>
         <v/>
       </c>
-      <c r="F17" s="18" t="str">
+      <c r="F17" s="33" t="str">
         <f>IF(_tag_month_all!E14="","",_tag_month_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="19" t="str">
+      <c r="G17" s="38" t="str">
         <f>IF(_tag_month_all!F14="","",_tag_month_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="20" t="str">
+      <c r="H17" s="39" t="str">
         <f>IF(_tag_month_all!G14="","",_tag_month_all!G14)</f>
         <v/>
       </c>
@@ -3458,144 +3564,144 @@
         <f>IF(_tag_month_all!I14="","",_tag_month_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="26" t="str">
+      <c r="K17" s="43" t="str">
         <f>IF(_tag_month_all!J14="","",_tag_month_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="17" t="str">
+      <c r="L17" s="11" t="str">
         <f>IF(_tag_month_all!K14="","",_tag_month_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="27" t="str">
+      <c r="M17" s="15" t="str">
         <f>IF(_tag_month_all!L14="","",_tag_month_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="28" t="str">
+      <c r="N17" s="16" t="str">
         <f>IF(_tag_month_all!M14="","",_tag_month_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="29" t="str">
+      <c r="O17" s="17" t="str">
         <f>IF(_tag_month_all!N14="","",_tag_month_all!N14)</f>
         <v/>
       </c>
-      <c r="P17" s="29" t="str">
+      <c r="P17" s="11" t="str">
         <f>IF(_tag_month_all!O14="","",_tag_month_all!O14)</f>
         <v/>
       </c>
-      <c r="Q17" s="29" t="str">
+      <c r="Q17" s="11" t="str">
         <f>IF(_tag_month_all!P14="","",_tag_month_all!P14)</f>
         <v/>
       </c>
-      <c r="R17" s="34" t="str">
+      <c r="R17" s="11" t="str">
         <f>IF(_tag_month_all!Q14="","",_tag_month_all!Q14)</f>
         <v/>
       </c>
-      <c r="S17" s="34" t="str">
+      <c r="S17" s="11" t="str">
         <f>IF(_tag_month_all!R14="","",_tag_month_all!R14)</f>
         <v/>
       </c>
-      <c r="T17" s="34" t="str">
+      <c r="T17" s="49" t="str">
         <f>IF(_tag_month_all!S14="","",_tag_month_all!S14)</f>
         <v/>
       </c>
-      <c r="U17" s="34" t="str">
+      <c r="U17" s="17" t="str">
         <f>IF(_tag_month_all!T14="","",_tag_month_all!T14)</f>
         <v/>
       </c>
-      <c r="V17" s="28" t="str">
+      <c r="V17" s="17" t="str">
         <f>IF(_tag_month_all!U14="","",_tag_month_all!U14)</f>
         <v/>
       </c>
-      <c r="W17" s="29" t="str">
+      <c r="W17" s="11" t="str">
         <f>IF(_tag_month_all!V14="","",_tag_month_all!V14)</f>
         <v/>
       </c>
-      <c r="X17" s="29" t="str">
+      <c r="X17" s="17" t="str">
         <f>IF(_tag_month_all!W14="","",_tag_month_all!W14)</f>
         <v/>
       </c>
-      <c r="Y17" s="29" t="str">
+      <c r="Y17" s="17" t="str">
         <f>IF(_tag_month_all!X14="","",_tag_month_all!X14)</f>
         <v/>
       </c>
-      <c r="Z17" s="29" t="str">
+      <c r="Z17" s="17" t="str">
         <f>IF(_tag_month_all!Y14="","",_tag_month_all!Y14)</f>
         <v/>
       </c>
-      <c r="AA17" s="29" t="str">
+      <c r="AA17" s="17" t="str">
         <f>IF(_tag_month_all!Z14="","",_tag_month_all!Z14)</f>
         <v/>
       </c>
-      <c r="AB17" s="29" t="str">
+      <c r="AB17" s="17" t="str">
         <f>IF(_tag_month_all!AA14="","",_tag_month_all!AA14)</f>
         <v/>
       </c>
-      <c r="AC17" s="29" t="str">
+      <c r="AC17" s="17" t="str">
         <f>IF(_tag_month_all!AB14="","",_tag_month_all!AB14)</f>
         <v/>
       </c>
-      <c r="AD17" s="29" t="str">
+      <c r="AD17" s="17" t="str">
         <f>IF(_tag_month_all!AC14="","",_tag_month_all!AC14)</f>
         <v/>
       </c>
-      <c r="AE17" s="16" t="str">
+      <c r="AE17" s="11" t="str">
         <f>IF(_tag_month_all!AD14="","",_tag_month_all!AD14)</f>
         <v/>
       </c>
-      <c r="AF17" s="16" t="str">
+      <c r="AF17" s="11" t="str">
         <f>IF(_tag_month_all!AE14="","",_tag_month_all!AE14)</f>
         <v/>
       </c>
-      <c r="AG17" s="29" t="str">
+      <c r="AG17" s="17" t="str">
         <f>IF(_tag_month_all!AF14="","",_tag_month_all!AF14)</f>
         <v/>
       </c>
-      <c r="AH17" s="29" t="str">
+      <c r="AH17" s="17" t="str">
         <f>IF(_tag_month_all!AG14="","",_tag_month_all!AG14)</f>
         <v/>
       </c>
-      <c r="AI17" s="28" t="str">
+      <c r="AI17" s="11" t="str">
         <f>IF(_tag_month_all!AH14="","",_tag_month_all!AH14)</f>
         <v/>
       </c>
-      <c r="AJ17" s="28" t="str">
+      <c r="AJ17" s="16" t="str">
         <f>IF(_tag_month_all!AI14="","",_tag_month_all!AI14)</f>
         <v/>
       </c>
-      <c r="AK17" s="37" t="str">
+      <c r="AK17" s="61" t="str">
         <f>IF(_tag_month_all!AJ14="","",_tag_month_all!AJ14)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="12">
+      <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" s="15" t="str">
+      <c r="B18" s="11" t="str">
         <f>IF(_tag_month_all!A15="","",_tag_month_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="15" t="str">
+      <c r="C18" s="17" t="str">
         <f>IF(_tag_month_all!B15="","",_tag_month_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="16" t="str">
+      <c r="D18" s="17" t="str">
         <f>IF(_tag_month_all!C15="","",_tag_month_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="17" t="str">
+      <c r="E18" s="11" t="str">
         <f>IF(_tag_month_all!D15="","",_tag_month_all!D15)</f>
         <v/>
       </c>
-      <c r="F18" s="18" t="str">
+      <c r="F18" s="33" t="str">
         <f>IF(_tag_month_all!E15="","",_tag_month_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="19" t="str">
+      <c r="G18" s="38" t="str">
         <f>IF(_tag_month_all!F15="","",_tag_month_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="20" t="str">
+      <c r="H18" s="39" t="str">
         <f>IF(_tag_month_all!G15="","",_tag_month_all!G15)</f>
         <v/>
       </c>
@@ -3607,144 +3713,144 @@
         <f>IF(_tag_month_all!I15="","",_tag_month_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="26" t="str">
+      <c r="K18" s="43" t="str">
         <f>IF(_tag_month_all!J15="","",_tag_month_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="17" t="str">
+      <c r="L18" s="11" t="str">
         <f>IF(_tag_month_all!K15="","",_tag_month_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="27" t="str">
+      <c r="M18" s="15" t="str">
         <f>IF(_tag_month_all!L15="","",_tag_month_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="28" t="str">
+      <c r="N18" s="16" t="str">
         <f>IF(_tag_month_all!M15="","",_tag_month_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="29" t="str">
+      <c r="O18" s="17" t="str">
         <f>IF(_tag_month_all!N15="","",_tag_month_all!N15)</f>
         <v/>
       </c>
-      <c r="P18" s="29" t="str">
+      <c r="P18" s="11" t="str">
         <f>IF(_tag_month_all!O15="","",_tag_month_all!O15)</f>
         <v/>
       </c>
-      <c r="Q18" s="29" t="str">
+      <c r="Q18" s="11" t="str">
         <f>IF(_tag_month_all!P15="","",_tag_month_all!P15)</f>
         <v/>
       </c>
-      <c r="R18" s="34" t="str">
+      <c r="R18" s="11" t="str">
         <f>IF(_tag_month_all!Q15="","",_tag_month_all!Q15)</f>
         <v/>
       </c>
-      <c r="S18" s="34" t="str">
+      <c r="S18" s="11" t="str">
         <f>IF(_tag_month_all!R15="","",_tag_month_all!R15)</f>
         <v/>
       </c>
-      <c r="T18" s="34" t="str">
+      <c r="T18" s="49" t="str">
         <f>IF(_tag_month_all!S15="","",_tag_month_all!S15)</f>
         <v/>
       </c>
-      <c r="U18" s="34" t="str">
+      <c r="U18" s="17" t="str">
         <f>IF(_tag_month_all!T15="","",_tag_month_all!T15)</f>
         <v/>
       </c>
-      <c r="V18" s="28" t="str">
+      <c r="V18" s="17" t="str">
         <f>IF(_tag_month_all!U15="","",_tag_month_all!U15)</f>
         <v/>
       </c>
-      <c r="W18" s="29" t="str">
+      <c r="W18" s="11" t="str">
         <f>IF(_tag_month_all!V15="","",_tag_month_all!V15)</f>
         <v/>
       </c>
-      <c r="X18" s="29" t="str">
+      <c r="X18" s="17" t="str">
         <f>IF(_tag_month_all!W15="","",_tag_month_all!W15)</f>
         <v/>
       </c>
-      <c r="Y18" s="29" t="str">
+      <c r="Y18" s="17" t="str">
         <f>IF(_tag_month_all!X15="","",_tag_month_all!X15)</f>
         <v/>
       </c>
-      <c r="Z18" s="29" t="str">
+      <c r="Z18" s="17" t="str">
         <f>IF(_tag_month_all!Y15="","",_tag_month_all!Y15)</f>
         <v/>
       </c>
-      <c r="AA18" s="29" t="str">
+      <c r="AA18" s="17" t="str">
         <f>IF(_tag_month_all!Z15="","",_tag_month_all!Z15)</f>
         <v/>
       </c>
-      <c r="AB18" s="29" t="str">
+      <c r="AB18" s="17" t="str">
         <f>IF(_tag_month_all!AA15="","",_tag_month_all!AA15)</f>
         <v/>
       </c>
-      <c r="AC18" s="29" t="str">
+      <c r="AC18" s="17" t="str">
         <f>IF(_tag_month_all!AB15="","",_tag_month_all!AB15)</f>
         <v/>
       </c>
-      <c r="AD18" s="29" t="str">
+      <c r="AD18" s="17" t="str">
         <f>IF(_tag_month_all!AC15="","",_tag_month_all!AC15)</f>
         <v/>
       </c>
-      <c r="AE18" s="16" t="str">
+      <c r="AE18" s="11" t="str">
         <f>IF(_tag_month_all!AD15="","",_tag_month_all!AD15)</f>
         <v/>
       </c>
-      <c r="AF18" s="16" t="str">
+      <c r="AF18" s="11" t="str">
         <f>IF(_tag_month_all!AE15="","",_tag_month_all!AE15)</f>
         <v/>
       </c>
-      <c r="AG18" s="29" t="str">
+      <c r="AG18" s="17" t="str">
         <f>IF(_tag_month_all!AF15="","",_tag_month_all!AF15)</f>
         <v/>
       </c>
-      <c r="AH18" s="29" t="str">
+      <c r="AH18" s="17" t="str">
         <f>IF(_tag_month_all!AG15="","",_tag_month_all!AG15)</f>
         <v/>
       </c>
-      <c r="AI18" s="28" t="str">
+      <c r="AI18" s="11" t="str">
         <f>IF(_tag_month_all!AH15="","",_tag_month_all!AH15)</f>
         <v/>
       </c>
-      <c r="AJ18" s="28" t="str">
+      <c r="AJ18" s="16" t="str">
         <f>IF(_tag_month_all!AI15="","",_tag_month_all!AI15)</f>
         <v/>
       </c>
-      <c r="AK18" s="37" t="str">
+      <c r="AK18" s="61" t="str">
         <f>IF(_tag_month_all!AJ15="","",_tag_month_all!AJ15)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" s="15" t="str">
+      <c r="B19" s="11" t="str">
         <f>IF(_tag_month_all!A16="","",_tag_month_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="C19" s="17" t="str">
         <f>IF(_tag_month_all!B16="","",_tag_month_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="16" t="str">
+      <c r="D19" s="17" t="str">
         <f>IF(_tag_month_all!C16="","",_tag_month_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="17" t="str">
+      <c r="E19" s="11" t="str">
         <f>IF(_tag_month_all!D16="","",_tag_month_all!D16)</f>
         <v/>
       </c>
-      <c r="F19" s="18" t="str">
+      <c r="F19" s="33" t="str">
         <f>IF(_tag_month_all!E16="","",_tag_month_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="19" t="str">
+      <c r="G19" s="38" t="str">
         <f>IF(_tag_month_all!F16="","",_tag_month_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="20" t="str">
+      <c r="H19" s="39" t="str">
         <f>IF(_tag_month_all!G16="","",_tag_month_all!G16)</f>
         <v/>
       </c>
@@ -3756,144 +3862,144 @@
         <f>IF(_tag_month_all!I16="","",_tag_month_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="26" t="str">
+      <c r="K19" s="43" t="str">
         <f>IF(_tag_month_all!J16="","",_tag_month_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="17" t="str">
+      <c r="L19" s="11" t="str">
         <f>IF(_tag_month_all!K16="","",_tag_month_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="27" t="str">
+      <c r="M19" s="15" t="str">
         <f>IF(_tag_month_all!L16="","",_tag_month_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="28" t="str">
+      <c r="N19" s="16" t="str">
         <f>IF(_tag_month_all!M16="","",_tag_month_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="29" t="str">
+      <c r="O19" s="17" t="str">
         <f>IF(_tag_month_all!N16="","",_tag_month_all!N16)</f>
         <v/>
       </c>
-      <c r="P19" s="29" t="str">
+      <c r="P19" s="11" t="str">
         <f>IF(_tag_month_all!O16="","",_tag_month_all!O16)</f>
         <v/>
       </c>
-      <c r="Q19" s="29" t="str">
+      <c r="Q19" s="11" t="str">
         <f>IF(_tag_month_all!P16="","",_tag_month_all!P16)</f>
         <v/>
       </c>
-      <c r="R19" s="34" t="str">
+      <c r="R19" s="11" t="str">
         <f>IF(_tag_month_all!Q16="","",_tag_month_all!Q16)</f>
         <v/>
       </c>
-      <c r="S19" s="34" t="str">
+      <c r="S19" s="11" t="str">
         <f>IF(_tag_month_all!R16="","",_tag_month_all!R16)</f>
         <v/>
       </c>
-      <c r="T19" s="34" t="str">
+      <c r="T19" s="49" t="str">
         <f>IF(_tag_month_all!S16="","",_tag_month_all!S16)</f>
         <v/>
       </c>
-      <c r="U19" s="34" t="str">
+      <c r="U19" s="17" t="str">
         <f>IF(_tag_month_all!T16="","",_tag_month_all!T16)</f>
         <v/>
       </c>
-      <c r="V19" s="28" t="str">
+      <c r="V19" s="17" t="str">
         <f>IF(_tag_month_all!U16="","",_tag_month_all!U16)</f>
         <v/>
       </c>
-      <c r="W19" s="29" t="str">
+      <c r="W19" s="11" t="str">
         <f>IF(_tag_month_all!V16="","",_tag_month_all!V16)</f>
         <v/>
       </c>
-      <c r="X19" s="29" t="str">
+      <c r="X19" s="17" t="str">
         <f>IF(_tag_month_all!W16="","",_tag_month_all!W16)</f>
         <v/>
       </c>
-      <c r="Y19" s="29" t="str">
+      <c r="Y19" s="17" t="str">
         <f>IF(_tag_month_all!X16="","",_tag_month_all!X16)</f>
         <v/>
       </c>
-      <c r="Z19" s="29" t="str">
+      <c r="Z19" s="17" t="str">
         <f>IF(_tag_month_all!Y16="","",_tag_month_all!Y16)</f>
         <v/>
       </c>
-      <c r="AA19" s="29" t="str">
+      <c r="AA19" s="17" t="str">
         <f>IF(_tag_month_all!Z16="","",_tag_month_all!Z16)</f>
         <v/>
       </c>
-      <c r="AB19" s="29" t="str">
+      <c r="AB19" s="17" t="str">
         <f>IF(_tag_month_all!AA16="","",_tag_month_all!AA16)</f>
         <v/>
       </c>
-      <c r="AC19" s="29" t="str">
+      <c r="AC19" s="17" t="str">
         <f>IF(_tag_month_all!AB16="","",_tag_month_all!AB16)</f>
         <v/>
       </c>
-      <c r="AD19" s="29" t="str">
+      <c r="AD19" s="17" t="str">
         <f>IF(_tag_month_all!AC16="","",_tag_month_all!AC16)</f>
         <v/>
       </c>
-      <c r="AE19" s="16" t="str">
+      <c r="AE19" s="11" t="str">
         <f>IF(_tag_month_all!AD16="","",_tag_month_all!AD16)</f>
         <v/>
       </c>
-      <c r="AF19" s="16" t="str">
+      <c r="AF19" s="11" t="str">
         <f>IF(_tag_month_all!AE16="","",_tag_month_all!AE16)</f>
         <v/>
       </c>
-      <c r="AG19" s="29" t="str">
+      <c r="AG19" s="17" t="str">
         <f>IF(_tag_month_all!AF16="","",_tag_month_all!AF16)</f>
         <v/>
       </c>
-      <c r="AH19" s="29" t="str">
+      <c r="AH19" s="17" t="str">
         <f>IF(_tag_month_all!AG16="","",_tag_month_all!AG16)</f>
         <v/>
       </c>
-      <c r="AI19" s="28" t="str">
+      <c r="AI19" s="11" t="str">
         <f>IF(_tag_month_all!AH16="","",_tag_month_all!AH16)</f>
         <v/>
       </c>
-      <c r="AJ19" s="28" t="str">
+      <c r="AJ19" s="16" t="str">
         <f>IF(_tag_month_all!AI16="","",_tag_month_all!AI16)</f>
         <v/>
       </c>
-      <c r="AK19" s="37" t="str">
+      <c r="AK19" s="61" t="str">
         <f>IF(_tag_month_all!AJ16="","",_tag_month_all!AJ16)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>16</v>
       </c>
-      <c r="B20" s="15" t="str">
+      <c r="B20" s="11" t="str">
         <f>IF(_tag_month_all!A17="","",_tag_month_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C20" s="17" t="str">
         <f>IF(_tag_month_all!B17="","",_tag_month_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" s="17" t="str">
         <f>IF(_tag_month_all!C17="","",_tag_month_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="17" t="str">
+      <c r="E20" s="11" t="str">
         <f>IF(_tag_month_all!D17="","",_tag_month_all!D17)</f>
         <v/>
       </c>
-      <c r="F20" s="18" t="str">
+      <c r="F20" s="33" t="str">
         <f>IF(_tag_month_all!E17="","",_tag_month_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="19" t="str">
+      <c r="G20" s="38" t="str">
         <f>IF(_tag_month_all!F17="","",_tag_month_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="20" t="str">
+      <c r="H20" s="39" t="str">
         <f>IF(_tag_month_all!G17="","",_tag_month_all!G17)</f>
         <v/>
       </c>
@@ -3905,144 +4011,144 @@
         <f>IF(_tag_month_all!I17="","",_tag_month_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="26" t="str">
+      <c r="K20" s="43" t="str">
         <f>IF(_tag_month_all!J17="","",_tag_month_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="17" t="str">
+      <c r="L20" s="11" t="str">
         <f>IF(_tag_month_all!K17="","",_tag_month_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="27" t="str">
+      <c r="M20" s="15" t="str">
         <f>IF(_tag_month_all!L17="","",_tag_month_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="28" t="str">
+      <c r="N20" s="16" t="str">
         <f>IF(_tag_month_all!M17="","",_tag_month_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="29" t="str">
+      <c r="O20" s="17" t="str">
         <f>IF(_tag_month_all!N17="","",_tag_month_all!N17)</f>
         <v/>
       </c>
-      <c r="P20" s="29" t="str">
+      <c r="P20" s="11" t="str">
         <f>IF(_tag_month_all!O17="","",_tag_month_all!O17)</f>
         <v/>
       </c>
-      <c r="Q20" s="29" t="str">
+      <c r="Q20" s="11" t="str">
         <f>IF(_tag_month_all!P17="","",_tag_month_all!P17)</f>
         <v/>
       </c>
-      <c r="R20" s="34" t="str">
+      <c r="R20" s="11" t="str">
         <f>IF(_tag_month_all!Q17="","",_tag_month_all!Q17)</f>
         <v/>
       </c>
-      <c r="S20" s="34" t="str">
+      <c r="S20" s="11" t="str">
         <f>IF(_tag_month_all!R17="","",_tag_month_all!R17)</f>
         <v/>
       </c>
-      <c r="T20" s="34" t="str">
+      <c r="T20" s="49" t="str">
         <f>IF(_tag_month_all!S17="","",_tag_month_all!S17)</f>
         <v/>
       </c>
-      <c r="U20" s="34" t="str">
+      <c r="U20" s="17" t="str">
         <f>IF(_tag_month_all!T17="","",_tag_month_all!T17)</f>
         <v/>
       </c>
-      <c r="V20" s="28" t="str">
+      <c r="V20" s="17" t="str">
         <f>IF(_tag_month_all!U17="","",_tag_month_all!U17)</f>
         <v/>
       </c>
-      <c r="W20" s="29" t="str">
+      <c r="W20" s="11" t="str">
         <f>IF(_tag_month_all!V17="","",_tag_month_all!V17)</f>
         <v/>
       </c>
-      <c r="X20" s="29" t="str">
+      <c r="X20" s="17" t="str">
         <f>IF(_tag_month_all!W17="","",_tag_month_all!W17)</f>
         <v/>
       </c>
-      <c r="Y20" s="29" t="str">
+      <c r="Y20" s="17" t="str">
         <f>IF(_tag_month_all!X17="","",_tag_month_all!X17)</f>
         <v/>
       </c>
-      <c r="Z20" s="29" t="str">
+      <c r="Z20" s="17" t="str">
         <f>IF(_tag_month_all!Y17="","",_tag_month_all!Y17)</f>
         <v/>
       </c>
-      <c r="AA20" s="29" t="str">
+      <c r="AA20" s="17" t="str">
         <f>IF(_tag_month_all!Z17="","",_tag_month_all!Z17)</f>
         <v/>
       </c>
-      <c r="AB20" s="29" t="str">
+      <c r="AB20" s="17" t="str">
         <f>IF(_tag_month_all!AA17="","",_tag_month_all!AA17)</f>
         <v/>
       </c>
-      <c r="AC20" s="29" t="str">
+      <c r="AC20" s="17" t="str">
         <f>IF(_tag_month_all!AB17="","",_tag_month_all!AB17)</f>
         <v/>
       </c>
-      <c r="AD20" s="29" t="str">
+      <c r="AD20" s="17" t="str">
         <f>IF(_tag_month_all!AC17="","",_tag_month_all!AC17)</f>
         <v/>
       </c>
-      <c r="AE20" s="16" t="str">
+      <c r="AE20" s="11" t="str">
         <f>IF(_tag_month_all!AD17="","",_tag_month_all!AD17)</f>
         <v/>
       </c>
-      <c r="AF20" s="16" t="str">
+      <c r="AF20" s="11" t="str">
         <f>IF(_tag_month_all!AE17="","",_tag_month_all!AE17)</f>
         <v/>
       </c>
-      <c r="AG20" s="29" t="str">
+      <c r="AG20" s="17" t="str">
         <f>IF(_tag_month_all!AF17="","",_tag_month_all!AF17)</f>
         <v/>
       </c>
-      <c r="AH20" s="29" t="str">
+      <c r="AH20" s="17" t="str">
         <f>IF(_tag_month_all!AG17="","",_tag_month_all!AG17)</f>
         <v/>
       </c>
-      <c r="AI20" s="28" t="str">
+      <c r="AI20" s="11" t="str">
         <f>IF(_tag_month_all!AH17="","",_tag_month_all!AH17)</f>
         <v/>
       </c>
-      <c r="AJ20" s="28" t="str">
+      <c r="AJ20" s="16" t="str">
         <f>IF(_tag_month_all!AI17="","",_tag_month_all!AI17)</f>
         <v/>
       </c>
-      <c r="AK20" s="37" t="str">
+      <c r="AK20" s="61" t="str">
         <f>IF(_tag_month_all!AJ17="","",_tag_month_all!AJ17)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>17</v>
       </c>
-      <c r="B21" s="15" t="str">
+      <c r="B21" s="11" t="str">
         <f>IF(_tag_month_all!A18="","",_tag_month_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C21" s="17" t="str">
         <f>IF(_tag_month_all!B18="","",_tag_month_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="16" t="str">
+      <c r="D21" s="17" t="str">
         <f>IF(_tag_month_all!C18="","",_tag_month_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="17" t="str">
+      <c r="E21" s="11" t="str">
         <f>IF(_tag_month_all!D18="","",_tag_month_all!D18)</f>
         <v/>
       </c>
-      <c r="F21" s="18" t="str">
+      <c r="F21" s="33" t="str">
         <f>IF(_tag_month_all!E18="","",_tag_month_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="19" t="str">
+      <c r="G21" s="38" t="str">
         <f>IF(_tag_month_all!F18="","",_tag_month_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="20" t="str">
+      <c r="H21" s="39" t="str">
         <f>IF(_tag_month_all!G18="","",_tag_month_all!G18)</f>
         <v/>
       </c>
@@ -4054,144 +4160,144 @@
         <f>IF(_tag_month_all!I18="","",_tag_month_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="26" t="str">
+      <c r="K21" s="43" t="str">
         <f>IF(_tag_month_all!J18="","",_tag_month_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="17" t="str">
+      <c r="L21" s="11" t="str">
         <f>IF(_tag_month_all!K18="","",_tag_month_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="27" t="str">
+      <c r="M21" s="15" t="str">
         <f>IF(_tag_month_all!L18="","",_tag_month_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="28" t="str">
+      <c r="N21" s="16" t="str">
         <f>IF(_tag_month_all!M18="","",_tag_month_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="29" t="str">
+      <c r="O21" s="17" t="str">
         <f>IF(_tag_month_all!N18="","",_tag_month_all!N18)</f>
         <v/>
       </c>
-      <c r="P21" s="29" t="str">
+      <c r="P21" s="11" t="str">
         <f>IF(_tag_month_all!O18="","",_tag_month_all!O18)</f>
         <v/>
       </c>
-      <c r="Q21" s="29" t="str">
+      <c r="Q21" s="11" t="str">
         <f>IF(_tag_month_all!P18="","",_tag_month_all!P18)</f>
         <v/>
       </c>
-      <c r="R21" s="34" t="str">
+      <c r="R21" s="11" t="str">
         <f>IF(_tag_month_all!Q18="","",_tag_month_all!Q18)</f>
         <v/>
       </c>
-      <c r="S21" s="34" t="str">
+      <c r="S21" s="11" t="str">
         <f>IF(_tag_month_all!R18="","",_tag_month_all!R18)</f>
         <v/>
       </c>
-      <c r="T21" s="34" t="str">
+      <c r="T21" s="49" t="str">
         <f>IF(_tag_month_all!S18="","",_tag_month_all!S18)</f>
         <v/>
       </c>
-      <c r="U21" s="34" t="str">
+      <c r="U21" s="17" t="str">
         <f>IF(_tag_month_all!T18="","",_tag_month_all!T18)</f>
         <v/>
       </c>
-      <c r="V21" s="28" t="str">
+      <c r="V21" s="17" t="str">
         <f>IF(_tag_month_all!U18="","",_tag_month_all!U18)</f>
         <v/>
       </c>
-      <c r="W21" s="29" t="str">
+      <c r="W21" s="11" t="str">
         <f>IF(_tag_month_all!V18="","",_tag_month_all!V18)</f>
         <v/>
       </c>
-      <c r="X21" s="29" t="str">
+      <c r="X21" s="17" t="str">
         <f>IF(_tag_month_all!W18="","",_tag_month_all!W18)</f>
         <v/>
       </c>
-      <c r="Y21" s="29" t="str">
+      <c r="Y21" s="17" t="str">
         <f>IF(_tag_month_all!X18="","",_tag_month_all!X18)</f>
         <v/>
       </c>
-      <c r="Z21" s="29" t="str">
+      <c r="Z21" s="17" t="str">
         <f>IF(_tag_month_all!Y18="","",_tag_month_all!Y18)</f>
         <v/>
       </c>
-      <c r="AA21" s="29" t="str">
+      <c r="AA21" s="17" t="str">
         <f>IF(_tag_month_all!Z18="","",_tag_month_all!Z18)</f>
         <v/>
       </c>
-      <c r="AB21" s="29" t="str">
+      <c r="AB21" s="17" t="str">
         <f>IF(_tag_month_all!AA18="","",_tag_month_all!AA18)</f>
         <v/>
       </c>
-      <c r="AC21" s="29" t="str">
+      <c r="AC21" s="17" t="str">
         <f>IF(_tag_month_all!AB18="","",_tag_month_all!AB18)</f>
         <v/>
       </c>
-      <c r="AD21" s="29" t="str">
+      <c r="AD21" s="17" t="str">
         <f>IF(_tag_month_all!AC18="","",_tag_month_all!AC18)</f>
         <v/>
       </c>
-      <c r="AE21" s="16" t="str">
+      <c r="AE21" s="11" t="str">
         <f>IF(_tag_month_all!AD18="","",_tag_month_all!AD18)</f>
         <v/>
       </c>
-      <c r="AF21" s="16" t="str">
+      <c r="AF21" s="11" t="str">
         <f>IF(_tag_month_all!AE18="","",_tag_month_all!AE18)</f>
         <v/>
       </c>
-      <c r="AG21" s="29" t="str">
+      <c r="AG21" s="17" t="str">
         <f>IF(_tag_month_all!AF18="","",_tag_month_all!AF18)</f>
         <v/>
       </c>
-      <c r="AH21" s="29" t="str">
+      <c r="AH21" s="17" t="str">
         <f>IF(_tag_month_all!AG18="","",_tag_month_all!AG18)</f>
         <v/>
       </c>
-      <c r="AI21" s="28" t="str">
+      <c r="AI21" s="11" t="str">
         <f>IF(_tag_month_all!AH18="","",_tag_month_all!AH18)</f>
         <v/>
       </c>
-      <c r="AJ21" s="28" t="str">
+      <c r="AJ21" s="16" t="str">
         <f>IF(_tag_month_all!AI18="","",_tag_month_all!AI18)</f>
         <v/>
       </c>
-      <c r="AK21" s="37" t="str">
+      <c r="AK21" s="61" t="str">
         <f>IF(_tag_month_all!AJ18="","",_tag_month_all!AJ18)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <v>18</v>
       </c>
-      <c r="B22" s="15" t="str">
+      <c r="B22" s="11" t="str">
         <f>IF(_tag_month_all!A19="","",_tag_month_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="15" t="str">
+      <c r="C22" s="17" t="str">
         <f>IF(_tag_month_all!B19="","",_tag_month_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="16" t="str">
+      <c r="D22" s="17" t="str">
         <f>IF(_tag_month_all!C19="","",_tag_month_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="17" t="str">
+      <c r="E22" s="11" t="str">
         <f>IF(_tag_month_all!D19="","",_tag_month_all!D19)</f>
         <v/>
       </c>
-      <c r="F22" s="18" t="str">
+      <c r="F22" s="33" t="str">
         <f>IF(_tag_month_all!E19="","",_tag_month_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="19" t="str">
+      <c r="G22" s="38" t="str">
         <f>IF(_tag_month_all!F19="","",_tag_month_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="20" t="str">
+      <c r="H22" s="39" t="str">
         <f>IF(_tag_month_all!G19="","",_tag_month_all!G19)</f>
         <v/>
       </c>
@@ -4203,144 +4309,144 @@
         <f>IF(_tag_month_all!I19="","",_tag_month_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="26" t="str">
+      <c r="K22" s="43" t="str">
         <f>IF(_tag_month_all!J19="","",_tag_month_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="17" t="str">
+      <c r="L22" s="11" t="str">
         <f>IF(_tag_month_all!K19="","",_tag_month_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="27" t="str">
+      <c r="M22" s="15" t="str">
         <f>IF(_tag_month_all!L19="","",_tag_month_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="28" t="str">
+      <c r="N22" s="16" t="str">
         <f>IF(_tag_month_all!M19="","",_tag_month_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="29" t="str">
+      <c r="O22" s="17" t="str">
         <f>IF(_tag_month_all!N19="","",_tag_month_all!N19)</f>
         <v/>
       </c>
-      <c r="P22" s="29" t="str">
+      <c r="P22" s="11" t="str">
         <f>IF(_tag_month_all!O19="","",_tag_month_all!O19)</f>
         <v/>
       </c>
-      <c r="Q22" s="29" t="str">
+      <c r="Q22" s="11" t="str">
         <f>IF(_tag_month_all!P19="","",_tag_month_all!P19)</f>
         <v/>
       </c>
-      <c r="R22" s="34" t="str">
+      <c r="R22" s="11" t="str">
         <f>IF(_tag_month_all!Q19="","",_tag_month_all!Q19)</f>
         <v/>
       </c>
-      <c r="S22" s="34" t="str">
+      <c r="S22" s="11" t="str">
         <f>IF(_tag_month_all!R19="","",_tag_month_all!R19)</f>
         <v/>
       </c>
-      <c r="T22" s="34" t="str">
+      <c r="T22" s="49" t="str">
         <f>IF(_tag_month_all!S19="","",_tag_month_all!S19)</f>
         <v/>
       </c>
-      <c r="U22" s="34" t="str">
+      <c r="U22" s="17" t="str">
         <f>IF(_tag_month_all!T19="","",_tag_month_all!T19)</f>
         <v/>
       </c>
-      <c r="V22" s="28" t="str">
+      <c r="V22" s="17" t="str">
         <f>IF(_tag_month_all!U19="","",_tag_month_all!U19)</f>
         <v/>
       </c>
-      <c r="W22" s="29" t="str">
+      <c r="W22" s="11" t="str">
         <f>IF(_tag_month_all!V19="","",_tag_month_all!V19)</f>
         <v/>
       </c>
-      <c r="X22" s="29" t="str">
+      <c r="X22" s="17" t="str">
         <f>IF(_tag_month_all!W19="","",_tag_month_all!W19)</f>
         <v/>
       </c>
-      <c r="Y22" s="29" t="str">
+      <c r="Y22" s="17" t="str">
         <f>IF(_tag_month_all!X19="","",_tag_month_all!X19)</f>
         <v/>
       </c>
-      <c r="Z22" s="29" t="str">
+      <c r="Z22" s="17" t="str">
         <f>IF(_tag_month_all!Y19="","",_tag_month_all!Y19)</f>
         <v/>
       </c>
-      <c r="AA22" s="29" t="str">
+      <c r="AA22" s="17" t="str">
         <f>IF(_tag_month_all!Z19="","",_tag_month_all!Z19)</f>
         <v/>
       </c>
-      <c r="AB22" s="29" t="str">
+      <c r="AB22" s="17" t="str">
         <f>IF(_tag_month_all!AA19="","",_tag_month_all!AA19)</f>
         <v/>
       </c>
-      <c r="AC22" s="29" t="str">
+      <c r="AC22" s="17" t="str">
         <f>IF(_tag_month_all!AB19="","",_tag_month_all!AB19)</f>
         <v/>
       </c>
-      <c r="AD22" s="29" t="str">
+      <c r="AD22" s="17" t="str">
         <f>IF(_tag_month_all!AC19="","",_tag_month_all!AC19)</f>
         <v/>
       </c>
-      <c r="AE22" s="16" t="str">
+      <c r="AE22" s="11" t="str">
         <f>IF(_tag_month_all!AD19="","",_tag_month_all!AD19)</f>
         <v/>
       </c>
-      <c r="AF22" s="16" t="str">
+      <c r="AF22" s="11" t="str">
         <f>IF(_tag_month_all!AE19="","",_tag_month_all!AE19)</f>
         <v/>
       </c>
-      <c r="AG22" s="29" t="str">
+      <c r="AG22" s="17" t="str">
         <f>IF(_tag_month_all!AF19="","",_tag_month_all!AF19)</f>
         <v/>
       </c>
-      <c r="AH22" s="29" t="str">
+      <c r="AH22" s="17" t="str">
         <f>IF(_tag_month_all!AG19="","",_tag_month_all!AG19)</f>
         <v/>
       </c>
-      <c r="AI22" s="28" t="str">
+      <c r="AI22" s="11" t="str">
         <f>IF(_tag_month_all!AH19="","",_tag_month_all!AH19)</f>
         <v/>
       </c>
-      <c r="AJ22" s="28" t="str">
+      <c r="AJ22" s="16" t="str">
         <f>IF(_tag_month_all!AI19="","",_tag_month_all!AI19)</f>
         <v/>
       </c>
-      <c r="AK22" s="37" t="str">
+      <c r="AK22" s="61" t="str">
         <f>IF(_tag_month_all!AJ19="","",_tag_month_all!AJ19)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>19</v>
       </c>
-      <c r="B23" s="15" t="str">
+      <c r="B23" s="11" t="str">
         <f>IF(_tag_month_all!A20="","",_tag_month_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="C23" s="17" t="str">
         <f>IF(_tag_month_all!B20="","",_tag_month_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="16" t="str">
+      <c r="D23" s="17" t="str">
         <f>IF(_tag_month_all!C20="","",_tag_month_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="17" t="str">
+      <c r="E23" s="11" t="str">
         <f>IF(_tag_month_all!D20="","",_tag_month_all!D20)</f>
         <v/>
       </c>
-      <c r="F23" s="18" t="str">
+      <c r="F23" s="33" t="str">
         <f>IF(_tag_month_all!E20="","",_tag_month_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="19" t="str">
+      <c r="G23" s="38" t="str">
         <f>IF(_tag_month_all!F20="","",_tag_month_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="20" t="str">
+      <c r="H23" s="39" t="str">
         <f>IF(_tag_month_all!G20="","",_tag_month_all!G20)</f>
         <v/>
       </c>
@@ -4352,144 +4458,144 @@
         <f>IF(_tag_month_all!I20="","",_tag_month_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="26" t="str">
+      <c r="K23" s="43" t="str">
         <f>IF(_tag_month_all!J20="","",_tag_month_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="17" t="str">
+      <c r="L23" s="11" t="str">
         <f>IF(_tag_month_all!K20="","",_tag_month_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="27" t="str">
+      <c r="M23" s="15" t="str">
         <f>IF(_tag_month_all!L20="","",_tag_month_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="28" t="str">
+      <c r="N23" s="16" t="str">
         <f>IF(_tag_month_all!M20="","",_tag_month_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="29" t="str">
+      <c r="O23" s="17" t="str">
         <f>IF(_tag_month_all!N20="","",_tag_month_all!N20)</f>
         <v/>
       </c>
-      <c r="P23" s="29" t="str">
+      <c r="P23" s="11" t="str">
         <f>IF(_tag_month_all!O20="","",_tag_month_all!O20)</f>
         <v/>
       </c>
-      <c r="Q23" s="29" t="str">
+      <c r="Q23" s="11" t="str">
         <f>IF(_tag_month_all!P20="","",_tag_month_all!P20)</f>
         <v/>
       </c>
-      <c r="R23" s="34" t="str">
+      <c r="R23" s="11" t="str">
         <f>IF(_tag_month_all!Q20="","",_tag_month_all!Q20)</f>
         <v/>
       </c>
-      <c r="S23" s="34" t="str">
+      <c r="S23" s="11" t="str">
         <f>IF(_tag_month_all!R20="","",_tag_month_all!R20)</f>
         <v/>
       </c>
-      <c r="T23" s="34" t="str">
+      <c r="T23" s="49" t="str">
         <f>IF(_tag_month_all!S20="","",_tag_month_all!S20)</f>
         <v/>
       </c>
-      <c r="U23" s="34" t="str">
+      <c r="U23" s="17" t="str">
         <f>IF(_tag_month_all!T20="","",_tag_month_all!T20)</f>
         <v/>
       </c>
-      <c r="V23" s="28" t="str">
+      <c r="V23" s="17" t="str">
         <f>IF(_tag_month_all!U20="","",_tag_month_all!U20)</f>
         <v/>
       </c>
-      <c r="W23" s="29" t="str">
+      <c r="W23" s="11" t="str">
         <f>IF(_tag_month_all!V20="","",_tag_month_all!V20)</f>
         <v/>
       </c>
-      <c r="X23" s="29" t="str">
+      <c r="X23" s="17" t="str">
         <f>IF(_tag_month_all!W20="","",_tag_month_all!W20)</f>
         <v/>
       </c>
-      <c r="Y23" s="29" t="str">
+      <c r="Y23" s="17" t="str">
         <f>IF(_tag_month_all!X20="","",_tag_month_all!X20)</f>
         <v/>
       </c>
-      <c r="Z23" s="29" t="str">
+      <c r="Z23" s="17" t="str">
         <f>IF(_tag_month_all!Y20="","",_tag_month_all!Y20)</f>
         <v/>
       </c>
-      <c r="AA23" s="29" t="str">
+      <c r="AA23" s="17" t="str">
         <f>IF(_tag_month_all!Z20="","",_tag_month_all!Z20)</f>
         <v/>
       </c>
-      <c r="AB23" s="29" t="str">
+      <c r="AB23" s="17" t="str">
         <f>IF(_tag_month_all!AA20="","",_tag_month_all!AA20)</f>
         <v/>
       </c>
-      <c r="AC23" s="29" t="str">
+      <c r="AC23" s="17" t="str">
         <f>IF(_tag_month_all!AB20="","",_tag_month_all!AB20)</f>
         <v/>
       </c>
-      <c r="AD23" s="29" t="str">
+      <c r="AD23" s="17" t="str">
         <f>IF(_tag_month_all!AC20="","",_tag_month_all!AC20)</f>
         <v/>
       </c>
-      <c r="AE23" s="16" t="str">
+      <c r="AE23" s="11" t="str">
         <f>IF(_tag_month_all!AD20="","",_tag_month_all!AD20)</f>
         <v/>
       </c>
-      <c r="AF23" s="16" t="str">
+      <c r="AF23" s="11" t="str">
         <f>IF(_tag_month_all!AE20="","",_tag_month_all!AE20)</f>
         <v/>
       </c>
-      <c r="AG23" s="29" t="str">
+      <c r="AG23" s="17" t="str">
         <f>IF(_tag_month_all!AF20="","",_tag_month_all!AF20)</f>
         <v/>
       </c>
-      <c r="AH23" s="29" t="str">
+      <c r="AH23" s="17" t="str">
         <f>IF(_tag_month_all!AG20="","",_tag_month_all!AG20)</f>
         <v/>
       </c>
-      <c r="AI23" s="28" t="str">
+      <c r="AI23" s="11" t="str">
         <f>IF(_tag_month_all!AH20="","",_tag_month_all!AH20)</f>
         <v/>
       </c>
-      <c r="AJ23" s="28" t="str">
+      <c r="AJ23" s="16" t="str">
         <f>IF(_tag_month_all!AI20="","",_tag_month_all!AI20)</f>
         <v/>
       </c>
-      <c r="AK23" s="37" t="str">
+      <c r="AK23" s="61" t="str">
         <f>IF(_tag_month_all!AJ20="","",_tag_month_all!AJ20)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <v>20</v>
       </c>
-      <c r="B24" s="15" t="str">
+      <c r="B24" s="11" t="str">
         <f>IF(_tag_month_all!A21="","",_tag_month_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C24" s="17" t="str">
         <f>IF(_tag_month_all!B21="","",_tag_month_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" s="17" t="str">
         <f>IF(_tag_month_all!C21="","",_tag_month_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="17" t="str">
+      <c r="E24" s="11" t="str">
         <f>IF(_tag_month_all!D21="","",_tag_month_all!D21)</f>
         <v/>
       </c>
-      <c r="F24" s="18" t="str">
+      <c r="F24" s="33" t="str">
         <f>IF(_tag_month_all!E21="","",_tag_month_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="19" t="str">
+      <c r="G24" s="38" t="str">
         <f>IF(_tag_month_all!F21="","",_tag_month_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="20" t="str">
+      <c r="H24" s="39" t="str">
         <f>IF(_tag_month_all!G21="","",_tag_month_all!G21)</f>
         <v/>
       </c>
@@ -4501,144 +4607,144 @@
         <f>IF(_tag_month_all!I21="","",_tag_month_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="26" t="str">
+      <c r="K24" s="43" t="str">
         <f>IF(_tag_month_all!J21="","",_tag_month_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="17" t="str">
+      <c r="L24" s="11" t="str">
         <f>IF(_tag_month_all!K21="","",_tag_month_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="27" t="str">
+      <c r="M24" s="15" t="str">
         <f>IF(_tag_month_all!L21="","",_tag_month_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="28" t="str">
+      <c r="N24" s="16" t="str">
         <f>IF(_tag_month_all!M21="","",_tag_month_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="29" t="str">
+      <c r="O24" s="17" t="str">
         <f>IF(_tag_month_all!N21="","",_tag_month_all!N21)</f>
         <v/>
       </c>
-      <c r="P24" s="29" t="str">
+      <c r="P24" s="11" t="str">
         <f>IF(_tag_month_all!O21="","",_tag_month_all!O21)</f>
         <v/>
       </c>
-      <c r="Q24" s="29" t="str">
+      <c r="Q24" s="11" t="str">
         <f>IF(_tag_month_all!P21="","",_tag_month_all!P21)</f>
         <v/>
       </c>
-      <c r="R24" s="34" t="str">
+      <c r="R24" s="11" t="str">
         <f>IF(_tag_month_all!Q21="","",_tag_month_all!Q21)</f>
         <v/>
       </c>
-      <c r="S24" s="34" t="str">
+      <c r="S24" s="11" t="str">
         <f>IF(_tag_month_all!R21="","",_tag_month_all!R21)</f>
         <v/>
       </c>
-      <c r="T24" s="34" t="str">
+      <c r="T24" s="49" t="str">
         <f>IF(_tag_month_all!S21="","",_tag_month_all!S21)</f>
         <v/>
       </c>
-      <c r="U24" s="34" t="str">
+      <c r="U24" s="17" t="str">
         <f>IF(_tag_month_all!T21="","",_tag_month_all!T21)</f>
         <v/>
       </c>
-      <c r="V24" s="28" t="str">
+      <c r="V24" s="17" t="str">
         <f>IF(_tag_month_all!U21="","",_tag_month_all!U21)</f>
         <v/>
       </c>
-      <c r="W24" s="29" t="str">
+      <c r="W24" s="11" t="str">
         <f>IF(_tag_month_all!V21="","",_tag_month_all!V21)</f>
         <v/>
       </c>
-      <c r="X24" s="29" t="str">
+      <c r="X24" s="17" t="str">
         <f>IF(_tag_month_all!W21="","",_tag_month_all!W21)</f>
         <v/>
       </c>
-      <c r="Y24" s="29" t="str">
+      <c r="Y24" s="17" t="str">
         <f>IF(_tag_month_all!X21="","",_tag_month_all!X21)</f>
         <v/>
       </c>
-      <c r="Z24" s="29" t="str">
+      <c r="Z24" s="17" t="str">
         <f>IF(_tag_month_all!Y21="","",_tag_month_all!Y21)</f>
         <v/>
       </c>
-      <c r="AA24" s="29" t="str">
+      <c r="AA24" s="17" t="str">
         <f>IF(_tag_month_all!Z21="","",_tag_month_all!Z21)</f>
         <v/>
       </c>
-      <c r="AB24" s="29" t="str">
+      <c r="AB24" s="17" t="str">
         <f>IF(_tag_month_all!AA21="","",_tag_month_all!AA21)</f>
         <v/>
       </c>
-      <c r="AC24" s="29" t="str">
+      <c r="AC24" s="17" t="str">
         <f>IF(_tag_month_all!AB21="","",_tag_month_all!AB21)</f>
         <v/>
       </c>
-      <c r="AD24" s="29" t="str">
+      <c r="AD24" s="17" t="str">
         <f>IF(_tag_month_all!AC21="","",_tag_month_all!AC21)</f>
         <v/>
       </c>
-      <c r="AE24" s="16" t="str">
+      <c r="AE24" s="11" t="str">
         <f>IF(_tag_month_all!AD21="","",_tag_month_all!AD21)</f>
         <v/>
       </c>
-      <c r="AF24" s="16" t="str">
+      <c r="AF24" s="11" t="str">
         <f>IF(_tag_month_all!AE21="","",_tag_month_all!AE21)</f>
         <v/>
       </c>
-      <c r="AG24" s="29" t="str">
+      <c r="AG24" s="17" t="str">
         <f>IF(_tag_month_all!AF21="","",_tag_month_all!AF21)</f>
         <v/>
       </c>
-      <c r="AH24" s="29" t="str">
+      <c r="AH24" s="17" t="str">
         <f>IF(_tag_month_all!AG21="","",_tag_month_all!AG21)</f>
         <v/>
       </c>
-      <c r="AI24" s="28" t="str">
+      <c r="AI24" s="11" t="str">
         <f>IF(_tag_month_all!AH21="","",_tag_month_all!AH21)</f>
         <v/>
       </c>
-      <c r="AJ24" s="28" t="str">
+      <c r="AJ24" s="16" t="str">
         <f>IF(_tag_month_all!AI21="","",_tag_month_all!AI21)</f>
         <v/>
       </c>
-      <c r="AK24" s="37" t="str">
+      <c r="AK24" s="61" t="str">
         <f>IF(_tag_month_all!AJ21="","",_tag_month_all!AJ21)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>21</v>
       </c>
-      <c r="B25" s="15" t="str">
+      <c r="B25" s="11" t="str">
         <f>IF(_tag_month_all!A22="","",_tag_month_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="15" t="str">
+      <c r="C25" s="17" t="str">
         <f>IF(_tag_month_all!B22="","",_tag_month_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" s="17" t="str">
         <f>IF(_tag_month_all!C22="","",_tag_month_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="17" t="str">
+      <c r="E25" s="11" t="str">
         <f>IF(_tag_month_all!D22="","",_tag_month_all!D22)</f>
         <v/>
       </c>
-      <c r="F25" s="18" t="str">
+      <c r="F25" s="33" t="str">
         <f>IF(_tag_month_all!E22="","",_tag_month_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="19" t="str">
+      <c r="G25" s="38" t="str">
         <f>IF(_tag_month_all!F22="","",_tag_month_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="20" t="str">
+      <c r="H25" s="39" t="str">
         <f>IF(_tag_month_all!G22="","",_tag_month_all!G22)</f>
         <v/>
       </c>
@@ -4650,144 +4756,144 @@
         <f>IF(_tag_month_all!I22="","",_tag_month_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="26" t="str">
+      <c r="K25" s="43" t="str">
         <f>IF(_tag_month_all!J22="","",_tag_month_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="17" t="str">
+      <c r="L25" s="11" t="str">
         <f>IF(_tag_month_all!K22="","",_tag_month_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="27" t="str">
+      <c r="M25" s="15" t="str">
         <f>IF(_tag_month_all!L22="","",_tag_month_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="28" t="str">
+      <c r="N25" s="16" t="str">
         <f>IF(_tag_month_all!M22="","",_tag_month_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="29" t="str">
+      <c r="O25" s="17" t="str">
         <f>IF(_tag_month_all!N22="","",_tag_month_all!N22)</f>
         <v/>
       </c>
-      <c r="P25" s="29" t="str">
+      <c r="P25" s="11" t="str">
         <f>IF(_tag_month_all!O22="","",_tag_month_all!O22)</f>
         <v/>
       </c>
-      <c r="Q25" s="29" t="str">
+      <c r="Q25" s="11" t="str">
         <f>IF(_tag_month_all!P22="","",_tag_month_all!P22)</f>
         <v/>
       </c>
-      <c r="R25" s="34" t="str">
+      <c r="R25" s="11" t="str">
         <f>IF(_tag_month_all!Q22="","",_tag_month_all!Q22)</f>
         <v/>
       </c>
-      <c r="S25" s="34" t="str">
+      <c r="S25" s="11" t="str">
         <f>IF(_tag_month_all!R22="","",_tag_month_all!R22)</f>
         <v/>
       </c>
-      <c r="T25" s="34" t="str">
+      <c r="T25" s="49" t="str">
         <f>IF(_tag_month_all!S22="","",_tag_month_all!S22)</f>
         <v/>
       </c>
-      <c r="U25" s="34" t="str">
+      <c r="U25" s="17" t="str">
         <f>IF(_tag_month_all!T22="","",_tag_month_all!T22)</f>
         <v/>
       </c>
-      <c r="V25" s="28" t="str">
+      <c r="V25" s="17" t="str">
         <f>IF(_tag_month_all!U22="","",_tag_month_all!U22)</f>
         <v/>
       </c>
-      <c r="W25" s="29" t="str">
+      <c r="W25" s="11" t="str">
         <f>IF(_tag_month_all!V22="","",_tag_month_all!V22)</f>
         <v/>
       </c>
-      <c r="X25" s="29" t="str">
+      <c r="X25" s="17" t="str">
         <f>IF(_tag_month_all!W22="","",_tag_month_all!W22)</f>
         <v/>
       </c>
-      <c r="Y25" s="29" t="str">
+      <c r="Y25" s="17" t="str">
         <f>IF(_tag_month_all!X22="","",_tag_month_all!X22)</f>
         <v/>
       </c>
-      <c r="Z25" s="29" t="str">
+      <c r="Z25" s="17" t="str">
         <f>IF(_tag_month_all!Y22="","",_tag_month_all!Y22)</f>
         <v/>
       </c>
-      <c r="AA25" s="29" t="str">
+      <c r="AA25" s="17" t="str">
         <f>IF(_tag_month_all!Z22="","",_tag_month_all!Z22)</f>
         <v/>
       </c>
-      <c r="AB25" s="29" t="str">
+      <c r="AB25" s="17" t="str">
         <f>IF(_tag_month_all!AA22="","",_tag_month_all!AA22)</f>
         <v/>
       </c>
-      <c r="AC25" s="29" t="str">
+      <c r="AC25" s="17" t="str">
         <f>IF(_tag_month_all!AB22="","",_tag_month_all!AB22)</f>
         <v/>
       </c>
-      <c r="AD25" s="29" t="str">
+      <c r="AD25" s="17" t="str">
         <f>IF(_tag_month_all!AC22="","",_tag_month_all!AC22)</f>
         <v/>
       </c>
-      <c r="AE25" s="16" t="str">
+      <c r="AE25" s="11" t="str">
         <f>IF(_tag_month_all!AD22="","",_tag_month_all!AD22)</f>
         <v/>
       </c>
-      <c r="AF25" s="16" t="str">
+      <c r="AF25" s="11" t="str">
         <f>IF(_tag_month_all!AE22="","",_tag_month_all!AE22)</f>
         <v/>
       </c>
-      <c r="AG25" s="29" t="str">
+      <c r="AG25" s="17" t="str">
         <f>IF(_tag_month_all!AF22="","",_tag_month_all!AF22)</f>
         <v/>
       </c>
-      <c r="AH25" s="29" t="str">
+      <c r="AH25" s="17" t="str">
         <f>IF(_tag_month_all!AG22="","",_tag_month_all!AG22)</f>
         <v/>
       </c>
-      <c r="AI25" s="28" t="str">
+      <c r="AI25" s="11" t="str">
         <f>IF(_tag_month_all!AH22="","",_tag_month_all!AH22)</f>
         <v/>
       </c>
-      <c r="AJ25" s="28" t="str">
+      <c r="AJ25" s="16" t="str">
         <f>IF(_tag_month_all!AI22="","",_tag_month_all!AI22)</f>
         <v/>
       </c>
-      <c r="AK25" s="37" t="str">
+      <c r="AK25" s="61" t="str">
         <f>IF(_tag_month_all!AJ22="","",_tag_month_all!AJ22)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="12">
+      <c r="A26" s="9">
         <v>22</v>
       </c>
-      <c r="B26" s="15" t="str">
+      <c r="B26" s="11" t="str">
         <f>IF(_tag_month_all!A23="","",_tag_month_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="15" t="str">
+      <c r="C26" s="17" t="str">
         <f>IF(_tag_month_all!B23="","",_tag_month_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" s="17" t="str">
         <f>IF(_tag_month_all!C23="","",_tag_month_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="17" t="str">
+      <c r="E26" s="11" t="str">
         <f>IF(_tag_month_all!D23="","",_tag_month_all!D23)</f>
         <v/>
       </c>
-      <c r="F26" s="18" t="str">
+      <c r="F26" s="33" t="str">
         <f>IF(_tag_month_all!E23="","",_tag_month_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="19" t="str">
+      <c r="G26" s="38" t="str">
         <f>IF(_tag_month_all!F23="","",_tag_month_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="20" t="str">
+      <c r="H26" s="39" t="str">
         <f>IF(_tag_month_all!G23="","",_tag_month_all!G23)</f>
         <v/>
       </c>
@@ -4799,144 +4905,144 @@
         <f>IF(_tag_month_all!I23="","",_tag_month_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="26" t="str">
+      <c r="K26" s="43" t="str">
         <f>IF(_tag_month_all!J23="","",_tag_month_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="17" t="str">
+      <c r="L26" s="11" t="str">
         <f>IF(_tag_month_all!K23="","",_tag_month_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="27" t="str">
+      <c r="M26" s="15" t="str">
         <f>IF(_tag_month_all!L23="","",_tag_month_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="28" t="str">
+      <c r="N26" s="16" t="str">
         <f>IF(_tag_month_all!M23="","",_tag_month_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="29" t="str">
+      <c r="O26" s="17" t="str">
         <f>IF(_tag_month_all!N23="","",_tag_month_all!N23)</f>
         <v/>
       </c>
-      <c r="P26" s="29" t="str">
+      <c r="P26" s="11" t="str">
         <f>IF(_tag_month_all!O23="","",_tag_month_all!O23)</f>
         <v/>
       </c>
-      <c r="Q26" s="29" t="str">
+      <c r="Q26" s="11" t="str">
         <f>IF(_tag_month_all!P23="","",_tag_month_all!P23)</f>
         <v/>
       </c>
-      <c r="R26" s="34" t="str">
+      <c r="R26" s="11" t="str">
         <f>IF(_tag_month_all!Q23="","",_tag_month_all!Q23)</f>
         <v/>
       </c>
-      <c r="S26" s="34" t="str">
+      <c r="S26" s="11" t="str">
         <f>IF(_tag_month_all!R23="","",_tag_month_all!R23)</f>
         <v/>
       </c>
-      <c r="T26" s="34" t="str">
+      <c r="T26" s="49" t="str">
         <f>IF(_tag_month_all!S23="","",_tag_month_all!S23)</f>
         <v/>
       </c>
-      <c r="U26" s="34" t="str">
+      <c r="U26" s="17" t="str">
         <f>IF(_tag_month_all!T23="","",_tag_month_all!T23)</f>
         <v/>
       </c>
-      <c r="V26" s="28" t="str">
+      <c r="V26" s="17" t="str">
         <f>IF(_tag_month_all!U23="","",_tag_month_all!U23)</f>
         <v/>
       </c>
-      <c r="W26" s="29" t="str">
+      <c r="W26" s="11" t="str">
         <f>IF(_tag_month_all!V23="","",_tag_month_all!V23)</f>
         <v/>
       </c>
-      <c r="X26" s="29" t="str">
+      <c r="X26" s="17" t="str">
         <f>IF(_tag_month_all!W23="","",_tag_month_all!W23)</f>
         <v/>
       </c>
-      <c r="Y26" s="29" t="str">
+      <c r="Y26" s="17" t="str">
         <f>IF(_tag_month_all!X23="","",_tag_month_all!X23)</f>
         <v/>
       </c>
-      <c r="Z26" s="29" t="str">
+      <c r="Z26" s="17" t="str">
         <f>IF(_tag_month_all!Y23="","",_tag_month_all!Y23)</f>
         <v/>
       </c>
-      <c r="AA26" s="29" t="str">
+      <c r="AA26" s="17" t="str">
         <f>IF(_tag_month_all!Z23="","",_tag_month_all!Z23)</f>
         <v/>
       </c>
-      <c r="AB26" s="29" t="str">
+      <c r="AB26" s="17" t="str">
         <f>IF(_tag_month_all!AA23="","",_tag_month_all!AA23)</f>
         <v/>
       </c>
-      <c r="AC26" s="29" t="str">
+      <c r="AC26" s="17" t="str">
         <f>IF(_tag_month_all!AB23="","",_tag_month_all!AB23)</f>
         <v/>
       </c>
-      <c r="AD26" s="29" t="str">
+      <c r="AD26" s="17" t="str">
         <f>IF(_tag_month_all!AC23="","",_tag_month_all!AC23)</f>
         <v/>
       </c>
-      <c r="AE26" s="16" t="str">
+      <c r="AE26" s="11" t="str">
         <f>IF(_tag_month_all!AD23="","",_tag_month_all!AD23)</f>
         <v/>
       </c>
-      <c r="AF26" s="16" t="str">
+      <c r="AF26" s="11" t="str">
         <f>IF(_tag_month_all!AE23="","",_tag_month_all!AE23)</f>
         <v/>
       </c>
-      <c r="AG26" s="29" t="str">
+      <c r="AG26" s="17" t="str">
         <f>IF(_tag_month_all!AF23="","",_tag_month_all!AF23)</f>
         <v/>
       </c>
-      <c r="AH26" s="29" t="str">
+      <c r="AH26" s="17" t="str">
         <f>IF(_tag_month_all!AG23="","",_tag_month_all!AG23)</f>
         <v/>
       </c>
-      <c r="AI26" s="28" t="str">
+      <c r="AI26" s="11" t="str">
         <f>IF(_tag_month_all!AH23="","",_tag_month_all!AH23)</f>
         <v/>
       </c>
-      <c r="AJ26" s="28" t="str">
+      <c r="AJ26" s="16" t="str">
         <f>IF(_tag_month_all!AI23="","",_tag_month_all!AI23)</f>
         <v/>
       </c>
-      <c r="AK26" s="37" t="str">
+      <c r="AK26" s="61" t="str">
         <f>IF(_tag_month_all!AJ23="","",_tag_month_all!AJ23)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="12">
+      <c r="A27" s="9">
         <v>23</v>
       </c>
-      <c r="B27" s="15" t="str">
+      <c r="B27" s="11" t="str">
         <f>IF(_tag_month_all!A24="","",_tag_month_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C27" s="17" t="str">
         <f>IF(_tag_month_all!B24="","",_tag_month_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="16" t="str">
+      <c r="D27" s="17" t="str">
         <f>IF(_tag_month_all!C24="","",_tag_month_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="17" t="str">
+      <c r="E27" s="11" t="str">
         <f>IF(_tag_month_all!D24="","",_tag_month_all!D24)</f>
         <v/>
       </c>
-      <c r="F27" s="18" t="str">
+      <c r="F27" s="33" t="str">
         <f>IF(_tag_month_all!E24="","",_tag_month_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="19" t="str">
+      <c r="G27" s="38" t="str">
         <f>IF(_tag_month_all!F24="","",_tag_month_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="20" t="str">
+      <c r="H27" s="39" t="str">
         <f>IF(_tag_month_all!G24="","",_tag_month_all!G24)</f>
         <v/>
       </c>
@@ -4948,144 +5054,144 @@
         <f>IF(_tag_month_all!I24="","",_tag_month_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="26" t="str">
+      <c r="K27" s="43" t="str">
         <f>IF(_tag_month_all!J24="","",_tag_month_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="17" t="str">
+      <c r="L27" s="11" t="str">
         <f>IF(_tag_month_all!K24="","",_tag_month_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="27" t="str">
+      <c r="M27" s="15" t="str">
         <f>IF(_tag_month_all!L24="","",_tag_month_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="28" t="str">
+      <c r="N27" s="16" t="str">
         <f>IF(_tag_month_all!M24="","",_tag_month_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="29" t="str">
+      <c r="O27" s="17" t="str">
         <f>IF(_tag_month_all!N24="","",_tag_month_all!N24)</f>
         <v/>
       </c>
-      <c r="P27" s="29" t="str">
+      <c r="P27" s="11" t="str">
         <f>IF(_tag_month_all!O24="","",_tag_month_all!O24)</f>
         <v/>
       </c>
-      <c r="Q27" s="29" t="str">
+      <c r="Q27" s="11" t="str">
         <f>IF(_tag_month_all!P24="","",_tag_month_all!P24)</f>
         <v/>
       </c>
-      <c r="R27" s="34" t="str">
+      <c r="R27" s="11" t="str">
         <f>IF(_tag_month_all!Q24="","",_tag_month_all!Q24)</f>
         <v/>
       </c>
-      <c r="S27" s="34" t="str">
+      <c r="S27" s="11" t="str">
         <f>IF(_tag_month_all!R24="","",_tag_month_all!R24)</f>
         <v/>
       </c>
-      <c r="T27" s="34" t="str">
+      <c r="T27" s="49" t="str">
         <f>IF(_tag_month_all!S24="","",_tag_month_all!S24)</f>
         <v/>
       </c>
-      <c r="U27" s="34" t="str">
+      <c r="U27" s="17" t="str">
         <f>IF(_tag_month_all!T24="","",_tag_month_all!T24)</f>
         <v/>
       </c>
-      <c r="V27" s="28" t="str">
+      <c r="V27" s="17" t="str">
         <f>IF(_tag_month_all!U24="","",_tag_month_all!U24)</f>
         <v/>
       </c>
-      <c r="W27" s="29" t="str">
+      <c r="W27" s="11" t="str">
         <f>IF(_tag_month_all!V24="","",_tag_month_all!V24)</f>
         <v/>
       </c>
-      <c r="X27" s="29" t="str">
+      <c r="X27" s="17" t="str">
         <f>IF(_tag_month_all!W24="","",_tag_month_all!W24)</f>
         <v/>
       </c>
-      <c r="Y27" s="29" t="str">
+      <c r="Y27" s="17" t="str">
         <f>IF(_tag_month_all!X24="","",_tag_month_all!X24)</f>
         <v/>
       </c>
-      <c r="Z27" s="29" t="str">
+      <c r="Z27" s="17" t="str">
         <f>IF(_tag_month_all!Y24="","",_tag_month_all!Y24)</f>
         <v/>
       </c>
-      <c r="AA27" s="29" t="str">
+      <c r="AA27" s="17" t="str">
         <f>IF(_tag_month_all!Z24="","",_tag_month_all!Z24)</f>
         <v/>
       </c>
-      <c r="AB27" s="29" t="str">
+      <c r="AB27" s="17" t="str">
         <f>IF(_tag_month_all!AA24="","",_tag_month_all!AA24)</f>
         <v/>
       </c>
-      <c r="AC27" s="29" t="str">
+      <c r="AC27" s="17" t="str">
         <f>IF(_tag_month_all!AB24="","",_tag_month_all!AB24)</f>
         <v/>
       </c>
-      <c r="AD27" s="29" t="str">
+      <c r="AD27" s="17" t="str">
         <f>IF(_tag_month_all!AC24="","",_tag_month_all!AC24)</f>
         <v/>
       </c>
-      <c r="AE27" s="16" t="str">
+      <c r="AE27" s="11" t="str">
         <f>IF(_tag_month_all!AD24="","",_tag_month_all!AD24)</f>
         <v/>
       </c>
-      <c r="AF27" s="16" t="str">
+      <c r="AF27" s="11" t="str">
         <f>IF(_tag_month_all!AE24="","",_tag_month_all!AE24)</f>
         <v/>
       </c>
-      <c r="AG27" s="29" t="str">
+      <c r="AG27" s="17" t="str">
         <f>IF(_tag_month_all!AF24="","",_tag_month_all!AF24)</f>
         <v/>
       </c>
-      <c r="AH27" s="29" t="str">
+      <c r="AH27" s="17" t="str">
         <f>IF(_tag_month_all!AG24="","",_tag_month_all!AG24)</f>
         <v/>
       </c>
-      <c r="AI27" s="28" t="str">
+      <c r="AI27" s="11" t="str">
         <f>IF(_tag_month_all!AH24="","",_tag_month_all!AH24)</f>
         <v/>
       </c>
-      <c r="AJ27" s="28" t="str">
+      <c r="AJ27" s="16" t="str">
         <f>IF(_tag_month_all!AI24="","",_tag_month_all!AI24)</f>
         <v/>
       </c>
-      <c r="AK27" s="37" t="str">
+      <c r="AK27" s="61" t="str">
         <f>IF(_tag_month_all!AJ24="","",_tag_month_all!AJ24)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="12">
+      <c r="A28" s="9">
         <v>24</v>
       </c>
-      <c r="B28" s="15" t="str">
+      <c r="B28" s="11" t="str">
         <f>IF(_tag_month_all!A25="","",_tag_month_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="15" t="str">
+      <c r="C28" s="17" t="str">
         <f>IF(_tag_month_all!B25="","",_tag_month_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="16" t="str">
+      <c r="D28" s="17" t="str">
         <f>IF(_tag_month_all!C25="","",_tag_month_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="17" t="str">
+      <c r="E28" s="11" t="str">
         <f>IF(_tag_month_all!D25="","",_tag_month_all!D25)</f>
         <v/>
       </c>
-      <c r="F28" s="18" t="str">
+      <c r="F28" s="33" t="str">
         <f>IF(_tag_month_all!E25="","",_tag_month_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="19" t="str">
+      <c r="G28" s="38" t="str">
         <f>IF(_tag_month_all!F25="","",_tag_month_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="20" t="str">
+      <c r="H28" s="39" t="str">
         <f>IF(_tag_month_all!G25="","",_tag_month_all!G25)</f>
         <v/>
       </c>
@@ -5097,144 +5203,144 @@
         <f>IF(_tag_month_all!I25="","",_tag_month_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="26" t="str">
+      <c r="K28" s="43" t="str">
         <f>IF(_tag_month_all!J25="","",_tag_month_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="17" t="str">
+      <c r="L28" s="11" t="str">
         <f>IF(_tag_month_all!K25="","",_tag_month_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="27" t="str">
+      <c r="M28" s="15" t="str">
         <f>IF(_tag_month_all!L25="","",_tag_month_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="28" t="str">
+      <c r="N28" s="16" t="str">
         <f>IF(_tag_month_all!M25="","",_tag_month_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="29" t="str">
+      <c r="O28" s="17" t="str">
         <f>IF(_tag_month_all!N25="","",_tag_month_all!N25)</f>
         <v/>
       </c>
-      <c r="P28" s="29" t="str">
+      <c r="P28" s="11" t="str">
         <f>IF(_tag_month_all!O25="","",_tag_month_all!O25)</f>
         <v/>
       </c>
-      <c r="Q28" s="29" t="str">
+      <c r="Q28" s="11" t="str">
         <f>IF(_tag_month_all!P25="","",_tag_month_all!P25)</f>
         <v/>
       </c>
-      <c r="R28" s="34" t="str">
+      <c r="R28" s="11" t="str">
         <f>IF(_tag_month_all!Q25="","",_tag_month_all!Q25)</f>
         <v/>
       </c>
-      <c r="S28" s="34" t="str">
+      <c r="S28" s="11" t="str">
         <f>IF(_tag_month_all!R25="","",_tag_month_all!R25)</f>
         <v/>
       </c>
-      <c r="T28" s="34" t="str">
+      <c r="T28" s="49" t="str">
         <f>IF(_tag_month_all!S25="","",_tag_month_all!S25)</f>
         <v/>
       </c>
-      <c r="U28" s="34" t="str">
+      <c r="U28" s="17" t="str">
         <f>IF(_tag_month_all!T25="","",_tag_month_all!T25)</f>
         <v/>
       </c>
-      <c r="V28" s="28" t="str">
+      <c r="V28" s="17" t="str">
         <f>IF(_tag_month_all!U25="","",_tag_month_all!U25)</f>
         <v/>
       </c>
-      <c r="W28" s="29" t="str">
+      <c r="W28" s="11" t="str">
         <f>IF(_tag_month_all!V25="","",_tag_month_all!V25)</f>
         <v/>
       </c>
-      <c r="X28" s="29" t="str">
+      <c r="X28" s="17" t="str">
         <f>IF(_tag_month_all!W25="","",_tag_month_all!W25)</f>
         <v/>
       </c>
-      <c r="Y28" s="29" t="str">
+      <c r="Y28" s="17" t="str">
         <f>IF(_tag_month_all!X25="","",_tag_month_all!X25)</f>
         <v/>
       </c>
-      <c r="Z28" s="29" t="str">
+      <c r="Z28" s="17" t="str">
         <f>IF(_tag_month_all!Y25="","",_tag_month_all!Y25)</f>
         <v/>
       </c>
-      <c r="AA28" s="29" t="str">
+      <c r="AA28" s="17" t="str">
         <f>IF(_tag_month_all!Z25="","",_tag_month_all!Z25)</f>
         <v/>
       </c>
-      <c r="AB28" s="29" t="str">
+      <c r="AB28" s="17" t="str">
         <f>IF(_tag_month_all!AA25="","",_tag_month_all!AA25)</f>
         <v/>
       </c>
-      <c r="AC28" s="29" t="str">
+      <c r="AC28" s="17" t="str">
         <f>IF(_tag_month_all!AB25="","",_tag_month_all!AB25)</f>
         <v/>
       </c>
-      <c r="AD28" s="29" t="str">
+      <c r="AD28" s="17" t="str">
         <f>IF(_tag_month_all!AC25="","",_tag_month_all!AC25)</f>
         <v/>
       </c>
-      <c r="AE28" s="16" t="str">
+      <c r="AE28" s="11" t="str">
         <f>IF(_tag_month_all!AD25="","",_tag_month_all!AD25)</f>
         <v/>
       </c>
-      <c r="AF28" s="16" t="str">
+      <c r="AF28" s="11" t="str">
         <f>IF(_tag_month_all!AE25="","",_tag_month_all!AE25)</f>
         <v/>
       </c>
-      <c r="AG28" s="29" t="str">
+      <c r="AG28" s="17" t="str">
         <f>IF(_tag_month_all!AF25="","",_tag_month_all!AF25)</f>
         <v/>
       </c>
-      <c r="AH28" s="29" t="str">
+      <c r="AH28" s="17" t="str">
         <f>IF(_tag_month_all!AG25="","",_tag_month_all!AG25)</f>
         <v/>
       </c>
-      <c r="AI28" s="28" t="str">
+      <c r="AI28" s="11" t="str">
         <f>IF(_tag_month_all!AH25="","",_tag_month_all!AH25)</f>
         <v/>
       </c>
-      <c r="AJ28" s="28" t="str">
+      <c r="AJ28" s="16" t="str">
         <f>IF(_tag_month_all!AI25="","",_tag_month_all!AI25)</f>
         <v/>
       </c>
-      <c r="AK28" s="37" t="str">
+      <c r="AK28" s="61" t="str">
         <f>IF(_tag_month_all!AJ25="","",_tag_month_all!AJ25)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="12">
+      <c r="A29" s="9">
         <v>25</v>
       </c>
-      <c r="B29" s="15" t="str">
+      <c r="B29" s="11" t="str">
         <f>IF(_tag_month_all!A26="","",_tag_month_all!A26)</f>
         <v/>
       </c>
-      <c r="C29" s="15" t="str">
+      <c r="C29" s="17" t="str">
         <f>IF(_tag_month_all!B26="","",_tag_month_all!B26)</f>
         <v/>
       </c>
-      <c r="D29" s="16" t="str">
+      <c r="D29" s="17" t="str">
         <f>IF(_tag_month_all!C26="","",_tag_month_all!C26)</f>
         <v/>
       </c>
-      <c r="E29" s="17" t="str">
+      <c r="E29" s="11" t="str">
         <f>IF(_tag_month_all!D26="","",_tag_month_all!D26)</f>
         <v/>
       </c>
-      <c r="F29" s="18" t="str">
+      <c r="F29" s="33" t="str">
         <f>IF(_tag_month_all!E26="","",_tag_month_all!E26)</f>
         <v/>
       </c>
-      <c r="G29" s="19" t="str">
+      <c r="G29" s="38" t="str">
         <f>IF(_tag_month_all!F26="","",_tag_month_all!F26)</f>
         <v/>
       </c>
-      <c r="H29" s="20" t="str">
+      <c r="H29" s="39" t="str">
         <f>IF(_tag_month_all!G26="","",_tag_month_all!G26)</f>
         <v/>
       </c>
@@ -5246,144 +5352,144 @@
         <f>IF(_tag_month_all!I26="","",_tag_month_all!I26)</f>
         <v/>
       </c>
-      <c r="K29" s="26" t="str">
+      <c r="K29" s="43" t="str">
         <f>IF(_tag_month_all!J26="","",_tag_month_all!J26)</f>
         <v/>
       </c>
-      <c r="L29" s="17" t="str">
+      <c r="L29" s="11" t="str">
         <f>IF(_tag_month_all!K26="","",_tag_month_all!K26)</f>
         <v/>
       </c>
-      <c r="M29" s="27" t="str">
+      <c r="M29" s="15" t="str">
         <f>IF(_tag_month_all!L26="","",_tag_month_all!L26)</f>
         <v/>
       </c>
-      <c r="N29" s="28" t="str">
+      <c r="N29" s="16" t="str">
         <f>IF(_tag_month_all!M26="","",_tag_month_all!M26)</f>
         <v/>
       </c>
-      <c r="O29" s="29" t="str">
+      <c r="O29" s="17" t="str">
         <f>IF(_tag_month_all!N26="","",_tag_month_all!N26)</f>
         <v/>
       </c>
-      <c r="P29" s="29" t="str">
+      <c r="P29" s="11" t="str">
         <f>IF(_tag_month_all!O26="","",_tag_month_all!O26)</f>
         <v/>
       </c>
-      <c r="Q29" s="29" t="str">
+      <c r="Q29" s="11" t="str">
         <f>IF(_tag_month_all!P26="","",_tag_month_all!P26)</f>
         <v/>
       </c>
-      <c r="R29" s="34" t="str">
+      <c r="R29" s="11" t="str">
         <f>IF(_tag_month_all!Q26="","",_tag_month_all!Q26)</f>
         <v/>
       </c>
-      <c r="S29" s="34" t="str">
+      <c r="S29" s="11" t="str">
         <f>IF(_tag_month_all!R26="","",_tag_month_all!R26)</f>
         <v/>
       </c>
-      <c r="T29" s="34" t="str">
+      <c r="T29" s="49" t="str">
         <f>IF(_tag_month_all!S26="","",_tag_month_all!S26)</f>
         <v/>
       </c>
-      <c r="U29" s="34" t="str">
+      <c r="U29" s="17" t="str">
         <f>IF(_tag_month_all!T26="","",_tag_month_all!T26)</f>
         <v/>
       </c>
-      <c r="V29" s="28" t="str">
+      <c r="V29" s="17" t="str">
         <f>IF(_tag_month_all!U26="","",_tag_month_all!U26)</f>
         <v/>
       </c>
-      <c r="W29" s="29" t="str">
+      <c r="W29" s="11" t="str">
         <f>IF(_tag_month_all!V26="","",_tag_month_all!V26)</f>
         <v/>
       </c>
-      <c r="X29" s="29" t="str">
+      <c r="X29" s="17" t="str">
         <f>IF(_tag_month_all!W26="","",_tag_month_all!W26)</f>
         <v/>
       </c>
-      <c r="Y29" s="29" t="str">
+      <c r="Y29" s="17" t="str">
         <f>IF(_tag_month_all!X26="","",_tag_month_all!X26)</f>
         <v/>
       </c>
-      <c r="Z29" s="29" t="str">
+      <c r="Z29" s="17" t="str">
         <f>IF(_tag_month_all!Y26="","",_tag_month_all!Y26)</f>
         <v/>
       </c>
-      <c r="AA29" s="29" t="str">
+      <c r="AA29" s="17" t="str">
         <f>IF(_tag_month_all!Z26="","",_tag_month_all!Z26)</f>
         <v/>
       </c>
-      <c r="AB29" s="29" t="str">
+      <c r="AB29" s="17" t="str">
         <f>IF(_tag_month_all!AA26="","",_tag_month_all!AA26)</f>
         <v/>
       </c>
-      <c r="AC29" s="29" t="str">
+      <c r="AC29" s="17" t="str">
         <f>IF(_tag_month_all!AB26="","",_tag_month_all!AB26)</f>
         <v/>
       </c>
-      <c r="AD29" s="29" t="str">
+      <c r="AD29" s="17" t="str">
         <f>IF(_tag_month_all!AC26="","",_tag_month_all!AC26)</f>
         <v/>
       </c>
-      <c r="AE29" s="16" t="str">
+      <c r="AE29" s="11" t="str">
         <f>IF(_tag_month_all!AD26="","",_tag_month_all!AD26)</f>
         <v/>
       </c>
-      <c r="AF29" s="16" t="str">
+      <c r="AF29" s="11" t="str">
         <f>IF(_tag_month_all!AE26="","",_tag_month_all!AE26)</f>
         <v/>
       </c>
-      <c r="AG29" s="29" t="str">
+      <c r="AG29" s="17" t="str">
         <f>IF(_tag_month_all!AF26="","",_tag_month_all!AF26)</f>
         <v/>
       </c>
-      <c r="AH29" s="29" t="str">
+      <c r="AH29" s="17" t="str">
         <f>IF(_tag_month_all!AG26="","",_tag_month_all!AG26)</f>
         <v/>
       </c>
-      <c r="AI29" s="28" t="str">
+      <c r="AI29" s="11" t="str">
         <f>IF(_tag_month_all!AH26="","",_tag_month_all!AH26)</f>
         <v/>
       </c>
-      <c r="AJ29" s="28" t="str">
+      <c r="AJ29" s="16" t="str">
         <f>IF(_tag_month_all!AI26="","",_tag_month_all!AI26)</f>
         <v/>
       </c>
-      <c r="AK29" s="37" t="str">
+      <c r="AK29" s="61" t="str">
         <f>IF(_tag_month_all!AJ26="","",_tag_month_all!AJ26)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:37">
-      <c r="A30" s="12">
+      <c r="A30" s="9">
         <v>26</v>
       </c>
-      <c r="B30" s="15" t="str">
+      <c r="B30" s="11" t="str">
         <f>IF(_tag_month_all!A27="","",_tag_month_all!A27)</f>
         <v/>
       </c>
-      <c r="C30" s="15" t="str">
+      <c r="C30" s="17" t="str">
         <f>IF(_tag_month_all!B27="","",_tag_month_all!B27)</f>
         <v/>
       </c>
-      <c r="D30" s="16" t="str">
+      <c r="D30" s="17" t="str">
         <f>IF(_tag_month_all!C27="","",_tag_month_all!C27)</f>
         <v/>
       </c>
-      <c r="E30" s="17" t="str">
+      <c r="E30" s="11" t="str">
         <f>IF(_tag_month_all!D27="","",_tag_month_all!D27)</f>
         <v/>
       </c>
-      <c r="F30" s="18" t="str">
+      <c r="F30" s="33" t="str">
         <f>IF(_tag_month_all!E27="","",_tag_month_all!E27)</f>
         <v/>
       </c>
-      <c r="G30" s="19" t="str">
+      <c r="G30" s="38" t="str">
         <f>IF(_tag_month_all!F27="","",_tag_month_all!F27)</f>
         <v/>
       </c>
-      <c r="H30" s="20" t="str">
+      <c r="H30" s="39" t="str">
         <f>IF(_tag_month_all!G27="","",_tag_month_all!G27)</f>
         <v/>
       </c>
@@ -5395,144 +5501,144 @@
         <f>IF(_tag_month_all!I27="","",_tag_month_all!I27)</f>
         <v/>
       </c>
-      <c r="K30" s="26" t="str">
+      <c r="K30" s="43" t="str">
         <f>IF(_tag_month_all!J27="","",_tag_month_all!J27)</f>
         <v/>
       </c>
-      <c r="L30" s="17" t="str">
+      <c r="L30" s="11" t="str">
         <f>IF(_tag_month_all!K27="","",_tag_month_all!K27)</f>
         <v/>
       </c>
-      <c r="M30" s="27" t="str">
+      <c r="M30" s="15" t="str">
         <f>IF(_tag_month_all!L27="","",_tag_month_all!L27)</f>
         <v/>
       </c>
-      <c r="N30" s="28" t="str">
+      <c r="N30" s="16" t="str">
         <f>IF(_tag_month_all!M27="","",_tag_month_all!M27)</f>
         <v/>
       </c>
-      <c r="O30" s="29" t="str">
+      <c r="O30" s="17" t="str">
         <f>IF(_tag_month_all!N27="","",_tag_month_all!N27)</f>
         <v/>
       </c>
-      <c r="P30" s="29" t="str">
+      <c r="P30" s="11" t="str">
         <f>IF(_tag_month_all!O27="","",_tag_month_all!O27)</f>
         <v/>
       </c>
-      <c r="Q30" s="29" t="str">
+      <c r="Q30" s="11" t="str">
         <f>IF(_tag_month_all!P27="","",_tag_month_all!P27)</f>
         <v/>
       </c>
-      <c r="R30" s="34" t="str">
+      <c r="R30" s="11" t="str">
         <f>IF(_tag_month_all!Q27="","",_tag_month_all!Q27)</f>
         <v/>
       </c>
-      <c r="S30" s="34" t="str">
+      <c r="S30" s="11" t="str">
         <f>IF(_tag_month_all!R27="","",_tag_month_all!R27)</f>
         <v/>
       </c>
-      <c r="T30" s="34" t="str">
+      <c r="T30" s="49" t="str">
         <f>IF(_tag_month_all!S27="","",_tag_month_all!S27)</f>
         <v/>
       </c>
-      <c r="U30" s="34" t="str">
+      <c r="U30" s="17" t="str">
         <f>IF(_tag_month_all!T27="","",_tag_month_all!T27)</f>
         <v/>
       </c>
-      <c r="V30" s="28" t="str">
+      <c r="V30" s="17" t="str">
         <f>IF(_tag_month_all!U27="","",_tag_month_all!U27)</f>
         <v/>
       </c>
-      <c r="W30" s="29" t="str">
+      <c r="W30" s="11" t="str">
         <f>IF(_tag_month_all!V27="","",_tag_month_all!V27)</f>
         <v/>
       </c>
-      <c r="X30" s="29" t="str">
+      <c r="X30" s="17" t="str">
         <f>IF(_tag_month_all!W27="","",_tag_month_all!W27)</f>
         <v/>
       </c>
-      <c r="Y30" s="29" t="str">
+      <c r="Y30" s="17" t="str">
         <f>IF(_tag_month_all!X27="","",_tag_month_all!X27)</f>
         <v/>
       </c>
-      <c r="Z30" s="29" t="str">
+      <c r="Z30" s="17" t="str">
         <f>IF(_tag_month_all!Y27="","",_tag_month_all!Y27)</f>
         <v/>
       </c>
-      <c r="AA30" s="29" t="str">
+      <c r="AA30" s="17" t="str">
         <f>IF(_tag_month_all!Z27="","",_tag_month_all!Z27)</f>
         <v/>
       </c>
-      <c r="AB30" s="29" t="str">
+      <c r="AB30" s="17" t="str">
         <f>IF(_tag_month_all!AA27="","",_tag_month_all!AA27)</f>
         <v/>
       </c>
-      <c r="AC30" s="29" t="str">
+      <c r="AC30" s="17" t="str">
         <f>IF(_tag_month_all!AB27="","",_tag_month_all!AB27)</f>
         <v/>
       </c>
-      <c r="AD30" s="29" t="str">
+      <c r="AD30" s="17" t="str">
         <f>IF(_tag_month_all!AC27="","",_tag_month_all!AC27)</f>
         <v/>
       </c>
-      <c r="AE30" s="16" t="str">
+      <c r="AE30" s="11" t="str">
         <f>IF(_tag_month_all!AD27="","",_tag_month_all!AD27)</f>
         <v/>
       </c>
-      <c r="AF30" s="16" t="str">
+      <c r="AF30" s="11" t="str">
         <f>IF(_tag_month_all!AE27="","",_tag_month_all!AE27)</f>
         <v/>
       </c>
-      <c r="AG30" s="29" t="str">
+      <c r="AG30" s="17" t="str">
         <f>IF(_tag_month_all!AF27="","",_tag_month_all!AF27)</f>
         <v/>
       </c>
-      <c r="AH30" s="29" t="str">
+      <c r="AH30" s="17" t="str">
         <f>IF(_tag_month_all!AG27="","",_tag_month_all!AG27)</f>
         <v/>
       </c>
-      <c r="AI30" s="28" t="str">
+      <c r="AI30" s="11" t="str">
         <f>IF(_tag_month_all!AH27="","",_tag_month_all!AH27)</f>
         <v/>
       </c>
-      <c r="AJ30" s="28" t="str">
+      <c r="AJ30" s="16" t="str">
         <f>IF(_tag_month_all!AI27="","",_tag_month_all!AI27)</f>
         <v/>
       </c>
-      <c r="AK30" s="37" t="str">
+      <c r="AK30" s="61" t="str">
         <f>IF(_tag_month_all!AJ27="","",_tag_month_all!AJ27)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:37">
-      <c r="A31" s="12">
+      <c r="A31" s="9">
         <v>27</v>
       </c>
-      <c r="B31" s="15" t="str">
+      <c r="B31" s="11" t="str">
         <f>IF(_tag_month_all!A28="","",_tag_month_all!A28)</f>
         <v/>
       </c>
-      <c r="C31" s="15" t="str">
+      <c r="C31" s="17" t="str">
         <f>IF(_tag_month_all!B28="","",_tag_month_all!B28)</f>
         <v/>
       </c>
-      <c r="D31" s="16" t="str">
+      <c r="D31" s="17" t="str">
         <f>IF(_tag_month_all!C28="","",_tag_month_all!C28)</f>
         <v/>
       </c>
-      <c r="E31" s="17" t="str">
+      <c r="E31" s="11" t="str">
         <f>IF(_tag_month_all!D28="","",_tag_month_all!D28)</f>
         <v/>
       </c>
-      <c r="F31" s="18" t="str">
+      <c r="F31" s="33" t="str">
         <f>IF(_tag_month_all!E28="","",_tag_month_all!E28)</f>
         <v/>
       </c>
-      <c r="G31" s="19" t="str">
+      <c r="G31" s="38" t="str">
         <f>IF(_tag_month_all!F28="","",_tag_month_all!F28)</f>
         <v/>
       </c>
-      <c r="H31" s="20" t="str">
+      <c r="H31" s="39" t="str">
         <f>IF(_tag_month_all!G28="","",_tag_month_all!G28)</f>
         <v/>
       </c>
@@ -5544,144 +5650,144 @@
         <f>IF(_tag_month_all!I28="","",_tag_month_all!I28)</f>
         <v/>
       </c>
-      <c r="K31" s="26" t="str">
+      <c r="K31" s="43" t="str">
         <f>IF(_tag_month_all!J28="","",_tag_month_all!J28)</f>
         <v/>
       </c>
-      <c r="L31" s="17" t="str">
+      <c r="L31" s="11" t="str">
         <f>IF(_tag_month_all!K28="","",_tag_month_all!K28)</f>
         <v/>
       </c>
-      <c r="M31" s="27" t="str">
+      <c r="M31" s="15" t="str">
         <f>IF(_tag_month_all!L28="","",_tag_month_all!L28)</f>
         <v/>
       </c>
-      <c r="N31" s="28" t="str">
+      <c r="N31" s="16" t="str">
         <f>IF(_tag_month_all!M28="","",_tag_month_all!M28)</f>
         <v/>
       </c>
-      <c r="O31" s="29" t="str">
+      <c r="O31" s="17" t="str">
         <f>IF(_tag_month_all!N28="","",_tag_month_all!N28)</f>
         <v/>
       </c>
-      <c r="P31" s="29" t="str">
+      <c r="P31" s="11" t="str">
         <f>IF(_tag_month_all!O28="","",_tag_month_all!O28)</f>
         <v/>
       </c>
-      <c r="Q31" s="29" t="str">
+      <c r="Q31" s="11" t="str">
         <f>IF(_tag_month_all!P28="","",_tag_month_all!P28)</f>
         <v/>
       </c>
-      <c r="R31" s="34" t="str">
+      <c r="R31" s="11" t="str">
         <f>IF(_tag_month_all!Q28="","",_tag_month_all!Q28)</f>
         <v/>
       </c>
-      <c r="S31" s="34" t="str">
+      <c r="S31" s="11" t="str">
         <f>IF(_tag_month_all!R28="","",_tag_month_all!R28)</f>
         <v/>
       </c>
-      <c r="T31" s="34" t="str">
+      <c r="T31" s="49" t="str">
         <f>IF(_tag_month_all!S28="","",_tag_month_all!S28)</f>
         <v/>
       </c>
-      <c r="U31" s="34" t="str">
+      <c r="U31" s="17" t="str">
         <f>IF(_tag_month_all!T28="","",_tag_month_all!T28)</f>
         <v/>
       </c>
-      <c r="V31" s="28" t="str">
+      <c r="V31" s="17" t="str">
         <f>IF(_tag_month_all!U28="","",_tag_month_all!U28)</f>
         <v/>
       </c>
-      <c r="W31" s="29" t="str">
+      <c r="W31" s="11" t="str">
         <f>IF(_tag_month_all!V28="","",_tag_month_all!V28)</f>
         <v/>
       </c>
-      <c r="X31" s="29" t="str">
+      <c r="X31" s="17" t="str">
         <f>IF(_tag_month_all!W28="","",_tag_month_all!W28)</f>
         <v/>
       </c>
-      <c r="Y31" s="29" t="str">
+      <c r="Y31" s="17" t="str">
         <f>IF(_tag_month_all!X28="","",_tag_month_all!X28)</f>
         <v/>
       </c>
-      <c r="Z31" s="29" t="str">
+      <c r="Z31" s="17" t="str">
         <f>IF(_tag_month_all!Y28="","",_tag_month_all!Y28)</f>
         <v/>
       </c>
-      <c r="AA31" s="29" t="str">
+      <c r="AA31" s="17" t="str">
         <f>IF(_tag_month_all!Z28="","",_tag_month_all!Z28)</f>
         <v/>
       </c>
-      <c r="AB31" s="29" t="str">
+      <c r="AB31" s="17" t="str">
         <f>IF(_tag_month_all!AA28="","",_tag_month_all!AA28)</f>
         <v/>
       </c>
-      <c r="AC31" s="29" t="str">
+      <c r="AC31" s="17" t="str">
         <f>IF(_tag_month_all!AB28="","",_tag_month_all!AB28)</f>
         <v/>
       </c>
-      <c r="AD31" s="29" t="str">
+      <c r="AD31" s="17" t="str">
         <f>IF(_tag_month_all!AC28="","",_tag_month_all!AC28)</f>
         <v/>
       </c>
-      <c r="AE31" s="16" t="str">
+      <c r="AE31" s="11" t="str">
         <f>IF(_tag_month_all!AD28="","",_tag_month_all!AD28)</f>
         <v/>
       </c>
-      <c r="AF31" s="16" t="str">
+      <c r="AF31" s="11" t="str">
         <f>IF(_tag_month_all!AE28="","",_tag_month_all!AE28)</f>
         <v/>
       </c>
-      <c r="AG31" s="29" t="str">
+      <c r="AG31" s="17" t="str">
         <f>IF(_tag_month_all!AF28="","",_tag_month_all!AF28)</f>
         <v/>
       </c>
-      <c r="AH31" s="29" t="str">
+      <c r="AH31" s="17" t="str">
         <f>IF(_tag_month_all!AG28="","",_tag_month_all!AG28)</f>
         <v/>
       </c>
-      <c r="AI31" s="28" t="str">
+      <c r="AI31" s="11" t="str">
         <f>IF(_tag_month_all!AH28="","",_tag_month_all!AH28)</f>
         <v/>
       </c>
-      <c r="AJ31" s="28" t="str">
+      <c r="AJ31" s="16" t="str">
         <f>IF(_tag_month_all!AI28="","",_tag_month_all!AI28)</f>
         <v/>
       </c>
-      <c r="AK31" s="37" t="str">
+      <c r="AK31" s="61" t="str">
         <f>IF(_tag_month_all!AJ28="","",_tag_month_all!AJ28)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:37">
-      <c r="A32" s="12">
+      <c r="A32" s="9">
         <v>28</v>
       </c>
-      <c r="B32" s="15" t="str">
+      <c r="B32" s="11" t="str">
         <f>IF(_tag_month_all!A29="","",_tag_month_all!A29)</f>
         <v/>
       </c>
-      <c r="C32" s="15" t="str">
+      <c r="C32" s="17" t="str">
         <f>IF(_tag_month_all!B29="","",_tag_month_all!B29)</f>
         <v/>
       </c>
-      <c r="D32" s="16" t="str">
+      <c r="D32" s="17" t="str">
         <f>IF(_tag_month_all!C29="","",_tag_month_all!C29)</f>
         <v/>
       </c>
-      <c r="E32" s="17" t="str">
+      <c r="E32" s="11" t="str">
         <f>IF(_tag_month_all!D29="","",_tag_month_all!D29)</f>
         <v/>
       </c>
-      <c r="F32" s="18" t="str">
+      <c r="F32" s="33" t="str">
         <f>IF(_tag_month_all!E29="","",_tag_month_all!E29)</f>
         <v/>
       </c>
-      <c r="G32" s="19" t="str">
+      <c r="G32" s="38" t="str">
         <f>IF(_tag_month_all!F29="","",_tag_month_all!F29)</f>
         <v/>
       </c>
-      <c r="H32" s="20" t="str">
+      <c r="H32" s="39" t="str">
         <f>IF(_tag_month_all!G29="","",_tag_month_all!G29)</f>
         <v/>
       </c>
@@ -5693,144 +5799,144 @@
         <f>IF(_tag_month_all!I29="","",_tag_month_all!I29)</f>
         <v/>
       </c>
-      <c r="K32" s="26" t="str">
+      <c r="K32" s="43" t="str">
         <f>IF(_tag_month_all!J29="","",_tag_month_all!J29)</f>
         <v/>
       </c>
-      <c r="L32" s="17" t="str">
+      <c r="L32" s="11" t="str">
         <f>IF(_tag_month_all!K29="","",_tag_month_all!K29)</f>
         <v/>
       </c>
-      <c r="M32" s="27" t="str">
+      <c r="M32" s="15" t="str">
         <f>IF(_tag_month_all!L29="","",_tag_month_all!L29)</f>
         <v/>
       </c>
-      <c r="N32" s="28" t="str">
+      <c r="N32" s="16" t="str">
         <f>IF(_tag_month_all!M29="","",_tag_month_all!M29)</f>
         <v/>
       </c>
-      <c r="O32" s="29" t="str">
+      <c r="O32" s="17" t="str">
         <f>IF(_tag_month_all!N29="","",_tag_month_all!N29)</f>
         <v/>
       </c>
-      <c r="P32" s="29" t="str">
+      <c r="P32" s="11" t="str">
         <f>IF(_tag_month_all!O29="","",_tag_month_all!O29)</f>
         <v/>
       </c>
-      <c r="Q32" s="29" t="str">
+      <c r="Q32" s="11" t="str">
         <f>IF(_tag_month_all!P29="","",_tag_month_all!P29)</f>
         <v/>
       </c>
-      <c r="R32" s="34" t="str">
+      <c r="R32" s="11" t="str">
         <f>IF(_tag_month_all!Q29="","",_tag_month_all!Q29)</f>
         <v/>
       </c>
-      <c r="S32" s="34" t="str">
+      <c r="S32" s="11" t="str">
         <f>IF(_tag_month_all!R29="","",_tag_month_all!R29)</f>
         <v/>
       </c>
-      <c r="T32" s="34" t="str">
+      <c r="T32" s="49" t="str">
         <f>IF(_tag_month_all!S29="","",_tag_month_all!S29)</f>
         <v/>
       </c>
-      <c r="U32" s="34" t="str">
+      <c r="U32" s="17" t="str">
         <f>IF(_tag_month_all!T29="","",_tag_month_all!T29)</f>
         <v/>
       </c>
-      <c r="V32" s="28" t="str">
+      <c r="V32" s="17" t="str">
         <f>IF(_tag_month_all!U29="","",_tag_month_all!U29)</f>
         <v/>
       </c>
-      <c r="W32" s="29" t="str">
+      <c r="W32" s="11" t="str">
         <f>IF(_tag_month_all!V29="","",_tag_month_all!V29)</f>
         <v/>
       </c>
-      <c r="X32" s="29" t="str">
+      <c r="X32" s="17" t="str">
         <f>IF(_tag_month_all!W29="","",_tag_month_all!W29)</f>
         <v/>
       </c>
-      <c r="Y32" s="29" t="str">
+      <c r="Y32" s="17" t="str">
         <f>IF(_tag_month_all!X29="","",_tag_month_all!X29)</f>
         <v/>
       </c>
-      <c r="Z32" s="29" t="str">
+      <c r="Z32" s="17" t="str">
         <f>IF(_tag_month_all!Y29="","",_tag_month_all!Y29)</f>
         <v/>
       </c>
-      <c r="AA32" s="29" t="str">
+      <c r="AA32" s="17" t="str">
         <f>IF(_tag_month_all!Z29="","",_tag_month_all!Z29)</f>
         <v/>
       </c>
-      <c r="AB32" s="29" t="str">
+      <c r="AB32" s="17" t="str">
         <f>IF(_tag_month_all!AA29="","",_tag_month_all!AA29)</f>
         <v/>
       </c>
-      <c r="AC32" s="29" t="str">
+      <c r="AC32" s="17" t="str">
         <f>IF(_tag_month_all!AB29="","",_tag_month_all!AB29)</f>
         <v/>
       </c>
-      <c r="AD32" s="29" t="str">
+      <c r="AD32" s="17" t="str">
         <f>IF(_tag_month_all!AC29="","",_tag_month_all!AC29)</f>
         <v/>
       </c>
-      <c r="AE32" s="16" t="str">
+      <c r="AE32" s="11" t="str">
         <f>IF(_tag_month_all!AD29="","",_tag_month_all!AD29)</f>
         <v/>
       </c>
-      <c r="AF32" s="16" t="str">
+      <c r="AF32" s="11" t="str">
         <f>IF(_tag_month_all!AE29="","",_tag_month_all!AE29)</f>
         <v/>
       </c>
-      <c r="AG32" s="29" t="str">
+      <c r="AG32" s="17" t="str">
         <f>IF(_tag_month_all!AF29="","",_tag_month_all!AF29)</f>
         <v/>
       </c>
-      <c r="AH32" s="29" t="str">
+      <c r="AH32" s="17" t="str">
         <f>IF(_tag_month_all!AG29="","",_tag_month_all!AG29)</f>
         <v/>
       </c>
-      <c r="AI32" s="28" t="str">
+      <c r="AI32" s="11" t="str">
         <f>IF(_tag_month_all!AH29="","",_tag_month_all!AH29)</f>
         <v/>
       </c>
-      <c r="AJ32" s="28" t="str">
+      <c r="AJ32" s="16" t="str">
         <f>IF(_tag_month_all!AI29="","",_tag_month_all!AI29)</f>
         <v/>
       </c>
-      <c r="AK32" s="37" t="str">
+      <c r="AK32" s="61" t="str">
         <f>IF(_tag_month_all!AJ29="","",_tag_month_all!AJ29)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:37">
-      <c r="A33" s="12">
+      <c r="A33" s="9">
         <v>29</v>
       </c>
-      <c r="B33" s="15" t="str">
+      <c r="B33" s="11" t="str">
         <f>IF(_tag_month_all!A30="","",_tag_month_all!A30)</f>
         <v/>
       </c>
-      <c r="C33" s="15" t="str">
+      <c r="C33" s="17" t="str">
         <f>IF(_tag_month_all!B30="","",_tag_month_all!B30)</f>
         <v/>
       </c>
-      <c r="D33" s="16" t="str">
+      <c r="D33" s="17" t="str">
         <f>IF(_tag_month_all!C30="","",_tag_month_all!C30)</f>
         <v/>
       </c>
-      <c r="E33" s="17" t="str">
+      <c r="E33" s="11" t="str">
         <f>IF(_tag_month_all!D30="","",_tag_month_all!D30)</f>
         <v/>
       </c>
-      <c r="F33" s="18" t="str">
+      <c r="F33" s="33" t="str">
         <f>IF(_tag_month_all!E30="","",_tag_month_all!E30)</f>
         <v/>
       </c>
-      <c r="G33" s="19" t="str">
+      <c r="G33" s="38" t="str">
         <f>IF(_tag_month_all!F30="","",_tag_month_all!F30)</f>
         <v/>
       </c>
-      <c r="H33" s="20" t="str">
+      <c r="H33" s="39" t="str">
         <f>IF(_tag_month_all!G30="","",_tag_month_all!G30)</f>
         <v/>
       </c>
@@ -5842,144 +5948,144 @@
         <f>IF(_tag_month_all!I30="","",_tag_month_all!I30)</f>
         <v/>
       </c>
-      <c r="K33" s="26" t="str">
+      <c r="K33" s="43" t="str">
         <f>IF(_tag_month_all!J30="","",_tag_month_all!J30)</f>
         <v/>
       </c>
-      <c r="L33" s="17" t="str">
+      <c r="L33" s="11" t="str">
         <f>IF(_tag_month_all!K30="","",_tag_month_all!K30)</f>
         <v/>
       </c>
-      <c r="M33" s="27" t="str">
+      <c r="M33" s="15" t="str">
         <f>IF(_tag_month_all!L30="","",_tag_month_all!L30)</f>
         <v/>
       </c>
-      <c r="N33" s="28" t="str">
+      <c r="N33" s="16" t="str">
         <f>IF(_tag_month_all!M30="","",_tag_month_all!M30)</f>
         <v/>
       </c>
-      <c r="O33" s="29" t="str">
+      <c r="O33" s="17" t="str">
         <f>IF(_tag_month_all!N30="","",_tag_month_all!N30)</f>
         <v/>
       </c>
-      <c r="P33" s="29" t="str">
+      <c r="P33" s="11" t="str">
         <f>IF(_tag_month_all!O30="","",_tag_month_all!O30)</f>
         <v/>
       </c>
-      <c r="Q33" s="29" t="str">
+      <c r="Q33" s="11" t="str">
         <f>IF(_tag_month_all!P30="","",_tag_month_all!P30)</f>
         <v/>
       </c>
-      <c r="R33" s="34" t="str">
+      <c r="R33" s="11" t="str">
         <f>IF(_tag_month_all!Q30="","",_tag_month_all!Q30)</f>
         <v/>
       </c>
-      <c r="S33" s="34" t="str">
+      <c r="S33" s="11" t="str">
         <f>IF(_tag_month_all!R30="","",_tag_month_all!R30)</f>
         <v/>
       </c>
-      <c r="T33" s="34" t="str">
+      <c r="T33" s="49" t="str">
         <f>IF(_tag_month_all!S30="","",_tag_month_all!S30)</f>
         <v/>
       </c>
-      <c r="U33" s="34" t="str">
+      <c r="U33" s="17" t="str">
         <f>IF(_tag_month_all!T30="","",_tag_month_all!T30)</f>
         <v/>
       </c>
-      <c r="V33" s="28" t="str">
+      <c r="V33" s="17" t="str">
         <f>IF(_tag_month_all!U30="","",_tag_month_all!U30)</f>
         <v/>
       </c>
-      <c r="W33" s="29" t="str">
+      <c r="W33" s="11" t="str">
         <f>IF(_tag_month_all!V30="","",_tag_month_all!V30)</f>
         <v/>
       </c>
-      <c r="X33" s="29" t="str">
+      <c r="X33" s="17" t="str">
         <f>IF(_tag_month_all!W30="","",_tag_month_all!W30)</f>
         <v/>
       </c>
-      <c r="Y33" s="29" t="str">
+      <c r="Y33" s="17" t="str">
         <f>IF(_tag_month_all!X30="","",_tag_month_all!X30)</f>
         <v/>
       </c>
-      <c r="Z33" s="29" t="str">
+      <c r="Z33" s="17" t="str">
         <f>IF(_tag_month_all!Y30="","",_tag_month_all!Y30)</f>
         <v/>
       </c>
-      <c r="AA33" s="29" t="str">
+      <c r="AA33" s="17" t="str">
         <f>IF(_tag_month_all!Z30="","",_tag_month_all!Z30)</f>
         <v/>
       </c>
-      <c r="AB33" s="29" t="str">
+      <c r="AB33" s="17" t="str">
         <f>IF(_tag_month_all!AA30="","",_tag_month_all!AA30)</f>
         <v/>
       </c>
-      <c r="AC33" s="29" t="str">
+      <c r="AC33" s="17" t="str">
         <f>IF(_tag_month_all!AB30="","",_tag_month_all!AB30)</f>
         <v/>
       </c>
-      <c r="AD33" s="29" t="str">
+      <c r="AD33" s="17" t="str">
         <f>IF(_tag_month_all!AC30="","",_tag_month_all!AC30)</f>
         <v/>
       </c>
-      <c r="AE33" s="16" t="str">
+      <c r="AE33" s="11" t="str">
         <f>IF(_tag_month_all!AD30="","",_tag_month_all!AD30)</f>
         <v/>
       </c>
-      <c r="AF33" s="16" t="str">
+      <c r="AF33" s="11" t="str">
         <f>IF(_tag_month_all!AE30="","",_tag_month_all!AE30)</f>
         <v/>
       </c>
-      <c r="AG33" s="29" t="str">
+      <c r="AG33" s="17" t="str">
         <f>IF(_tag_month_all!AF30="","",_tag_month_all!AF30)</f>
         <v/>
       </c>
-      <c r="AH33" s="29" t="str">
+      <c r="AH33" s="17" t="str">
         <f>IF(_tag_month_all!AG30="","",_tag_month_all!AG30)</f>
         <v/>
       </c>
-      <c r="AI33" s="28" t="str">
+      <c r="AI33" s="11" t="str">
         <f>IF(_tag_month_all!AH30="","",_tag_month_all!AH30)</f>
         <v/>
       </c>
-      <c r="AJ33" s="28" t="str">
+      <c r="AJ33" s="16" t="str">
         <f>IF(_tag_month_all!AI30="","",_tag_month_all!AI30)</f>
         <v/>
       </c>
-      <c r="AK33" s="37" t="str">
+      <c r="AK33" s="61" t="str">
         <f>IF(_tag_month_all!AJ30="","",_tag_month_all!AJ30)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:37">
-      <c r="A34" s="12">
+      <c r="A34" s="9">
         <v>30</v>
       </c>
-      <c r="B34" s="15" t="str">
+      <c r="B34" s="11" t="str">
         <f>IF(_tag_month_all!A31="","",_tag_month_all!A31)</f>
         <v/>
       </c>
-      <c r="C34" s="15" t="str">
+      <c r="C34" s="17" t="str">
         <f>IF(_tag_month_all!B31="","",_tag_month_all!B31)</f>
         <v/>
       </c>
-      <c r="D34" s="16" t="str">
+      <c r="D34" s="17" t="str">
         <f>IF(_tag_month_all!C31="","",_tag_month_all!C31)</f>
         <v/>
       </c>
-      <c r="E34" s="17" t="str">
+      <c r="E34" s="11" t="str">
         <f>IF(_tag_month_all!D31="","",_tag_month_all!D31)</f>
         <v/>
       </c>
-      <c r="F34" s="18" t="str">
+      <c r="F34" s="33" t="str">
         <f>IF(_tag_month_all!E31="","",_tag_month_all!E31)</f>
         <v/>
       </c>
-      <c r="G34" s="19" t="str">
+      <c r="G34" s="38" t="str">
         <f>IF(_tag_month_all!F31="","",_tag_month_all!F31)</f>
         <v/>
       </c>
-      <c r="H34" s="20" t="str">
+      <c r="H34" s="39" t="str">
         <f>IF(_tag_month_all!G31="","",_tag_month_all!G31)</f>
         <v/>
       </c>
@@ -5991,144 +6097,144 @@
         <f>IF(_tag_month_all!I31="","",_tag_month_all!I31)</f>
         <v/>
       </c>
-      <c r="K34" s="26" t="str">
+      <c r="K34" s="43" t="str">
         <f>IF(_tag_month_all!J31="","",_tag_month_all!J31)</f>
         <v/>
       </c>
-      <c r="L34" s="17" t="str">
+      <c r="L34" s="11" t="str">
         <f>IF(_tag_month_all!K31="","",_tag_month_all!K31)</f>
         <v/>
       </c>
-      <c r="M34" s="27" t="str">
+      <c r="M34" s="15" t="str">
         <f>IF(_tag_month_all!L31="","",_tag_month_all!L31)</f>
         <v/>
       </c>
-      <c r="N34" s="28" t="str">
+      <c r="N34" s="16" t="str">
         <f>IF(_tag_month_all!M31="","",_tag_month_all!M31)</f>
         <v/>
       </c>
-      <c r="O34" s="29" t="str">
+      <c r="O34" s="17" t="str">
         <f>IF(_tag_month_all!N31="","",_tag_month_all!N31)</f>
         <v/>
       </c>
-      <c r="P34" s="29" t="str">
+      <c r="P34" s="11" t="str">
         <f>IF(_tag_month_all!O31="","",_tag_month_all!O31)</f>
         <v/>
       </c>
-      <c r="Q34" s="29" t="str">
+      <c r="Q34" s="11" t="str">
         <f>IF(_tag_month_all!P31="","",_tag_month_all!P31)</f>
         <v/>
       </c>
-      <c r="R34" s="34" t="str">
+      <c r="R34" s="11" t="str">
         <f>IF(_tag_month_all!Q31="","",_tag_month_all!Q31)</f>
         <v/>
       </c>
-      <c r="S34" s="34" t="str">
+      <c r="S34" s="11" t="str">
         <f>IF(_tag_month_all!R31="","",_tag_month_all!R31)</f>
         <v/>
       </c>
-      <c r="T34" s="34" t="str">
+      <c r="T34" s="49" t="str">
         <f>IF(_tag_month_all!S31="","",_tag_month_all!S31)</f>
         <v/>
       </c>
-      <c r="U34" s="34" t="str">
+      <c r="U34" s="17" t="str">
         <f>IF(_tag_month_all!T31="","",_tag_month_all!T31)</f>
         <v/>
       </c>
-      <c r="V34" s="28" t="str">
+      <c r="V34" s="17" t="str">
         <f>IF(_tag_month_all!U31="","",_tag_month_all!U31)</f>
         <v/>
       </c>
-      <c r="W34" s="29" t="str">
+      <c r="W34" s="11" t="str">
         <f>IF(_tag_month_all!V31="","",_tag_month_all!V31)</f>
         <v/>
       </c>
-      <c r="X34" s="29" t="str">
+      <c r="X34" s="17" t="str">
         <f>IF(_tag_month_all!W31="","",_tag_month_all!W31)</f>
         <v/>
       </c>
-      <c r="Y34" s="29" t="str">
+      <c r="Y34" s="17" t="str">
         <f>IF(_tag_month_all!X31="","",_tag_month_all!X31)</f>
         <v/>
       </c>
-      <c r="Z34" s="29" t="str">
+      <c r="Z34" s="17" t="str">
         <f>IF(_tag_month_all!Y31="","",_tag_month_all!Y31)</f>
         <v/>
       </c>
-      <c r="AA34" s="29" t="str">
+      <c r="AA34" s="17" t="str">
         <f>IF(_tag_month_all!Z31="","",_tag_month_all!Z31)</f>
         <v/>
       </c>
-      <c r="AB34" s="29" t="str">
+      <c r="AB34" s="17" t="str">
         <f>IF(_tag_month_all!AA31="","",_tag_month_all!AA31)</f>
         <v/>
       </c>
-      <c r="AC34" s="29" t="str">
+      <c r="AC34" s="17" t="str">
         <f>IF(_tag_month_all!AB31="","",_tag_month_all!AB31)</f>
         <v/>
       </c>
-      <c r="AD34" s="29" t="str">
+      <c r="AD34" s="17" t="str">
         <f>IF(_tag_month_all!AC31="","",_tag_month_all!AC31)</f>
         <v/>
       </c>
-      <c r="AE34" s="16" t="str">
+      <c r="AE34" s="11" t="str">
         <f>IF(_tag_month_all!AD31="","",_tag_month_all!AD31)</f>
         <v/>
       </c>
-      <c r="AF34" s="16" t="str">
+      <c r="AF34" s="11" t="str">
         <f>IF(_tag_month_all!AE31="","",_tag_month_all!AE31)</f>
         <v/>
       </c>
-      <c r="AG34" s="29" t="str">
+      <c r="AG34" s="17" t="str">
         <f>IF(_tag_month_all!AF31="","",_tag_month_all!AF31)</f>
         <v/>
       </c>
-      <c r="AH34" s="29" t="str">
+      <c r="AH34" s="17" t="str">
         <f>IF(_tag_month_all!AG31="","",_tag_month_all!AG31)</f>
         <v/>
       </c>
-      <c r="AI34" s="28" t="str">
+      <c r="AI34" s="11" t="str">
         <f>IF(_tag_month_all!AH31="","",_tag_month_all!AH31)</f>
         <v/>
       </c>
-      <c r="AJ34" s="28" t="str">
+      <c r="AJ34" s="16" t="str">
         <f>IF(_tag_month_all!AI31="","",_tag_month_all!AI31)</f>
         <v/>
       </c>
-      <c r="AK34" s="37" t="str">
+      <c r="AK34" s="61" t="str">
         <f>IF(_tag_month_all!AJ31="","",_tag_month_all!AJ31)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:37">
-      <c r="A35" s="12">
+      <c r="A35" s="9">
         <v>31</v>
       </c>
-      <c r="B35" s="15" t="str">
+      <c r="B35" s="11" t="str">
         <f>IF(_tag_month_all!A32="","",_tag_month_all!A32)</f>
         <v/>
       </c>
-      <c r="C35" s="15" t="str">
+      <c r="C35" s="17" t="str">
         <f>IF(_tag_month_all!B32="","",_tag_month_all!B32)</f>
         <v/>
       </c>
-      <c r="D35" s="16" t="str">
+      <c r="D35" s="17" t="str">
         <f>IF(_tag_month_all!C32="","",_tag_month_all!C32)</f>
         <v/>
       </c>
-      <c r="E35" s="17" t="str">
+      <c r="E35" s="11" t="str">
         <f>IF(_tag_month_all!D32="","",_tag_month_all!D32)</f>
         <v/>
       </c>
-      <c r="F35" s="21" t="str">
+      <c r="F35" s="34" t="str">
         <f>IF(_tag_month_all!E32="","",_tag_month_all!E32)</f>
         <v/>
       </c>
-      <c r="G35" s="19" t="str">
+      <c r="G35" s="38" t="str">
         <f>IF(_tag_month_all!F32="","",_tag_month_all!F32)</f>
         <v/>
       </c>
-      <c r="H35" s="22" t="str">
+      <c r="H35" s="40" t="str">
         <f>IF(_tag_month_all!G32="","",_tag_month_all!G32)</f>
         <v/>
       </c>
@@ -6140,365 +6246,365 @@
         <f>IF(_tag_month_all!I32="","",_tag_month_all!I32)</f>
         <v/>
       </c>
-      <c r="K35" s="30" t="str">
+      <c r="K35" s="44" t="str">
         <f>IF(_tag_month_all!J32="","",_tag_month_all!J32)</f>
         <v/>
       </c>
-      <c r="L35" s="17" t="str">
+      <c r="L35" s="11" t="str">
         <f>IF(_tag_month_all!K32="","",_tag_month_all!K32)</f>
         <v/>
       </c>
-      <c r="M35" s="31" t="str">
+      <c r="M35" s="18" t="str">
         <f>IF(_tag_month_all!L32="","",_tag_month_all!L32)</f>
         <v/>
       </c>
-      <c r="N35" s="28" t="str">
+      <c r="N35" s="16" t="str">
         <f>IF(_tag_month_all!M32="","",_tag_month_all!M32)</f>
         <v/>
       </c>
-      <c r="O35" s="29" t="str">
+      <c r="O35" s="17" t="str">
         <f>IF(_tag_month_all!N32="","",_tag_month_all!N32)</f>
         <v/>
       </c>
-      <c r="P35" s="29" t="str">
+      <c r="P35" s="11" t="str">
         <f>IF(_tag_month_all!O32="","",_tag_month_all!O32)</f>
         <v/>
       </c>
-      <c r="Q35" s="29" t="str">
+      <c r="Q35" s="11" t="str">
         <f>IF(_tag_month_all!P32="","",_tag_month_all!P32)</f>
         <v/>
       </c>
-      <c r="R35" s="34" t="str">
+      <c r="R35" s="11" t="str">
         <f>IF(_tag_month_all!Q32="","",_tag_month_all!Q32)</f>
         <v/>
       </c>
-      <c r="S35" s="34" t="str">
+      <c r="S35" s="11" t="str">
         <f>IF(_tag_month_all!R32="","",_tag_month_all!R32)</f>
         <v/>
       </c>
-      <c r="T35" s="34" t="str">
+      <c r="T35" s="49" t="str">
         <f>IF(_tag_month_all!S32="","",_tag_month_all!S32)</f>
         <v/>
       </c>
-      <c r="U35" s="34" t="str">
+      <c r="U35" s="17" t="str">
         <f>IF(_tag_month_all!T32="","",_tag_month_all!T32)</f>
         <v/>
       </c>
-      <c r="V35" s="28" t="str">
+      <c r="V35" s="17" t="str">
         <f>IF(_tag_month_all!U32="","",_tag_month_all!U32)</f>
         <v/>
       </c>
-      <c r="W35" s="29" t="str">
+      <c r="W35" s="11" t="str">
         <f>IF(_tag_month_all!V32="","",_tag_month_all!V32)</f>
         <v/>
       </c>
-      <c r="X35" s="29" t="str">
+      <c r="X35" s="17" t="str">
         <f>IF(_tag_month_all!W32="","",_tag_month_all!W32)</f>
         <v/>
       </c>
-      <c r="Y35" s="29" t="str">
+      <c r="Y35" s="17" t="str">
         <f>IF(_tag_month_all!X32="","",_tag_month_all!X32)</f>
         <v/>
       </c>
-      <c r="Z35" s="29" t="str">
+      <c r="Z35" s="17" t="str">
         <f>IF(_tag_month_all!Y32="","",_tag_month_all!Y32)</f>
         <v/>
       </c>
-      <c r="AA35" s="29" t="str">
+      <c r="AA35" s="17" t="str">
         <f>IF(_tag_month_all!Z32="","",_tag_month_all!Z32)</f>
         <v/>
       </c>
-      <c r="AB35" s="29" t="str">
+      <c r="AB35" s="17" t="str">
         <f>IF(_tag_month_all!AA32="","",_tag_month_all!AA32)</f>
         <v/>
       </c>
-      <c r="AC35" s="29" t="str">
+      <c r="AC35" s="17" t="str">
         <f>IF(_tag_month_all!AB32="","",_tag_month_all!AB32)</f>
         <v/>
       </c>
-      <c r="AD35" s="29" t="str">
+      <c r="AD35" s="17" t="str">
         <f>IF(_tag_month_all!AC32="","",_tag_month_all!AC32)</f>
         <v/>
       </c>
-      <c r="AE35" s="16" t="str">
+      <c r="AE35" s="11" t="str">
         <f>IF(_tag_month_all!AD32="","",_tag_month_all!AD32)</f>
         <v/>
       </c>
-      <c r="AF35" s="16" t="str">
+      <c r="AF35" s="11" t="str">
         <f>IF(_tag_month_all!AE32="","",_tag_month_all!AE32)</f>
         <v/>
       </c>
-      <c r="AG35" s="29" t="str">
+      <c r="AG35" s="17" t="str">
         <f>IF(_tag_month_all!AF32="","",_tag_month_all!AF32)</f>
         <v/>
       </c>
-      <c r="AH35" s="29" t="str">
+      <c r="AH35" s="17" t="str">
         <f>IF(_tag_month_all!AG32="","",_tag_month_all!AG32)</f>
         <v/>
       </c>
-      <c r="AI35" s="28" t="str">
+      <c r="AI35" s="11" t="str">
         <f>IF(_tag_month_all!AH32="","",_tag_month_all!AH32)</f>
         <v/>
       </c>
-      <c r="AJ35" s="28" t="str">
+      <c r="AJ35" s="16" t="str">
         <f>IF(_tag_month_all!AI32="","",_tag_month_all!AI32)</f>
         <v/>
       </c>
-      <c r="AK35" s="37" t="str">
+      <c r="AK35" s="61" t="str">
         <f>IF(_tag_month_all!AJ32="","",_tag_month_all!AJ32)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:37">
-      <c r="A36" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="24" t="str">
+      <c r="A36" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="30" t="str">
         <f>IFERROR(AVERAGE(B4:B35),"")</f>
         <v/>
       </c>
-      <c r="C36" s="24" t="str">
+      <c r="C36" s="13" t="str">
         <f t="shared" ref="C36:AK36" si="0">IFERROR(AVERAGE(C4:C35),"")</f>
         <v/>
       </c>
-      <c r="D36" s="25" t="str">
+      <c r="D36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E36" s="25" t="str">
+      <c r="E36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="25" t="str">
+      <c r="F36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G36" s="25" t="str">
+      <c r="G36" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="25" t="str">
+      <c r="H36" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I36" s="25" t="str">
+      <c r="I36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J36" s="25" t="str">
+      <c r="J36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K36" s="25" t="str">
+      <c r="K36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L36" s="25" t="str">
+      <c r="L36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M36" s="25" t="str">
+      <c r="M36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N36" s="25" t="str">
+      <c r="N36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O36" s="24" t="str">
+      <c r="O36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P36" s="24" t="str">
+      <c r="P36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q36" s="24" t="str">
+      <c r="Q36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R36" s="25" t="str">
+      <c r="R36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S36" s="25" t="str">
+      <c r="S36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T36" s="25" t="str">
+      <c r="T36" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U36" s="25" t="str">
+      <c r="U36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V36" s="25" t="str">
+      <c r="V36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W36" s="24" t="str">
+      <c r="W36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="X36" s="24" t="str">
+      <c r="X36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y36" s="24" t="str">
+      <c r="Y36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Z36" s="24" t="str">
+      <c r="Z36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA36" s="24" t="str">
+      <c r="AA36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB36" s="24" t="str">
+      <c r="AB36" s="13" t="str">
         <f t="shared" ref="AB36" si="1">IFERROR(AVERAGE(AB4:AB35),"")</f>
         <v/>
       </c>
-      <c r="AC36" s="24" t="str">
+      <c r="AC36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD36" s="24" t="str">
+      <c r="AD36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE36" s="25" t="str">
+      <c r="AE36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AF36" s="25" t="str">
+      <c r="AF36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AG36" s="24" t="str">
+      <c r="AG36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH36" s="24" t="str">
+      <c r="AH36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI36" s="25" t="str">
+      <c r="AI36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AJ36" s="25" t="str">
+      <c r="AJ36" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AK36" s="38" t="str">
+      <c r="AK36" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:37">
-      <c r="AK37" s="39"/>
+      <c r="AK37" s="62"/>
     </row>
     <row r="38" spans="1:37" ht="14.25">
-      <c r="AK38" s="40"/>
+      <c r="AK38" s="63"/>
     </row>
     <row r="39" spans="1:37">
-      <c r="AK39" s="41"/>
+      <c r="AK39" s="64"/>
     </row>
     <row r="40" spans="1:37">
-      <c r="AK40" s="41"/>
+      <c r="AK40" s="64"/>
     </row>
     <row r="41" spans="1:37">
-      <c r="AK41" s="41"/>
+      <c r="AK41" s="64"/>
     </row>
     <row r="42" spans="1:37">
-      <c r="AK42" s="41"/>
+      <c r="AK42" s="64"/>
     </row>
     <row r="43" spans="1:37">
-      <c r="AK43" s="41"/>
+      <c r="AK43" s="64"/>
     </row>
     <row r="44" spans="1:37">
-      <c r="AK44" s="41"/>
+      <c r="AK44" s="64"/>
     </row>
     <row r="45" spans="1:37">
-      <c r="AK45" s="41"/>
+      <c r="AK45" s="64"/>
     </row>
     <row r="46" spans="1:37">
-      <c r="AK46" s="41"/>
+      <c r="AK46" s="64"/>
     </row>
     <row r="47" spans="1:37">
-      <c r="AK47" s="41"/>
+      <c r="AK47" s="64"/>
     </row>
     <row r="48" spans="1:37">
-      <c r="AK48" s="41"/>
+      <c r="AK48" s="64"/>
     </row>
     <row r="49" spans="37:37">
-      <c r="AK49" s="41"/>
+      <c r="AK49" s="64"/>
     </row>
     <row r="50" spans="37:37">
-      <c r="AK50" s="41"/>
+      <c r="AK50" s="64"/>
     </row>
     <row r="51" spans="37:37">
-      <c r="AK51" s="41"/>
+      <c r="AK51" s="64"/>
     </row>
     <row r="52" spans="37:37">
-      <c r="AK52" s="41"/>
+      <c r="AK52" s="64"/>
     </row>
     <row r="53" spans="37:37">
-      <c r="AK53" s="41"/>
+      <c r="AK53" s="64"/>
     </row>
     <row r="54" spans="37:37">
-      <c r="AK54" s="41"/>
+      <c r="AK54" s="64"/>
     </row>
     <row r="55" spans="37:37">
-      <c r="AK55" s="41"/>
+      <c r="AK55" s="64"/>
     </row>
     <row r="56" spans="37:37">
-      <c r="AK56" s="41"/>
+      <c r="AK56" s="64"/>
     </row>
     <row r="57" spans="37:37">
-      <c r="AK57" s="41"/>
+      <c r="AK57" s="64"/>
     </row>
     <row r="58" spans="37:37">
-      <c r="AK58" s="41"/>
+      <c r="AK58" s="64"/>
     </row>
     <row r="59" spans="37:37">
-      <c r="AK59" s="41"/>
+      <c r="AK59" s="64"/>
     </row>
     <row r="60" spans="37:37">
-      <c r="AK60" s="41"/>
+      <c r="AK60" s="64"/>
     </row>
     <row r="61" spans="37:37">
-      <c r="AK61" s="41"/>
+      <c r="AK61" s="64"/>
     </row>
     <row r="62" spans="37:37">
-      <c r="AK62" s="41"/>
+      <c r="AK62" s="64"/>
     </row>
     <row r="63" spans="37:37">
-      <c r="AK63" s="41"/>
+      <c r="AK63" s="64"/>
     </row>
     <row r="64" spans="37:37">
-      <c r="AK64" s="41"/>
+      <c r="AK64" s="64"/>
     </row>
     <row r="65" spans="37:37">
-      <c r="AK65" s="41"/>
+      <c r="AK65" s="64"/>
     </row>
     <row r="66" spans="37:37">
-      <c r="AK66" s="41"/>
+      <c r="AK66" s="64"/>
     </row>
     <row r="67" spans="37:37">
-      <c r="AK67" s="41"/>
+      <c r="AK67" s="64"/>
     </row>
     <row r="68" spans="37:37">
-      <c r="AK68" s="41"/>
+      <c r="AK68" s="64"/>
     </row>
     <row r="69" spans="37:37">
-      <c r="AK69" s="41"/>
+      <c r="AK69" s="64"/>
     </row>
     <row r="70" spans="37:37">
-      <c r="AK70" s="42"/>
+      <c r="AK70" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6525,119 +6631,119 @@
   <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AJ1"/>
+      <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:36" ht="48">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AE1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AI1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
         <v>78</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -6658,7 +6764,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1">
         <v>6</v>

--- a/excel/finished/6高炉/高炉月报表.xlsx
+++ b/excel/finished/6高炉/高炉月报表.xlsx
@@ -1023,30 +1023,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1087,6 +1063,30 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1396,7 +1396,10 @@
   <dimension ref="A1:AK70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1425,33 +1428,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="5" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="75" t="str">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="67" t="str">
         <f>IF(_metadata!B7="","",_metadata!B7)</f>
         <v/>
       </c>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="52"/>
       <c r="X1" s="21"/>
       <c r="Y1" s="21"/>
@@ -1469,64 +1472,64 @@
       <c r="AK1" s="52"/>
     </row>
     <row r="2" spans="1:37" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="84" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="79" t="s">
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="66" t="s">
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="66" t="s">
+      <c r="AH2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AI2" s="68" t="s">
+      <c r="AI2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="AJ2" s="70" t="s">
+      <c r="AJ2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="72" t="s">
+      <c r="AK2" s="85" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="5" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="83"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="26" t="s">
         <v>9</v>
       </c>
@@ -1620,11 +1623,11 @@
       <c r="AF3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="73"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="86"/>
     </row>
     <row r="4" spans="1:37" s="5" customFormat="1" ht="36" hidden="1" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -6608,17 +6611,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/finished/6高炉/高炉月报表.xlsx
+++ b/excel/finished/6高炉/高炉月报表.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_metadata" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="月报表" sheetId="5" r:id="rId2"/>
-    <sheet name="_tag_month_all" sheetId="2" r:id="rId3"/>
-    <sheet name="_dictionary" sheetId="3" r:id="rId4"/>
+    <sheet name="_tag_month_all" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -44,6 +39,14 @@
 m3/min</t>
   </si>
   <si>
+    <t>冷风压力
+KPa</t>
+  </si>
+  <si>
+    <t>热风压力
+Kpa</t>
+  </si>
+  <si>
     <t>富氧量
 m3/h</t>
   </si>
@@ -163,7 +166,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -173,7 +175,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>O</t>
@@ -185,7 +186,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>H</t>
@@ -195,7 +195,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -207,7 +206,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -217,7 +215,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -227,96 +224,132 @@
     <t>点名</t>
   </si>
   <si>
+    <t>BF6_L2M_ChargeRate_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_ColdBlastFlow_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_OxygenFlow_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_OxygenEnrichmentRate_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_HotBlastTemp_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_ColdBlastPress_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_HotBlastPress_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_MaxTopPress_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_Pressdiff_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_BH_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_PCI_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_CCT_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_GasUtilization_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_PCT_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_Z_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_CCT_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_CCT2_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_K_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_Ek_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_BlastVelocityAct_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_FlamTemp_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_BoshgasFlowIndex_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE06010_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE06008_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE06007_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE06009_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE08001_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE08002_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE08003_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE08004_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_AvgTopTemp_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_topgasCO2_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_topgasCO_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_topgasH2_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_topgasN2_1d_avg</t>
+  </si>
+  <si>
     <t>平均</t>
   </si>
   <si>
-    <t>BF6_L2C_BD_ColdBlastFlow_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_ColdBlastPress_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_HotBlastPress_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_OxygenFlow_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_OxygenEnrichmentRate_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_HotBlastTemp_1d_avg</t>
-  </si>
-  <si>
     <t>BF6_L2C_BD_WT6_Q_1d_avg</t>
   </si>
   <si>
     <t>BF6_L2M_BD_All_TempDiff_1d_avg</t>
   </si>
   <si>
-    <t>BF6_L2C_BD_Pressdiff_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_BH_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_ChargeRate_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_PCI_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_CoalRate_1d_avg</t>
+    <t>BF6_L2C_MES_CON_PCI_1d_avg</t>
   </si>
   <si>
     <t>BF6_L2M_FuelRate_1d_avg</t>
   </si>
   <si>
-    <t>BF6_L2C_BD_CCT_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_PCT_1d_avg</t>
-  </si>
-  <si>
     <t>BF6_L2C_BH_T0146_1d_avg</t>
   </si>
   <si>
-    <t>BF6_L2C_BD_Z_1d_avg</t>
-  </si>
-  <si>
     <t>BF6_L2C_BD_W_1d_avg</t>
   </si>
   <si>
-    <t>BF6_L2C_BD_K_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_Ek_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_BlastVelocityAct_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_FlamTemp_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_BoshgasFlowIndex_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE06010_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE06008_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE06007_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE06009_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_AvgTopTemp_1d_avg</t>
-  </si>
-  <si>
     <t>BF6_L2M_CokeRate_1d_avg</t>
   </si>
   <si>
@@ -324,65 +357,21 @@
   </si>
   <si>
     <t>version</t>
-  </si>
-  <si>
-    <t>冷风压力
-KPa</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>热风压力
-Kpa</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_GasUtilization_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_CCT_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_CCT2_1d_avg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_MaxTopPress_1d_avg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE08001_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE08002_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE08003_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE08004_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_topgasCO2_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_topgasCO_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_topgasH2_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_topgasN2_1d_avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,80 +382,200 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,13 +590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1498764000366222"/>
+        <fgColor theme="0" tint="-0.149876400036622"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1498458815271462"/>
+        <fgColor theme="0" tint="-0.149845881527146"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,8 +606,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -743,10 +1038,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -762,17 +1299,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -788,10 +1366,7 @@
     <xf numFmtId="1" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -801,6 +1376,9 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -808,6 +1386,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -828,28 +1410,25 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -857,102 +1436,104 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="1"/>
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1239,285 +1820,289 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9" style="10"/>
-    <col min="5" max="5" width="9" style="7"/>
-    <col min="6" max="6" width="9.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9" style="8"/>
-    <col min="8" max="8" width="9.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="9" style="7"/>
-    <col min="11" max="11" width="9" style="8"/>
-    <col min="12" max="13" width="9" style="7"/>
-    <col min="14" max="14" width="9" style="10"/>
-    <col min="15" max="16" width="9" style="9"/>
-    <col min="17" max="17" width="0" style="9" hidden="1" customWidth="1"/>
-    <col min="18" max="22" width="9" style="8"/>
-    <col min="23" max="23" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="9" style="9"/>
-    <col min="28" max="28" width="9" style="10"/>
-    <col min="29" max="30" width="9" style="7"/>
-    <col min="31" max="31" width="9" style="9"/>
-    <col min="32" max="38" width="9" style="8"/>
-    <col min="39" max="39" width="9" style="9"/>
-    <col min="40" max="40" width="9" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9" style="11"/>
+    <col min="5" max="5" width="9" style="9"/>
+    <col min="6" max="6" width="9.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9" style="10"/>
+    <col min="8" max="8" width="9.5" style="12" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="9" style="9"/>
+    <col min="11" max="11" width="9" style="10"/>
+    <col min="12" max="12" width="9" style="9"/>
+    <col min="13" max="13" width="9" style="9" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="11"/>
+    <col min="15" max="16" width="9" style="12"/>
+    <col min="17" max="17" width="9" style="12" hidden="1" customWidth="1"/>
+    <col min="18" max="22" width="9" style="10"/>
+    <col min="23" max="23" width="9" style="10" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="9" style="12"/>
+    <col min="28" max="28" width="9" style="11"/>
+    <col min="29" max="30" width="9" style="9"/>
+    <col min="31" max="31" width="9" style="12"/>
+    <col min="32" max="38" width="9" style="10"/>
+    <col min="39" max="39" width="9" style="12"/>
+    <col min="40" max="40" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="6" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" s="8" customFormat="1" ht="26.25" spans="1:40">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52" t="str">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14" t="str">
         <f>IF(_metadata!B7="","",_metadata!B7)</f>
         <v/>
       </c>
-      <c r="W1" s="52"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
     </row>
-    <row r="2" spans="1:40" s="6" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="49" t="s">
+    <row r="2" s="8" customFormat="1" ht="19.5" customHeight="1" spans="1:40">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="45" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="45" t="s">
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="48"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="66"/>
     </row>
-    <row r="3" spans="1:40" s="6" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="11" t="s">
+    <row r="3" s="8" customFormat="1" ht="35.25" customHeight="1" spans="1:40">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="F3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="G3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="J3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="K3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="L3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="M3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="N3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="O3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="P3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="Q3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="R3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="S3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="T3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="U3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="V3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="W3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="X3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="14" t="s">
+      <c r="Y3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="29" t="s">
+      <c r="Z3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AA3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AB3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AC3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="42" t="s">
+      <c r="AD3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="42" t="s">
+      <c r="AE3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AH3" s="42" t="s">
+      <c r="AF3" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="AI3" s="42" t="s">
+      <c r="AG3" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="AJ3" s="42" t="s">
+      <c r="AH3" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AI3" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AJ3" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="AM3" s="14" t="s">
+      <c r="AK3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AN3" s="14" t="s">
+      <c r="AL3" s="23" t="s">
         <v>41</v>
       </c>
+      <c r="AM3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN3" s="27" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" s="6" customFormat="1" ht="58.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="A4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>54</v>
+    <row r="4" s="8" customFormat="1" ht="58.5" hidden="1" customHeight="1" spans="1:40">
+      <c r="A4" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>47</v>
@@ -1526,154 +2111,154 @@
       <c r="F4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>46</v>
+      <c r="H4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="17" t="s">
         <v>52</v>
       </c>
+      <c r="K4" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="L4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="N4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="S4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T4" s="17" t="s">
+      <c r="AN4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="U4" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="X4" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA4" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB4" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF4" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG4" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH4" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI4" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="5" spans="1:40" s="6" customFormat="1" ht="14.25">
-      <c r="A5" s="19">
+    <row r="5" s="8" customFormat="1" ht="14.25" spans="1:40">
+      <c r="A5" s="31">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="str">
+      <c r="B5" s="32" t="str">
         <f>IF(_tag_month_all!A2="","",_tag_month_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="31" t="str">
+      <c r="C5" s="33" t="str">
         <f>IF(_tag_month_all!B2="","",_tag_month_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="31" t="str">
+      <c r="D5" s="33" t="str">
         <f>IF(_tag_month_all!C2="","",_tag_month_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="20" t="str">
+      <c r="E5" s="32" t="str">
         <f>IF(_tag_month_all!D2="","",_tag_month_all!D2)</f>
         <v/>
       </c>
-      <c r="F5" s="21" t="str">
+      <c r="F5" s="34" t="str">
         <f>IF(_tag_month_all!E2="","",_tag_month_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="17" t="str">
+      <c r="G5" s="5" t="str">
         <f>IF(_tag_month_all!F2="","",_tag_month_all!F2)</f>
         <v/>
       </c>
-      <c r="H5" s="21" t="str">
+      <c r="H5" s="34" t="str">
         <f>IF(_tag_month_all!G2="","",_tag_month_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="18" t="str">
+      <c r="I5" s="6" t="str">
         <f>IF(_tag_month_all!H2="","",_tag_month_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="20" t="str">
+      <c r="J5" s="32" t="str">
         <f>IF(_tag_month_all!I2="","",_tag_month_all!I2)</f>
         <v/>
       </c>
-      <c r="K5" s="20" t="str">
+      <c r="K5" s="32" t="str">
         <f>IF(_tag_month_all!J2="","",_tag_month_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="18" t="str">
+      <c r="L5" s="6" t="str">
         <f>IF(_tag_month_all!K2="","",_tag_month_all!K2)</f>
         <v/>
       </c>
-      <c r="M5" s="31" t="str">
+      <c r="M5" s="33" t="str">
         <f>IF(_tag_month_all!L2="","",_tag_month_all!L2)</f>
         <v/>
       </c>
@@ -1681,160 +2266,160 @@
         <f>IF(_tag_month_all!M2="","",_tag_month_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="21" t="str">
+      <c r="O5" s="34" t="str">
         <f>IF(_tag_month_all!N2="","",_tag_month_all!N2)</f>
         <v/>
       </c>
-      <c r="P5" s="21" t="str">
+      <c r="P5" s="34" t="str">
         <f>IF(_tag_month_all!AL2="","",_tag_month_all!AL2)</f>
         <v/>
       </c>
-      <c r="Q5" s="21" t="str">
+      <c r="Q5" s="34" t="str">
         <f>IF(_tag_month_all!AM2="","",_tag_month_all!AM2)</f>
         <v/>
       </c>
-      <c r="R5" s="20" t="str">
+      <c r="R5" s="32" t="str">
         <f>IF(_tag_month_all!O2="","",_tag_month_all!O2)</f>
         <v/>
       </c>
-      <c r="S5" s="20" t="str">
+      <c r="S5" s="32" t="str">
         <f>IF(_tag_month_all!P2="","",_tag_month_all!P2)</f>
         <v/>
       </c>
-      <c r="T5" s="20" t="str">
+      <c r="T5" s="32" t="str">
         <f>IF(_tag_month_all!Q2="","",_tag_month_all!Q2)</f>
         <v/>
       </c>
-      <c r="U5" s="20" t="str">
+      <c r="U5" s="32" t="str">
         <f>IF(_tag_month_all!R2="","",_tag_month_all!R2)</f>
         <v/>
       </c>
-      <c r="V5" s="20" t="str">
+      <c r="V5" s="32" t="str">
         <f>IF(_tag_month_all!S2="","",_tag_month_all!S2)</f>
         <v/>
       </c>
-      <c r="W5" s="20" t="str">
+      <c r="W5" s="32" t="str">
         <f>IF(_tag_month_all!T2="","",_tag_month_all!T2)</f>
         <v/>
       </c>
-      <c r="X5" s="21" t="str">
+      <c r="X5" s="34" t="str">
         <f>IF(_tag_month_all!U2="","",_tag_month_all!U2)</f>
         <v/>
       </c>
-      <c r="Y5" s="21" t="str">
+      <c r="Y5" s="34" t="str">
         <f>IF(_tag_month_all!V2="","",_tag_month_all!V2)</f>
         <v/>
       </c>
-      <c r="Z5" s="21" t="str">
+      <c r="Z5" s="34" t="str">
         <f>IF(_tag_month_all!U2="","",_tag_month_all!U2/_tag_month_all!V2)</f>
         <v/>
       </c>
-      <c r="AA5" s="21" t="str">
+      <c r="AA5" s="34" t="str">
         <f>IF(_tag_month_all!X2="","",_tag_month_all!X2)</f>
         <v/>
       </c>
-      <c r="AB5" s="31" t="str">
+      <c r="AB5" s="33" t="str">
         <f>IF(_tag_month_all!Y2="","",_tag_month_all!Y2)</f>
         <v/>
       </c>
-      <c r="AC5" s="20" t="str">
+      <c r="AC5" s="32" t="str">
         <f>IF(_tag_month_all!Z2="","",_tag_month_all!Z2)</f>
         <v/>
       </c>
-      <c r="AD5" s="20" t="str">
+      <c r="AD5" s="32" t="str">
         <f>IF(_tag_month_all!AA2="","",_tag_month_all!AA2)</f>
         <v/>
       </c>
-      <c r="AE5" s="21" t="str">
+      <c r="AE5" s="34" t="str">
         <f>IF(_tag_month_all!AB2="","",_tag_month_all!AB2)</f>
         <v/>
       </c>
-      <c r="AF5" s="20" t="str">
+      <c r="AF5" s="32" t="str">
         <f>IF(_tag_month_all!AC2="","",_tag_month_all!AC2)</f>
         <v/>
       </c>
-      <c r="AG5" s="20" t="str">
+      <c r="AG5" s="32" t="str">
         <f>IF(_tag_month_all!AD2="","",_tag_month_all!AD2)</f>
         <v/>
       </c>
-      <c r="AH5" s="20" t="str">
+      <c r="AH5" s="32" t="str">
         <f>IF(_tag_month_all!AE2="","",_tag_month_all!AE2)</f>
         <v/>
       </c>
-      <c r="AI5" s="20" t="str">
+      <c r="AI5" s="32" t="str">
         <f>IF(_tag_month_all!AF2="","",_tag_month_all!AF2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="20" t="str">
+      <c r="AJ5" s="32" t="str">
         <f>IF(_tag_month_all!AG2="","",_tag_month_all!AG2)</f>
         <v/>
       </c>
-      <c r="AK5" s="20" t="str">
+      <c r="AK5" s="32" t="str">
         <f>IF(_tag_month_all!AH2="","",_tag_month_all!AH2)</f>
         <v/>
       </c>
-      <c r="AL5" s="20" t="str">
+      <c r="AL5" s="32" t="str">
         <f>IF(_tag_month_all!AI2="","",_tag_month_all!AI2)</f>
         <v/>
       </c>
-      <c r="AM5" s="21" t="str">
+      <c r="AM5" s="34" t="str">
         <f>IF(_tag_month_all!AJ2="","",_tag_month_all!AJ2)</f>
         <v/>
       </c>
-      <c r="AN5" s="21" t="str">
+      <c r="AN5" s="34" t="str">
         <f>IF(_tag_month_all!AK2="","",_tag_month_all!AK2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:40" s="6" customFormat="1" ht="14.25">
-      <c r="A6" s="19">
+    <row r="6" s="8" customFormat="1" ht="14.25" spans="1:40">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="str">
+      <c r="B6" s="32" t="str">
         <f>IF(_tag_month_all!A3="","",_tag_month_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="31" t="str">
+      <c r="C6" s="33" t="str">
         <f>IF(_tag_month_all!B3="","",_tag_month_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="31" t="str">
+      <c r="D6" s="33" t="str">
         <f>IF(_tag_month_all!C3="","",_tag_month_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="20" t="str">
+      <c r="E6" s="32" t="str">
         <f>IF(_tag_month_all!D3="","",_tag_month_all!D3)</f>
         <v/>
       </c>
-      <c r="F6" s="21" t="str">
+      <c r="F6" s="34" t="str">
         <f>IF(_tag_month_all!E3="","",_tag_month_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="17" t="str">
+      <c r="G6" s="5" t="str">
         <f>IF(_tag_month_all!F3="","",_tag_month_all!F3)</f>
         <v/>
       </c>
-      <c r="H6" s="21" t="str">
+      <c r="H6" s="34" t="str">
         <f>IF(_tag_month_all!G3="","",_tag_month_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="18" t="str">
+      <c r="I6" s="6" t="str">
         <f>IF(_tag_month_all!H3="","",_tag_month_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="20" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_tag_month_all!I3="","",_tag_month_all!I3)</f>
         <v/>
       </c>
-      <c r="K6" s="20" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_tag_month_all!J3="","",_tag_month_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="18" t="str">
+      <c r="L6" s="6" t="str">
         <f>IF(_tag_month_all!K3="","",_tag_month_all!K3)</f>
         <v/>
       </c>
-      <c r="M6" s="31" t="str">
+      <c r="M6" s="33" t="str">
         <f>IF(_tag_month_all!L3="","",_tag_month_all!L3)</f>
         <v/>
       </c>
@@ -1842,4975 +2427,4976 @@
         <f>IF(_tag_month_all!M3="","",_tag_month_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="21" t="str">
+      <c r="O6" s="34" t="str">
         <f>IF(_tag_month_all!N3="","",_tag_month_all!N3)</f>
         <v/>
       </c>
-      <c r="P6" s="21" t="str">
+      <c r="P6" s="34" t="str">
         <f>IF(_tag_month_all!AL3="","",_tag_month_all!AL3)</f>
         <v/>
       </c>
-      <c r="Q6" s="21" t="str">
+      <c r="Q6" s="34" t="str">
         <f>IF(_tag_month_all!AM3="","",_tag_month_all!AM3)</f>
         <v/>
       </c>
-      <c r="R6" s="20" t="str">
+      <c r="R6" s="32" t="str">
         <f>IF(_tag_month_all!O3="","",_tag_month_all!O3)</f>
         <v/>
       </c>
-      <c r="S6" s="20" t="str">
+      <c r="S6" s="32" t="str">
         <f>IF(_tag_month_all!P3="","",_tag_month_all!P3)</f>
         <v/>
       </c>
-      <c r="T6" s="20" t="str">
+      <c r="T6" s="32" t="str">
         <f>IF(_tag_month_all!Q3="","",_tag_month_all!Q3)</f>
         <v/>
       </c>
-      <c r="U6" s="20" t="str">
+      <c r="U6" s="32" t="str">
         <f>IF(_tag_month_all!R3="","",_tag_month_all!R3)</f>
         <v/>
       </c>
-      <c r="V6" s="20" t="str">
+      <c r="V6" s="32" t="str">
         <f>IF(_tag_month_all!S3="","",_tag_month_all!S3)</f>
         <v/>
       </c>
-      <c r="W6" s="20" t="str">
+      <c r="W6" s="32" t="str">
         <f>IF(_tag_month_all!T3="","",_tag_month_all!T3)</f>
         <v/>
       </c>
-      <c r="X6" s="21" t="str">
+      <c r="X6" s="34" t="str">
         <f>IF(_tag_month_all!U3="","",_tag_month_all!U3)</f>
         <v/>
       </c>
-      <c r="Y6" s="21" t="str">
+      <c r="Y6" s="34" t="str">
         <f>IF(_tag_month_all!V3="","",_tag_month_all!V3)</f>
         <v/>
       </c>
-      <c r="Z6" s="21" t="str">
+      <c r="Z6" s="34" t="str">
         <f>IF(_tag_month_all!U3="","",_tag_month_all!U3/_tag_month_all!V3)</f>
         <v/>
       </c>
-      <c r="AA6" s="21" t="str">
+      <c r="AA6" s="34" t="str">
         <f>IF(_tag_month_all!X3="","",_tag_month_all!X3)</f>
         <v/>
       </c>
-      <c r="AB6" s="31" t="str">
+      <c r="AB6" s="33" t="str">
         <f>IF(_tag_month_all!Y3="","",_tag_month_all!Y3)</f>
         <v/>
       </c>
-      <c r="AC6" s="20" t="str">
+      <c r="AC6" s="32" t="str">
         <f>IF(_tag_month_all!Z3="","",_tag_month_all!Z3)</f>
         <v/>
       </c>
-      <c r="AD6" s="20" t="str">
+      <c r="AD6" s="32" t="str">
         <f>IF(_tag_month_all!AA3="","",_tag_month_all!AA3)</f>
         <v/>
       </c>
-      <c r="AE6" s="21" t="str">
+      <c r="AE6" s="34" t="str">
         <f>IF(_tag_month_all!AB3="","",_tag_month_all!AB3)</f>
         <v/>
       </c>
-      <c r="AF6" s="20" t="str">
+      <c r="AF6" s="32" t="str">
         <f>IF(_tag_month_all!AC3="","",_tag_month_all!AC3)</f>
         <v/>
       </c>
-      <c r="AG6" s="20" t="str">
+      <c r="AG6" s="32" t="str">
         <f>IF(_tag_month_all!AD3="","",_tag_month_all!AD3)</f>
         <v/>
       </c>
-      <c r="AH6" s="20" t="str">
+      <c r="AH6" s="32" t="str">
         <f>IF(_tag_month_all!AE3="","",_tag_month_all!AE3)</f>
         <v/>
       </c>
-      <c r="AI6" s="20" t="str">
+      <c r="AI6" s="32" t="str">
         <f>IF(_tag_month_all!AF3="","",_tag_month_all!AF3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="20" t="str">
+      <c r="AJ6" s="32" t="str">
         <f>IF(_tag_month_all!AG3="","",_tag_month_all!AG3)</f>
         <v/>
       </c>
-      <c r="AK6" s="20" t="str">
+      <c r="AK6" s="32" t="str">
         <f>IF(_tag_month_all!AH3="","",_tag_month_all!AH3)</f>
         <v/>
       </c>
-      <c r="AL6" s="20" t="str">
+      <c r="AL6" s="32" t="str">
         <f>IF(_tag_month_all!AI3="","",_tag_month_all!AI3)</f>
         <v/>
       </c>
-      <c r="AM6" s="21" t="str">
+      <c r="AM6" s="34" t="str">
         <f>IF(_tag_month_all!AJ3="","",_tag_month_all!AJ3)</f>
         <v/>
       </c>
-      <c r="AN6" s="21" t="str">
+      <c r="AN6" s="34" t="str">
         <f>IF(_tag_month_all!AK3="","",_tag_month_all!AK3)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:40" s="7" customFormat="1">
-      <c r="A7" s="19">
+    <row r="7" s="9" customFormat="1" spans="1:40">
+      <c r="A7" s="31">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="35" t="str">
         <f>IF(_tag_month_all!A4="","",_tag_month_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="33" t="str">
+      <c r="C7" s="36" t="str">
         <f>IF(_tag_month_all!B4="","",_tag_month_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="33" t="str">
+      <c r="D7" s="36" t="str">
         <f>IF(_tag_month_all!C4="","",_tag_month_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="22" t="str">
+      <c r="E7" s="35" t="str">
         <f>IF(_tag_month_all!D4="","",_tag_month_all!D4)</f>
         <v/>
       </c>
-      <c r="F7" s="23" t="str">
+      <c r="F7" s="37" t="str">
         <f>IF(_tag_month_all!E4="","",_tag_month_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="24" t="str">
+      <c r="G7" s="38" t="str">
         <f>IF(_tag_month_all!F4="","",_tag_month_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="23" t="str">
+      <c r="H7" s="37" t="str">
         <f>IF(_tag_month_all!G4="","",_tag_month_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="32" t="str">
+      <c r="I7" s="46" t="str">
         <f>IF(_tag_month_all!H4="","",_tag_month_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="22" t="str">
+      <c r="J7" s="35" t="str">
         <f>IF(_tag_month_all!I4="","",_tag_month_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="22" t="str">
+      <c r="K7" s="35" t="str">
         <f>IF(_tag_month_all!J4="","",_tag_month_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="32" t="str">
+      <c r="L7" s="46" t="str">
         <f>IF(_tag_month_all!K4="","",_tag_month_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="33" t="str">
+      <c r="M7" s="36" t="str">
         <f>IF(_tag_month_all!L4="","",_tag_month_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="34" t="str">
+      <c r="N7" s="47" t="str">
         <f>IF(_tag_month_all!M4="","",_tag_month_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="23" t="str">
+      <c r="O7" s="37" t="str">
         <f>IF(_tag_month_all!N4="","",_tag_month_all!N4)</f>
         <v/>
       </c>
-      <c r="P7" s="23" t="str">
+      <c r="P7" s="37" t="str">
         <f>IF(_tag_month_all!AL4="","",_tag_month_all!AL4)</f>
         <v/>
       </c>
-      <c r="Q7" s="23" t="str">
+      <c r="Q7" s="37" t="str">
         <f>IF(_tag_month_all!AM4="","",_tag_month_all!AM4)</f>
         <v/>
       </c>
-      <c r="R7" s="22" t="str">
+      <c r="R7" s="35" t="str">
         <f>IF(_tag_month_all!O4="","",_tag_month_all!O4)</f>
         <v/>
       </c>
-      <c r="S7" s="22" t="str">
+      <c r="S7" s="35" t="str">
         <f>IF(_tag_month_all!P4="","",_tag_month_all!P4)</f>
         <v/>
       </c>
-      <c r="T7" s="22" t="str">
+      <c r="T7" s="35" t="str">
         <f>IF(_tag_month_all!Q4="","",_tag_month_all!Q4)</f>
         <v/>
       </c>
-      <c r="U7" s="20" t="str">
+      <c r="U7" s="32" t="str">
         <f>IF(_tag_month_all!R4="","",_tag_month_all!R4)</f>
         <v/>
       </c>
-      <c r="V7" s="22" t="str">
+      <c r="V7" s="35" t="str">
         <f>IF(_tag_month_all!S4="","",_tag_month_all!S4)</f>
         <v/>
       </c>
-      <c r="W7" s="22" t="str">
+      <c r="W7" s="35" t="str">
         <f>IF(_tag_month_all!T4="","",_tag_month_all!T4)</f>
         <v/>
       </c>
-      <c r="X7" s="23" t="str">
+      <c r="X7" s="37" t="str">
         <f>IF(_tag_month_all!U4="","",_tag_month_all!U4)</f>
         <v/>
       </c>
-      <c r="Y7" s="23" t="str">
+      <c r="Y7" s="37" t="str">
         <f>IF(_tag_month_all!V4="","",_tag_month_all!V4)</f>
         <v/>
       </c>
-      <c r="Z7" s="23" t="str">
+      <c r="Z7" s="37" t="str">
         <f>IF(_tag_month_all!U4="","",_tag_month_all!U4/_tag_month_all!V4)</f>
         <v/>
       </c>
-      <c r="AA7" s="23" t="str">
+      <c r="AA7" s="37" t="str">
         <f>IF(_tag_month_all!X4="","",_tag_month_all!X4)</f>
         <v/>
       </c>
-      <c r="AB7" s="33" t="str">
+      <c r="AB7" s="36" t="str">
         <f>IF(_tag_month_all!Y4="","",_tag_month_all!Y4)</f>
         <v/>
       </c>
-      <c r="AC7" s="22" t="str">
+      <c r="AC7" s="35" t="str">
         <f>IF(_tag_month_all!Z4="","",_tag_month_all!Z4)</f>
         <v/>
       </c>
-      <c r="AD7" s="22" t="str">
+      <c r="AD7" s="35" t="str">
         <f>IF(_tag_month_all!AA4="","",_tag_month_all!AA4)</f>
         <v/>
       </c>
-      <c r="AE7" s="23" t="str">
+      <c r="AE7" s="37" t="str">
         <f>IF(_tag_month_all!AB4="","",_tag_month_all!AB4)</f>
         <v/>
       </c>
-      <c r="AF7" s="22" t="str">
+      <c r="AF7" s="35" t="str">
         <f>IF(_tag_month_all!AC4="","",_tag_month_all!AC4)</f>
         <v/>
       </c>
-      <c r="AG7" s="22" t="str">
+      <c r="AG7" s="35" t="str">
         <f>IF(_tag_month_all!AD4="","",_tag_month_all!AD4)</f>
         <v/>
       </c>
-      <c r="AH7" s="22" t="str">
+      <c r="AH7" s="35" t="str">
         <f>IF(_tag_month_all!AE4="","",_tag_month_all!AE4)</f>
         <v/>
       </c>
-      <c r="AI7" s="22" t="str">
+      <c r="AI7" s="35" t="str">
         <f>IF(_tag_month_all!AF4="","",_tag_month_all!AF4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="22" t="str">
+      <c r="AJ7" s="35" t="str">
         <f>IF(_tag_month_all!AG4="","",_tag_month_all!AG4)</f>
         <v/>
       </c>
-      <c r="AK7" s="22" t="str">
+      <c r="AK7" s="35" t="str">
         <f>IF(_tag_month_all!AH4="","",_tag_month_all!AH4)</f>
         <v/>
       </c>
-      <c r="AL7" s="22" t="str">
+      <c r="AL7" s="35" t="str">
         <f>IF(_tag_month_all!AI4="","",_tag_month_all!AI4)</f>
         <v/>
       </c>
-      <c r="AM7" s="23" t="str">
+      <c r="AM7" s="37" t="str">
         <f>IF(_tag_month_all!AJ4="","",_tag_month_all!AJ4)</f>
         <v/>
       </c>
-      <c r="AN7" s="23" t="str">
+      <c r="AN7" s="37" t="str">
         <f>IF(_tag_month_all!AK4="","",_tag_month_all!AK4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:40" s="7" customFormat="1">
-      <c r="A8" s="19">
+    <row r="8" s="9" customFormat="1" spans="1:40">
+      <c r="A8" s="31">
         <v>4</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="35" t="str">
         <f>IF(_tag_month_all!A5="","",_tag_month_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="33" t="str">
+      <c r="C8" s="36" t="str">
         <f>IF(_tag_month_all!B5="","",_tag_month_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="33" t="str">
+      <c r="D8" s="36" t="str">
         <f>IF(_tag_month_all!C5="","",_tag_month_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="22" t="str">
+      <c r="E8" s="35" t="str">
         <f>IF(_tag_month_all!D5="","",_tag_month_all!D5)</f>
         <v/>
       </c>
-      <c r="F8" s="23" t="str">
+      <c r="F8" s="37" t="str">
         <f>IF(_tag_month_all!E5="","",_tag_month_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="24" t="str">
+      <c r="G8" s="38" t="str">
         <f>IF(_tag_month_all!F5="","",_tag_month_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="H8" s="37" t="str">
         <f>IF(_tag_month_all!G5="","",_tag_month_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="32" t="str">
+      <c r="I8" s="46" t="str">
         <f>IF(_tag_month_all!H5="","",_tag_month_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="22" t="str">
+      <c r="J8" s="35" t="str">
         <f>IF(_tag_month_all!I5="","",_tag_month_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="22" t="str">
+      <c r="K8" s="35" t="str">
         <f>IF(_tag_month_all!J5="","",_tag_month_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="32" t="str">
+      <c r="L8" s="46" t="str">
         <f>IF(_tag_month_all!K5="","",_tag_month_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="33" t="str">
+      <c r="M8" s="36" t="str">
         <f>IF(_tag_month_all!L5="","",_tag_month_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="34" t="str">
+      <c r="N8" s="47" t="str">
         <f>IF(_tag_month_all!M5="","",_tag_month_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="23" t="str">
+      <c r="O8" s="37" t="str">
         <f>IF(_tag_month_all!N5="","",_tag_month_all!N5)</f>
         <v/>
       </c>
-      <c r="P8" s="23" t="str">
+      <c r="P8" s="37" t="str">
         <f>IF(_tag_month_all!AL5="","",_tag_month_all!AL5)</f>
         <v/>
       </c>
-      <c r="Q8" s="23" t="str">
+      <c r="Q8" s="37" t="str">
         <f>IF(_tag_month_all!AM5="","",_tag_month_all!AM5)</f>
         <v/>
       </c>
-      <c r="R8" s="22" t="str">
+      <c r="R8" s="35" t="str">
         <f>IF(_tag_month_all!O5="","",_tag_month_all!O5)</f>
         <v/>
       </c>
-      <c r="S8" s="22" t="str">
+      <c r="S8" s="35" t="str">
         <f>IF(_tag_month_all!P5="","",_tag_month_all!P5)</f>
         <v/>
       </c>
-      <c r="T8" s="22" t="str">
+      <c r="T8" s="35" t="str">
         <f>IF(_tag_month_all!Q5="","",_tag_month_all!Q5)</f>
         <v/>
       </c>
-      <c r="U8" s="20" t="str">
+      <c r="U8" s="32" t="str">
         <f>IF(_tag_month_all!R5="","",_tag_month_all!R5)</f>
         <v/>
       </c>
-      <c r="V8" s="22" t="str">
+      <c r="V8" s="35" t="str">
         <f>IF(_tag_month_all!S5="","",_tag_month_all!S5)</f>
         <v/>
       </c>
-      <c r="W8" s="22" t="str">
+      <c r="W8" s="35" t="str">
         <f>IF(_tag_month_all!T5="","",_tag_month_all!T5)</f>
         <v/>
       </c>
-      <c r="X8" s="23" t="str">
+      <c r="X8" s="37" t="str">
         <f>IF(_tag_month_all!U5="","",_tag_month_all!U5)</f>
         <v/>
       </c>
-      <c r="Y8" s="23" t="str">
+      <c r="Y8" s="37" t="str">
         <f>IF(_tag_month_all!V5="","",_tag_month_all!V5)</f>
         <v/>
       </c>
-      <c r="Z8" s="23" t="str">
+      <c r="Z8" s="37" t="str">
         <f>IF(_tag_month_all!U5="","",_tag_month_all!U5/_tag_month_all!V5)</f>
         <v/>
       </c>
-      <c r="AA8" s="23" t="str">
+      <c r="AA8" s="37" t="str">
         <f>IF(_tag_month_all!X5="","",_tag_month_all!X5)</f>
         <v/>
       </c>
-      <c r="AB8" s="33" t="str">
+      <c r="AB8" s="36" t="str">
         <f>IF(_tag_month_all!Y5="","",_tag_month_all!Y5)</f>
         <v/>
       </c>
-      <c r="AC8" s="22" t="str">
+      <c r="AC8" s="35" t="str">
         <f>IF(_tag_month_all!Z5="","",_tag_month_all!Z5)</f>
         <v/>
       </c>
-      <c r="AD8" s="22" t="str">
+      <c r="AD8" s="35" t="str">
         <f>IF(_tag_month_all!AA5="","",_tag_month_all!AA5)</f>
         <v/>
       </c>
-      <c r="AE8" s="23" t="str">
+      <c r="AE8" s="37" t="str">
         <f>IF(_tag_month_all!AB5="","",_tag_month_all!AB5)</f>
         <v/>
       </c>
-      <c r="AF8" s="22" t="str">
+      <c r="AF8" s="35" t="str">
         <f>IF(_tag_month_all!AC5="","",_tag_month_all!AC5)</f>
         <v/>
       </c>
-      <c r="AG8" s="22" t="str">
+      <c r="AG8" s="35" t="str">
         <f>IF(_tag_month_all!AD5="","",_tag_month_all!AD5)</f>
         <v/>
       </c>
-      <c r="AH8" s="22" t="str">
+      <c r="AH8" s="35" t="str">
         <f>IF(_tag_month_all!AE5="","",_tag_month_all!AE5)</f>
         <v/>
       </c>
-      <c r="AI8" s="22" t="str">
+      <c r="AI8" s="35" t="str">
         <f>IF(_tag_month_all!AF5="","",_tag_month_all!AF5)</f>
         <v/>
       </c>
-      <c r="AJ8" s="22" t="str">
+      <c r="AJ8" s="35" t="str">
         <f>IF(_tag_month_all!AG5="","",_tag_month_all!AG5)</f>
         <v/>
       </c>
-      <c r="AK8" s="22" t="str">
+      <c r="AK8" s="35" t="str">
         <f>IF(_tag_month_all!AH5="","",_tag_month_all!AH5)</f>
         <v/>
       </c>
-      <c r="AL8" s="22" t="str">
+      <c r="AL8" s="35" t="str">
         <f>IF(_tag_month_all!AI5="","",_tag_month_all!AI5)</f>
         <v/>
       </c>
-      <c r="AM8" s="23" t="str">
+      <c r="AM8" s="37" t="str">
         <f>IF(_tag_month_all!AJ5="","",_tag_month_all!AJ5)</f>
         <v/>
       </c>
-      <c r="AN8" s="23" t="str">
+      <c r="AN8" s="37" t="str">
         <f>IF(_tag_month_all!AK5="","",_tag_month_all!AK5)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:40" s="7" customFormat="1">
-      <c r="A9" s="19">
+    <row r="9" s="9" customFormat="1" spans="1:40">
+      <c r="A9" s="31">
         <v>5</v>
       </c>
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="35" t="str">
         <f>IF(_tag_month_all!A6="","",_tag_month_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="33" t="str">
+      <c r="C9" s="36" t="str">
         <f>IF(_tag_month_all!B6="","",_tag_month_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="33" t="str">
+      <c r="D9" s="36" t="str">
         <f>IF(_tag_month_all!C6="","",_tag_month_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="22" t="str">
+      <c r="E9" s="35" t="str">
         <f>IF(_tag_month_all!D6="","",_tag_month_all!D6)</f>
         <v/>
       </c>
-      <c r="F9" s="23" t="str">
+      <c r="F9" s="37" t="str">
         <f>IF(_tag_month_all!E6="","",_tag_month_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="24" t="str">
+      <c r="G9" s="38" t="str">
         <f>IF(_tag_month_all!F6="","",_tag_month_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="23" t="str">
+      <c r="H9" s="37" t="str">
         <f>IF(_tag_month_all!G6="","",_tag_month_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="32" t="str">
+      <c r="I9" s="46" t="str">
         <f>IF(_tag_month_all!H6="","",_tag_month_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="35" t="str">
         <f>IF(_tag_month_all!I6="","",_tag_month_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="K9" s="35" t="str">
         <f>IF(_tag_month_all!J6="","",_tag_month_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="32" t="str">
+      <c r="L9" s="46" t="str">
         <f>IF(_tag_month_all!K6="","",_tag_month_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="33" t="str">
+      <c r="M9" s="36" t="str">
         <f>IF(_tag_month_all!L6="","",_tag_month_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="34" t="str">
+      <c r="N9" s="47" t="str">
         <f>IF(_tag_month_all!M6="","",_tag_month_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="23" t="str">
+      <c r="O9" s="37" t="str">
         <f>IF(_tag_month_all!N6="","",_tag_month_all!N6)</f>
         <v/>
       </c>
-      <c r="P9" s="23" t="str">
+      <c r="P9" s="37" t="str">
         <f>IF(_tag_month_all!AL6="","",_tag_month_all!AL6)</f>
         <v/>
       </c>
-      <c r="Q9" s="23" t="str">
+      <c r="Q9" s="37" t="str">
         <f>IF(_tag_month_all!AM6="","",_tag_month_all!AM6)</f>
         <v/>
       </c>
-      <c r="R9" s="22" t="str">
+      <c r="R9" s="35" t="str">
         <f>IF(_tag_month_all!O6="","",_tag_month_all!O6)</f>
         <v/>
       </c>
-      <c r="S9" s="22" t="str">
+      <c r="S9" s="35" t="str">
         <f>IF(_tag_month_all!P6="","",_tag_month_all!P6)</f>
         <v/>
       </c>
-      <c r="T9" s="22" t="str">
+      <c r="T9" s="35" t="str">
         <f>IF(_tag_month_all!Q6="","",_tag_month_all!Q6)</f>
         <v/>
       </c>
-      <c r="U9" s="20" t="str">
+      <c r="U9" s="32" t="str">
         <f>IF(_tag_month_all!R6="","",_tag_month_all!R6)</f>
         <v/>
       </c>
-      <c r="V9" s="22" t="str">
+      <c r="V9" s="35" t="str">
         <f>IF(_tag_month_all!S6="","",_tag_month_all!S6)</f>
         <v/>
       </c>
-      <c r="W9" s="22" t="str">
+      <c r="W9" s="35" t="str">
         <f>IF(_tag_month_all!T6="","",_tag_month_all!T6)</f>
         <v/>
       </c>
-      <c r="X9" s="23" t="str">
+      <c r="X9" s="37" t="str">
         <f>IF(_tag_month_all!U6="","",_tag_month_all!U6)</f>
         <v/>
       </c>
-      <c r="Y9" s="23" t="str">
+      <c r="Y9" s="37" t="str">
         <f>IF(_tag_month_all!V6="","",_tag_month_all!V6)</f>
         <v/>
       </c>
-      <c r="Z9" s="23" t="str">
+      <c r="Z9" s="37" t="str">
         <f>IF(_tag_month_all!U6="","",_tag_month_all!U6/_tag_month_all!V6)</f>
         <v/>
       </c>
-      <c r="AA9" s="23" t="str">
+      <c r="AA9" s="37" t="str">
         <f>IF(_tag_month_all!X6="","",_tag_month_all!X6)</f>
         <v/>
       </c>
-      <c r="AB9" s="33" t="str">
+      <c r="AB9" s="36" t="str">
         <f>IF(_tag_month_all!Y6="","",_tag_month_all!Y6)</f>
         <v/>
       </c>
-      <c r="AC9" s="22" t="str">
+      <c r="AC9" s="35" t="str">
         <f>IF(_tag_month_all!Z6="","",_tag_month_all!Z6)</f>
         <v/>
       </c>
-      <c r="AD9" s="22" t="str">
+      <c r="AD9" s="35" t="str">
         <f>IF(_tag_month_all!AA6="","",_tag_month_all!AA6)</f>
         <v/>
       </c>
-      <c r="AE9" s="23" t="str">
+      <c r="AE9" s="37" t="str">
         <f>IF(_tag_month_all!AB6="","",_tag_month_all!AB6)</f>
         <v/>
       </c>
-      <c r="AF9" s="22" t="str">
+      <c r="AF9" s="35" t="str">
         <f>IF(_tag_month_all!AC6="","",_tag_month_all!AC6)</f>
         <v/>
       </c>
-      <c r="AG9" s="22" t="str">
+      <c r="AG9" s="35" t="str">
         <f>IF(_tag_month_all!AD6="","",_tag_month_all!AD6)</f>
         <v/>
       </c>
-      <c r="AH9" s="22" t="str">
+      <c r="AH9" s="35" t="str">
         <f>IF(_tag_month_all!AE6="","",_tag_month_all!AE6)</f>
         <v/>
       </c>
-      <c r="AI9" s="22" t="str">
+      <c r="AI9" s="35" t="str">
         <f>IF(_tag_month_all!AF6="","",_tag_month_all!AF6)</f>
         <v/>
       </c>
-      <c r="AJ9" s="22" t="str">
+      <c r="AJ9" s="35" t="str">
         <f>IF(_tag_month_all!AG6="","",_tag_month_all!AG6)</f>
         <v/>
       </c>
-      <c r="AK9" s="22" t="str">
+      <c r="AK9" s="35" t="str">
         <f>IF(_tag_month_all!AH6="","",_tag_month_all!AH6)</f>
         <v/>
       </c>
-      <c r="AL9" s="22" t="str">
+      <c r="AL9" s="35" t="str">
         <f>IF(_tag_month_all!AI6="","",_tag_month_all!AI6)</f>
         <v/>
       </c>
-      <c r="AM9" s="23" t="str">
+      <c r="AM9" s="37" t="str">
         <f>IF(_tag_month_all!AJ6="","",_tag_month_all!AJ6)</f>
         <v/>
       </c>
-      <c r="AN9" s="23" t="str">
+      <c r="AN9" s="37" t="str">
         <f>IF(_tag_month_all!AK6="","",_tag_month_all!AK6)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:40" s="7" customFormat="1">
-      <c r="A10" s="19">
+    <row r="10" s="9" customFormat="1" spans="1:40">
+      <c r="A10" s="31">
         <v>6</v>
       </c>
-      <c r="B10" s="22" t="str">
+      <c r="B10" s="35" t="str">
         <f>IF(_tag_month_all!A7="","",_tag_month_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="33" t="str">
+      <c r="C10" s="36" t="str">
         <f>IF(_tag_month_all!B7="","",_tag_month_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="33" t="str">
+      <c r="D10" s="36" t="str">
         <f>IF(_tag_month_all!C7="","",_tag_month_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="22" t="str">
+      <c r="E10" s="35" t="str">
         <f>IF(_tag_month_all!D7="","",_tag_month_all!D7)</f>
         <v/>
       </c>
-      <c r="F10" s="23" t="str">
+      <c r="F10" s="37" t="str">
         <f>IF(_tag_month_all!E7="","",_tag_month_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="24" t="str">
+      <c r="G10" s="38" t="str">
         <f>IF(_tag_month_all!F7="","",_tag_month_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="23" t="str">
+      <c r="H10" s="37" t="str">
         <f>IF(_tag_month_all!G7="","",_tag_month_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="32" t="str">
+      <c r="I10" s="46" t="str">
         <f>IF(_tag_month_all!H7="","",_tag_month_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="22" t="str">
+      <c r="J10" s="35" t="str">
         <f>IF(_tag_month_all!I7="","",_tag_month_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="22" t="str">
+      <c r="K10" s="35" t="str">
         <f>IF(_tag_month_all!J7="","",_tag_month_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="32" t="str">
+      <c r="L10" s="46" t="str">
         <f>IF(_tag_month_all!K7="","",_tag_month_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="33" t="str">
+      <c r="M10" s="36" t="str">
         <f>IF(_tag_month_all!L7="","",_tag_month_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="34" t="str">
+      <c r="N10" s="47" t="str">
         <f>IF(_tag_month_all!M7="","",_tag_month_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="23" t="str">
+      <c r="O10" s="37" t="str">
         <f>IF(_tag_month_all!N7="","",_tag_month_all!N7)</f>
         <v/>
       </c>
-      <c r="P10" s="23" t="str">
+      <c r="P10" s="37" t="str">
         <f>IF(_tag_month_all!AL7="","",_tag_month_all!AL7)</f>
         <v/>
       </c>
-      <c r="Q10" s="23" t="str">
+      <c r="Q10" s="37" t="str">
         <f>IF(_tag_month_all!AM7="","",_tag_month_all!AM7)</f>
         <v/>
       </c>
-      <c r="R10" s="22" t="str">
+      <c r="R10" s="35" t="str">
         <f>IF(_tag_month_all!O7="","",_tag_month_all!O7)</f>
         <v/>
       </c>
-      <c r="S10" s="22" t="str">
+      <c r="S10" s="35" t="str">
         <f>IF(_tag_month_all!P7="","",_tag_month_all!P7)</f>
         <v/>
       </c>
-      <c r="T10" s="22" t="str">
+      <c r="T10" s="35" t="str">
         <f>IF(_tag_month_all!Q7="","",_tag_month_all!Q7)</f>
         <v/>
       </c>
-      <c r="U10" s="20" t="str">
+      <c r="U10" s="32" t="str">
         <f>IF(_tag_month_all!R7="","",_tag_month_all!R7)</f>
         <v/>
       </c>
-      <c r="V10" s="22" t="str">
+      <c r="V10" s="35" t="str">
         <f>IF(_tag_month_all!S7="","",_tag_month_all!S7)</f>
         <v/>
       </c>
-      <c r="W10" s="22" t="str">
+      <c r="W10" s="35" t="str">
         <f>IF(_tag_month_all!T7="","",_tag_month_all!T7)</f>
         <v/>
       </c>
-      <c r="X10" s="23" t="str">
+      <c r="X10" s="37" t="str">
         <f>IF(_tag_month_all!U7="","",_tag_month_all!U7)</f>
         <v/>
       </c>
-      <c r="Y10" s="23" t="str">
+      <c r="Y10" s="37" t="str">
         <f>IF(_tag_month_all!V7="","",_tag_month_all!V7)</f>
         <v/>
       </c>
-      <c r="Z10" s="23" t="str">
+      <c r="Z10" s="37" t="str">
         <f>IF(_tag_month_all!U7="","",_tag_month_all!U7/_tag_month_all!V7)</f>
         <v/>
       </c>
-      <c r="AA10" s="23" t="str">
+      <c r="AA10" s="37" t="str">
         <f>IF(_tag_month_all!X7="","",_tag_month_all!X7)</f>
         <v/>
       </c>
-      <c r="AB10" s="33" t="str">
+      <c r="AB10" s="36" t="str">
         <f>IF(_tag_month_all!Y7="","",_tag_month_all!Y7)</f>
         <v/>
       </c>
-      <c r="AC10" s="22" t="str">
+      <c r="AC10" s="35" t="str">
         <f>IF(_tag_month_all!Z7="","",_tag_month_all!Z7)</f>
         <v/>
       </c>
-      <c r="AD10" s="22" t="str">
+      <c r="AD10" s="35" t="str">
         <f>IF(_tag_month_all!AA7="","",_tag_month_all!AA7)</f>
         <v/>
       </c>
-      <c r="AE10" s="23" t="str">
+      <c r="AE10" s="37" t="str">
         <f>IF(_tag_month_all!AB7="","",_tag_month_all!AB7)</f>
         <v/>
       </c>
-      <c r="AF10" s="22" t="str">
+      <c r="AF10" s="35" t="str">
         <f>IF(_tag_month_all!AC7="","",_tag_month_all!AC7)</f>
         <v/>
       </c>
-      <c r="AG10" s="22" t="str">
+      <c r="AG10" s="35" t="str">
         <f>IF(_tag_month_all!AD7="","",_tag_month_all!AD7)</f>
         <v/>
       </c>
-      <c r="AH10" s="22" t="str">
+      <c r="AH10" s="35" t="str">
         <f>IF(_tag_month_all!AE7="","",_tag_month_all!AE7)</f>
         <v/>
       </c>
-      <c r="AI10" s="22" t="str">
+      <c r="AI10" s="35" t="str">
         <f>IF(_tag_month_all!AF7="","",_tag_month_all!AF7)</f>
         <v/>
       </c>
-      <c r="AJ10" s="22" t="str">
+      <c r="AJ10" s="35" t="str">
         <f>IF(_tag_month_all!AG7="","",_tag_month_all!AG7)</f>
         <v/>
       </c>
-      <c r="AK10" s="22" t="str">
+      <c r="AK10" s="35" t="str">
         <f>IF(_tag_month_all!AH7="","",_tag_month_all!AH7)</f>
         <v/>
       </c>
-      <c r="AL10" s="22" t="str">
+      <c r="AL10" s="35" t="str">
         <f>IF(_tag_month_all!AI7="","",_tag_month_all!AI7)</f>
         <v/>
       </c>
-      <c r="AM10" s="23" t="str">
+      <c r="AM10" s="37" t="str">
         <f>IF(_tag_month_all!AJ7="","",_tag_month_all!AJ7)</f>
         <v/>
       </c>
-      <c r="AN10" s="23" t="str">
+      <c r="AN10" s="37" t="str">
         <f>IF(_tag_month_all!AK7="","",_tag_month_all!AK7)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:40" s="7" customFormat="1">
-      <c r="A11" s="19">
+    <row r="11" s="9" customFormat="1" spans="1:40">
+      <c r="A11" s="31">
         <v>7</v>
       </c>
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="35" t="str">
         <f>IF(_tag_month_all!A8="","",_tag_month_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="33" t="str">
+      <c r="C11" s="36" t="str">
         <f>IF(_tag_month_all!B8="","",_tag_month_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="33" t="str">
+      <c r="D11" s="36" t="str">
         <f>IF(_tag_month_all!C8="","",_tag_month_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="22" t="str">
+      <c r="E11" s="35" t="str">
         <f>IF(_tag_month_all!D8="","",_tag_month_all!D8)</f>
         <v/>
       </c>
-      <c r="F11" s="23" t="str">
+      <c r="F11" s="37" t="str">
         <f>IF(_tag_month_all!E8="","",_tag_month_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="24" t="str">
+      <c r="G11" s="38" t="str">
         <f>IF(_tag_month_all!F8="","",_tag_month_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="23" t="str">
+      <c r="H11" s="37" t="str">
         <f>IF(_tag_month_all!G8="","",_tag_month_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="32" t="str">
+      <c r="I11" s="46" t="str">
         <f>IF(_tag_month_all!H8="","",_tag_month_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="22" t="str">
+      <c r="J11" s="35" t="str">
         <f>IF(_tag_month_all!I8="","",_tag_month_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="22" t="str">
+      <c r="K11" s="35" t="str">
         <f>IF(_tag_month_all!J8="","",_tag_month_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="32" t="str">
+      <c r="L11" s="46" t="str">
         <f>IF(_tag_month_all!K8="","",_tag_month_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="33" t="str">
+      <c r="M11" s="36" t="str">
         <f>IF(_tag_month_all!L8="","",_tag_month_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="34" t="str">
+      <c r="N11" s="47" t="str">
         <f>IF(_tag_month_all!M8="","",_tag_month_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="23" t="str">
+      <c r="O11" s="37" t="str">
         <f>IF(_tag_month_all!N8="","",_tag_month_all!N8)</f>
         <v/>
       </c>
-      <c r="P11" s="23" t="str">
+      <c r="P11" s="37" t="str">
         <f>IF(_tag_month_all!AL8="","",_tag_month_all!AL8)</f>
         <v/>
       </c>
-      <c r="Q11" s="23" t="str">
+      <c r="Q11" s="37" t="str">
         <f>IF(_tag_month_all!AM8="","",_tag_month_all!AM8)</f>
         <v/>
       </c>
-      <c r="R11" s="22" t="str">
+      <c r="R11" s="35" t="str">
         <f>IF(_tag_month_all!O8="","",_tag_month_all!O8)</f>
         <v/>
       </c>
-      <c r="S11" s="22" t="str">
+      <c r="S11" s="35" t="str">
         <f>IF(_tag_month_all!P8="","",_tag_month_all!P8)</f>
         <v/>
       </c>
-      <c r="T11" s="22" t="str">
+      <c r="T11" s="35" t="str">
         <f>IF(_tag_month_all!Q8="","",_tag_month_all!Q8)</f>
         <v/>
       </c>
-      <c r="U11" s="20" t="str">
+      <c r="U11" s="32" t="str">
         <f>IF(_tag_month_all!R8="","",_tag_month_all!R8)</f>
         <v/>
       </c>
-      <c r="V11" s="22" t="str">
+      <c r="V11" s="35" t="str">
         <f>IF(_tag_month_all!S8="","",_tag_month_all!S8)</f>
         <v/>
       </c>
-      <c r="W11" s="22" t="str">
+      <c r="W11" s="35" t="str">
         <f>IF(_tag_month_all!T8="","",_tag_month_all!T8)</f>
         <v/>
       </c>
-      <c r="X11" s="23" t="str">
+      <c r="X11" s="37" t="str">
         <f>IF(_tag_month_all!U8="","",_tag_month_all!U8)</f>
         <v/>
       </c>
-      <c r="Y11" s="23" t="str">
+      <c r="Y11" s="37" t="str">
         <f>IF(_tag_month_all!V8="","",_tag_month_all!V8)</f>
         <v/>
       </c>
-      <c r="Z11" s="23" t="str">
+      <c r="Z11" s="37" t="str">
         <f>IF(_tag_month_all!U8="","",_tag_month_all!U8/_tag_month_all!V8)</f>
         <v/>
       </c>
-      <c r="AA11" s="23" t="str">
+      <c r="AA11" s="37" t="str">
         <f>IF(_tag_month_all!X8="","",_tag_month_all!X8)</f>
         <v/>
       </c>
-      <c r="AB11" s="33" t="str">
+      <c r="AB11" s="36" t="str">
         <f>IF(_tag_month_all!Y8="","",_tag_month_all!Y8)</f>
         <v/>
       </c>
-      <c r="AC11" s="22" t="str">
+      <c r="AC11" s="35" t="str">
         <f>IF(_tag_month_all!Z8="","",_tag_month_all!Z8)</f>
         <v/>
       </c>
-      <c r="AD11" s="22" t="str">
+      <c r="AD11" s="35" t="str">
         <f>IF(_tag_month_all!AA8="","",_tag_month_all!AA8)</f>
         <v/>
       </c>
-      <c r="AE11" s="23" t="str">
+      <c r="AE11" s="37" t="str">
         <f>IF(_tag_month_all!AB8="","",_tag_month_all!AB8)</f>
         <v/>
       </c>
-      <c r="AF11" s="22" t="str">
+      <c r="AF11" s="35" t="str">
         <f>IF(_tag_month_all!AC8="","",_tag_month_all!AC8)</f>
         <v/>
       </c>
-      <c r="AG11" s="22" t="str">
+      <c r="AG11" s="35" t="str">
         <f>IF(_tag_month_all!AD8="","",_tag_month_all!AD8)</f>
         <v/>
       </c>
-      <c r="AH11" s="22" t="str">
+      <c r="AH11" s="35" t="str">
         <f>IF(_tag_month_all!AE8="","",_tag_month_all!AE8)</f>
         <v/>
       </c>
-      <c r="AI11" s="22" t="str">
+      <c r="AI11" s="35" t="str">
         <f>IF(_tag_month_all!AF8="","",_tag_month_all!AF8)</f>
         <v/>
       </c>
-      <c r="AJ11" s="22" t="str">
+      <c r="AJ11" s="35" t="str">
         <f>IF(_tag_month_all!AG8="","",_tag_month_all!AG8)</f>
         <v/>
       </c>
-      <c r="AK11" s="22" t="str">
+      <c r="AK11" s="35" t="str">
         <f>IF(_tag_month_all!AH8="","",_tag_month_all!AH8)</f>
         <v/>
       </c>
-      <c r="AL11" s="22" t="str">
+      <c r="AL11" s="35" t="str">
         <f>IF(_tag_month_all!AI8="","",_tag_month_all!AI8)</f>
         <v/>
       </c>
-      <c r="AM11" s="23" t="str">
+      <c r="AM11" s="37" t="str">
         <f>IF(_tag_month_all!AJ8="","",_tag_month_all!AJ8)</f>
         <v/>
       </c>
-      <c r="AN11" s="23" t="str">
+      <c r="AN11" s="37" t="str">
         <f>IF(_tag_month_all!AK8="","",_tag_month_all!AK8)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:40" s="7" customFormat="1">
-      <c r="A12" s="19">
+    <row r="12" s="9" customFormat="1" spans="1:40">
+      <c r="A12" s="31">
         <v>8</v>
       </c>
-      <c r="B12" s="22" t="str">
+      <c r="B12" s="35" t="str">
         <f>IF(_tag_month_all!A9="","",_tag_month_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="33" t="str">
+      <c r="C12" s="36" t="str">
         <f>IF(_tag_month_all!B9="","",_tag_month_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="33" t="str">
+      <c r="D12" s="36" t="str">
         <f>IF(_tag_month_all!C9="","",_tag_month_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="22" t="str">
+      <c r="E12" s="35" t="str">
         <f>IF(_tag_month_all!D9="","",_tag_month_all!D9)</f>
         <v/>
       </c>
-      <c r="F12" s="23" t="str">
+      <c r="F12" s="37" t="str">
         <f>IF(_tag_month_all!E9="","",_tag_month_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="24" t="str">
+      <c r="G12" s="38" t="str">
         <f>IF(_tag_month_all!F9="","",_tag_month_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="23" t="str">
+      <c r="H12" s="37" t="str">
         <f>IF(_tag_month_all!G9="","",_tag_month_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="32" t="str">
+      <c r="I12" s="46" t="str">
         <f>IF(_tag_month_all!H9="","",_tag_month_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="22" t="str">
+      <c r="J12" s="35" t="str">
         <f>IF(_tag_month_all!I9="","",_tag_month_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="22" t="str">
+      <c r="K12" s="35" t="str">
         <f>IF(_tag_month_all!J9="","",_tag_month_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="32" t="str">
+      <c r="L12" s="46" t="str">
         <f>IF(_tag_month_all!K9="","",_tag_month_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="33" t="str">
+      <c r="M12" s="36" t="str">
         <f>IF(_tag_month_all!L9="","",_tag_month_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="34" t="str">
+      <c r="N12" s="47" t="str">
         <f>IF(_tag_month_all!M9="","",_tag_month_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="23" t="str">
+      <c r="O12" s="37" t="str">
         <f>IF(_tag_month_all!N9="","",_tag_month_all!N9)</f>
         <v/>
       </c>
-      <c r="P12" s="23" t="str">
+      <c r="P12" s="37" t="str">
         <f>IF(_tag_month_all!AL9="","",_tag_month_all!AL9)</f>
         <v/>
       </c>
-      <c r="Q12" s="23" t="str">
+      <c r="Q12" s="37" t="str">
         <f>IF(_tag_month_all!AM9="","",_tag_month_all!AM9)</f>
         <v/>
       </c>
-      <c r="R12" s="22" t="str">
+      <c r="R12" s="35" t="str">
         <f>IF(_tag_month_all!O9="","",_tag_month_all!O9)</f>
         <v/>
       </c>
-      <c r="S12" s="22" t="str">
+      <c r="S12" s="35" t="str">
         <f>IF(_tag_month_all!P9="","",_tag_month_all!P9)</f>
         <v/>
       </c>
-      <c r="T12" s="22" t="str">
+      <c r="T12" s="35" t="str">
         <f>IF(_tag_month_all!Q9="","",_tag_month_all!Q9)</f>
         <v/>
       </c>
-      <c r="U12" s="20" t="str">
+      <c r="U12" s="32" t="str">
         <f>IF(_tag_month_all!R9="","",_tag_month_all!R9)</f>
         <v/>
       </c>
-      <c r="V12" s="22" t="str">
+      <c r="V12" s="35" t="str">
         <f>IF(_tag_month_all!S9="","",_tag_month_all!S9)</f>
         <v/>
       </c>
-      <c r="W12" s="22" t="str">
+      <c r="W12" s="35" t="str">
         <f>IF(_tag_month_all!T9="","",_tag_month_all!T9)</f>
         <v/>
       </c>
-      <c r="X12" s="23" t="str">
+      <c r="X12" s="37" t="str">
         <f>IF(_tag_month_all!U9="","",_tag_month_all!U9)</f>
         <v/>
       </c>
-      <c r="Y12" s="23" t="str">
+      <c r="Y12" s="37" t="str">
         <f>IF(_tag_month_all!V9="","",_tag_month_all!V9)</f>
         <v/>
       </c>
-      <c r="Z12" s="23" t="str">
+      <c r="Z12" s="37" t="str">
         <f>IF(_tag_month_all!U9="","",_tag_month_all!U9/_tag_month_all!V9)</f>
         <v/>
       </c>
-      <c r="AA12" s="23" t="str">
+      <c r="AA12" s="37" t="str">
         <f>IF(_tag_month_all!X9="","",_tag_month_all!X9)</f>
         <v/>
       </c>
-      <c r="AB12" s="33" t="str">
+      <c r="AB12" s="36" t="str">
         <f>IF(_tag_month_all!Y9="","",_tag_month_all!Y9)</f>
         <v/>
       </c>
-      <c r="AC12" s="22" t="str">
+      <c r="AC12" s="35" t="str">
         <f>IF(_tag_month_all!Z9="","",_tag_month_all!Z9)</f>
         <v/>
       </c>
-      <c r="AD12" s="22" t="str">
+      <c r="AD12" s="35" t="str">
         <f>IF(_tag_month_all!AA9="","",_tag_month_all!AA9)</f>
         <v/>
       </c>
-      <c r="AE12" s="23" t="str">
+      <c r="AE12" s="37" t="str">
         <f>IF(_tag_month_all!AB9="","",_tag_month_all!AB9)</f>
         <v/>
       </c>
-      <c r="AF12" s="22" t="str">
+      <c r="AF12" s="35" t="str">
         <f>IF(_tag_month_all!AC9="","",_tag_month_all!AC9)</f>
         <v/>
       </c>
-      <c r="AG12" s="22" t="str">
+      <c r="AG12" s="35" t="str">
         <f>IF(_tag_month_all!AD9="","",_tag_month_all!AD9)</f>
         <v/>
       </c>
-      <c r="AH12" s="22" t="str">
+      <c r="AH12" s="35" t="str">
         <f>IF(_tag_month_all!AE9="","",_tag_month_all!AE9)</f>
         <v/>
       </c>
-      <c r="AI12" s="22" t="str">
+      <c r="AI12" s="35" t="str">
         <f>IF(_tag_month_all!AF9="","",_tag_month_all!AF9)</f>
         <v/>
       </c>
-      <c r="AJ12" s="22" t="str">
+      <c r="AJ12" s="35" t="str">
         <f>IF(_tag_month_all!AG9="","",_tag_month_all!AG9)</f>
         <v/>
       </c>
-      <c r="AK12" s="22" t="str">
+      <c r="AK12" s="35" t="str">
         <f>IF(_tag_month_all!AH9="","",_tag_month_all!AH9)</f>
         <v/>
       </c>
-      <c r="AL12" s="22" t="str">
+      <c r="AL12" s="35" t="str">
         <f>IF(_tag_month_all!AI9="","",_tag_month_all!AI9)</f>
         <v/>
       </c>
-      <c r="AM12" s="23" t="str">
+      <c r="AM12" s="37" t="str">
         <f>IF(_tag_month_all!AJ9="","",_tag_month_all!AJ9)</f>
         <v/>
       </c>
-      <c r="AN12" s="23" t="str">
+      <c r="AN12" s="37" t="str">
         <f>IF(_tag_month_all!AK9="","",_tag_month_all!AK9)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:40" s="7" customFormat="1">
-      <c r="A13" s="19">
+    <row r="13" s="9" customFormat="1" spans="1:40">
+      <c r="A13" s="31">
         <v>9</v>
       </c>
-      <c r="B13" s="22" t="str">
+      <c r="B13" s="35" t="str">
         <f>IF(_tag_month_all!A10="","",_tag_month_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="33" t="str">
+      <c r="C13" s="36" t="str">
         <f>IF(_tag_month_all!B10="","",_tag_month_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="33" t="str">
+      <c r="D13" s="36" t="str">
         <f>IF(_tag_month_all!C10="","",_tag_month_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="22" t="str">
+      <c r="E13" s="35" t="str">
         <f>IF(_tag_month_all!D10="","",_tag_month_all!D10)</f>
         <v/>
       </c>
-      <c r="F13" s="23" t="str">
+      <c r="F13" s="37" t="str">
         <f>IF(_tag_month_all!E10="","",_tag_month_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="24" t="str">
+      <c r="G13" s="38" t="str">
         <f>IF(_tag_month_all!F10="","",_tag_month_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="23" t="str">
+      <c r="H13" s="37" t="str">
         <f>IF(_tag_month_all!G10="","",_tag_month_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="32" t="str">
+      <c r="I13" s="46" t="str">
         <f>IF(_tag_month_all!H10="","",_tag_month_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="22" t="str">
+      <c r="J13" s="35" t="str">
         <f>IF(_tag_month_all!I10="","",_tag_month_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="22" t="str">
+      <c r="K13" s="35" t="str">
         <f>IF(_tag_month_all!J10="","",_tag_month_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="32" t="str">
+      <c r="L13" s="46" t="str">
         <f>IF(_tag_month_all!K10="","",_tag_month_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="33" t="str">
+      <c r="M13" s="36" t="str">
         <f>IF(_tag_month_all!L10="","",_tag_month_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="34" t="str">
+      <c r="N13" s="47" t="str">
         <f>IF(_tag_month_all!M10="","",_tag_month_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="23" t="str">
+      <c r="O13" s="37" t="str">
         <f>IF(_tag_month_all!N10="","",_tag_month_all!N10)</f>
         <v/>
       </c>
-      <c r="P13" s="23" t="str">
+      <c r="P13" s="37" t="str">
         <f>IF(_tag_month_all!AL10="","",_tag_month_all!AL10)</f>
         <v/>
       </c>
-      <c r="Q13" s="23" t="str">
+      <c r="Q13" s="37" t="str">
         <f>IF(_tag_month_all!AM10="","",_tag_month_all!AM10)</f>
         <v/>
       </c>
-      <c r="R13" s="22" t="str">
+      <c r="R13" s="35" t="str">
         <f>IF(_tag_month_all!O10="","",_tag_month_all!O10)</f>
         <v/>
       </c>
-      <c r="S13" s="22" t="str">
+      <c r="S13" s="35" t="str">
         <f>IF(_tag_month_all!P10="","",_tag_month_all!P10)</f>
         <v/>
       </c>
-      <c r="T13" s="22" t="str">
+      <c r="T13" s="35" t="str">
         <f>IF(_tag_month_all!Q10="","",_tag_month_all!Q10)</f>
         <v/>
       </c>
-      <c r="U13" s="20" t="str">
+      <c r="U13" s="32" t="str">
         <f>IF(_tag_month_all!R10="","",_tag_month_all!R10)</f>
         <v/>
       </c>
-      <c r="V13" s="22" t="str">
+      <c r="V13" s="35" t="str">
         <f>IF(_tag_month_all!S10="","",_tag_month_all!S10)</f>
         <v/>
       </c>
-      <c r="W13" s="22" t="str">
+      <c r="W13" s="35" t="str">
         <f>IF(_tag_month_all!T10="","",_tag_month_all!T10)</f>
         <v/>
       </c>
-      <c r="X13" s="23" t="str">
+      <c r="X13" s="37" t="str">
         <f>IF(_tag_month_all!U10="","",_tag_month_all!U10)</f>
         <v/>
       </c>
-      <c r="Y13" s="23" t="str">
+      <c r="Y13" s="37" t="str">
         <f>IF(_tag_month_all!V10="","",_tag_month_all!V10)</f>
         <v/>
       </c>
-      <c r="Z13" s="23" t="str">
+      <c r="Z13" s="37" t="str">
         <f>IF(_tag_month_all!U10="","",_tag_month_all!U10/_tag_month_all!V10)</f>
         <v/>
       </c>
-      <c r="AA13" s="23" t="str">
+      <c r="AA13" s="37" t="str">
         <f>IF(_tag_month_all!X10="","",_tag_month_all!X10)</f>
         <v/>
       </c>
-      <c r="AB13" s="33" t="str">
+      <c r="AB13" s="36" t="str">
         <f>IF(_tag_month_all!Y10="","",_tag_month_all!Y10)</f>
         <v/>
       </c>
-      <c r="AC13" s="22" t="str">
+      <c r="AC13" s="35" t="str">
         <f>IF(_tag_month_all!Z10="","",_tag_month_all!Z10)</f>
         <v/>
       </c>
-      <c r="AD13" s="22" t="str">
+      <c r="AD13" s="35" t="str">
         <f>IF(_tag_month_all!AA10="","",_tag_month_all!AA10)</f>
         <v/>
       </c>
-      <c r="AE13" s="23" t="str">
+      <c r="AE13" s="37" t="str">
         <f>IF(_tag_month_all!AB10="","",_tag_month_all!AB10)</f>
         <v/>
       </c>
-      <c r="AF13" s="22" t="str">
+      <c r="AF13" s="35" t="str">
         <f>IF(_tag_month_all!AC10="","",_tag_month_all!AC10)</f>
         <v/>
       </c>
-      <c r="AG13" s="22" t="str">
+      <c r="AG13" s="35" t="str">
         <f>IF(_tag_month_all!AD10="","",_tag_month_all!AD10)</f>
         <v/>
       </c>
-      <c r="AH13" s="22" t="str">
+      <c r="AH13" s="35" t="str">
         <f>IF(_tag_month_all!AE10="","",_tag_month_all!AE10)</f>
         <v/>
       </c>
-      <c r="AI13" s="22" t="str">
+      <c r="AI13" s="35" t="str">
         <f>IF(_tag_month_all!AF10="","",_tag_month_all!AF10)</f>
         <v/>
       </c>
-      <c r="AJ13" s="22" t="str">
+      <c r="AJ13" s="35" t="str">
         <f>IF(_tag_month_all!AG10="","",_tag_month_all!AG10)</f>
         <v/>
       </c>
-      <c r="AK13" s="22" t="str">
+      <c r="AK13" s="35" t="str">
         <f>IF(_tag_month_all!AH10="","",_tag_month_all!AH10)</f>
         <v/>
       </c>
-      <c r="AL13" s="22" t="str">
+      <c r="AL13" s="35" t="str">
         <f>IF(_tag_month_all!AI10="","",_tag_month_all!AI10)</f>
         <v/>
       </c>
-      <c r="AM13" s="23" t="str">
+      <c r="AM13" s="37" t="str">
         <f>IF(_tag_month_all!AJ10="","",_tag_month_all!AJ10)</f>
         <v/>
       </c>
-      <c r="AN13" s="23" t="str">
+      <c r="AN13" s="37" t="str">
         <f>IF(_tag_month_all!AK10="","",_tag_month_all!AK10)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:40" s="7" customFormat="1">
-      <c r="A14" s="19">
+    <row r="14" s="9" customFormat="1" spans="1:40">
+      <c r="A14" s="31">
         <v>10</v>
       </c>
-      <c r="B14" s="22" t="str">
+      <c r="B14" s="35" t="str">
         <f>IF(_tag_month_all!A11="","",_tag_month_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="33" t="str">
+      <c r="C14" s="36" t="str">
         <f>IF(_tag_month_all!B11="","",_tag_month_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="33" t="str">
+      <c r="D14" s="36" t="str">
         <f>IF(_tag_month_all!C11="","",_tag_month_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="22" t="str">
+      <c r="E14" s="35" t="str">
         <f>IF(_tag_month_all!D11="","",_tag_month_all!D11)</f>
         <v/>
       </c>
-      <c r="F14" s="23" t="str">
+      <c r="F14" s="37" t="str">
         <f>IF(_tag_month_all!E11="","",_tag_month_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="24" t="str">
+      <c r="G14" s="38" t="str">
         <f>IF(_tag_month_all!F11="","",_tag_month_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="23" t="str">
+      <c r="H14" s="37" t="str">
         <f>IF(_tag_month_all!G11="","",_tag_month_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="32" t="str">
+      <c r="I14" s="46" t="str">
         <f>IF(_tag_month_all!H11="","",_tag_month_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="22" t="str">
+      <c r="J14" s="35" t="str">
         <f>IF(_tag_month_all!I11="","",_tag_month_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="22" t="str">
+      <c r="K14" s="35" t="str">
         <f>IF(_tag_month_all!J11="","",_tag_month_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="32" t="str">
+      <c r="L14" s="46" t="str">
         <f>IF(_tag_month_all!K11="","",_tag_month_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="33" t="str">
+      <c r="M14" s="36" t="str">
         <f>IF(_tag_month_all!L11="","",_tag_month_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="34" t="str">
+      <c r="N14" s="47" t="str">
         <f>IF(_tag_month_all!M11="","",_tag_month_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="23" t="str">
+      <c r="O14" s="37" t="str">
         <f>IF(_tag_month_all!N11="","",_tag_month_all!N11)</f>
         <v/>
       </c>
-      <c r="P14" s="23" t="str">
+      <c r="P14" s="37" t="str">
         <f>IF(_tag_month_all!AL11="","",_tag_month_all!AL11)</f>
         <v/>
       </c>
-      <c r="Q14" s="23" t="str">
+      <c r="Q14" s="37" t="str">
         <f>IF(_tag_month_all!AM11="","",_tag_month_all!AM11)</f>
         <v/>
       </c>
-      <c r="R14" s="22" t="str">
+      <c r="R14" s="35" t="str">
         <f>IF(_tag_month_all!O11="","",_tag_month_all!O11)</f>
         <v/>
       </c>
-      <c r="S14" s="22" t="str">
+      <c r="S14" s="35" t="str">
         <f>IF(_tag_month_all!P11="","",_tag_month_all!P11)</f>
         <v/>
       </c>
-      <c r="T14" s="22" t="str">
+      <c r="T14" s="35" t="str">
         <f>IF(_tag_month_all!Q11="","",_tag_month_all!Q11)</f>
         <v/>
       </c>
-      <c r="U14" s="20" t="str">
+      <c r="U14" s="32" t="str">
         <f>IF(_tag_month_all!R11="","",_tag_month_all!R11)</f>
         <v/>
       </c>
-      <c r="V14" s="22" t="str">
+      <c r="V14" s="35" t="str">
         <f>IF(_tag_month_all!S11="","",_tag_month_all!S11)</f>
         <v/>
       </c>
-      <c r="W14" s="22" t="str">
+      <c r="W14" s="35" t="str">
         <f>IF(_tag_month_all!T11="","",_tag_month_all!T11)</f>
         <v/>
       </c>
-      <c r="X14" s="23" t="str">
+      <c r="X14" s="37" t="str">
         <f>IF(_tag_month_all!U11="","",_tag_month_all!U11)</f>
         <v/>
       </c>
-      <c r="Y14" s="23" t="str">
+      <c r="Y14" s="37" t="str">
         <f>IF(_tag_month_all!V11="","",_tag_month_all!V11)</f>
         <v/>
       </c>
-      <c r="Z14" s="23" t="str">
+      <c r="Z14" s="37" t="str">
         <f>IF(_tag_month_all!U11="","",_tag_month_all!U11/_tag_month_all!V11)</f>
         <v/>
       </c>
-      <c r="AA14" s="23" t="str">
+      <c r="AA14" s="37" t="str">
         <f>IF(_tag_month_all!X11="","",_tag_month_all!X11)</f>
         <v/>
       </c>
-      <c r="AB14" s="33" t="str">
+      <c r="AB14" s="36" t="str">
         <f>IF(_tag_month_all!Y11="","",_tag_month_all!Y11)</f>
         <v/>
       </c>
-      <c r="AC14" s="22" t="str">
+      <c r="AC14" s="35" t="str">
         <f>IF(_tag_month_all!Z11="","",_tag_month_all!Z11)</f>
         <v/>
       </c>
-      <c r="AD14" s="22" t="str">
+      <c r="AD14" s="35" t="str">
         <f>IF(_tag_month_all!AA11="","",_tag_month_all!AA11)</f>
         <v/>
       </c>
-      <c r="AE14" s="23" t="str">
+      <c r="AE14" s="37" t="str">
         <f>IF(_tag_month_all!AB11="","",_tag_month_all!AB11)</f>
         <v/>
       </c>
-      <c r="AF14" s="22" t="str">
+      <c r="AF14" s="35" t="str">
         <f>IF(_tag_month_all!AC11="","",_tag_month_all!AC11)</f>
         <v/>
       </c>
-      <c r="AG14" s="22" t="str">
+      <c r="AG14" s="35" t="str">
         <f>IF(_tag_month_all!AD11="","",_tag_month_all!AD11)</f>
         <v/>
       </c>
-      <c r="AH14" s="22" t="str">
+      <c r="AH14" s="35" t="str">
         <f>IF(_tag_month_all!AE11="","",_tag_month_all!AE11)</f>
         <v/>
       </c>
-      <c r="AI14" s="22" t="str">
+      <c r="AI14" s="35" t="str">
         <f>IF(_tag_month_all!AF11="","",_tag_month_all!AF11)</f>
         <v/>
       </c>
-      <c r="AJ14" s="22" t="str">
+      <c r="AJ14" s="35" t="str">
         <f>IF(_tag_month_all!AG11="","",_tag_month_all!AG11)</f>
         <v/>
       </c>
-      <c r="AK14" s="22" t="str">
+      <c r="AK14" s="35" t="str">
         <f>IF(_tag_month_all!AH11="","",_tag_month_all!AH11)</f>
         <v/>
       </c>
-      <c r="AL14" s="22" t="str">
+      <c r="AL14" s="35" t="str">
         <f>IF(_tag_month_all!AI11="","",_tag_month_all!AI11)</f>
         <v/>
       </c>
-      <c r="AM14" s="23" t="str">
+      <c r="AM14" s="37" t="str">
         <f>IF(_tag_month_all!AJ11="","",_tag_month_all!AJ11)</f>
         <v/>
       </c>
-      <c r="AN14" s="23" t="str">
+      <c r="AN14" s="37" t="str">
         <f>IF(_tag_month_all!AK11="","",_tag_month_all!AK11)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:40" s="7" customFormat="1">
-      <c r="A15" s="19">
+    <row r="15" s="9" customFormat="1" spans="1:40">
+      <c r="A15" s="31">
         <v>11</v>
       </c>
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="35" t="str">
         <f>IF(_tag_month_all!A12="","",_tag_month_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="33" t="str">
+      <c r="C15" s="36" t="str">
         <f>IF(_tag_month_all!B12="","",_tag_month_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="33" t="str">
+      <c r="D15" s="36" t="str">
         <f>IF(_tag_month_all!C12="","",_tag_month_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="22" t="str">
+      <c r="E15" s="35" t="str">
         <f>IF(_tag_month_all!D12="","",_tag_month_all!D12)</f>
         <v/>
       </c>
-      <c r="F15" s="23" t="str">
+      <c r="F15" s="37" t="str">
         <f>IF(_tag_month_all!E12="","",_tag_month_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="24" t="str">
+      <c r="G15" s="38" t="str">
         <f>IF(_tag_month_all!F12="","",_tag_month_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="23" t="str">
+      <c r="H15" s="37" t="str">
         <f>IF(_tag_month_all!G12="","",_tag_month_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="32" t="str">
+      <c r="I15" s="46" t="str">
         <f>IF(_tag_month_all!H12="","",_tag_month_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="22" t="str">
+      <c r="J15" s="35" t="str">
         <f>IF(_tag_month_all!I12="","",_tag_month_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="22" t="str">
+      <c r="K15" s="35" t="str">
         <f>IF(_tag_month_all!J12="","",_tag_month_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="32" t="str">
+      <c r="L15" s="46" t="str">
         <f>IF(_tag_month_all!K12="","",_tag_month_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="33" t="str">
+      <c r="M15" s="36" t="str">
         <f>IF(_tag_month_all!L12="","",_tag_month_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="34" t="str">
+      <c r="N15" s="47" t="str">
         <f>IF(_tag_month_all!M12="","",_tag_month_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="23" t="str">
+      <c r="O15" s="37" t="str">
         <f>IF(_tag_month_all!N12="","",_tag_month_all!N12)</f>
         <v/>
       </c>
-      <c r="P15" s="23" t="str">
+      <c r="P15" s="37" t="str">
         <f>IF(_tag_month_all!AL12="","",_tag_month_all!AL12)</f>
         <v/>
       </c>
-      <c r="Q15" s="23" t="str">
+      <c r="Q15" s="37" t="str">
         <f>IF(_tag_month_all!AM12="","",_tag_month_all!AM12)</f>
         <v/>
       </c>
-      <c r="R15" s="22" t="str">
+      <c r="R15" s="35" t="str">
         <f>IF(_tag_month_all!O12="","",_tag_month_all!O12)</f>
         <v/>
       </c>
-      <c r="S15" s="22" t="str">
+      <c r="S15" s="35" t="str">
         <f>IF(_tag_month_all!P12="","",_tag_month_all!P12)</f>
         <v/>
       </c>
-      <c r="T15" s="22" t="str">
+      <c r="T15" s="35" t="str">
         <f>IF(_tag_month_all!Q12="","",_tag_month_all!Q12)</f>
         <v/>
       </c>
-      <c r="U15" s="20" t="str">
+      <c r="U15" s="32" t="str">
         <f>IF(_tag_month_all!R12="","",_tag_month_all!R12)</f>
         <v/>
       </c>
-      <c r="V15" s="22" t="str">
+      <c r="V15" s="35" t="str">
         <f>IF(_tag_month_all!S12="","",_tag_month_all!S12)</f>
         <v/>
       </c>
-      <c r="W15" s="22" t="str">
+      <c r="W15" s="35" t="str">
         <f>IF(_tag_month_all!T12="","",_tag_month_all!T12)</f>
         <v/>
       </c>
-      <c r="X15" s="23" t="str">
+      <c r="X15" s="37" t="str">
         <f>IF(_tag_month_all!U12="","",_tag_month_all!U12)</f>
         <v/>
       </c>
-      <c r="Y15" s="23" t="str">
+      <c r="Y15" s="37" t="str">
         <f>IF(_tag_month_all!V12="","",_tag_month_all!V12)</f>
         <v/>
       </c>
-      <c r="Z15" s="23" t="str">
+      <c r="Z15" s="37" t="str">
         <f>IF(_tag_month_all!U12="","",_tag_month_all!U12/_tag_month_all!V12)</f>
         <v/>
       </c>
-      <c r="AA15" s="23" t="str">
+      <c r="AA15" s="37" t="str">
         <f>IF(_tag_month_all!X12="","",_tag_month_all!X12)</f>
         <v/>
       </c>
-      <c r="AB15" s="33" t="str">
+      <c r="AB15" s="36" t="str">
         <f>IF(_tag_month_all!Y12="","",_tag_month_all!Y12)</f>
         <v/>
       </c>
-      <c r="AC15" s="22" t="str">
+      <c r="AC15" s="35" t="str">
         <f>IF(_tag_month_all!Z12="","",_tag_month_all!Z12)</f>
         <v/>
       </c>
-      <c r="AD15" s="22" t="str">
+      <c r="AD15" s="35" t="str">
         <f>IF(_tag_month_all!AA12="","",_tag_month_all!AA12)</f>
         <v/>
       </c>
-      <c r="AE15" s="23" t="str">
+      <c r="AE15" s="37" t="str">
         <f>IF(_tag_month_all!AB12="","",_tag_month_all!AB12)</f>
         <v/>
       </c>
-      <c r="AF15" s="22" t="str">
+      <c r="AF15" s="35" t="str">
         <f>IF(_tag_month_all!AC12="","",_tag_month_all!AC12)</f>
         <v/>
       </c>
-      <c r="AG15" s="22" t="str">
+      <c r="AG15" s="35" t="str">
         <f>IF(_tag_month_all!AD12="","",_tag_month_all!AD12)</f>
         <v/>
       </c>
-      <c r="AH15" s="22" t="str">
+      <c r="AH15" s="35" t="str">
         <f>IF(_tag_month_all!AE12="","",_tag_month_all!AE12)</f>
         <v/>
       </c>
-      <c r="AI15" s="22" t="str">
+      <c r="AI15" s="35" t="str">
         <f>IF(_tag_month_all!AF12="","",_tag_month_all!AF12)</f>
         <v/>
       </c>
-      <c r="AJ15" s="22" t="str">
+      <c r="AJ15" s="35" t="str">
         <f>IF(_tag_month_all!AG12="","",_tag_month_all!AG12)</f>
         <v/>
       </c>
-      <c r="AK15" s="22" t="str">
+      <c r="AK15" s="35" t="str">
         <f>IF(_tag_month_all!AH12="","",_tag_month_all!AH12)</f>
         <v/>
       </c>
-      <c r="AL15" s="22" t="str">
+      <c r="AL15" s="35" t="str">
         <f>IF(_tag_month_all!AI12="","",_tag_month_all!AI12)</f>
         <v/>
       </c>
-      <c r="AM15" s="23" t="str">
+      <c r="AM15" s="37" t="str">
         <f>IF(_tag_month_all!AJ12="","",_tag_month_all!AJ12)</f>
         <v/>
       </c>
-      <c r="AN15" s="23" t="str">
+      <c r="AN15" s="37" t="str">
         <f>IF(_tag_month_all!AK12="","",_tag_month_all!AK12)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:40" s="7" customFormat="1">
-      <c r="A16" s="19">
+    <row r="16" s="9" customFormat="1" spans="1:40">
+      <c r="A16" s="31">
         <v>12</v>
       </c>
-      <c r="B16" s="22" t="str">
+      <c r="B16" s="35" t="str">
         <f>IF(_tag_month_all!A13="","",_tag_month_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="33" t="str">
+      <c r="C16" s="36" t="str">
         <f>IF(_tag_month_all!B13="","",_tag_month_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="33" t="str">
+      <c r="D16" s="36" t="str">
         <f>IF(_tag_month_all!C13="","",_tag_month_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="22" t="str">
+      <c r="E16" s="35" t="str">
         <f>IF(_tag_month_all!D13="","",_tag_month_all!D13)</f>
         <v/>
       </c>
-      <c r="F16" s="23" t="str">
+      <c r="F16" s="37" t="str">
         <f>IF(_tag_month_all!E13="","",_tag_month_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="24" t="str">
+      <c r="G16" s="38" t="str">
         <f>IF(_tag_month_all!F13="","",_tag_month_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="23" t="str">
+      <c r="H16" s="37" t="str">
         <f>IF(_tag_month_all!G13="","",_tag_month_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="32" t="str">
+      <c r="I16" s="46" t="str">
         <f>IF(_tag_month_all!H13="","",_tag_month_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="22" t="str">
+      <c r="J16" s="35" t="str">
         <f>IF(_tag_month_all!I13="","",_tag_month_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="22" t="str">
+      <c r="K16" s="35" t="str">
         <f>IF(_tag_month_all!J13="","",_tag_month_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="32" t="str">
+      <c r="L16" s="46" t="str">
         <f>IF(_tag_month_all!K13="","",_tag_month_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="33" t="str">
+      <c r="M16" s="36" t="str">
         <f>IF(_tag_month_all!L13="","",_tag_month_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="34" t="str">
+      <c r="N16" s="47" t="str">
         <f>IF(_tag_month_all!M13="","",_tag_month_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="23" t="str">
+      <c r="O16" s="37" t="str">
         <f>IF(_tag_month_all!N13="","",_tag_month_all!N13)</f>
         <v/>
       </c>
-      <c r="P16" s="23" t="str">
+      <c r="P16" s="37" t="str">
         <f>IF(_tag_month_all!AL13="","",_tag_month_all!AL13)</f>
         <v/>
       </c>
-      <c r="Q16" s="23" t="str">
+      <c r="Q16" s="37" t="str">
         <f>IF(_tag_month_all!AM13="","",_tag_month_all!AM13)</f>
         <v/>
       </c>
-      <c r="R16" s="22" t="str">
+      <c r="R16" s="35" t="str">
         <f>IF(_tag_month_all!O13="","",_tag_month_all!O13)</f>
         <v/>
       </c>
-      <c r="S16" s="22" t="str">
+      <c r="S16" s="35" t="str">
         <f>IF(_tag_month_all!P13="","",_tag_month_all!P13)</f>
         <v/>
       </c>
-      <c r="T16" s="22" t="str">
+      <c r="T16" s="35" t="str">
         <f>IF(_tag_month_all!Q13="","",_tag_month_all!Q13)</f>
         <v/>
       </c>
-      <c r="U16" s="20" t="str">
+      <c r="U16" s="32" t="str">
         <f>IF(_tag_month_all!R13="","",_tag_month_all!R13)</f>
         <v/>
       </c>
-      <c r="V16" s="22" t="str">
+      <c r="V16" s="35" t="str">
         <f>IF(_tag_month_all!S13="","",_tag_month_all!S13)</f>
         <v/>
       </c>
-      <c r="W16" s="22" t="str">
+      <c r="W16" s="35" t="str">
         <f>IF(_tag_month_all!T13="","",_tag_month_all!T13)</f>
         <v/>
       </c>
-      <c r="X16" s="23" t="str">
+      <c r="X16" s="37" t="str">
         <f>IF(_tag_month_all!U13="","",_tag_month_all!U13)</f>
         <v/>
       </c>
-      <c r="Y16" s="23" t="str">
+      <c r="Y16" s="37" t="str">
         <f>IF(_tag_month_all!V13="","",_tag_month_all!V13)</f>
         <v/>
       </c>
-      <c r="Z16" s="23" t="str">
+      <c r="Z16" s="37" t="str">
         <f>IF(_tag_month_all!U13="","",_tag_month_all!U13/_tag_month_all!V13)</f>
         <v/>
       </c>
-      <c r="AA16" s="23" t="str">
+      <c r="AA16" s="37" t="str">
         <f>IF(_tag_month_all!X13="","",_tag_month_all!X13)</f>
         <v/>
       </c>
-      <c r="AB16" s="33" t="str">
+      <c r="AB16" s="36" t="str">
         <f>IF(_tag_month_all!Y13="","",_tag_month_all!Y13)</f>
         <v/>
       </c>
-      <c r="AC16" s="22" t="str">
+      <c r="AC16" s="35" t="str">
         <f>IF(_tag_month_all!Z13="","",_tag_month_all!Z13)</f>
         <v/>
       </c>
-      <c r="AD16" s="22" t="str">
+      <c r="AD16" s="35" t="str">
         <f>IF(_tag_month_all!AA13="","",_tag_month_all!AA13)</f>
         <v/>
       </c>
-      <c r="AE16" s="23" t="str">
+      <c r="AE16" s="37" t="str">
         <f>IF(_tag_month_all!AB13="","",_tag_month_all!AB13)</f>
         <v/>
       </c>
-      <c r="AF16" s="22" t="str">
+      <c r="AF16" s="35" t="str">
         <f>IF(_tag_month_all!AC13="","",_tag_month_all!AC13)</f>
         <v/>
       </c>
-      <c r="AG16" s="22" t="str">
+      <c r="AG16" s="35" t="str">
         <f>IF(_tag_month_all!AD13="","",_tag_month_all!AD13)</f>
         <v/>
       </c>
-      <c r="AH16" s="22" t="str">
+      <c r="AH16" s="35" t="str">
         <f>IF(_tag_month_all!AE13="","",_tag_month_all!AE13)</f>
         <v/>
       </c>
-      <c r="AI16" s="22" t="str">
+      <c r="AI16" s="35" t="str">
         <f>IF(_tag_month_all!AF13="","",_tag_month_all!AF13)</f>
         <v/>
       </c>
-      <c r="AJ16" s="22" t="str">
+      <c r="AJ16" s="35" t="str">
         <f>IF(_tag_month_all!AG13="","",_tag_month_all!AG13)</f>
         <v/>
       </c>
-      <c r="AK16" s="22" t="str">
+      <c r="AK16" s="35" t="str">
         <f>IF(_tag_month_all!AH13="","",_tag_month_all!AH13)</f>
         <v/>
       </c>
-      <c r="AL16" s="22" t="str">
+      <c r="AL16" s="35" t="str">
         <f>IF(_tag_month_all!AI13="","",_tag_month_all!AI13)</f>
         <v/>
       </c>
-      <c r="AM16" s="23" t="str">
+      <c r="AM16" s="37" t="str">
         <f>IF(_tag_month_all!AJ13="","",_tag_month_all!AJ13)</f>
         <v/>
       </c>
-      <c r="AN16" s="23" t="str">
+      <c r="AN16" s="37" t="str">
         <f>IF(_tag_month_all!AK13="","",_tag_month_all!AK13)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:40" s="7" customFormat="1">
-      <c r="A17" s="19">
+    <row r="17" s="9" customFormat="1" spans="1:40">
+      <c r="A17" s="31">
         <v>13</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="35" t="str">
         <f>IF(_tag_month_all!A14="","",_tag_month_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="33" t="str">
+      <c r="C17" s="36" t="str">
         <f>IF(_tag_month_all!B14="","",_tag_month_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="33" t="str">
+      <c r="D17" s="36" t="str">
         <f>IF(_tag_month_all!C14="","",_tag_month_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="22" t="str">
+      <c r="E17" s="35" t="str">
         <f>IF(_tag_month_all!D14="","",_tag_month_all!D14)</f>
         <v/>
       </c>
-      <c r="F17" s="23" t="str">
+      <c r="F17" s="37" t="str">
         <f>IF(_tag_month_all!E14="","",_tag_month_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="24" t="str">
+      <c r="G17" s="38" t="str">
         <f>IF(_tag_month_all!F14="","",_tag_month_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="23" t="str">
+      <c r="H17" s="37" t="str">
         <f>IF(_tag_month_all!G14="","",_tag_month_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="32" t="str">
+      <c r="I17" s="46" t="str">
         <f>IF(_tag_month_all!H14="","",_tag_month_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="22" t="str">
+      <c r="J17" s="35" t="str">
         <f>IF(_tag_month_all!I14="","",_tag_month_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="22" t="str">
+      <c r="K17" s="35" t="str">
         <f>IF(_tag_month_all!J14="","",_tag_month_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="32" t="str">
+      <c r="L17" s="46" t="str">
         <f>IF(_tag_month_all!K14="","",_tag_month_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="33" t="str">
+      <c r="M17" s="36" t="str">
         <f>IF(_tag_month_all!L14="","",_tag_month_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="34" t="str">
+      <c r="N17" s="47" t="str">
         <f>IF(_tag_month_all!M14="","",_tag_month_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="23" t="str">
+      <c r="O17" s="37" t="str">
         <f>IF(_tag_month_all!N14="","",_tag_month_all!N14)</f>
         <v/>
       </c>
-      <c r="P17" s="23" t="str">
+      <c r="P17" s="37" t="str">
         <f>IF(_tag_month_all!AL14="","",_tag_month_all!AL14)</f>
         <v/>
       </c>
-      <c r="Q17" s="23" t="str">
+      <c r="Q17" s="37" t="str">
         <f>IF(_tag_month_all!AM14="","",_tag_month_all!AM14)</f>
         <v/>
       </c>
-      <c r="R17" s="22" t="str">
+      <c r="R17" s="35" t="str">
         <f>IF(_tag_month_all!O14="","",_tag_month_all!O14)</f>
         <v/>
       </c>
-      <c r="S17" s="22" t="str">
+      <c r="S17" s="35" t="str">
         <f>IF(_tag_month_all!P14="","",_tag_month_all!P14)</f>
         <v/>
       </c>
-      <c r="T17" s="22" t="str">
+      <c r="T17" s="35" t="str">
         <f>IF(_tag_month_all!Q14="","",_tag_month_all!Q14)</f>
         <v/>
       </c>
-      <c r="U17" s="20" t="str">
+      <c r="U17" s="32" t="str">
         <f>IF(_tag_month_all!R14="","",_tag_month_all!R14)</f>
         <v/>
       </c>
-      <c r="V17" s="22" t="str">
+      <c r="V17" s="35" t="str">
         <f>IF(_tag_month_all!S14="","",_tag_month_all!S14)</f>
         <v/>
       </c>
-      <c r="W17" s="22" t="str">
+      <c r="W17" s="35" t="str">
         <f>IF(_tag_month_all!T14="","",_tag_month_all!T14)</f>
         <v/>
       </c>
-      <c r="X17" s="23" t="str">
+      <c r="X17" s="37" t="str">
         <f>IF(_tag_month_all!U14="","",_tag_month_all!U14)</f>
         <v/>
       </c>
-      <c r="Y17" s="23" t="str">
+      <c r="Y17" s="37" t="str">
         <f>IF(_tag_month_all!V14="","",_tag_month_all!V14)</f>
         <v/>
       </c>
-      <c r="Z17" s="23" t="str">
+      <c r="Z17" s="37" t="str">
         <f>IF(_tag_month_all!U14="","",_tag_month_all!U14/_tag_month_all!V14)</f>
         <v/>
       </c>
-      <c r="AA17" s="23" t="str">
+      <c r="AA17" s="37" t="str">
         <f>IF(_tag_month_all!X14="","",_tag_month_all!X14)</f>
         <v/>
       </c>
-      <c r="AB17" s="33" t="str">
+      <c r="AB17" s="36" t="str">
         <f>IF(_tag_month_all!Y14="","",_tag_month_all!Y14)</f>
         <v/>
       </c>
-      <c r="AC17" s="22" t="str">
+      <c r="AC17" s="35" t="str">
         <f>IF(_tag_month_all!Z14="","",_tag_month_all!Z14)</f>
         <v/>
       </c>
-      <c r="AD17" s="22" t="str">
+      <c r="AD17" s="35" t="str">
         <f>IF(_tag_month_all!AA14="","",_tag_month_all!AA14)</f>
         <v/>
       </c>
-      <c r="AE17" s="23" t="str">
+      <c r="AE17" s="37" t="str">
         <f>IF(_tag_month_all!AB14="","",_tag_month_all!AB14)</f>
         <v/>
       </c>
-      <c r="AF17" s="22" t="str">
+      <c r="AF17" s="35" t="str">
         <f>IF(_tag_month_all!AC14="","",_tag_month_all!AC14)</f>
         <v/>
       </c>
-      <c r="AG17" s="22" t="str">
+      <c r="AG17" s="35" t="str">
         <f>IF(_tag_month_all!AD14="","",_tag_month_all!AD14)</f>
         <v/>
       </c>
-      <c r="AH17" s="22" t="str">
+      <c r="AH17" s="35" t="str">
         <f>IF(_tag_month_all!AE14="","",_tag_month_all!AE14)</f>
         <v/>
       </c>
-      <c r="AI17" s="22" t="str">
+      <c r="AI17" s="35" t="str">
         <f>IF(_tag_month_all!AF14="","",_tag_month_all!AF14)</f>
         <v/>
       </c>
-      <c r="AJ17" s="22" t="str">
+      <c r="AJ17" s="35" t="str">
         <f>IF(_tag_month_all!AG14="","",_tag_month_all!AG14)</f>
         <v/>
       </c>
-      <c r="AK17" s="22" t="str">
+      <c r="AK17" s="35" t="str">
         <f>IF(_tag_month_all!AH14="","",_tag_month_all!AH14)</f>
         <v/>
       </c>
-      <c r="AL17" s="22" t="str">
+      <c r="AL17" s="35" t="str">
         <f>IF(_tag_month_all!AI14="","",_tag_month_all!AI14)</f>
         <v/>
       </c>
-      <c r="AM17" s="23" t="str">
+      <c r="AM17" s="37" t="str">
         <f>IF(_tag_month_all!AJ14="","",_tag_month_all!AJ14)</f>
         <v/>
       </c>
-      <c r="AN17" s="23" t="str">
+      <c r="AN17" s="37" t="str">
         <f>IF(_tag_month_all!AK14="","",_tag_month_all!AK14)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:40" s="7" customFormat="1">
-      <c r="A18" s="19">
+    <row r="18" s="9" customFormat="1" spans="1:40">
+      <c r="A18" s="31">
         <v>14</v>
       </c>
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="35" t="str">
         <f>IF(_tag_month_all!A15="","",_tag_month_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="33" t="str">
+      <c r="C18" s="36" t="str">
         <f>IF(_tag_month_all!B15="","",_tag_month_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="33" t="str">
+      <c r="D18" s="36" t="str">
         <f>IF(_tag_month_all!C15="","",_tag_month_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="22" t="str">
+      <c r="E18" s="35" t="str">
         <f>IF(_tag_month_all!D15="","",_tag_month_all!D15)</f>
         <v/>
       </c>
-      <c r="F18" s="23" t="str">
+      <c r="F18" s="37" t="str">
         <f>IF(_tag_month_all!E15="","",_tag_month_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="24" t="str">
+      <c r="G18" s="38" t="str">
         <f>IF(_tag_month_all!F15="","",_tag_month_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="23" t="str">
+      <c r="H18" s="37" t="str">
         <f>IF(_tag_month_all!G15="","",_tag_month_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="32" t="str">
+      <c r="I18" s="46" t="str">
         <f>IF(_tag_month_all!H15="","",_tag_month_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="22" t="str">
+      <c r="J18" s="35" t="str">
         <f>IF(_tag_month_all!I15="","",_tag_month_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="22" t="str">
+      <c r="K18" s="35" t="str">
         <f>IF(_tag_month_all!J15="","",_tag_month_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="32" t="str">
+      <c r="L18" s="46" t="str">
         <f>IF(_tag_month_all!K15="","",_tag_month_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="33" t="str">
+      <c r="M18" s="36" t="str">
         <f>IF(_tag_month_all!L15="","",_tag_month_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="34" t="str">
+      <c r="N18" s="47" t="str">
         <f>IF(_tag_month_all!M15="","",_tag_month_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="23" t="str">
+      <c r="O18" s="37" t="str">
         <f>IF(_tag_month_all!N15="","",_tag_month_all!N15)</f>
         <v/>
       </c>
-      <c r="P18" s="23" t="str">
+      <c r="P18" s="37" t="str">
         <f>IF(_tag_month_all!AL15="","",_tag_month_all!AL15)</f>
         <v/>
       </c>
-      <c r="Q18" s="23" t="str">
+      <c r="Q18" s="37" t="str">
         <f>IF(_tag_month_all!AM15="","",_tag_month_all!AM15)</f>
         <v/>
       </c>
-      <c r="R18" s="22" t="str">
+      <c r="R18" s="35" t="str">
         <f>IF(_tag_month_all!O15="","",_tag_month_all!O15)</f>
         <v/>
       </c>
-      <c r="S18" s="22" t="str">
+      <c r="S18" s="35" t="str">
         <f>IF(_tag_month_all!P15="","",_tag_month_all!P15)</f>
         <v/>
       </c>
-      <c r="T18" s="22" t="str">
+      <c r="T18" s="35" t="str">
         <f>IF(_tag_month_all!Q15="","",_tag_month_all!Q15)</f>
         <v/>
       </c>
-      <c r="U18" s="20" t="str">
+      <c r="U18" s="32" t="str">
         <f>IF(_tag_month_all!R15="","",_tag_month_all!R15)</f>
         <v/>
       </c>
-      <c r="V18" s="22" t="str">
+      <c r="V18" s="35" t="str">
         <f>IF(_tag_month_all!S15="","",_tag_month_all!S15)</f>
         <v/>
       </c>
-      <c r="W18" s="22" t="str">
+      <c r="W18" s="35" t="str">
         <f>IF(_tag_month_all!T15="","",_tag_month_all!T15)</f>
         <v/>
       </c>
-      <c r="X18" s="23" t="str">
+      <c r="X18" s="37" t="str">
         <f>IF(_tag_month_all!U15="","",_tag_month_all!U15)</f>
         <v/>
       </c>
-      <c r="Y18" s="23" t="str">
+      <c r="Y18" s="37" t="str">
         <f>IF(_tag_month_all!V15="","",_tag_month_all!V15)</f>
         <v/>
       </c>
-      <c r="Z18" s="23" t="str">
+      <c r="Z18" s="37" t="str">
         <f>IF(_tag_month_all!U15="","",_tag_month_all!U15/_tag_month_all!V15)</f>
         <v/>
       </c>
-      <c r="AA18" s="23" t="str">
+      <c r="AA18" s="37" t="str">
         <f>IF(_tag_month_all!X15="","",_tag_month_all!X15)</f>
         <v/>
       </c>
-      <c r="AB18" s="33" t="str">
+      <c r="AB18" s="36" t="str">
         <f>IF(_tag_month_all!Y15="","",_tag_month_all!Y15)</f>
         <v/>
       </c>
-      <c r="AC18" s="22" t="str">
+      <c r="AC18" s="35" t="str">
         <f>IF(_tag_month_all!Z15="","",_tag_month_all!Z15)</f>
         <v/>
       </c>
-      <c r="AD18" s="22" t="str">
+      <c r="AD18" s="35" t="str">
         <f>IF(_tag_month_all!AA15="","",_tag_month_all!AA15)</f>
         <v/>
       </c>
-      <c r="AE18" s="23" t="str">
+      <c r="AE18" s="37" t="str">
         <f>IF(_tag_month_all!AB15="","",_tag_month_all!AB15)</f>
         <v/>
       </c>
-      <c r="AF18" s="22" t="str">
+      <c r="AF18" s="35" t="str">
         <f>IF(_tag_month_all!AC15="","",_tag_month_all!AC15)</f>
         <v/>
       </c>
-      <c r="AG18" s="22" t="str">
+      <c r="AG18" s="35" t="str">
         <f>IF(_tag_month_all!AD15="","",_tag_month_all!AD15)</f>
         <v/>
       </c>
-      <c r="AH18" s="22" t="str">
+      <c r="AH18" s="35" t="str">
         <f>IF(_tag_month_all!AE15="","",_tag_month_all!AE15)</f>
         <v/>
       </c>
-      <c r="AI18" s="22" t="str">
+      <c r="AI18" s="35" t="str">
         <f>IF(_tag_month_all!AF15="","",_tag_month_all!AF15)</f>
         <v/>
       </c>
-      <c r="AJ18" s="22" t="str">
+      <c r="AJ18" s="35" t="str">
         <f>IF(_tag_month_all!AG15="","",_tag_month_all!AG15)</f>
         <v/>
       </c>
-      <c r="AK18" s="22" t="str">
+      <c r="AK18" s="35" t="str">
         <f>IF(_tag_month_all!AH15="","",_tag_month_all!AH15)</f>
         <v/>
       </c>
-      <c r="AL18" s="22" t="str">
+      <c r="AL18" s="35" t="str">
         <f>IF(_tag_month_all!AI15="","",_tag_month_all!AI15)</f>
         <v/>
       </c>
-      <c r="AM18" s="23" t="str">
+      <c r="AM18" s="37" t="str">
         <f>IF(_tag_month_all!AJ15="","",_tag_month_all!AJ15)</f>
         <v/>
       </c>
-      <c r="AN18" s="23" t="str">
+      <c r="AN18" s="37" t="str">
         <f>IF(_tag_month_all!AK15="","",_tag_month_all!AK15)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:40" s="7" customFormat="1">
-      <c r="A19" s="19">
+    <row r="19" s="9" customFormat="1" spans="1:40">
+      <c r="A19" s="31">
         <v>15</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="35" t="str">
         <f>IF(_tag_month_all!A16="","",_tag_month_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="33" t="str">
+      <c r="C19" s="36" t="str">
         <f>IF(_tag_month_all!B16="","",_tag_month_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="33" t="str">
+      <c r="D19" s="36" t="str">
         <f>IF(_tag_month_all!C16="","",_tag_month_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="22" t="str">
+      <c r="E19" s="35" t="str">
         <f>IF(_tag_month_all!D16="","",_tag_month_all!D16)</f>
         <v/>
       </c>
-      <c r="F19" s="23" t="str">
+      <c r="F19" s="37" t="str">
         <f>IF(_tag_month_all!E16="","",_tag_month_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="24" t="str">
+      <c r="G19" s="38" t="str">
         <f>IF(_tag_month_all!F16="","",_tag_month_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="23" t="str">
+      <c r="H19" s="37" t="str">
         <f>IF(_tag_month_all!G16="","",_tag_month_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="32" t="str">
+      <c r="I19" s="46" t="str">
         <f>IF(_tag_month_all!H16="","",_tag_month_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="22" t="str">
+      <c r="J19" s="35" t="str">
         <f>IF(_tag_month_all!I16="","",_tag_month_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="22" t="str">
+      <c r="K19" s="35" t="str">
         <f>IF(_tag_month_all!J16="","",_tag_month_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="32" t="str">
+      <c r="L19" s="46" t="str">
         <f>IF(_tag_month_all!K16="","",_tag_month_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="33" t="str">
+      <c r="M19" s="36" t="str">
         <f>IF(_tag_month_all!L16="","",_tag_month_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="34" t="str">
+      <c r="N19" s="47" t="str">
         <f>IF(_tag_month_all!M16="","",_tag_month_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="23" t="str">
+      <c r="O19" s="37" t="str">
         <f>IF(_tag_month_all!N16="","",_tag_month_all!N16)</f>
         <v/>
       </c>
-      <c r="P19" s="23" t="str">
+      <c r="P19" s="37" t="str">
         <f>IF(_tag_month_all!AL16="","",_tag_month_all!AL16)</f>
         <v/>
       </c>
-      <c r="Q19" s="23" t="str">
+      <c r="Q19" s="37" t="str">
         <f>IF(_tag_month_all!AM16="","",_tag_month_all!AM16)</f>
         <v/>
       </c>
-      <c r="R19" s="22" t="str">
+      <c r="R19" s="35" t="str">
         <f>IF(_tag_month_all!O16="","",_tag_month_all!O16)</f>
         <v/>
       </c>
-      <c r="S19" s="22" t="str">
+      <c r="S19" s="35" t="str">
         <f>IF(_tag_month_all!P16="","",_tag_month_all!P16)</f>
         <v/>
       </c>
-      <c r="T19" s="22" t="str">
+      <c r="T19" s="35" t="str">
         <f>IF(_tag_month_all!Q16="","",_tag_month_all!Q16)</f>
         <v/>
       </c>
-      <c r="U19" s="20" t="str">
+      <c r="U19" s="32" t="str">
         <f>IF(_tag_month_all!R16="","",_tag_month_all!R16)</f>
         <v/>
       </c>
-      <c r="V19" s="22" t="str">
+      <c r="V19" s="35" t="str">
         <f>IF(_tag_month_all!S16="","",_tag_month_all!S16)</f>
         <v/>
       </c>
-      <c r="W19" s="22" t="str">
+      <c r="W19" s="35" t="str">
         <f>IF(_tag_month_all!T16="","",_tag_month_all!T16)</f>
         <v/>
       </c>
-      <c r="X19" s="23" t="str">
+      <c r="X19" s="37" t="str">
         <f>IF(_tag_month_all!U16="","",_tag_month_all!U16)</f>
         <v/>
       </c>
-      <c r="Y19" s="23" t="str">
+      <c r="Y19" s="37" t="str">
         <f>IF(_tag_month_all!V16="","",_tag_month_all!V16)</f>
         <v/>
       </c>
-      <c r="Z19" s="23" t="str">
+      <c r="Z19" s="37" t="str">
         <f>IF(_tag_month_all!U16="","",_tag_month_all!U16/_tag_month_all!V16)</f>
         <v/>
       </c>
-      <c r="AA19" s="23" t="str">
+      <c r="AA19" s="37" t="str">
         <f>IF(_tag_month_all!X16="","",_tag_month_all!X16)</f>
         <v/>
       </c>
-      <c r="AB19" s="33" t="str">
+      <c r="AB19" s="36" t="str">
         <f>IF(_tag_month_all!Y16="","",_tag_month_all!Y16)</f>
         <v/>
       </c>
-      <c r="AC19" s="22" t="str">
+      <c r="AC19" s="35" t="str">
         <f>IF(_tag_month_all!Z16="","",_tag_month_all!Z16)</f>
         <v/>
       </c>
-      <c r="AD19" s="22" t="str">
+      <c r="AD19" s="35" t="str">
         <f>IF(_tag_month_all!AA16="","",_tag_month_all!AA16)</f>
         <v/>
       </c>
-      <c r="AE19" s="23" t="str">
+      <c r="AE19" s="37" t="str">
         <f>IF(_tag_month_all!AB16="","",_tag_month_all!AB16)</f>
         <v/>
       </c>
-      <c r="AF19" s="22" t="str">
+      <c r="AF19" s="35" t="str">
         <f>IF(_tag_month_all!AC16="","",_tag_month_all!AC16)</f>
         <v/>
       </c>
-      <c r="AG19" s="22" t="str">
+      <c r="AG19" s="35" t="str">
         <f>IF(_tag_month_all!AD16="","",_tag_month_all!AD16)</f>
         <v/>
       </c>
-      <c r="AH19" s="22" t="str">
+      <c r="AH19" s="35" t="str">
         <f>IF(_tag_month_all!AE16="","",_tag_month_all!AE16)</f>
         <v/>
       </c>
-      <c r="AI19" s="22" t="str">
+      <c r="AI19" s="35" t="str">
         <f>IF(_tag_month_all!AF16="","",_tag_month_all!AF16)</f>
         <v/>
       </c>
-      <c r="AJ19" s="22" t="str">
+      <c r="AJ19" s="35" t="str">
         <f>IF(_tag_month_all!AG16="","",_tag_month_all!AG16)</f>
         <v/>
       </c>
-      <c r="AK19" s="22" t="str">
+      <c r="AK19" s="35" t="str">
         <f>IF(_tag_month_all!AH16="","",_tag_month_all!AH16)</f>
         <v/>
       </c>
-      <c r="AL19" s="22" t="str">
+      <c r="AL19" s="35" t="str">
         <f>IF(_tag_month_all!AI16="","",_tag_month_all!AI16)</f>
         <v/>
       </c>
-      <c r="AM19" s="23" t="str">
+      <c r="AM19" s="37" t="str">
         <f>IF(_tag_month_all!AJ16="","",_tag_month_all!AJ16)</f>
         <v/>
       </c>
-      <c r="AN19" s="23" t="str">
+      <c r="AN19" s="37" t="str">
         <f>IF(_tag_month_all!AK16="","",_tag_month_all!AK16)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:40" s="7" customFormat="1">
-      <c r="A20" s="19">
+    <row r="20" s="9" customFormat="1" spans="1:40">
+      <c r="A20" s="31">
         <v>16</v>
       </c>
-      <c r="B20" s="22" t="str">
+      <c r="B20" s="35" t="str">
         <f>IF(_tag_month_all!A17="","",_tag_month_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="33" t="str">
+      <c r="C20" s="36" t="str">
         <f>IF(_tag_month_all!B17="","",_tag_month_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="33" t="str">
+      <c r="D20" s="36" t="str">
         <f>IF(_tag_month_all!C17="","",_tag_month_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="22" t="str">
+      <c r="E20" s="35" t="str">
         <f>IF(_tag_month_all!D17="","",_tag_month_all!D17)</f>
         <v/>
       </c>
-      <c r="F20" s="23" t="str">
+      <c r="F20" s="37" t="str">
         <f>IF(_tag_month_all!E17="","",_tag_month_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="24" t="str">
+      <c r="G20" s="38" t="str">
         <f>IF(_tag_month_all!F17="","",_tag_month_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="23" t="str">
+      <c r="H20" s="37" t="str">
         <f>IF(_tag_month_all!G17="","",_tag_month_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="32" t="str">
+      <c r="I20" s="46" t="str">
         <f>IF(_tag_month_all!H17="","",_tag_month_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="22" t="str">
+      <c r="J20" s="35" t="str">
         <f>IF(_tag_month_all!I17="","",_tag_month_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="22" t="str">
+      <c r="K20" s="35" t="str">
         <f>IF(_tag_month_all!J17="","",_tag_month_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="32" t="str">
+      <c r="L20" s="46" t="str">
         <f>IF(_tag_month_all!K17="","",_tag_month_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="33" t="str">
+      <c r="M20" s="36" t="str">
         <f>IF(_tag_month_all!L17="","",_tag_month_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="34" t="str">
+      <c r="N20" s="47" t="str">
         <f>IF(_tag_month_all!M17="","",_tag_month_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="23" t="str">
+      <c r="O20" s="37" t="str">
         <f>IF(_tag_month_all!N17="","",_tag_month_all!N17)</f>
         <v/>
       </c>
-      <c r="P20" s="23" t="str">
+      <c r="P20" s="37" t="str">
         <f>IF(_tag_month_all!AL17="","",_tag_month_all!AL17)</f>
         <v/>
       </c>
-      <c r="Q20" s="23" t="str">
+      <c r="Q20" s="37" t="str">
         <f>IF(_tag_month_all!AM17="","",_tag_month_all!AM17)</f>
         <v/>
       </c>
-      <c r="R20" s="22" t="str">
+      <c r="R20" s="35" t="str">
         <f>IF(_tag_month_all!O17="","",_tag_month_all!O17)</f>
         <v/>
       </c>
-      <c r="S20" s="22" t="str">
+      <c r="S20" s="35" t="str">
         <f>IF(_tag_month_all!P17="","",_tag_month_all!P17)</f>
         <v/>
       </c>
-      <c r="T20" s="22" t="str">
+      <c r="T20" s="35" t="str">
         <f>IF(_tag_month_all!Q17="","",_tag_month_all!Q17)</f>
         <v/>
       </c>
-      <c r="U20" s="20" t="str">
+      <c r="U20" s="32" t="str">
         <f>IF(_tag_month_all!R17="","",_tag_month_all!R17)</f>
         <v/>
       </c>
-      <c r="V20" s="22" t="str">
+      <c r="V20" s="35" t="str">
         <f>IF(_tag_month_all!S17="","",_tag_month_all!S17)</f>
         <v/>
       </c>
-      <c r="W20" s="22" t="str">
+      <c r="W20" s="35" t="str">
         <f>IF(_tag_month_all!T17="","",_tag_month_all!T17)</f>
         <v/>
       </c>
-      <c r="X20" s="23" t="str">
+      <c r="X20" s="37" t="str">
         <f>IF(_tag_month_all!U17="","",_tag_month_all!U17)</f>
         <v/>
       </c>
-      <c r="Y20" s="23" t="str">
+      <c r="Y20" s="37" t="str">
         <f>IF(_tag_month_all!V17="","",_tag_month_all!V17)</f>
         <v/>
       </c>
-      <c r="Z20" s="23" t="str">
+      <c r="Z20" s="37" t="str">
         <f>IF(_tag_month_all!U17="","",_tag_month_all!U17/_tag_month_all!V17)</f>
         <v/>
       </c>
-      <c r="AA20" s="23" t="str">
+      <c r="AA20" s="37" t="str">
         <f>IF(_tag_month_all!X17="","",_tag_month_all!X17)</f>
         <v/>
       </c>
-      <c r="AB20" s="33" t="str">
+      <c r="AB20" s="36" t="str">
         <f>IF(_tag_month_all!Y17="","",_tag_month_all!Y17)</f>
         <v/>
       </c>
-      <c r="AC20" s="22" t="str">
+      <c r="AC20" s="35" t="str">
         <f>IF(_tag_month_all!Z17="","",_tag_month_all!Z17)</f>
         <v/>
       </c>
-      <c r="AD20" s="22" t="str">
+      <c r="AD20" s="35" t="str">
         <f>IF(_tag_month_all!AA17="","",_tag_month_all!AA17)</f>
         <v/>
       </c>
-      <c r="AE20" s="23" t="str">
+      <c r="AE20" s="37" t="str">
         <f>IF(_tag_month_all!AB17="","",_tag_month_all!AB17)</f>
         <v/>
       </c>
-      <c r="AF20" s="22" t="str">
+      <c r="AF20" s="35" t="str">
         <f>IF(_tag_month_all!AC17="","",_tag_month_all!AC17)</f>
         <v/>
       </c>
-      <c r="AG20" s="22" t="str">
+      <c r="AG20" s="35" t="str">
         <f>IF(_tag_month_all!AD17="","",_tag_month_all!AD17)</f>
         <v/>
       </c>
-      <c r="AH20" s="22" t="str">
+      <c r="AH20" s="35" t="str">
         <f>IF(_tag_month_all!AE17="","",_tag_month_all!AE17)</f>
         <v/>
       </c>
-      <c r="AI20" s="22" t="str">
+      <c r="AI20" s="35" t="str">
         <f>IF(_tag_month_all!AF17="","",_tag_month_all!AF17)</f>
         <v/>
       </c>
-      <c r="AJ20" s="22" t="str">
+      <c r="AJ20" s="35" t="str">
         <f>IF(_tag_month_all!AG17="","",_tag_month_all!AG17)</f>
         <v/>
       </c>
-      <c r="AK20" s="22" t="str">
+      <c r="AK20" s="35" t="str">
         <f>IF(_tag_month_all!AH17="","",_tag_month_all!AH17)</f>
         <v/>
       </c>
-      <c r="AL20" s="22" t="str">
+      <c r="AL20" s="35" t="str">
         <f>IF(_tag_month_all!AI17="","",_tag_month_all!AI17)</f>
         <v/>
       </c>
-      <c r="AM20" s="23" t="str">
+      <c r="AM20" s="37" t="str">
         <f>IF(_tag_month_all!AJ17="","",_tag_month_all!AJ17)</f>
         <v/>
       </c>
-      <c r="AN20" s="23" t="str">
+      <c r="AN20" s="37" t="str">
         <f>IF(_tag_month_all!AK17="","",_tag_month_all!AK17)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:40" s="7" customFormat="1">
-      <c r="A21" s="19">
+    <row r="21" s="9" customFormat="1" spans="1:40">
+      <c r="A21" s="31">
         <v>17</v>
       </c>
-      <c r="B21" s="22" t="str">
+      <c r="B21" s="35" t="str">
         <f>IF(_tag_month_all!A18="","",_tag_month_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="33" t="str">
+      <c r="C21" s="36" t="str">
         <f>IF(_tag_month_all!B18="","",_tag_month_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="33" t="str">
+      <c r="D21" s="36" t="str">
         <f>IF(_tag_month_all!C18="","",_tag_month_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="22" t="str">
+      <c r="E21" s="35" t="str">
         <f>IF(_tag_month_all!D18="","",_tag_month_all!D18)</f>
         <v/>
       </c>
-      <c r="F21" s="23" t="str">
+      <c r="F21" s="37" t="str">
         <f>IF(_tag_month_all!E18="","",_tag_month_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="24" t="str">
+      <c r="G21" s="38" t="str">
         <f>IF(_tag_month_all!F18="","",_tag_month_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="23" t="str">
+      <c r="H21" s="37" t="str">
         <f>IF(_tag_month_all!G18="","",_tag_month_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="32" t="str">
+      <c r="I21" s="46" t="str">
         <f>IF(_tag_month_all!H18="","",_tag_month_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="22" t="str">
+      <c r="J21" s="35" t="str">
         <f>IF(_tag_month_all!I18="","",_tag_month_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="22" t="str">
+      <c r="K21" s="35" t="str">
         <f>IF(_tag_month_all!J18="","",_tag_month_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="32" t="str">
+      <c r="L21" s="46" t="str">
         <f>IF(_tag_month_all!K18="","",_tag_month_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="33" t="str">
+      <c r="M21" s="36" t="str">
         <f>IF(_tag_month_all!L18="","",_tag_month_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="34" t="str">
+      <c r="N21" s="47" t="str">
         <f>IF(_tag_month_all!M18="","",_tag_month_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="23" t="str">
+      <c r="O21" s="37" t="str">
         <f>IF(_tag_month_all!N18="","",_tag_month_all!N18)</f>
         <v/>
       </c>
-      <c r="P21" s="23" t="str">
+      <c r="P21" s="37" t="str">
         <f>IF(_tag_month_all!AL18="","",_tag_month_all!AL18)</f>
         <v/>
       </c>
-      <c r="Q21" s="23" t="str">
+      <c r="Q21" s="37" t="str">
         <f>IF(_tag_month_all!AM18="","",_tag_month_all!AM18)</f>
         <v/>
       </c>
-      <c r="R21" s="22" t="str">
+      <c r="R21" s="35" t="str">
         <f>IF(_tag_month_all!O18="","",_tag_month_all!O18)</f>
         <v/>
       </c>
-      <c r="S21" s="22" t="str">
+      <c r="S21" s="35" t="str">
         <f>IF(_tag_month_all!P18="","",_tag_month_all!P18)</f>
         <v/>
       </c>
-      <c r="T21" s="22" t="str">
+      <c r="T21" s="35" t="str">
         <f>IF(_tag_month_all!Q18="","",_tag_month_all!Q18)</f>
         <v/>
       </c>
-      <c r="U21" s="20" t="str">
+      <c r="U21" s="32" t="str">
         <f>IF(_tag_month_all!R18="","",_tag_month_all!R18)</f>
         <v/>
       </c>
-      <c r="V21" s="22" t="str">
+      <c r="V21" s="35" t="str">
         <f>IF(_tag_month_all!S18="","",_tag_month_all!S18)</f>
         <v/>
       </c>
-      <c r="W21" s="22" t="str">
+      <c r="W21" s="35" t="str">
         <f>IF(_tag_month_all!T18="","",_tag_month_all!T18)</f>
         <v/>
       </c>
-      <c r="X21" s="23" t="str">
+      <c r="X21" s="37" t="str">
         <f>IF(_tag_month_all!U18="","",_tag_month_all!U18)</f>
         <v/>
       </c>
-      <c r="Y21" s="23" t="str">
+      <c r="Y21" s="37" t="str">
         <f>IF(_tag_month_all!V18="","",_tag_month_all!V18)</f>
         <v/>
       </c>
-      <c r="Z21" s="23" t="str">
+      <c r="Z21" s="37" t="str">
         <f>IF(_tag_month_all!U18="","",_tag_month_all!U18/_tag_month_all!V18)</f>
         <v/>
       </c>
-      <c r="AA21" s="23" t="str">
+      <c r="AA21" s="37" t="str">
         <f>IF(_tag_month_all!X18="","",_tag_month_all!X18)</f>
         <v/>
       </c>
-      <c r="AB21" s="33" t="str">
+      <c r="AB21" s="36" t="str">
         <f>IF(_tag_month_all!Y18="","",_tag_month_all!Y18)</f>
         <v/>
       </c>
-      <c r="AC21" s="22" t="str">
+      <c r="AC21" s="35" t="str">
         <f>IF(_tag_month_all!Z18="","",_tag_month_all!Z18)</f>
         <v/>
       </c>
-      <c r="AD21" s="22" t="str">
+      <c r="AD21" s="35" t="str">
         <f>IF(_tag_month_all!AA18="","",_tag_month_all!AA18)</f>
         <v/>
       </c>
-      <c r="AE21" s="23" t="str">
+      <c r="AE21" s="37" t="str">
         <f>IF(_tag_month_all!AB18="","",_tag_month_all!AB18)</f>
         <v/>
       </c>
-      <c r="AF21" s="22" t="str">
+      <c r="AF21" s="35" t="str">
         <f>IF(_tag_month_all!AC18="","",_tag_month_all!AC18)</f>
         <v/>
       </c>
-      <c r="AG21" s="22" t="str">
+      <c r="AG21" s="35" t="str">
         <f>IF(_tag_month_all!AD18="","",_tag_month_all!AD18)</f>
         <v/>
       </c>
-      <c r="AH21" s="22" t="str">
+      <c r="AH21" s="35" t="str">
         <f>IF(_tag_month_all!AE18="","",_tag_month_all!AE18)</f>
         <v/>
       </c>
-      <c r="AI21" s="22" t="str">
+      <c r="AI21" s="35" t="str">
         <f>IF(_tag_month_all!AF18="","",_tag_month_all!AF18)</f>
         <v/>
       </c>
-      <c r="AJ21" s="22" t="str">
+      <c r="AJ21" s="35" t="str">
         <f>IF(_tag_month_all!AG18="","",_tag_month_all!AG18)</f>
         <v/>
       </c>
-      <c r="AK21" s="22" t="str">
+      <c r="AK21" s="35" t="str">
         <f>IF(_tag_month_all!AH18="","",_tag_month_all!AH18)</f>
         <v/>
       </c>
-      <c r="AL21" s="22" t="str">
+      <c r="AL21" s="35" t="str">
         <f>IF(_tag_month_all!AI18="","",_tag_month_all!AI18)</f>
         <v/>
       </c>
-      <c r="AM21" s="23" t="str">
+      <c r="AM21" s="37" t="str">
         <f>IF(_tag_month_all!AJ18="","",_tag_month_all!AJ18)</f>
         <v/>
       </c>
-      <c r="AN21" s="23" t="str">
+      <c r="AN21" s="37" t="str">
         <f>IF(_tag_month_all!AK18="","",_tag_month_all!AK18)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:40" s="7" customFormat="1">
-      <c r="A22" s="19">
+    <row r="22" s="9" customFormat="1" spans="1:40">
+      <c r="A22" s="31">
         <v>18</v>
       </c>
-      <c r="B22" s="22" t="str">
+      <c r="B22" s="35" t="str">
         <f>IF(_tag_month_all!A19="","",_tag_month_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="33" t="str">
+      <c r="C22" s="36" t="str">
         <f>IF(_tag_month_all!B19="","",_tag_month_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="33" t="str">
+      <c r="D22" s="36" t="str">
         <f>IF(_tag_month_all!C19="","",_tag_month_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="22" t="str">
+      <c r="E22" s="35" t="str">
         <f>IF(_tag_month_all!D19="","",_tag_month_all!D19)</f>
         <v/>
       </c>
-      <c r="F22" s="23" t="str">
+      <c r="F22" s="37" t="str">
         <f>IF(_tag_month_all!E19="","",_tag_month_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="24" t="str">
+      <c r="G22" s="38" t="str">
         <f>IF(_tag_month_all!F19="","",_tag_month_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="23" t="str">
+      <c r="H22" s="37" t="str">
         <f>IF(_tag_month_all!G19="","",_tag_month_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="32" t="str">
+      <c r="I22" s="46" t="str">
         <f>IF(_tag_month_all!H19="","",_tag_month_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="22" t="str">
+      <c r="J22" s="35" t="str">
         <f>IF(_tag_month_all!I19="","",_tag_month_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="22" t="str">
+      <c r="K22" s="35" t="str">
         <f>IF(_tag_month_all!J19="","",_tag_month_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="32" t="str">
+      <c r="L22" s="46" t="str">
         <f>IF(_tag_month_all!K19="","",_tag_month_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="33" t="str">
+      <c r="M22" s="36" t="str">
         <f>IF(_tag_month_all!L19="","",_tag_month_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="34" t="str">
+      <c r="N22" s="47" t="str">
         <f>IF(_tag_month_all!M19="","",_tag_month_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="23" t="str">
+      <c r="O22" s="37" t="str">
         <f>IF(_tag_month_all!N19="","",_tag_month_all!N19)</f>
         <v/>
       </c>
-      <c r="P22" s="23" t="str">
+      <c r="P22" s="37" t="str">
         <f>IF(_tag_month_all!AL19="","",_tag_month_all!AL19)</f>
         <v/>
       </c>
-      <c r="Q22" s="23" t="str">
+      <c r="Q22" s="37" t="str">
         <f>IF(_tag_month_all!AM19="","",_tag_month_all!AM19)</f>
         <v/>
       </c>
-      <c r="R22" s="22" t="str">
+      <c r="R22" s="35" t="str">
         <f>IF(_tag_month_all!O19="","",_tag_month_all!O19)</f>
         <v/>
       </c>
-      <c r="S22" s="22" t="str">
+      <c r="S22" s="35" t="str">
         <f>IF(_tag_month_all!P19="","",_tag_month_all!P19)</f>
         <v/>
       </c>
-      <c r="T22" s="22" t="str">
+      <c r="T22" s="35" t="str">
         <f>IF(_tag_month_all!Q19="","",_tag_month_all!Q19)</f>
         <v/>
       </c>
-      <c r="U22" s="20" t="str">
+      <c r="U22" s="32" t="str">
         <f>IF(_tag_month_all!R19="","",_tag_month_all!R19)</f>
         <v/>
       </c>
-      <c r="V22" s="22" t="str">
+      <c r="V22" s="35" t="str">
         <f>IF(_tag_month_all!S19="","",_tag_month_all!S19)</f>
         <v/>
       </c>
-      <c r="W22" s="22" t="str">
+      <c r="W22" s="35" t="str">
         <f>IF(_tag_month_all!T19="","",_tag_month_all!T19)</f>
         <v/>
       </c>
-      <c r="X22" s="23" t="str">
+      <c r="X22" s="37" t="str">
         <f>IF(_tag_month_all!U19="","",_tag_month_all!U19)</f>
         <v/>
       </c>
-      <c r="Y22" s="23" t="str">
+      <c r="Y22" s="37" t="str">
         <f>IF(_tag_month_all!V19="","",_tag_month_all!V19)</f>
         <v/>
       </c>
-      <c r="Z22" s="23" t="str">
+      <c r="Z22" s="37" t="str">
         <f>IF(_tag_month_all!U19="","",_tag_month_all!U19/_tag_month_all!V19)</f>
         <v/>
       </c>
-      <c r="AA22" s="23" t="str">
+      <c r="AA22" s="37" t="str">
         <f>IF(_tag_month_all!X19="","",_tag_month_all!X19)</f>
         <v/>
       </c>
-      <c r="AB22" s="33" t="str">
+      <c r="AB22" s="36" t="str">
         <f>IF(_tag_month_all!Y19="","",_tag_month_all!Y19)</f>
         <v/>
       </c>
-      <c r="AC22" s="22" t="str">
+      <c r="AC22" s="35" t="str">
         <f>IF(_tag_month_all!Z19="","",_tag_month_all!Z19)</f>
         <v/>
       </c>
-      <c r="AD22" s="22" t="str">
+      <c r="AD22" s="35" t="str">
         <f>IF(_tag_month_all!AA19="","",_tag_month_all!AA19)</f>
         <v/>
       </c>
-      <c r="AE22" s="23" t="str">
+      <c r="AE22" s="37" t="str">
         <f>IF(_tag_month_all!AB19="","",_tag_month_all!AB19)</f>
         <v/>
       </c>
-      <c r="AF22" s="22" t="str">
+      <c r="AF22" s="35" t="str">
         <f>IF(_tag_month_all!AC19="","",_tag_month_all!AC19)</f>
         <v/>
       </c>
-      <c r="AG22" s="22" t="str">
+      <c r="AG22" s="35" t="str">
         <f>IF(_tag_month_all!AD19="","",_tag_month_all!AD19)</f>
         <v/>
       </c>
-      <c r="AH22" s="22" t="str">
+      <c r="AH22" s="35" t="str">
         <f>IF(_tag_month_all!AE19="","",_tag_month_all!AE19)</f>
         <v/>
       </c>
-      <c r="AI22" s="22" t="str">
+      <c r="AI22" s="35" t="str">
         <f>IF(_tag_month_all!AF19="","",_tag_month_all!AF19)</f>
         <v/>
       </c>
-      <c r="AJ22" s="22" t="str">
+      <c r="AJ22" s="35" t="str">
         <f>IF(_tag_month_all!AG19="","",_tag_month_all!AG19)</f>
         <v/>
       </c>
-      <c r="AK22" s="22" t="str">
+      <c r="AK22" s="35" t="str">
         <f>IF(_tag_month_all!AH19="","",_tag_month_all!AH19)</f>
         <v/>
       </c>
-      <c r="AL22" s="22" t="str">
+      <c r="AL22" s="35" t="str">
         <f>IF(_tag_month_all!AI19="","",_tag_month_all!AI19)</f>
         <v/>
       </c>
-      <c r="AM22" s="23" t="str">
+      <c r="AM22" s="37" t="str">
         <f>IF(_tag_month_all!AJ19="","",_tag_month_all!AJ19)</f>
         <v/>
       </c>
-      <c r="AN22" s="23" t="str">
+      <c r="AN22" s="37" t="str">
         <f>IF(_tag_month_all!AK19="","",_tag_month_all!AK19)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:40" s="7" customFormat="1">
-      <c r="A23" s="19">
+    <row r="23" s="9" customFormat="1" spans="1:40">
+      <c r="A23" s="31">
         <v>19</v>
       </c>
-      <c r="B23" s="22" t="str">
+      <c r="B23" s="35" t="str">
         <f>IF(_tag_month_all!A20="","",_tag_month_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="33" t="str">
+      <c r="C23" s="36" t="str">
         <f>IF(_tag_month_all!B20="","",_tag_month_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="33" t="str">
+      <c r="D23" s="36" t="str">
         <f>IF(_tag_month_all!C20="","",_tag_month_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="22" t="str">
+      <c r="E23" s="35" t="str">
         <f>IF(_tag_month_all!D20="","",_tag_month_all!D20)</f>
         <v/>
       </c>
-      <c r="F23" s="23" t="str">
+      <c r="F23" s="37" t="str">
         <f>IF(_tag_month_all!E20="","",_tag_month_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="24" t="str">
+      <c r="G23" s="38" t="str">
         <f>IF(_tag_month_all!F20="","",_tag_month_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="23" t="str">
+      <c r="H23" s="37" t="str">
         <f>IF(_tag_month_all!G20="","",_tag_month_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="32" t="str">
+      <c r="I23" s="46" t="str">
         <f>IF(_tag_month_all!H20="","",_tag_month_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="22" t="str">
+      <c r="J23" s="35" t="str">
         <f>IF(_tag_month_all!I20="","",_tag_month_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="22" t="str">
+      <c r="K23" s="35" t="str">
         <f>IF(_tag_month_all!J20="","",_tag_month_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="32" t="str">
+      <c r="L23" s="46" t="str">
         <f>IF(_tag_month_all!K20="","",_tag_month_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="33" t="str">
+      <c r="M23" s="36" t="str">
         <f>IF(_tag_month_all!L20="","",_tag_month_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="34" t="str">
+      <c r="N23" s="47" t="str">
         <f>IF(_tag_month_all!M20="","",_tag_month_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="23" t="str">
+      <c r="O23" s="37" t="str">
         <f>IF(_tag_month_all!N20="","",_tag_month_all!N20)</f>
         <v/>
       </c>
-      <c r="P23" s="23" t="str">
+      <c r="P23" s="37" t="str">
         <f>IF(_tag_month_all!AL20="","",_tag_month_all!AL20)</f>
         <v/>
       </c>
-      <c r="Q23" s="23" t="str">
+      <c r="Q23" s="37" t="str">
         <f>IF(_tag_month_all!AM20="","",_tag_month_all!AM20)</f>
         <v/>
       </c>
-      <c r="R23" s="22" t="str">
+      <c r="R23" s="35" t="str">
         <f>IF(_tag_month_all!O20="","",_tag_month_all!O20)</f>
         <v/>
       </c>
-      <c r="S23" s="22" t="str">
+      <c r="S23" s="35" t="str">
         <f>IF(_tag_month_all!P20="","",_tag_month_all!P20)</f>
         <v/>
       </c>
-      <c r="T23" s="22" t="str">
+      <c r="T23" s="35" t="str">
         <f>IF(_tag_month_all!Q20="","",_tag_month_all!Q20)</f>
         <v/>
       </c>
-      <c r="U23" s="20" t="str">
+      <c r="U23" s="32" t="str">
         <f>IF(_tag_month_all!R20="","",_tag_month_all!R20)</f>
         <v/>
       </c>
-      <c r="V23" s="22" t="str">
+      <c r="V23" s="35" t="str">
         <f>IF(_tag_month_all!S20="","",_tag_month_all!S20)</f>
         <v/>
       </c>
-      <c r="W23" s="22" t="str">
+      <c r="W23" s="35" t="str">
         <f>IF(_tag_month_all!T20="","",_tag_month_all!T20)</f>
         <v/>
       </c>
-      <c r="X23" s="23" t="str">
+      <c r="X23" s="37" t="str">
         <f>IF(_tag_month_all!U20="","",_tag_month_all!U20)</f>
         <v/>
       </c>
-      <c r="Y23" s="23" t="str">
+      <c r="Y23" s="37" t="str">
         <f>IF(_tag_month_all!V20="","",_tag_month_all!V20)</f>
         <v/>
       </c>
-      <c r="Z23" s="23" t="str">
+      <c r="Z23" s="37" t="str">
         <f>IF(_tag_month_all!U20="","",_tag_month_all!U20/_tag_month_all!V20)</f>
         <v/>
       </c>
-      <c r="AA23" s="23" t="str">
+      <c r="AA23" s="37" t="str">
         <f>IF(_tag_month_all!X20="","",_tag_month_all!X20)</f>
         <v/>
       </c>
-      <c r="AB23" s="33" t="str">
+      <c r="AB23" s="36" t="str">
         <f>IF(_tag_month_all!Y20="","",_tag_month_all!Y20)</f>
         <v/>
       </c>
-      <c r="AC23" s="22" t="str">
+      <c r="AC23" s="35" t="str">
         <f>IF(_tag_month_all!Z20="","",_tag_month_all!Z20)</f>
         <v/>
       </c>
-      <c r="AD23" s="22" t="str">
+      <c r="AD23" s="35" t="str">
         <f>IF(_tag_month_all!AA20="","",_tag_month_all!AA20)</f>
         <v/>
       </c>
-      <c r="AE23" s="23" t="str">
+      <c r="AE23" s="37" t="str">
         <f>IF(_tag_month_all!AB20="","",_tag_month_all!AB20)</f>
         <v/>
       </c>
-      <c r="AF23" s="22" t="str">
+      <c r="AF23" s="35" t="str">
         <f>IF(_tag_month_all!AC20="","",_tag_month_all!AC20)</f>
         <v/>
       </c>
-      <c r="AG23" s="22" t="str">
+      <c r="AG23" s="35" t="str">
         <f>IF(_tag_month_all!AD20="","",_tag_month_all!AD20)</f>
         <v/>
       </c>
-      <c r="AH23" s="22" t="str">
+      <c r="AH23" s="35" t="str">
         <f>IF(_tag_month_all!AE20="","",_tag_month_all!AE20)</f>
         <v/>
       </c>
-      <c r="AI23" s="22" t="str">
+      <c r="AI23" s="35" t="str">
         <f>IF(_tag_month_all!AF20="","",_tag_month_all!AF20)</f>
         <v/>
       </c>
-      <c r="AJ23" s="22" t="str">
+      <c r="AJ23" s="35" t="str">
         <f>IF(_tag_month_all!AG20="","",_tag_month_all!AG20)</f>
         <v/>
       </c>
-      <c r="AK23" s="22" t="str">
+      <c r="AK23" s="35" t="str">
         <f>IF(_tag_month_all!AH20="","",_tag_month_all!AH20)</f>
         <v/>
       </c>
-      <c r="AL23" s="22" t="str">
+      <c r="AL23" s="35" t="str">
         <f>IF(_tag_month_all!AI20="","",_tag_month_all!AI20)</f>
         <v/>
       </c>
-      <c r="AM23" s="23" t="str">
+      <c r="AM23" s="37" t="str">
         <f>IF(_tag_month_all!AJ20="","",_tag_month_all!AJ20)</f>
         <v/>
       </c>
-      <c r="AN23" s="23" t="str">
+      <c r="AN23" s="37" t="str">
         <f>IF(_tag_month_all!AK20="","",_tag_month_all!AK20)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:40" s="7" customFormat="1">
-      <c r="A24" s="19">
+    <row r="24" s="9" customFormat="1" spans="1:40">
+      <c r="A24" s="31">
         <v>20</v>
       </c>
-      <c r="B24" s="22" t="str">
+      <c r="B24" s="35" t="str">
         <f>IF(_tag_month_all!A21="","",_tag_month_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="33" t="str">
+      <c r="C24" s="36" t="str">
         <f>IF(_tag_month_all!B21="","",_tag_month_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="33" t="str">
+      <c r="D24" s="36" t="str">
         <f>IF(_tag_month_all!C21="","",_tag_month_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="22" t="str">
+      <c r="E24" s="35" t="str">
         <f>IF(_tag_month_all!D21="","",_tag_month_all!D21)</f>
         <v/>
       </c>
-      <c r="F24" s="23" t="str">
+      <c r="F24" s="37" t="str">
         <f>IF(_tag_month_all!E21="","",_tag_month_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="24" t="str">
+      <c r="G24" s="38" t="str">
         <f>IF(_tag_month_all!F21="","",_tag_month_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="23" t="str">
+      <c r="H24" s="37" t="str">
         <f>IF(_tag_month_all!G21="","",_tag_month_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="32" t="str">
+      <c r="I24" s="46" t="str">
         <f>IF(_tag_month_all!H21="","",_tag_month_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="22" t="str">
+      <c r="J24" s="35" t="str">
         <f>IF(_tag_month_all!I21="","",_tag_month_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="22" t="str">
+      <c r="K24" s="35" t="str">
         <f>IF(_tag_month_all!J21="","",_tag_month_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="32" t="str">
+      <c r="L24" s="46" t="str">
         <f>IF(_tag_month_all!K21="","",_tag_month_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="33" t="str">
+      <c r="M24" s="36" t="str">
         <f>IF(_tag_month_all!L21="","",_tag_month_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="34" t="str">
+      <c r="N24" s="47" t="str">
         <f>IF(_tag_month_all!M21="","",_tag_month_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="23" t="str">
+      <c r="O24" s="37" t="str">
         <f>IF(_tag_month_all!N21="","",_tag_month_all!N21)</f>
         <v/>
       </c>
-      <c r="P24" s="23" t="str">
+      <c r="P24" s="37" t="str">
         <f>IF(_tag_month_all!AL21="","",_tag_month_all!AL21)</f>
         <v/>
       </c>
-      <c r="Q24" s="23" t="str">
+      <c r="Q24" s="37" t="str">
         <f>IF(_tag_month_all!AM21="","",_tag_month_all!AM21)</f>
         <v/>
       </c>
-      <c r="R24" s="22" t="str">
+      <c r="R24" s="35" t="str">
         <f>IF(_tag_month_all!O21="","",_tag_month_all!O21)</f>
         <v/>
       </c>
-      <c r="S24" s="22" t="str">
+      <c r="S24" s="35" t="str">
         <f>IF(_tag_month_all!P21="","",_tag_month_all!P21)</f>
         <v/>
       </c>
-      <c r="T24" s="22" t="str">
+      <c r="T24" s="35" t="str">
         <f>IF(_tag_month_all!Q21="","",_tag_month_all!Q21)</f>
         <v/>
       </c>
-      <c r="U24" s="20" t="str">
+      <c r="U24" s="32" t="str">
         <f>IF(_tag_month_all!R21="","",_tag_month_all!R21)</f>
         <v/>
       </c>
-      <c r="V24" s="22" t="str">
+      <c r="V24" s="35" t="str">
         <f>IF(_tag_month_all!S21="","",_tag_month_all!S21)</f>
         <v/>
       </c>
-      <c r="W24" s="22" t="str">
+      <c r="W24" s="35" t="str">
         <f>IF(_tag_month_all!T21="","",_tag_month_all!T21)</f>
         <v/>
       </c>
-      <c r="X24" s="23" t="str">
+      <c r="X24" s="37" t="str">
         <f>IF(_tag_month_all!U21="","",_tag_month_all!U21)</f>
         <v/>
       </c>
-      <c r="Y24" s="23" t="str">
+      <c r="Y24" s="37" t="str">
         <f>IF(_tag_month_all!V21="","",_tag_month_all!V21)</f>
         <v/>
       </c>
-      <c r="Z24" s="23" t="str">
+      <c r="Z24" s="37" t="str">
         <f>IF(_tag_month_all!U21="","",_tag_month_all!U21/_tag_month_all!V21)</f>
         <v/>
       </c>
-      <c r="AA24" s="23" t="str">
+      <c r="AA24" s="37" t="str">
         <f>IF(_tag_month_all!X21="","",_tag_month_all!X21)</f>
         <v/>
       </c>
-      <c r="AB24" s="33" t="str">
+      <c r="AB24" s="36" t="str">
         <f>IF(_tag_month_all!Y21="","",_tag_month_all!Y21)</f>
         <v/>
       </c>
-      <c r="AC24" s="22" t="str">
+      <c r="AC24" s="35" t="str">
         <f>IF(_tag_month_all!Z21="","",_tag_month_all!Z21)</f>
         <v/>
       </c>
-      <c r="AD24" s="22" t="str">
+      <c r="AD24" s="35" t="str">
         <f>IF(_tag_month_all!AA21="","",_tag_month_all!AA21)</f>
         <v/>
       </c>
-      <c r="AE24" s="23" t="str">
+      <c r="AE24" s="37" t="str">
         <f>IF(_tag_month_all!AB21="","",_tag_month_all!AB21)</f>
         <v/>
       </c>
-      <c r="AF24" s="22" t="str">
+      <c r="AF24" s="35" t="str">
         <f>IF(_tag_month_all!AC21="","",_tag_month_all!AC21)</f>
         <v/>
       </c>
-      <c r="AG24" s="22" t="str">
+      <c r="AG24" s="35" t="str">
         <f>IF(_tag_month_all!AD21="","",_tag_month_all!AD21)</f>
         <v/>
       </c>
-      <c r="AH24" s="22" t="str">
+      <c r="AH24" s="35" t="str">
         <f>IF(_tag_month_all!AE21="","",_tag_month_all!AE21)</f>
         <v/>
       </c>
-      <c r="AI24" s="22" t="str">
+      <c r="AI24" s="35" t="str">
         <f>IF(_tag_month_all!AF21="","",_tag_month_all!AF21)</f>
         <v/>
       </c>
-      <c r="AJ24" s="22" t="str">
+      <c r="AJ24" s="35" t="str">
         <f>IF(_tag_month_all!AG21="","",_tag_month_all!AG21)</f>
         <v/>
       </c>
-      <c r="AK24" s="22" t="str">
+      <c r="AK24" s="35" t="str">
         <f>IF(_tag_month_all!AH21="","",_tag_month_all!AH21)</f>
         <v/>
       </c>
-      <c r="AL24" s="22" t="str">
+      <c r="AL24" s="35" t="str">
         <f>IF(_tag_month_all!AI21="","",_tag_month_all!AI21)</f>
         <v/>
       </c>
-      <c r="AM24" s="23" t="str">
+      <c r="AM24" s="37" t="str">
         <f>IF(_tag_month_all!AJ21="","",_tag_month_all!AJ21)</f>
         <v/>
       </c>
-      <c r="AN24" s="23" t="str">
+      <c r="AN24" s="37" t="str">
         <f>IF(_tag_month_all!AK21="","",_tag_month_all!AK21)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:40" s="7" customFormat="1">
-      <c r="A25" s="19">
+    <row r="25" s="9" customFormat="1" spans="1:40">
+      <c r="A25" s="31">
         <v>21</v>
       </c>
-      <c r="B25" s="22" t="str">
+      <c r="B25" s="35" t="str">
         <f>IF(_tag_month_all!A22="","",_tag_month_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="33" t="str">
+      <c r="C25" s="36" t="str">
         <f>IF(_tag_month_all!B22="","",_tag_month_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="33" t="str">
+      <c r="D25" s="36" t="str">
         <f>IF(_tag_month_all!C22="","",_tag_month_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="22" t="str">
+      <c r="E25" s="35" t="str">
         <f>IF(_tag_month_all!D22="","",_tag_month_all!D22)</f>
         <v/>
       </c>
-      <c r="F25" s="23" t="str">
+      <c r="F25" s="37" t="str">
         <f>IF(_tag_month_all!E22="","",_tag_month_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="24" t="str">
+      <c r="G25" s="38" t="str">
         <f>IF(_tag_month_all!F22="","",_tag_month_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="23" t="str">
+      <c r="H25" s="37" t="str">
         <f>IF(_tag_month_all!G22="","",_tag_month_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="32" t="str">
+      <c r="I25" s="46" t="str">
         <f>IF(_tag_month_all!H22="","",_tag_month_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="22" t="str">
+      <c r="J25" s="35" t="str">
         <f>IF(_tag_month_all!I22="","",_tag_month_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="22" t="str">
+      <c r="K25" s="35" t="str">
         <f>IF(_tag_month_all!J22="","",_tag_month_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="32" t="str">
+      <c r="L25" s="46" t="str">
         <f>IF(_tag_month_all!K22="","",_tag_month_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="33" t="str">
+      <c r="M25" s="36" t="str">
         <f>IF(_tag_month_all!L22="","",_tag_month_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="34" t="str">
+      <c r="N25" s="47" t="str">
         <f>IF(_tag_month_all!M22="","",_tag_month_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="23" t="str">
+      <c r="O25" s="37" t="str">
         <f>IF(_tag_month_all!N22="","",_tag_month_all!N22)</f>
         <v/>
       </c>
-      <c r="P25" s="23" t="str">
+      <c r="P25" s="37" t="str">
         <f>IF(_tag_month_all!AL22="","",_tag_month_all!AL22)</f>
         <v/>
       </c>
-      <c r="Q25" s="23" t="str">
+      <c r="Q25" s="37" t="str">
         <f>IF(_tag_month_all!AM22="","",_tag_month_all!AM22)</f>
         <v/>
       </c>
-      <c r="R25" s="22" t="str">
+      <c r="R25" s="35" t="str">
         <f>IF(_tag_month_all!O22="","",_tag_month_all!O22)</f>
         <v/>
       </c>
-      <c r="S25" s="22" t="str">
+      <c r="S25" s="35" t="str">
         <f>IF(_tag_month_all!P22="","",_tag_month_all!P22)</f>
         <v/>
       </c>
-      <c r="T25" s="22" t="str">
+      <c r="T25" s="35" t="str">
         <f>IF(_tag_month_all!Q22="","",_tag_month_all!Q22)</f>
         <v/>
       </c>
-      <c r="U25" s="20" t="str">
+      <c r="U25" s="32" t="str">
         <f>IF(_tag_month_all!R22="","",_tag_month_all!R22)</f>
         <v/>
       </c>
-      <c r="V25" s="22" t="str">
+      <c r="V25" s="35" t="str">
         <f>IF(_tag_month_all!S22="","",_tag_month_all!S22)</f>
         <v/>
       </c>
-      <c r="W25" s="22" t="str">
+      <c r="W25" s="35" t="str">
         <f>IF(_tag_month_all!T22="","",_tag_month_all!T22)</f>
         <v/>
       </c>
-      <c r="X25" s="23" t="str">
+      <c r="X25" s="37" t="str">
         <f>IF(_tag_month_all!U22="","",_tag_month_all!U22)</f>
         <v/>
       </c>
-      <c r="Y25" s="23" t="str">
+      <c r="Y25" s="37" t="str">
         <f>IF(_tag_month_all!V22="","",_tag_month_all!V22)</f>
         <v/>
       </c>
-      <c r="Z25" s="23" t="str">
+      <c r="Z25" s="37" t="str">
         <f>IF(_tag_month_all!U22="","",_tag_month_all!U22/_tag_month_all!V22)</f>
         <v/>
       </c>
-      <c r="AA25" s="23" t="str">
+      <c r="AA25" s="37" t="str">
         <f>IF(_tag_month_all!X22="","",_tag_month_all!X22)</f>
         <v/>
       </c>
-      <c r="AB25" s="33" t="str">
+      <c r="AB25" s="36" t="str">
         <f>IF(_tag_month_all!Y22="","",_tag_month_all!Y22)</f>
         <v/>
       </c>
-      <c r="AC25" s="22" t="str">
+      <c r="AC25" s="35" t="str">
         <f>IF(_tag_month_all!Z22="","",_tag_month_all!Z22)</f>
         <v/>
       </c>
-      <c r="AD25" s="22" t="str">
+      <c r="AD25" s="35" t="str">
         <f>IF(_tag_month_all!AA22="","",_tag_month_all!AA22)</f>
         <v/>
       </c>
-      <c r="AE25" s="23" t="str">
+      <c r="AE25" s="37" t="str">
         <f>IF(_tag_month_all!AB22="","",_tag_month_all!AB22)</f>
         <v/>
       </c>
-      <c r="AF25" s="22" t="str">
+      <c r="AF25" s="35" t="str">
         <f>IF(_tag_month_all!AC22="","",_tag_month_all!AC22)</f>
         <v/>
       </c>
-      <c r="AG25" s="22" t="str">
+      <c r="AG25" s="35" t="str">
         <f>IF(_tag_month_all!AD22="","",_tag_month_all!AD22)</f>
         <v/>
       </c>
-      <c r="AH25" s="22" t="str">
+      <c r="AH25" s="35" t="str">
         <f>IF(_tag_month_all!AE22="","",_tag_month_all!AE22)</f>
         <v/>
       </c>
-      <c r="AI25" s="22" t="str">
+      <c r="AI25" s="35" t="str">
         <f>IF(_tag_month_all!AF22="","",_tag_month_all!AF22)</f>
         <v/>
       </c>
-      <c r="AJ25" s="22" t="str">
+      <c r="AJ25" s="35" t="str">
         <f>IF(_tag_month_all!AG22="","",_tag_month_all!AG22)</f>
         <v/>
       </c>
-      <c r="AK25" s="22" t="str">
+      <c r="AK25" s="35" t="str">
         <f>IF(_tag_month_all!AH22="","",_tag_month_all!AH22)</f>
         <v/>
       </c>
-      <c r="AL25" s="22" t="str">
+      <c r="AL25" s="35" t="str">
         <f>IF(_tag_month_all!AI22="","",_tag_month_all!AI22)</f>
         <v/>
       </c>
-      <c r="AM25" s="23" t="str">
+      <c r="AM25" s="37" t="str">
         <f>IF(_tag_month_all!AJ22="","",_tag_month_all!AJ22)</f>
         <v/>
       </c>
-      <c r="AN25" s="23" t="str">
+      <c r="AN25" s="37" t="str">
         <f>IF(_tag_month_all!AK22="","",_tag_month_all!AK22)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:40" s="7" customFormat="1">
-      <c r="A26" s="19">
+    <row r="26" s="9" customFormat="1" spans="1:40">
+      <c r="A26" s="31">
         <v>22</v>
       </c>
-      <c r="B26" s="22" t="str">
+      <c r="B26" s="35" t="str">
         <f>IF(_tag_month_all!A23="","",_tag_month_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="33" t="str">
+      <c r="C26" s="36" t="str">
         <f>IF(_tag_month_all!B23="","",_tag_month_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="33" t="str">
+      <c r="D26" s="36" t="str">
         <f>IF(_tag_month_all!C23="","",_tag_month_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="22" t="str">
+      <c r="E26" s="35" t="str">
         <f>IF(_tag_month_all!D23="","",_tag_month_all!D23)</f>
         <v/>
       </c>
-      <c r="F26" s="23" t="str">
+      <c r="F26" s="37" t="str">
         <f>IF(_tag_month_all!E23="","",_tag_month_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="24" t="str">
+      <c r="G26" s="38" t="str">
         <f>IF(_tag_month_all!F23="","",_tag_month_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="23" t="str">
+      <c r="H26" s="37" t="str">
         <f>IF(_tag_month_all!G23="","",_tag_month_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="32" t="str">
+      <c r="I26" s="46" t="str">
         <f>IF(_tag_month_all!H23="","",_tag_month_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="22" t="str">
+      <c r="J26" s="35" t="str">
         <f>IF(_tag_month_all!I23="","",_tag_month_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="22" t="str">
+      <c r="K26" s="35" t="str">
         <f>IF(_tag_month_all!J23="","",_tag_month_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="32" t="str">
+      <c r="L26" s="46" t="str">
         <f>IF(_tag_month_all!K23="","",_tag_month_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="33" t="str">
+      <c r="M26" s="36" t="str">
         <f>IF(_tag_month_all!L23="","",_tag_month_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="34" t="str">
+      <c r="N26" s="47" t="str">
         <f>IF(_tag_month_all!M23="","",_tag_month_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="23" t="str">
+      <c r="O26" s="37" t="str">
         <f>IF(_tag_month_all!N23="","",_tag_month_all!N23)</f>
         <v/>
       </c>
-      <c r="P26" s="23" t="str">
+      <c r="P26" s="37" t="str">
         <f>IF(_tag_month_all!AL23="","",_tag_month_all!AL23)</f>
         <v/>
       </c>
-      <c r="Q26" s="23" t="str">
+      <c r="Q26" s="37" t="str">
         <f>IF(_tag_month_all!AM23="","",_tag_month_all!AM23)</f>
         <v/>
       </c>
-      <c r="R26" s="22" t="str">
+      <c r="R26" s="35" t="str">
         <f>IF(_tag_month_all!O23="","",_tag_month_all!O23)</f>
         <v/>
       </c>
-      <c r="S26" s="22" t="str">
+      <c r="S26" s="35" t="str">
         <f>IF(_tag_month_all!P23="","",_tag_month_all!P23)</f>
         <v/>
       </c>
-      <c r="T26" s="22" t="str">
+      <c r="T26" s="35" t="str">
         <f>IF(_tag_month_all!Q23="","",_tag_month_all!Q23)</f>
         <v/>
       </c>
-      <c r="U26" s="20" t="str">
+      <c r="U26" s="32" t="str">
         <f>IF(_tag_month_all!R23="","",_tag_month_all!R23)</f>
         <v/>
       </c>
-      <c r="V26" s="22" t="str">
+      <c r="V26" s="35" t="str">
         <f>IF(_tag_month_all!S23="","",_tag_month_all!S23)</f>
         <v/>
       </c>
-      <c r="W26" s="22" t="str">
+      <c r="W26" s="35" t="str">
         <f>IF(_tag_month_all!T23="","",_tag_month_all!T23)</f>
         <v/>
       </c>
-      <c r="X26" s="23" t="str">
+      <c r="X26" s="37" t="str">
         <f>IF(_tag_month_all!U23="","",_tag_month_all!U23)</f>
         <v/>
       </c>
-      <c r="Y26" s="23" t="str">
+      <c r="Y26" s="37" t="str">
         <f>IF(_tag_month_all!V23="","",_tag_month_all!V23)</f>
         <v/>
       </c>
-      <c r="Z26" s="23" t="str">
+      <c r="Z26" s="37" t="str">
         <f>IF(_tag_month_all!U23="","",_tag_month_all!U23/_tag_month_all!V23)</f>
         <v/>
       </c>
-      <c r="AA26" s="23" t="str">
+      <c r="AA26" s="37" t="str">
         <f>IF(_tag_month_all!X23="","",_tag_month_all!X23)</f>
         <v/>
       </c>
-      <c r="AB26" s="33" t="str">
+      <c r="AB26" s="36" t="str">
         <f>IF(_tag_month_all!Y23="","",_tag_month_all!Y23)</f>
         <v/>
       </c>
-      <c r="AC26" s="22" t="str">
+      <c r="AC26" s="35" t="str">
         <f>IF(_tag_month_all!Z23="","",_tag_month_all!Z23)</f>
         <v/>
       </c>
-      <c r="AD26" s="22" t="str">
+      <c r="AD26" s="35" t="str">
         <f>IF(_tag_month_all!AA23="","",_tag_month_all!AA23)</f>
         <v/>
       </c>
-      <c r="AE26" s="23" t="str">
+      <c r="AE26" s="37" t="str">
         <f>IF(_tag_month_all!AB23="","",_tag_month_all!AB23)</f>
         <v/>
       </c>
-      <c r="AF26" s="22" t="str">
+      <c r="AF26" s="35" t="str">
         <f>IF(_tag_month_all!AC23="","",_tag_month_all!AC23)</f>
         <v/>
       </c>
-      <c r="AG26" s="22" t="str">
+      <c r="AG26" s="35" t="str">
         <f>IF(_tag_month_all!AD23="","",_tag_month_all!AD23)</f>
         <v/>
       </c>
-      <c r="AH26" s="22" t="str">
+      <c r="AH26" s="35" t="str">
         <f>IF(_tag_month_all!AE23="","",_tag_month_all!AE23)</f>
         <v/>
       </c>
-      <c r="AI26" s="22" t="str">
+      <c r="AI26" s="35" t="str">
         <f>IF(_tag_month_all!AF23="","",_tag_month_all!AF23)</f>
         <v/>
       </c>
-      <c r="AJ26" s="22" t="str">
+      <c r="AJ26" s="35" t="str">
         <f>IF(_tag_month_all!AG23="","",_tag_month_all!AG23)</f>
         <v/>
       </c>
-      <c r="AK26" s="22" t="str">
+      <c r="AK26" s="35" t="str">
         <f>IF(_tag_month_all!AH23="","",_tag_month_all!AH23)</f>
         <v/>
       </c>
-      <c r="AL26" s="22" t="str">
+      <c r="AL26" s="35" t="str">
         <f>IF(_tag_month_all!AI23="","",_tag_month_all!AI23)</f>
         <v/>
       </c>
-      <c r="AM26" s="23" t="str">
+      <c r="AM26" s="37" t="str">
         <f>IF(_tag_month_all!AJ23="","",_tag_month_all!AJ23)</f>
         <v/>
       </c>
-      <c r="AN26" s="23" t="str">
+      <c r="AN26" s="37" t="str">
         <f>IF(_tag_month_all!AK23="","",_tag_month_all!AK23)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:40" s="7" customFormat="1">
-      <c r="A27" s="19">
+    <row r="27" s="9" customFormat="1" spans="1:40">
+      <c r="A27" s="31">
         <v>23</v>
       </c>
-      <c r="B27" s="22" t="str">
+      <c r="B27" s="35" t="str">
         <f>IF(_tag_month_all!A24="","",_tag_month_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="33" t="str">
+      <c r="C27" s="36" t="str">
         <f>IF(_tag_month_all!B24="","",_tag_month_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="33" t="str">
+      <c r="D27" s="36" t="str">
         <f>IF(_tag_month_all!C24="","",_tag_month_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="22" t="str">
+      <c r="E27" s="35" t="str">
         <f>IF(_tag_month_all!D24="","",_tag_month_all!D24)</f>
         <v/>
       </c>
-      <c r="F27" s="23" t="str">
+      <c r="F27" s="37" t="str">
         <f>IF(_tag_month_all!E24="","",_tag_month_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="24" t="str">
+      <c r="G27" s="38" t="str">
         <f>IF(_tag_month_all!F24="","",_tag_month_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="23" t="str">
+      <c r="H27" s="37" t="str">
         <f>IF(_tag_month_all!G24="","",_tag_month_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="32" t="str">
+      <c r="I27" s="46" t="str">
         <f>IF(_tag_month_all!H24="","",_tag_month_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="22" t="str">
+      <c r="J27" s="35" t="str">
         <f>IF(_tag_month_all!I24="","",_tag_month_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="22" t="str">
+      <c r="K27" s="35" t="str">
         <f>IF(_tag_month_all!J24="","",_tag_month_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="32" t="str">
+      <c r="L27" s="46" t="str">
         <f>IF(_tag_month_all!K24="","",_tag_month_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="33" t="str">
+      <c r="M27" s="36" t="str">
         <f>IF(_tag_month_all!L24="","",_tag_month_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="34" t="str">
+      <c r="N27" s="47" t="str">
         <f>IF(_tag_month_all!M24="","",_tag_month_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="23" t="str">
+      <c r="O27" s="37" t="str">
         <f>IF(_tag_month_all!N24="","",_tag_month_all!N24)</f>
         <v/>
       </c>
-      <c r="P27" s="23" t="str">
+      <c r="P27" s="37" t="str">
         <f>IF(_tag_month_all!AL24="","",_tag_month_all!AL24)</f>
         <v/>
       </c>
-      <c r="Q27" s="23" t="str">
+      <c r="Q27" s="37" t="str">
         <f>IF(_tag_month_all!AM24="","",_tag_month_all!AM24)</f>
         <v/>
       </c>
-      <c r="R27" s="22" t="str">
+      <c r="R27" s="35" t="str">
         <f>IF(_tag_month_all!O24="","",_tag_month_all!O24)</f>
         <v/>
       </c>
-      <c r="S27" s="22" t="str">
+      <c r="S27" s="35" t="str">
         <f>IF(_tag_month_all!P24="","",_tag_month_all!P24)</f>
         <v/>
       </c>
-      <c r="T27" s="22" t="str">
+      <c r="T27" s="35" t="str">
         <f>IF(_tag_month_all!Q24="","",_tag_month_all!Q24)</f>
         <v/>
       </c>
-      <c r="U27" s="20" t="str">
+      <c r="U27" s="32" t="str">
         <f>IF(_tag_month_all!R24="","",_tag_month_all!R24)</f>
         <v/>
       </c>
-      <c r="V27" s="22" t="str">
+      <c r="V27" s="35" t="str">
         <f>IF(_tag_month_all!S24="","",_tag_month_all!S24)</f>
         <v/>
       </c>
-      <c r="W27" s="22" t="str">
+      <c r="W27" s="35" t="str">
         <f>IF(_tag_month_all!T24="","",_tag_month_all!T24)</f>
         <v/>
       </c>
-      <c r="X27" s="23" t="str">
+      <c r="X27" s="37" t="str">
         <f>IF(_tag_month_all!U24="","",_tag_month_all!U24)</f>
         <v/>
       </c>
-      <c r="Y27" s="23" t="str">
+      <c r="Y27" s="37" t="str">
         <f>IF(_tag_month_all!V24="","",_tag_month_all!V24)</f>
         <v/>
       </c>
-      <c r="Z27" s="23" t="str">
+      <c r="Z27" s="37" t="str">
         <f>IF(_tag_month_all!U24="","",_tag_month_all!U24/_tag_month_all!V24)</f>
         <v/>
       </c>
-      <c r="AA27" s="23" t="str">
+      <c r="AA27" s="37" t="str">
         <f>IF(_tag_month_all!X24="","",_tag_month_all!X24)</f>
         <v/>
       </c>
-      <c r="AB27" s="33" t="str">
+      <c r="AB27" s="36" t="str">
         <f>IF(_tag_month_all!Y24="","",_tag_month_all!Y24)</f>
         <v/>
       </c>
-      <c r="AC27" s="22" t="str">
+      <c r="AC27" s="35" t="str">
         <f>IF(_tag_month_all!Z24="","",_tag_month_all!Z24)</f>
         <v/>
       </c>
-      <c r="AD27" s="22" t="str">
+      <c r="AD27" s="35" t="str">
         <f>IF(_tag_month_all!AA24="","",_tag_month_all!AA24)</f>
         <v/>
       </c>
-      <c r="AE27" s="23" t="str">
+      <c r="AE27" s="37" t="str">
         <f>IF(_tag_month_all!AB24="","",_tag_month_all!AB24)</f>
         <v/>
       </c>
-      <c r="AF27" s="22" t="str">
+      <c r="AF27" s="35" t="str">
         <f>IF(_tag_month_all!AC24="","",_tag_month_all!AC24)</f>
         <v/>
       </c>
-      <c r="AG27" s="22" t="str">
+      <c r="AG27" s="35" t="str">
         <f>IF(_tag_month_all!AD24="","",_tag_month_all!AD24)</f>
         <v/>
       </c>
-      <c r="AH27" s="22" t="str">
+      <c r="AH27" s="35" t="str">
         <f>IF(_tag_month_all!AE24="","",_tag_month_all!AE24)</f>
         <v/>
       </c>
-      <c r="AI27" s="22" t="str">
+      <c r="AI27" s="35" t="str">
         <f>IF(_tag_month_all!AF24="","",_tag_month_all!AF24)</f>
         <v/>
       </c>
-      <c r="AJ27" s="22" t="str">
+      <c r="AJ27" s="35" t="str">
         <f>IF(_tag_month_all!AG24="","",_tag_month_all!AG24)</f>
         <v/>
       </c>
-      <c r="AK27" s="22" t="str">
+      <c r="AK27" s="35" t="str">
         <f>IF(_tag_month_all!AH24="","",_tag_month_all!AH24)</f>
         <v/>
       </c>
-      <c r="AL27" s="22" t="str">
+      <c r="AL27" s="35" t="str">
         <f>IF(_tag_month_all!AI24="","",_tag_month_all!AI24)</f>
         <v/>
       </c>
-      <c r="AM27" s="23" t="str">
+      <c r="AM27" s="37" t="str">
         <f>IF(_tag_month_all!AJ24="","",_tag_month_all!AJ24)</f>
         <v/>
       </c>
-      <c r="AN27" s="23" t="str">
+      <c r="AN27" s="37" t="str">
         <f>IF(_tag_month_all!AK24="","",_tag_month_all!AK24)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:40" s="7" customFormat="1">
-      <c r="A28" s="19">
+    <row r="28" s="9" customFormat="1" spans="1:40">
+      <c r="A28" s="31">
         <v>24</v>
       </c>
-      <c r="B28" s="22" t="str">
+      <c r="B28" s="35" t="str">
         <f>IF(_tag_month_all!A25="","",_tag_month_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="33" t="str">
+      <c r="C28" s="36" t="str">
         <f>IF(_tag_month_all!B25="","",_tag_month_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="33" t="str">
+      <c r="D28" s="36" t="str">
         <f>IF(_tag_month_all!C25="","",_tag_month_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="22" t="str">
+      <c r="E28" s="35" t="str">
         <f>IF(_tag_month_all!D25="","",_tag_month_all!D25)</f>
         <v/>
       </c>
-      <c r="F28" s="23" t="str">
+      <c r="F28" s="37" t="str">
         <f>IF(_tag_month_all!E25="","",_tag_month_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="24" t="str">
+      <c r="G28" s="38" t="str">
         <f>IF(_tag_month_all!F25="","",_tag_month_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="23" t="str">
+      <c r="H28" s="37" t="str">
         <f>IF(_tag_month_all!G25="","",_tag_month_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="32" t="str">
+      <c r="I28" s="46" t="str">
         <f>IF(_tag_month_all!H25="","",_tag_month_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="22" t="str">
+      <c r="J28" s="35" t="str">
         <f>IF(_tag_month_all!I25="","",_tag_month_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="22" t="str">
+      <c r="K28" s="35" t="str">
         <f>IF(_tag_month_all!J25="","",_tag_month_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="32" t="str">
+      <c r="L28" s="46" t="str">
         <f>IF(_tag_month_all!K25="","",_tag_month_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="33" t="str">
+      <c r="M28" s="36" t="str">
         <f>IF(_tag_month_all!L25="","",_tag_month_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="34" t="str">
+      <c r="N28" s="47" t="str">
         <f>IF(_tag_month_all!M25="","",_tag_month_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="23" t="str">
+      <c r="O28" s="37" t="str">
         <f>IF(_tag_month_all!N25="","",_tag_month_all!N25)</f>
         <v/>
       </c>
-      <c r="P28" s="23" t="str">
+      <c r="P28" s="37" t="str">
         <f>IF(_tag_month_all!AL25="","",_tag_month_all!AL25)</f>
         <v/>
       </c>
-      <c r="Q28" s="23" t="str">
+      <c r="Q28" s="37" t="str">
         <f>IF(_tag_month_all!AM25="","",_tag_month_all!AM25)</f>
         <v/>
       </c>
-      <c r="R28" s="22" t="str">
+      <c r="R28" s="35" t="str">
         <f>IF(_tag_month_all!O25="","",_tag_month_all!O25)</f>
         <v/>
       </c>
-      <c r="S28" s="22" t="str">
+      <c r="S28" s="35" t="str">
         <f>IF(_tag_month_all!P25="","",_tag_month_all!P25)</f>
         <v/>
       </c>
-      <c r="T28" s="22" t="str">
+      <c r="T28" s="35" t="str">
         <f>IF(_tag_month_all!Q25="","",_tag_month_all!Q25)</f>
         <v/>
       </c>
-      <c r="U28" s="20" t="str">
+      <c r="U28" s="32" t="str">
         <f>IF(_tag_month_all!R25="","",_tag_month_all!R25)</f>
         <v/>
       </c>
-      <c r="V28" s="22" t="str">
+      <c r="V28" s="35" t="str">
         <f>IF(_tag_month_all!S25="","",_tag_month_all!S25)</f>
         <v/>
       </c>
-      <c r="W28" s="22" t="str">
+      <c r="W28" s="35" t="str">
         <f>IF(_tag_month_all!T25="","",_tag_month_all!T25)</f>
         <v/>
       </c>
-      <c r="X28" s="23" t="str">
+      <c r="X28" s="37" t="str">
         <f>IF(_tag_month_all!U25="","",_tag_month_all!U25)</f>
         <v/>
       </c>
-      <c r="Y28" s="23" t="str">
+      <c r="Y28" s="37" t="str">
         <f>IF(_tag_month_all!V25="","",_tag_month_all!V25)</f>
         <v/>
       </c>
-      <c r="Z28" s="23" t="str">
+      <c r="Z28" s="37" t="str">
         <f>IF(_tag_month_all!U25="","",_tag_month_all!U25/_tag_month_all!V25)</f>
         <v/>
       </c>
-      <c r="AA28" s="23" t="str">
+      <c r="AA28" s="37" t="str">
         <f>IF(_tag_month_all!X25="","",_tag_month_all!X25)</f>
         <v/>
       </c>
-      <c r="AB28" s="33" t="str">
+      <c r="AB28" s="36" t="str">
         <f>IF(_tag_month_all!Y25="","",_tag_month_all!Y25)</f>
         <v/>
       </c>
-      <c r="AC28" s="22" t="str">
+      <c r="AC28" s="35" t="str">
         <f>IF(_tag_month_all!Z25="","",_tag_month_all!Z25)</f>
         <v/>
       </c>
-      <c r="AD28" s="22" t="str">
+      <c r="AD28" s="35" t="str">
         <f>IF(_tag_month_all!AA25="","",_tag_month_all!AA25)</f>
         <v/>
       </c>
-      <c r="AE28" s="23" t="str">
+      <c r="AE28" s="37" t="str">
         <f>IF(_tag_month_all!AB25="","",_tag_month_all!AB25)</f>
         <v/>
       </c>
-      <c r="AF28" s="22" t="str">
+      <c r="AF28" s="35" t="str">
         <f>IF(_tag_month_all!AC25="","",_tag_month_all!AC25)</f>
         <v/>
       </c>
-      <c r="AG28" s="22" t="str">
+      <c r="AG28" s="35" t="str">
         <f>IF(_tag_month_all!AD25="","",_tag_month_all!AD25)</f>
         <v/>
       </c>
-      <c r="AH28" s="22" t="str">
+      <c r="AH28" s="35" t="str">
         <f>IF(_tag_month_all!AE25="","",_tag_month_all!AE25)</f>
         <v/>
       </c>
-      <c r="AI28" s="22" t="str">
+      <c r="AI28" s="35" t="str">
         <f>IF(_tag_month_all!AF25="","",_tag_month_all!AF25)</f>
         <v/>
       </c>
-      <c r="AJ28" s="22" t="str">
+      <c r="AJ28" s="35" t="str">
         <f>IF(_tag_month_all!AG25="","",_tag_month_all!AG25)</f>
         <v/>
       </c>
-      <c r="AK28" s="22" t="str">
+      <c r="AK28" s="35" t="str">
         <f>IF(_tag_month_all!AH25="","",_tag_month_all!AH25)</f>
         <v/>
       </c>
-      <c r="AL28" s="22" t="str">
+      <c r="AL28" s="35" t="str">
         <f>IF(_tag_month_all!AI25="","",_tag_month_all!AI25)</f>
         <v/>
       </c>
-      <c r="AM28" s="23" t="str">
+      <c r="AM28" s="37" t="str">
         <f>IF(_tag_month_all!AJ25="","",_tag_month_all!AJ25)</f>
         <v/>
       </c>
-      <c r="AN28" s="23" t="str">
+      <c r="AN28" s="37" t="str">
         <f>IF(_tag_month_all!AK25="","",_tag_month_all!AK25)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:40" s="7" customFormat="1">
-      <c r="A29" s="19">
+    <row r="29" s="9" customFormat="1" spans="1:40">
+      <c r="A29" s="31">
         <v>25</v>
       </c>
-      <c r="B29" s="22" t="str">
+      <c r="B29" s="35" t="str">
         <f>IF(_tag_month_all!A26="","",_tag_month_all!A26)</f>
         <v/>
       </c>
-      <c r="C29" s="33" t="str">
+      <c r="C29" s="36" t="str">
         <f>IF(_tag_month_all!B26="","",_tag_month_all!B26)</f>
         <v/>
       </c>
-      <c r="D29" s="33" t="str">
+      <c r="D29" s="36" t="str">
         <f>IF(_tag_month_all!C26="","",_tag_month_all!C26)</f>
         <v/>
       </c>
-      <c r="E29" s="22" t="str">
+      <c r="E29" s="35" t="str">
         <f>IF(_tag_month_all!D26="","",_tag_month_all!D26)</f>
         <v/>
       </c>
-      <c r="F29" s="23" t="str">
+      <c r="F29" s="37" t="str">
         <f>IF(_tag_month_all!E26="","",_tag_month_all!E26)</f>
         <v/>
       </c>
-      <c r="G29" s="24" t="str">
+      <c r="G29" s="38" t="str">
         <f>IF(_tag_month_all!F26="","",_tag_month_all!F26)</f>
         <v/>
       </c>
-      <c r="H29" s="23" t="str">
+      <c r="H29" s="37" t="str">
         <f>IF(_tag_month_all!G26="","",_tag_month_all!G26)</f>
         <v/>
       </c>
-      <c r="I29" s="32" t="str">
+      <c r="I29" s="46" t="str">
         <f>IF(_tag_month_all!H26="","",_tag_month_all!H26)</f>
         <v/>
       </c>
-      <c r="J29" s="22" t="str">
+      <c r="J29" s="35" t="str">
         <f>IF(_tag_month_all!I26="","",_tag_month_all!I26)</f>
         <v/>
       </c>
-      <c r="K29" s="22" t="str">
+      <c r="K29" s="35" t="str">
         <f>IF(_tag_month_all!J26="","",_tag_month_all!J26)</f>
         <v/>
       </c>
-      <c r="L29" s="32" t="str">
+      <c r="L29" s="46" t="str">
         <f>IF(_tag_month_all!K26="","",_tag_month_all!K26)</f>
         <v/>
       </c>
-      <c r="M29" s="33" t="str">
+      <c r="M29" s="36" t="str">
         <f>IF(_tag_month_all!L26="","",_tag_month_all!L26)</f>
         <v/>
       </c>
-      <c r="N29" s="34" t="str">
+      <c r="N29" s="47" t="str">
         <f>IF(_tag_month_all!M26="","",_tag_month_all!M26)</f>
         <v/>
       </c>
-      <c r="O29" s="23" t="str">
+      <c r="O29" s="37" t="str">
         <f>IF(_tag_month_all!N26="","",_tag_month_all!N26)</f>
         <v/>
       </c>
-      <c r="P29" s="23" t="str">
+      <c r="P29" s="37" t="str">
         <f>IF(_tag_month_all!AL26="","",_tag_month_all!AL26)</f>
         <v/>
       </c>
-      <c r="Q29" s="23" t="str">
+      <c r="Q29" s="37" t="str">
         <f>IF(_tag_month_all!AM26="","",_tag_month_all!AM26)</f>
         <v/>
       </c>
-      <c r="R29" s="22" t="str">
+      <c r="R29" s="35" t="str">
         <f>IF(_tag_month_all!O26="","",_tag_month_all!O26)</f>
         <v/>
       </c>
-      <c r="S29" s="22" t="str">
+      <c r="S29" s="35" t="str">
         <f>IF(_tag_month_all!P26="","",_tag_month_all!P26)</f>
         <v/>
       </c>
-      <c r="T29" s="22" t="str">
+      <c r="T29" s="35" t="str">
         <f>IF(_tag_month_all!Q26="","",_tag_month_all!Q26)</f>
         <v/>
       </c>
-      <c r="U29" s="20" t="str">
+      <c r="U29" s="32" t="str">
         <f>IF(_tag_month_all!R26="","",_tag_month_all!R26)</f>
         <v/>
       </c>
-      <c r="V29" s="22" t="str">
+      <c r="V29" s="35" t="str">
         <f>IF(_tag_month_all!S26="","",_tag_month_all!S26)</f>
         <v/>
       </c>
-      <c r="W29" s="22" t="str">
+      <c r="W29" s="35" t="str">
         <f>IF(_tag_month_all!T26="","",_tag_month_all!T26)</f>
         <v/>
       </c>
-      <c r="X29" s="23" t="str">
+      <c r="X29" s="37" t="str">
         <f>IF(_tag_month_all!U26="","",_tag_month_all!U26)</f>
         <v/>
       </c>
-      <c r="Y29" s="23" t="str">
+      <c r="Y29" s="37" t="str">
         <f>IF(_tag_month_all!V26="","",_tag_month_all!V26)</f>
         <v/>
       </c>
-      <c r="Z29" s="23" t="str">
+      <c r="Z29" s="37" t="str">
         <f>IF(_tag_month_all!U26="","",_tag_month_all!U26/_tag_month_all!V26)</f>
         <v/>
       </c>
-      <c r="AA29" s="23" t="str">
+      <c r="AA29" s="37" t="str">
         <f>IF(_tag_month_all!X26="","",_tag_month_all!X26)</f>
         <v/>
       </c>
-      <c r="AB29" s="33" t="str">
+      <c r="AB29" s="36" t="str">
         <f>IF(_tag_month_all!Y26="","",_tag_month_all!Y26)</f>
         <v/>
       </c>
-      <c r="AC29" s="22" t="str">
+      <c r="AC29" s="35" t="str">
         <f>IF(_tag_month_all!Z26="","",_tag_month_all!Z26)</f>
         <v/>
       </c>
-      <c r="AD29" s="22" t="str">
+      <c r="AD29" s="35" t="str">
         <f>IF(_tag_month_all!AA26="","",_tag_month_all!AA26)</f>
         <v/>
       </c>
-      <c r="AE29" s="23" t="str">
+      <c r="AE29" s="37" t="str">
         <f>IF(_tag_month_all!AB26="","",_tag_month_all!AB26)</f>
         <v/>
       </c>
-      <c r="AF29" s="22" t="str">
+      <c r="AF29" s="35" t="str">
         <f>IF(_tag_month_all!AC26="","",_tag_month_all!AC26)</f>
         <v/>
       </c>
-      <c r="AG29" s="22" t="str">
+      <c r="AG29" s="35" t="str">
         <f>IF(_tag_month_all!AD26="","",_tag_month_all!AD26)</f>
         <v/>
       </c>
-      <c r="AH29" s="22" t="str">
+      <c r="AH29" s="35" t="str">
         <f>IF(_tag_month_all!AE26="","",_tag_month_all!AE26)</f>
         <v/>
       </c>
-      <c r="AI29" s="22" t="str">
+      <c r="AI29" s="35" t="str">
         <f>IF(_tag_month_all!AF26="","",_tag_month_all!AF26)</f>
         <v/>
       </c>
-      <c r="AJ29" s="22" t="str">
+      <c r="AJ29" s="35" t="str">
         <f>IF(_tag_month_all!AG26="","",_tag_month_all!AG26)</f>
         <v/>
       </c>
-      <c r="AK29" s="22" t="str">
+      <c r="AK29" s="35" t="str">
         <f>IF(_tag_month_all!AH26="","",_tag_month_all!AH26)</f>
         <v/>
       </c>
-      <c r="AL29" s="22" t="str">
+      <c r="AL29" s="35" t="str">
         <f>IF(_tag_month_all!AI26="","",_tag_month_all!AI26)</f>
         <v/>
       </c>
-      <c r="AM29" s="23" t="str">
+      <c r="AM29" s="37" t="str">
         <f>IF(_tag_month_all!AJ26="","",_tag_month_all!AJ26)</f>
         <v/>
       </c>
-      <c r="AN29" s="23" t="str">
+      <c r="AN29" s="37" t="str">
         <f>IF(_tag_month_all!AK26="","",_tag_month_all!AK26)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:40" s="7" customFormat="1">
-      <c r="A30" s="19">
+    <row r="30" s="9" customFormat="1" spans="1:40">
+      <c r="A30" s="31">
         <v>26</v>
       </c>
-      <c r="B30" s="22" t="str">
+      <c r="B30" s="35" t="str">
         <f>IF(_tag_month_all!A27="","",_tag_month_all!A27)</f>
         <v/>
       </c>
-      <c r="C30" s="33" t="str">
+      <c r="C30" s="36" t="str">
         <f>IF(_tag_month_all!B27="","",_tag_month_all!B27)</f>
         <v/>
       </c>
-      <c r="D30" s="33" t="str">
+      <c r="D30" s="36" t="str">
         <f>IF(_tag_month_all!C27="","",_tag_month_all!C27)</f>
         <v/>
       </c>
-      <c r="E30" s="22" t="str">
+      <c r="E30" s="35" t="str">
         <f>IF(_tag_month_all!D27="","",_tag_month_all!D27)</f>
         <v/>
       </c>
-      <c r="F30" s="23" t="str">
+      <c r="F30" s="37" t="str">
         <f>IF(_tag_month_all!E27="","",_tag_month_all!E27)</f>
         <v/>
       </c>
-      <c r="G30" s="24" t="str">
+      <c r="G30" s="38" t="str">
         <f>IF(_tag_month_all!F27="","",_tag_month_all!F27)</f>
         <v/>
       </c>
-      <c r="H30" s="23" t="str">
+      <c r="H30" s="37" t="str">
         <f>IF(_tag_month_all!G27="","",_tag_month_all!G27)</f>
         <v/>
       </c>
-      <c r="I30" s="32" t="str">
+      <c r="I30" s="46" t="str">
         <f>IF(_tag_month_all!H27="","",_tag_month_all!H27)</f>
         <v/>
       </c>
-      <c r="J30" s="22" t="str">
+      <c r="J30" s="35" t="str">
         <f>IF(_tag_month_all!I27="","",_tag_month_all!I27)</f>
         <v/>
       </c>
-      <c r="K30" s="22" t="str">
+      <c r="K30" s="35" t="str">
         <f>IF(_tag_month_all!J27="","",_tag_month_all!J27)</f>
         <v/>
       </c>
-      <c r="L30" s="32" t="str">
+      <c r="L30" s="46" t="str">
         <f>IF(_tag_month_all!K27="","",_tag_month_all!K27)</f>
         <v/>
       </c>
-      <c r="M30" s="33" t="str">
+      <c r="M30" s="36" t="str">
         <f>IF(_tag_month_all!L27="","",_tag_month_all!L27)</f>
         <v/>
       </c>
-      <c r="N30" s="34" t="str">
+      <c r="N30" s="47" t="str">
         <f>IF(_tag_month_all!M27="","",_tag_month_all!M27)</f>
         <v/>
       </c>
-      <c r="O30" s="23" t="str">
+      <c r="O30" s="37" t="str">
         <f>IF(_tag_month_all!N27="","",_tag_month_all!N27)</f>
         <v/>
       </c>
-      <c r="P30" s="23" t="str">
+      <c r="P30" s="37" t="str">
         <f>IF(_tag_month_all!AL27="","",_tag_month_all!AL27)</f>
         <v/>
       </c>
-      <c r="Q30" s="23" t="str">
+      <c r="Q30" s="37" t="str">
         <f>IF(_tag_month_all!AM27="","",_tag_month_all!AM27)</f>
         <v/>
       </c>
-      <c r="R30" s="22" t="str">
+      <c r="R30" s="35" t="str">
         <f>IF(_tag_month_all!O27="","",_tag_month_all!O27)</f>
         <v/>
       </c>
-      <c r="S30" s="22" t="str">
+      <c r="S30" s="35" t="str">
         <f>IF(_tag_month_all!P27="","",_tag_month_all!P27)</f>
         <v/>
       </c>
-      <c r="T30" s="22" t="str">
+      <c r="T30" s="35" t="str">
         <f>IF(_tag_month_all!Q27="","",_tag_month_all!Q27)</f>
         <v/>
       </c>
-      <c r="U30" s="20" t="str">
+      <c r="U30" s="32" t="str">
         <f>IF(_tag_month_all!R27="","",_tag_month_all!R27)</f>
         <v/>
       </c>
-      <c r="V30" s="22" t="str">
+      <c r="V30" s="35" t="str">
         <f>IF(_tag_month_all!S27="","",_tag_month_all!S27)</f>
         <v/>
       </c>
-      <c r="W30" s="22" t="str">
+      <c r="W30" s="35" t="str">
         <f>IF(_tag_month_all!T27="","",_tag_month_all!T27)</f>
         <v/>
       </c>
-      <c r="X30" s="23" t="str">
+      <c r="X30" s="37" t="str">
         <f>IF(_tag_month_all!U27="","",_tag_month_all!U27)</f>
         <v/>
       </c>
-      <c r="Y30" s="23" t="str">
+      <c r="Y30" s="37" t="str">
         <f>IF(_tag_month_all!V27="","",_tag_month_all!V27)</f>
         <v/>
       </c>
-      <c r="Z30" s="23" t="str">
+      <c r="Z30" s="37" t="str">
         <f>IF(_tag_month_all!U27="","",_tag_month_all!U27/_tag_month_all!V27)</f>
         <v/>
       </c>
-      <c r="AA30" s="23" t="str">
+      <c r="AA30" s="37" t="str">
         <f>IF(_tag_month_all!X27="","",_tag_month_all!X27)</f>
         <v/>
       </c>
-      <c r="AB30" s="33" t="str">
+      <c r="AB30" s="36" t="str">
         <f>IF(_tag_month_all!Y27="","",_tag_month_all!Y27)</f>
         <v/>
       </c>
-      <c r="AC30" s="22" t="str">
+      <c r="AC30" s="35" t="str">
         <f>IF(_tag_month_all!Z27="","",_tag_month_all!Z27)</f>
         <v/>
       </c>
-      <c r="AD30" s="22" t="str">
+      <c r="AD30" s="35" t="str">
         <f>IF(_tag_month_all!AA27="","",_tag_month_all!AA27)</f>
         <v/>
       </c>
-      <c r="AE30" s="23" t="str">
+      <c r="AE30" s="37" t="str">
         <f>IF(_tag_month_all!AB27="","",_tag_month_all!AB27)</f>
         <v/>
       </c>
-      <c r="AF30" s="22" t="str">
+      <c r="AF30" s="35" t="str">
         <f>IF(_tag_month_all!AC27="","",_tag_month_all!AC27)</f>
         <v/>
       </c>
-      <c r="AG30" s="22" t="str">
+      <c r="AG30" s="35" t="str">
         <f>IF(_tag_month_all!AD27="","",_tag_month_all!AD27)</f>
         <v/>
       </c>
-      <c r="AH30" s="22" t="str">
+      <c r="AH30" s="35" t="str">
         <f>IF(_tag_month_all!AE27="","",_tag_month_all!AE27)</f>
         <v/>
       </c>
-      <c r="AI30" s="22" t="str">
+      <c r="AI30" s="35" t="str">
         <f>IF(_tag_month_all!AF27="","",_tag_month_all!AF27)</f>
         <v/>
       </c>
-      <c r="AJ30" s="22" t="str">
+      <c r="AJ30" s="35" t="str">
         <f>IF(_tag_month_all!AG27="","",_tag_month_all!AG27)</f>
         <v/>
       </c>
-      <c r="AK30" s="22" t="str">
+      <c r="AK30" s="35" t="str">
         <f>IF(_tag_month_all!AH27="","",_tag_month_all!AH27)</f>
         <v/>
       </c>
-      <c r="AL30" s="22" t="str">
+      <c r="AL30" s="35" t="str">
         <f>IF(_tag_month_all!AI27="","",_tag_month_all!AI27)</f>
         <v/>
       </c>
-      <c r="AM30" s="23" t="str">
+      <c r="AM30" s="37" t="str">
         <f>IF(_tag_month_all!AJ27="","",_tag_month_all!AJ27)</f>
         <v/>
       </c>
-      <c r="AN30" s="23" t="str">
+      <c r="AN30" s="37" t="str">
         <f>IF(_tag_month_all!AK27="","",_tag_month_all!AK27)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:40" s="7" customFormat="1">
-      <c r="A31" s="19">
+    <row r="31" s="9" customFormat="1" spans="1:40">
+      <c r="A31" s="31">
         <v>27</v>
       </c>
-      <c r="B31" s="22" t="str">
+      <c r="B31" s="35" t="str">
         <f>IF(_tag_month_all!A28="","",_tag_month_all!A28)</f>
         <v/>
       </c>
-      <c r="C31" s="33" t="str">
+      <c r="C31" s="36" t="str">
         <f>IF(_tag_month_all!B28="","",_tag_month_all!B28)</f>
         <v/>
       </c>
-      <c r="D31" s="33" t="str">
+      <c r="D31" s="36" t="str">
         <f>IF(_tag_month_all!C28="","",_tag_month_all!C28)</f>
         <v/>
       </c>
-      <c r="E31" s="22" t="str">
+      <c r="E31" s="35" t="str">
         <f>IF(_tag_month_all!D28="","",_tag_month_all!D28)</f>
         <v/>
       </c>
-      <c r="F31" s="23" t="str">
+      <c r="F31" s="37" t="str">
         <f>IF(_tag_month_all!E28="","",_tag_month_all!E28)</f>
         <v/>
       </c>
-      <c r="G31" s="24" t="str">
+      <c r="G31" s="38" t="str">
         <f>IF(_tag_month_all!F28="","",_tag_month_all!F28)</f>
         <v/>
       </c>
-      <c r="H31" s="23" t="str">
+      <c r="H31" s="37" t="str">
         <f>IF(_tag_month_all!G28="","",_tag_month_all!G28)</f>
         <v/>
       </c>
-      <c r="I31" s="32" t="str">
+      <c r="I31" s="46" t="str">
         <f>IF(_tag_month_all!H28="","",_tag_month_all!H28)</f>
         <v/>
       </c>
-      <c r="J31" s="22" t="str">
+      <c r="J31" s="35" t="str">
         <f>IF(_tag_month_all!I28="","",_tag_month_all!I28)</f>
         <v/>
       </c>
-      <c r="K31" s="22" t="str">
+      <c r="K31" s="35" t="str">
         <f>IF(_tag_month_all!J28="","",_tag_month_all!J28)</f>
         <v/>
       </c>
-      <c r="L31" s="32" t="str">
+      <c r="L31" s="46" t="str">
         <f>IF(_tag_month_all!K28="","",_tag_month_all!K28)</f>
         <v/>
       </c>
-      <c r="M31" s="33" t="str">
+      <c r="M31" s="36" t="str">
         <f>IF(_tag_month_all!L28="","",_tag_month_all!L28)</f>
         <v/>
       </c>
-      <c r="N31" s="34" t="str">
+      <c r="N31" s="47" t="str">
         <f>IF(_tag_month_all!M28="","",_tag_month_all!M28)</f>
         <v/>
       </c>
-      <c r="O31" s="23" t="str">
+      <c r="O31" s="37" t="str">
         <f>IF(_tag_month_all!N28="","",_tag_month_all!N28)</f>
         <v/>
       </c>
-      <c r="P31" s="23" t="str">
+      <c r="P31" s="37" t="str">
         <f>IF(_tag_month_all!AL28="","",_tag_month_all!AL28)</f>
         <v/>
       </c>
-      <c r="Q31" s="23" t="str">
+      <c r="Q31" s="37" t="str">
         <f>IF(_tag_month_all!AM28="","",_tag_month_all!AM28)</f>
         <v/>
       </c>
-      <c r="R31" s="22" t="str">
+      <c r="R31" s="35" t="str">
         <f>IF(_tag_month_all!O28="","",_tag_month_all!O28)</f>
         <v/>
       </c>
-      <c r="S31" s="22" t="str">
+      <c r="S31" s="35" t="str">
         <f>IF(_tag_month_all!P28="","",_tag_month_all!P28)</f>
         <v/>
       </c>
-      <c r="T31" s="22" t="str">
+      <c r="T31" s="35" t="str">
         <f>IF(_tag_month_all!Q28="","",_tag_month_all!Q28)</f>
         <v/>
       </c>
-      <c r="U31" s="20" t="str">
+      <c r="U31" s="32" t="str">
         <f>IF(_tag_month_all!R28="","",_tag_month_all!R28)</f>
         <v/>
       </c>
-      <c r="V31" s="22" t="str">
+      <c r="V31" s="35" t="str">
         <f>IF(_tag_month_all!S28="","",_tag_month_all!S28)</f>
         <v/>
       </c>
-      <c r="W31" s="22" t="str">
+      <c r="W31" s="35" t="str">
         <f>IF(_tag_month_all!T28="","",_tag_month_all!T28)</f>
         <v/>
       </c>
-      <c r="X31" s="23" t="str">
+      <c r="X31" s="37" t="str">
         <f>IF(_tag_month_all!U28="","",_tag_month_all!U28)</f>
         <v/>
       </c>
-      <c r="Y31" s="23" t="str">
+      <c r="Y31" s="37" t="str">
         <f>IF(_tag_month_all!V28="","",_tag_month_all!V28)</f>
         <v/>
       </c>
-      <c r="Z31" s="23" t="str">
+      <c r="Z31" s="37" t="str">
         <f>IF(_tag_month_all!U28="","",_tag_month_all!U28/_tag_month_all!V28)</f>
         <v/>
       </c>
-      <c r="AA31" s="23" t="str">
+      <c r="AA31" s="37" t="str">
         <f>IF(_tag_month_all!X28="","",_tag_month_all!X28)</f>
         <v/>
       </c>
-      <c r="AB31" s="33" t="str">
+      <c r="AB31" s="36" t="str">
         <f>IF(_tag_month_all!Y28="","",_tag_month_all!Y28)</f>
         <v/>
       </c>
-      <c r="AC31" s="22" t="str">
+      <c r="AC31" s="35" t="str">
         <f>IF(_tag_month_all!Z28="","",_tag_month_all!Z28)</f>
         <v/>
       </c>
-      <c r="AD31" s="22" t="str">
+      <c r="AD31" s="35" t="str">
         <f>IF(_tag_month_all!AA28="","",_tag_month_all!AA28)</f>
         <v/>
       </c>
-      <c r="AE31" s="23" t="str">
+      <c r="AE31" s="37" t="str">
         <f>IF(_tag_month_all!AB28="","",_tag_month_all!AB28)</f>
         <v/>
       </c>
-      <c r="AF31" s="22" t="str">
+      <c r="AF31" s="35" t="str">
         <f>IF(_tag_month_all!AC28="","",_tag_month_all!AC28)</f>
         <v/>
       </c>
-      <c r="AG31" s="22" t="str">
+      <c r="AG31" s="35" t="str">
         <f>IF(_tag_month_all!AD28="","",_tag_month_all!AD28)</f>
         <v/>
       </c>
-      <c r="AH31" s="22" t="str">
+      <c r="AH31" s="35" t="str">
         <f>IF(_tag_month_all!AE28="","",_tag_month_all!AE28)</f>
         <v/>
       </c>
-      <c r="AI31" s="22" t="str">
+      <c r="AI31" s="35" t="str">
         <f>IF(_tag_month_all!AF28="","",_tag_month_all!AF28)</f>
         <v/>
       </c>
-      <c r="AJ31" s="22" t="str">
+      <c r="AJ31" s="35" t="str">
         <f>IF(_tag_month_all!AG28="","",_tag_month_all!AG28)</f>
         <v/>
       </c>
-      <c r="AK31" s="22" t="str">
+      <c r="AK31" s="35" t="str">
         <f>IF(_tag_month_all!AH28="","",_tag_month_all!AH28)</f>
         <v/>
       </c>
-      <c r="AL31" s="22" t="str">
+      <c r="AL31" s="35" t="str">
         <f>IF(_tag_month_all!AI28="","",_tag_month_all!AI28)</f>
         <v/>
       </c>
-      <c r="AM31" s="23" t="str">
+      <c r="AM31" s="37" t="str">
         <f>IF(_tag_month_all!AJ28="","",_tag_month_all!AJ28)</f>
         <v/>
       </c>
-      <c r="AN31" s="23" t="str">
+      <c r="AN31" s="37" t="str">
         <f>IF(_tag_month_all!AK28="","",_tag_month_all!AK28)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:40" s="7" customFormat="1">
-      <c r="A32" s="19">
+    <row r="32" s="9" customFormat="1" spans="1:40">
+      <c r="A32" s="31">
         <v>28</v>
       </c>
-      <c r="B32" s="22" t="str">
+      <c r="B32" s="35" t="str">
         <f>IF(_tag_month_all!A29="","",_tag_month_all!A29)</f>
         <v/>
       </c>
-      <c r="C32" s="33" t="str">
+      <c r="C32" s="36" t="str">
         <f>IF(_tag_month_all!B29="","",_tag_month_all!B29)</f>
         <v/>
       </c>
-      <c r="D32" s="33" t="str">
+      <c r="D32" s="36" t="str">
         <f>IF(_tag_month_all!C29="","",_tag_month_all!C29)</f>
         <v/>
       </c>
-      <c r="E32" s="22" t="str">
+      <c r="E32" s="35" t="str">
         <f>IF(_tag_month_all!D29="","",_tag_month_all!D29)</f>
         <v/>
       </c>
-      <c r="F32" s="23" t="str">
+      <c r="F32" s="37" t="str">
         <f>IF(_tag_month_all!E29="","",_tag_month_all!E29)</f>
         <v/>
       </c>
-      <c r="G32" s="24" t="str">
+      <c r="G32" s="38" t="str">
         <f>IF(_tag_month_all!F29="","",_tag_month_all!F29)</f>
         <v/>
       </c>
-      <c r="H32" s="23" t="str">
+      <c r="H32" s="37" t="str">
         <f>IF(_tag_month_all!G29="","",_tag_month_all!G29)</f>
         <v/>
       </c>
-      <c r="I32" s="32" t="str">
+      <c r="I32" s="46" t="str">
         <f>IF(_tag_month_all!H29="","",_tag_month_all!H29)</f>
         <v/>
       </c>
-      <c r="J32" s="22" t="str">
+      <c r="J32" s="35" t="str">
         <f>IF(_tag_month_all!I29="","",_tag_month_all!I29)</f>
         <v/>
       </c>
-      <c r="K32" s="22" t="str">
+      <c r="K32" s="35" t="str">
         <f>IF(_tag_month_all!J29="","",_tag_month_all!J29)</f>
         <v/>
       </c>
-      <c r="L32" s="32" t="str">
+      <c r="L32" s="46" t="str">
         <f>IF(_tag_month_all!K29="","",_tag_month_all!K29)</f>
         <v/>
       </c>
-      <c r="M32" s="33" t="str">
+      <c r="M32" s="36" t="str">
         <f>IF(_tag_month_all!L29="","",_tag_month_all!L29)</f>
         <v/>
       </c>
-      <c r="N32" s="34" t="str">
+      <c r="N32" s="47" t="str">
         <f>IF(_tag_month_all!M29="","",_tag_month_all!M29)</f>
         <v/>
       </c>
-      <c r="O32" s="23" t="str">
+      <c r="O32" s="37" t="str">
         <f>IF(_tag_month_all!N29="","",_tag_month_all!N29)</f>
         <v/>
       </c>
-      <c r="P32" s="23" t="str">
+      <c r="P32" s="37" t="str">
         <f>IF(_tag_month_all!AL29="","",_tag_month_all!AL29)</f>
         <v/>
       </c>
-      <c r="Q32" s="23" t="str">
+      <c r="Q32" s="37" t="str">
         <f>IF(_tag_month_all!AM29="","",_tag_month_all!AM29)</f>
         <v/>
       </c>
-      <c r="R32" s="22" t="str">
+      <c r="R32" s="35" t="str">
         <f>IF(_tag_month_all!O29="","",_tag_month_all!O29)</f>
         <v/>
       </c>
-      <c r="S32" s="22" t="str">
+      <c r="S32" s="35" t="str">
         <f>IF(_tag_month_all!P29="","",_tag_month_all!P29)</f>
         <v/>
       </c>
-      <c r="T32" s="22" t="str">
+      <c r="T32" s="35" t="str">
         <f>IF(_tag_month_all!Q29="","",_tag_month_all!Q29)</f>
         <v/>
       </c>
-      <c r="U32" s="20" t="str">
+      <c r="U32" s="32" t="str">
         <f>IF(_tag_month_all!R29="","",_tag_month_all!R29)</f>
         <v/>
       </c>
-      <c r="V32" s="22" t="str">
+      <c r="V32" s="35" t="str">
         <f>IF(_tag_month_all!S29="","",_tag_month_all!S29)</f>
         <v/>
       </c>
-      <c r="W32" s="22" t="str">
+      <c r="W32" s="35" t="str">
         <f>IF(_tag_month_all!T29="","",_tag_month_all!T29)</f>
         <v/>
       </c>
-      <c r="X32" s="23" t="str">
+      <c r="X32" s="37" t="str">
         <f>IF(_tag_month_all!U29="","",_tag_month_all!U29)</f>
         <v/>
       </c>
-      <c r="Y32" s="23" t="str">
+      <c r="Y32" s="37" t="str">
         <f>IF(_tag_month_all!V29="","",_tag_month_all!V29)</f>
         <v/>
       </c>
-      <c r="Z32" s="23" t="str">
+      <c r="Z32" s="37" t="str">
         <f>IF(_tag_month_all!U29="","",_tag_month_all!U29/_tag_month_all!V29)</f>
         <v/>
       </c>
-      <c r="AA32" s="23" t="str">
+      <c r="AA32" s="37" t="str">
         <f>IF(_tag_month_all!X29="","",_tag_month_all!X29)</f>
         <v/>
       </c>
-      <c r="AB32" s="33" t="str">
+      <c r="AB32" s="36" t="str">
         <f>IF(_tag_month_all!Y29="","",_tag_month_all!Y29)</f>
         <v/>
       </c>
-      <c r="AC32" s="22" t="str">
+      <c r="AC32" s="35" t="str">
         <f>IF(_tag_month_all!Z29="","",_tag_month_all!Z29)</f>
         <v/>
       </c>
-      <c r="AD32" s="22" t="str">
+      <c r="AD32" s="35" t="str">
         <f>IF(_tag_month_all!AA29="","",_tag_month_all!AA29)</f>
         <v/>
       </c>
-      <c r="AE32" s="23" t="str">
+      <c r="AE32" s="37" t="str">
         <f>IF(_tag_month_all!AB29="","",_tag_month_all!AB29)</f>
         <v/>
       </c>
-      <c r="AF32" s="22" t="str">
+      <c r="AF32" s="35" t="str">
         <f>IF(_tag_month_all!AC29="","",_tag_month_all!AC29)</f>
         <v/>
       </c>
-      <c r="AG32" s="22" t="str">
+      <c r="AG32" s="35" t="str">
         <f>IF(_tag_month_all!AD29="","",_tag_month_all!AD29)</f>
         <v/>
       </c>
-      <c r="AH32" s="22" t="str">
+      <c r="AH32" s="35" t="str">
         <f>IF(_tag_month_all!AE29="","",_tag_month_all!AE29)</f>
         <v/>
       </c>
-      <c r="AI32" s="22" t="str">
+      <c r="AI32" s="35" t="str">
         <f>IF(_tag_month_all!AF29="","",_tag_month_all!AF29)</f>
         <v/>
       </c>
-      <c r="AJ32" s="22" t="str">
+      <c r="AJ32" s="35" t="str">
         <f>IF(_tag_month_all!AG29="","",_tag_month_all!AG29)</f>
         <v/>
       </c>
-      <c r="AK32" s="22" t="str">
+      <c r="AK32" s="35" t="str">
         <f>IF(_tag_month_all!AH29="","",_tag_month_all!AH29)</f>
         <v/>
       </c>
-      <c r="AL32" s="22" t="str">
+      <c r="AL32" s="35" t="str">
         <f>IF(_tag_month_all!AI29="","",_tag_month_all!AI29)</f>
         <v/>
       </c>
-      <c r="AM32" s="23" t="str">
+      <c r="AM32" s="37" t="str">
         <f>IF(_tag_month_all!AJ29="","",_tag_month_all!AJ29)</f>
         <v/>
       </c>
-      <c r="AN32" s="23" t="str">
+      <c r="AN32" s="37" t="str">
         <f>IF(_tag_month_all!AK29="","",_tag_month_all!AK29)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:40" s="7" customFormat="1">
-      <c r="A33" s="19">
+    <row r="33" s="9" customFormat="1" spans="1:40">
+      <c r="A33" s="31">
         <v>29</v>
       </c>
-      <c r="B33" s="22" t="str">
+      <c r="B33" s="35" t="str">
         <f>IF(_tag_month_all!A30="","",_tag_month_all!A30)</f>
         <v/>
       </c>
-      <c r="C33" s="33" t="str">
+      <c r="C33" s="36" t="str">
         <f>IF(_tag_month_all!B30="","",_tag_month_all!B30)</f>
         <v/>
       </c>
-      <c r="D33" s="33" t="str">
+      <c r="D33" s="36" t="str">
         <f>IF(_tag_month_all!C30="","",_tag_month_all!C30)</f>
         <v/>
       </c>
-      <c r="E33" s="22" t="str">
+      <c r="E33" s="35" t="str">
         <f>IF(_tag_month_all!D30="","",_tag_month_all!D30)</f>
         <v/>
       </c>
-      <c r="F33" s="23" t="str">
+      <c r="F33" s="37" t="str">
         <f>IF(_tag_month_all!E30="","",_tag_month_all!E30)</f>
         <v/>
       </c>
-      <c r="G33" s="24" t="str">
+      <c r="G33" s="38" t="str">
         <f>IF(_tag_month_all!F30="","",_tag_month_all!F30)</f>
         <v/>
       </c>
-      <c r="H33" s="23" t="str">
+      <c r="H33" s="37" t="str">
         <f>IF(_tag_month_all!G30="","",_tag_month_all!G30)</f>
         <v/>
       </c>
-      <c r="I33" s="32" t="str">
+      <c r="I33" s="46" t="str">
         <f>IF(_tag_month_all!H30="","",_tag_month_all!H30)</f>
         <v/>
       </c>
-      <c r="J33" s="22" t="str">
+      <c r="J33" s="35" t="str">
         <f>IF(_tag_month_all!I30="","",_tag_month_all!I30)</f>
         <v/>
       </c>
-      <c r="K33" s="22" t="str">
+      <c r="K33" s="35" t="str">
         <f>IF(_tag_month_all!J30="","",_tag_month_all!J30)</f>
         <v/>
       </c>
-      <c r="L33" s="32" t="str">
+      <c r="L33" s="46" t="str">
         <f>IF(_tag_month_all!K30="","",_tag_month_all!K30)</f>
         <v/>
       </c>
-      <c r="M33" s="33" t="str">
+      <c r="M33" s="36" t="str">
         <f>IF(_tag_month_all!L30="","",_tag_month_all!L30)</f>
         <v/>
       </c>
-      <c r="N33" s="34" t="str">
+      <c r="N33" s="47" t="str">
         <f>IF(_tag_month_all!M30="","",_tag_month_all!M30)</f>
         <v/>
       </c>
-      <c r="O33" s="23" t="str">
+      <c r="O33" s="37" t="str">
         <f>IF(_tag_month_all!N30="","",_tag_month_all!N30)</f>
         <v/>
       </c>
-      <c r="P33" s="23" t="str">
+      <c r="P33" s="37" t="str">
         <f>IF(_tag_month_all!AL30="","",_tag_month_all!AL30)</f>
         <v/>
       </c>
-      <c r="Q33" s="23" t="str">
+      <c r="Q33" s="37" t="str">
         <f>IF(_tag_month_all!AM30="","",_tag_month_all!AM30)</f>
         <v/>
       </c>
-      <c r="R33" s="22" t="str">
+      <c r="R33" s="35" t="str">
         <f>IF(_tag_month_all!O30="","",_tag_month_all!O30)</f>
         <v/>
       </c>
-      <c r="S33" s="22" t="str">
+      <c r="S33" s="35" t="str">
         <f>IF(_tag_month_all!P30="","",_tag_month_all!P30)</f>
         <v/>
       </c>
-      <c r="T33" s="22" t="str">
+      <c r="T33" s="35" t="str">
         <f>IF(_tag_month_all!Q30="","",_tag_month_all!Q30)</f>
         <v/>
       </c>
-      <c r="U33" s="20" t="str">
+      <c r="U33" s="32" t="str">
         <f>IF(_tag_month_all!R30="","",_tag_month_all!R30)</f>
         <v/>
       </c>
-      <c r="V33" s="22" t="str">
+      <c r="V33" s="35" t="str">
         <f>IF(_tag_month_all!S30="","",_tag_month_all!S30)</f>
         <v/>
       </c>
-      <c r="W33" s="22" t="str">
+      <c r="W33" s="35" t="str">
         <f>IF(_tag_month_all!T30="","",_tag_month_all!T30)</f>
         <v/>
       </c>
-      <c r="X33" s="23" t="str">
+      <c r="X33" s="37" t="str">
         <f>IF(_tag_month_all!U30="","",_tag_month_all!U30)</f>
         <v/>
       </c>
-      <c r="Y33" s="23" t="str">
+      <c r="Y33" s="37" t="str">
         <f>IF(_tag_month_all!V30="","",_tag_month_all!V30)</f>
         <v/>
       </c>
-      <c r="Z33" s="23" t="str">
+      <c r="Z33" s="37" t="str">
         <f>IF(_tag_month_all!U30="","",_tag_month_all!U30/_tag_month_all!V30)</f>
         <v/>
       </c>
-      <c r="AA33" s="23" t="str">
+      <c r="AA33" s="37" t="str">
         <f>IF(_tag_month_all!X30="","",_tag_month_all!X30)</f>
         <v/>
       </c>
-      <c r="AB33" s="33" t="str">
+      <c r="AB33" s="36" t="str">
         <f>IF(_tag_month_all!Y30="","",_tag_month_all!Y30)</f>
         <v/>
       </c>
-      <c r="AC33" s="22" t="str">
+      <c r="AC33" s="35" t="str">
         <f>IF(_tag_month_all!Z30="","",_tag_month_all!Z30)</f>
         <v/>
       </c>
-      <c r="AD33" s="22" t="str">
+      <c r="AD33" s="35" t="str">
         <f>IF(_tag_month_all!AA30="","",_tag_month_all!AA30)</f>
         <v/>
       </c>
-      <c r="AE33" s="23" t="str">
+      <c r="AE33" s="37" t="str">
         <f>IF(_tag_month_all!AB30="","",_tag_month_all!AB30)</f>
         <v/>
       </c>
-      <c r="AF33" s="22" t="str">
+      <c r="AF33" s="35" t="str">
         <f>IF(_tag_month_all!AC30="","",_tag_month_all!AC30)</f>
         <v/>
       </c>
-      <c r="AG33" s="22" t="str">
+      <c r="AG33" s="35" t="str">
         <f>IF(_tag_month_all!AD30="","",_tag_month_all!AD30)</f>
         <v/>
       </c>
-      <c r="AH33" s="22" t="str">
+      <c r="AH33" s="35" t="str">
         <f>IF(_tag_month_all!AE30="","",_tag_month_all!AE30)</f>
         <v/>
       </c>
-      <c r="AI33" s="22" t="str">
+      <c r="AI33" s="35" t="str">
         <f>IF(_tag_month_all!AF30="","",_tag_month_all!AF30)</f>
         <v/>
       </c>
-      <c r="AJ33" s="22" t="str">
+      <c r="AJ33" s="35" t="str">
         <f>IF(_tag_month_all!AG30="","",_tag_month_all!AG30)</f>
         <v/>
       </c>
-      <c r="AK33" s="22" t="str">
+      <c r="AK33" s="35" t="str">
         <f>IF(_tag_month_all!AH30="","",_tag_month_all!AH30)</f>
         <v/>
       </c>
-      <c r="AL33" s="22" t="str">
+      <c r="AL33" s="35" t="str">
         <f>IF(_tag_month_all!AI30="","",_tag_month_all!AI30)</f>
         <v/>
       </c>
-      <c r="AM33" s="23" t="str">
+      <c r="AM33" s="37" t="str">
         <f>IF(_tag_month_all!AJ30="","",_tag_month_all!AJ30)</f>
         <v/>
       </c>
-      <c r="AN33" s="23" t="str">
+      <c r="AN33" s="37" t="str">
         <f>IF(_tag_month_all!AK30="","",_tag_month_all!AK30)</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:40" s="7" customFormat="1">
-      <c r="A34" s="19">
+    <row r="34" s="9" customFormat="1" spans="1:40">
+      <c r="A34" s="31">
         <v>30</v>
       </c>
-      <c r="B34" s="22" t="str">
+      <c r="B34" s="35" t="str">
         <f>IF(_tag_month_all!A31="","",_tag_month_all!A31)</f>
         <v/>
       </c>
-      <c r="C34" s="33" t="str">
+      <c r="C34" s="36" t="str">
         <f>IF(_tag_month_all!B31="","",_tag_month_all!B31)</f>
         <v/>
       </c>
-      <c r="D34" s="33" t="str">
+      <c r="D34" s="36" t="str">
         <f>IF(_tag_month_all!C31="","",_tag_month_all!C31)</f>
         <v/>
       </c>
-      <c r="E34" s="22" t="str">
+      <c r="E34" s="35" t="str">
         <f>IF(_tag_month_all!D31="","",_tag_month_all!D31)</f>
         <v/>
       </c>
-      <c r="F34" s="23" t="str">
+      <c r="F34" s="37" t="str">
         <f>IF(_tag_month_all!E31="","",_tag_month_all!E31)</f>
         <v/>
       </c>
-      <c r="G34" s="24" t="str">
+      <c r="G34" s="38" t="str">
         <f>IF(_tag_month_all!F31="","",_tag_month_all!F31)</f>
         <v/>
       </c>
-      <c r="H34" s="23" t="str">
+      <c r="H34" s="37" t="str">
         <f>IF(_tag_month_all!G31="","",_tag_month_all!G31)</f>
         <v/>
       </c>
-      <c r="I34" s="32" t="str">
+      <c r="I34" s="46" t="str">
         <f>IF(_tag_month_all!H31="","",_tag_month_all!H31)</f>
         <v/>
       </c>
-      <c r="J34" s="22" t="str">
+      <c r="J34" s="35" t="str">
         <f>IF(_tag_month_all!I31="","",_tag_month_all!I31)</f>
         <v/>
       </c>
-      <c r="K34" s="22" t="str">
+      <c r="K34" s="35" t="str">
         <f>IF(_tag_month_all!J31="","",_tag_month_all!J31)</f>
         <v/>
       </c>
-      <c r="L34" s="32" t="str">
+      <c r="L34" s="46" t="str">
         <f>IF(_tag_month_all!K31="","",_tag_month_all!K31)</f>
         <v/>
       </c>
-      <c r="M34" s="33" t="str">
+      <c r="M34" s="36" t="str">
         <f>IF(_tag_month_all!L31="","",_tag_month_all!L31)</f>
         <v/>
       </c>
-      <c r="N34" s="34" t="str">
+      <c r="N34" s="47" t="str">
         <f>IF(_tag_month_all!M31="","",_tag_month_all!M31)</f>
         <v/>
       </c>
-      <c r="O34" s="23" t="str">
+      <c r="O34" s="37" t="str">
         <f>IF(_tag_month_all!N31="","",_tag_month_all!N31)</f>
         <v/>
       </c>
-      <c r="P34" s="23" t="str">
+      <c r="P34" s="37" t="str">
         <f>IF(_tag_month_all!AL31="","",_tag_month_all!AL31)</f>
         <v/>
       </c>
-      <c r="Q34" s="23" t="str">
+      <c r="Q34" s="37" t="str">
         <f>IF(_tag_month_all!AM31="","",_tag_month_all!AM31)</f>
         <v/>
       </c>
-      <c r="R34" s="22" t="str">
+      <c r="R34" s="35" t="str">
         <f>IF(_tag_month_all!O31="","",_tag_month_all!O31)</f>
         <v/>
       </c>
-      <c r="S34" s="22" t="str">
+      <c r="S34" s="35" t="str">
         <f>IF(_tag_month_all!P31="","",_tag_month_all!P31)</f>
         <v/>
       </c>
-      <c r="T34" s="22" t="str">
+      <c r="T34" s="35" t="str">
         <f>IF(_tag_month_all!Q31="","",_tag_month_all!Q31)</f>
         <v/>
       </c>
-      <c r="U34" s="20" t="str">
+      <c r="U34" s="32" t="str">
         <f>IF(_tag_month_all!R31="","",_tag_month_all!R31)</f>
         <v/>
       </c>
-      <c r="V34" s="22" t="str">
+      <c r="V34" s="35" t="str">
         <f>IF(_tag_month_all!S31="","",_tag_month_all!S31)</f>
         <v/>
       </c>
-      <c r="W34" s="22" t="str">
+      <c r="W34" s="35" t="str">
         <f>IF(_tag_month_all!T31="","",_tag_month_all!T31)</f>
         <v/>
       </c>
-      <c r="X34" s="23" t="str">
+      <c r="X34" s="37" t="str">
         <f>IF(_tag_month_all!U31="","",_tag_month_all!U31)</f>
         <v/>
       </c>
-      <c r="Y34" s="23" t="str">
+      <c r="Y34" s="37" t="str">
         <f>IF(_tag_month_all!V31="","",_tag_month_all!V31)</f>
         <v/>
       </c>
-      <c r="Z34" s="23" t="str">
+      <c r="Z34" s="37" t="str">
         <f>IF(_tag_month_all!U31="","",_tag_month_all!U31/_tag_month_all!V31)</f>
         <v/>
       </c>
-      <c r="AA34" s="23" t="str">
+      <c r="AA34" s="37" t="str">
         <f>IF(_tag_month_all!X31="","",_tag_month_all!X31)</f>
         <v/>
       </c>
-      <c r="AB34" s="33" t="str">
+      <c r="AB34" s="36" t="str">
         <f>IF(_tag_month_all!Y31="","",_tag_month_all!Y31)</f>
         <v/>
       </c>
-      <c r="AC34" s="22" t="str">
+      <c r="AC34" s="35" t="str">
         <f>IF(_tag_month_all!Z31="","",_tag_month_all!Z31)</f>
         <v/>
       </c>
-      <c r="AD34" s="22" t="str">
+      <c r="AD34" s="35" t="str">
         <f>IF(_tag_month_all!AA31="","",_tag_month_all!AA31)</f>
         <v/>
       </c>
-      <c r="AE34" s="23" t="str">
+      <c r="AE34" s="37" t="str">
         <f>IF(_tag_month_all!AB31="","",_tag_month_all!AB31)</f>
         <v/>
       </c>
-      <c r="AF34" s="22" t="str">
+      <c r="AF34" s="35" t="str">
         <f>IF(_tag_month_all!AC31="","",_tag_month_all!AC31)</f>
         <v/>
       </c>
-      <c r="AG34" s="22" t="str">
+      <c r="AG34" s="35" t="str">
         <f>IF(_tag_month_all!AD31="","",_tag_month_all!AD31)</f>
         <v/>
       </c>
-      <c r="AH34" s="22" t="str">
+      <c r="AH34" s="35" t="str">
         <f>IF(_tag_month_all!AE31="","",_tag_month_all!AE31)</f>
         <v/>
       </c>
-      <c r="AI34" s="22" t="str">
+      <c r="AI34" s="35" t="str">
         <f>IF(_tag_month_all!AF31="","",_tag_month_all!AF31)</f>
         <v/>
       </c>
-      <c r="AJ34" s="22" t="str">
+      <c r="AJ34" s="35" t="str">
         <f>IF(_tag_month_all!AG31="","",_tag_month_all!AG31)</f>
         <v/>
       </c>
-      <c r="AK34" s="22" t="str">
+      <c r="AK34" s="35" t="str">
         <f>IF(_tag_month_all!AH31="","",_tag_month_all!AH31)</f>
         <v/>
       </c>
-      <c r="AL34" s="22" t="str">
+      <c r="AL34" s="35" t="str">
         <f>IF(_tag_month_all!AI31="","",_tag_month_all!AI31)</f>
         <v/>
       </c>
-      <c r="AM34" s="23" t="str">
+      <c r="AM34" s="37" t="str">
         <f>IF(_tag_month_all!AJ31="","",_tag_month_all!AJ31)</f>
         <v/>
       </c>
-      <c r="AN34" s="23" t="str">
+      <c r="AN34" s="37" t="str">
         <f>IF(_tag_month_all!AK31="","",_tag_month_all!AK31)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:40" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A35" s="19">
+    <row r="35" s="9" customFormat="1" ht="14.25" spans="1:40">
+      <c r="A35" s="31">
         <v>31</v>
       </c>
-      <c r="B35" s="22" t="str">
+      <c r="B35" s="35" t="str">
         <f>IF(_tag_month_all!A32="","",_tag_month_all!A32)</f>
         <v/>
       </c>
-      <c r="C35" s="33" t="str">
+      <c r="C35" s="36" t="str">
         <f>IF(_tag_month_all!B32="","",_tag_month_all!B32)</f>
         <v/>
       </c>
-      <c r="D35" s="33" t="str">
+      <c r="D35" s="36" t="str">
         <f>IF(_tag_month_all!C32="","",_tag_month_all!C32)</f>
         <v/>
       </c>
-      <c r="E35" s="22" t="str">
+      <c r="E35" s="35" t="str">
         <f>IF(_tag_month_all!D32="","",_tag_month_all!D32)</f>
         <v/>
       </c>
-      <c r="F35" s="23" t="str">
+      <c r="F35" s="37" t="str">
         <f>IF(_tag_month_all!E32="","",_tag_month_all!E32)</f>
         <v/>
       </c>
-      <c r="G35" s="25" t="str">
+      <c r="G35" s="39" t="str">
         <f>IF(_tag_month_all!F32="","",_tag_month_all!F32)</f>
         <v/>
       </c>
-      <c r="H35" s="23" t="str">
+      <c r="H35" s="37" t="str">
         <f>IF(_tag_month_all!G32="","",_tag_month_all!G32)</f>
         <v/>
       </c>
-      <c r="I35" s="35" t="str">
+      <c r="I35" s="48" t="str">
         <f>IF(_tag_month_all!H32="","",_tag_month_all!H32)</f>
         <v/>
       </c>
-      <c r="J35" s="22" t="str">
+      <c r="J35" s="35" t="str">
         <f>IF(_tag_month_all!I32="","",_tag_month_all!I32)</f>
         <v/>
       </c>
-      <c r="K35" s="22" t="str">
+      <c r="K35" s="35" t="str">
         <f>IF(_tag_month_all!J32="","",_tag_month_all!J32)</f>
         <v/>
       </c>
-      <c r="L35" s="35" t="str">
+      <c r="L35" s="48" t="str">
         <f>IF(_tag_month_all!K32="","",_tag_month_all!K32)</f>
         <v/>
       </c>
-      <c r="M35" s="33" t="str">
+      <c r="M35" s="36" t="str">
         <f>IF(_tag_month_all!L32="","",_tag_month_all!L32)</f>
         <v/>
       </c>
-      <c r="N35" s="36" t="str">
+      <c r="N35" s="49" t="str">
         <f>IF(_tag_month_all!M32="","",_tag_month_all!M32)</f>
         <v/>
       </c>
-      <c r="O35" s="23" t="str">
+      <c r="O35" s="37" t="str">
         <f>IF(_tag_month_all!N32="","",_tag_month_all!N32)</f>
         <v/>
       </c>
-      <c r="P35" s="23" t="str">
+      <c r="P35" s="37" t="str">
         <f>IF(_tag_month_all!AL32="","",_tag_month_all!AL32)</f>
         <v/>
       </c>
-      <c r="Q35" s="23" t="str">
+      <c r="Q35" s="37" t="str">
         <f>IF(_tag_month_all!AM32="","",_tag_month_all!AM32)</f>
         <v/>
       </c>
-      <c r="R35" s="22" t="str">
+      <c r="R35" s="35" t="str">
         <f>IF(_tag_month_all!O32="","",_tag_month_all!O32)</f>
         <v/>
       </c>
-      <c r="S35" s="22" t="str">
+      <c r="S35" s="35" t="str">
         <f>IF(_tag_month_all!P32="","",_tag_month_all!P32)</f>
         <v/>
       </c>
-      <c r="T35" s="22" t="str">
+      <c r="T35" s="35" t="str">
         <f>IF(_tag_month_all!Q32="","",_tag_month_all!Q32)</f>
         <v/>
       </c>
-      <c r="U35" s="20" t="str">
+      <c r="U35" s="32" t="str">
         <f>IF(_tag_month_all!R32="","",_tag_month_all!R32)</f>
         <v/>
       </c>
-      <c r="V35" s="22" t="str">
+      <c r="V35" s="35" t="str">
         <f>IF(_tag_month_all!S32="","",_tag_month_all!S32)</f>
         <v/>
       </c>
-      <c r="W35" s="22" t="str">
+      <c r="W35" s="35" t="str">
         <f>IF(_tag_month_all!T32="","",_tag_month_all!T32)</f>
         <v/>
       </c>
-      <c r="X35" s="23" t="str">
+      <c r="X35" s="37" t="str">
         <f>IF(_tag_month_all!U32="","",_tag_month_all!U32)</f>
         <v/>
       </c>
-      <c r="Y35" s="23" t="str">
+      <c r="Y35" s="37" t="str">
         <f>IF(_tag_month_all!V32="","",_tag_month_all!V32)</f>
         <v/>
       </c>
-      <c r="Z35" s="23" t="str">
+      <c r="Z35" s="37" t="str">
         <f>IF(_tag_month_all!U32="","",_tag_month_all!U32/_tag_month_all!V32)</f>
         <v/>
       </c>
-      <c r="AA35" s="23" t="str">
+      <c r="AA35" s="37" t="str">
         <f>IF(_tag_month_all!X32="","",_tag_month_all!X32)</f>
         <v/>
       </c>
-      <c r="AB35" s="33" t="str">
+      <c r="AB35" s="36" t="str">
         <f>IF(_tag_month_all!Y32="","",_tag_month_all!Y32)</f>
         <v/>
       </c>
-      <c r="AC35" s="22" t="str">
+      <c r="AC35" s="35" t="str">
         <f>IF(_tag_month_all!Z32="","",_tag_month_all!Z32)</f>
         <v/>
       </c>
-      <c r="AD35" s="22" t="str">
+      <c r="AD35" s="35" t="str">
         <f>IF(_tag_month_all!AA32="","",_tag_month_all!AA32)</f>
         <v/>
       </c>
-      <c r="AE35" s="23" t="str">
+      <c r="AE35" s="37" t="str">
         <f>IF(_tag_month_all!AB32="","",_tag_month_all!AB32)</f>
         <v/>
       </c>
-      <c r="AF35" s="22" t="str">
+      <c r="AF35" s="35" t="str">
         <f>IF(_tag_month_all!AC32="","",_tag_month_all!AC32)</f>
         <v/>
       </c>
-      <c r="AG35" s="22" t="str">
+      <c r="AG35" s="35" t="str">
         <f>IF(_tag_month_all!AD32="","",_tag_month_all!AD32)</f>
         <v/>
       </c>
-      <c r="AH35" s="22" t="str">
+      <c r="AH35" s="35" t="str">
         <f>IF(_tag_month_all!AE32="","",_tag_month_all!AE32)</f>
         <v/>
       </c>
-      <c r="AI35" s="22" t="str">
+      <c r="AI35" s="35" t="str">
         <f>IF(_tag_month_all!AF32="","",_tag_month_all!AF32)</f>
         <v/>
       </c>
-      <c r="AJ35" s="22" t="str">
+      <c r="AJ35" s="35" t="str">
         <f>IF(_tag_month_all!AG32="","",_tag_month_all!AG32)</f>
         <v/>
       </c>
-      <c r="AK35" s="22" t="str">
+      <c r="AK35" s="35" t="str">
         <f>IF(_tag_month_all!AH32="","",_tag_month_all!AH32)</f>
         <v/>
       </c>
-      <c r="AL35" s="22" t="str">
+      <c r="AL35" s="35" t="str">
         <f>IF(_tag_month_all!AI32="","",_tag_month_all!AI32)</f>
         <v/>
       </c>
-      <c r="AM35" s="23" t="str">
+      <c r="AM35" s="37" t="str">
         <f>IF(_tag_month_all!AJ32="","",_tag_month_all!AJ32)</f>
         <v/>
       </c>
-      <c r="AN35" s="23" t="str">
+      <c r="AN35" s="37" t="str">
         <f>IF(_tag_month_all!AK32="","",_tag_month_all!AK32)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:40" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A36" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="27" t="str">
+    <row r="36" s="9" customFormat="1" ht="14.25" spans="1:40">
+      <c r="A36" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="41" t="str">
         <f t="shared" ref="B36:Q36" si="0">IFERROR(AVERAGE(B4:B35),"")</f>
         <v/>
       </c>
-      <c r="C36" s="37" t="str">
+      <c r="C36" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D36" s="37" t="str">
+      <c r="D36" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E36" s="27" t="str">
+      <c r="E36" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="28" t="str">
+      <c r="F36" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G36" s="27" t="str">
+      <c r="G36" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="28" t="str">
+      <c r="H36" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I36" s="28" t="str">
+      <c r="I36" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J36" s="27" t="str">
+      <c r="J36" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K36" s="27" t="str">
+      <c r="K36" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L36" s="28" t="str">
+      <c r="L36" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M36" s="37" t="str">
+      <c r="M36" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N36" s="37" t="str">
+      <c r="N36" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O36" s="28" t="str">
+      <c r="O36" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P36" s="28" t="str">
+      <c r="P36" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q36" s="28" t="str">
+      <c r="Q36" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R36" s="27" t="str">
+      <c r="R36" s="41" t="str">
         <f t="shared" ref="R36:AN36" si="1">IFERROR(AVERAGE(R4:R35),"")</f>
         <v/>
       </c>
-      <c r="S36" s="27" t="str">
+      <c r="S36" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T36" s="27" t="str">
+      <c r="T36" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="U36" s="27" t="str">
+      <c r="U36" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V36" s="27" t="str">
+      <c r="V36" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W36" s="27" t="str">
+      <c r="W36" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X36" s="28" t="str">
+      <c r="X36" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y36" s="28" t="str">
+      <c r="Y36" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z36" s="28" t="str">
+      <c r="Z36" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA36" s="28" t="str">
+      <c r="AA36" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB36" s="37" t="str">
+      <c r="AB36" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC36" s="27" t="str">
+      <c r="AC36" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD36" s="27" t="str">
+      <c r="AD36" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE36" s="28" t="str">
+      <c r="AE36" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF36" s="27" t="str">
+      <c r="AF36" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG36" s="27" t="str">
+      <c r="AG36" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH36" s="27" t="str">
+      <c r="AH36" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AI36" s="27" t="str">
+      <c r="AI36" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AJ36" s="27" t="str">
+      <c r="AJ36" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AK36" s="27" t="str">
+      <c r="AK36" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AL36" s="27" t="str">
+      <c r="AL36" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AM36" s="28" t="str">
+      <c r="AM36" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AN36" s="28" t="str">
+      <c r="AN36" s="43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="B2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AM1"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AK1"/>
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:39" ht="54">
+    <row r="1" ht="54" spans="1:39">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>47</v>
@@ -6822,129 +7408,130 @@
         <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE1" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF1" s="17" t="s">
-        <v>85</v>
+      <c r="AC1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B1">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>